--- a/binary_data Sundar Pichai.xlsx
+++ b/binary_data Sundar Pichai.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00&lt;\x00&lt;\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfcJ\xf1\xcd\xf7\x89|U\xe3\xb9&lt;&lt;\x81\x9eV\xbc\xf2`\x8c\xaeF\xd2z\xd7\xd7?\xb3\x17\xec\x8d\xe0\r\x16\xce\xdb\xc4\xde*\x81\xafo\xe1PZ\xdev\xdc\x8aO\xfb\'\x8a\xfa\x7fB\xb1\xb2\xb4\xb1E\x1bR\x15\x1bcU\xfe\x11\xe9\xf4\xe9I\xe2khml\x05\xdcm\xb8\xaa\x9c\xbf\xf1m\xf4\xcf\xa5x\xe7\xc4\x0b\xa9o\xac\xeemf\x8c4N\xc1\x94H\xbb\xb6\xfe}+\xc1\xbe#\xb2?\x9bn\xaf\x96Q\xcf\x18\xcdy\x0e\xads4\xd7[^\x0c\xeep\x03c\x9e+\xa7\xf0\xed\xbd\xd4\xfab\xbcp1\x1b\x88\x06\xb5u\xcf\x87\xb7~\x15\xf8\xe7o\xa9\xdf\xe9M\x12\xad\xf8\x0c\xc7\x80Fz\xff\x00\x9fZ\xfa\xef\xe0\x95\xed\xa5\xcc\xd7\x17R\xcc\x88y\x01\x10\x8f\x98\x01\xc15\xe9\xf6H/\xb4\xed\xb2\xf9B \xa4\x8d\xf8\xc9&gt;\xd8\xac\xfdb\xf6$\xb2h\xa4\xb7\x0c\xde^#@N\x00\xef\x9f\xd2\xbcc\xc6\xf7\x97\x11\xcfq\x02\xc4\xff\x00?\n\xc1\xb8\xaf\x11\xf8\x84wK,\x91\xd9\x96f\x05\x18\xf6\xcdyW\x89.\xa3D\x8e8\xad|\xb7\x0f\x82W\xf5\xad\xaf\x0ejz\x89\xd3\x17\xec\xf7\x05\x17q\xf9U\xb1\xfdk\xea/\xdao\xe1\x16\xa9\xab\xdc\x9f\x15\xe9V\xa2EI7&lt;P6Ys\x8cs\xdf\xa1\xae\x0f\xe1\xd7\x8b\xf5\x1f\r\xeb--\xc8\x95U\x80\x8c\xc37c_D|2\xf1\xde\x97\x7fi\x0c\xb7l3\x13\x0f8+\xe11\xf4\xe8zU\x9f\x13\xf8\x86\x06\xd4%\xbcY\xbc\xcbg,6\xc6y\x03\xb0\xfau\xaf8\xd7\xe2\x92i\\y\x9b#bH8\xaf3\xf1\xfe\x83s}\x03Ai\n2\xa1g-\x1a\x00\xc7\xa7z\xf0\xaf\x1b\xe97q\xc8U h\xd4I\x96l`\xd5}\x1cH\xd6_\xb9\xbcu\x1b\x8f\x01\xc8\xaf\xd1-\x07\xc4\xbe\x12\xf1.\x93\x1d\x95\xe9\x13\xb9P|\xa5\x84~\xa4\xf4\xaes\xc4\xdf\xb3o\x86\xb5I\xdbV\xd3\xe1\x11Op\xc5\xccHs\xb4v\xfaw\xa8t\x8f\x85\xd2\xf8n!`9\xca\xb1\x00\xf4\x04z\xd5\xb9\xec&amp;\xb3\xb5h\xbeS"\xc7\xc0^\x86\xb9m^\xfc\xb5\xc0\xb2\xbf\xf2\xd08\n\xa8\x067g\xa9\xcfn\xdf\x9dZ\xd0|/a\xe2{7\x82\x1b\x08\xa2\x9a\x16(2rq\xd8\xfb\x83\xdf\xf0\xaf"\xf8\xfd\xf0+T\xd2\xfe\xd3}g\xa7\xca\x91\x95\x0c\x1d\xcf\xca\xe7\xf8\xb0;\x0e\x9f\x9d|\xfds\x0c\xda|\xedk\x0b\xb4!O(N9\xaf\xb0|\x0b\xae\xdc\xe9\xd7^L\x8f\xbfk\r\xe4\x80~\x9dk\xda\xbc\'\xe2\x03{\x14S=\xd3\xb7#\x08\x1f\x1cw\xe9[\xda\xa6\x95\xbe_8[+\xc6\xcb\xbbk\x1f\x99\xb3\xdb&gt;\xdf\xd6\xb9-oK\x84\xbc\x864\xf2\x98\x03\xe5\xa3\x8cc\xd7\x91\xd7\xf1\xaf\x11\xf8\x97s6\x93\xa8\x1b\x8b\x86\x92F\x0eq\x13\x9c+\x01\xe9]\x7f\xec\xf3\xaeK\xaaL\xd7\xd6\xd0+\x17FY-\x84\x9f&gt;\xdf\xf6\x0f\x7f\xa5zW\x89|\x17\xa5\xf8\xd7K{;\x98\xc3\xca\xd0\x1d\xec\x00\xe1\x07Ee\xe8\x18v#\xaf5\xf0\xf7\xc5\xcf\x85o\xa5x\xf2\xf6\xca\x0b\x1d\xd1\xab\xfe\xec\xb4\xad\x909\xeb\xef^\xc3\xe7\xc5mr7Z\xacX\x98\x87\xc1\xea;Wg\xe0\x1f\x17,w\xb1\xac\x13\x90U\x8e\xc8\xc0\xfb\xc3\xb8\xcfj\xf6\xed\x13\xc6-\xaaiq\xdb\xfd\x81w0\xc3\xa9}\x98\x03\xbe\xe1\xd7\x1f\xd6\xb3\xfcp\xf0\xdc|\xd6\xd6I\x1b\x14\x004)\xb5\\\x0e\xf8\x1d\xfd\xfb\xd7\xcc\x9f\x1f\x1ax\xef\x1aO)\x98\x06a\xe5\xa7O\xbaz\x8f\xc2\xb4\x7fe\xddR\xcdne\x82\xf6\'XB\xe6 \xed\xb5L\x84\x0c(#\x95\'\xb1\xafX\xd2\xbca&amp;\x8f\xe2\x89\xed/\x90\xa93c\xc9\x98\xf2\xbe\x99\xecH\xec\xddNj\xb7\xc4O\x84o\xe2\x7f\x12\xbe\xb3\xa1\xe9V\xfeL\xd1)&amp;F\x19-\xdc\x9a\xf3\xcf\x11hs\xcbrf\xb9\x94B\xaa\x0eP\xa6r~\xb5\x93\xa5_\xc1\xa7O\xe6+\xeeTn\x89\xde\xbdo\xe1\xdf\x8b|\xd8\x85\xba\xaci\x1b\xa6v;\x03\xd3\xf9W\xa1k\xb7\x17z\xe6\x8e\x97\x16\xb3+&lt;v\xf8\xf92\xd8\x1e\xe4\xf2\xbe\xd8\xaf\x9a&gt;9i\x17V\xf3Mu4\r$g\x9d\xcf\xd0u\xce\x0fS\xd7\xbds_\x00\xf5\xcb=;Z\x1az\xddl\xf3\xa4%\x96A\xf2\xed\xfe\xef\xe3\xfd+\xd1\xfe)\xcfyo\xabE}g\x07\x93\x19U*\xbb\xf7\x15#\xbe\xefC\x9e\x9e\xd5\xd2x;\xe2\xad\xbc\xba\x14gZ\xb0Y\'RT\xba\xc9\xc1\x03\xa5V\xf1u\x9d\xbe\xa3\xa1\xe2D\xf2\xca\x12s\x0f\xcb\x9e\x9d{W\x95\xda\xa0K\xf7\x80\x1f\x94\xb9&lt;\x00?\x95w\x1f\x0e\xc0\x13\tUT2\x10\x01\xda\t9=\xc9\xeb^\xed\xe1mb\xea\xd3\xc3\xd2D\x89\x1bbg\xda\xec\x9f2\x80\x07\x01\x86\x08\x1c\xf4\xce:W\x88|\x7f\xd3\xed\xae\xc4\xe2e;\x980gS\x82\xd8\xc1\x19\xc7\xd4\xd7\x84\xf8NI-\xb5\xb6\x8a\'`\x13\xe6S\xb8\xe7\x83\xd3\xe9\xed_I\xf8\xdf@\xd3\x1b\xe1\x9d\x86\xaf\x1c\x029M\x96J\xa0\x1b\t`2v\x90Gj\xf1]9\xe5\x102\xa5\xc4\xa8\x04\x84b9YG\xe4\x08\x15\xff\xd9'</t>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x01}\x01}\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfc6.\x8c6+\r\xc3\xaf=i\xb3\x06 \x05\xf5\xa1HU!\x86O\xad \xea)r2~\x86\x98\xd1\xa39rq\x85\xe8O_jP\x8a\x88\x1aB0z\x02j9c\x11|\xca\xc0\x97\x1d\x01\xe9V&lt;9\xa6I\xab\xeaqXA:\xab\xcb*\xae\xf6l\x01\x92\x06I\xec=\xeb\xe9\xef\x0f$^\t\xf0\x1cVzl\xdeTP\xa3\xa5\xcc\xb1\x0f\x9eEf\xc3l=\xf8Q\x8cz\x8a\xe3u?\x88r-\xb5\xd6\x97\xe1\xa1\xe5C\x03\x19$%\xb3\xb9\x97\x80W\xd4\xe3\x9a\xe4\xf4\x87:\xee\xabu\xe2?\x18\xeam\xf6\x0b\x08\x9d\xe4\x96F\xdc\xf2\xb9S\xe5\xc41\xdc68\xaeBk\xeb\xef\x12\xea\xedyt\x86$\xdcB\xc6\xab\xf7\x14}\xd2\x07\xf3\xad\xb8\xa2\x8a\xc7\x06$3:\x00Xg\x18\xfa\xfaV\xb9\xf1\xc2\x89\x99.-\x84\xee\xb1\x81\x1cP\xcb\x84_\xa9\x1di\xfa?\x85u\xef\x13C\r\xb4\xda\xd9C,\xbc\xaa\xa3\x107\x1e9\xef\x8a\xf4\x8f\x85?\x05m\x1bV\x92\xcf[\xd7$x\x9a"\x17\xc9\\\r\xd8\xeas^\xab}\xf0\xb7F\x82\xe1F\x86eh\x1c,1\xb3\xc4w,\x98\xe4\x0f\xf0\xae\xe7\xc0?\x06|C\xe2\'\xfe\xc6m\xf2\xc4\xa0\x06b\x98\xdf\x9fO\\W\xbe|%\xfd\x83\xedui\xbe\xd5\xaeM%\xad\xb7\x9av\xb4n\x1bp#\x9e+\xdc\xbc%\xfb\x1a|$\xd3]\x84\xabp\xe6\xde2\x14\x00C1\xc7\xa5uv?\xb1\xe5\xb6\xb5$\xb6\xfe\x1a\xd0m\xf4\xed;\x00H\xf3\xc5\xbaY\x0f\xe3\xc8\x07\xd6\xbb\xed\x07\xf6L\xf8Y\xe1[K{;]6;\x8b\x98\xd9Y\xe4h\xc1\xcbz}+\xbf\xf0\xf7\xec\xb5\xe1\x0b\xeb(\xee\xef\xf4\xfbeU\x04\xacq\xc2\x0b{\x0fj\xec4\x0f\x83~\x15\xd2m\x04\x96\xda\n"\xc4\xc1\x16Y\x10.Gr3\xd6\xba\x1d\x1bH\xb7\xd2\xe5\xf2c\xb0\r\x9c\x80\xa1\x07E;A\xfa`\x93\x9a\xe8e\x92;kO\xb1\xd9\xdb\x04y\x10\x9c\x05\xcex\xaeRe\x81\xed\xe5\x8ex_\xed\x11\x07+\x1a\x8e\xad\x8e\x07\xe2k/\xc4z/\x88\xf5\x0f\x0f\xdf,\xb2\xa8\x9e\x05\x12E\x14S\x0f\x9d@\xce\xd0{\x13\xd2\xb0\xb4(u\x8dSG\x8e\xf7\xc4\x11\x94\xbc\x8a1\x14\x96\xf3\x8c\x92\xbb\xb89\xf6\xaa\x1e0\xf0\xbd\xa8\xb2_\xb0\xa9\xc3\xc6\xce\x85\x0eK\x109\r\x8a\xe2\xf4\xff\x00\x0e\xff\x00hj\xedyu3\x99f\xb9\xc4\xc5\x06U\x10\x0es\xe8qWN\x81\xfd\x97t\xdeK\t 2&gt;\xdd\xe7\x18b\xbc\x13\xed\x9a\xf3\xef\x89\xfe\x14\xb1\xf0\x8e\x9f6\xaf\xe7\xbd\xc2o\xdf*G\x19\xf93\xc9\xc1\xef^\x0b\xfbCh\x9a&gt;\xad\xa2i\xfe\x00\xb7\x92-&gt;\xc3Z\x89\x8e\xa7x\xf8\xc6\xd2\xa5\x80\xc9\xe1A\xd8\xa3&gt;\xe2\xbeI\xf0\xa6\x9f\xa7x\xe3Y\xb7\xd1\xd8\xc8.o.n\x1b\xcb\x93\x8d\xd1\xecm\xaa=\xfe\\\x8a\xcb\xf8\x13\xae\xeb\xde\x0f\x8f\xc6\x1f\r\x96\xd8Mm\xaah\xf7\x02\xd5Cdy\xb1I\x1c\x8a\xd9\xec\x1bk`\xfa6j\x92\xf8\x1e\xcbG\xf8\x8d\xe2\x9bMM\xe0\x8a\xdc\xc6?\xb3\x04\x92\x02\xcc&amp;E%3\xf4`\xc3\xd8\x83\xd2\xbc\xe3J\xf1\x85\x96\x93\xe3S\xe1\xf9#"\xce\t\xae\xe2\xb5\x04r\xbb\xbf\xd5\xe3\xdbw#\xe9Y\xba\xd4\xf7\'P\xd6-\xe3\xb6\r\x06\xa9u%\xdcm\xd7\xcbUO\x94\x0fm\xc4g\xebL\xf0\x06\xb1qm\xabi\xde%3\x046\x1a\x84W2B\xf2\x1c)12H\xa5\x7f\x87\x80k\xb7\xd6\x1b\xc4\x12\xf8\x8f\\K\x9de\x155\x1f\r$\xcb\xe6\xb3.\xe8\xe1l\xa8\x19\x1c\xc8&lt;\xcc\x11\xd4\x049\xe9\\d^!\x9a\xff\x00\xc2v\x1e\x1d\xb3\xb2\x88^\xe9\xa8\xebo&gt;\xcc\xb3d\xe4\xee=\x8fq\x9a\xde\xf0\xe7\x8d\xbc\'\xa5\xf8[\xfe\x13\xb9\x83\xb5\xdd\xae\xbbg=\xe3\xb0\xcb\xa1Hv\xb8\xc7\\1 \xfb\xd3o|\x0bse\xe1\xbd.\xedt\xd8\xcd\x96\xb9h\xb7\xa2\xe6E;\xe11O,\x12\xa6\x0f\xddb\xdbx\xeb\x92=k\xb9\xbf\xf13x+X\xf0\xfd\xc5\x85\xe0\xf3WP\x16\xd7jHW\xf2\xdc+F\xde\xc0\x06a\x9fZ\xe2\xbc}\xa0\xdcZx\xfa\xdb\xc7q\xeaB8\xf5O\x12}\x92\xe0B\xcb\x8d\xd2 \xdc\xa0w\x1b\x8a\xb8&gt;\xb84\x9f\x1f\xb5\xbb\xbd{[\xd3\xae[M\x11&lt;VF)\xc2(\x1f\xbcW!\x87\xd0`~9\xaf\x8d\xdc\xa8!\x963\x93\xe8)\xbefN\xd2y\xf4\xc5\x04\x10v\x91\xcf\xa5\x03\x91\x91J\x01\x07$Tra\xa4\x03#\x96\xa1\xd81\xd8\xdd\x052S\x04\x92\x05\x1b\xb2W\x19\xae\xc3\xe1\x87\x85\xade\xd6m$\xd5\x06\xe8\x9a@\xac\xa8y&lt;\xf2=\xab\xdf\xfckh\x87@]3Lm\xa7\xc9\t\x1cDp\x99\x18\x04\x9fZ\xf1?\x11\xbc1\xdd\xaf\x86\xb4\xbcFFZ\xe6\xe7wF\xf4\xac\x8f\x11\xea\xf6:\xcd\xeai\xba.\xf1ik\x18\xf9z\x19\\uf\x14\x9a~\x94\xb6\xe3~\xa5(W?4{\x0f\xf3\xab\x17:\x9c\xedk5\xb5\xb6\x03I\xcb9_\xe1\x15&amp;\x89\xa3\xae\xc1s+gwS\x9cW\xab\xfc.\xd1\xaduk\x87\x1a\x842\xad\xbc\x08\x03\xf9n2\xa4\xf4\xce:W\xbc\xfc*\xf0\xcf\x87t9Z=+E\x9a\xee\xfa\xed\xd4\xc0\xce\x0b\x04Q\xf7\xab\xe8_\x86?\x035/\x1a\xb2\xc5\x07\x85&lt;\xf6x\xc4\xdf ?+\x9e1\xecE}/\xf0\x93\xf6V\x7f\x0ci\xf1C-\xb9fl2\xc30\x01\x95\xbf\xc2\xbd\xdb\xc0_\x0c%\xb5\xb0M4\xc4\xae\xaa\xa7w\xee\xb0#\xf7\xcdz\x1e\x83\xf0\xff\x00\xc2\xfe\x1b\xb3{\x9b\x8bq&gt;\xe9X\x9c\xa6X\x9d\xbd\x07\xb5\x10X\x8dFP\xf1\xd8\x15\x866\xdb\xfb\xb3\x82\xfe\x9f\\V\xef\x874M=f/4r*\xe7\x91!\x1c\xfbf\xbbo\x0c\xe8ii\'\xda\xacm\xb7\x00wa\x8f\xf2\xad\x18\xa1\x8a&amp;D\xba\xb6V\x0e\xe7+"\xe4\x8f\xa6;\xd4W^\x1f\xbb\x86f\xd44\xab\x94\xdf\x82p\xf8\x18\x15\x97u&amp;\xbe"\x8do\x19\xbc\xd1\x9c\x18\xf1\x8cVu\xbd\xed\xcc\xd3-\xaf\xd8\t\x96v\xc1\xf31\xcdGw\xa3\xa3\xc2\xf6\xf7p\x80\xb3\x13\xb5\xa2\x07*\xfd\xb3\xf8\xd6-\xcaA\x14~E\xb1@\xfd\x1d\xdc\xe0\x02=k\x8a\xf1F\xa9\xe6\x99\xe0L\xab\xb6W\x18\xe1G\x7f\xce\xb2lt\xab{\x13swe2:\\JH\xda\t\xd86\xf3\xf4\xcdW\xd66K\x13\xda+\xbe\xe9X*\x85\x19&gt;\xf8\x1d\xea\xad\xef\x87\xa1\xd4"\xbb\xd1\xf5v\x13\x83\x10f\x05r\x04x\xe7\xf4\xaf\x94\x7fl\xabI\xf4\xdbK\xeb\x0bKeif\xd3\xd5,Dc"5\x11\xb0=:\x11_\x19\xe9z\xe6\x9d\xa0\\\xe8\xb3\xd9YF\x97w6vk{\xbc\x1d\xd0JgrN:\x8f\xdd\xe4\x1f\xadq\xbe$\xd5\xaf|;q\xa8G\xa2\xdd\xc2.\xec\xaed\x84=\xbf(\xf0\xe4\xae\x1b\xd8\x80?:\xab\xa5\xf8\xcf\xc4\xbe0\x9a\xef^\xb6\x8e9$x\xe1w\x8e5!_b\xb2\x95\xc9\xff\x00e\x8f\xe0\x80\xd3&gt; \xf8o\xc1\x11x\xda\xcbX\xf0{\x1b\xeb8\xe4S-\xcc\x9c;\xb3[\xa0te\xfe\x1d\x85d#5\xbf\xe3\xd8t\xcf\t\xea\xf6\xf2X\xe8\x90$7\x9ax\xba\xb3\xbb\x9b\x00\xbd\x9c\x915\xbc\xc8\x14\xf5!\xc0l\x8e\x98\xae\'\xe1\xa7\x82t\xcf\xf8L.a\xbb\xb5\x94\\I\xacY\xad\x97\x96r%\x86d\x90\xb9&gt;\x84nQ\xf5a\xebL\xf8\x93\xe2}SJ\x92?\x06Geor\xb6:\xcb\xbd\xa5\xc2\x9c\xf9\xb0L\xb9\xf2\xd9~\xf1\xc1\x1d\xb8\xadO\x01\xe9z\x07\x82\xf5\xd9\xef\xf5\x9d-\xeeml\xeca\xb8\xb8IF\xe0\x12y\x1dX\x809\x04\t\x10\x0c\xf7\x02\xb0g\xb1\x83\\\xb5\x9bE\xb2\xd3\xe0X\xb5Y\x82\xc0\x11p\x19Y\x11A\xcf\xa8\xc8\xfck\xba\xd4\xfcg\xa7\xc1\xe0m\'\xc0~#\x8d\x01\x85b\xb7\x8fP\xce&lt;\xe4&amp;%\x9aob\xea\xa7#\xf8X\x93\\O\xc5\xdb=n\xf6\xf2h\xa6u\x97\xec\xb3\xa6\x91 \x89H\x1edp\x99\x12Un\xfb\x84}{\xee\x1e\xb5g\xc6\xba\x86\x9d\xfd\x95~4\xcdP^\xc7$6\x1a\x9d\xb9\xf2\x89\xf2\xe5@\x04\x84c\xa3&amp;\xe4\xe3\xbe\xda\xe8n\xfe"xwr\xb7\x8a#\x9aAs\x1a\xdd\xdb&lt;0\x80\x0f\x9a3&amp;3\xd5w\x86\xc1\xaf\x86\xd1$Y7n\x1dx$\xf1P\xb8W\x95\x82\x92\t\x1f1=?\n\x99\x925\xc7\x94NPrZ\x90\x80\xbf!8\x04g4\x06\xb9\x8f\xe5@\n\xff\x00\x16}*9\x1dy\xc2r\x06i\xb8\xdc\x01&lt;\x13\xd34\xc5\xc2&gt;\xd7\x19-\xc2\xe7\xbdz\'\xc1MN\xc5&lt;gcy{\x0byy| \xe7k\x01\xc3\x11\xe9\x9a\xf4\xdf\x88_\x10\x9d\xad\xa6\xd3t\x8d\x8a\xa2#\xe6K\x90^\\\x8f\xe1\x1e\x9e\xf5\xe1\xf7\xda\xbe\xa3\x1c\xd2[\x87Uw\x97qn\xa4\x8c\xf4\xa3\xc3\xf70\xc7\xa8\x96\x94\xfc\xbe[nb\xbc\x13\x8e\x99\xad1\xa7^=\xe0gb\xe1\xcf\xc8\xa3\xf9V\xc5\x97\x82\xaf\xee\x18]5\xb1\x8dB\xe4n\x1d\x7f\xc6\xbb\x1f\x03|/:\x8a\x90\xd9p~c+\x0c(\x15\xee\x9f\x04\xbe\x0b\x0b\xeb\xc8\xb4\xad:)d[\x94\xdcs\x19\xc9\x19\xc7\xcc{{\x1a\xfa\xb7\xe0\x7f\xec\xfdwq\xaf&amp;\x9b\xa4\xe8\xd2\x04\xb7\x97\x1b\xdds\xbc\x11\xce=E}\xd7\xf0\x87\xe1~\x99\xe1\x0b\x04\x82\x1bX\xa0\x0b\x12\xfc\xc8\x83\xcc/\xed^\x95\xe1\xef\x0c\xc5$\xf1J\xf2\x19\x99\tm\xf2\x90H\xc7n+\xab:ki\xd6\x12\xcbnXH\xcc\n\xa8\x03\x9f\xc3\xd2\xa4\xb7\xd2\xe0\x86\xc7\xed\xb7V\xe5$f\xf9\x89o\xbd\xed\x8e\xd5\x1f\x94c\x8e\x08\xec\xe2\n\x9b\xf76F\t\x19\xadk\x0b\x18\xe4\x06\x13m\x82\xcaH\xc9\xae\x83J\x8e\xea\x18H\x8f\x80\x89\xd9\xebR}6\xfaE\x12\xa4\xea\x14JO\'\x9c\x11\xc9\xa0-\xc4\x00F\xf2\xf0\xfcn=&gt;\xb5E\xeen\xad\xe5-&lt;\x8a\xdf\xc3\x1eG\x07\xd2\xb0"\xb8\xbc\x87\xc4\x0fp\xd1\xed\x86F\x06&amp;\xc7(s\xda\x86\x9a/\xb5I\x13HQ\xa4\'l\x99\xce\xe3\xf4\xedX~&amp;\xb5D\x99c\xd9\x84n\xa0u&amp;\xbc\xff\x00X\xd3Vk\xcb\xbb\x8b$dh\xd8\x072\x1e\x05Q\xd4n!\xb4\xd3\x1aw\x00o\x89\x82\xbep7c\xadW\xd3\xb4{\xb8l\x12\xed%\x12\\C\x02\x06,}\x1b,\xdfLw\xaa\x12\xc5xtY\xe67\x18{\x88\xf6\xb31\xc1\xce~\xed|\xa3\xfbIkz\x83\xcd\xabj~vV\xde\xda[4EM\xcc\x922\x10&gt;\x87\x90k\xe1\xcf\x14x;V\xbf\xbd7V\xf2l\x94jm\t\x96E-\xb9\x18\xeeV\xe3\xa0\x03#=\xb3PO\xa1\\\xf8;R\xd4\xfc7\xa8\xe9N\xd1\xeam$+y*\xf9\x81m\xce6\x11\x8eU\xf7\x10y\xed\x83Y\x97\x7f\x0e\xfcW\xe1_\t\xe9SY\xdb;\xfd\xa6K\x81\x0bE\x19\xf9\xc4ga\x07\x1dN\x1b\x91\xefW&lt;\x14&lt;).\x93\xaf\xc35\xc4V\xd6\xef=\xb0\x85\x99w9\x92KK\x80O\xb2\xef\x1bs\xebT~(\xc3\x17\xc4\xcf\x10\xf8F\xc7\xc1w\xe6[\x93\xa1&lt;E\x14\x12\x82\xe8\xae\xf6\x87=\x00\xc18\x1e\xb52&gt;\xa1\xe0\x1dr\xe6\xf3O\xb7o\xb7\xe96z}\xc5\x9b\xb1\r\x19\x94\xb7!\x8f\xb6W\xfe\xf9&gt;\x95\x93\xf1\xd3u\xaf\x89\xfc/\xaf\xe96E\x8d\xc25\xeb?\x95\xf2\x9d\xac\x17\xe9\x80["\xb5|`\xfa\xce\xad\xa3i\xde#hLV\xba\xb5\x90\x03 )h\x9ao-C\x0f\xf6Y7~\x15c\xc3&gt;\x03\xf0\xfe\x91\xa5X\xe9\xd7\xfa\x9f\xd9\xae,"\xba\xb8\x17H\xc1\xbc\xed\x97\nB\xaf\xa9\xda\xcb\xc0\xf4\xaa\x1f\x16&lt;9\xa7k?\x0e|/\xe2)#\xb8\x8b\xceI\xa2y\xd4\xf4.\xcc\xca\x1c\x7f\t\xf9\x19py\xcf\x1dk\x1f\xc1~\x1f\xd7&lt;A\xf1\x1bI\xd7|D#\xbcH\xef\x02\xea\xaa\x92\xfc\xb2\x84\x868\xc7\xcb\xee\x80\r\xdf\xefz\x1a\xd6\xf0\x1f\x87mt\xaf\x8bW^\x15\xd6\xacY\x8c\xf6W\x166q\xaae\xb7\x98\x1dQU{\xe5\x820?CO\xf1g\xc3;\xbf\x18|-\xf0\x17\x8a|9\xa3\xc9u|49t\xeddyl\xc4Ko3\x05l(\xe02\xc9\xf8\xe2\xbe\x1fpU&lt;\xbc\x13\x9e2;SZ%(\xab\xd3\xd4\x9a\x14\x17 \x91\xf7\xbe\xf7\xb6)\x93\x03*\xb4}884\x91\xa1\x8b\x82\xecr\x98\xa1\x19V\xeb\r\x8c\xe3\xee\xfa\xd0D\xd2H\\\xa0\n\xa3 S\x1d#\x8c\x96\x95\x81\xdb\xf7@\xeb\xcdixg\xc4W\xba\x05\xf2^i\x98/\x1a\x90\x8c\xdc\xe0\x9e\xf5\xea\xe9\xa3\xfd\xbf\xc1s\xeb\xb2\xca\xb2\xb11D\xcc[\x04;\x1e@\xf7\x19\xe9\\\x87\x88&lt;-\x05\xa5\xbf\xf6\xfc\xfa\x82\xc7\x1c\xff\x00*[\xae\x0b\xa9\x1e\xddFk#\xc3\xd7+\xa4k1\xdf\xc5m\x18d\x91[\xcb\x93\x91*\x83\x9c\x1fL\xf4\xafU\xf8a\xe0\xd7\xf1\xe7\x89\x97W\xb1\xd3\x90\xc1-\xce\x04$\xfc\xa5\x8e\x06\x07\xb6k\xe9+o\xd9{M\xfe\xcb\x8d\x8e\x99-\xd5\xeb2\x08-!C\xc3\x9e\x83\x8e\xbc\xd7\xa3\xfc6\xfd\x8c\xf5K\x08"\xbf\xd5l\xbc\x8b\x92H\x16\x9b\xc7\xcaz\xe1\x87o\xc6\xbe\x9b\xf8\x13\xfb&gt;\xc1c\xac\xc1i\xa7\xf8X\xfc\xa4A3\xc8\xbe\x9c\xe4{f\xbe\x98\xf8w\xf0{H\xf0%\xc4\x12\xc7e\xfb\xe9~wdL\xa8\x04\xfa\xf6\xafO\xfe\xce6\xed\x1c\x10\xa3\x06\x8c\xab;\x02\x0e\xdez\x1f\x7fj\xdd\xf0\xed\xb0Vi\x9d\xf7\x86\xe3\xee\xe3\x15\xa9|V+e\xba\x8c\x96\xe7\x18\x1c\xd3\xe2\x11\xdcNQY\x99If9\xe828\xfdiZ5\xfb|\x88c;%\n"R1\xb7\xd6\xba\x0b{;xnK\x14P"U*K\xfd\xef\\z\xd6\xd5\xa5\xc5\xacn\xb7\x86=\xb0\xb2\xe3\x07\x8c\x9a\xb7\xf6\xdf\xf4\xc5E^\x00\xc8\\t\x14\xf9e\x82c\x13\xc9&amp;AV\x00"\xe6\xb2u+\x1b\x89\t0\xcf\xb9\\\x10\xaaEc\x9f.\xdaSp\xcf"\x95\xe1\xa3h\xcf?Ja\xb1\xb4\xb9\xb5uTa*6\xe4lu\x15\x97\xa8G"N\x0c\xca\xa5Td\xe7\xa9\x15\xcbk\xda:\xc7r\xd2\x07_1\x94\xf4?+\xe7\xa7\xe5\\&gt;\xb5g-\xd4Kkm#:N\xc7(S\xee\x11\xdb\xdb5V]c\xfb*\x14\xb9\xb8\x98\x00\xcb\xe5\xba\x83\xd0t\xe6\xb1&lt;I\xac\xdb\xdc\x81\x1c\x17\xad\x1cc\xe7W\xc6\x17p\xe7\x19\xaf\x9d\xfe,xb}cW\xd5\x1d\x184z\x8c;&lt;\xb6O\x969\xd5S\x0e\xde\x80\xe3\x19\xf6\xaf\x98\xbe"\xfc2\xd6&lt;;oq\xae\xd8\xc8\xadiq#\x99\xe1B\x01F\'\xcbe\xc1\xe7\xe5\'$v\xaf&gt;\xf8w\xa4\x8f\x10\xf8\xd6d\xd5!\x9eG\x8a+\xcbx\xd1\xdf\x935\xbcO&amp;F{\xed\x8c\x1a\xbf\xe0\x8f\x10\xea\xfa\xff\x00\xc0\x1d6MV_\xb4\xc7\xe1\xcf\x1cj0E$\xf8\xf3646\xf3\x90q\xd7\x00\xb1\xfc\r\x1ag\xc3\r7]\xf8\xad\xe2\x1f\x08\xe8\x88/l\xfcQje\xd3e\x0b\xb4,\xb0J_\x1c}\xdd\x81\xc8"\xbc\x97\xc0\xfe-\x87\xe1\x8f\xc4o\xec\xdd~X\xd9\xec-P\xd9\x97 \x08\xe7Uu,\t\xeb\xca\x91\xf5\x04V\xb7\x8d|A\xa8[Y\xdb\xdb\xda\xb4I$Z\xb1I\xa2\x94\x8c]2FdL\xb1\xfe\x1d\xd8\x04{\xd7O\xf1SP\x98\xf8#\xc0\xde&amp;\xd54\x88a\xb8\xd3X\x86\x84&amp;VHf\x05\xca7\xb8\x04q\xfe\xcdbx\xfbH\xb1\xbc\xf8w\xa3X\xd9\xcb:\xc7*\xdf*\xc6\xd0\xb0?\xbb\x02P\x17\xdb/L\xbf\xd5nu\xbf\x84\xbaU\x84v\xf6\xe7T\xd2\xec\xee\x83J\x87\xfdbL\x8a\xca\xc0\xf79^=\xc5p\x16\x9e7\xd7m|\x13ei\xa8Z\xc9qcr\x16K\xb4 \x93\x11v\x12# \xf4\xc8\x90g\xd5\xb1^\xa9\xa2h\xcd{\xf0\xf6\xf3\xc5\xbe\x1d\xdb\n\xc3\xa8\xd9\xcd\xe7?\x01#\x9e\x02\x9c\x9e\xd8h\xff\x00\xf1\xf1\xeb\\\xb7\x8c\x93^O\x8bv&gt;87;\x12\xdf_\xb3\x8bSXO\xcd\x13F\x01r\x00\xe8\n\x82\ru\xbaW\xc4\xc3\xe1\xedgS\xd0\x05\xd0\xb4\x9a\xdepd\x91\x97\t2\x9c\x85*\x0fO\xbas\x8fZ\xfc\xfc\xf3I\xe3\x9ex\xa2^Pb\x85`\xa3\'\xb0\xe9Q\xfd\xe2d&lt;`g\x07\xbd)\x9d\x18\x05\x03\x198\xcf\xa50*\xc8\xfeoB\xa7\x19=\xc5:I\xf6\xb0\x03\x91\x9e\xd5\x1b\xcb\x04\xa0\x90G\xd7\xde\xae\xf8zhmn\x92\xeeuYc\x8e@\xcf\x13p\x1c\x03\x9d\xb9\xf7\xe9^\x8d\x0f\xc5\x9b]SL\x93H\xb4\xb3\x8a\xc6\xdeK\xd6\xba\x11+\x02y]\xa1~\xb9\xe6\xb2|q\xa7j\xf0\xe9\xdaw\x89^\xcd\xd6\xdfXY\r\xac\xa2P\xc8\xc26\xda\xf8\xed\x90x&gt;\x87\x8a\xc0\xd2\x10\xddM\x92\x01rv\xa85\xfaU\xff\x00\x04\xe1\xfd\x95m&amp;\xf0\x1ax\xa7^\xd0V+\x87u\xf2\xf7\x8c\xe4\x1e\xe0W\xdbzo\xc0}\x1a\x1dR=G\xc3\xbaDQ\x8b\x93\x86r\x9b\xb6\x909&gt;\xd5\xd2\xe9\x7f\x0bc\x1ev\xbbu\x04O$%cPx\xdd+\x9d\xa0\xe3\xbe:\x9a\xf4\xdf\x01\xf8wL\x8f\xc434\x0b\xe5\xa5\xb0\x0b\x0e\x13\x05\xf7.\x19\xbf\x0fZ\xefmZ\xcbO\xb7\x8c\x17\xf3\x1d]\x97c/%W\xe6\x1f\x815gL\xd4c\xd4\x19fd9\x04\x97+\xd1\x88\xe9\xf9V\xbd\x95\xb4\xb1\xb9\xf2e\x18\x90q\x83\xd0\xd6\xbe\x9d\xa7D\xb6\xf0\x19\xee7g$\x159\x04\x8e\xd4\xad\xaa[Cx`\x11\xb6LH\x10*u!\xaa\xed\xb4PO \xba\x95\x82\xabp\x18\xf65\xb1\x14\x114 y\xa5\x9c\x10\x02\xed\xad\x15\x9d-\xad\xe3\xb5\x91\x15\xd5P\xee\xc7;\x0f\xbf\xa5"j\x16&amp;\x01+\xe5\xe5f\xc7\xc8x\x1e\x80\xfaf\xaa\xb6\xa8\xf6b\'X\xdb\xca\x8eL\xb2\xaa\xe7p\xcf"\x9f\x1c\xef~\xa9oh\x9bN\xe2\xccKr\xa2\xa91\x9bt\x90Mo\xf2\x96\xdb\xbd\xc63\xf4\xa8\xae|\xbbGUKbT\x0eH5\x89\xae\xc3c\x93q$Nw\x0e\x145q\xfa\xcd\xc8\xb6\xb6k\xf8\x98\x82\t\xf2\xd4\x1d\xd8\xc7z\xe2\xe4\x9eE\xbfwI\x9d\xc8!\xf2W\x00\x02z\x8a\xce\xd4\xac\xe4\xb9\xdbi\x14\xa1\xf7\xaa\x9d\xa4um\xdd&gt;\xb5\x85\xaa[\x89\x85\xc6\x9f$\x1b\xb6\x01\xe5\x85\x1ds\xc5y\xff\x00\x8c,\xad"I%x\xd0H\xe72\x03\xca:\x0e\xa3&gt;\xb8\xaf\x19\xf1\x07\x83--\xf5\x98\xb4\xeb\x8b\xe4Kf\xbf\x0e\xfb0UU\xd7.\xc4\x1e\xd9\xc3\x1fa^3\x16\x93\x06\x9d\xe3\xeb\xbdv\xd3BKR\xfe#\x8eY\x1e&gt;~\xc8\xb3\xef\x85\xc6?\xdbV\xe7\xd35\xe5Z\xb4v\xff\x00\x0f\xfc)s\xf0\xff\x00J\x91\x9eA\xab\xb5\xd3\xaa\xb6\xe1\x1b\xca\x16\x16\xfa\xeeA\x8fl\xd5o\x0b|S\xd4\xb4\xcb\xab\x7f\x1b\xdb0[\xbd\x1f]\xbb\x8c,G\x83\x10P\xaf\x9c\x7fy\xbf:\xc6\xd7\xbe\x1a\xe9?\x11\xfc\x1d\xa8\xf8\x8a&amp;\x8f\xfb^\xceX.&amp;h\x98\x1c\xc12\xcd\x91\xc7p\xea\xdfB\xd8\xac\xed#G\xbc\xd7\xa0\xb7mN%7\x10j\x9eB\xa8l\x9d\xdeC1r&gt;\xab\x8f\xa8\xc5l\xd8\xe8\x1f\xf0\x9bx\x8fP\xf04:\xec\xe9h \xfbF\x94\xf7N\n\x89#\x88\x80\xad\x9f\xba\xacz\x1fJu\x8f\x8e\xb4}v\xcf\xc2:=\xa4qZC\xa5Z\\\xdb\xcf.\xdd\xed*\xbc\xf2\x82O\xa3|\xc4\x7f\xba\x82\xb8}\x1a\xe3\xc4\xba^\x9b\xaax2;\x03;\xea6\xff\x00\xe8O\x0be\x95\xed\xa5%Y\x08\xf5\xc1\xe3\xd8\xfaV\xa6\xa7\xe0\x1b\x1d3\xc2Z\'\x88t\xdf:\xe2\xcf]\xd2\xe4\x84\xa4\xdf7\x96B$\xb1\xb8\xc7nX\x03\xdc\xd7\xad|\x08\xb6\xd3\xbcW\xa4\xeb\xff\x00\x0b\xae,V\xdeo\x12\xfc&lt;\xb8\xbb\xd3\xbc\xde\x12;\xfb\x16\x8e\xe5\x80\x1d\xc1\xb7\x0e@\x1d@&amp;\xb8\xc8&lt;\x11c5\x9d\xd8\xbd\xd5\xa1\xfe\xd3\xb4&gt;U\xc4Q\xbe\x03\xc6\x07\xc9!\x07\x9d\xc4\xae\xdc\xf7\x11\xff\x00\xb5^\x7f\xe2_\x00x\x83U\xd6\xae\xac4\xcf\x13\xda\x8b\x9d6\xe9\xed\xee.d|-\xc4\\&lt;,\xa7\xf8\xb0\xaeA\xc7pE|\x88\x88\xa1z\x8f\xbfI\xd1\x08&lt;|\xd4\xd7#$\xe6\x90\x82T\x95\x19\xe2\x90\x87e\x0b\x85\x19\xa8\x9c4m\xc3g\x07\x90)c\xdd\xb5\xa5n\x81I\x02\x9b\x0cq\xee9a\x8cn\xa9&gt;\xd0\xc2\x0c$\xbc\x16\xe9\xb6\xa6\xd1\xec\xa5\xbc\x95b\x88\xb6\xe3 \xe0\xf1\xde\xbdsS\xd6|\x1b{\xf0WG\xf0\xd2\xd8M\xfd\xb7a&lt;\xaanI%&amp;Y.\x19\xdb\x03\xf8J\x8c\x1cw\xac?\x84\xde\x08\xbe\xf1g\x8d4\xfd\x1e\xd2\x03!\xb8\xbdH\xc1\nr70\x19\xc7\xd3\x9a\xfd\xc0\xfd\x98&gt;\x1e\xc7\xe1O\x05\xe9\x9aDr\x82\x05\xaay\x88\x83\x0c~A\xcd}\x15o\xa1\xa2\xda\xe9\xf7\x89d#\n\x02\xca\x92r\xdb{\x9e;\xe2\x93K\xf0\xe23\x8by\xa4\xe6K\xa5\x94)&lt;`6p}\xeb\xa7\x1aD\xcb\xa9\xc5%\xad\xb8\x8bb\x82\x19O\xde#\xb1\xae\x83JV\x10\xefX\xd2U8,z\xb7?\xd2\xaci\x9au\xad\x83\xcb%\xb1\'q\xe8G\x195\xb7\xa2\xc8d\x9ax\x9c."\x00\xaf=~\x95\xad\x05\xd46\x1b"\x93\x0b\xe5\x12F\xfe9\xeb\x8a\xce\x8e\xf9\xdai\xe1\xbb\x8c\xf9\x85\xbftBtS\xdf\xe9\xefV\x84wwWH\x80\xa2\x10\xb8\xdb\xbf\xb7\xf7\xabwL\x8ai\xe3\xc1\x90\x91\xb4\xeeu&gt;\x95~A\x1d\xacR$\xd1\x9c\xe5O\x07${\x91Ki#\xe7\xce\x8d?r\xe3\xe6\x05:\x11V\xa4\x0e\x89\xb2\xca\x10\xea\xbc\x86\x1e\xa7\xde\xa1[\xb8%\x86k\x98cT\xc3\x00D\x9f|\xb7\xb5T\xb9\x9fQ\xd9\x19\x8e7x\xcb\x86\xdcH#\x03\xadU\xbc\xb8\x96]\xcc0\xa1F[\xda\xb9\xaf\x10]&lt;\x97\x13E\x8d\xde^618\xcf\xf8\xd7\x19\xe2\x19\xe6\xd3\xad%7\x04\x14W\xc3c\xb05\xcbKu\x06\xa0\x8bp\xb7\x18\xc4AP/\xf1\x1c\xf45\x8a\xda\x97\x97u\x13Ch^B\xc4\xb6O\x1c{\xd5\rjv\xb8W\x9e\xc12\xca\xc6&amp;\x848V\x00\x0c\xe5I\xeb\xcfOz\xe0\xbco~\x17K[m*(\xe7@\x1cK\x160U\xb1\xcf\x95\xdf\xfd\xe0z\xf6\xaf\x9e&gt;1\xf8\xea\xc3F\xd2\xbf\xb3\xe3\xd6^\x18#\x95\x92\x1b\x82\x9f\xbd\x82C\x11\x19a\xd4\xed\'8\xf6\xaf\x9e~-\xfcD\xbf\xf8{\xe2\xa3\xa9^\xea\x11K\x7fua\x0b\xe9\xb3X\xe4Ax\xa7\x90\xca\x0fC\xeb\x9f|W\x9c\xf8g\xc6\xd0\xddx\xae\xe2\xfbY"\xe9/\xbc\xb7\xc1n&lt;\xd0\xe3\xe5\xcf\xd7\x8a\x97\xc4\xfe\x1e:_\x8a\xfco\xe1\xed\x10\x89m-\xe7Qh\xa8\xd9\x1fgy\x15\xbc\xc5#\xef09\xce;\n\xec\xbfe\xe5\xb5\xf0\x96\x9f\xe2M7\xc4",j\x96\xd1[X\xcb$\x81\xb7\xbe\xe7*\xbc\xf7\xcc\x95\x9f\xf1?\xc2\x16\xbe\x1cXu\x8d7\\-5\xed\xda\x1f/\x1b\x12&amp;U\xcb6}\x0e\xe23\xea1M\x8f\xc5\x1a\x16\x8d\xabG\xaa\xe9\xfag\x945\x0b?&amp;\xd8\xc9\xc3\x07w\x89\xe5&lt;\xf6V\x8d\xd4{1\xae?\xe2,\xdaF\x85a\xac\xd8i\xd0y(\xabo%\xab\x81\x86F29o\xd0\xe7\xf1\xaey\xf5\xbb][\xc2zv\xb5\xe1\x8b\xd6K\xebv\x9fv\x1b,\xa09f\xc8\xed\xc4\x99\xfcG\xadu\x9f\x0e\xbe*\xe8&gt; \xf8\x1b?\xc3\xfb\x89\x19\x1bM\xbf\xb2\x9a\xc2&amp;L:G#I\xe7\x00\xc7\xd1\xa5\x88\x01\xe8\xb5\xabc\xe2\xab\x9b\x8f\x1b\r\x17\xc27_g\xd4\x92\xc4\xdb\xe9R\x93\x92\x0b\xdbI\x0c\x80\x11\xfd\xe0\xce\xbe\xf8\x15\x89\xf0\xbbX\x9bI\xf8\x91&amp;\xad\xe2x\xe1\xb9\x17\x96\xf6\xb6\xf7\x06\xe1\x88P\xe4\xed\xdc\x0fN\xa1\x8e\x7f\xda\xae=\xfe \'\x84\xb5mC\xc2\xc3M\xba\xbb\x16W\xb2,N\xd0\xb7\x99\xe5\x16%7\xf1\x9c\x91\x9cg\xb6+\xe5\x14;\x86\xd5&lt;\xef\xa0\x8f."\xae9\xcdFH#\x929\xa7\x02c\x1b=E\x18`y\x04~\x14\xc9\\\xb0\xda\xb0\x90{\x9d\xb4&amp;\x16&amp;\xdc?\x84\xf1H\n\xb4\x81\x95\x08\x00s\xc58\xf9b\x1c\xaa\xf2\x1b"\x9di|-\xee\xb7\xa5\xc3g\x1f\xc2\xb5\xd5h\x1a\xe42A*\xdc\x02g\xf3Y\xe3\r\xd1P.M{\xbf\xec\x19\xa2\xcd\xe2/\x8ez\x1d\xb4V\xa8\xca\x8cn\x180\xe9\xb13\xcf\xe9\xf9\xd7\xed\x9f\xc0\x1f\x0e\xd8\xda\xe9\x96\xe1\x99$\xf3c@\\\x91\xf2\x9fA^\xb3y\xa6]\x19\xed\xda\x16F\x8e\xd62\xae\xa0\xfd\xfc\xd5\xfb\r&amp;(oe{\xb8\xc4j\xbbB\xe0ds\xefR\xea\xa2M&gt;a$rb=\x99\xc9=\x07\xadM\xa1\xea\xf1\xc9\n\xb4\xb22\xc8\x90 8_\x97\x859\x07\xd0\xd6\xba\xbb\xcdu\x14\x96\xe3\t\x80B\xff\x00x\xd6\x8d\xacwMv\xae\xa9\xb5O\xdf\xe3\xa8\xefV\xed\xf4\xc772=\xc3\xee\xdb\x11\x00\x96\xc8\xdc9-\xf4#\x8a\xb9b\x9a}\xcc\xb2K\x1c\xb1\xc8\xa8T0\x08I\xcf\xa7\xd2\xad\xb5\xb4Vq\xfd\xadB\x17\'\x82\x14\xf0*\xee\x8b&amp;\x0f\x96\xf3\x05\x05\x83`\x1a\xb7s\xa9\x00\xe2\x0f//!\xc9n\xd8\x15Z=U\xa0\x7f*v\n\x19\xb0\xb9\xe9V_Q\xbb\x8e\xdblsF\x03\x1e\xa1\rR\xb7\xbbx\xa62\xc8\xff\x00)lc\xd3\xde\x9fy\xacKj\x82\x15\xba\x03\xcaF!q\xc9\x18\xf4\xefY:\x9d\xf5\xf5\xd1\x92X$c\x929\xd9\x8f\xd2\xb1\xef\xc5\xf4\xab&lt;\xf0\x88\xd8\x05\xcb\xb4\x87n@\x1c\xe3\xd4\xd7/\xaeYI\x1d\xb2\xdc\xcf\x1eF\xed\xa5I\xfb\xcc~\xef\xd7\x9a\xe3\xb5\xcd=l%\xdfo\x12 \xea\x19$\xc8\x7fQ\x8e\xd5\x91)\xb9\xb6\x89l\xa3\x8b\x12\xe0\xbb\x803\x85&gt;\xbe\x95\x99v\x96\xb7\xf6R\\,\xe63\x1a\x97wS\xc6=k\x9d\xbdK\x0b\x99\xe5\xd2\xf5\x1b\x0c0\x98\xb9\x96&amp;\xc3r8)\xeb_\x1d~\xda&gt;\x1b\xbd\xf0\x85\xd4\xde \xb4\xbb\xb6y\xa43B\xd2y\x81K\xc6\x88X\x96\x07\x83\x91\xf2\xee\x1d\xeb\xe2\xef\x11\xfc_\xbd\xf1.\x99i\xa6]\xc3\xe6A\r\xac\x06\xde274N\x8a\xd9!\xbd\x8fj\xe1&lt;-\xe3\xdb\x9d\x1fXc}\n\xc9\xb6i\x1e1!\xe1\x0e\xf0A#\xae?\x9dz\xb7\xc1\xaf\x15Xx\xf7\xc4\xba\xaa^jB+\x85\xd2\xa6\xb8\xd3\xcb|\xcbs$hXE\x81\xc8$\x80\x00&gt;\xb5\x95\xae|Ny&lt;\x19\x06\xa7\xa4\xc3$W\xf6\x1a\xaa\xdc\xdc)m\xa3ia\x81\x8fa\xf3{\x0ekw\xe2?\xc4\x9dB\x0b\x8bH.\x18\x7fg\xdc\x94\xba\xb7\'\x93\xb4\x81\x95\x1e\xd9\xaeh\xf8\xcd\xe7\xbf\x86\xe0\xcc\xf2Ce+I\x0cO\xc6\xec\xca\xc4u\xe8\xa7\x8e}\rz\'\x8d\xa0\xf0\xe7\xc4?\x86I\xa9xd\xc8\xd2\xb6\x95#Mn0\xd2f\xde@d8\x1c\x9f\x93${W\x8bx3\xc40\xe9:d\x1ah\xd2\x9a\xe1\xed\xbcE\xb6y\x11\xf0\x1e\xdeHV,g\xa6K(#\xe9]\x1e\xa3y\x07\x82\xb5Y%\xb5\x95\x92\xdf\xfbNY$\xb7t\r\xb7z\xece\xc8\xec\x81A\x1e\xf8\xac\x03\xaf5\xbf\xc4\x0b\xddcI\xd7e\x0f\x0f\xfaF\x9b&amp;pwy\xa8\xea\x07\xae\t+\xf5\xe2\xbd\x9fJ\xf0G\xfc$\xba\\\xfa\xef\x87$\xf3\xf4\xeb\x9b&amp;\x92B\xd2\x8f29&lt;\xb4d\x00v\xc1G\x1f\xf0*\xe6&gt;"\xf8\x17\xc2\xff\x00\x13\xd2\xcbR\xfe\xd1\x97O\x92\x16\x9b\xceke\xc1\x95\x9d\x95\x88b:\xed\xe8=\xab\xe3\x05E\x8d\x0c\x8aA8\xedM\x0c\xd2\x8c\xe2\x96Y7\xc7\xe5y@\x10:\xfa\xd3f\x04\xba\x90:\n|\x84;\x82\x878\x1c\xe2\x9aYpF\xe1\xf9\xd3\x1f\xe4\x19q\x8f@{\xd4j\xee\\\x14\x18\xe7\xa1\xa9\x9c;\x15.\x83\x83\xfc=)\x1bdA\x9bj\x80F\t\xf4\xab\xfe\x16\x961\xae\xc5\x1c\xacH\x9aF\x8f\x9e\xc1\x863\xf4\xe6\xbe\xb8\xff\x00\x82e\xdaG\'\xc6+\x1b\xd9."\x12\xc0\x93\xda\xbc;\xc6\xf2\x15\x10\xef\xc7\\\x1c\x10\x0fs_\xb2_\x06b\x8e\x0b+l3\x04\xda\x18\x8fJ\xf6b\xcd\x040\xcd\x08\x00\x8c\x13\xbcu\xa85\x8b\xbb\xdd&amp;\xf2\xce\x01\x17\x9f\x1c\xf9\xf3\xcb\xf0w\x1e\x80Uy\xe6\xd4\xaf-\xd9g\x90?\xcf\x88\xd3\x1fs\xfckV\xcbOt\xbf7v\xd2\x12\x85\xfete\xe0\xf1]"\xcb\x02G\xe4:)eu\xd8\xe9\xc8\xc6zU\xf8\x10\\\xc4\x86\xdd\x98\x14F,@\xe9\xc5i\xa5\x8c\xd1\\\xa2&lt;\xe4\xa3\xc3\xf3\xfc\xbcc\x14\x8a-4\xe0\xd3\xc6\x9b\x03\xe4:\x9e\x08\xc7zk\xdf&lt;\xb6\xdb\x88\xc2\x86\xf9s\xfcG\xb0\xa6\xd8^\xdd\tv\x89\x1409\xeb\xc8\x1e\x98\xab\xfa\x84\xcb4\x88\xcd\xf3\t\x13\x19\xce)\x04q"\xa2)\'\'\xa1\xe7"\x9c\x93\xc0w\xac\xf17\xca\x0e\xcd\xa7\x8c\xf6\xa8\x01\x82 \xd6\xef&amp;Y\x81*I\xe3\xe9U&lt;\x97Ud\t\xbd[\x9d\xe5\xb9\xfa\n\x8a\xe6\xe5DrK\x02\x82\x14\x02J\xbezu\xac\x88uC\xf6\xa8\xe0h\xddA$\x82\xcaq\x9e\xd5CS\x96\xde\x19\xee\x15\xa3\xe6O\xba\xfdF\x7f\xa5q\x9a\xcd\xbajO"\xaa\xfc\xa4\xe5W8\xc0\x1d~\x99\xaeST\xb8\xbe\xb1\x8f\xccx^i\x0f\x96&lt;\xbd\xa4mP\xde\xbfJ\xab(\xb7\xb8\xdd;\xba\x1d\xa0\xc6dq\x80\x14\x0c\xe0\xafq\x9e3^y\xe3\xed\x1b\\\x8a\xc2O(\xba\xc3#\x97Q\xbfpR:2\xe3\x95\xf6\x06\xbeq\xfd\xa1&gt;\x10k_\x13\xbc/k\xaa^\x0b\x8b\x98!\x91\xd1\xe4L\x83\x1e:\xb7\xbe\x078\xf6\xae\x1b\xc1\x9f\xb1\xb7\xc1\x99\xbc2\xbaf\x89\xaa3\xea\x11\xc0\xdfh[\xc6U\xc4\x87\'i\xcfJ\xf0O\x8b\xbf\xb1w\x88\xad\xf5k\xbb\xbf\nA\x0c\xf1[;\x1b\x88\xd7\xefD\x14d\xb0\x03\xa8\x03\x9a\xf2o\x0cxpi\x1e$\x9a\xc2{\xf9\xac\xb58\x1f6\xae\x9f*\x15\x07\x91\x9a\xd2\xf1\x9c1Z\xeb\xda\x8f\x87\xe2\x84\xdb\xbc\xb7\tsj\xce\x98\x01_\x95\x07=\x87C\xfe\xe9\x1d\xab*\xce\xfbQ\xba\xd2\xd7\xc07\x8e\xcfwgy"\xday\xab\xd5q\x90I\xec3\xd0w\xaak\xabj6\xf7v\xa9\xa9\xe9\xc5\x88U%\x02\x90%UnF}+\xd1&gt;\x1bx\xb7N\xd1\xbcs6\x9c\x96\x8e\xd6\xa8f\x89\xad\x8c\x9bB\xc7p\xbf\xc2O\\\xab\x0cz\xed&gt;\x95\x85\x7f\xe1h&lt;!\xf1\x01\xe0\xd4/\x04\xd6K\x04R\xc2\xf3\x11\xf7\x1f \x86\xc7\xa18\x07\xd6\xb5\xfcOa\xa6x\x97\xc2\xb7V\x16\xebj\x9a\x8d\xb2\x16\xc2\xbeL\xc4\x8d\x8c\x07\xa9\xc9\x07\xf0\xaf;\xd3\xbc\x12\xe3U\x8a\x1b\xab\xe9!\x86I\x14;\xec,FF\xd2\xa0\x0eO\xcd\xf3\xe0v\x19\xaf^\xf8/\xabj_\x0e\xbcY\xa5x~\xf7T\x8a\xea\xd3y\xb5\x90\xc4\xd8\x8etx\xc8Rs\xeeq\xf5\xa3\xe2-\xae\x9f\xa6\xf8\x9ekxg\x8e\xfe\xc6Rn,^\t\xc0\xf2\xc4\x84\xb1\x8d\x80=W!~\xaaGj\xf8\x98\xe58\x03 \xfaP\xb3\x00&lt;\xb5\x8c\xf3\xc7J$\x04\xc8\x08\x1d\xa9\x0epp\xd88\xeb\xe9M\x1bX\x80FH#,N)$\x8dI\'&lt;{Sgi\x1b\x08P\xed\x0b\xc9a\x8a\x8e;x\xd9\x81\x8e&amp;8=\x8dXD\xed\xe5\xe3\xdc\xb7JG\n\xa8"q\x90\xcf\x82}\xaa9%h\xa7\xf3!r\xb8\x18\x05z\xfdk\xea\xbf\xf8%m\xe3\xcd\xfbQ\xe9\xd6\x93\xdcen\xb4\xeb\x85\x00\x9e3\xb0\xf3\xf5\xef_\xb6\x7f\x08_n\x83i\x1c\x9f1u*\n\xf2x\xf5\xaf[\xd3\x92\xee\xea\xda%\xb9W&gt;`\xda\x06\xd3\x91\xe9W\xb5\xf8\x88\xb9\x81\x17\x90\x92\x12\x8c}\x85g\xab[L\xe6\x19\xa7`\x15\xb76\x06\x01\xf6\xcdj\xda\xdc-\xb4H\x86]\xaad\x01@\xe7\xa9\xe35\xae\xb2+@\xa1\x08\xf33\xb8\x0e\xed\x8f\xe7Z\xdaQ\xbb\x11\xabD\x17\xf7\x87\x07\x9a\xbc\x92\xcc\xb1\x89f\xbatf\x8d\x83\xc6W\x8cc\xa6i.\xe3\x89\xe6\xdec?}\xba\xb7\x1fv\x9d\xe5\xc7$_f\xce\x0c\xaaI\x0cp\x14\xf6\xa8\xe2\x81\x84\xc9d\x97\r#\x96\x00\r\x98\xdb\xef\x9a\xd4\x11\x99bfd \xf4\x8c\x11\xf7q\xd6\x92\xdf\xed\x1eBL\xdbw&amp;x&amp;\x96;[\x9b\xa4\xf3\x1c\x01\xf3p\x01\xebM\x96\xc2\xda\x04w\x9aB\x8e\x14\x95Q\xceMg^^\xb5\x93(\x03\x84 \x8e:\x8f\xebTn\xae\x02*\x98\xa0\x89\xc1\xcf\x99\xc1\x18\'\xb1\xf4\xa8.\xa7\xba\x95\xc4B\x08\xe3\\`\x8f\xfe\xbfj\xcb\xd6-g\x92\xf5\x0bglc"\'Lc\x1d\xfd\xeb\x07Y\xd3m\xe2\x7f\xb6\xc2\x88\xa4\x9f\x9d\x9dJ\x8f\xc35\xc7j\xd3\xdc\xad\xea\xb4\xcaZ9\x15\x81m\x9c\x0fNj\x9c\x9aJL\x8f\x0cda\x90\x9e\xbe\xd5_Q\xf0\xf2\xcd\xa5\xcd\xa6\\\xdd\xc6&gt;]\xca\xe4dt\xe9\x9a\xe7\x13\xe1\xcd\x9e\x99\x05\xdd\x8b\x15h\'\x99\xb1\x13/\xdc\x0c\xb8\'\x9e\x99\xed^m\xf1\x07\xe0\x1e\x93u\x17\xfc$\xba4/\x14\xb2\xfc\xce\x81H%\x8f\x1d\xbb\xd7\x9b\xf8\xb3\xf6x\xf1"Z\xcb\xab\xdb$\xf1\x1b\xa4\xdd\xe6*\x96\xf9\x9b\xe5&lt;w v\xaf\x98\xbe4|\x04\x8c,7^)\xf0\xee\xcdN\xd2\xf0&lt;\x17\xf6\x8aTM\x18`p@\xeezb\xbc\x9b\xe2\xf7\x87\xdf]\xf1\x1c\xa7\xc9\x11\x97\xb0\x868&amp;\x03\xe5\x90\x12\x06\x01\xeer\xe4`w\x15_\xc3_\r\xae\xf5-&amp;\xd7^\xd0\xa1u\xbe\xb2\xb9h\xf5X\x1cmKs\x8c\'\xccz\x86\xe3\xe9\\\xff\x00\x8d\xfc3\x7fi\xac\x19\xae,\x9e\x02\xb6\xc0D\xa1N\x08\xdd\x86+\xeb\\\xfe\x93\xaa^\x0f\x13\xc8/\xae\xf6]\xdb\\@\xa8@\xc2\xc8PmU\'\xd7\x06\xbdk\xc3:\x02|M\xd4_\xc2\x12^\t\xef\xae\x92kFC\x1e\x19ca\xe7\xab/\xae\xd5S\xd2\xb8]\x07O\xb8\xb2:\x83\xeak*\xad\x91Sr\x06|\xc4B\xff\x003\x11\xd4c\x8f\xc4\x8af\xbbux\xb6\xf2\xdc\xe8\xec\x1d\xb4\xcb\xbf6\x0f\x97\xefm\xe1\x03\x7f\xbd\xdb\xd6\x9fyp\xf7\x1e)moK\xb8\x91\x92wK\xabx\xa39\x1c(;W\x1dy\x1d\xabwQ\xf1\xdc:\xad\x9c\x16\xa9\xa7E\x1bZ\xbc\xa0\xb8l\xef\x0eC\x81\x9fl\x91_"0%\x00\x14\xd2\xdbG\x03\x04u&gt;\xb4\x9ec\x0eQ\xb0Oq\xda\x98\xeeI\xf9\xd7\x7f8\xdd\xd3\x14\xa3\xad#\x00\xc9\xb4\x9e\xac(\x88&gt;X\x07\x04\x01\xfc]M3\xcd\x90nU\x90\x8c\x8cr\xb8\xa5F\x91F\xd7l\xe4RH\x1b\x00\xf9\x83\xf3\xa4\x0c\x12Q!&lt;\x05\xe4\xd7\xd0\xdf\xf0L\xedA\xf4\xcf\xda\xb3\xc2\xf3:n\xf3\x84\xc9\x9d\xd8\xd8\x1a"\x015\xfb\x7f\xf0[\xc4\xb0I\x1c1\x90G\xd9r\xac\x87\xa9\xf5\xafx\xd25\x88nV3\x10\xfe\x0e\x83\xb5i^Z\xdc\xdc\xfd\xf8\xf3\x1a/\\rA\xeb\x8a\xa4\x9aB\x8b\xe0\xeb\x08\x04\xe0\x10[\x8c\x1f\xebV\xadl\xee\x17YY\xa6\x01\xa0a\x82\x83\xf8H\xef]\x16\x9bb\x92\xb4s4g\x80@\xe3\xa5lB\x04F/*\x03\x85R\n\xe3\xb9\xe9\x9a\x92\xe1m\xe4\x8c\x8b\xa8\x8a\xf6,\x1b\x85\xa7\xce\xf1\xda\xdc*\xdc\r\xd1\t\t\x01y$c\xfa\xd3mnRk\x86\x8a\xddC\x16&lt;\x13\xfc#\xd0\xd5\xfb\x1d6\x0bw2\xc8N\xcc\xe5\xdb\xb8\xff\x00\xebV\x8d\xac6\xfe[\x18\x94\xb7~GQN[r\x8c\nD\xa7q\xc6:\xe2\x9c\xf6\x17\x13\xc2T&amp;\xcc7\x04\x0e*\x194\x19eF\x8e\\\xb9`G\x1d\xea\x86\xab\xe1\x87B\xd0\xa9\xf9\x9a\x12\x02\x01\x9eq\xfaV\x13h\x971O%\xbc\xc8\x14&gt;\tl\xf4\xc5%\xc6\x9f\xa8\xa4_+\x8c0;\xb7.1\x8f\xe5U\xda\xd6\xd6\xe6%\xf3\x0bp\xc3q\xee\x7f\xfa\xd5\x8b\xadZCz\xcffpbPv2\xf3\x83\xdb5\xc5k\x9a&lt;\xb6\xcc\xd1NX\xaf\xa6\xce\xde\xb5\x8f{n\xb1"\xcb\x04\xac\x8d\xb8.@\xce\xdf|S`\xd3\xc4\xfb\x99\xae\x8a\x9c|\xcf\x8c\xef\x1e\x98\xedM\xd54\x1b\x98\xec\xcc\xb6\xf2\x06)"\xf9O1\xdapO9\xcf\x7fAUt\xdd\x11\xd2\xd8\xad\xd8\xf3p\xac\xc5Y8\x14E\xe1[\'\xdfoq\n\xbc`\xe7\x07\xa2\xe7\xbf\xb5p\x9f\x17\xbe\x05\xf8g\xc6\xfe\x1e\xb9\xb6_\x0f\xc6\x1c\xc4\xa2\x06\x11\xf2\xa4\x1e\xfe\x95\xf2w\xc7?\xd9),\xe1\x9e\x08\xe0\x12Y\x18\x04V\xe1#\xc3\xc6\xeb\xc8\xc1\xfa\xf4\xaf\x99\xf5;mK\xc0\xda\xcd\xee\x81$W+g\xa8\x8d\x97\r\x03d\x8cq\xd7\xb3z{\xd6\x07\x8f\xed\xa3\xd4\xecR\xfa\xce\xecO-\x9d\xeb\xc5$\xac\xbb\x12h\x83\x02\ng\xee\x81\xfcY\xfb\xdc\xe2\xb8\xaf\x88^\x04\x17\x1a\x9d\x97\x8e&lt;1m\x9bMF\x10\xd7Q+s\x14\xc3\x82\x0f\xf7O\xd6\xac\x7fn\xea&gt;\x08\x9f\xc3~-\xd2nDz\x9c.\x90\\\x97\x07r\\C\x9c8=\xc3\x01\x8fC\x83[\x1a\xecS\xdcj\xd7\xfa\xee\x99k2Z^[\xcavg! s\xf3\x9c\xff\x00\x10%\x87=\xb6\xfbW\x1f\xe1\xf8u\x1f\tx\xa2\xd2\x1dB\xfaci\xa8\xc4\xed\x1a\xce&gt;Yc\xe4\x16\x04\xf5\xc6\x0e&gt;\x95\x07\x8c\x1e\x7f\x0b\xeb\x16\x91\xdb\xab\xb2En\x8d\x19\xe8\x06r1\xf9\xf1\\\xdd\xee\xadw\xa7I\xe5\xde]0\xdeK"\x93\x8cg\xaf\xd6\xbcuH\x03\x92)\x92\x02z\x0e\xf4\xd0\x187\x00\xe4P\xc4\tD`\xf59\xfcipw\x11\x8ei\xbd\x0e\xd3\xd7\xd2\x95&gt;\xf0\xf6&lt;\xd4S\r\xceT\x1e\xa0\x81\x8ao\x96\x8a\xf8\xf3\xf9\x0b\xd34?\n3N\x88\x02@\'\x03&lt;\x9fJ\xf5\x0f\xd9\x17Z\x9f\xc3\xbf\xb4\x17\x855\x98\xee|\xb6\xb7\xd5\xed\xd5\xdd\x9bj\xec,\x01\x07\xf9W\xee\xc7\xc3\xdcX&lt;7\x1b\xb6\xbd\xc2\xee\x18\xf7+\xcd{\xaf\x82u\xd8\xa5\xb5\x89\x04\x81\x9aE\xec:\xe2\xbb\x8bU\xbb\x9dQ\xd5X\x82:b\xaejp\xb2De\x8a\x00\x19YK1\x1f\xce\xa0\xb3\x0bg)\x9d\xbe\xfb}\xe0\xfd\x05ohWv\xb7\xf3\xfd\x8e\xcaUir\x04\x88\x1b8\x07\xda\xb7\xe4\xb56\xf7\x92\\F\xb9\x1b\x00E#\xabv\xfdj-Z\xdf\xed\xb1\xbc\x03\xcb\x0e@;I\xc0\'\xd0\xd6%\xa6\x9du\x17\x97u\xc7\x99.\xe1,x\'n:c\xd3\xda\xbaM#E\xb4S\x80\x8e\x1d\x93,@\xad\xa8\xf49$\x81cu%H\x1ftrA\xad=\'@KXZ7\x01\x9c\x8c\xaf\xb7\xb5\x13\xe8\x06\xc9\x9a\xe1\x1b,\xfdT\xf6\xa9\xf4\xf8]\xa0\xf2\xca\x86%\xb1\xc51\xb4\xa0\x933L\xf8\xe3\x80\xbd\xaa\x9d\xd6\x85y\x7f\xfb\xc0H\x03\x85\xc7_\xc6\xb9?\x19Z\xddhV\xf2Ko\x1aJ\xdb\x0f\x01\xf2s\x8a\xc0\x87\xc4\xb9d\xb9\xd5\x82\x18\xe4\x94\x841&gt;Fq\x8eqW/n\xb4\xab\xa8\xc4\xf6W\xe8\x08_\xbb\xb8u\xaaR]i\xadjR\xeaH\xd9W\xe6f\x8f\x07?\\W7\xe2[(\xae"i\x06\n\x03\xf2\xbas\x8fc\xfe\x15\xc6x\x8bLE\x9d\xe2C\xbddA\xb5\x94\xf4\xcf\xa5Af\x82\xde\xdcE\xe6\xa3\x11\xd0n\xf9\x8f\xe1P\xf8\x86\xf7r\xf9\xb7!\xb6K\x80c__Z}\x81\x9e\xe2\xd9R\x17\x11$x%[\xab\x0fO\xc6\xadZ\xd8\xc9wr\x1aH\xd9D\x80\x83\xc7\x19\x1d\xa9\xda\x8d\xaf\x98\xab\x022!bA\'\xda\xb8_\x89?\x0fm\xbcAi42\xdb\xaa\xee\x19\x8d\xcf\x07w\xf7\x87\xae+\xe4\xbf\x8d\xff\x00\xb2\xdd\xe5\xed\x9c\xba\x84V\x1bg\x98\xb9g\xc0\x01\x18\x03\xb5\x87\xa8\xce3_6x\xf7\xc1\x9a\x7f\x87\xf5\x87\xd1|C\xa70\x91\x94-\xe2*\xed\n\xc4|\x84g\xd7\xadp\xea\x8d\xe1K\xfb\xed\x04\x0f6\xc2\xf6R\xcc\xae\xc0\xec\xca\x8c\x15\xf6\xe4d\x8fZ\xe5\xfcW\xe1=B\xf2\xc6\xf8Ei\xba\xd02\xdd\xc2\xc3\x97B\x08\xde\x00\xff\x00\x81\x1f\xca\xb2|?\xe2-~KH&lt;!r\xa6eKI\xedA\x8cnw\x05\xb2\xa3\x1d\xc9\xec+\xde&gt;\'\x7f\xc15\x7fk\xff\x00\x0exgA\xd7&lt;}\xf0o[\xf0\xf5\x85\xc6\x90o\xb4\x8b\x8dM\x16%D\x8c\t\x1f;\x80(p\xc4\xe0\xd7\x9c\xeb_\x04\xfe$\xfcV\xd3l\xac\xbc\x1b\xe0k\xfdKS\xb0\xb6\x92\x1dCL\xd3\xec\xdaC:\xf9\x83\xf7\x85\xf0T\x8f\x98\xf7\xc7\x06\xbd\x9b\xc0_\xf0o\xef\xfc\x14\xe7\xe2v\x90n\xe0\xf8,\xba|v\xe4\x18\xa0\xd6\xb5\x18\xad\xe5\xd9 \x0c\xa7gP0;\xd7\xe63\x15\xf3\xc2\xab\x02\x19s\x9c\xf7\xa5\x041\xda\xad\xcf\xd6\x9a\xee\xb8(\xac\x03\x81\xeb\xd6\xa3\xe4)\x91\xd4\x9c\x0c\xe7\x14"\xac\x98p_\x07\xa9\xc7JrH\x0b\x94B&gt;^\xecq\x9a\\b&gt;\x1b\x96lTR\xdbH\x1c1\'\x00\xf3\x81P\xcd\xb8\xee/\xf2\xe0|\xbe\xa4\xd4\x901\xf2\xc3J\xa7\xf1\xa5U\x0e\xd9\xce\x14\xf5\xad\xef\x87w\x97\x1aO\x8c\xf4\xdd^\xdar&gt;\xcf\x7f\x0c\x84{+\x83\xfd+\xf7\x9f\xc0\x9a\xabj&gt;\x0e\xb0\x9e\xca\xef\x07\xec\x08\xfb\xd9\xb9\x05\x91p~\x95\xf4\x0f\xec\xf9iw&amp;\x96\x9a\x9e\xad)o(\x15\x8d]q\xbb=\xeb\xdb4\xabc=\xa1d\x88\x0f\x94\xe3\x8aY#\x8b\xcb\x96\'`I b\xab\xbe\x9bs5\xa7\x96\xb2\x82\xcerX.q\x8a\x9f\xc0\x9e\x08\xb4\xd2\xfcG7\x8b,\xcc\xa1\xef\xd7\r\x13\xb6q\xb7\xaf\x1d\xb3]\xd5\x9b\xdb\xdb\x17\xbc\x0b\xf2\xe0\x86F\x19\xe7\xda\xa9_\xac3\xc8u\x0bx\x88$\xed\x11\xe3\x9c\x9e\x9cVs\xc1u\xfd\xa0\x80\x00\xa8\xdc\xe7\xd4\xfaWW\xa5[\xa7\x99\x0c\x88G@\x19\x875\xa3;\xb3L|\xb5\xde\x164\x03\x07\x19!\xbaU\xfb)Dq\x86v\xf2\xcb\xf4_\xef}*\t\xef\x129\x0c\x85\xf7`\xe0z\x03\xdb5D\xebV\xf1\xbf\xef\xef\x91\x0e\xec\x85\xc8\x19\x15\x8fs\xf1/\xc3\xf0y\xc6\xe5\xd9\x99r\x01\x07\x83\xf8\xd7=\xe2\xcf\xdaK\xc2\xda-\x8b\xc5mw\xe6K\x1clL,B\x8e\x07\xafz\xf9\xd3\xe2\x87\xedo\xaf\\\xea/skj\xb1\xc4\xad\x80\xaa\xf9a\xfe\xd1\x03\xb5y=\xcf\xedm\xe2a\xaa\xae\x95\xa5[Br\xfc\xcd#\x1c\x12OaW&lt;=\xfbU\xda\xd8ZOu\xad\xdc\xdcn\xf3v\x95H\xd8\x95oP;\x8a\xce\xff\x00\x86\xe1\xd5\xdf\xce\xfe\xca\xb1q2JU\x11\xa3`e\x1e\x84\x1e\x9f^\xd5\xddx_\xf6\xc1\xb5\xd7e\x82\xd7P\xf0\xf4\x90\\O\'\xef\x16i@\\\xe3\x00\x80z\xf3]~\x9b\xf1\x0fL\xd5\xaf\xe3\x129\x87tK\xf7\xd7\xe4\xce\xee\x995\xb4m\xac5\x15Q\xf2\xc4\xfbO\xccN\x01\xcfNj\x1b\xfd\r&amp;\x8f\xec\xf3[\x90W\xa3\x93\xdf\xb5f\xc7\x15\xd5\xb4\xc2)#p\xac~o\x94\xf6\xae\x83M\x99\x12\xd5e\x8d\xd4\xa8w9\'\xfd\x9a\x8a\xf0\x19n\xf3o\x11f\x12\x93\x10\x03;\xb2?\x95J\xda\r\xb4J\xf0J|\xd4d\xc3\x96\xe4\xa1#\x9f\xa6+\xcd&lt;w\xe1t\xb5\xbaC\xe5\xf9\x91\x9c\xec\xf9w~\x9d\xeb\xe4\xdf\xdaO\xe1w\x87\xeeu7\xd3\xbcE\xa8\xda\xc2\xf1\xac\x93\xc3w+\x08\xf7\x84\xe0+\x1f\\g\x15\xe4&gt;\x0c\xfd\x90\xfe6~\xd1:\x1d\xdc\xdf\x02~\x08x\x83\xc5\x10Y\xde\xacv\x97\xf6\x1av\xe8\x07\xcd\xf3\x07\x94\x8e\x07+\xef\xf2\x9fJ\xfa\xd3\xf6.\xff\x00\x82\x04\xfe\xd0\xde*\xd7\xad\xb5\x1f\xda\xd7\xc2\xc3B\xf0\xd0\xb5\x9dd\xd2\xb4\xfdJ\x13wq\xbe"\x80;\x83\xf2\xae\xe2\x18\x8e\xb8\x15\xf4\xff\x00\xec\xff\x00\xff\x00\x06\xec|\x08\xf8K\xf1\x00\xf8\xfb]\xf1\xed\xcd\xde"\x89lm\xa0\xb2\x8c\xbd\xbe\xdc\x92|\xd7\xfe 8\x0c\x07\x07\x9a\xfb\x0f\xe3\xaf\x83\xff\x00f?\x0cx:\xdf\xc7?\xb5.\xa9\xe1\xf9\xb4\x8f\x0f\xd94k\xa9\xf8\xd6\xf2$\xb6\x84pX\xf9r\xb2\xc6_j\xe0\x11\x96\xcf@k\xf3\x9b\xf6\xd0\xff\x00\x83\x85\xff\x00\xe0\x9e\x9f\x074\x9dO\xe1\xdf\xec\xa1\xf0\xee?\x1ck\x9c%\xae\xa9\xa5iB\xd3HI\x03\x8d\xc4\xc8PI"0\xf9\n\xaeF\xdes_\x06|O\xff\x00\x83\x88?o\xbf\x1dk\x9f\xda\xbag\xc5\x8b\x1f\t\xdb)e\xb7\xb1\xd04\xc4\x08\xc9\xc673\x1c\xb9\x18\xc0\'\xde\xbf+\x9b\xcd!\x9bx\n</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00\x1e\x00\x1e\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfcJ\xf1\xcd\xf7\x89|U\xe3\xb9&lt;&lt;\x81\x9eV\xbc\xf2`\x8c\xaeF\xd2z\xd7\xd7?\xb3\x17\xec\x8d\xe0\r\x16\xce\xdb\xc4\xde*\x81\xafo\xe1PZ\xdev\xdc\x8aO\xfb\'\x8a\xfa\x7fB\xb1\xb2\xb4\xb1E\x1bR\x15\x1bcU\xfe\x11\xe9\xf4\xe9Rk:t^\\R@\xca\xccx\xdeFN;\x0c\xfaW\xe7\xe6\xb9\xf0\xf6\xef\xc2\xbf\x1c\xed\xf5;\xfd)\xa2U\xbf\x01\x98\xf0\x08\xcf_\xf3\xeb_]\xfc\x12\xbd\xb4\xb9\x9a\xe2\xeaY\x91\x0f "\x11\xf3\x008&amp;\xbd&gt;\xc9\x05\xf6\x9d\xb6_(D\x14\x91\xbf\x19\'\xdb\x15V\xea\xfe\xda\x10\xa9q\x01b\x00\x08\xa8\xc7\x81\xdf?\xa5x_\xed7\xf0\x8bT\xd5\xeeO\x8a\xf4\xabQ"\xa4\x9b\x9e(\x1b,\xb9\xc69\xef\xd0\xd7\x07\xf0\xeb\xc5\xfa\x8f\x86\xf5\x96\x96\xe4J\xaa\xc0Fa\x9b\xb1\xaf\xa2&gt;\x19x\xefK\xbf\xb4\x86[\xb6\x19\x89\x87\x9c\x15\xf0\x98\xfat=*\xdf\x89&lt;A\xe6jowkp\x1e\x17c\xb4+}\xde\x98\x1fN\xb5oI\xb9\xd25\xbd\x065\xd5\xac\xcc\x81\x97!DK\xfc\xcf"\xb8\xef\x15\xfe\xce\xbe\x14\xbd_\xf8H-Q`{\xa7f\n\t;q\x8f\xf1\xaa\xfa\'\xc3\xe84\x18\x05\x9cW\x01\x83+\x10\x08\xe0\x11\xedZpX4\x08#v\\\x85\x1ft`W\xff\xd9'</t>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00\xbe\x00\xbe\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfc6.\x8c6+\r\xc3\xaf=i\xb3\x06 \x05\xf5\xa1HU!\x86O\xad \xea)r2~\x86\x98\xd1\xa39rq\x85\xe8O_jP\x8a\x88\x1aB0z\x02j9c\x11|\xca\xc0\x97\x1d\x01\xe9V&lt;9\xa6I\xab\xeaqXA:\xab\xcb*\xae\xf6l\x01\x92\x06I\xec=\xeb\xe9\xef\x0f$^\t\xf0\x1cVzl\xdeTP\xa3\xa5\xcc\xb1\x0f\x9eEf\xc3l=\xf8Q\x8cz\x8a\xe3u?\x88r-\xb5\xd6\x97\xe1\xa1\xe5C\x03\x19$%\xb3\xb9\x97\x80W\xd4\xe3\x9a\xe4\xf4\x87:\xee\xabu\xe2?\x18\xeam\xf6\x0b\x08\x9d\xe4\x96F\xdc\xf2\xb9S\xe5\xc41\xdc68\xaeBk\xeb\xef\x12\xea\xedyt\x86$\xdcB\xc6\xab\xf7\x14}\xd2\x07\xf3\xad\xb8\xa2\x8a\xc7\x06$3:\x00Xg\x18\xfa\xfaV\xb9\xf1\xc2\x89\x99.-\x84\xee\xb1\x81\x1cP\xcb\x84_\xa9\x1di\xfa?\x85u\xef\x13C\r\xb4\xda\xd9C,\xbc\xaa\xa3\x107\x1e9\xef\x8a\xf4\x8f\x85?\x05m\x1bV\x92\xcf[\xd7$x\x9a"\x17\xc9\\\r\xd8\xeas^\xab}\xf0\xb7F\x82\xe1F\x86eh\x1c,1\xb3\xc4w,\x98\xe4\x0f\xf0\xae\xe7\xc0?\x06|C\xe2\'\xfe\xc6m\xf2\xc4\xa0\x06b\x98\xdf\x9fO\\W\xbe|%\xfd\x83\xedui\xbe\xd5\xaeM%\xad\xb7\x9av\xb4n\x1bp#\x9e+\xdc\xbc%\xfb\x1a|$\xd3]\x84\xabp\xe6\xde2\x14\x00C1\xc7\xa5uv?\xb1\xe5\xb6\xb5$\xb6\xfe\x1a\xd0m\xf4\xed;\x00H\xf3\xc5\xbaY\x0f\xe3\xc8\x07\xd6\xbb\xed\x07\xf6L\xf8Y\xe1[K{;]6;\x8b\x98\xd9Y\xe4h\xc1\xcbz}+\xbd\xd0\xff\x00e\x7f\tjz|s^\xd8Z\xa0\xe7j, \x91\xf5\xaf\xe59\xca\x82\x19c9&gt;\x82\x9b\xe6d\xed\'\x9fLPA\x07i\x1c\xfaP9\x19\x14\xa0\x10rEG&amp;\x1a@29j\x1d\x83\x1d\x8d\xd0S%0I Q\xbb%q\x9a\xec&gt;\x18xZ\xd6]f\xd2MPn\x89\xa4\n\xca\x87\x93\xcf#\xda\xbd\xff\x00\xc6\xb6\x88t\x05\xd34\xc6\xda|\x90\x91\xc4G\t\x91\x80I\xf5\xaf\x13\xf1\x1b\xc3\x1d\xda\xf8kK\xc4de\xaenwtoJ\xc8\xf1\x1e\xafc\xac\xde\xa6\x9b\xa2\xef\x16\x96\xb1\x8f\x97\xa1\x95\xc7VaI\xa7\xe9Kn7\xeaR\x85s\xf3G\xb0\xff\x00:\xb1s\xa9\xce\xd6\xb3[[`4\x9c\xb3\x95\xfe\x11Rh\x9a:\xec\x172\xb6wu9\xc5z\xbf\xc2\xed\x1a\xd7V\xb8q\xa8C*\xdb\xc0\x80?\x96\xe3*OL\xe3\xa5{\xcf\xc2\xaf\x0c\xf8wC\x95\xa3\xd2\xb4Y\xae\xef\xae\xddL\x0c\xe0\xb0E\x1fz\xbe\x85\xf8c\xf03R\xf1\xab,PxS\xcfg\x8cM\xf2\x03\xf2\xb9\xe3\x1e\xc4W\xd2\xff\x00\t?eg\xf0\xc6\x9f\x142\xdb\x96f\xc3,3\x00\x19[\xfc+\xdd\xbc\x05\xf0\xc2[[\x04\xd3LJ\xea\xaaw~\xeb\x02?|\xd7\xa1\xe8?\x0f\xfc/\xe1\xbb7\xb9\xb8\xb7\x13\xee\x95\x89\xcae\x89\xdb\xd0{Q\x05\x88\xd4e\x0f\x1d\x81Xcm\xbf\xbb8/\xe9\xf5\xc5n\xf8sD\xd3\xd6b\xf3G"\xaey\x12\x11\xcf\xb6k\xb3\xd0|=\x1cj\xcfe\x06U\x87\xf1\x1e?\n\xfe6\xd1$Y7n\x1dx$\xf1P\xb8W\x95\x82\x92\t\x1f1=?\n\x99\x925\xc7\x94NPrZ\x90\x80\xbf!8\x04g4\x06\xb9\x8f\xe5@\n\xff\x00\x16}*9\x1dy\xc2r\x06i\xb8\xdc\x01&lt;\x13\xd34\xc5\xc2&gt;\xd7\x19-\xc2\xe7\xbdz\'\xc1MN\xc5&lt;gcy{\x0byy| \xe7k\x01\xc3\x11\xe9\x9a\xf4\xdf\x88_\x10\x9d\xad\xa6\xd3t\x8d\x8a\xa2#\xe6K\x90^\\\x8f\xe1\x1e\x9e\xf5\xe1\xf7\xda\xbe\xa3\x1c\xd2[\x87Uw\x97qn\xa4\x8c\xf4\xa3\xc3\xf70\xc7\xa8\x96\x94\xfc\xbe[nb\xbc\x13\x8e\x99\xad1\xa7^=\xe0gb\xe1\xcf\xc8\xa3\xf9V\xc5\x97\x82\xaf\xee\x18]5\xb1\x8dB\xe4n\x1d\x7f\xc6\xbb\x1f\x03|/:\x8a\x90\xd9p~c+\x0c(\x15\xee\x9f\x04\xbe\x0b\x0b\xeb\xc8\xb4\xad:)d[\x94\xdcs\x19\xc9\x19\xc7\xcc{{\x1a\xfa\xb7\xe0\x7f\xec\xfdwq\xaf&amp;\x9b\xa4\xe8\xd2\x04\xb7\x97\x1b\xdds\xbc\x11\xce=E}\xd7\xf0\x87\xe1~\x99\xe1\x0b\x04\x82\x1bX\xa0\x0b\x12\xfc\xc8\x83\xcc/\xed^\x95\xe1\xef\x0c\xc5$\xf1J\xf2\x19\x99\tm\xf2\x90H\xc7n+\xab:ki\xd6\x12\xcbnXH\xcc\n\xa8\x03\x9f\xc3\xd2\xa4\xb7\xd2\xe0\x86\xc7\xed\xb7V\xe5$f\xf9\x89o\xbd\xed\x8e\xd5\x1f\x94c\x8e\x08\xec\xe2\n\x9b\xf76F\t\x19\xadk\x0b\x18\xe4\x06\x13m\x82\xcaH\xc9\xae\x83J\x82\xe9"\xf2\xe2\xe0\x01\xfd\xfa\xfe5\xdc\x15O/\x04\xe7\x8c\x8e\xd4\xd6\x89J*\xf4\xf5&amp;\x85\x05\xc8$}\xef\xbd\xed\x8ad\xc0\xca\xad\x1fN\x0e\r$hb\xe0\xbb\x1c\xa6(FU\xba\xc3c8\xfb\xbe\xb4\x114\x92\x17(\x02\xa8\xc8\x14\xc7H\xe3%\xa5`v\xfd\xd0:\xf3Z^\x19\xf1\x15\xee\x81|\x97\x9af\x0b\xc6\xa4#78\'\xbdz\xbah\xff\x00o\xf0\\\xfa\xec\xb2\xac\xacLQ3\x16\xc1\x0e\xc7\x90=\xc6zW!\xe2\x0f\x0bAio\xfd\xbf&gt;\xa0\xb1\xc7?\xca\x96\xeb\x82\xeaG\xb7Q\x9a\xc8\xf0\xf5\xca\xe9\x1a\xccw\xf1[F\x19$V\xf2\xe4\xe4J\xa0\xe7\x07\xd3=+\xd5~\x18x5\xfcy\xe2e\xd5\xect\xe40Ks\x81\t?)c\x81\x81\xed\x9a\xfaJ\xdb\xf6^\xd3\x7f\xb2\xe3c\xa6Kuz\xcc\x82\x0bHP\xf0\xe7\xa0\xe3\xaf5\xe8\xff\x00\r\xbfc=R\xc2\x08\xaf\xf5[/"\xe4\x92\x05\xa6\xf1\xf2\x9e\xb8a\xdb\xf1\xaf\xa6\xfe\x04\xfe\xcf\xb0X\xeb0Zi\xfe\x16?)\x10L\xf2/\xa79\x1e\xd9\xaf\xa6&gt;\x1d\xfc\x1e\xd2&lt;\tq\x04\xb1\xd9~\xfa_\x9d\xd9\x13*\x01&gt;\xbd\xab\xd3\xff\x00\xb3\x8d\xbbG\x04(\xc1\xa3*\xce\xc0\x83\xb7\x9e\x87\xdf\xda\xb7|;l\x15\x9ag}\xe1\xb8\xfb\xb8\xc5j_\x15\x8a\xd9n\xa3%\xb9\xc6\x074\xf8\x84w\x13\x94VfRY\x8ez\x0c\x8e?ZV\x8d~\xdf"\x18\xce\xc9B\x88\x94\x8cm\xf5\xae\x82\xde\xce\xde\x1b\x92\xc5\x14\x08\x95J\x92\xff\x00{\xd7\x1e\xb5\xb1\x0c\xb0\x00.\x916\xc6\xcb\x81\x9e2k\xf8\xc8\xf3I\xe3\x9ex\xa2^Pb\x85`\xa3\'\xb0\xe9Q\xfd\xe2d&lt;`g\x07\xbd)\x9d\x18\x05\x03\x198\xcf\xa50*\xc8\xfeoB\xa7\x19=\xc5:I\xf6\xb0\x03\x91\x9e\xd5\x1b\xcb\x04\xa0\x90G\xd7\xde\xae\xf8zhmn\x92\xeeuYc\x8e@\xcf\x13p\x1c\x03\x9d\xb9\xf7\xe9^\x8d\x0f\xc5\x9b]SL\x93H\xb4\xb3\x8a\xc6\xdeK\xd6\xba\x11+\x02y]\xa1~\xb9\xe6\xb2|q\xa7j\xf0\xe9\xdaw\x89^\xcd\xd6\xdfXY\r\xac\xa2P\xc8\xc26\xda\xf8\xed\x90x&gt;\x87\x8a\xc0\xd2\x10\xddM\x92\x01rv\xa85\xfaU\xff\x00\x04\xe1\xfd\x95m&amp;\xf0\x1ax\xa7^\xd0V+\x87u\xf2\xf7\x8c\xe4\x1e\xe0W\xdbzo\xc0}\x1a\x1dR=G\xc3\xbaDQ\x8b\x93\x86r\x9b\xb6\x909&gt;\xd5\xd2\xe9\x7f\x0bc\x1ev\xbbu\x04O$%cPx\xdd+\x9d\xa0\xe3\xbe:\x9a\xf4\xdf\x01\xf8wL\x8f\xc434\x0b\xe5\xa5\xb0\x0b\x0e\x13\x05\xf7.\x19\xbf\x0fZ\xefmZ\xcbO\xb7\x8c\x17\xf3\x1d]\x97c/%W\xe6\x1f\x815gL\xd4c\xd4\x19fd9\x04\x97+\xd1\x88\xe9\xf9V\xbd\x95\xb4\xb1\xb9\xf2e\x18\x90q\x83\xd0\xd6\xbe\x9d\xa7D\xb6\xf0\x19\xee7g$\x159\x04\x8e\xd4\xad\xaa[Cx`\x11\xb6LH\x10*u!\xaa\xed\xb4PO \xba\x95\x82\xabp\x18\xf65\xb1\x14\x114 y\xa5\x9c\x10\x02\xed\xad\x0f\xb4\x1b[h\xad\xbc\x91.\xd1\xc8A\x9d\xa7\xde\xbf\x8c\x84E\x0b\xd4}\xfaN\x88A\xe3\xe6\xa6\xb9\x19\'4\x84\x12\xa4\xa8\xcf\x14\x84;(\\(\xcdD\xe1\xa3n\x1b8&lt;\x81K\x1e\xed\xad+t\nH\x14\xd8c\x8fq\xcb\x0ccuI\xf6\x86\x10a%\xe0\xb7M\xb56\x8fe-\xe4\xab\x14E\xb7\x19\x07\x07\x8e\xf5\xeb\x9a\x9e\xb3\xe0\xdb\xdf\x82\xba?\x86\x96\xc2o\xed\xbb\t\xe5SrI)2\xc9p\xce\xd8\x1f\xc2T`\xe3\xbda\xfc&amp;\xf0E\xf7\x8b&lt;i\xa7\xe8\xf6\x90\x19\r\xc5\xeaF\x08S\x91\xb9\x80\xce&gt;\x9c\xd7\xee\x07\xec\xc1\xf0\xf6?\nx/L\xd2#\x94\x10-S\xccD\x18c\xf2\x0ek\xe8\xab}\r\x16\xd7O\xbcK!\x18P\x16T\x93\x96\xdb\xdc\xf1\xdf\x14\x9a_\x87\x11\x9c[\xcd\'2],\xa1I\xe3\x01\xb3\x83\xef]8\xd2&amp;]N)-m\xc4[\x14\x10\xca~\xf1\x1d\x8dt\x1aR\xb0\x87z\xc6\x92\xa9\xc1c\xd5\xb9\xfe\x95cL\xd3\xadl\x1eY-\x89;\x8fB8\xc9\xad\xbd\x16C$\xd3\xc4\xe1q\x10\x05y\xeb\xf4\xadh.\xa1\xb0\xd9\x14\x98_(\x927\xf1\xcf\\Vtw\xce\xd3O\r\xdcg\xcc-\xfb\xa2\x13\xa2\x9e\xff\x00Oz\xb4#\xbb\xba\xbaD\x05\x10\x85\xc6\xdd\xfd\xbf\xbd[\xbadSO\x1e\x0c\x84\x8d\xa7s\xa9\xf4\xad(\x84V\xa5\xa3\x9e\x12NA\xc0nzw\xaf\xe39\x0e\xe1\xb5O;\xe8#\xcb\x88\xab\x8esQ\x92\x08\xe4\x8ei\xc0\x98\xc6\xcfQF\x18\x1eA\x1f\x852W,6\xac$\x1e\xe7m\t\x85\x89\xb7\x0f\xe1&lt;R\x02\xad eB\x00\x1c\xf1N&gt;X\x87*\xbc\x86\xc8\xa7Z_\x0b{\xad\xe9p\xd9\xc7\xf0\xaduZ\x06\xb9\x0c\x90J\xb7\x00\x99\xfc\xd6x\xc3tT\x0b\x93^\xef\xfb\x06h\xb3x\x8b\xe3\x9e\x87m\x15\xaa2\xa3\x1b\x86\x0c:lL\xf3\xfa~u\xfbg\xf0\x07\xc3\xb66\xbae\xb8fI&lt;\xd8\xd0\x17$|\xa7\xd0W\xac\xdei\x97F{v\x85\x91\xa3\xb5\x8c\xab\xa8?\x7f5~\xc3I\x8a\x1b\xd9^\xee1\x1a\xae\xd0\xb8\x19\x1c\xfb\xd4\xba\xa8\x93O\x98I\x1c\x98\x8ffrOA\xebShz\xbcrB\xad,\x8c\xb2$\x08\x0e\x17\xe5\xe1NA\xf45\xae\xae\xf3]E%\xb8\xc2`\x10\xbf\xde5\xa3k\x1d\xd3]\xab\xaamS\xf7\xf8\xea;\xd5\xbb}1\xcd\xcc\x8fp\xfb\xb6\xc4@%\xb27\x0eK}\x08\xe2\xaeX\xa6\x9fs,\x92\xc7,r*\x15\x0c\x02\x12s\xe9\xf4\xabmm\x15\x9c\x7fkP\x85\xc9\xe0\x85&lt;\n\xbb\xa2\xc9\x83\xe5\xbc\xc1A`\xd8\x06\xad\xddk\x02\xd8\x81\xe4\x96v\xe4\x90;W\xf1\xb4\xa8\xb1\xa1\x91H\'\x1d\xa9\xa1\x9aQ\x9cR\xcb&amp;\xf8\xfc\xaf(\x02\x07_Zl\xc0\x97R\x07AO\x90\x87pP\xe7\x03\x9cSK.\x08\xdc?:c\xfc\x83.1\xe8\x0fz\x8d]\xcb\x82\x83\x1c\xf453\x87b\xa5\xd0p\x7f\x87\xa5#l\x883mP\x08\xc1&gt;\x95\x7f\xc2\xd2\xc65\xd8\xa3\x95\x89\x13H\xd1\xf3\xd80\xc6~\x9c\xd7\xd7\x1f\xf0L\xbbH\xe4\xf8\xc5c{%\xc4BX\x12{W\x87x\xdeB\xa2\x1d\xf8\xeb\x83\x82\x01\xeek\xf6K\xe0\xccQ\xc1em\x86`\x9bC\x11\xe9^\xccY\xa0\x86\x19\xa1\x00\x11\x82w\x8e\xb5\x06\xb1w{\xa4\xdeY\xc0"\xf3\xe3\x9f&gt;y~\x0e\xe3\xd0\n\xaf&lt;\xda\x95\xe5\xbb,\xf2\x07\xf9\xf1\x1ac\xee\x7f\x8dj\xd9i\xee\x97\xe6\xee\xdaBP\xbf\xce\x8c\xbc\x1e+\xa4Y`H\xfc\x87E,\xae\xbb\x1d9\x18\xcfJ\xbf\x02\x0b\x98\x90\xdb\xb3\x02\x88\xc5\x88\x1d8\xad4\xb1\x9a+\x94G\x9c\x94x~\x7f\x97\x8cb\x91E\xa6\x9c\x1ax\xd3`|\x87S\xc1\x18\xefM{\xe7\x96\xdbq\x18P\xdf.\x7f\x88\xf6\x14\xdb\x0b\xdb\xa1.\xd1"\x86\x07=y\x03\xd3\x15{S\xb9Vt\x99\x88m\xc9\xc1-\x8c\xd7\xf1\xdcr\x9c\x01\x90}(Y\x80\x1eZ\xc6y\xe3\xa5\x12\x02d\x04\x0e\xd4\x8788l\x1cu\xf4\xa6\x8d\xac@#$\x11\x96\'\x14\x92F\xa4\x93\x9e=\xa9\xb3\xb4\x8d\x84(v\x85\xe4\xb0\xc5G\x1d\xbcl\xc0\xc7\x13\x1c\x1e\xc6\xac"v\xf2\xf1\xee[\xa5#\x85T\x118\xc8g\xc1&gt;\xd5\x1c\x92\xb4S\xf9\x90\xb9\\\x0c\x02\xbd~\xb5\xf5_\xfc\x12\xb6\xf1\xe6\xfd\xa8\xf4\xebI\xee2\xb7Zu\xc2\x80O\x19\xd8y\xfa\xf7\xaf\xdb?\x84/\xb7A\xb4\x8eO\x98\xba\x95\x05y&lt;z\xd7\xad\xe9\xc9wum\x12\xdc\xab\x9f0m\x03i\xc8\xf4\xab\xda\xfcD\\\xc0\x8b\xc8I\tF&gt;\xc2\xb3\xd5\xad\xa6s\x0c\xd3\xb0\n\xdb\x9b\x03\x00\xfbf\xb5mn\x16\xda$C.\xd52\x00\xa0s\xd4\xf1\x9a\xd7Y\x15\xa0P\x84y\x99\xdc\x07v\xc7\xf3\xadm(\xdd\x88\xd5\xa2\x0b\xfb\xc3\x83\xcd^IfX\xc4\xb3]:3F\xc1\xe3+\xc61\xd34\x97q\xc4\xf3o1\x9f\xbe\xdd[\x8f\xbbN\xf2\xe3\x92/\xb3g\x06U$\x868\n{Tq@\xc2d\xb2K\x86\x91\xcb\x00\x06\xccm\xf7\xcdj\xc4\x91\xc8\xa5\xee $g\x08\xbb~\xee+\xf8\xef`J\x00)\xa5\xb6\x8e\x06\x08\xea}i&lt;\xc6\x1c\xa3`\x9e\xe3\xb51\xdc\x93\xf3\xae\xfeq\xbb\xa6)GZF\x01\x93i=XQ\x10|\xb0\x0e\x08\x03\xf8\xba\x9ag\x9b \xdc\xab!\x19\x18\xe5qJ\x8d"\x8d\xae\xd9\xc8\xa4\x906\x01\xf3\x07\xe7H\x18$\xa2Bx\x0b\xc9\xaf\xa1\xbf\xe0\x99\xda\x83\xe9\x9f\xb5g\x85\xe6t\xdd\xe7\t\x93;\xb1\xb04D\x02k\xf6\xff\x00\xe0\xb7\x89`\x928c \x8f\xb2\xe5Y\x0fS\xeb^\xf1\xa4k\x10\xdc\xacf!\xfc\x1d\x07j\xd2\xbc\xb5\xb9\xb9\xfb\xf1\xe64^\xb8\xe4\x83\xd7\x15I4\x85\x17\xc1\xd6\x10\t\xc0 \xb7\x18?\xd6\xadZ\xd9\xdc.\xb2\xb3L\x03@\xc3\x05\x07\xf0\x91\xde\xba-6\xc5%h\xe6h\xcf\x00\x81\xc7J\xd8\x84\x08\x8c^T\x07\n\xa4\x15\xc7s\xd35%\xc2\xdb\xc9\x19\x17Q\x15\xecX7\x0bO\x9d\xe3\xb5\xb8U\xb8\x1b\xa2\x12\x12\x02\xf2H\xc7\xf5\xa6\xda\xdc\xa4\xd7\r\x15\xba\x86,x\'\xf8G\xa1\xab\xf6:l\x16\xeee\x90\x9d\x99\xcb\xb7q\xff\x00\xd6\xad\x1b(\xad\xb6\x9f+$\x1f\xefW\xf1\xbc\xa4\x01\xc9\x14\xc9\x01=\x07zh\x0c\x1b\x80r(b\x04\xa20z\x9c\xfe4\xb8;\x88\xc74\xde\x87i\xeb\xe9J\x9fx{\x1ej)\x86\xe7*\x0fP@\xc57\xcbE|y\xfc\x85\xe9\x9a\x1f\x85\x19\xa7D\x01 \x13\x81\x9eO\xa5z\x87\xec\x8b\xadO\xe1\xdf\xda\x0b\xc2\x9a\xccw&gt;[[\xea\xf6\xea\xee\xcd\xb5v\x16\x00\x83\xfc\xab\xf7c\xe1\xee,\x1e\x1b\x8d\xdb^\xe1w\x0c{\x95\xe6\xbd\xd7\xc1:\xecR\xda\xc4\x82@\xcd"\xf6\x1dq]\xc5\xaa\xdd\xce\xa8\xea\xacA\x1d1W58Y"2\xc5\x00\x0c\xac\xa5\x98\x8f\xe7PY\x85\xb3\x94\xce\xdf}\xbe\xf0~\x82\xb7\xb4+\xbb[\xf9\xfe\xc7e*\xb4\xb9\x02D\r\x9c\x03\xed[\xf2Z\x9b{\xc9.#\\\x8d\x80"\x91\xd5\xbb~\xb5\x16\xado\xf6\xd8\xde\x01\xe5\x87 \x1d\xa4\xe0\x13\xe8k\x12\xd3N\xba\x8b\xcb\xba\xe3\xcc\x97p\x96&lt;\x13\xb7\x1d1\xe9\xed]&amp;\x91\xa2\xda)\xc0G\x0e\xc9\x96 V\xd4z\x1c\x92@\xb1\xba\x92\xa4\x0f\xba9 \xd6\x9e\x91\xa0\xc3g\x19I\xc0by\x1e\xc3\xd2\xbf\x8b\xe6+\xe7\x85V\x042\xe79\xefJ\x08c\xb5[\x9f\xad5\xddpQX\x07\x03\xd7\xadG\xc8S#\xa98\x19\xce(EY0\xe0\xbe\x0fS\x8e\x94\xe4\x90\x17(\x84|\xbd\xd8\xe34\xb8\xc4|7,\xd8\xa8\xa5\xb6\x908bN\x01\xe7\x02\xa1\x9bq\xdc_\xe5\xc0\xf9}I\xa9 c\xe5\x86\x95O\xe3J\xaa\x1d\xb3\x9c)\xeb[\xdf\x0e\xef.4\x9f\x19\xe9\xba\xbd\xb4\xe4}\x9e\xfe\x19\x08\xf6W\x07\xfaW\xef?\x815V\xd4|\x1da=\x95\xde\x0f\xd8\x11\xf7\xb3r\x0b"\xe0\xfd+\xe8\x1f\xd9\xf2\xd2\xeeM-5=ZR\xdeP+\x1a\xba\xe3v{\xd7\xb6iV\xc6{B\xc9\x10\x1f)\xc7\x14\xb2G\x17\x97,N\xc0\x92@\xc5W}6\xe6kO-e\x05\x9c\xe4\xb0\\\xe3\x15?\x81&lt;\x11i\xa5\xf8\x8eo\x16Y\x99C\xdf\xae\x1a\'l\xe3o^;f\xbb\xab7\xb7\xb6/x\x17\xe5\xc1\x0c\x8c3\xcf\xb5R\xbfXg\x90\xea\x16\xf1\x10I\xda#\xc79=8\xac\xe7\x82\xeb\xfbA\x00\x01Q\xb9\xcf\xa9\xf4\xae\xafJ\xb7O2\x19\x10\x8e\x803\x0ekFwf\x98\xf9k\xbc,h\x06\x0e2Ct\xab\xd6\x93\xac0\x89%\x94E\xbb\xa6\xee\xf5\xfcY\xb7\x9aC6\xf0\x15~\xef\xcb\x8c\xe7\xd2\x90\xa2\xc4\x16A\xd7&lt;\x8ad\xc25V\x98G\x96 \xe0z\xd3v\x072\x15@6cn_\xf3\xa0`)\x0c\x0f\xfc\x07\xa5+\x08\xc1\x04/\xf0\xf5\xa8\x9d\x87\x96\x1dH\xe1\xfa\xe7\xde\xa3i&amp;e#\'\x19\xe7\x1e\x94\xf8B\x91\x86\xc1\x1e\xadRE\x0b\xcd \x11.v\x9c\x81RCiw(o5Q\x147$\xf1\xc5[\xd3\x12H\xf5\x08\xbc\x86\xe3p\xe5\x7f\x8b\x9e\xd5\xfb\xc5\xfb1[I\xa9x\x0bF\xb8b$2i\x96\xcaT\xf2G\xc8+\xec?\x86\xdaDv\x1aT(p\xc3\xcb\xc8U^\xfe\x95\xde\xda-\xf4\x81\r\xaa\x80\x00\xe5E_\x82\xd2$\xbbR\xe5\x0epN9\xc1\xa4\x9a8\x1fV\xf2b\x00\xacd3\xf3\x8d\xbfQV\xec\xa1x\xae"0\xc9\x88\xd1\xb9\xc1\xea3\xcdo\xack%\xaa\xa5\xa9\x05I\xdcI=j=@\xb46\xeec\x88gp \x81P\xb5\x9a\x9bEv\xc9ea\x8cu\xe6\xb5t\xd9~\xcd\xa5F\xf00b\t\xc8\'\x91N\x82\xf6\xd68\x1a\xf2\xf2\xe4(\'!\x8b`\x0f\xa9\xf4\xac\xfb\x9f\x8b:K\xdb\xf9Zq&gt;b\xca\xcb\xb0\xa6\xee\x17\x83\xfa\xd7\xf1\xbf\x90r\x1c\x8d\xb8\xe3\x14\xa8\xc1\x14\x94\xc1\xff\x00z\xa3\x92II\xc1\xdb\x86\xe0{S[\x04l\xc6\x0fs\xebL\xdc\xea\xdb\x02\x9e\xb8\xe9Dsb\\8\xe0\x1e\x01\xefC\xc2\x17#8Rs\x82zS\x02\x92\xc64\x19\xdd\xc6EJ#\x11&amp;\xc22{\xe2\x9d\x14\xefj\xc1\xe2\\\xf23\xedL\x96\xe2[\x81\x86\x93\x04\xb7@j\xe6\x88\xb2\xc9\xacAl\x1b J\x8a1\xdf$f\xbf\xa2_\xd9C\xe1\xf8\xb3\xf0&amp;\x80/\xad\x97?\xd96\xb2\xc4\xd1\x9c\x82\xbb\x14\x9a\xfa\x93\xc2\xd6)\xa7\xc7\x1a\x98\xcf*6\x8d\xbc\xd7g\xa7\xa7\xee\xd5\xa38\'\xb1Z|6kw8\x16\xc0\x87\x12\x02\xf9\xe8F{T\xb7\x1aZ}\xa2Ic\xfb\xd2\x91\xb8\x8fj\x9e\x0bK{+D,\xc7p\x07 \xf6\xad=:)\x1eveB#\x10\x91\x1a\xe3\xef\x12:\x8fZY\xc2\xf9b\xdeLn.\x06\t\xe6\x9a\xdb`G\xdeHX\xc1$\x81\xd2\xb0u\x7f\x1a[X\xab7\xda#\xf3c\xf9\x82\t\x008\x1d\xf1\xeb^a\x0f\xc5Y\xa1\xb9\xbf{\x9b\xcf\xf4\x8b\r=\xe7\x96\xdc\xc9\x94\xb8\x87\x93\x81\xeeG\x15\xe0)\xfbOO\xe1\xdb\x81\xa6Mr\x97+km\x0b"\xa3\x12\xd9\x9d\x04\xacI\x1dp\xd9_\xaa\x91\xda\xbf\x9c\x99\x193\x80\xbc\xfd*&gt;\xa3\xe5l\x1f_Jpl\x00\x19\xf3\xff\x00\x01\xa8\xe4\xe6E#\xb7Z\x1c\x12~^\xfd)\xa4\xc8\x8aK 8\x1dE&amp;\xe3(\x01\xb8\xc9\xefCb\x01\xb9ON\x94\xf8\xdc\x15\xf3\x1c\xe3=I\xa4\x90\xec`\x00\xce{z\xd3&lt;\xf4\xc1*\xab\xc7\\v\xad\xcf\x04\xe8\xb2\xea^ \xb1\x85J\x83%\xe4HC\xf4\x19p9\xaf\xe9\x7f\xe0\x8e\x8f\'\x87|\x01\xe1\xbd5l#\r\x16\x85j\x92\x14\x04`\xf9k\x90A\xe7\xf0\xaf[\xd2\xf5(\xd5VI$\x87\xe5Lm\x1dEu\x9a&gt;\xb3cs\x1a\xa4\xc5\x91q\x82\xfe\xd5\xa9\x06\xa0\xac\xe2e\x91~S\x85\xda8#\xde\x9f\r\xcd\xbc\xd7~Q\x9d0NI\xdc*\xfe\x9dj\xd2M h\xfe\xea\x12\x82A\x8d\xdc{\xd3\xe2\x9dl\'\x86\xca\x07\xdd\xb8\xe5\xdb\xfb\xa7\xd2\xa47*\xf28\n\xa7\xe5\xe4\xf7\x03\xd6\xb0\xbe#jph:,\xd7p\xce\xc0\x95\xc9#\x9cq\xe9_*\xfcW\xf8\xa7\xaeh\xbe.\x8dDJ"\x99K\xdb\xdfBK\x02G&lt;\x81\xc7\x15\xc6\xeb\xff\x00\x13?\xb1/ \xd7"\xb3\x92&amp;\x96\xd1\x8d\xec%\xb3\xe7\xc6\xdcq\xf4\xeb\x8a\xf1-z\xde\xfaMkQ\xbe\xd0\xef\xe3\xfb%\xec\xb1K\x07\x9aF\xe4Q\xe6\x80\xbfNs\xf8\xd7\xe1\xf4\xbc3g\xde\x98\x98\\\x97\x07\x18\xc9\x00v\xa4f\x91\x9c3\x0c&amp;~\\u\xfciprx\xa5 \x8021\xcd\x0c\xca\xbf{\xd3\xa7\xad \xd9\xe6\x9f1HV\\g\x1d)\xbb8eQ\x95\np[\xbd6`&lt;\xb5\x04\xed\x04\xf44\x97\x0e\x0c"Rz\x1cqD0\x88\x95\xb6.\xe5e%\xb3^\xd3\xfb\x07|5O\x8a\xdf\xb4\xb7\x85\xfc!uf\xd2B\xfa\xacS\xdc\x81\x93\x84Y\x14\x90\x7f\x0c\xd7\xf4\x1d\x1f\x8c\xf4m\x13O\x8eF\xd6c\x81\x160\x8b\x1a\xb8\xc8\x00*\xff\x00![\x16\xff\x00\x13\xb4m&gt;\xc5/n5R\xf1\x1ca\x94g\xf3\xa9\xbf\xe1\x7fE\xa4j0\xd9\xc9|\x1c\xdd\xc4M\x98\xc0\xdb \xf6\xf5?J\xec|\x1b\xf1\xa3H\xd4\xd7\xcf\x13(q\x81$L\xe3 \x13\x8c\xe2\xbaG\xf1e\xbd\xb3\x8b\xc5\x98\x80\xcc8#\x1c\x9e\x95\xd1\xe9^(\x92\xfe5D\x94\x06\\op~\xe8\xf4\xad\x15\x9aXc\x12\t\xf2Y\xbe]\xc3\x93\xf4\xa8\xe4\xbc\xff\x00D+tv\xb3B\x02\xed&lt;\xe7=\ry\x0f\xc6/\x1e\xcbk\x1d\xc2i\x9a\xe4kr\xa3o\x913\x8d\xac=9\xef_&gt;I\xe3\xc6\xb0\xd6m\xb4\xcf\x13i\x02\xe7I\x9eS\xf6\x84e\xfd\xe5\x84\x8cx\xc1\xee\x8d\xdc\xf4\x02\xafx\xfbN\xf0\xae\xab\xa6-\xa6\x85q\x19\x8dWu\xb9\xc8\'\xcb\xfe4c\xd8\x91\x90+\xe7\x8d[J\x97\xc1w\xd2\xa7\xcd;\xef1\xb4l\xd9\xda9 \x8fj\xfcG\xb8\x98)\xd9\xe5\x93\x9e\xe0Rp\\zm\xe4\xd2\x06\x0cvdq\xd2\x94\xa9\xce\x1b\x8fsQ\x94\x90?\xcf\xf7GN:\xd14\xc8\xcf\xb4\'\xf0\xe2\x87\n\xd8\x01G+\x8f\xbdJ\xec\xa8\xc1s\x91\x8e@\xa8\xee7 \x0c\x06W\xb0n\xb4\x9b&lt;\xf8\x01\x19\x008\xcd9V06\x02\xc7&lt;b\xbe\x8d\xff\x00\x82z\xf8\xd6O\x86\x9f\x12\x17\xc7\x91E\xbaH\x19\xe2A\xb3\'\x91\xd3=\xab\xef?\x1c\xfe\xd4\x8d\xa8\xf8r\xd2{\xcb\xa7Gp\x1c}\x9a|\x9c~\x15I\xff\x00k\x83\x0e\x94\xba\\\x1e,YZx\x1b\xfd\x15\x8e\xe9\x07\x1e\xc7\x83\xefW\xbc\t\xfbQ\xea\x1e)\xd1\x9bG\xbb\xd6\x02_\xe9\xcef\xd3\xdaIG*\xbc\x94\xfcq\x8a\xf5o\x0b\xfe\xd5\xd6\x9e!\xb1[\xdd\x13T\x8a+\x9d\x86)\xed\x1c\xec \x91\xb4c=H&lt;\xd7\xb0\xfc7\xfd\xa9\xed\xf58-\xe1\xd6\xa5\x0e\x8d\x84\x9d\x84\x80\xec#\xb9\xafx\xf8w\xf16\xd7Pq\xf6K\xc8\xdaD\\2\xe3\xefg\xa7\xe3^\xa9a\xaa\xb6\xa3o\x0c\xb1\xbe\x1dp_=*Mf\xe0\xcc\x8f\x03NPyg\xf7\x9bq\xce?\x9dx\x97\xc5\xaf\x86:\xca\xcf\xfd\xa1qt\xedm3\x8c\xc8\x10\xf1\x93\xeb\\\x86\xa9\xf0\xf3PM2}Ji-\xda8\xe2)::\x0f\xde!\x18\xc8&gt;\xb8\xaf\x9a\xbfi\x1f\xda\xff\x00\xe1o\xc0+\xb1\xa2[\\\xbd\xf6\xbc\xeb\xe5\xc5\xa3\xe9\xcb\xe6\xc8s\xc0\xca\xaeJ\xe4\xe0d\x8a\xf93\xc6\xfe/\xfd\xad&gt;=\xdd\rz\xdeh\xfc\x19\xa7\t\x19\xad\xe0\x99\xb7K9=\x0bzq\xda\xbf9\xa6\x8dB\x93\x91Q\xc4\x01\xf9I\xc6F)\x1c\xa4O\xb5Ss\x0fAB\xbb\xc8x\x1c\xfa\x1a\x1c\x80s\x11\xcb\x0f\xbc\x0fAQ\xca\xe5\x06\xff\x00\x91\x89\xf7\xa4)\xe6(iI\\\x11\x92;S\xca\xaa\x8cF:\x0c\x9c\xf5"\x8c\x07\xc6\xee\x7f\xd9\xefM\x99QJ\xc5\x1c\x8a\x01\xe4\xf3M\n\\\x98\xf0W\x03\x96=\xeb\xd2\xbe\x05\xf8\x93\xfb\x1e[kx\x8b\xae\xeb\xf0\xd3\xe0s\x8c\x8f\xe7^\xaf\xf13\xc6^&amp;\xba\xd2\xfc\xff\x00\xb6H\x96\xe6\x14\x07\xca&lt;\x02\x0f\x00\x1f\xe7\\\xaf\x84&gt;"\xc9e\xafC\xabx\x9e\xfe{\x94g_&gt;\xde\x17\xc1UR&gt;\xe9\xfaw\xae\xeb\\\xf8\xb1tn"\xd5|=\x7f%\xb4\x89\x11H\xe4r\t\x08G\xdd`?\x9dA\xe1/\x89\x1e \xd2\xb5#\xa8[\xdeI\xe6I .\xa1\xcf\xef\x0f\\{}k\xd8\xfe\x1c\xfe\xd6:\x96\x98\xe2\xd3_P\xc9\xd1\'Y\xb0\x7f\xdd#\xfa\xd7\xda?\xb1\xaf\xedYe\xe2]th\xaf\xa9\xac\x92K(6\xe8d\x04\x02\x07\x1c\xf7\xe6\xbe\xf6\xf8e\xaa\xff\x00hi\xc5\x85\xc3\x1c\x80\xd2n?u\xbd+\xd3\xedlm\xf5;B\xc9n\xac\x85\x02\x92G\x7fZ\xc0\xf1\x84\x1a\x17\x86t\x1b\xbb\xcf\x1aj\x96\xd6\xbadp\xbc\x97s\xdf`E\x12*\x92I\'\x18\xe0\x13_\x9c\xff\x00\x18?j/\x8e\xff\x00\xb6w\x89/\xfe\x11~\xc5q\xc9a\xe0\x9bi\xa4\x83Q\xf8\x8dq\x16\xd5|\x12\xae\x96\xd9\x18|\x0c\xe1\x81&lt;\xd7#\xe1\xef\xd9#\xe0\xc7\xc0X\xe4[\xc9\xc6\xb5\xe2i\xc1{\xddcUc5\xc4\x92\x1f\xbc\xc3=0y\x00TZ\xd7\x81\xd7Z\xdal!\x0b\x1a\x1f\xbc\x91\xf5\xfc;W\xe2\x8c\xa7l`\xe38l\xe3\xf1\xa6\x9b\x83\xd3\xc9\x03=8\xa6H\xa4K\xb9z\xb2\xe34+\x05\x18\xce\x08=\xfb\xd2c\x04\xb0\xee9\xa0D\x0b\x05f\xeb\xd6\x983"le#ss\x9fjW\xdc#\x0eT\xe4p\x06)X\xecp\xe0\xf3\x8ej\'\xc6L\x8e1\xdcf\x89d$\xe4\x1c\r\xbdMt&gt;\t\xd5_O\xb9wl\x8eT\xaex\xcf\xd2\xbe\xca\xf8)\xe0\xcf\tx\xff\x00\xe1\xdd\x9d\x94\xb6\x89,\x92g\xcc\xf3\x9cn\x12\x01\x9d\xa4~\xbfJ\xc3\xf1\xc7\xec\xcc\xd7\xde4\x87\xc3\xfe\x1a\xb4Y\xef\xefp\xc9\x12.\x12\x04\x07\x92q^\x99\xe1\x0f\xf8%\x0f\xc7\xef\x1e\x80\xf2\xeav\xd6P\x1d\xaa\xaa\xc3\x198\xe9]T?\xf0D\x1f\x8f\x17\xf1y\xfaO\x8c-\x8b\x89\x9b\x80\xa7\x04c\xb56\xd7\xfe\x08g\xfb_\xdc\xc3=\xd7\x87\xb5\xbb9\xc413\x08v\xb1w^\xe4\x0fL\xf1\x9a\xe2\xbf\xe1\x9d\xbfl\x8f\xd8\xdf\xe2e\xa7\x89u\xbf\x04M46\x17J\xd2\xbd\xb8s\x1c\xa9\xf7\xb6\x92\x06\x01e\x07\x15\xfb\x1f\xfb.|C\xd3&lt;g\xf0\xebB\xf1}\xbe\xa3\x1cq_XD\xeb\xe76\xdd\x84cz\x9f^r3L\xfd\xa4\x7f\xe0\xab\xff\x00\xb1w\xec\x95\xa4\\\xa7\xc4/\x8a\xb6W\xfa\xa4 \xacz\x16\x92\xe6y\xe5l}\xcd\xa9\x92\xb9&lt;d\x8c\x0c\xd7\xe4\x1f\xed\xa9\xff\x00\x05\x8b\xf8\xd1\xff\x00\x05\x02\xf8\x9f\xa3|\'\xb4\xf3\xbc%\xf0\xf6\xf3[\x8a9\xb4\xcb9\xca\\_FeU\rq \xfb\xc0\x83\xd0t\xef_C\x1f\xda\x0f\xe2?\xc3\x9f\x81\xb6\xfe\x13\xf8[\xe1\xabM\x03A\xd2\xa1kX\xae\xee\x10!m\xa0\xefn\xc7$\xe4d\xf7\xaf\x17\xf8a\xe2\xbf\xda\x0b\xe2\xd7\x8f\xe5\xf1`\xbc\x92\xfe\xde)Ls\xc8\xa5\x9d";\x80\xf9\x88\xe0s_Z\xe8?\x0b~-I\xe1\x8b}N}B\xd6\xddea\xb5D\'\'\x8a\xfc\x1a\x96(\xd9~F9\xa4tTU\x0f\xc9\'\x8ez\xd4n\xbbX\x13\x1e9\xf5\xa5hC|\xe7&lt;s\xd2\x90\xf2\xa7\x1e\x94\xa5X\x9c\x80O\xc9L\xe1\x80\x00\xe7\x1dq\xda\x9b)\x8c\xb2\xedc\xf7\x85\x0f\x86m\xb9\xebM\xe8|\xa9\x86=\t\xa7\xc7g,\xf2}\x99"r\xdd\x82\xaeO\xe5]\xd7\x84~\x00x\xbfX\x82+\xeb\xc5\xb4\xd3\xe2\x92\x16\x93\xed\x17\xd7"&lt;\xa8\x19\xe46+\xd8&gt;\x04\xfcB\xd4~\x18\xeb\x10\xe9\xd1E&amp;\xb7r\xc3)e`\x0e\xd2Le\t\x18\xeb^\xaf\xe0\xbf\x8b\x1f\x1c\xf4mr\xff\x00\xe2&amp;\x97\xe1]\x1bBK\xb2B]k\xd3\x03\xb7g;Sv3\x9cr\x05k\xea\xdf\xb7\x8f\xedqwp\xf7w\x9f\x1dt\xdd\x16\xc9\x90\x0f\xf8\x97\xd8\xfc\xa1\x8f\xcb\xc1 \x8c\xfbW\xb2|\x01\xf1\xd7\xc5\xcf\x8ami\xa5^\xff\x00\xc1D&lt;Mj\xb76\xc6h\xa1\xd3\xb4t\xcb\x03\xc6T\xf9_2\xe7\xb8\xe2\xbe\x8a\x9f\xf6h\xf8\xb5\xe2\r\x0e\x0b\x8f\x87?\xf0T\xaf\x14Iy\x1aI\x1a\xc7$0\xae\xdf\x98\x10H\x08\t\x1b\xbf&gt;\x95\xf0\xf7\xfc\x14\'\xe2o\xfc\x14\xc7\xf6o\xf1\x15\x87\x87&gt;6\xfcy\xb9\xf1\x06\x8b\xa8\xa9\x8bH\xd4\x92\x08\xde+\x81\x1cd`\xed\x1f{a\xdd\x8e\xb8\xe6\xbc/\xe0f\xaf\xfbp\xfe\xd4\xfe(\xb4\xf8\t\xf0\x93\xe2\x17\x89oZt(l\xac\xefLp\xc2\x85\xb9-\xb7\xa0\xe7\xa7z\xfb;\xc0\x1f\xf0l\xbf\xed\t\xe2\xdd\'\xfb\x7f\xe2W\xc6\xbb=2\xfe\xe0,\x92\x8f!\xa7\x90\xe7\xa8b\xc4\xe7\xf0\xe6\xbcs\xf6\xaf\xff\x00\x82\x1b\xfe\xd7\xdf\xb1\xfe\x9e\xff\x00\x13m\xa0\x8b\xc5z6\x950\x9a\xee\xebFbe\x89W\xe6\x0ec\x19!@\x19?J\xfa7\\\xf8s\xe1o\xda\x7f\xf6\x08\xd0\xfe\'h\xda\xcc\xc2\xe5\xb5\xcd.=R\xc6\x1c\x85\xb6\xcb4Z\x86\xfcv\xe6\'Pz\xed\x7fC]\xe5\x97\xc0\xcd\x7f\xf6C\xd3\xf4Ko\x84VZu\xd4z\x9d\xf2\xc9s-\xfba`\x88\xed\x89\xd5\x83}\xe52:\xe5\xbf\x875\xf4g\xc1O\x8a&gt;\x1a\xd7-\xef&lt;-\xe2\xe2\x9a.\xa9\xa7\x15k\xab(\xd0\x18\xc9?\xc4\x0bz\xd7\xf3P\x91F\xab\xbbq\xf6&amp;\xa2\x93\xf7\xce\x17\xd0\xfc\xb4Lp6\x9e[\x1cc\xb55ZA\xf7\x9b\xea(\x1f9\xf9F}G\xad\x00\r\xf9T\x03\x1dF\xeag\t&amp;W\x9d\xc7\x04\x8a\x18*HX\x9e\x9c\xd3$\x8d\x81\x07\x04\xf9\x9c*\x8e\xb5\xbf\xe0\xcf\x87^)\xf1\xbe\xa6\x9av\x83\xa1\\]\xcaQXE\x04l\xcd\xb4\xf4n\x07\x03\xdf\xa5z\x14_\x0e\xe5\xf8qn\xd7\xb7~U\xb32\xeep\x13/\x91\xd7$\xf0G\xae+\x17\xc4z\xe8:r&gt;\xd9\x18\x89J\xb4\xb23d\x1e\xbbq\xdb\x8aw\x81\xfcY\xafxK_\xb5\xd5\xa3\x99\xa3\x11:\x95\x91\x06X\x0c\xf4\x1e\xf5\xeb\x9e&gt;\xf1m\xd7\x88\xf4\xfb\x11-\xec\xf7\x16\x85\x89\x8d%\x97\x1b\x99\x863\xc7\xbdy~\xb16\xbd\x7f\xa9\xcf1\x92y\x8cN\x160\x84\xed\x00\x7f\x0f\xd7\xde\xbe\xfc\xfd\x82\xff\x00\xe0\xa0\xde0\x83Z\xf8!\xf0Z\xfb\xe1\xb7\x86\xa0\xb6\xf0\x04s\xf8r\xdbV\x8bO\xcd\xc6\xa1c\x7fx\x92\xb9\xb8\x05\xf6\xac\x89\x92\xab\xb3q+\xd6\xbft\xfcK\xfb\x15\xfc\x02\xf8\x8d\xa2E6\xa7\xe0\x1bX\x1e\xe2\xc7\xcb3\xda\xabD\xea\xcf\x83\xb8m\xee3\x9a\xfc\xe1\xff\x00\x82\xed\x7f\xc1;\xed\xfe\x1e~\xc6\x1a\xf7\x8a4?\x11\xdfj\xb6z\x0c\xf6\xf7\xf6\x90\xde\x9d\xd2Y\x15\x93k\xec=@(@\'\xa7\xca}+\xc3\xff\x00\xe0\xd8\r\x0fO\xd5\xae\xfe#x\x92\xefO\x89\xefm\xaf4\xf8\xe2\x9aDVdV\x88\xb3*\x9f\xc3\x9fJ\xfd\x98\xd3\xa1\xbckr\xa4n\xc3eJ.p=&gt;\xb5\x97\xe2\xdb\x1d+R\xd3\'\xd3/"\x8d\xa2\x9d\x18\\\x0b\x98|\xc5\x93#\x1c\xa9\xea\x07q_\x9d/\xf0\xcf\xc2\x7f\xb1\'\xed=\xa9\xf8/\xc4Z{\xc1\xf0w\xe2\xd2\xfd\x96\xe4\x90Z-\x13Tw\xda\x93)\xfb\xaa\x8e\xcc=+\xeao\xdb+\xe0\xee\x9d\xf1\x0b\xe15\xc5\xff\x00\x85\xad`\xd3u{M&gt;=\xb6\x96\xa443\xcf\xf6eY\xa1\xc8\xe9\x1c\xc0)\r\xeb\x929\x15\xf9\xe9\x17\xc3\xcf\xda\x96\xe7\xc5\xa7S\xf8\x82\x93G=\xa5\x89\xb3\xb7\x8a\x1d\xca\xac\x81\xd4\x868\xe4\x9d\xaa\xa0\x13\xea\xd5\xf8\xd8\xea\xce\xa1\x00\xc0\x1d\x8d6E\xd8\x03\x8f\xe19\xa4e\xce$\xeez\xd4r\xe7\x04\x8f^\xd4\xa5G\x95\xd4\xe5\xb88\xebL\x1b\x06\x03\x92@?)\x1e\xbe\xf4.v\xf09\xddI\xb49!\xce\xd2x\x1b\xb8\xadM:\xca\xda\x03\x14\xeer\x122e%wm\x18\xe7\x03\xb9\xf6\xaf\xd9o\xd9+\xe1G\xec\xe1\xfb&lt;~\xcf\x1e\x18\xf0\xf3xr\t|K\xe2\xbd-o5\x8dmbY63[\xa11)?uB\xb9\xfa\x11_\x1f\xfe\xd5\x9f\xb2\xef\xc5\xf8&lt;;\xa9\xfclO\x0ey&gt;\x0f\x8f[\x92\xde\xd6\xf9\x9c\xc7\x94feW\xce8R\xca\xca\x18wR\x07"\xa0\xfd\xaa?c\x0f\xd9\x8f\xe0?\xec\xdf\xf0o\xe2\x87\x81\x7fj\xfd\x1f\xc5\xba\xe7\x8dt\x89g\xf1^\x87c4&amp;m\x12\xecyx\x8c\xacld@K\x15"P7`\x8a\xf1\xf7\xf8}\xa3\xeb\x9a^\x9f\xaf\xf8K}\xdb]N-\\\xcb\x1e\xd8\xd2V\xe12z\x0fZp\xf0\xc7\x88&gt;\xc6\xf6Z\xb1[y\xa2\x93\xfd\x1e,\xf6^\xb8\xf6\xab\xda\x1f\x82\xb5=s@&gt;-\xf0\xf6\x8e\xd7%n\xa4\x86\xe6\x14R[v\xd3\xce\xd1\xf9\xd7\xd1\x1f\xf0Mo\xd9\xcf\xe2_\xc4?\xda#A\xd5\xa0\xf0t\x91Xh\xfa\x8c\x177\x92\xddB\xc8\xad\xb3\r\xc1#\x19\xe3\xf3\xaf\xe8\x02\xfb\xf6\xb7\xf0/\x82t\x884\x9f\x128[\xc5\xb6]\xb0\xc1(f\xdc0:\x03\x9e\xd5\xf1\xcf\xfc\x14k\xf6\xa1\x9b\xf6\x8b\xf8+\xe3/\x84\x1e\x1f\xf0\x90]\'S\xd2n`\x92\xfa\xe1\xfebB\x9c\x10\x0f\xe7^=\xff\x00\x06\xd7|\x1a\xbc\xf0O\xec\xb3\xe2/\x89\xda\xcd\xac\xd1I\xe2_\x13\xca\x96\xac\xcb\x8d\xd1\xdb\x85@G\xa8$\xb8\xc8\xfe\xe9\xf4\xaf\xd4-%\xa6tK[\x007\x1c\x1f\x9b\xd6\xb9\xdf\x16iz\x84:\x93[\xdc&lt;as\xd5\x1f\xd7\xady?\xc7/\x80\x1e\x10\xfd\xa0&gt;\x1b\xdf|&lt;\xf1\xd6\x9d\x14\x96\xf7\x90\x9d\xd3g\x0f\x0b\x8c\xed(z\x83\xdf"\xb8\x8f\xd8\xd3\xc6\x9a\xdd\x94z\x87\xeco\xfbI\xea\xedo\xe2\x8f\x0c\xdb\x08\xbc7\xab^\xc8\x04:\xe6\x9e\x1b1\xb2\xb3c2\xa0\xc0\xef\xd2\x8f\x1a\xf8+W\xd4\xfcWw\x0e\x88bi\xed\xdc\xa5\xd4\x8cT\xa1\xfe\xee\x0f\xd2\xbf\x986\x94\x97\x03\xde\x9d"\x92\x84\x11\xd4T|\xc4N\xf1\x90P\x81\xedL \xe3\xd3\xd0\xd3\n\xca\xa3p|\xe3\xb0\xefJ\xaa\x08\xdax\xe3?\x8d\t\xdcg\x14\x91\x10\xd2\x10\xe38\xe9\xeek\xa4\xd1\xed\x955\x18\xa1`\x1df@\xbc\x9e2{\x1a\xfd\xa3\xfd\x965o\n\xdd~\xc2\xbe\x0b\xf8\xa7\xa8\xda\x0b\x88,\xecaMV\xe0\xc7\xe64\x029&gt;\xcb.}1\xf2\x92&gt;\x95\xc0~\xdb\xde/\xf8\xa9\xf0_\xe1_\x8a\xbffMv\xda\xfa\x7f\n\xeb\xd2\xdb\xbd\x87\x90\x8aR\x15\x8ec0\x8d\xf22\xdf\xbeb\xc8\xeb\xc1\x04\x8a\xfc\xdb\xf1\xc7\x86u\x08|1\xf6\xbbH\xc1k,\x1d\xc7v\xe6Pp\xf8\xcf\x07\'\x9e=+K\xe1\x7f\x88M\xaf\x85g\xb2\xbd\xf1\n\xac\x11\\\x1b\x98-\xa3 \xbc\x9b8\x04\x0e\xbc\xfa\xd6\x17\x89|o\xa8\xc5\xaf-\xe6\x97,\xdec\xca\xaf\x00\x94\x9f\x93\x07\xa1\xcf\xad}\x8f\xfb\x1e\xeb?\x0f|-\xa4C\xabx\x82\x17H5\x9f"\xf1I\xda\xc0J\xa3k\xaf=9\xe0\xfdk\xe9\x9f\x86\x1f\xb6\xed\xbbOy\xa0\xf8W\xc1_\xd9\xedk\x94K\xb8\xe3X\xfc\xc5\xf5\xe9\xcdk\xc9\xf1o\xc5\x9a\xa6\xa0uMFY\xa4I&gt;ey$;\x87\xb0\xac\xab\xbf\x19j\x9a\x85\xea\xdb\\\xb1"\xe3(Q\x9f\xe5\xc3q\xcf\xe7_|\x7f\xc1;\xbc\x07\xa0\xfc?\xfd\x8d|\x17\xe1]\'MX#\xb4\x82\xe8\x05\x0b\x86\x92F\x96Wi\x0f\xb7&lt;\x1fq_D\xf8B\xf0\xdaHJ\x85A\xb7\xef\x11\x9cU\x1f\x13\x18\xafn\xdaiO\x98\x01\xfb\xdbp+\x94\xfe\xcf\x90\\4\xc9(\x0b\xbf \xe38\xae\x17\xe3\xef\xec\xe9\xe1\x0f\x8e\xde\x12]\'Q2i\x9a\xbd\xa1o\xec\xddv\xc9\x8a\xcflH\xfb\xb9\x1c\xba\x93\xf9W\xc2\xbf\x11\xbfe\x0f\xf8)\xd7\xc2\xbf\x10\xcbe\xf0\xe3\xe2\x8a\xf8\x87L\x95\xcf\xd9\xeeer\x8e\x17\xb09\xeb\x8fZ\xfc*\x8d\xe3W;\x93&amp;\x9b\xe6\x1f7\x9eA\xe8(\x91w|\xbe\xa3\x14\xd7Q\x12\x05&lt;\xd3\x17\xa8\xfa\xd3[\xef\xb7\xd2\x9bJ\xbc0&gt;\xf5\xb1\xa6\xddb\xc8]e\xb7#\x8cs_\xb2\x9f\xf0o?\x88\x87\xc7/\xd9\xf7\xe2?\xec\xd1\xe2\xdbU\xb8\xb7\xb4\xcd\xe5\x9c\xb3\xa8d\x8d.\xa0x%\x8f\xd7\xef\xa4r\x0fpk\xd2~+\xfc\x14_\xdaw\xf6a\xf1\x87\x87u[\xe4\xd3\xf5\xbf\n\xab}\x93R\x88\x96W\x10\x02\xa5I#8r\xa7&gt;\x99\xaf\xca\xcdoC\x17v\xcf\xa7]&gt;\xecH\xd9]\xdf(\x1b\xb6zz\xf3^Iqz\xda\x0f\x8c\x8d\xbd\xba\x0f"9\x08\xf2\xc7\xf7\x1b\x8d\xbf\x9d7[\x18\xbbK\xb2\x01/ *=9\xaf\xaa\xff\x00e\xeb\x8bO\x10\xfc\x14i\x1e\x02\'\xd2u_*7n\x85J\xf9\x87\xf5\x15\xf4\xb7\xc1\xcd\x03A\xfe\xcf\x91\xae,\xf7\x16\xda\xfb\x82\x8c\xe7\xfc+\xa4\xf1&amp;\xb5f\xb61\xc1mh\xc9\xb3r\xe6\xa3\xf0\xfe\x8d\x1b[\xbe\xb1;\x961!\x91\x17=\x08\xe4W\xea\'\xec\xbdc\x06\x99\xf0O\xc3\xd6P\xa0\xc4zj\xb8\xfa\xb7Z\xf5\x9f\x07\xe9\xe8\xd7-&amp;\xec\xee\xecz\n\xcf\xf1R\xfd\x92y\x16E\x0e\t8\xed\x8a\xe7~\xc4\xc6\xdeI\x84\x98\x0c\x0e\x05G\x01Pf\x8al\x9c\x01\xc8\xaa\x1a\xe4\x8f\x08\x8a(\'p\x14\x1e\xa0\x1e\xb5\xff\xd9'</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00\x1e\x00\x1e\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xf9s\xc6\xda\x9c\xe2\xe1\xd2 J\xedd\x91_\x90\xdc\x1e\xdd\xeb\xc1\xbe \x88-Q\xad\xc6\xd5\xdcN\xd5T\xc0_\xa7\xa5x\x8f\x8a\xee&amp;\x86\xe5\xe1\xf2w*\x13\x9e3\xd6\xac\xf8.)\xe6V\x8e(X\xe1\x015\xf6\xaf\xc4{\xd9a\xbf\xfbB[0^IX\xcfOz\xf1\x1f\x88\xce\xd2\xb12Z\xb3\xba\x92\xe3\xe9\xef^=\xe2i\xe2\x85n\x04\xd68f\xe47|f\xa0\xf0^\xa3z\x8a\xe9o)F\x087\x1d\xd8&amp;\xbe\xd2\xf1u\xc8\xbf\xb9{\xbb \xca\x8c0Ku\x07\xbek\xce\xbci\xa5&lt;\xd0\xc9\r\xa8\x8eG\x91v\x96(\t\x1c\xfa\xd7\x86|A\xd0ol\xe5\x9a\x11j\xfb\xc2\x95,\xc3\xf9W\'\xa0E,R&lt;"\xe9\xd5\xc2|\xc41\xcd}\xbf\xab_]\tM\xb8\x11\x80]\xb2\xdb2H\x00\x9c~\x95WA\xd3\xb4\xbd[P\x93I\x93NBZ!.\xf79\xfc3\xdb\xdb\xde\xb8\xcf\x8e_\x0b\xf4\xd8\xa1\x86A.&amp;\x946\x19N\x14.\t\x19\xf5&gt;\xf5\xf3&amp;\xb5`\xdaV\xa1,1I\x89C\x90\xee\x9cdW\xff\xd9'</t>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00\xbe\x00\xbf\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfd\x0e\xf0\xe7\xc0\x0f\x05\xe8\xb3\xb5\x95\x96\x82\xb2"rd0\x85Q\x8e\x9c\xf6\xae\x8fN\xf0\xcd\x86\x95*\xbd\xbd\x92\x04\xe0\xe1T\x11\xb9\xbeV\x19\xf6\x02\xba\x8b\x17\xb7\xb3\xb5\xfbQ\xb1\x11H\xdcd\x8e\x87\xe9\xda\xb0u`\x0e\xab4z\x94l\xa2_\xb8B\xe0\x9a\xceM?V\xbb\x9c\xda+,Vry\x8b\x0b\x17\xf9\x8e\t\xc3\x11\xe8k\x8f\xd0,|Fu\x0b\xaf\x0fk\xdb\xe2\x82\x0b\xad\xd6\xb3H\xc1\xd6F\x1dH\xf4\x06\xa4\xd5\xfc?g&gt;\x97%\xe7\x94\x16N\x04\xa1\x0f\xcc\xa0\xf4\xda:\xd7\x9e\xea\xde\x1f\x92]S\xec\xd7\x8e\xf8\xb4G\xf2#A\x96$\xb7\\zU\xdb\xdf\n\x1b0\xb3\xdaL^O\xb3\x81:\x11\x8es\xc8\x15\xcf\xf8\xf3\xc1v\x97\x8b/\x88R\xe4\x07\xf2\xc8[x\xd4\xb6Tt\xc9\x1d\rxO\xc4}N\xc7K\xf0\x06\xa5\xe2\xad\x1bM\xff\x00\x89\x80s\x04o*\xe4\xa1Q\x93\x91\xea01\xf8W\xc5\xff\x00\x124\xad\x07\xc2\xde7\xd5\xbc1\x16\xac\xd70\xdb\xc2\x9eE\xe4g\xe4y\xa5\xc4\xee\xd9\x1c`\x169\xf4\xacX[V\xf8\x11\xfbL\xe9\xfe$\xd2\xa1\r\x04w\x96\x8ft\xa1\xb3\xbe6d\xca\x81\xfe\xeeN=\x1c\x1e\xf5\x0f\xc4\x9f\x04\x99~"\xe8z\xbd\xecqAguyy\x1d\xfbK \xc2\x88\xe7%\x1c\x0e\xd8VL\xfan\x1e\xb5\xe6\xff\x00\x15\xf5\xdbO\tx\xbat\xd2\x94\x18\xaf\x95\'\x9d\x87(\xcd\xe6\x96\x07\xea\x14\xfe\x15W\xc7\x1a\xd8\x9f\xc4v\xfe\'\xd0mw\xc3\x1d\x8c\xb6\xf1\xc4\xc7\x8c\xca\xf9\\\x8fP\xa4\x01\\\xbcQ=\xe5\xed\xfe\x83\xbc\xc4\x85.!P\xceT\xbceC\x02G|\x10A&gt;\xa0\xd7\xa7\xea~ \xf1\x06\xaa\xfe\x15\xf1\x1c:\xacqGk\xa9\xc5\x033\x96\x08\x934~C\x168\xc0C\xbb$\xf4\xca\x9fJ\xe4_Z\x8fA\xd4\xbcE\xe1\x9dJ\x18\xeeV\xfe\xf0~\xf4\xae\xe6B\x84\x81\xb7\xbe3\xd6\xac\xf8\x0fR\xd2\xef\xaf\xaf4\xaf\x15\xa6\xfb\xeb]2\xf4[\xc4F\x17d\x91\xae\xcd\xa3\xd5[\x9fl\xd5\xeb\x0bS\xe3\xdd\x1a\xf3\xe2V\x83\xa5\x8b\xb5\xb3\x92\xcfL\xb9\x86ta\x91%\xb3\xc0\xae\x07\xf1\x01$=}ksI\x8e/\x0c\xfc/\x96hn\xd0\\$\r=\xa1n\x14\xc8\x92\x0f0/\xae\xe5s\x8cu\x02\xa9\xfcf\xb7\xbe\xf8\x9b\xa1[\xf8\xc6=@Gs\xa7\xf8o\xcf\xdd\x1c\x802\x81\xb5\x83g\xd5\\\x9c\x0e\xc0\x8a\x8f\xc6\x9e#\xb8\xd4&gt;\n\xd8i\xbfd\x1234\x17q\xce\x10\x0f\xdd\xc8\xa4\x9f\xc9\xf2\xa3\xd8W\xf4\xc54/\x13&lt;\xd7\x16\xc1v\xa2\xa9F\xe5H\x1cg\x8e\xd4\xdb\xed\x06-Cm\xc5\x93$L\xbc\x88\xc2\xe0f\xb3o?\xe1$\x84M\x1d\xf3\x86\x8c\x10\x10\xc5\x83\xcdd\xdc\xea\x17v\xd7\x0c\xf7v\xce\xec\xbfq\xdf\x18\xc9\xa2\xe3O\xb8\xdc.\xe7\xb4Nc\x1b\x90\x03\x9c\x11\xfc\xeb\x16\xea\xce\xc7M\x92H\xe1\x05\x8ew@\x1cs\xb4\xf4\xfd+\x97\xf1N\xa2-$\x10JA\xc0$yg!\xbd\x07\x1e\x95\xcaA\xa6Au\xa8.\xad\xe7\xabM\x1cry\xd1\x90r\xc4\xb7\x1cS\xef\xa5HA\x92i0~m\xc7\xb5g\xdb\xe9\x92\xc6-\xcd\xd4\xaca\xb8f\x0b\x13/;\x8f8\xc7\xa5x\xc7\xed7\xa1\xd9xo\xc3\xfed\x16\xb1\xfd\x99n%k\x88\x94r\xd2\xb2zzn\xaf\xcf\x7f\x14\xddZi\xba\xee\xad\xaak\xdaj\x1b\xd8|F\x1e\x18\xa6R\x04\x90y\x0e\xce9\xeb\xf7\x95~\xbcW-\xe3mM\xa6\xd4l\xef\xee\'\x84\xcd}\xa3\xc12\x18\xb2eY\x82\xed\xc1\x07\xbf\xc8?:\xe6l&gt;!x\x9f\xc5:\x85\xb6\x8d\x7fq\x13Mk,\xea\xd2\xaa\x12q*\x10\xcc\xde\x87\xe6\xc9\xff\x00tU\x8f\x88Z\x07\x86\xfcA\xe0Xe\xbcr\xde \xc5\xc2\xeaV\xcc1\xf6UW\x8d\x92U\xfe\xf6\xe5G\xc8\xed\x9a\xd6\xbc\xd24\x84\xf8ei\xe2\x18\xbc?\x1b\x07\xb8\x92\xc6\xf1\xa5m\xabmw"\xee\x85\xb2x\xe1\xa3\xe9\\6\xb7\xa3\xe9\xde\'\xf8\x8d\x17\x88\xb5\x8bR\xb6\xf7\xd0^\x9b\x87\xb5\xe0\xa5\xc2\xc4\xcc\x15Tv.\xd8\xc7\xb8\x15\xbf\xf1\x1bP\xbc\xf0&gt;\x90\xf6\xb6\xb6\xd1\xcf\x06\xb9\xe1\xf4\x12#0Y \x9c*\xca\xae\xb9\xe3\x04\x1e\x83\x9a\xe7\xbc!\xe1\xe4\xd6n4\x8dj\xfbO\x7f3U\xbdX\x1a(\xb2\x15\xb6\xc6\xe4\x1c\x1e[qd&lt;u\xad\x1f\x15k\xda\x16\xb5\xe2I\xbcC\xe1\xed\x1e\xde\x08\x8d\xbe\xc9|\xb8\xcf\xc91X\xb7\x0f\xf7I\xce=En\xfc6\xd6\xe2\xf8g\xe0\xcb\xfd3Y\xd3\xe3\xb8\xb1\xd4\xae&gt;\xd7!\x07h\x89\\\xc6\xe2\x1fa\x91\xbd[\xb1v\x15\x85\xe3\x07\xbe\x7f\x06\xd9\xc3\xa6^G:}\x82}o(\x84\xf9\x85\x14\t\xe28\xfb\xa7r1\xdb\xdbx\xf5\xaa\xde\x11m?J\xf0\xe6\x99\x0b\xea\xf8\x95n\xeflo,\x99\x0bm\x86U%\x0e;\xa9,\x80v\x18\xab\x9e\x08\xf1\xb5\xa6\x9b\xe0\xab(5\xc8_\xec\x96\xcc\xfa|\xd1G\x17\xfa\xa0\x8cd\x892z\x90K\x8f\xf7pk\xfaoK+\xdb\xcbf\xd9*\x8c\xc6\xcaw\x1e8n(Hn\xed\x94\xc8\xf2\x83\x8f\xbd\x83\xc05V\xf5\xee\x92P\xe6e1\xfd\xe6\x18\xe8}+\x07\xc4\x977\x93_\xc1um\x02\xb2!\xfd\xe8\xc7\x0c\xa7\xa1\xfa\xd2_\xdd\xa7\x9f\x14\xf2\xb1`#\x03~q\xb4c\xd3\xbdf\xf8\x8e\xdc}\x94\xcf\x19\xdcX\xff\x00\xac#\x9c{W\x03\xe2}:\xde\xebQ\x82\x08\xa1\x93\xcc(YO85\x8d\n\xfd\x9e\t\r\xc6\xd61\x1f\x9d\x97\xa0\xf6\xcdP\xd2t\xff\x00\xed[\xa9nd\x9c4ox^$\xce@P\x08\xd9\xf5\xcfjdQj\'Pw\xba\x90\t-\xb6\x8d\xa4\xe0)\x0b\x82\x7f:\xf0o\xdaJ\xefQ\x9ad\xd1R\xe8\x1cn\xba`y2 =@\xee9\x1f\x9d|\t\xf1\xb7K\xbf\xf1o\x8c\xb5mA\x15\xc8\x99%\xb8\xb7.8B\xb2\x13\xb4(\xf5B\x00\x1d\xf1\\\x7f\xfc"\xfa\xd7\x83\xdfL\xf1\x84\xb6\x0f|&gt;\xcb\xb9H\x07j\xdcy\x98P\xc8y\xda\x14\x8c\xfb\x9a\xae\x9f\x0f5;\x8bO\x10x\xc7F\x83u\xb4\x82)\x88H\x8a\x98\x8c\xaf\xb7\x1e\xa0g\x81U\xfc"\x96\xb1\xf8\xb6\xde=r%\x8a\xf1\xacu\x15\xbfk\x85?t[3\xc6\x00=X\xf3\x81\xdf\x07\x15k\xe2\x86\xaf\xe1[\xdf\x85\x1a\xb7\x86\xf4\x9dd\xc97\xfc$\x89:,HrmI\x0f\xe6\x95\x1d\x082\x1f\xa0\x06\xaa\xdb\xf8\x1fS\xf0\x9b\xe8\xf6\x1e%\x85\xdaK\xcdRq#\xc2\xd9\xdb\x1f\x93\xb9\x1f\x1d\x81\xca\x9f\xc2\x9b\xf1?S\xbe\xf1\x97\xc1\x19u\xfb\xfbM\xd7\xd6\xf2[\xd8\x01\x0c_\xea\xd3"8\xf3\x8e\x87hP~\xb4xV\xfb\xc4&gt;#\xf8n\x92X\xdb\xf9\'G\x9e\xde\x13 P\xbeT\x843+\x03\xfe\xea\x00j?\x05x/G\x9a\xd6\xebV\xd5\xe5X\xe3\xd6$\xb2h\xdf\xcc\x18\xb5-+!\xdc;cr~U\xb7\xaax{K\xd5\xfe\x1e\xf8\xafL\x84\xdc^\xae\x96\xd6\xc29\x90a\xd8D\xa5\xc9Q\xd4\xa9\x00\x80G\x1f)\xf45\xe5\xf2\xf8\x7f^\xd64T\xf0\xfd\x8d\xfa\\An\xb2I\xa6\xe6`\xac\x16Y"\xf3A=\xc1*\xa7\x1e\x85\xab\xad\xf8\x99\xe1\xe8&lt;=\xe2=+R6\x02+I \x86i\x83\x1d\xa1\xa4X\xd5\x19\xf2{\xefM\xc5{n\x15\xd5\xf8\x97\xc0Z\x7f\x8bt/\x88\xba6\x97\xa6J\xd7v~%\xb0\xd64(\x1a"7Z\xcf\x16\xc6P\xa0d\xf0\xe1\xbe\x9c\xd7\xf4\x85.\xa1\x13D\x8dl\x00Wn\x83\xb9\xa9f\xb8\x8e[gWp\xa1v\xeeP\xbc\xd5\x1dR\xd8\xcaK\xdaNT\x0f\xbc\xac\xb8\xac+\xbbS\x1c\xdb&amp;g\x8d\x81\xde\x18! \x8fJdic{93\xc6\xc4H\x9bs\xb7\xa1\x1f\xca\xb3u+I\xe0\x88B0@?\xc5\\\xef\x89t\xa8\xaeP\\3*\xe3\xe5FC\xca\x91\xd7\xf05\xc4\xf8\x86\'\x86I\xe4\x81\xc8t\x1c\xc4\xab\x90\xeaz\x1f|V&lt;+&gt;\x93n\xf1\xbc\x9bL/\xbdGB\xd9\xe78\xac\xfdk\xc4\xd6\xb7vm-\xbd\xc3n\x97\x89\n\x0c\xe3=\xcdx\xb7\xc6\xbd&gt;]GQ\xb3\xbe\xb5\xb92\x1b\x12w\x05\\\x99\xe1%\x01A\xeax\xce=\xab\xe5\xef\x8a_\x07uI\xb5[\xadKD\xb8\x86)\xa1\x1bv\x83\xb71;\x12\x8cs\xff\x00|\xe7\xd7\x8a\xf0}x\xcf/\x88\xd6\xdbR\x8et\x8a\x15\x17\xf2\xa3\xb1\n#\xdeU\xc1\xec&gt;e\x19\xae\xc7A\x97S\xd1~&amp;|P\xf8Qn\xec,\x1f\xc2~i\xb7\xb9\xc6\xd8\xbe\xcdwo\x82\x87\xb7\x0eO\xd2\xb1u\xed\'J\x8f\\\xf0\x87\x8emB\xbc\x9al\xc2\xd7Y\xb3\x11\xff\x00\xaa\r$\x90\x16?\xde\x04&gt;\xdc\xfa\x8a\xf3\xbf\x8d&gt;\x15\x97\xe0\x7f\xc4\xa1\xa3j\xf1\x88\xec\xa5\xbdV\x96\xd9\x8e\x7fr\xd0\x02\xa8I\xe9\xf7O\xfd\xf2}+w\xc5\xde&lt;\x93W\xb1\xd45\xbd2x\xe32\xe9r=\x8d\xd6C\xack\x16"\n=2\x063\xde\xafxn[\xdf\x10~\xcf\x1e$\xd15=6\x18\xad\xd8\xa0\xb4\xbb\x8b\x96\xdd\x00\x0e\xb2\x7f\xe3\xcb\x93\xecj\x86\x8f{e\xa9|8\xd7u\xb8Q\xad\xe6\x16\x96\x8f2\xa4\'\xca,\xae"\xcezg\xe75K\xe1\xe4\xb1\xe8\xfe\x19\xf1?\x81/c\x8aH\xeen\x95t\xe9$\x07zI\x14\xab&amp;\x0f\xf7r2@\xf4\xae:\xc7\xc5^/\xd05\xaf\x10\\Z\xc2^D\xbe1\xa5\xaa\x92c\x91\x00\xf3\n{\xe67p=k\xb5\xf8\x1b\xa6\xd8\xf8\xee\xdc[h\xd6$\\\x1d6\xfa\x12\x85y\x12\xacBe \x7f\xdb2\x07\xfb\xc3\xd6\xb3~(\xda\xf8\x8b\xc4\x9e\x16\xd3\xed\xd6\xee\x17\xb9\xb2\xb3\xba\xbb\x87\x0e\x0f\x9b\x17F_r\x08?\x91\xad\xdd#\xc7\xef\xe1\xb8\xfc;%\xdc\xf2y\xd7:$0\x8b\xc7\\l\x968\x82\xc8$\xcf_\xb8@\xcfJ\xfe\x90\x92\xfe\xc0\xcb \x95xL\x94\x8d:\xfb\xf1U\xa7\xbe\xda\xb25\xaa\x90\x1d\x01\xdc9\xe3\xb1\xa15e\xbbF\xd9\x01\xf3]\x150\xe7\x05\x98\x0eN*\xbd\xda]\xda\xdd\x08\xde/3\xe4\xf9\x8e2\x07\xe3PM\x14QC\xe7\xa4\x00\x96;\x8e\xd3\xebY\x9a\xca\xda\xddE\xe6\xcb\x1b.\xd1\xf3\x00k\x92\xd5\x8d\xbb\xbc\x9eJ\x94H\xc6p_$\xfe\x15\xc2\xeb\xd7\x92]_\xac\xad4\x84\x96\xd8\x13a\x18\xc7@k?P\xf3$A)\x9f\x0e]U\x95\x87@\x17\x15\x85yf\xf6-\x05\x9c\xb1\x02\xb3&amp;\tQ\xed\x91\xf9\x8a\xe2\xfcU\xa7Z\xc6\x0c\xb3\xc2\x17\xcbRb#\x92\t\xe8H\xec+\xc6&gt;#\xf8a\x1ai\xb5H."\x8d\xe7\xb6x\xa61\x1ce\x93\xa1\xe7\xfd\xbc\xb7\xe3^/\xf1{\xc1\xba]\xe7\x8c\xad\xad\xad\xb4\x18\xee\x89\xd0\x9e\xd4\x8c\x85k\x82\xc8\xd20 wF\xe3\xea+\xcf\xbcf,\xb4O\x1a_x\xfa\xea\xe1\xa6\xba\xf1?\x87\xa1\xb6\x9d\x01\xc1\x99^(\x99\xc1\x1f\xc3\x86\x8c\x1fz\xe0,&lt;_{\xaa}\xb3\xc3\xda\x83\r\xcd\xa2\x0b\xb4\x91F\x1d\xe5i\xf2\x87\x1dxl\xb7\xe3Z\xba\xa7\xd8\x7fh\x1f\x12M\x1f\x8b\x9e6\xb9\xbb\xb3\x92\xd2\xcc\xee\x05\xbc\xf8mY\x91\x8f\xd7c\x81\xeaMp\x9aW\x86\xb5\r.\x0b\xef\x08\xeaj\xad\x0c\x1673.[\x96\xc1\xdcPz\xe5\xb3\x81\xeck~\xfa\x0f\xec;\x9d3D\xb7\xbf\xba\x8e\x1b\x91$\x1a\xa4J\xdf(Y\x00U\xda;\x90\xa0\x13\xedS\xeaW\x9aw\xc3\xdd\x1f\xc5_\x08\x91\xad\xee.%\xd4\xec\x9d5,\xee!\x07\x9aS\x81\xdbknn\xc1\x94W?\xad\xebz\x8f\x86&gt;&amp;\x8f\x1a\xd8\xa4wv\x8c\xd6\xf2\xce\n\xe01\x96#\x1b\xa9_\xe1\xe8\xc4{\x0fj\x8fC\xf0\x04\xb2\xf8GZ\xf1I[\xb5\xbf\xf0\xfe\xa4\x8f5\xa4\xa7ptS\x16\x13\x1dI0\xc8\x0e:\xe0f\xbbO\x80\x1e"\xd0\xbe\x1b\xf8\xc7F\xf1&gt;\xb3\xa6m\xd3\xf4\xff\x00\x18[\xa6\xa2\xcb\xc2\xbd\x84\xd2*LI\xe9\xf2\x89G\xd1Ehx\xf3\xe1\x04~\n\xf8\xa5\xadx\x0f\xc4:\xa5\xb4Me\xaa]\x8d0\xc6\xd8c"J\xc3\xca\xe7\xa8!7\x10?\xe7\x9f\xfbU\xe6\xfe?\xf0=\xf1\xbf\x8fA\xb2\xd7\xe0\xddun\xd3\xe9\xec\xcd\x91o$R\x14\x91X\xf4\x1b\xa3`G\xaf8\xaf\xe9r\t^F\x0fd\x844g\x90\xc9\xdb\xd2\xaf(B\xb9\xb7\x8dY\x9f\x86Q\xdb\x15\x1cW\t-\xd2\xdb\xcd\x02\xa4\xa8\xa4\x96\x9b\xee\xed\xf6\xaa\xb3\\\xde4R=\xa0v\x00`\x80x\x03\xb7\xd2\xaa\xcbqp\xd1$\x0f\x18W\n\x01\x07\xaeGZ\xc3\xd7\xee\x9dLV\xe4\xef\x0f\xb8&gt;8\x03\x1e\xf5\xc7\xea\xff\x00jGi\x97\x01Y\x0e\x17=@\xae.}R\xdbQv\x8b\xce\t\x89\x83\xc8@\xe5x\xacMR\xed-\xcb\x83\x13H\xca\x17\xcb#\xb8=\xcdW\xd5/&gt;\xd3\x18\x88"\xc54qy\x8a\xac\xdc9\x1c\x01\x9e\xc7\x1d\xab\x8d\xf1%\xe8\xb5\xb4\xbbTX\xd6\xf1\x97\xe6\x86s\xba6O\xf6\xcfq\xfd\xdct\xe2\xbc3\xe2\x9f\x89\xe2\xd0\xac\xf5\x1d\xd2&lt;2O\x04\x86\xee\xdeq\x92\x17\x03\x05\x0fs\xf4\xaf\x9a\xfe.\xf8\xcb\xc8\xd1\xed&lt;my\xaf\xc7s\xa5&amp;\xab K\x98\x01\x12\xda7$E.&gt;\xf2\x81\x8c\x1fL\x13^7\xac\xfcS\xd4&lt;Q\xe2{\x1f\x10jS\x16[iDf\x02F|\x920\xac\xc0t\xc8\xad\x8f\x12\xd8i\xdf\xf0\x96x7Z\xf0\xdf\x97\x1cz\x9d\x83\xf9\xe9\xbc\x10e\x8aV\x11\xab\x9f\xe1VL7&gt;\xb5\x0f\xc0+\x0b\x8f\r|`\xd2\xfcU\xaa\xc0\x05\xad\xbc\xef-\xd2K&amp;&lt;\x93\xb1\xd0\xe4\x1fM\xe6\xbb\xbf\x8a\xbe\x14\xd0\xb5xo\xbcii\xab\x84D\x8eY \x82\xdd\x01\x13D\xe0l\x19\x1e\xa1\xc9\xfc\rq\xbaF\xaf\xa4Yh\x96\x1a\xa6\xa5d\'\x9fL\xbc\x89\xef\xa6f\xca:$\x8b,@\x1e\x84\x9c:\x1faQ\xf8\x92\xff\x00G\x97R\xd3\xfcI-\xa2\xb3\xdf\xab\x0b\xd2\xdd\x19DO\xb7\x1fL\x8a\xf3\x9f\x0bkz6\xb3\xa2j\xba-\xdd\xe3\x1b\xb8\xd6\x13\x1e\xf6\xe5\xb0\xcc\xa3\x19\xeb\x8f0\x0f\xc4WS\xfb&gt;\xfcY\x83\xc3~0\xd5\xbc)\xe2k\x96\x07[\xb6\x9a\xda\xf9\xe5\x8br\xbc\x8bj\xeb\x01\xe7\xa7\xcf$`\x9fD\xab7&gt;%\xd0,\xbc5\xa6\xe9\x97\nZ\x0b\xc3#]\x07`\xc3\xe6@\x14\x0cza\x8f\xfc\x05j\x0f\x1d\xdf\xf8\xd6\xe3\xe2\x8d\xb6\xb9\xe3+\xf1{q\x16\xb0\xf7\x9b\x98\x92\xb2G$bN\xde\xab\xbb\xfe\xfa\x1e\xb5\x9d\xf1g\xc7\x1a\x7f\x87\xbe \xc7\xaci\xd6-%\xb6\xb3\xa4\xdb\xcc\xb6\xd0\xa1dYB\x00Dg\xb8\xda\x01lt=k\xfaS}B[iC\xb1\xc2\xed\xe4\x8a\xb1o\xa9\xcb\xb0\xcdm,{J\xe7;\t\xaaR\xdd\\Is\xe7&lt;\xa3 d\x91\xdf\xda\xa6\x9bU0\xdb\x16K\x81\x18\x9b\x1dGB;Vu\xfe\xabwx\xc0$\xacYK\x0f\xb9\x8f\xd6\xb1.M\xfd\xc3"d4\x8b\x9e$\xe1W\xeak\x9e\xd5l/.V\x7f5UYI\xcb+\xfc\xa3\x1dp}+\x8d\xd7t\xe8$\x8b\xed\xf0[ \xdf\xce\xe0\xf8(\xbd\xb8\xefX\x124\xd6\xe1\xee$\x8f&amp;R#\x8b\x8c\x96a\xedT%\xd9yp\xd6W$\xf9\xbd\x01Q\xcek\x9c\xd5\x9a\xde\xce\x7f&amp;\xe2\xdd.c\x927\x89%v\xc0\xc8nA?\xca\xbc\x0f\xf6\xc2\xf0L\x07\xc3\xd3\xeb\xb6s#\xc5im\xf6\x8bx\xe7}\xb2+\x03\x8d\x80\xf7\xcfP=+\xf3\xef\xc7\x1f\x18u\x8d2\xfbV\xf0\xcc\xef\x1b\x8f\xed)\x05\xe2\x8c:\xcf\x98B\x82\x00\xe0d\xf7\xf5\xaf\'\xd5|]s\xa7x\x9c\xcc +o\xb2$XY\xb1\xc0c\xc7\xbe\x05v\xfe\x15\xf8\x9b\xa7\xeb\x9e\'\xd24\xadFq\x05\x9a\xce\x91;\xc4\x7f\xe3\xdc\x1e\x01#\xa9\xf7"\xba\xff\x00\x17\xf8\xa2\xcfF\xf1\x87\x89\xbc\x13#\x96x\x96Km6\xf20Q$Pr\xb2\xe7\xd0\xae\xd3\x9f\xf6\x85g\xe9\x9f\x14\xbcB\xdf\x08\xecu4\xf9v\xc6\xf67\xcb#ga\x07\t\x9fB\x00\xc5`\xdcx\xdb\xfbF\xd8X\xd9\xdc\xba\xc7&lt;q,\xc0\xae\x14\x95\xf3?^G\x1e\xf5\xe9?\x0e\xbcA\xe1\x1f\x16x*m&amp;\xe1\xda\x1b\xdb\x1b\x98\x0bou\xfd\xe4O\xfb\xae3\xd0\x9f\x94\x91\xdb5\xe2\x92[\xcb\xe0\xbf\x19k\xde\x1b\xbd\xb0\x91\xee\x9bL\xb9\x825 \x86\x8a\xe5]0O\xd0\xc6O\xd0\xe6\xba\x1dJ[{\xad&gt;\xdf\xc5\xb6q\xc9c=\xee\x8d\x89\x90\x10\xfd[qu\xc7 \x96P\xa3\xd8\xd6/\x8c\xbcKg\xe2\x1dWF\xbeM@\xc6\xb2\xc8\x89y\x02\r\xa9\x1b\x89\t8\xfa\x87 z\xed\xf6\xafM\xf8iau\xe3\xbd\x1a\xce\xefL\xd4\r\xde\xa7`|\x99\x92y\x07\xef!F\x8c\xa1\x1e\xbf\xb9R\xbf\x8d?\xc6\x9e\x10\xd0\xb5\x8d\x13Q\xf8{\xa91\xb7\x9e\xd6P\x89t\x83/\x1a,\xc5\xc1S\xef\xbfi\xc7`+\xfa+\x8a8R6\x97%rrrr\x014\xf5\x95#u\x8eH\x89R&gt;}\xa6\xa3\x91\xed\xa2\x9c\xceX\xec\'j\xa1&lt;\x81\xebUf\x8c\xad\xc3K\x10\x12\x0c\xe3\x05\xb8\x03\xd6\xa3i\x126\x11*\x8d\xeb\x9c\x8d\xfc\xd6-\xf6\xa8\xf0\xca\xe3\xc9\x939\x08\xc4\x03\xc6:\xd4:\xc4\xf0\t\xe1\xb9x\xf7\x8d\x84q\xd8c\xd3\xbdr\x1e!x\xae.\x0cq\xa8\xdb\xce@\x18\xdc\x0fN=\xab\x92\xd4\xad\xeet\xd9\x8a\xb1m\x91I\x95@\xb9\xde\xd8\xe4\xe7\xebY\x11\\\x1b\xdbx\xd6\xe2\xdc\x87H\xc4\x86\x13\xf2\x95q\xc6s\xdc\xfbW3\xe3=+Sf\x9e\xf3H|\xaa\xa1Fh\xcf\xca\xfe\xb9^\xb9\xf5"\xbc\x17\xe2\x97\x81|A\xe3\xbf\x0ej\xfe\x16\x86YeX\xa2\x0e`Rx_@{\x0e\xd5\xe1\x1e\x03\xfd\x90\xfe\x12\x7fh^7\x8a\xaf\xae \xd5\xeef\x01-\xae0\x15\x15x&lt;\x9e\xb8&lt;f\xb8?\xda\x0f\xf6%q\xaa\xb4\x1e\x12{f\x9c\xab4q\x96\x18\x95s\xeb\xeb_:\xf8\x83\xe1\x8d\xcf\xc3\xef\x15\xc7\xa1x\xd6\tmDnQ\xccJs\x1c\xa0\xe0\x02}\x8f\x15\xbd\xe2\x88\xce\x8d\x06\x95}~\xefq\xf6\x8bY-$\xbb#;\xd8\x16 \xe7\xd7iQ\xff\x00\x00&gt;\x95\xcd\xe9\xfa\xa5\xef\x85$\xbb\xb0\xbf\xb9y,\xf5[\x1d\xd1\xe127)\xc2\xa8\x1f\xde\xc7Z\x82\xfeMcC\x0fouj&lt;\x94\x9dZ9#\x19\x000\xe3\x9f\xa5o\xe8\x9a\xfd\xae\x9c\xfa[Ah\xf0Ks\x02\xa4\xcb\x9e%x\xa4\xc9$\xf68*\xc7\xd0\x0c\xd6\xe7\xc6\xad\x115\xcf\x11Z\xf8\xefOwH5{\xbf\xf4\xab]\xe1\xb6Jc\x07*G$1\xcf\x15oK\x9b\xc3z\xb5\x98\xd2nM\x9a\xad\xec;-\xee\x03\x8c!a\x8c\x9fA\xbc\x13\xf8\xd7\x98j\xfe\t\xbe\x8e\xfeg\xf3\xbc\xa63HC\x7f\x02\x86?+\xfb\x05\xeb\x9e\xc0\x8a\xed&lt;)a\xa9\xf8\x12\xdc\xea\xfa.\xbb\xe6Gx\x16t\n\xa5%\x85\xc0\\\xa1\x07\xd7\xb7\xafj\xf4\xbf\x8dW\x9an\xb5%\xaf\x8ct\xcb\x98\x1e=B\x18\xd7P\xb0IB\xba\xb6\xdf1d\xe0\xe7\r\xbd\x7f\xef\x83\xe9_\xd0\xb41\xceZX\x18\xae\x06\n\x92z\xd3\xc2]]\xcc\xc8T\x00\x067\nC\xa6D\xbbZ\xe5\x8a\x0c\x0f\x98\x1c\xe7\xde\xa8^\xc8\xb6\xdb\xfc\xa6\xca\x16#w\xd0\xf1T./&gt;\xd1\x0bN\xb1#\xc8@\x01\n\x10N:\xfdj\xbc\xd7w\r\x08\x10\xda\xc6\xbb\xd8\x9d\xc3\x9c\xd6~\xb3oq-\x9a\xa2\xb6\xcd\xed\x96`\xb9W\xfc{}+\x13W\xd2\xad\xe7\x8b-\x00\xf3"\x18\x03a\xc0\xc7\xa9\xae?\xc4\xd2\xdd\xa2\x96\x87\x0e#\xdb\xc4k\xb8{\xe3\x15\x99%\xa4W\x12}\xa1\x08\x05\xdb\x9cTqh\x86\xd5\xdc\xc9:\x08\xe5,\x08\xeb\x8c\xf7\xaefO\x876\xf6\xba\xb1\xd5\xa0\xb8V\xdf\x0b\xa4\xa0/\x12\xfc\xdc\x0fr=+\x8e\xf1\xf7\xc0\xef\x0fx\xb9\'\xba[\x7f.\xe6\x13\xc4\xa1x\xc3|\xc7\x18\xed\x9a\xf2\xbdc\xf6{\xd6\xf5x\xbe\xdb\x043\x1f\xb3\x93\x19\x7f\x9b\xe5S\xce}\x85x\x17\xc6\xdf\x80w\xb7\x91\xdfC\xe3m\x04\xdf\xd9O\x16\xe8n\x16"\xb3A!\xe4g\x8c\x91\xef\xde\xbc\'\xc6\xfe\x15K\x1f\x07h\xbe\x19Kfhm.\xca\xbc\xa4d\xa3m\x00\x16=\x81\x0cH\'\xa8\x15\xcax?\xe1\x9bk\xd1^h\x9b\x1c\xea-\x00\xb8\xd2\x965%n\xb2w7\xccx\x18\xed\x8e\xb5\'\x8f&lt;\x1f\xab\xc7gl\x9a\x8d\x9e\x14N\xbem\xc2r\x18c\n\x18\x8e\x01\xf6\xae\x1bP\xba\xbc\xb5\xbf\xb3\xd3u;\x86H\x1cJ\xf1\xb8\\\x18\xcb\r\x8c}\x87\x15\xe8\xde\x16\xd6\x92m&gt;\xc6\xdfW\xd4\xd7b\xdb\xc7=\x9a:\xe5Y\xa1l\x9c\x9e\xc5\x95\x80\xc5S\xf1w\xc3\x9dO\xc1\x1f\x14\x9f\xc22\xc2\xe9\xbd\xd6H\x91\xf22]D\xbb\x13\xd7\xe6l\x00*\x85\xdc\xb0^!\xd3t\xe7v76\x8c\xb2+\xaeYd\xce\xd7\x00z\x0c~U\x9fq}q\xach\xbat\x93]ys\xd9\t-\'\xf2\xdb\x86\x19\xfd\xdb\xb7\xa6W\x1f\x9dt\xb6^66Z,\x9e\x1d\xbb\xd3T\xc8\xd0F\x8b,\x87\xe6_-\xb88\xec\n\xb6\x07\xd2\xbf\xa6\xa6\xb7\xe4\xc8\xb1\x80T\xf2;\x9a\x91-f\x97 A\x80\xc9\x9f\x95j\x03\xa2\\\x1f\xbe\xfb\x87a\xe9Uo\xfc0c\xb7\x12}\xcd\xd2\x13\x8e\xa4\xf3\xe9X7\xfa\x15\xdd\x9d\xe7\x9d\xe4\xf0dm\xb9\xe3\x82MFt\xbb\xcbh\xcf\xd9\xdf\x84\x1f(+\xc7\xff\x00^\xab\x0b`C\xdb\xdd6\\\x12\x0f\xf7G\xff\x00^\xb3\xb5\x88!\x85\x16\xda\xdcn\x0e\xbf\xbc\x07\xef~U\xc6\xf8\x8bB{gg\xb7v\xf2\x898\xf93\xf8W=5\x94"&amp;\nHa\x93\x8f~\xf5Z\x0bf\xba*e\xb9$\x90\x08b1\xb3\xdb\x1d\xea\xc3h\r*\xb0I\xdaU*\xdeae\xdb\xc8\xee\xbf\xd6\xb2t\xfd\x1a\xf4\xca\xd2]H\xad\xb9Tm\x8cnS\xf8\x8e\xb5&lt;\x9e\x1b\xb6{\xc2D*\x16F*\xd1\xa8\xe0\xe2\xb1|Y\xf0\xc3\xc3\x1e \xb4k+\x8d\x06)\x15\xb3\xe6\xfc\x99\'+\xd0}+\xe5\x7f\x8b\x7f\xb2,z}\xa3O\xa4[ Q;\xcdsn\xd1gr\xf2\x07\xe3\x8a\xf9;\xe2\x07\x815\x1f\x84\x1e"\x8a\xff\x00E\xb6\x9bm\xab\xb6\xcd\xad\x96\x08\xc7\xb0\xfe\xee+\x9f\xd7&gt;\xc9\xac\xe9w\x16\t}#\xc95\xb9\xba\x88K\x19+\x04\xdea$&gt;&gt;\xf89\xca\xe3\xa0\xc5p\x1e&amp;\xf0J\xf8\xb3\xc1\ty\xa5\xdb\x85\xd5\xb4i\x82O\x19\x901\x92&amp;\xe4\x9e:\xe0\xf5&gt;\xb5J\xce\xcaK\x1f\x03\xdf\xc9\xa8&amp;\xdb\x9b\tV\xee\xd1%\x05\x95\xe1+\xb2D\xe3\xa1\xca\x93\x8fA]=\xee\xb7\xabx\xff\x00O\xd1\xf5\xd7\x13Kym\x046\xf3\xca\x8d\xfe\xb5\x90\x95\x84g\xb1\x0b\xb3\xdc\xed5\xc5x\xaa\xd3X\xd3\xf5+\x8f\x19\xc5{q\x0ckx\xa2\xed\x80\xf9b\x95\x89%O\xf7rs\xc7\xb1\xab\xbf\x10c\xdb\xa4\xb6\xb5j\xa4\xfd\xae\xe0y\xc9\x12\xf0\x1cG\xdb\x1e\xe1\xbf#\xe9\\\x8e\xa7\xad\xdf\xca\x7f\xb5\xa5\x9d\xa3\x89\xd4!\\\xf0q\xc09\xaf\xebf\xeb\xc3\x81\xdf\xedE\xb6\x95?*\xf64\xdd&gt;)\x12v\xde\x17\xa7J\x92\xebKgt\x96B\x15H\xce=j\xb5\xe6\x93=\xd9kx\x0f\xc8;\x9e\xb5\x81\xe2-\x0e}&gt;\xdc\xdc\x12\xac\xe0d+\xbf?\x95q\x7f\xf0\x91_I\xe7-\xd4(\xb1\xc2\x1fz\x07\xf9\x80\xdd\xc7\x15\xa1\xfd\xa7\xa1jV\x9b\xad\xee\xd66\' 1\x19\xaa\x89uh\x8e\xe94\xf1I\x9e8\xc1`+\x1b[\x82\xce\xea6K \x19\x00 \xaf\xf1q\xc18\xae\']\xd3#\x8e\x14\x96\'\xdf\x87ee\xe8k#O\xb5[B\xed\xe6\xaa\xab\x1c\x85\x91\xb1\x80}=j{\xfb\xb9V\xc8m;V\x1c\xe4\x8f\xe2\x15KE\x9b\xcdC\x15\x8a\x98\xfc\xcf\xe3z\xbd\xf6i\xa4\xda\xac\x0by]dA\xf7\xbdM[\xbc\xb4[Kw@\x14\x15\x19\x0c\xde\xf5\xcdx\xb7\xc2q\xeavF)\xe1I\x06\xd2\x1d\xc8\xc0\xc7\xa6k\xe6O\x8d\xbf\xb3S\xebows\x15\x88q\n\x7f\xa3t\xc6\x0fU\'\xdb\xa0\xaf\x94\xbe\'|)\x9b\xe1\xfa\x88\xb5k\x13\xfe\xb9\xfe\xc4B\x11\xba0r\xca\xc7\xb9Q^i\xab\xe9\xf0xWZ\x83\xc4\xde\x15V\x11\xc9\x03\xa9\x86G\x05X\x16\xe7w\xbf#\x1fQX\xfa\xde\x8b.\xb3\xa8\xa5\xde\x8df\xad\r\xd0xn\xa2\x90\xf1\x87\xe8\x7f6o\xc8\xfaW\x13\xa2\xea\xfa\xff\x00\x81\xda\xe3G\x80\xe69\'\x85\xf6I\xf7\x91\xa3b\x1b\x1f\x87?J\xf7o\x05~\xc2\x1f\xb5?\xc5\xef\x81W\x9f\x19\xfc!\xf0[^\xb8\xf0m\xde\xae\xc9s\xad\x0bp \x98\xef\xd9\xb8d|\xca\x19\xc8\xdc;\x83\\}\xd7\xc0\xbf\x1fh\xf6W\xff\x00\x055\r.f\xd6m\xafbK)m\xa27\x0e\xcc\xaeT\xc26\x03\xb4\xf2G\xe0k\xb6\xf8#\xff\x00\x04]\xff\x00\x82\x88\xfe\xd0ZtZ\x8f\x82&gt;\x02_i\xfan\xa4$\xf2\xe6\xd6\xa5\x8e\xd69$\x8d\xbel\x16\xc1c\xc1\xf7\xf5\xaf\xe8\xee\xf6\xe5L\x9f\xeb\t\xc0\xc9Q\xd4\x8fZ\xa1q\xacB\x92n{\x94\x8d\x08\xc2\x93\x81\xf4\xac\xcdG\xc7\xba-\x85\xda\xda\xdd\xdc\x19\x14 \xc3!\xcf8\xacM[\xe3\xe7\x84t+W\xdfzcf\'b\x920\xdfS\xda\xbc/\xe37\xedm\xa8K4\x96z5\xa4k\x1cl\xc0\xb9\x98|\xf8=\xbdk\xc3&lt;W\xfb]k\xf6wfH-VI\xa6\x01H\x90\x95\xf2\xf1\xd8\xfa\xd34\x8f\xda\x8bQ\xfe\xd8\x13\xf8\x86r\x8c \x0eD \xed+\x8c\xf1Q\xea_\xb6\xdcPj\x86\xd3J\x86c\x17\x95\xbe9\xa6\x89\x94\xa9\xf4\x1e\xa2\xb6\xfc%\xfbj\xde^Y\x15\xf1\'\x87f\x12\x80V9\xc3\xedY\x01n\xf9\xe8}\xab\xbe\xb7\xf8\xbd\xa6\xeb\xf1\xc3u\xe4\xb4K$\xca\xc0\xc67\x80\xa5z\x92?\x9dt\x10\xdci\xba\xa5\xb09WWU\xd9*\x1fj&amp;\xd1\x91"d\xf2\xfc\xd4\x90\x9d\xae\xad\x91\x8a\xc9\x9a\xc2\xe3M\x93\xfd\x1e&amp;\xda&gt;\xee\x06x5\xad\xa32\xf9r*6XC\xf3\x03\xd8\xe6\xac\xea\xf2Gq\xb8`\x10\xca\xca\xc5y\x19\xdd\xc5\x11\xe8\xc5\xd5n\xe6\x07{\x9c\x18\x1cq\xb4t8\xf5\xae?\xe2?\x85\xa0h\xa6\xbb\xb5_\x95\x88g\x8f\x1d\t\xed_6\xfe\xd2\xde\x01\xd3.\xf4\xc6\xb8\xd5\x9a%\xb3\xbaU\x8c\xf9\x91\x850\x16\xf9K\x02{`d\x9a\xf9\x9fB\xfd\x9f\xf5\xcf\x89^:\xb9\xf8a\xf0\x83\xc1Z\x9f\x8b\xae\x84/\xf6\x9bm\x06\xd3\xed,\xa4d)\x1c\x109*Oo\x94\xfaW\xb1~\xcd\xdf\xf0Co\xdb\xcf\xe2~\xa5\x0c\x9e/\xf8Z\xbe\x10\xd0\xa7\x91\x05\xcd\xde\xa9s\x12\xdc*d}\xc8\xc9\x05\x1b\x82s\xd3\x9a\xfb]\x7f\xe0\xdb_\xd9\xff\x00P\xf8\x89k\xe3H\xfca}e\xa5A~n\xa7\xd2\xee\xe1K\xa9\xa5r\x83v[\xee\x8c\xb6N\xde\x95\xf6\xf7\x83\xff\x00e\xcf\x84\x7f\x0b&gt;\x05\xc5\xf0g_\xbe\x92\xff\x00\xc2Zg\xef\xe4\xb4\xd5nV\x08\x11\x15\x8b\xb0m\x98_/w\xf01\xc0\x1cg\x8a\xf8\xef\xf6\xa3\xff\x00\x82\xca\xff\x00\xc1"\xbfb1/\x84\xfc\x11\xa7h&gt;2\xd7-\x0b\xc7&amp;\x87\xf0\xebI\x82H\xe3}\xc4\x18\xe4\xb8\x00\xc2\x83~[r\xb1#\x02\xbf5~0\x7f\xc1\xc7\x7f\xb5\xff\x00\x8b\xe0m\x13\xe1&lt;\xfaO\x80\xf4X\xe42[\xb5\x95\x98\x9a\xf7\x97\xc8g\x92La\x9cr\xd8\x1c\x92k\xf6\'\xc5_\x16\xadb\xd0\xa6\x96\xe2\xf6\x08\xe7Kt2JN0@\x19\xcf\xa6M|\xfd\xf1k\xf6\xaf\xd5&lt;3{\x1d\x8d\xa5\xccR4\xd2\x06\x8a\x08\xe5\n\xea\x98\xe1\x88=\xbd\xeb\xc3\xfci\xfbXjO\xab\xb6\x9b\xe2?\x1a\xcc\x91\xef\x12\x8bKi\x01\xd8\xb8\xfb\xc5\xc5yG\x8c?h;\x8f\x10x\x86+\xc9&lt;E\xaa\xbe\x9f\x0e#P\x93\x11\xbf\x1c\x03\xf8\xd4Z\xff\x00\xc5\xbd}|\xa9|2\xc2D|\x00\xba\x8c\x99\x91&gt;\x87\xb7\xe3]\xa7\xc2\xfd?Y\xf1\x02\xc1q\xabh\xc2\xfai\xe42;\x19\x01\x1c\xf3\x8c\x8e+\xd2 \xf0_\x87\xef\x99\x7f\xe1$\xf0\x1c\xf6\xe3q\x11\x84l/\x1f\xc5\x9e\xfe\xb8\xa7\xeb_\x0b\xbc\x01wk\x98\xf4Cr\x8b\x11\x1b\x85\xbb\x029\xf5\x03\xads\x1a\xdf\xc0I5k\x80&lt;#\xa8Ob\xa7\xee@\xf1\x12\xa4\xfdMP\xd3\xfe\x15\xfcg\xf06\xa0#\xb7\xd5\xa4\x91\x19\xc9\x92;ip\x0f=\xd4\xf2\x7f\n\xf5o\x87~&amp;\xf1\x06\x9b(\x87Z\x88+\xc6\xa1Ls\x83\x96\xf5*z/\xd0\xf4\xafZ\xd1\xbcAa\x06\x9e\x93D\n\xa6F\xd2\xc4?\'\xb6z\x13Vo\xad\xadd&amp;u\xc1\xc9\xf9\xb7p\x01=\xbd\xaa\xab\xd9\xe29ZH\x8f\x96\x1c\x0f\x95pwzS\'\xd4\xb4}*\xdd\xf5o\x10\xdd\xdb\xd8[E\x93#\xdeN\xab\x18A\xd1\xb2O\x1cW\x15\xae~\xd9\x7f\x08\xefu\x06\xf0\xc7\xc2\xbb\x1dg\xc7:\xb2\x10\x90i\x9e\x11\xd3d\xbc\x05\xc7\x04\x19T2 \xcf\xbe+SF\xfd\x9d\xff\x00\xe0\xa0\xbf\xb4f\xa2\xb7\xf0\xf8\x1fD\xf8S\xa0\xca\x9b~\xdf\xe2k\xb1w\xa82\xb7P\xb6\xf1p\x08\x1f\xde\xc1\xafF\xf8q\xff\x00\x04[\xfd\x9fF\xa9k\xad~\xd0\x9f\x11|Q\xf12\xea\xd1\xc3\xbd\x8e\xa71\xb6\xd3\x8b\x0e\x9bm\xa2\xe4\x8c\xfa\x9f\xad}}\xf0\xab\xe1o\xc3\xcf\x85\xfa\x14z\x07\xc2\xef\x86:G\x87lQB\x88t\xbb(\xe1V\xc0\xc7X\xc1,}\xd8\xf3\\_\xed3\xfb~\xfe\xc7?\xb1\xbe\x99&amp;\xb5\xfbG~\xd0~\x1c\xf0\xd4\xc8\x8c\xdf\xd9\x977\xcb5\xf4\xb8\xcf\xc8\x90FL\xb9?\xee\xed\xf45\xf9i\xfbf\x7f\xc1\xdc&gt;\x19\xd3%\xb9\xf0\x97\xec+\xf0ZMQ\xc2&lt;v\xfe.\xf1\xc6\xe8\xd1[$\x12\x96q\x90\xcc;\x82\xcd\x8f\xf6{W\xe5\xa7\xedK\xff\x00\x05G\xfd\xbe?m\x8b\x8b\x99\xfe9|\x7f\xd6\xf5\r)\xa4;|?a;Xi\xb0.r6\xdb\xc2QXc\x1c\xb0-\x8e\xa2\xbcJ\xc1.\xa3\xbaU\x94\xae\xd2v0\x8b!\x81\xed\x8d\xc0\x1c\x0f\xa0\xaf\xa9?b/\xf8\'\xf5\xff\x00\xc7\xcb\x89\xf5\xcdq\r\xcd\xbd\xb8+\x0e\xd6\xdcY\xb6\x9c\x96\x03\xb7\xa1\xaf\xd0\xff\x00\xda\x1f\xf6\xac\xd44o\x84\x9fc\xd5\xaf\xa1\xb7\xd4/"2\xc96\xed\xbeZ\x13\x98\xa3\x1f\xde8\xc0\xaf\x91|C\xfbI\xf8\x8a\xf3o\x885K\x95\xba\xd4/\xe1(\xc3y\xccC&lt;\x9cv\xcda_|o\xd3\xb4\xbb\xef\xb7\xcd\xa6}\xa5\xae!tuy\xbee\x19\xe3\x8e\xd5\xa3\xe1\xdf\x8a\x96\xfa\xe4\xe2Yc\x86\xc6\xde \xa0FX\x16\xfc\xab\xd4|\x1b\xe3\x7f\x07jz\xb4\x12\xdf\xc7\xf6\x84\xb7\xdaY@\xc6\xe3\xeaG\xa15\xf4?\x80~/\xe9j\x91i\xf6z&lt;ZXV#sG\xc8\x1d\xba\xd7\xa4i\x9e \xb4\xd4\xe3\x8a\xea\xe7\xc5A\xa2A\x85\x18Q\x92{\xd4\xe6!-\xe8\xb3\x85\x1d\xd3nr\x8e2\xf8\xeaq\xfeqBY\xc9\x13\x8f.\xd9\x94\x97&gt;Xc\xce*\xe5\xaaY\xd8\x07\x9bS!\xe4\x95\x89\x01\x8f#&gt;\x95\x15\xe5\x8cM [\x02\xf1\x82w+\x9c\x13\xbb\xae+\x9f\xf1o\xc6\x1d\x0b\xe0\xf6\x9d.\xb3\xe3o\x18i\xfau\xb3\xe1\x9ai\xae\x11\x17\xdc\xedb7\x1f\xa5s\x9aW\xed\xbb\xa5x\xebP\x7f\x0e\xfc\t\xf8q\xe2\xaf\x88\x1a\xa0;d}\x07Jt\x87\xe6b\xab\xbei\x07\x96\x17 \x803\xdb\x15\xd2i^\x03\xfd\xbc\xfe&amp;j\xfa/\x865\xff\x00\x19\xf8W\xe1\x88\xd7\x9b\xce\xd3l\xe0\x8f\xfbWUk@v\x17\xc2e#\x00\xfc\xbb\xbe\xe8n3^\xeb\xf0\xd7\xfe\t1\xf0\x16\xde\xfa\x0f\x11|x\xf1O\x89~&amp;\xea\x96\xec\x0f\x9b\xe2MU\xc5\xa27|[\xc4v\x1ezn8\xaf\xaa\xbc\x0f\xf0\xcb\xc0?\x0b|5\xfd\x8f\xe0\xbf\x08i\x1e\x1b\xd1\xedT\x17\x8a\xd6\x04\xb7TP8f`\n\xe3\x03\xbbW\x8c\xfe\xd1\x7f\xf0V\x7f\xf8\'g\xec\x9d&lt;\x96\x7f\x12\xbfiM"\xff\x00X\x89X\xb6\x83\xe1\x99M\xfd\xd3\xe3\xf8LP\x96U\xf4\xe7\x15\xf07\xed)\xff\x00\x07ZKj\'\xd1\xbfc\xef\xd9:F\x01\x8a\xda\xf8\x83\xc7\x13\x88Qy\xf9]-a\x0c\xc7#\x07\x0c\xcb\xee\x05|\'\xfbC\xff\x00\xc1_\xbf\xe0\xad\x7f\xb5\x9d\xfc\xfa\x0e\xbb\xfbC\xea^\x1d\xd3/#(\xdaO\x84-\xce\x9bo\xb7?p\xb4d\xc8\xfdq\x86r\x0f\xa5|\xc3u\xf0w\xc4\xde!\x7f\xf8K\xbc}\xe2;\xcb\xe9\xee\xe7c,\x97R\xb4\x92\xb1\'$\x96\xc9\x00\x93\xcf\x00}+\xac\xd5\xbe\x08\xe8~\x1e\xd0t\x8f\x14\xe96\t*9Xu\x11\xbf\xcce\x04\r\xa7\x8f\xe2\xeek\x1bU\xf0\xe6\x9f\xa5\x0b\xcd\x12\x1b\x18\x9cJI\x8eD\x19\xdd\xf2\x81\xc7\xadu?\x06&gt;\x07i\xde&gt;\xf1CY\xdf@^\xd7\t\xe6J\xa3\xe6F&lt;!\x03\xb8\xcfz\xfdZ\xff\x00\x82\x7f|\x03\xd3\xfc\x03\xe1\x1b{\xab\xadi\xa0\x9dc0\xf9\xb0\x91\xe5J\xa1p\x18\x9e\x99=k\xe3\x1f\x8az\xf5\xcf\x8f\xec\xe0\x84\x937\x91~nd\xf3\x01\xea8\x8d\x0f\xfb;1\x9fz\xf2/\x14\xea\x9a\x1e\x8d!\xb7\xd3\xa32\x14\x8f\x08\xec\xdc\x0cW!i}\xaf\xf8\xabV6\xda&amp;\x9c\xd2\xccv\x86\xfb:\x92T\xfa\x9a\xfa?\xe0\x17\xecY\xaak\xa9m\xe2\xef\x8a\xbe4\x8fL\xb3w\r\xe5\\\\*\xee^\xbd\t\x1d\xab\xe9\xef\t\xf8\x9f\xf6\x13\xf8\x19\x1a\rW\xe2^\x95st\x91\x95\x96;(\x16\xeaB\xd9\xe0mRNk\xb7\xbb\xfd\xb9~\x04_\xc5\x0e\x9d\xf0\xf3\xc1\xbe&amp;\xf1#\x04#u\x8f\x84XD\xac;&gt;\xf5\xc5q\x9e:\xf8\xfb\xf1\x0b\xc5ZD\xcf\xa3\xfe\xc7:\x8a\xdcL\xa0Gq3\xa5\x90\xc7f\x00t\xf5\xc5x\x87\x88\xbfl\xff\x00\xdaG\xf6t\xd7\xed\xb5\x1f\x89_\x05.\xc6\x89s7\xee \xbe\xbc%d;~TI\xba\x028 g\'\x15\xe8\x9f\x03\xff\x00\xe0\xa7\x1e\n\xf1/\xc3{\xdf\x18|R\x994\xa9t\x99v\xdd\xac\x93+3G\xfc,\x06r}\xeb\x15\x7f\xe0\xb2\x1f\xb3\xaf\x89~(Y|:\xf0\xae\x9b\xa9_Iu3(\xbfE\xf2\xa1-\xd7\x19o\xbd\xc7&lt;v\xafG\xf1/\xede\xaf\xeaV\xe6\xd3E\xd2\x12\xd6\t\x8e\x04\xec\xdf2\x8ccw\xb5{\xef\xec\xa1\xfb\r~\xc9~&lt;\xf0?\x87\xbe;\xf8\xbb\xc1\xaf\xe2}kX\xb43^O\xae^\xc9q\x1d\xbd\xe2JVu\x8e6;\x14n\xcb\x05=\x17\x1d\xab\xe8\x7f\x1c7\xc3\xaf\x00|5\xd54h\xbc{\xa2x\n\x1b\xcd.kQ\xac\x96\x82\xdb\xecJ\xe3k:\xf4\x04\x85\x1b\x86\t\xc15\xf1\xd7\x8f?\xe0\xa6?\xb1\x07\xc0)t\x18\xfc-\xf1\xfb\xc4&gt;;\xf1\x8f\x85|7?\x85\xed\xee|\x03\xa6,\xc7U\xd2\x9aH\xe4X.\xa6\x931\xac\x81\xd4\xb3J\x08\xe7&lt;\xd7\x9d\xfcU\xff\x00\x82\xea\xfe\xdb\x9f\x16\xe1{/\xd9\xdf\xe0\xa6\x89\xe0];\x04A\xabx\xa4\x1b\xbb\xe0\xa7\xa3yc\xe4C\x8e\xdd\x07A_4\xfcU\xf8\x93\xfb\\~\xd1\x0e\xf6\xbf\xb4\x0f\xed9\xe3\x0f\x15[\xc9\xcbh\xb0_\xbd\xa5\x86\xe3\xce\xd3\x04EF;|\xc1\xb8\xeek/\xe1\x9f\xfc\x13\xeb\xc4\x9e8\xd4":_\x85WI\xb7\x90\xe2a\x0c\x01\x8b(\xe8\x19\xf9#\xea1_I\xfc6\xff\x00\x82Yx\x1fB\xb03\xeb\xdaj\t\x1cd\xef\xf9\xf0\xbe\xa35\xcc|l\xfd\x94\xbc\x11\xe0;[\xadSA\xd1\xd1\xa5\xb2\x10\xcf\x1c\xc56\xe6 J\x1e;\x9f\x99X\xfd+\xe7/\x1a\xf8N\xc7E\xd1\xa7\xd2g\xb72\xc3\x06\xa3\xb5\xf1\x16\x1b\x05\xb0\x00\xfa\xf1\x8a\xe1am"-v\xf6\xde\xdeE\xfe\xceU\x92e\x81\xf2K b\xaa\xc0w\xc0\xc5y\xe6\xad\xe1\xc3\xab\xf8\xe1l4\x1b\xb8\xca\xac\xa1b|\x13\xb8\x13\x82k\xec?\xd8\xcf\xe0n\xb1\xe1\x7f\x11Du\xabUx\'v\x10\xb1\x88\xed\x93\x1f0$\xf6\xc9&lt;W\xe8?\xc2\xfd\x1a\xcb\xc1Z\x0cz6\x95n\xdbs\xb8\x83\xf3l\xc8\xe9_\x9a\xdf\x12|Y\xe0\x9f\n\xdd\xde\xea7z\xb5\x9e\x9a\xaf!%$p9\xc7NM|\xeb\xe2o\x89\x07\xc5sK\x17\x80&lt;+y\xaa\xed\xcf\x9bxb+\x1a\x9e\xe4\x1cc\x15\x7f\xe1\x7f\x81~&amp;\xebW\x16W7&gt;4\xd3|-o$\xec\xdex\x8ft\xcc\t\xc9\xcbt\x03\xd35\xed\x1a7\x87\xff\x00d\xcd\x1a\xf65\xf8\xdb\xf1k\xc4\x9e)\x91%\xfd\xed\xb1\xd4\x19`f\x07\xa0\\\x80\xdc\xf5\xdb\xc5}M\xfb&gt;\xfe\xdd\x1f\xf0M\x8f\xd9\xfbLe\xd2\xbfg;8\xae"Ef\xbd6$\xb6\xd6\xe1\x1b-\x9e\t\xe8k\xd9\xae?\xe0\xa6\xff\x00\xb3W\x89\xf4\xa8\xa1\xb2\xd0[J2\x8f1\x19\xf4\xdf,2\x9ewgh\xc8\xf7\xac\xbf\x12~\xd0\xdf\n|yf.t\x0f\x12[\xce\xd2p#I\x14d{s\xd6\xbc\xab\xe3n\x99\xa1|`\xf8W\xab|,ml\xb2\xde)\x93MY\x18\x97\x8a\xe1\x17#i\xc7\xca8\xc5~i\xdd\xe9sE\xadO\xa4\xea\xd0\x05\x9e\xdd\xa4\xb7\xb9\xb7\x90\xb1\xc4\x8a\xdb\x18\x1e\xd8V\xe0g\xda\xbc\x8b\xc4\xda.\xb9\xf0\xf7\xe2t7\xfaD\x13y\xf1],\x900\x07?0\x07w\x1d\xbbg\xd6\xbfP&gt;\x0cYx\x9f\xe2\x9f\x84\xf4\xbdK\xc3&gt;\x1a\xbd\xb8\x96\xee\xc9~\xd0\x0cL\xab\x1b\x90\x0e\t#\x03\x9a\xf7-\'\xc3?\xb7O\x84\xbc\x06~\x1fx/\xe2\xe6\x91\xe0\x8f\x0fZ\xddMz\xd3\xc5\x17\xda/\x8c\xae\xbc\x84q\xf2\xaa\x91\x9c\xfa\x1e+\xe5O\x8f\xff\x00\x0ft\x9f\x16\xf8\xeb\xcc\xf1\xaf\x8f\xfcO\xe3\x99\xa0r\xb2\xde\xf8\x83R%K\xe7\xe6a\x10`\xbc\x9c\x9cV\x8f\x80&gt;\x15\xe9\xd6\xd6Ie\xe1\xcd\x1e;{tp\x04il\xa0\x01\xd9\x83v\xff\x00w&lt;W\xb2x\x0f\xf6i\xf1\x0f\x89@\xfb\x05\x99\xb8i\x1b%\xb6\x1d\xa3\xeb\x8e\x05}\t\xf0w\xf6!\xd04{e\xd6|cf\xb3\xdc\xccU\x9a\x1f+\xe5N\xf8\xcf\xa7\xbd{\xa5\x87\xc3\xff\x00\x0fh6b\x1d\x17M\x825E\x0b\xb5!\x03\xa0\xc7^\xf4G\xa0\xdd\xff\x00\xc7\xd4Ql\\\x159a\x8f\xca\xbc{\xf6\x80\xf8k\xa7\xea&gt;\x1a\xbc3G\x96\xb9\x8aH\xb3\x8ewm\x04\x8f\xa6x\xaf\xce\xdf\x8a\xf1\xb6\x81\xe3\x8b\xf8\xf5\xeb!\xf6=J\xed\xa1\x9c\x13\x8f)\xd4\xa3\xc4\xe3\xd0\x11\xd0\xf7\xaf\x995\xddN\xdbC\xf8\x84Y\xe3%SSx\xde,\x1c\x18\x9f\'g\xe7^\x99\xfb\x13\xf82/\x1a\xfcu\xd3\xa7\xd5\xad\xc8\xb5\x9a\xf1\xe0\x8c\x90\x0cy\x00\x9c\xe4\xfb\x83\xf9W\xe9o\xc3\xdf\x85\xf6\xdau\xbd\xb4\xe6L\x102\xf1y\x7f\xc5\x8ey\xed\xcdzF\x95qq\xa6\xbe\x10.\xd5\xda\xb8\x07=\x17\x1d{\xd7\xe4\xdf\x87\x7fe\x9f\x06\xdc\xea+\xab\xf8\xf3P\xbb\xd7\xb5\x1d\xdb\xe4\x9a\xe6f\xf2Fy8^\xf5\xa5\xe3\xed\r\x11\xed\xfc\x0f\xe0!ie\x0b\xba\x86\x7f\xb3\x806/\x05F9\xe9\\\xe7\xc6\r[P\xb5\xb5\xb5\xf0W\x874;I\xae`\x8c-\xbbA\x0b\x16\x93\x1c\x01\xc7R}+\xe5O\x1dk~4\xd5\xf5\x13\xa8k7R\x12\x93\x18\xe2\xb6V!\x17\x9e\x83\x15\xf4g\xc2O\xf8(]\xe7\xc3\xdf\xd9\xa7\xc6\xff\x00\xb3}\xe7\xec\xf3\xe1MG\xfe\x13/\x0fiZD~"\xb9g\x17ZkY3\x94\xb9G#\x86s#\x17\xc7M\xa2\xbe\xe5\xfd\x89f\xf1_\xc6\xff\x00\x00\xf8#\xc4~ \xf0N\x9bq\x0e\x97\xa6M\xa7\xcb4\xd6|Khq\xc1\x18\xc9e8\x00\x9eH\xe6\xa3\xfd\xae?c\x1b\xa7\xd5\'\xf1\x97\x85|1&amp;\x9b\r\xea6N\x93+\xa8\x89\xd7&lt;\x80=k\xe7\x9b\r\x13\xf6\x81\xf0u\x87\xfc$\x10\xea\xd7\x92\xa5\x83\xc7\x1c\xc2br\x9d\n\xb1\xcf@GS^q\xfbfiQxg\xe2n\x9b\xf1\x0e\xc6\xce$\xb7\xf1\xae\x8b\x16\xaa\xca\x84\x05\x86\xedW\xcb\xbaE\xf5\xfd\xf2\x16\xfa0=\xea\xc7\xc0\x1f\x88\x9e\x05\xd4$\xd3\xf5\xcf\x17\xf8R\tn\xcby_j\x9e\x01!&lt;\xf1\x83\xd1~\x87\xa5~\x81\xfc$\xf8\x8b\xa2\xda\xe8\xc2\xebK\xb8\x8c\x03\x10UH\x82*\xb6\x07\\\x8e\t\xfaW\x97\xfc~\xf8\xcf\xe2\x17\xf1t\x1a^\x9d\xe2\xa9\x04O\x92\xd0\xc3&gt;\xec\x12z6\x0f\x15\x81\xe0\xaf\x01j\xfe3\xd4W\x16\x9e}\xc4\xd2\xeex\x82\xe799\xc9=\xab\xea\x8f\x80\x7f\xb2\x16\xb1qr\xb7\x1e1\xd2\x1e\x0bE\nc\x88\x9c\xa9\x1e\x83\xd6\xbe\xa0\xf0\xcf\x80\xbc\'\xe1{\x7f\xb0h\xb6Q\xc6\x12 \x01\x11q\xc0\xf5\xab\x8bb\xdeH\x82,\xfc\xd2dq\xc9?\xe1V\xa5\xd1n\x073\xf1\x8f\xbc\xabU%\xb5\x16\xf1\xb48;w\x16\x00\x8a\xe7&lt;a\xa2\xd8jv\x0c\x97l\xc5\x1bq\x8f$c%k\xf3\xf3\xf6\xae\xfd\x9b|e{\xe2k\xadn\xd7\xc3\xb2\xdcXC\x1cr\x89\x10|\xcc\xc0`\x05\x00r@\xaf\x90\xfe5~\xcd\x1e+\xf0\xf6\xab\x1e\xbf\xa9h\xb76\xb1\xac&amp;\xef\x0f\x03fbW\xe4\xceG\x04\x82\x0e+\xd3\xbf\xe0\x97\xbf\n&lt;_{\xe2=+Y\xbb\xd1%K[]I\xa7gx\xdb$\x9e[\xb7N\x18\x7f\xc0\xab\xf4\xe2}\x19`\x89.\xad\n\xaa\xc8\xb8\xc2\xaf_q\xedSxw\xc2\xf2\xea3\xc8\xbeR\xba\x8e\xae\x0f\x19\xaf\xcf\xeb\x8f\x0b\xc7\xa4j&amp;\xca;q$\x8c\xbfx\xf7\xf7\xc5e\xc3\xf0\xca\xce\xf3S\x93S\xd5\xa0("\x0cQ\xd4q\x93\xce3\\\x1f\xc2\xeb}\x18~\xd5z\x1d\xd3[-\xd5\xa5\xa6\xb0\x9b\xa2)\xf2\xb4JT6\xe2x\xe4\x92G\xads?\xb7\xe7\xfc\x13\xf7\xc5\x7f\x07\xfe&amp;j&gt;$\xf0\xde\x85sw\xe1\xedJ\xf1\xaf\xb4\xbb\xd8\x10\xb0\xb6\x12\x12\xe6\'\n0\xbbA\xdb\x93\xe9^=\xf0\'\xf6`\xf1\xaf\xc5\x9f\x1a\xd8\xf8cD\xf0\xed\xc5\xd4\xd2\xca\x15d01XT\x81\xb81\x03\x1e\xb8=\xeb\xfa\x02\xfd\x98\xbffo\x0c|%\xf8\x1f\xa0x\x16\x18\xa0\x8f\xec:r\xa4\xae\xa8\x06\xf7(\xa3,\xdd\xbdkW\xe2o\x84\x0f\x83\xado\xfc\x1d\xa8\xdb\xc5+\xdb\xc6\xa2\xe5X\xab"\x17\xfb\x87w`k\xe2O\xda+\xc2\x97^\x1a\xd4o\xec\xb5\xbd\x1e\x18\xa7\xb7\x9c\xc4\xd1[\xaec\x90\x0c\x8c\x928=85\xf1\x87\xed\x9d\xe1s\xad~\xca\x96\xfe&amp;X\xe4\xdf\xe0\xef\x1c,Q\xab0\x05m\xaf"\'\xaf\xf7D\xd1\x8e=K\x0e\xc6\xb9?\xd8S\xc1\xd6\x9f\x14&lt;1\xaeh\xb7Ld\x9fL\xd4\xa2g]\x9c\x98\xe4]\xd9\xf6\xc18&gt;\x86\xbd\n\xe2\xc7\xe2\'\x84\xfcG{\xe06\xd6n\xed\xecm\xc0\xf2b\x91\x8e|\xb2p9\xeb\xd2\xb5\xfc\r\xf0O\xc4\xde3\xf1*\xe8\xfap\xb8\x95\xdaPD\xae\xecUW&lt;0n\xe7\xda\xbfC?b\x7f\xd8\xca_\x87r\xa7\x89\xb5\xeb\xcb\x9b\xa9\x9c\x86+:~9\xc1\xed_X\xeakb-\xa2\x8e\x18\x04r*\x91\xb7\xcb\xda\x07\xd6\xb0c\xb4\xbb\xf3\x7fxW{\x0f\x93i\xe2\xb5-t\xe6K@$@$\xc8\x0eH\xe4\x1fj\x8d\xa5\x8cHR(K2\x8c\x16c\xd4\xd6&amp;\xba\xed\x05\xbb\\\xcd:\xc6\xaa\xdf1f\xc0\xfaV4\xf7\x96\xe6\xdd\xa7\x9a"W\x1f"0\xe8M`\xdcO\xa7\x16\xb9\x86;8\xe7~\x14\x89@d\x15\xca\xf8\xb3\xe1w\x83|g2\x7flxb\xcau\x82p%i\xe3\nzc\x00\x1e\xa0t\xa4\xf0_\xc2o\x08|6\xca\xf8sC\xb5\x84\x99\x8b\xba"\x05\x00\xb9\xc9\x1fNk\xb5\x97C2@\xb0$*&lt;\xbc\x05E\xe7\x8foZ\xe9|\x01\xe1Am,\xb2\xbd\xb6S\x00\x05\xdb\xd4\xfa\xd7\xe6\xd6\x85\xe1/\x1b^x\xfd\xa0\xd4/\x12t\xdcc\x03\xca\xc6\x088\xae\xbb\xf6\x8f\xf8\x1d\xa8x\x17\xe0\xfc\x1a\xc4:\xfcw\xd7\x1a\xace\xd6\x0bx\xce`l\xfd\xc2G|V\x17\xc2\xbf\x02\xfc\x16\xf8Q\xe0\xcb\x7f\x14\xdei\xb2\xdek\x8fn\x1aH\xcan\x0</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00\x0f\x00&lt;\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xf8\xef\xe1\xe7\x8a\xe4\xb7\x9d\x12\xe9\xd8\x1c\xe0\r\xff\x00w\xf3\xcd{&gt;\x87\xad\x8dR8\x9ed\x88\xa0\xc2\xe5\xb2x\xf5\xebSj\xda%\xb1\xbb,U\x86\x01\xfd\xea\xa6UA\xc6?\x95r\xda\xce\x94\xead\x92\x172\xa2\xae\t\x1c\xee\xfc;W\x90\xf8\xe7Y\xb9\xd3\xf51u4\xa9\x04q\xbf\xdeC\x96_\xa8\xae\xc3\xe0\x86\xb9i\xa8\xdcIs4\xc5\xad\xa6S\x89J\x9d\x81\xfb3c\xa5u\x1f\x14&gt;\x19[x\xdfCq\x14Q\xab\xbc$\x08\xc2\x8c\xff\x00\xd7@\xd8\xf9\x94\xfe\x98\x1e\xb5\xf0\xcf\xc4\x7f\x00^x\x7f\xc6\x17\x9aW\x98\xc9\xe5&gt;&gt;H\x0e\x0f\xb8\xe6\xbe\x83\xb0\x9d-.\xc3\xda\xdd3\x19$*\xe4\xa61\x8fO\xce\xbd#\xc0&gt;-\xbcIR\'b\xf1F\xd8\x90\x9e\x80};\xd7\xb0\xc1\xac\xe8\x97\xbaLS\xbb\xb2\xb3\x80\x88\xec\x84\x8c\xfd\x06?\\\xd6\x07\x8dlt\xfb2\xd3\xe9\xf2I\xf7\x06\xf5\x93\x19\x07\xbf#\x00\x8fOJ\xf9\xab\xe3\xa5\xebE|Ld*\x86`[\x1c\x92F{}+w\xf6Z\xd4\xae\x8c\xb3[\xfd\xbb\xcb\x10\xc6]\xe4)\xb8`\x80N\xe5\xe8\xc3\x9f\xad{\x07\x87\xbcf\xc3\\\x9bN\xbb\x94\xec\x1f"as\xf2\x9fOE&gt;\x98\xc8\xc7Z\xf2\xbf\x8d?\x08\xb4\x0f\xf8O.&amp;m\xd2\x19cW\xc88\x039\xe0\n\xff\xd9'</t>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00_\x01}\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfc@\xf2\xa2\x07p \x92y\x06\xa3e\x05\xb0\x07\xd2\x82v)\xcf\\pj\'fa\xf31?SL\x0cA\xc9\'\x03\xaf4\xa0\x15;\xa3l\x87\xe0\xee\xec)\xdeBy\x98\xdf\xfc&gt;\xb4\x92[\xae\x00\x0er}\xeaHn\x85\xb9\x19\xcf\x96\x0f\xcc\x83\xa1\xfc+\xef\xdf\xf8 \xaf\xedk\xa7\xfe\xce\x9f\xb6N\x89g\xe2\xcdg\xec\xda\x07\x89Yt\x8dv}\xd8\xfd\xdc\xd8U\x90\xfa\xe1\x8e\xec\x9e\xe35\xfb\xb9\xf1g\xe0\x0e\x9d\xf0{\xe3T\xbe1\xd3t\xf8\x7f\xe1\x12\xf1\xe5\xba\x8b\xa8!Q\xe5\xc1~&gt;fL\xaf\x01X\x90\xe1\xfb\xe4\x8a\xfc\xc1\xff\x00\x82\xa8\xff\x00\xc1;\x07\xec1\xf1"\xdf\xe2\x95\x8d\xb2j&gt;\x17\xf1]\xc5\xc3\xe9\xd6\xd1(\xfd\xc3+\x83$\x0e\xbd\x08`\xc5\x93\xb0\xea+\xf2\xff\x00\xe2\xe7\x84\xd2\xcb]\x93Z\xb2\x0c\x96\xd3\xc8O\x97\xb7\x98\xb9\xc8R}\x07\xa5`\xf97Z\xa5\x99x.\xa3k\x8be\xcb\xa9\\\xa9\xc7M\xbf\xd6\xbe\x91\xff\x00\x82l,\xde1\x8f\xc6\xfe\x153\xeeKkx.\xe3\x88\x8e\xa7\x1e[0\xfc\xfa\xd7\xd0\xfa\x05\xff\x00\x88&lt;&lt;\xc3O\x87\xcd\x08%\xc6B\x96\xefZw\x1a\xce\x9f\xa5n\xd6|_\xe2\x18\xec\xad\x91K7\xdaf\x00\x1098\x19\xe3\xf0\xaa6_\x1c\xfcq\xf1\x99\xe5\xf8g\xfb;x"{\x95\x9eE\x86\xfb\xc4\xb7!\xa3\xb4\xb6Bv\x93\x1b\x1f\x98\xb6\t&lt;q\x91_\xb3\x1f\x03m\x1e\xd3\xc0zU\xb42\xe0\xb5\x94#b((\x85b\x01\x87=\x01 \x9a\xf5\xcf\x86\xf6rM\xab\xc9\x06\xcc\xc6#%\x9d\xc6EK\xf1\x0f\xc22\xd8\xf9\xaf\x0c\xa9 _\x99\xd3\xd8\xd7\x9f\x03*\t-\x1d\x8a\x0c\x93\xcfa\\\xb6\xaf\xac\xdd\xe97\r&lt;\x12&lt;\xaa\xf2\x05l\xe0\xe3\x9a\xb3\x1d\xfc\x177&amp;[\xf9Ih\x902\x00{\xf6\xcdih\x1a\xbf\xd8\xafR\x16\x1eZ\x97\x0c\n\xf1\x8ez\xd7mkz\xb3\xc0\xc6+\xdc)u\xdcX\xf6\xcf5\x15\xca\xdc\xce\xea\xb0\x90K\x9c1\x1cl\xf4\xe3\xde\x99\xa65\xd4\xaf0\xd4\x0b\x10\x14\xec\x8c\x0e\x08\x15\xa5i\x1d\xacj^\xd66\xdb \xc8$}\xd2==*\x18t\xe8"\x12K1\\Hy,3L\x9fO\x95\n&lt;\x01dPA\x049\x18\xad\x18\x8c\xf1\xc4\x87,[\xa6\x19\xf3\x8a\xb5kc;\xc3\xe7\x9b\x81\x9c\xfc\xa3\x1d&gt;\x9e\x95\n\xdeN\x8cR)w2\xb7\xcd\xcf8\xaaWz\xbb\xc12\xff\x00\xa1\x87R\xdbF\xe3\x96R{\xe7\xd2\xb35\x9b\xe6\x19K\x900\xc3\x11\x84n\x84\xd75\xac\xddM\xa6[yp\x17\x1b\x10\x8e1\xde\xb9-OV\xbb\xbc\xd4\xa7s;\x03\x0c$p;\x91Y\x16w\xb7\xcb&lt;P\xea7jRg&gt;PQ\xf2\x8f\xfe\xbdlZ\xe9\xb2[\xdb\xf9i(*\xcf\xb8\x00j\x9e\xaf\xa2C4\x11$r\x04X\xdc\x10\xa3\x809\xf4\xf4\xaeK\xc663Z\xcd\xe7\xc0\x0bF\xa9\xe5\x15=L\x83\x9c\xd7\x19\x05\xdd\xf2\xeak\x1d\xecN\xec\xd9)\xcf~\xd9\xab7\xf3F\xb1\xec\x92\xe5\xd2N\xbb@\xc8\xfaU\xaf2%\x829\xc0\x0ed.#\x07\x81\xc2\xf4\xc7\xa7\xb5f\xebvOmk\xfd\xa3s:\x06\xea\x8a\x9d\xab(\xad\xed\xee\xa2\x1c\xdc)\xccGn[\x1d\xbbV\x0f\xc5MV\xf2\xd2\xea\xd2\xd9\xa3\xfb\xaa\xff\x00u\xff\x00\xdd\xaf\xe7\x04*\xeem\xb2\x1c\xe3\xd6\x85"5%\xc6x\xfci\x1d\x1at\x06&gt;3\xeb\xd6\xa1 \xa9\xd8\x7f\x87\xad**\xb7\xcc@\xc0\xebJ\xd0\x10K\xa0\xc84\x9e[\x03\x9c\x9f\xce\x9c\xdft\x1aj\x04\xde\x0b\x1c\r\xc0\x93\x8e\x9e\xf5\xd3|\'\xf1&lt;~\x1e\xf1M\x9d\xe5\xcd\xcc\xb1\xa2\xcc\xb1\xcb:u\x89\x0bcx\x1d\xca\x8c\x90=\xab\xfan\xff\x00\x82a\xff\x00\xc1M\xbfg\x9f\xdaO\xf6F\x83\xf6~\xfd\xa0~ YE\xe2\xfd\x0e\xd8i\x12\x0b\xd7\\\xdf\xdb\xaa\x7f\xa2\\FX\xe0\xbe\xdc\x7f\xdf5\x83\xfbj\xfc\x08\xf8\x95\xf1\xdf\xe1\x86\xab\xa1\xfcL\x90\xeawcFK\x9f\x0c\xc94\xbf.\xcc)\x86\xe9q\xc0s\x16c+\xd7\xe6\xf7\xaf\xc6\xdf\x8a\xbf\xb3\xb7\xc4\t\xf5+\xdf\n\x7f\xc2\xbf\xbf\xba\x1es\xc6\xeb\x05\x83\xb3+\x0c\x81\xb4\x81\xc9\xae\x0fO\xff\x00\x82|\xfe\xd5P\xdc\x1b\x8b/\x85\xda\x95\x94\x05\x0e\xc9\xf5\x18\xc4(\xb1\x91\xc9;\x8f\xa5z\x8f\xecs\xe1\x9f\x0f~\xc7\xdf\x105\xddK\xe2\xdf\x8b\xf4\xc3q\xabi\xa9gi\xa5\xe9\x17\x1fi\xb8\x95\xf7d\xa9A\x91\xc9\xed\xeb^\xc7m\xe3\xff\x00\x8bZ\xfc\xf3\xda|=\xf8\x19qm\x14\xacM\xbe\xad\xe2F\xf2\xd3kteA\xe9\xd7\x15w\xc0\xff\x00\xb0\xd4~4\xd5#\xf1w\xc7\x1f\x17\\\xeb\xb2\xbb\xef6hJZFs\x90\x9b:7\xa7"\xbe\xa6\xf8_\xe0?\x0fxGO\xb7\xd3\xbc?\xa0Z\xd9B\xbbR$\x86 \xb9\x03\xe8+\xee\x9f\x83\xf3\xf9\x9e\x1a\xb0\x81\x91\xdfm\xba\x96q\xec:W\xbe|.\xd2Vh\x19Y\x06\x02\x1d\xc0\x8eNEhx\xce\xc7N\xb6\xd2\xcd\xf6\xcc\xccb\n\xc9#g&lt;\xf55\xe1~:\xb8\x92\xc7RX"O\x96P\xc5\x98\x0c\xfe\x19\xae\x1b\xc4\xb2Gk:\x18P\x00\xc4\x17F\xe9\xf8\x0fZ\x80kv\xf1\xde\xccL\x807\x94:\x9e\xbcV\xbd\x96\xb3\x15\xd3$+ \xf36gq\xfe\x95\xd2i\xda\xf8t\x8da\x9f\x05Xn\xf9z\x9c\xf7\xf5\xae\xc3H\x8b\xced\x96fi]\xc8l\xe0\x0e\x95\xd1Y\xc3\x0c\xd6\x10\xe2\x10\xae\\\xa9\x93j\xe7\x1fZ\x91\xed\xec!\xb6\xf2\x04!\x86\xec\x12\xa7\xa5W\xbe\xb0\x85\x19&lt;\x95\xdc\xa7\xf8W\xb5Vh\xa7\x9aA\x00%T\x1f\x9b\'\x9cS5\xdb\xcb]\x12\xcd%\xd4dH\xcb\x10"e;w{g\xd7\xde\xa0\xf0\xf7\x8et\xadn\xc8\xc9b\xef)\\\x8d\x89\x8c\x02=H\xebE\xe4\x82Y.d\xd2!!\xf06\x16n\x1b\xd6\xb0\xafu\xcf&amp;\x7f\x9a\xdb\x127\xdfbz\x01\xd7\x15\xcf_]\xea\x172\xf9\xd0H\xa5Hc\x87Z\xc7t\xbd"i\xae\xa4\x0c\xab*\x9c1\xcbp{{Uy\xe2\xf3\x9a\xe0m\xda\xcc\x01\xc8\xe0\xb5P\x9fH\xb5Hm\xe51\x0c\xa3\x16T\r\x80O\xa5Y\xb9\xfe\xd31E\xf6(R0\xcc\x01-\xce\xd1\x9a\x97Q\xfb\x02\xb1\x8c#2\xe0\x06s\xc7\xce\x7f\xa5q\x9e6\xbck@\xd6\xf2\xba\xb3\xb1-\x11\x07\x07v;\x91\\d\x97\xb1Oq\xf6\x82\x9bd\x1c\x96\x88\xe4\x00:\xe7\xdb\xd6\xad\xce\xaa\x92\xbd\xb7\xca\xef\xe5\xe7v9\xc1\xfeuV\xf3I\xbc\x9a\xca\xdeD\x99\x81V%X\xa8\xf9=\xeb/\xc5\x91\xdd\xb5\xb6l\xdcL\xec\xea\xaa\x13\xe5\xe7\xfaV]\xc4\xd3G/\xdao\xec\x87\x9b\x1b2\x84\x03\x1bp\xbds\xdf\x15\xe6\xdf\x1b\xbcS5\xa6\xadg\x1a\xcd\xb70\xb1 \x9fq_\xcf\xa2\x00T\xb9Q\x91\xd2\x86\xe0nQ\xb9\xbd\r$\x13\x9f4,\x8a\x07&lt;qM\x93\xcbe|\xaf$\xe3 sQ/\x94\x83f\xf7\xe7\x8e\xb4\xf8\xe4o\'k\xb1\n\x1b\xb1\xa7\xc8P\xa8\xf2\xdb\x1e\xb9\xa8\xfa\xf0O\x14\x84\xb0\x07\x03\xa0\xf9O\xad6\x0b\xbf"_9\xe5!\xb3\x96\x19\xed]g\x83&gt;,\xf8\x93\xc0\xda\xbd\xae\xad\xa3\xea\xf2\xc5-\x91F\x85\xd6VR\xbb~\xe8\x04\x1c\x80\x07\x03\x1d\x05}s\xe0\xff\x00\xf8/\xb7\xed\xd7\xe1\xaf\rZxB\xe7\xc6Qj\x96VI\xe5\xda\x1d^\xdb\xed\x0e\x8b\x800\xac\xe7-\xc0\x03\x04\xe0\xe3\x14\xfb\xaf\xf8/\xe7\xed\xb7\r\xbc\xd6Z\x1c&gt;\x12\xb1\x17\x19/w\x1f\x86\xa1y}\xf8f ~F\xbc\x0f\xe3W\xfc\x14\'\xf6\xb7\xfd\xa0\xefd\xb8\xf8\x8b\xf1\xabU\x9e7?\xf1\xedk(\xb7\x88/\xa6\xc4 \x01\x8fJ\xb9\xff\x00\x04\xfa\x86O\x17~\xda^\x07\x83R\x91\xe7\xff\x00\x89\xc9\x92S9\xde\xcf\x80\xe7\x9c\xf5\x19\x03\xf2\xaf\xda\xcdS\xc1\xd6Z\xac\x90]\xa4Q\x80\xb0\x8e\x04@\x1c\x0e\xc2\x8d/@\x87N\x82G\xfb8M\xc7\x05v\xe0\x91\xeb[\x9e\x15x\xed\xadc\xbc\xbd\xb8]\xbb\xca$d\xf3\x8a\xfb\x07\xe0\xcbMg\xe0\xbb[\x88a\xfd\xe4\x91\x0f,0\xe3\xd8\xd7\xb6\xfc.\xd4\xef,4\x15\xbe\xd6\x9dL\xd2C\xbd\xf0\xf8*A\xe2\x99\xe3O\x11ZjVM\x0b\xc7\xf3\xe0\xe0\xe3\x92=+\xcb&lt;R\xe5m\x81E\x03\xca\x7f\x9c\x95\xe7\x07\xb5y\xb7\x8du(\xe3\x81\xd6HK\xb0\xc9W\xc7+\xf4\xae2\xff\x00Y\x9c8w\x12\r\xcb\x8d\xcd\x18\xe7\xebW&lt;5\xe2\xc0\xd2\xc79\xba]\xd0\xfc\xa83\xf7\xc7s\xf8WQg\xe3\x88mH\x89f\x05\xd9\x81\xc6k\x7f\xc1\xbe:\xba\xbb\xdae\xbf|\xf9\x84\x00d9\xc7\xa75\xe9~\x1d\xd41h"\xb9/\x99?\xd5\xb3\x90pMt\xd6\xd7\x96.\x1f\xfd\x1b`\x8ei\x01e\\\x06\xc1\x18\xa9\xe7\x12E2\xdd\xdb\xc5\xb9H\xce\x15\xf1\x8f\xadWy\xed!\x98E1S4\xac\x02\xa8\xc9\xc9=\xb3\xda\xa8x\xcf\xc1\xfa_\x8d\xb4\t4]J/9\x1b,\xab\x14\xa5\x19\x08\x1d\x8f\xadb\xf8/\xc0\xba7\x824\xc3\xa2i\xa8\xc0\x06-\xb4\xfd\xe4\x1d\xce{\xd5\x9dCP\x87M\x84\xcb\x0cE\x94d\x0cv\xcf\xa5q\x1a\xbc\xba\xad\xd6\xbb\x0ci\x1b\x04I\\\x97\x1ft\x0ct4\xf9n$\xb6\x8c\xdb\xce\x88\xc5\x81\xc1&lt;`VH\xb9\xb3\xba\x9d\xf6\xc8\x1c\x0e\x18\xee\xce\x0f\xa5R\xbdI\xcd\x9f\x9d\x1d\xc6%p\xca\xa3==\rC%\xbd\xe5\xe4\xb1\x06\xb7WR\xa0nE\xc6\xdfSS\xcfg|a\x11\xd9\xcf\xb4 \xcbs\xd6\xb3|G\xa9\xc7ij\xabw).9\xc0\x1dH\xaesVK;\xc5K\xa9\xe1\x0eX\x8c2\x9c\x95\xae\x02\xcbJ\x9b\xfe\x12+\xbb\x98\xaeL\xd1J\xc9\xe5D\xe3\x020\x14\xe7\x1f\xd7\xd6\xb5\xb5=\x0ex\xedR\xe8\\~\xf9\x082;\xb7%}3U\xec\xee\xd9-\xd2)\x8b\x13\x1c`\xe4\x1e\xa4\x9a\xab\xa9\xa8\xb7A\xb9\tRw6Nv\x8f\\V\x0f\x88o|\xe4\x91\xa6\xcbH\x18l\xdap\x02\xf78\xf5\xc5x\x8f\xc7Kk\xbdS^\xb3\x9e8\x98(\xb5\xc0\xcf~z\xd7\xe0\xdb\xc8\xbb\xbbu\xebHZA\x9d\x88\x01=\xe9\xbeT\xa5K\x17\x19\x03\x83M1\xca\x1f\x96\x18\xdb\xc8\xa5XC\r\xec\x06\x07\'"\x94"\xaa\x84\xdd\xf7:\x8f\xad4*\xb3\xfc\xca\x0e:dSe\x1f8Q\xde\x94\xbf\x94\xbf78\xe9\x9a\x84\x98\xc7\xf0\x02\xc4\xe4\xe4t\x150\x00?\x98\xc39^\t\xa2G\x1e`\x0b\xc6W\xa8\xe2\xa3*\xeb\x80\t \x1e3\xda\x9d\x1e\xcd\xdb\xe4@\xd8\xea\x0fq\xe9^\xff\x00\xff\x00\x04\xca\xba\x83K\xfd\xb5|\x17\xa8\xdf\x15\x06\x19\xae0\xce\xf9\x0c\xc6\x13\xb4}rx\xfa\xd7\xee\x17\x86\xef\x06\xade\x1f\x99\x1a\x9d\xcb\xf2\xedo\x98V\xd2xV}FC5\xad\xa4\x8f\x84\xc2\xc7\x8c\xee&gt;\x94\xed\x1b\xe0\xde\xb5e}o\xa8k\xd0\xb0\x83v|\x8c\xee\xc7=\xeb\xeb_\x87\xf6m\x06\x8dm\x14\x0f\x88\xa3\x01V0z\r\xbd+\xd2\xbc+\xa7Iv\xb9h\x19\xa2\x89\x7fz\xf2s\x9fa\x9a\xad\xe2\x99"\x8awh\xad\xb3\xe5\x8cJs\x91\xecW\xfa\xd7\x0f\xabL\x97;\xe3\x962~m\xccO\\\n\xf3\x9f\x18\xe92\xeaR\xb41*\x9f\x9b;\x98\xe4\xe3\xd2\xbc\xeb\xc5\x84\xc3nm\x96\xf8n\x84\xed`\x17\x91\x9fZ\xc6\xf0\xc7\x86u\xf4\x99\xe6S\xbe\x18T\xf92\xed\xc6\xed\xddi/\xf5\x1b\xbf\x0c\xcao5;\xf2&gt;n\x0bd\x91\xf4\xad\xdf\n\xfcI\xd3\x99-\xe7*\xb8f\xc2\xba\xf3\x96\xed\x91^\xbd\xe1/\x17M\x7f\x1cWR\xbf\x9d\x18\x00\x05\r\x8d\xbe\xf8\xafT\xd15\xf4\xbf\xb3"\xdaB\xab\x91\xb9\x19s\xc9\xea~\xbe\xf5\xd0\xda\xc7\x1bHU\x8f\xcd\x18\x1b\x80=s\xda\x88.`{\x94s\xf2\x11\x90\x0b.\xec\x1e\xd5\t\x173N\xc8\x1dY\x06H\xc0\xda+.\xf2q\x16\xa0c\x91\x8a\x92\xb8\x00s\xf8Vv\xa7\xe7Nb\x85\x02"\x00Kq\x8c\xfb\xd6^\xb7&amp;\x9bd\xablet.w;\x83\x8f\xa9\xfa\xd7\x0b\xe3!\xab\xba\xac\xf6!\xa4\x8d\xdb\x12\xb3\x12J\x0foJ\xe5&lt;+g\xe2(\xbe\xd34\xc1"F\x97\x08\xae:\xfb\xd7I%\xbc*\xa8\xd1\xceL\xa0e\xb2\xdc\n\x96\xda\xf2x\xec\xde\xddB\x19\x00;\x1c\x1c\xe2\xa7v1\xd8\xf9\x91H\xad9\x1dA\xc0\x07\xdf\xda\xb9\x0f\x17G\xa8]\xdc\x18\xc2,\x86(\xc9\x94v&lt;VQ\xb5\x86[e\x89\x99m\xa6*Y\xd5I\xf9H\xe8?\x1a\xcc\x9fF_\xb5%\xb5\xb8\xf3QN\xed\xe4\xe0\x83\xed\xedQx\x8e\x07\x8d\x1e+\x8b\x82\xc3\x80T\x0c\x91\xf8\xd6-\xc5\xb2B$ay\xb1F\xdcFG\xde\xf6\xaa\xfa\xa6\xd9-\x12\xe6\xdc\x9c\xe7k|\xff\x00tW\'\xe27\x86)\x8f\x9fu\xccc\xcc\x007\xde\xc78\xae\x7f\\\xd0\xec&lt;@\xf1Mt\xc0\x14R\x142g\x00\xd7\xf3\xb80Hg\xe3\x153\x82\xa9\xb8\x9e\x08\xa6\x15\x05@\xc7Z\x8d#\xcc\x87q\xe0\x0f^\x94\xe8\xe5\xce\xe8\xc0\x1bq\x8c\xd3[\xef\x03\xeay\xf7\xa6\xa1&gt;a\xe6\x9f\x80c\r\x81\x9d\xc3\x93Q\xc9\x14\xb21!\x97\x00S\x0cAN\xe7\x19lu\x02\x9c\xe4\xf9}{R7,\t\xfe\xed\nI!A&lt;\x9e\x94\xe7\xda\x9c\x1e\xf5\xdd\xfe\xcc\x9e+\x1e\x06\xf8\xe7\xe1_\x13\xac\xdbV\xd3]\x85\x99\xc9\xe1&gt;u\xc9\xfc\xb3\xf8W\xef\xef\xec\x9b\xe1\x8dC\xe2\x8c\x16\xba\xca\x17K$Ui\xa4*0\xca@&lt;{W\xd4\x9ag\x83\xfc/\xe1\xab%\xb3\xb0\x89%.9\x90\x80H?Z\xc8\xd7.cw\x8dV\xdc#&lt;\xc1$\xdazs\x81\xf9\xd7\xa9\xf8,y\x16\x90\xb4o\x8cG\xb9\xdb\x19\xc7\x1dq\xde\xbd\x93K\xb8{;k{h\xed\xd5\xc5\xc9-5\xb2/@\x17\x86\xcfo\xa5T\xf1/\x87\xe4\xbe\x82[\xa8`\xb6\x86(T\xae\xc0\xb8 \x9e\xf5\xe7\x1e)\xd3M\xac3H#\xc6H@\x98\xe4\xe7\x8f\xca\xbc\xe3]\xd3\xe6\x8aE\xbd\x800`\x1b\x1e\xc7\xb1\xae3U\xf8\x7f\xe2\x1dV\x1b\xeb\x9d\x1a\xca\xdeK\xd9T\xf9rL\x80G\xbb\x1cn\xfcq]6\x8b\xe0]N=\x12\xde\xce\xf6\x05\x12\x88\xf19\xb7\xc9UoQ\x9e\xd5\xc8\xfcR\xf8o\x14\x80\xf9\xf8a"\x1d\x9b\xd3\x81\x81\xd7\xda\xbc\x0bY\xd4\xf5o\x85\x9a\xd1\xb9\xb2v\x96\xd2)rSn\xef\x9b=\xf3\xda\xbe\x82\xf8\x1d\xe2c\xe2\x7f\x0f&amp;\xb5\xa7\\#\xbb\x80d\x8c\x1f\xba\x7f\xa5{\xc7\x825y\xad\xed\x83O\tP\xe9\x83\x86\xe3&gt;\xa4w\xae\xc2\xce\xee\xe1\x9b\xcfh\xc1\x05r_w\\\x7f:\xb7a\x87\x93u\xb3\x959\xe1\\pM3R\x95\x8c2\x83!\x8e\xe0\xa1\n\x99\xca\xf4\xebY,a\xcc\xb7\x84\x12\xc0\x0c\x90\xf8Q\x8e\xb8\x15J\xf5\xe2UI\'\x92&amp;,\xc0+\x02p\x01\xf6\xf5\xae\x17\xc5W\xb2j\xb7\xa2\xdf\xed\xec\xac7(P\xbd\xaa\x1b\xddU\xad,E\x93\xc7\xbf\xe4\xf9\x98\xf7\xfa\xfa\xd6\x19\x90]2\xbe\xa2\x81bY\x01M\xbc\x0e\xbd\xf1UE\xed\xa5\xf5\x94\x91\xd8K `X;\x01\x90G\xa6MA\xe1I\xae\xa4\xbe\xb8\x8e\xed\n\xa4$*\xb7\xaej\xf6\xa7w5\xb4\xedi&lt;K\x99#,\xf2\xa1\xe1\x00\x1c\x0f\xc6\xb0\xb5\xcb\xcb\xb2\xec\xb6\x0cFJ\x86\x7fo\x7fZg\x93u,\x8a\xd3\x80\x1d\x80\r!9\xdf\xeci\x97:4I4\x92\xef\x90I\x18\x1b\xd8\x1e\x005\x89\xa9\xdf;\xac\xf7v\xc9\x1f\x90T\xab\xb1Pr\x00\xe7\xebXr\xdb\xdf]2\xca\xd6X\x81\xd8~\xf0\x9d\xc0\x8f\xa7j\xe7\xef$KO\xdd\x99\x99T\xc8s\xf2\xf1\xf9W-\xad\xae\x9f\x15\xe4\x92^\xcb\xe7\x95`\x14\xed\xe1s\xd3#\xd2\xaa\xd9j\xd3\xdd[\x07\xb7\xb7D\x01\x88\xcc\x92r\xde\xfe\xc2\xbf\x9d\x80\x81\xdc\xae:\xf4\xa7\x926\xf9l2E4\xf4\xa6\x05\x0e\xdbX\xe07\x04\xfbS\n\xb2\x92Tt\xe3o\xb7\xad\n\xc00/\x92\x01\xe6\x8c$\x91\x97\x84\x15\xe7\xbfZ\t\xda\x81\t\xea{\xd3DlI\x00\xf5\xf7\xa3cF\xa4\x12zS9&lt;S\xd6"\xc3\xf0\xe2\x95S\x90\x07Pi&amp;\x05\x9b\x00d\x9e\x95%\x8c\x93\xc5:\xc7h0\xe5\xfa\x8e0Oz\xfd\xec\xff\x00\x82T~\xd26\xbe:\xfd\x9a\xb4\xd9\xf4\xeb\xe5k\xcb\x0cZ^\xa6\xec\xe0\xaa\xe0\x13_bh\x1e+]W\xc8\x8d\\\x83\xb4\xb30\x1c3zT\x9a\xbc\xb6\xeb\xaaEx\xfb\x9a(g3J\x89\xd5\xf6\r\xd8\xc7~\x9cW\xb1\xf8\x01\xbc\xf8\xd6`\x00\x8eHC.8(=\r{g\x80\xa4\x81tsu\x1c\x99i\x1c|\xc7\xa9\xc5Y\xf1$\x1f\xf1$\x9ei\xa5!\xe7\xca\x94\x03\xaf\x1dk\xc9\xbcg~R\xe8\x8b\xa6Vh\xe5 \x14\x1f\xc2\x07C\\\xad\x95\xb5\x9e\xad;$\x99\xda[\x18\xcfJ\xeat\xaf\x04\xe8\xb1[\xc8`@z\x1c\x13\xc0&gt;\xb5OU\x8a+\t\xa5\x88\x15\xc0\x03\x1f7J\xe1\xbckqg?\xef\xa4t+\x1a\x9cn\x00\xe2\xbe_\xf8\xe9i\xa7\x93|\xd7V\xc1\x86H\x12\xf6\x19\x1c\x1f\xc2\x8f\xd8S\xc5\x17W\xfe+\xd4|\x1f\x1d\xe11Gi\x1b\xb2\xf6V/\xc7\x1d\xb3_hxwO\x9e\xde\xd4)\x8fv;v\xae\x9fMv\x1b\x16E\xdd\x16\xe1\x8c\xfd\xe0\xdf_J\xd8\x8a[\x89\x81\x81!\xea0\x8c\xc78=\xaa+\x98\xd5e\x92\x06b\xc6H\x8ed\'!x\xed\xe9Y\xb7\xa2\xce\x14\xd8\x91\x96\xf2\xe7%\x8a\x8e\xc0V\x06\xba\xe1\xe1\x8c\xda\xc9\x92\xc4\x95\x0ez7c\xeck\x99\xd5\xad\xa5\x87Q\xf3]A}\xec7\x06\xe9\xc5s\x97\xfa\xbd\xbd\xdd\xef\xd9\x9em\xee\x8e3\x16r\xdd\x7f\x95U\x92;\xa3q\x15\x8d\x9c\xb2\x10\xb9i\x19\x87J\x9aE\xb6\x89\x9a\x06\x11\xae\xd6\x1b\x80\x00g\xd6\x99"\xda\x9b\'\x8a\xd42\xbb\xc8\x0b&gt;\xea\xc6\xd6u\xdbxd\xf2\x1aU\xdf1\n\x91\xca\x99%\xba\x03Q\xda[\xdf\x05\xdd\x8f5Y\x86\xe6S\x8cU\xb4\xd2\xaec\xff\x00I\xf3\x17\x1d\xf1\xd7\x1e\xfe\xb5GY\xba\xbc\x826\xb4\x89\x8c\xbe~VV\r\x82\x14\x0c\xa9\xfcO\x15\x81\xa8\xc6m\xec\xfe\xc3%\x91\t?\xdd1\x9f\xbb\xeaj\xb6\xa5$\x1ae\x9cv\xb1\xdc\x18\xf22H88\xae\x1f\xc4\x9a\xa0\xb5W\xb8y|\xc5\x95\xb0\xa8\x07*;\x9fo\xads7\n\xd7\xecf\x9cG\x1f\x98\xa4N\xc5\xf8\x03\xb1&gt;\xa6\xb9V\xb2\xf2\xae%\xb7\xb8\xd4\xa3\xca?\xcaH\xed_\xcf\xf6B\x9d\xc3\xb54\xe5\xdbp?Zu!M\xc3j\x81\x93\xc0\xa8\xe4i\x00#r\xe4\x0c\x12:\xd3c8\xf9\xbd\x06i\xe8\xe1\xc6\xcc\xf5\xa8\xe6b%\x0e\x9c\x80@\xe7\xd6\x9a\x0b0\xdd\xb8\xe7wU4\xf8\xd89*\xe7\xee\xf5&amp;\x9b \xc9\xccc\x8a|$\xe4sK\xd2l\x0fZb\x12N\xe2y\r\xc1\xa26u\x91\x99\x1c\xa9\xf5S\x83_s\xff\x00\xc1\x1e\xbfj\x98~\x13\xfcG_\x85\xbe"\x9dc\xd3\xb5\xf9\x89\x0c_\n\xb2\xf4\\\xf6\xeb\x8a\xfd\xa4\xf0\x0e\xb5\x05\xb5\xb0\xb7\'w\x96\xca\x11\xc3n\x04cv\x7f*\xea\xb4]F\xde\xe7[\x81\x8a)\x1b\xb7\x10G\x7fZ\xf5?\x0c\xde0\x8e=\xed\xe5\x90\xe1\\\x0e2\t\xeak\xd3&lt;\x17\xe2g\xb1\xd3\xe0\xb778HX\x9c\x86\xebO\xf1\xf7\xc5ci\xa6\xfc\x97\x19`\x0e\xd2[\xa1\xaf\x1d\xd7~"F%\x11\xcd0a1gf\x03\xab}k2\xd3\xe2]\x8e\x95\x13_^\xb2\xc5\x10o\xbc]@\xfcI\xaf\x1c\xf8\xdf\xff\x00\x05k\xfd\x9a\xff\x00g\xe8&amp;\xb3\xf1O\xc4\xeb\x18\xef\x11\x8f\xfa,\x12\xf9\xae\xc4\x7f\t\xdb\xd3=+\xc0t?\xf8/\xaf\xec\xfb\xe3\xef\x126\x99\r\xf5\xfd\xb1g(\x93]Zm\x89\xf2p\x08#\xaf\xe3^\xa9/\xed\x9b\xe1\xaf\x18\xe9Q\xdd\xe9:\xcd\xbb\xc5"\x07\x8db\x90\x12\xe8z\xb1#\xb8\x1d\xab\xcb~-|p\xd2u\x92\xc6[\xf4he9(\x1f\xd3\xd6\xbb\xaf\xf8&amp;_\x86umn\xff\x00X\xf1\xf4\xe90K\xeb\xd5\x86\xc1\x19H\xfd\xc4G\x05\xc9\xef\x965\xfa\x0f\xa0i\x9eE\x8a\xc3\x1b\xef,\x9f1\'&lt;\xfaT\xf7K\xfd\x9c\xe9pc\x05I\x02@\x07n\xf5z-E%+\xf68\xc7N\x00\x03?\x85Gq;\xbc\x89\x04\xff\x00\xb9\xcb`)\xe0\x9c\xf6\xe2\xb3\xaeR\xe4\xf9\x8fi\xbf\xe5\xca\x10T`\xb1\x18\x19\xaeaa\xbe?\xf1\xfe\x14\xedc\xc0\xfe\x95\x8d\xae\x08\xe1\x8aE@\xdec\x12r\xc7\x91\x91\xeb\\O\xfc#\r\x0f\x8b\xa7\xf192dE\xb7\xcb\x04\xf21R*\xfd\x8e\xf0\xdc\xc2\xaf\xb5\xf9vg&lt;W\x13\xe3\xdf\x17x\x8bF\xbfX.\xedFo\x1fn\xe8\x86\x04jN\x018\xef[\x16\x9a\xed\x9e\xad\xe1\xf6\x95%w1O\xb1\xd18\xc8\xc7J\xb04\xe1%\xea\xf9q0\x95\x10\x05;r\x14\x1f\xe5]\x05\xb5\x8cR\x96\xb5\x81\xc4E\xf6\xe7\xe4\xc7\xd7\x1e\x86\x9b&gt;\x9f&amp;\x9bn\xd6\xf3\xb1bU\x84r\xab\xe0\x90G,}qY\x17:5\xad\xff\x00\xee\xe1\xbbs)\x01L\x87\xa7\x1d?#Xz\xb4\xb7&amp;R\xb6\x90+&lt;*P\xae8j\xe3\xfcG&lt;\x97\x9a\x99\x97\xcf\xdd\xe5.\xd8\xd0\xae\x06Or{\xe2\xb9Mb\xe2\xd2\xe5\r\xac\xa0o1\xba\x93\xbc\xe3\x90k\x9b\xd64\xbd&lt;\xa1\x8a\x19\xd1A\x1b\xa5\x1b\x8eN;\xfb\x9a\xe25\xc6V\xd4e\x8b\xca\x93tr\x10\\\xc8F\xe1\xc6+\xf0P\x90\x17\xf7\x87\x07u\x0c|\x9c\x12xn\x05(u\'\x1c\xf3Q\xbb\xba\xb9\x11\xb7\xd0\xfaQ\xf6w\x90\t\x18+\x1c\xf5\x1cR#\x14\\4c\xefc8\xa0\xc4K\x06S\x80\x0fjk\x01\x9d\xb8\xe0\xb7"\xa3\x04\xa1*\x87\x03\xd0T\x91\xf0\t\x03\xf8y\xf7\xa4%\xdb2\xaa\xe1H\xdb\x81N\'*\xaa8\xc7R)\xea\x89\x8c\xef9\xf5\xcdF\xc7\xcbq\xb4dg\x9ax!\xd0\xc9\x18\x01\xfa`\x0e\xde\xb5\xad\xe0\xaf\x12\xea\xbe\x18\xf1\x15\xb6\xb9c\xa9\x18$\xb6\x95^9\x14\x91\xb1\x81\x07&lt;W\xef/\xfc\x13\xc3\xf6\x9a\x8f\xe3\x87\xc1\r3\xc5\xb7\x92Dn\x96\xdd!\xd4\x13\xcc\xc9Y@\x0b\x9cv\xe2\xbe\x8f\xf0\xfe\xbd\x04:\xc5\xbc\x8b9\xc4\x9cr~\xeeOZ\xf5o\xf8IV\x13\x15\xcd\xb5\xe0\x920\x10H\xb8\x1c\x8e\xf5\xd2h&gt;&gt;\xb3\x9dD01$\x91\xf2db\xb1~"k\xf7S\xc9\xf6\x0bW(\x19I\xde\xea\x08\x07\xeb\xda\xbck\xe2\xf7\xc5]\'\xe1\xc6\x975\xce\xa9\xabC\xbd\x10\x95\x1b\xfaq\x9f\xc2\xbf$\xbf\xe0\xa1?\xf0T\x9f\x8c\x9e7\xd6\xaf~\x1f\xfc0\xd7f\xd1\xf4\xa8fh\xa4\x9a\xd8\x9f:S\xd0\x85l\xe5s\xeb_&lt;\xfe\xcc\xbf\xb2\xb7\xc7\x1f\xda\xef\xc6\xfeV\x85\xa7\xde^\xcd;\xee\xbd\xd5n\x83\xb8PO%\x99\xbd\x05~\xad~\xcf?\xf0A\x8f\x83~\t\xd0\xedu/\x8b7rkW\xf3\xdb,\x8d\x14NDQ\xb63\xb6\xb4&lt;]\xfb\x15|;\xf8as.\x95\xf0\xea-J\x18\xd4\x9f&amp;\xce\'i#B=\x07A\xf8Uo\x84?\xf0O\x7f\x8a?\x175\xc9\x07\x89g6:0\x7f\xf5\x8d\xfe\xb1\xd3&lt;\xa8\xf4\xc8\xe2\xbfB\xbfg\x7f\x81Z\x17\xc2\xcf\x0cZx[I\xb2\xf2\xd2\xda\x10\xaaT\x01\x90\x0eI\xfc\xc6~\xb5\xeb\xd1\xe9\xf1\xe9\xf6\xaa\xd6\xeb\x9c\xfd\xe0\xa2\xb0ma\xf1#\xea\xda\x82\xeb\xac\x87O\x8eE\xfb&amp;\xdf\xbc\xd9\xeb\x9a\xb1\x0c+\x03\xf9\xcd!1\xef\x18\x0b\xd8U\xff\x00 5\xa8\x126\xd0\xcd\x949\xdcO\xb7\xb5T\xba{\x1b\x0b2$F\x03\xcc\x0cF\xef\x98\x91\xeb\xea+\x9a\xd6/ K\xc7h\x93`f\x1b00\x015\x89\xa8\xfd\x97\r{3y\xad\xd3\x07\x91\x9a\xe7\xe5\x94\xa3\x12\xccIuby\xed\x8a\xe7\xeeu\x08\xee\xee\x1e\x1bp\xa1T\x10T\xf75\x8f\xac\xe8rk3\xf9W\x8e\xa1\xc8\xfe&gt;F=j\xd6\x95\xa2\xdb\xe8:A\xb3ka\x13\xb4\xb24\xe59\xdev\xf0\x00\xecMnhqK:\x99\xed\x97\x04Jw\x83\xc2\x95\x03\xa1\xa6x\xe6\xfe\xe7G\xb4\xf3\xac\xa2\x93tq\x19K\xaeO g\x00\xd5o\n]\xdf\xf8\xa7B\x17\xba\xcd\xba\x19DN#\xda\xc4\x10\xa4\x1c\xfe4\xcdf\x06\xd3a\xb6\xfb\x1c\xee\x07\x96\xab"\xa9\'\x92\xd8\xc9\xaerH\xef\xee..%*\xa8\xa26\xd8\xd8\xc7\xcd\x8e\rsZ\xc6\x9d%\xd4d\x07\x00B\x0b;\x13\x8c\x0e\xa4\x8a\xe3\xafYYer\x83\xe6\xc8\x88\xe3\xa0\xf5\x1e\x95\xc9\xeb\xf2\x88&amp;}\xd0d\xec?8=x\xef\\U\xed\xf5\xc6\xafy%\xd1\x86\x103\x80Y\x06M~\n2\xf9\xc74\x97\x07r\x001\x95\xe7&amp;\x98\x92\xae0\xfc\x9e\xd8\xa3\x13\x13\xb9\x17\x1fJ\x18K\x9d\xe5rG \x91H\xdek\r\xea\xe0\xf3\xc8\xa7\xa3\xc8F\nS\xbc\xa8[\x92\xd5\x0e\xc8\xfc\xcf\xbdD\x7f\xeb0zzS\xde@\x06\xc5\x1czv\xa8\xc8\xdc\xa7\x9c\x1cqK h\xd7\x04\xaf\xdd\xedJ\x02\x97\xc3\x0e6\x9c\xfeT\xe71,\x99G\xdavu\x14\xab,\xa6@\xd2F\x17\x03\x84#\x86\x1e\xe3\xbd}\xa7\xff\x00\x04\x91\xfd\xac\x9b\xe1_\xc6(~\x1a\xf8\x96\xf3\xca\xd1&lt;BV\x18^Y\x0e!\xb8R6\xb3g\xfb\xc7\x03=\xc5~\xc0x{Z\xb6\x8aKcxKG,\xeb\x0b\xb0\xe7\xae\x08 \xfa\x10kw\xc6\x9a\xff\x00\x89&gt;\x1chF\xfdt\xdb\x9b\xdb\x19\x14\xed\xbd\x86=\xde^G\x01\x94s\x81\xeb^\x17\xe2\x8f\xdbG\xc7\xfe\x14\xd5\x0cZ\x17\x84\xaf\xe6]\xdc\xba\xc2\xeb\x9f\xa0j\xe2~3\xff\x00\xc1V~+x\x1b\xc2\x86_\x12|&lt;\x9e\xc9\xb67\x934\x89\xf7\xc6=\x07z\xf8_\xe3\xc7\xfc\x15c\xe2_\xc4k\x8b\x8b\x05\xb5\x99VF*\xe6f\'\nx8\xcdxo\xc0\xbf\x86\xbe.\xfd\xa9\xbe6Zxy-\x1eY\xf5\x1b\x90\xf7&gt;R\xfc\xb1\xc7\xb8g\xe9\xc5\x7fA\xdf\xb0\x7f\xec\xdd\xf0\xff\x00\xe0\xff\x00\xc3{/\x06\xe8\x9a\x041Cmm\x1f\xdanV%\x0c\xeeq\xbb\x909\xaf\xa6&lt;E\xa8\xd9izY]-s\x1d\xaca\x96&lt;pH\x19\xe9^u$\xba5\xd6\xa3\x1d\xda\xda"\xb9l\x86\x08\x01bO&lt;\xd7\xa0|?\x86\xcd\xa2c\x15\xb2D\xb2}\xdf\x94\x0eEw\x1a\\\xb6\xd1\x15\\6\xe5\xe0\x15\xfe_J\xdf\xf3\xa3\x8e-\xf0\x8d\xcc\x10\x90\x83\xd7\x15\x8b\xae\xdf\xd9\xd8\xcd-\x95\xd4\xc5\x08\xc3D\xca\xbc6z\x83U\xacn\xe3a\x82\x0e\xc6\xee\x16\xae+\x84\x9f\x10I\xe5\x82\xbc\x92q\x9f\xadck\xe4\x1b\xd0\x11\xd9\x92%;\xd8\x9f\x99\x8f\xa6}+\x03U\xbcB!\x13\xc6@f\xe0\x9e\xfe\x95\x81\xac\x99\xe5\x86/\xec\xf7\x08\xa1\xc9\x95O\xf1\x81Y\xd3\xdd@N\xd9"\xda@\xc1`y\x02\xb9\xedN\xc0\xc1pn\xed!%\xa6|\x84\x1e\x83\xad`A\xaek\x0b\xf1\x16m/X\xd2\x7f\xd0\xde\'1\xdc\x1eT\x00\xbd+\xab\x8bOYd\xfbLQm&amp;rI\xcf\x0c\xa0V\x9e\x91\xa7\xdc\xa4\xd2\xd9\xc0\xe0#\xb8,\xa7\xa1\xcfZ\xd1\xd6m\xd2XD\x11&amp;"\xd8Q\x97\x1c\xe4\xf1\x9a\xa4`\xb4\xd3l\xc2F\xa5UF_o\x1cw\xaa\xb1\xdb\xc1kb\x1fp&amp;@\xd8f\x19\'\xd0f\xb9O\x17\x15\xb2\x91&amp;h\xdd\x8e\xf0B\xafs\\\x96\xa9eq,O\x0c\xa6L\x0c\xbb\xb4\x87\'\x1e\x9fOj\xf3\xef\x13jQ\x1dYt\xb4R\x03\xc4\xd8t\\)\xe3\x91\xc7\xadp~1\xd5\x95u)m\xedn\x91\x02\xa8R\x87\'\x15\xc3\xdf\xeb\x06\xd8\xacP\x10\xe3\x92X/|\xd7\xe1\x92\x90\x0eI\xc7\xb0\xa4t\x127\xb1\xeb\xf4\xa7I\x14Q\x05\xf2\x80\xfc\xa9\x12]\xccrq\xec*\'v*CHp[\x07\x9e\xd4\x89\x1c~q]\xdbF\xde\xa3\xbd=dE\xf9\x0b\xff\x00\xba}i\xae\x06G\x14\xd6\x008 \x7f\x15\'I\x0e)i\x18n\x1c\xd3\xa3\nHWP\xdd\xb9\xa4(\xa1\xf3\x83\xff\x00}\xd2!g|\x88\xc6?\xda\x1c\xd2\xef,\xe4\xc8\xc5\xb0?\x88\xe7\x8a\xd1\xd05\xedCE\xd4\x93R\xb0\xba\x92\x19\xd2Ed\x9e6!\x95\x81\xc89\xf6&lt;\xd7\xed\xa7\xfc\x13\xeb\xf6\xa2\x93\xf6\x8d\xfd\x9f\xac5+\xfb\xa4:\xce\x94\x16\xd7[\x8f \x93p\xab\x85\x90\x0e\xca\xc3\x02\xbe\xda\xf8-\xae\xc9\xad\xe8v\xedw82\xa4@2\x03\xd7\x9e\xa6\xb2?i\xff\x00\tiz\x86\x894\xabo\x12\xc9\x04I"J#\x1b\x9b\x9ey\xaf\x89\xff\x00j\x9f\x01\xe9\xbe6\xf8C\xa9\xda]X#\xc9\x15\x93\xbcR6\x060\xa7\xf4\xf5\xaf\xcc\x18\xfe\x00\xf8\xab\xe2\x17\x89\xe3\xd2\xbc\x11\xa0\xdej7\x8f" \x82\x0bf+\x9eG\xde\xc7\xafz\xfd\x1a\xff\x00\x82_\xff\x00\xc1=\xbcm\xf0\'U\x8b\xc5\xbe&lt;\xd2$\x83U\xd5\x95NI\xff\x00\x8fh\xf22=\xb8\xed_\xab\x1f\n\xbc\x1b\x1e\x87\xa3\xad\x95\xa2\xbc\x82D\xdc]\xba\x82:\xe3\xde\xb4\xb5\xb6\xbb\x8b\xf7\xd1\xb80\xc8v&lt;2\xb6\x1c?E\x03\xeak\xcfu[\xfb\x9d\'W\x8cj\x91\x0bE\x8eP\x11I\xe3\x93\xd7\x8e+\xd3\xfc\'\xab9\xd3\xd5\xdeT_\xbab\xc7\xa5wv\xd7\xd6\xb6\xf6\x8dr\xd3\x0c\xaa\x06e^\xb5zMI\xa1\xbd\x115\xf2\xa82\x85\xdc\x83\x1f3\x0f\x94\x0fl\xe34\xeb\xc5\x13Y\x96\xb8\x8e7t\'\n\xc0c\xebXV\x9e%2\xc5%\xbcdmR|\xb5\x03\x05@\xeb\x93\xdf\xda\xa5\x8bXWbg\x93{\x1cn\xf9F\xd1\xe9\x8fA\xebU&amp;\xb9\xc5\xe4\x88\xf3\t\x1aD8\xe78\xac\xdd^\x0f\xb4F#\x90n\x00p\x0f8\xac\x8b\x88\xeda\xb6,r\xaa\x99\x01z\n\xc3\xbb\xd3ld\x91\\J&gt;S\xf3\xe1\xcfCUn\x0c\xb3\xdb$v|\x14\x0c\x03\xff\x00\x16=3T5\r&amp;\x19,\xde\xdc\xb7\x99\xf2\x91\x96\xe7;\x86\x18\xfdi\xf6\xcfz#D\xb2\xf9\x96%\xea\xe38\xe2\xb7\xf4)X\xde)\x95\xd2Gu\xf9\xbeL\x01\xefZ\x84\xaa\xea&gt;D\xf2+#\xae\x03\xec\xe8j\xad\xed\xac7\xe1\xad\x19c1\x83\x89\x01\xe8\xcb\xdc\x1a\xc1\xbd\xd3.\xa4\x8cE\x05\xc4\x91C\x1e\xe2\xa9\x19\xc88\xed\xcfJ\xc6\xf1\xc4\xd6\x03L\x94\x04&amp;X\xd4y)\xdd\xfd\x7f\x1a\xf3\xcdkQE\x8a}E3\xe6\x00\x18B\xc7 \x81\xce=\x89\xaf=\xd7\xee\xf5y\xa2\x9a\xf3\xec\x91Fc\x904Q+ch\xf5\x02\xbc\xdfT\xd5o\xae\xe6\xb8\xba\x9e\xccow\xc1\n\xa3\x95\x1dk\x90\x1a\xb3\xdb\xee\x8a\x08C\r\xe4\x9d\xc3=\xeb\xf0\xfaH\xdc\x9c\x06\xe6\x942\xc4\x84H2q\xda\x9a\xca\xa0\tRC\xcf\xf0\xe7\xa5+\x81\xb3v9\xf5\xa8_%H\xcfn\xf4\xa9\x0b4\x8e\xa6U=06\xd3\x8c :\xab\xf4\xcf_JVh\xda"\x91\x1c\xb0=i\x8b\xe6!\xcb&amp;y\xefC:\x96\xce\x00&gt;\x9e\xb48\xc1\x1bO\'\xa8\xf4\xa0\x1d\x9c\x1e\xbe\xf4\xe1n$B\xdea\x04\x0c\x81\x9ab[\xb2\xfc\xe3\xa8\xe75#\xa3\x94\xde~\xf0\xe9\xefL\x88*\x93\x19\xe40\xfb\xc7\xd7\xd2\xa42\x1byT\x83\x8c\x0c\x8cW\xd0_\xf0O_\xda\xd7T\xfd\x99&gt;5Y]\xea\x1a\x91:\x16\xaf"Y\xebP\xa6Bl.6K\xb7\xa1\xc1=}\xab\xf7\x83\xf6w\xf1.\x99\xa9\xc3\x04\xbaE\xeaI\x04\xe1\x1e\x1b\xa8e\xc8\x96&amp;]\xcb\x8ct\xe4\xe2\xbb/\x8d0\x7fiiO\x04\x81\x89\xfb+(*~R6\x9e\x0f\xbd|\xc17\xc3\x9b\xdf\x8b\xfa\xcf\xfc+\xe4\x84\xc7m)h\xefJ\x0c\x15C\xc1\x1f\x915\xf5W\xc0\x9f\xd8\xa7\xe0g\xc1\x7f\x0f\xc1\x0f\x84\xfc\x1b\xa6\xc5qon\xb1\xcd|\xb1\x833\xbfV\'#\x8e+\xa2\x93\xc1\xb6Sx\x8e\x1b\xbbU\xda\xb6\xfc2\xa0\xc0oBq\xd6\xbd\x1b\xc2\xa9wo\xa6E\x05\xccj\xac\xa1\x96,\xafBz\x13T\xb5\xbd:\xce\xfe\xe5\x1bkyw\x19\xfbN\xee\x00e\xe8q\\\x8e\xbb\xe0y\xaem\xa7\xddpn"rJ\xa4\x8f\x96\xc0\xec\t\xe8+C\xc3Qk6:jC{a\x86\x87\x80A\xdd\xf2{{\xfaWO\xa4\xf8\x8a\x1b\x96c\x97T\x89\xd4M\xe6\xb9V+\x9eq\x8e\xf8\xad\xf7\x9e9.\xa2\x8e\x0b\x86&gt;\\\xad,\x9b\xce\xec\xe0dc\xd3\xde\xa5\xfe\xd4\x9a\xefN\xbaI\xa6\x93\xe4\x803\x15c\xcb2\x1c\xa7\x1dG|V2;\xcd\xa7D BL\xb1\x87s\xe5\xbe\xe3\x83\xeb\x9e\xb4\xcb\xedN\xce\xcfZ\x86\x08Z8\x86\xf6s\n\xc48\x8d\x97\x07\xf0\xefN\xd2\xb7\x96,\xd7\x12\xf3\xb9\xc4\x8e\xbdTv\xcf\xa5O5\xd5\xa4\xd6\x8dp\xf7\x98\xda\xd8\xe1\xab\x1e\xe6e\x92\x0f\x98\xe7ct&lt;\xee\xcfz\xcc\xd4\xa2\xb8KGK|\xf9\xae~R;\xfa\n\xa3$\xf2Y\xdb\x82\xd6\xb9\n\xa7{ \xe8i\x97"\x10\x88m\xd3\x18\x95\x95\x81\xf4"\xa3\xd3\'62\x86\x96\xd9\xccn\xac\x15\xfbn\xed[*m"\x92\xda\xfd\xb2\x920\xe5S\x80G\xbf\xad.\x8bu3\xda\x1b\xbb\xec\x80S\xe4S\xc8&lt;\xf5\xa5\x8ak[\x18\xe4\xbb\x96f/9\xf9c#\x80=\xbd+;T\xd5\x8e\x9e\x80\xe5$#\xe7\x19\xe4*\xf5\xfc\xeb\x86\xf1U\xcc\xb7\r\x16\xac.\xa3\t\x1b\x1f+\xcc&lt;\x1c\xf5\xaf:\xd5u\x19g\xb6im~B\x923?\x96\xc4\xab\xe3\x9e\xf5\xcb\xf8\xd7^\xb6\x8e\xcfj\xc6\\\xc8\x84L\xddN;\x8a\xf2\x1dj\xfe-\x02\xd3\xc8\x8a#qvm\xca\x07V\xfb\x8d\x9c\xe4\xfa\x9cW/\xa7\xb5\xcb+\xc8#\x96R\xcf\x96&amp;0p}+\xf1;~I\x06\\\xf1\xd3m*\x0f5\x19[\x8c\x0e1\xde\x84@\x88T\xa8\xe9K\xb48T\'\xa9\x02\xa3\x08\x8b!Bzt\xa03,{\xd7\xae\xe1\xcf\xadH\xd1\xbc\xca\x19\x88\xfc\x05G\x1c;nw\xaf\nN0(\x92i\x15\xd86\x08^\xf8\xa6\r\xaf\xfb\xcd\xa3\x9e\x9ct4\xcd\xc67\x1d\xc9\xa9\x9dT q\xc94\xd5&lt;\x81\x9e3O2\xe6P\x9d\x00\x1d\xbb\xd1,\xe1\xf0\x80r;\xd3\x91\x17h\x01G\\\xf4\xefMw/&amp;6\x80G\xf1w\xa7\xd9\\\xfd\x96\xec\x05n\x02\xe38\xce\x07\xf9\xed_\xae?\xf0D\xaf\xda\xd3Z\xf8\x85\xe0\xef\xf8U\xfe!\x9eW\xd4&lt;4c\xf2nX\x12\xd2\xd9\xbb\x00\x80\xb7\xf7\x81\xfd+\xf4\xbb\xc5\x13\rGI\x96\r\xab\xfe\xa82\xe5{\xe2\x8f\xd9\xaf\xe0\xf7\x87 \xd5o\xfccyn\x92Op\xc4\x04+\x90\xa7\xd7\x15\xeb\xbe \x06\x0b),-\x98\xa9\xdd\xf7\x80\xc620\x7fJ\xa1o\x7f\xe1\xad\x19&gt;\xdbw!y\x162Y|\xa3\x82@\xcf\xa5Q\xb1\xf8\xf5\xe0\xd5akugp&amp;\x0eB\xb2\x83\xd2\xb64\xcf\x89_\x0f&lt;P\x8f\x04^k\xcc\xaap\xaf\x01\\\x1f\xa8\x15b=\x1a\x0b\xa2.\xd1F\xc209\xe7\x1e\x9e\xe3\xda\x96\x1d&lt;\x02m\xa2\x8c\x12\xee\x14\x0c\x00\t\xe8)\xf0h\xb1\xc0\x93\t`\x08\x84\x10@9%\xbbT\x92_\x1d1&gt;\xc8\xf8W\xc7\x96\x1dGE~\x0fOcT\xec5\xc9\xad\xa5\x16\x17S\x88\xf7\x93\x93\xf30\x94\x91\x81\x91\xeb\x8e3R\xc3\xabB\x93\xdd\xdc\xdb[\xacp[`\xdb\x8cr\x13\x1bW\xff\x00\x1f \x9fQY\xb6K\x16\xafv\xda\x93\\4\xaa\xd9\x85\x8bd3\x06\xe0\x8c\xfas\xd2\xack~$\xb5\xb0\xbf\x83L\x88\xca\x8d \x11\xa2\xa2\x82\x8a\x0f\x1d\rf0\xb8,\xb1K|6.\xe2\xea#\xfb\xff\x00Z\xd2\xfb\x14\xb6\xf1\xba\xcb8wp\x19F8\xdb\xe9\xf5\xae\x7f\xc5\x1e }\x03Q\xb3\xb7\x9e\x07o\xb5\xb8\x11\x95\x93\xee\x9c\xf5\xab\xf7Q\xe2\xc5V\x16\xff\x00Z2\xe0\xfe\xb5RI!x\xccl9\x1c\xee\xc7$\xd4\x7f\xdb0\xa6\x91\x1d\x9b)?9\xc0=3V\xad\'\x86\xfe8T\x89\x15\xd5\x08\xdd\xbf\x81V\xa3yf\xb5\x8dZE\\\x1e\x8a\xb8\xc6\xde@\x1fZ\xcd\x92\xfa\xe7U\xbaa\x19\xd8\x17\xe5\x04\xf3\x81\xdf\x15\x8d\xad\xde\xbd\xb4\xd3\xe9rB\x1dbh\x95d\x1cn\xde\xa79\xf5\xae\x17\xc4W\x81\xa0\x84M\t\x16\xd1DU\x15[\xa4\x84\xe05s\x1e!;4rL\xdc\x8b}\xc0c\xee\xf3\xf7\x87\xbdx\xe7\x88\xbcY3^\x9b\x0f9\xbc\xc9\t\xdf\x8c\x80\x00\xf4\xf45\xe7\x9a\xbe\xad\x1c\x9a\xb6\xc8A\r\x10g\x9b\x7f&amp;O\xc7\xd7\xde\x98u\x86\xd2?wg\x11\xc4\x9f1\xf9\xbb\xd7\xff\xd9'</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00\x14\x00&lt;\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xf8K\xcf\x8a\xda\xe4n\xb5X\xb11\x0f\x83\xd4v\xae\xcf\xc0&gt;.X\xefcX\' \xab\x1d\x91\x81\xf7\x87q\x9e\xd5\xed\xda\'\x8c[T\xd2\xe3\xb7\xfb\x02\xeea\x87R\xfb0\x07}\xc3\xae?\xadg\xf8\xe1\xe1\xb8\xf9\xad\xac\x926(\x00hSj\xb8\x1d\xf0;\xfb\xf7\xaf\x99&gt;&gt;4\xf1\xde4\x9eS0\x0c\xc3\xcbN\x9ft\xf5\x1f\x85h\xfe\xcb\xba\xa5\x9a\xdc\xcb\x05\xecN\xb0\x85\xccA\xdbj\x99\x08\x18PG*Oc^\xb1\xa5x\xc2M\x1f\xc5\x13\xda_!Rf\xc7\x931\xe5}3\xd8\x91\xd9\xba\x9c\xd5o\x88\x9f\x08\xdf\xc4\xfe%}gC\xd2\xad\xfc\x99\xa2RL\x8c2[\xb95\xe7\x9e"\xd0\xe7\x96\xe4\xcds(\x85T\x1c\xa1L\xe4\xfdk\'J\xbf\x83N\x9f\xccW\xdc\xa8\xdd\x13\xbdz\xdf\xc3\xbf\x16\xf9\xb1\x0buX\xd27L\xecv\x07\xa7\xf2\xafB\xd7n.\xf5\xcd\x1d.-fVx\xed\xf1\xf2e\xb0=\xc9\xe5}\xb1_4|r\xd2.\xad\xe6\x9a\xeah\x1aH\xcf;\x9f\xa0\xeb\x9c\x1e\xa7\xafz\xe6\xbe\x01\xeb\x96zv\xb44\xf5\xba\xd9\xe7HK,\x83\xe5\xdb\xfd\xdf\xc7\xfaW\xa3\xfcS\x9e\xf2\xdfV\x8a\xfa\xce\x0f&amp;2\xaaUw\xee*G}\xde\x87==\xab\xa4\xf0w\xc5[yt(\xce\xb5`\xb2N\xa4\xa9u\x93\x82\x07J\xad\xe2\xeb;}GC\xc4\x89\xe5\x94$\xe6\x1f\x97=:\xf6\xaf+\xb5@\x97\xef\x00?)rx\x00\x7f*\xee&gt;\x1d\x80&amp;\x12\xaa\xa8d \x03\xb4\x12r{\x93\xd6\xbd\xdb\xc2\xda\xc5\xd5\xa7\x87\xa4\x89\x126\xc4\xcf\xb5\xd9&gt;e\x00\x0e\x03\x0c\x109\xe9\x9ct\xaf\x10\xf8\xff\x00\xa7\xdb]\x89\xc4\xcaw0`\xce\xa7\x05\xb1\x823\x8f\xa9\xaf\t\xf0\x9c\x92[km\x14N\xc0\'\xcc\xa7q\xcf\x07\xa7\xd3\xda\xbe\x93\xf1\xbe\x81\xa67\xc3;\r^8\x04r\x9b,\x95@6\x12\xc0d\xed \x8e\xd5\xe2\xbas\xca eK\x89P\t\x08\xc4r\xb2\x8f\xc8\x10+\xff\xd9'</t>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00\x7f\x01}\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfc=e\xf3\x8ei.\x0e\xe4\x00c+\xceM1%\\a\xf9=\xb1F&amp;\'r.&gt;\x940\x97;\xca\xe4\x8eA"\x91\xbc\xd6\x1b\xd5\xc1\xe7\x91OG\x90\x8c\x14\xa7yP\xb7%\xaa\x1d\x91\xf9\x9fz\x88\xff\x00\xd6`\xf4\xf4\xa7\xbc\x80\r\x8a8\xf4\xedQ\x91\xb9O88\xe2\x96@\xd1\xae\t_\xbb\xda\x94\x05/\x86\x1cm9\xfc\xa9\xcebY2\x8f\xb4\xec\xea)VYL\x81\xa4\x8c.\x07\x08G\x0c=\xc7z\xfbO\xfe\t#\xfbY7\xc2\xbf\x8cP\xfc5\xf1-\xe7\x95\xa2x\x84\xac0\xbc\xb2\x1cCp\xa4mf\xcf\xf7\x8e\x06{\x8a\xfd\x80\xf0\xf6\xb5m\x14\x96\xc6\xf0\x96\x8eY\xd6\x17a\xcf\\\x10A\xf4 \xd6\xef\x8d5\xff\x00\x12|8\xd0\x8d\xfa\xe9\xb77\xb62)\xdb{\x0c{\xbc\xbc\x8e\x03(\xe7\x03\xd6\xbc/\xc5\x1f\xb6\x8f\x8f\xfc)\xaa\x18\xb4/\t_\xcc\xbb\xb9u\x85\xd7?@\xd5\xc4\xfcg\xff\x00\x82\xac\xfcV\xf07\x85\x0c\xbe$\xf8y=\x93lo&amp;i\x13\xef\x8cz\x0e\xf5\xf0\xbf\xc7\x8f\xf8*\xc7\xc4\xbf\x88\xd7\x17\x16\x0bk2\xac\x8cU\xcc\xccN\x14\xf0q\x9a\xf0\xdf\x81\x7f\r|]\xfbS|l\xb4\xf0\xf2Z&lt;\xb3\xea7!\xee|\xa5\xf9c\x8fp\xcf\xd3\x8a\xfe\x83\xbf`\xff\x00\xd9\xbb\xe1\xff\x00\xc1\xff\x00\x86\xf6^\r\xd14\x08b\x86\xda\xda?\xb4\xdc\xacJ\x19\xdc\xe3w s_Lx\x8bQ\xb2\xd2\xf4\xb2\xbaZ\xe6;X\xc3,x\xe0\x903\xd2\xbc\xeaItk\xadF;\xb5\xb4Er\xd9\x0c\x10\x02\xc4\x9ey\xaf@\xf8\x7f\r\x9bD\xc6+d\x89d\xfb\xbf(\x1c\x8a\xee4\xb9m\xa2*\xb8m\xcb\xc0+\xfc\xbe\x95\xbf\xe7G\x1c[\xe1\x1b\x98!!\x07\xae+\x17]\xbf\xb3\xb1\x9a[+\xa9\x8a\x11\x86\x89\x95xl\xf5\x06\xabX\xdd\xc6\xc3\x04\x1d\x8d\xdc-\\W\t&gt; \x93\xcb\x05y$\xe3?Z\xc6\xd7\xc87\xa0#\xb3$Jw\xb1?3\x1fL\xfaV\x06\xabx\x84B\'\x8c\x80\xcd\xc1=\xfd+\x03Y3\xcb\x0c_\xd9\xee\x11C\x93*\x9f\xe3\x02\xb3\xa7\xba\x80\x9d\xb2E\xb4\x81\x82\xc0\xf2\x05s\xda\x9d\x81\x82\xe0\xdd\xdaBKL\xf9\x08=\x07Z\xc0\x83\\\xd6\x17\xe2,\xda^\xb1\xa4\xff\x00\xa1\xbcNc\xb8&lt;\xa8\x01zWW\x16\x9e\xb2\xc9\xf6\x98\xa2\xdaL\xe4\x93\x9e\x19@\xad=#O\xb9I\xa5\xb3\x81\xc0GpYOC\x9e\xb5\xa3\xac\xdb\xa4\xb0\x88"LE\xb0\xa3.9\xc9\xe35H\xc1i\xa6\xd9\x84\x8dJ\xaa\x8c\xbe\xde8\xefUc\xb7\x82\xd6\xc4&gt;\xe0L\x81\xb0\xcc2O\xa0\xcdr\x9e.+e"L\xd1\xbb\x1d\xe0\x85^\xe6\xb9-R\xca\xe2X\x9e\x19L\x98\x19wi\x0eN=&gt;\x9e\xd5\xe7\xde&amp;\xd4\xa2:\xb2\xe9h\xa4\x07\x89\xb0\xe8\xb8S\xc7#\x8fZ\xe0\xfcc\xab*\xeaR\xdb\xda\xdd"\x05P\xa5\x0eN+\x87\xbf\xd6\r\xb1X\xa0!\xc7$\xb0^\xf9\xaf\xc3% \x1c\x93\x8faH\xe8$oc\xd7\xe9N\x92(\xa2\x0b\xe5\x01\xf9R$\xbb\x98\xe4\xe3\xd8TN\xecT\x86\x90\xe0\xb6\x0f=\xa9\x128\xfc\xe2\xbb\xb6\x8d\xbdGzz\xc8\x8b\xf2\x17\xff\x00t\xfa\xd3\\\x0c\x8e)\xac\x00p@\xfe*N\x92\x1cR\xd20\xdc9\xa7F\x14\x90\xae\xa1\xbbsHQC\xe7\x07\xfe\xfb\xa4B\xce\xf9\x11\x8c\x7f\xb49\xa5\xdeY\xc9\x91\x8b`\x7f\x11\xcf\x15\xa3\xa0k\xda\x86\x8b\xa9&amp;\xa5au$3\xa4\x8a\xc9&lt;lC+\x03\x90s\xecy\xaf\xdbO\xf8\'\xd7\xedE\'\xed\x1b\xfb?XjW\xf7Hu\x9d(-\xae\xb7\x1eA&amp;\xe1W\x0b \x1d\x95\x86\x05}\xb5\xf0[]\x93[\xd0\xed\xda\xeepeH\x80d\x07\xaf=Md~\xd3\xfe\x12\xd2\xf5\r\x12iV\xde%\x92\x08\x92D\x94F77&lt;\xf3_\x13\xfe\xd5&gt;\x03\xd3|m\xf0\x87S\xb4\xba\xb0G\x92+\'x\xa4l\x0caO\xe9\xeb_\x981\xfc\x01\xf1W\xc4/\x13\xc7\xa5x#A\xbc\xd4o\x1eDA\x04\x16\xccW&lt;\x8f\xbd\x8f^\xf5\xfa5\xff\x00\x04\xbf\xff\x00\x82{x\xdb\xe0N\xab\x17\x8b|y\xa4I\x06\xab\xab*\x9c\x93\xff\x00\x1e\xd1\xe4d{q\xda\xbfV&gt;\x15x6=\x0fG[+Ey\x04\x89\xb8\xbbu\x04u\xc7\xbdikmw\x17\xef\xa3pa\x90\xecxel8~\x8a\x07\xd4\xd7\x9e\xea\xb7\xf7:N\xaf\x18\xd5"\x16\x8b\x1c\xa0"\x93\xc7\'\xaf\x1cW\xa7\xf8OVs\xa7\xab\xbc\xa8\xbft\xc5\x8fJ\xee\xed\xaf\xadm\xed\x1a\xe5\xa6\x19T\x0c\xca\xbdj\xf4\x9a\x93Cz"k\xe5Pe\x0b\xb9\x06&gt;f\x1f(\x1e\xd9\xc6i\xd7\x8a&amp;\xb3-q\x1cn\xe8N\x15\x80\xc7\xd6\xb0\xad&lt;Je\x8aKx\xc8\xda\xa4\xf9j\x06\n\x81\xd7\'\xbf\xb5K\x16\xb0\xae\xc4\xcf&amp;\xf68\xdd\xf2\x8d\xa3\xd3\x1e\x83\xd6\xaaMs\x8b\xc9\x11\xe6\x124\x88q\xceqY\xba\xbc\x1fh\x8cG \xdc\x00\xe0\x1eqY\x17\x11\xda\xc3lX\xe5U2\x02\xf4\x15\x87w\xa6\xd8\xc9"\xb8\x94|\xa7\xe7\xc3\x9e\x86\xaa\xdc\x19g\xb6H\xec\xf8(\x18\x07\xfe,zf\xa8j\x1aL2Y\xbd\xb9o3\xe5#-\xcew\x0c1\xfa\xd3\xed\x9e\xf4F\x89e\xf3,K\xd5\xc6q\xc5o\xe8R\xb1\xbcS+\xa4\x8e\xeb\xf3|\x98\x03\xde\xb5\tU\xd4|\x89\xe4VG\\\x07\xd9\xd0\xd5[\xdbXo\xc3Z2\xc6c\x07\x12\x03\xd1\x97\xb85\x83{\xa6]I\x18\x8a\x0b\x89"\x86=\xc5R3\x90q\xdb\x9e\x95\x8d\xe3\x89\xac\x06\x99(\x08L\xb1\xa8\xf2S\xbb\xfa\xfe5\xe7\x9a\xd6\xa2\x8b\x14\xfa\x8ag\xcc\x000\x85\x8eA\x03\x9c{\x13^{\xaf\xdd\xea\xf3E5\xe7\xd9"\x8c\xc7 h\xa2V\xc6\xd1\xea\x05y\xbe\xa9\xaa\xdf]\xcdqu=\x98\xde\xef\x82\x15G*:\xd7 5g\xb7\xdd\x14\x10\x86\x1b\xc9;\x86{\xd7\xe1\xf4\x91\xb98\r\xcd(e\x89\x08\x90d\xe3\xb55\x95@\x12\xa4\x87\x9f\xe1\xcfJW\x03f\xecs\xebP\xbeJ\x91\x9e\xdd\xe9R\x16i\x1dL\xaaz`m\xa7\x18@uW\xe9\x9e\xbe\x94\xac\xd1\xb4E"9`z\xd3\x17\xccC\x96L\xf3\xde\x86u-\x9c\x00}=hq\x826\x9eOQ\xe9@;8=}\xe9\xc2\xdcH\x85\xbc\xc2\x08\x19\x034\xc4\xb7e\xf9\xc7Q\xcejGG)\xbc\xfd\xe1\xd3\xde\x99\x10U&amp;3\xc8a\xf7\x8f\xaf\xa5Hd6\xf2\xa9\x07\x18\x19\x18\xaf\xa0\xbf\xe0\x9e\xbf\xb5\xae\xa9\xfb2|j\xb2\xbb\xd45"t-^D\xb3\xd6\xa1L\x84\xd8\\l\x97oC\x82z\xfbW\xef\x07\xec\xef\xe2]3S\x86\tt\x8b\xd4\x92\t\xc2&lt;7P\xcb\x91,L\xbb\x97\x18\xe9\xc9\xc5v_\x1a`\xfe\xd2\xd2\x9e\t\x03\x13\xf6VPT\xfc\xa4m&lt;\x1fz\xf9\x82o\x877\xbf\x17\xf5\x9f\xf8W\xc9\t\x8e\xdaR\xd1\xde\x94\x18*\x87\x82?"k\xea\xaf\x81?\xb1O\xc0\xcf\x82\xfe\x1f\x82\x1f\t\xf87M\x8a\xe2\xde\xddc\x9a\xf9c\x06g~\xacNG\x1cWE\'\x83l\xa6\xf1\x1c7v\xab\xb5m\xf8eA\x80\xde\x84\xe3\xadz7\x85R\xee\xdfL\x8a\x0b\x98\xd5YC,Y^\x84\xf4&amp;\xa9kzu\x9d\xfd\xca6\xd6\xf2\xee3\xf6\x9d\xdc\x00\xcb\xd0\xe2\xb9\x1dw\xc0\xf3\\\xdbO\xba\xe0\xdcD\xe4\x95I\x1f-\x81\xd8\x13\xd0V\x87\x86\xa2\xd6lt\xd4\x86\xf6\xc3\r\x0f\x00\x83\xbb\xe4\xf6\xf7\xf4\xae\x9fI\xf1\x147,\xc7.\xa9\x13\xa8\x9b\xcdr\xacW&lt;\xe3\x1d\xf1[\xef&lt;r]E\x1c\x17\x0c|\xb9ZY7\x9d\xd9\xc0\xc8\xc7\xa7\xbdK\xfd\xa95\xde\x9dt\x93M\'\xc9\x00f*\xc7\x96d9N:\x8e\xf8\xacdw\x9bN\x88@\x84\x99c\x0e\xe7\xcb}\xc7\x07\xd7=i\x97\xda\x9d\x9d\x9e\xb5\x0c\x10\xb4q\r\xec\xe6\x15\x88q\x1b.\x0f\xe1\xde\x9d\xa5o,Y\xae%\xe7s\x89\x1dz\xa8\xed\x9fJ\x9ek\xabI\xad\x1a\xe1\xef1\xb5\xb1\xc3V=\xcc\xcb$\x1f1\xce\xc6\xe8y\xdd\x9e\xf5\x99\xa9Ep\x96\x8e\x96\xf9\xf3\\\xfc\xa4w\xf4\x15FI\xe4\xb3\xb7\x05\xadr\x15N\xf6A\xd0\xd3.D!\x10\xdb\xa61++\x03\xe8EG\xa6Nle\r-\xb3\x98\xddX+\xf6\xdd\xda\xb6T\xdaE%\xb5\xfbe$a\xca\xa7\x00\x8f\x7fZ]\x16\xeag\xb47w\xd9\x00\xa7\xc8\xa7\x90y\xebK\x14\xd6\xb61\xc9w,\xcc^s\xf2\xc6G\x00{zVv\xa9\xab\x1d=\x01\xcaHG\xce3\xc8U\xeb\xf9\xd7\r\xe2\xab\x99n\x1a-X]F\x126&gt;W\x98x9\xeb^u\xaa\xea2\xcfl\xd2\xda\xfc\x85$f\x7f-\x89W\xc7=\xeb\x97\xf1\xae\xbdm\x1d\x9e\xd5\x8c\xb9\x91\x08\x99\xba\x9cw\x15\xe4:\xd5\xfcZ\x05\xa7\x91\x14F\xe2\xec\xdb\x94\x0e\xad\xf7\x1b9\xc9\xf58\xae_Ok\x96W\x90G,\xa5\x9f,L`\xe0\xfaW\xe2v\xfc\x92\x0c\xb9\xe3\xa6\xdaU\x1eb\x15\x7f\x97\x8e=\xe8ETB\xa5GN(*\x18\x05\'\x00\x9cf\x99\xb5\x15\xca\xb1\xfa{\xd0\x19\x96=\xeb\xd7p\xe7\xd6\xa4di\x80,\xc3&gt;\xd5\x12B\x12\xe3\xcc\x18\nN\x0e)d\x9d\xd5\xd8\x92\xa5G9\xc50m\x7f\xdem\x1c\xf48\xa6nh\xdcw$\xd4\xce\xaa\x100\xe4\x9e\xbe\xd4\xd58&lt;\x9c\x0c\xf3Oi\x7fz\x14\x8c\x008\xc7z%\xb8W\xc2/Q\xde\x9c\x88\xb8\x00 \xeb\xe9\xde\x91\xd9\x9eLm\x00\x8f\xe2\xee)l\xae\xbe\xcdv\x02\xb7\x01q\x9cg\x03\xfc\xf6\xaf\xd6\xef\xf8"\x7f\xed\x81}\xe3\xbf\x0b\xa7\xc2?\x13\xeaG\xfb[\xc3\xdbM\xac\x92?\xef\'\xb3\'\n2y%z\x9fj\xfd0\xf1=\xccz\x8e\x93, \xa71\x06\\\x8e\xf8\xa6~\xcd\xdf\n\xfc!k\xab\xdfx\xb7P{v\xb9\xb8b\x166a\x81\xef\x83^\xbd\xaf\xddZ\xc3e-\x85\xad\xe2)\xdd\x9d\xc1\xc0\xc6F\x0fOj\xcd\xb7\xf1\x0f\x824`n\xee\xf5H\x9eTB]r9 U;O\xda\x1f\xc00\x95\xb7\xbe\x0e\x92\xef!\x1c?QZ\xba\x7f\xc6\x0f\x85\x1e$G\xb7\xfe\xd2C0\x07j\xca6\xf3\xdb\x91\xd6\xadA\x0e\x8f\xa80\xb9\x82\xfa\xdd\xd0\x8c\x00\xb3\x02p{{\x8fj\x9a\xde\xca6\xcd\xbd\xb8V\xde\xe0``\x0f\xc6\xa5\x83C\x10,\xcb%\xb6\xd4`~Q\xc9-\xda\x9f6\xa1\xfd\x93\x19\xb7\x95\x84l\x07\x95\xe6\x0e\x02\xab\xf0\x7fCT-&lt;H\xb6\x12\x8b\x1b\xfb\xe8\xe1\xdeI%\x9c\xb0\x97#\x00\x9c\xfbq\x9a\x9e-n\xd6;\x9b\xb9\xad\xa3H\xe2\xb6#\xec\xeaq\xb8 ]\xa0}w\x90[\xd4Ve\x93\xdbj\xf7\x87Q7\x9ehpa%\x8e\x19\x83pF}\x06zU\xbdW\xc40Au\x15\x95\x92\xccA\x020a@\xd1\xa0\xe8I\xf4\xac\xa7iw\xa42\xea+\xb1I\xdc\x81&gt;\xfdi\x0bI!\x8d\xd6K\x80\xee\xf8*1\xc0\x1e\x9fZ\xc2\xf16\xb7q\xa1\xea6\x96\xf2Y\xcb\'\xda\x9c\x04(\xe7\xe4\xe7\xad]\xbb@,\x968\x9f\x1e`\xcc\x80\xfaw\xaa\x92K\x03\xc6clg\xae\xee\xe4\xd4g[\xb7\x8fGKG\xcf\xde8\x0cx\x1e\xf5j\xd2\xe2\x1dB\x18s\xbdX!\x1ef\xfe*\xca\xc9,\xb6\xa8\xaf*\xae\xd3\xd0.6\xe0\xf0\x07\xd6\xb3\xe5\xbd\xba\xd4\xee\x19\x87\xee\xd4\x1d\xaa\xcd\xd3\x1d\xc0\xac]n\xf2Ki&amp;\xd3\xe4\x80:D\xd1*\xca8\xdc\x19NI\xf5\xae\x17\xc47\x8a\xd6\xf0\x99b\xc5\xb41\x15@\xad\xd1\xc9\xc0j\xe5|Eq\x04zQV\xbc@\xc2\xdfpRy\x1c\xfd\xe1\xef\xef^?\xe2?\x17Jn\xda\xcc\xce\xdb\xdd\x8f\x98z\x05\x1e\xde\x84\xd7\x9ej\xfa\xc42j\xc1!8h\xf74\xa5\xf92\x1f\xaf\xadG\xfd\xb5\xfd\x91\xfb\xbb4\xe2O\x98\xfc\xdd\xeb\xf1=\xbe\xe8\xf7\xebM\xc18\x03\x1e\xd9\xa6\x82\xa9\'#y=@\xedH\x9f:\xb1-\x80\x0fBh{h\xd5D\xb2?\x1f\xca\x9b\x1eW\xef\x0c\xa1\xe9\x9a~T\xf0\xab\xcfn)\x1e9\x19\n\x92\xb8#\xa5C\xe5m\x1bXg\xebA;W\x8e\x83\xb5\x12\xa8dW\x03\xa1\xebK#\x15\x8fp\xa5u\xf3\x08=&gt;^@\xefLf;\xc1\'\xa5:$\xf3\x1c\xb0\x15b\x12\xc8@\xe39\xe34HK3\t\n\x82A\x1f%B\xb1\x15m\x81Kn\xe0\xe3\xa9\xafV\xfd\x8c~:j\x9f\x01?h_\r\xfcF\xb4\xbexb\xb7\xbeS\xa8\xc6\x00U\x92\xdd\xc6\x1dN=Fk\xfa\x08\xf0\xcf\xc4[\x7f\x17x\x1fK\xf1\x06\x95+K\x06\xa1\x02&lt;\x13\x02\x184e\x03r~\xbcW\x86x\xdf\xf6\x95\xf1\'\xc3M~\xe7T\xb5\xd6$\xb7\xb6\x82s\x1b\xc0\xdd9=qL\xf0o\xfc\x14\x1a\xcb\xc4w;.\xfcA\xb2{\x93\xb2\x11\xbb$\x91\xc7\x00\xf45\xd9\xeb_\xb4\x1c\x1a\xad\xb5\xd5\xe6\x95s\x13\xb3\xc2\x03\xa1\x93\x0c\x9cr\xd8&lt;c\xbf\x15\xe0_\x12\xbfn+-\x0bW\x93I\xf3\xee\xb5+\x98\xd4\xa8\x8a\xd5p\xa9\xc7\xa8\xef\\\xe6\x93\xff\x00\x05\x00\xf8\xa3i\xa8A\xa5\xdbx6\xee\xee\xc8\x02[o\xca\xe0\x1fS\xde\xbd\x0f\xc1_\xf0P\xcb\xe4\xb8\x1a~\xa6\xfa\x8e\x97&lt;|\x88g\x0e7\x9e\xc0\x11\xd6\xbds\xc1_\xf0Q\x1b\x97\x10\xdd\rQ$@2\xf1Lv\x1e:\xf5\xeak\xdc~\x1f\xff\x00\xc1C\xbe\x1dk\xb1Em\xa9\xeb\x11\xc5vT\x007\x8d\xa7\xdb=\x8dw\x17\x9f\x1e|!\xe2[}\xf6\x9a\xc5\xb0V\x91\x1d\x80\x95Nq\\\x97\x8c\x7fh/\n[\x80n\xee\xa0\x00@\x17y\x90\x12\xfc\xe3\x07=s\xe8k\x13H\xfd\xa3\xfc?}}\xbe\xe7XHC\x16a4\x97_\xebX\xf68=\xfa\x1a\xeb\xbc?\xf1?F\xbd\xba\x82\x1d&amp;\xec\x94@]\x1a7\xdc\x17\xd41&gt;\xb5\xa9\xa9|B\xb2\xd3\xee\x9e\xda\xca\xed"B0\xeeS\x80\xcd\xdf\x1e\xbc\xd6\x9f\x85\xfc@u]T&gt;\xa0\xc1\xcf\x9aU\x06\xcd\xab\x8c}\xec{u\xae\x92\xe2I \x91c7J\xe8\xce\x0e"\\\x9cg\xd4\xf3U\xb55\x8ah\x85\xcbB\xad$\x00\xb219\xda\xa3\xb5ah\xde&amp;\x97X{\xa6\xb9\xb4x\x85\xb3\xec\x1egV\xcf\xa7\xb5S\xf1\x16\xbd\x0e\x8ds\x1c\xac~F#p\xf4\x15[O\xd5\xb4\xaf\x15\xdaM\x1c\x17&amp; I\xe4\x8e\x00\xef\x8a\xd9\xf0\xa5\xc5\xac\x9aiX\xef\xc3\xach\xbbr=\x0f?\x9d\\\xd2\xeenn\xef\x9a-J_-^\x00\xe7\x1d\x88&lt;U\'\xd6\xa5\xbd\xbc\x95m\x001Fq\x10\xdb\x81\xb8w\xc5s\xfe5\xd4#X\x1aO\xb4b&amp;8([\xe6`\xa3\x83\xf8\xf4\xaf5\xf1\xb6\xb94v\x0b\x1d\x84j\xd1\xcd+*27\xdc\xc0\xe38\xec\rp^*\xf1$6\x96\xc7R\x9ax&lt;\xcbr\xb0\xf9R\xa9;\xc3pN}\x07\xe9^C\xe2}Z\xeei\xe5K\xa0\x0c\x97\x12oa\x0b\xfc\x88\x07O\xa5q\x06\xee\xe3\xed-\xa8\xbc\x8a7*\x84\x8d\x9f \xfc\xd5I\xfcGm\x0c\xae\x97\x17\x81\xdf&lt;\x8f+;}\xab\xf1\xf7\x96\xf9sL\xc4\xcc\xc0\x95\xc1\xce6\xfbz\xd3\xc7\xee\x1b\xe4\x18\'\xd2\x91\x95_\xef\x8e\xbdI\xa5uWM\x8e\xa3h\xe9\x91\xd6\x80\x06\x02\x800:\x0e\xd4\xd7\x0c\xa7?/\xe5M2\x0cq\x8f\xca\x92DgP\xe0\xd38\xee?:[x\xce\xe1\x13\x93\x8c\xe7\x93\xda\x8f)\x97?\xc4\x0b`g\xb58\xc7\x1a\xc42\xf9b\xd8&lt;\xf4\xa8\xdc\xaae\\q\xd8\xd3\xa2&amp;,:\xf2\t\xa9\x1f\xe6\x1b\x81\xc6)\x1aEG\xf9\x10\x1f\x96\x91\xf7\xc9\x00ur\xad\xbb\xb1\xc52(\xd2\x1f\x91\xb8C\x80\xc0zW\xec\xaf\xfc\x12\x03\xf6\x99\x8f\xe2\xdf\xec\xad\x17\xc3\xdf\x13jq\x9d_\xc1\xce\xb0M\x18\x932KlO\xc8\xf9\xeb\xedZ?\xb46\x91\xa5i\xfe2\xb8\x83\xc4\xc8\x92[\\\x11 V}\x9ebw\xda}@\xee+\xe6/\x8c\xdf\x0e\xbf\xb1\xb5\xaf\xf8I\xfe\x1e\xebok\x19!\xa1\xb4\x8ep\xb2\x01\xd4\x80\x14\xe3\x07\xb9\xebP\xf8\x8f\xe2g\xc4[O\x0b\x1b}W^\xbf\xf3cE\x8e\x12\xb236\xe20\x06s\xc75\xda~\xcd\xbf\x075o\x89Z\x82\xde\\$\xb7&gt;e\xc6%\xf9Il\xfe\x1dk\xed\xbf\x04\x7f\xc1659\xfc1\'\x8a\xb5\xab8\xb4\xfbkKV\xbb\x9aK\xa2\x02\xac;\x87\xce\xc4\xf6\x03\'\x15\xeco\xff\x00\x04\xb1\xf0\xd6\xa5\xa2\xdb\\\xde\xde\xd8\x1d\xd1F\xf0\xcf&amp;\xcd\xa4\xb66\x94f8o\xe9_$~\xde?\xb3\xe7\xc1\xcf\xd9\xbf\xc3\xf3\xea\x1a\xb7\x8c4\xf9\'Eskei\xa8)\x95\xa4\x00\x90\xa1c&lt;d\xf1\x8a\xfc\xf9\x87\xf6\x82\xf8\x99\xe1\xc0\xc2\xf7\xc23F\xb2JU\x04\xe2h\xfb\xe7\x19\x0b\xd7m{\xf7\xec\xad\xe2\x8f\xda\xe7\xf6\x8c\xf1=\x86\x97\xf0\xafC\x9a\x08\xa7\xb8t\x9a\xfc\xdf\xff\x00\xa2\xc5\xe5\x8d\xc5\xf6\xf5*G\x18\xeek\xe8\x0f\x88\xdf\xb1\xef\xed\x81\xafi\xd0\xc3}\xf1_L\xdd;\x01\x1cP[\xc8\x06\x01\xf9\xb9\xce+s\xe1\xaf\xec\x17\xf1S\xc3\xb6\xd2\xcdu\xf1|jr\xc6\x81\x9e\x15\x88\xa4h?\x8b\xe6\xe9\x91^\xe5\xf0\x93\xc0Z\xf7\x82\xa61x\x97Z\x7f:l\x08\xda\x19\x96Ep:d\x1e\xf5\xeav6ZL\xb7v\xf2\xdfF\xb3\x1biRV\xf3\x0f\xdf \x822:7\xd0\xd6\xfd\xc7\x8bmnuo\xb4\xe9\x96r,\xab\xb90\xb8P\x83x\x1b\xb0=\x05t\x16:\xf47\xce^c\x97\x90\xaa#\x03\xd0\xd5\xc8f\xb3\xb9\xb6x\xcf\xf0\xb6\x1bk\xf1Y_n\xfe\xd0\xd4d\xb6\xb7\xb5\xf2\xa3\x85p\xe6V\xe5\xdb\xb5q\x1e&lt;\xf1)\x83\xc5\x10\xd9\xdd\xc0\xabl\xec#.~e\xc98\xa7xt\xad\x9e\x9f34\xcd\xe5\x1d\xc5\x91G\xcc\xa7\xb6=\x01\xae\x8bBG\x82\xd4\xae\x8f*\x18\xa7\x11\xe0\x14\xfb\x87i\'\xf5\xad\xcb}M\x05\xb9\x17 }\xa1\xb0\xb1\xb9\\d\x8e\x80\x1e\xdc\xd6t\xd7\x10\xc6\xcd\x05\x9a\x95\x07$\xf9\x8d\x93\xbf\xd8\xf6\xe6\xb8\xcf\x1cKs=\xe0\xb8\x8d\x1c\x88W\xcb\x8a-\xa1\x95\x81\xf5\'\xd3\xd7\xb5y/\x88\xb5y\xec\xef\x8d\x85\x92\xbc0\xc1"\x1b\xc1#\x93\xbbr\x9d\xd8\xfa\xd7\x03\xf1\x07\xc4\xf7\x97w\xff\x00g\x86X|\x88\xe2+\x869\xea8$w\xaf(\xf1M\xed\xb7\xd8\x82Ou\x99\xa4W,T\xed\xdd\x80q\\V\xb3\xaa\xc5\xa7\xd9y-\x8c:\x15\x8c\x06\xe8MU\xb6\x9a\xe6\xe52\xb3\xe0\x00?\x8a\xbf)P\xc2T\x96nE#O&amp;p\x13\'\xa6{\x8a\x8d\xe420A\x1bd\x1e\xb5#\x00\xab\x8e\xa5\x86&gt;\x94\xdd\xdbF\xd69\xf4\xcd*\x18\x99\x80g\xe7=3L]\xbb\xf2\xc0\x10\x18u\xa6\x07B\xe6}\xa3n\xecc\x1cR\xb3\xef!\x13\x80OAQ\xbf\xce\x9b\x17\x82\x1b\xb59\\\x93\xe7\x0e\xc3\x14\xf4\x902\xe1\x8e=\x052A\xfd\xd5\x19\xed\xc7zB\xc5\x86\xd9\x90{dT\xd0\x85\t\xca\x82\x00\xe8E f\x90\xb0t\xda\xa0v\xee*\x19%E8\x89\t\xcf\x02\xa5I\x10 \xf3\x00\xcf\xa5E \x07tR3`\xf3\x90y\xc5}1\xff\x00\x04\xaa\xf8\xff\x00g\xf0K\xf6\xab\xd1\xf4\xbf\x11^\x88t_\x15!\xd1uP~\xeco)\r\x13\xfa|\xad\x85\xcf`M~\xac~\xd0\x9f\x03\xf4\x7f\x8d\xbe\n\xb8\xf0\xfd\xea\x88\xef\xb4\xf0\xef\xa6_F\xdb&amp;\x84\xe4\x10\x15\x87;q\xce\xd0pk\xf3w\xc6\x9e\x16\xf1w\xc3\xcf\x11\xcf\xa3\xf8\x83]\x93e\xbd\xdb,\x92\xc9\x11\x1c\x03\xc7\xcb\xdc\xfb\xd1\xae\xfcY\xf0&amp;\x99\xe1\xd8\xf4\xc9\xbcL\'\xbbiU\x9d]\xb0N\x0fJ\xec\xbe\x0f\xff\x00\xc1J\xfcY\xfb-\x19\xaf&lt;\x01\xe1\x1d\'T\x82\xea\xd5M\xbb]\x13\x98f\xec\xfcu\xc1\xc6}i?i\x7f\xf887\xf6\xee\xf8\xdb\xf0kR\xf8\x0et\xef\r\xe8:n\xad\xa7\xfd\x8fS\xbc\xd0\xad\x9f\xcf\x92#\x90\xc8\x1c\xfd\xcc\xa99#\xeb\\\x87\xc0O\x8e\xff\x00\xf0S\x0f\x88\x1e\x1e\xf0\xcf\x85\xbcu\xf1\x7f\xe2w\xfc!\xb1\xda\x15\xf0\xdd\xf5\xcd\xe4\xf1\xc3\xe4( \xaaK\x80\xd2\x07\x19\xe5\x8f\xd2\xbfL~\x03\x7f\xc1(\xfc1\xf1\x0f\xc1\x16\x1e=\xd5\x9a\xeb_\xf1\x02\x88\xf5\x0b]_Q\x95\xa4\xdb"\x10\xfbp\xd9\xdcr+\xec\xbf\x86\xff\x00\xb0\x85\x96\xb3\xe1{g\xf1\xd5\xae\x99\xa8\xc5\x1a\x19\x0cZ\x86\x9b\x1c\x8a\xae\x07\',\x0e8\x1dG8\xaf\x15\xf0_\xec\xe1\xe0\x0f\x80\xd3x\xbao\x80\xda\x0c\xd2i\x91_H\xf7\xda\xa4Q\x85Ktb\\$`\x9e\x13 \x8e8\xa5\xf8K\xe2H|m\r\xce\x93z\xd2&lt;\x83Pv\xb0G\x8cb8\x98me\x07\xf83\xdb\x1fZ\xed&lt;K\xe3=\x1f\xc2vC\xc1\xba9\xb6YLd\x85nv9\x1c\x13\xeb\xcds\xbf\xda\x1a\x85\xde\x9e-WJF\xb9c\x96\xb9=0z\xe0v\xad+\x88g\xb4\xd3Q\x951t\xc0&gt;\xf8\x9b\x8c/8\xe2\xa9h1x\x82\xdd%\xd4\xb5%i.\xae\x83\x88V3\x82\x17\xd7\x1e\xbd\xeb\xa2\xd1\xe7\xf1=\x92\x1bk\xd1\x18\x92R\t\xdc\xd80\x8e\xc4\x01\xd0\xd6\x84\xbe,\x93C\x81\xe1\x8a\xc9\xd8:\x90gc\xf2\x86\xf5\xc7z\x93T\xd6\'\xb8\xd2\xd6\xf99\r\x1f\xef7\x0c3q\xda\xb9-J\x19\xbcC\xf6o\xb4\xc2\x8b\x1c2oU*2H9\x19\xad-\x1a\xf6Q|\xf6s\x90\x1aX\xcf\x98\xe8p\x17\x1d\x06Ev6\xd6\xef\xa64\x8f\x04%\xe2\\\x9d\x90\x0e\xb8_Z\xb5\xa8L\xb3\xd9\xda\xad\xc8HU\xdc3#\x01\x95\xc1\xe1s\xdb5\xcc\xcf\xa9\xc7\x16\xb8\xd68(I\xccE\xb9\\\xf6\xaeW\xe2\x16\xb1n\x8c\xb2\xc7\xb3\x97\xc1\x0b)\x00\x0e\xf8\x15\xe4\x1e$\xd6\x13W\x9a\xe2k\xe8\xc2\x99\xa3|\xc6\xbc\x11\xb4\x1d\xa6\xbc[\xe2&amp;\xa7k\xa2\xed6w\x12y\xd21%\x9c\x96\xc7\xd7\xe9\\\x0f\x8bu\xb9\xd9\xcc\xee r\x91\xe62[#8\xec\xa7\xa5y\xb7\x88\xfcMuqt\xd0E\xbb\x00\xed\x8c\xb2\x02K\x1e\xff\x00A^\xcf\xf0W\xe0\x8e\xb3\xe3/\x0b\xff\x00j\xdc\x92\x87*\x07\x980O\x07\x9a\xfco\x99T\xa6\x15@#\xa9\x02\x94\x95\x8c\xab,\x87\x81\x9cf\x91\x8b\x17\x12\x96a\x93\xd063H\xa1\xca\x96T\xc7\xcd\xc9f\xe6\x94\x85o\xbd\xf9\xd4i\x85\x97!A\xc1\xeai\xec\x9ec\x80\xa7\x00\x9eqQ2\x18\xa3(\x06F\xee\xf4&amp;\x0b\x02N9\xedR5\xb28,\xaf\x8f\\\x1ao\x96\xc8\xa0\x08\xbePs\x9d\xddj92\x99q\xdf\xa0\xa7\xc7\xce\xd2\x0eI&lt;\xfbS\xa5\x89\x89\xeb\xcf\xbd":G\x0e\x1c6\xe2\xd8\x04\x1a{\x02\xe8\x17q\xe7\x8e\xb4,)\x19\xcb6j\'P\xeeI\x1c\nq\x11&gt;&gt;S\x93\xc6j]:\xf6\xe3L\xbdK\xbby\x9a)!\x90I\x1c\x8apU\x81\xces_\xb8_\xb2?\xc78&gt;:~\xcd\x1e\x12\xf8\x97s\xaa\xed\xd4\xeet\xa8\xedum\x8d\xbb\xcb\xbb\x8b\xf7l\xa7\xd1\x98`\x93\xd6\x93\xe3\x9f\xec1\xff\x00\r\x05r|H\xf25\x95\xd5\xd6\xe5b\xb1\xa9\xca\x85\xe3\xe9^\x15\x07\xfc\x10gU\xf1\xcf\xc4\x0bX\xfcK\xe294\xcb59\xbe\xb9\x8d\xc4\x9e`\xcf\x01\x07l\x8a\xee&gt;.\x7f\xc1\x065\x9f\rx(]|5\xf1*^\xb4j6Ar\xc1\x0e\xd1\xcf\x03\xa0\xaf\x14\xfd\x98\x7f\xe0\x85\x1f\x1d\x7fi\xcf\x14x\x9fM\xf1&gt;\xa4|/\xa5x]\xc43j\x13Y\x19\xfe\xd5p\xc7\x94\x8c.\x008\xfe.\xd5\xfb\x83k\xff\x00\x04\xd2\xf8U\xe2\x7f\x83^\x16\xf0N\xab\x19\x82=\x1bM\xb6\x80\xa4\x10\x14\x10\xf9qF\xaa\xde\xe398\xe82}\xeb\xd6\xbff?\x01Z|&gt;\xf0\xd4\x1e\x01\x99\xc3\x0b\'kx\x1d\x8e\x0f\xcar\x0f\xe2:\xfa\xd7-\xfbe\xfch\xbb\xf8S\xe1\xc7\xf8=\xe0\x0bo3\xc4\x1e(Q\r\xa7\x94\xd86\xb6\xecv\xbb\x92:1\xc9\x00\xd7\xcb_\x18\xfc7s\xf0\x7f\xc2\xd0xd\xea\xd72^^[\xa7\xf6\x92\xac\xa4\xc4\xce&gt;`\x1c\x03\xce=\xeb\x8b\xf0\xa7\x89\xc7\xc2/\x04\xea\x1e)\xd7\x1e\xce\x18\xd9\xdc\xa4\xeb6\x1b\xef\x0c\x0c\x7fJ\xab\xf0vO\x13|j\xd5\xae&lt;b\xd0\xcc\xf6\xef?\xfa\x10\x92R@Py$\x1f\xd2\xbdQ\xb4}P]\xac0[\x84\xb7\x8dvL@\xc3\x13\xdcf\xacYE$\x13ox\xfc\xc3\x1f\xdc\x8c6\xd5A\xeb\xeei\xebuqu\xac\xdbySD\x84\xa1\xf3cd\x1f\'\xd3\xd35fC{\x1c\xe8\xc2\xe4BA&amp;W\xeb\xe6zg\xd6\xaf\\\xd9\xa9\xd3\x92\x1b\xab\x91pA\xdc\xb1\x8fS\xd3"\xa8jW7?\xe8\xd0\xcc\xed\'\x04\x08\x84\xa7#\xfc*\x9c\xb3Y\xad\xfb,bVDFR\x03\x91\xb4\x01\x90\xf9\xeesSxz\xd5 \xbaY-\xe2\x91\xdd\x95\x9eww\xe0\x11\xca\xf0{\xd7T\x9a\xbc\xb62M\x0c\xee\xf2N\n\x96\xc0\x18\xda{}qY~!\xf1&lt;7w\xe2\te*\xb2.\xd3\xbb\xe6\x04\xf4\x00g\xf8\xbd+\x1a=R6w/|6\xc5m\xb8L\xe7\x95\xc1\xf6\xef^}\xf17\xc4\x16-w\x00\x96\xf1]Q\xd4\x08\xa3\xf9H*w\x17-\xdf\x8e\xa3\xbdy\x17\x8b\xbcKu\xf6\xdb\xb9m\xfc\xb3\x19\x18VQ\xce+\xca\xbcq\xad \xbf1\x08\xd8I\x0e\x19\xc9\xe8G\xa5y\xa7\x8d|Kmm\xa7\x9b\xa1\x12\xbc\xca\x83x\xee\xf9=\t\xfd+\x9b\xfd\x9f\xbe\x1e\xeb?\x18~\'\xa5\x8e\xd7\xfb%\x8ed\x96Ur@\xe7;s_\xa4\x7f\x0e&gt;\x19A\xa5xy,`\xb7\xca\xc6\x15AD\x07\xa0\xf7\xaf\xe6\xe6O\xb3\xbc\xdf\xbb,r\xbc\xaex\xa41\x0e\xe2\x9c\xab\x1e\xdc\x97\xce:f\x98\xc8\xac\x0b\x05\x03\x1c\xd3Y\x1d\x13y\'\x9e\xc6\x91\x00$d\xed\xcf\xa5&lt;H\x0byq\xaeq\xe9M\x98\xc8\xaaB\xdb\xf1\x8e\xb9\xe9Q\xe0\x19\x00?\xdd\xa7\x14VR\x8b)\xe4`\x0c\xd0Q\xb6yD\x9c\x81Q\x85d$7\xcd\x8e\x80\xf3J\x19\xd7\xe6E\xe7\xb8\xa9\xfe\xfcyw\xc1\xc5"p\xbbTdP\t\xc9\xe7\xa7J\x8eBx\xe6\x96(\xd9N\xf6\'\rO\'h\xf5\x03\xa9=\xa9\x166\xb8\xcf\x92\xbc\xe3\x8d\xfd\xfe\x95\xf7o\xfc\x11\x8f\xf6\x85\xb7\xd2\xfci\xa8\xfe\xcd&gt;"\xd5\x95l\xf5\xd9M\xfe\x8a\xf3I\xb5c\xba\t\x82\xbc\xf1\x96\x1f7\xb9\x19\xaf\xd4O\x08x\xd6\xe2\xc8\xcfmy\x13\xf9\xb6\xe8\xc0\xb2\xb1"D\xc78\xf5\xe2\xbd[\xe15\xa1\xd4.&gt;\xdb:\x80\xd7\x00&lt;e\xd3\x18Q\xce+\xd3\xef\xec\xf5!\xa6\x06\xb6\x8a9eE\xf9U\xd4\x13\x8a\xec\x7ff\xbd{G\xf0\x8d\xde\xa1\xa7\xea\x90\xc4\x1bU\xb8\x12\x02\xe8\x08\xf3z\x1c\x9f~\x84\xfaW\xbei7:m\xc7\x87\x9cA\x14j\x83#\xe4 \xaa\xaf\xb7\xa7\xff\x00Z\xbcw\xe2\xcf\xc4\xad/\xe1\x9a\xdck\xd77\n$\x86m\xd1A\x1d\xc6$\x9d\xfb\x0e\xbd\xfa~5\xf3\xae\xa1a\xe3\x9f\x8a\xbe!\xbe\xf8\xe5\xaa\xeb\xf0j\x97\xd3\xcf\xe4%\x9d\xab\x9f2\xd6%\xe5\x14\x03\xc7\x07\x07\x8e\xfc\xd7\x94\xfcm\xd7\xb5\x08\xad\xd6MOR\x06\xea\xeeC\xe7\xc1,\x86I\x10\x8e9\xdd\xf7~\xa2\xbeg\xf8\xe3\xf1\x0c\xf8\xe3\xe2\x1e\x83\xfb&gt;i\xce\xeb\x1b\'\xda\xf5\xc9b\x94\xb1l\x10B\x1cz\xf4\xaf\xb5\xff\x00f/\x07\xda\xf8O\xc0\xf6\x9aLVq\xc6\xb1\xc0\x08}\xdf7N3]\xe5\xdc1\xa4/*\xdbG&gt;[\x0e\x11G#\xd3\xebX\xba\x8e\x8fg\xa8\xca\xbfd\xb3\x91\x10\x1c\x98I\xc1\x07\xd4z\xd3\xdb\xc2V\xb3\xc6c\xb1Y\x16\xe2e\xc1c\x18\'\x1e\x99\xf4\xab1iv\xb6Z\x1cf\xee\xd37 \x95]\xe7p\'\xb1\xc7j\xcd\xba\x83P\x93Ty$\xf2\x92U\xda\xb6\xf1\xa3\x95\x0f\x9e\xe7\x1dqX\x9a\xe6\x99\xa8I\x1cS\xbe"\xbbI\x0e\xe5\x81\xb8+\x9eI\xef\x8a\xb7eg\r\xcd\xacb\'G\xdaT;\x07&gt;\xbd&gt;\x99\xa8\xa0\x8a\xf6\xdai`mMHg\x0cS\xcb\xf4\xf7\xefP\\ko6\xaa\xcbi\xbc\xab(W\x99\x0e&gt;n\xc4\xfa\xe3\xde\xa9k\x97\x86=)m\xda%\x92I\x95^\x0f=\x8a\x94\xc3r\xc7\x1d\xfd\rs\xfa\xbf\x8bd\xb0\xf0\xf4\x90i\xd61\xc3\xe6Z\xef\x9eE \xaa\x95\xcf\xf3\xef^3\xe2\x9f\x15K*\xc8\x97\xd7\t,\x89#2\xa0\x90\xed\xc9\xfe,t\xcdy\xce\xab\xe3\t,\xe5\x9a9\x08a\xcb\xee\x07\xefc\xb1\xf6\xae\x0f\xc6~)\x9e\xec5\xdc\xb3$r2\x1f0\x11\x9cq\xf2\x8a\xf1\xef\x8b\x9e.\x86\xda\xdd4\xfbe\x06\xee\xf4\x84\x825|\xb37n;\x0c\xe2\xbe\xd2\xff\x00\x82{~\xce\xb1\xfc6\xf8}g\xaa\xebv\xf8\xbf\xd6G\x9f;0\xc9Ry\\\xd7\xd7:=\x8d\x94\x16\xc60\xce\xed\x9f\x98\xa1\xc75\xfc\xb8$jV&lt;\x0c\x16\x04\x16\x1dhud\xca?N\xc7\xd6\x9a\xca\xbb:c=M2"X\xb27Lp}iK\xaf\x98\x8c\x9b\x98d)\x04\xf0*#\xcb6OF\xfc\xa9\xd1\xa4k\x96\r\xcf~i\xdb\x94\x8d\xb8\xe0\xd2\x14N\xbd\xf1L#\xe6\x1bx\xe7\xb54\xbb$\x87$\xe4\xf7\xcd=\x06\xecg\xa9=i\xc9\x16$$\xf4\xefK"+\x9f\x95\xcf\xd34.S\xe4\x1dOJj\xf9\x8b.\xd6e9=(\x93\x01\x0bc\xa1\xa6\x07r\x84\x82H\x038\xcdI\x1a\xf9\xca7\x1c\x02y\x03\xbdH\xff\x00.!\xc1+\x9e9\xe9\xf4\xf4\xad?\x00\xf8\xcb\xc4?\x0f|e\xa6\xf8\xbf\xc3\x17\xbeE\xfe\x97}\x15\xcd\x9b\xef \x89\x10\x8d\xbc\x8e@ `\xfb\x12+\xf6\xff\x00\xf6R\xf8\xff\x00\xa0|~\xf0\x7f\x86\xfe*\xf8RH\xde\x1b\xc8"7\x96nra\x94\x80\x1a3\xe9\x89\x07\xe4k\xe8\x8f\x0b\xfcT\x90_\xc0\xb7l#{g\xd8a_\x95B\xe7\xefz\x1cW\xa6\xe9\xde:\x8e\xf1\x04\xf2j\xc4\x06L\x02% \xe2\xa3\xb0\xf8\x8f\xa7iZ\x89\xb7\x97\xf7\xfb\x8e\xd5\x869pN\x7f\x91\xf7\xae\xbfL\xfd\xa8|G\xe1\xef\x0f7\x87t\x19\xed`FGs5\xd8\xce\xc5\x03$d\xf5\xfaW\xcd\x1e&gt;\xf8\x97{\xf1w\xe2r\xe9\xb3x\x92iQ\xe6\x02y\x8b6\xd2\xdb\xba}+\xd1,\xf5\xdf\xf8F4d\xb5\xd25R\xb1\xc0\x87\xcd&gt;a\xceq\xc9\x15\xf2_\xed?\xf1\xbbK\xd0u\x0b\xddb\xefR7\x11\xd9C\xbaO2c\x86nz\xe6\xbc\xc7\xfe\t\xa1\xa0j\xff\x00\x1c\xbe&amp;x\x83\xe3\xae\xb7j\x1c\xde\xdd%\xbd\x88\x913\x85\x00\xf7=G\xb5~\xa3xWG\xd3&lt;?\xa4Ef\xa4J\xcb\x10\x05\xd8gw\x1c\x8f\xc2\xaf[XG\r\xbb\xc7\x15\xa2\x85w\xdcF\xd1\x8a\xa7\xaai\t\x1e\xa25\x1b\xc92\xa9\x1ep\x1b(\x00\xf4\x1d3R\xf8wM\xba\x91\'\xd4\xf4\xe8F\xd3\n\xacN[\x1bI8\xcdr\xda\xea\xdeAy4\x9as\xdc\x99.2`\xc9\xce\xd6\x1dFOL\xd6t\xfa\x8e\xa5\xaa\xddE}\x0cw6\xcd\r\xb0\xf9\xdeD\xcb9m\xc0p2F\x061\xe9\xc5P\x9e=B\xee\xf6mRC\xe6;\xe1w2\xfd\xc1\xdfo\xa5O\x16\x9dy\xa7H\xb6\xb6\x17\xe5\xadf\x19\x9c:\x81\xf5\x15\x16\xb5{\x15\x83\xbcWw\xbb\x13\x81\x19\x8f\x9d\xbe\xf5\xce\xea\x1e&amp;\xd3l\xec\x85\x86\x9c\xea\xf7\x0cY\x8cDd\xb7\xfb[\xbf\xa5r\xfe0\xf1\xd5\xe4w\x82E\xf9Y!1\xedy8d\x03 \xfe\'\x8a\xf3_\x17|B7\xd1\r\xccb\xb6Uo5\xfc\xde\x84z\x8e\xe0zW\x90\xf8\xcb\xe2&lt;kz\xf7\n\xfeiq\xe5\xa9N\x01\xec\t\xae+_\xf1\x97\x9cf\x86\xde\xcd\x99\x06\x16=\xcd\x92\xe4\xf0~\xa2\xb8?\x1e\xf8\xd2\xc7\xc3Zu\xd6\xa1\xab\xde\x11\xb3\r\x1cg\x1f\xbe\xc7;s\xfeqX_\xb1_\xc2\x8dK\xf6\x9f\xfd\xa0\xa3\xd7|GlM\x86\x9e\xe2Q\x1cq\xf1\x88\xce6\x93\xfe\xd1\xeb_\xad^\x12\xf0\x85\x86\x83\xa6\xc7\x0b[\x18D+\xe5\xc0\x11\xf8EU\xf6\xe9\x8a\xe8\xb4\xf4k\xdbU\xb8\xd1\xf7\x12x\x98\x1epE\x7f.a\x81\xca\x8e0\x0e=\xa9\x8cg\x93\xe5pp:\x13C\x12\x88\x01\x19&gt;\x86\x98~W\n\xad\xc7]\xde\x87\xd2\x9c\x0e\xd0J\xf1\xde\xa1\x16\x87y\x94JN\xee\xaaO\x14:H\xac\x02\xa7\x19\xec:R\x85*C18\x07\x9e)\xc7&gt;ir&gt;P\x84\xa8\xf5\xa7:\x81"\xb9\x00dp)\x8f\x92\xe71\x0f\xca\x81\xc5\xc8\x03\xa6:R4\xb9R3\xd5\xb1\xd6\x9d\x1b\xc6\xae\x11\x80\xe4\xf5\xf4\xa4\x0e\x9ey\xde\xdc/#\'\xad5\x94y\x82^\xc4\xfeTL\x1aa\xb5x\x1d\xb1\xde\x80[\xcb0\x88\xc08# R\xee\xdb\x16\xd1\xd4\n\\\xf9\xd1\x82\xccF:\xe0\xf5\xa4x\xa28*\xc4\x03\xf7\xbdH\xaf\xac\xff\x00\xe0\x97\x7f\xb5\x9e\xad\xf0{\xe2\xbd\x9f\xc2\xff\x00\x10\xea\x12G\xa0\xf8\x8a\xfcF\xbb\x80+ox\xcb\x8d\xea\x0f\n\xacq\xf55\xfb\x01\xfd\x896\xadh\xf1\xd8\xca\x16WFH\xeef@\x01\xe4\x1c\x8c{\x1a\xd1\xd44\xcf\x1f[YZ\xdbh\xd7Qy\xf1\x81\x80\xd1e[\xea;\xd5\xf7\xf0\x86\xb5\xe1\x99\xed5\xadSW\xc8\xbb\xb4\r\x14\xd1\x8d\xcc\xad\x9f\x9b#\xd7\xd2\xa9\xeb\xfa\xc5\xf6\xb1s\x05\x96\x91\xa7\xce\xf0\xa4L\x1d\xee!]\x8cq\xd4\x03\xd0\xfb\xf5\xaegF\xf0\xab\xf8f\xf4\xde\xebW_g\x94\x96`\xc5~R=+\x9f\xf8\x9d\xf1z\x7f\x0b\xd9\xcfq.\xad\'\x90T\xee\xf2\x10q\x81\xf7A=3_\x9e?\xb67\xc7\xb9\xfc]x\xfe\x0e\xd3\x9b2\xeaW!\xaf\x11@\x0c\x88\xa7\x85\xf9}k\xf4\x13\xfe\t\xbf\xe0m;\xe1\xf7\xc2\xdf\x0b\xf8wM\xb2\xe4\xdb}\xa2\xe3\xaf\xdea\xc6}k\xed\x8d\x12\xfa\xd6dku\x85\x03\x12\xa25*0\xbe\xb8\x1d\xabR9\xda\xf9&lt;\x98c\xc6\xd3\xb6E\xce\x15\x87\xa5%\xc5\x8c*\x8dj\xdax\xba1\xc6qn3\xc9\xc7\x1fZ\xa9$CO\xf0\x8d\xc3\\\x19\xa0\x94L\x0cV\xfd\x02\xe0\xe4\x03\x8e\xa3\xda\xb9\xab85\xcb\xe4\x82\xee\xc6%Fi\x7ft\xb8=\x8f%\x87\x7fjo\x8b,\xfcI\x04\x10[l\xc4\xa8C\xcd\x1a\xc0\xc1\x97\x1ft\x0ex\x15\xce\xebw\x97\xe9\xbe[x$\xda0\xc56\x81\xc8\xe4\x8f\xc6\xb1\xf5\x1djim&lt;\x98`\x1f+\x8d\xab\xbb\x96\xcf\\\xfa\xe2\xb2\xb5[\x8b\xb5\xd3\xa2\xbf\xb2\xe7$\x86\x8d\xe4\xe4\xb7o\xc2\xb8\xdb\x9dF}+{L\x9f;\xc9\xb8\xcc\x91(\xc7\xfb w\xfa\xd7\x9bx\xf3\xc4\xd3\xdd\xceZ\xfe\xe1\x81(\xc9\tv\xda1\xd8q\xef^[\xe3\x0f\x15YFe\xd3R\xe6 &amp;\x89\x80&amp;Ry\xc7A^u\xack\xac&amp;\x9a\xc6H\x8a\xc7\x02\xe7{\x1c\x9f\xaf\xd2\xb9o\x12x\xca\xd3N\xb4\x92\xee\xe6t\x8d\x14\x80\x1d\xce\x00\x1e\xd5\xf3\xbf\x8d\xbcc\xac|c\xf1u\xaf\x83\xfc9\x13\x98e\x94\xacD\xf2@\xce\x0b\x1f_j\xfdI\xff\x00\x82|~\xce6\x9f\x03\xbe\x15[\x89-]\xb5\x1b\xf8\xc4\xd7N&gt;\xf1\xce\x0e\xd1\xdcd\xd7\xd2\x96\x16\x17s\xad\xc5\x8a^\x17\x17#\x0b\tb\x0c9\xe0\x92k\xd0~\x1fxv{- \xdb\xe8\x16\xd1\xba\x06\x1ek\xc8\xe4\x96o\xad\x7f)&amp;D\x0c\x0e\xde\xfc\xe0S\xdex\xca\x10\x03\xf4\xe3\x9a\x8bv6\xb3\x1e\x84\x1aR\xb8;\x91r\xa4\xd3C\xbe\xf2\xa12&gt;\x94\xec\x01\xc7O\\SY\x9c)T$\xf1\xd6\x9b\x19 mc\x9c\xf1\xf3sN\x92W|FB\x80:\x90:\nFq\x91\xb1\xb7\x11\xf7s\xcf4\x894\xa5\x88\x94/\xe5N\xdc\x99\xce\xde}qH\x04g\x80\x83\x93\xe9L1\x13\'4:\xa2\xcd\xb1\x90}\xde\xe2\x96s\xb65U\xe4\x13\xcd*\x93\xe5\x03\xd7\r\xc599\x8b{pwRH\xcb\xe4\x16\x00g=qD\x18\x08\t\x1d\xf9\xa4\x90#,nTq\x92x\xab\xba&gt;\xa3&amp;\x9d{\x0e\xa7a&lt;\xb1Mn\xe8\xf14nA\x05NT\x0c{\xd7\xeeg\xfc\x13\x87\xf6\xb0\xf0\x87\xed\x1b\xf0?K\xbc\xd7o\x02\xea\x96h\x96\xfa\x92\xa9\x1f%\xcaad\xda\x9d\x95\xb8 \xfdk\xec+\x8d\x0b\xc3\x1a\x9e\x91c\xacA\xe29,\xe7k\x83\x13 @U\xd3\x1d\xb1\xf7O\xa1\xedX77z\x0c\x8f.\x9f\xf6\xc8&gt;Ee\xdf"\x0f\x94\xf6\xe7\xb6k\x86\xd5&lt;K\xa4x~\xcc^\x99\x15\xa5\xb7\x94\xf9\xb1\x97\xe1\xd3\xbe=\xf1\\\x97\xc7\x1f\xda\x13\xe1\xe9\xf0Z\xc1&gt;\xbf\xa7\xdbO\n\xee\x82H\xc2\x83!\xc7\xdca\xdc\xf6\xc9\xaf\xcd\xff\x00\xda\xbf\xf6\xd7{\x9b\xab\xcd\x06\xc7Yi\xa6.JZ\xc2\xff\x00\xbb\x00\x7f\x19#\xd3\xae+\xc7\xff\x00e\x8f\x07x\x8b\xe3\xb7\xc6\xfd:\xc3\xcai\x9a[\x94\x9fR\xba\x05\x88D\x0e\x0f\'\xe9_\xba\xbf\xb2\xef\xc2\xfb\xad3I\x88G\x1b,p@\xb1Fb\x8c`\x80\xbe\xa6\xbd\xafD\xf0o\xd9nV\xf2xn7\xa3`\xa0&lt;\x1c\xf75\xbbg\xa3\xa5\xa5\xb2\xa3\xc1\'\xce\xc4\xe7uI\xa8\xbc\x96\x16\x12\xdf\xc3;\\JbeKM\xc4n8\xe3\xe9\xf5\xae&gt;\x1dCR\xbe\xb5}?Z\xd3\x02L\xd3\x07DyKdg\xa6OCSj\xd7Z\xbe\x94\x06\x90\xa0\xe5\xca\x87RH\xc0&gt;\xac9\xc5s\xb7wa\xfcH\x9a\x9d\xfcR\xb3C\x11fd\x90\xbe\xed\xbc\x8c\xe7\xafJ\xe5/.\xb51\xa8I\x15\xe43,Q&gt;w\x85\x00\xff\x00w&gt;\xfc\x90~\xb5\xcf\xeb\x92Gley`[r[j;\xb6\t\x07\xae\x00\xe8k\x9f\xf1^\xa5\xa7\xfd\x8a{[{\xc2\x18@@\xdc\xde\xa3\xb5y\x97\x8b\xfcS \xb7\x92\xd0\xea*\xef\x1c\x0c|\xd6l\x9d\xb8\xfb\xa0\xfa\xd7\x89\xf8\xd3\xc7$\xe9\xed\n+J\xb1\xc9\xb8\xa3JFq\xdb\x15\xe5~%\xf1=\xce\xa0\xf0m\x9e%\x10\xb1&amp;\x11\x10\xc8\xfa\x9e\xf5\xcd\xf8\xb7\xc7\xb6:\x04Rj\x1a\xfe\xa1\x1e\xf9!*\x10&gt;\x0e1_&lt;|Y\xf8\xc5\xa9x\xb6\xe5\xf4\xe8ov\xdb\xa1&gt;TG%[\xd0\x91^\xfd\xff\x00\x04\xcf\xfd\x99o\xfcy\xe3\xdb_\x18\xf8\x82-\xd6\xc2A\xe5\x16\x8c\x92bR\t\'&gt;\xbd\x05~\xb7x7A:\x0e\x96|\x98\x969|\xa5\x8e\x10\xab\x81\xb4t\'\xd6\xb4,\xe5\x8fk\xaal7\x1d^E\xf9H\x1f\xe1^\xd1\xe0k\x08\xb4\x1d\x06+\x00\x1b~\xd0\xf24\x9c\x92O5\xfc\x8d\x18\xe3\xeb\x9f\xc6\xa3b\xc6\x12\x1b\x8c\x1e\x0f\xad5\xf3\xbc\x01\x8f\xbb\xd0\x8e*B\x8a#\x04\\\x8c\xf7@)\xb98 \x1e\xb4\xc6\x0c\x14\x92x\xc784\xe5\xc9\x8cyd\x0f\xad!G\x1c\x92\xbcS\x19w\\l\xf5Zh\x8cD\xe5O\x1fJW\xfb&lt;\x83j\xe7x\xe8i\xc9\x1b\x05\n\xcd\xd7\xb94\xf0\xb1\xa7\x05\xff\x00\x1a\x8f/\xb8\x88\xf9=\xa8\xf2\xbc\xd6\x19??zr\xc6DeX\xf7\xc74\xd6&gt;Q\x08\xbc\x8c\xd2\xf2\xc3ni\xc0*\x8d\x8c\xa0\xe7\xda\x94mA\x9c\x0c\x0e\xd8\xa8\xe4s$C\xcb8\xf9\xb0*Kr\x11q$e\xcf\xa2\x1cg\xda\xbd\x83\xf6G\xfd\xa4\xbc_\xfb6|L\xb3\xf1G\x87\xb5y"\xd3\xa5\xbaX\xf5h\x08\xc2\xcb\x18\xc0,\xaa&gt;\xee\xc5\xcd~\xbcxg\xf6\xcc\xd5\x13\xc36\xd72i\xd3\xdc\xda]\xda\xac\xf6W\xb6\x831\x94\xdb\xb8\xb1\xf4\'\xa1=k\xcd\xbc[\xff\x00\x05;\xf8ce}q\x05\xfd\xdf\x91vX\xc7wo  \x0cq\x9cz\xfb\xd7\x84\xfcj\xff\x00\x82\x9e\xd8j\x90\xcdk\xe0\xebK\xa9P+*\xba\xcc\xc3\x9cq\xcer\x05|\xad\xf1[\xf6\xa0\xf8\xa5\xf1"\xfa{e\xbakX\xa6\x1bS\xec\x80\x97\xdax#x\xe4g\xd4S~\x01~\xc8\x1f\x1f\xbfi\x0f\x15\xa6\x87\xe0_\x05^\xdd\x19\x984\xd73Z\xb2\xc3\x17=K0\xe7\xde\xbfa\x7f\xe0\x9e\xdf\xf0L=\x1b\xf6~\xf0\xb1}z\x07}V\xe2%k\xbb\xb2\x9f4\xbc|\xc1OU\x0b\xcf\x1d\xeb\xef\xef\x04\xf8N\xcbF\xd2\x92=6\xc7d[\x151"{`\x9f\xado\x9b\x08\xad\xa2/\x14a\x9c\x8e~Zl\xe1\xed/\xa0i,\xd9\xd3# \xb7\x03\xf0\xac\xcdZ\xf2\r:\xeay\xa0\xd3\x8c\xf3&lt;m\xb2(\xfa\x8e+1\xb4-C]X\xfe\xd7\xa4\xc9n\x0b\x86&gt;S\x858\xcf\xf1c\xb5ex\xebX\xfb\x1e\xa3g\xe5\xab\x16k\xa8\xe2\x11\xb3\x1c7\xc9\xeb\xdb\x9e\xf5\xc3k^$\x96\xc6\xd2\xe2\xfc/\x98\xec\x9b\x12S\xf3\x04bq\x8c\x1f\xe7^u\xe2O\x12\xf8\x8a}\xb7\xdez\xc8\xec\xc4\xc8d\x95\x8eps\xd0\xf5\xe4W-\xabx\xa6\xe6\xebV[\xa9\x95\x9a7]\x8c\x8e\xd8\x1b\x8f\x19\xc7\xa5p\xff\x00\x13\xbcTtM)\xa7\x95\x0c\x93\x06!6I\x9e{g\xd6\xbc7\xe2\x1f\xc5\x1bH\xe5\x92\x1b4(-\xd5T\xb4\xaeAi\x07\xccN\x07Z\xf2\xcf\x12x\xaaK\xd8\xcc\xea731\x0e\xce\xd8\x03=\xeb\xcb&gt;"|v\xf0\xe7\x84]\xed\xad\'\x8a\xfe\xfc\xa1\x028\xd8m\x8d\xb1\xc1&gt;\xf9\xaf\x03\xf1\xbf\xc5-c\xc7:\xa3\xdc\xdd]\xa3\xefn#e\xff\x00V;\xe0\xd6\x87\xc1_\x86\xba\xaf\xc5\x1f\x1a\xdb\xe96\xd6\xd3I\x02\xc8\xbflx\x94\xe7\x1b\x87\xca&gt;\xbd+\xf6o\xf6B\xf8-\x0f\xc1\xbf\x87\xf0\xda4)m!T&amp;YT\x12\xeb\x80U\x17\xfb\xb5\xec\xda\x97\x89\xe3\xb0\xd3\xe5\xbf\x8et0$E#d$\xb8b&gt;\xf0\xf5\xc7Z\xe8\xbe\x17\xf8v\xc7Z\xb8\xfbF\xa4\x86S"\x07\x96B8\xc7e#\xde\xbd\x9e8\xed#\xb7\x89n]\xa4a\x18\x01\x94\xf4Q\xd0W\xf2\r\x82x\x02\x95@\x92\x0f/w!\xb9\xf6\xa1b\x93\xc9\xf3\\\x8d\xc1\xb1\x81\xd7\x14\xd6H\xd8\x10\x03d\x8c\x03@&amp;\\y\\\x01\xc1\x07\xad ;\xd8\x90x\xc6(eF\x1bw\x9c\xaf|\xd1\x96\x08v\x8d\xdc\x1e\xb5\x16H!\xd5\x89n\xfc\xf4\xa1N\xe7\x1b\xd8\xf5\xe4\x93N\xdc\x82P\xa1\x063\xf7\x80\xebO\x92@\xa7\n2=qQ\tWn\xe2\x01\xf9\xbb\xd4\xa8T@d\xce\xd2N\x01\x1cSb\x88\x07\x0e\xd2\x9c\xe7\x93\x9a&lt;\xe6G0\x11\x9c\x9c\xa94\xa6\x037V+\xf4\xe2\x9b\x1cr\xc7&amp;\xd2I\x03\xb95#\r\xc3\x81\xcfj\x8eI\xb7)\x8f8lRG$g\x11\xb8\x1c\x1eJ\xd4\x91\x82\x88H\x1b\x818\xe6\xb4#(\xb1\x89\xe4\x04\x11\xc9+\xd4\xd7\xe8\xb7\xfc\x12\xef\xe2|\x9f\x1a&gt;\x1c^| \xd6/\xf7\xeb^\x1b`\xd6\xd9$\xb4\xb6n2\x08=p\xad\x85\xf6\xae\x8f\xf6\x9d\xff\x00\x82{\xea\xdf\x145)\xf5\xff\x00\x05\xe8\xd2\xd8k#\x1b\xd3\xec\x85b\x9f\xdc\x901\x9fz\xf3_\x84\xff\x00\xf0G/\xda\xab\xe2\x9e\xbc,\xb5/\x0f\xdb\xe96\x84\xe0\xea:\x8d\xc8H\x8a\x83\xc9\x18\x19&lt;W\xdf\x1f\xb2\x8f\xfc\x10\x93\xf6r\xf8Sim\xe2\xaf\x89[\xfc]\xa9\xa3\xa6\xf1p\x02\xc0\xa7#;c\xe9"\x8fR3_f\xe8\xbf\t\xbe\x1ax\x16\xda\xdbL\xf8\x7f\xe0;\x1d.\x15\x88$\xf6\xf6v&gt;T`\x0e\x84\xaa\xe0g\xea+V\xd2\xf9m\xf58mL,\xcf)\xc2(\\\x85\x03\xbe=\xab\xd0&lt;=\x15\xf4\xd6\xd7/y)x\x12\x19v\x01\x18\x04\x10x\xc7\xbd;N\x92\xd7\xc9\x8c\t\n\xb9b\x01\x94t=\x89&gt;\x95c\\\x16\xc4I4-\x1c\xcdo\x17\xef\x9d0B\x8cu\xe6\xb8\x0f\x11x\x96\xcbK\xd4\xa1\xbd\xd2\x929\xcc\x91\xb7\x9aL\xe5\x1aP:\x90\x7f\x83\x1e\x9d\rh/\x89-,\xad\x9e[\xbb\xa8\x0c\xc5\x06\xf5\x8a\x16f\x05\x87\xcb\x86\\\x0f\xafj\xf3\xaf\x88&gt;"\xbd}Iug\xb7H-#\x18Q#\xe0\xe7\x18\xdd\xb7\xb7\xd7\xady\xb7\x8a\xbcU\xb9\xe5K\xd9\x87\x98\xd8\x946\xc0\xad\x12/?(\xe9\x8e:\xf5\xae\x1fY\xf1\xc5\x81\x9aE\x92\xfd\xd8\xa3\x02\x8f"\x02\x80\x7f\x8dyo\x8d\xfe(\xc7\x1d\xc4\x8f\x15\xc2\x1d\xef\xf2\xb1~\xde\x83\xfb\xb5\xe3\x9f\x12~-\x19aM6y\xa4\xdb$[\x99\xe5\x03\x0cs\xd00\xe4\xfe5\xe5\x1e%\xf1\x8d\xa5\x9e\x9bu\xe2MoY\x8a\x1bH\\\xb0\x12"\xe0q\xc99\xe4\xf1\xd7\xd6\xben\xf8\xc3\xfbN\xdfx\x96K\x8d\x0f\xc1\xd2\x1b]=\x89\x0c\xea7&lt;\xb8\xee\x1b\xaa\x8fa^M\xf6\xb9n\xa7i\xa6\xcb3\xb6rO$\xd5\xaf\x0cxcU\xf16\xb7\x06\x8f\xa4[\xbc\xb3\xca\xf9\x89V=\xc0\</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x01}\x01}\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfc6.\x8c6+\r\xc3\xaf=i\xb3\x06 \x05\xf5\xa1HU!\x86O\xad \xea)r2~\x86\x98\xd1\xa39rq\x85\xe8O_jP\x8a\x88\x1aB0z\x02j9c\x11|\xca\xc0\x97\x1d\x01\xe9V&lt;9\xa6I\xab\xeaqXA:\xab\xcb*\xae\xf6l\x01\x92\x06I\xec=\xeb\xe9\xef\x0f$^\t\xf0\x1cVzl\xdeTP\xa3\xa5\xcc\xb1\x0f\x9eEf\xc3l=\xf8Q\x8cz\x8a\xe3u?\x88r-\xb5\xd6\x97\xe1\xa1\xe5C\x03\x19$%\xb3\xb9\x97\x80W\xd4\xe3\x9a\xe4\xf4\x87:\xee\xabu\xe2?\x18\xeam\xf6\x0b\x08\x9d\xe4\x96F\xdc\xf2\xb9S\xe5\xc41\xdc68\xaeBk\xeb\xef\x12\xea\xedyt\x86$\xdcB\xc6\xab\xf7\x14}\xd2\x07\xf3\xad\xb8\xa2\x8a\xc7\x06$3:\x00Xg\x18\xfa\xfaV\xb9\xf1\xc2\x89\x99.-\x84\xee\xb1\x81\x1cP\xcb\x84_\xa9\x1di\xfa?\x85u\xef\x13C\r\xb4\xda\xd9C,\xbc\xaa\xa3\x107\x1e9\xef\x8a\xf4\x8f\x85?\x05m\x1bV\x92\xcf[\xd7$x\x9a"\x17\xc9\\\r\xd8\xeas^\xab}\xf0\xb7F\x82\xe1F\x86eh\x1c,1\xb3\xc4w,\x98\xe4\x0f\xf0\xae\xe7\xc0?\x06|C\xe2\'\xfe\xc6m\xf2\xc4\xa0\x06b\x98\xdf\x9fO\\W\xbe|%\xfd\x83\xedui\xbe\xd5\xaeM%\xad\xb7\x9av\xb4n\x1bp#\x9e+\xdc\xbc%\xfb\x1a|$\xd3]\x84\xabp\xe6\xde2\x14\x00C1\xc7\xa5uv?\xb1\xe5\xb6\xb5$\xb6\xfe\x1a\xd0m\xf4\xed;\x00H\xf3\xc5\xbaY\x0f\xe3\xc8\x07\xd6\xbb\xed\x07\xf6L\xf8Y\xe1[K{;]6;\x8b\x98\xd9Y\xe4h\xc1\xcbz}+\xbf\xf0\xf7\xec\xb5\xe1\x0b\xeb(\xee\xef\xf4\xfbeU\x04\xacq\xc2\x0b{\x0fj\xec4\x0f\x83~\x15\xd2m\x04\x96\xda\n"\xc4\xc1\x16Y\x10.Gr3\xd6\xba\x1d\x1bH\xb7\xd2\xe5\xf2c\xb0\r\x9c\x80\xa1\x07E;A\xfa`\x93\x9a\xe8e\x92;kO\xb1\xd9\xdb\x04y\x10\x9c\x05\xcex\xaeRe\x81\xed\xe5\x8ex_\xed\x11\x07+\x1a\x8e\xad\x8e\x07\xe2k/\xc4z/\x88\xf5\x0f\x0f\xdf,\xb2\xa8\x9e\x05\x12E\x14S\x0f\x9d@\xce\xd0{\x13\xd2\xb0\xb4(u\x8dSG\x8e\xf7\xc4\x11\x94\xbc\x8a1\x14\x96\xf3\x8c\x92\xbb\xb89\xf6\xaa\x1e0\xf0\xbd\xa8\xb2_\xb0\xa9\xc3\xc6\xce\x85\x0eK\x109\r\x8a\xe2\xf4\xff\x00\x0e\xff\x00hj\xedyu3\x99f\xb9\xc4\xc5\x06U\x10\x0es\xe8qWN\x81\xfd\x97t\xdeK\t 2&gt;\xdd\xe7\x18b\xbc\x13\xed\x9a\xf3\xef\x89\xfe\x14\xb1\xf0\x8e\x9f6\xaf\xe7\xbd\xc2o\xdf*G\x19\xf93\xc9\xc1\xef^\x0b\xfbCh\x9a&gt;\xad\xa2i\xfe\x00\xb7\x92-&gt;\xc3Z\x89\x8e\xa7x\xf8\xc6\xd2\xa5\x80\xc9\xe1A\xd8\xa3&gt;\xe2\xbeI\xf0\xa6\x9f\xa7x\xe3Y\xb7\xd1\xd8\xc8.o.n\x1b\xcb\x93\x8d\xd1\xecm\xaa=\xfe\\\x8a\xcb\xf8\x13\xae\xeb\xde\x0f\x8f\xc6\x1f\r\x96\xd8Mm\xaah\xf7\x02\xd5Cdy\xb1I\x1c\x8a\xd9\xec\x1bk`\xfa6j\x92\xf8\x1e\xcbG\xf8\x8d\xe2\x9bMM\xe0\x8a\xdc\xc6?\xb3\x04\x92\x02\xcc&amp;E%3\xf4`\xc3\xd8\x83\xd2\xbc\xe3J\xf1\x85\x96\x93\xe3S\xe1\xf9#"\xce\t\xae\xe2\xb5\x04r\xbb\xbf\xd5\xe3\xdbw#\xe9Y\xba\xd4\xf7\'P\xd6-\xe3\xb6\r\x06\xa9u%\xdcm\xd7\xcbUO\x94\x0fm\xc4g\xebL\xf0\x06\xb1qm\xabi\xde%3\x046\x1a\x84W2B\xf2\x1c)12H\xa5\x7f\x87\x80k\xb7\xd6\x1b\xc4\x12\xf8\x8f\\K\x9de\x155\x1f\r$\xcb\xe6\xb3.\xe8\xe1l\xa8\x19\x1c\xc8&lt;\xcc\x11\xd4\x049\xe9\\d^!\x9a\xff\x00\xc2v\x1e\x1d\xb3\xb2\x88^\xe9\xa8\xebo&gt;\xcc\xb3d\xe4\xee=\x8fq\x9a\xde\xf0\xe7\x8d\xbc\'\xa5\xf8[\xfe\x13\xb9\x83\xb5\xdd\xae\xbbg=\xe3\xb0\xcb\xa1Hv\xb8\xc7\\1 \xfb\xd3o|\x0bse\xe1\xbd.\xedt\xd8\xcd\x96\xb9h\xb7\xa2\xe6E;\xe11O,\x12\xa6\x0f\xddb\xdbx\xeb\x92=k\xb9\xbf\xf13x+X\xf0\xfd\xc5\x85\xe0\xf3WP\x16\xd7jHW\xf2\xdc+F\xde\xc0\x06a\x9fZ\xe2\xbc}\xa0\xdcZx\xfa\xdb\xc7q\xeaB8\xf5O\x12}\x92\xe0B\xcb\x8d\xd2 \xdc\xa0w\x1b\x8a\xb8&gt;\xb84\x9f\x1f\xb5\xbb\xbd{[\xd3\xae[M\x11&lt;VF)\xc2(\x1f\xbcW!\x87\xd0`~9\xaf\x8d\xdc\xa8!\x963\x93\xe8)\xbefN\xd2y\xf4\xc5\x04\x10v\x91\xcf\xa5\x03\x91\x91J\x01\x07$Tra\xa4\x03#\x96\xa1\xd81\xd8\xdd\x052S\x04\x92\x05\x1b\xb2W\x19\xae\xc3\xe1\x87\x85\xade\xd6m$\xd5\x06\xe8\x9a@\xac\xa8y&lt;\xf2=\xab\xdf\xfckh\x87@]3Lm\xa7\xc9\t\x1cDp\x99\x18\x04\x9fZ\xf1?\x11\xbc1\xdd\xaf\x86\xb4\xbcFFZ\xe6\xe7wF\xf4\xac\x8f\x11\xea\xf6:\xcd\xeai\xba.\xf1ik\x18\xf9z\x19\\uf\x14\x9a~\x94\xb6\xe3~\xa5(W?4{\x0f\xf3\xab\x17:\x9c\xedk5\xb5\xb6\x03I\xcb9_\xe1\x15&amp;\x89\xa3\xae\xc1s+gwS\x9cW\xab\xfc.\xd1\xaduk\x87\x1a\x842\xad\xbc\x08\x03\xf9n2\xa4\xf4\xce:W\xbc\xfc*\xf0\xcf\x87t9Z=+E\x9a\xee\xfa\xed\xd4\xc0\xce\x0b\x04Q\xf7\xab\xe8_\x86?\x035/\x1a\xb2\xc5\x07\x85&lt;\xf6x\xc4\xdf ?+\x9e1\xecE}/\xf0\x93\xf6V\x7f\x0ci\xf1C-\xb9fl2\xc30\x01\x95\xbf\xc2\xbd\xdb\xc0_\x0c%\xb5\xb0M4\xc4\xae\xaa\xa7w\xee\xb0#\xf7\xcdz\x1e\x83\xf0\xff\x00\xc2\xfe\x1b\xb3{\x9b\x8bq&gt;\xe9X\x9c\xa6X\x9d\xbd\x07\xb5\x10X\x8dFP\xf1\xd8\x15\x866\xdb\xfb\xb3\x82\xfe\x9f\\V\xef\x874M=f/4r*\xe7\x91!\x1c\xfbf\xbbo\x0c\xe8ii\'\xda\xacm\xb7\x00wa\x8f\xf2\xad\x18\xa1\x8a&amp;D\xba\xb6V\x0e\xe7+"\xe4\x8f\xa6;\xd4W^\x1f\xbb\x86f\xd44\xab\x94\xdf\x82p\xf8\x18\x15\x97u&amp;\xbe"\x8do\x19\xbc\xd1\x9c\x18\xf1\x8cVu\xbd\xed\xcc\xd3-\xaf\xd8\t\x96v\xc1\xf31\xcdGw\xa3\xa3\xc2\xf6\xf7p\x80\xb3\x13\xb5\xa2\x07*\xfd\xb3\xf8\xd6-\xcaA\x14~E\xb1@\xfd\x1d\xdc\xe0\x02=k\x8a\xf1F\xa9\xe6\x99\xe0L\xab\xb6W\x18\xe1G\x7f\xce\xb2lt\xab{\x13swe2:\\JH\xda\t\xd86\xf3\xf4\xcdW\xd66K\x13\xda+\xbe\xe9X*\x85\x19&gt;\xf8\x1d\xea\xad\xef\x87\xa1\xd4"\xbb\xd1\xf5v\x13\x83\x10f\x05r\x04x\xe7\xf4\xaf\x94\x7fl\xabI\xf4\xdbK\xeb\x0bKeif\xd3\xd5,Dc"5\x11\xb0=:\x11_\x19\xe9z\xe6\x9d\xa0\\\xe8\xb3\xd9YF\x97w6vk{\xbc\x1d\xd0JgrN:\x8f\xdd\xe4\x1f\xadq\xbe$\xd5\xaf|;q\xa8G\xa2\xdd\xc2.\xec\xaed\x84=\xbf(\xf0\xe4\xae\x1b\xd8\x80?:\xab\xa5\xf8\xcf\xc4\xbe0\x9a\xef^\xb6\x8e9$x\xe1w\x8e5!_b\xb2\x95\xc9\xff\x00e\x8f\xe0\x80\xd3&gt; \xf8o\xc1\x11x\xda\xcbX\xf0{\x1b\xeb8\xe4S-\xcc\x9c;\xb3[\xa0te\xfe\x1d\x85d#5\xbf\xe3\xd8t\xcf\t\xea\xf6\xf2X\xe8\x90$7\x9ax\xba\xb3\xbb\x9b\x00\xbd\x9c\x915\xbc\xc8\x14\xf5!\xc0l\x8e\x98\xae\'\xe1\xa7\x82t\xcf\xf8L.a\xbb\xb5\x94\\I\xacY\xad\x97\x96r%\x86d\x90\xb9&gt;\x84nQ\xf5a\xebL\xf8\x93\xe2}SJ\x92?\x06Geor\xb6:\xcb\xbd\xa5\xc2\x9c\xf9\xb0L\xb9\xf2\xd9~\xf1\xc1\x1d\xb8\xadO\x01\xe9z\x07\x82\xf5\xd9\xef\xf5\x9d-\xeeml\xeca\xb8\xb8IF\xe0\x12y\x1dX\x809\x04\t\x10\x0c\xf7\x02\xb0g\xb1\x83\\\xb5\x9bE\xb2\xd3\xe0X\xb5Y\x82\xc0\x11p\x19Y\x11A\xcf\xa8\xc8\xfck\xba\xd4\xfcg\xa7\xc1\xe0m\'\xc0~#\x8d\x01\x85b\xb7\x8fP\xce&lt;\xe4&amp;%\x9aob\xea\xa7#\xf8X\x93\\O\xc5\xdb=n\xf6\xf2h\xa6u\x97\xec\xb3\xa6\x91 \x89H\x1edp\x99\x12Un\xfb\x84}{\xee\x1e\xb5g\xc6\xba\x86\x9d\xfd\x95~4\xcdP^\xc7$6\x1a\x9d\xb9\xf2\x89\xf2\xe5@\x04\x84c\xa3&amp;\xe4\xe3\xbe\xda\xe8n\xfe"xwr\xb7\x8a#\x9aAs\x1a\xdd\xdb&lt;0\x80\x0f\x9a3&amp;3\xd5w\x86\xc1\xaf\x86\xd1$Y7n\x1dx$\xf1P\xb8W\x95\x82\x92\t\x1f1=?\n\x99\x925\xc7\x94NPrZ\x90\x80\xbf!8\x04g4\x06\xb9\x8f\xe5@\n\xff\x00\x16}*9\x1dy\xc2r\x06i\xb8\xdc\x01&lt;\x13\xd34\xc5\xc2&gt;\xd7\x19-\xc2\xe7\xbdz\'\xc1MN\xc5&lt;gcy{\x0byy| \xe7k\x01\xc3\x11\xe9\x9a\xf4\xdf\x88_\x10\x9d\xad\xa6\xd3t\x8d\x8a\xa2#\xe6K\x90^\\\x8f\xe1\x1e\x9e\xf5\xe1\xf7\xda\xbe\xa3\x1c\xd2[\x87Uw\x97qn\xa4\x8c\xf4\xa3\xc3\xf70\xc7\xa8\x96\x94\xfc\xbe[nb\xbc\x13\x8e\x99\xad1\xa7^=\xe0gb\xe1\xcf\xc8\xa3\xf9V\xc5\x97\x82\xaf\xee\x18]5\xb1\x8dB\xe4n\x1d\x7f\xc6\xbb\x1f\x03|/:\x8a\x90\xd9p~c+\x0c(\x15\xee\x9f\x04\xbe\x0b\x0b\xeb\xc8\xb4\xad:)d[\x94\xdcs\x19\xc9\x19\xc7\xcc{{\x1a\xfa\xb7\xe0\x7f\xec\xfdwq\xaf&amp;\x9b\xa4\xe8\xd2\x04\xb7\x97\x1b\xdds\xbc\x11\xce=E}\xd7\xf0\x87\xe1~\x99\xe1\x0b\x04\x82\x1bX\xa0\x0b\x12\xfc\xc8\x83\xcc/\xed^\x95\xe1\xef\x0c\xc5$\xf1J\xf2\x19\x99\tm\xf2\x90H\xc7n+\xab:ki\xd6\x12\xcbnXH\xcc\n\xa8\x03\x9f\xc3\xd2\xa4\xb7\xd2\xe0\x86\xc7\xed\xb7V\xe5$f\xf9\x89o\xbd\xed\x8e\xd5\x1f\x94c\x8e\x08\xec\xe2\n\x9b\xf76F\t\x19\xadk\x0b\x18\xe4\x06\x13m\x82\xcaH\xc9\xae\x83J\x8e\xea\x18H\x8f\x80\x89\xd9\xebR}6\xfaE\x12\xa4\xea\x14JO\'\x9c\x11\xc9\xa0-\xc4\x00F\xf2\xf0\xfcn=&gt;\xb5E\xeen\xad\xe5-&lt;\x8a\xdf\xc3\x1eG\x07\xd2\xb0"\xb8\xbc\x87\xc4\x0fp\xd1\xed\x86F\x06&amp;\xc7(s\xda\x86\x9a/\xb5I\x13HQ\xa4\'l\x99\xce\xe3\xf4\xedX~&amp;\xb5D\x99c\xd9\x84n\xa0u&amp;\xbc\xff\x00X\xd3Vk\xcb\xbb\x8b$dh\xd8\x072\x1e\x05Q\xd4n!\xb4\xd3\x1aw\x00o\x89\x82\xbep7c\xadW\xd3\xb4{\xb8l\x12\xed%\x12\\C\x02\x06,}\x1b,\xdfLw\xaa\x12\xc5xtY\xe67\x18{\x88\xf6\xb31\xc1\xce~\xed|\xa3\xfbIkz\x83\xcd\xabj~vV\xde\xda[4EM\xcc\x922\x10&gt;\x87\x90k\xe1\xcf\x14x;V\xbf\xbd7V\xf2l\x94jm\t\x96E-\xb9\x18\xeeV\xe3\xa0\x03#=\xb3PO\xa1\\\xf8;R\xd4\xfc7\xa8\xe9N\xd1\xeam$+y*\xf9\x81m\xce6\x11\x8eU\xf7\x10y\xed\x83Y\x97\x7f\x0e\xfcW\xe1_\t\xe9SY\xdb;\xfd\xa6K\x81\x0bE\x19\xf9\xc4ga\x07\x1dN\x1b\x91\xefW&lt;\x14&lt;).\x93\xaf\xc35\xc4V\xd6\xef=\xb0\x85\x99w9\x92KK\x80O\xb2\xef\x1bs\xebT~(\xc3\x17\xc4\xcf\x10\xf8F\xc7\xc1w\xe6[\x93\xa1&lt;E\x14\x12\x82\xe8\xae\xf6\x87=\x00\xc18\x1e\xb52&gt;\xa1\xe0\x1dr\xe6\xf3O\xb7o\xb7\xe96z}\xc5\x9b\xb1\r\x19\x94\xb7!\x8f\xb6W\xfe\xf9&gt;\x95\x93\xf1\xd3u\xaf\x89\xfc/\xaf\xe96E\x8d\xc25\xeb?\x95\xf2\x9d\xac\x17\xe9\x80["\xb5|`\xfa\xce\xad\xa3i\xde#hLV\xba\xb5\x90\x03 )h\x9ao-C\x0f\xf6Y7~\x15c\xc3&gt;\x03\xf0\xfe\x91\xa5X\xe9\xd7\xfa\x9f\xd9\xae,"\xba\xb8\x17H\xc1\xbc\xed\x97\nB\xaf\xa9\xda\xcb\xc0\xf4\xaa\x1f\x16&lt;9\xa7k?\x0e|/\xe2)#\xb8\x8b\xceI\xa2y\xd4\xf4.\xcc\xca\x1c\x7f\t\xf9\x19py\xcf\x1dk\x1f\xc1~\x1f\xd7&lt;A\xf1\x1bI\xd7|D#\xbcH\xef\x02\xea\xaa\x92\xfc\xb2\x84\x868\xc7\xcb\xee\x80\r\xdf\xefz\x1a\xd6\xf0\x1f\x87mt\xaf\x8bW^\x15\xd6\xacY\x8c\xf6W\x166q\xaae\xb7\x98\x1dQU{\xe5\x820?CO\xf1g\xc3;\xbf\x18|-\xf0\x17\x8a|9\xa3\xc9u|49t\xeddyl\xc4Ko3\x05l(\xe02\xc9\xf8\xe2\xbe\x1fpU&lt;\xbc\x13\x9e2;SZ%(\xab\xd3\xd4\x9a\x14\x17 \x91\xf7\xbe\xf7\xb6)\x93\x03*\xb4}884\x91\xa1\x8b\x82\xecr\x98\xa1\x19V\xeb\r\x8c\xe3\xee\xfa\xd0D\xd2H\\\xa0\n\xa3 S\x1d#\x8c\x96\x95\x81\xdb\xf7@\xeb\xcdixg\xc4W\xba\x05\xf2^i\x98/\x1a\x90\x8c\xdc\xe0\x9e\xf5\xea\xe9\xa3\xfd\xbf\xc1s\xeb\xb2\xca\xb2\xb11D\xcc[\x04;\x1e@\xf7\x19\xe9\\\x87\x88&lt;-\x05\xa5\xbf\xf6\xfc\xfa\x82\xc7\x1c\xff\x00*[\xae\x0b\xa9\x1e\xddFk#\xc3\xd7+\xa4k1\xdf\xc5m\x18d\x91[\xcb\x93\x91*\x83\x9c\x1fL\xf4\xafU\xf8a\xe0\xd7\xf1\xe7\x89\x97W\xb1\xd3\x90\xc1-\xce\x04$\xfc\xa5\x8e\x06\x07\xb6k\xe9+o\xd9{M\xfe\xcb\x8d\x8e\x99-\xd5\xeb2\x08-!C\xc3\x9e\x83\x8e\xbc\xd7\xa3\xfc6\xfd\x8c\xf5K\x08"\xbf\xd5l\xbc\x8b\x92H\x16\x9b\xc7\xcaz\xe1\x87o\xc6\xbe\x9b\xf8\x13\xfb&gt;\xc1c\xac\xc1i\xa7\xf8X\xfc\xa4A3\xc8\xbe\x9c\xe4{f\xbe\x98\xf8w\xf0{H\xf0%\xc4\x12\xc7e\xfb\xe9~wdL\xa8\x04\xfa\xf6\xafO\xfe\xce6\xed\x1c\x10\xa3\x06\x8c\xab;\x02\x0e\xdez\x1f\x7fj\xdd\xf0\xed\xb0Vi\x9d\xf7\x86\xe3\xee\xe3\x15\xa9|V+e\xba\x8c\x96\xe7\x18\x1c\xd3\xe2\x11\xdcNQY\x99If9\xe828\xfdiZ5\xfb|\x88c;%\n"R1\xb7\xd6\xba\x0b{;xnK\x14P"U*K\xfd\xef\\z\xd6\xd5\xa5\xc5\xacn\xb7\x86=\xb0\xb2\xe3\x07\x8c\x9a\xb7\xf6\xdf\xf4\xc5E^\x00\xc8\\t\x14\xf9e\x82c\x13\xc9&amp;AV\x00"\xe6\xb2u+\x1b\x89\t0\xcf\xb9\\\x10\xaaEc\x9f.\xdaSp\xcf"\x95\xe1\xa3h\xcf?Ja\xb1\xb4\xb9\xb5uTa*6\xe4lu\x15\x97\xa8G"N\x0c\xca\xa5Td\xe7\xa9\x15\xcbk\xda:\xc7r\xd2\x07_1\x94\xf4?+\xe7\xa7\xe5\\&gt;\xb5g-\xd4Kkm#:N\xc7(S\xee\x11\xdb\xdb5V]c\xfb*\x14\xb9\xb8\x98\x00\xcb\xe5\xba\x83\xd0t\xe6\xb1&lt;I\xac\xdb\xdc\x81\x1c\x17\xad\x1cc\xe7W\xc6\x17p\xe7\x19\xaf\x9d\xfe,xb}cW\xd5\x1d\x184z\x8c;&lt;\xb6O\x969\xd5S\x0e\xde\x80\xe3\x19\xf6\xaf\x98\xbe"\xfc2\xd6&lt;;oq\xae\xd8\xc8\xadiq#\x99\xe1B\x01F\'\xcbe\xc1\xe7\xe5\'$v\xaf&gt;\xf8w\xa4\x8f\x10\xf8\xd6d\xd5!\x9eG\x8a+\xcbx\xd1\xdf\x935\xbcO&amp;F{\xed\x8c\x1a\xbf\xe0\x8f\x10\xea\xfa\xff\x00\xc0\x1d6MV_\xb4\xc7\xe1\xcf\x1cj0E$\xf8\xf3646\xf3\x90q\xd7\x00\xb1\xfc\r\x1ag\xc3\r7]\xf8\xad\xe2\x1f\x08\xe8\x88/l\xfcQje\xd3e\x0b\xb4,\xb0J_\x1c}\xdd\x81\xc8"\xbc\x97\xc0\xfe-\x87\xe1\x8f\xc4o\xec\xdd~X\xd9\xec-P\xd9\x97 \x08\xe7Uu,\t\xeb\xca\x91\xf5\x04V\xb7\x8d|A\xa8[Y\xdb\xdb\xda\xb4I$Z\xb1I\xa2\x94\x8c]2FdL\xb1\xfe\x1d\xd8\x04{\xd7O\xf1SP\x98\xf8#\xc0\xde&amp;\xd54\x88a\xb8\xd3X\x86\x84&amp;VHf\x05\xca7\xb8\x04q\xfe\xcdbx\xfbH\xb1\xbc\xf8w\xa3X\xd9\xcb:\xc7*\xdf*\xc6\xd0\xb0?\xbb\x02P\x17\xdb/L\xbf\xd5nu\xbf\x84\xbaU\x84v\xf6\xe7T\xd2\xec\xee\x83J\x87\xfdbL\x8a\xca\xc0\xf79^=\xc5p\x16\x9e7\xd7m|\x13ei\xa8Z\xc9qcr\x16K\xb4 \x93\x11v\x12# \xf4\xc8\x90g\xd5\xb1^\xa9\xa2h\xcd{\xf0\xf6\xf3\xc5\xbe\x1d\xdb\n\xc3\xa8\xd9\xcd\xe7?\x01#\x9e\x02\x9c\x9e\xd8h\xff\x00\xf1\xf1\xeb\\\xb7\x8c\x93^O\x8bv&gt;87;\x12\xdf_\xb3\x8bSXO\xcd\x13F\x01r\x00\xe8\n\x82\ru\xbaW\xc4\xc3\xe1\xedgS\xd0\x05\xd0\xb4\x9a\xdepd\x91\x97\t2\x9c\x85*\x0fO\xbas\x8fZ\xfc\xfc\xf3I\xe3\x9ex\xa2^Pb\x85`\xa3\'\xb0\xe9Q\xfd\xe2d&lt;`g\x07\xbd)\x9d\x18\x05\x03\x198\xcf\xa50*\xc8\xfeoB\xa7\x19=\xc5:I\xf6\xb0\x03\x91\x9e\xd5\x1b\xcb\x04\xa0\x90G\xd7\xde\xae\xf8zhmn\x92\xeeuYc\x8e@\xcf\x13p\x1c\x03\x9d\xb9\xf7\xe9^\x8d\x0f\xc5\x9b]SL\x93H\xb4\xb3\x8a\xc6\xdeK\xd6\xba\x11+\x02y]\xa1~\xb9\xe6\xb2|q\xa7j\xf0\xe9\xdaw\x89^\xcd\xd6\xdfXY\r\xac\xa2P\xc8\xc26\xda\xf8\xed\x90x&gt;\x87\x8a\xc0\xd2\x10\xddM\x92\x01rv\xa85\xfaU\xff\x00\x04\xe1\xfd\x95m&amp;\xf0\x1ax\xa7^\xd0V+\x87u\xf2\xf7\x8c\xe4\x1e\xe0W\xdbzo\xc0}\x1a\x1dR=G\xc3\xbaDQ\x8b\x93\x86r\x9b\xb6\x909&gt;\xd5\xd2\xe9\x7f\x0bc\x1ev\xbbu\x04O$%cPx\xdd+\x9d\xa0\xe3\xbe:\x9a\xf4\xdf\x01\xf8wL\x8f\xc434\x0b\xe5\xa5\xb0\x0b\x0e\x13\x05\xf7.\x19\xbf\x0fZ\xefmZ\xcbO\xb7\x8c\x17\xf3\x1d]\x97c/%W\xe6\x1f\x815gL\xd4c\xd4\x19fd9\x04\x97+\xd1\x88\xe9\xf9V\xbd\x95\xb4\xb1\xb9\xf2e\x18\x90q\x83\xd0\xd6\xbe\x9d\xa7D\xb6\xf0\x19\xee7g$\x159\x04\x8e\xd4\xad\xaa[Cx`\x11\xb6LH\x10*u!\xaa\xed\xb4PO \xba\x95\x82\xabp\x18\xf65\xb1\x14\x114 y\xa5\x9c\x10\x02\xed\xad\x15\x9d-\xad\xe3\xb5\x91\x15\xd5P\xee\xc7;\x0f\xbf\xa5"j\x16&amp;\x01+\xe5\xe5f\xc7\xc8x\x1e\x80\xfaf\xaa\xb6\xa8\xf6b\'X\xdb\xca\x8eL\xb2\xaa\xe7p\xcf"\x9f\x1c\xef~\xa9oh\x9bN\xe2\xccKr\xa2\xa91\x9bt\x90Mo\xf2\x96\xdb\xbd\xc63\xf4\xa8\xae|\xbbGUKbT\x0eH5\x89\xae\xc3c\x93q$Nw\x0e\x145q\xfa\xcd\xc8\xb6\xb6k\xf8\x98\x82\t\xf2\xd4\x1d\xd8\xc7z\xe2\xe4\x9eE\xbfwI\x9d\xc8!\xf2W\x00\x02z\x8a\xce\xd4\xac\xe4\xb9\xdbi\x14\xa1\xf7\xaa\x9d\xa4um\xdd&gt;\xb5\x85\xaa[\x89\x85\xc6\x9f$\x1b\xb6\x01\xe5\x85\x1ds\xc5y\xff\x00\x8c,\xad"I%x\xd0H\xe72\x03\xca:\x0e\xa3&gt;\xb8\xaf\x19\xf1\x07\x83--\xf5\x98\xb4\xeb\x8b\xe4Kf\xbf\x0e\xfb0UU\xd7.\xc4\x1e\xd9\xc3\x1fa^3\x16\x93\x06\x9d\xe3\xeb\xbdv\xd3BKR\xfe#\x8eY\x1e&gt;~\xc8\xb3\xef\x85\xc6?\xdbV\xe7\xd35\xe5Z\xb4v\xff\x00\x0f\xfc)s\xf0\xff\x00J\x91\x9eA\xab\xb5\xd3\xaa\xb6\xe1\x1b\xca\x16\x16\xfa\xeeA\x8fl\xd5o\x0b|S\xd4\xb4\xcb\xab\x7f\x1b\xdb0[\xbd\x1f]\xbb\x8c,G\x83\x10P\xaf\x9c\x7fy\xbf:\xc6\xd7\xbe\x1a\xe9?\x11\xfc\x1d\xa8\xf8\x8a&amp;\x8f\xfb^\xceX.&amp;h\x98\x1c\xc12\xcd\x91\xc7p\xea\xdfB\xd8\xac\xed#G\xbc\xd7\xa0\xb7mN%7\x10j\x9eB\xa8l\x9d\xdeC1r&gt;\xab\x8f\xa8\xc5l\xd8\xe8\x1f\xf0\x9bx\x8fP\xf04:\xec\xe9h \xfbF\x94\xf7N\n\x89#\x88\x80\xad\x9f\xba\xacz\x1fJu\x8f\x8e\xb4}v\xcf\xc2:=\xa4qZC\xa5Z\\\xdb\xcf.\xdd\xed*\xbc\xf2\x82O\xa3|\xc4\x7f\xba\x82\xb8}\x1a\xe3\xc4\xba^\x9b\xaax2;\x03;\xea6\xff\x00\xe8O\x0be\x95\xed\xa5%Y\x08\xf5\xc1\xe3\xd8\xfaV\xa6\xa7\xe0\x1b\x1d3\xc2Z\'\x88t\xdf:\xe2\xcf]\xd2\xe4\x84\xa4\xdf7\x96B$\xb1\xb8\xc7nX\x03\xdc\xd7\xad|\x08\xb6\xd3\xbcW\xa4\xeb\xff\x00\x0b\xae,V\xdeo\x12\xfc&lt;\xb8\xbb\xd3\xbc\xde\x12;\xfb\x16\x8e\xe5\x80\x1d\xc1\xb7\x0e@\x1d@&amp;\xb8\xc8&lt;\x11c5\x9d\xd8\xbd\xd5\xa1\xfe\xd3\xb4&gt;U\xc4Q\xbe\x03\xc6\x07\xc9!\x07\x9d\xc4\xae\xdc\xf7\x11\xff\x00\xb5^\x7f\xe2_\x00x\x83U\xd6\xae\xac4\xcf\x13\xda\x8b\x9d6\xe9\xed\xee.d|-\xc4\\&lt;,\xa7\xf8\xb0\xaeA\xc7pE|\x88\x88\xa1z\x8f\xbfI\xd1\x08&lt;|\xd4\xd7#$\xe6\x90\x82T\x95\x19\xe2\x90\x87e\x0b\x85\x19\xa8\x9c4m\xc3g\x07\x90)c\xdd\xb5\xa5n\x81I\x02\x9b\x0cq\xee9a\x8cn\xa9&gt;\xd0\xc2\x0c$\xbc\x16\xe9\xb6\xa6\xd1\xec\xa5\xbc\x95b\x88\xb6\xe3 \xe0\xf1\xde\xbdsS\xd6|\x1b{\xf0WG\xf0\xd2\xd8M\xfd\xb7a&lt;\xaanI%&amp;Y.\x19\xdb\x03\xf8J\x8c\x1cw\xac?\x84\xde\x08\xbe\xf1g\x8d4\xfd\x1e\xd2\x03!\xb8\xbdH\xc1\nr70\x19\xc7\xd3\x9a\xfd\xc0\xfd\x98&gt;\x1e\xc7\xe1O\x05\xe9\x9aDr\x82\x05\xaay\x88\x83\x0c~A\xcd}\x15o\xa1\xa2\xda\xe9\xf7\x89d#\n\x02\xca\x92r\xdb{\x9e;\xe2\x93K\xf0\xe23\x8by\xa4\xe6K\xa5\x94)&lt;`6p}\xeb\xa7\x1aD\xcb\xa9\xc5%\xad\xb8\x8bb\x82\x19O\xde#\xb1\xae\x83JV\x10\xefX\xd2U8,z\xb7?\xd2\xaci\x9au\xad\x83\xcb%\xb1\'q\xe8G\x195\xb7\xa2\xc8d\x9ax\x9c."\x00\xaf=~\x95\xad\x05\xd46\x1b"\x93\x0b\xe5\x12F\xfe9\xeb\x8a\xce\x8e\xf9\xdai\xe1\xbb\x8c\xf9\x85\xbftBtS\xdf\xe9\xefV\x84wwWH\x80\xa2\x10\xb8\xdb\xbf\xb7\xf7\xabwL\x8ai\xe3\xc1\x90\x91\xb4\xeeu&gt;\x95~A\x1d\xacR$\xd1\x9c\xe5O\x07${\x91Ki#\xe7\xce\x8d?r\xe3\xe6\x05:\x11V\xa4\x0e\x89\xb2\xca\x10\xea\xbc\x86\x1e\xa7\xde\xa1[\xb8%\x86k\x98cT\xc3\x00D\x9f|\xb7\xb5T\xb9\x9fQ\xd9\x19\x8e7x\xcb\x86\xdcH#\x03\xadU\xbc\xb8\x96]\xcc0\xa1F[\xda\xb9\xaf\x10]&lt;\x97\x13E\x8d\xde^618\xcf\xf8\xd7\x19\xe2\x19\xe6\xd3\xad%7\x04\x14W\xc3c\xb05\xcbKu\x06\xa0\x8bp\xb7\x18\xc4AP/\xf1\x1c\xf45\x8a\xda\x97\x97u\x13Ch^B\xc4\xb6O\x1c{\xd5\rjv\xb8W\x9e\xc12\xca\xc6&amp;\x848V\x00\x0c\xe5I\xeb\xcfOz\xe0\xbco~\x17K[m*(\xe7@\x1cK\x160U\xb1\xcf\x95\xdf\xfd\xe0z\xf6\xaf\x9e&gt;1\xf8\xea\xc3F\xd2\xbf\xb3\xe3\xd6^\x18#\x95\x92\x1b\x82\x9f\xbd\x82C\x11\x19a\xd4\xed\'8\xf6\xaf\x9e~-\xfcD\xbf\xf8{\xe2\xa3\xa9^\xea\x11K\x7fua\x0b\xe9\xb3X\xe4Ax\xa7\x90\xca\x0fC\xeb\x9f|W\x9c\xf8g\xc6\xd0\xddx\xae\xe2\xfbY"\xe9/\xbc\xb7\xc1n&lt;\xd0\xe3\xe5\xcf\xd7\x8a\x97\xc4\xfe\x1e:_\x8a\xfco\xe1\xed\x10\x89m-\xe7Qh\xa8\xd9\x1fgy\x15\xbc\xc5#\xef09\xce;\n\xec\xbfe\xe5\xb5\xf0\x96\x9f\xe2M7\xc4",j\x96\xd1[X\xcb$\x81\xb7\xbe\xe7*\xbc\xf7\xcc\x95\x9f\xf1?\xc2\x16\xbe\x1cXu\x8d7\\-5\xed\xda\x1f/\x1b\x12&amp;U\xcb6}\x0e\xe23\xea1M\x8f\xc5\x1a\x16\x8d\xabG\xaa\xe9\xfag\x945\x0b?&amp;\xd8\xc9\xc3\x07w\x89\xe5&lt;\xf6V\x8d\xd4{1\xae?\xe2,\xdaF\x85a\xac\xd8i\xd0y(\xabo%\xab\x81\x86F29o\xd0\xe7\xf1\xaey\xf5\xbb][\xc2zv\xb5\xe1\x8b\xd6K\xebv\x9fv\x1b,\xa09f\xc8\xed\xc4\x99\xfcG\xadu\x9f\x0e\xbe*\xe8&gt; \xf8\x1b?\xc3\xfb\x89\x19\x1bM\xbf\xb2\x9a\xc2&amp;L:G#I\xe7\x00\xc7\xd1\xa5\x88\x01\xe8\xb5\xabc\xe2\xab\x9b\x8f\x1b\r\x17\xc27_g\xd4\x92\xc4\xdb\xe9R\x93\x92\x0b\xdbI\x0c\x80\x11\xfd\xe0\xce\xbe\xf8\x15\x89\xf0\xbbX\x9bI\xf8\x91&amp;\xad\xe2x\xe1\xb9\x17\x96\xf6\xb6\xf7\x06\xe1\x88P\xe4\xed\xdc\x0fN\xa1\x8e\x7f\xda\xae=\xfe \'\x84\xb5mC\xc2\xc3M\xba\xbb\x16W\xb2,N\xd0\xb7\x99\xe5\x16%7\xf1\x9c\x91\x9cg\xb6+\xe5\x14;\x86\xd5&lt;\xef\xa0\x8f."\xae9\xcdFH#\x929\xa7\x02c\x1b=E\x18`y\x04~\x14\xc9\\\xb0\xda\xb0\x90{\x9d\xb4&amp;\x16&amp;\xdc?\x84\xf1H\n\xb4\x81\x95\x08\x00s\xc58\xf9b\x1c\xaa\xf2\x1b"\x9di|-\xee\xb7\xa5\xc3g\x1f\xc2\xb5\xd5h\x1a\xe42A*\xdc\x02g\xf3Y\xe3\r\xd1P.M{\xbf\xec\x19\xa2\xcd\xe2/\x8ez\x1d\xb4V\xa8\xca\x8cn\x180\xe9\xb13\xcf\xe9\xf9\xd7\xed\x9f\xc0\x1f\x0e\xd8\xda\xe9\x96\xe1\x99$\xf3c@\\\x91\xf2\x9fA^\xb3y\xa6]\x19\xed\xda\x16F\x8e\xd62\xae\xa0\xfd\xfc\xd5\xfb\r&amp;(oe{\xb8\xc4j\xbbB\xe0ds\xefR\xea\xa2M&gt;a$rb=\x99\xc9=\x07\xadM\xa1\xea\xf1\xc9\n\xb4\xb22\xc8\x90 8_\x97\x859\x07\xd0\xd6\xba\xbb\xcdu\x14\x96\xe3\t\x80B\xff\x00x\xd6\x8d\xacwMv\xae\xa9\xb5O\xdf\xe3\xa8\xefV\xed\xf4\xc772=\xc3\xee\xdb\x11\x00\x96\xc8\xdc9-\xf4#\x8a\xb9b\x9a}\xcc\xb2K\x1c\xb1\xc8\xa8T0\x08I\xcf\xa7\xd2\xad\xb5\xb4Vq\xfd\xadB\x17\'\x82\x14\xf0*\xee\x8b&amp;\x0f\x96\xf3\x05\x05\x83`\x1a\xb7s\xa9\x00\xe2\x0f//!\xc9n\xd8\x15Z=U\xa0\x7f*v\n\x19\xb0\xb9\xe9V_Q\xbb\x8e\xdblsF\x03\x1e\xa1\rR\xb7\xbbx\xa62\xc8\xff\x00)lc\xd3\xde\x9fy\xacKj\x82\x15\xba\x03\xcaF!q\xc9\x18\xf4\xefY:\x9d\xf5\xf5\xd1\x92X$c\x929\xd9\x8f\xd2\xb1\xef\xc5\xf4\xab&lt;\xf0\x88\xd8\x05\xcb\xb4\x87n@\x1c\xe3\xd4\xd7/\xaeYI\x1d\xb2\xdc\xcf\x1eF\xed\xa5I\xfb\xcc~\xef\xd7\x9a\xe3\xb5\xcd=l%\xdfo\x12 \xea\x19$\xc8\x7fQ\x8e\xd5\x91)\xb9\xb6\x89l\xa3\x8b\x12\xe0\xbb\x803\x85&gt;\xbe\x95\x99v\x96\xb7\xf6R\\,\xe63\x1a\x97wS\xc6=k\x9d\xbdK\x0b\x99\xe5\xd2\xf5\x1b\x0c0\x98\xb9\x96&amp;\xc3r8)\xeb_\x1d~\xda&gt;\x1b\xbd\xf0\x85\xd4\xde \xb4\xbb\xb6y\xa43B\xd2y\x81K\xc6\x88X\x96\x07\x83\x91\xf2\xee\x1d\xeb\xe2\xef\x11\xfc_\xbd\xf1.\x99i\xa6]\xc3\xe6A\r\xac\x06\xde274N\x8a\xd9!\xbd\x8fj\xe1&lt;-\xe3\xdb\x9d\x1fXc}\n\xc9\xb6i\x1e1!\xe1\x0e\xf0A#\xae?\x9dz\xb7\xc1\xaf\x15Xx\xf7\xc4\xba\xaa^jB+\x85\xd2\xa6\xb8\xd3\xcb|\xcbs$hXE\x81\xc8$\x80\x00&gt;\xb5\x95\xae|Ny&lt;\x19\x06\xa7\xa4\xc3$W\xf6\x1a\xaa\xdc\xdc)m\xa3ia\x81\x8fa\xf3{\x0ekw\xe2?\xc4\x9dB\x0b\x8bH.\x18\x7fg\xdc\x94\xba\xb7\'\x93\xb4\x81\x95\x1e\xd9\xaeh\xf8\xcd\xe7\xbf\x86\xe0\xcc\xf2Ce+I\x0cO\xc6\xec\xca\xc4u\xe8\xa7\x8e}\rz\'\x8d\xa0\xf0\xe7\xc4?\x86I\xa9xd\xc8\xd2\xb6\x95#Mn0\xd2f\xde@d8\x1c\x9f\x93${W\x8bx3\xc40\xe9:d\x1ah\xd2\x9a\xe1\xed\xbcE\xb6y\x11\xf0\x1e\xdeHV,g\xa6K(#\xe9]\x1e\xa3y\x07\x82\xb5Y%\xb5\x95\x92\xdf\xfbNY$\xb7t\r\xb7z\xece\xc8\xec\x81A\x1e\xf8\xac\x03\xaf5\xbf\xc4\x0b\xddcI\xd7e\x0f\x0f\xfaF\x9b&amp;pwy\xa8\xea\x07\xae\t+\xf5\xe2\xbd\x9fJ\xf0G\xfc$\xba\\\xfa\xef\x87$\xf3\xf4\xeb\x9b&amp;\x92B\xd2\x8f29&lt;\xb4d\x00v\xc1G\x1f\xf0*\xe6&gt;"\xf8\x17\xc2\xff\x00\x13\xd2\xcbR\xfe\xd1\x97O\x92\x16\x9b\xceke\xc1\x95\x9d\x95\x88b:\xed\xe8=\xab\xe3\x05E\x8d\x0c\x8aA8\xedM\x0c\xd2\x8c\xe2\x96Y7\xc7\xe5y@\x10:\xfa\xd3f\x04\xba\x90:\n|\x84;\x82\x878\x1c\xe2\x9aYpF\xe1\xf9\xd3\x1f\xe4\x19q\x8f@{\xd4j\xee\\\x14\x18\xe7\xa1\xa9\x9c;\x15.\x83\x83\xfc=)\x1bdA\x9bj\x80F\t\xf4\xab\xfe\x16\x961\xae\xc5\x1c\xacH\x9aF\x8f\x9e\xc1\x863\xf4\xe6\xbe\xb8\xff\x00\x82e\xdaG\'\xc6+\x1b\xd9."\x12\xc0\x93\xda\xbc;\xc6\xf2\x15\x10\xef\xc7\\\x1c\x10\x0fs_\xb2_\x06b\x8e\x0b+l3\x04\xda\x18\x8fJ\xf6b\xcd\x040\xcd\x08\x00\x8c\x13\xbcu\xa85\x8b\xbb\xdd&amp;\xf2\xce\x01\x17\x9f\x1c\xf9\xf3\xcb\xf0w\x1e\x80Uy\xe6\xd4\xaf-\xd9g\x90?\xcf\x88\xd3\x1fs\xfckV\xcbOt\xbf7v\xd2\x12\x85\xfete\xe0\xf1]"\xcb\x02G\xe4:)eu\xd8\xe9\xc8\xc6zU\xf8\x10\\\xc4\x86\xdd\x98\x14F,@\xe9\xc5i\xa5\x8c\xd1\\\xa2&lt;\xe4\xa3\xc3\xf3\xfc\xbcc\x14\x8a-4\xe0\xd3\xc6\x9b\x03\xe4:\x9e\x08\xc7zk\xdf&lt;\xb6\xdb\x88\xc2\x86\xf9s\xfcG\xb0\xa6\xd8^\xdd\tv\x89\x1409\xeb\xc8\x1e\x98\xab\xfa\x84\xcb4\x88\xcd\xf3\t\x13\x19\xce)\x04q"\xa2)\'\'\xa1\xe7"\x9c\x93\xc0w\xac\xf17\xca\x0e\xcd\xa7\x8c\xf6\xa8\x01\x82 \xd6\xef&amp;Y\x81*I\xe3\xe9U&lt;\x97Ud\t\xbd[\x9d\xe5\xb9\xfa\n\x8a\xe6\xe5DrK\x02\x82\x14\x02J\xbezu\xac\x88uC\xf6\xa8\xe0h\xddA$\x82\xcaq\x9e\xd5CS\x96\xde\x19\xee\x15\xa3\xe6O\xba\xfdF\x7f\xa5q\x9a\xcd\xbajO"\xaa\xfc\xa4\xe5W8\xc0\x1d~\x99\xaeST\xb8\xbe\xb1\x8f\xccx^i\x0f\x96&lt;\xbd\xa4mP\xde\xbfJ\xab(\xb7\xb8\xdd;\xba\x1d\xa0\xc6dq\x80\x14\x0c\xe0\xafq\x9e3^y\xe3\xed\x1b\\\x8a\xc2O(\xba\xc3#\x97Q\xbfpR:2\xe3\x95\xf6\x06\xbeq\xfd\xa1&gt;\x10k_\x13\xbc/k\xaa^\x0b\x8b\x98!\x91\xd1\xe4L\x83\x1e:\xb7\xbe\x078\xf6\xae\x1b\xc1\x9f\xb1\xb7\xc1\x99\xbc2\xbaf\x89\xaa3\xea\x11\xc0\xdfh[\xc6U\xc4\x87\'i\xcfJ\xf0O\x8b\xbf\xb1w\x88\xad\xf5k\xbb\xbf\nA\x0c\xf1[;\x1b\x88\xd7\xefD\x14d\xb0\x03\xa8\x03\x9a\xf2o\x0cxpi\x1e$\x9a\xc2{\xf9\xac\xb58\x1f6\xae\x9f*\x15\x07\x91\x9a\xd2\xf1\x9c1Z\xeb\xda\x8f\x87\xe2\x84\xdb\xbc\xb7\tsj\xce\x98\x01_\x95\x07=\x87C\xfe\xe9\x1d\xab*\xce\xfbQ\xba\xd2\xd7\xc07\x8e\xcfwgy"\xday\xab\xd5q\x90I\xec3\xd0w\xaak\xabj6\xf7v\xa9\xa9\xe9\xc5\x88U%\x02\x90%UnF}+\xd1&gt;\x1bx\xb7N\xd1\xbcs6\x9c\x96\x8e\xd6\xa8f\x89\xad\x8c\x9bB\xc7p\xbf\xc2O\\\xab\x0cz\xed&gt;\x95\x85\x7f\xe1h&lt;!\xf1\x01\xe0\xd4/\x04\xd6K\x04R\xc2\xf3\x11\xf7\x1f \x86\xc7\xa18\x07\xd6\xb5\xfcOa\xa6x\x97\xc2\xb7V\x16\xebj\x9a\x8d\xb2\x16\xc2\xbeL\xc4\x8d\x8c\x07\xa9\xc9\x07\xf0\xaf;\xd3\xbc\x12\xe3U\x8a\x1b\xab\xe9!\x86I\x14;\xec,FF\xd2\xa0\x0eO\xcd\xf3\xe0v\x19\xaf^\xf8/\xabj_\x0e\xbcY\xa5x~\xf7T\x8a\xea\xd3y\xb5\x90\xc4\xd8\x8etx\xc8Rs\xeeq\xf5\xa3\xe2-\xae\x9f\xa6\xf8\x9ekxg\x8e\xfe\xc6Rn,^\t\xc0\xf2\xc4\x84\xb1\x8d\x80=W!~\xaaGj\xf8\x98\xe58\x03 \xfaP\xb3\x00&lt;\xb5\x8c\xf3\xc7J$\x04\xc8\x08\x1d\xa9\x0epp\xd88\xeb\xe9M\x1bX\x80FH#,N)$\x8dI\'&lt;{Sgi\x1b\x08P\xed\x0b\xc9a\x8a\x8e;x\xd9\x81\x8e&amp;8=\x8dXD\xed\xe5\xe3\xdc\xb7JG\n\xa8"q\x90\xcf\x82}\xaa9%h\xa7\xf3!r\xb8\x18\x05z\xfdk\xea\xbf\xf8%m\xe3\xcd\xfbQ\xe9\xd6\x93\xdcen\xb4\xeb\x85\x00\x9e3\xb0\xf3\xf5\xef_\xb6\x7f\x08_n\x83i\x1c\x9f1u*\n\xf2x\xf5\xaf[\xd3\x92\xee\xea\xda%\xb9W&gt;`\xda\x06\xd3\x91\xe9W\xb5\xf8\x88\xb9\x81\x17\x90\x92\x12\x8c}\x85g\xab[L\xe6\x19\xa7`\x15\xb76\x06\x01\xf6\xcdj\xda\xdc-\xb4H\x86]\xaad\x01@\xe7\xa9\xe35\xae\xb2+@\xa1\x08\xf33\xb8\x0e\xed\x8f\xe7Z\xdaQ\xbb\x11\xabD\x17\xf7\x87\x07\x9a\xbc\x92\xcc\xb1\x89f\xbatf\x8d\x83\xc6W\x8cc\xa6i.\xe3\x89\xe6\xdec?}\xba\xb7\x1fv\x9d\xe5\xc7$_f\xce\x0c\xaaI\x0cp\x14\xf6\xa8\xe2\x81\x84\xc9d\x97\r#\x96\x00\r\x98\xdb\xef\x9a\xd4\x11\x99bfd \xf4\x8c\x11\xf7q\xd6\x92\xdf\xed\x1eBL\xdbw&amp;x&amp;\x96;[\x9b\xa4\xf3\x1c\x01\xf3p\x01\xebM\x96\xc2\xda\x04w\x9aB\x8e\x14\x95Q\xceMg^^\xb5\x93(\x03\x84 \x8e:\x8f\xebTn\xae\x02*\x98\xa0\x89\xc1\xcf\x99\xc1\x18\'\xb1\xf4\xa8.\xa7\xba\x95\xc4B\x08\xe3\\`\x8f\xfe\xbfj\xcb\xd6-g\x92\xf5\x0bglc"\'Lc\x1d\xfd\xeb\x07Y\xd3m\xe2\x7f\xb6\xc2\x88\xa4\x9f\x9d\x9dJ\x8f\xc35\xc7j\xd3\xdc\xad\xea\xb4\xcaZ9\x15\x81m\x9c\x0fNj\x9c\x9aJL\x8f\x0cda\x90\x9e\xbe\xd5_Q\xf0\xf2\xcd\xa5\xcd\xa6\\\xdd\xc6&gt;]\xca\xe4dt\xe9\x9a\xe7\x13\xe1\xcd\x9e\x99\x05\xdd\x8b\x15h\'\x99\xb1\x13/\xdc\x0c\xb8\'\x9e\x99\xed^m\xf1\x07\xe0\x1e\x93u\x17\xfc$\xba4/\x14\xb2\xfc\xce\x81H%\x8f\x1d\xbb\xd7\x9b\xf8\xb3\xf6x\xf1"Z\xcb\xab\xdb$\xf1\x1b\xa4\xdd\xe6*\x96\xf9\x9b\xe5&lt;w v\xaf\x98\xbe4|\x04\x8c,7^)\xf0\xee\xcdN\xd2\xf0&lt;\x17\xf6\x8aTM\x18`p@\xeezb\xbc\x9b\xe2\xf7\x87\xdf]\xf1\x1c\xa7\xc9\x11\x97\xb0\x868&amp;\x03\xe5\x90\x12\x06\x01\xeer\xe4`w\x15_\xc3_\r\xae\xf5-&amp;\xd7^\xd0\xa1u\xbe\xb2\xb9h\xf5X\x1cmKs\x8c\'\xccz\x86\xe3\xe9\\\xff\x00\x8d\xfc3\x7fi\xac\x19\xae,\x9e\x02\xb6\xc0D\xa1N\x08\xdd\x86+\xeb\\\xfe\x93\xaa^\x0f\x13\xc8/\xae\xf6]\xdb\\@\xa8@\xc2\xc8PmU\'\xd7\x06\xbdk\xc3:\x02|M\xd4_\xc2\x12^\t\xef\xae\x92kFC\x1e\x19ca\xe7\xab/\xae\xd5S\xd2\xb8]\x07O\xb8\xb2:\x83\xeak*\xad\x91Sr\x06|\xc4B\xff\x003\x11\xd4c\x8f\xc4\x8af\xbbux\xb6\xf2\xdc\xe8\xec\x1d\xb4\xcb\xbf6\x0f\x97\xefm\xe1\x03\x7f\xbd\xdb\xd6\x9fyp\xf7\x1e)moK\xb8\x91\x92wK\xabx\xa39\x1c(;W\x1dy\x1d\xabwQ\xf1\xdc:\xad\x9c\x16\xa9\xa7E\x1bZ\xbc\xa0\xb8l\xef\x0eC\x81\x9fl\x91_"0%\x00\x14\xd2\xdbG\x03\x04u&gt;\xb4\x9ec\x0eQ\xb0Oq\xda\x98\xeeI\xf9\xd7\x7f8\xdd\xd3\x14\xa3\xad#\x00\xc9\xb4\x9e\xac(\x88&gt;X\x07\x04\x01\xfc]M3\xcd\x90nU\x90\x8c\x8cr\xb8\xa5F\x91F\xd7l\xe4RH\x1b\x00\xf9\x83\xf3\xa4\x0c\x12Q!&lt;\x05\xe4\xd7\xd0\xdf\xf0L\xedA\xf4\xcf\xda\xb3\xc2\xf3:n\xf3\x84\xc9\x9d\xd8\xd8\x1a"\x015\xfb\x7f\xf0[\xc4\xb0I\x1c1\x90G\xd9r\xac\x87\xa9\xf5\xafx\xd25\x88nV3\x10\xfe\x0e\x83\xb5i^Z\xdc\xdc\xfd\xf8\xf3\x1a/\\rA\xeb\x8a\xa4\x9aB\x8b\xe0\xeb\x08\x04\xe0\x10[\x8c\x1f\xebV\xadl\xee\x17YY\xa6\x01\xa0a\x82\x83\xf8H\xef]\x16\x9bb\x92\xb4s4g\x80@\xe3\xa5lB\x04F/*\x03\x85R\n\xe3\xb9\xe9\x9a\x92\xe1m\xe4\x8c\x8b\xa8\x8a\xf6,\x1b\x85\xa7\xce\xf1\xda\xdc*\xdc\r\xd1\t\t\x01y$c\xfa\xd3mnRk\x86\x8a\xddC\x16&lt;\x13\xfc#\xd0\xd5\xfb\x1d6\x0bw2\xc8N\xcc\xe5\xdb\xb8\xff\x00\xebV\x8d\xac6\xfe[\x18\x94\xb7~GQN[r\x8c\nD\xa7q\xc6:\xe2\x9c\xf6\x17\x13\xc2T&amp;\xcc7\x04\x0e*\x194\x19eF\x8e\\\xb9`G\x1d\xea\x86\xab\xe1\x87B\xd0\xa9\xf9\x9a\x12\x02\x01\x9eq\xfaV\x13h\x971O%\xbc\xc8\x14&gt;\tl\xf4\xc5%\xc6\x9f\xa8\xa4_+\x8c0;\xb7.1\x8f\xe5U\xda\xd6\xd6\xe6%\xf3\x0bp\xc3q\xee\x7f\xfa\xd5\x8b\xadZCz\xcffpbPv2\xf3\x83\xdb5\xc5k\x9a&lt;\xb6\xcc\xd1NX\xaf\xa6\xce\xde\xb5\x8f{n\xb1"\xcb\x04\xac\x8d\xb8.@\xce\xdf|S`\xd3\xc4\xfb\x99\xae\x8a\x9c|\xcf\x8c\xef\x1e\x98\xedM\xd54\x1b\x98\xec\xcc\xb6\xf2\x06)"\xf9O1\xdapO9\xcf\x7fAUt\xdd\x11\xd2\xd8\xad\xd8\xf3p\xac\xc5Y8\x14E\xe1[\'\xdfoq\n\xbc`\xe7\x07\xa2\xe7\xbf\xb5p\x9f\x17\xbe\x05\xf8g\xc6\xfe\x1e\xb9\xb6_\x0f\xc6\x1c\xc4\xa2\x06\x11\xf2\xa4\x1e\xfe\x95\xf2w\xc7?\xd9),\xe1\x9e\x08\xe0\x12Y\x18\x04V\xe1#\xc3\xc6\xeb\xc8\xc1\xfa\xf4\xaf\x99\xf5;mK\xc0\xda\xcd\xee\x81$W+g\xa8\x8d\x97\r\x03d\x8cq\xd7\xb3z{\xd6\x07\x8f\xed\xa3\xd4\xecR\xfa\xce\xecO-\x9d\xeb\xc5$\xac\xbb\x12h\x83\x02\ng\xee\x81\xfcY\xfb\xdc\xe2\xb8\xaf\x88^\x04\x17\x1a\x9d\x97\x8e&lt;1m\x9bMF\x10\xd7Q+s\x14\xc3\x82\x0f\xf7O\xd6\xac\x7fn\xea&gt;\x08\x9f\xc3~-\xd2nDz\x9c.\x90\\\x97\x07r\\C\x9c8=\xc3\x01\x8fC\x83[\x1a\xecS\xdcj\xd7\xfa\xee\x99k2Z^[\xcavg! s\xf3\x9c\xff\x00\x10%\x87=\xb6\xfbW\x1f\xe1\xf8u\x1f\tx\xa2\xd2\x1dB\xfaci\xa8\xc4\xed\x1a\xce&gt;Yc\xe4\x16\x04\xf5\xc6\x0e&gt;\x95\x07\x8c\x1e\x7f\x0b\xeb\x16\x91\xdb\xab\xb2En\x8d\x19\xe8\x06r1\xf9\xf1\\\xdd\xee\xadw\xa7I\xe5\xde]0\xdeK"\x93\x8cg\xaf\xd6\xbcuH\x03\x92)\x92\x02z\x0e\xf4\xd0\x187\x00\xe4P\xc4\tD`\xf59\xfcipw\x11\x8ei\xbd\x0e\xd3\xd7\xd2\x95&gt;\xf0\xf6&lt;\xd4S\r\xceT\x1e\xa0\x81\x8ao\x96\x8a\xf8\xf3\xf9\x0b\xd34?\n3N\x88\x02@\'\x03&lt;\x9fJ\xf5\x0f\xd9\x17Z\x9f\xc3\xbf\xb4\x17\x855\x98\xee|\xb6\xb7\xd5\xed\xd5\xdd\x9bj\xec,\x01\x07\xf9W\xee\xc7\xc3\xdcX&lt;7\x1b\xb6\xbd\xc2\xee\x18\xf7+\xcd{\xaf\x82u\xd8\xa5\xb5\x89\x04\x81\x9aE\xec:\xe2\xbb\x8bU\xbb\x9dQ\xd5X\x82:b\xaejp\xb2De\x8a\x00\x19YK1\x1f\xce\xa0\xb3\x0bg)\x9d\xbe\xfb}\xe0\xfd\x05ohWv\xb7\xf3\xfd\x8e\xcaUir\x04\x88\x1b8\x07\xda\xb7\xe4\xb56\xf7\x92\\F\xb9\x1b\x00E#\xabv\xfdj-Z\xdf\xed\xb1\xbc\x03\xcb\x0e@;I\xc0\'\xd0\xd6%\xa6\x9du\x17\x97u\xc7\x99.\xe1,x\'n:c\xd3\xda\xbaM#E\xb4S\x80\x8e\x1d\x93,@\xad\xa8\xf49$\x81cu%H\x1ftrA\xad=\'@KXZ7\x01\x9c\x8c\xaf\xb7\xb5\x13\xe8\x06\xc9\x9a\xe1\x1b,\xfdT\xf6\xa9\xf4\xf8]\xa0\xf2\xca\x86%\xb1\xc51\xb4\xa0\x933L\xf8\xe3\x80\xbd\xaa\x9d\xd6\x85y\x7f\xfb\xc0H\x03\x85\xc7_\xc6\xb9?\x19Z\xddhV\xf2Ko\x1aJ\xdb\x0f\x01\xf2s\x8a\xc0\x87\xc4\xb9d\xb9\xd5\x82\x18\xe4\x94\x841&gt;Fq\x8eqW/n\xb4\xab\xa8\xc4\xf6W\xe8\x08_\xbb\xb8u\xaaR]i\xadjR\xeaH\xd9W\xe6f\x8f\x07?\\W7\xe2[(\xae"i\x06\n\x03\xf2\xbas\x8fc\xfe\x15\xc6x\x8bLE\x9d\xe2C\xbddA\xb5\x94\xf4\xcf\xa5Af\x82\xde\xdcE\xe6\xa3\x11\xd0n\xf9\x8f\xe1P\xf8\x86\xf7r\xf9\xb7!\xb6K\x80c__Z}\x81\x9e\xe2\xd9R\x17\x11$x%[\xab\x0fO\xc6\xadZ\xd8\xc9wr\x1aH\xd9D\x80\x83\xc7\x19\x1d\xa9\xda\x8d\xaf\x98\xab\x022!bA\'\xda\xb8_\x89?\x0fm\xbcAi42\xdb\xaa\xee\x19\x8d\xcf\x07w\xf7\x87\xae+\xe4\xbf\x8d\xff\x00\xb2\xdd\xe5\xed\x9c\xba\x84V\x1bg\x98\xb9g\xc0\x01\x18\x03\xb5\x87\xa8\xce3_6x\xf7\xc1\x9a\x7f\x87\xf5\x87\xd1|C\xa70\x91\x94-\xe2*\xed\n\xc4|\x84g\xd7\xadp\xea\x8d\xe1K\xfb\xed\x04\x0f6\xc2\xf6R\xcc\xae\xc0\xec\xca\x8c\x15\xf6\xe4d\x8fZ\xe5\xfcW\xe1=B\xf2\xc6\xf8Ei\xba\xd02\xdd\xc2\xc3\x97B\x08\xde\x00\xff\x00\x81\x1f\xca\xb2|?\xe2-~KH&lt;!r\xa6eKI\xedA\x8cnw\x05\xb2\xa3\x1d\xc9\xec+\xde&gt;\'\x7f\xc15\x7fk\xff\x00\x0exgA\xd7&lt;}\xf0o[\xf0\xf5\x85\xc6\x90o\xb4\x8b\x8dM\x16%D\x8c\t\x1f;\x80(p\xc4\xe0\xd7\x9c\xeb_\x04\xfe$\xfcV\xd3l\xac\xbc\x1b\xe0k\xfdKS\xb0\xb6\x92\x1dCL\xd3\xec\xdaC:\xf9\x83\xf7\x85\xf0T\x8f\x98\xf7\xc7\x06\xbd\x9b\xc0_\xf0o\xef\xfc\x14\xe7\xe2v\x90n\xe0\xf8,\xba|v\xe4\x18\xa0\xd6\xb5\x18\xad\xe5\xd9 \x0c\xa7gP0;\xd7\xe63\x15\xf3\xc2\xab\x02\x19s\x9c\xf7\xa5\x041\xda\xad\xcf\xd6\x9a\xee\xb8(\xac\x03\x81\xeb\xd6\xa3\xe4)\x91\xd4\x9c\x0c\xe7\x14"\xac\x98p_\x07\xa9\xc7JrH\x0b\x94B&gt;^\xecq\x9a\\b&gt;\x1b\x96lTR\xdbH\x1c1\'\x00\xf3\x81P\xcd\xb8\xee/\xf2\xe0|\xbe\xa4\xd4\x901\xf2\xc3J\xa7\xf1\xa5U\x0e\xd9\xce\x14\xf5\xad\xef\x87w\x97\x1aO\x8c\xf4\xdd^\xdar&gt;\xcf\x7f\x0c\x84{+\x83\xfd+\xf7\x9f\xc0\x9a\xabj&gt;\x0e\xb0\x9e\xca\xef\x07\xec\x08\xfb\xd9\xb9\x05\x91p~\x95\xf4\x0f\xec\xf9iw&amp;\x96\x9a\x9e\xad)o(\x15\x8d]q\xbb=\xeb\xdb4\xabc=\xa1d\x88\x0f\x94\xe3\x8aY#\x8b\xcb\x96\'`I b\xab\xbe\x9bs5\xa7\x96\xb2\x82\xcerX.q\x8a\x9f\xc0\x9e\x08\xb4\xd2\xfcG7\x8b,\xcc\xa1\xef\xd7\r\x13\xb6q\xb7\xaf\x1d\xb3]\xd5\x9b\xdb\xdb\x17\xbc\x0b\xf2\xe0\x86F\x19\xe7\xda\xa9_\xac3\xc8u\x0bx\x88$\xed\x11\xe3\x9c\x9e\x9cVs\xc1u\xfd\xa0\x80\x00\xa8\xdc\xe7\xd4\xfaWW\xa5[\xa7\x99\x0c\x88G@\x19\x875\xa3;\xb3L|\xb5\xde\x164\x03\x07\x19!\xbaU\xfb)Dq\x86v\xf2\xcb\xf4_\xef}*\t\xef\x129\x0c\x85\xf7`\xe0z\x03\xdb5D\xebV\xf1\xbf\xef\xef\x91\x0e\xec\x85\xc8\x19\x15\x8fs\xf1/\xc3\xf0y\xc6\xe5\xd9\x99r\x01\x07\x83\xf8\xd7=\xe2\xcf\xdaK\xc2\xda-\x8b\xc5mw\xe6K\x1clL,B\x8e\x07\xafz\xf9\xd3\xe2\x87\xedo\xaf\\\xea/skj\xb1\xc4\xad\x80\xaa\xf9a\xfe\xd1\x03\xb5y=\xcf\xedm\xe2a\xaa\xae\x95\xa5[Br\xfc\xcd#\x1c\x12OaW&lt;=\xfbU\xda\xd8ZOu\xad\xdc\xdcn\xf3v\x95H\xd8\x95oP;\x8a\xce\xff\x00\x86\xe1\xd5\xdf\xce\xfe\xca\xb1q2JU\x11\xa3`e\x1e\x84\x1e\x9f^\xd5\xddx_\xf6\xc1\xb5\xd7e\x82\xd7P\xf0\xf4\x90\\O\'\xef\x16i@\\\xe3\x00\x80z\xf3]~\x9b\xf1\x0fL\xd5\xaf\xe3\x129\x87tK\xf7\xd7\xe4\xce\xee\x995\xb4m\xac5\x15Q\xf2\xc4\xfbO\xccN\x01\xcfNj\x1b\xfd\r&amp;\x8f\xec\xf3[\x90W\xa3\x93\xdf\xb5f\xc7\x15\xd5\xb4\xc2)#p\xac~o\x94\xf6\xae\x83M\x99\x12\xd5e\x8d\xd4\xa8w9\'\xfd\x9a\x8a\xf0\x19n\xf3o\x11f\x12\x93\x10\x03;\xb2?\x95J\xda\r\xb4J\xf0J|\xd4d\xc3\x96\xe4\xa1#\x9f\xa6+\xcd&lt;w\xe1t\xb5\xbaC\xe5\xf9\x91\x9c\xec\xf9w~\x9d\xeb\xe4\xdf\xdaO\xe1w\x87\xeeu7\xd3\xbcE\xa8\xda\xc2\xf1\xac\x93\xc3w+\x08\xf7\x84\xe0+\x1f\\g\x15\xe4&gt;\x0c\xfd\x90\xfe6~\xd1:\x1d\xdc\xdf\x02~\x08x\x83\xc5\x10Y\xde\xacv\x97\xf6\x1av\xe8\x07\xcd\xf3\x07\x94\x8e\x07+\xef\xf2\x9fJ\xfa\xd3\xf6.\xff\x00\x82\x04\xfe\xd0\xde*\xd7\xad\xb5\x1f\xda\xd7\xc2\xc3B\xf0\xd0\xb5\x9dd\xd2\xb4\xfdJ\x13wq\xbe"\x80;\x83\xf2\xae\xe2\x18\x8e\xb8\x15\xf4\xff\x00\xec\xff\x00\xff\x00\x06\xec|\x08\xf8K\xf1\x00\xf8\xfb]\xf1\xed\xcd\xde"\x89lm\xa0\xb2\x8c\xbd\xbe\xdc\x92|\xd7\xfe 8\x0c\x07\x07\x9a\xfb\x0f\xe3\xaf\x83\xff\x00f?\x0cx:\xdf\xc7?\xb5.\xa9\xe1\xf9\xb4\x8f\x0f\xd94k\xa9\xf8\xd6\xf2$\xb6\x84pX\xf9r\xb2\xc6_j\xe0\x11\x96\xcf@k\xf3\x9b\xf6\xd0\xff\x00\x83\x85\xff\x00\xe0\x9e\x9f\x074\x9dO\xe1\xdf\xec\xa1\xf0\xee?\x1ck\x9c%\xae\xa9\xa5iB\xd3HI\x03\x8d\xc4\xc8PI"0\xf9\n\xaeF\xdes_\x06|O\xff\x00\x83\x88?o\xbf\x1dk\x9f\xda\xbag\xc5\x8b\x1f\t\xdb)e\xb7\xb1\xd04\xc4\x08\xc9\xc673\x1c\xb9\x18\xc0\'\xde\xbf+\x9b\xcd!\x9bx\n</t>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00x\x00x\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfc2\x05\xdeV\xdc8\x00`T\xb0)\x95\xf0\xbdTg\x07\xa1\xff\x00\xeb\xe35\xfa\xdf\xff\x00\x04\x0f\xff\x00\x82\x7f\xc9\xa9\xe9\x12\xfe\xd2?\x14c\x98Y\xdf\xe5&lt;?\xa5\xcb\x1eU\x97\'\xf7\xa5O\x04\xf4\xc1\xfa\xd7\xecf\x85\xe1\r6\xca\xc06\x9d\x01\x85\x08\x1eX\xcf@\x00\x18\x1e\x83\xadgk\x17\x16\xba|\xe4\xcaK\xed\xeb\x96\xaecT\xf0\x9e\x87\xe2\xe7\x96k\xcd9YJ\x1f\x9c\xe3#\xe9\\\x1f\x89\x7fe\xdc\xce\xba\x97\x86\xaf\x8c\';\xf6\x0e7}q\\\'\x88c\xf8\xcb\xf0\xde\xe7\xed\x12Z\xc9s\x04n\xdbDjO\x1cV\x97\x83\xfe&gt;^^\xdc$\x1a\xeb\xc9hI\x1eb\xcb\xb8\x1a\xedn\xbe\'i\xefnc\xb4\xbeR\xac2\xac\xf8\xc1\xff\x00\xeb\xd7\x9f\xf8\xfb\xe3\x1cP\xd9\\]\xf9\xea\x91$L\x84\x992\xcc\xc3\xbf\xf9\xf5\xaf\x96&gt;$|Y}^\xfd\xd6\xd0.\xcc\xe4\x13\xea:\x9f\xadyg\x88\xbcUu\xad\xdf\x00\x92\x85P\xf8P\xc7\x92O\\W\xdb\x9f\xb3\x07\x83t\x7f\x03|\x13\xb7\x9e8\xc0\x9e\xe9\x0c\x8d\xe6/ \x9f_\xce\xb6\xdbS\x0b&amp;\xe6\xc0e\x00\x81\xb7\x86\xaf\xe6\xb1\xc1(\x02\x9e\x9d[\xd6\xba_\x84\x1e\x08\xba\xf8\x8b\xf1#B\xf0-\xa2\xe5\xf5]V\x18\x06\x0e\x0f\xccq\xc1\xed\xd6\xbf\xa8_\xd9\x13\xe1\xde\x95\xe0/\x85\xfe\x1d\xf0~\x85k\r\xbd\xad\x96\x9b\x0cq[\xa2\x00"\xc0\xce\x06:\x0e\x7f\x9d{\xd4\xbajZ\xe9\xe0FTq\xce\xd1\x8cW\x9cx\xdex-.Yp\x1d\xa4;@+\x9f\xc6\xb1m/\x9a;\x95\x86\xd9\x88U\x188\xe3\x9e\xf5\xdahb[\xe5@\xe0\x10\xa0d\xb1\xe9V\xf5\x1f\x0cX\xdff9\xed#\x91?\x8b \x1c\xd7\x01\xe3\x9f\xd9\xeb\xc1\xfe i\x9a+\x05\x82F\x1c&lt;j\x17\xf9W\x87|F\xfd\x96~!\xe9\xd0\xcc|\x17\xae\\\xb6\xd3\xb8F\x84\x95\xe3\xa6\x7fZ\xf9\xa3\xe2\xd7\x84\xbfh\x0f\x0e\xc7,\x1a\xe6\x81q&lt;K&amp;Y\xad\xc3\x03\x8f|W\xcf\xde.\xf8\x9a\xfa5\xd4\x96:\x86\x91=\xb3o \xfd\xa2"\x05g\xf8k\xc4\xdan\xb5\xafZ&lt;\xf3\xc2\xe0\xcc\x0f\xca\xdd9\xaf\xbb&gt;\x1d\xfc[\xd3/|/m\xa0Cz\x9e\\0"\xb9/\x92\xfct\xfc1\xfa\xd7Eg\xae\xc5z\xac\xd1\x9d\xb1\xaf\nOz\xfeqRF`\xd1\xb8(\xcb\x80\xa0\xaf\xde\xafh\xfd\x874\x85\x9f\xf6\x96\xf0t\xb3\xeco\xf8\x9dBq\xbb\xee\xe0\x9f\x98z\x11\xeb_\xd1\x9f\xc1\x9f\x1bK\xa5YZ[$\xc0\x88\x90*\x8e\x9f(\x1cg\xfc\xf6\xafb_\x89\x16\xd7\xb6\r,R\x05m\xb8l\x9f\x94\x9a\xe0\xb5_\x12\xad\xed\xe3L\xf9b\x1f\xefn\xe3\x9fJ\xb9\xa6\xa5\xbc\xd2\xaa\xe0\x0e\xecs\x9e\xb5\xd7\xf8z\x18\xf0\x15\xa4\xc8\xc7\x19=kV\xd9\x965\xce\xfcd\x9e\xd9\xcdT\xbe\xbeS#.\x03}W\xa5e\xce\x1a\xe1\x88\xda\xa3&lt;\x12Eck\xde\x07\xd2\xb5{wMB\xce\x19\x95\x90\x8c8\x1cW\xcd_\xb4\x97\xec[\xf0\xdf\xc7\xf6\x17\x13\xc7\xa1C\x03\xec\xc1h\xa3\\\x92{\xf4\xf6\xaf\xcf\x8f\x8c\x7f\xb2\xf6\xbb\xf0_\xc4\xd3j\x9a7\x9b\xf6hX\xec\x8c\xe4\xf1\xf4\xad\xcf\x83\xdf\x12oM\xcc\x16q\xeb\xb1,\xb1\x90|\xb3\x80G\xa8\xaf\xa0t\xbf\x8a\xf2\xe8\xfax\x97]\xd4!\x8e5\x1b\xd4\xcb:\xedonO\x15\xf8M#\xce\xea\xb2\x17\xc9\xc6\x08\xcdz_\xec\xa3\xe2\xab_\x06\xfcm\xf0\xd7\x88$(\xb2&amp;\xa7\x1a\xefq\xc2\xe4\xd7\xef\xc7\x80~(h\xd0hV:\x9c\xd7\xc3l\xd6\xe8[s{\x7f\xf5\xeb\xb6\x8f\xe3\xb7\x86\xa3\xb7U\x8eO1q\x85\x81$\xce\xf3\xfd?\xfa\xf5B\xcb\xe2%\xce\xb1~R;i\x124`\xcb\x16z\x0f\x7f^\x95\xe9\x1e\r\xd57\xa2\xcfw&amp;\xd2\xdc\xe0\x91\xcek\xbc\xd0o\xe1\n\xa8nT\x11\xd0c\xadk\x9b\xdc\x9f-~\\\xf4*j\xae\xa7umo\x08l\xeen\xe75FY\xa1\x91w\x8d\xc0\x91\xc6\x1a\x88\xec\xee.@\xdb!+\xd5\x88\xc1#\xf3\xae;\xe2\xa5\xe5\x86\x9d\xa7y\xc1C`0\xdb!\xc6O\x1d\x00\xeb_\x16\xfcz\x10x\x93T\xba[\x88\x08\x8d\xc1M\xad\x8c\x13\xed_\x1e\xfcX\xfd\x9d\xf5k\xcf\x10\x8b\xbf\x87\x97\xf7VwL\xf8co(S\x9e:~\xbd+\xc8&gt;%\xfc8\xfd\xa84\x1b\xbf\xb0x\xbbY\xd5\xef\xb4\xe8d\xea%fR=+\xe31.\xd8\xcbm\xdaI\x19\xe6\xb5\xbc#$\xff\x00\xf0\x94i\x91Z6$\x92\xfe\x15A\x8e\x8c\\a\x87\xa1\x1e\xbe\xf5\xfb9\xac^k\x9e\x1e\xf8m\xa3%\xbe\xa5))\xa6B%U&lt;\xb1\xd8+\x93\xd0\xbfi\x85\xf0&lt;\x85\xb5\xc4i\x02\xbe\x029\xc95\xe8\xde\x1a\xfd\xb7\xbc%\xab\xacp\xc6\xbeS\x80\x03nl\x11\xf4\xafX\xf0g\xeda\xe1\x89\x99\x07\xf6\xe4\n\xa2&lt;\x85\x0e\t\xc8\xe8\x0ek\xd6\xbc\'\xfbDi7\xf1"\xd9jh\xc6DS\xbd\x88\xe0\xf3\x91]\xa6\x8d\xf1\xa6\xc0\x81\x1b\xdf\xc4\xf2`\xe4\xef\x1c\xd6\x82\xf8\xfe\xcfT\x80\\4\xf1\xb0b~]\xf9\xc5^\xb0\xf14\x12G\xb50s\x8f\xbaA\xab\x13x\xa0Enm\xe1\x0c\xac\xfdX\x10\x0f\x15\xe3\xdf\x1d&gt;$-\x85\x8d\xc3L\xea#\x89p\x07\x18\xc9\xeak\xe4?\x1d\xf8\xcf\xfbZ\xf6E\xb2*\xe8K;K\xdc\x1e\xdc\xd6\x87\xec\xf9\xa4\xda\xf8\xb7\xc5\xb2O\xab[!X!-\xb8\xf1\xcf\xaf\xe9^\xb1\xae\xfc/\xf0\x8f\x8e,\x12\xc3S\xd2\xa0\x92&lt;\x1d\xaa\xb8\xeb\xeb_\xce\xc81\x10\xec\xa0\x1d\xcd\xe9[&gt;\x00\xbb\x1aw\x8dt}B|\x98\xa2\xd4\xa0g\x00\x02q\xe6\x0f^\x95\xfb[\xe3\xfd\x06\xe7W\xf8}a\x7f\xa5\x13\xb2M&gt;)\x11\xc7#\x065\xe0c\xa5|\xbd\xe3]\x16I5\tM\xc5\xa9\x8d\xf7\xfc\xc4\xc7\xf3\x13\xeb\\\'\x8b\xb5\x8b\xff\x00\x0c\x924\x9b\x16\x92\xe8\x0cF\xef\x9e\t\xfeu\x83\xa6x\xaf\xe2u\x95\xe4R\xcf\xae\xca\x972J&lt;\xbbhb\'s\x1e\x83\x0b\xc9&gt;\x95\xf4\xaf\xc2?\x84\xff\x00\xf0Q}sH\x8bX\xd1\xfc\x0b\x7f\xf6GR\xf0\xbd\xf3}\x9d\x99}vt\xc5u\x9a\xaf\x8f?l\xbf\x82\xf6\xe2\xe7\xc6\x9f\x0e\xa7\x91\x11wJ\xf1J\\\x81\xed\xb6\xaex\'\xfe\nW\x1e\x9f"Yx\xb9n4\xf3\x9c\x18\xe7\x84\xaf=\xf9#\x9c\x7fZ\xf7o\x86_\xb7o\xc3\x8f\x14\xed\xfb7\x88\xad\xdc\x85\x00\x818\xeb\xef]\xc5\xdf\xed-\xe1\xc4\xb2\xfbR\xeb\x16\xee\x1f8&gt;x\x04W\x89|^\xf8\xddi\xe2O&gt;\xd6\xd7PQ\x1c\x87\xe6\xd8\xc0\xee\xaf(\x93\\\xb3\xb6\x8aU\x89rJ\xe7\x05\x86\x1b\x9a\xef\xfe\x08x\xae=\x02\xda\xe0@TOs)\xc9\x07\x90\xa0p&gt;\x9c\x9a\xf5\xeb\x0f\x12\xc1)\x80J\xc4\x10\x99*\x87\x8f\xc6\xbf\x9e\x06T]\xaa\xb1\x05\xe7\x9cw\xa9\xa0\x9a[|\xcf\x00\x05\xe3!\xd0\x1fb\r~\xd9~\xc8^2\xd3\xbe)~\xce\xfe\x17\xd4\x85\xc2L\xa7N\x8a\x1b\x95\x07?\xbcQ\x83\x9fZ\xe9\xbe&amp;\xfe\xc92\xf8\xbd\x7f\xb5&lt;;d\xc2w\xe5A\x1c7\xe5^=\xe2\x0f\xd8;\xe3\xae\xbd#\xc3\xa2\xf8_\xcd\x93\xcc&gt;d\xb31X\xd1\x07r}}1\xe8k\xe9\xef\xd8\x07\xfe\t{\xe0\x9f\x87\x1a\xd5\xb7\xc4o\x8a\x96\xf6\xfe \xd7\xca\x92\x8f4a\xad\xad\x07m\xa1\x81\xcb\x0f^\xa3\x15\xf7\xc5\xaf\x864\xcbm-!\x82\xc9\x15"\x8c&amp;\xefQ\\/\xc4\x0f\x87~\x14\xf1#\x1b][L\x82T#\x00\xba\x8e\x95\xe5^"\xfd\x82\xbe\x02\xf8\xea\xed\x9fT\xf0F\x9e\xea\xdd\x0f\x92\xa3\xaf^\xd5\xc7k_\xf0H?\xd9\xe9\xf7]h\xdaK[\xbes\x9bg\xc6\xdc\xff\x00*\xe7/\xff\x00\xe0\x93\xde\x13\xb7\x7f/O\xf1&amp;\xa6\x14\xf4\x8f\xcef\x03\xf35\xcf\xf8\xaf\xfe\ts\x1d\xbe\x9eZ\xc3\xc4\xb7\x85\xd0\x12Q\xd8\xf3\xf4\xaf\x9d\xfe(\xfe\xc9?\x13\xfe\x10\xddI*4\xd7V\xfb\xf2\xac\xeaX\xed\xf49\xa8\xfe\x19\xdfO\xa6\xdf\xa0\xbd\x88\xf9\xe1\xb0\xc9\xb3\x15\xeb\xbaF\xb6\xf19\x91\xe5p\xe4\x7f\xab-\x8c\xfarzw\xaf\xc1\xd9\x00\x11\xe4\x0c\x1fZ|r\x04g%I \x06S\xe9\x8e\xdf\xad~\x92\xff\x00\xc1\r|o\xe2\xcf\x1aj:\xdf\xc1\xab\xbcO\xa7\xe9\xd1\xad\xe5\xac\xac\x99\xd8\xcc\xc7*3\xd0|\xbd+\xf5\xe3\xc1\x8d\xa5xSK\x85\xb5\xa5\xcb\x84/\xb5\xf6\x8crx\x18\xa8u\x8f\x1b\xbe\xba6[\xdb*D$\xf9QF?\x1a\xf5\x0f\x82\x1aL\x13\xe9\xf1\xcbqr2\xf2\x1e\x00\x04\xfb\xe6\xbdC\xc5\x89kc\xa2\x8d\x81[\x00\x02H\x03\x8e\xd5\xe4\x9a\xa6\xa9k\r\xd4\xd3\xdc\xcb\x85\r\x85]\xd9\x15gB\xf1\x14LV8\xfa\x03\x9c\xd7Sk{m*e\xd7q#\xa5Y\x80YyBQ\x18g=\x01\xedY\xda\x8e\x9fk#4\xd2[\x82\xc7\x8e\xbd+\xc6\xbe=x_H\xb8\xd1\xee\x1e\xfa\xdcma\x80\xa4g?\xfe\xaa\xfc\xfb\xf8\xdda\xac\xf8\x0f\xc4\xf3j\xde\x17\xd2\x1e\xf5crB\xaa\x83\xb0\xf6-\xed\xd6\xb2&gt;\x12h\x7f\xb4\xc7\xedq\xa9\xcb\xe1\xbf\x87\xbe\x0c\x96\xc2\xdb~\xcb\x8dI\xd0\x80\xb8\xc8$1\xe9\x8fj\xfcr2\xb1]\xa1NA\xe8jtm\x8cYy,\x06W\xd4\xf4\x03\xf5\xcf\xe1_\xae\x1f\xf0@/\x85\xbav\x81\xf0\x87\xc4\x1f\x16\xefet\xb9\xd6/\x1a;R\xcd\x8f\xddE\x95\x04{\x16-\xf9W\xdd\x1a\x8c\x82\xefUi\xc5\xc3J\xf9\xc3nc\xb5q\xff\x00\xeb\xae\x9fH\xb73\xda\xa3\xc7\x84\\d\x1c\xf3]_\x85\xbcm&amp;\x80\xa9\x1c3\x1c#|\xe5&gt;\xf1\xfck\xb5\xd4\xbe$\x1dKGU\xf3\xe6!\x94\xe4\xc8\xdc\xd7\x98\xeb~*\xf3\xf5/\xb2\x9b\x9c\x83\'\x007_\xadt\xfe\x0b\xbf+\x16$$\x96l)5\xdfiw\xb0\x98\xf7\t0\xca\x98o\x9b\x185d\xea\xf6\xa9(cr\xad\xb5FF:TS\xeb\xb6R\xab\x0f=@$d\xfa\x0e\xe6\xbco\xf6\x87\xf1\xbe\x9bg\xa4\xcd&lt;s\xa3\x18\xc9X\xd3\xfb\xc3\x8ek\xe3io\xec&lt;S\xe2{\xa5\xb9\x91\\\x07-p3\x85e\xe9\xb7\xf5\xaf\xb5\x7famg\xc0\xba_\x82\xa2\xf0\xa6\x89\xa7Ao*\xa9S\n\xaa\xa9\r\xc9$\xe3\xaer?*\xfeV\xd5\x1fhl\x8f|\xd4\xb6\x8d\x08\xb8]\xc8rYr\xc7\xb75\xfb#\xff\x00\x04r\x12\xcd\xfb(iv\xe2`\xb1\t&amp;\x00\x81\xd0oc\x8fj\xfa\xceWm)\xcb\xbc\xa6d*0;g\xd4\xd6\xee\x91\xe2\x08\x86\x9b\xe4B\xccY\xc7\r\x9eG\xe3\xe9T\x8e\xbfua~"\xba\x91Y\xb3\x92U\xb01W\xf5_\x8aW\xba~\x9a\xc9n\xab\xb7i\x1c\xbfZ\xe1\xec\xbe&amp;[\xc7~.\xb59\xd46\xf2~\xfdw\xde\x18\xf8\xcb\xa6\xa3\x89&gt;\xdb\x1e\xd1\x82\xa0H8?\x8duZw\xc6\xdd\x18\x92\xe6\xf5F\xe1\xce\xf6\x075;\xfc\\\xb1\x997,\xca\xdb\xb3\x8cK\x9a\xc8\xd7\xbe-Cgh\xfeE\xe0R\xcaw\x82\xdd\xbe\xbd\xab\xe6\xff\x00\xda3\xe3\xf6\x95\xa9\\6\x97ax]a@\x18F\xd89=\x81\x1dzs^\'\xa0\xf8\x9e-9&amp;7\xed\xb1\xee\xa6\xca(a\xb4s\x90\x08\xf7\xfe\x95\xf4\x17\xecO\xf1\x9a\x0b\xbf\x8b\xbf\xd9v7\x02X\xe1\x83\x0c\xdb\xba&gt;y\xc7\xe5_\xcf{\xc9\xb4\xaa\xba\x9fj\x96)$i\x122F\xc2\xd9b\xbdx\xed\x9f\xc7\xf4\xaf\xd7\xef\xf8"o\x88\xedo?fhtR\xcb\xe6\xd9\xdeK\x13\xa1|\x93\xc99?\x9d}\xb7\x7f\xa5#\xd8,\xca\x14\xc6\xca@f\xf5\xaebi\xb5\x1d\x11\x88\x17\x83\xcb\x04\x9c#\x1c\xe2\xbc\xa3\xe3\x1f\xc7\xe8\xbc\x14\x92^#J\xeb\x0eK(\xed\xd2\xbej\xf8\x87\xfb{|F\xf1E\xf8\xb3\xf0\xb8\xfb5\xa8$"\x96\xda\xe7\xa6}\x8f\xe3\\G\x89?m\xddw@\xb71\xeb\x1a\xe03\x8f\xbd\x18\xc9|\xfb\x9a\xe7\xad\x7f\xe0\xa4\xba\xed\xb5\xe7\x95$r\xc8\x17\x1c\xab\x1cb\xba=;\xfe\n\x8f\xa8\xd9\xc8\xb7\x0fe/\x95\xb7\x05\x00&lt;\x9a\xde\xd1?\xe0\xac\x16\xd6\xaa\x1a\xfe\xd6\xf0\x10w7\x90\x08\x1e\xc2\xa4\xd6\xff\x00\xe0\xa9\x16\x9e9\xb7{8\xa56\x91\xc9\xf2\xb0\\\xee#\xde\xb9\xc6\xfd\xa9~\x1f]Jn\xe5\xd4\xdaW\x03\xe5]\x9d\xcdr\xde)\xf8\xf7\xac\xf8\xc2\xeb\xcb\xf0|R\xa8\xde\x01\x92D;W\x1d\xc0\xf5\xaf\xb7\x7f\xe0\x92_\x06&lt;L/S\xc6:\xc4r\xca%\x98\xbb\xcf*\x9c\xbes\xd7?J\xfc8-\x1b\x0f\x99\xb1\xe8=h\x8d\xc26c`\xbbpy\x1f{\x1d\xab\xea\x7f\xf8&amp;\xff\x00\xed\xa1s\xfb5\xf8\xb1\xfc7\xa9\xce\xc3G\xd5\x183\xb0lyrd\x82O\xfd\xf5\xfaW\xedW\xc1\x0f\x8a\x9e\x11\xf8\x9f\xe0\xa8\xf5K\x0b\x98n\xa0\x96\x11\xe5\x94\x99H\x07\x1dq\xebY?\x12\xb4\rn\xda\xd5\xaf&lt;;y\tfn#\x95\xc7\xcb\xc1\xff\x00?\x85|C\xfbV]|]-\xfd\x8e|=h\xf2\xccN\xd2\x9b\x99\xa5\xe7\xfd\x9f\xeb\xeb_?\xdd\xfc\x0b\xf8\xc9=\x84\x97\xd7\x9e\x0c\xd4H\x94\xf2\x90Z\xb2\xae{n$\x7f\x9ek\x80\xd6\xbe\n|H\xd5\xf5S\xa7K\xa0\\=\xc2\xa1Qk\x0c.\xfb=\xf8\xe8\x7f\xc2\xaci\xff\x00\xb2\'\xc55\n#\xf0^\xa4\xc3h-\x8bW\x07\x9f\xc2\xbam\x0f\xf6\x17\xf8\xdf\xac\x94\xfe\xcc\xf0.\xa4\xec~\xe4kn\xdd\xfa\xe7\x8a\x9f\\\xfd\x82&gt;;hK\xff\x00\x13\x0f\x87\xfa\x8a\xafa\xe4\x12I&gt;\x9e\x94\xed\x17\xfe\t\xf9\xf1\xf2\xf5\x16T\xf8w\xa9)&lt;\xb6\xebb\x0e;v\xae\xef\xc1_\xf0M_\x8d:\x85\xf4Q\\\xf8\x12\xf8\x12A\x05\xa2 \x03_U~\xcf\xbf\xf0H\xbf\x15Owm\xa9\xf8\xca&amp;\xb4\x81p\xcf\x01\xc8\xfd+\xf4S\xe0g\xc0\xcf\x0c\xfc\x1e\xf0\xcd\xb7\x874=1T,*\xa6@2X\xd7\xf2Z\xe8\x1ct\xe9N\xd8\xe8\x8a\xe8:\x1c\xe3\xd6\x94L\xc2E{\x85-\xb9\xf3\xb7&gt;\x9f\xca\xbe\x93\xfd\x8e?\xe0\xa0\x1f\x11\xbfg\x8dR\x1f\x0f\xeaZ\xa4\x97z.\xf3\x88^f&amp;,\xfad\xe0\xff\x00\xf5\xab\xf4_\xe0w\xed\xf3\xfb?|C\xb2\x80\xf8\xc7\xfbv\xea\xe6r\n\xdbZ\x86a#\x0c\xfc\xa3i\xf7\xef_Z\xfc\x1e\xb2\xf8i\xe2\xd8a\xd7\xfc\x1d\xfb?0\xf3\x82\x91y\xad\xa8\xf9O8\xc9l\x9e=\xbdk\xbf\xd5\xfe\x11\xc5\xf1\n\xfa\x1f\x0b\xcb\xa7Y\x99\xa7l-\xb5\xa4K\xe5\xc68\xcb\x16\xc7A\xef^\x9b\xf0\xff\x00\xf6-\xfd\x9b\xfe\x14i\xc2\xe6\xd7\xc0\xfa~\xa3\xaa7\xcds\xa8\\[)%\xfd\x17\x038\x19\xad\xcb\xaf\x84\x1f\n\xe5S,\x9e\n\xd3\xc3\xe0\xe3l8\xdb\xf9\xd5\xff\x00\x06|"\xf06\x9a^h\xb4\xbbTr\xbf)HW#\xf1\xc5i\xdd\xfc\x07\xf0F\xb9\x7f\x1d\xc5\xef\x86\xed\xa5\n\x03~\xf1W\x93\xeb\x8cs\xd2\xba\x0bO\x82\x7f\x0f\xa2\xc0\x8fE\xb7i0\x06\xdf)H\x03\xf1\x15\r\xdf\xc2\x0f\x0b[\\l\xb6\xd1c\xc0\xe7x\x8dp&gt;\x9cU\x1b\xcf\x04[\xda\xc8"\x86\x10\xaaN\x0f\x1dkcN\xf0e\x9c\x05fX7\xb6\x07\xdf\x1c-\x7f\x16&gt;R.U\xae\x08-\xd0\x1e\xf4\xe17\x90\xbbz\x1e\xd9\xe7?\xe1K2\x83\x00fb7u\x1b\xaa\x15\x7f-T\t[\x8f\xba3\xc0\xae\xbf\xe1\x9f\xc6\xdf\x89\x1f\x0b5h\xb5o\x06\xf8\x8a[W\x8aEe \x96T\xc6y\xc6k\xee\x8f\xd9O\xfe\x0bo\xf1C\xc2Z\x1axs\xe2\x17\x88Rk\xff\x000\xa4\x17W;\xa3\xb7Px\x0c\xdby?N\xf8\xaf\xb6?f\x9f\xf8+w\x83\xefu\xdb?\x01\xfc?\xd5\'\xf1_\x8a\xb5v\xff\x00N\xbbu\x11\xc5\x18?{\x04\xff\x00\n\xe7\x8a\xfb\x87\xc3\x9f\x1c\xd3P\xd3#\x83U\xbe\x86\xe2\xe5\x94y\x8e\x8c\xbbW\xfd\x91\x8fNk\xa9\xf0\xff\x00\x8d[T\x9d`R6\xe3\xa9l\xe6\xbb=#P"\xd83\\c\x07\xe6\xf9\xbbV\xed\x87\x89\x1ak\xa0\xd6\xe4""\xe0\xb7\xad_\xb0\xf1\x0c\xbfhc\xe71S\xd5\xb7\x1a\xd2O\x12\t\xa0\x11"\xae\x01\xe4\x91\xd6\x92{[k\xe4I\xa38e==kON\xd3\x85\xcc\x0b\x14\xae\x00#\x9d\xd5\xfcC\xb4r\x1c*`\xfb\x9e\xd4\xc7C\n\xe48-\xedH\xa4|\xb28\xff\x00xS^!\xca`dSb\x85\x17q g\x18\xe9\xda\xa4Y\x0cd\x106\xf1\x8c\x8fJ\xe8\xbe\x1d\xfcO\xf1\x87\xc2\xfd}&lt;K\xe0\xcdzk\x0b\xb8\xc6\x04\xb1\x13\xf9\x1c\x1a\xfbW\xf6+\xff\x00\x82\xa2\xfcV\xff\x00\x85\x8d\xa5xg\xe2\xd7\x8e\xe0\xb2\xd1\x8b\x83=\xca\xae\xd36;\x12\x0f\xbf\x7fZ\xfd\x9b\xfd\x9f~=\xf8/\xe2\x1e\x8bm\x7f\xe1k\xa8.Rh\xc1\xf3\x96Q\x9cv?\xce\xbdtx\xca\x18\x99a\x8ea\xb1Tg\r\xcb\x13[6&gt;+\x9ah#\xb5\x8c\xe4\xe7#\x9e@\xef[\xab\xe2h\xa2\x81b\xb6\x94\x93\xdf\rVl&lt;G\xfb\xd1n\xaeH\xeb\x9c\xd7Am\xe2H\xed\xc2\x97\x94\x90\xa3\x90M_\x8f\xc5\x12\x15\x17))\x05\xbf\x83&lt;\n\xff\xd9'</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00\xbe\x00\xbe\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfc6.\x8c6+\r\xc3\xaf=i\xb3\x06 \x05\xf5\xa1HU!\x86O\xad \xea)r2~\x86\x98\xd1\xa39rq\x85\xe8O_jP\x8a\x88\x1aB0z\x02j9c\x11|\xca\xc0\x97\x1d\x01\xe9V&lt;9\xa6I\xab\xeaqXA:\xab\xcb*\xae\xf6l\x01\x92\x06I\xec=\xeb\xe9\xef\x0f$^\t\xf0\x1cVzl\xdeTP\xa3\xa5\xcc\xb1\x0f\x9eEf\xc3l=\xf8Q\x8cz\x8a\xe3u?\x88r-\xb5\xd6\x97\xe1\xa1\xe5C\x03\x19$%\xb3\xb9\x97\x80W\xd4\xe3\x9a\xe4\xf4\x87:\xee\xabu\xe2?\x18\xeam\xf6\x0b\x08\x9d\xe4\x96F\xdc\xf2\xb9S\xe5\xc41\xdc68\xaeBk\xeb\xef\x12\xea\xedyt\x86$\xdcB\xc6\xab\xf7\x14}\xd2\x07\xf3\xad\xb8\xa2\x8a\xc7\x06$3:\x00Xg\x18\xfa\xfaV\xb9\xf1\xc2\x89\x99.-\x84\xee\xb1\x81\x1cP\xcb\x84_\xa9\x1di\xfa?\x85u\xef\x13C\r\xb4\xda\xd9C,\xbc\xaa\xa3\x107\x1e9\xef\x8a\xf4\x8f\x85?\x05m\x1bV\x92\xcf[\xd7$x\x9a"\x17\xc9\\\r\xd8\xeas^\xab}\xf0\xb7F\x82\xe1F\x86eh\x1c,1\xb3\xc4w,\x98\xe4\x0f\xf0\xae\xe7\xc0?\x06|C\xe2\'\xfe\xc6m\xf2\xc4\xa0\x06b\x98\xdf\x9fO\\W\xbe|%\xfd\x83\xedui\xbe\xd5\xaeM%\xad\xb7\x9av\xb4n\x1bp#\x9e+\xdc\xbc%\xfb\x1a|$\xd3]\x84\xabp\xe6\xde2\x14\x00C1\xc7\xa5uv?\xb1\xe5\xb6\xb5$\xb6\xfe\x1a\xd0m\xf4\xed;\x00H\xf3\xc5\xbaY\x0f\xe3\xc8\x07\xd6\xbb\xed\x07\xf6L\xf8Y\xe1[K{;]6;\x8b\x98\xd9Y\xe4h\xc1\xcbz}+\xbd\xd0\xff\x00e\x7f\tjz|s^\xd8Z\xa0\xe7j, \x91\xf5\xaf\xe59\xca\x82\x19c9&gt;\x82\x9b\xe6d\xed\'\x9fLPA\x07i\x1c\xfaP9\x19\x14\xa0\x10rEG&amp;\x1a@29j\x1d\x83\x1d\x8d\xd0S%0I Q\xbb%q\x9a\xec&gt;\x18xZ\xd6]f\xd2MPn\x89\xa4\n\xca\x87\x93\xcf#\xda\xbd\xff\x00\xc6\xb6\x88t\x05\xd34\xc6\xda|\x90\x91\xc4G\t\x91\x80I\xf5\xaf\x13\xf1\x1b\xc3\x1d\xda\xf8kK\xc4de\xaenwtoJ\xc8\xf1\x1e\xafc\xac\xde\xa6\x9b\xa2\xef\x16\x96\xb1\x8f\x97\xa1\x95\xc7VaI\xa7\xe9Kn7\xeaR\x85s\xf3G\xb0\xff\x00:\xb1s\xa9\xce\xd6\xb3[[`4\x9c\xb3\x95\xfe\x11Rh\x9a:\xec\x172\xb6wu9\xc5z\xbf\xc2\xed\x1a\xd7V\xb8q\xa8C*\xdb\xc0\x80?\x96\xe3*OL\xe3\xa5{\xcf\xc2\xaf\x0c\xf8wC\x95\xa3\xd2\xb4Y\xae\xef\xae\xddL\x0c\xe0\xb0E\x1fz\xbe\x85\xf8c\xf03R\xf1\xab,PxS\xcfg\x8cM\xf2\x03\xf2\xb9\xe3\x1e\xc4W\xd2\xff\x00\t?eg\xf0\xc6\x9f\x142\xdb\x96f\xc3,3\x00\x19[\xfc+\xdd\xbc\x05\xf0\xc2[[\x04\xd3LJ\xea\xaaw~\xeb\x02?|\xd7\xa1\xe8?\x0f\xfc/\xe1\xbb7\xb9\xb8\xb7\x13\xee\x95\x89\xcae\x89\xdb\xd0{Q\x05\x88\xd4e\x0f\x1d\x81Xcm\xbf\xbb8/\xe9\xf5\xc5n\xf8sD\xd3\xd6b\xf3G"\xaey\x12\x11\xcf\xb6k\xb3\xd0|=\x1cj\xcfe\x06U\x87\xf1\x1e?\n\xfe6\xd1$Y7n\x1dx$\xf1P\xb8W\x95\x82\x92\t\x1f1=?\n\x99\x925\xc7\x94NPrZ\x90\x80\xbf!8\x04g4\x06\xb9\x8f\xe5@\n\xff\x00\x16}*9\x1dy\xc2r\x06i\xb8\xdc\x01&lt;\x13\xd34\xc5\xc2&gt;\xd7\x19-\xc2\xe7\xbdz\'\xc1MN\xc5&lt;gcy{\x0byy| \xe7k\x01\xc3\x11\xe9\x9a\xf4\xdf\x88_\x10\x9d\xad\xa6\xd3t\x8d\x8a\xa2#\xe6K\x90^\\\x8f\xe1\x1e\x9e\xf5\xe1\xf7\xda\xbe\xa3\x1c\xd2[\x87Uw\x97qn\xa4\x8c\xf4\xa3\xc3\xf70\xc7\xa8\x96\x94\xfc\xbe[nb\xbc\x13\x8e\x99\xad1\xa7^=\xe0gb\xe1\xcf\xc8\xa3\xf9V\xc5\x97\x82\xaf\xee\x18]5\xb1\x8dB\xe4n\x1d\x7f\xc6\xbb\x1f\x03|/:\x8a\x90\xd9p~c+\x0c(\x15\xee\x9f\x04\xbe\x0b\x0b\xeb\xc8\xb4\xad:)d[\x94\xdcs\x19\xc9\x19\xc7\xcc{{\x1a\xfa\xb7\xe0\x7f\xec\xfdwq\xaf&amp;\x9b\xa4\xe8\xd2\x04\xb7\x97\x1b\xdds\xbc\x11\xce=E}\xd7\xf0\x87\xe1~\x99\xe1\x0b\x04\x82\x1bX\xa0\x0b\x12\xfc\xc8\x83\xcc/\xed^\x95\xe1\xef\x0c\xc5$\xf1J\xf2\x19\x99\tm\xf2\x90H\xc7n+\xab:ki\xd6\x12\xcbnXH\xcc\n\xa8\x03\x9f\xc3\xd2\xa4\xb7\xd2\xe0\x86\xc7\xed\xb7V\xe5$f\xf9\x89o\xbd\xed\x8e\xd5\x1f\x94c\x8e\x08\xec\xe2\n\x9b\xf76F\t\x19\xadk\x0b\x18\xe4\x06\x13m\x82\xcaH\xc9\xae\x83J\x82\xe9"\xf2\xe2\xe0\x01\xfd\xfa\xfe5\xdc\x15O/\x04\xe7\x8c\x8e\xd4\xd6\x89J*\xf4\xf5&amp;\x85\x05\xc8$}\xef\xbd\xed\x8ad\xc0\xca\xad\x1fN\x0e\r$hb\xe0\xbb\x1c\xa6(FU\xba\xc3c8\xfb\xbe\xb4\x114\x92\x17(\x02\xa8\xc8\x14\xc7H\xe3%\xa5`v\xfd\xd0:\xf3Z^\x19\xf1\x15\xee\x81|\x97\x9af\x0b\xc6\xa4#78\'\xbdz\xbah\xff\x00o\xf0\\\xfa\xec\xb2\xac\xacLQ3\x16\xc1\x0e\xc7\x90=\xc6zW!\xe2\x0f\x0bAio\xfd\xbf&gt;\xa0\xb1\xc7?\xca\x96\xeb\x82\xeaG\xb7Q\x9a\xc8\xf0\xf5\xca\xe9\x1a\xccw\xf1[F\x19$V\xf2\xe4\xe4J\xa0\xe7\x07\xd3=+\xd5~\x18x5\xfcy\xe2e\xd5\xect\xe40Ks\x81\t?)c\x81\x81\xed\x9a\xfaJ\xdb\xf6^\xd3\x7f\xb2\xe3c\xa6Kuz\xcc\x82\x0bHP\xf0\xe7\xa0\xe3\xaf5\xe8\xff\x00\r\xbfc=R\xc2\x08\xaf\xf5[/"\xe4\x92\x05\xa6\xf1\xf2\x9e\xb8a\xdb\xf1\xaf\xa6\xfe\x04\xfe\xcf\xb0X\xeb0Zi\xfe\x16?)\x10L\xf2/\xa79\x1e\xd9\xaf\xa6&gt;\x1d\xfc\x1e\xd2&lt;\tq\x04\xb1\xd9~\xfa_\x9d\xd9\x13*\x01&gt;\xbd\xab\xd3\xff\x00\xb3\x8d\xbbG\x04(\xc1\xa3*\xce\xc0\x83\xb7\x9e\x87\xdf\xda\xb7|;l\x15\x9ag}\xe1\xb8\xfb\xb8\xc5j_\x15\x8a\xd9n\xa3%\xb9\xc6\x074\xf8\x84w\x13\x94VfRY\x8ez\x0c\x8e?ZV\x8d~\xdf"\x18\xce\xc9B\x88\x94\x8cm\xf5\xae\x82\xde\xce\xde\x1b\x92\xc5\x14\x08\x95J\x92\xff\x00{\xd7\x1e\xb5\xb1\x0c\xb0\x00.\x916\xc6\xcb\x81\x9e2k\xf8\xc8\xf3I\xe3\x9ex\xa2^Pb\x85`\xa3\'\xb0\xe9Q\xfd\xe2d&lt;`g\x07\xbd)\x9d\x18\x05\x03\x198\xcf\xa50*\xc8\xfeoB\xa7\x19=\xc5:I\xf6\xb0\x03\x91\x9e\xd5\x1b\xcb\x04\xa0\x90G\xd7\xde\xae\xf8zhmn\x92\xeeuYc\x8e@\xcf\x13p\x1c\x03\x9d\xb9\xf7\xe9^\x8d\x0f\xc5\x9b]SL\x93H\xb4\xb3\x8a\xc6\xdeK\xd6\xba\x11+\x02y]\xa1~\xb9\xe6\xb2|q\xa7j\xf0\xe9\xdaw\x89^\xcd\xd6\xdfXY\r\xac\xa2P\xc8\xc26\xda\xf8\xed\x90x&gt;\x87\x8a\xc0\xd2\x10\xddM\x92\x01rv\xa85\xfaU\xff\x00\x04\xe1\xfd\x95m&amp;\xf0\x1ax\xa7^\xd0V+\x87u\xf2\xf7\x8c\xe4\x1e\xe0W\xdbzo\xc0}\x1a\x1dR=G\xc3\xbaDQ\x8b\x93\x86r\x9b\xb6\x909&gt;\xd5\xd2\xe9\x7f\x0bc\x1ev\xbbu\x04O$%cPx\xdd+\x9d\xa0\xe3\xbe:\x9a\xf4\xdf\x01\xf8wL\x8f\xc434\x0b\xe5\xa5\xb0\x0b\x0e\x13\x05\xf7.\x19\xbf\x0fZ\xefmZ\xcbO\xb7\x8c\x17\xf3\x1d]\x97c/%W\xe6\x1f\x815gL\xd4c\xd4\x19fd9\x04\x97+\xd1\x88\xe9\xf9V\xbd\x95\xb4\xb1\xb9\xf2e\x18\x90q\x83\xd0\xd6\xbe\x9d\xa7D\xb6\xf0\x19\xee7g$\x159\x04\x8e\xd4\xad\xaa[Cx`\x11\xb6LH\x10*u!\xaa\xed\xb4PO \xba\x95\x82\xabp\x18\xf65\xb1\x14\x114 y\xa5\x9c\x10\x02\xed\xad\x0f\xb4\x1b[h\xad\xbc\x91.\xd1\xc8A\x9d\xa7\xde\xbf\x8c\x84E\x0b\xd4}\xfaN\x88A\xe3\xe6\xa6\xb9\x19\'4\x84\x12\xa4\xa8\xcf\x14\x84;(\\(\xcdD\xe1\xa3n\x1b8&lt;\x81K\x1e\xed\xad+t\nH\x14\xd8c\x8fq\xcb\x0ccuI\xf6\x86\x10a%\xe0\xb7M\xb56\x8fe-\xe4\xab\x14E\xb7\x19\x07\x07\x8e\xf5\xeb\x9a\x9e\xb3\xe0\xdb\xdf\x82\xba?\x86\x96\xc2o\xed\xbb\t\xe5SrI)2\xc9p\xce\xd8\x1f\xc2T`\xe3\xbda\xfc&amp;\xf0E\xf7\x8b&lt;i\xa7\xe8\xf6\x90\x19\r\xc5\xeaF\x08S\x91\xb9\x80\xce&gt;\x9c\xd7\xee\x07\xec\xc1\xf0\xf6?\nx/L\xd2#\x94\x10-S\xccD\x18c\xf2\x0ek\xe8\xab}\r\x16\xd7O\xbcK!\x18P\x16T\x93\x96\xdb\xdc\xf1\xdf\x14\x9a_\x87\x11\x9c[\xcd\'2],\xa1I\xe3\x01\xb3\x83\xef]8\xd2&amp;]N)-m\xc4[\x14\x10\xca~\xf1\x1d\x8dt\x1aR\xb0\x87z\xc6\x92\xa9\xc1c\xd5\xb9\xfe\x95cL\xd3\xadl\x1eY-\x89;\x8fB8\xc9\xad\xbd\x16C$\xd3\xc4\xe1q\x10\x05y\xeb\xf4\xadh.\xa1\xb0\xd9\x14\x98_(\x927\xf1\xcf\\Vtw\xce\xd3O\r\xdcg\xcc-\xfb\xa2\x13\xa2\x9e\xff\x00Oz\xb4#\xbb\xba\xbaD\x05\x10\x85\xc6\xdd\xfd\xbf\xbd[\xbadSO\x1e\x0c\x84\x8d\xa7s\xa9\xf4\xad(\x84V\xa5\xa3\x9e\x12NA\xc0nzw\xaf\xe39\x0e\xe1\xb5O;\xe8#\xcb\x88\xab\x8esQ\x92\x08\xe4\x8ei\xc0\x98\xc6\xcfQF\x18\x1eA\x1f\x852W,6\xac$\x1e\xe7m\t\x85\x89\xb7\x0f\xe1&lt;R\x02\xad eB\x00\x1c\xf1N&gt;X\x87*\xbc\x86\xc8\xa7Z_\x0b{\xad\xe9p\xd9\xc7\xf0\xaduZ\x06\xb9\x0c\x90J\xb7\x00\x99\xfc\xd6x\xc3tT\x0b\x93^\xef\xfb\x06h\xb3x\x8b\xe3\x9e\x87m\x15\xaa2\xa3\x1b\x86\x0c:lL\xf3\xfa~u\xfbg\xf0\x07\xc3\xb66\xbae\xb8fI&lt;\xd8\xd0\x17$|\xa7\xd0W\xac\xdei\x97F{v\x85\x91\xa3\xb5\x8c\xab\xa8?\x7f5~\xc3I\x8a\x1b\xd9^\xee1\x1a\xae\xd0\xb8\x19\x1c\xfb\xd4\xba\xa8\x93O\x98I\x1c\x98\x8ffrOA\xebShz\xbcrB\xad,\x8c\xb2$\x08\x0e\x17\xe5\xe1NA\xf45\xae\xae\xf3]E%\xb8\xc2`\x10\xbf\xde5\xa3k\x1d\xd3]\xab\xaamS\xf7\xf8\xea;\xd5\xbb}1\xcd\xcc\x8fp\xfb\xb6\xc4@%\xb27\x0eK}\x08\xe2\xaeX\xa6\x9fs,\x92\xc7,r*\x15\x0c\x02\x12s\xe9\xf4\xabmm\x15\x9c\x7fkP\x85\xc9\xe0\x85&lt;\n\xbb\xa2\xc9\x83\xe5\xbc\xc1A`\xd8\x06\xad\xddk\x02\xd8\x81\xe4\x96v\xe4\x90;W\xf1\xb4\xa8\xb1\xa1\x91H\'\x1d\xa9\xa1\x9aQ\x9cR\xcb&amp;\xf8\xfc\xaf(\x02\x07_Zl\xc0\x97R\x07AO\x90\x87pP\xe7\x03\x9cSK.\x08\xdc?:c\xfc\x83.1\xe8\x0fz\x8d]\xcb\x82\x83\x1c\xf453\x87b\xa5\xd0p\x7f\x87\xa5#l\x883mP\x08\xc1&gt;\x95\x7f\xc2\xd2\xc65\xd8\xa3\x95\x89\x13H\xd1\xf3\xd80\xc6~\x9c\xd7\xd7\x1f\xf0L\xbbH\xe4\xf8\xc5c{%\xc4BX\x12{W\x87x\xdeB\xa2\x1d\xf8\xeb\x83\x82\x01\xeek\xf6K\xe0\xccQ\xc1em\x86`\x9bC\x11\xe9^\xccY\xa0\x86\x19\xa1\x00\x11\x82w\x8e\xb5\x06\xb1w{\xa4\xdeY\xc0"\xf3\xe3\x9f&gt;y~\x0e\xe3\xd0\n\xaf&lt;\xda\x95\xe5\xbb,\xf2\x07\xf9\xf1\x1ac\xee\x7f\x8dj\xd9i\xee\x97\xe6\xee\xdaBP\xbf\xce\x8c\xbc\x1e+\xa4Y`H\xfc\x87E,\xae\xbb\x1d9\x18\xcfJ\xbf\x02\x0b\x98\x90\xdb\xb3\x02\x88\xc5\x88\x1d8\xad4\xb1\x9a+\x94G\x9c\x94x~\x7f\x97\x8cb\x91E\xa6\x9c\x1ax\xd3`|\x87S\xc1\x18\xefM{\xe7\x96\xdbq\x18P\xdf.\x7f\x88\xf6\x14\xdb\x0b\xdb\xa1.\xd1"\x86\x07=y\x03\xd3\x15{S\xb9Vt\x99\x88m\xc9\xc1-\x8c\xd7\xf1\xdcr\x9c\x01\x90}(Y\x80\x1eZ\xc6y\xe3\xa5\x12\x02d\x04\x0e\xd4\x8788l\x1cu\xf4\xa6\x8d\xac@#$\x11\x96\'\x14\x92F\xa4\x93\x9e=\xa9\xb3\xb4\x8d\x84(v\x85\xe4\xb0\xc5G\x1d\xbcl\xc0\xc7\x13\x1c\x1e\xc6\xac"v\xf2\xf1\xee[\xa5#\x85T\x118\xc8g\xc1&gt;\xd5\x1c\x92\xb4S\xf9\x90\xb9\\\x0c\x02\xbd~\xb5\xf5_\xfc\x12\xb6\xf1\xe6\xfd\xa8\xf4\xebI\xee2\xb7Zu\xc2\x80O\x19\xd8y\xfa\xf7\xaf\xdb?\x84/\xb7A\xb4\x8eO\x98\xba\x95\x05y&lt;z\xd7\xad\xe9\xc9wum\x12\xdc\xab\x9f0m\x03i\xc8\xf4\xab\xda\xfcD\\\xc0\x8b\xc8I\tF&gt;\xc2\xb3\xd5\xad\xa6s\x0c\xd3\xb0\n\xdb\x9b\x03\x00\xfbf\xb5mn\x16\xda$C.\xd52\x00\xa0s\xd4\xf1\x9a\xd7Y\x15\xa0P\x84y\x99\xdc\x07v\xc7\xf3\xadm(\xdd\x88\xd5\xa2\x0b\xfb\xc3\x83\xcd^IfX\xc4\xb3]:3F\xc1\xe3+\xc61\xd34\x97q\xc4\xf3o1\x9f\xbe\xdd[\x8f\xbbN\xf2\xe3\x92/\xb3g\x06U$\x868\n{Tq@\xc2d\xb2K\x86\x91\xcb\x00\x06\xccm\xf7\xcdj\xc4\x91\xc8\xa5\xee $g\x08\xbb~\xee+\xf8\xef`J\x00)\xa5\xb6\x8e\x06\x08\xea}i&lt;\xc6\x1c\xa3`\x9e\xe3\xb51\xdc\x93\xf3\xae\xfeq\xbb\xa6)GZF\x01\x93i=XQ\x10|\xb0\x0e\x08\x03\xf8\xba\x9ag\x9b \xdc\xab!\x19\x18\xe5qJ\x8d"\x8d\xae\xd9\xc8\xa4\x906\x01\xf3\x07\xe7H\x18$\xa2Bx\x0b\xc9\xaf\xa1\xbf\xe0\x99\xda\x83\xe9\x9f\xb5g\x85\xe6t\xdd\xe7\t\x93;\xb1\xb04D\x02k\xf6\xff\x00\xe0\xb7\x89`\x928c \x8f\xb2\xe5Y\x0fS\xeb^\xf1\xa4k\x10\xdc\xacf!\xfc\x1d\x07j\xd2\xbc\xb5\xb9\xb9\xfb\xf1\xe64^\xb8\xe4\x83\xd7\x15I4\x85\x17\xc1\xd6\x10\t\xc0 \xb7\x18?\xd6\xadZ\xd9\xdc.\xb2\xb3L\x03@\xc3\x05\x07\xf0\x91\xde\xba-6\xc5%h\xe6h\xcf\x00\x81\xc7J\xd8\x84\x08\x8c^T\x07\n\xa4\x15\xc7s\xd35%\xc2\xdb\xc9\x19\x17Q\x15\xecX7\x0bO\x9d\xe3\xb5\xb8U\xb8\x1b\xa2\x12\x12\x02\xf2H\xc7\xf5\xa6\xda\xdc\xa4\xd7\r\x15\xba\x86,x\'\xf8G\xa1\xab\xf6:l\x16\xeee\x90\x9d\x99\xcb\xb7q\xff\x00\xd6\xad\x1b(\xad\xb6\x9f+$\x1f\xefW\xf1\xbc\xa4\x01\xc9\x14\xc9\x01=\x07zh\x0c\x1b\x80r(b\x04\xa20z\x9c\xfe4\xb8;\x88\xc74\xde\x87i\xeb\xe9J\x9fx{\x1ej)\x86\xe7*\x0fP@\xc57\xcbE|y\xfc\x85\xe9\x9a\x1f\x85\x19\xa7D\x01 \x13\x81\x9eO\xa5z\x87\xec\x8b\xadO\xe1\xdf\xda\x0b\xc2\x9a\xccw&gt;[[\xea\xf6\xea\xee\xcd\xb5v\x16\x00\x83\xfc\xab\xf7c\xe1\xee,\x1e\x1b\x8d\xdb^\xe1w\x0c{\x95\xe6\xbd\xd7\xc1:\xecR\xda\xc4\x82@\xcd"\xf6\x1dq]\xc5\xaa\xdd\xce\xa8\xea\xacA\x1d1W58Y"2\xc5\x00\x0c\xac\xa5\x98\x8f\xe7PY\x85\xb3\x94\xce\xdf}\xbe\xf0~\x82\xb7\xb4+\xbb[\xf9\xfe\xc7e*\xb4\xb9\x02D\r\x9c\x03\xed[\xf2Z\x9b{\xc9.#\\\x8d\x80"\x91\xd5\xbb~\xb5\x16\xado\xf6\xd8\xde\x01\xe5\x87 \x1d\xa4\xe0\x13\xe8k\x12\xd3N\xba\x8b\xcb\xba\xe3\xcc\x97p\x96&lt;\x13\xb7\x1d1\xe9\xed]&amp;\x91\xa2\xda)\xc0G\x0e\xc9\x96 V\xd4z\x1c\x92@\xb1\xba\x92\xa4\x0f\xba9 \xd6\x9e\x91\xa0\xc3g\x19I\xc0by\x1e\xc3\xd2\xbf\x8b\xe6+\xe7\x85V\x042\xe79\xefJ\x08c\xb5[\x9f\xad5\xddpQX\x07\x03\xd7\xadG\xc8S#\xa98\x19\xce(EY0\xe0\xbe\x0fS\x8e\x94\xe4\x90\x17(\x84|\xbd\xd8\xe34\xb8\xc4|7,\xd8\xa8\xa5\xb6\x908bN\x01\xe7\x02\xa1\x9bq\xdc_\xe5\xc0\xf9}I\xa9 c\xe5\x86\x95O\xe3J\xaa\x1d\xb3\x9c)\xeb[\xdf\x0e\xef.4\x9f\x19\xe9\xba\xbd\xb4\xe4}\x9e\xfe\x19\x08\xf6W\x07\xfaW\xef?\x815V\xd4|\x1da=\x95\xde\x0f\xd8\x11\xf7\xb3r\x0b"\xe0\xfd+\xe8\x1f\xd9\xf2\xd2\xeeM-5=ZR\xdeP+\x1a\xba\xe3v{\xd7\xb6iV\xc6{B\xc9\x10\x1f)\xc7\x14\xb2G\x17\x97,N\xc0\x92@\xc5W}6\xe6kO-e\x05\x9c\xe4\xb0\\\xe3\x15?\x81&lt;\x11i\xa5\xf8\x8eo\x16Y\x99C\xdf\xae\x1a\'l\xe3o^;f\xbb\xab7\xb7\xb6/x\x17\xe5\xc1\x0c\x8c3\xcf\xb5R\xbfXg\x90\xea\x16\xf1\x10I\xda#\xc79=8\xac\xe7\x82\xeb\xfbA\x00\x01Q\xb9\xcf\xa9\xf4\xae\xafJ\xb7O2\x19\x10\x8e\x803\x0ekFwf\x98\xf9k\xbc,h\x06\x0e2Ct\xab\xd6\x93\xac0\x89%\x94E\xbb\xa6\xee\xf5\xfcY\xb7\x9aC6\xf0\x15~\xef\xcb\x8c\xe7\xd2\x90\xa2\xc4\x16A\xd7&lt;\x8ad\xc25V\x98G\x96 \xe0z\xd3v\x072\x15@6cn_\xf3\xa0`)\x0c\x0f\xfc\x07\xa5+\x08\xc1\x04/\xf0\xf5\xa8\x9d\x87\x96\x1dH\xe1\xfa\xe7\xde\xa3i&amp;e#\'\x19\xe7\x1e\x94\xf8B\x91\x86\xc1\x1e\xadRE\x0b\xcd \x11.v\x9c\x81RCiw(o5Q\x147$\xf1\xc5[\xd3\x12H\xf5\x08\xbc\x86\xe3p\xe5\x7f\x8b\x9e\xd5\xfb\xc5\xfb1[I\xa9x\x0bF\xb8b$2i\x96\xcaT\xf2G\xc8+\xec?\x86\xdaDv\x1aT(p\xc3\xcb\xc8U^\xfe\x95\xde\xda-\xf4\x81\r\xaa\x80\x00\xe5E_\x82\xd2$\xbbR\xe5\x0epN9\xc1\xa4\x9a8\x1fV\xf2b\x00\xacd3\xf3\x8d\xbfQV\xec\xa1x\xae"0\xc9\x88\xd1\xb9\xc1\xea3\xcdo\xack%\xaa\xa5\xa9\x05I\xdcI=j=@\xb46\xeec\x88gp \x81P\xb5\x9a\x9bEv\xc9ea\x8cu\xe6\xb5t\xd9~\xcd\xa5F\xf00b\t\xc8\'\x91N\x82\xf6\xd68\x1a\xf2\xf2\xe4(\'!\x8b`\x0f\xa9\xf4\xac\xfb\x9f\x8b:K\xdb\xf9Zq&gt;b\xca\xcb\xb0\xa6\xee\x17\x83\xfa\xd7\xf1\xbf\x90r\x1c\x8d\xb8\xe3\x14\xa8\xc1\x14\x94\xc1\xff\x00z\xa3\x92II\xc1\xdb\x86\xe0{S[\x04l\xc6\x0fs\xebL\xdc\xea\xdb\x02\x9e\xb8\xe9Dsb\\8\xe0\x1e\x01\xefC\xc2\x17#8Rs\x82zS\x02\x92\xc64\x19\xdd\xc6EJ#\x11&amp;\xc22{\xe2\x9d\x14\xefj\xc1\xe2\\\xf23\xedL\x96\xe2[\x81\x86\x93\x04\xb7@j\xe6\x88\xb2\xc9\xacAl\x1b J\x8a1\xdf$f\xbf\xa2_\xd9C\xe1\xf8\xb3\xf0&amp;\x80/\xad\x97?\xd96\xb2\xc4\xd1\x9c\x82\xbb\x14\x9a\xfa\x93\xc2\xd6)\xa7\xc7\x1a\x98\xcf*6\x8d\xbc\xd7g\xa7\xa7\xee\xd5\xa38\'\xb1Z|6kw8\x16\xc0\x87\x12\x02\xf9\xe8F{T\xb7\x1aZ}\xa2Ic\xfb\xd2\x91\xb8\x8fj\x9e\x0bK{+D,\xc7p\x07 \xf6\xad=:)\x1eveB#\x10\x91\x1a\xe3\xef\x12:\x8fZY\xc2\xf9b\xdeLn.\x06\t\xe6\x9a\xdb`G\xdeHX\xc1$\x81\xd2\xb0u\x7f\x1a[X\xab7\xda#\xf3c\xf9\x82\t\x008\x1d\xf1\xeb^a\x0f\xc5Y\xa1\xb9\xbf{\x9b\xcf\xf4\x8b\r=\xe7\x96\xdc\xc9\x94\xb8\x87\x93\x81\xeeG\x15\xe0)\xfbOO\xe1\xdb\x81\xa6Mr\x97+km\x0b"\xa3\x12\xd9\x9d\x04\xacI\x1dp\xd9_\xaa\x91\xda\xbf\x9c\x99\x193\x80\xbc\xfd*&gt;\xa3\xe5l\x1f_Jpl\x00\x19\xf3\xff\x00\x01\xa8\xe4\xe6E#\xb7Z\x1c\x12~^\xfd)\xa4\xc8\x8aK 8\x1dE&amp;\xe3(\x01\xb8\xc9\xefCb\x01\xb9ON\x94\xf8\xdc\x15\xf3\x1c\xe3=I\xa4\x90\xec`\x00\xce{z\xd3&lt;\xf4\xc1*\xab\xc7\\v\xad\xcf\x04\xe8\xb2\xea^ \xb1\x85J\x83%\xe4HC\xf4\x19p9\xaf\xe9\x7f\xe0\x8e\x8f\'\x87|\x01\xe1\xbd5l#\r\x16\x85j\x92\x14\x04`\xf9k\x90A\xe7\xf0\xaf[\xd2\xf5(\xd5VI$\x87\xe5Lm\x1dEu\x9a&gt;\xb3cs\x1a\xa4\xc5\x91q\x82\xfe\xd5\xa9\x06\xa0\xac\xe2e\x91~S\x85\xda8#\xde\x9f\r\xcd\xbc\xd7~Q\x9d0NI\xdc*\xfe\x9dj\xd2M h\xfe\xea\x12\x82A\x8d\xdc{\xd3\xe2\x9dl\'\x86\xca\x07\xdd\xb8\xe5\xdb\xfb\xa7\xd2\xa47*\xf28\n\xa7\xe5\xe4\xf7\x03\xd6\xb0\xbe#jph:,\xd7p\xce\xc0\x95\xc9#\x9cq\xe9_*\xfcW\xf8\xa7\xaeh\xbe.\x8dDJ"\x99K\xdb\xdfBK\x02G&lt;\x81\xc7\x15\xc6\xeb\xff\x00\x13?\xb1/ \xd7"\xb3\x92&amp;\x96\xd1\x8d\xec%\xb3\xe7\xc6\xdcq\xf4\xeb\x8a\xf1-z\xde\xfaMkQ\xbe\xd0\xef\xe3\xfb%\xec\xb1K\x07\x9aF\xe4Q\xe6\x80\xbfNs\xf8\xd7\xe1\xf4\xbc3g\xde\x98\x98\\\x97\x07\x18\xc9\x00v\xa4f\x91\x9c3\x0c&amp;~\\u\xfciprx\xa5 \x8021\xcd\x0c\xca\xbf{\xd3\xa7\xad \xd9\xe6\x9f1HV\\g\x1d)\xbb8eQ\x95\np[\xbd6`&lt;\xb5\x04\xed\x04\xf44\x97\x0e\x0c"Rz\x1cqD0\x88\x95\xb6.\xe5e%\xb3^\xd3\xfb\x07|5O\x8a\xdf\xb4\xb7\x85\xfc!uf\xd2B\xfa\xacS\xdc\x81\x93\x84Y\x14\x90\x7f\x0c\xd7\xf4\x1d\x1f\x8c\xf4m\x13O\x8eF\xd6c\x81\x160\x8b\x1a\xb8\xc8\x00*\xff\x00![\x16\xff\x00\x13\xb4m&gt;\xc5/n5R\xf1\x1ca\x94g\xf3\xa9\xbf\xe1\x7fE\xa4j0\xd9\xc9|\x1c\xdd\xc4M\x98\xc0\xdb \xf6\xf5?J\xec|\x1b\xf1\xa3H\xd4\xd7\xcf\x13(q\x81$L\xe3 \x13\x8c\xe2\xbaG\xf1e\xbd\xb3\x8b\xc5\x98\x80\xcc8#\x1c\x9e\x95\xd1\xe9^(\x92\xfe5D\x94\x06\\op~\xe8\xf4\xad\x15\x9aXc\x12\t\xf2Y\xbe]\xc3\x93\xf4\xa8\xe4\xbc\xff\x00D+tv\xb3B\x02\xed&lt;\xe7=\ry\x0f\xc6/\x1e\xcbk\x1d\xc2i\x9a\xe4kr\xa3o\x913\x8d\xac=9\xef_&gt;I\xe3\xc6\xb0\xd6m\xb4\xcf\x13i\x02\xe7I\x9eS\xf6\x84e\xfd\xe5\x84\x8cx\xc1\xee\x8d\xdc\xf4\x02\xafx\xfbN\xf0\xae\xab\xa6-\xa6\x85q\x19\x8dWu\xb9\xc8\'\xcb\xfe4c\xd8\x91\x90+\xe7\x8d[J\x97\xc1w\xd2\xa7\xcd;\xef1\xb4l\xd9\xda9 \x8fj\xfcG\xb8\x98)\xd9\xe5\x93\x9e\xe0Rp\\zm\xe4\xd2\x06\x0cvdq\xd2\x94\xa9\xce\x1b\x8fsQ\x94\x90?\xcf\xf7GN:\xd14\xc8\xcf\xb4\'\xf0\xe2\x87\n\xd8\x01G+\x8f\xbdJ\xec\xa8\xc1s\x91\x8e@\xa8\xee7 \x0c\x06W\xb0n\xb4\x9b&lt;\xf8\x01\x19\x008\xcd9V06\x02\xc7&lt;b\xbe\x8d\xff\x00\x82z\xf8\xd6O\x86\x9f\x12\x17\xc7\x91E\xbaH\x19\xe2A\xb3\'\x91\xd3=\xab\xef?\x1c\xfe\xd4\x8d\xa8\xf8r\xd2{\xcb\xa7Gp\x1c}\x9a|\x9c~\x15I\xff\x00k\x83\x0e\x94\xba\\\x1e,YZx\x1b\xfd\x15\x8e\xe9\x07\x1e\xc7\x83\xefW\xbc\t\xfbQ\xea\x1e)\xd1\x9bG\xbb\xd6\x02_\xe9\xcef\xd3\xdaIG*\xbc\x94\xfcq\x8a\xf5o\x0b\xfe\xd5\xd6\x9e!\xb1[\xdd\x13T\x8a+\x9d\x86)\xed\x1c\xec \x91\xb4c=H&lt;\xd7\xb0\xfc7\xfd\xa9\xed\xf58-\xe1\xd6\xa5\x0e\x8d\x84\x9d\x84\x80\xec#\xb9\xafx\xf8w\xf16\xd7Pq\xf6K\xc8\xdaD\\2\xe3\xefg\xa7\xe3^\xa9a\xaa\xb6\xa3o\x0c\xb1\xbe\x1dp_=*Mf\xe0\xcc\x8f\x03NPyg\xf7\x9bq\xce?\x9dx\x97\xc5\xaf\x86:\xca\xcf\xfd\xa1qt\xedm3\x8c\xc8\x10\xf1\x93\xeb\\\x86\xa9\xf0\xf3PM2}Ji-\xda8\xe2)::\x0f\xde!\x18\xc8&gt;\xb8\xaf\x9a\xbfi\x1f\xda\xff\x00\xe1o\xc0+\xb1\xa2[\\\xbd\xf6\xbc\xeb\xe5\xc5\xa3\xe9\xcb\xe6\xc8s\xc0\xca\xaeJ\xe4\xe0d\x8a\xf93\xc6\xfe/\xfd\xad&gt;=\xdd\rz\xdeh\xfc\x19\xa7\t\x19\xad\xe0\x99\xb7K9=\x0bzq\xda\xbf9\xa6\x8dB\x93\x91Q\xc4\x01\xf9I\xc6F)\x1c\xa4O\xb5Ss\x0fAB\xbb\xc8x\x1c\xfa\x1a\x1c\x80s\x11\xcb\x0f\xbc\x0fAQ\xca\xe5\x06\xff\x00\x91\x89\xf7\xa4)\xe6(iI\\\x11\x92;S\xca\xaa\x8cF:\x0c\x9c\xf5"\x8c\x07\xc6\xee\x7f\xd9\xefM\x99QJ\xc5\x1c\x8a\x01\xe4\xf3M\n\\\x98\xf0W\x03\x96=\xeb\xd2\xbe\x05\xf8\x93\xfb\x1e[kx\x8b\xae\xeb\xf0\xd3\xe0s\x8c\x8f\xe7^\xaf\xf13\xc6^&amp;\xba\xd2\xfc\xff\x00\xb6H\x96\xe6\x14\x07\xca&lt;\x02\x0f\x00\x1f\xe7\\\xaf\x84&gt;"\xc9e\xafC\xabx\x9e\xfe{\x94g_&gt;\xde\x17\xc1UR&gt;\xe9\xfaw\xae\xeb\\\xf8\xb1tn"\xd5|=\x7f%\xb4\x89\x11H\xe4r\t\x08G\xdd`?\x9dA\xe1/\x89\x1e \xd2\xb5#\xa8[\xdeI\xe6I .\xa1\xcf\xef\x0f\\{}k\xd8\xfe\x1c\xfe\xd6:\x96\x98\xe2\xd3_P\xc9\xd1\'Y\xb0\x7f\xdd#\xfa\xd7\xda?\xb1\xaf\xedYe\xe2]th\xaf\xa9\xac\x92K(6\xe8d\x04\x02\x07\x1c\xf7\xe6\xbe\xf6\xf8e\xaa\xff\x00hi\xc5\x85\xc3\x1c\x80\xd2n?u\xbd+\xd3\xedlm\xf5;B\xc9n\xac\x85\x02\x92G\x7fZ\xc0\xf1\x84\x1a\x17\x86t\x1b\xbb\xcf\x1aj\x96\xd6\xbadp\xbc\x97s\xdf`E\x12*\x92I\'\x18\xe0\x13_\x9c\xff\x00\x18?j/\x8e\xff\x00\xb6w\x89/\xfe\x11~\xc5q\xc9a\xe0\x9bi\xa4\x83Q\xf8\x8dq\x16\xd5|\x12\xae\x96\xd9\x18|\x0c\xe1\x81&lt;\xd7#\xe1\xef\xd9#\xe0\xc7\xc0X\xe4[\xc9\xc6\xb5\xe2i\xc1{\xddcUc5\xc4\x92\x1f\xbc\xc3=0y\x00TZ\xd7\x81\xd7Z\xdal!\x0b\x1a\x1f\xbc\x91\xf5\xfc;W\xe2\x8c\xa7l`\xe38l\xe3\xf1\xa6\x9b\x83\xd3\xc9\x03=8\xa6H\xa4K\xb9z\xb2\xe34+\x05\x18\xce\x08=\xfb\xd2c\x04\xb0\xee9\xa0D\x0b\x05f\xeb\xd6\x983"le#ss\x9fjW\xdc#\x0eT\xe4p\x06)X\xecp\xe0\xf3\x8ej\'\xc6L\x8e1\xdcf\x89d$\xe4\x1c\r\xbdMt&gt;\t\xd5_O\xb9wl\x8eT\xaex\xcf\xd2\xbe\xca\xf8)\xe0\xcf\tx\xff\x00\xe1\xdd\x9d\x94\xb6\x89,\x92g\xcc\xf3\x9cn\x12\x01\x9d\xa4~\xbfJ\xc3\xf1\xc7\xec\xcc\xd7\xde4\x87\xc3\xfe\x1a\xb4Y\xef\xefp\xc9\x12.\x12\x04\x07\x92q^\x99\xe1\x0f\xf8%\x0f\xc7\xef\x1e\x80\xf2\xeav\xd6P\x1d\xaa\xaa\xc3\x198\xe9]T?\xf0D\x1f\x8f\x17\xf1y\xfaO\x8c-\x8b\x89\x9b\x80\xa7\x04c\xb56\xd7\xfe\x08g\xfb_\xdc\xc3=\xd7\x87\xb5\xbb9\xc413\x08v\xb1w^\xe4\x0fL\xf1\x9a\xe2\xbf\xe1\x9d\xbfl\x8f\xd8\xdf\xe2e\xa7\x89u\xbf\x04M46\x17J\xd2\xbd\xb8s\x1c\xa9\xf7\xb6\x92\x06\x01e\x07\x15\xfb\x1f\xfb.|C\xd3&lt;g\xf0\xebB\xf1}\xbe\xa3\x1cq_XD\xeb\xe76\xdd\x84cz\x9f^r3L\xfd\xa4\x7f\xe0\xab\xff\x00\xb1w\xec\x95\xa4\\\xa7\xc4/\x8a\xb6W\xfa\xa4 \xacz\x16\x92\xe6y\xe5l}\xcd\xa9\x92\xb9&lt;d\x8c\x0c\xd7\xe4\x1f\xed\xa9\xff\x00\x05\x8b\xf8\xd1\xff\x00\x05\x02\xf8\x9f\xa3|\'\xb4\xf3\xbc%\xf0\xf6\xf3[\x8a9\xb4\xcb9\xca\\_FeU\rq \xfb\xc0\x83\xd0t\xef_C\x1f\xda\x0f\xe2?\xc3\x9f\x81\xb6\xfe\x13\xf8[\xe1\xabM\x03A\xd2\xa1kX\xae\xee\x10!m\xa0\xefn\xc7$\xe4d\xf7\xaf\x17\xf8a\xe2\xbf\xda\x0b\xe2\xd7\x8f\xe5\xf1`\xbc\x92\xfe\xde)Ls\xc8\xa5\x9d";\x80\xf9\x88\xe0s_Z\xe8?\x0b~-I\xe1\x8b}N}B\xd6\xddea\xb5D\'\'\x8a\xfc\x1a\x96(\xd9~F9\xa4tTU\x0f\xc9\'\x8ez\xd4n\xbbX\x13\x1e9\xf5\xa5hC|\xe7&lt;s\xd2\x90\xf2\xa7\x1e\x94\xa5X\x9c\x80O\xc9L\xe1\x80\x00\xe7\x1dq\xda\x9b)\x8c\xb2\xedc\xf7\x85\x0f\x86m\xb9\xebM\xe8|\xa9\x86=\t\xa7\xc7g,\xf2}\x99"r\xdd\x82\xaeO\xe5]\xd7\x84~\x00x\xbfX\x82+\xeb\xc5\xb4\xd3\xe2\x92\x16\x93\xed\x17\xd7"&lt;\xa8\x19\xe46+\xd8&gt;\x04\xfcB\xd4~\x18\xeb\x10\xe9\xd1E&amp;\xb7r\xc3)e`\x0e\xd2Le\t\x18\xeb^\xaf\xe0\xbf\x8b\x1f\x1c\xf4mr\xff\x00\xe2&amp;\x97\xe1]\x1bBK\xb2B]k\xd3\x03\xb7g;Sv3\x9cr\x05k\xea\xdf\xb7\x8f\xedqwp\xf7w\x9f\x1dt\xdd\x16\xc9\x90\x0f\xf8\x97\xd8\xfc\xa1\x8f\xcb\xc1 \x8c\xfbW\xb2|\x01\xf1\xd7\xc5\xcf\x8ami\xa5^\xff\x00\xc1D&lt;Mj\xb76\xc6h\xa1\xd3\xb4t\xcb\x03\xc6T\xf9_2\xe7\xb8\xe2\xbe\x8a\x9f\xf6h\xf8\xb5\xe2\r\x0e\x0b\x8f\x87?\xf0T\xaf\x14Iy\x1aI\x1a\xc7$0\xae\xdf\x98\x10H\x08\t\x1b\xbf&gt;\x95\xf0\xf7\xfc\x14\'\xe2o\xfc\x14\xc7\xf6o\xf1\x15\x87\x87&gt;6\xfcy\xb9\xf1\x06\x8b\xa8\xa9\x8bH\xd4\x92\x08\xde+\x81\x1cd`\xed\x1f{a\xdd\x8e\xb8\xe6\xbc/\xe0f\xaf\xfbp\xfe\xd4\xfe(\xb4\xf8\t\xf0\x93\xe2\x17\x89oZt(l\xac\xefLp\xc2\x85\xb9-\xb7\xa0\xe7\xa7z\xfb;\xc0\x1f\xf0l\xbf\xed\t\xe2\xdd\'\xfb\x7f\xe2W\xc6\xbb=2\xfe\xe0,\x92\x8f!\xa7\x90\xe7\xa8b\xc4\xe7\xf0\xe6\xbcs\xf6\xaf\xff\x00\x82\x1b\xfe\xd7\xdf\xb1\xfe\x9e\xff\x00\x13m\xa0\x8b\xc5z6\x950\x9a\xee\xebFbe\x89W\xe6\x0ec\x19!@\x19?J\xfa7\\\xf8s\xe1o\xda\x7f\xf6\x08\xd0\xfe\'h\xda\xcc\xc2\xe5\xb5\xcd.=R\xc6\x1c\x85\xb6\xcb4Z\x86\xfcv\xe6\'Pz\xed\x7fC]\xe5\x97\xc0\xcd\x7f\xf6C\xd3\xf4Ko\x84VZu\xd4z\x9d\xf2\xc9s-\xfba`\x88\xed\x89\xd5\x83}\xe52:\xe5\xbf\x875\xf4g\xc1O\x8a&gt;\x1a\xd7-\xef&lt;-\xe2\xe2\x9a.\xa9\xa7\x15k\xab(\xd0\x18\xc9?\xc4\x0bz\xd7\xf3P\x91F\xab\xbbq\xf6&amp;\xa2\x93\xf7\xce\x17\xd0\xfc\xb4Lp6\x9e[\x1cc\xb55ZA\xf7\x9b\xea(\x1f9\xf9F}G\xad\x00\r\xf9T\x03\x1dF\xeag\t&amp;W\x9d\xc7\x04\x8a\x18*HX\x9e\x9c\xd3$\x8d\x81\x07\x04\xf9\x9c*\x8e\xb5\xbf\xe0\xcf\x87^)\xf1\xbe\xa6\x9av\x83\xa1\\]\xcaQXE\x04l\xcd\xb4\xf4n\x07\x03\xdf\xa5z\x14_\x0e\xe5\xf8qn\xd7\xb7~U\xb32\xeep\x13/\x91\xd7$\xf0G\xae+\x17\xc4z\xe8:r&gt;\xd9\x18\x89J\xb4\xb23d\x1e\xbbq\xdb\x8aw\x81\xfcY\xafxK_\xb5\xd5\xa3\x99\xa3\x11:\x95\x91\x06X\x0c\xf4\x1e\xf5\xeb\x9e&gt;\xf1m\xd7\x88\xf4\xfb\x11-\xec\xf7\x16\x85\x89\x8d%\x97\x1b\x99\x863\xc7\xbdy~\xb16\xbd\x7f\xa9\xcf1\x92y\x8cN\x160\x84\xed\x00\x7f\x0f\xd7\xde\xbe\xfc\xfd\x82\xff\x00\xe0\xa0\xde0\x83Z\xf8!\xf0Z\xfb\xe1\xb7\x86\xa0\xb6\xf0\x04s\xf8r\xdbV\x8bO\xcd\xc6\xa1c\x7fx\x92\xb9\xb8\x05\xf6\xac\x89\x92\xab\xb3q+\xd6\xbft\xfcK\xfb\x15\xfc\x02\xf8\x8d\xa2E6\xa7\xe0\x1bX\x1e\xe2\xc7\xcb3\xda\xabD\xea\xcf\x83\xb8m\xee3\x9a\xfc\xe1\xff\x00\x82\xed\x7f\xc1;\xed\xfe\x1e~\xc6\x1a\xf7\x8a4?\x11\xdfj\xb6z\x0c\xf6\xf7\xf6\x90\xde\x9d\xd2Y\x15\x93k\xec=@(@\'\xa7\xca}+\xc3\xff\x00\xe0\xd8\r\x0fO\xd5\xae\xfe#x\x92\xefO\x89\xefm\xaf4\xf8\xe2\x9aDVdV\x88\xb3*\x9f\xc3\x9fJ\xfd\x98\xd3\xa1\xbckr\xa4n\xc3eJ.p=&gt;\xb5\x97\xe2\xdb\x1d+R\xd3\'\xd3/"\x8d\xa2\x9d\x18\\\x0b\x98|\xc5\x93#\x1c\xa9\xea\x07q_\x9d/\xf0\xcf\xc2\x7f\xb1\'\xed=\xa9\xf8/\xc4Z{\xc1\xf0w\xe2\xd2\xfd\x96\xe4\x90Z-\x13Tw\xda\x93)\xfb\xaa\x8e\xcc=+\xeao\xdb+\xe0\xee\x9d\xf1\x0b\xe15\xc5\xff\x00\x85\xad`\xd3u{M&gt;=\xb6\x96\xa443\xcf\xf6eY\xa1\xc8\xe9\x1c\xc0)\r\xeb\x929\x15\xf9\xe9\x17\xc3\xcf\xda\x96\xe7\xc5\xa7S\xf8\x82\x93G=\xa5\x89\xb3\xb7\x8a\x1d\xca\xac\x81\xd4\x868\xe4\x9d\xaa\xa0\x13\xea\xd5\xf8\xd8\xea\xce\xa1\x00\xc0\x1d\x8d6E\xd8\x03\x8f\xe19\xa4e\xce$\xeez\xd4r\xe7\x04\x8f^\xd4\xa5G\x95\xd4\xe5\xb88\xebL\x1b\x06\x03\x92@?)\x1e\xbe\xf4.v\xf09\xddI\xb49!\xce\xd2x\x1b\xb8\xadM:\xca\xda\x03\x14\xeer\x122e%wm\x18\xe7\x03\xb9\xf6\xaf\xd9o\xd9+\xe1G\xec\xe1\xfb&lt;~\xcf\x1e\x18\xf0\xf3xr\t|K\xe2\xbd-o5\x8dmbY63[\xa11)?uB\xb9\xfa\x11_\x1f\xfe\xd5\x9f\xb2\xef\xc5\xf8&lt;;\xa9\xfclO\x0ey&gt;\x0f\x8f[\x92\xde\xd6\xf9\x9c\xc7\x94feW\xce8R\xca\xca\x18wR\x07"\xa0\xfd\xaa?c\x0f\xd9\x8f\xe0?\xec\xdf\xf0o\xe2\x87\x81\x7fj\xfd\x1f\xc5\xba\xe7\x8dt\x89g\xf1^\x87c4&amp;m\x12\xecyx\x8c\xacld@K\x15"P7`\x8a\xf1\xf7\xf8}\xa3\xeb\x9a^\x9f\xaf\xf8K}\xdb]N-\\\xcb\x1e\xd8\xd2V\xe12z\x0fZp\xf0\xc7\x88&gt;\xc6\xf6Z\xb1[y\xa2\x93\xfd\x1e,\xf6^\xb8\xf6\xab\xda\x1f\x82\xb5=s@&gt;-\xf0\xf6\x8e\xd7%n\xa4\x86\xe6\x14R[v\xd3\xce\xd1\xf9\xd7\xd1\x1f\xf0Mo\xd9\xcf\xe2_\xc4?\xda#A\xd5\xa0\xf0t\x91Xh\xfa\x8c\x177\x92\xddB\xc8\xad\xb3\r\xc1#\x19\xe3\xf3\xaf\xe8\x02\xfb\xf6\xb7\xf0/\x82t\x884\x9f\x128[\xc5\xb6]\xb0\xc1(f\xdc0:\x03\x9e\xd5\xf1\xcf\xfc\x14k\xf6\xa1\x9b\xf6\x8b\xf8+\xe3/\x84\x1e\x1f\xf0\x90]\'S\xd2n`\x92\xfa\xe1\xfebB\x9c\x10\x0f\xe7^=\xff\x00\x06\xd7|\x1a\xbc\xf0O\xec\xb3\xe2/\x89\xda\xcd\xac\xd1I\xe2_\x13\xca\x96\xac\xcb\x8d\xd1\xdb\x85@G\xa8$\xb8\xc8\xfe\xe9\xf4\xaf\xd4-%\xa6tK[\x007\x1c\x1f\x9b\xd6\xb9\xdf\x16iz\x84:\x93[\xdc&lt;as\xd5\x1f\xd7\xady?\xc7/\x80\x1e\x10\xfd\xa0&gt;\x1b\xdf|&lt;\xf1\xd6\x9d\x14\x96\xf7\x90\x9d\xd3g\x0f\x0b\x8c\xed(z\x83\xdf"\xb8\x8f\xd8\xd3\xc6\x9a\xdd\x94z\x87\xeco\xfbI\xea\xedo\xe2\x8f\x0c\xdb\x08\xbc7\xab^\xc8\x04:\xe6\x9e\x1b1\xb2\xb3c2\xa0\xc0\xef\xd2\x8f\x1a\xf8+W\xd4\xfcWw\x0e\x88bi\xed\xdc\xa5\xd4\x8cT\xa1\xfe\xee\x0f\xd2\xbf\x986\x94\x97\x03\xde\x9d"\x92\x84\x11\xd4T|\xc4N\xf1\x90P\x81\xedL \xe3\xd3\xd0\xd3\n\xca\xa3p|\xe3\xb0\xefJ\xaa\x08\xdax\xe3?\x8d\t\xdcg\x14\x91\x10\xd2\x10\xe38\xe9\xeek\xa4\xd1\xed\x955\x18\xa1`\x1df@\xbc\x9e2{\x1a\xfd\xa3\xfd\x965o\n\xdd~\xc2\xbe\x0b\xf8\xa7\xa8\xda\x0b\x88,\xecaMV\xe0\xc7\xe64\x029&gt;\xcb.}1\xf2\x92&gt;\x95\xc0~\xdb\xde/\xf8\xa9\xf0_\xe1_\x8a\xbffMv\xda\xfa\x7f\n\xeb\xd2\xdb\xbd\x87\x90\x8aR\x15\x8ec0\x8d\xf22\xdf\xbeb\xc8\xeb\xc1\x04\x8a\xfc\xdb\xf1\xc7\x86u\x08|1\xf6\xbbH\xc1k,\x1d\xc7v\xe6Pp\xf8\xcf\x07\'\x9e=+K\xe1\x7f\x88M\xaf\x85g\xb2\xbd\xf1\n\xac\x11\\\x1b\x98-\xa3 \xbc\x9b8\x04\x0e\xbc\xfa\xd6\x17\x89|o\xa8\xc5\xaf-\xe6\x97,\xdec\xca\xaf\x00\x94\x9f\x93\x07\xa1\xcf\xad}\x8f\xfb\x1e\xeb?\x0f|-\xa4C\xabx\x82\x17H5\x9f"\xf1I\xda\xc0J\xa3k\xaf=9\xe0\xfdk\xe9\x9f\x86\x1f\xb6\xed\xbbOy\xa0\xf8W\xc1_\xd9\xedk\x94K\xb8\xe3X\xfc\xc5\xf5\xe9\xcdk\xc9\xf1o\xc5\x9a\xa6\xa0uMFY\xa4I&gt;ey$;\x87\xb0\xac\xab\xbf\x19j\x9a\x85\xea\xdb\\\xb1"\xe3(Q\x9f\xe5\xc3q\xcf\xe7_|\x7f\xc1;\xbc\x07\xa0\xfc?\xfd\x8d|\x17\xe1]\'MX#\xb4\x82\xe8\x05\x0b\x86\x92F\x96Wi\x0f\xb7&lt;\x1fq_D\xf8B\xf0\xdaHJ\x85A\xb7\xef\x11\x9cU\x1f\x13\x18\xafn\xdaiO\x98\x01\xfb\xdbp+\x94\xfe\xcf\x90\\4\xc9(\x0b\xbf \xe38\xae\x17\xe3\xef\xec\xe9\xe1\x0f\x8e\xde\x12]\'Q2i\x9a\xbd\xa1o\xec\xddv\xc9\x8a\xcflH\xfb\xb9\x1c\xba\x93\xf9W\xc2\xbf\x11\xbfe\x0f\xf8)\xd7\xc2\xbf\x10\xcbe\xf0\xe3\xe2\x8a\xf8\x87L\x95\xcf\xd9\xeeer\x8e\x17\xb09\xeb\x8fZ\xfc*\x8d\xe3W;\x93&amp;\x9b\xe6\x1f7\x9eA\xe8(\x91w|\xbe\xa3\x14\xd7Q\x12\x05&lt;\xd3\x17\xa8\xfa\xd3[\xef\xb7\xd2\x9bJ\xbc0&gt;\xf5\xb1\xa6\xddb\xc8]e\xb7#\x8cs_\xb2\x9f\xf0o?\x88\x87\xc7/\xd9\xf7\xe2?\xec\xd1\xe2\xdbU\xb8\xb7\xb4\xcd\xe5\x9c\xb3\xa8d\x8d.\xa0x%\x8f\xd7\xef\xa4r\x0fpk\xd2~+\xfc\x14_\xdaw\xf6a\xf1\x87\x87u[\xe4\xd3\xf5\xbf\n\xab}\x93R\x88\x96W\x10\x02\xa5I#8r\xa7&gt;\x99\xaf\xca\xcdoC\x17v\xcf\xa7]&gt;\xecH\xd9]\xdf(\x1b\xb6zz\xf3^Iqz\xda\x0f\x8c\x8d\xbd\xba\x0f"9\x08\xf2\xc7\xf7\x1b\x8d\xbf\x9d7[\x18\xbbK\xb2\x01/ *=9\xaf\xaa\xff\x00e\xeb\x8bO\x10\xfc\x14i\x1e\x02\'\xd2u_*7n\x85J\xf9\x87\xf5\x15\xf4\xb7\xc1\xcd\x03A\xfe\xcf\x91\xae,\xf7\x16\xda\xfb\x82\x8c\xe7\xfc+\xa4\xf1&amp;\xb5f\xb61\xc1mh\xc9\xb3r\xe6\xa3\xf0\xfe\x8d\x1b[\xbe\xb1;\x961!\x91\x17=\x08\xe4W\xea\'\xec\xbdc\x06\x99\xf0O\xc3\xd6P\xa0\xc4zj\xb8\xfa\xb7Z\xf5\x9f\x07\xe9\xe8\xd7-&amp;\xec\xee\xecz\n\xcf\xf1R\xfd\x92y\x16E\x0e\t8\xed\x8a\xe7~\xc4\xc6\xdeI\x84\x98\x0c\x0e\x05G\x01Pf\x8al\x9c\x01\xc8\xaa\x1a\xe4\x8f\x08\x8a(\'p\x14\x1e\xa0\x1e\xb5\xff\xd9'</t>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00&lt;\x00&lt;\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfc2\x05\xdeV\xdc8\x00`T\xb0)\x95\xf0\xbdTg\x07\xa1\xff\x00\xeb\xe35\xfa\xdf\xff\x00\x04\x0f\xff\x00\x82\x7f\xc9\xa9\xe9\x12\xfe\xd2?\x14c\x98Y\xdf\xe5&lt;?\xa5\xcb\x1eU\x97\'\xf7\xa5O\x04\xf4\xc1\xfa\xd7\xecf\x85\xe1\r6\xca\xc06\x9d\x01\x85\x08\x1eX\xcf@\x00\x18\x1e\x83\xadgk\x17\x16\xba|\xe4\xcaK\xed\xeb\x96\xaecT\xf0\x9e\x87\xe2\xe7\x96k\xcd9YJ\x1f\x9c\xe3#\xe9\\\x1f\x89\x7fe\xdc\xce\xba\x97\x86\xaf\x8c\';\xf6\x0e7}q\\\x8d\xcf\x83\xbe8i72X\xdb\x10\xf1\xab\x9d\x84\x82x\xaf\xe6\x8d\xc1(\x02\x9e\x9d[\xd6\xba_\x84\x1e\x08\xba\xf8\x8b\xf1#B\xf0-\xa2\xe5\xf5]V\x18\x06\x0e\x0f\xccq\xc1\xed\xd6\xbf\xa8_\xd9\x13\xe1\xde\x95\xe0/\x85\xfe\x1d\xf0~\x85k\r\xbd\xad\x96\x9b\x0cq[\xa2\x00"\xc0\xce\x06:\x0e\x7f\x9d{\xd4\xbajZ\xe9\xe0FTq\xce\xd1\x8cW\x9cx\xdex-.Yp\x1d\xa4;@+\x9f\xc6\xb1m/\x9a;\x95\x86\xd9\x88U\x188\xe3\x9e\xf5\xdahb[\xe5@\xe0\x10\xa0d\xb1\xe9Z\x13\xe8\x96\xc6L\x9bh\xdb\xdc\x80k\xf8\xf6I\x19\x83F\xe0\xa3.\x02\x82\xbfz\xbd\xa3\xf6\x1c\xd2\x16\x7f\xda[\xc1\xd2\xcf\xb1\xbf\xe2u\t\xc6\xef\xbb\x82~a\xe8G\xad\x7fF\x7f\x06|m.\x95eil\x93\x02"@\xaa:|\xa0q\x9f\xf3\xda\xbd\x89~$[^\xd84\xb1H\x15\xb6\xe1\xb2~Rk\x82\xd5|J\xb7\xb7\x8d3\xe5\x88\x7f\xbd\xbb\x8e}*\xe6\x9a\x96\xf3J\xab\x80;\xb1\xcez\xd7_\xe1\xe8c\xc0V\x93#\x1cd\xf5\xad[tC\x1eJ\x83\xc9\xe4\x8a\xfe;\xe4y\xddVB\xf98\xc1\x19\xafK\xfd\x94|Uk\xe0\xdf\x8d\xbe\x1a\xf1\x04\x85\x16D\xd4\xe3]\xee8\\\x9a\xfd\xf8\xf0\x0f\xc5\r\x1a\r\n\xc7S\x9a\xf8m\x9a\xdd\x0bnoo\xfe\xbdv\xd1\xfcv\xf0\xd4v\xea\xb1\xc9\xe6.0\xb0$\x99\xde\x7f\xa7\xff\x00^\xa8Y|D\xb9\xd6/\xcaGm"F\x8c\x19b\xcfA\xef\xeb\xd2\xbd#\xc1\xba\xa6\xf4Y\xee\xe4\xda[\x9c\x129\xcdw\x9a\r\xfc!U\r\xca\x82:\x0cu\xads\xa82\x9c$c\x1e\xcf\x8a\xfe=\xc4\xbbc-\xb7i$g\x9a\xd6\xf0\x8c\x93\xff\x00\xc2Q\xa6Eh\xd8\x92K\xf8U\x06:1q\x86\x1e\x84z\xfb\xd7\xec\xe6\xb1y\xaex{\xe1\xb6\x8c\x96\xfa\x94\xa4\xa6\x99\x08\x95T\xf2\xc7`\xaeOB\xfd\xa6\x17\xc0\xf2\x16\xd7\x11\xa4\n\xf8\x08\xe7$\xd7\xa3xk\xf6\xde\xf0\x96\xae\xb1\xc3\x1a\xf9N\x00\r\xb9\xb0G\xd2\xbdc\xc1\x9f\xb5\x87\x86&amp;d\x1f\xdb\x90*\x88\xf2\x148\'#\xa09\xafZ\xf0\x9f\xed\x11\xa4\xdf\xc4\x8be\xa9\xa3\x19\x11N\xf6#\x83\xceEu\xd6\x7f\x1a\xb4\xb5\x80\x0b\x9dB6~\xe4\x155\xfc\xa8\x03\x11\x0e\xca\x01\xdc\xde\x95\xb3\xe0\x0b\xb1\xa7x\xd7G\xd4\'\xc9\x8a-J\x06p\x00\'\x1e`\xf5\xe9_\xb5\xbe?\xd0nu\x7f\x87\xd6\x17\xfaQ;$\xd3\xe2\x91\x1cr0c^\x06:W\xcb\xde5\xd1d\x93P\x94\xdcZ\x98\xdf\x7f\xccL\x7f1&gt;\xb5\xc2x\xbbX\xbf\xf0\xc9#I\xb1i.\x80\xc4n\xf9\xe0\x9f\xe7X:g\x8a\xfe\'Y^E,\xfa\xec\xa9s$\xa3\xcb\xb6\x86"w1\xe80\xbc\x93\xe9_J\xfc#\xf8O\xff\x00\x05\x17\xd74\x88\xb5\x8d\x1f\xc0\xb7\xff\x00du/\x0b\xdf7\xd9\xd9\x97\xd7gLWj\xd1\xfe\xdc\xde\x1c\xc6\x99\xaa\xfc?v\x99FX\xfd\xa0\x1e\xbf\x85~52\xa2\xedU\x88/&lt;\xe3\xbdM\x04\xd2\xdb\xe6x\x00/\x19\x0e\x80\xfb\x10k\xf6\xcb\xf6B\xf1\x96\x9d\xf1K\xf6w\xf0\xbe\xa4.\x12e:tP\xdc\xa89\xfd\xe2\x8c\x1c\xfa\xd7M\xf17\xf6I\x97\xc5\xeb\xfd\xa9\xe1\xdb&amp;\x13\xbf*\x08\xe1\xbf*\xf1\xef\x10~\xc1\xdf\x1du\xe9\x1e\x1d\x17\xc2\xfel\x9ea\xf3%\x99\x8a\xc6\x88;\x93\xeb\xe9\x8fC_O~\xc0?\xf0K\xdf\x04\xfc8\xd6\xad\xbe#|T\xb7\xb7\xf1\x06\xbeT\x94y\xa3\rmh;m\x0c\x0eXz\xf5\x18\xaf\xbe-|1\xa6[ii\x0c\x16H\xa9\x14a7z\x8a\xe5\xf5\xaf\n\xe8\xd3\xdf\xb3\xbe\x9f\x0b\xf0\x00-\x185\xfc\x89\xc8\x00\x8f `\xfa\xd4\xd0\x01\x89\x1f\xbam#\xf5\xaf\xd2/\xf8"?\x8f&lt;E\xaf\xe8\xda\xc7\x80u[\x95\x9bN\xb0\x9cMj\x8e\x99h\xd9\x98\xe4\x02z\x0e\x07\x18\xaf\xd8\x1f\x84\x1ae\xa4\x9aL2L\x9b\xce\t\x19\x03\x8eO\xa7j_\x17\xea\xf7R\xdc\x9b-\xb1\xaci!\xc2\xa2c\xf1\xae\xeb\xe0\x85\xa4W6\x99\x90\x9c\x891\x9e9\xce\x7f\xc2\xbdg\xc4v\xd0\xc3\xa2)X\xc7a\xca\x8e\x83\xb5y6\xa9,\x9f\xda\x12\x81#\x00\x1c\x80\x03\x1a\xff\xd9'</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00\xbe\x00\xbf\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfd\x0e\xf0\xe7\xc0\x0f\x05\xe8\xb3\xb5\x95\x96\x82\xb2"rd0\x85Q\x8e\x9c\xf6\xae\x8fN\xf0\xcd\x86\x95*\xbd\xbd\x92\x04\xe0\xe1T\x11\xb9\xbeV\x19\xf6\x02\xba\x8b\x17\xb7\xb3\xb5\xfbQ\xb1\x11H\xdcd\x8e\x87\xe9\xda\xb0u`\x0e\xab4z\x94l\xa2_\xb8B\xe0\x9a\xceM?V\xbb\x9c\xda+,Vry\x8b\x0b\x17\xf9\x8e\t\xc3\x11\xe8k\x8f\xd0,|Fu\x0b\xaf\x0fk\xdb\xe2\x82\x0b\xad\xd6\xb3H\xc1\xd6F\x1dH\xf4\x06\xa4\xd5\xfc?g&gt;\x97%\xe7\x94\x16N\x04\xa1\x0f\xcc\xa0\xf4\xda:\xd7\x9e\xea\xde\x1f\x92]S\xec\xd7\x8e\xf8\xb4G\xf2#A\x96$\xb7\\zU\xdb\xdf\n\x1b0\xb3\xdaL^O\xb3\x81:\x11\x8es\xc8\x15\xcf\xf8\xf3\xc1v\x97\x8b/\x88R\xe4\x07\xf2\xc8[x\xd4\xb6Tt\xc9\x1d\rxO\xc4}N\xc7K\xf0\x06\xa5\xe2\xad\x1bM\xff\x00\x89\x80s\x04o*\xe4\xa1Q\x93\x91\xea01\xf8W\xc5\xff\x00\x124\xad\x07\xc2\xde7\xd5\xbc1\x16\xac\xd70\xdb\xc2\x9eE\xe4g\xe4y\xa5\xc4\xee\xd9\x1c`\x169\xf4\xacX[V\xf8\x11\xfbL\xe9\xfe$\xd2\xa1\r\x04w\x96\x8ft\xa1\xb3\xbe6d\xca\x81\xfe\xeeN=\x1c\x1e\xf5\x0f\xc4\x9f\x04\x99~"\xe8z\xbd\xecqAguyy\x1d\xfbK \xc2\x88\xe7%\x1c\x0e\xd8VL\xfan\x1e\xb5\xe6\xff\x00\x15\xf5\xdbO\tx\xbat\xd2\x94\x18\xaf\x95\'\x9d\x87(\xcd\xe6\x96\x07\xea\x14\xfe\x15W\xc7\x1a\xd8\x9f\xc4v\xfe\'\xd0mw\xc3\x1d\x8c\xb6\xf1\xc4\xc7\x8c\xca\xf9\\\x8fP\xa4\x01\\\xbcQ=\xe5\xed\xfe\x83\xbc\xc4\x85.!P\xceT\xbceC\x02G|\x10A&gt;\xa0\xd7\xa7\xea~ \xf1\x06\xaa\xfe\x15\xf1\x1c:\xacqGk\xa9\xc5\x033\x96\x08\x934~C\x168\xc0C\xbb$\xf4\xca\x9fJ\xe4_Z\x8fA\xd4\xbcE\xe1\x9dJ\x18\xeeV\xfe\xf0~\xf4\xae\xe6B\x84\x81\xb7\xbe3\xd6\xac\xf8\x0fR\xd2\xef\xaf\xaf4\xaf\x15\xa6\xfb\xeb]2\xf4[\xc4F\x17d\x91\xae\xcd\xa3\xd5[\x9fl\xd5\xeb\x0bS\xe3\xdd\x1a\xf3\xe2V\x83\xa5\x8b\xb5\xb3\x92\xcfL\xb9\x86ta\x91%\xb3\xc0\xae\x07\xf1\x01$=}ksI\x8e/\x0c\xfc/\x96hn\xd0\\$\r=\xa1n\x14\xc8\x92\x0f0/\xae\xe5s\x8cu\x02\xa9\xfcf\xb7\xbe\xf8\x9b\xa1[\xf8\xc6=@Gs\xa7\xf8o\xcf\xdd\x1c\x802\x81\xb5\x83g\xd5\\\x9c\x0e\xc0\x8a\x8f\xc6\x9e#\xb8\xd4&gt;\n\xd8i\xbfd\x1234\x17q\xce\x10\x0f\xdd\xc8\xa4\x9f\xc9\xf2\xa3\xd8W\xf4\xc54/\x13&lt;\xd7\x16\xc1v\xa2\xa9F\xe5H\x1cg\x8e\xd4\xdb\xed\x06-Cm\xc5\x93$L\xbc\x88\xc2\xe0f\xb3o?\xe1$\x84M\x1d\xf3\x86\x8c\x10\x10\xc5\x83\xcdd\xdc\xea\x17v\xd7\x0c\xf7v\xce\xec\xbfq\xdf\x18\xc9\xa2\xe3O\xb8\xdc.\xe7\xb4Nc\x1b\x90\x03\x9c\x11\xfc\xeb\x16\xea\xce\xc7M\x92H\xe1\x05\x8ew@\x1cs\xb4\xf4\xfd+\x97\xf1N\xa2-$\x10JA\xc0$yg!\xbd\x07\x1e\x95\xcaA\xa6Au\xa8.\xad\xe7\xabM\x1cry\xd1\x90r\xc4\xb7\x1cS\xef\xa5HA\x92i0~m\xc7\xb5g\xdb\xe9\x92\xc6-\xcd\xd4\xaca\xb8f\x0b\x13/;\x8f8\xc7\xa5x\xc7\xed7\xa1\xd9xo\xc3\xfed\x16\xb1\xfd\x99n%k\x88\x94r\xd2\xb2zzn\xaf\xcf\x7f\x14\xddZi\xba\xee\xad\xaak\xdaj\x1b\xd8|F\x1e\x18\xa6R\x04\x90y\x0e\xce9\xeb\xf7\x95~\xbcW-\xe3mM\xa6\xd4l\xef\xee\'\x84\xcd}\xa3\xc12\x18\xb2eY\x82\xed\xc1\x07\xbf\xc8?:\xe6l&gt;!x\x9f\xc5:\x85\xb6\x8d\x7fq\x13Mk,\xea\xd2\xaa\x12q*\x10\xcc\xde\x87\xe6\xc9\xff\x00tU\x8f\x88Z\x07\x86\xfcA\xe0Xe\xbcr\xde \xc5\xc2\xeaV\xcc1\xf6UW\x8d\x92U\xfe\xf6\xe5G\xc8\xed\x9a\xd6\xbc\xd24\x84\xf8ei\xe2\x18\xbc?\x1b\x07\xb8\x92\xc6\xf1\xa5m\xabmw"\xee\x85\xb2x\xe1\xa3\xe9\\6\xb7\xa3\xe9\xde\'\xf8\x8d\x17\x88\xb5\x8bR\xb6\xf7\xd0^\x9b\x87\xb5\xe0\xa5\xc2\xc4\xcc\x15Tv.\xd8\xc7\xb8\x15\xbf\xf1\x1bP\xbc\xf0&gt;\x90\xf6\xb6\xb6\xd1\xcf\x06\xb9\xe1\xf4\x12#0Y \x9c*\xca\xae\xb9\xe3\x04\x1e\x83\x9a\xe7\xbc!\xe1\xe4\xd6n4\x8dj\xfbO\x7f3U\xbdX\x1a(\xb2\x15\xb6\xc6\xe4\x1c\x1e[qd&lt;u\xad\x1f\x15k\xda\x16\xb5\xe2I\xbcC\xe1\xed\x1e\xde\x08\x8d\xbe\xc9|\xb8\xcf\xc91X\xb7\x0f\xf7I\xce=En\xfc6\xd6\xe2\xf8g\xe0\xcb\xfd3Y\xd3\xe3\xb8\xb1\xd4\xae&gt;\xd7!\x07h\x89\\\xc6\xe2\x1fa\x91\xbd[\xb1v\x15\x85\xe3\x07\xbe\x7f\x06\xd9\xc3\xa6^G:}\x82}o(\x84\xf9\x85\x14\t\xe28\xfb\xa7r1\xdb\xdbx\xf5\xaa\xde\x11m?J\xf0\xe6\x99\x0b\xea\xf8\x95n\xeflo,\x99\x0bm\x86U%\x0e;\xa9,\x80v\x18\xab\x9e\x08\xf1\xb5\xa6\x9b\xe0\xab(5\xc8_\xec\x96\xcc\xfa|\xd1G\x17\xfa\xa0\x8cd\x892z\x90K\x8f\xf7pk\xfaoK+\xdb\xcbf\xd9*\x8c\xc6\xcaw\x1e8n(Hn\xed\x94\xc8\xf2\x83\x8f\xbd\x83\xc05V\xf5\xee\x92P\xe6e1\xfd\xe6\x18\xe8}+\x07\xc4\x977\x93_\xc1um\x02\xb2!\xfd\xe8\xc7\x0c\xa7\xa1\xfa\xd2_\xdd\xa7\x9f\x14\xf2\xb1`#\x03~q\xb4c\xd3\xbdf\xf8\x8e\xdc}\x94\xcf\x19\xdcX\xff\x00\xac#\x9c{W\x03\xe2}:\xde\xebQ\x82\x08\xa1\x93\xcc(YO85\x8d\n\xfd\x9e\t\r\xc6\xd61\x1f\x9d\x97\xa0\xf6\xcdP\xd2t\xff\x00\xed[\xa9nd\x9c4ox^$\xce@P\x08\xd9\xf5\xcfjdQj\'Pw\xba\x90\t-\xb6\x8d\xa4\xe0)\x0b\x82\x7f:\xf0o\xdaJ\xefQ\x9ad\xd1R\xe8\x1cn\xba`y2 =@\xee9\x1f\x9d|\t\xf1\xb7K\xbf\xf1o\x8c\xb5mA\x15\xc8\x99%\xb8\xb7.8B\xb2\x13\xb4(\xf5B\x00\x1d\xf1\\\x7f\xfc"\xfa\xd7\x83\xdfL\xf1\x84\xb6\x0f|&gt;\xcb\xb9H\x07j\xdcy\x98P\xc8y\xda\x14\x8c\xfb\x9a\xae\x9f\x0f5;\x8bO\x10x\xc7F\x83u\xb4\x82)\x88H\x8a\x98\x8c\xaf\xb7\x1e\xa0g\x81U\xfc"\x96\xb1\xf8\xb6\xde=r%\x8a\xf1\xacu\x15\xbfk\x85?t[3\xc6\x00=X\xf3\x81\xdf\x07\x15k\xe2\x86\xaf\xe1[\xdf\x85\x1a\xb7\x86\xf4\x9dd\xc97\xfc$\x89:,HrmI\x0f\xe6\x95\x1d\x082\x1f\xa0\x06\xaa\xdb\xf8\x1fS\xf0\x9b\xe8\xf6\x1e%\x85\xdaK\xcdRq#\xc2\xd9\xdb\x1f\x93\xb9\x1f\x1d\x81\xca\x9f\xc2\x9b\xf1?S\xbe\xf1\x97\xc1\x19u\xfb\xfbM\xd7\xd6\xf2[\xd8\x01\x0c_\xea\xd3"8\xf3\x8e\x87hP~\xb4xV\xfb\xc4&gt;#\xf8n\x92X\xdb\xf9\'G\x9e\xde\x13 P\xbeT\x843+\x03\xfe\xea\x00j?\x05x/G\x9a\xd6\xebV\xd5\xe5X\xe3\xd6$\xb2h\xdf\xcc\x18\xb5-+!\xdc;cr~U\xb7\xaax{K\xd5\xfe\x1e\xf8\xafL\x84\xdc^\xae\x96\xd6\xc29\x90a\xd8D\xa5\xc9Q\xd4\xa9\x00\x80G\x1f)\xf45\xe5\xf2\xf8\x7f^\xd64T\xf0\xfd\x8d\xfa\\An\xb2I\xa6\xe6`\xac\x16Y"\xf3A=\xc1*\xa7\x1e\x85\xab\xad\xf8\x99\xe1\xe8&lt;=\xe2=+R6\x02+I \x86i\x83\x1d\xa1\xa4X\xd5\x19\xf2{\xefM\xc5{n\x15\xd5\xf8\x97\xc0Z\x7f\x8bt/\x88\xba6\x97\xa6J\xd7v~%\xb0\xd64(\x1a"7Z\xcf\x16\xc6P\xa0d\xf0\xe1\xbe\x9c\xd7\xf4\x85.\xa1\x13D\x8dl\x00Wn\x83\xb9\xa9f\xb8\x8e[gWp\xa1v\xeeP\xbc\xd5\x1dR\xd8\xcaK\xdaNT\x0f\xbc\xac\xb8\xac+\xbbS\x1c\xdb&amp;g\x8d\x81\xde\x18! \x8fJdic{93\xc6\xc4H\x9bs\xb7\xa1\x1f\xca\xb3u+I\xe0\x88B0@?\xc5\\\xef\x89t\xa8\xaeP\\3*\xe3\xe5FC\xca\x91\xd7\xf05\xc4\xf8\x86\'\x86I\xe4\x81\xc8t\x1c\xc4\xab\x90\xeaz\x1f|V&lt;+&gt;\x93n\xf1\xbc\x9bL/\xbdGB\xd9\xe78\xac\xfdk\xc4\xd6\xb7vm-\xbd\xc3n\x97\x89\n\x0c\xe3=\xcdx\xb7\xc6\xbd&gt;]GQ\xb3\xbe\xb5\xb92\x1b\x12w\x05\\\x99\xe1%\x01A\xeax\xce=\xab\xe5\xef\x8a_\x07uI\xb5[\xadKD\xb8\x86)\xa1\x1bv\x83\xb71;\x12\x8cs\xff\x00|\xe7\xd7\x8a\xf0}x\xcf/\x88\xd6\xdbR\x8et\x8a\x15\x17\xf2\xa3\xb1\n#\xdeU\xc1\xec&gt;e\x19\xae\xc7A\x97S\xd1~&amp;|P\xf8Qn\xec,\x1f\xc2~i\xb7\xb9\xc6\xd8\xbe\xcdwo\x82\x87\xb7\x0eO\xd2\xb1u\xed\'J\x8f\\\xf0\x87\x8emB\xbc\x9al\xc2\xd7Y\xb3\x11\xff\x00\xaa\r$\x90\x16?\xde\x04&gt;\xdc\xfa\x8a\xf3\xbf\x8d&gt;\x15\x97\xe0\x7f\xc4\xa1\xa3j\xf1\x88\xec\xa5\xbdV\x96\xd9\x8e\x7fr\xd0\x02\xa8I\xe9\xf7O\xfd\xf2}+w\xc5\xde&lt;\x93W\xb1\xd45\xbd2x\xe32\xe9r=\x8d\xd6C\xack\x16"\n=2\x063\xde\xafxn[\xdf\x10~\xcf\x1e$\xd15=6\x18\xad\xd8\xa0\xb4\xbb\x8b\x96\xdd\x00\x0e\xb2\x7f\xe3\xcb\x93\xecj\x86\x8f{e\xa9|8\xd7u\xb8Q\xad\xe6\x16\x96\x8f2\xa4\'\xca,\xae"\xcezg\xe75K\xe1\xe4\xb1\xe8\xfe\x19\xf1?\x81/c\x8aH\xeen\x95t\xe9$\x07zI\x14\xab&amp;\x0f\xf7r2@\xf4\xae:\xc7\xc5^/\xd05\xaf\x10\\Z\xc2^D\xbe1\xa5\xaa\x92c\x91\x00\xf3\n{\xe67p=k\xb5\xf8\x1b\xa6\xd8\xf8\xee\xdc[h\xd6$\\\x1d6\xfa\x12\x85y\x12\xacBe \x7f\xdb2\x07\xfb\xc3\xd6\xb3~(\xda\xf8\x8b\xc4\x9e\x16\xd3\xed\xd6\xee\x17\xb9\xb2\xb3\xba\xbb\x87\x0e\x0f\x9b\x17F_r\x08?\x91\xad\xdd#\xc7\xef\xe1\xb8\xfc;%\xdc\xf2y\xd7:$0\x8b\xc7\\l\x968\x82\xc8$\xcf_\xb8@\xcfJ\xfe\x90\x92\xfe\xc0\xcb \x95xL\x94\x8d:\xfb\xf1U\xa7\xbe\xda\xb25\xaa\x90\x1d\x01\xdc9\xe3\xb1\xa15e\xbbF\xd9\x01\xf3]\x150\xe7\x05\x98\x0eN*\xbd\xda]\xda\xdd\x08\xde/3\xe4\xf9\x8e2\x07\xe3PM\x14QC\xe7\xa4\x00\x96;\x8e\xd3\xebY\x9a\xca\xda\xddE\xe6\xcb\x1b.\xd1\xf3\x00k\x92\xd5\x8d\xbb\xbc\x9eJ\x94H\xc6p_$\xfe\x15\xc2\xeb\xd7\x92]_\xac\xad4\x84\x96\xd8\x13a\x18\xc7@k?P\xf3$A)\x9f\x0e]U\x95\x87@\x17\x15\x85yf\xf6-\x05\x9c\xb1\x02\xb3&amp;\tQ\xed\x91\xf9\x8a\xe2\xfcU\xa7Z\xc6\x0c\xb3\xc2\x17\xcbRb#\x92\t\xe8H\xec+\xc6&gt;#\xf8a\x1ai\xb5H."\x8d\xe7\xb6x\xa61\x1ce\x93\xa1\xe7\xfd\xbc\xb7\xe3^/\xf1{\xc1\xba]\xe7\x8c\xad\xad\xad\xb4\x18\xee\x89\xd0\x9e\xd4\x8c\x85k\x82\xc8\xd20 wF\xe3\xea+\xcf\xbcf,\xb4O\x1a_x\xfa\xea\xe1\xa6\xba\xf1?\x87\xa1\xb6\x9d\x01\xc1\x99^(\x99\xc1\x1f\xc3\x86\x8c\x1fz\xe0,&lt;_{\xaa}\xb3\xc3\xda\x83\r\xcd\xa2\x0b\xb4\x91F\x1d\xe5i\xf2\x87\x1dxl\xb7\xe3Z\xba\xa7\xd8\x7fh\x1f\x12M\x1f\x8b\x9e6\xb9\xbb\xb3\x92\xd2\xcc\xee\x05\xbc\xf8mY\x91\x8f\xd7c\x81\xeaMp\x9aW\x86\xb5\r.\x0b\xef\x08\xeaj\xad\x0c\x1673.[\x96\xc1\xdcPz\xe5\xb3\x81\xeck~\xfa\x0f\xec;\x9d3D\xb7\xbf\xba\x8e\x1b\x91$\x1a\xa4J\xdf(Y\x00U\xda;\x90\xa0\x13\xedS\xeaW\x9aw\xc3\xdd\x1f\xc5_\x08\x91\xad\xee.%\xd4\xec\x9d5,\xee!\x07\x9aS\x81\xdbknn\xc1\x94W?\xad\xebz\x8f\x86&gt;&amp;\x8f\x1a\xd8\xa4wv\x8c\xd6\xf2\xce\n\xe01\x96#\x1b\xa9_\xe1\xe8\xc4{\x0fj\x8fC\xf0\x04\xb2\xf8GZ\xf1I[\xb5\xbf\xf0\xfe\xa4\x8f5\xa4\xa7ptS\x16\x13\x1dI0\xc8\x0e:\xe0f\xbbO\x80\x1e"\xd0\xbe\x1b\xf8\xc7F\xf1&gt;\xb3\xa6m\xd3\xf4\xff\x00\x18[\xa6\xa2\xcb\xc2\xbd\x84\xd2*LI\xe9\xf2\x89G\xd1Ehx\xf3\xe1\x04~\n\xf8\xa5\xadx\x0f\xc4:\xa5\xb4Me\xaa]\x8d0\xc6\xd8c"J\xc3\xca\xe7\xa8!7\x10?\xe7\x9f\xfbU\xe6\xfe?\xf0=\xf1\xbf\x8fA\xb2\xd7\xe0\xddun\xd3\xe9\xec\xcd\x91o$R\x14\x91X\xf4\x1b\xa3`G\xaf8\xaf\xe9r\t^F\x0fd\x844g\x90\xc9\xdb\xd2\xaf(B\xb9\xb7\x8dY\x9f\x86Q\xdb\x15\x1cW\t-\xd2\xdb\xcd\x02\xa4\xa8\xa4\x96\x9b\xee\xed\xf6\xaa\xb3\\\xde4R=\xa0v\x00`\x80x\x03\xb7\xd2\xaa\xcbqp\xd1$\x0f\x18W\n\x01\x07\xaeGZ\xc3\xd7\xee\x9dLV\xe4\xef\x0f\xb8&gt;8\x03\x1e\xf5\xc7\xea\xff\x00jGi\x97\x01Y\x0e\x17=@\xae.}R\xdbQv\x8b\xce\t\x89\x83\xc8@\xe5x\xacMR\xed-\xcb\x83\x13H\xca\x17\xcb#\xb8=\xcdW\xd5/&gt;\xd3\x18\x88"\xc54qy\x8a\xac\xdc9\x1c\x01\x9e\xc7\x1d\xab\x8d\xf1%\xe8\xb5\xb4\xbbTX\xd6\xf1\x97\xe6\x86s\xba6O\xf6\xcfq\xfd\xdct\xe2\xbc3\xe2\x9f\x89\xe2\xd0\xac\xf5\x1d\xd2&lt;2O\x04\x86\xee\xdeq\x92\x17\x03\x05\x0fs\xf4\xaf\x9a\xfe.\xf8\xcb\xc8\xd1\xed&lt;my\xaf\xc7s\xa5&amp;\xab K\x98\x01\x12\xda7$E.&gt;\xf2\x81\x8c\x1fL\x13^7\xac\xfcS\xd4&lt;Q\xe2{\x1f\x10jS\x16[iDf\x02F|\x920\xac\xc0t\xc8\xad\x8f\x12\xd8i\xdf\xf0\x96x7Z\xf0\xdf\x97\x1cz\x9d\x83\xf9\xe9\xbc\x10e\x8aV\x11\xab\x9f\xe1VL7&gt;\xb5\x0f\xc0+\x0b\x8f\r|`\xd2\xfcU\xaa\xc0\x05\xad\xbc\xef-\xd2K&amp;&lt;\x93\xb1\xd0\xe4\x1fM\xe6\xbb\xbf\x8a\xbe\x14\xd0\xb5xo\xbcii\xab\x84D\x8eY \x82\xdd\x01\x13D\xe0l\x19\x1e\xa1\xc9\xfc\rq\xbaF\xaf\xa4Yh\x96\x1a\xa6\xa5d\'\x9fL\xbc\x89\xef\xa6f\xca:$\x8b,@\x1e\x84\x9c:\x1faQ\xf8\x92\xff\x00G\x97R\xd3\xfcI-\xa2\xb3\xdf\xab\x0b\xd2\xdd\x19DO\xb7\x1fL\x8a\xf3\x9f\x0bkz6\xb3\xa2j\xba-\xdd\xe3\x1b\xb8\xd6\x13\x1e\xf6\xe5\xb0\xcc\xa3\x19\xeb\x8f0\x0f\xc4WS\xfb&gt;\xfcY\x83\xc3~0\xd5\xbc)\xe2k\x96\x07[\xb6\x9a\xda\xf9\xe5\x8br\xbc\x8bj\xeb\x01\xe7\xa7\xcf$`\x9fD\xab7&gt;%\xd0,\xbc5\xa6\xe9\x97\nZ\x0b\xc3#]\x07`\xc3\xe6@\x14\x0cza\x8f\xfc\x05j\x0f\x1d\xdf\xf8\xd6\xe3\xe2\x8d\xb6\xb9\xe3+\xf1{q\x16\xb0\xf7\x9b\x98\x92\xb2G$bN\xde\xab\xbb\xfe\xfa\x1e\xb5\x9d\xf1g\xc7\x1a\x7f\x87\xbe \xc7\xaci\xd6-%\xb6\xb3\xa4\xdb\xcc\xb6\xd0\xa1dYB\x00Dg\xb8\xda\x01lt=k\xfaS}B[iC\xb1\xc2\xed\xe4\x8a\xb1o\xa9\xcb\xb0\xcdm,{J\xe7;\t\xaaR\xdd\\Is\xe7&lt;\xa3 d\x91\xdf\xda\xa6\x9bU0\xdb\x16K\x81\x18\x9b\x1dGB;Vu\xfe\xabwx\xc0$\xacYK\x0f\xb9\x8f\xd6\xb1.M\xfd\xc3"d4\x8b\x9e$\xe1W\xeak\x9e\xd5l/.V\x7f5UYI\xcb+\xfc\xa3\x1dp}+\x8d\xd7t\xe8$\x8b\xed\xf0[ \xdf\xce\xe0\xf8(\xbd\xb8\xefX\x124\xd6\xe1\xee$\x8f&amp;R#\x8b\x8c\x96a\xedT%\xd9yp\xd6W$\xf9\xbd\x01Q\xcek\x9c\xd5\x9a\xde\xce\x7f&amp;\xe2\xdd.c\x927\x89%v\xc0\xc8nA?\xca\xbc\x0f\xf6\xc2\xf0L\x07\xc3\xd3\xeb\xb6s#\xc5im\xf6\x8bx\xe7}\xb2+\x03\x8d\x80\xf7\xcfP=+\xf3\xef\xc7\x1f\x18u\x8d2\xfbV\xf0\xcc\xef\x1b\x8f\xed)\x05\xe2\x8c:\xcf\x98B\x82\x00\xe0d\xf7\xf5\xaf\'\xd5|]s\xa7x\x9c\xcc +o\xb2$XY\xb1\xc0c\xc7\xbe\x05v\xfe\x15\xf8\x9b\xa7\xeb\x9e\'\xd24\xadFq\x05\x9a\xce\x91;\xc4\x7f\xe3\xdc\x1e\x01#\xa9\xf7"\xba\xff\x00\x17\xf8\xa2\xcfF\xf1\x87\x89\xbc\x13#\x96x\x96Km6\xf20Q$Pr\xb2\xe7\xd0\xae\xd3\x9f\xf6\x85g\xe9\x9f\x14\xbcB\xdf\x08\xecu4\xf9v\xc6\xf67\xcb#ga\x07\t\x9fB\x00\xc5`\xdcx\xdb\xfbF\xd8X\xd9\xdc\xba\xc7&lt;q,\xc0\xae\x14\x95\xf3?^G\x1e\xf5\xe9?\x0e\xbcA\xe1\x1f\x16x*m&amp;\xe1\xda\x1b\xdb\x1b\x98\x0bou\xfd\xe4O\xfb\xae3\xd0\x9f\x94\x91\xdb5\xe2\x92[\xcb\xe0\xbf\x19k\xde\x1b\xbd\xb0\x91\xee\x9bL\xb9\x825 \x86\x8a\xe5]0O\xd0\xc6O\xd0\xe6\xba\x1dJ[{\xad&gt;\xdf\xc5\xb6q\xc9c=\xee\x8d\x89\x90\x10\xfd[qu\xc7 \x96P\xa3\xd8\xd6/\x8c\xbcKg\xe2\x1dWF\xbeM@\xc6\xb2\xc8\x89y\x02\r\xa9\x1b\x89\t8\xfa\x87 z\xed\xf6\xafM\xf8iau\xe3\xbd\x1a\xce\xefL\xd4\r\xde\xa7`|\x99\x92y\x07\xef!F\x8c\xa1\x1e\xbf\xb9R\xbf\x8d?\xc6\x9e\x10\xd0\xb5\x8d\x13Q\xf8{\xa91\xb7\x9e\xd6P\x89t\x83/\x1a,\xc5\xc1S\xef\xbfi\xc7`+\xfa+\x8a8R6\x97%rrrr\x014\xf5\x95#u\x8eH\x89R&gt;}\xa6\xa3\x91\xed\xa2\x9c\xceX\xec\'j\xa1&lt;\x81\xebUf\x8c\xad\xc3K\x10\x12\x0c\xe3\x05\xb8\x03\xd6\xa3i\x126\x11*\x8d\xeb\x9c\x8d\xfc\xd6-\xf6\xa8\xf0\xca\xe3\xc9\x939\x08\xc4\x03\xc6:\xd4:\xc4\xf0\t\xe1\xb9x\xf7\x8d\x84q\xd8c\xd3\xbdr\x1e!x\xae.\x0cq\xa8\xdb\xce@\x18\xdc\x0fN=\xab\x92\xd4\xad\xeet\xd9\x8a\xb1m\x91I\x95@\xb9\xde\xd8\xe4\xe7\xebY\x11\\\x1b\xdbx\xd6\xe2\xdc\x87H\xc4\x86\x13\xf2\x95q\xc6s\xdc\xfbW3\xe3=+Sf\x9e\xf3H|\xaa\xa1Fh\xcf\xca\xfe\xb9^\xb9\xf5"\xbc\x17\xe2\x97\x81|A\xe3\xbf\x0ej\xfe\x16\x86YeX\xa2\x0e`Rx_@{\x0e\xd5\xe1\x1e\x03\xfd\x90\xfe\x12\x7fh^7\x8a\xaf\xae \xd5\xeef\x01-\xae0\x15\x15x&lt;\x9e\xb8&lt;f\xb8?\xda\x0f\xf6%q\xaa\xb4\x1e\x12{f\x9c\xab4q\x96\x18\x95s\xeb\xeb_:\xf8\x83\xe1\x8d\xcf\xc3\xef\x15\xc7\xa1x\xd6\tmDnQ\xccJs\x1c\xa0\xe0\x02}\x8f\x15\xbd\xe2\x88\xce\x8d\x06\x95}~\xefq\xf6\x8bY-$\xbb#;\xd8\x16 \xe7\xd7iQ\xff\x00\x00&gt;\x95\xcd\xe9\xfa\xa5\xef\x85$\xbb\xb0\xbf\xb9y,\xf5[\x1d\xd1\xe127)\xc2\xa8\x1f\xde\xc7Z\x82\xfeMcC\x0fouj&lt;\x94\x9dZ9#\x19\x000\xe3\x9f\xa5o\xe8\x9a\xfd\xae\x9c\xfa[Ah\xf0Ks\x02\xa4\xcb\x9e%x\xa4\xc9$\xf68*\xc7\xd0\x0c\xd6\xe7\xc6\xad\x115\xcf\x11Z\xf8\xefOwH5{\xbf\xf4\xab]\xe1\xb6Jc\x07*G$1\xcf\x15oK\x9b\xc3z\xb5\x98\xd2nM\x9a\xad\xec;-\xee\x03\x8c!a\x8c\x9fA\xbc\x13\xf8\xd7\x98j\xfe\t\xbe\x8e\xfeg\xf3\xbc\xa63HC\x7f\x02\x86?+\xfb\x05\xeb\x9e\xc0\x8a\xed&lt;)a\xa9\xf8\x12\xdc\xea\xfa.\xbb\xe6Gx\x16t\n\xa5%\x85\xc0\\\xa1\x07\xd7\xb7\xafj\xf4\xbf\x8dW\x9an\xb5%\xaf\x8ct\xcb\x98\x1e=B\x18\xd7P\xb0IB\xba\xb6\xdf1d\xe0\xe7\r\xbd\x7f\xef\x83\xe9_\xd0\xb41\xceZX\x18\xae\x06\n\x92z\xd3\xc2]]\xcc\xc8T\x00\x067\nC\xa6D\xbbZ\xe5\x8a\x0c\x0f\x98\x1c\xe7\xde\xa8^\xc8\xb6\xdb\xfc\xa6\xca\x16#w\xd0\xf1T./&gt;\xd1\x0bN\xb1#\xc8@\x01\n\x10N:\xfdj\xbc\xd7w\r\x08\x10\xda\xc6\xbb\xd8\x9d\xc3\x9c\xd6~\xb3oq-\x9a\xa2\xb6\xcd\xed\x96`\xb9W\xfc{}+\x13W\xd2\xad\xe7\x8b-\x00\xf3"\x18\x03a\xc0\xc7\xa9\xae?\xc4\xd2\xdd\xa2\x96\x87\x0e#\xdb\xc4k\xb8{\xe3\x15\x99%\xa4W\x12}\xa1\x08\x05\xdb\x9cTqh\x86\xd5\xdc\xc9:\x08\xe5,\x08\xeb\x8c\xf7\xaefO\x876\xf6\xba\xb1\xd5\xa0\xb8V\xdf\x0b\xa4\xa0/\x12\xfc\xdc\x0fr=+\x8e\xf1\xf7\xc0\xef\x0fx\xb9\'\xba[\x7f.\xe6\x13\xc4\xa1x\xc3|\xc7\x18\xed\x9a\xf2\xbdc\xf6{\xd6\xf5x\xbe\xdb\x043\x1f\xb3\x93\x19\x7f\x9b\xe5S\xce}\x85x\x17\xc6\xdf\x80w\xb7\x91\xdfC\xe3m\x04\xdf\xd9O\x16\xe8n\x16"\xb3A!\xe4g\x8c\x91\xef\xde\xbc\'\xc6\xfe\x15K\x1f\x07h\xbe\x19Kfhm.\xca\xbc\xa4d\xa3m\x00\x16=\x81\x0cH\'\xa8\x15\xcax?\xe1\x9bk\xd1^h\x9b\x1c\xea-\x00\xb8\xd2\x965%n\xb2w7\xccx\x18\xed\x8e\xb5\'\x8f&lt;\x1f\xab\xc7gl\x9a\x8d\x9e\x14N\xbem\xc2r\x18c\n\x18\x8e\x01\xf6\xae\x1bP\xba\xbc\xb5\xbf\xb3\xd3u;\x86H\x1cJ\xf1\xb8\\\x18\xcb\r\x8c}\x87\x15\xe8\xde\x16\xd6\x92m&gt;\xc6\xdfW\xd4\xd7b\xdb\xc7=\x9a:\xe5Y\xa1l\x9c\x9e\xc5\x95\x80\xc5S\xf1w\xc3\x9dO\xc1\x1f\x14\x9f\xc22\xc2\xe9\xbd\xd6H\x91\xf22]D\xbb\x13\xd7\xe6l\x00*\x85\xdc\xb0^!\xd3t\xe7v76\x8c\xb2+\xaeYd\xce\xd7\x00z\x0c~U\x9fq}q\xach\xbat\x93]ys\xd9\t-\'\xf2\xdb\x86\x19\xfd\xdb\xb7\xa6W\x1f\x9dt\xb6^66Z,\x9e\x1d\xbb\xd3T\xc8\xd0F\x8b,\x87\xe6_-\xb88\xec\n\xb6\x07\xd2\xbf\xa6\xa6\xb7\xe4\xc8\xb1\x80T\xf2;\x9a\x91-f\x97 A\x80\xc9\x9f\x95j\x03\xa2\\\x1f\xbe\xfb\x87a\xe9Uo\xfc0c\xb7\x12}\xcd\xd2\x13\x8e\xa4\xf3\xe9X7\xfa\x15\xdd\x9d\xe7\x9d\xe4\xf0dm\xb9\xe3\x82MFt\xbb\xcbh\xcf\xd9\xdf\x84\x1f(+\xc7\xff\x00^\xab\x0b`C\xdb\xdd6\\\x12\x0f\xf7G\xff\x00^\xb3\xb5\x88!\x85\x16\xda\xdcn\x0e\xbf\xbc\x07\xef~U\xc6\xf8\x8bB{gg\xb7v\xf2\x898\xf93\xf8W=5\x94"&amp;\nHa\x93\x8f~\xf5Z\x0bf\xba*e\xb9$\x90\x08b1\xb3\xdb\x1d\xea\xc3h\r*\xb0I\xdaU*\xdeae\xdb\xc8\xee\xbf\xd6\xb2t\xfd\x1a\xf4\xca\xd2]H\xad\xb9Tm\x8cnS\xf8\x8e\xb5&lt;\x9e\x1b\xb6{\xc2D*\x16F*\xd1\xa8\xe0\xe2\xb1|Y\xf0\xc3\xc3\x1e \xb4k+\x8d\x06)\x15\xb3\xe6\xfc\x99\'+\xd0}+\xe5\x7f\x8b\x7f\xb2,z}\xa3O\xa4[ Q;\xcdsn\xd1gr\xf2\x07\xe3\x8a\xf9;\xe2\x07\x815\x1f\x84\x1e"\x8a\xff\x00E\xb6\x9bm\xab\xb6\xcd\xad\x96\x08\xc7\xb0\xfe\xee+\x9f\xd7&gt;\xc9\xac\xe9w\x16\t}#\xc95\xb9\xba\x88K\x19+\x04\xdea$&gt;&gt;\xf89\xca\xe3\xa0\xc5p\x1e&amp;\xf0J\xf8\xb3\xc1\ty\xa5\xdb\x85\xd5\xb4i\x82O\x19\x901\x92&amp;\xe4\x9e:\xe0\xf5&gt;\xb5J\xce\xcaK\x1f\x03\xdf\xc9\xa8&amp;\xdb\x9b\tV\xee\xd1%\x05\x95\xe1+\xb2D\xe3\xa1\xca\x93\x8fA]=\xee\xb7\xabx\xff\x00O\xd1\xf5\xd7\x13Kym\x046\xf3\xca\x8d\xfe\xb5\x90\x95\x84g\xb1\x0b\xb3\xdc\xed5\xc5x\xaa\xd3X\xd3\xf5+\x8f\x19\xc5{q\x0ckx\xa2\xed\x80\xf9b\x95\x89%O\xf7rs\xc7\xb1\xab\xbf\x10c\xdb\xa4\xb6\xb5j\xa4\xfd\xae\xe0y\xc9\x12\xf0\x1cG\xdb\x1e\xe1\xbf#\xe9\\\x8e\xa7\xad\xdf\xca\x7f\xb5\xa5\x9d\xa3\x89\xd4!\\\xf0q\xc09\xaf\xebf\xeb\xc3\x81\xdf\xedE\xb6\x95?*\xf64\xdd&gt;)\x12v\xde\x17\xa7J\x92\xebKgt\x96B\x15H\xce=j\xb5\xe6\x93=\xd9kx\x0f\xc8;\x9e\xb5\x81\xe2-\x0e}&gt;\xdc\xdc\x12\xac\xe0d+\xbf?\x95q\x7f\xf0\x91_I\xe7-\xd4(\xb1\xc2\x1fz\x07\xf9\x80\xdd\xc7\x15\xa1\xfd\xa7\xa1jV\x9b\xad\xee\xd66\' 1\x19\xaa\x89uh\x8e\xe94\xf1I\x9e8\xc1`+\x1b[\x82\xce\xea6K \x19\x00 \xaf\xf1q\xc18\xae\']\xd3#\x8e\x14\x96\'\xdf\x87ee\xe8k#O\xb5[B\xed\xe6\xaa\xab\x1c\x85\x91\xb1\x80}=j{\xfb\xb9V\xc8m;V\x1c\xe4\x8f\xe2\x15KE\x9b\xcdC\x15\x8a\x98\xfc\xcf\xe3z\xbd\xf6i\xa4\xda\xac\x0by]dA\xf7\xbdM[\xbc\xb4[Kw@\x14\x15\x19\x0c\xde\xf5\xcdx\xb7\xc2q\xeavF)\xe1I\x06\xd2\x1d\xc8\xc0\xc7\xa6k\xe6O\x8d\xbf\xb3S\xebows\x15\x88q\n\x7f\xa3t\xc6\x0fU\'\xdb\xa0\xaf\x94\xbe\'|)\x9b\xe1\xfa\x88\xb5k\x13\xfe\xb9\xfe\xc4B\x11\xba0r\xca\xc7\xb9Q^i\xab\xe9\xf0xWZ\x83\xc4\xde\x15V\x11\xc9\x03\xa9\x86G\x05X\x16\xe7w\xbf#\x1fQX\xfa\xde\x8b.\xb3\xa8\xa5\xde\x8df\xad\r\xd0xn\xa2\x90\xf1\x87\xe8\x7f6o\xc8\xfaW\x13\xa2\xea\xfa\xff\x00\x81\xda\xe3G\x80\xe69\'\x85\xf6I\xf7\x91\xa3b\x1b\x1f\x87?J\xf7o\x05~\xc2\x1f\xb5?\xc5\xef\x81W\x9f\x19\xfc!\xf0[^\xb8\xf0m\xde\xae\xc9s\xad\x0bp \x98\xef\xd9\xb8d|\xca\x19\xc8\xdc;\x83\\}\xd7\xc0\xbf\x1fh\xf6W\xff\x00\x055\r.f\xd6m\xafbK)m\xa27\x0e\xcc\xaeT\xc26\x03\xb4\xf2G\xe0k\xb6\xf8#\xff\x00\x04]\xff\x00\x82\x88\xfe\xd0ZtZ\x8f\x82&gt;\x02_i\xfan\xa4$\xf2\xe6\xd6\xa5\x8e\xd69$\x8d\xbel\x16\xc1c\xc1\xf7\xf5\xaf\xe8\xee\xf6\xe5L\x9f\xeb\t\xc0\xc9Q\xd4\x8fZ\xa1q\xacB\x92n{\x94\x8d\x08\xc2\x93\x81\xf4\xac\xcdG\xc7\xba-\x85\xda\xda\xdd\xdc\x19\x14 \xc3!\xcf8\xacM[\xe3\xe7\x84t+W\xdfzcf\'b\x920\xdfS\xda\xbc/\xe37\xedm\xa8K4\x96z5\xa4k\x1cl\xc0\xb9\x98|\xf8=\xbdk\xc3&lt;W\xfb]k\xf6wfH-VI\xa6\x01H\x90\x95\xf2\xf1\xd8\xfa\xd34\x8f\xda\x8bQ\xfe\xd8\x13\xf8\x86r\x8c \x0eD \xed+\x8c\xf1Q\xea_\xb6\xdcPj\x86\xd3J\x86c\x17\x95\xbe9\xa6\x89\x94\xa9\xf4\x1e\xa2\xb6\xfc%\xfbj\xde^Y\x15\xf1\'\x87f\x12\x80V9\xc3\xedY\x01n\xf9\xe8}\xab\xbe\xb7\xf8\xbd\xa6\xeb\xf1\xc3u\xe4\xb4K$\xca\xc0\xc67\x80\xa5z\x92?\x9dt\x10\xdci\xba\xa5\xb09WWU\xd9*\x1fj&amp;\xd1\x91"d\xf2\xfc\xd4\x90\x9d\xae\xad\x91\x8a\xc9\x9a\xc2\xe3M\x93\xfd\x1e&amp;\xda&gt;\xee\x06x5\xad\xa32\xf9r*6XC\xf3\x03\xd8\xe6\xac\xea\xf2Gq\xb8`\x10\xca\xca\xc5y\x19\xdd\xc5\x11\xe8\xc5\xd5n\xe6\x07{\x9c\x18\x1cq\xb4t8\xf5\xae?\xe2?\x85\xa0h\xa6\xbb\xb5_\x95\x88g\x8f\x1d\t\xed_6\xfe\xd2\xde\x01\xd3.\xf4\xc6\xb8\xd5\x9a%\xb3\xbaU\x8c\xf9\x91\x850\x16\xf9K\x02{`d\x9a\xf9\x9fB\xfd\x9f\xf5\xcf\x89^:\xb9\xf8a\xf0\x83\xc1Z\x9f\x8b\xae\x84/\xf6\x9bm\x06\xd3\xed,\xa4d)\x1c\x109*Oo\x94\xfaW\xb1~\xcd\xdf\xf0Co\xdb\xcf\xe2~\xa5\x0c\x9e/\xf8Z\xbe\x10\xd0\xa7\x91\x05\xcd\xde\xa9s\x12\xdc*d}\xc8\xc9\x05\x1b\x82s\xd3\x9a\xfb]\x7f\xe0\xdb_\xd9\xff\x00P\xf8\x89k\xe3H\xfca}e\xa5A~n\xa7\xd2\xee\xe1K\xa9\xa5r\x83v[\xee\x8c\xb6N\xde\x95\xf6\xf7\x83\xff\x00e\xcf\x84\x7f\x0b&gt;\x05\xc5\xf0g_\xbe\x92\xff\x00\xc2Zg\xef\xe4\xb4\xd5nV\x08\x11\x15\x8b\xb0m\x98_/w\xf01\xc0\x1cg\x8a\xf8\xef\xf6\xa3\xff\x00\x82\xca\xff\x00\xc1"\xbfb1/\x84\xfc\x11\xa7h&gt;2\xd7-\x0b\xc7&amp;\x87\xf0\xebI\x82H\xe3}\xc4\x18\xe4\xb8\x00\xc2\x83~[r\xb1#\x02\xbf5~0\x7f\xc1\xc7\x7f\xb5\xff\x00\x8b\xe0m\x13\xe1&lt;\xfaO\x80\xf4X\xe42[\xb5\x95\x98\x9a\xf7\x97\xc8g\x92La\x9cr\xd8\x1c\x92k\xf6\'\xc5_\x16\xadb\xd0\xa6\x96\xe2\xf6\x08\xe7Kt2JN0@\x19\xcf\xa6M|\xfd\xf1k\xf6\xaf\xd5&lt;3{\x1d\x8d\xa5\xccR4\xd2\x06\x8a\x08\xe5\n\xea\x98\xe1\x88=\xbd\xeb\xc3\xfci\xfbXjO\xab\xb6\x9b\xe2?\x1a\xcc\x91\xef\x12\x8bKi\x01\xd8\xb8\xfb\xc5\xc5yG\x8c?h;\x8f\x10x\x86+\xc9&lt;E\xaa\xbe\x9f\x0e#P\x93\x11\xbf\x1c\x03\xf8\xd4Z\xff\x00\xc5\xbd}|\xa9|2\xc2D|\x00\xba\x8c\x99\x91&gt;\x87\xb7\xe3]\xa7\xc2\xfd?Y\xf1\x02\xc1q\xabh\xc2\xfai\xe42;\x19\x01\x1c\xf3\x8c\x8e+\xd2 \xf0_\x87\xef\x99\x7f\xe1$\xf0\x1c\xf6\xe3q\x11\x84l/\x1f\xc5\x9e\xfe\xb8\xa7\xeb_\x0b\xbc\x01wk\x98\xf4Cr\x8b\x11\x1b\x85\xbb\x029\xf5\x03\xads\x1a\xdf\xc0I5k\x80&lt;#\xa8Ob\xa7\xee@\xf1\x12\xa4\xfdMP\xd3\xfe\x15\xfcg\xf06\xa0#\xb7\xd5\xa4\x91\x19\xc9\x92;ip\x0f=\xd4\xf2\x7f\n\xf5o\x87~&amp;\xf1\x06\x9b(\x87Z\x88+\xc6\xa1Ls\x83\x96\xf5*z/\xd0\xf4\xafZ\xd1\xbcAa\x06\x9e\x93D\n\xa6F\xd2\xc4?\'\xb6z\x13Vo\xad\xadd&amp;u\xc1\xc9\xf9\xb7p\x01=\xbd\xaa\xab\xd9\xe29ZH\x8f\x96\x1c\x0f\x95pwzS\'\xd4\xb4}*\xdd\xf5o\x10\xdd\xdb\xd8[E\x93#\xdeN\xab\x18A\xd1\xb2O\x1cW\x15\xae~\xd9\x7f\x08\xefu\x06\xf0\xc7\xc2\xbb\x1dg\xc7:\xb2\x10\x90i\x9e\x11\xd3d\xbc\x05\xc7\x04\x19T2 \xcf\xbe+SF\xfd\x9d\xff\x00\xe0\xa0\xbf\xb4f\xa2\xb7\xf0\xf8\x1fD\xf8S\xa0\xca\x9b~\xdf\xe2k\xb1w\xa82\xb7P\xb6\xf1p\x08\x1f\xde\xc1\xafF\xf8q\xff\x00\x04[\xfd\x9fF\xa9k\xad~\xd0\x9f\x11|Q\xf12\xea\xd1\xc3\xbd\x8e\xa71\xb6\xd3\x8b\x0e\x9bm\xa2\xe4\x8c\xfa\x9f\xad}}\xf0\xab\xe1o\xc3\xcf\x85\xfa\x14z\x07\xc2\xef\x86:G\x87lQB\x88t\xbb(\xe1V\xc0\xc7X\xc1,}\xd8\xf3\\_\xed3\xfb~\xfe\xc7?\xb1\xbe\x99&amp;\xb5\xfbG~\xd0~\x1c\xf0\xd4\xc8\x8c\xdf\xd9\x977\xcb5\xf4\xb8\xcf\xc8\x90FL\xb9?\xee\xed\xf45\xf9i\xfbf\x7f\xc1\xdc&gt;\x19\xd3%\xb9\xf0\x97\xec+\xf0ZMQ\xc2&lt;v\xfe.\xf1\xc6\xe8\xd1[$\x12\x96q\x90\xcc;\x82\xcd\x8f\xf6{W\xe5\xa7\xedK\xff\x00\x05G\xfd\xbe?m\x8b\x8b\x99\xfe9|\x7f\xd6\xf5\r)\xa4;|?a;Xi\xb0.r6\xdb\xc2QXc\x1c\xb0-\x8e\xa2\xbcJ\xc1.\xa3\xbaU\x94\xae\xd2v0\x8b!\x81\xed\x8d\xc0\x1c\x0f\xa0\xaf\xa9?b/\xf8\'\xf5\xff\x00\xc7\xcb\x89\xf5\xcdq\r\xcd\xbd\xb8+\x0e\xd6\xdcY\xb6\x9c\x96\x03\xb7\xa1\xaf\xd0\xff\x00\xda\x1f\xf6\xac\xd44o\x84\x9fc\xd5\xaf\xa1\xb7\xd4/"2\xc96\xed\xbeZ\x13\x98\xa3\x1f\xde8\xc0\xaf\x91|C\xfbI\xf8\x8a\xf3o\x885K\x95\xba\xd4/\xe1(\xc3y\xccC&lt;\x9cv\xcda_|o\xd3\xb4\xbb\xef\xb7\xcd\xa6}\xa5\xae!tuy\xbee\x19\xe3\x8e\xd5\xa3\xe1\xdf\x8a\x96\xfa\xe4\xe2Yc\x86\xc6\xde \xa0FX\x16\xfc\xab\xd4|\x1b\xe3\x7f\x07jz\xb4\x12\xdf\xc7\xf6\x84\xb7\xdaY@\xc6\xe3\xeaG\xa15\xf4?\x80~/\xe9j\x91i\xf6z&lt;ZXV#sG\xc8\x1d\xba\xd7\xa4i\x9e \xb4\xd4\xe3\x8a\xea\xe7\xc5A\xa2A\x85\x18Q\x92{\xd4\xe6!-\xe8\xb3\x85\x1d\xd3nr\x8e2\xf8\xeaq\xfeqBY\xc9\x13\x8f.\xd9\x94\x97&gt;Xc\xce*\xe5\xaaY\xd8\x07\x9bS!\xe4\x95\x89\x01\x8f#&gt;\x95\x15\xe5\x8cM [\x02\xf1\x82w+\x9c\x13\xbb\xae+\x9f\xf1o\xc6\x1d\x0b\xe0\xf6\x9d.\xb3\xe3o\x18i\xfau\xb3\xe1\x9ai\xae\x11\x17\xdc\xedb7\x1f\xa5s\x9aW\xed\xbb\xa5x\xebP\x7f\x0e\xfc\t\xf8q\xe2\xaf\x88\x1a\xa0;d}\x07Jt\x87\xe6b\xab\xbei\x07\x96\x17 \x803\xdb\x15\xd2i^\x03\xfd\xbc\xfe&amp;j\xfa/\x865\xff\x00\x19\xf8W\xe1\x88\xd7\x9b\xce\xd3l\xe0\x8f\xfbWUk@v\x17\xc2e#\x00\xfc\xbb\xbe\xe8n3^\xeb\xf0\xd7\xfe\t1\xf0\x16\xde\xfa\x0f\x11|x\xf1O\x89~&amp;\xea\x96\xec\x0f\x9b\xe2MU\xc5\xa27|[\xc4v\x1ezn8\xaf\xaa\xbc\x0f\xf0\xcb\xc0?\x0b|5\xfd\x8f\xe0\xbf\x08i\x1e\x1b\xd1\xedT\x17\x8a\xd6\x04\xb7TP8f`\n\xe3\x03\xbbW\x8c\xfe\xd1\x7f\xf0V\x7f\xf8\'g\xec\x9d&lt;\x96\x7f\x12\xbfiM"\xff\x00X\x89X\xb6\x83\xe1\x99M\xfd\xd3\xe3\xf8LP\x96U\xf4\xe7\x15\xf07\xed)\xff\x00\x07ZKj\'\xd1\xbfc\xef\xd9:F\x01\x8a\xda\xf8\x83\xc7\x13\x88Qy\xf9]-a\x0c\xc7#\x07\x0c\xcb\xee\x05|\'\xfbC\xff\x00\xc1_\xbf\xe0\xad\x7f\xb5\x9d\xfc\xfa\x0e\xbb\xfbC\xea^\x1d\xd3/#(\xdaO\x84-\xce\x9bo\xb7?p\xb4d\xc8\xfdq\x86r\x0f\xa5|\xc3u\xf0w\xc4\xde!\x7f\xf8K\xbc}\xe2;\xcb\xe9\xee\xe7c,\x97R\xb4\x92\xb1\'$\x96\xc9\x00\x93\xcf\x00}+\xac\xd5\xbe\x08\xe8~\x1e\xd0t\x8f\x14\xe96\t*9Xu\x11\xbf\xcce\x04\r\xa7\x8f\xe2\xeek\x1bU\xf0\xe6\x9f\xa5\x0b\xcd\x12\x1b\x18\x9cJI\x8eD\x19\xdd\xf2\x81\xc7\xadu?\x06&gt;\x07i\xde&gt;\xf1CY\xdf@^\xd7\t\xe6J\xa3\xe6F&lt;!\x03\xb8\xcfz\xfdZ\xff\x00\x82\x7f|\x03\xd3\xfc\x03\xe1\x1b{\xab\xadi\xa0\x9dc0\xf9\xb0\x91\xe5J\xa1p\x18\x9e\x99=k\xe3\x1f\x8az\xf5\xcf\x8f\xec\xe0\x84\x937\x91~nd\xf3\x01\xea8\x8d\x0f\xfb;1\x9fz\xf2/\x14\xea\x9a\x1e\x8d!\xb7\xd3\xa32\x14\x8f\x08\xec\xdc\x0cW!i}\xaf\xf8\xabV6\xda&amp;\x9c\xd2\xccv\x86\xfb:\x92T\xfa\x9a\xfa?\xe0\x17\xecY\xaak\xa9m\xe2\xef\x8a\xbe4\x8fL\xb3w\r\xe5\\\\*\xee^\xbd\t\x1d\xab\xe9\xef\t\xf8\x9f\xf6\x13\xf8\x19\x1a\rW\xe2^\x95st\x91\x95\x96;(\x16\xeaB\xd9\xe0mRNk\xb7\xbb\xfd\xb9~\x04_\xc5\x0e\x9d\xf0\xf3\xc1\xbe&amp;\xf1#\x04#u\x8f\x84XD\xac;&gt;\xf5\xc5q\x9e:\xf8\xfb\xf1\x0b\xc5ZD\xcf\xa3\xfe\xc7:\x8a\xdcL\xa0Gq3\xa5\x90\xc7f\x00t\xf5\xc5x\x87\x88\xbfl\xff\x00\xdaG\xf6t\xd7\xed\xb5\x1f\x89_\x05.\xc6\x89s7\xee \xbe\xbc%d;~TI\xba\x028 g\'\x15\xe8\x9f\x03\xff\x00\xe0\xa7\x1e\n\xf1/\xc3{\xdf\x18|R\x994\xa9t\x99v\xdd\xac\x93+3G\xfc,\x06r}\xeb\x15\x7f\xe0\xb2\x1f\xb3\xaf\x89~(Y|:\xf0\xae\x9b\xa9_Iu3(\xbfE\xf2\xa1-\xd7\x19o\xbd\xc7&lt;v\xafG\xf1/\xede\xaf\xeaV\xe6\xd3E\xd2\x12\xd6\t\x8e\x04\xec\xdf2\x8ccw\xb5{\xef\xec\xa1\xfb\r~\xc9~&lt;\xf0?\x87\xbe;\xf8\xbb\xc1\xaf\xe2}kX\xb43^O\xae^\xc9q\x1d\xbd\xe2JVu\x8e6;\x14n\xcb\x05=\x17\x1d\xab\xe8\x7f\x1c7\xc3\xaf\x00|5\xd54h\xbc{\xa2x\n\x1b\xcd.kQ\xac\x96\x82\xdb\xecJ\xe3k:\xf4\x04\x85\x1b\x86\t\xc15\xf1\xd7\x8f?\xe0\xa6?\xb1\x07\xc0)t\x18\xfc-\xf1\xfb\xc4&gt;;\xf1\x8f\x85|7?\x85\xed\xee|\x03\xa6,\xc7U\xd2\x9aH\xe4X.\xa6\x931\xac\x81\xd4\xb3J\x08\xe7&lt;\xd7\x9d\xfcU\xff\x00\x82\xea\xfe\xdb\x9f\x16\xe1{/\xd9\xdf\xe0\xa6\x89\xe0];\x04A\xabx\xa4\x1b\xbb\xe0\xa7\xa3yc\xe4C\x8e\xdd\x07A_4\xfcU\xf8\x93\xfb\\~\xd1\x0e\xf6\xbf\xb4\x0f\xed9\xe3\x0f\x15[\xc9\xcbh\xb0_\xbd\xa5\x86\xe3\xce\xd3\x04EF;|\xc1\xb8\xeek/\xe1\x9f\xfc\x13\xeb\xc4\x9e8\xd4":_\x85WI\xb7\x90\xe2a\x0c\x01\x8b(\xe8\x19\xf9#\xea1_I\xfc6\xff\x00\x82Yx\x1fB\xb03\xeb\xdaj\t\x1cd\xef\xf9\xf0\xbe\xa35\xcc|l\xfd\x94\xbc\x11\xe0;[\xadSA\xd1\xd1\xa5\xb2\x10\xcf\x1c\xc56\xe6 J\x1e;\x9f\x99X\xfd+\xe7/\x1a\xf8N\xc7E\xd1\xa7\xd2g\xb72\xc3\x06\xa3\xb5\xf1\x16\x1b\x05\xb0\x00\xfa\xf1\x8a\xe1am"-v\xf6\xde\xdeE\xfe\xceU\x92e\x81\xf2K b\xaa\xc0w\xc0\xc5y\xe6\xad\xe1\xc3\xab\xf8\xe1l4\x1b\xb8\xca\xac\xa1b|\x13\xb8\x13\x82k\xec?\xd8\xcf\xe0n\xb1\xe1\x7f\x11Du\xabUx\'v\x10\xb1\x88\xed\x93\x1f0$\xf6\xc9&lt;W\xe8?\xc2\xfd\x1a\xcb\xc1Z\x0cz6\x95n\xdbs\xb8\x83\xf3l\xc8\xe9_\x9a\xdf\x12|Y\xe0\x9f\n\xdd\xde\xea7z\xb5\x9e\x9a\xaf!%$p9\xc7NM|\xeb\xe2o\x89\x07\xc5sK\x17\x80&lt;+y\xaa\xed\xcf\x9bxb+\x1a\x9e\xe4\x1cc\x15\x7f\xe1\x7f\x81~&amp;\xebW\x16W7&gt;4\xd3|-o$\xec\xdex\x8ft\xcc\t\xc9\xcbt\x03\xd35\xed\x1a7\x87\xff\x00d\xcd\x1a\xf65\xf8\xdb\xf1k\xc4\x9e)\x91%\xfd\xed\xb1\xd4\x19`f\x07\xa0\\\x80\xdc\xf5\xdb\xc5}M\xfb&gt;\xfe\xdd\x1f\xf0M\x8f\xd9\xfbLe\xd2\xbfg;8\xae"Ef\xbd6$\xb6\xd6\xe1\x1b-\x9e\t\xe8k\xd9\xae?\xe0\xa6\xff\x00\xb3W\x89\xf4\xa8\xa1\xb2\xd0[J2\x8f1\x19\xf4\xdf,2\x9ewgh\xc8\xf7\xac\xbf\x12~\xd0\xdf\n|yf.t\x0f\x12[\xce\xd2p#I\x14d{s\xd6\xbc\xab\xe3n\x99\xa1|`\xf8W\xab|,ml\xb2\xde)\x93MY\x18\x97\x8a\xe1\x17#i\xc7\xca8\xc5~i\xdd\xe9sE\xadO\xa4\xea\xd0\x05\x9e\xdd\xa4\xb7\xb9\xb7\x90\xb1\xc4\x8a\xdb\x18\x1e\xd8V\xe0g\xda\xbc\x8b\xc4\xda.\xb9\xf0\xf7\xe2t7\xfaD\x13y\xf1],\x900\x07?0\x07w\x1d\xbbg\xd6\xbfP&gt;\x0cYx\x9f\xe2\x9f\x84\xf4\xbdK\xc3&gt;\x1a\xbd\xb8\x96\xee\xc9~\xd0\x0cL\xab\x1b\x90\x0e\t#\x03\x9a\xf7-\'\xc3?\xb7O\x84\xbc\x06~\x1fx/\xe2\xe6\x91\xe0\x8f\x0fZ\xddMz\xd3\xc5\x17\xda/\x8c\xae\xbc\x84q\xf2\xaa\x91\x9c\xfa\x1e+\xe5O\x8f\xff\x00\x0ft\x9f\x16\xf8\xeb\xcc\xf1\xaf\x8f\xfcO\xe3\x99\xa0r\xb2\xde\xf8\x83R%K\xe7\xe6a\x10`\xbc\x9c\x9cV\x8f\x80&gt;\x15\xe9\xd6\xd6Ie\xe1\xcd\x1e;{tp\x04il\xa0\x01\xd9\x83v\xff\x00w&lt;W\xb2x\x0f\xf6i\xf1\x0f\x89@\xfb\x05\x99\xb8i\x1b%\xb6\x1d\xa3\xeb\x8e\x05}\t\xf0w\xf6!\xd04{e\xd6|cf\xb3\xdc\xccU\x9a\x1f+\xe5N\xf8\xcf\xa7\xbd{\xa5\x87\xc3\xff\x00\x0fh6b\x1d\x17M\x825E\x0b\xb5!\x03\xa0\xc7^\xf4G\xa0\xdd\xff\x00\xc7\xd4Ql\\\x159a\x8f\xca\xbc{\xf6\x80\xf8k\xa7\xea&gt;\x1a\xbc3G\x96\xb9\x8aH\xb3\x8ewm\x04\x8f\xa6x\xaf\xce\xdf\x8a\xf1\xb6\x81\xe3\x8b\xf8\xf5\xeb!\xf6=J\xed\xa1\x9c\x13\x8f)\xd4\xa3\xc4\xe3\xd0\x11\xd0\xf7\xaf\x995\xddN\xdbC\xf8\x84Y\xe3%SSx\xde,\x1c\x18\x9f\'g\xe7^\x99\xfb\x13\xf82/\x1a\xfcu\xd3\xa7\xd5\xad\xc8\xb5\x9a\xf1\xe0\x8c\x90\x0cy\x00\x9c\xe4\xfb\x83\xf9W\xe9o\xc3\xdf\x85\xf6\xdau\xbd\xb4\xe6L\x102\xf1y\x7f\xc5\x8ey\xed\xcdzF\x95qq\xa6\xbe\x10.\xd5\xda\xb8\x07=\x17\x1d{\xd7\xe4\xdf\x87\x7fe\x9f\x06\xdc\xea+\xab\xf8\xf3P\xbb\xd7\xb5\x1d\xdb\xe4\x9a\xe6f\xf2Fy8^\xf5\xa5\xe3\xed\r\x11\xed\xfc\x0f\xe0!ie\x0b\xba\x86\x7f\xb3\x806/\x05F9\xe9\\\xe7\xc6\r[P\xb5\xb5\xb5\xf0W\x874;I\xae`\x8c-\xbbA\x0b\x16\x93\x1c\x01\xc7R}+\xe5O\x1dk~4\xd5\xf5\x13\xa8k7R\x12\x93\x18\xe2\xb6V!\x17\x9e\x83\x15\xf4g\xc2O\xf8(]\xe7\xc3\xdf\xd9\xa7\xc6\xff\x00\xb3}\xe7\xec\xf3\xe1MG\xfe\x13/\x0fiZD~"\xb9g\x17ZkY3\x94\xb9G#\x86s#\x17\xc7M\xa2\xbe\xe5\xfd\x89f\xf1_\xc6\xff\x00\x00\xf8#\xc4~ \xf0N\x9bq\x0e\x97\xa6M\xa7\xcb4\xd6|Khq\xc1\x18\xc9e8\x00\x9eH\xe6\xa3\xfd\xae?c\x1b\xa7\xd5\'\xf1\x97\x85|1&amp;\x9b\r\xea6N\x93+\xa8\x89\xd7&lt;\x80=k\xe7\x9b\r\x13\xf6\x81\xf0u\x87\xfc$\x10\xea\xd7\x92\xa5\x83\xc7\x1c\xc2br\x9d\n\xb1\xcf@GS^q\xfbfiQxg\xe2n\x9b\xf1\x0e\xc6\xce$\xb7\xf1\xae\x8b\x16\xaa\xca\x84\x05\x86\xedW\xcb\xbaE\xf5\xfd\xf2\x16\xfa0=\xea\xc7\xc0\x1f\x88\x9e\x05\xd4$\xd3\xf5\xcf\x17\xf8R\tn\xcby_j\x9e\x01!&lt;\xf1\x83\xd1~\x87\xa5~\x81\xfc$\xf8\x8b\xa2\xda\xe8\xc2\xebK\xb8\x8c\x03\x10UH\x82*\xb6\x07\\\x8e\t\xfaW\x97\xfc~\xf8\xcf\xe2\x17\xf1t\x1a^\x9d\xe2\xa9\x04O\x92\xd0\xc3&gt;\xec\x12z6\x0f\x15\x81\xe0\xaf\x01j\xfe3\xd4W\x16\x9e}\xc4\xd2\xeex\x82\xe799\xc9=\xab\xea\x8f\x80\x7f\xb2\x16\xb1qr\xb7\x1e1\xd2\x1e\x0bE\nc\x88\x9c\xa9\x1e\x83\xd6\xbe\xa0\xf0\xcf\x80\xbc\'\xe1{\x7f\xb0h\xb6Q\xc6\x12 \x01\x11q\xc0\xf5\xab\x8bb\xdeH\x82,\xfc\xd2dq\xc9?\xe1V\xa5\xd1n\x073\xf1\x8f\xbc\xabU%\xb5\x16\xf1\xb48;w\x16\x00\x8a\xe7&lt;a\xa2\xd8jv\x0c\x97l\xc5\x1bq\x8f$c%k\xf3\xf3\xf6\xae\xfd\x9b|e{\xe2k\xadn\xd7\xc3\xb2\xdcXC\x1cr\x89\x10|\xcc\xc0`\x05\x00r@\xaf\x90\xfe5~\xcd\x1e+\xf0\xf6\xab\x1e\xbf\xa9h\xb76\xb1\xac&amp;\xef\x0f\x03fbW\xe4\xceG\x04\x82\x0e+\xd3\xbf\xe0\x97\xbf\n&lt;_{\xe2=+Y\xbb\xd1%K[]I\xa7gx\xdb$\x9e[\xb7N\x18\x7f\xc0\xab\xf4\xe2}\x19`\x89.\xad\n\xaa\xc8\xb8\xc2\xaf_q\xedSxw\xc2\xf2\xea3\xc8\xbeR\xba\x8e\xae\x0f\x19\xaf\xcf\xeb\x8f\x0b\xc7\xa4j&amp;\xca;q$\x8c\xbfx\xf7\xf7\xc5e\xc3\xf0\xca\xce\xf3S\x93S\xd5\xa0("\x0cQ\xd4q\x93\xce3\\\x1f\xc2\xeb}\x18~\xd5z\x1d\xd3[-\xd5\xa5\xa6\xb0\x9b\xa2)\xf2\xb4JT6\xe2x\xe4\x92G\xads?\xb7\xe7\xfc\x13\xf7\xc5\x7f\x07\xfe&amp;j&gt;$\xf0\xde\x85sw\xe1\xedJ\xf1\xaf\xb4\xbb\xd8\x10\xb0\xb6\x12\x12\xe6\'\n0\xbbA\xdb\x93\xe9^=\xf0\'\xf6`\xf1\xaf\xc5\x9f\x1a\xd8\xf8cD\xf0\xed\xc5\xd4\xd2\xca\x15d01XT\x81\xb81\x03\x1e\xb8=\xeb\xfa\x02\xfd\x98\xbffo\x0c|%\xf8\x1f\xa0x\x16\x18\xa0\x8f\xec:r\xa4\xae\xa8\x06\xf7(\xa3,\xdd\xbdkW\xe2o\x84\x0f\x83\xado\xfc\x1d\xa8\xdb\xc5+\xdb\xc6\xa2\xe5X\xab"\x17\xfb\x87w`k\xe2O\xda+\xc2\x97^\x1a\xd4o\xec\xb5\xbd\x1e\x18\xa7\xb7\x9c\xc4\xd1[\xaec\x90\x0c\x8c\x928=85\xf1\x87\xed\x9d\xe1s\xad~\xca\x96\xfe&amp;X\xe4\xdf\xe0\xef\x1c,Q\xab0\x05m\xaf"\'\xaf\xf7D\xd1\x8e=K\x0e\xc6\xb9?\xd8S\xc1\xd6\x9f\x14&lt;1\xaeh\xb7Ld\x9fL\xd4\xa2g]\x9c\x98\xe4]\xd9\xf6\xc18&gt;\x86\xbd\n\xe2\xc7\xe2\'\x84\xfcG{\xe06\xd6n\xed\xecm\xc0\xf2b\x91\x8e|\xb2p9\xeb\xd2\xb5\xfc\r\xf0O\xc4\xde3\xf1*\xe8\xfap\xb8\x95\xdaPD\xae\xecUW&lt;0n\xe7\xda\xbfC?b\x7f\xd8\xca_\x87r\xa7\x89\xb5\xeb\xcb\x9b\xa9\x9c\x86+:~9\xc1\xed_X\xeakb-\xa2\x8e\x18\x04r*\x91\xb7\xcb\xda\x07\xd6\xb0c\xb4\xbb\xf3\x7fxW{\x0f\x93i\xe2\xb5-t\xe6K@$@$\xc8\x0eH\xe4\x1fj\x8d\xa5\x8cHR(K2\x8c\x16c\xd4\xd6&amp;\xba\xed\x05\xbb\\\xcd:\xc6\xaa\xdf1f\xc0\xfaV4\xf7\x96\xe6\xdd\xa7\x9a"W\x1f"0\xe8M`\xdcO\xa7\x16\xb9\x86;8\xe7~\x14\x89@d\x15\xca\xf8\xb3\xe1w\x83|g2\x7flxb\xcau\x82p%i\xe3\nzc\x00\x1e\xa0t\xa4\xf0_\xc2o\x08|6\xca\xf8sC\xb5\x84\x99\x8b\xba"\x05\x00\xb9\xc9\x1fNk\xb5\x97C2@\xb0$*&lt;\xbc\x05E\xe7\x8foZ\xe9|\x01\xe1Am,\xb2\xbd\xb6S\x00\x05\xdb\xd4\xfa\xd7\xe6\xd6\x85\xe1/\x1b^x\xfd\xa0\xd4/\x12t\xdcc\x03\xca\xc6\x088\xae\xbb\xf6\x8f\xf8\x1d\xa8x\x17\xe0\xfc\x1a\xc4:\xfcw\xd7\x1a\xace\xd6\x0bx\xce`l\xfd\xc2G|V\x17\xc2\xbf\x02\xfc\x16\xf8Q\xe0\xcb\x7f\x14\xdei\xb2\xdek\x8fn\x1aH\xcan\x0</t>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00&lt;\x00&lt;\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xf7\xab\x0f\x8c?\x10\xbc)8\xd2\xbcG\xa4\xdc*\xa7\xde\x97\xcb85\xe8~\x17\xf8\xc1\xa6\xeaV&gt;|\xfa\xa0k\x8c\xe7`9\xe7\xfe\x05Px\x97\xe2\xb4\x10\xc2Z9RC0\xdb\x1a\xef\xc6\x0f\xbdx\'\xc7\x8f\x8dQ\xc7\x8b/\xb4\xac\x93\x88\xb0\x08n\x03z\xfdk\xe7o\x14\xfcE\xba\x929$U\x01\xa59\x8c\x0e\xc7\xde\xba?\xd9\x03\xc26\xbe:\xf8\xbdk.\xab x\xac_\xcc\x0c9Q\xeek\xec\x8f\x17^\xdb\xda\xdd\x88-b_.8\xb9P\xbc\xd6Z\xeb\x1e@\xf2\xe3\xc3\x8e\xbb\xb6\xf5\xaf\xa5\xfcM\xf0\xc7\xc3z\xed\x93\xc7\xa9i\x119=\xcc`\xff\x001^E\xf1\x0f\xf6T\xb3\xba\x0fu\xe1\xcb\xf9-\x98t\xda\xc7\xfaW\xcf\x9f\x17~\x07\xfe\xd0\xde\x14g\xb9\xd2\x9ek\xc8wo\xff\x00H\x195\xf3/\xc5\rO\xc7\x9e\x18\xb9\x96o\x17\xf8R\xfc8\x93\x86(\xcc\x07\xe7^_u\xf1F\xd3V\x9c\xc3\xe6E\x11=V\\\xabW\xbb\xfe\xc6&gt;=\xd1|\x1fsu\xab\x99St\x83\x017\xfd\xff\x00\xaf\xad}5\xff\x00\t\xdd\xbe\xaa\xc2\xed\'\x13M \xc6\xe49\x15p\xdf\xc5\xfcS\xa8\xfck\xec\xfb\xbb\xb5\x8a\xdc\x93(\xf7\xf9k*\xfa\xe8I\xc0\x88s\xd7\x8a\xcf\xba\xd2\x13P]\xb2\xec \x8c`\x81\xd3\xd2\xbc\xf3\xe2\x97\xc0\xdf\x04x\xb3M\x92\xdfV\xf0\xf5\xb4\xac\xf1\xe0\x1d\xa0\x9d\xde\xbd:\xd7\xc1\xbf\xb5\x97\xfc\x13\xefA\xb57\x1a\xcf\x84\xed\xda9\xc7O(\x05\x03\xf2\xaf\x9a|=&amp;\xbd\xf0\xabY\x1a&amp;\xa9z!\x10\xfd\xd9eN\x1a\xbe\x8a\xf8M\xf1\x13X:|s\xda\xeaq\xcc\x80\xee\x05%\x03\x03\xf3\xae\xd6\x7f\x8f\xbe\x1d\xd3\x1f\xec\xd7\xda\xb5\x89\x97\x19o6u\x04{W\xe99\xb8\x8e_\x9ei\x0e\xdfBx\xac\xb9o`\x92g\x85W\x18\xff\x00j\xa1\x18\x92LC)Q\xfe\xd1\xa6\xdeZ%\xbd\xbf\x99|_s}\xd0\xaa8\xaf\x9c?h}r\x01\xa5\xcd\xa7A\x00$\x8d\xa5\xe2m\xc7?\x8d|Q\xf1\xd3\xe1\x86\x87\xe3KYM\xf4\'\xcc\x03hx\xcf \xfdk\xe7\x1dk\xe0?\xed\x1f\xe1\xfd*}G\xe1\xf7\x8a\xf54\x82)0 \x8a\xe7\x86\x1e\x80\n\xf2\xeb\xaf\n|T\x86\xeeX\xfcWo\xaa\xcb{\xbc\xf9\xae\xfb\xb2k\xfa\x18\xb6\xf8\xb9c\xa8\x88\xad\xe3\xbb\x8b\x12t"J\x9a\x1f\x16ZI6\xf0\xd1\xe4\xf5;\xabN?\x11DO\x9aP\xe3\xdc\n\xc6\xf1\xa7\x8e%\xb7\xd3\xa5\xbeS\x82\x7f\xd5\xab\x11\xf2\xfd=+\xe4\xdf\x8f\xdf\x13,\xdfQ{\x17\x99K\xc6r\x01\xfe3\xef\xeb^\x13\xa9\xeb\x97\x97\x17+\xe6B\xbf\xbe9d#\x80k\xe8_\x02x;C\xd3\xbc)\xa7E\xf68D\x93[\xee}\xe7\x90}~\xb5GP\xfd\x99\xbe\x1c\xeb\x97M\xa9\xcf\xe1\xd4w\x97\x96`\xca9\xaf\x9c?\xe1\xb6\xfe1\xfc3\xd5\x17M\xf8\x87\xe0{\xcb)"\xfe5\x85\xddEzg\xc3\xaf\xf8)7\xc3\xfdT\xa4:\x9f\x88\xa3I\x08\xdb\xfb\xf7\xdb\xcf\xe2+\xdc|=\xfbVx;^\xb4\x84\xd9k\xd0s\xd72\xaf5\x85\xf1\x1f\xf6\x94\xd1.4\xe6\xb6\x82\xfa\x12\xc3\xa2\x89\xb7W\xce\xfe6\xf1\x95\xb7\x88\xb5g\xd4\xaen\x0c\xcf\xf5\x02\xb3\xac5k[\xfd~\xd9d\xdb\xe5,\xb1\xb3\xb1n\xa0\xf6&gt;\xd5\xf4\x07\x85|zu(\x96F*#Hp\x9e\x8b\xf4\xf4\xae\x8a\xc3\xc4\x16B\xd8e\xe4?Rs^\xfb\xe3\x1f\xd9\xb7\xe1g\x8d\x84\x9f\xda\xbe\x18\xb3\x99\xdf\xa0x\x95\xbf\x98\xae\x0bY\xff\x00\x82W~\xcd^+O:\x7f\x08Z@\xe0\xe4&lt; )\xcf\xd4\n\xe55O\xf8$W\xc2\xbb&amp;e\xd0oo\xac\x82\xf4\x10\xceW\x1f\x95cK\xff\x00\x04\xad\xd1\xe0\xfd\xe4&gt;%\xd4pz\xb31\xaf-\xf8\xb7\xff\x00\x04\xd9\xf1o\x87\xa0{\xcf\x0c\xeb\x97\x13&lt;Gp\xcb\x92\xac=\xfdk\xc3\xdf\xc1\xde1\xf0N\xb2\xdaw\x88\xad]R91\xbd\xa1\xed\xda\xbdk\xc0\xfa\xce\xfd!!Uq\x1a\x8c3\x83\xd6\xbb\x18&lt;G4q*\xc6\xfef\x07.\xd2\x81\x93\xf4\xaf\xbd\xad\x98\xc1&lt;e\x0f&gt;\xa6\xba-"g\x96&lt;7Oj\xd56\xb0\xc9"\xab\'^\xa4w\xa6j\xb6v\xdeO\x92"\x01}\x05r^6\xd2,\x0e\x98\xe9\xe4\x0cc\x18\x1e\x9e\x95\xf1O\xed\x8b\xe1\x8d\x1e\xda\xd2}B\x1bm\xb2\xaf;\x869\xfa\xfa\xd7\xcc\x91|B\xd7\xf4\x1d:k+\x11\x06\xc5\x83\xcc\x1b\xe39\xcf\xe0G\x1e\xd5\xe5\xfe!\xf8\x8d\xe3]oV\x96\xfao\x11\\BI\xc7\x97j\xdb\x13\xf2\xaf\xff\xd9'</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00_\x01}\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfc@\xf2\xa2\x07p \x92y\x06\xa3e\x05\xb0\x07\xd2\x82v)\xcf\\pj\'fa\xf31?SL\x0cA\xc9\'\x03\xaf4\xa0\x15;\xa3l\x87\xe0\xee\xec)\xdeBy\x98\xdf\xfc&gt;\xb4\x92[\xae\x00\x0er}\xeaHn\x85\xb9\x19\xcf\x96\x0f\xcc\x83\xa1\xfc+\xef\xdf\xf8 \xaf\xedk\xa7\xfe\xce\x9f\xb6N\x89g\xe2\xcdg\xec\xda\x07\x89Yt\x8dv}\xd8\xfd\xdc\xd8U\x90\xfa\xe1\x8e\xec\x9e\xe35\xfb\xb9\xf1g\xe0\x0e\x9d\xf0{\xe3T\xbe1\xd3t\xf8\x7f\xe1\x12\xf1\xe5\xba\x8b\xa8!Q\xe5\xc1~&gt;fL\xaf\x01X\x90\xe1\xfb\xe4\x8a\xfc\xc1\xff\x00\x82\xa8\xff\x00\xc1;\x07\xec1\xf1"\xdf\xe2\x95\x8d\xb2j&gt;\x17\xf1]\xc5\xc3\xe9\xd6\xd1(\xfd\xc3+\x83$\x0e\xbd\x08`\xc5\x93\xb0\xea+\xf2\xff\x00\xe2\xe7\x84\xd2\xcb]\x93Z\xb2\x0c\x96\xd3\xc8O\x97\xb7\x98\xb9\xc8R}\x07\xa5`\xf97Z\xa5\x99x.\xa3k\x8be\xcb\xa9\\\xa9\xc7M\xbf\xd6\xbe\x91\xff\x00\x82l,\xde1\x8f\xc6\xfe\x153\xeeKkx.\xe3\x88\x8e\xa7\x1e[0\xfc\xfa\xd7\xd0\xfa\x05\xff\x00\x88&lt;&lt;\xc3O\x87\xcd\x08%\xc6B\x96\xefZw\x1a\xce\x9f\xa5n\xd6|_\xe2\x18\xec\xad\x91K7\xdaf\x00\x1098\x19\xe3\xf0\xaa6_\x1c\xfcq\xf1\x99\xe5\xf8g\xfb;x"{\x95\x9eE\x86\xfb\xc4\xb7!\xa3\xb4\xb6Bv\x93\x1b\x1f\x98\xb6\t&lt;q\x91_\xb3\x1f\x03m\x1e\xd3\xc0zU\xb42\xe0\xb5\x94#b((\x85b\x01\x87=\x01 \x9a\xf5\xcf\x86\xf6rM\xab\xc9\x06\xcc\xc6#%\x9d\xc6EK\xf1\x0f\xc22\xd8\xf9\xaf\x0c\xa9 _\x99\xd3\xd8\xd7\x9f\x03*\t-\x1d\x8a\x0c\x93\xcfa\\\xb6\xaf\xac\xdd\xe97\r&lt;\x12&lt;\xaa\xf2\x05l\xe0\xe3\x9a\xb3\x1d\xfc\x177&amp;[\xf9Ih\x902\x00{\xf6\xcdih\x1a\xbf\xd8\xafR\x16\x1eZ\x97\x0c\n\xf1\x8ez\xd7mkz\xb3\xc0\xc6+\xdc)u\xdcX\xf6\xcf5\x15\xca\xdc\xce\xea\xb0\x90K\x9c1\x1cl\xf4\xe3\xde\x99\xa65\xd4\xaf0\xd4\x0b\x10\x14\xec\x8c\x0e\x08\x15\xa5i\x1d\xacj^\xd66\xdb \xc8$}\xd2==*\x18t\xe8"\x12K1\\Hy,3L\x9fO\x95\n&lt;\x01dPA\x049\x18\xad\x18\x8c\xf1\xc4\x87,[\xa6\x19\xf3\x8a\xb5kc;\xc3\xe7\x9b\x81\x9c\xfc\xa3\x1d&gt;\x9e\x95\n\xdeN\x8cR)w2\xb7\xcd\xcf8\xaaWz\xbb\xc12\xff\x00\xa1\x87R\xdbF\xe3\x96R{\xe7\xd2\xb35\x9b\xe6\x19K\x900\xc3\x11\x84n\x84\xd75\xac\xddM\xa6[yp\x17\x1b\x10\x8e1\xde\xb9-OV\xbb\xbc\xd4\xa7s;\x03\x0c$p;\x91Y\x16w\xb7\xcb&lt;P\xea7jRg&gt;PQ\xf2\x8f\xfe\xbdlZ\xe9\xb2[\xdb\xf9i(*\xcf\xb8\x00j\x9e\xaf\xa2C4\x11$r\x04X\xdc\x10\xa3\x809\xf4\xf4\xaeK\xc663Z\xcd\xe7\xc0\x0bF\xa9\xe5\x15=L\x83\x9c\xd7\x19\x05\xdd\xf2\xeak\x1d\xecN\xec\xd9)\xcf~\xd9\xab7\xf3F\xb1\xec\x92\xe5\xd2N\xbb@\xc8\xfaU\xaf2%\x829\xc0\x0ed.#\x07\x81\xc2\xf4\xc7\xa7\xb5f\xebvOmk\xfd\xa3s:\x06\xea\x8a\x9d\xab(\xad\xed\xee\xa2\x1c\xdc)\xccGn[\x1d\xbbV\x0f\xc5MV\xf2\xd2\xea\xd2\xd9\xa3\xfb\xaa\xff\x00u\xff\x00\xdd\xaf\xe7\x04*\xeem\xb2\x1c\xe3\xd6\x85"5%\xc6x\xfci\x1d\x1at\x06&gt;3\xeb\xd6\xa1 \xa9\xd8\x7f\x87\xad**\xb7\xcc@\xc0\xebJ\xd0\x10K\xa0\xc84\x9e[\x03\x9c\x9f\xce\x9c\xdft\x1aj\x04\xde\x0b\x1c\r\xc0\x93\x8e\x9e\xf5\xd3|\'\xf1&lt;~\x1e\xf1M\x9d\xe5\xcd\xcc\xb1\xa2\xcc\xb1\xcb:u\x89\x0bcx\x1d\xca\x8c\x90=\xab\xfan\xff\x00\x82a\xff\x00\xc1M\xbfg\x9f\xdaO\xf6F\x83\xf6~\xfd\xa0~ YE\xe2\xfd\x0e\xd8i\x12\x0b\xd7\\\xdf\xdb\xaa\x7f\xa2\\FX\xe0\xbe\xdc\x7f\xdf5\x83\xfbj\xfc\x08\xf8\x95\xf1\xdf\xe1\x86\xab\xa1\xfcL\x90\xeawcFK\x9f\x0c\xc94\xbf.\xcc)\x86\xe9q\xc0s\x16c+\xd7\xe6\xf7\xaf\xc6\xdf\x8a\xbf\xb3\xb7\xc4\t\xf5+\xdf\n\x7f\xc2\xbf\xbf\xba\x1es\xc6\xeb\x05\x83\xb3+\x0c\x81\xb4\x81\xc9\xae\x0fO\xff\x00\x82|\xfe\xd5P\xdc\x1b\x8b/\x85\xda\x95\x94\x05\x0e\xc9\xf5\x18\xc4(\xb1\x91\xc9;\x8f\xa5z\x8f\xecs\xe1\x9f\x0f~\xc7\xdf\x105\xddK\xe2\xdf\x8b\xf4\xc3q\xabi\xa9gi\xa5\xe9\x17\x1fi\xb8\x95\xf7d\xa9A\x91\xc9\xed\xeb^\xc7m\xe3\xff\x00\x8bZ\xfc\xf3\xda|=\xf8\x19qm\x14\xacM\xbe\xad\xe2F\xf2\xd3kteA\xe9\xd7\x15w\xc0\xff\x00\xb0\xd4~4\xd5#\xf1w\xc7\x1f\x17\\\xeb\xb2\xbb\xef6hJZFs\x90\x9b:7\xa7"\xbe\xa6\xf8_\xe0?\x0fxGO\xb7\xd3\xbc?\xa0Z\xd9B\xbbR$\x86 \xb9\x03\xe8+\xee\x9f\x83\xf3\xf9\x9e\x1a\xb0\x81\x91\xdfm\xba\x96q\xec:W\xbe|.\xd2Vh\x19Y\x06\x02\x1d\xc0\x8eNEhx\xce\xc7N\xb6\xd2\xcd\xf6\xcc\xccb\n\xc9#g&lt;\xf55\xe1~:\xb8\x92\xc7RX"O\x96P\xc5\x98\x0c\xfe\x19\xae\x1b\xc4\xb2Gk:\x18P\x00\xc4\x17F\xe9\xf8\x0fZ\x80kv\xf1\xde\xccL\x807\x94:\x9e\xbcV\xbd\x96\xb3\x15\xd3$+ \xf36gq\xfe\x95\xd2i\xda\xf8t\x8da\x9f\x05Xn\xf9z\x9c\xf7\xf5\xae\xc3H\x8b\xced\x96fi]\xc8l\xe0\x0e\x95\xd1Y\xc3\x0c\xd6\x10\xe2\x10\xae\\\xa9\x93j\xe7\x1fZ\x91\xed\xec!\xb6\xf2\x04!\x86\xec\x12\xa7\xa5W\xbe\xb0\x85\x19&lt;\x95\xdc\xa7\xf8W\xb5Vh\xa7\x9aA\x00%T\x1f\x9b\'\x9cS5\xdb\xcb]\x12\xcd%\xd4dH\xcb\x10"e;w{g\xd7\xde\xa0\xf0\xf7\x8et\xadn\xc8\xc9b\xef)\\\x8d\x89\x8c\x02=H\xebE\xe4\x82Y.d\xd2!!\xf06\x16n\x1b\xd6\xb0\xafu\xcf&amp;\x7f\x9a\xdb\x127\xdfbz\x01\xd7\x15\xcf_]\xea\x172\xf9\xd0H\xa5Hc\x87Z\xc7t\xbd"i\xae\xa4\x0c\xab*\x9c1\xcbp{{Uy\xe2\xf3\x9a\xe0m\xda\xcc\x01\xc8\xe0\xb5P\x9fH\xb5Hm\xe51\x0c\xa3\x16T\r\x80O\xa5Y\xb9\xfe\xd31E\xf6(R0\xcc\x01-\xce\xd1\x9a\x97Q\xfb\x02\xb1\x8c#2\xe0\x06s\xc7\xce\x7f\xa5q\x9e6\xbck@\xd6\xf2\xba\xb3\xb1-\x11\x07\x07v;\x91\\d\x97\xb1Oq\xf6\x82\x9bd\x1c\x96\x88\xe4\x00:\xe7\xdb\xd6\xad\xce\xaa\x92\xbd\xb7\xca\xef\xe5\xe7v9\xc1\xfeuV\xf3I\xbc\x9a\xca\xdeD\x99\x81V%X\xa8\xf9=\xeb/\xc5\x91\xdd\xb5\xb6l\xdcL\xec\xea\xaa\x13\xe5\xe7\xfaV]\xc4\xd3G/\xdao\xec\x87\x9b\x1b2\x84\x03\x1bp\xbds\xdf\x15\xe6\xdf\x1b\xbcS5\xa6\xadg\x1a\xcd\xb70\xb1 \x9fq_\xcf\xa2\x00T\xb9Q\x91\xd2\x86\xe0nQ\xb9\xbd\r$\x13\x9f4,\x8a\x07&lt;qM\x93\xcbe|\xaf$\xe3 sQ/\x94\x83f\xf7\xe7\x8e\xb4\xf8\xe4o\'k\xb1\n\x1b\xb1\xa7\xc8P\xa8\xf2\xdb\x1e\xb9\xa8\xfa\xf0O\x14\x84\xb0\x07\x03\xa0\xf9O\xad6\x0b\xbf"_9\xe5!\xb3\x96\x19\xed]g\x83&gt;,\xf8\x93\xc0\xda\xbd\xae\xad\xa3\xea\xf2\xc5-\x91F\x85\xd6VR\xbb~\xe8\x04\x1c\x80\x07\x03\x1d\x05}s\xe0\xff\x00\xf8/\xb7\xed\xd7\xe1\xaf\rZxB\xe7\xc6Qj\x96VI\xe5\xda\x1d^\xdb\xed\x0e\x8b\x800\xac\xe7-\xc0\x03\x04\xe0\xe3\x14\xfb\xaf\xf8/\xe7\xed\xb7\r\xbc\xd6Z\x1c&gt;\x12\xb1\x17\x19/w\x1f\x86\xa1y}\xf8f ~F\xbc\x0f\xe3W\xfc\x14\'\xf6\xb7\xfd\xa0\xefd\xb8\xf8\x8b\xf1\xabU\x9e7?\xf1\xedk(\xb7\x88/\xa6\xc4 \x01\x8fJ\xb9\xff\x00\x04\xfa\x86O\x17~\xda^\x07\x83R\x91\xe7\xff\x00\x89\xc9\x92S9\xde\xcf\x80\xe7\x9c\xf5\x19\x03\xf2\xaf\xda\xcdS\xc1\xd6Z\xac\x90]\xa4Q\x80\xb0\x8e\x04@\x1c\x0e\xc2\x8d/@\x87N\x82G\xfb8M\xc7\x05v\xe0\x91\xeb[\x9e\x15x\xed\xadc\xbc\xbd\xb8]\xbb\xca$d\xf3\x8a\xfb\x07\xe0\xcbMg\xe0\xbb[\x88a\xfd\xe4\x91\x0f,0\xe3\xd8\xd7\xb6\xfc.\xd4\xef,4\x15\xbe\xd6\x9dL\xd2C\xbd\xf0\xf8*A\xe2\x99\xe3O\x11ZjVM\x0b\xc7\xf3\xe0\xe0\xe3\x92=+\xcb&lt;R\xe5m\x81E\x03\xca\x7f\x9c\x95\xe7\x07\xb5y\xb7\x8du(\xe3\x81\xd6HK\xb0\xc9W\xc7+\xf4\xae2\xff\x00Y\x9c8w\x12\r\xcb\x8d\xcd\x18\xe7\xebW&lt;5\xe2\xc0\xd2\xc79\xba]\xd0\xfc\xa83\xf7\xc7s\xf8WQg\xe3\x88mH\x89f\x05\xd9\x81\xc6k\x7f\xc1\xbe:\xba\xbb\xdae\xbf|\xf9\x84\x00d9\xc7\xa75\xe9~\x1d\xd41h"\xb9/\x99?\xd5\xb3\x90pMt\xd6\xd7\x96.\x1f\xfd\x1b`\x8ei\x01e\\\x06\xc1\x18\xa9\xe7\x12E2\xdd\xdb\xc5\xb9H\xce\x15\xf1\x8f\xadWy\xed!\x98E1S4\xac\x02\xa8\xc9\xc9=\xb3\xda\xa8x\xcf\xc1\xfa_\x8d\xb4\t4]J/9\x1b,\xab\x14\xa5\x19\x08\x1d\x8f\xadb\xf8/\xc0\xba7\x824\xc3\xa2i\xa8\xc0\x06-\xb4\xfd\xe4\x1d\xce{\xd5\x9dCP\x87M\x84\xcb\x0cE\x94d\x0cv\xcf\xa5q\x1a\xbc\xba\xad\xd6\xbb\x0ci\x1b\x04I\\\x97\x1ft\x0ct4\xf9n$\xb6\x8c\xdb\xce\x88\xc5\x81\xc1&lt;`VH\xb9\xb3\xba\x9d\xf6\xc8\x1c\x0e\x18\xee\xce\x0f\xa5R\xbdI\xcd\x9f\x9d\x1d\xc6%p\xca\xa3==\rC%\xbd\xe5\xe4\xb1\x06\xb7WR\xa0nE\xc6\xdfSS\xcfg|a\x11\xd9\xcf\xb4 \xcbs\xd6\xb3|G\xa9\xc7ij\xabw).9\xc0\x1dH\xaesVK;\xc5K\xa9\xe1\x0eX\x8c2\x9c\x95\xae\x02\xcbJ\x9b\xfe\x12+\xbb\x98\xaeL\xd1J\xc9\xe5D\xe3\x020\x14\xe7\x1f\xd7\xd6\xb5\xb5=\x0ex\xedR\xe8\\~\xf9\x082;\xb7%}3U\xec\xee\xd9-\xd2)\x8b\x13\x1c`\xe4\x1e\xa4\x9a\xab\xa9\xa8\xb7A\xb9\tRw6Nv\x8f\\V\x0f\x88o|\xe4\x91\xa6\xcbH\x18l\xdap\x02\xf78\xf5\xc5x\x8f\xc7Kk\xbdS^\xb3\x9e8\x98(\xb5\xc0\xcf~z\xd7\xe0\xdb\xc8\xbb\xbbu\xebHZA\x9d\x88\x01=\xe9\xbeT\xa5K\x17\x19\x03\x83M1\xca\x1f\x96\x18\xdb\xc8\xa5XC\r\xec\x06\x07\'"\x94"\xaa\x84\xdd\xf7:\x8f\xad4*\xb3\xfc\xca\x0e:dSe\x1f8Q\xde\x94\xbf\x94\xbf78\xe9\x9a\x84\x98\xc7\xf0\x02\xc4\xe4\xe4t\x150\x00?\x98\xc39^\t\xa2G\x1e`\x0b\xc6W\xa8\xe2\xa3*\xeb\x80\t \x1e3\xda\x9d\x1e\xcd\xdb\xe4@\xd8\xea\x0fq\xe9^\xff\x00\xff\x00\x04\xca\xba\x83K\xfd\xb5|\x17\xa8\xdf\x15\x06\x19\xae0\xce\xf9\x0c\xc6\x13\xb4}rx\xfa\xd7\xee\x17\x86\xef\x06\xade\x1f\x99\x1a\x9d\xcb\xf2\xedo\x98V\xd2xV}FC5\xad\xa4\x8f\x84\xc2\xc7\x8c\xee&gt;\x94\xed\x1b\xe0\xde\xb5e}o\xa8k\xd0\xb0\x83v|\x8c\xee\xc7=\xeb\xeb_\x87\xf6m\x06\x8dm\x14\x0f\x88\xa3\x01V0z\r\xbd+\xd2\xbc+\xa7Iv\xb9h\x19\xa2\x89\x7fz\xf2s\x9fa\x9a\xad\xe2\x99"\x8awh\xad\xb3\xe5\x8cJs\x91\xecW\xfa\xd7\x0f\xabL\x97;\xe3\x962~m\xccO\\\n\xf3\x9f\x18\xe92\xeaR\xb41*\x9f\x9b;\x98\xe4\xe3\xd2\xbc\xeb\xc5\x84\xc3nm\x96\xf8n\x84\xed`\x17\x91\x9fZ\xc6\xf0\xc7\x86u\xf4\x99\xe6S\xbe\x18T\xf92\xed\xc6\xed\xddi/\xf5\x1b\xbf\x0c\xcao5;\xf2&gt;n\x0bd\x91\xf4\xad\xdf\n\xfcI\xd3\x99-\xe7*\xb8f\xc2\xba\xf3\x96\xed\x91^\xbd\xe1/\x17M\x7f\x1cWR\xbf\x9d\x18\x00\x05\r\x8d\xbe\xf8\xafT\xd15\xf4\xbf\xb3"\xdaB\xab\x91\xb9\x19s\xc9\xea~\xbe\xf5\xd0\xda\xc7\x1bHU\x8f\xcd\x18\x1b\x80=s\xda\x88.`{\x94s\xf2\x11\x90\x0b.\xec\x1e\xd5\t\x173N\xc8\x1dY\x06H\xc0\xda+.\xf2q\x16\xa0c\x91\x8a\x92\xb8\x00s\xf8Vv\xa7\xe7Nb\x85\x02"\x00Kq\x8c\xfb\xd6^\xb7&amp;\x9bd\xablet.w;\x83\x8f\xa9\xfa\xd7\x0b\xe3!\xab\xba\xac\xf6!\xa4\x8d\xdb\x12\xb3\x12J\x0foJ\xe5&lt;+g\xe2(\xbe\xd34\xc1"F\x97\x08\xae:\xfb\xd7I%\xbc*\xa8\xd1\xceL\xa0e\xb2\xdc\n\x96\xda\xf2x\xec\xde\xddB\x19\x00;\x1c\x1c\xe2\xa7v1\xd8\xf9\x91H\xad9\x1dA\xc0\x07\xdf\xda\xb9\x0f\x17G\xa8]\xdc\x18\xc2,\x86(\xc9\x94v&lt;VQ\xb5\x86[e\x89\x99m\xa6*Y\xd5I\xf9H\xe8?\x1a\xcc\x9fF_\xb5%\xb5\xb8\xf3QN\xed\xe4\xe0\x83\xed\xedQx\x8e\x07\x8d\x1e+\x8b\x82\xc3\x80T\x0c\x91\xf8\xd6-\xc5\xb2B$ay\xb1F\xdcFG\xde\xf6\xaa\xfa\xa6\xd9-\x12\xe6\xdc\x9c\xe7k|\xff\x00tW\'\xe27\x86)\x8f\x9fu\xccc\xcc\x007\xde\xc78\xae\x7f\\\xd0\xec&lt;@\xf1Mt\xc0\x14R\x142g\x00\xd7\xf3\xb80Hg\xe3\x153\x82\xa9\xb8\x9e\x08\xa6\x15\x05@\xc7Z\x8d#\xcc\x87q\xe0\x0f^\x94\xe8\xe5\xce\xe8\xc0\x1bq\x8c\xd3[\xef\x03\xeay\xf7\xa6\xa1&gt;a\xe6\x9f\x80c\r\x81\x9d\xc3\x93Q\xc9\x14\xb21!\x97\x00S\x0cAN\xe7\x19lu\x02\x9c\xe4\xf9}{R7,\t\xfe\xed\nI!A&lt;\x9e\x94\xe7\xda\x9c\x1e\xf5\xdd\xfe\xcc\x9e+\x1e\x06\xf8\xe7\xe1_\x13\xac\xdbV\xd3]\x85\x99\xc9\xe1&gt;u\xc9\xfc\xb3\xf8W\xef\xef\xec\x9b\xe1\x8dC\xe2\x8c\x16\xba\xca\x17K$Ui\xa4*0\xca@&lt;{W\xd4\x9ag\x83\xfc/\xe1\xab%\xb3\xb0\x89%.9\x90\x80H?Z\xc8\xd7.cw\x8dV\xdc#&lt;\xc1$\xdazs\x81\xf9\xd7\xa9\xf8,y\x16\x90\xb4o\x8cG\xb9\xdb\x19\xc7\x1dq\xde\xbd\x93K\xb8{;k{h\xed\xd5\xc5\xc9-5\xb2/@\x17\x86\xcfo\xa5T\xf1/\x87\xe4\xbe\x82[\xa8`\xb6\x86(T\xae\xc0\xb8 \x9e\xf5\xe7\x1e)\xd3M\xac3H#\xc6H@\x98\xe4\xe7\x8f\xca\xbc\xe3]\xd3\xe6\x8aE\xbd\x800`\x1b\x1e\xc7\xb1\xae3U\xf8\x7f\xe2\x1dV\x1b\xeb\x9d\x1a\xca\xdeK\xd9T\xf9rL\x80G\xbb\x1cn\xfcq]6\x8b\xe0]N=\x12\xde\xce\xf6\x05\x12\x88\xf19\xb7\xc9UoQ\x9e\xd5\xc8\xfcR\xf8o\x14\x80\xf9\xf8a"\x1d\x9b\xd3\x81\x81\xd7\xda\xbc\x0bY\xd4\xf5o\x85\x9a\xd1\xb9\xb2v\x96\xd2)rSn\xef\x9b=\xf3\xda\xbe\x82\xf8\x1d\xe2c\xe2\x7f\x0f&amp;\xb5\xa7\\#\xbb\x80d\x8c\x1f\xba\x7f\xa5{\xc7\x825y\xad\xed\x83O\tP\xe9\x83\x86\xe3&gt;\xa4w\xae\xc2\xce\xee\xe1\x9b\xcfh\xc1\x05r_w\\\x7f:\xb7a\x87\x93u\xb3\x959\xe1\\pM3R\x95\x8c2\x83!\x8e\xe0\xa1\n\x99\xca\xf4\xebY,a\xcc\xb7\x84\x12\xc0\x0c\x90\xf8Q\x8e\xb8\x15J\xf5\xe2UI\'\x92&amp;,\xc0+\x02p\x01\xf6\xf5\xae\x17\xc5W\xb2j\xb7\xa2\xdf\xed\xec\xac7(P\xbd\xaa\x1b\xddU\xad,E\x93\xc7\xbf\xe4\xf9\x98\xf7\xfa\xfa\xd6\x19\x90]2\xbe\xa2\x81bY\x01M\xbc\x0e\xbd\xf1UE\xed\xa5\xf5\x94\x91\xd8K `X;\x01\x90G\xa6MA\xe1I\xae\xa4\xbe\xb8\x8e\xed\n\xa4$*\xb7\xaej\xf6\xa7w5\xb4\xedi&lt;K\x99#,\xf2\xa1\xe1\x00\x1c\x0f\xc6\xb0\xb5\xcb\xcb\xb2\xec\xb6\x0cFJ\x86\x7fo\x7fZg\x93u,\x8a\xd3\x80\x1d\x80\r!9\xdf\xeci\x97:4I4\x92\xef\x90I\x18\x1b\xd8\x1e\x005\x89\xa9\xdf;\xac\xf7v\xc9\x1f\x90T\xab\xb1Pr\x00\xe7\xebXr\xdb\xdf]2\xca\xd6X\x81\xd8~\xf0\x9d\xc0\x8f\xa7j\xe7\xef$KO\xdd\x99\x99T\xc8s\xf2\xf1\xf9W-\xad\xae\x9f\x15\xe4\x92^\xcb\xe7\x95`\x14\xed\xe1s\xd3#\xd2\xaa\xd9j\xd3\xdd[\x07\xb7\xb7D\x01\x88\xcc\x92r\xde\xfe\xc2\xbf\x9d\x80\x81\xdc\xae:\xf4\xa7\x926\xf9l2E4\xf4\xa6\x05\x0e\xdbX\xe07\x04\xfbS\n\xb2\x92Tt\xe3o\xb7\xad\n\xc00/\x92\x01\xe6\x8c$\x91\x97\x84\x15\xe7\xbfZ\t\xda\x81\t\xea{\xd3DlI\x00\xf5\xf7\xa3cF\xa4\x12zS9&lt;S\xd6"\xc3\xf0\xe2\x95S\x90\x07Pi&amp;\x05\x9b\x00d\x9e\x95%\x8c\x93\xc5:\xc7h0\xe5\xfa\x8e0Oz\xfd\xec\xff\x00\x82T~\xd26\xbe:\xfd\x9a\xb4\xd9\xf4\xeb\xe5k\xcb\x0cZ^\xa6\xec\xe0\xaa\xe0\x13_bh\x1e+]W\xc8\x8d\\\x83\xb4\xb30\x1c3zT\x9a\xbc\xb6\xeb\xaaEx\xfb\x9a(g3J\x89\xd5\xf6\r\xd8\xc7~\x9cW\xb1\xf8\x01\xbc\xf8\xd6`\x00\x8eHC.8(=\r{g\x80\xa4\x81tsu\x1c\x99i\x1c|\xc7\xa9\xc5Y\xf1$\x1f\xf1$\x9ei\xa5!\xe7\xca\x94\x03\xaf\x1dk\xc9\xbcg~R\xe8\x8b\xa6Vh\xe5 \x14\x1f\xc2\x07C\\\xad\x95\xb5\x9e\xad;$\x99\xda[\x18\xcfJ\xeat\xaf\x04\xe8\xb1[\xc8`@z\x1c\x13\xc0&gt;\xb5OU\x8a+\t\xa5\x88\x15\xc0\x03\x1f7J\xe1\xbckqg?\xef\xa4t+\x1a\x9cn\x00\xe2\xbe_\xf8\xe9i\xa7\x93|\xd7V\xc1\x86H\x12\xf6\x19\x1c\x1f\xc2\x8f\xd8S\xc5\x17W\xfe+\xd4|\x1f\x1d\xe11Gi\x1b\xb2\xf6V/\xc7\x1d\xb3_hxwO\x9e\xde\xd4)\x8fv;v\xae\x9fMv\x1b\x16E\xdd\x16\xe1\x8c\xfd\xe0\xdf_J\xd8\x8a[\x89\x81\x81!\xea0\x8c\xc78=\xaa+\x98\xd5e\x92\x06b\xc6H\x8ed\'!x\xed\xe9Y\xb7\xa2\xce\x14\xd8\x91\x96\xf2\xe7%\x8a\x8e\xc0V\x06\xba\xe1\xe1\x8c\xda\xc9\x92\xc4\x95\x0ez7c\xeck\x99\xd5\xad\xa5\x87Q\xf3]A}\xec7\x06\xe9\xc5s\x97\xfa\xbd\xbd\xdd\xef\xd9\x9em\xee\x8e3\x16r\xdd\x7f\x95U\x92;\xa3q\x15\x8d\x9c\xb2\x10\xb9i\x19\x87J\x9aE\xb6\x89\x9a\x06\x11\xae\xd6\x1b\x80\x00g\xd6\x99"\xda\x9b\'\x8a\xd42\xbb\xc8\x0b&gt;\xea\xc6\xd6u\xdbxd\xf2\x1aU\xdf1\n\x91\xca\x99%\xba\x03Q\xda[\xdf\x05\xdd\x8f5Y\x86\xe6S\x8cU\xb4\xd2\xaec\xff\x00I\xf3\x17\x1d\xf1\xd7\x1e\xfe\xb5GY\xba\xbc\x826\xb4\x89\x8c\xbe~VV\r\x82\x14\x0c\xa9\xfcO\x15\x81\xa8\xc6m\xec\xfe\xc3%\x91\t?\xdd1\x9f\xbb\xeaj\xb6\xa5$\x1ae\x9cv\xb1\xdc\x18\xf22H88\xae\x1f\xc4\x9a\xa0\xb5W\xb8y|\xc5\x95\xb0\xa8\x07*;\x9fo\xads7\n\xd7\xecf\x9cG\x1f\x98\xa4N\xc5\xf8\x03\xb1&gt;\xa6\xb9V\xb2\xf2\xae%\xb7\xb8\xd4\xa3\xca?\xcaH\xed_\xcf\xf6B\x9d\xc3\xb54\xe5\xdbp?Zu!M\xc3j\x81\x93\xc0\xa8\xe4i\x00#r\xe4\x0c\x12:\xd3c8\xf9\xbd\x06i\xe8\xe1\xc6\xcc\xf5\xa8\xe6b%\x0e\x9c\x80@\xe7\xd6\x9a\x0b0\xdd\xb8\xe7wU4\xf8\xd89*\xe7\xee\xf5&amp;\x9b \xc9\xccc\x8a|$\xe4sK\xd2l\x0fZb\x12N\xe2y\r\xc1\xa26u\x91\x99\x1c\xa9\xf5S\x83_s\xff\x00\xc1\x1e\xbfj\x98~\x13\xfcG_\x85\xbe"\x9dc\xd3\xb5\xf9\x89\x0c_\n\xb2\xf4\\\xf6\xeb\x8a\xfd\xa4\xf0\x0e\xb5\x05\xb5\xb0\xb7\'w\x96\xca\x11\xc3n\x04cv\x7f*\xea\xb4]F\xde\xe7[\x81\x8a)\x1b\xb7\x10G\x7fZ\xf5?\x0c\xde0\x8e=\xed\xe5\x90\xe1\\\x0e2\t\xeak\xd3&lt;\x17\xe2g\xb1\xd3\xe0\xb778HX\x9c\x86\xebO\xf1\xf7\xc5ci\xa6\xfc\x97\x19`\x0e\xd2[\xa1\xaf\x1d\xd7~"F%\x11\xcd0a1gf\x03\xab}k2\xd3\xe2]\x8e\x95\x13_^\xb2\xc5\x10o\xbc]@\xfcI\xaf\x1c\xf8\xdf\xff\x00\x05k\xfd\x9a\xff\x00g\xe8&amp;\xb3\xf1O\xc4\xeb\x18\xef\x11\x8f\xfa,\x12\xf9\xae\xc4\x7f\t\xdb\xd3=+\xc0t?\xf8/\xaf\xec\xfb\xe3\xef\x126\x99\r\xf5\xfd\xb1g(\x93]Zm\x89\xf2p\x08#\xaf\xe3^\xa9/\xed\x9b\xe1\xaf\x18\xe9Q\xdd\xe9:\xcd\xbb\xc5"\x07\x8db\x90\x12\xe8z\xb1#\xb8\x1d\xab\xcb~-|p\xd2u\x92\xc6[\xf4he9(\x1f\xd3\xd6\xbb\xaf\xf8&amp;_\x86umn\xff\x00X\xf1\xf4\xe90K\xeb\xd5\x86\xc1\x19H\xfd\xc4G\x05\xc9\xef\x965\xfa\x0f\xa0i\x9eE\x8a\xc3\x1b\xef,\x9f1\'&lt;\xfaT\xf7K\xfd\x9c\xe9pc\x05I\x02@\x07n\xf5z-E%+\xf68\xc7N\x00\x03?\x85Gq;\xbc\x89\x04\xff\x00\xb9\xcb`)\xe0\x9c\xf6\xe2\xb3\xaeR\xe4\xf9\x8fi\xbf\xe5\xca\x10T`\xb1\x18\x19\xaeaa\xbe?\xf1\xfe\x14\xedc\xc0\xfe\x95\x8d\xae\x08\xe1\x8aE@\xdec\x12r\xc7\x91\x91\xeb\\O\xfc#\r\x0f\x8b\xa7\xf192dE\xb7\xcb\x04\xf21R*\xfd\x8e\xf0\xdc\xc2\xaf\xb5\xf9vg&lt;W\x13\xe3\xdf\x17x\x8bF\xbfX.\xedFo\x1fn\xe8\x86\x04jN\x018\xef[\x16\x9a\xed\x9e\xad\xe1\xf6\x95%w1O\xb1\xd18\xc8\xc7J\xb04\xe1%\xea\xf9q0\x95\x10\x05;r\x14\x1f\xe5]\x05\xb5\x8cR\x96\xb5\x81\xc4E\xf6\xe7\xe4\xc7\xd7\x1e\x86\x9b&gt;\x9f&amp;\x9bn\xd6\xf3\xb1bU\x84r\xab\xe0\x90G,}qY\x17:5\xad\xff\x00\xee\xe1\xbbs)\x01L\x87\xa7\x1d?#Xz\xb4\xb7&amp;R\xb6\x90+&lt;*P\xae8j\xe3\xfcG&lt;\x97\x9a\x99\x97\xcf\xdd\xe5.\xd8\xd0\xae\x06Or{\xe2\xb9Mb\xe2\xd2\xe5\r\xac\xa0o1\xba\x93\xbc\xe3\x90k\x9b\xd64\xbd&lt;\xa1\x8a\x19\xd1A\x1b\xa5\x1b\x8eN;\xfb\x9a\xe25\xc6V\xd4e\x8b\xca\x93tr\x10\\\xc8F\xe1\xc6+\xf0P\x90\x17\xf7\x87\x07u\x0c|\x9c\x12xn\x05(u\'\x1c\xf3Q\xbb\xba\xb9\x11\xb7\xd0\xfaQ\xf6w\x90\t\x18+\x1c\xf5\x1cR#\x14\\4c\xefc8\xa0\xc4K\x06S\x80\x0fjk\x01\x9d\xb8\xe0\xb7"\xa3\x04\xa1*\x87\x03\xd0T\x91\xf0\t\x03\xf8y\xf7\xa4%\xdb2\xaa\xe1H\xdb\x81N\'*\xaa8\xc7R)\xea\x89\x8c\xef9\xf5\xcdF\xc7\xcbq\xb4dg\x9ax!\xd0\xc9\x18\x01\xfa`\x0e\xde\xb5\xad\xe0\xaf\x12\xea\xbe\x18\xf1\x15\xb6\xb9c\xa9\x18$\xb6\x95^9\x14\x91\xb1\x81\x07&lt;W\xef/\xfc\x13\xc3\xf6\x9a\x8f\xe3\x87\xc1\r3\xc5\xb7\x92Dn\x96\xdd!\xd4\x13\xcc\xc9Y@\x0b\x9cv\xe2\xbe\x8f\xf0\xfe\xbd\x04:\xc5\xbc\x8b9\xc4\x9cr~\xeeOZ\xf5o\xf8IV\x13\x15\xcd\xb5\xe0\x920\x10H\xb8\x1c\x8e\xf5\xd2h&gt;&gt;\xb3\x9dD01$\x91\xf2db\xb1~"k\xf7S\xc9\xf6\x0bW(\x19I\xde\xea\x08\x07\xeb\xda\xbck\xe2\xf7\xc5]\'\xe1\xc6\x975\xce\xa9\xabC\xbd\x10\x95\x1b\xfaq\x9f\xc2\xbf$\xbf\xe0\xa1?\xf0T\x9f\x8c\x9e7\xd6\xaf~\x1f\xfc0\xd7f\xd1\xf4\xa8fh\xa4\x9a\xd8\x9f:S\xd0\x85l\xe5s\xeb_&lt;\xfe\xcc\xbf\xb2\xb7\xc7\x1f\xda\xef\xc6\xfeV\x85\xa7\xde^\xcd;\xee\xbd\xd5n\x83\xb8PO%\x99\xbd\x05~\xad~\xcf?\xf0A\x8f\x83~\t\xd0\xedu/\x8b7rkW\xf3\xdb,\x8d\x14NDQ\xb63\xb6\xb4&lt;]\xfb\x15|;\xf8as.\x95\xf0\xea-J\x18\xd4\x9f&amp;\xce\'i#B=\x07A\xf8Uo\x84?\xf0O\x7f\x8a?\x175\xc9\x07\x89g6:0\x7f\xf5\x8d\xfe\xb1\xd3&lt;\xa8\xf4\xc8\xe2\xbfB\xbfg\x7f\x81Z\x17\xc2\xcf\x0cZx[I\xb2\xf2\xd2\xda\x10\xaaT\x01\x90\x0eI\xfc\xc6~\xb5\xeb\xd1\xe9\xf1\xe9\xf6\xaa\xd6\xeb\x9c\xfd\xe0\xa2\xb0ma\xf1#\xea\xda\x82\xeb\xac\x87O\x8eE\xfb&amp;\xdf\xbc\xd9\xeb\x9a\xb1\x0c+\x03\xf9\xcd!1\xef\x18\x0b\xd8U\xff\x00 5\xa8\x126\xd0\xcd\x949\xdcO\xb7\xb5T\xba{\x1b\x0b2$F\x03\xcc\x0cF\xef\x98\x91\xeb\xea+\x9a\xd6/ K\xc7h\x93`f\x1b00\x015\x89\xa8\xfd\x97\r{3y\xad\xd3\x07\x91\x9a\xe7\xe5\x94\xa3\x12\xccIuby\xed\x8a\xe7\xeeu\x08\xee\xee\x1e\x1bp\xa1T\x10T\xf75\x8f\xac\xe8rk3\xf9W\x8e\xa1\xc8\xfe&gt;F=j\xd6\x95\xa2\xdb\xe8:A\xb3ka\x13\xb4\xb24\xe59\xdev\xf0\x00\xecMnhqK:\x99\xed\x97\x04Jw\x83\xc2\x95\x03\xa1\xa6x\xe6\xfe\xe7G\xb4\xf3\xac\xa2\x93tq\x19K\xaeO g\x00\xd5o\n]\xdf\xf8\xa7B\x17\xba\xcd\xba\x19DN#\xda\xc4\x10\xa4\x1c\xfe4\xcdf\x06\xd3a\xb6\xfb\x1c\xee\x07\x96\xab"\xa9\'\x92\xd8\xc9\xaerH\xef\xee..%*\xa8\xa26\xd8\xd8\xc7\xcd\x8e\rsZ\xc6\x9d%\xd4d\x07\x00B\x0b;\x13\x8c\x0e\xa4\x8a\xe3\xafYYer\x83\xe6\xc8\x88\xe3\xa0\xf5\x1e\x95\xc9\xeb\xf2\x88&amp;}\xd0d\xec?8=x\xef\\U\xed\xf5\xc6\xafy%\xd1\x86\x103\x80Y\x06M~\n2\xf9\xc74\x97\x07r\x001\x95\xe7&amp;\x98\x92\xae0\xfc\x9e\xd8\xa3\x13\x13\xb9\x17\x1fJ\x18K\x9d\xe5rG \x91H\xdek\r\xea\xe0\xf3\xc8\xa7\xa3\xc8F\nS\xbc\xa8[\x92\xd5\x0e\xc8\xfc\xcf\xbdD\x7f\xeb0zzS\xde@\x06\xc5\x1czv\xa8\xc8\xdc\xa7\x9c\x1cqK h\xd7\x04\xaf\xdd\xedJ\x02\x97\xc3\x0e6\x9c\xfeT\xe71,\x99G\xdavu\x14\xab,\xa6@\xd2F\x17\x03\x84#\x86\x1e\xe3\xbd}\xa7\xff\x00\x04\x91\xfd\xac\x9b\xe1_\xc6(~\x1a\xf8\x96\xf3\xca\xd1&lt;BV\x18^Y\x0e!\xb8R6\xb3g\xfb\xc7\x03=\xc5~\xc0x{Z\xb6\x8aKcxKG,\xeb\x0b\xb0\xe7\xae\x08 \xfa\x10kw\xc6\x9a\xff\x00\x89&gt;\x1chF\xfdt\xdb\x9b\xdb\x19\x14\xed\xbd\x86=\xde^G\x01\x94s\x81\xeb^\x17\xe2\x8f\xdbG\xc7\xfe\x14\xd5\x0cZ\x17\x84\xaf\xe6]\xdc\xba\xc2\xeb\x9f\xa0j\xe2~3\xff\x00\xc1V~+x\x1b\xc2\x86_\x12|&lt;\x9e\xc9\xb67\x934\x89\xf7\xc6=\x07z\xf8_\xe3\xc7\xfc\x15c\xe2_\xc4k\x8b\x8b\x05\xb5\x99VF*\xe6f\'\nx8\xcdxo\xc0\xbf\x86\xbe.\xfd\xa9\xbe6Zxy-\x1eY\xf5\x1b\x90\xf7&gt;R\xfc\xb1\xc7\xb8g\xe9\xc5\x7fA\xdf\xb0\x7f\xec\xdd\xf0\xff\x00\xe0\xff\x00\xc3{/\x06\xe8\x9a\x041Cmm\x1f\xdanV%\x0c\xeeq\xbb\x909\xaf\xa6&lt;E\xa8\xd9izY]-s\x1d\xaca\x96&lt;pH\x19\xe9^u$\xba5\xd6\xa3\x1d\xda\xda"\xb9l\x86\x08\x01bO&lt;\xd7\xa0|?\x86\xcd\xa2c\x15\xb2D\xb2}\xdf\x94\x0eEw\x1a\\\xb6\xd1\x15\\6\xe5\xe0\x15\xfe_J\xdf\xf3\xa3\x8e-\xf0\x8d\xcc\x10\x90\x83\xd7\x15\x8b\xae\xdf\xd9\xd8\xcd-\x95\xd4\xc5\x08\xc3D\xca\xbc6z\x83U\xacn\xe3a\x82\x0e\xc6\xee\x16\xae+\x84\x9f\x10I\xe5\x82\xbc\x92q\x9f\xadck\xe4\x1b\xd0\x11\xd9\x92%;\xd8\x9f\x99\x8f\xa6}+\x03U\xbcB!\x13\xc6@f\xe0\x9e\xfe\x95\x81\xac\x99\xe5\x86/\xec\xf7\x08\xa1\xc9\x95O\xf1\x81Y\xd3\xdd@N\xd9"\xda@\xc1`y\x02\xb9\xedN\xc0\xc1pn\xed!%\xa6|\x84\x1e\x83\xad`A\xaek\x0b\xf1\x16m/X\xd2\x7f\xd0\xde\'1\xdc\x1eT\x00\xbd+\xab\x8bOYd\xfbLQm&amp;rI\xcf\x0c\xa0V\x9e\x91\xa7\xdc\xa4\xd2\xd9\xc0\xe0#\xb8,\xa7\xa1\xcfZ\xd1\xd6m\xd2XD\x11&amp;"\xd8Q\x97\x1c\xe4\xf1\x9a\xa4`\xb4\xd3l\xc2F\xa5UF_o\x1cw\xaa\xb1\xdb\xc1kb\x1fp&amp;@\xd8f\x19\'\xd0f\xb9O\x17\x15\xb2\x91&amp;h\xdd\x8e\xf0B\xafs\\\x96\xa9eq,O\x0c\xa6L\x0c\xbb\xb4\x87\'\x1e\x9fOj\xf3\xef\x13jQ\x1dYt\xb4R\x03\xc4\xd8t\\)\xe3\x91\xc7\xadp~1\xd5\x95u)m\xedn\x91\x02\xa8R\x87\'\x15\xc3\xdf\xeb\x06\xd8\xacP\x10\xe3\x92X/|\xd7\xe1\x92\x90\x0eI\xc7\xb0\xa4t\x127\xb1\xeb\xf4\xa7I\x14Q\x05\xf2\x80\xfc\xa9\x12]\xccrq\xec*\'v*CHp[\x07\x9e\xd4\x89\x1c~q]\xdbF\xde\xa3\xbd=dE\xf9\x0b\xff\x00\xba}i\xae\x06G\x14\xd6\x008 \x7f\x15\'I\x0e)i\x18n\x1c\xd3\xa3\nHWP\xdd\xb9\xa4(\xa1\xf3\x83\xff\x00}\xd2!g|\x88\xc6?\xda\x1c\xd2\xef,\xe4\xc8\xc5\xb0?\x88\xe7\x8a\xd1\xd05\xedCE\xd4\x93R\xb0\xba\x92\x19\xd2Ed\x9e6!\x95\x81\xc89\xf6&lt;\xd7\xed\xa7\xfc\x13\xeb\xf6\xa2\x93\xf6\x8d\xfd\x9f\xac5+\xfb\xa4:\xce\x94\x16\xd7[\x8f \x93p\xab\x85\x90\x0e\xca\xc3\x02\xbe\xda\xf8-\xae\xc9\xad\xe8v\xedw82\xa4@2\x03\xd7\x9e\xa6\xb2?i\xff\x00\tiz\x86\x894\xabo\x12\xc9\x04I"J#\x1b\x9b\x9ey\xaf\x89\xff\x00j\x9f\x01\xe9\xbe6\xf8C\xa9\xda]X#\xc9\x15\x93\xbcR6\x060\xa7\xf4\xf5\xaf\xcc\x18\xfe\x00\xf8\xab\xe2\x17\x89\xe3\xd2\xbc\x11\xa0\xdej7\x8f" \x82\x0bf+\x9eG\xde\xc7\xafz\xfd\x1a\xff\x00\x82_\xff\x00\xc1=\xbcm\xf0\'U\x8b\xc5\xbe&lt;\xd2$\x83U\xd5\x95NI\xff\x00\x8fh\xf22=\xb8\xed_\xab\x1f\n\xbc\x1b\x1e\x87\xa3\xad\x95\xa2\xbc\x82D\xdc]\xba\x82:\xe3\xde\xb4\xb5\xb6\xbb\x8b\xf7\xd1\xb80\xc8v&lt;2\xb6\x1c?E\x03\xeak\xcfu[\xfb\x9d\'W\x8cj\x91\x0bE\x8eP\x11I\xe3\x93\xd7\x8e+\xd3\xfc\'\xab9\xd3\xd5\xdeT_\xbab\xc7\xa5wv\xd7\xd6\xb6\xf6\x8dr\xd3\x0c\xaa\x06e^\xb5zMI\xa1\xbd\x115\xf2\xa82\x85\xdc\x83\x1f3\x0f\x94\x0fl\xe34\xeb\xc5\x13Y\x96\xb8\x8e7t\'\n\xc0c\xebXV\x9e%2\xc5%\xbcdmR|\xb5\x03\x05@\xeb\x93\xdf\xda\xa5\x8bXWbg\x93{\x1cn\xf9F\xd1\xe9\x8fA\xebU&amp;\xb9\xc5\xe4\x88\xf3\t\x1aD8\xe78\xac\xdd^\x0f\xb4F#\x90n\x00p\x0f8\xac\x8b\x88\xeda\xb6,r\xaa\x99\x01z\n\xc3\xbb\xd3ld\x91\\J&gt;S\xf3\xe1\xcfCUn\x0c\xb3\xdb$v|\x14\x0c\x03\xff\x00\x16=3T5\r&amp;\x19,\xde\xdc\xb7\x99\xf2\x91\x96\xe7;\x86\x18\xfdi\xf6\xcfz#D\xb2\xf9\x96%\xea\xe38\xe2\xb7\xf4)X\xde)\x95\xd2Gu\xf9\xbeL\x01\xefZ\x84\xaa\xea&gt;D\xf2+#\xae\x03\xec\xe8j\xad\xed\xac7\xe1\xad\x19c1\x83\x89\x01\xe8\xcb\xdc\x1a\xc1\xbd\xd3.\xa4\x8cE\x05\xc4\x91C\x1e\xe2\xa9\x19\xc88\xed\xcfJ\xc6\xf1\xc4\xd6\x03L\x94\x04&amp;X\xd4y)\xdd\xfd\x7f\x1a\xf3\xcdkQE\x8a}E3\xe6\x00\x18B\xc7 \x81\xce=\x89\xaf=\xd7\xee\xf5y\xa2\x9a\xf3\xec\x91Fc\x904Q+ch\xf5\x02\xbc\xdfT\xd5o\xae\xe6\xb8\xba\x9e\xccow\xc1\n\xa3\x95\x1dk\x90\x1a\xb3\xdb\xee\x8a\x08C\r\xe4\x9d\xc3=\xeb\xf0\xfaH\xdc\x9c\x06\xe6\x942\xc4\x84H2q\xda\x9a\xca\xa0\tRC\xcf\xf0\xe7\xa5+\x81\xb3v9\xf5\xa8_%H\xcfn\xf4\xa9\x0b4\x8e\xa6U=06\xd3\x8c :\xab\xf4\xcf_JVh\xda"\x91\x1c\xb0=i\x8b\xe6!\xcb&amp;y\xefC:\x96\xce\x00&gt;\x9e\xb48\xc1\x1bO\'\xa8\xf4\xa0\x1d\x9c\x1e\xbe\xf4\xe1n$B\xdea\x04\x0c\x81\x9ab[\xb2\xfc\xe3\xa8\xe75#\xa3\x94\xde~\xf0\xe9\xefL\x88*\x93\x19\xe40\xfb\xc7\xd7\xd2\xa42\x1byT\x83\x8c\x0c\x8cW\xd0_\xf0O_\xda\xd7T\xfd\x99&gt;5Y]\xea\x1a\x91:\x16\xaf"Y\xebP\xa6Bl.6K\xb7\xa1\xc1=}\xab\xf7\x83\xf6w\xf1.\x99\xa9\xc3\x04\xbaE\xeaI\x04\xe1\x1e\x1b\xa8e\xc8\x96&amp;]\xcb\x8ct\xe4\xe2\xbb/\x8d0\x7fiiO\x04\x81\x89\xfb+(*~R6\x9e\x0f\xbd|\xc17\xc3\x9b\xdf\x8b\xfa\xcf\xfc+\xe4\x84\xc7m)h\xefJ\x0c\x15C\xc1\x1f\x915\xf5W\xc0\x9f\xd8\xa7\xe0g\xc1\x7f\x0f\xc1\x0f\x84\xfc\x1b\xa6\xc5qon\xb1\xcd|\xb1\x833\xbfV\'#\x8e+\xa2\x93\xc1\xb6Sx\x8e\x1b\xbbU\xda\xb6\xfc2\xa0\xc0oBq\xd6\xbd\x1b\xc2\xa9wo\xa6E\x05\xccj\xac\xa1\x96,\xafBz\x13T\xb5\xbd:\xce\xfe\xe5\x1bkyw\x19\xfbN\xee\x00e\xe8q\\\x8e\xbb\xe0y\xaem\xa7\xddpn"rJ\xa4\x8f\x96\xc0\xec\t\xe8+C\xc3Qk6:jC{a\x86\x87\x80A\xdd\xf2{{\xfaWO\xa4\xf8\x8a\x1b\x96c\x97T\x89\xd4M\xe6\xb9V+\x9eq\x8e\xf8\xad\xf7\x9e9.\xa2\x8e\x0b\x86&gt;\\\xad,\x9b\xce\xec\xe0dc\xd3\xde\xa5\xfe\xd4\x9a\xefN\xbaI\xa6\x93\xe4\x803\x15c\xcb2\x1c\xa7\x1dG|V2;\xcd\xa7D BL\xb1\x87s\xe5\xbe\xe3\x83\xeb\x9e\xb4\xcb\xedN\xce\xcfZ\x86\x08Z8\x86\xf6s\n\xc48\x8d\x97\x07\xf0\xefN\xd2\xb7\x96,\xd7\x12\xf3\xb9\xc4\x8e\xbdTv\xcf\xa5O5\xd5\xa4\xd6\x8dp\xf7\x98\xda\xd8\xe1\xab\x1e\xe6e\x92\x0f\x98\xe7ct&lt;\xee\xcfz\xcc\xd4\xa2\xb8KGK|\xf9\xae~R;\xfa\n\xa3$\xf2Y\xdb\x82\xd6\xb9\n\xa7{ \xe8i\x97"\x10\x88m\xd3\x18\x95\x95\x81\xf4"\xa3\xd3\'62\x86\x96\xd9\xccn\xac\x15\xfbn\xed[*m"\x92\xda\xfd\xb2\x920\xe5S\x80G\xbf\xad.\x8bu3\xda\x1b\xbb\xec\x80S\xe4S\xc8&lt;\xf5\xa5\x8ak[\x18\xe4\xbb\x96f/9\xf9c#\x80=\xbd+;T\xd5\x8e\x9e\x80\xe5$#\xe7\x19\xe4*\xf5\xfc\xeb\x86\xf1U\xcc\xb7\r\x16\xac.\xa3\t\x1b\x1f+\xcc&lt;\x1c\xf5\xaf:\xd5u\x19g\xb6im~B\x923?\x96\xc4\xab\xe3\x9e\xf5\xcb\xf8\xd7^\xb6\x8e\xcfj\xc6\\\xc8\x84L\xddN;\x8a\xf2\x1dj\xfe-\x02\xd3\xc8\x8a#qvm\xca\x07V\xfb\x8d\x9c\xe4\xfa\x9cW/\xa7\xb5\xcb+\xc8#\x96R\xcf\x96&amp;0p}+\xf1;~I\x06\\\xf1\xd3m*\x0f5\x19[\x8c\x0e1\xde\x84@\x88T\xa8\xe9K\xb48T\'\xa9\x02\xa3\x08\x8b!Bzt\xa03,{\xd7\xae\xe1\xcf\xadH\xd1\xbc\xca\x19\x88\xfc\x05G\x1c;nw\xaf\nN0(\x92i\x15\xd86\x08^\xf8\xa6\r\xaf\xfb\xcd\xa3\x9e\x9ct4\xcd\xc67\x1d\xc9\xa9\x9dT q\xc94\xd5&lt;\x81\x9e3O2\xe6P\x9d\x00\x1d\xbb\xd1,\xe1\xf0\x80r;\xd3\x91\x17h\x01G\\\xf4\xefMw/&amp;6\x80G\xf1w\xa7\xd9\\\xfd\x96\xec\x05n\x02\xe38\xce\x07\xf9\xed_\xae?\xf0D\xaf\xda\xd3Z\xf8\x85\xe0\xef\xf8U\xfe!\x9eW\xd4&lt;4c\xf2nX\x12\xd2\xd9\xbb\x00\x80\xb7\xf7\x81\xfd+\xf4\xbb\xc5\x13\rGI\x96\r\xab\xfe\xa82\xe5{\xe2\x8f\xd9\xaf\xe0\xf7\x87 \xd5o\xfccyn\x92Op\xc4\x04+\x90\xa7\xd7\x15\xeb\xbe \x06\x0b),-\x98\xa9\xdd\xf7\x80\xc620\x7fJ\xa1o\x7f\xe1\xad\x19&gt;\xdbw!y\x162Y|\xa3\x82@\xcf\xa5Q\xb1\xf8\xf5\xe0\xd5akugp&amp;\x0eB\xb2\x83\xd2\xb64\xcf\x89_\x0f&lt;P\x8f\x04^k\xcc\xaap\xaf\x01\\\x1f\xa8\x15b=\x1a\x0b\xa2.\xd1F\xc209\xe7\x1e\x9e\xe3\xda\x96\x1d&lt;\x02m\xa2\x8c\x12\xee\x14\x0c\x00\t\xe8)\xf0h\xb1\xc0\x93\t`\x08\x84\x10@9%\xbbT\x92_\x1d1&gt;\xc8\xf8W\xc7\x96\x1dGE~\x0fOcT\xec5\xc9\xad\xa5\x16\x17S\x88\xf7\x93\x93\xf30\x94\x91\x81\x91\xeb\x8e3R\xc3\xabB\x93\xdd\xdc\xdb[\xacp[`\xdb\x8cr\x13\x1bW\xff\x00\x1f \x9fQY\xb6K\x16\xafv\xda\x93\\4\xaa\xd9\x85\x8bd3\x06\xe0\x8c\xfas\xd2\xack~$\xb5\xb0\xbf\x83L\x88\xca\x8d \x11\xa2\xa2\x82\x8a\x0f\x1d\rf0\xb8,\xb1K|6.\xe2\xea#\xfb\xff\x00Z\xd2\xfb\x14\xb6\xf1\xba\xcb8wp\x19F8\xdb\xe9\xf5\xae\x7f\xc5\x1e }\x03Q\xb3\xb7\x9e\x07o\xb5\xb8\x11\x95\x93\xee\x9c\xf5\xab\xf7Q\xe2\xc5V\x16\xff\x00Z2\xe0\xfe\xb5RI!x\xccl9\x1c\xee\xc7$\xd4\x7f\xdb0\xa6\x91\x1d\x9b)?9\xc0=3V\xad\'\x86\xfe8T\x89\x15\xd5\x08\xdd\xbf\x81V\xa3yf\xb5\x8dZE\\\x1e\x8a\xb8\xc6\xde@\x1fZ\xcd\x92\xfa\xe7U\xbaa\x19\xd8\x17\xe5\x04\xf3\x81\xdf\x15\x8d\xad\xde\xbd\xb4\xd3\xe9rB\x1dbh\x95d\x1cn\xde\xa79\xf5\xae\x17\xc4W\x81\xa0\x84M\t\x16\xd1DU\x15[\xa4\x84\xe05s\x1e!;4rL\xdc\x8b}\xc0c\xee\xf3\xf7\x87\xbdx\xe7\x88\xbcY3^\x9b\x0f9\xbc\xc9\t\xdf\x8c\x80\x00\xf4\xf45\xe7\x9a\xbe\xad\x1c\x9a\xb6\xc8A\r\x10g\x9b\x7f&amp;O\xc7\xd7\xde\x98u\x86\xd2?wg\x11\xc4\x9f1\xf9\xbb\xd7\xff\xd9'</t>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00\x1e\x00x\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfc+v\r\x18\xed\xce9\xa7\xa2\xeew\x1b\xc8\xca\xe0\x1e\xc7\xbf\xf4\xfdk\xf4\xb7\xfe\r\xf9\xf8u\x7f\xaax\xcb\xc5\xff\x00\x11/-\xa6\xfb\x046\xf1Z\xfd\xc1\xb4\xb8\xde\xc4\x8f\xa0#\xf3\xaf\xd4\xf9\xbe!\xcf\xa5:\xe9\x1a%\x83\xa4q\xc7\xb3\xceyx\xe4\x93\xc5-\xbc\x97\x13\xc6$\xbb\x95\x98\xb3n&lt;\xe5\xab\xd7\xbe\x11x\xd2\xcbC\xb2\x86\xded\x00o\xc8\x00\xfc\xcd\xf5\xafB\xf1o\x8f\xac\xafto\xdd\xc4\xe3\x8c\x80\xc7\x9a\xf1\xeds\xc6\xc2\x19dK^\x1eG\xe7\x07\xa5_\xf0\xae\xb55\xe0\xf3\x8c\x84\x05\xeck\xb8\xd3\xef\xe6x\xf0\xc5\xb6\xec\xceE]\x8fQ$-\xb6\xed\xc3\x199\xedP\xde\xcb\x19F\x00\x0e:`\xf5\xf6\xaf&amp;\xf8\xef4PiRB\x92\x84,\xa4\xbb\x93\xd3\x1d\xab\xe0\x9f\x8d^\x05\xd2\xbe%\xeb\x97\x16\xec$\xf3\x0c\x85`\x92\t6\xefn\xf9\xf6\xe0W\xb2\x7f\xc1?\xbf\xe0\x97\x9f\x0e$\xb1\x1f\x11\xfe)\xdc&gt;\xafx\xed\xe6\xc7c+\x93\x1cC-\xb4\x1c\xf5\xc6+\xf9\xdb\x10\xabpd88\xe0\xd5\x88b\x92i\x02m\xf9r\xa3=\xf1\x91\x9f\xe5_\xb2_\xf0D\xb6\xb3\xf0w\xec\x97\x14\xd61+\\jWs\xcdv\xc4r\\\xb9\x1cz\x8c\x01_]\xa6\xa4u\x1b\xa2\xd2\xe7#\xe6Ta\x85\x00\xfa\xfb\xf1]^\x87\xa8A\x1e\x99\xf6\x87\x87\xee\x0ewu?\xfdju\x97\x8c\xc1\x9fd\x12\x90\x03|\xac\x8d\x8cWS\'\x8f\xe2\x8fJ\x02\xf3R;\x91\t\x1b\xe4\xcek\x81\x7f\x1a\xae\xad\xac\x86\x86Q\xb0\xc9\xc9\x06\xbb\xef\x08\xeb\xf6Q0\x81n\x06w\x02\xfc\xf6\xae\xdbM\xf1\x8d\xba\x86\x8c\xba\xe3\x04G\xbc\xe2\x9f7\x8d\xb1\x96\x12)\x00\x009\x1f\xe3Y\xf7\x9f\x12b\xb3\x89\xe5\xb8\x99T\x8eP\x1f\xe2#\xff\x00\xd7^\x0f\xfbK\xfc[x\xf4\xc7\xb2i\x81y\xc9wD?0&lt;z\xf6\xaf\x96\xbc5\xe2\xf9n\xb5;\xddRUW\n\xe5\x11\x7f\x84\x1c\xf5\xcfZ\xfa\xdb\xf6*\xf8\xcf:k\x91\xf8.[\x90\xd0\x88\xcc\x81]\xf9\nz\x0f~s_\xcc\xb8 (\n\xb9\xf5\xf6\xa7\xc0BJ\x92,\xc4\xb6\xf0\x15\x07~\xff\x00\xd3\xf5\xaf\xd9\x0f\xf8#\x0c\xcbs\xfb*i\xb2 P\xe2Yr\x0e8\xf9\x98\xe0\xd7\xd7Z\xb5\xa5\xc4\xb0\xf9\xab\x84m\xb98\xe3\xa5A\xa6x\xa24\x8c[\xdd\xce\xe0\x8e\n\x0cs\xfa\xd6O\x88|w\xa4\xe97\xe2I\x1cD3\x8d\xb9\xc0\x15\xc5\xfcH\xfd\xa8\xfe\x19\xf8^/\xb0\xea^#\x88\xdc\x15;\xa2\x8d\xc1+\xd3\xb6EpK\xfbZ\xf86\xd8\x0b\x8d;W@\xb9\xc8R\xdc\xfe#5\xb9\xa1\xfe\xdc\xbe\x17\x81\x82&amp;\xa7\x0b\x13\xc1o8\x0f\xeb]n\x91\xfbmx}\xe5\x16\xdf\xdb\xf0\x07e\xcf3\xe4b\xb6\xf4\xcf\xda\xef\xc3:\x9a(]V6\xcb\x10Z)\x01\x07\xf35C\xc7\xff\x00\xb5w\x864\x9d&gt;@5\xb8f`\xbf\xbb\x86)\x81\xc9\xf7\xe7\x8a\xf9\xdf\xe2\x1f\xc7-\x7f\xc7\xfa\xac\x92Ms\xb66Q\x8cHq\x18\xf6&gt;\xff\x00\xd2\xb8\x0f\x11|d\xd1|\x08\x04ov\xb1\xa0pd%\xf8|\xf5\x1e\xe6\xbd\xbf\xfe\t\xaf\xf13_\xf8\x9f\xf1I\xfcG\x1d\xbb\xa4\x0e\xc6\x187\x13\xc2)\xe0\x9fJ\xfc?\x990T\x86#\xda\xa6\xb5B\xd3!\xe06@R=M~\xa4\xff\x00\xc1\x0f\xfe(/\xfc*\xcdG\xc1s\xdaH\x12\xca\xf9\xe4GL\x1c\xa9\xcf\x1c\x9e\xb9\x15\xfaC\x1e\x9c5-\x15g]\x82U\x8bq\xde\xbc\x15?\xd6\xb8o\x10y1\xc8\xe2(\xd5\x19N\x0b*w9\xff\x00\n\xf9\x87\xf6\xa5\xf1&gt;\xbf\xa6\xe9\x93M\x0e\xa5"\xef\r\xe526\x08\xfa\xd7\xc6&gt;!\xf1=\xf7\xda\xa4\xbf\xd6\xe6\x96\xf1\xd5\xcf\xcc\xf2\x1d\xcd\xf8\xf6\xae\'\xc7\xbf\x13\xfcP\x926\x9b\xa6_\xb5\xba,[\xca\xa8\xc9\x03\xb0\xdd\xd4\xfeU\xc3\xdbx\xc7\xc5\x97\x12}\xbb\xfe\x12\x1b\x84\r\xd1Q\xabV\xdf\xc6^7\xc2"x\xb2\xed\x1d\x81\xf9\xc3t\x03\x1e\xf5f\xdb\xe2W\xc4\xbbH\x89\xb4\xf1\xcd\xf2l\xc8\xc2\xc8@\xff\x00\xeb\xd5\x8d#\xe2\xe7\xc4\xe8\x18\xbc\xbe+\x96^s\xb9\xfa\x9f\xadtv\x1f\x19\xfe(^2\xdb\xb7\x88\x88\x12\x102\x07A]?\x85&lt;)\xa9\xf8\xc3V\x8a\x1f\x10k\xd2\\J\xee\x19w\xf2\xab_\xad\xff\x00\xf0L\xbf\xd9\xb7F\xf0G\x81\xed\xfcG\xe7\xc7$\xef\x1a\xb9e\x07\xbe}\xab\xff\xd9'</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00\x7f\x01}\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfc=e\xf3\x8ei.\x0e\xe4\x00c+\xceM1%\\a\xf9=\xb1F&amp;\'r.&gt;\x940\x97;\xca\xe4\x8eA"\x91\xbc\xd6\x1b\xd5\xc1\xe7\x91OG\x90\x8c\x14\xa7yP\xb7%\xaa\x1d\x91\xf9\x9fz\x88\xff\x00\xd6`\xf4\xf4\xa7\xbc\x80\r\x8a8\xf4\xedQ\x91\xb9O88\xe2\x96@\xd1\xae\t_\xbb\xda\x94\x05/\x86\x1cm9\xfc\xa9\xcebY2\x8f\xb4\xec\xea)VYL\x81\xa4\x8c.\x07\x08G\x0c=\xc7z\xfbO\xfe\t#\xfbY7\xc2\xbf\x8cP\xfc5\xf1-\xe7\x95\xa2x\x84\xac0\xbc\xb2\x1cCp\xa4mf\xcf\xf7\x8e\x06{\x8a\xfd\x80\xf0\xf6\xb5m\x14\x96\xc6\xf0\x96\x8eY\xd6\x17a\xcf\\\x10A\xf4 \xd6\xef\x8d5\xff\x00\x12|8\xd0\x8d\xfa\xe9\xb77\xb62)\xdb{\x0c{\xbc\xbc\x8e\x03(\xe7\x03\xd6\xbc/\xc5\x1f\xb6\x8f\x8f\xfc)\xaa\x18\xb4/\t_\xcc\xbb\xb9u\x85\xd7?@\xd5\xc4\xfcg\xff\x00\x82\xac\xfcV\xf07\x85\x0c\xbe$\xf8y=\x93lo&amp;i\x13\xef\x8cz\x0e\xf5\xf0\xbf\xc7\x8f\xf8*\xc7\xc4\xbf\x88\xd7\x17\x16\x0bk2\xac\x8cU\xcc\xccN\x14\xf0q\x9a\xf0\xdf\x81\x7f\r|]\xfbS|l\xb4\xf0\xf2Z&lt;\xb3\xea7!\xee|\xa5\xf9c\x8fp\xcf\xd3\x8a\xfe\x83\xbf`\xff\x00\xd9\xbb\xe1\xff\x00\xc1\xff\x00\x86\xf6^\r\xd14\x08b\x86\xda\xda?\xb4\xdc\xacJ\x19\xdc\xe3w s_Lx\x8bQ\xb2\xd2\xf4\xb2\xbaZ\xe6;X\xc3,x\xe0\x903\xd2\xbc\xeaItk\xadF;\xb5\xb4Er\xd9\x0c\x10\x02\xc4\x9ey\xaf@\xf8\x7f\r\x9bD\xc6+d\x89d\xfb\xbf(\x1c\x8a\xee4\xb9m\xa2*\xb8m\xcb\xc0+\xfc\xbe\x95\xbf\xe7G\x1c[\xe1\x1b\x98!!\x07\xae+\x17]\xbf\xb3\xb1\x9a[+\xa9\x8a\x11\x86\x89\x95xl\xf5\x06\xabX\xdd\xc6\xc3\x04\x1d\x8d\xdc-\\W\t&gt; \x93\xcb\x05y$\xe3?Z\xc6\xd7\xc87\xa0#\xb3$Jw\xb1?3\x1fL\xfaV\x06\xabx\x84B\'\x8c\x80\xcd\xc1=\xfd+\x03Y3\xcb\x0c_\xd9\xee\x11C\x93*\x9f\xe3\x02\xb3\xa7\xba\x80\x9d\xb2E\xb4\x81\x82\xc0\xf2\x05s\xda\x9d\x81\x82\xe0\xdd\xdaBKL\xf9\x08=\x07Z\xc0\x83\\\xd6\x17\xe2,\xda^\xb1\xa4\xff\x00\xa1\xbcNc\xb8&lt;\xa8\x01zWW\x16\x9e\xb2\xc9\xf6\x98\xa2\xdaL\xe4\x93\x9e\x19@\xad=#O\xb9I\xa5\xb3\x81\xc0GpYOC\x9e\xb5\xa3\xac\xdb\xa4\xb0\x88"LE\xb0\xa3.9\xc9\xe35H\xc1i\xa6\xd9\x84\x8dJ\xaa\x8c\xbe\xde8\xefUc\xb7\x82\xd6\xc4&gt;\xe0L\x81\xb0\xcc2O\xa0\xcdr\x9e.+e"L\xd1\xbb\x1d\xe0\x85^\xe6\xb9-R\xca\xe2X\x9e\x19L\x98\x19wi\x0eN=&gt;\x9e\xd5\xe7\xde&amp;\xd4\xa2:\xb2\xe9h\xa4\x07\x89\xb0\xe8\xb8S\xc7#\x8fZ\xe0\xfcc\xab*\xeaR\xdb\xda\xdd"\x05P\xa5\x0eN+\x87\xbf\xd6\r\xb1X\xa0!\xc7$\xb0^\xf9\xaf\xc3% \x1c\x93\x8faH\xe8$oc\xd7\xe9N\x92(\xa2\x0b\xe5\x01\xf9R$\xbb\x98\xe4\xe3\xd8TN\xecT\x86\x90\xe0\xb6\x0f=\xa9\x128\xfc\xe2\xbb\xb6\x8d\xbdGzz\xc8\x8b\xf2\x17\xff\x00t\xfa\xd3\\\x0c\x8e)\xac\x00p@\xfe*N\x92\x1cR\xd20\xdc9\xa7F\x14\x90\xae\xa1\xbbsHQC\xe7\x07\xfe\xfb\xa4B\xce\xf9\x11\x8c\x7f\xb49\xa5\xdeY\xc9\x91\x8b`\x7f\x11\xcf\x15\xa3\xa0k\xda\x86\x8b\xa9&amp;\xa5au$3\xa4\x8a\xc9&lt;lC+\x03\x90s\xecy\xaf\xdbO\xf8\'\xd7\xedE\'\xed\x1b\xfb?XjW\xf7Hu\x9d(-\xae\xb7\x1eA&amp;\xe1W\x0b \x1d\x95\x86\x05}\xb5\xf0[]\x93[\xd0\xed\xda\xeepeH\x80d\x07\xaf=Md~\xd3\xfe\x12\xd2\xf5\r\x12iV\xde%\x92\x08\x92D\x94F77&lt;\xf3_\x13\xfe\xd5&gt;\x03\xd3|m\xf0\x87S\xb4\xba\xb0G\x92+\'x\xa4l\x0caO\xe9\xeb_\x981\xfc\x01\xf1W\xc4/\x13\xc7\xa5x#A\xbc\xd4o\x1eDA\x04\x16\xccW&lt;\x8f\xbd\x8f^\xf5\xfa5\xff\x00\x04\xbf\xff\x00\x82{x\xdb\xe0N\xab\x17\x8b|y\xa4I\x06\xab\xab*\x9c\x93\xff\x00\x1e\xd1\xe4d{q\xda\xbfV&gt;\x15x6=\x0fG[+Ey\x04\x89\xb8\xbbu\x04u\xc7\xbdikmw\x17\xef\xa3pa\x90\xecxel8~\x8a\x07\xd4\xd7\x9e\xea\xb7\xf7:N\xaf\x18\xd5"\x16\x8b\x1c\xa0"\x93\xc7\'\xaf\x1cW\xa7\xf8OVs\xa7\xab\xbc\xa8\xbft\xc5\x8fJ\xee\xed\xaf\xadm\xed\x1a\xe5\xa6\x19T\x0c\xca\xbdj\xf4\x9a\x93Cz"k\xe5Pe\x0b\xb9\x06&gt;f\x1f(\x1e\xd9\xc6i\xd7\x8a&amp;\xb3-q\x1cn\xe8N\x15\x80\xc7\xd6\xb0\xad&lt;Je\x8aKx\xc8\xda\xa4\xf9j\x06\n\x81\xd7\'\xbf\xb5K\x16\xb0\xae\xc4\xcf&amp;\xf68\xdd\xf2\x8d\xa3\xd3\x1e\x83\xd6\xaaMs\x8b\xc9\x11\xe6\x124\x88q\xceqY\xba\xbc\x1fh\x8cG \xdc\x00\xe0\x1eqY\x17\x11\xda\xc3lX\xe5U2\x02\xf4\x15\x87w\xa6\xd8\xc9"\xb8\x94|\xa7\xe7\xc3\x9e\x86\xaa\xdc\x19g\xb6H\xec\xf8(\x18\x07\xfe,zf\xa8j\x1aL2Y\xbd\xb9o3\xe5#-\xcew\x0c1\xfa\xd3\xed\x9e\xf4F\x89e\xf3,K\xd5\xc6q\xc5o\xe8R\xb1\xbcS+\xa4\x8e\xeb\xf3|\x98\x03\xde\xb5\tU\xd4|\x89\xe4VG\\\x07\xd9\xd0\xd5[\xdbXo\xc3Z2\xc6c\x07\x12\x03\xd1\x97\xb85\x83{\xa6]I\x18\x8a\x0b\x89"\x86=\xc5R3\x90q\xdb\x9e\x95\x8d\xe3\x89\xac\x06\x99(\x08L\xb1\xa8\xf2S\xbb\xfa\xfe5\xe7\x9a\xd6\xa2\x8b\x14\xfa\x8ag\xcc\x000\x85\x8eA\x03\x9c{\x13^{\xaf\xdd\xea\xf3E5\xe7\xd9"\x8c\xc7 h\xa2V\xc6\xd1\xea\x05y\xbe\xa9\xaa\xdf]\xcdqu=\x98\xde\xef\x82\x15G*:\xd7 5g\xb7\xdd\x14\x10\x86\x1b\xc9;\x86{\xd7\xe1\xf4\x91\xb98\r\xcd(e\x89\x08\x90d\xe3\xb55\x95@\x12\xa4\x87\x9f\xe1\xcfJW\x03f\xecs\xebP\xbeJ\x91\x9e\xdd\xe9R\x16i\x1dL\xaaz`m\xa7\x18@uW\xe9\x9e\xbe\x94\xac\xd1\xb4E"9`z\xd3\x17\xccC\x96L\xf3\xde\x86u-\x9c\x00}=hq\x826\x9eOQ\xe9@;8=}\xe9\xc2\xdcH\x85\xbc\xc2\x08\x19\x034\xc4\xb7e\xf9\xc7Q\xcejGG)\xbc\xfd\xe1\xd3\xde\x99\x10U&amp;3\xc8a\xf7\x8f\xaf\xa5Hd6\xf2\xa9\x07\x18\x19\x18\xaf\xa0\xbf\xe0\x9e\xbf\xb5\xae\xa9\xfb2|j\xb2\xbb\xd45"t-^D\xb3\xd6\xa1L\x84\xd8\\l\x97oC\x82z\xfbW\xef\x07\xec\xef\xe2]3S\x86\tt\x8b\xd4\x92\t\xc2&lt;7P\xcb\x91,L\xbb\x97\x18\xe9\xc9\xc5v_\x1a`\xfe\xd2\xd2\x9e\t\x03\x13\xf6VPT\xfc\xa4m&lt;\x1fz\xf9\x82o\x877\xbf\x17\xf5\x9f\xf8W\xc9\t\x8e\xdaR\xd1\xde\x94\x18*\x87\x82?"k\xea\xaf\x81?\xb1O\xc0\xcf\x82\xfe\x1f\x82\x1f\t\xf87M\x8a\xe2\xde\xddc\x9a\xf9c\x06g~\xacNG\x1cWE\'\x83l\xa6\xf1\x1c7v\xab\xb5m\xf8eA\x80\xde\x84\xe3\xadz7\x85R\xee\xdfL\x8a\x0b\x98\xd5YC,Y^\x84\xf4&amp;\xa9kzu\x9d\xfd\xca6\xd6\xf2\xee3\xf6\x9d\xdc\x00\xcb\xd0\xe2\xb9\x1dw\xc0\xf3\\\xdbO\xba\xe0\xdcD\xe4\x95I\x1f-\x81\xd8\x13\xd0V\x87\x86\xa2\xd6lt\xd4\x86\xf6\xc3\r\x0f\x00\x83\xbb\xe4\xf6\xf7\xf4\xae\x9fI\xf1\x147,\xc7.\xa9\x13\xa8\x9b\xcdr\xacW&lt;\xe3\x1d\xf1[\xef&lt;r]E\x1c\x17\x0c|\xb9ZY7\x9d\xd9\xc0\xc8\xc7\xa7\xbdK\xfd\xa95\xde\x9dt\x93M\'\xc9\x00f*\xc7\x96d9N:\x8e\xf8\xacdw\x9bN\x88@\x84\x99c\x0e\xe7\xcb}\xc7\x07\xd7=i\x97\xda\x9d\x9d\x9e\xb5\x0c\x10\xb4q\r\xec\xe6\x15\x88q\x1b.\x0f\xe1\xde\x9d\xa5o,Y\xae%\xe7s\x89\x1dz\xa8\xed\x9fJ\x9ek\xabI\xad\x1a\xe1\xef1\xb5\xb1\xc3V=\xcc\xcb$\x1f1\xce\xc6\xe8y\xdd\x9e\xf5\x99\xa9Ep\x96\x8e\x96\xf9\xf3\\\xfc\xa4w\xf4\x15FI\xe4\xb3\xb7\x05\xadr\x15N\xf6A\xd0\xd3.D!\x10\xdb\xa61++\x03\xe8EG\xa6Nle\r-\xb3\x98\xddX+\xf6\xdd\xda\xb6T\xdaE%\xb5\xfbe$a\xca\xa7\x00\x8f\x7fZ]\x16\xeag\xb47w\xd9\x00\xa7\xc8\xa7\x90y\xebK\x14\xd6\xb61\xc9w,\xcc^s\xf2\xc6G\x00{zVv\xa9\xab\x1d=\x01\xcaHG\xce3\xc8U\xeb\xf9\xd7\r\xe2\xab\x99n\x1a-X]F\x126&gt;W\x98x9\xeb^u\xaa\xea2\xcfl\xd2\xda\xfc\x85$f\x7f-\x89W\xc7=\xeb\x97\xf1\xae\xbdm\x1d\x9e\xd5\x8c\xb9\x91\x08\x99\xba\x9cw\x15\xe4:\xd5\xfcZ\x05\xa7\x91\x14F\xe2\xec\xdb\x94\x0e\xad\xf7\x1b9\xc9\xf58\xae_Ok\x96W\x90G,\xa5\x9f,L`\xe0\xfaW\xe2v\xfc\x92\x0c\xb9\xe3\xa6\xdaU\x1eb\x15\x7f\x97\x8e=\xe8ETB\xa5GN(*\x18\x05\'\x00\x9cf\x99\xb5\x15\xca\xb1\xfa{\xd0\x19\x96=\xeb\xd7p\xe7\xd6\xa4di\x80,\xc3&gt;\xd5\x12B\x12\xe3\xcc\x18\nN\x0e)d\x9d\xd5\xd8\x92\xa5G9\xc50m\x7f\xdem\x1c\xf48\xa6nh\xdcw$\xd4\xce\xaa\x100\xe4\x9e\xbe\xd4\xd58&lt;\x9c\x0c\xf3Oi\x7fz\x14\x8c\x008\xc7z%\xb8W\xc2/Q\xde\x9c\x88\xb8\x00 \xeb\xe9\xde\x91\xd9\x9eLm\x00\x8f\xe2\xee)l\xae\xbe\xcdv\x02\xb7\x01q\x9cg\x03\xfc\xf6\xaf\xd6\xef\xf8"\x7f\xed\x81}\xe3\xbf\x0b\xa7\xc2?\x13\xeaG\xfb[\xc3\xdbM\xac\x92?\xef\'\xb3\'\n2y%z\x9fj\xfd0\xf1=\xccz\x8e\x93, \xa71\x06\\\x8e\xf8\xa6~\xcd\xdf\n\xfc!k\xab\xdfx\xb7P{v\xb9\xb8b\x166a\x81\xef\x83^\xbd\xaf\xddZ\xc3e-\x85\xad\xe2)\xdd\x9d\xc1\xc0\xc6F\x0fOj\xcd\xb7\xf1\x0f\x824`n\xee\xf5H\x9eTB]r9 U;O\xda\x1f\xc00\x95\xb7\xbe\x0e\x92\xef!\x1c?QZ\xba\x7f\xc6\x0f\x85\x1e$G\xb7\xfe\xd2C0\x07j\xca6\xf3\xdb\x91\xd6\xadA\x0e\x8f\xa80\xb9\x82\xfa\xdd\xd0\x8c\x00\xb3\x02p{{\x8fj\x9a\xde\xca6\xcd\xbd\xb8V\xde\xe0``\x0f\xc6\xa5\x83C\x10,\xcb%\xb6\xd4`~Q\xc9-\xda\x9f6\xa1\xfd\x93\x19\xb7\x95\x84l\x07\x95\xe6\x0e\x02\xab\xf0\x7fCT-&lt;H\xb6\x12\x8b\x1b\xfb\xe8\xe1\xdeI%\x9c\xb0\x97#\x00\x9c\xfbq\x9a\x9e-n\xd6;\x9b\xb9\xad\xa3H\xe2\xb6#\xec\xeaq\xb8 ]\xa0}w\x90[\xd4Ve\x93\xdbj\xf7\x87Q7\x9ehpa%\x8e\x19\x83pF}\x06zU\xbdW\xc40Au\x15\x95\x92\xccA\x020a@\xd1\xa0\xe8I\xf4\xac\xa7iw\xa42\xea+\xb1I\xdc\x81&gt;\xfdi\x0bI!\x8d\xd6K\x80\xee\xf8*1\xc0\x1e\x9fZ\xc2\xf16\xb7q\xa1\xea6\x96\xf2Y\xcb\'\xda\x9c\x04(\xe7\xe4\xe7\xad]\xbb@,\x968\x9f\x1e`\xcc\x80\xfaw\xaa\x92K\x03\xc6clg\xae\xee\xe4\xd4g[\xb7\x8fGKG\xcf\xde8\x0cx\x1e\xf5j\xd2\xe2\x1dB\x18s\xbdX!\x1ef\xfe*\xca\xc9,\xb6\xa8\xaf*\xae\xd3\xd0.6\xe0\xf0\x07\xd6\xb3\xe5\xbd\xba\xd4\xee\x19\x87\xee\xd4\x1d\xaa\xcd\xd3\x1d\xc0\xac]n\xf2Ki&amp;\xd3\xe4\x80:D\xd1*\xca8\xdc\x19NI\xf5\xae\x17\xc47\x8a\xd6\xf0\x99b\xc5\xb41\x15@\xad\xd1\xc9\xc0j\xe5|Eq\x04zQV\xbc@\xc2\xdfpRy\x1c\xfd\xe1\xef\xef^?\xe2?\x17Jn\xda\xcc\xce\xdb\xdd\x8f\x98z\x05\x1e\xde\x84\xd7\x9ej\xfa\xc42j\xc1!8h\xf74\xa5\xf92\x1f\xaf\xadG\xfd\xb5\xfd\x91\xfb\xbb4\xe2O\x98\xfc\xdd\xeb\xf1=\xbe\xe8\xf7\xebM\xc18\x03\x1e\xd9\xa6\x82\xa9\'#y=@\xedH\x9f:\xb1-\x80\x0fBh{h\xd5D\xb2?\x1f\xca\x9b\x1eW\xef\x0c\xa1\xe9\x9a~T\xf0\xab\xcfn)\x1e9\x19\n\x92\xb8#\xa5C\xe5m\x1bXg\xebA;W\x8e\x83\xb5\x12\xa8dW\x03\xa1\xebK#\x15\x8fp\xa5u\xf3\x08=&gt;^@\xefLf;\xc1\'\xa5:$\xf3\x1c\xb0\x15b\x12\xc8@\xe39\xe34HK3\t\n\x82A\x1f%B\xb1\x15m\x81Kn\xe0\xe3\xa9\xafV\xfd\x8c~:j\x9f\x01?h_\r\xfcF\xb4\xbexb\xb7\xbeS\xa8\xc6\x00U\x92\xdd\xc6\x1dN=Fk\xfa\x08\xf0\xcf\xc4[\x7f\x17x\x1fK\xf1\x06\x95+K\x06\xa1\x02&lt;\x13\x02\x184e\x03r~\xbcW\x86x\xdf\xf6\x95\xf1\'\xc3M~\xe7T\xb5\xd6$\xb7\xb6\x82s\x1b\xc0\xdd9=qL\xf0o\xfc\x14\x1a\xcb\xc4w;.\xfcA\xb2{\x93\xb2\x11\xbb$\x91\xc7\x00\xf45\xd9\xeb_\xb4\x1c\x1a\xad\xb5\xd5\xe6\x95s\x13\xb3\xc2\x03\xa1\x93\x0c\x9cr\xd8&lt;c\xbf\x15\xe0_\x12\xbfn+-\x0bW\x93I\xf3\xee\xb5+\x98\xd4\xa8\x8a\xd5p\xa9\xc7\xa8\xef\\\xe6\x93\xff\x00\x05\x00\xf8\xa3i\xa8A\xa5\xdbx6\xee\xee\xc8\x02[o\xca\xe0\x1fS\xde\xbd\x0f\xc1_\xf0P\xcb\xe4\xb8\x1a~\xa6\xfa\x8e\x97&lt;|\x88g\x0e7\x9e\xc0\x11\xd6\xbds\xc1_\xf0Q\x1b\x97\x10\xdd\rQ$@2\xf1Lv\x1e:\xf5\xeak\xdc~\x1f\xff\x00\xc1C\xbe\x1dk\xb1Em\xa9\xeb\x11\xc5vT\x007\x8d\xa7\xdb=\x8dw\x17\x9f\x1e|!\xe2[}\xf6\x9a\xc5\xb0V\x91\x1d\x80\x95Nq\\\x97\x8c\x7fh/\n[\x80n\xee\xa0\x00@\x17y\x90\x12\xfc\xe3\x07=s\xe8k\x13H\xfd\xa3\xfc?}}\xbe\xe7XHC\x16a4\x97_\xebX\xf68=\xfa\x1a\xeb\xbc?\xf1?F\xbd\xba\x82\x1d&amp;\xec\x94@]\x1a7\xdc\x17\xd41&gt;\xb5\xa9\xa9|B\xb2\xd3\xee\x9e\xda\xca\xed"B0\xeeS\x80\xcd\xdf\x1e\xbc\xd6\x9f\x85\xfc@u]T&gt;\xa0\xc1\xcf\x9aU\x06\xcd\xab\x8c}\xec{u\xae\x92\xe2I \x91c7J\xe8\xce\x0e"\\\x9cg\xd4\xf3U\xb55\x8ah\x85\xcbB\xad$\x00\xb219\xda\xa3\xb5ah\xde&amp;\x97X{\xa6\xb9\xb4x\x85\xb3\xec\x1egV\xcf\xa7\xb5S\xf1\x16\xbd\x0e\x8ds\x1c\xac~F#p\xf4\x15[O\xd5\xb4\xaf\x15\xdaM\x1c\x17&amp; I\xe4\x8e\x00\xef\x8a\xd9\xf0\xa5\xc5\xac\x9aiX\xef\xc3\xach\xbbr=\x0f?\x9d\\\xd2\xeenn\xef\x9a-J_-^\x00\xe7\x1d\x88&lt;U\'\xd6\xa5\xbd\xbc\x95m\x001Fq\x10\xdb\x81\xb8w\xc5s\xfe5\xd4#X\x1aO\xb4b&amp;8([\xe6`\xa3\x83\xf8\xf4\xaf5\xf1\xb6\xb94v\x0b\x1d\x84j\xd1\xcd+*27\xdc\xc0\xe38\xec\rp^*\xf1$6\x96\xc7R\x9ax&lt;\xcbr\xb0\xf9R\xa9;\xc3pN}\x07\xe9^C\xe2}Z\xeei\xe5K\xa0\x0c\x97\x12oa\x0b\xfc\x88\x07O\xa5q\x06\xee\xe3\xed-\xa8\xbc\x8a7*\x84\x8d\x9f \xfc\xd5I\xfcGm\x0c\xae\x97\x17\x81\xdf&lt;\x8f+;}\xab\xf1\xf7\x96\xf9sL\xc4\xcc\xc0\x95\xc1\xce6\xfbz\xd3\xc7\xee\x1b\xe4\x18\'\xd2\x91\x95_\xef\x8e\xbdI\xa5uWM\x8e\xa3h\xe9\x91\xd6\x80\x06\x02\x800:\x0e\xd4\xd7\x0c\xa7?/\xe5M2\x0cq\x8f\xca\x92DgP\xe0\xd38\xee?:[x\xce\xe1\x13\x93\x8c\xe7\x93\xda\x8f)\x97?\xc4\x0b`g\xb58\xc7\x1a\xc42\xf9b\xd8&lt;\xf4\xa8\xdc\xaae\\q\xd8\xd3\xa2&amp;,:\xf2\t\xa9\x1f\xe6\x1b\x81\xc6)\x1aEG\xf9\x10\x1f\x96\x91\xf7\xc9\x00ur\xad\xbb\xb1\xc52(\xd2\x1f\x91\xb8C\x80\xc0zW\xec\xaf\xfc\x12\x03\xf6\x99\x8f\xe2\xdf\xec\xad\x17\xc3\xdf\x13jq\x9d_\xc1\xce\xb0M\x18\x932KlO\xc8\xf9\xeb\xedZ?\xb46\x91\xa5i\xfe2\xb8\x83\xc4\xc8\x92[\\\x11 V}\x9ebw\xda}@\xee+\xe6/\x8c\xdf\x0e\xbf\xb1\xb5\xaf\xf8I\xfe\x1e\xebok\x19!\xa1\xb4\x8ep\xb2\x01\xd4\x80\x14\xe3\x07\xb9\xebP\xf8\x8f\xe2g\xc4[O\x0b\x1b}W^\xbf\xf3cE\x8e\x12\xb236\xe20\x06s\xc75\xda~\xcd\xbf\x075o\x89Z\x82\xde\\$\xb7&gt;e\xc6%\xf9Il\xfe\x1dk\xed\xbf\x04\x7f\xc1659\xfc1\'\x8a\xb5\xab8\xb4\xfbkKV\xbb\x9aK\xa2\x02\xac;\x87\xce\xc4\xf6\x03\'\x15\xeco\xff\x00\x04\xb1\xf0\xd6\xa5\xa2\xdb\\\xde\xde\xd8\x1d\xd1F\xf0\xcf&amp;\xcd\xa4\xb66\x94f8o\xe9_$~\xde?\xb3\xe7\xc1\xcf\xd9\xbf\xc3\xf3\xea\x1a\xb7\x8c4\xf9\'Eskei\xa8)\x95\xa4\x00\x90\xa1c&lt;d\xf1\x8a\xfc\xf9\x87\xf6\x82\xf8\x99\xe1\xc0\xc2\xf7\xc23F\xb2JU\x04\xe2h\xfb\xe7\x19\x0b\xd7m{\xf7\xec\xad\xe2\x8f\xda\xe7\xf6\x8c\xf1=\x86\x97\xf0\xafC\x9a\x08\xa7\xb8t\x9a\xfc\xdf\xff\x00\xa2\xc5\xe5\x8d\xc5\xf6\xf5*G\x18\xeek\xe8\x0f\x88\xdf\xb1\xef\xed\x81\xafi\xd0\xc3}\xf1_L\xdd;\x01\x1cP[\xc8\x06\x01\xf9\xb9\xce+s\xe1\xaf\xec\x17\xf1S\xc3\xb6\xd2\xcdu\xf1|jr\xc6\x81\x9e\x15\x88\xa4h?\x8b\xe6\xe9\x91^\xe5\xf0\x93\xc0Z\xf7\x82\xa61x\x97Z\x7f:l\x08\xda\x19\x96Ep:d\x1e\xf5\xeav6ZL\xb7v\xf2\xdfF\xb3\x1biRV\xf3\x0f\xdf \x822:7\xd0\xd6\xfd\xc7\x8bmnuo\xb4\xe9\x96r,\xab\xb90\xb8P\x83x\x1b\xb0=\x05t\x16:\xf47\xce^c\x97\x90\xaa#\x03\xd0\xd5\xc8f\xb3\xb9\xb6x\xcf\xf0\xb6\x1bk\xf1Y_n\xfe\xd0\xd4d\xb6\xb7\xb5\xf2\xa3\x85p\xe6V\xe5\xdb\xb5q\x1e&lt;\xf1)\x83\xc5\x10\xd9\xdd\xc0\xabl\xec#.~e\xc98\xa7xt\xad\x9e\x9f34\xcd\xe5\x1d\xc5\x91G\xcc\xa7\xb6=\x01\xae\x8bBG\x82\xd4\xae\x8f*\x18\xa7\x11\xe0\x14\xfb\x87i\'\xf5\xad\xcb}M\x05\xb9\x17 }\xa1\xb0\xb1\xb9\\d\x8e\x80\x1e\xdc\xd6t\xd7\x10\xc6\xcd\x05\x9a\x95\x07$\xf9\x8d\x93\xbf\xd8\xf6\xe6\xb8\xcf\x1cKs=\xe0\xb8\x8d\x1c\x88W\xcb\x8a-\xa1\x95\x81\xf5\'\xd3\xd7\xb5y/\x88\xb5y\xec\xef\x8d\x85\x92\xbc0\xc1"\x1b\xc1#\x93\xbbr\x9d\xd8\xfa\xd7\x03\xf1\x07\xc4\xf7\x97w\xff\x00g\x86X|\x88\xe2+\x869\xea8$w\xaf(\xf1M\xed\xb7\xd8\x82Ou\x99\xa4W,T\xed\xdd\x80q\\V\xb3\xaa\xc5\xa7\xd9y-\x8c:\x15\x8c\x06\xe8MU\xb6\x9a\xe6\xe52\xb3\xe0\x00?\x8a\xbf)P\xc2T\x96nE#O&amp;p\x13\'\xa6{\x8a\x8d\xe420A\x1bd\x1e\xb5#\x00\xab\x8e\xa5\x86&gt;\x94\xdd\xdbF\xd69\xf4\xcd*\x18\x99\x80g\xe7=3L]\xbb\xf2\xc0\x10\x18u\xa6\x07B\xe6}\xa3n\xecc\x1cR\xb3\xef!\x13\x80OAQ\xbf\xce\x9b\x17\x82\x1b\xb59\\\x93\xe7\x0e\xc3\x14\xf4\x902\xe1\x8e=\x052A\xfd\xd5\x19\xed\xc7zB\xc5\x86\xd9\x90{dT\xd0\x85\t\xca\x82\x00\xe8E f\x90\xb0t\xda\xa0v\xee*\x19%E8\x89\t\xcf\x02\xa5I\x10 \xf3\x00\xcf\xa5E \x07tR3`\xf3\x90y\xc5}1\xff\x00\x04\xaa\xf8\xff\x00g\xf0K\xf6\xab\xd1\xf4\xbf\x11^\x88t_\x15!\xd1uP~\xeco)\r\x13\xfa|\xad\x85\xcf`M~\xac~\xd0\x9f\x03\xf4\x7f\x8d\xbe\n\xb8\xf0\xfd\xea\x88\xef\xb4\xf0\xef\xa6_F\xdb&amp;\x84\xe4\x10\x15\x87;q\xce\xd0pk\xf3w\xc6\x9e\x16\xf1w\xc3\xcf\x11\xcf\xa3\xf8\x83]\x93e\xbd\xdb,\x92\xc9\x11\x1c\x03\xc7\xcb\xdc\xfb\xd1\xae\xfcY\xf0&amp;\x99\xe1\xd8\xf4\xc9\xbcL\'\xbbiU\x9d]\xb0N\x0fJ\xec\xbe\x0f\xff\x00\xc1J\xfcY\xfb-\x19\xaf&lt;\x01\xe1\x1d\'T\x82\xea\xd5M\xbb]\x13\x98f\xec\xfcu\xc1\xc6}i?i\x7f\xf887\xf6\xee\xf8\xdb\xf0kR\xf8\x0et\xef\r\xe8:n\xad\xa7\xfd\x8fS\xbc\xd0\xad\x9f\xcf\x92#\x90\xc8\x1c\xfd\xcc\xa99#\xeb\\\x87\xc0O\x8e\xff\x00\xf0S\x0f\x88\x1e\x1e\xf0\xcf\x85\xbcu\xf1\x7f\xe2w\xfc!\xb1\xda\x15\xf0\xdd\xf5\xcd\xe4\xf1\xc3\xe4( \xaaK\x80\xd2\x07\x19\xe5\x8f\xd2\xbfL~\x03\x7f\xc1(\xfc1\xf1\x0f\xc1\x16\x1e=\xd5\x9a\xeb_\xf1\x02\x88\xf5\x0b]_Q\x95\xa4\xdb"\x10\xfbp\xd9\xdcr+\xec\xbf\x86\xff\x00\xb0\x85\x96\xb3\xe1{g\xf1\xd5\xae\x99\xa8\xc5\x1a\x19\x0cZ\x86\x9b\x1c\x8a\xae\x07\',\x0e8\x1dG8\xaf\x15\xf0_\xec\xe1\xe0\x0f\x80\xd3x\xbao\x80\xda\x0c\xd2i\x91_H\xf7\xda\xa4Q\x85Ktb\\$`\x9e\x13 \x8e8\xa5\xf8K\xe2H|m\r\xce\x93z\xd2&lt;\x83Pv\xb0G\x8cb8\x98me\x07\xf83\xdb\x1fZ\xed&lt;K\xe3=\x1f\xc2vC\xc1\xba9\xb6YLd\x85nv9\x1c\x13\xeb\xcds\xbf\xda\x1a\x85\xde\x9e-WJF\xb9c\x96\xb9=0z\xe0v\xad+\x88g\xb4\xd3Q\x951t\xc0&gt;\xf8\x9b\x8c/8\xe2\xa9h1x\x82\xdd%\xd4\xb5%i.\xae\x83\x88V3\x82\x17\xd7\x1e\xbd\xeb\xa2\xd1\xe7\xf1=\x92\x1bk\xd1\x18\x92R\t\xdc\xd80\x8e\xc4\x01\xd0\xd6\x84\xbe,\x93C\x81\xe1\x8a\xc9\xd8:\x90gc\xf2\x86\xf5\xc7z\x93T\xd6\'\xb8\xd2\xd6\xf99\r\x1f\xef7\x0c3q\xda\xb9-J\x19\xbcC\xf6o\xb4\xc2\x8b\x1c2oU*2H9\x19\xad-\x1a\xf6Q|\xf6s\x90\x1aX\xcf\x98\xe8p\x17\x1d\x06Ev6\xd6\xef\xa64\x8f\x04%\xe2\\\x9d\x90\x0e\xb8_Z\xb5\xa8L\xb3\xd9\xda\xad\xc8HU\xdc3#\x01\x95\xc1\xe1s\xdb5\xcc\xcf\xa9\xc7\x16\xb8\xd68(I\xccE\xb9\\\xf6\xaeW\xe2\x16\xb1n\x8c\xb2\xc7\xb3\x97\xc1\x0b)\x00\x0e\xf8\x15\xe4\x1e$\xd6\x13W\x9a\xe2k\xe8\xc2\x99\xa3|\xc6\xbc\x11\xb4\x1d\xa6\xbc[\xe2&amp;\xa7k\xa2\xed6w\x12y\xd21%\x9c\x96\xc7\xd7\xe9\\\x0f\x8bu\xb9\xd9\xcc\xee r\x91\xe62[#8\xec\xa7\xa5y\xb7\x88\xfcMuqt\xd0E\xbb\x00\xed\x8c\xb2\x02K\x1e\xff\x00A^\xcf\xf0W\xe0\x8e\xb3\xe3/\x0b\xff\x00j\xdc\x92\x87*\x07\x980O\x07\x9a\xfco\x99T\xa6\x15@#\xa9\x02\x94\x95\x8c\xab,\x87\x81\x9cf\x91\x8b\x17\x12\x96a\x93\xd063H\xa1\xca\x96T\xc7\xcd\xc9f\xe6\x94\x85o\xbd\xf9\xd4i\x85\x97!A\xc1\xeai\xec\x9ec\x80\xa7\x00\x9eqQ2\x18\xa3(\x06F\xee\xf4&amp;\x0b\x02N9\xedR5\xb28,\xaf\x8f\\\x1ao\x96\xc8\xa0\x08\xbePs\x9d\xddj92\x99q\xdf\xa0\xa7\xc7\xce\xd2\x0eI&lt;\xfbS\xa5\x89\x89\xeb\xcf\xbd":G\x0e\x1c6\xe2\xd8\x04\x1a{\x02\xe8\x17q\xe7\x8e\xb4,)\x19\xcb6j\'P\xeeI\x1c\nq\x11&gt;&gt;S\x93\xc6j]:\xf6\xe3L\xbdK\xbby\x9a)!\x90I\x1c\x8apU\x81\xces_\xb8_\xb2?\xc78&gt;:~\xcd\x1e\x12\xf8\x97s\xaa\xed\xd4\xeet\xa8\xedum\x8d\xbb\xcb\xbb\x8b\xf7l\xa7\xd1\x98`\x93\xd6\x93\xe3\x9f\xec1\xff\x00\r\x05r|H\xf25\x95\xd5\xd6\xe5b\xb1\xa9\xca\x85\xe3\xe9^\x15\x07\xfc\x10gU\xf1\xcf\xc4\x0bX\xfcK\xe294\xcb59\xbe\xb9\x8d\xc4\x9e`\xcf\x01\x07l\x8a\xee&gt;.\x7f\xc1\x065\x9f\rx(]|5\xf1*^\xb4j6Ar\xc1\x0e\xd1\xcf\x03\xa0\xaf\x14\xfd\x98\x7f\xe0\x85\x1f\x1d\x7fi\xcf\x14x\x9fM\xf1&gt;\xa4|/\xa5x]\xc43j\x13Y\x19\xfe\xd5p\xc7\x94\x8c.\x008\xfe.\xd5\xfb\x83k\xff\x00\x04\xd2\xf8U\xe2\x7f\x83^\x16\xf0N\xab\x19\x82=\x1bM\xb6\x80\xa4\x10\x14\x10\xf9qF\xaa\xde\xe398\xe82}\xeb\xd6\xbff?\x01Z|&gt;\xf0\xd4\x1e\x01\x99\xc3\x0b\'kx\x1d\x8e\x0f\xcar\x0f\xe2:\xfa\xd7-\xfbe\xfch\xbb\xf8S\xe1\xc7\xf8=\xe0\x0bo3\xc4\x1e(Q\r\xa7\x94\xd86\xb6\xecv\xbb\x92:1\xc9\x00\xd7\xcb_\x18\xfc7s\xf0\x7f\xc2\xd0xd\xea\xd72^^[\xa7\xf6\x92\xac\xa4\xc4\xce&gt;`\x1c\x03\xce=\xeb\x8b\xf0\xa7\x89\xc7\xc2/\x04\xea\x1e)\xd7\x1e\xce\x18\xd9\xdc\xa4\xeb6\x1b\xef\x0c\x0c\x7fJ\xab\xf0vO\x13|j\xd5\xae&lt;b\xd0\xcc\xf6\xef?\xfa\x10\x92R@Py$\x1f\xd2\xbdQ\xb4}P]\xac0[\x84\xb7\x8dvL@\xc3\x13\xdcf\xacYE$\x13ox\xfc\xc3\x1f\xdc\x8c6\xd5A\xeb\xeei\xebuqu\xac\xdbySD\x84\xa1\xf3cd\x1f\'\xd3\xd35fC{\x1c\xe8\xc2\xe4BA&amp;W\xeb\xe6zg\xd6\xaf\\\xd9\xa9\xd3\x92\x1b\xab\x91pA\xdc\xb1\x8fS\xd3"\xa8jW7?\xe8\xd0\xcc\xed\'\x04\x08\x84\xa7#\xfc*\x9c\xb3Y\xad\xfb,bVDFR\x03\x91\xb4\x01\x90\xf9\xeesSxz\xd5 \xbaY-\xe2\x91\xdd\x95\x9eww\xe0\x11\xca\xf0{\xd7T\x9a\xbc\xb62M\x0c\xee\xf2N\n\x96\xc0\x18\xda{}qY~!\xf1&lt;7w\xe2\te*\xb2.\xd3\xbb\xe6\x04\xf4\x00g\xf8\xbd+\x1a=R6w/|6\xc5m\xb8L\xe7\x95\xc1\xf6\xef^}\xf17\xc4\x16-w\x00\x96\xf1]Q\xd4\x08\xa3\xf9H*w\x17-\xdf\x8e\xa3\xbdy\x17\x8b\xbcKu\xf6\xdb\xb9m\xfc\xb3\x19\x18VQ\xce+\xca\xbcq\xad \xbf1\x08\xd8I\x0e\x19\xc9\xe8G\xa5y\xa7\x8d|Kmm\xa7\x9b\xa1\x12\xbc\xca\x83x\xee\xf9=\t\xfd+\x9b\xfd\x9f\xbe\x1e\xeb?\x18~\'\xa5\x8e\xd7\xfb%\x8ed\x96Ur@\xe7;s_\xa4\x7f\x0e&gt;\x19A\xa5xy,`\xb7\xca\xc6\x15AD\x07\xa0\xf7\xaf\xe6\xe6O\xb3\xbc\xdf\xbb,r\xbc\xaex\xa41\x0e\xe2\x9c\xab\x1e\xdc\x97\xce:f\x98\xc8\xac\x0b\x05\x03\x1c\xd3Y\x1d\x13y\'\x9e\xc6\x91\x00$d\xed\xcf\xa5&lt;H\x0byq\xaeq\xe9M\x98\xc8\xaaB\xdb\xf1\x8e\xb9\xe9Q\xe0\x19\x00?\xdd\xa7\x14VR\x8b)\xe4`\x0c\xd0Q\xb6yD\x9c\x81Q\x85d$7\xcd\x8e\x80\xf3J\x19\xd7\xe6E\xe7\xb8\xa9\xfe\xfcyw\xc1\xc5"p\xbbTdP\t\xc9\xe7\xa7J\x8eBx\xe6\x96(\xd9N\xf6\'\rO\'h\xf5\x03\xa9=\xa9\x166\xb8\xcf\x92\xbc\xe3\x8d\xfd\xfe\x95\xf7o\xfc\x11\x8f\xf6\x85\xb7\xd2\xfci\xa8\xfe\xcd&gt;"\xd5\x95l\xf5\xd9M\xfe\x8a\xf3I\xb5c\xba\t\x82\xbc\xf1\x96\x1f7\xb9\x19\xaf\xd4O\x08x\xd6\xe2\xc8\xcfmy\x13\xf9\xb6\xe8\xc0\xb2\xb1"D\xc78\xf5\xe2\xbd[\xe15\xa1\xd4.&gt;\xdb:\x80\xd7\x00&lt;e\xd3\x18Q\xce+\xd3\xef\xec\xf5!\xa6\x06\xb6\x8a9eE\xf9U\xd4\x13\x8a\xec\x7ff\xbd{G\xf0\x8d\xde\xa1\xa7\xea\x90\xc4\x1bU\xb8\x12\x02\xe8\x08\xf3z\x1c\x9f~\x84\xfaW\xbei7:m\xc7\x87\x9cA\x14j\x83#\xe4 \xaa\xaf\xb7\xa7\xff\x00Z\xbcw\xe2\xcf\xc4\xad/\xe1\x9a\xdck\xd77\n$\x86m\xd1A\x1d\xc6$\x9d\xfb\x0e\xbd\xfa~5\xf3\xae\xa1a\xe3\x9f\x8a\xbe!\xbe\xf8\xe5\xaa\xeb\xf0j\x97\xd3\xcf\xe4%\x9d\xab\x9f2\xd6%\xe5\x14\x03\xc7\x07\x07\x8e\xfc\xd7\x94\xfcm\xd7\xb5\x08\xad\xd6MOR\x06\xea\xeeC\xe7\xc1,\x86I\x10\x8e9\xdd\xf7~\xa2\xbeg\xf8\xe3\xf1\x0c\xf8\xe3\xe2\x1e\x83\xfb&gt;i\xce\xeb\x1b\'\xda\xf5\xc9b\x94\xb1l\x10B\x1cz\xf4\xaf\xb5\xff\x00f/\x07\xda\xf8O\xc0\xf6\x9aLVq\xc6\xb1\xc0\x08}\xdf7N3]\xe5\xdc1\xa4/*\xdbG&gt;[\x0e\x11G#\xd3\xebX\xba\x8e\x8fg\xa8\xca\xbfd\xb3\x91\x10\x1c\x98I\xc1\x07\xd4z\xd3\xdb\xc2V\xb3\xc6c\xb1Y\x16\xe2e\xc1c\x18\'\x1e\x99\xf4\xab1iv\xb6Z\x1cf\xee\xd37 \x95]\xe7p\'\xb1\xc7j\xcd\xba\x83P\x93Ty$\xf2\x92U\xda\xb6\xf1\xa3\x95\x0f\x9e\xe7\x1dqX\x9a\xe6\x99\xa8I\x1cS\xbe"\xbbI\x0e\xe5\x81\xb8+\x9eI\xef\x8a\xb7eg\r\xcd\xacb\'G\xdaT;\x07&gt;\xbd&gt;\x99\xa8\xa0\x8a\xf6\xdai`mMHg\x0cS\xcb\xf4\xf7\xefP\\ko6\xaa\xcbi\xbc\xab(W\x99\x0e&gt;n\xc4\xfa\xe3\xde\xa9k\x97\x86=)m\xda%\x92I\x95^\x0f=\x8a\x94\xc3r\xc7\x1d\xfd\rs\xfa\xbf\x8bd\xb0\xf0\xf4\x90i\xd61\xc3\xe6Z\xef\x9eE \xaa\x95\xcf\xf3\xef^3\xe2\x9f\x15K*\xc8\x97\xd7\t,\x89#2\xa0\x90\xed\xc9\xfe,t\xcdy\xce\xab\xe3\t,\xe5\x9a9\x08a\xcb\xee\x07\xefc\xb1\xf6\xae\x0f\xc6~)\x9e\xec5\xdc\xb3$r2\x1f0\x11\x9cq\xf2\x8a\xf1\xef\x8b\x9e.\x86\xda\xdd4\xfbe\x06\xee\xf4\x84\x825|\xb37n;\x0c\xe2\xbe\xd2\xff\x00\x82{~\xce\xb1\xfc6\xf8}g\xaa\xebv\xf8\xbf\xd6G\x9f;0\xc9Ry\\\xd7\xd7:=\x8d\x94\x16\xc60\xce\xed\x9f\x98\xa1\xc75\xfc\xb8$jV&lt;\x0c\x16\x04\x16\x1dhud\xca?N\xc7\xd6\x9a\xca\xbb:c=M2"X\xb27Lp}iK\xaf\x98\x8c\x9b\x98d)\x04\xf0*#\xcb6OF\xfc\xa9\xd1\xa4k\x96\r\xcf~i\xdb\x94\x8d\xb8\xe0\xd2\x14N\xbd\xf1L#\xe6\x1bx\xe7\xb54\xbb$\x87$\xe4\xf7\xcd=\x06\xecg\xa9=i\xc9\x16$$\xf4\xefK"+\x9f\x95\xcf\xd34.S\xe4\x1dOJj\xf9\x8b.\xd6e9=(\x93\x01\x0bc\xa1\xa6\x07r\x84\x82H\x038\xcdI\x1a\xf9\xca7\x1c\x02y\x03\xbdH\xff\x00.!\xc1+\x9e9\xe9\xf4\xf4\xad?\x00\xf8\xcb\xc4?\x0f|e\xa6\xf8\xbf\xc3\x17\xbeE\xfe\x97}\x15\xcd\x9b\xef \x89\x10\x8d\xbc\x8e@ `\xfb\x12+\xf6\xff\x00\xf6R\xf8\xff\x00\xa0|~\xf0\x7f\x86\xfe*\xf8RH\xde\x1b\xc8"7\x96nra\x94\x80\x1a3\xe9\x89\x07\xe4k\xe8\x8f\x0b\xfcT\x90_\xc0\xb7l#{g\xd8a_\x95B\xe7\xefz\x1cW\xa6\xe9\xde:\x8e\xf1\x04\xf2j\xc4\x06L\x02% \xe2\xa3\xb0\xf8\x8f\xa7iZ\x89\xb7\x97\xf7\xfb\x8e\xd5\x869pN\x7f\x91\xf7\xae\xbfL\xfd\xa8|G\xe1\xef\x0f7\x87t\x19\xed`FGs5\xd8\xce\xc5\x03$d\xf5\xfaW\xcd\x1e&gt;\xf8\x97{\xf1w\xe2r\xe9\xb3x\x92iQ\xe6\x02y\x8b6\xd2\xdb\xba}+\xd1,\xf5\xdf\xf8F4d\xb5\xd25R\xb1\xc0\x87\xcd&gt;a\xceq\xc9\x15\xf2_\xed?\xf1\xbbK\xd0u\x0b\xddb\xefR7\x11\xd9C\xbaO2c\x86nz\xe6\xbc\xc7\xfe\t\xa1\xa0j\xff\x00\x1c\xbe&amp;x\x83\xe3\xae\xb7j\x1c\xde\xdd%\xbd\x88\x913\x85\x00\xf7=G\xb5~\xa3xWG\xd3&lt;?\xa4Ef\xa4J\xcb\x10\x05\xd8gw\x1c\x8f\xc2\xaf[XG\r\xbb\xc7\x15\xa2\x85w\xdcF\xd1\x8a\xa7\xaai\t\x1e\xa25\x1b\xc92\xa9\x1ep\x1b(\x00\xf4\x1d3R\xf8wM\xba\x91\'\xd4\xf4\xe8F\xd3\n\xacN[\x1bI8\xcdr\xda\xea\xdeAy4\x9as\xdc\x99.2`\xc9\xce\xd6\x1dFOL\xd6t\xfa\x8e\xa5\xaa\xddE}\x0cw6\xcd\r\xb0\xf9\xdeD\xcb9m\xc0p2F\x061\xe9\xc5P\x9e=B\xee\xf6mRC\xe6;\xe1w2\xfd\xc1\xdfo\xa5O\x16\x9dy\xa7H\xb6\xb6\x17\xe5\xadf\x19\x9c:\x81\xf5\x15\x16\xb5{\x15\x83\xbcWw\xbb\x13\x81\x19\x8f\x9d\xbe\xf5\xce\xea\x1e&amp;\xd3l\xec\x85\x86\x9c\xea\xf7\x0cY\x8cDd\xb7\xfb[\xbf\xa5r\xfe0\xf1\xd5\xe4w\x82E\xf9Y!1\xedy8d\x03 \xfe\'\x8a\xf3_\x17|B7\xd1\r\xccb\xb6Uo5\xfc\xde\x84z\x8e\xe0zW\x90\xf8\xcb\xe2&lt;kz\xf7\n\xfeiq\xe5\xa9N\x01\xec\t\xae+_\xf1\x97\x9cf\x86\xde\xcd\x99\x06\x16=\xcd\x92\xe4\xf0~\xa2\xb8?\x1e\xf8\xd2\xc7\xc3Zu\xd6\xa1\xab\xde\x11\xb3\r\x1cg\x1f\xbe\xc7;s\xfeqX_\xb1_\xc2\x8dK\xf6\x9f\xfd\xa0\xa3\xd7|GlM\x86\x9e\xe2Q\x1cq\xf1\x88\xce6\x93\xfe\xd1\xeb_\xad^\x12\xf0\x85\x86\x83\xa6\xc7\x0b[\x18D+\xe5\xc0\x11\xf8EU\xf6\xe9\x8a\xe8\xb4\xf4k\xdbU\xb8\xd1\xf7\x12x\x98\x1epE\x7f.a\x81\xca\x8e0\x0e=\xa9\x8cg\x93\xe5pp:\x13C\x12\x88\x01\x19&gt;\x86\x98~W\n\xad\xc7]\xde\x87\xd2\x9c\x0e\xd0J\xf1\xde\xa1\x16\x87y\x94JN\xee\xaaO\x14:H\xac\x02\xa7\x19\xec:R\x85*C18\x07\x9e)\xc7&gt;ir&gt;P\x84\xa8\xf5\xa7:\x81"\xb9\x00dp)\x8f\x92\xe71\x0f\xca\x81\xc5\xc8\x03\xa6:R4\xb9R3\xd5\xb1\xd6\x9d\x1b\xc6\xae\x11\x80\xe4\xf5\xf4\xa4\x0e\x9ey\xde\xdc/#\'\xad5\x94y\x82^\xc4\xfeTL\x1aa\xb5x\x1d\xb1\xde\x80[\xcb0\x88\xc08# R\xee\xdb\x16\xd1\xd4\n\\\xf9\xd1\x82\xccF:\xe0\xf5\xa4x\xa28*\xc4\x03\xf7\xbdH\xaf\xac\xff\x00\xe0\x97\x7f\xb5\x9e\xad\xf0{\xe2\xbd\x9f\xc2\xff\x00\x10\xea\x12G\xa0\xf8\x8a\xfcF\xbb\x80+ox\xcb\x8d\xea\x0f\n\xacq\xf55\xfb\x01\xfd\x896\xadh\xf1\xd8\xca\x16WFH\xeef@\x01\xe4\x1c\x8c{\x1a\xd1\xd44\xcf\x1f[YZ\xdbh\xd7Qy\xf1\x81\x80\xd1e[\xea;\xd5\xf7\xf0\x86\xb5\xe1\x99\xed5\xadSW\xc8\xbb\xb4\r\x14\xd1\x8d\xcc\xad\x9f\x9b#\xd7\xd2\xa9\xeb\xfa\xc5\xf6\xb1s\x05\x96\x91\xa7\xce\xf0\xa4L\x1d\xee!]\x8cq\xd4\x03\xd0\xfb\xf5\xaegF\xf0\xab\xf8f\xf4\xde\xebW_g\x94\x96`\xc5~R=+\x9f\xf8\x9d\xf1z\x7f\x0b\xd9\xcfq.\xad\'\x90T\xee\xf2\x10q\x81\xf7A=3_\x9e?\xb67\xc7\xb9\xfc]x\xfe\x0e\xd3\x9b2\xeaW!\xaf\x11@\x0c\x88\xa7\x85\xf9}k\xf4\x13\xfe\t\xbf\xe0m;\xe1\xf7\xc2\xdf\x0b\xf8wM\xb2\xe4\xdb}\xa2\xe3\xaf\xdea\xc6}k\xed\x8d\x12\xfa\xd6dku\x85\x03\x12\xa25*0\xbe\xb8\x1d\xabR9\xda\xf9&lt;\x98c\xc6\xd3\xb6E\xce\x15\x87\xa5%\xc5\x8c*\x8dj\xdax\xba1\xc6qn3\xc9\xc7\x1fZ\xa9$CO\xf0\x8d\xc3\\\x19\xa0\x94L\x0cV\xfd\x02\xe0\xe4\x03\x8e\xa3\xda\xb9\xab85\xcb\xe4\x82\xee\xc6%Fi\x7ft\xb8=\x8f%\x87\x7fjo\x8b,\xfcI\x04\x10[l\xc4\xa8C\xcd\x1a\xc0\xc1\x97\x1ft\x0ex\x15\xce\xebw\x97\xe9\xbe[x$\xda0\xc56\x81\xc8\xe4\x8f\xc6\xb1\xf5\x1djim&lt;\x98`\x1f+\x8d\xab\xbb\x96\xcf\\\xfa\xe2\xb2\xb5[\x8b\xb5\xd3\xa2\xbf\xb2\xe7$\x86\x8d\xe4\xe4\xb7o\xc2\xb8\xdb\x9dF}+{L\x9f;\xc9\xb8\xcc\x91(\xc7\xfb w\xfa\xd7\x9bx\xf3\xc4\xd3\xdd\xceZ\xfe\xe1\x81(\xc9\tv\xda1\xd8q\xef^[\xe3\x0f\x15YFe\xd3R\xe6 &amp;\x89\x80&amp;Ry\xc7A^u\xack\xac&amp;\x9a\xc6H\x8a\xc7\x02\xe7{\x1c\x9f\xaf\xd2\xb9o\x12x\xca\xd3N\xb4\x92\xee\xe6t\x8d\x14\x80\x1d\xce\x00\x1e\xd5\xf3\xbf\x8d\xbcc\xac|c\xf1u\xaf\x83\xfc9\x13\x98e\x94\xacD\xf2@\xce\x0b\x1f_j\xfdI\xff\x00\x82|~\xce6\x9f\x03\xbe\x15[\x89-]\xb5\x1b\xf8\xc4\xd7N&gt;\xf1\xce\x0e\xd1\xdcd\xd7\xd2\x96\x16\x17s\xad\xc5\x8a^\x17\x17#\x0b\tb\x0c9\xe0\x92k\xd0~\x1fxv{- \xdb\xe8\x16\xd1\xba\x06\x1ek\xc8\xe4\x96o\xad\x7f)&amp;D\x0c\x0e\xde\xfc\xe0S\xdex\xca\x10\x03\xf4\xe3\x9a\x8bv6\xb3\x1e\x84\x1aR\xb8;\x91r\xa4\xd3C\xbe\xf2\xa12&gt;\x94\xec\x01\xc7O\\SY\x9c)T$\xf1\xd6\x9b\x19 mc\x9c\xf1\xf3sN\x92W|FB\x80:\x90:\nFq\x91\xb1\xb7\x11\xf7s\xcf4\x894\xa5\x88\x94/\xe5N\xdc\x99\xce\xde}qH\x04g\x80\x83\x93\xe9L1\x13\'4:\xa2\xcd\xb1\x90}\xde\xe2\x96s\xb65U\xe4\x13\xcd*\x93\xe5\x03\xd7\r\xc599\x8b{pwRH\xcb\xe4\x16\x00g=qD\x18\x08\t\x1d\xf9\xa4\x90#,nTq\x92x\xab\xba&gt;\xa3&amp;\x9d{\x0e\xa7a&lt;\xb1Mn\xe8\xf14nA\x05NT\x0c{\xd7\xeeg\xfc\x13\x87\xf6\xb0\xf0\x87\xed\x1b\xf0?K\xbc\xd7o\x02\xea\x96h\x96\xfa\x92\xa9\x1f%\xcaad\xda\x9d\x95\xb8 \xfdk\xec+\x8d\x0b\xc3\x1a\x9e\x91c\xacA\xe29,\xe7k\x83\x13 @U\xd3\x1d\xb1\xf7O\xa1\xedX77z\x0c\x8f.\x9f\xf6\xc8&gt;Ee\xdf"\x0f\x94\xf6\xe7\xb6k\x86\xd5&lt;K\xa4x~\xcc^\x99\x15\xa5\xb7\x94\xf9\xb1\x97\xe1\xd3\xbe=\xf1\\\x97\xc7\x1f\xda\x13\xe1\xe9\xf0Z\xc1&gt;\xbf\xa7\xdbO\n\xee\x82H\xc2\x83!\xc7\xdca\xdc\xf6\xc9\xaf\xcd\xff\x00\xda\xbf\xf6\xd7{\x9b\xab\xcd\x06\xc7Yi\xa6.JZ\xc2\xff\x00\xbb\x00\x7f\x19#\xd3\xae+\xc7\xff\x00e\x8f\x07x\x8b\xe3\xb7\xc6\xfd:\xc3\xcai\x9a[\x94\x9fR\xba\x05\x88D\x0e\x0f\'\xe9_\xba\xbf\xb2\xef\xc2\xfb\xad3I\x88G\x1b,p@\xb1Fb\x8c`\x80\xbe\xa6\xbd\xafD\xf0o\xd9nV\xf2xn7\xa3`\xa0&lt;\x1c\xf75\xbbg\xa3\xa5\xa5\xb2\xa3\xc1\'\xce\xc4\xe7uI\xa8\xbc\x96\x16\x12\xdf\xc3;\\JbeKM\xc4n8\xe3\xe9\xf5\xae&gt;\x1dCR\xbe\xb5}?Z\xd3\x02L\xd3\x07DyKdg\xa6OCSj\xd7Z\xbe\x94\x06\x90\xa0\xe5\xca\x87RH\xc0&gt;\xac9\xc5s\xb7wa\xfcH\x9a\x9d\xfcR\xb3C\x11fd\x90\xbe\xed\xbc\x8c\xe7\xafJ\xe5/.\xb51\xa8I\x15\xe43,Q&gt;w\x85\x00\xff\x00w&gt;\xfc\x90~\xb5\xcf\xeb\x92Gley`[r[j;\xb6\t\x07\xae\x00\xe8k\x9f\xf1^\xa5\xa7\xfd\x8a{[{\xc2\x18@@\xdc\xde\xa3\xb5y\x97\x8b\xfcS \xb7\x92\xd0\xea*\xef\x1c\x0c|\xd6l\x9d\xb8\xfb\xa0\xfa\xd7\x89\xf8\xd3\xc7$\xe9\xed\n+J\xb1\xc9\xb8\xa3JFq\xdb\x15\xe5~%\xf1=\xce\xa0\xf0m\x9e%\x10\xb1&amp;\x11\x10\xc8\xfa\x9e\xf5\xcd\xf8\xb7\xc7\xb6:\x04Rj\x1a\xfe\xa1\x1e\xf9!*\x10&gt;\x0e1_&lt;|Y\xf8\xc5\xa9x\xb6\xe5\xf4\xe8ov\xdb\xa1&gt;TG%[\xd0\x91^\xfd\xff\x00\x04\xcf\xfd\x99o\xfcy\xe3\xdb_\x18\xf8\x82-\xd6\xc2A\xe5\x16\x8c\x92bR\t\'&gt;\xbd\x05~\xb7x7A:\x0e\x96|\x98\x969|\xa5\x8e\x10\xab\x81\xb4t\'\xd6\xb4,\xe5\x8fk\xaal7\x1d^E\xf9H\x1f\xe1^\xd1\xe0k\x08\xb4\x1d\x06+\x00\x1b~\xd0\xf24\x9c\x92O5\xfc\x8d\x18\xe3\xeb\x9f\xc6\xa3b\xc6\x12\x1b\x8c\x1e\x0f\xad5\xf3\xbc\x01\x8f\xbb\xd0\x8e*B\x8a#\x04\\\x8c\xf7@)\xb98 \x1e\xb4\xc6\x0c\x14\x92x\xc784\xe5\xc9\x8cyd\x0f\xad!G\x1c\x92\xbcS\x19w\\l\xf5Zh\x8cD\xe5O\x1fJW\xfb&lt;\x83j\xe7x\xe8i\xc9\x1b\x05\n\xcd\xd7\xb94\xf0\xb1\xa7\x05\xff\x00\x1a\x8f/\xb8\x88\xf9=\xa8\xf2\xbc\xd6\x19??zr\xc6DeX\xf7\xc74\xd6&gt;Q\x08\xbc\x8c\xd2\xf2\xc3ni\xc0*\x8d\x8c\xa0\xe7\xda\x94mA\x9c\x0c\x0e\xd8\xa8\xe4s$C\xcb8\xf9\xb0*Kr\x11q$e\xcf\xa2\x1cg\xda\xbd\x83\xf6G\xfd\xa4\xbc_\xfb6|L\xb3\xf1G\x87\xb5y"\xd3\xa5\xbaX\xf5h\x08\xc2\xcb\x18\xc0,\xaa&gt;\xee\xc5\xcd~\xbcxg\xf6\xcc\xd5\x13\xc36\xd72i\xd3\xdc\xda]\xda\xac\xf6W\xb6\x831\x94\xdb\xb8\xb1\xf4\'\xa1=k\xcd\xbc[\xff\x00\x05;\xf8ce}q\x05\xfd\xdf\x91vX\xc7wo  \x0cq\x9cz\xfb\xd7\x84\xfcj\xff\x00\x82\x9e\xd8j\x90\xcdk\xe0\xebK\xa9P+*\xba\xcc\xc3\x9cq\xcer\x05|\xad\xf1[\xf6\xa0\xf8\xa5\xf1"\xfa{e\xbakX\xa6\x1bS\xec\x80\x97\xdax#x\xe4g\xd4S~\x01~\xc8\x1f\x1f\xbfi\x0f\x15\xa6\x87\xe0_\x05^\xdd\x19\x984\xd73Z\xb2\xc3\x17=K0\xe7\xde\xbfa\x7f\xe0\x9e\xdf\xf0L=\x1b\xf6~\xf0\xb1}z\x07}V\xe2%k\xbb\xb2\x9f4\xbc|\xc1OU\x0b\xcf\x1d\xeb\xef\xef\x04\xf8N\xcbF\xd2\x92=6\xc7d[\x151"{`\x9f\xado\x9b\x08\xad\xa2/\x14a\x9c\x8e~Zl\xe1\xed/\xa0i,\xd9\xd3# \xb7\x03\xf0\xac\xcdZ\xf2\r:\xeay\xa0\xd3\x8c\xf3&lt;m\xb2(\xfa\x8e+1\xb4-C]X\xfe\xd7\xa4\xc9n\x0b\x86&gt;S\x858\xcf\xf1c\xb5ex\xebX\xfb\x1e\xa3g\xe5\xab\x16k\xa8\xe2\x11\xb3\x1c7\xc9\xeb\xdb\x9e\xf5\xc3k^$\x96\xc6\xd2\xe2\xfc/\x98\xec\x9b\x12S\xf3\x04bq\x8c\x1f\xe7^u\xe2O\x12\xf8\x8a}\xb7\xdez\xc8\xec\xc4\xc8d\x95\x8eps\xd0\xf5\xe4W-\xabx\xa6\xe6\xebV[\xa9\x95\x9a7]\x8c\x8e\xd8\x1b\x8f\x19\xc7\xa5p\xff\x00\x13\xbcTtM)\xa7\x95\x0c\x93\x06!6I\x9e{g\xd6\xbc7\xe2\x1f\xc5\x1bH\xe5\x92\x1b4(-\xd5T\xb4\xaeAi\x07\xccN\x07Z\xf2\xcf\x12x\xaaK\xd8\xcc\xea731\x0e\xce\xd8\x03=\xeb\xcb&gt;"|v\xf0\xe7\x84]\xed\xad\'\x8a\xfe\xfc\xa1\x028\xd8m\x8d\xb1\xc1&gt;\xf9\xaf\x03\xf1\xbf\xc5-c\xc7:\xa3\xdc\xdd]\xa3\xefn#e\xff\x00V;\xe0\xd6\x87\xc1_\x86\xba\xaf\xc5\x1f\x1a\xdb\xe96\xd6\xd3I\x02\xc8\xbflx\x94\xe7\x1b\x87\xca&gt;\xbd+\xf6o\xf6B\xf8-\x0f\xc1\xbf\x87\xf0\xda4)m!T&amp;YT\x12\xeb\x80U\x17\xfb\xb5\xec\xda\x97\x89\xe3\xb0\xd3\xe5\xbf\x8et0$E#d$\xb8b&gt;\xf0\xf5\xc7Z\xe8\xbe\x17\xf8v\xc7Z\xb8\xfbF\xa4\x86S"\x07\x96B8\xc7e#\xde\xbd\x9e8\xed#\xb7\x89n]\xa4a\x18\x01\x94\xf4Q\xd0W\xf2\r\x82x\x02\x95@\x92\x0f/w!\xb9\xf6\xa1b\x93\xc9\xf3\\\x8d\xc1\xb1\x81\xd7\x14\xd6H\xd8\x10\x03d\x8c\x03@&amp;\\y\\\x01\xc1\x07\xad ;\xd8\x90x\xc6(eF\x1bw\x9c\xaf|\xd1\x96\x08v\x8d\xdc\x1e\xb5\x16H!\xd5\x89n\xfc\xf4\xa1N\xe7\x1b\xd8\xf5\xe4\x93N\xdc\x82P\xa1\x063\xf7\x80\xebO\x92@\xa7\n2=qQ\tWn\xe2\x01\xf9\xbb\xd4\xa8T@d\xce\xd2N\x01\x1cSb\x88\x07\x0e\xd2\x9c\xe7\x93\x9a&lt;\xe6G0\x11\x9c\x9c\xa94\xa6\x037V+\xf4\xe2\x9b\x1cr\xc7&amp;\xd2I\x03\xb95#\r\xc3\x81\xcfj\x8eI\xb7)\x8f8lRG$g\x11\xb8\x1c\x1eJ\xd4\x91\x82\x88H\x1b\x818\xe6\xb4#(\xb1\x89\xe4\x04\x11\xc9+\xd4\xd7\xe8\xb7\xfc\x12\xef\xe2|\x9f\x1a&gt;\x1c^| \xd6/\xf7\xeb^\x1b`\xd6\xd9$\xb4\xb6n2\x08=p\xad\x85\xf6\xae\x8f\xf6\x9d\xff\x00\x82{\xea\xdf\x145)\xf5\xff\x00\x05\xe8\xd2\xd8k#\x1b\xd3\xec\x85b\x9f\xdc\x901\x9fz\xf3_\x84\xff\x00\xf0G/\xda\xab\xe2\x9e\xbc,\xb5/\x0f\xdb\xe96\x84\xe0\xea:\x8d\xc8H\x8a\x83\xc9\x18\x19&lt;W\xdf\x1f\xb2\x8f\xfc\x10\x93\xf6r\xf8Sim\xe2\xaf\x89[\xfc]\xa9\xa3\xa6\xf1p\x02\xc0\xa7#;c\xe9"\x8fR3_f\xe8\xbf\t\xbe\x1ax\x16\xda\xdbL\xf8\x7f\xe0;\x1d.\x15\x88$\xf6\xf6v&gt;T`\x0e\x84\xaa\xe0g\xea+V\xd2\xf9m\xf58mL,\xcf)\xc2(\\\x85\x03\xbe=\xab\xd0&lt;=\x15\xf4\xd6\xd7/y)x\x12\x19v\x01\x18\x04\x10x\xc7\xbd;N\x92\xd7\xc9\x8c\t\n\xb9b\x01\x94t=\x89&gt;\x95c\\\x16\xc4I4-\x1c\xcdo\x17\xef\x9d0B\x8cu\xe6\xb8\x0f\x11x\x96\xcbK\xd4\xa1\xbd\xd2\x929\xcc\x91\xb7\x9aL\xe5\x1aP:\x90\x7f\x83\x1e\x9d\rh/\x89-,\xad\x9e[\xbb\xa8\x0c\xc5\x06\xf5\x8a\x16f\x05\x87\xcb\x86\\\x0f\xafj\xf3\xaf\x88&gt;"\xbd}Iug\xb7H-#\x18Q#\xe0\xe7\x18\xdd\xb7\xb7\xd7\xady\xb7\x8a\xbcU\xb9\xe5K\xd9\x87\x98\xd8\x946\xc0\xad\x12/?(\xe9\x8e:\xf5\xae\x1fY\xf1\xc5\x81\x9aE\x92\xfd\xd8\xa3\x02\x8f"\x02\x80\x7f\x8dyo\x8d\xfe(\xc7\x1d\xc4\x8f\x15\xc2\x1d\xef\xf2\xb1~\xde\x83\xfb\xb5\xe3\x9f\x12~-\x19aM6y\xa4\xdb$[\x99\xe5\x03\x0cs\xd00\xe4\xfe5\xe5\x1e%\xf1\x8d\xa5\x9e\x9bu\xe2MoY\x8a\x1bH\\\xb0\x12"\xe0q\xc99\xe4\xf1\xd7\xd6\xben\xf8\xc3\xfbN\xdfx\x96K\x8d\x0f\xc1\xd2\x1b]=\x89\x0c\xea7&lt;\xb8\xee\x1b\xaa\x8fa^M\xf6\xb9n\xa7i\xa6\xcb3\xb6rO$\xd5\xaf\x0cxcU\xf16\xb7\x06\x8f\xa4[\xbc\xb3\xca\xf9\x89V=\xc0\</t>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00(\x00x\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfc+y6\x95WS\xedR\xc5$\x8d"FH\xd8[,W\xaf\x1d\xb3\xf8\xfe\x95\xfa\xfd\xff\x00\x04M\xf1\x1d\xad\xe7\xec\xcd\x0e\x8aY|\xdb;\xc9bt/\x92y\'\'\xf3\xaf\xb6\xef\xf4\xa4{\x05\x99B\x98\xd9H\x0c\xde\xb5\xccM6\xa3\xa21\x02\xf0y`\x93\x84c\x9cW\x94|c\xf8\xfd\x17\x82\x92K\xc4i]a\xc9e\x1d\xbaW\xcd_\x10\xff\x00oo\x88\xde(\xbf\x16~\x17\x1ff\xb5\x04\x84R\xdb\\\xf4\xcf\xb1\xfck\x88\xf1\'\xed\xbb\xae\xe8\x16\xe6=c\\\x06q\xf7\xa3\x19/\x9fs\\\xf5\xaf\xfc\x14\x97]\xb6\xbc\xf2\xa4\x8eY\x02\xe3\x95c\x8cWG\xa7\x7f\xc1Q\xf5\x1b9\x16\xe1\xec\xa5\xf2\xb6\xe0\xa0\x07\x93[\xda\'\xfc\x15\x82\xda\xd5C_\xda\xde\x02\x0e\xe6\xf2\x01\x03\xd8T\x9a\xdf\xfc\x15"\xd3\xc76\xefg\x14\xa6\xd29&gt;V\x0b\x9d\xc4{\xd78\xdf\xb5/\xc3\xeb\xa9M\xdc\xba\x9bJ\xe0|\xab\xb3\xb9\xae[\xc5?\x1e\xf5\x9f\x18]y~\x0f\x8aU\x1b\xc02H\x87j\xe3\xb8\x1e\xb5\xf6\xef\xfc\x12K\xe0\xc7\x89\x85\xeax\xc7X\x8eYD\xb3\x17y\xe5S\x97\xcez\xe7\xe9_\x87\x05\xa3a\xf36=\x07\xad\x11\xb8F\xccl\x17n\x0f#\xefc\xb5}O\xff\x00\x04\xdf\xfd\xb4.\x7ff\xbf\x16?\x86\xf59\xd8h\xfa\xa3\x06v\r\x8f.L\x90I\xff\x00\xbe\xbfJ\xfd\xaa\xf8!\xf1S\xc2?\x13\xfc\x15\x1e\xa9as\r\xd4\x12\xc2&lt;\xb2\x93)\x00\xe3\xae=k\'\xe2V\x81\xad\xdbZ\xb5\xe7\x87o!,\xcd\xc4r\xb8\xf9x?\xe7\xf0\xaf\x88\x7fj\xcb\xaf\x8b\xa5\xbf\xb1\xcf\x87\xad\x1eY\x89\xdaSs4\xbc\xff\x00\xb3\xfd}k\xe7\xfb\xbf\x81\x7f\x19\'\xb0\x92\xfa\xf3\xc1\x9a\x89\x12\x9eR\x0bVU\xcfm\xc4\x8f\xf3\xcdp\x1a\xd7\xc1O\x89\x1a\xbe\xaat\xe9t\x0b\x87\xb8T*-a\x85\xdfg\xbf\x1d\x0f\xf8U\x8d?\xf6D\xf8\xa6\xa1D~\x0b\xd4\x98m\x05\xb1j\xe0\xf3\xf8WM\xa1\xfe\xc2\xff\x00\x1b\xf5\x92\x9f\xd9\x9e\x05\xd4\x9d\x8f\xdc\x8dm\xdb\xbf\\\xf1S\xeb\x9f\xb0G\xc7m\t\x7f\xe2a\xf0\xff\x00QU\xec&lt;\x82I\'\xd3\xd2\x9d\xa2\xff\x00\xc1?&gt;&gt;^\xa2\xca\x9f\x0e\xf5%\'\x96\xddlA\xc7n\xd5\xdd\xf8+\xfe\t\xab\xf1\xa7P\xbe\x8a+\x9f\x02_\x02H \xb4D\x00k\xea\xaf\xd9\xf7\xfe\t\x17\xe2\xa9\xee\xed\xb5?\x19D\xd6\x90.\x19\xe09\x1f\xa5~\x8a|\x0c\xf8\x19\xe1\x9f\x83\xde\x19\xb6\xf0\xe6\x87\xa6*\x85\x85T\xc8\x06K\x1a\xfeK]\x03\x8e\x9d)\xdb\x1d\x11]\x07C\x9cz\xd2\x89\x98H\xafp\xa5\xb7&gt;v\xe7\xd3\xf9W\xd2\x7f\xb1\xc7\xfc\x14\x03\xe27\xec\xf1\xaaC\xe1\xfdKT\x92\xefE\xdeq\x0b\xcc\xc4\xc5\x9fL\x9c\x1f\xfe\xb5~\x8b\xfc\x0e\xfd\xbe\x7fg\xef\x88vP\x1f\x18\xff\x00n\xdd\\\xceA[kP\xcc$a\x9f\x94m&gt;\xfd\xeb\xeb_\x83\xd6_\r&lt;[\x0c:\xff\x00\x83\xbfg\xe6\x1epR/5\xb5\x1f)\xe7\x19-\x93\xc7\xb7\xadw\xfa\xbf\xc28\xbe!_C\xe1yt\xeb34\xed\x85\xb6\xb4\x89|\xb8\xc7\x19b\xd8\xe8=\xeb\xd3~\x1f\xfe\xc5\xbf\xb3\x7f\xc2\x8d8\\\xda\xf8\x1fO\xd4uF\xf9\xaeu\x0b\x8be$\xbf\xa2\xe0g\x035\xb9u\xf0\x83\xe1\\\xaae\x93\xc1Zx|\x1cm\x87\x1b\x7f:\xbf\xe0\xcf\x84^\x06\xd3K\xcd\x16\x97j\x8eW\xe5)\n\xe4~8\xad;\xbf\x80\xfe\x08\xd7/\xe3\xb8\xbd\xf0\xdd\xb4\xa1@o\xde*\xf2}q\x8ezWAi\xf0O\xe1\xf4X\x11\xe8\xb6\xed&amp;\x00\xdb\xe5)\x00~"\xa1\xbb\xf8A\xe1kk\x8d\x96\xda,x\x1c\xef\x11\xae\x07\xd3\x8a\xa3y\xe0\x8b{Y\x04P\xc2\x15I\xc1\xe3\xadli\xde\x0c\xb3\x80\xac\xcb\x06\xf6\xc0\xfb\xe3\x85\xaf\xe2\xc7\xcaE\xca\xb5\xc1\x05\xba\x03\xde\x9c&amp;\xf2\x17oC\xdb&lt;\xe7\xfc)fP`\x0c\xccF\xee\xa3uB\xaf\xe5\xaa\x81+q\xf7Fx\x15\xd7\xfc3\xf8\xdb\xf1#\xe1f\xad\x16\xad\xe0\xdf\x11Kj\xf1H\xac\xa4\x12\xca\x98\xcf8\xcd}\xd1\xfb)\xff\x00\xc1m\xfe(xKCO\x0e|B\xf1\nM\x7f\xe6\x14\x82\xea\xe7tv\xea\x0f\x01\x9bo\'\xe9\xdf\x15\xf6\xc7\xec\xd3\xff\x00\x05n\xf0}\xee\xbbg\xe0?\x87\xfa\xa4\xfe+\xf1V\xae\xdf\xe9\xd7n\xa28\xa3\x07\xef`\x9f\xe1\\\xf1_p\xf8s\xe3\x9aj\x1adpj\xb7\xd0\xdc\\\xb2\x8f1\xd1\x97j\xff\x00\xb21\xe9\xcdu&gt;\x1f\xf1\xabj\x93\xac\nF\xdcu-\x9c\xd7g\xa4j\x04[\x06k\x8c`\xfc\xdf7j\xdd\xb0\xf1#Mt\x1a\xdc\x84D\\\x16\xf5\xab\xf6\x1e!\x97\xed\x0c|\xe6*z\xb6\xe3ZI\xe2A4\x02$U\xc0&lt;\x92:\xd2Okm|\x894g\x0c\xa7\xa7\xadi\xe9\xdap\xb9\x81b\x95\xc0\x04s\xba\xbf\x88v\x8eC\x85L\x1fs\xda\x98\xe8a\\\x87\x05\xbd\xa9\x14\x8f\x96G\x1f\xef\nk\xc49L\x0c\x8alP\xa2\xee$\x0c\xe3\x1d;T\x8b!\x8c\x82\x06\xde1\x91\xe9]\x17\xc3\xbf\x89\xfe0\xf8_\xaf\xa7\x89|\x19\xafMaw\x18\xc0\x96"\x7f#\x83_j\xfe\xc5\x7f\xf0T_\x8a\xdf\xf0\xb1\xb4\xaf\x0c\xfcZ\xf1\xdc\x16Z1pg\xb9U\xdaf\xc7bA\xf7\xef\xeb_\xb3\x7f\xb3\xef\xc7\xbf\x05\xfcC\xd1m\xaf\xfc-u\x05\xcaM\x18&gt;r\xca3\x8e\xc7\xf9\xd7\xae\x8f\x19C\x13,1\xcc6*\x8c\xe1\xb9bkf\xc7\xc5sM\x04v\xb1\x9c\x9c\xe4s\xc8\x1d\xebu|M\x14P,V\xd2\x92{\xe1\xaa\xcd\x87\x88\xff\x00z-\xd5\xc9\x1ds\x9a\xe8-\xbcI\x1d\xb8R\xf2\x92\x14r\t\xab\xf1\xf8\xa2B\xa2\xe5% \xb7\xf0g\x81_\xff\xd9'</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00x\x00x\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfc2\x05\xdeV\xdc8\x00`T\xb0)\x95\xf0\xbdTg\x07\xa1\xff\x00\xeb\xe35\xfa\xdf\xff\x00\x04\x0f\xff\x00\x82\x7f\xc9\xa9\xe9\x12\xfe\xd2?\x14c\x98Y\xdf\xe5&lt;?\xa5\xcb\x1eU\x97\'\xf7\xa5O\x04\xf4\xc1\xfa\xd7\xecf\x85\xe1\r6\xca\xc06\x9d\x01\x85\x08\x1eX\xcf@\x00\x18\x1e\x83\xadgk\x17\x16\xba|\xe4\xcaK\xed\xeb\x96\xaecT\xf0\x9e\x87\xe2\xe7\x96k\xcd9YJ\x1f\x9c\xe3#\xe9\\\x1f\x89\x7fe\xdc\xce\xba\x97\x86\xaf\x8c\';\xf6\x0e7}q\\\'\x88c\xf8\xcb\xf0\xde\xe7\xed\x12Z\xc9s\x04n\xdbDjO\x1cV\x97\x83\xfe&gt;^^\xdc$\x1a\xeb\xc9hI\x1eb\xcb\xb8\x1a\xedn\xbe\'i\xefnc\xb4\xbeR\xac2\xac\xf8\xc1\xff\x00\xeb\xd7\x9f\xf8\xfb\xe3\x1cP\xd9\\]\xf9\xea\x91$L\x84\x992\xcc\xc3\xbf\xf9\xf5\xaf\x96&gt;$|Y}^\xfd\xd6\xd0.\xcc\xe4\x13\xea:\x9f\xadyg\x88\xbcUu\xad\xdf\x00\x92\x85P\xf8P\xc7\x92O\\W\xdb\x9f\xb3\x07\x83t\x7f\x03|\x13\xb7\x9e8\xc0\x9e\xe9\x0c\x8d\xe6/ \x9f_\xce\xb6\xdbS\x0b&amp;\xe6\xc0e\x00\x81\xb7\x86\xaf\xe6\xb1\xc1(\x02\x9e\x9d[\xd6\xba_\x84\x1e\x08\xba\xf8\x8b\xf1#B\xf0-\xa2\xe5\xf5]V\x18\x06\x0e\x0f\xccq\xc1\xed\xd6\xbf\xa8_\xd9\x13\xe1\xde\x95\xe0/\x85\xfe\x1d\xf0~\x85k\r\xbd\xad\x96\x9b\x0cq[\xa2\x00"\xc0\xce\x06:\x0e\x7f\x9d{\xd4\xbajZ\xe9\xe0FTq\xce\xd1\x8cW\x9cx\xdex-.Yp\x1d\xa4;@+\x9f\xc6\xb1m/\x9a;\x95\x86\xd9\x88U\x188\xe3\x9e\xf5\xdahb[\xe5@\xe0\x10\xa0d\xb1\xe9V\xf5\x1f\x0cX\xdff9\xed#\x91?\x8b \x1c\xd7\x01\xe3\x9f\xd9\xeb\xc1\xfe i\x9a+\x05\x82F\x1c&lt;j\x17\xf9W\x87|F\xfd\x96~!\xe9\xd0\xcc|\x17\xae\\\xb6\xd3\xb8F\x84\x95\xe3\xa6\x7fZ\xf9\xa3\xe2\xd7\x84\xbfh\x0f\x0e\xc7,\x1a\xe6\x81q&lt;K&amp;Y\xad\xc3\x03\x8f|W\xcf\xde.\xf8\x9a\xfa5\xd4\x96:\x86\x91=\xb3o \xfd\xa2"\x05g\xf8k\xc4\xdan\xb5\xafZ&lt;\xf3\xc2\xe0\xcc\x0f\xca\xdd9\xaf\xbb&gt;\x1d\xfc[\xd3/|/m\xa0Cz\x9e\\0"\xb9/\x92\xfct\xfc1\xfa\xd7Eg\xae\xc5z\xac\xd1\x9d\xb1\xaf\nOz\xfeqRF`\xd1\xb8(\xcb\x80\xa0\xaf\xde\xafh\xfd\x874\x85\x9f\xf6\x96\xf0t\xb3\xeco\xf8\x9dBq\xbb\xee\xe0\x9f\x98z\x11\xeb_\xd1\x9f\xc1\x9f\x1bK\xa5YZ[$\xc0\x88\x90*\x8e\x9f(\x1cg\xfc\xf6\xafb_\x89\x16\xd7\xb6\r,R\x05m\xb8l\x9f\x94\x9a\xe0\xb5_\x12\xad\xed\xe3L\xf9b\x1f\xefn\xe3\x9fJ\xb9\xa6\xa5\xbc\xd2\xaa\xe0\x0e\xecs\x9e\xb5\xd7\xf8z\x18\xf0\x15\xa4\xc8\xc7\x19=kV\xd9\x965\xce\xfcd\x9e\xd9\xcdT\xbe\xbeS#.\x03}W\xa5e\xce\x1a\xe1\x88\xda\xa3&lt;\x12Eck\xde\x07\xd2\xb5{wMB\xce\x19\x95\x90\x8c8\x1cW\xcd_\xb4\x97\xec[\xf0\xdf\xc7\xf6\x17\x13\xc7\xa1C\x03\xec\xc1h\xa3\\\x92{\xf4\xf6\xaf\xcf\x8f\x8c\x7f\xb2\xf6\xbb\xf0_\xc4\xd3j\x9a7\x9b\xf6hX\xec\x8c\xe4\xf1\xf4\xad\xcf\x83\xdf\x12oM\xcc\x16q\xeb\xb1,\xb1\x90|\xb3\x80G\xa8\xaf\xa0t\xbf\x8a\xf2\xe8\xfax\x97]\xd4!\x8e5\x1b\xd4\xcb:\xedonO\x15\xf8M#\xce\xea\xb2\x17\xc9\xc6\x08\xcdz_\xec\xa3\xe2\xab_\x06\xfcm\xf0\xd7\x88$(\xb2&amp;\xa7\x1a\xefq\xc2\xe4\xd7\xef\xc7\x80~(h\xd0hV:\x9c\xd7\xc3l\xd6\xe8[s{\x7f\xf5\xeb\xb6\x8f\xe3\xb7\x86\xa3\xb7U\x8eO1q\x85\x81$\xce\xf3\xfd?\xfa\xf5B\xcb\xe2%\xce\xb1~R;i\x124`\xcb\x16z\x0f\x7f^\x95\xe9\x1e\r\xd57\xa2\xcfw&amp;\xd2\xdc\xe0\x91\xcek\xbc\xd0o\xe1\n\xa8nT\x11\xd0c\xadk\x9b\xdc\x9f-~\\\xf4*j\xae\xa7umo\x08l\xeen\xe75FY\xa1\x91w\x8d\xc0\x91\xc6\x1a\x88\xec\xee.@\xdb!+\xd5\x88\xc1#\xf3\xae;\xe2\xa5\xe5\x86\x9d\xa7y\xc1C`0\xdb!\xc6O\x1d\x00\xeb_\x16\xfcz\x10x\x93T\xba[\x88\x08\x8d\xc1M\xad\x8c\x13\xed_\x1e\xfcX\xfd\x9d\xf5k\xcf\x10\x8b\xbf\x87\x97\xf7VwL\xf8co(S\x9e:~\xbd+\xc8&gt;%\xfc8\xfd\xa84\x1b\xbf\xb0x\xbbY\xd5\xef\xb4\xe8d\xea%fR=+\xe31.\xd8\xcbm\xdaI\x19\xe6\xb5\xbc#$\xff\x00\xf0\x94i\x91Z6$\x92\xfe\x15A\x8e\x8c\\a\x87\xa1\x1e\xbe\xf5\xfb9\xac^k\x9e\x1e\xf8m\xa3%\xbe\xa5))\xa6B%U&lt;\xb1\xd8+\x93\xd0\xbfi\x85\xf0&lt;\x85\xb5\xc4i\x02\xbe\x029\xc95\xe8\xde\x1a\xfd\xb7\xbc%\xab\xacp\xc6\xbeS\x80\x03nl\x11\xf4\xafX\xf0g\xeda\xe1\x89\x99\x07\xf6\xe4\n\xa2&lt;\x85\x0e\t\xc8\xe8\x0ek\xd6\xbc\'\xfbDi7\xf1"\xd9jh\xc6DS\xbd\x88\xe0\xf3\x91]\xa6\x8d\xf1\xa6\xc0\x81\x1b\xdf\xc4\xf2`\xe4\xef\x1c\xd6\x82\xf8\xfe\xcfT\x80\\4\xf1\xb0b~]\xf9\xc5^\xb0\xf14\x12G\xb50s\x8f\xbaA\xab\x13x\xa0Enm\xe1\x0c\xac\xfdX\x10\x0f\x15\xe3\xdf\x1d&gt;$-\x85\x8d\xc3L\xea#\x89p\x07\x18\xc9\xeak\xe4?\x1d\xf8\xcf\xfbZ\xf6E\xb2*\xe8K;K\xdc\x1e\xdc\xd6\x87\xec\xf9\xa4\xda\xf8\xb7\xc5\xb2O\xab[!X!-\xb8\xf1\xcf\xaf\xe9^\xb1\xae\xfc/\xf0\x8f\x8e,\x12\xc3S\xd2\xa0\x92&lt;\x1d\xaa\xb8\xeb\xeb_\xce\xc81\x10\xec\xa0\x1d\xcd\xe9[&gt;\x00\xbb\x1aw\x8dt}B|\x98\xa2\xd4\xa0g\x00\x02q\xe6\x0f^\x95\xfb[\xe3\xfd\x06\xe7W\xf8}a\x7f\xa5\x13\xb2M&gt;)\x11\xc7#\x065\xe0c\xa5|\xbd\xe3]\x16I5\tM\xc5\xa9\x8d\xf7\xfc\xc4\xc7\xf3\x13\xeb\\\'\x8b\xb5\x8b\xff\x00\x0c\x924\x9b\x16\x92\xe8\x0cF\xef\x9e\t\xfeu\x83\xa6x\xaf\xe2u\x95\xe4R\xcf\xae\xca\x972J&lt;\xbbhb\'s\x1e\x83\x0b\xc9&gt;\x95\xf4\xaf\xc2?\x84\xff\x00\xf0Q}sH\x8bX\xd1\xfc\x0b\x7f\xf6GR\xf0\xbd\xf3}\x9d\x99}vt\xc5u\x9a\xaf\x8f?l\xbf\x82\xf6\xe2\xe7\xc6\x9f\x0e\xa7\x91\x11wJ\xf1J\\\x81\xed\xb6\xaex\'\xfe\nW\x1e\x9f"Yx\xb9n4\xf3\x9c\x18\xe7\x84\xaf=\xf9#\x9c\x7fZ\xf7o\x86_\xb7o\xc3\x8f\x14\xed\xfb7\x88\xad\xdc\x85\x00\x818\xeb\xef]\xc5\xdf\xed-\xe1\xc4\xb2\xfbR\xeb\x16\xee\x1f8&gt;x\x04W\x89|^\xf8\xddi\xe2O&gt;\xd6\xd7PQ\x1c\x87\xe6\xd8\xc0\xee\xaf(\x93\\\xb3\xb6\x8aU\x89rJ\xe7\x05\x86\x1b\x9a\xef\xfe\x08x\xae=\x02\xda\xe0@TOs)\xc9\x07\x90\xa0p&gt;\x9c\x9a\xf5\xeb\x0f\x12\xc1)\x80J\xc4\x10\x99*\x87\x8f\xc6\xbf\x9e\x06T]\xaa\xb1\x05\xe7\x9cw\xa9\xa0\x9a[|\xcf\x00\x05\xe3!\xd0\x1fb\r~\xd9~\xc8^2\xd3\xbe)~\xce\xfe\x17\xd4\x85\xc2L\xa7N\x8a\x1b\x95\x07?\xbcQ\x83\x9fZ\xe9\xbe&amp;\xfe\xc92\xf8\xbd\x7f\xb5&lt;;d\xc2w\xe5A\x1c7\xe5^=\xe2\x0f\xd8;\xe3\xae\xbd#\xc3\xa2\xf8_\xcd\x93\xcc&gt;d\xb31X\xd1\x07r}}1\xe8k\xe9\xef\xd8\x07\xfe\t{\xe0\x9f\x87\x1a\xd5\xb7\xc4o\x8a\x96\xf6\xfe \xd7\xca\x92\x8f4a\xad\xad\x07m\xa1\x81\xcb\x0f^\xa3\x15\xf7\xc5\xaf\x864\xcbm-!\x82\xc9\x15"\x8c&amp;\xefQ\\/\xc4\x0f\x87~\x14\xf1#\x1b][L\x82T#\x00\xba\x8e\x95\xe5^"\xfd\x82\xbe\x02\xf8\xea\xed\x9fT\xf0F\x9e\xea\xdd\x0f\x92\xa3\xaf^\xd5\xc7k_\xf0H?\xd9\xe9\xf7]h\xdaK[\xbes\x9bg\xc6\xdc\xff\x00*\xe7/\xff\x00\xe0\x93\xde\x13\xb7\x7f/O\xf1&amp;\xa6\x14\xf4\x8f\xcef\x03\xf35\xcf\xf8\xaf\xfe\ts\x1d\xbe\x9eZ\xc3\xc4\xb7\x85\xd0\x12Q\xd8\xf3\xf4\xaf\x9d\xfe(\xfe\xc9?\x13\xfe\x10\xddI*4\xd7V\xfb\xf2\xac\xeaX\xed\xf49\xa8\xfe\x19\xdfO\xa6\xdf\xa0\xbd\x88\xf9\xe1\xb0\xc9\xb3\x15\xeb\xbaF\xb6\xf19\x91\xe5p\xe4\x7f\xab-\x8c\xfarzw\xaf\xc1\xd9\x00\x11\xe4\x0c\x1fZ|r\x04g%I \x06S\xe9\x8e\xdf\xad~\x92\xff\x00\xc1\r|o\xe2\xcf\x1aj:\xdf\xc1\xab\xbcO\xa7\xe9\xd1\xad\xe5\xac\xac\x99\xd8\xcc\xc7*3\xd0|\xbd+\xf5\xe3\xc1\x8d\xa5xSK\x85\xb5\xa5\xcb\x84/\xb5\xf6\x8crx\x18\xa8u\x8f\x1b\xbe\xba6[\xdb*D$\xf9QF?\x1a\xf5\x0f\x82\x1aL\x13\xe9\xf1\xcbqr2\xf2\x1e\x00\x04\xfb\xe6\xbdC\xc5\x89kc\xa2\x8d\x81[\x00\x02H\x03\x8e\xd5\xe4\x9a\xa6\xa9k\r\xd4\xd3\xdc\xcb\x85\r\x85]\xd9\x15gB\xf1\x14LV8\xfa\x03\x9c\xd7Sk{m*e\xd7q#\xa5Y\x80YyBQ\x18g=\x01\xedY\xda\x8e\x9fk#4\xd2[\x82\xc7\x8e\xbd+\xc6\xbe=x_H\xb8\xd1\xee\x1e\xfa\xdcma\x80\xa4g?\xfe\xaa\xfc\xfb\xf8\xdda\xac\xf8\x0f\xc4\xf3j\xde\x17\xd2\x1e\xf5crB\xaa\x83\xb0\xf6-\xed\xd6\xb2&gt;\x12h\x7f\xb4\xc7\xedq\xa9\xcb\xe1\xbf\x87\xbe\x0c\x96\xc2\xdb~\xcb\x8dI\xd0\x80\xb8\xc8$1\xe9\x8fj\xfcr2\xb1]\xa1NA\xe8jtm\x8cYy,\x06W\xd4\xf4\x03\xf5\xcf\xe1_\xae\x1f\xf0@/\x85\xbav\x81\xf0\x87\xc4\x1f\x16\xefet\xb9\xd6/\x1a;R\xcd\x8f\xddE\x95\x04{\x16-\xf9W\xdd\x1a\x8c\x82\xefUi\xc5\xc3J\xf9\xc3nc\xb5q\xff\x00\xeb\xae\x9fH\xb73\xda\xa3\xc7\x84\\d\x1c\xf3]_\x85\xbcm&amp;\x80\xa9\x1c3\x1c#|\xe5&gt;\xf1\xfck\xb5\xd4\xbe$\x1dKGU\xf3\xe6!\x94\xe4\xc8\xdc\xd7\x98\xeb~*\xf3\xf5/\xb2\x9b\x9c\x83\'\x007_\xadt\xfe\x0b\xbf+\x16$$\x96l)5\xdfiw\xb0\x98\xf7\t0\xca\x98o\x9b\x185d\xea\xf6\xa9(cr\xad\xb5FF:TS\xeb\xb6R\xab\x0f=@$d\xfa\x0e\xe6\xbco\xf6\x87\xf1\xbe\x9bg\xa4\xcd&lt;s\xa3\x18\xc9X\xd3\xfb\xc3\x8ek\xe3io\xec&lt;S\xe2{\xa5\xb9\x91\\\x07-p3\x85e\xe9\xb7\xf5\xaf\xb5\x7famg\xc0\xba_\x82\xa2\xf0\xa6\x89\xa7Ao*\xa9S\n\xaa\xa9\r\xc9$\xe3\xaer?*\xfeV\xd5\x1fhl\x8f|\xd4\xb6\x8d\x08\xb8]\xc8rYr\xc7\xb75\xfb#\xff\x00\x04r\x12\xcd\xfb(iv\xe2`\xb1\t&amp;\x00\x81\xd0oc\x8fj\xfa\xceWm)\xcb\xbc\xa6d*0;g\xd4\xd6\xee\x91\xe2\x08\x86\x9b\xe4B\xccY\xc7\r\x9eG\xe3\xe9T\x8e\xbfua~"\xba\x91Y\xb3\x92U\xb01W\xf5_\x8aW\xba~\x9a\xc9n\xab\xb7i\x1c\xbfZ\xe1\xec\xbe&amp;[\xc7~.\xb59\xd46\xf2~\xfdw\xde\x18\xf8\xcb\xa6\xa3\x89&gt;\xdb\x1e\xd1\x82\xa0H8?\x8duZw\xc6\xdd\x18\x92\xe6\xf5F\xe1\xce\xf6\x075;\xfc\\\xb1\x997,\xca\xdb\xb3\x8cK\x9a\xc8\xd7\xbe-Cgh\xfeE\xe0R\xcaw\x82\xdd\xbe\xbd\xab\xe6\xff\x00\xda3\xe3\xf6\x95\xa9\\6\x97ax]a@\x18F\xd89=\x81\x1dzs^\'\xa0\xf8\x9e-9&amp;7\xed\xb1\xee\xa6\xca(a\xb4s\x90\x08\xf7\xfe\x95\xf4\x17\xecO\xf1\x9a\x0b\xbf\x8b\xbf\xd9v7\x02X\xe1\x83\x0c\xdb\xba&gt;y\xc7\xe5_\xcf{\xc9\xb4\xaa\xba\x9fj\x96)$i\x122F\xc2\xd9b\xbdx\xed\x9f\xc7\xf4\xaf\xd7\xef\xf8"o\x88\xedo?fhtR\xcb\xe6\xd9\xdeK\x13\xa1|\x93\xc99?\x9d}\xb7\x7f\xa5#\xd8,\xca\x14\xc6\xca@f\xf5\xaebi\xb5\x1d\x11\x88\x17\x83\xcb\x04\x9c#\x1c\xe2\xbc\xa3\xe3\x1f\xc7\xe8\xbc\x14\x92^#J\xeb\x0eK(\xed\xd2\xbej\xf8\x87\xfb{|F\xf1E\xf8\xb3\xf0\xb8\xfb5\xa8$"\x96\xda\xe7\xa6}\x8f\xe3\\G\x89?m\xddw@\xb71\xeb\x1a\xe03\x8f\xbd\x18\xc9|\xfb\x9a\xe7\xad\x7f\xe0\xa4\xba\xed\xb5\xe7\x95$r\xc8\x17\x1c\xab\x1cb\xba=;\xfe\n\x8f\xa8\xd9\xc8\xb7\x0fe/\x95\xb7\x05\x00&lt;\x9a\xde\xd1?\xe0\xac\x16\xd6\xaa\x1a\xfe\xd6\xf0\x10w7\x90\x08\x1e\xc2\xa4\xd6\xff\x00\xe0\xa9\x16\x9e9\xb7{8\xa56\x91\xc9\xf2\xb0\\\xee#\xde\xb9\xc6\xfd\xa9~\x1f]Jn\xe5\xd4\xdaW\x03\xe5]\x9d\xcdr\xde)\xf8\xf7\xac\xf8\xc2\xeb\xcb\xf0|R\xa8\xde\x01\x92D;W\x1d\xc0\xf5\xaf\xb7\x7f\xe0\x92_\x06&lt;L/S\xc6:\xc4r\xca%\x98\xbb\xcf*\x9c\xbes\xd7?J\xfc8-\x1b\x0f\x99\xb1\xe8=h\x8d\xc26c`\xbbpy\x1f{\x1d\xab\xea\x7f\xf8&amp;\xff\x00\xed\xa1s\xfb5\xf8\xb1\xfc7\xa9\xce\xc3G\xd5\x183\xb0lyrd\x82O\xfd\xf5\xfaW\xedW\xc1\x0f\x8a\x9e\x11\xf8\x9f\xe0\xa8\xf5K\x0b\x98n\xa0\x96\x11\xe5\x94\x99H\x07\x1dq\xebY?\x12\xb4\rn\xda\xd5\xaf&lt;;y\tfn#\x95\xc7\xcb\xc1\xff\x00?\x85|C\xfbV]|]-\xfd\x8e|=h\xf2\xccN\xd2\x9b\x99\xa5\xe7\xfd\x9f\xeb\xeb_?\xdd\xfc\x0b\xf8\xc9=\x84\x97\xd7\x9e\x0c\xd4H\x94\xf2\x90Z\xb2\xae{n$\x7f\x9ek\x80\xd6\xbe\n|H\xd5\xf5S\xa7K\xa0\\=\xc2\xa1Qk\x0c.\xfb=\xf8\xe8\x7f\xc2\xaci\xff\x00\xb2\'\xc55\n#\xf0^\xa4\xc3h-\x8bW\x07\x9f\xc2\xbam\x0f\xf6\x17\xf8\xdf\xac\x94\xfe\xcc\xf0.\xa4\xec~\xe4kn\xdd\xfa\xe7\x8a\x9f\\\xfd\x82&gt;;hK\xff\x00\x13\x0f\x87\xfa\x8a\xafa\xe4\x12I&gt;\x9e\x94\xed\x17\xfe\t\xf9\xf1\xf2\xf5\x16T\xf8w\xa9)&lt;\xb6\xebb\x0e;v\xae\xef\xc1_\xf0M_\x8d:\x85\xf4Q\\\xf8\x12\xf8\x12A\x05\xa2 \x03_U~\xcf\xbf\xf0H\xbf\x15Owm\xa9\xf8\xca&amp;\xb4\x81p\xcf\x01\xc8\xfd+\xf4S\xe0g\xc0\xcf\x0c\xfc\x1e\xf0\xcd\xb7\x874=1T,*\xa6@2X\xd7\xf2Z\xe8\x1ct\xe9N\xd8\xe8\x8a\xe8:\x1c\xe3\xd6\x94L\xc2E{\x85-\xb9\xf3\xb7&gt;\x9f\xca\xbe\x93\xfd\x8e?\xe0\xa0\x1f\x11\xbfg\x8dR\x1f\x0f\xeaZ\xa4\x97z.\xf3\x88^f&amp;,\xfad\xe0\xff\x00\xf5\xab\xf4_\xe0w\xed\xf3\xfb?|C\xb2\x80\xf8\xc7\xfbv\xea\xe6r\n\xdbZ\x86a#\x0c\xfc\xa3i\xf7\xef_Z\xfc\x1e\xb2\xf8i\xe2\xd8a\xd7\xfc\x1d\xfb?0\xf3\x82\x91y\xad\xa8\xf9O8\xc9l\x9e=\xbdk\xbf\xd5\xfe\x11\xc5\xf1\n\xfa\x1f\x0b\xcb\xa7Y\x99\xa7l-\xb5\xa4K\xe5\xc68\xcb\x16\xc7A\xef^\x9b\xf0\xff\x00\xf6-\xfd\x9b\xfe\x14i\xc2\xe6\xd7\xc0\xfa~\xa3\xaa7\xcds\xa8\\[)%\xfd\x17\x038\x19\xad\xcb\xaf\x84\x1f\n\xe5S,\x9e\n\xd3\xc3\xe0\xe3l8\xdb\xf9\xd5\xff\x00\x06|"\xf06\x9a^h\xb4\xbbTr\xbf)HW#\xf1\xc5i\xdd\xfc\x07\xf0F\xb9\x7f\x1d\xc5\xef\x86\xed\xa5\n\x03~\xf1W\x93\xeb\x8cs\xd2\xba\x0bO\x82\x7f\x0f\xa2\xc0\x8fE\xb7i0\x06\xdf)H\x03\xf1\x15\r\xdf\xc2\x0f\x0b[\\l\xb6\xd1c\xc0\xe7x\x8dp&gt;\x9cU\x1b\xcf\x04[\xda\xc8"\x86\x10\xaaN\x0f\x1dkcN\xf0e\x9c\x05fX7\xb6\x07\xdf\x1c-\x7f\x16&gt;R.U\xae\x08-\xd0\x1e\xf4\xe17\x90\xbbz\x1e\xd9\xe7?\xe1K2\x83\x00fb7u\x1b\xaa\x15\x7f-T\t[\x8f\xba3\xc0\xae\xbf\xe1\x9f\xc6\xdf\x89\x1f\x0b5h\xb5o\x06\xf8\x8a[W\x8aEe \x96T\xc6y\xc6k\xee\x8f\xd9O\xfe\x0bo\xf1C\xc2Z\x1axs\xe2\x17\x88Rk\xff\x000\xa4\x17W;\xa3\xb7Px\x0c\xdby?N\xf8\xaf\xb6?f\x9f\xf8+w\x83\xefu\xdb?\x01\xfc?\xd5\'\xf1_\x8a\xb5v\xff\x00N\xbbu\x11\xc5\x18?{\x04\xff\x00\n\xe7\x8a\xfb\x87\xc3\x9f\x1c\xd3P\xd3#\x83U\xbe\x86\xe2\xe5\x94y\x8e\x8c\xbbW\xfd\x91\x8fNk\xa9\xf0\xff\x00\x8d[T\x9d`R6\xe3\xa9l\xe6\xbb=#P"\xd83\\c\x07\xe6\xf9\xbbV\xed\x87\x89\x1ak\xa0\xd6\xe4""\xe0\xb7\xad_\xb0\xf1\x0c\xbfhc\xe71S\xd5\xb7\x1a\xd2O\x12\t\xa0\x11"\xae\x01\xe4\x91\xd6\x92{[k\xe4I\xa38e==kON\xd3\x85\xcc\x0b\x14\xae\x00#\x9d\xd5\xfcC\xb4r\x1c*`\xfb\x9e\xd4\xc7C\n\xe48-\xedH\xa4|\xb28\xff\x00xS^!\xca`dSb\x85\x17q g\x18\xe9\xda\xa4Y\x0cd\x106\xf1\x8c\x8fJ\xe8\xbe\x1d\xfcO\xf1\x87\xc2\xfd}&lt;K\xe0\xcdzk\x0b\xb8\xc6\x04\xb1\x13\xf9\x1c\x1a\xfbW\xf6+\xff\x00\x82\xa2\xfcV\xff\x00\x85\x8d\xa5xg\xe2\xd7\x8e\xe0\xb2\xd1\x8b\x83=\xca\xae\xd36;\x12\x0f\xbf\x7fZ\xfd\x9b\xfd\x9f~=\xf8/\xe2\x1e\x8bm\x7f\xe1k\xa8.Rh\xc1\xf3\x96Q\x9cv?\xce\xbdtx\xca\x18\x99a\x8ea\xb1Tg\r\xcb\x13[6&gt;+\x9ah#\xb5\x8c\xe4\xe7#\x9e@\xef[\xab\xe2h\xa2\x81b\xb6\x94\x93\xdf\rVl&lt;G\xfb\xd1n\xaeH\xeb\x9c\xd7Am\xe2H\xed\xc2\x97\x94\x90\xa3\x90M_\x8f\xc5\x12\x15\x17))\x05\xbf\x83&lt;\n\xff\xd9'</t>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00&lt;\x00&lt;\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfcJ\xf1\xcd\xf7\x89|U\xe3\xb9&lt;&lt;\x81\x9eV\xbc\xf2`\x8c\xaeF\xd2z\xd7\xd7?\xb3\x17\xec\x8d\xe0\r\x16\xce\xdb\xc4\xde*\x81\xafo\xe1PZ\xdev\xdc\x8aO\xfb\'\x8a\xfa\x7fB\xb1\xb2\xb4\xb1E\x1bR\x15\x1bcU\xfe\x11\xe9\xf4\xe9I\xe2khml\x05\xdcm\xb8\xaa\x9c\xbf\xf1m\xf4\xcf\xa5x\xe7\xc4\x0b\xa9o\xac\xeemf\x8c4N\xc1\x94H\xbb\xb6\xfe}+\xc1\xbe#\xb2?\x9bn\xaf\x96Q\xcf\x18\xcdy\x0e\xads4\xd7[^\x0c\xeep\x03c\x9e+\xa7\xf0\xed\xbd\xd4\xfab\xbcp1\x1b\x88\x06\xb5u\xcf\x87\xb7~\x15\xf8\xe7o\xa9\xdf\xe9M\x12\xad\xf8\x0c\xc7\x80Fz\xff\x00\x9fZ\xfa\xef\xe0\x95\xed\xa5\xcc\xd7\x17R\xcc\x88y\x01\x10\x8f\x98\x01\xc15\xe9\xf6H/\xb4\xed\xb2\xf9B \xa4\x8d\xf8\xc9&gt;\xd8\xac\xfdb\xf6$\xb2h\xa4\xb7\x0c\xde^#@N\x00\xef\x9f\xd2\xbcc\xc6\xf7\x97\x11\xcfq\x02\xc4\xff\x00?\n\xc1\xb8\xaf\x11\xf8\x84wK,\x91\xd9\x96f\x05\x18\xf6\xcdyW\x89.\xa3D\x8e8\xad|\xb7\x0f\x82W\xf5\xad\xaf\x0ejz\x89\xd3\x17\xec\xf7\x05\x17q\xf9U\xb1\xfdk\xea/\xdao\xe1\x16\xa9\xab\xdc\x9f\x15\xe9V\xa2EI7&lt;P6Ys\x8cs\xdf\xa1\xae\x0f\xe1\xd7\x8b\xf5\x1f\r\xeb--\xc8\x95U\x80\x8c\xc37c_D|2\xf1\xde\x97\x7fi\x0c\xb7l3\x13\x0f8+\xe11\xf4\xe8zU\x9f\x13\xf8\x86\x06\xd4%\xbcY\xbc\xcbg,6\xc6y\x03\xb0\xfau\xaf8\xd7\xe2\x92i\\y\x9b#bH8\xaf3\xf1\xfe\x83s}\x03Ai\n2\xa1g-\x1a\x00\xc7\xa7z\xf0\xaf\x1b\xe97q\xc8U h\xd4I\x96l`\xd5}\x1cH\xd6_\xb9\xbcu\x1b\x8f\x01\xc8\xaf\xd1-\x07\xc4\xbe\x12\xf1.\x93\x1d\x95\xe9\x13\xb9P|\xa5\x84~\xa4\xf4\xaes\xc4\xdf\xb3o\x86\xb5I\xdbV\xd3\xe1\x11Op\xc5\xccHs\xb4v\xfaw\xa8t\x8f\x85\xd2\xf8n!`9\xca\xb1\x00\xf4\x04z\xd5\xb9\xec&amp;\xb3\xb5h\xbeS"\xc7\xc0^\x86\xb9m^\xfc\xb5\xc0\xb2\xbf\xf2\xd08\n\xa8\x067g\xa9\xcfn\xdf\x9dZ\xd0|/a\xe2{7\x82\x1b\x08\xa2\x9a\x16(2rq\xd8\xfb\x83\xdf\xf0\xaf"\xf8\xfd\xf0+T\xd2\xfe\xd3}g\xa7\xca\x91\x95\x0c\x1d\xcf\xca\xe7\xf8\xb0;\x0e\x9f\x9d|\xfds\x0c\xda|\xedk\x0b\xb4!O(N9\xaf\xb0|\x0b\xae\xdc\xe9\xd7^L\x8f\xbfk\r\xe4\x80~\x9dk\xda\xbc\'\xe2\x03{\x14S=\xd3\xb7#\x08\x1f\x1cw\xe9[\xda\xa6\x95\xbe_8[+\xc6\xcb\xbbk\x1f\x99\xb3\xdb&gt;\xdf\xd6\xb9-oK\x84\xbc\x864\xf2\x98\x03\xe5\xa3\x8cc\xd7\x91\xd7\xf1\xaf\x11\xf8\x97s6\x93\xa8\x1b\x8b\x86\x92F\x0eq\x13\x9c+\x01\xe9]\x7f\xec\xf3\xaeK\xaaL\xd7\xd6\xd0+\x17FY-\x84\x9f&gt;\xdf\xf6\x0f\x7f\xa5zW\x89|\x17\xa5\xf8\xd7K{;\x98\xc3\xca\xd0\x1d\xec\x00\xe1\x07Ee\xe8\x18v#\xaf5\xf0\xf7\xc5\xcf\x85o\xa5x\xf2\xf6\xca\x0b\x1d\xd1\xab\xfe\xec\xb4\xad\x909\xeb\xef^\xc3\xe7\xc5mr7Z\xacX\x98\x87\xc1\xea;Wg\xe0\x1f\x17,w\xb1\xac\x13\x90U\x8e\xc8\xc0\xfb\xc3\xb8\xcfj\xf6\xed\x13\xc6-\xaaiq\xdb\xfd\x81w0\xc3\xa9}\x98\x03\xbe\xe1\xd7\x1f\xd6\xb3\xfcp\xf0\xdc|\xd6\xd6I\x1b\x14\x004)\xb5\\\x0e\xf8\x1d\xfd\xfb\xd7\xcc\x9f\x1f\x1ax\xef\x1aO)\x98\x06a\xe5\xa7O\xbaz\x8f\xc2\xb4\x7fe\xddR\xcdne\x82\xf6\'XB\xe6 \xed\xb5L\x84\x0c(#\x95\'\xb1\xafX\xd2\xbca&amp;\x8f\xe2\x89\xed/\x90\xa93c\xc9\x98\xf2\xbe\x99\xecH\xec\xddNj\xb7\xc4O\x84o\xe2\x7f\x12\xbe\xb3\xa1\xe9V\xfeL\xd1)&amp;F\x19-\xdc\x9a\xf3\xcf\x11hs\xcbrf\xb9\x94B\xaa\x0eP\xa6r~\xb5\x93\xa5_\xc1\xa7O\xe6+\xeeTn\x89\xde\xbdo\xe1\xdf\x8b|\xd8\x85\xba\xaci\x1b\xa6v;\x03\xd3\xf9W\xa1k\xb7\x17z\xe6\x8e\x97\x16\xb3+&lt;v\xf8\xf92\xd8\x1e\xe4\xf2\xbe\xd8\xaf\x9a&gt;9i\x17V\xf3Mu4\r$g\x9d\xcf\xd0u\xce\x0fS\xd7\xbds_\x00\xf5\xcb=;Z\x1az\xddl\xf3\xa4%\x96A\xf2\xed\xfe\xef\xe3\xfd+\xd1\xfe)\xcfyo\xabE}g\x07\x93\x19U*\xbb\xf7\x15#\xbe\xefC\x9e\x9e\xd5\xd2x;\xe2\xad\xbc\xba\x14gZ\xb0Y\'RT\xba\xc9\xc1\x03\xa5V\xf1u\x9d\xbe\xa3\xa1\xe2D\xf2\xca\x12s\x0f\xcb\x9e\x9d{W\x95\xda\xa0K\xf7\x80\x1f\x94\xb9&lt;\x00?\x95w\x1f\x0e\xc0\x13\tUT2\x10\x01\xda\t9=\xc9\xeb^\xed\xe1mb\xea\xd3\xc3\xd2D\x89\x1bbg\xda\xec\x9f2\x80\x07\x01\x86\x08\x1c\xf4\xce:W\x88|\x7f\xd3\xed\xae\xc4\xe2e;\x980gS\x82\xd8\xc1\x19\xc7\xd4\xd7\x84\xf8NI-\xb5\xb6\x8a\'`\x13\xe6S\xb8\xe7\x83\xd3\xe9\xed_I\xf8\xdf@\xd3\x1b\xe1\x9d\x86\xaf\x1c\x029M\x96J\xa0\x1b\t`2v\x90Gj\xf1]9\xe5\x102\xa5\xc4\xa8\x04\x84b9YG\xe4\x08\x15\xff\xd9'</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00&lt;\x00&lt;\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfc2\x05\xdeV\xdc8\x00`T\xb0)\x95\xf0\xbdTg\x07\xa1\xff\x00\xeb\xe35\xfa\xdf\xff\x00\x04\x0f\xff\x00\x82\x7f\xc9\xa9\xe9\x12\xfe\xd2?\x14c\x98Y\xdf\xe5&lt;?\xa5\xcb\x1eU\x97\'\xf7\xa5O\x04\xf4\xc1\xfa\xd7\xecf\x85\xe1\r6\xca\xc06\x9d\x01\x85\x08\x1eX\xcf@\x00\x18\x1e\x83\xadgk\x17\x16\xba|\xe4\xcaK\xed\xeb\x96\xaecT\xf0\x9e\x87\xe2\xe7\x96k\xcd9YJ\x1f\x9c\xe3#\xe9\\\x1f\x89\x7fe\xdc\xce\xba\x97\x86\xaf\x8c\';\xf6\x0e7}q\\\x8d\xcf\x83\xbe8i72X\xdb\x10\xf1\xab\x9d\x84\x82x\xaf\xe6\x8d\xc1(\x02\x9e\x9d[\xd6\xba_\x84\x1e\x08\xba\xf8\x8b\xf1#B\xf0-\xa2\xe5\xf5]V\x18\x06\x0e\x0f\xccq\xc1\xed\xd6\xbf\xa8_\xd9\x13\xe1\xde\x95\xe0/\x85\xfe\x1d\xf0~\x85k\r\xbd\xad\x96\x9b\x0cq[\xa2\x00"\xc0\xce\x06:\x0e\x7f\x9d{\xd4\xbajZ\xe9\xe0FTq\xce\xd1\x8cW\x9cx\xdex-.Yp\x1d\xa4;@+\x9f\xc6\xb1m/\x9a;\x95\x86\xd9\x88U\x188\xe3\x9e\xf5\xdahb[\xe5@\xe0\x10\xa0d\xb1\xe9Z\x13\xe8\x96\xc6L\x9bh\xdb\xdc\x80k\xf8\xf6I\x19\x83F\xe0\xa3.\x02\x82\xbfz\xbd\xa3\xf6\x1c\xd2\x16\x7f\xda[\xc1\xd2\xcf\xb1\xbf\xe2u\t\xc6\xef\xbb\x82~a\xe8G\xad\x7fF\x7f\x06|m.\x95eil\x93\x02"@\xaa:|\xa0q\x9f\xf3\xda\xbd\x89~$[^\xd84\xb1H\x15\xb6\xe1\xb2~Rk\x82\xd5|J\xb7\xb7\x8d3\xe5\x88\x7f\xbd\xbb\x8e}*\xe6\x9a\x96\xf3J\xab\x80;\xb1\xcez\xd7_\xe1\xe8c\xc0V\x93#\x1cd\xf5\xad[tC\x1eJ\x83\xc9\xe4\x8a\xfe;\xe4y\xddVB\xf98\xc1\x19\xafK\xfd\x94|Uk\xe0\xdf\x8d\xbe\x1a\xf1\x04\x85\x16D\xd4\xe3]\xee8\\\x9a\xfd\xf8\xf0\x0f\xc5\r\x1a\r\n\xc7S\x9a\xf8m\x9a\xdd\x0bnoo\xfe\xbdv\xd1\xfcv\xf0\xd4v\xea\xb1\xc9\xe6.0\xb0$\x99\xde\x7f\xa7\xff\x00^\xa8Y|D\xb9\xd6/\xcaGm"F\x8c\x19b\xcfA\xef\xeb\xd2\xbd#\xc1\xba\xa6\xf4Y\xee\xe4\xda[\x9c\x129\xcdw\x9a\r\xfc!U\r\xca\x82:\x0cu\xads\xa82\x9c$c\x1e\xcf\x8a\xfe=\xc4\xbbc-\xb7i$g\x9a\xd6\xf0\x8c\x93\xff\x00\xc2Q\xa6Eh\xd8\x92K\xf8U\x06:1q\x86\x1e\x84z\xfb\xd7\xec\xe6\xb1y\xaex{\xe1\xb6\x8c\x96\xfa\x94\xa4\xa6\x99\x08\x95T\xf2\xc7`\xaeOB\xfd\xa6\x17\xc0\xf2\x16\xd7\x11\xa4\n\xf8\x08\xe7$\xd7\xa3xk\xf6\xde\xf0\x96\xae\xb1\xc3\x1a\xf9N\x00\r\xb9\xb0G\xd2\xbdc\xc1\x9f\xb5\x87\x86&amp;d\x1f\xdb\x90*\x88\xf2\x148\'#\xa09\xafZ\xf0\x9f\xed\x11\xa4\xdf\xc4\x8be\xa9\xa3\x19\x11N\xf6#\x83\xceEu\xd6\x7f\x1a\xb4\xb5\x80\x0b\x9dB6~\xe4\x155\xfc\xa8\x03\x11\x0e\xca\x01\xdc\xde\x95\xb3\xe0\x0b\xb1\xa7x\xd7G\xd4\'\xc9\x8a-J\x06p\x00\'\x1e`\xf5\xe9_\xb5\xbe?\xd0nu\x7f\x87\xd6\x17\xfaQ;$\xd3\xe2\x91\x1cr0c^\x06:W\xcb\xde5\xd1d\x93P\x94\xdcZ\x98\xdf\x7f\xccL\x7f1&gt;\xb5\xc2x\xbbX\xbf\xf0\xc9#I\xb1i.\x80\xc4n\xf9\xe0\x9f\xe7X:g\x8a\xfe\'Y^E,\xfa\xec\xa9s$\xa3\xcb\xb6\x86"w1\xe80\xbc\x93\xe9_J\xfc#\xf8O\xff\x00\x05\x17\xd74\x88\xb5\x8d\x1f\xc0\xb7\xff\x00du/\x0b\xdf7\xd9\xd9\x97\xd7gLWj\xd1\xfe\xdc\xde\x1c\xc6\x99\xaa\xfc?v\x99FX\xfd\xa0\x1e\xbf\x85~52\xa2\xedU\x88/&lt;\xe3\xbdM\x04\xd2\xdb\xe6x\x00/\x19\x0e\x80\xfb\x10k\xf6\xcb\xf6B\xf1\x96\x9d\xf1K\xf6w\xf0\xbe\xa4.\x12e:tP\xdc\xa89\xfd\xe2\x8c\x1c\xfa\xd7M\xf17\xf6I\x97\xc5\xeb\xfd\xa9\xe1\xdb&amp;\x13\xbf*\x08\xe1\xbf*\xf1\xef\x10~\xc1\xdf\x1du\xe9\x1e\x1d\x17\xc2\xfel\x9ea\xf3%\x99\x8a\xc6\x88;\x93\xeb\xe9\x8fC_O~\xc0?\xf0K\xdf\x04\xfc8\xd6\xad\xbe#|T\xb7\xb7\xf1\x06\xbeT\x94y\xa3\rmh;m\x0c\x0eXz\xf5\x18\xaf\xbe-|1\xa6[ii\x0c\x16H\xa9\x14a7z\x8a\xe5\xf5\xaf\n\xe8\xd3\xdf\xb3\xbe\x9f\x0b\xf0\x00-\x185\xfc\x89\xc8\x00\x8f `\xfa\xd4\xd0\x01\x89\x1f\xbam#\xf5\xaf\xd2/\xf8"?\x8f&lt;E\xaf\xe8\xda\xc7\x80u[\x95\x9bN\xb0\x9cMj\x8e\x99h\xd9\x98\xe4\x02z\x0e\x07\x18\xaf\xd8\x1f\x84\x1ae\xa4\x9aL2L\x9b\xce\t\x19\x03\x8eO\xa7j_\x17\xea\xf7R\xdc\x9b-\xb1\xaci!\xc2\xa2c\xf1\xae\xeb\xe0\x85\xa4W6\x99\x90\x9c\x891\x9e9\xce\x7f\xc2\xbdg\xc4v\xd0\xc3\xa2)X\xc7a\xca\x8e\x83\xb5y6\xa9,\x9f\xda\x12\x81#\x00\x1c\x80\x03\x1a\xff\xd9'</t>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00\x1e\x00\x1e\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfcJ\xf1\xcd\xf7\x89|U\xe3\xb9&lt;&lt;\x81\x9eV\xbc\xf2`\x8c\xaeF\xd2z\xd7\xd7?\xb3\x17\xec\x8d\xe0\r\x16\xce\xdb\xc4\xde*\x81\xafo\xe1PZ\xdev\xdc\x8aO\xfb\'\x8a\xfa\x7fB\xb1\xb2\xb4\xb1E\x1bR\x15\x1bcU\xfe\x11\xe9\xf4\xe9Rk:t^\\R@\xca\xccx\xdeFN;\x0c\xfaW\xe7\xe6\xb9\xf0\xf6\xef\xc2\xbf\x1c\xed\xf5;\xfd)\xa2U\xbf\x01\x98\xf0\x08\xcf_\xf3\xeb_]\xfc\x12\xbd\xb4\xb9\x9a\xe2\xeaY\x91\x0f "\x11\xf3\x008&amp;\xbd&gt;\xc9\x05\xf6\x9d\xb6_(D\x14\x91\xbf\x19\'\xdb\x15V\xea\xfe\xda\x10\xa9q\x01b\x00\x08\xa8\xc7\x81\xdf?\xa5x_\xed7\xf0\x8bT\xd5\xeeO\x8a\xf4\xabQ"\xa4\x9b\x9e(\x1b,\xb9\xc69\xef\xd0\xd7\x07\xf0\xeb\xc5\xfa\x8f\x86\xf5\x96\x96\xe4J\xaa\xc0Fa\x9b\xb1\xaf\xa2&gt;\x19x\xefK\xbf\xb4\x86[\xb6\x19\x89\x87\x9c\x15\xf0\x98\xfat=*\xdf\x89&lt;A\xe6jowkp\x1e\x17c\xb4+}\xde\x98\x1fN\xb5oI\xb9\xd25\xbd\x065\xd5\xac\xcc\x81\x97!DK\xfc\xcf"\xb8\xef\x15\xfe\xce\xbe\x14\xbd_\xf8H-Q`{\xa7f\n\t;q\x8f\xf1\xaa\xfa\'\xc3\xe84\x18\x05\x9cW\x01\x83+\x10\x08\xe0\x11\xedZpX4\x08#v\\\x85\x1ft`W\xff\xd9'</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00&lt;\x00&lt;\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xf7\xab\x0f\x8c?\x10\xbc)8\xd2\xbcG\xa4\xdc*\xa7\xde\x97\xcb85\xe8~\x17\xf8\xc1\xa6\xeaV&gt;|\xfa\xa0k\x8c\xe7`9\xe7\xfe\x05Px\x97\xe2\xb4\x10\xc2Z9RC0\xdb\x1a\xef\xc6\x0f\xbdx\'\xc7\x8f\x8dQ\xc7\x8b/\xb4\xac\x93\x88\xb0\x08n\x03z\xfdk\xe7o\x14\xfcE\xba\x929$U\x01\xa59\x8c\x0e\xc7\xde\xba?\xd9\x03\xc26\xbe:\xf8\xbdk.\xab x\xac_\xcc\x0c9Q\xeek\xec\x8f\x17^\xdb\xda\xdd\x88-b_.8\xb9P\xbc\xd6Z\xeb\x1e@\xf2\xe3\xc3\x8e\xbb\xb6\xf5\xaf\xa5\xfcM\xf0\xc7\xc3z\xed\x93\xc7\xa9i\x119=\xcc`\xff\x001^E\xf1\x0f\xf6T\xb3\xba\x0fu\xe1\xcb\xf9-\x98t\xda\xc7\xfaW\xcf\x9f\x17~\x07\xfe\xd0\xde\x14g\xb9\xd2\x9ek\xc8wo\xff\x00H\x195\xf3/\xc5\rO\xc7\x9e\x18\xb9\x96o\x17\xf8R\xfc8\x93\x86(\xcc\x07\xe7^_u\xf1F\xd3V\x9c\xc3\xe6E\x11=V\\\xabW\xbb\xfe\xc6&gt;=\xd1|\x1fsu\xab\x99St\x83\x017\xfd\xff\x00\xaf\xad}5\xff\x00\t\xdd\xbe\xaa\xc2\xed\'\x13M \xc6\xe49\x15p\xdf\xc5\xfcS\xa8\xfck\xec\xfb\xbb\xb5\x8a\xdc\x93(\xf7\xf9k*\xfa\xe8I\xc0\x88s\xd7\x8a\xcf\xba\xd2\x13P]\xb2\xec \x8c`\x81\xd3\xd2\xbc\xf3\xe2\x97\xc0\xdf\x04x\xb3M\x92\xdfV\xf0\xf5\xb4\xac\xf1\xe0\x1d\xa0\x9d\xde\xbd:\xd7\xc1\xbf\xb5\x97\xfc\x13\xefA\xb57\x1a\xcf\x84\xed\xda9\xc7O(\x05\x03\xf2\xaf\x9a|=&amp;\xbd\xf0\xabY\x1a&amp;\xa9z!\x10\xfd\xd9eN\x1a\xbe\x8a\xf8M\xf1\x13X:|s\xda\xeaq\xcc\x80\xee\x05%\x03\x03\xf3\xae\xd6\x7f\x8f\xbe\x1d\xd3\x1f\xec\xd7\xda\xb5\x89\x97\x19o6u\x04{W\xe99\xb8\x8e_\x9ei\x0e\xdfBx\xac\xb9o`\x92g\x85W\x18\xff\x00j\xa1\x18\x92LC)Q\xfe\xd1\xa6\xdeZ%\xbd\xbf\x99|_s}\xd0\xaa8\xaf\x9c?h}r\x01\xa5\xcd\xa7A\x00$\x8d\xa5\xe2m\xc7?\x8d|Q\xf1\xd3\xe1\x86\x87\xe3KYM\xf4\'\xcc\x03hx\xcf \xfdk\xe7\x1dk\xe0?\xed\x1f\xe1\xfd*}G\xe1\xf7\x8a\xf54\x82)0 \x8a\xe7\x86\x1e\x80\n\xf2\xeb\xaf\n|T\x86\xeeX\xfcWo\xaa\xcb{\xbc\xf9\xae\xfb\xb2k\xfa\x18\xb6\xf8\xb9c\xa8\x88\xad\xe3\xbb\x8b\x12t"J\x9a\x1f\x16ZI6\xf0\xd1\xe4\xf5;\xabN?\x11DO\x9aP\xe3\xdc\n\xc6\xf1\xa7\x8e%\xb7\xd3\xa5\xbeS\x82\x7f\xd5\xab\x11\xf2\xfd=+\xe4\xdf\x8f\xdf\x13,\xdfQ{\x17\x99K\xc6r\x01\xfe3\xef\xeb^\x13\xa9\xeb\x97\x97\x17+\xe6B\xbf\xbe9d#\x80k\xe8_\x02x;C\xd3\xbc)\xa7E\xf68D\x93[\xee}\xe7\x90}~\xb5GP\xfd\x99\xbe\x1c\xeb\x97M\xa9\xcf\xe1\xd4w\x97\x96`\xca9\xaf\x9c?\xe1\xb6\xfe1\xfc3\xd5\x17M\xf8\x87\xe0{\xcb)"\xfe5\x85\xddEzg\xc3\xaf\xf8)7\xc3\xfdT\xa4:\x9f\x88\xa3I\x08\xdb\xfb\xf7\xdb\xcf\xe2+\xdc|=\xfbVx;^\xb4\x84\xd9k\xd0s\xd72\xaf5\x85\xf1\x1f\xf6\x94\xd1.4\xe6\xb6\x82\xfa\x12\xc3\xa2\x89\xb7W\xce\xfe6\xf1\x95\xb7\x88\xb5g\xd4\xaen\x0c\xcf\xf5\x02\xb3\xac5k[\xfd~\xd9d\xdb\xe5,\xb1\xb3\xb1n\xa0\xf6&gt;\xd5\xf4\x07\x85|zu(\x96F*#Hp\x9e\x8b\xf4\xf4\xae\x8a\xc3\xc4\x16B\xd8e\xe4?Rs^\xfb\xe3\x1f\xd9\xb7\xe1g\x8d\x84\x9f\xda\xbe\x18\xb3\x99\xdf\xa0x\x95\xbf\x98\xae\x0bY\xff\x00\x82W~\xcd^+O:\x7f\x08Z@\xe0\xe4&lt; )\xcf\xd4\n\xe55O\xf8$W\xc2\xbb&amp;e\xd0oo\xac\x82\xf4\x10\xceW\x1f\x95cK\xff\x00\x04\xad\xd1\xe0\xfd\xe4&gt;%\xd4pz\xb31\xaf-\xf8\xb7\xff\x00\x04\xd9\xf1o\x87\xa0{\xcf\x0c\xeb\x97\x13&lt;Gp\xcb\x92\xac=\xfdk\xc3\xdf\xc1\xde1\xf0N\xb2\xdaw\x88\xad]R91\xbd\xa1\xed\xda\xbdk\xc0\xfa\xce\xfd!!Uq\x1a\x8c3\x83\xd6\xbb\x18&lt;G4q*\xc6\xfef\x07.\xd2\x81\x93\xf4\xaf\xbd\xad\x98\xc1&lt;e\x0f&gt;\xa6\xba-"g\x96&lt;7Oj\xd56\xb0\xc9"\xab\'^\xa4w\xa6j\xb6v\xdeO\x92"\x01}\x05r^6\xd2,\x0e\x98\xe9\xe4\x0cc\x18\x1e\x9e\x95\xf1O\xed\x8b\xe1\x8d\x1e\xda\xd2}B\x1bm\xb2\xaf;\x869\xfa\xfa\xd7\xcc\x91|B\xd7\xf4\x1d:k+\x11\x06\xc5\x83\xcc\x1b\xe39\xcf\xe0G\x1e\xd5\xe5\xfe!\xf8\x8d\xe3]oV\x96\xfao\x11\\BI\xc7\x97j\xdb\x13\xf2\xaf\xff\xd9'</t>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00\x1e\x00\x1e\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xf9s\xc6\xda\x9c\xe2\xe1\xd2 J\xedd\x91_\x90\xdc\x1e\xdd\xeb\xc1\xbe \x88-Q\xad\xc6\xd5\xdcN\xd5T\xc0_\xa7\xa5x\x8f\x8a\xee&amp;\x86\xe5\xe1\xf2w*\x13\x9e3\xd6\xac\xf8.)\xe6V\x8e(X\xe1\x015\xf6\xaf\xc4{\xd9a\xbf\xfbB[0^IX\xcfOz\xf1\x1f\x88\xce\xd2\xb12Z\xb3\xba\x92\xe3\xe9\xef^=\xe2i\xe2\x85n\x04\xd68f\xe47|f\xa0\xf0^\xa3z\x8a\xe9o)F\x087\x1d\xd8&amp;\xbe\xd2\xf1u\xc8\xbf\xb9{\xbb \xca\x8c0Ku\x07\xbek\xce\xbci\xa5&lt;\xd0\xc9\r\xa8\x8eG\x91v\x96(\t\x1c\xfa\xd7\x86|A\xd0ol\xe5\x9a\x11j\xfb\xc2\x95,\xc3\xf9W\'\xa0E,R&lt;"\xe9\xd5\xc2|\xc41\xcd}\xbf\xab_]\tM\xb8\x11\x80]\xb2\xdb2H\x00\x9c~\x95WA\xd3\xb4\xbd[P\x93I\x93NBZ!.\xf79\xfc3\xdb\xdb\xde\xb8\xcf\x8e_\x0b\xf4\xd8\xa1\x86A.&amp;\x946\x19N\x14.\t\x19\xf5&gt;\xf5\xf3&amp;\xb5`\xdaV\xa1,1I\x89C\x90\xee\x9cdW\xff\xd9'</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00\x1e\x00x\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfc+v\r\x18\xed\xce9\xa7\xa2\xeew\x1b\xc8\xca\xe0\x1e\xc7\xbf\xf4\xfdk\xf4\xb7\xfe\r\xf9\xf8u\x7f\xaax\xcb\xc5\xff\x00\x11/-\xa6\xfb\x046\xf1Z\xfd\xc1\xb4\xb8\xde\xc4\x8f\xa0#\xf3\xaf\xd4\xf9\xbe!\xcf\xa5:\xe9\x1a%\x83\xa4q\xc7\xb3\xceyx\xe4\x93\xc5-\xbc\x97\x13\xc6$\xbb\x95\x98\xb3n&lt;\xe5\xab\xd7\xbe\x11x\xd2\xcbC\xb2\x86\xded\x00o\xc8\x00\xfc\xcd\xf5\xafB\xf1o\x8f\xac\xafto\xdd\xc4\xe3\x8c\x80\xc7\x9a\xf1\xeds\xc6\xc2\x19dK^\x1eG\xe7\x07\xa5_\xf0\xae\xb55\xe0\xf3\x8c\x84\x05\xeck\xb8\xd3\xef\xe6x\xf0\xc5\xb6\xec\xceE]\x8fQ$-\xb6\xed\xc3\x199\xedP\xde\xcb\x19F\x00\x0e:`\xf5\xf6\xaf&amp;\xf8\xef4PiRB\x92\x84,\xa4\xbb\x93\xd3\x1d\xab\xe0\x9f\x8d^\x05\xd2\xbe%\xeb\x97\x16\xec$\xf3\x0c\x85`\x92\t6\xefn\xf9\xf6\xe0W\xb2\x7f\xc1?\xbf\xe0\x97\x9f\x0e$\xb1\x1f\x11\xfe)\xdc&gt;\xafx\xed\xe6\xc7c+\x93\x1cC-\xb4\x1c\xf5\xc6+\xf9\xdb\x10\xabpd88\xe0\xd5\x88b\x92i\x02m\xf9r\xa3=\xf1\x91\x9f\xe5_\xb2_\xf0D\xb6\xb3\xf0w\xec\x97\x14\xd61+\\jWs\xcdv\xc4r\\\xb9\x1cz\x8c\x01_]\xa6\xa4u\x1b\xa2\xd2\xe7#\xe6Ta\x85\x00\xfa\xfb\xf1]^\x87\xa8A\x1e\x99\xf6\x87\x87\xee\x0ewu?\xfdju\x97\x8c\xc1\x9fd\x12\x90\x03|\xac\x8d\x8cWS\'\x8f\xe2\x8fJ\x02\xf3R;\x91\t\x1b\xe4\xcek\x81\x7f\x1a\xae\xad\xac\x86\x86Q\xb0\xc9\xc9\x06\xbb\xef\x08\xeb\xf6Q0\x81n\x06w\x02\xfc\xf6\xae\xdbM\xf1\x8d\xba\x86\x8c\xba\xe3\x04G\xbc\xe2\x9f7\x8d\xb1\x96\x12)\x00\x009\x1f\xe3Y\xf7\x9f\x12b\xb3\x89\xe5\xb8\x99T\x8eP\x1f\xe2#\xff\x00\xd7^\x0f\xfbK\xfc[x\xf4\xc7\xb2i\x81y\xc9wD?0&lt;z\xf6\xaf\x96\xbc5\xe2\xf9n\xb5;\xddRUW\n\xe5\x11\x7f\x84\x1c\xf5\xcfZ\xfa\xdb\xf6*\xf8\xcf:k\x91\xf8.[\x90\xd0\x88\xcc\x81]\xf9\nz\x0f~s_\xcc\xb8 (\n\xb9\xf5\xf6\xa7\xc0BJ\x92,\xc4\xb6\xf0\x15\x07~\xff\x00\xd3\xf5\xaf\xd9\x0f\xf8#\x0c\xcbs\xfb*i\xb2 P\xe2Yr\x0e8\xf9\x98\xe0\xd7\xd7Z\xb5\xa5\xc4\xb0\xf9\xab\x84m\xb98\xe3\xa5A\xa6x\xa24\x8c[\xdd\xce\xe0\x8e\n\x0cs\xfa\xd6O\x88|w\xa4\xe97\xe2I\x1cD3\x8d\xb9\xc0\x15\xc5\xfcH\xfd\xa8\xfe\x19\xf8^/\xb0\xea^#\x88\xdc\x15;\xa2\x8d\xc1+\xd3\xb6EpK\xfbZ\xf86\xd8\x0b\x8d;W@\xb9\xc8R\xdc\xfe#5\xb9\xa1\xfe\xdc\xbe\x17\x81\x82&amp;\xa7\x0b\x13\xc1o8\x0f\xeb]n\x91\xfbmx}\xe5\x16\xdf\xdb\xf0\x07e\xcf3\xe4b\xb6\xf4\xcf\xda\xef\xc3:\x9a(]V6\xcb\x10Z)\x01\x07\xf35C\xc7\xff\x00\xb5w\x864\x9d&gt;@5\xb8f`\xbf\xbb\x86)\x81\xc9\xf7\xe7\x8a\xf9\xdf\xe2\x1f\xc7-\x7f\xc7\xfa\xac\x92Ms\xb66Q\x8cHq\x18\xf6&gt;\xff\x00\xd2\xb8\x0f\x11|d\xd1|\x08\x04ov\xb1\xa0pd%\xf8|\xf5\x1e\xe6\xbd\xbf\xfe\t\xaf\xf13_\xf8\x9f\xf1I\xfcG\x1d\xbb\xa4\x0e\xc6\x187\x13\xc2)\xe0\x9fJ\xfc?\x990T\x86#\xda\xa6\xb5B\xd3!\xe06@R=M~\xa4\xff\x00\xc1\x0f\xfe(/\xfc*\xcdG\xc1s\xdaH\x12\xca\xf9\xe4GL\x1c\xa9\xcf\x1c\x9e\xb9\x15\xfaC\x1e\x9c5-\x15g]\x82U\x8bq\xde\xbc\x15?\xd6\xb8o\x10y1\xc8\xe2(\xd5\x19N\x0b*w9\xff\x00\n\xf9\x87\xf6\xa5\xf1&gt;\xbf\xa6\xe9\x93M\x0e\xa5"\xef\r\xe526\x08\xfa\xd7\xc6&gt;!\xf1=\xf7\xda\xa4\xbf\xd6\xe6\x96\xf1\xd5\xcf\xcc\xf2\x1d\xcd\xf8\xf6\xae\'\xc7\xbf\x13\xfcP\x926\x9b\xa6_\xb5\xba,[\xca\xa8\xc9\x03\xb0\xdd\xd4\xfeU\xc3\xdbx\xc7\xc5\x97\x12}\xbb\xfe\x12\x1b\x84\r\xd1Q\xabV\xdf\xc6^7\xc2"x\xb2\xed\x1d\x81\xf9\xc3t\x03\x1e\xf5f\xdb\xe2W\xc4\xbbH\x89\xb4\xf1\xcd\xf2l\xc8\xc2\xc8@\xff\x00\xeb\xd5\x8d#\xe2\xe7\xc4\xe8\x18\xbc\xbe+\x96^s\xb9\xfa\x9f\xadtv\x1f\x19\xfe(^2\xdb\xb7\x88\x88\x12\x102\x07A]?\x85&lt;)\xa9\xf8\xc3V\x8a\x1f\x10k\xd2\\J\xee\x19w\xf2\xab_\xad\xff\x00\xf0L\xbf\xd9\xb7F\xf0G\x81\xed\xfcG\xe7\xc7$\xef\x1a\xb9e\x07\xbe}\xab\xff\xd9'</t>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00\x0f\x00&lt;\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xf8\xef\xe1\xe7\x8a\xe4\xb7\x9d\x12\xe9\xd8\x1c\xe0\r\xff\x00w\xf3\xcd{&gt;\x87\xad\x8dR8\x9ed\x88\xa0\xc2\xe5\xb2x\xf5\xebSj\xda%\xb1\xbb,U\x86\x01\xfd\xea\xa6UA\xc6?\x95r\xda\xce\x94\xead\x92\x172\xa2\xae\t\x1c\xee\xfc;W\x90\xf8\xe7Y\xb9\xd3\xf51u4\xa9\x04q\xbf\xdeC\x96_\xa8\xae\xc3\xe0\x86\xb9i\xa8\xdcIs4\xc5\xad\xa6S\x89J\x9d\x81\xfb3c\xa5u\x1f\x14&gt;\x19[x\xdfCq\x14Q\xab\xbc$\x08\xc2\x8c\xff\x00\xd7@\xd8\xf9\x94\xfe\x98\x1e\xb5\xf0\xcf\xc4\x7f\x00^x\x7f\xc6\x17\x9aW\x98\xc9\xe5&gt;&gt;H\x0e\x0f\xb8\xe6\xbe\x83\xb0\x9d-.\xc3\xda\xdd3\x19$*\xe4\xa61\x8fO\xce\xbd#\xc0&gt;-\xbcIR\'b\xf1F\xd8\x90\x9e\x80};\xd7\xb0\xc1\xac\xe8\x97\xbaLS\xbb\xb2\xb3\x80\x88\xec\x84\x8c\xfd\x06?\\\xd6\x07\x8dlt\xfb2\xd3\xe9\xf2I\xf7\x06\xf5\x93\x19\x07\xbf#\x00\x8fOJ\xf9\xab\xe3\xa5\xebE|Ld*\x86`[\x1c\x92F{}+w\xf6Z\xd4\xae\x8c\xb3[\xfd\xbb\xcb\x10\xc6]\xe4)\xb8`\x80N\xe5\xe8\xc3\x9f\xad{\x07\x87\xbcf\xc3\\\x9bN\xbb\x94\xec\x1f"as\xf2\x9fOE&gt;\x98\xc8\xc7Z\xf2\xbf\x8d?\x08\xb4\x0f\xf8O.&amp;m\xd2\x19cW\xc88\x039\xe0\n\xff\xd9'</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00(\x00x\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfc+y6\x95WS\xedR\xc5$\x8d"FH\xd8[,W\xaf\x1d\xb3\xf8\xfe\x95\xfa\xfd\xff\x00\x04M\xf1\x1d\xad\xe7\xec\xcd\x0e\x8aY|\xdb;\xc9bt/\x92y\'\'\xf3\xaf\xb6\xef\xf4\xa4{\x05\x99B\x98\xd9H\x0c\xde\xb5\xccM6\xa3\xa21\x02\xf0y`\x93\x84c\x9cW\x94|c\xf8\xfd\x17\x82\x92K\xc4i]a\xc9e\x1d\xbaW\xcd_\x10\xff\x00oo\x88\xde(\xbf\x16~\x17\x1ff\xb5\x04\x84R\xdb\\\xf4\xcf\xb1\xfck\x88\xf1\'\xed\xbb\xae\xe8\x16\xe6=c\\\x06q\xf7\xa3\x19/\x9fs\\\xf5\xaf\xfc\x14\x97]\xb6\xbc\xf2\xa4\x8eY\x02\xe3\x95c\x8cWG\xa7\x7f\xc1Q\xf5\x1b9\x16\xe1\xec\xa5\xf2\xb6\xe0\xa0\x07\x93[\xda\'\xfc\x15\x82\xda\xd5C_\xda\xde\x02\x0e\xe6\xf2\x01\x03\xd8T\x9a\xdf\xfc\x15"\xd3\xc76\xefg\x14\xa6\xd29&gt;V\x0b\x9d\xc4{\xd78\xdf\xb5/\xc3\xeb\xa9M\xdc\xba\x9bJ\xe0|\xab\xb3\xb9\xae[\xc5?\x1e\xf5\x9f\x18]y~\x0f\x8aU\x1b\xc02H\x87j\xe3\xb8\x1e\xb5\xf6\xef\xfc\x12K\xe0\xc7\x89\x85\xeax\xc7X\x8eYD\xb3\x17y\xe5S\x97\xcez\xe7\xe9_\x87\x05\xa3a\xf36=\x07\xad\x11\xb8F\xccl\x17n\x0f#\xefc\xb5}O\xff\x00\x04\xdf\xfd\xb4.\x7ff\xbf\x16?\x86\xf59\xd8h\xfa\xa3\x06v\r\x8f.L\x90I\xff\x00\xbe\xbfJ\xfd\xaa\xf8!\xf1S\xc2?\x13\xfc\x15\x1e\xa9as\r\xd4\x12\xc2&lt;\xb2\x93)\x00\xe3\xae=k\'\xe2V\x81\xad\xdbZ\xb5\xe7\x87o!,\xcd\xc4r\xb8\xf9x?\xe7\xf0\xaf\x88\x7fj\xcb\xaf\x8b\xa5\xbf\xb1\xcf\x87\xad\x1eY\x89\xdaSs4\xbc\xff\x00\xb3\xfd}k\xe7\xfb\xbf\x81\x7f\x19\'\xb0\x92\xfa\xf3\xc1\x9a\x89\x12\x9eR\x0bVU\xcfm\xc4\x8f\xf3\xcdp\x1a\xd7\xc1O\x89\x1a\xbe\xaat\xe9t\x0b\x87\xb8T*-a\x85\xdfg\xbf\x1d\x0f\xf8U\x8d?\xf6D\xf8\xa6\xa1D~\x0b\xd4\x98m\x05\xb1j\xe0\xf3\xf8WM\xa1\xfe\xc2\xff\x00\x1b\xf5\x92\x9f\xd9\x9e\x05\xd4\x9d\x8f\xdc\x8dm\xdb\xbf\\\xf1S\xeb\x9f\xb0G\xc7m\t\x7f\xe2a\xf0\xff\x00QU\xec&lt;\x82I\'\xd3\xd2\x9d\xa2\xff\x00\xc1?&gt;&gt;^\xa2\xca\x9f\x0e\xf5%\'\x96\xddlA\xc7n\xd5\xdd\xf8+\xfe\t\xab\xf1\xa7P\xbe\x8a+\x9f\x02_\x02H \xb4D\x00k\xea\xaf\xd9\xf7\xfe\t\x17\xe2\xa9\xee\xed\xb5?\x19D\xd6\x90.\x19\xe09\x1f\xa5~\x8a|\x0c\xf8\x19\xe1\x9f\x83\xde\x19\xb6\xf0\xe6\x87\xa6*\x85\x85T\xc8\x06K\x1a\xfeK]\x03\x8e\x9d)\xdb\x1d\x11]\x07C\x9cz\xd2\x89\x98H\xafp\xa5\xb7&gt;v\xe7\xd3\xf9W\xd2\x7f\xb1\xc7\xfc\x14\x03\xe27\xec\xf1\xaaC\xe1\xfdKT\x92\xefE\xdeq\x0b\xcc\xc4\xc5\x9fL\x9c\x1f\xfe\xb5~\x8b\xfc\x0e\xfd\xbe\x7fg\xef\x88vP\x1f\x18\xff\x00n\xdd\\\xceA[kP\xcc$a\x9f\x94m&gt;\xfd\xeb\xeb_\x83\xd6_\r&lt;[\x0c:\xff\x00\x83\xbfg\xe6\x1epR/5\xb5\x1f)\xe7\x19-\x93\xc7\xb7\xadw\xfa\xbf\xc28\xbe!_C\xe1yt\xeb34\xed\x85\xb6\xb4\x89|\xb8\xc7\x19b\xd8\xe8=\xeb\xd3~\x1f\xfe\xc5\xbf\xb3\x7f\xc2\x8d8\\\xda\xf8\x1fO\xd4uF\xf9\xaeu\x0b\x8be$\xbf\xa2\xe0g\x035\xb9u\xf0\x83\xe1\\\xaae\x93\xc1Zx|\x1cm\x87\x1b\x7f:\xbf\xe0\xcf\x84^\x06\xd3K\xcd\x16\x97j\x8eW\xe5)\n\xe4~8\xad;\xbf\x80\xfe\x08\xd7/\xe3\xb8\xbd\xf0\xdd\xb4\xa1@o\xde*\xf2}q\x8ezWAi\xf0O\xe1\xf4X\x11\xe8\xb6\xed&amp;\x00\xdb\xe5)\x00~"\xa1\xbb\xf8A\xe1kk\x8d\x96\xda,x\x1c\xef\x11\xae\x07\xd3\x8a\xa3y\xe0\x8b{Y\x04P\xc2\x15I\xc1\xe3\xadli\xde\x0c\xb3\x80\xac\xcb\x06\xf6\xc0\xfb\xe3\x85\xaf\xe2\xc7\xcaE\xca\xb5\xc1\x05\xba\x03\xde\x9c&amp;\xf2\x17oC\xdb&lt;\xe7\xfc)fP`\x0c\xccF\xee\xa3uB\xaf\xe5\xaa\x81+q\xf7Fx\x15\xd7\xfc3\xf8\xdb\xf1#\xe1f\xad\x16\xad\xe0\xdf\x11Kj\xf1H\xac\xa4\x12\xca\x98\xcf8\xcd}\xd1\xfb)\xff\x00\xc1m\xfe(xKCO\x0e|B\xf1\nM\x7f\xe6\x14\x82\xea\xe7tv\xea\x0f\x01\x9bo\'\xe9\xdf\x15\xf6\xc7\xec\xd3\xff\x00\x05n\xf0}\xee\xbbg\xe0?\x87\xfa\xa4\xfe+\xf1V\xae\xdf\xe9\xd7n\xa28\xa3\x07\xef`\x9f\xe1\\\xf1_p\xf8s\xe3\x9aj\x1adpj\xb7\xd0\xdc\\\xb2\x8f1\xd1\x97j\xff\x00\xb21\xe9\xcdu&gt;\x1f\xf1\xabj\x93\xac\nF\xdcu-\x9c\xd7g\xa4j\x04[\x06k\x8c`\xfc\xdf7j\xdd\xb0\xf1#Mt\x1a\xdc\x84D\\\x16\xf5\xab\xf6\x1e!\x97\xed\x0c|\xe6*z\xb6\xe3ZI\xe2A4\x02$U\xc0&lt;\x92:\xd2Okm|\x894g\x0c\xa7\xa7\xadi\xe9\xdap\xb9\x81b\x95\xc0\x04s\xba\xbf\x88v\x8eC\x85L\x1fs\xda\x98\xe8a\\\x87\x05\xbd\xa9\x14\x8f\x96G\x1f\xef\nk\xc49L\x0c\x8alP\xa2\xee$\x0c\xe3\x1d;T\x8b!\x8c\x82\x06\xde1\x91\xe9]\x17\xc3\xbf\x89\xfe0\xf8_\xaf\xa7\x89|\x19\xafMaw\x18\xc0\x96"\x7f#\x83_j\xfe\xc5\x7f\xf0T_\x8a\xdf\xf0\xb1\xb4\xaf\x0c\xfcZ\xf1\xdc\x16Z1pg\xb9U\xdaf\xc7bA\xf7\xef\xeb_\xb3\x7f\xb3\xef\xc7\xbf\x05\xfcC\xd1m\xaf\xfc-u\x05\xcaM\x18&gt;r\xca3\x8e\xc7\xf9\xd7\xae\x8f\x19C\x13,1\xcc6*\x8c\xe1\xb9bkf\xc7\xc5sM\x04v\xb1\x9c\x9c\xe4s\xc8\x1d\xebu|M\x14P,V\xd2\x92{\xe1\xaa\xcd\x87\x88\xff\x00z-\xd5\xc9\x1ds\x9a\xe8-\xbcI\x1d\xb8R\xf2\x92\x14r\t\xab\xf1\xf8\xa2B\xa2\xe5% \xb7\xf0g\x81_\xff\xd9'</t>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00\x14\x00&lt;\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xf8K\xcf\x8a\xda\xe4n\xb5X\xb11\x0f\x83\xd4v\xae\xcf\xc0&gt;.X\xefcX\' \xab\x1d\x91\x81\xf7\x87q\x9e\xd5\xed\xda\'\x8c[T\xd2\xe3\xb7\xfb\x02\xeea\x87R\xfb0\x07}\xc3\xae?\xadg\xf8\xe1\xe1\xb8\xf9\xad\xac\x926(\x00hSj\xb8\x1d\xf0;\xfb\xf7\xaf\x99&gt;&gt;4\xf1\xde4\x9eS0\x0c\xc3\xcbN\x9ft\xf5\x1f\x85h\xfe\xcb\xba\xa5\x9a\xdc\xcb\x05\xecN\xb0\x85\xccA\xdbj\x99\x08\x18PG*Oc^\xb1\xa5x\xc2M\x1f\xc5\x13\xda_!Rf\xc7\x931\xe5}3\xd8\x91\xd9\xba\x9c\xd5o\x88\x9f\x08\xdf\xc4\xfe%}gC\xd2\xad\xfc\x99\xa2RL\x8c2[\xb95\xe7\x9e"\xd0\xe7\x96\xe4\xcds(\x85T\x1c\xa1L\xe4\xfdk\'J\xbf\x83N\x9f\xccW\xdc\xa8\xdd\x13\xbdz\xdf\xc3\xbf\x16\xf9\xb1\x0buX\xd27L\xecv\x07\xa7\xf2\xafB\xd7n.\xf5\xcd\x1d.-fVx\xed\xf1\xf2e\xb0=\xc9\xe5}\xb1_4|r\xd2.\xad\xe6\x9a\xeah\x1aH\xcf;\x9f\xa0\xeb\x9c\x1e\xa7\xafz\xe6\xbe\x01\xeb\x96zv\xb44\xf5\xba\xd9\xe7HK,\x83\xe5\xdb\xfd\xdf\xc7\xfaW\xa3\xfcS\x9e\xf2\xdfV\x8a\xfa\xce\x0f&amp;2\xaaUw\xee*G}\xde\x87==\xab\xa4\xf0w\xc5[yt(\xce\xb5`\xb2N\xa4\xa9u\x93\x82\x07J\xad\xe2\xeb;}GC\xc4\x89\xe5\x94$\xe6\x1f\x97=:\xf6\xaf+\xb5@\x97\xef\x00?)rx\x00\x7f*\xee&gt;\x1d\x80&amp;\x12\xaa\xa8d \x03\xb4\x12r{\x93\xd6\xbd\xdb\xc2\xda\xc5\xd5\xa7\x87\xa4\x89\x126\xc4\xcf\xb5\xd9&gt;e\x00\x0e\x03\x0c\x109\xe9\x9ct\xaf\x10\xf8\xff\x00\xa7\xdb]\x89\xc4\xcaw0`\xce\xa7\x05\xb1\x823\x8f\xa9\xaf\t\xf0\x9c\x92[km\x14N\xc0\'\xcc\xa7q\xcf\x07\xa7\xd3\xda\xbe\x93\xf1\xbe\x81\xa67\xc3;\r^8\x04r\x9b,\x95@6\x12\xc0d\xed \x8e\xd5\xe2\xbas\xca eK\x89P\t\x08\xc4r\xb2\x8f\xc8\x10+\xff\xd9'</t>
         </is>
       </c>
     </row>
@@ -862,6 +862,306 @@
       <c r="B36" t="inlineStr">
         <is>
           <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00\x9d\x01\xd6\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfc\xeb\x00\x93\x81R\xa2\x00\xb94\xd6L\xf3\x9f\xc6\x99J\xbfxT\xad\xf7\xc5\x1b\x07\xa9\xa5\xda\x00\xc63\xcd6Q\x90\x00\x14\xb6\xf2\x18\xa4\x1fJ\xe7|w\xa74\xf1\x8b\xc5\x19+\xf3dT\x9e\x12\xd4E\xcc(\x9b\xb2S\x82+\xd14\x1b\x80 \\\xb7Z\xeb\xf4d\xccJ\xc1\xba\xd6\xb5\xe7\xfa5\xa1\x99\xba*\x92k\xc1&lt;ou&gt;\xa9\xe2\xd9.\xd4\x9f-\x1b\x02\xa8D\xc3\xed\xc6IX\xe0r1P\xeb\xbe,fo!d\xf9Pq\xcd`\xcb\xe2\'Y\x18\x865B\xff\x00]\x96l\x80OJ\xca\xb8\x13\xde+c&gt;\xd5\x81\x7f\xa6\xdf#\x1d\xf9\x03&lt;qT\xbe\xc1(??\xccj\x1b\x98\xa7\x89\xfa7#\x81U\xa4\xb6\x94\x9c\xaa\x91\x8a\x85\xd6Uc\xbb4Z\x99\xd0\x97^Gj\xdb\xb2\x92K\x94\x00\x02\x05iA\xa7]\x14\x04\x01\xcbq\x8a\xf4\x1f\x07\xe9W\xb66\xd1\xde\xa5\xbb\x13\x90\xa7\x8fS\x8a\xf7_\x03\xf8\x7f\xec\x1eD2)\xd9*\x83\x93\xeak\xd7\xb4o\x85\xb7\x9a\xc6\x9f\x15\xaa\xb3\xa4a7\x15o\xe2\xaa\xba?\xc1-o\xc2Z\xf5\xc6\xbb\xe1\xcb\xe6w\x9b\xef\xdbH\xd9\x06\xba\x85\xf0-\xe7\x89-\x96=^\xc2[k\xc5\x1c\xe5~\\{V\xcf\x87&gt;\x02\xbe\xb7t\x9am\xce\x97(\xb71\xf3x\x1c\xe4\x9aO\x17~\xca\xd6\xfa,C\xecp\xc90\x0b\xd4/8\xae\x13\xfe\x14\xc7\x8a\xb4}v)lt\x89\x0c{\xf2\x8c\xe8F+\xa1\xd6\xbe\x1aK\xaa\xc2\x97\xba\xe6\x8e\xd0\xcf\x10\xc6\xd4_\xbdY\x1a\xe7\x85N\x8fh/l\xedN\xe5\x1f*\xb0\xe6\xb9O\x897\x1a\x1f\x8bt\x0b}RKcc\xaa[\'\x97"\x85\xc7\x98\x07C^I\xe2]b\xfbP\xb6\x10\xbd\xd1\xfd\xdba\\\x9ex\xaa\xb2x\xbbR\xbf\xd2\xd7M\xd5\x18H#\x1bU\xcf\xa5s\x1a\xdd\xad\xac\xb1\xb0\x0b\x96 \xe0\xe2\xbb\x8f\xd9OY\xbf\xb8\xbe\xb9\xd3\x9c\x9f\xdc\xcb\xf2\xe4\xd7\xda&gt;\x06\xb7\x96\xe6\x08Ra\xd4\x02k\xbb\xb6\xd3R4\xf9=*Y )\x1f^j\xb2 u\x90\x02\x01\x1c\x8c\xd6\x17\x88\xaf\x0cQ&lt;,\xa1\x83\x82\x0f\xb1=+\x99\xd0\xa7\xb8M?V\x81\x9f|\xae\x8b\x90\xdf\xc2\xb9\xad\x8d[\xc26\xfaM\xa6\x9b\xacZ\xb0\x0c\x96\xf9\x90c\x82O5\x99\xaa\xe8\xcb\xe2\xddua[\x95\x8eW\xb1o\xb3\xf3\x80\xd2\x8c`\x7f:\xc2\xb4\xd4\xdb\xc2\xbf\x174i5\xe8\x9a\x18"\xd3J^&amp;:3pG\xe9\\\xdd\x8d\xc2Xi\xf0x\xaa\xe9A\xbb\xb0\xd5&amp;\x083\xfe\xadI\xe3\xf45\x8dg\xf6\xaf\x1ax\x8a\xf3\xc4RB|\xc6l\x03\xed\x9a\xe0&gt;4\xbc\xcb\xe2\x04\xb2v\xe6\x18y5\xc0M\x95\xebPQT\x17$\xe0w\xa9\xd1w\x0ehx\xc0RsP\xab\x801\x8ar6\xe3\xc0\xfc\xe9\xdb_\xae\xcf\xc6\x94\x06?z\x9cT\x01\x90\x7fZc2\x91\x8a` \xb0\xaa\x9e!B4\xe9\x1b\x19\xf9O\x15\xc7x\'S6\xba\xac\x91\xca\xdbAn3^\xaf\xa0O\xf6\x88\xa3\x90?z\xf4\x8f\x0eZ\x19bL\x0e1\xcdl\xeb\xbac.\x834\xae8\x11\x9c~U\xf2\xd7\x88\xbcD\xf0\xdf\xde\xdb(;\x96r\x01\xac\x19\xbcSqn\xac\x0b\x1c\x9e\x99\xaacP\x17\x16\xe6\xe2F\xe4\x9ey\xa8-W\xed\x93\x12\xa0\x91[\x16^\x16\x92\xf0\xe5"&lt;\xd6\x85\xbf\x82/\x19\xb8\xb78\xfaVw\x88\xbc\x1dw\x19\x07\xec\xc7\x04\xfaQm\xe0\x04\x92\xd7{A\xce;\x8ek3P\xf0\x0c\xc5\x87\x97\x1e9\xf4\xaa\xa3\xe1\xe5\xf6\xfd\xaf\x08\xf5\xabv\x7f\x03\xaf\xb5\xc6]\x83\x04\x9e\xc3\xadv~\x13\xfd\x93%\xbf+\x03\xc4\xc4\xb1\x05\x8e+\xd04\xff\x00\xd8\xbfOXcDF,z\xd7_\xe1\xbf\xd8\x1a\xdfRh\xa6Gd\xc1\xe8Mz\xdf\x82\xbfb\xcd7M\xb5:~\xa1n\\\x1eCm\xae\xd3\xc1\x9f\xb2\xe1\xb1\xd5\xca\xeav\xca\xf6\xa2E\xf2\x89=\x00\xafh\x9b\xe1W\x85\xed\xb1y\x1d\xf4Q\x88!P\xb1\x86\xeb\x8a\xce\xb5\xf8q\xe1\x8b\x99f\xd4\xae/\x926\x07r\x0c\xe0\x1a\xbbe\xa0h\x9a\xa4\xf1\xad\xe5\xccK\x1c#\x01\xf8\xc9\xae\xab\xc3\x97\x9e\x08\xf0\xbc\x867\xd4\xa3\x916\xf0\xb8\x15f\xd7\xc7&gt;\x01\xba\xba\x9d\xeeLd*\x9d\xa0\x81\\\xfd\xf7\x8a&gt;\x1dj\xded\x13\xbaG\xd7c\x0085\xcf\xb6\xb5\xe0\xc8\xf3\x16\xa3}\x04\xa5O\xee\xd8\xe3\xa7\xbdq?\x11S\xc2\x97Q\x19l\xe7\x84\x06\'h\x04\n\xf0?\x8a\xf3\xe8\x91\xfe\xea9b\xdc\xaarT\xd7\xcf\x1e?\xf1\x1d\xb4J\xf1i\x84\x17\xcf\xdd\x15\x8f\xe1\x9dcQ\xd6\xa4\x16\xf3[\x15\xda1\x9fZo\x8c\xae\x1e\xc2h\xa1\xce2\xc38\xaf@\xfd\x95\xed\xcc&gt;"\xb8\xb9A\x90\xf2W\xdb\xbf\x0e\xe21\xc3\x16\xf5\xceTu=+\xba\x8ah\xd4pz\n\x8a\xea\xedv\xb2\x81\xfaV,\x9a\x99\x8af]\xf8\xedY\x82\xe2;\xddv\xda\x1b\x80\x0crJ\x03\x0f\xc6\xb1\xae\xa1]\'\xc7\xfa\x94P\xf1\x0c\xd6`\x85\xed\xc15\xd6k\xd1\x1b\x8f\x03-\xf2\x11\xb68\x01a\xe9^S\xe2\x99\xb5y-\xa0\xbc\xd2n\x1e\x19\xa3\x95d\xb5pz\x90zU\xef\xda\xba\xf6?\x14kV~:\xf0\xdd\xb1\x86\x0b\xed\x1b\xc8\xb9\x8d8\tu\x1a\xf2}\xbe\xf0\xaeSN\xb9\x82\xf7\xe1\x85\xbd\xbc\xf2\xab_\xcb\x01{\x86#\xfda\xc9\x19\xfd+\xab\xf89\xe0\xfbu\xf0K\x0b\x88\xbf\x7f\x92\xcf\'|zW\x81\xfcj\xba\x82\x7f\x1e\xdf$x+\x10\t\xf9W\x01v\xea\x9c\x03U\xfbqM/\x8e\x08\xaaH\tq\x8a\x99r\x80\xd0\xed\x85\xe8*\n9\x1d\r;\xcdo_\xd6\x9e\xb2n\xe3&lt;\xd2\xf21\xd6\x82F&gt;\xef\xe9H\x15N\x08=;\x1a[\x9bd\xba\xb2xX\x0c\x91^[\xafy\x9a\x1e\xb8B\x7f\x13\xfaW\xad\xfc=\xbe[\x8b\x0br\xc4\x1e\x06s^\xcb\xe0\xa5Y\xe3P\xbc\xd7c\xach\xcf{\xe1\x89\xe3\x8c\x02\xc23\xd4W\xc7\x1e2\xd0%\xd3&lt;Y{\r\xd4&lt;4\x84\x8a\xe3\xbcI\xa72\xbf\x99\x118\xeay\xac\xeb\x16\x91\xe3\xf2\x8a\x9c\x02s\x9a\xd5\xd0Z\xd6\xda\xe0}\xa5\x82\x8c\x8e\xb5\xddh\xba\xde\x8b\x00\xff\x00\x8f\x94\x06\xb4\xcf\x8b,\xe1\xe2\t\x11\xb3\xefM\xba\xd6l\xf5\x087\xb0^*\x91\xd4r\xc1Q\x14\n\x8fS\x04B\xb2E\x1a\x93Ta\xbf\x91\xa4\x02X\xc7\\\x1e+\xb3\xf0\xa5\xf46\xe02\xa8\xf7\x18\xafF\xf0\xe7\x8b\xe6\xb4\x89\x04;Cd`\x8a\xf4\xef\x06x\x82f\x11Mt\x83\x04\x8cdW\xa1i~2m:h\xde\xde!\x92\xde\x9cW[g\xf1:\xeb\xccT\x9dQA\xe9\x91\xd2\x8dg\xc7\xd7\x0cLv\xb7\xc4w\xc5c\xdcx\xc8N\xc4\xcd\xab08\xe4o\xaaW~6\xb4\xb4\x03\xcd\xd5\x89\x8f\xd0\xbfz\xado\xf1\x1fO\x85\x9d_W\xca\x0c\x95\x1b\xab&lt;|d\xd0a\xb8d\x9fP$/\xbd`\xeb?\x1d-\x12y\x0e\x9e\xeeT\xe7\x04\x1a\xe65\xef\x8e\xb7\x90Y\x9b\x84b\xa0\x03\xd1\xab\xc6&lt;u\xfbl\xdc\xf8oRh\x1a\xd5\xe6\xc7m\xf5\xe6&gt;-\xfd\xbb|e\xac\\\x95\xb4\xf3"\x88\x1f\x95C\xd7){\xfbI\xf8\xab[\x94\xe6\xe2Gf=3\x9a\xe9&gt;\x1bxW\xc5\x9e4\xbamN\xfe\'1\x9e@a^\x85\x0f\x84\xce\x8c\xfb\x16 \xa7\x15\xc8x\xebO\x92[\xcd\xf2\x82\x02\xb7\x15\xea\xdf\xb1\xee\x8a\xf3\xde\xdc\t\xa2\xc9W\xe0\xd7\xd9&gt;\x1a\x8cZ,h\x99\xf9@\xcdtP\xdc7\x98T\x9e\x0fze\xc5\xc19Pk\x9f\xd4\xee&gt;\xcbz\x8f)\xe3&lt;\xe6\xb25=Z\x085m&gt;Kw\xe6[\xd5U\x03\xea*\xfe\xbd\xa5\xcb\xaax\xe4\x8b\x1e\\\xdbcmlxf\xe6W\x83V\xf0\x9e\xa8\x81\x96+@\xf9?A\xc5yo\x88\xae\xe4_\x0e\xcc\x88\x19&gt;\xcf8\xf2\x9b=\x06kgU\xf0\xf3M\xe1[\x89\xf5K\x82\xb1\x87\x12E\x1b\xf4.\xe3\xb7\xe4+\xcc4\xd6\xfbw\x89t\xdd\x1e\xd6M\xb0E3E{\x8f\xe0\x1dG\xf3\xafv\xf0\x16\x976\x97\xe1\xdb\xb34[~fX\x8f\xf7\x97\x07\x06\xbe6\xf8\xafy!\xf1\xde\xa8\x03\x7f\xcb\xd3g\xf35\xc8M+)\xc3\x1f\xce\xa3\xfbA\'\xe5`G\xb5)\x91\xf3\xc3\n\xac$\x01\xb8aG\x9crA`=)&lt;\xe3\xd3p\xfc\xe9w\xa8\\\xe4\x1acL\x07O\xe7L\xf3\x81?x~t\xf4\x9c\x1e\rH&amp;\xc0\xe2O\xd6\x836F&lt;\xc1\xf9\xd3\x0b\xec\x19\x0e\x0f\xb6iR\xf0\xab\x8d\xcf\xd7\xb6k\x90\xf8\x81\xa4\xad\xc5\xcf\xda\xd0d\xe7\xb5t\x1f\r\xb5?*\x14\x8c\xb7\xdd"\xbd\xd7\xe1\xde\xa0\xcc\xcaA\x1d\xbb\xd7\xb2xz\xce-V\xd5\xad\xd8\x8c2~u\xf3\x7f\xed\'\xf0\xb2\xebB\xd6&amp;\xd5\xd2#\xb2F\xfb\xd8\xaf\x12\xf1V\x99\x1c\x1a2\xdd\x90y|\x1a\xab\xe1\xbf\x0c\xad\xd8g@@&lt;\x80Ec\xfcA\xf0\xa6\xbb\xa4+^\xd9\xc6\xc5\x00\xc9\xda+\x83\x93\xc5\xda\xd4\x12\x15IJ\x91\xd7&amp;\x96\xdb\xe2^\xb5o/\xef\xa6b3\xdc\xd7O\xe1\x8f\x8b\x06Q\xe4^&gt;\x17&lt;e\xab\xd3\xfc;\x7f\xa7j\xf6\x11\xbcD\x12Fs\x9a\xd1\x93G\xd4\t\xdd\x1cgo\xae*\xbd\xc6\x8d$+\xe6y|\xe7=*\xfe\x82\x937\xc8x\xe7\x8a\xec\xb4\'\xf2\xf6G7$\x1e\x86\xbdKB\xd7\x154\xd5\x11\x92\xbb@\xc1\x15\xd5h\x9e8\xb26\xe9\x1d\xcd\xc1gC\xc6\xd1\x9a\xdc\xb7\xf1\xacW\x97Ij\xf0\xb3\x13\xf7N\xda\xce\xbe\xd6&lt;D\xda\x93\xc7\x1cDB\x0f\x04\xd4\xb1\xe8\xba\xd5\xf2\xfd\xa1\xd2L\x11\x9e\x16\xa9O\xe1\xc9u\x076\xd3\xb3\x1d\xa7\x18\x1dk\xa2\xf0\xbf\xc0\xfb\xad~\xd1\xa7\xb5\xb7\x91\x94pH\x1cW=\xe2\xcf\x86V^\x1d\xd5\x85\x86\xa9fVB8\x07\x82E`\xf8\x9b\xc3\xdav\x89\xe1\x9b\xddX\xda\x91\x1d\xbc%\x81\x03\xd0W\xcd\xfe&gt;\xf8\x89}6\x85-\xe5\x91*\x85IM\xc3\xad|\xeb\xae\xeaz\x9f\x88\xb5\x12Yd\x92y\\\x85T\x19\xae\xe3\xc0\xbf\xb27\xc4\x8f\x16[E\xab_Y5\x95\xbb\xf2\x0c\xa9\x82E}\t\xf0\x13\xfe\t\xf25\x1dH_j6\x8d$q\xae\xed\xcc\x9c5{E\xcf\xc0\xd8\xbc\x15f\xf6\xfa~\x9e\x15\x15q\xf2\xady\xc7\x88|?2\xdc?\x99\x1e\x08oJ\xf3\xbf\x88z\x1a\x1b\x84\x818\xc8\xc9\xafp\xfd\x94\xbc+\xf6}.=M\x17i\x97\x83\xc7\xa5})\xe1\xdd:\xec\xcb\xbeD;H\xeb\x8a\xd8\x9a\x00\x92\x85\xc78\xaa-\x99\xa51\xafj\xe7\xfcL\xa6\xe6&amp;\x8dO\xcc8S\\L\xfa\x94\xda/\x8a\xad\xe5\xd5\x86R\xd6`\xf1)\xees]G\x86\xbcR\x8d\xadO\xe2\x89\x89\xdbs\xb8[\xaf\xa7\x18\xc5_\xf0\x96\xa5{}\xab\xebWS\xa8\x0b\x1d\x86\xf2Oq\x901\\o\x8e. \xd4u\x08\xb4+\x18\xc2%\xc5\x90\x97=\x8bdqZ\x9f\x1blg\x7f\r\xd9\xc7i|M\xaa\xdb\t^E&gt;\x83\xa5rzw\x85\xa2G\xd25\xab{uY.\xe1Y%\xdb\xfc`1\x19&gt;\xfcW\xbd\xcfb\xb6~\x15\x12"\xfc\xa2\xcc\xb1\xf6\xe2\xbf&lt;\xfe&amp;\xeaj\xfe8\xd5\x1d\x0e3v\xf8$\xf1\xf7\x8ds2\xde1 \x13Q\xb5\xd8\x07\xbd!\xbb\x07\x90\x0f\xe1P\x9b\xb7n\xc3\xf1\xa0\\9\xe3h\xfc\xe9|\xf7\xf4\x14}\xa0\x93\x8ak\xcc\xc7\x8c\x8af\xe3\xfd\xe1@\x95\xc7LS\x84\xef\x8eI\xfc(\xf3\xdf?\xc5\xf9Q\xe7?\xfbT\x8c\xe5\x8e\xec\xf2*\x9e\xa5\x0f\xdb!*Fk+\xc3Z\x9f\xf6n\xb5\xf668\x1b\xb1^\xe1\xf0\xe3Zeh\xc6O$f\xbd\xff\x00\xc0\xda\x92\xbaD |1PH\xaa\x7f\x1d&lt;\x1e&lt;_\xe1\xc6[xCL\x8aN+\xe3\xbf\x18\xe8\xb3Z\xbd\xc6\x87{\x11S\x1c\x9c\x82*\xaf\x84\x84V\xba\xbcv\xc4\x8d\x9bEw\x97&gt;\x1b\xd3u\xeb\x03m,J\xd9^\xe2\xbc?\xe2_\xc1\xa9t\xab\xf9n\xa1\xb6\xfd\xd99\x18\x15\xe6&gt; \xf0\xd5\xc5\xa3\x97H\xf2\x07_j\xcaD\x92\x17\xda\x84\xfa\x9a\xfaC\xf6e\xf0\xc3\xf8\x87O\xd3\'\xde\xcee\xb9\xd9\xb4\xf7\x1e\x95\xf5v\xb3\xfb8:|&lt;&gt;&amp;\x8aT\x0e\xb7~O\xd9\x14|\xe3\x81\xf3\x1fn\x7fJ\xe1\xfc\'\xf0SR\xf1\xad\xd5\xfd\x9c6\x8d\xfe\x80p\xee\x17\x83\xfes]\x87\xc1_\xd8\xf3\xc5\xbe&lt;\xf1&lt;\xcdk\xa6\x96\xb0\xb7"2\xe0\x7f\x15{\xfe\x97\xff\x00\x04\xcb\xb9\x94}\xad\xcc\x8a\xca\xb9\xd8\x16\xbc\xe7\xc4\xdf\x00&lt;C\xe0\x8f\x1f\xd9\xfc?\xbd\xd1\xa5G\xbf\x97e\xb0(~q\x9e\xb5\xf6\x17\xec\xf7\xff\x00\x04\xc4\x93\xc4\xc9\x05\xb5\xc6\x94\x8c\xcb\x89%b\xb9\xdb\x91\x9ek\xe8\xef\r\x7f\xc1%~\x11^\xf8:\xff\x00S\xd7g\x7f\xb7\xc2O\x92\xb6\xaa0\xa0\x0e\x9d=k\xe6\xadO\xf6\x0c\xb4\xb3\xf8\x92\xfe\x17[\x96p\xac\x18D\xe3\x9d\xa4\xd7\xd7\xb6\xdf\xf0L\xff\x00\x85\x9e\x17\xf8U\x0e\xa6\xab\xba\xf0X)\x96)\x14bIq\xf4\xaf\x92\xfe\'~\xcaV\x9e\x0e\xf8\xb5\xff\x00\x08\xc6\x9f\xe1\x82\xcbr\x03\x17T\xe3\x1d\xc8\xfa\x7fJ\xf7_\x87\xff\x00\x03\xbc\x19\xe1/\x05&gt;\x86\x9au\xbb\xcbr\x14\xf9\xc5~d\xf6\xaf\x90?k_\x85P\xcf\xfbBGkd\xf1Z\xd9Aj\x04\x85\xbf\x88\xf1^w\xf1C\xe1\xbf\x86.|)u\xe1[=C\xcc\xbc\xbf\xb7h\xa2T\xc3\x03\x91\xd7\x8a\xf9\xe2\x0f\xd8;Q\xf15\x8ai^ \xd7R+Xr\xac\xd1)\x0cEv\x9f\x0b\x7fb\xcf\x82\xbf\x0b\xad%\xd4-\xf4\xa1\x7fs\x0b\x0f\xde^.\xe2O\xb0\xafN\xf0\xc7\xc1m[\xc7z\x947\xb7\x96\xf0\xdbi6\xeb\xfb\xb8V=\xb9\xafG\xb0\xd3\xec\xb4K\xc84\xdd.\xde(\xa2H\xb6\x1d\xab\x8c\xd6\x7f\x8a\xbc=ow\x03\x86\x80e\x81\xe7\x15\xf3\xe7\xc5\x8f\x07\x1b\x0b\xc9\x11\x0e\x0f$\x10+\xc4\xfcW\xa4\xb5\xde\xa4-\xe5\x8c\x82\xa0\x02\xd5\xed\xdf\xb3\xfc\x83H\xd3F\x97\xe5\x7f\xa9U*~\xb5\xef\xda\x16\xb4\x99)*\x80\x10\x02\xb5%\xc6\xa8$\x95\xa6\x8f\x9cv&amp;\xaa\xd9J\xb7\xa2[\x84l\x15\'"\xb9\xbd~\xf68\xe2q\xd0\xe7\xb1\xaeo\xc5\x16\xba}\xc6\xa7\xa5\\\\\xb0&amp;\xeeC\xb4g\xd3\x15\x9d\xab\xea\xd1h\xb1\xd9i\x05\xb1\xb2b\xc3\x1e\x84\xe3\x15\xd0j\x17:\x95\xbcW\x90\xe8\xf0\xb1\x06\xce6\xb9e\x1c\x84%\x7f\xc6\xaax\xa3@\tc\x0e\xab\xa7\x92\xc6\xd8\xaa\xee\x1f\xdd\xc7J\xb7\xf1\x1a\xf6\xc6\xf3\xe0\xae\x95~\xb9D\x96_\xb3\xdc1&lt;\x82\xd8\x02\xa9\xfc.\t\xaaj\x96\xda|\xa9\xba;;p\x8b\x9f\xa9?\xd6\xbdO\xc7\x1a\x9f\xd8\xbc\x15}p\x08\x02;6\x00g\xda\xbf;|Qk-\xf6\xbbut\xe0\x9f6\xe1\xd8\x1f\xc6\xb3n\xb49c\\\x8e\xf5[\xfb.`:S\x93I-\xd4\x9a\xa3\xb7\xdb\xf9Rm\xfa\xfet\xbbA\xeb\xfc\xe96\x0c\xf44\xab\x1e\xe3\x85CO\xfb4\x9f\xf3\xc8\xfeT\x0blrQ\xbf\x1a\r\xbb\x1f\xba\xa4}E\x1ff\x97\xd4\xd0-%\'\x01\x8f\xe5O\x16\x12\x9e\x08&amp;\x81\xa5\xbb\x8d\xaa\x98\xe7\xbdq\xbe\'\xb3\x9bD\xf143\xc8\xb8I\x1e\xbd;\xe1\xff\x00\x88\x96\x16\x8dwm\x1cW\xb9\xf8\x03\xc5L\x8f\x14\xc2L\x8e\x99\xafU\xd1\xe6\xb7\xd5\xed\x9abA\x1by\x1e\xb5\xf2\xd7\xed+\xa1A\r\xc4\xfe!\xb1\x88\x03\xf6\xbd\x8e\xaa=\xeb\xcat\x04y&lt;D\xb6\xeep\xc1\xb9\xafV\xd3`1[\x07\r\xdb\x93T|Cek\xaaZ=\xbd\xdcA\xb7\x02\x0eEyW\x89&gt;\x18\xdbO&lt;\x82$\x18=\x06+\xce\xfcW\xf0\x97Q\xb3\x94\xcde\x01#\x9c\xa8\x15\xef\xff\x00\xb1\xcd\x9cze\xf7\x874\xdb\xc0\x15\xc5\xf1%[\xbf"\xbe\xf5\xb2\xd2Z\xea\xd9\xadL[\x91\xdbqR85\xd6\xfc2\xf8\x05ag\xa5\xdc^Z/\x96\xda\x83\x97\x90\xe3\xaflW\xd0\xff\x00\xb2\x9f\xc1M7\xc2\xba\x0c\xd1\xc0\xa1\x99\xee\x8b\xb9#\xdc\xd7\xd2&gt;\r\xf0-\x8c\x17\x11\xea2\xdaG"\xf9\xa3\xcdB:\xafqY\x7f\xb4g\xc0?\x86Z\xb7\xc5_\nx\xa7L\xd0 \x96\x18C7\x9b\x8ean0+\xd9~\x1ci\xf1h6\xa96\x93\x18\x84I\x1e\x1c\xaa\x8eEv\xdaE\xd5\xce\x97\x01\x8a\xd64p\xeeY\x83\x0e\xa6\xb8\xcf\x16\xf8\x0f\xc2\x13\x8b\xcf\x1a\xdd\xe9P\xa6\xa8\xa4mu\x00|\xb9\xe9[FiuDSyt\xcd\x16\xd5+\x137\x03\x1d+\x83\xf8\x81{\xe0\x8b\x0b\xdb\xedw\\\xb4\xb7\x13Z\xe9\xf2*M"\x8f\x97*{\xfe5\xf37\x88\xbfh\xef\x0b\xe8\xf1\x9d\x1fG\xb4{\xeb\xf9\xc1\x16\xbb\x14\xec\'\xd4\x91\xd2\xbez\xf1\xb7\xc1\x0f\x14|E\xf1\x1d\xe7\x8f\xfe&amp;x\xee;\x14\x97\xfdE\x9d\xb3e\x95{T\x9e\x1b\xd3&gt;\x0b\xf8%\xf4\xf94\x9f\x0f\xdcj\xd7\x16\x92;Kyv\x08\x198\xec~\x95\x9b\xe3xtMwRh\xf4=)-\x96C\xbd\xc2\x0fZg\x84~\x0c\xe9\xba\xbb\xc5\xaa\xea7B\x14\xb6\x94\x96C\xd1\xaa\xd7\xc4-Jm-\x04\x1a%\xbaG\x0c\x1c\x04\x8dq\xbcW\x17\xfd\xa9q\xf6\xf4\xd4\x9a\xdd\xf9&lt;\xa9\x1d+ST\xd5\xecV\xd5\x95\xc6\x1eH\xce\xdez\x1cW\x8a\xfcU\xb6yt\xb6\xbf\xba\'\x7f\x9b\xb4~u\xe2\xfe#\xd3-b\xd5%\x04\x80\xcc\xe0n&gt;\xb5\xe9?\n\xa3H/\xe5\xb7||\xb0\xa8&amp;\xbd^\xce\xe67\x85\x91$\xc3c\x1di\xba\x8d\xe5\xc6\x97n\xb2\xabnW\xeb\xcdR\x93\\x\xac\x8c\xf6\xb2\x11\x1b\x9f\x98\n\xe6o\xf5\xbf\xb4^\xae\x9e\xb2\x16y\x18\xa8\\\xf5\xc5`jw\xb3\xc9{k\xa81w\x16W\xc0"\x0fBFO\xd2\xa3\xf1\xbd\x96\xa5\xac\xf8\xa3N\x1ab\xef;\x84\xac\x80\xf5A\xc9\xfe\xb5\xeb\xbe\x02\x92+\x9dRk\xa9\xa1Sa\xad\xe9\x86\xce)\x08\xe0J\x988\xfc\xd6\xb2\xbcJ\x83\xc1\x16\x9a&lt;:\xd9\x0b\x15\xd6\xb0\xb0^\xab\x0e\xa0\x86\xc5s?\x124\xd6}Bo\x05-\xdf\xfcK\x8d\xccR[(&lt;3\xa1\'\x8f\xce\xbao\x84\xba\x0f\xf6v\x9e\xba\x94\xb1\xe2I\x98\xe4\x11\xc8\x03\x8a\xdf\xf8\xb7)\x8b\xe1\xa6\xa8\xf9\xc16\xe4~u\xf0\xee\xbdl\x91M\x1bm\xc1\xdd\x9a\x82KO\xb4@\x1e\xa0\xfe\xcb \xf2\x80\xd3\x86\x9c\xe3\x81\x05`\x7fd\xa7\xf7?JU\xd1\xd5\xba%/\xf67\xfd1\x1f\x9d(\xd1\xdf\xb2\x90=\xa9\xeb\xa4`\xf0\x08\xfa\xd3\xc6\x9c\xdd\t\xe2\x9e\x9aS\x83\xcab\x9ct\x97nw\xe2\x954\x87\x0b\x9c\x0f\xca\x95t\xb7\xcf\xdd\x15 \xd3\x98\x0c\x14\xfa\xf1RA\xa7\x06p\x08\xfa\xf1\\\xe7\xc5\x0f\x08\x9b\xad\x1ck\x11\xa8"\x17\xea;V\x0f\x865\xa3n\xe8\x04\xa3&gt;\x99\xafa\xf8w\xe2s**\xef&lt;w\xcd{w\xc3\x7f\x13\x8d\x826\x93\x1cs\x93^W\xf1\xcbKc\xa7\xea&amp;\xef\x1b^\xe3|C\xf1\xaf\x08\xb2\x90\xc5\xe2\xbf2.\xec9\xafY\xd39\xb2\x8c7V\x15\x06\xa7l\x04\xc0\xa8\xc0=k\x9a\xd7\xe1\xf2gfS\xc5f[A\r\xc02L\xa1\xb9\xe7"\xb5\xf4\x17_\x0fx\x9bJ\xd7l\xc7\x96-n\xd5\x88_L\xd7\xde\xfe\x15\xf1V\x93&amp;\x83i\xaa=\xca\x08\xde\x10\xce\xe5\xba\x1cW\xb6x\x1bZ\xb2\xd4|\x19m\xa8\xe9\xd7i,d\x1d\xaf\x1bdf\xbd\xdb\xe05\xf3Zh&amp;i\x0eC6y\xafa\xf0\xcf\x8dR\xd5\xb6\x14\xca\xe7\x04T\xbe-\xf1E\x816\x10\x15\xdan\tx\x81\x1dq\xd6\xbd\x03\xc2\xfe(\xb7\x86\xc6\x18\xc8\x19\x088\xae\xa6\xdb\xc4\xd6F\x10\xc6M\xa7\x1d\x05p\xdf\x14&lt;]m\xa6\x82\xb3_..\x06#\x85\x9b\x05\xfe\x9e\xb5\xcc\xdd|K\xd6b\xb5\xd8\xd2\x08@P\x15\x8bc\x15\xf3\x97\xed}\xf1\xbe\xf3\xfb(\xf8KD\xf1\x05\xbb\xde^\x1f\xf4\x87\xdd\x90\xa8:\x8e;\xd7\x81xz\xf3\xc5\xfa\xachm\x8f\xd9cV\xda&amp;Q\x8d\xc38\xe2\xb6\xbc\\\xd0h\xb7\xb1\xcfw\xa8\xfd\xa5\xbc\x91\xb8\x17\'\x9cW#\xe2\x0f\x19I\xa9\xa3\xe9vP,K\x8f\xf5\x98\xc0\xado\tCi%\x8f\xdae\xc9f\xc0.k~\xe2\xf9Z5\xb6\xb6`\x17\xa1\xc7z\xc7\xf1\n\t\xa5XH\xce\x07R+\x13R\x89l-\x1ey-\x8b\x80:\x05\xae\x0e\xfa\xe9\xfcC{*\xdb\xc8a\x96\x1c\x94Y8\x07\xda\xb8o\x887\x97\xd7:+&amp;\xab\n\xc2\xb6\xed\x97*z\xf3\xd6\xbc\xd7\xc5&gt;\x1d\x87S\x9e\xdb[\xd3e\xf3`fV\x94!\xce0+\xa7\xf8cy\x1d\xe3^_ \xc6_h\xfa\n\xeb\x06\xb9=\xab\x89b\x90\xf2\xdc\x8a\xb5\xaa\xf8\x9c\xc9\x02B\xceK\x1e0{V\x05\xff\x00\x89\xae4\xad:A71\xbb\xe3&gt;\x95\x91\x06\xa7.\x8b&lt;^&amp;d\x13\x98&amp;Y6\x13\xd5OQV|E\xaa\xe9:?\x88\x9e\xca\xdao\x92\xe6!q\x11n\xc1\xbb}x\xa6i\xda\xa4\xfa?\x88t\xff\x00\x10\xc8\xc1\xa3\x08\xd1\x17\xcf\x18l\x8c~\xb5\xda\xfc%\xd6\xe7\xb4\xf8_\xa9\xf8/U\xbeT\x9a\xd7ZmCG\xb8s\xce\x0c\x87+\xf4\xf9\x8do~\xd0\x9au\xff\x00\x88\xfe\x16\xd9x\xcd\x11d0\xeb1\xbc\xaa\x9c\xec\x18o\x9a\xb8o\x10\xdd\rxh\xdb\xbf\xd6\xc3\xa8\x90\xec:\x9cm\xc5z\x8f\x84\xec\xdf\xec\xa1\x08*\xaax\x15\x9b\xf1\xfa\xe0X|+\xd4\x0e\xfeY\x02\x8f\xccW\xc6:\xec~m\xc8\x07\x90\x00\x1cR\xdaA\x84\nq\xc7\xad#!Br;\xd1\xb7\xfd\xa1\xf9\xd6h\xb1\x03\xa8\xa7%\x88\'\xe5\xfeT\xff\x00\xb0\x1f\xef\x1f\xca\x97\xec\x8a8,)\r\xaa\x81\xc1\x06\xa31\xaa\x1cm\xa9c\x80\x11\x96aN\xfb:\x1fO\xc2\x9c\xb0\xec\x18T\x04Q\xe5s\xc8\x02\x94\xc4\xa6\x84\x1e[\xe1W\x9c\xd5]i\x1e\xefL\x97Nt\xfd\xdc\xdf\xc3\x8a\xf1\xadn1\xe1\x7f\x12\xc9b\xcf\xdf*+\xb7\xf0G\x89\x9a\xd1\x10G!\xe3\x83\xcd{\x0f\x82&lt;l\xa9\x1a\x81\'l\x9ej\x8f\xc7\xadR\xff\x00V\xf0\xd5\xbd\xc5\x91\xc9Y0\xe0w\x15\xe3P\xed\xb5\xd4\x05\xc1\x8f\x9e\xb5\xe8\x9e\x15\xd5\xd7T\xb1\x1c`\xafNj\xd6\xa3!u.;W=\xaf\xab&lt;%\xb1\x93Y\x1aVQ\xfc\xb9:3Wm\xa2xv\xcbT\x89b\x97\xd8\x83^\xados\xae/\x84\x9f\xc3\xd6W\xeech6\x86\x07\xa7\x15\x17\xc2\x8f\x8e\xbf\xb4?\xec\xff\x00\xe0\xedO\xc3&gt;\x1b\xb6]V\xdaf-j\xb7y&amp;&amp;\xf6\xcd{\xcf\x84\xff\x00\xe0\xaf\x11\xfc%\xf8\x1bb|U\xf0\xce\xf2\xef\xc4\xf1I\xff\x00\x13\x08\xe2C\xb0.z\x8e+\xb3\xf8]\xff\x00\x07\x00|\x03\xd6u\xd84\x7f\x19\xfc0\xd5t\xfbg\x8bs\xde$g\x1b\xbf*\xe4~=\x7f\xc1z4\xdb\xef\xda[\xc1\xb7\xdf\x0c&lt;\x19u\'\x80tR\xc9\xae$\xb6\xe7\xcd\xb9\x0f\x80X}\x00\xcd}\r\xa2\xff\x00\xc1\xc0_\xb1o\x98\x91\xb6\x85\xad\xc6\x18\x0e\x0c\x07\xe5\xae\x9e\xdf\xfe\x0b\xd7\xfb 6\xd5\xd2\xfc?\xe2\x0b\xb9[\xfd\\1Z\x92X\xd7\x81\xfcT\xfd\xa8\xbfh\x9f\xda\xef\xe3-\xbf\xc6\x0f\x08\xdf\xdc\xf8c\xc3z\x07\xee\xf4\x8d(\xb1V\x9c\x1e\xaf \xe3\xd0~u\xb5\xe2/\x1f\xfe\xd2&gt;&gt;\x11\xc3w\xe3\xe7\xb4\xb6D\xda\xd1\xc0\xe4o\xf7\xebO\xd0l\xad|1\x13M\xaf\xb8\xd4.\xa4\xe5\xa5\x9c\xee$\xfe5n\xff\x00\xc6Iu\x1e\xd8\xda8\x11\x13\x0b\x12\x0cb\xb9}GT\xfe\xd4\x9c\xa433\xf6\xcej\xee\x85\xe1\x15\xb8\x94\\^n\xfav\xae\x9a\xcfK\x02/&amp;"\x15W\xb0\xa7\x08Z\xd9\x89\x0c\x0e*\xb5\xf4\r+\x86=\xfaS\xb5KHN\x9f\xe4\x95RJdg\xd6\xbc\xc3\xc7~\x14\x8e8\xfe\xd9mu\xe5M $\x80q\xd2\xbcs]\xd5.nl.\xac\xafd2\x03\xb9\tn\xe6\xb8\xff\x00\x0c]Iiw-\x99\x93l\x0f\x13!\x8c\xf657\xc3K\xeb\xcf\x0e]M\xa7j@\xf9rH\xc5\x1f\xf9WL\xba\xcbys8pQ\x98c=\x8d;\xfbY.J\\;\x15\xdas\x9a\xcc\xf1N\xb3&lt;\xd1If\xf0~\xea^m\x8f\xa9\x03\x9a[i#\x9bB\xd35\x0c\xe6\x19"h\xee\x90\xf6a\x8a\xce\xb6\xb6\xba\xf1\x0f\xc4=\'A\xb8L\xad\xfc\xc2\xd6\x07\xf4\xc9\xc0\xfeu\xd9\xea\x1e\x13\x9bN\xd4f\xf0!Q+CpBs\xddF\xe3U\xaem\xa6}em\x1as\x18M6W\n\xa7\xfb\xad\xc8\xfd+\xd1?g\xbf\x18\x9f\x11\xfc\x1b\xd5\xb4/\x14Z\x99-\xf5\x00N\x9e\x1c\xe5\xb2\xb9\xc1\x15\x93\xe0_\x08\xdc^\xc9\x15\xd5\xcc_v\xe5\x9fk\x0e\x87\x8a\xf5];O[;&lt;\x05\x00\x93\xd0W\x9d~\xd4W\xdff\xf8g&lt;\x00\xf2\xf2\x00y\xaf\x92\xae#\xf3$%\x87C\xde\x84`\xbc\x11Np\xad\xf7\x86*\x07\x00\x1c\'\xebQP\xc3u&amp;\xdf\xf6\x8f\xe7F\xc1\xeah\n\x07J\\\x03\xd4QE9\x0f\x18\xa7\x1cw\xa3\xe9E\x06$\x94a\xbbW\x96|p\xf0U\xe3j)\xe2;D\xf96\x8d\xfcV?\x86u%\x82$\x97$\x0c\xe0\xe6\xbb-\x07\xc5rD\xe0E1\x03\xeb[\xda\xc7\x8an/\xf4Ci$\xbb\x86:W\n\xce\xd2JX\xfa\xe3\x9a\xea\xfc\x17q\xe4\x1d\x99\xe0\xd7S2\xf9\x90\x1fR+\x0bT\xb5\x91\xdc\xa9Z\xcf\xfb\x11\x8c\x93\x8cz\x1a\xd1\xd0&lt;A&gt;\x9dt#\x9eB\x015\xe9\xfe\r\xf1\x82\x18\xd4;\x86S\xeak\xd1t\xb3\xa6_\xdb)\x18\xe4T\x1e"\xf8C\xa0\xebz\r\xde\xa9;\xa9yWn\xdcW\x9d\xd9~\xca\xb2\xea\x80\x9b+\xcbu\\\x82U\x94\x02\x05k\x7f\xc39iz\x1cb;\x88\x92N\xcc\xca\xa2\x9d\xa3~\xcf\xbe\r\x9a\xe7\x17\x88\xaa\xa5\xf2IA^\xb9\xf0\xe7\xe1\x8f\xc2\xef\n\xe2t\xb6\xb7y\x10|\xa4\xa8\xcdz\xb7\x87\xbca\xa6\xe8:L\xd0\xe9\x90\xa3+\xa6\x02\x81\xd2\xb9\xbb\xbf\x1aj\xdfm\xf3b\xbc\x91W=7T\xed\xe3\xa9\xae\x18fR\xc4\x8c|\xc6\xae\xd9\xc1\xaa\xeb\x00.0\xad\xdcWU\xa4xF\xde\xd1Q\xdeC\x93\xc9\xae\x82\xd2\xdcG\xfb\xb8\xff\x00\x1a\xb8\xb1&lt;*v\x0eH\xe6\xa26\xd2\x9e\n\xf5\xa7=\xa8E2L\x06\x07Rz\n\xe6\xbe#\xddOof\xa2\xd1\xc8i\x07\xc8A\xeb^?\xad\xf8\xe2\xd3^\xb36W/2\xddZ\x92\xa7\x02\xbc\xdbZ\xbc\x89%\xf2f\x18Vc\xf37s\\\xcd\xca-\xaa]_\xc0&gt;XN\xe6\x1e\xd9\xad\t!\xc4\x16\xd72\x8f\x92\xe6!$-\xd8\xfbU\x8b\x80\x7f\xe1\x1d\x98\xc0J\xcc$\xdc\xa3=\xaa\xac\x9a\xeaE\xa5\xc4NF\xe3\xb5\x8f\xbe)u9\xa5\xd54\xfd5P\x1d\xd1\xca\xc0\x0f^MY\xb2\xb4\xbb\xd0\xf4\x8dV\xdd\xdbr\x01\xe7\xdb)\xed\xeb\xfc\xeb\xa0\xb3\xd3m4\x8f\x10\xe8\x9e!\x8ds\xfe\x91\x0c\xea\x07U%\xb9?\xa5o\xeb\xb7q\\x\xf9|Ceq\xfb\xbb\xa9\xdbc\x03\xfc[0Eq\xfe,\xf1T:?\x8a&lt;\x96\x8b\xcd\x92[9\xa2\x03\xd3vG\xf34\xef\x84z\xe7\x88a\xd7|+\xe1I\xae\xbc\x984\xc9\x99/GL\xab\x91\xb7?\x95}\x0bg\xa1\x7fdk\x13Y0Rc\x90\x94\x90tj\xd9P\xaf\x16\xd0\xde\x95\xe3\x1f\xb5\xebH\xbe\x14\x8a%\xef=|\xcd8\x06F9\xe6\xab0\xca\xd3\t\xcd\x15\x1d\x1f\x85\x14\x85\xd4\x1cP\x1c\x13\x80)h\xa0\x10zP\t\x07"\x82I\xebR($\x01E\x00\xe0\xe6\xa8x\xbe\xcc\xea\xbaG\xf6o\x97\x93+\x01\x93\xdb5\xe4\x1e-\xd3\xbf\xb0\xb5\xeb\xbd\x06\x16 Z\x91\x92;\xe6\xa7\xf0\xf5\xf8@\xa7\xcc\xfa\xe6\xb6\xe5\xd5\x8a\xc5\xcbu\xe2\xaa\x89\x13\xcc\xf9NA\xf5\xad\xfd\x02_%\x94\x83\xd4\x8ek\xbd\xd2`7\x90\x86\xc7lb\x9b\xa8h\x92\x15f\n}\xab\x10\xdb\xec\x9c\xc52\xd4\x17\xda4\x13\xc7\xba U\x87B)\xfe\x1d\xd5\xeftg\xf2\xa5$\x8d\xdc\x13^\x9b\xe1\x7f\x1d\xec\x85\x16I;`Wic\xe2\xd3wl#I\x89R:f\xaei\x9a\xb4\xb1\xce\x1dfe\xf5\xf7\xad\x99\xb5O\xb4\xdblb\x0e{\x1a\xcc6\xd3\x96*\xa8\xc7\'\x83ZZR\\E\x8d\xd9&gt;\xc7\xa5u:\x0c\xb3\xbc;7\x1eO"\xb5N\x86\xd7&lt;\xab\x8e\x95{E\xd1\xb4\x8b\x0b\xc8\xff\x00\xb5Xl\'\xae{\xd7L5\xcd2\xc6A\x06\x9d\x8d\xa3\xa6+OO\xd7\xe5\x98\x05*s\xd8\xe2\xbam\x0e)g\xc4\x8d\xdcV\xa1\xb5p2M="\x8c\x91\xc6MP\xd5n!\xba\xbd\x1aS\xa11\xcb\x19\xce\xde\xc4W\x93\xfcQ\xf1d:6\xa3i\xa6\xc9!\x91D\x8a\xb105\xe4^;\x9e\xebB\xd7.&amp;\xb2 \x19\xc9bH\xeb\xed^Sq\xad^\x8b{\x89/o|\xc7y\xc9X\xbb\xad_\xf0\x8d\xfcz\xbc\x17\xb6w\x91\x1c&lt;\x04`\xf7\xae\x8b\xc3\x97\x9ag\x88\xbe\x17/\x86\xa7\x88\xc7\xa8\xe9wm\xe5;uh\xfd?J\x8bK\xb7\xff\x00\x89\xbc\x16S\xb6U\xd7w\xd7\xda\xb3u\xad6i\xfcC6\x8fj\x9f$\xae\x1a%\xf4\xc1\xc9\xfeU\xa7\xe1sk}\xa5=\xd1`\x1a\xca\xf4\xc6\xfb\xbbu\xae\x8bK\x8b\xc3\xef\xe2\x1b8&lt;I~ \xb0\xbc\x8d\xa1\xf3\xf1\x90\x18\xe3\xadjx\xc7A\x9b\xe1\x86\xb9\xe0\xfbYe]E5\rJ+f\xdb\xd1P\xb0\xc1\xfdh\xd5\xb4\xed\x16\xdf\xc6^%\xf0\xf4\x1a\x9a\xac\xbat\x8fuk\x0e\xef\xbaDa\x8a\x8a\xf3})\x9f\xc5WV\xba\xd4\xac\x19\xc2I#\x9c\xf4!\x8f\x15\xe8\x7f\x0c|,\xda\xae\xbbg\xe3}F\xdb`\x982O\x1fNT\x80\xa6\xbd\xafL\x95\xee\xc24\x8b\xb8\xf4\xdcz\xd6\x9b(E\x1cq\x91^\x1d\xfb`\xdc2\xe8v\xf1\x93\xc7\x9a\x7f\xad|\xd13\xe2F\xe3\xb7jc\x92\x061L\xa2\xa3\xa2\x83\xc8\xc5G\xedJ\x9fz\x9fA\x19\x04Tc\xe5=\x7f#K\x93\xd8\x9a\x06\xe2:\x9f\xce\xa6M\xca\xa3\'\x9a\x7f\xdf\xfc)\x08*hP\xa4\x02\xc0\x91\x9c\xf3\xde\xb9?\x17\xf8\x0e\x1dr\xfa\xf7P\x84\x80\xff\x00f\xde\xcd\xfd\xe2\x01\xaf(\xb2\xb9\x92\t\x1fn~G*\xc3\xdf5\xaa5e\x91\x967 \x1ct\xa4:\xa9\x89\xc6\x0f~9\xae\x9b\xc3\x9a\x89\x9dU\xb7r\x08\xeb^\xa1\xe0\xa9\x83F\x9b\xc7^\xb5\xd5^X\xc4`\x0c\x14`\x8ek\x93\xf1\x1e\x92\xb6\xf3\t\x918=k\x1eRT\xe3\x9e)-\xee,\xf7\x04\xb9\n~n\xb5\xd1hWz\x18!Y\x80\x1e\xb9\xae\xc3J\xd44\xc5\x8d\x05\xbd\xd0\x03\xbf\xcd[V\x9a\xc5\x85\xb1\xdf5\xc2\xe0z\xb5^_\x1dxa@V\x98dz5X\x8f\xe2\x07\x85\xe1\xc3\xf9\xf9\xcf\xfbU\r\xe7\xc5\xff\x00\x0cX\xe4\x0b\x81\x85\xeaI\xa7X\xfe\xd0\xba\x05\xb1\xd9\x1b~ \xd5\xe8\x7fhAxKX\x1c\x81\xd7\x1d\xaa\xcd\xaf\xc4mO\xc5d\xda\xc6\xd2,\xa3\x98\xfd\xeb\xd4~\x1c\xe9Z\xb6\xa5\xa6A&amp;\xa0\x18\xb8?1\xc5z\xa6\x87\xa1\xda\xa4*\x1e1\xbb\x03\xb5t\xb6\x90A\x04j\x15y\x02\x9f$\xc8\xb1\x8f\xebQ\xb3\x98\xd0\xb9\x1d\x07J\xc1\xb8\xd5-\xa1\xd4&gt;\xd2I\xde\xb9\x04\x13\xd0\x1a\xf9\x8b\xf6\x8a\xd7.\xafu\x1f\xec\xed*\xf4Cw\x15\xce\xf8\x9c\x9e\x08\x07\xa5r^)\xf1\x04\xfa\xde\x95\x16\xa5u6^\xd1\x94\xc8G~\x9dk\xcd\xd0-\xcd\xe4\xba\xbcm\x81%\xcf\nOQ]\xc7\x84\xb4\xc0\x14O,[&lt;\xe0q\xc5h\x84\x8bIqu,A\x18d\xbe\x07\xde\x15^k\x88b\xbd\x83S\xb3\x98\xb0V\xde\x0f\xb7\xa5K\xa9\xdd\xe9\xf7\xc9k\xaeYI\xb6\xe1f(\xff\x00B*\xe4\x16\xbaD\x16\x1a\xcf\x86\xa3\xfd\xd4\xeff.\xa3a\xfcM\xc6q\xf9\x9a\x93\xc2\x9e\x1c\x1f\x10t\x8bk8\xa7\x0e`\xb6k\x86\x88\xf5%qQx\xf3\xe2U\xf5\xde\x9b\xa0^Z2\xbcv\xf2;\xc4\xc7\x92\xae\x98\xc5y^\xbd\xe3=~\xe3S\xbc\xf1|S\xc9\xfd\xa5y.\xc9\x9b&lt;\x10~_\xe5^\xa1\xf0\x83\xc0\x93\xad\xa5\x95\xd5\xc9&gt;\\\xbf;\xaez\x93\xd7\xf5\xafn\xd0\xf4h\xd1\x94G\x1e\xd5\x07\x85\x03\x81]\x8e\x8fm\x1ch\x00\x1d\x05X\xb9\xf9P)\xeb\xbb\x8a\xf0_\xdb-\xdd-,bS\xc1bO\xeb_9\\\x0c\x1c\x91\xdf\x8a\x88\x8c\x8cSv5\x1b\x0f\xa8\xa8\xa8\xa2\x82\x9b\xfa\x0f\xc6\x95P\x8f\x97\x1f\x8d)L\x0e)\x02\x93\xda\x81\x16=)\xad\x11\x19\xc5\x0b\x0b\x06\xe7\x8a\x94\x95\x07\x19\xa0g&lt;S\xce1\xf3R\x02\x06\x07\xbdEr\xb8.\xca2\x19v\x91\xeb^U\xe3?\x06\xae\x8f{-\xed\xac_\xb9\x9d\x89\xc6:\x1a\xe3\xb5\t\xe4\xb3\x98+7^\xb4[\xdd\xf9\xdbI^\x87\xadu&gt;\x1d\xd4c\x8d\x00$\x02\x0f\x1c\xd7\xa7x\x1b[\x8b\xf7j\xf2}+\xd4\xf4\xf3\x16\xa1\xa7\x06V\x04\xe2\xb3\xf5\xcd\x05\xe5\x8b\xeed\xd7-\xa9xbp\x8c\xdeY\x15\x83}\xa0\xdc"\xe0\xab\x03\xedQ&amp;\x9b}m\x06\xf5c\x9a\xad=\xe6\xbbf\xa5\xa0\x9d\xf3\x8e\x005M\xb5\xff\x00\x16K\t\x13\xdc\xca\x08\xf7\xac\x99\xfcG\xe2\x8bq\xe7\x1b\xe96\xe7\x1dMni\xba\xb7\x88%{W\x9a\xed\xfc\x99W\x96\'\xbdi\xdbhZ\xbe\xb3x \x96\xe9\xca\x92q\xcfZ\xd7\xd1~\x1ex\x82;\xaf*H\x9d\xd4\x9e\x0e;W\xa6\xfc3\xf8Q\xa8\xf9\x93}\xa22\x14\xb6Wp\xafq\xf0/\xc3\x8d&gt;\xd3\xcb\x9eK0\n\x8f\xbd\x8e\xb5\xe9\xfe\x1a\xb4\x8a\xd2\x11\x14H\x14g\x81\x8a\xea\xf4\x8d\xa8\xff\x00\xbca\x8cp*\xdb&lt;\xc5\xfe@i\x92O(p\xa1r:\xb7\xe1L\x93^\xb16\x02\xe1\'^I\n\x0fr;W\x8c\xfc@\xf8\x8fu\xa4\xfcG\xb5\xd3u\x08\x1a\xde;\xd8\x99\x10\x8f\xba\x7f\xda\xfa\xd7\x88|f\x86E\xba\x97Q[\xa0\xe9\x16]f=Ms\xbe\x15\x86MW@\xd4\xed\xae%\xf9$\x83z&gt;{\xf3\x8a\xc4\xf0W\x86\xa6\xd5\xed\xef-\xd4n}9|\xc6Bz\xf3\xd6\xba\x7f\n]\xdd\xff\x00\xc2&lt;\xd3\xdc\x80\x1a\xdav([\xb0\xcdt7\xd7\xf1k:\n\xebV\xf6\xa8p6:z\xfb\xd7"\xf7\xd6v+%\x85\xd4f6\x90\xfe\xe4\x1fZ\xd3\xf0\x87\x85\xb5\x8f\x11\xc5!\xb7\xff\x00T\x8e|\xc9G\xf0\xb68\xfdqX\x1f\x12\xee|C\xa4\xdc\xe9\xf7Q\xa1\x8e\xf6\xd5\x8c\x17@\x1f\xf5\x91\x93\xc1\xfeU\xb5\xa0\xf8\xcd&gt;\x1b_h\xbe4\x81\x89\x82+\x81\x0e\xa4\x8a\xdda~\xbf\xca\xb9y5M:\xc7\xe2g\x8b|\ti}\xf6\xdd:\xda\xe7\xed\x9a&lt;\xc0\xe7lru\x1f\x86)\xf6\xde\x00\xbb\xd6#\xb7\x0b&amp;E\xcd\xc8&lt;v\x8cc\xff\x00\xaf^\xfd\xe0m\x14XCmb\xab\xf2\xc2\x81A\xc7^+\xd3\xf4\x8b\x18\xd5\x06V\xb6\xed X\x93\x85\xa2\xea\x10X)\xecs_&lt;\xfe\xd97*\xd3Z\xdb\xe7\x95\x04\xe2\xbev\x99\x99\x9b\x18\xefL\xa2\x8a\xafE\x1di\xe0`b\x96\x8a)B\x93\xd0PU\x87$P\xc0\xe3$\xf5\xa8\x9c8&lt;\x0c\xf3SDI^E8\x80z\x8a\x8c\x8284\x8c\xaayc\xcfj\xcb\xf1V\x95\x1d\xee\x90\xd1\x04\x05\xba\x8c\x8e\x95\xe3\xde6\xf0\xb4\xf0\xdf\x87\x8f\x80W\xa0\xacX\xe2\x92\xc8m\x91zz\xd5\xdd7V\x11\xc8\x06x\xfa\xd7u\xe1\x1dp\xc8c\xd9!\x07\xa7\x06\xbd{\xc0\xfe\'h\x82[\xcf!*}Mw\xf0\x08o\xa1\x0f\x1e\x0ej\x9e\xa3\xa4\x06nb\xe3\xbf\x15\x81\xaah[\x9f+\x18\xc0\xf6\xaa\xcb\xe1\xd2F\xd1\x17_ji\xf0j\xcf\xc1\x88\x0f\xc2\x98\xdf\x0f\xe2\x97\x83\x10\xf7\xe2\xb3\xb5\xcf\x85\xf0\xedXE\xae\x179&lt;S\x97\xc1ht\xc5\xb3X\x08\x11\x1d\xcb\xc5t\xbe\x16\xf0\xc8i"t\x87\x9e1^\xa9\xe1?\x0f\xa6P\xc9j\x18c\x0cH\xe6\xbd\x07D\xd1\xd2"\x04v\xe0\x03\xed\xd2\xbb}+Oa\x1aD\xb1\x91\xdcq[\xba]\xab\xc6\xc4:`\x8e\x95\xa5\x01q0\x00\x1a\xde\xb28\x84\x17_\xca\xa8\xeb\xf3\xdd\xd8\x08\xaeb\x00y\x91\xbb\x05=\xf0:W\x05\xa5Oe\xab\xe9\xf6\xfa\x9cZ\x90x\x05\xcc\xbb\xe1\r\xca7\xcd\x9e&gt;\xb5\xe0\xde,\xf8\x9d?\x88&gt;,/\x81\xbcG\x02\xad\xac\x17\x0c\xf6\xb7\x0c9P3\xce}*\xd7\x8a\xfc\x19o\xe3\x1f\x87:\xa4q\xc4\r\xc5\x92\t#\x95\x0f\xfa\xf8\x0ey\x1fL~\xb5\xe32i\xfe&lt;\xf8{eqw{\x1f\x9b\xa5Kk\x88\x8e9Q\xcf&amp;\xad\xe9ZM\xed\xa5\xd4:\x8e\x95\xa8b\x1dB\xd4;0={\xed?\x88\xadm2xu-*\xe6\xc2\xf4\x18\xd2@A\xc7\x03p\xabzH\xbc\xd2\xf4K;Y\xa6\xdfor\xa0#g\xb8\xf5\xa9\xb5\xef\x03M\xaci?\xf0\x98Z[\xb4\xabf\xd8\x96\x15\x1c\x85\xfe\xf6=\xaa\r6\xf3V\xf8sl\xf3i\x9a\x98\xb9\xb1\xd4\x93t\xcb\xbb\xfdY\xaej\xfb\\o\x12\xbd\xe4\xa6O6X\xe3,\xab\xd4\xed\x15\x8b\xae\xeb\x02\xfa\x0b[\x9f\x0f/\xda\xedd\xb2Qwg\xd4\xabc\x93\x8a\x93\xc0\xdf\x0fe\x87\xc4\xed{\r\xdb\x99n\xed\xb6\xcb\xb8\xe7\x0b\xce\x05{\x8f\x82\xbc\x15\xf6H\xa2\r\xc8\x8c`\x13^\x99\xe1\x9d\x0bhR\xaaN:\x1a\xec\xed,d\x8a&lt;\x91\xd2\xb4\xa1\xc7\x92\xbd\x8fsL\xb99ub\xd5\xf3/\xed\x8b,\x8d\xe28\xa3\xcf\xcb\xe5\xf45\xe1.\x8b\x92KTm\xd7\x81MS\x9eij\xbd(RzR\xaa\x10rM8rqJ\xe1Tf\x9a\x18\x1e)\xe89\xcf\xa5;\x18\xa4a\x91\x8an\xc3\xea)Bz\xd2\x80G\xd3\xb5-4\xa3\x1eI\xa0!\xc0\x1cu\xa6\xdc\xc2\xd3\xa6\xc1\x8cW?\xafx.\rF\xf9%e\x1bB\xf4\xaf6\xf1\xa7\x83o\xadogKt\x18PH\xe3\xb5q+-\xc43\x15\x90c\x06\xba\x9f\x06_\xdc\xfd\xa1\x166\xe0\x1a\xf4\xdf\x0f\xeb\xf2\xf9\xaa\x82L\x11\xde\xbd_\xc0\x9e"\x96\xe5\x16\xdbvN\x079\xae\xee\r-\xee\xed\x84\xac3\xc7J\xa7y\xa1\xa9\x7f\xf5\\w\xa8\xe3\xf0\xe6@eRA\xf6\xad\x0b\x1f\x07I \x0c#\xc9=\xb1WW\xc0\x92\xaf\xcd\xb5Fj)&lt;3i\xfd\xad\x15\xbd\xd8P1\xce\xea\xb9\xe3_\x0b\xf8n\xc7@\xf3,cS4\x8c\x15J\xd4z\x1f\x82\xad\xf4\xfb\x8b\x0b\xa9AU@\x1a@\x7f\x8a\xbd#\xc1\xd1\xe9I\xaa\x9f25\xf2\x9d\xb2\xb9\xafG\xd2\xf4-3R\xdd-\x88P\x14\xf0\xa3\xadu\x9a6\x89h\x96\xe1\x1c\x80\xc9\xd7\x8a\xbf\xfd\x8dl\xc7~\x06{R\xc7\xa7\xa4n\x14\xe3\x07\xd0t\xa5\xd5\xb5\x08t\x1d2]Nu";x\xcb\x1e+\xcc|G\xf1n\x19&amp;\xd3n\xae&lt;\xc5&gt;S\xca\xe8z,g g\xf1\x15\xe3\xda\xe6\xb5\xac\xf8!t\xfdWJ\xbcc\x18\xd5$\x9ah\x83d4NX\xf3\xf9\xd7\x93~\xd5\x1a\xc2\xe8\x9e(\xd3&lt;Y\xa1]\xe0j}\x1dOE=Eu\xdf\xb3\xff\x00\xc5+\x03\xaei\xfe\x12\xf15\xcb=\xb5\xdd\xb3Em"\x9f\x94\x06\x03\x01\xaa\xf5\xcb&amp;\xa85?\x04\xebx\x0f\x03:\x84u\xe1\x87\xa0\xfc+\x82\x86X\xbc(\x87O\xbd|1\xdd\x1c10\xfb\x83\x9c\x11U&lt;U\xa7\xea\x96:\x05\xa0\x13\xfe\xf9\x9c\xb327\xdeSM\xd35\xedvkH\xb4\'\x89\x98C(\xfb9\xef\x8a\xf5/\x87\xdf\x104\xfb7\x96\x1b\xc8\xfc\xb9\xad\xff\x00uql\xe3\x87R9\xc8\xac?\x89\xde\x14\xd3\xb4\xeb\x83k\xe1\x99\xfc\xc8\xf5$2\xc3\x10l\xedc\xd4c\xb5yg\x87-uM.\xfe\xea\xfef\x0b=\xab\x98n"#\xa2\x10y\xfeU\x89\xf0\xcbL\xd7-~"O{a\x1b\xc9\nL\xd1\\D~\xe8Bz\xe3\xf0\xafz\xf0\xaf\x86\xec`\xbek\xbbL\x1d\xf8\xf9\xbd=\xab\xd5\xbc/\xa2H\xf6\xf1\x15L\xa9\xfb\xd5\xdehZtv\xe9\x8f/\x8a\xd9D,\xb8\xdb\xc7z\x1d|\xa7\x0b\xda\xa1\xbcdP2{\xf5\xaf\x97\xff\x00l+\xb0\xfe)\x8a\x14=#\xe4\xd7\x88\xe6\x991\xda\xc0\x8af\xf5\x1d\x8d\x1b\xc7\xa1\xa8jJ)W\xef\n\x8a\xe2B\x8f\xc84\xb1\xfc\xff\x005K\x1fzu\x14QE\x14QH\xc0\x91\x81J#\x8c\r\xcd\xcb\x0e\x9c\xd6\x0f\x89\xfc8o\xd2[\x98\xa3\xe4FK}+\xc3\xbcS\xa7Gg\xa9\xf9QrKr\x01\xabZ6\xa5m\xe1\xa7Sp\xc0\xf9\x98\xe7=+\xac\xb6\xf1\xb6\x93\x0b\xa2\xd8\xbe\xe2\xc3\x93^\x8d\xf0\xe3\xc5\xf0\xdaJ\xb73I\x9e\x98\x19\xeb^\xe5\xe0o\x16\xd8\xean-.e\n\xd2\x0c\xa0\xcfj\xe9o\xad\xedQ\x08E\r\x8a\xa3\xa7\xbc\x8dq"\xbc`"{U\x99\xbcD\xbam\xd0\xb7\x0c\x00\x9123V\xb4\xddn\xe2\xee\xd0K\x0c\r\'\xcd\xb5\x8f\xa5Q\xd5t\xcb\xddB\xf3\xed\xce\xe6\x14\xe8\t\xed]\x1f\xc3?\x0c\xd9\xeb\xfa\x94\x8b\xa9/\xda-\xedW\'?\xc4\xd5{^\xd0\x99\xbcB1\x01\x8a\xde1\x80\x84\xd2i\xbaL\x1a\x8e\xb7\x06\x9di\xa8\x18\xe1\x8a@\xd7Sn\xfb\xa0v\xafV\xd2\xaf4m3U\xb7\x83M\xb9,\x1dw\x0ez\x8a\xea\xf4y\xe6\xba\x8ek\xaf;\x0b)\xf93\xda\xb5\xec\xe4qd\xa8\xec\t\x1dZ\x9b\r\xd2\xcb\xe2X46\xc7\xef\xe2.\xad\xf9W/\xf1\xc3\xc6zf\x99\xa4\x9f\x0f\xc7s\xbe[\xa66\xed\xb4\xf0\x87\xbf\xf3\xaf\x9c\xbfi\xadV\xff\x00\xc37\x16\x17Z\x16\xe2\xda\xdc)\x046\xe1\xf3\xb5T\xf2G\xa7z\xf3\x9b\xbf\x1a\xea\xd3\xf8\xc1\xfc1{16\xd7VAU]\xbe\xe1\x03\x9f\xe5\\?\xc4I\xd7Z\xd3\xedt\xb9\xd8\xb7\xd8\xe7`\xa5\x8f\xdcQ\x9a\xad\xf0\x9f\xc5\xfam\xa6\xafmsy\x11\x10\xda\xca\x02d\xf4#\xa5zg\x8d|m\xadx\x83\xc5\x17&gt;3\xf0\xd5\xa2\xcfmp\xa1.\xd6$\xe6\x16\xc63I\xe2\x7f\x16\xe9:\xef\xc2K\x19\xf5\xef\x0eyz\xa5\xad\xc9\x8c\xdf\xa2p\xe9\xb8\xe0\x1a\x87Ok\roK[R\xean"Q\xfb\x93\xd9\x0fz\xbf\xe1/\x0b\xa6\xb1=\xe5\x8d\xad\xd40Og\x01\x96\xdaiH\x01\x80\xed\\\xbd\xdf\x89\xe0k\xfb\x8b\xcdj7\xb3\xd5\x15\xb1&lt;{p\xb2(\xfe*\xd9\xf1\x0e\x92\xfe$\xf0\x05\x9f\x8d\xbc\x15\xe2uMf\xc6p\r\xa4\x8d\xc4\xa8N0?:\xc5\xd44\xf9\xeenM\xb4\x8a#\xd4\xf5\x04_\xb6/n\x95\xa7\xe0\xaf\x0eM\xa0\xdc\xcc\x8f\x002\xcavH\xc0u\x1d\xeb\xd3|\x15\xa2\x86p\x9b\x08\x07\xa5z\xcf\x85t\xc5\xb7\xb5\x8e ;WOko\xe5\xaf^}\xea\xdd\xbb\xf5\x04\x8a\x8eF\xdcI9\xe3\xd6\xb3\xf5\x17b@\xaf\x97\xbfkv\x03\xc6\xb1\x8fX\xb9\xaf\x1d=H\xa8\xe7\xedQ\xd1M\x11\xfa\x9au\x14R&lt;bQ\xb4\x9ar/\x97\xc63\x8aJ\x92\x8a(\xa2\x8a(\xa60\xcb\xe34\xef(\xa9\xdc[\xe5\xc6I\xae\x03\xe2\xb7\xc6m+\xc2\xda|\xbaF\x978\x92\xeaE\xda\xc4\x1e\x00\xae\x0b\xc1\xbe\x0c\xd5|C\xa5\xcf\xe2\xedE\xcf\x92\x01db8\xcd`\xeb\x16\xb0\xc4%\xbb\x9aF`\x9ft\n\x9f\xe1\xbd\x9d\xff\x00\x8bu\xb5\xd2\xf4\xb8\xb3\xb1K\xce\xdd\x91=Mz6\x8d{gay-\xb2]\x07\x10\x0f\x94\xe7\xae+\xd2\xbc-\xe2\tb\xd5\xac\x9a;\xd0\xad&lt;#\xcb9\xe9\xd2\xbd\x8c|C\xd0\xe2\xf0\xe1\xd4\x1e\xe4\x07\x8b\x11\xaa\x0f\xe354:\xfa\xfd\x9a)\xee[j](d\xc9\xacI\xbcJ|]\xe3{\x7f\rhV\xa5\xdf8\x99\xbbF\xbd\xc9\xf6\xafH\xd0/\xfc7\xa0I7\x86t+\xd1}t\x1b3\x0c\xe4\xe7\xb8_j\xdf\xbb\xf0\xf6\x89mwmm\xaf\xde\x86Yp\xc6\x08\x1b%\t\xec\xd5_\xc5\xde#\xb5\xf0K\xc5\xa3x.!\x1c\xd2\xfe\xf2E\xceX\xfb\xd5{\xfdG\\\xba\xd2m\xb5=B]\xd2\xdd1U9\xe0}jM&gt;\xde\xd9"\x86+wc\x1f\x98Z\xf2U9\r\x8e\xc2\xb7~\x1f\xea\xd7\x9e&lt;\xf1\x1bkZa\x1ba\xdd\x1c\x16\xe0\xf3\x81\xd0Wk\xafx\xe5t\x9b#mm&amp;\xc3h6\xcf\x83\xd7\xb9\xcf\xd2\x9di\xf1\x9e+\x8d#M]*33\xea3\xf9\x10\xe0\xf2O9?N+K\xe2/\x8c\xdb\xe1\xe4\xda~\x93s\x18i\xe5\x95v\xde\x93\xca\x</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Mark.jpegSundar Pichai</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00\x83\x00\x83\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfc\xf4\xde#P\xad\xd8c\x8ad6\xcf,\x85\x94\x8f\x98\x923]\xaf\xc3O\x02\xc7\xe2K\x97H\xc2\xfe\xea"\xf3H\xe7\x08\xb8\x19\xc6}I\xe0{\xd7P\xda\x7f\x88\xed4K\x93\xe0\xef\x08&amp;\x97\xa6[\xc9\x14\xba\xb7\x8b.\x9c\xb3\xaf,\x8a\xaa8P\xad\xb1\xc0\xceO\x1c\xf1\xcd{\xd7\xec\xe5\xfb4~\xd1?\xb4\xef\x82~\xdb\xf0\xae\x19t\xff\x00\x07\xcc\x05\xac:\x8e\xbd#[\xfd\xbd\t\xcb\xcc\xa5\x15\xdd\xf3\xf7\xb6\x15U\xe7\x00\xd7\xd9\x9f\t\xbf\xe0\x96\xbf\x05|3ocu\xf1W\xc4z\xaf\x8bd\xb6\xc9\x1au\xbe\xa3&gt;\x9f\xa6\x93\xb0\x00|\xa8YZQ\x91\xf7d%q\xfc=\xab\xe8\r\x1f\xe1\xe7\xc3\xaf\x08i#J\xf0\x8f\x834\xdd&gt; v\x9bh4\xd8\x04E\x07\x00}\xcfOj\x8e\xf7\xc1\xbe\t\x90\xf9\xa3\xc1Z3\xbf\xf0\xb4\xbaL\x05\x93\xd9N\xce\x07\xa5;J\xd0|3\xa6\xc9\'\x93\xa3\xc1\n\xcaAq\x14(C\x1d\xb89\x04\x01\xd7\xd2\xb0|U\xf0\x9b\xc0\xde(\xb2[MWE\xb1\x9d\x04~^$\xb0\x89\x98!\xe4\xe1\xb6\x82\x06z/8\x1d\xeb\xca\xfcY\xfb\x02|\x0f\xf1\x9d\xdbA\xa8x:\xd6\x18\xa5I\x08\xfb4\x00\x00\xef\x92\xcd\xb7\xb1\xc9\xf55\xf3\xd7\xc5?\xf8!W\xfc$V\x97\x1e\x10\xf8!}9\x96\xfe\x07uW\xb8\x99\xa2\xca\xfa\x82\x00\x0f\xf4\xc8\xcd~\x7f\xf8\x93\xf6%\xf8\xa7\xfb$\xfcS\xb8\xd0|[\xe1\x1dQo\xadn\xe6\x83V\xd4!\x85\x89X$\xca8\x94\x11\x86\x8c\xe3#\xaf?\x9dY\xf0\'\xc7H\xfe\x14E\x7f\xe0\x1f\x88\rk\xe2K\x1d"T\xb7\xfe\xcd\xbe\x8b\x0c\xb6D\x14F\x82S\xccS(e\x1bFA\xc1\xe6\xad\xf8\xfa\xdb\xe1\xc6\xb3\x1d\xa7\x8c\xfe\x12\xdfA6\x8b\xa8\x97\x85\xed^q\xbe\xcae\xfb\xd1H:\xae\xd3\x95\x04\xf5\xc5p\xf2\xc6\xd1\xa8\x8c\xc5\xb4\xa8\xc1Q\xdb\xda\x98&amp;P0A\xe2\x89#g\xe8EY\xd3m\x04\xbdn\xa2R?\x85\x89\xc9\xfd+\xd1l&lt;[\xa5i\xbf\rt\xef\x83:-\xab6\xab\xe2\x1d]\xde\xfe\xe9\x14\xec\x11\xcb\x18H\xc1\x90r\xac\x8c\xac\xc1q\xd4\xd7\xbe~\xcb\xbf\x0c\xb5\xdf\xdb\xa7\xe2\x87\xf6\x16\xadl\xf0\xfc&amp;\xf8cskc\xa85\xb8\xf2\xd7\xc5\x17\xca\x13lR\x1e\xef\xe5\xa8\xdc:/\x99\x9c\xe4\x91_\xa9\x9f\x0c&lt;#\xa7i\x1a\x15\xbe\x9b\xa7ipA\x05\xb5\xb4q[C\x1f\xc8!UP\x02\xaa\xa8\xc2\xe0\x0cWb\x9aE\xd2[y\x89\x96U\x18\x05\xba\x91\xebU$\xb1\x9aNAQ\x9e\xc4\xd5{\xad:x\xd7,\xcb\xf8\x13Y\xf2E*\x92I\x1dk2\xfe\xe9\xb4\xf6ibl\x92I \xd4Z\x7f\x8d\xe3\x01\xa3\x9a\'\xf3\x01 \x1c\x0c\x7f:\xee\xbe\x1d\xfca&gt;\r\xbb\x82\xf9\xadD\xc25\x0c\xa1\xdf\'$s\xc7\x18\x15\x17\xc6K\xbf\x85\x7f\x1e\xa4\x92\xef\xc4&gt;\x16\xb1[\xa9\xedZ\xda\xe6\xe1\xad\x10\xb4\xf17\xf07?\xc2x\x07\x93\xc5~3\xff\x00\xc1`?a{\xcf\x80\xf7\x07\xe3g\xc3\xdf\x0c\x1b\xad\x008\x83V\xfb&lt;a\xd6\x05&lt;\xac\xe5z\xff\x00\x01\xc9\xf5#\x8a\xf8\xab\xe0\xce\xa7\xae\x0f\x88\xbaW\x84|\x19\xa8\x06\xba\xd6\xb6Gw\xe6\x1d\xd1J\xc7\xef\x17]\xb9-\x90rq\x95&gt;\xb5\xe8\xda\xfe\x9bq\xa6\xeb\xf7\x9a-\xd6\x9e\xf1\xdc[\\\x98\xee#\r\xb8D\xc7&lt;\x168\xe9\xd0\xe4\x03\x9e\xd5\x90`V%\x82\xe3&lt;\xe0\x8eE:8\x9aS\x85#\x8e\xb98\xfd:\x9a\xe8&lt;\x17\xe0\x7f\x12\xf8\xa6\xda\xfbZ\xd3\xf4u{}"\xceK\x9b\xdb\xa2\x0e\xc8!\x8f\xf8\x9f\x03#&lt;c\x8es\x8e\xb9\xc7u\xf0\xc3\xe1W\xc4MgR\xb0\x93\xc2h\r\xd6\xb5\xa9[\xdb\xc9n\x102\x8b\xb6\x93e\xa8\x8dFw0,K\x11\xd8g\xd7\x1f\xaa\x7f\xb3\x8f\xc0\xef\t~\xcf\x9f\x084o\x84\x1e\x1e\xb7YWN\xb0\x0b\xaa]\x0f\x94\xdf\xdf\xbe\x1a\xea\xe9\xb1\xd5\xa5\x94\xbbg\xf8@P=\xbe\x83\xf0)\x8c\xe9?jU;&gt;\xe8\xcfZ\xde\x97Zkk3o\xb3&lt;q\xc5g\x8b\xb8Xni\x14\x13\xd4f\xa3\xbd\xbe\xb51\x85\x198\x1dk6\xe2Hq\xbb=k\x92\xf1$\xce\xd2H#9\x1b\xce9\xf7\xaez\xf6Y\xa2@\xd1#g\x1c\xe0U\x03\xab\xebjv\xa9l\x0e\x95\xa1\xa7\xf8\xabR\xb2\nf\x85O\x1c\x9c\xf3\\\x97\xc5\xa9\xb4\x8f\x19\xda\xddh\xbe)\xd3 \xd44\xedF\x03\r\xed\x8c\xe3\x89ce\nT\x9eq\x81\xb8\x82;\xe2\xbf\x18\x7fn/\xd9\xdf[\xfd\x85?h\x1d2\x1f\x06&amp;\xa1q\xe1\xd9Tj^\x10\xd4\x84\x07\xcd\x89\x0b\xedhdq\xc329PNO\x0e\xacq\x93\x8e\xe7\xc7~*\xf0\xff\x00\xc7o\x87\xfaG\xc6\x9bm"+mn\xefH\x8du\x81f\xde\\72c\x02R?\x8aV \x96n\xecMy\xe3YIn\xc6\xdd\x8f1\x9d\xa7,I\xe3\x8e\xa4sL\x89\x88x\xe4T.\xb2\x12\x03\x81\xbb\x04u\x19=?Z\xf5\x0f\x08\xea\x1e3\xb2\xf8i\xab\xf8\x13\xc0\xc9v\xd7^\'\xb3\xb7k\xbbk(\xc4\x93\xdc[\xa4\xac\x89\t\x0cG\x06Yd\x93#\xae\xd0\x0f\x02\xbe\x8c\xff\x00\x82^\xf8GG\xd4&gt; \x1b\x9b\xabI^\xe3\xc0\x0br\xfa|\xd2\xccF\xd9&amp;B\x96\xec}&lt;\xa4i&gt;nI/\x9cq_~hwQ\xdc\xedde;\x809Q\x85?Oj\xf5_\x04\xcdoi\xe1\x85[\x86\xdaY\xc6\t\xab\xb7\xf2\x97\x04\x88X)\xfb\xacH\xc1\x1e\xbdj\x9b\xe9\x88]IbL\x83p\xc7\xbdP\xd4\xa0\xbd\xb7v\x8c\xa9\n\xac@\'5\x8d6\xa1$\xf7\x1fc\x86`\xce\x0e\x08\x19\xe2\xaa\xdc\xe9\x97\x90H\xcfw\x16\xe0X\xfd\xd3\xfe5gM\xd0mo\x082\x05\x00\x8c\xe1\xbbT\x97\xfe\x04\xfb&amp;n$\xb6_-\xbeea\xdc\x1e\x95\xc4x\xcc\xdbi\xaf$@ch\' v\xaf!\xd7\xbcC=\xc6\xac\xd9\x90\xec2\x1d\xb9\xf4\xcdy\x1f\xed\xb9\xf03I\xfd\xa3&gt;\x05\\h\x16v\x91\xc7\xae\xe8\x05\xb5=\x06\xfd\x95\xb1\x9d\xea.\xed\xdc\x02r\x92\xc0$R@\xe0\xaa\xb6=&gt;i\xf8a\xf0\x97\xc1\x9f\x0e&lt;\x0f\xab|\'\xb2\xb8\xb8\xbb\xb9\x93O\x92]5Z\xd5\x96\xdd\xa2\x01\xda%\xda\x03d\x82y`A\xc1\x07\x1d\xab\xc4/\xec\xb4\xfbk\xd9`\xfe\xd0\xb4\xb4\xdb!\x02\xd5\xcb\x86\x84vB\n\xe7#\xa7\xe1QxoL]GR\x81oQ\xe2\xb3YC\xca\xaaFI^\x84s\xdf\xbfJ\xf6\x8f\x83\xbf\x15\xa5\xd1~+\xeb\xff\x00\x11|/\xa6Z\xcd\xa9i\xb6\xda^\x8fg\x1b}\xc8%\x9d\\ P3\x96\x0b\x86\x04\xe3\xe6\xcf\xd6\xbe\xa3\xff\x00\x82y\xe8\x9a\'\x84\xbe\x1b\xea\x97\xf7\xf7\x12-\xc6\xb9,3\xcbt\xc0\t&amp;\x8c\xa8+\xd0\xf7\xc8=k\xea=\x1fW\x83G\xd3\xff\x00\xb4.\xdc$1)\x19\x1e\x8aq\xc5u\x16\x1f\x13\xb4[\xcb8\xa0]~\x01\x14DnUbN\x07\xb0\xefT&lt;M\xfbR\xf8w\xc3\xf3\x9b-\'C\xbb\xbddb\xa0\xb4xS\x8e;\x9a\xa9\xe1\xbf\xda\xd6MV\xff\x00\xf7\xb6\x89k\xe5\xb6&lt;\x99\xb0\x08\xc7a\x82s^\x8b\xa4\xfct\xd2\xf5\xe3\x1c7\x96H7\xa8 \x80;\x8f\xadK\xac\xf8\xc7\xc1\x892\xcb\xe5E\t\x1fy\xd3\x19\'\xd6\xb2u\xaf\x8b~\x05\xb6\x8bl\x90D\xd8\x1f}\xa4\xc1oz\xe4\xb5\x1f\xda\x0b\xe1\xdd\x8b\xb65s\x16\x18\xfc\xa18\x1e\xd5{\xc2\xff\x00\xb46\x85\xa8\xdc\xad\xac:\xdcW9\x00\xc7\x0b\x900\x9d\xb9&lt;t\xf7\xab\xbe5\xb5\xd0\xbcekq}\xa6J\x16e\xb7\x0f&lt;;\t\xdb\x91\x9c\x82\xa0\x82\x0fb\r|\xe5\xe3\xaby\xf4\xfb\xaf\xdc\xa1\xf9X\x80\x07S\x8e\xa3\x9fN\xf5\xca\xd8x\xf9\xd6{\xbb{y\xe3#l\xb6\xe8$&lt;|\xd0\xba1&gt;\xdf;~\x95\xf1\xd9\xf8\x9bi\xe0O\x1a\xd9Z\xe9RG&lt;I\xe2;\xeb\x1b\xcb{\x99\x9bt(\xe5R\x12H&lt;d;\xb6\x07\x1c/\xbe3|{\xe0\xadc\xc4^0\xbf\xd74\xdf\x85\x92\\\xc1u?\x99\x14\xf6\xc1J8 r\t`~\xbe\xf9\xaf \x85\xa5\xdd\xb1\xe1L\x03\x80VS\x93\xfaWw\xe1=\n\xfb\xe1g\x80\xa2\xf1\xec\x05\x92O\x11\xf8\xc2\xc24\xba\x1f?\x98b\x8d\xe5E\x03\xae\xe5\x1b\x93?J\xfb\x1f\xf6S\xbd\x10x\xe6\x7f\x87V3\xc7&lt;vv6\xa7\xec\xdb\xf2`F@U\x7f\x01\x81\xcf\xa5}5\xe2\x0b\x1b\xadsQ\x83\xc1V\xd2\xa8\x84\xda\xb4\x93&gt;\xee\x00\xdc8\xc8\xcf\'\xfa\x1ek\xba\xd2\xe1\xf8/\xf0\xa3BMC\xc4&amp;\xcfN\x91\xc0U\xfbd\xa1\xe6\x9d\xf0pV5\xcb1l\x13\xc0&gt;\xf8\xaa_\x10&gt;\'\xfc/\xfe\xc5k\x8f\x12x7Z\x86\xdd\tO\xb6.\x8a\xa9\x18*&gt;a\x92\xc0\xe5{\x8cg\xda\xbcv\xfe?\x84\xdf\x11\xae\x9fQ\xf8a\xe2\xd8.g\xb4l]\xdaF\xe4Mn\xdb\x03\xed\x92?\xbe\xa4gi\xe3\x86\x04\x1a\xdf\xf8Ju\xdb\xddum\xb5\x18\xa5\xf2\x91\xd5\x10\x03\x92Gj\xf5\xbf\x8b~\x15o\x0b\xf8V[\xab\x9b2\x18C\xbd\\\x1e\xa3\x1e\xf5\xf0\xcf\xc6\xaf\xda\x17Z\xb3\xbf\xba\xd0ta#\xdc[\xb6&lt;\xa4!\x9bi\x19R\x00\'&lt;\x11\xd3\xa7z\xc3\xf0\xdf\xc1\xaf\x8c?\x15Qn\xbcA\xe2(\xac-\xee\'u\x88\xf9\xc5X\x80y`\t\x04\x8fq^\x85\xf0\xeb\xf68\x8e\xd66\xbd\x7f\x8c\xfa\x9csB\xea\x0cv\x92mX\x89\x19\xdc\xe5\x89\x06\xb6\xef\xfcy\xf1\x97\xe0\x12\xc8\x96\x1e0\xbd\xf1\r\x84\x0f\xbaK\x97\x95K\xa4D\xf0\x00^\n\x91\xef\x8fL\xd6\xaf\x89\xbe$\xf8g\xe3g\x80\x1f\xc4\x9a4\xdfc\xbc\xb4\x81\r\xdd\xa4G\xe7\xb7l\xed\xf9\x81\xf5=k\xe5\xff\x00\x8c\xbf\x10n\xbc\x1f\x15\xf4\x96WF\x19\x92\x1d\xaeX\xe1D\xc4\xf2G\xb7_\xf0\xaf\x92~0|F\xd2-&gt;%\xda\xea\x1aC\xf9\xa9|\xa55\x12\xb8\xcc\xb7\x00\x17\xde\x9c\xf2W!y\xc7C^\xaf\xa3\xdd\xea\xfa\xf6\x97\x06\xb3\xa3|I\x96\xc2\xde\xe61"Y\x8b\x91\xfb\xb2~\xf0\xeb\xc7\xcd\x93\x8e\xd9\xaf.\x8eX\x16u\x8ek\x94\x8fw \xb1\xc8\xfd3\x8a\xec\xef&gt;*\xc1oy\xf0\xeb\xc0\x9a\xc5\xc4Wv\xb0\xea2\xdf\xc7\x1e\x9d\x19,\xc2%\x9a6R8\xfd\xe7\xcc\xa4\x1e\x84s\x9a\xfa\x9f\xfe\t\xcdju\xcf\x8dz\xa7\x88o\xadb\x16\xb0[y\x96\x93\xfd\xa1\xfc\xcdAB\xe0\x8cm\xc3`\xf0\x0b\x11\x9cW\xdc\x90\xf8z\r\x0bL\x83\xc4\'i\x17\xb22G\xb7\xa8\x8a0F=\xba\xb7\xe9_\'|V\xd7\xff\x00h\x0f\x88?\x13\x8e\x9d\xe0=\x06\xf2\x1b\xadS\\k\x7f\xf8I"\xb2\xcc~\x1f\xb0T\xdaZ0s\xbeY\x89s\xbb\x807\x03\x91\xd0|m\xe2\xbf\xd9\xbb\xf6\xcb\x1f\x17?\xe1\x15o\x84\xba\xa6\xab\xaa\xcb\xab&lt;\xd7~8\xbe\xf1&amp;\xaa%\xb6T\xf3\xa3+\xb7\xcd\x10\xba\x94\x118\xc2e\x9a!\x9c\x06$}]\xa5\xfe\xce\xdf\x1b\xbc9\xe1\xaf\x0bj~\x1b\xd55\x1f\x15\xeb\xf6\xda\\\x07P\x8aRc\xbb\xca\xe0H\xca\xcf\x90\xd9\x1f\xf2\xcaN\x87\x8d\xc7\xa9\xfbw\xf6\x7f\xf8g\xff\x00\x08\xe7\x81\xad\xbc{\xe2\x89\xa4\x8a\xe6\xecF\xe2\xc6\xe9\x02\xcbf\xd8\x07d\xaa\xa3j\xb7l.FG\xa5P\xfd\xae\xfe#]_\xf8Jf\x17o\x08\x9e2\xa8\x9c|\x87\xd0\xf3_\x1b\xc7\xfb;\xdb\xde\xb5\xc7\x8a\x17]K3\x1d\x98\xbf\xd4u-A\xe4\x99Fw9X\xd6$,\xa0\x81\x80\x06s\xdf\x15\xe6\x1e!o\x1ex\x97\xc2:\x9f\xc4-&gt;\xcbV\xbd\xd24\xdbbE\xf6\xa1l\xdan\x9a\xe8\xd2\xaa*\xc7n\x80KpI`I\x91\xb6\x95\x04\xed\xcf\x15\xe5z\x07\xed\xb3\xe3\x1b6\xd2\xb4\xbf\nx\xd7\xe1\xd7\x8b`Y\xed?\xb4\xbc1\xa2x:\xf7D\xbd\xd2.e\xb6W\x95\x05\xc0\x8cG \x86S%\xbe\xf4\x94\x16\x92"V \xa5Mz\xae\x8f\xfb\\^\xeb\xbeo\x82&lt;e{}%\xbf\x9d\xf6+\xb4\xd5\xe6\x12\xddi7i\xf2\xf9S\x9d\xc0\xce\xacA\xd8\xe4\x92F\t\xc1\xe2\xb7\xfe\r\xad\xdb|S\xba\xb6\xd3\xa5kK[\xcb+\x88\'\x81\x9c\xec\x95\x80\xca\x13\xdf\x00\xf7\xeb^;\xfbs\xc1\xa8\xf8O\xc4\xf0h\xda\x95\xeck\x13@\xf3\xdd\xb2\xcb\xcb\xae\t\x04}H g\x1c\x83_\x1d\xe9\x9a\xa2x\x87\\\xba\x86\xd1wGk\xaa4\x96\xfea\xf9\xf0\xae\xc3\x03\x19\xe5\x97\x15\xec\xde\x12\xf1&amp;\xbc|9k\x9f\n\xe9\xae\xc22\x1d\x91X\x82\xd99\xed\xeb\x9f\xc6\xbb\xbf\xd9\xab\xc1\xbf\t|a\xaf\xeb\x1e%\xf8\xeb\xe2\x1dR\x0f\x0bxj\xca\t\xf5?\xec\xb4\xc4\x9bd\x95\xa2U9P1\xb9O \x93\x8ez\xf1^\xb9\xfba\x7f\xc1&gt;&gt;\x1f\xfc\x1e\x7f\x04\xfe\xdc\x1f\x00u\x97\xd7\xbe\x19\xa5\xd2O\xa8\xabkBu\xb3\xb5\x96\x13\xfe\x93\x19\xc2\xe6-\xea\x80\xab\x95pX\x02\xb9\xcd{\x1f\xfc\x13?\xc3\x10\xe8:\x16\xbf\xad\xdeG\xe6+Imkkr\xd1\x14\x1eAO1\x11T\xf2\x98c\x83\xed_y\xe8\xde\x1b\xb2\xf1?\x814\xd4\xd4\xf0\x0c\x96p\xbc\xe9\x0f&amp;3\xb0\x12\x17\xdc\x9e\xb4\xdb\x8d\'M\xf0\xb5\x91]\'\xc32J$\x901A&amp;\xdc(\x18\x03\x81\xff\x00\xea\xae:\xf6/\x16\xea\xf7N \xf0q\xb2\x85\xe2Ee[\x86\x9c\xee\n\xc0\xb2\xeeU\xdaI9\xebZ\xfe\x1a\xf0v\xbd\xa8\xdf\xef\x8bC\x96(\x82\x91u\xa8K\xf2\xbb\xb6\xec\xe0\xe3\xa6?\xbc\x0eO\xa5u\xda\x85\xbd\xb5\xc5\xdc:]\xbc\xcf4e\xdf\xcf\xcbd\xcc\xd9\xeb\x9e\xf8\xaf\x0b\xfd\xac\xf4YG\x83\'\xbcR\xec\x96\xb2\xe2C\xb4\x8c\x9c\xf6\xce\x01\xaf,\xf8=\xaf}\x96\xf2(-\xee\xde)\xd2\xde3j\xcc\xc3l\'i\xdd\x91\xc8|\xee\xe8x\xae\xf7\xe2\x15\xf6\x8b\xabhoe\xe2\xff\x00\t\xc7\xa8\xe9\x93\xc0\xe7P\xb7\x8a\xdc\xec\x97s\x17\x0cc\x1c\x1f\xbcI\x00\x83\xd3\x8a\xf9\xe2\xe7\xe07\xfc\x13\x92}m\xfcE\xa3C\xa1\xf8oYg\xde\xf6\xd7R\xdcX\xa9\x99_*|\xb9\xc0V\xdb\xc1\xc0\xceY~\xf1\xc95\xe3\xff\x00\x1f\xfe\x04\xfc\x13\xd0\xfcia\xe3\x1f\x85\xfa\xf5\xb5\xd1\xbb\xba\t\xac\xe9\xd6R4\xc8\xd1\x06\xcaH\xaf\xfd\xe5\x18\x03\'\xa7z\xf5\x0f\x81&gt;\r\xd5\xb4\xbf\x18G\xe2;\x88Y\xed\xe4\xba\x92h\x92\xe1\xbes\x0c\xa3\xe4\xeb\xc1\xe0\x8c\xe0\xfeu\xe5?\xf0V\xbd\x19t\xdf\x8d\x1e\x16\x9fO\xd2\xed\xe0\x8bZ\xf0}\xc1H\xc4\x1b\x9eYa\xbfDP\x01\xe3\'\xcfn\xfd?*\xf8w\xc1\xde\r\xd6,&lt;M\xa8[\xddD\x96\xfa\x95\xad\xd4\xcdv\xb3\xfc\x8b\x0c\xc8Xma\xd7\x92\xa5F\x01\x19\xef\x8ek\xd6&lt;%7\x88\xf4\xdf\x0f[Z\xa4\xd6@a\x9f\x0fp3\x96b\xc7\xf55\xf4G\xec\x8f\xf0\xc6\xc7\xc7\xdf\xb3\xf7\x8a-\xae.$\r\xa9\xf8\xf3O\xd3\xa4e\x91v\xc5\x0c\x10\x1b\x820~\xf6\xe7\x93$\x1e\x985\xf5\xde\xbd\xfb\x13\xde\xd8\x7f\xc1;\xfcY\xf0\xbbA\xd1\xb7\xe9W\xfa-\xfc\x976).Q/\x1aCp6\x8c\xe4\x06e\r\xc0\xe8zv\xac\x0f\xd8\x97\xc4#]\xf8u{\xa9@\x80\x84\xd5\xe4\xb5\xbd\xf3\x17\x03\xce\x8b\x1c\xf1\xdf\x04\x1f\xc4W\xda\xdf\r\xed.\x97I\x8e\x1b4y\nB\xa0\x06\x1c\xf0\x07Z\xd6\xbf\xd3o`\xcc\xad\xbc19e#\xa1\xf4\xa2\xc6[\xb1\x80v\x8c\x0e\xe2\xaf\xdd\xeaW\x11i\xadmu{\x1d\xbcl9E&lt;\xbf\xbds\xbahk}N\x1b\xad&gt;\xdeF\x10;\x94,\x06\x0e\xe3\xcfz\xe7\xfe\'x\x08x\xee\xc3X\xf0k\xf8\x8a\x18Z\xe7M\xf3\xecR\xeb,\xa6`\xb9(8\xeb\x9e\x05|m\xe1\x98\xce\x91\xac\xc9\xa3\xeaS&lt;\x1a\x9d\x85\xd1\x82\xfe)b1\x95um\xad\x80F1\x90q\x8a\xf6\xef\r\xa0\xd5,\xcd\xb4\xc2\x12\x91\xf1\x1b\x08H\xdb\xfe\xd67r\xde\xfd\xebFO\x04\x7f\xc2P\xe9ay\xa3%\xc3\x80\x02\\\xce\xaa\xc5\xbf\xda;\xd5\xf1\x9fA\x81]\x17\x87\xbe\x08\\|8\x07\xc56\xbe\x12\xd2.\xe2\x92 %\x13\xe9i3n#\x9c9U\xdb\xff\x00|\x9f\xadq\xff\x00\x145\x1f\x00j^\x1c\xbb\xdf\xe0=:\xd6\xe1n0\xee\xf6\xd1\xf9\x8b ?1\x0c\x17\x8es\xc61_\x19\x7f\xc1J\xd3M\xd7\xfc\x1b\xf0\xff\x00\xe2-\xa5\xdf\x944+\xfdB\xcde\x90\r\xf2\xae#\x95\x95\xbb\x00\x18\x1cs\xd5\x0f\xb6~M\xf8\x15\xe1\x7f\x84?\x12&gt;&lt;I\xe3/\x89Z\xd6\xa5\x0f\x85$\x8b\xce\xf1\x13\xe9\xb7ki5\xc4H\xfb\x86f;\xf6)&gt;fX\x0c\xe3\x9cv\xafK\xf1/\xc7\x0f\xd8\xba\xcb_\xbb\xb0\xf8U\xfb"k0\xf8z\xdec\x16\x98\xba\x9f\xc5\x19\xe5\x9d\xd1~S#7\xd8\xcew\xb0g\x1e\x81\x80\xed^\xef\xff\x00\x04\xb2\xd7\xec\xbcM\xe1\x1f\x1c|4\xbb\x01nt\xadoM\xd6\xf4\x98U\x97u\xca4S[]\xf1\xb7\x96P\xf00\x1d6\xf2H&lt;\x1f\xb4\x7fio\x8a^*\xf8u\xf0\xa2_\x85?\x0c/ \x97\\\x9e\xceXf\x9aH\xb7\x07fB\xa1\x97\x1fy\x86q\xc8\x15\xe7\xbf\xb2\xbf\x85\xb5\x0f\x0e\xf8\\X\xf8\xb3BM&gt;\xf6\xe1\xa3\xd4uH|\xbd\x8b$\xac\x91\xab0\x1d\x98\xacjq\xd3$\xf3\xde\xbe\xb1\xf8E\xe2=3H\xb7\x13\xcbp\xad\x95\x07\xf4\xab\xfe&amp;\xf1\xde\x9e\xd3\xcf2\x82F\xe6\x7f\x94\x0e\x99\'\xd6\xbc\xe3[\xf8\xc7ao2\x84\xb81,\xd2\x95Fr\x06\x0ez\x1c\x1c\xe7\xe9Z:^\xb9\xa7j\xa0\\\xdd\xeb)%\xc2\xa6E\xbb\xb1\xeb\x8eW\xd8\x8e\x878\xad\x9d?\xc5~\x13\xd2\xb4K\x9dSV\xd6\xd6=\xa0\xb9\x11\x1d\xca\xbd\xf1\xb8p?\x13^K\xf1C\xe3\x8f\x84&lt;\xc1\xaeYj\xdb%X\xd4Z\xb1\x1c\xe3\x1f{+\x91\x93\xf5\xaf\x15\xf8\x81\xa0x{\xc7^&amp;\x97\xe2\x86\x8bt\xf2\\On\x9fi\x9e\x0b\xb0\x8e\x1c\x0c\x92\xcb\x92\t\xcfZ\xef~\x12x\xafE\xd5\xf4\xc5V\xd5\x83\xce\xaaRV\x94\xf2\xce\xbc9\xc8\xff\x00k9\xafK\xd1\xee&gt;\xcfh\xf70\xden\xd8\x06\xd6\x8c\xf0=\xb9\xf4\xad\x88&gt;&lt;_\xe9\xdaC\xe8r:H\x9b|\xbf;\x00\xeeQ\xc7C\xfc\xeb\xe7\xdf\x8f:\x94)vu\x9d9\x0e\xdb\xa9\x08\x96\x11\xf7@\'\xef\x0fz\xf8G\xfe\n]6\xbf{\xf0\xdfC\xf0\xd6\x8a\xd2\x98\x0f\x89&amp;W\x8c\x9cnS\x02H\x8c\xf8\xce\xd1\x95`q\x9c\xef\xaf\x12\xf8i\xfb=k\xfe/\xb3\x9e\xda\xda\xde\xe0\xe8\xf1J\xb0\xeab7\x00_\xb2\xa8A\x16\x07\xcc#\n\xb9\xce9;\xbd\x89\xf5\x9d+\xf6s\xf1*\xe9\xb0}\x9b\xc3V\xf2Fb\x0c\x8ed\x1c\x823\xfdi\x7fa\xff\x00\x88W\xbf\x0c\xbfj\xbf\x02x\xa6\xde\xec\xc7gq\xaf&amp;\x99\xab&amp;x\x92\xd6\xed\x85\xbc\x9cw#(F}\x05~\xbd\xf8\x1f\xc0\x1e\x10\xd6&gt;,\xdfj\xfe;\xb2\x91\xad\xd66\x9a\xca\xe24\xdc\x00b\n&gt;N\x06\xd2\x18\x11\xdf\x1d@\xaeO\xe2\x96\xa3\xa7\xe9?\x17\xf5\x99-.\x12KXl\xecLD\x0e\x08\xf2\x14\xb0\xfa\x92~\x95\xa5\xa1x\xd6Ht\xf8\xd1&lt;\x91$\x91\xe5\x947\xdc\xc0\xe75\xe5\x1f\x1e\xff\x00j\r+\xc0\x16\x92\x03\xad\xe2\xe2eT\x86\x18\xd4\x93+\x10x_^\x87\xd2\xa1\xfd\x9cl\xee&lt;y\xe2K]o\xc7K4\xb3\xca|\xd8\xd6n"\x85G+\xc7\xf7\xb1\xed]\xd7\xeda\xf0\x97\xc3\x9f\xb4\x07\x86\x1fA\xb8\xd6\xf5\xdd\x1e\xe53\xf6=k\xc3\xba\x94\xf0\\\xdb\xb0\xfe%(B\x90z\xed#\x1e\xe6\xbf;\xbfh\xbf\x07|r\xfd\x96"\xb8ms\xe3.\xb5\xe3\xcd\x1a\xddK#\xdf\xc95\xbe\xadl\xdd\x8c\x8c\x99I\xa3\xf6\xc6Os_2|B\xfd\xb6\xbe%x\xba\x1bm#\xc3\xd7Wsj\r\x12\x84\xb6\xb7\xb7x\x94\x1ct*[\x15\xb5\xf0\xcb\xe2\xef\xed\xbd&amp;\xa3b/\xf5\x88t\xfd\x1d\xbc\xb8\xee\x9e\xe1\x91^"T\x12\x02\x86=:rs_z\xfe\xcd\x9e7\xf1\x04\x1f\x0e\xedu\x1bkU\xbf\x9a\x07\x9b\xce\xb9\x18\x06ew\xdc\xcf\xe9\x96&lt;\x80\x0fC^\xdb\xe1\x9f\x8bz\x7f\x89\xf4\xc7\xd5t\xadf4X\xd9\xb7B\x1b\x027\'\xe6G\xf49\xe3\x8c\xd71\xe3O\x88\x13XX\xbd\xecWXE\xce\xe0\xac&gt;_l\x1a\xe0\xae\xbe)7\x8b4\xf7\xb2[\xad\xcd\x082\x16~\x8a\xbb\x80\x19\xf7;\x85yG\xed\x07\xf0\xcbZ\xf8\xab\xf0\xdbY\xd4&lt;.\x11\xb5-!a\x96\x08n\xe5\n\xb2\xb3\xdc\x08\xdf\x18\xcf\xddRq\x9ct5\xc3\xfe\xc6\x1e+\xf1\xe7\x81\xeda\xf87\xe3;[\td\xf3#\x8e\xeaI-\xc2\xdc\x08\xd9\x98\x13\xe6\xf7P\xacFz\xf4\xaa\xbe(][F\xd7\xeet}7\\\xd4\x85\xbd\xab\x88a\x16\xf2e6\xa8\n0I\x04\xf4\xee\x05y7\x87|J\xbe\x1b\xf1\x06\x97\xe2+ \x1em7Q\x82\xeb\xec\xdd\xcf\x95:\xc8O\xe3\xb5\x08\xfck\xf7O\xe0\x0f\x8a4\xdf\x19\xe8\x1aw\x8e4O\x12\xad\xc6\x8f\xab\xe9\xd1M\x04\n\x12D\x85\x9c! \x10I\xecx8\xc7\x15\xe5\x9f\x11\xf4\x91s\xf1\x13\xc4\xb2\xa3yK$p\xfd\x9ec\xca\xf9"\x14\xda\xb8\xea8#\x1cf\xb2&lt;3\xaa\xdc\xcb\xe1\xfdJ\xde\xd7O\xf3\x9a\xdei\x8c0\xaer\xa0\x93\x8eO9\xf5\x1d+\xe4\xff\x00\x88\xfe\x0f\xf1\x87\x88~6E:hw\x9a\x94\xfeW\x9b\x0c2H\xc2([\x0c[&lt;pr\xd8\x00dpy\xaf\xad\xff\x00f\xadS\xc1\xfe\x11\xf0\x9d\xf7\x89|i\xe2\xdd10V\x0bxZ\xf1L\x81\xf6\x82\xdf)\xc1\xc0\x1d\xeb\xb8\x1f\x1b\xfe\x12\x87d\x81\xef\x1fl{\xf7\x07EF\x19U\xf92\xc3p\xcb\x01\xf2\xe7\xadq?\x1a\xbc\x13\xf0\x0b\xf6\x80\xd0\xe4\xf0\xff\x00\x8bu\xb9\xac\'\x9d\x9d!\xba\x81\x92B\x89\x83\x92X\x1e\x07obx\xc8\xe6\xbeU\xf1o\xec\t\xfb+\xfc2\xb4\x95\xfc/\xac\x19gg\xe2\xea+\x9f\xb5\x95\xc8\xc8%\x80\xf92x\xc78\'\x1e\xf5\xe7\xf7\x1f\xb3\xb8\x8a\xfa;k[\x94\x86\xde;\xa0\xcc$\x9d\x1d\xa6\n0N0y\xf5\xcdw^\x0e\x9d|\x10\xb1iz^\xb0\x89i\x10"8CmG\x94\r\xa0\xe7\xe9\xd4b\xb0t\xff\x00\x17\xf8\x93\xc2_\x14\xd3Op\x8bg\xaa+y\xc9n\xf9\x8d\xe4Q\x96;\xb8]\xfe\xab\x9c\xe74\x9f\x1a&lt;e\xaa\xe9ze\xc5\xcd\xce\xab\x19\x1b\x89\x88\xef`\xc0g\xa61\x8c\x8e\xf9"\xbc\xef\xf6y\xf8\x91\x7f\xae\xf8\xb6\xfe\xc2{\x87\x98!h\xc3q\xb6]\xec\xac\x0f^\x80\n\xfa\x1b\xe1\xa6\x9b\xa8\xea\xfa_\x88\xfc?e\xe1\xb9\xf5\x06\xbd\x9e\x18\xbe\xcd\x15\xa8.\xd9\x94\x14#\x9d\xc7y\xf3\x00 rq\xf5\xae\'\xe2?\x80t\xa3\xf1\xae\xf2}\x1b\xc3\xd7Vq\xd8\xb0\x8f\xec\x8b\t\x8d\xd2FP\x16\x11\xbf\x04\x9f0\x95\x03\xdb\x9cW\x89|U\xf8\xb7k\xe1_\x88\x9a\xb7\x87J\x16\x92\xce\xe8\xc5pQF&lt;\xd0\x07\x99\x8ezo\xdd^eh`\x8e\xe2&amp;ke\xfd\xdc\xe1\xdeA\xf7\x98r\n\xfd1\x8a\xf7\xbf\xd8\xdf\xf6\xf6\xf8\x99\xfb#Y\xde\xf8WG\xb4]W@\xbb\x1b\x93M\xb9\x90\x83\x04\x9bFY[\x9e\xad\x93\x8fz\xfbk\xf6m\xf8\xcb7\xed!\xe1i\xbe&amp;K\xa65\x8c\x9a\xce\xa1q\'\x92\\7\x94\x91\xbf\x96\x13\xaf\xacg\x1e\xc4{\x81\xe8\xda\x0e\x97q\xa6\xeb3y\xd0\xc7\x18\xb8\'\xccu\xfe&amp;\'\x93\xf8\x9a\xd4\xb4\xf0&gt;\x8d\x07\x8b\xad|@\xf6QM?\x91\xe4\xc3\t@77\xf0\xbb\x7f\xb2I$\x9e\xbe\xd5\xf1?\xfc\x14\x9f\xfe\t\x03\xf1\x80\xdc_\xfc]\xfd\x95\xbc_y\xe6_\xec\xb9\xd4\xf4\x08\xb5\x9b\x80]\xb9\xf3\x8c\x0cX(\xf9q\xf2|\xb89\x02\xbd\xc3\xf6)\xfd\x82?c\x1f\x84\xdf\xb2\x7f\x81\xbe"~\xd4\xb3\xc9}\xe2=n].\xfb\xc5\x1a\x97\x89|O$\x11\xda\xdc\xb5\xbf\x9b-\x8d\xb9GW\x8dr\xe3;\xb9&amp;1\x93\xde\xbb\x0f\x1a\x7f\xc1;&gt;\x00x\xd7\xc0\xfa\xaf\xc5_\xd9\xab\xc6\x1e \xd3\xaf5\x99\'\xbb\xf0\x9e\xa7\xe1\xaf\x10\xbc\xfap\xb61\x95\x8a\x1c6\xfd\xca\xad\xb1\x89$\x92\x06r\xc7\xaf\x91|r\xff\x00\x82hj\xba?\x8e4\xbd\x1b\xe0\xef\xed)\xe3\x04\x81\xe4\xbd\x87\xc4:\x8e\xbc`\xb8h\xd0B\xefl\xf0B\xb1(Uivd9\xe0gi|\x0c\xfcI\xfbL\xfc&gt;\xfd\xa9\xfe\x00\xf8Fo\x89\x97&gt;&gt;\xb1\xd4t\xc9u9`I\xad\xd1\xd6\xe1UI\xfd\xfb\xa0A\xb5O\xf1w\x04\xe3\x15\xc5~\xc9\x9f\x1d\xbfi?\xdaK\xc5\xd0x\x0b\xc2\xbf\x0c\xa6\xd7\x84\xd8[\x89\xca\xb4qZ/\xfc\xf4i\x18\x01\xef\xc6O\xb5~\x8cx\'\xf6/\x8b\xc2\xfe\x15\xb0\xbc\xf1|\xed=\xed\xbe\xe9.\r\xbd\xc11\xc4\xe5\x008c\x87pH&lt;1\x03\x1f\xc3\xda\xbeo\xfd\xb8\xaf\xb4\xed\x02\xde\xf3O\xb4\xb3+2\xcc\xc6\x18\xe1\x8bb\xfc\xc4\xe4mQ\x83\x8c\xf6\xe2\xbc\xc3\xf6N\xb3\x9bH\xf1\n^_\xa8\x18!\x9e\x05\x18r\xbbp\x08\x07\x8f\xd6\xbe\xf5\xfd\x9d&gt;\x15|\\\xbb\xf0\x91\xf8\xa1\xf0\xdb\xc6\xb6v\xbaT\xd7)e\xad\xdb\xfd\xb9R\xea \xb2\x17YB\x15/\xc3\x93\xb4\xaf\x18=\xab\x84\xfd\xae\xff\x00\xe1(\xfd\x9c\xfcK/\xc6\xaf\x8e\xde:\xd15MV\xea\xe2H|\x13\xe1M2\xe1\xdf\xec\xb2\xeda\r\xd4\xec\xc8\xa5\x9b\x88\xdc\xfd\xe3\xb8\xb7\xe3\xf0Tk\xe1[\xd3%\xef\x8a\x1a\xfa\xebQ\x9ei$\xbc\xb8TS\xe6;9%\xb9a\xebU\xa2\x07y8\xefV#\x924\xfb\xcak\xed\xbf\xf8&amp;\x97\x8a\xe0\xb5\xf8Vt\xf9\xe2$\x8f\x11]\xc5\x1e$\xe8\x08Y0}3\x96\xc7\xd6\xbe\xd2\xba\x92\xd6\xe6\x18$\x00m\x11/(s\xda\xbaO\x0b\xe9\xb1\xeb\xb0Y\x94%e\xb7\x98\xb4R\x9e\xa5W\xf8O\xb5z&gt;\xb0\xb6\xbe\'\xd1\xcc\x1a\x8d\xa5\xbb3@&lt;\x85\xf2\xb6\xacd\x8e\xbcw\xf7\xef^#\xf1+\xe0\x7f\xc3MGD\xbc\xd3\xfcg\xa2&lt;\xf2\x16&amp;\xddd\xb7W\xb6\x91\xcf\xde\x95\xd4\x92\x03u\x03\x8e\x87\xb7J\xf1\xd9\xbf`\xaf\xd9\xea\xe2\xd6\xc8h\xd6\xd7^\x1f\xb0\x13\xcd4\x96~\n\xf1\x9d\xdf\x87\xce\xe6%\x8b\x1f\xb1L\xaa\xed\x93\x9c\xb2\xf3\xde\xbc\xaf\xe3?\xec\xa1\xe0\xed\n{_\x13\xda~\xd3\x9f\x16\xda\xe6\xd1^;Ko\xf8Y\x93\xde\xc9\x1a\x92O\x96&lt;\xcd\xc0\x0eH$\x868\xe8\x05q\x16_\x06\xeduO\x87zg\xc2]GC\xd5u?\x0eh\xbfh\x8a\xd6=n\xe4\xbb\xcb\x14\x92n\x1el\x9c4\x98\x18\x1c\x8ek\xdf\xbfg\xcf\x87\x9e\r\xf8e\xe1\xc8t\xff\x00\x0c\xf8r\xd2\xca9\xe5\x12%\x9d\xac!"\x04\xf3\xd3\xae?\x1a\xf4\xff\x00\x8c\x1e.\xd2\xbc9\xf0\xe6w\xd4m\xe3I\xee\x13\x0c"\x93\x19 q\x81\xda\xbf/\xff\x00h\rf\xf3\xc7\xff\x00\x17\x96\xc6\xea0\xcf\x15\xeb\x89"\xc1#i$\xa9\xc8n\x80})\xff\x00\r\xe5\xb2\xb1\xf1hY@_\xb2[\xc8\xcf\x1a\x9c(b\xac\xc0\xe79\xfe\x1e\x9e\xa4V_\x84?k\x0f\x8d\xbe\x02\xbe\xba\xd4\xbc5=\x9f\x9f&lt;\xcem\xb5\t\xe6s&lt;\x111$(\x00m\xe0\x11\x81\xdb\xd6\xb9_\x88?\x11\xfcw\xf1\'^\x7f\x13x\xd7\xc43\xea\x17,\xc8RK\x97/\x8e0\xcd\x83\xf7I=\x85cG\x1ck\x1a\xaa\x96`\x00\xc1n\xa7\xebS\xc3\xb0\x1c\x11N0\xb19\x04s_H~\xc2^ \xba\xb1\xd2&lt;M\xa2\xdbM\xfb\xdb\x0b\x9b]Q\x08?(\x05Ll=w\x10\xa7\xdb\xde\xbe\xf4\xf8c\xe2KO\x12x`\\Ex\x08\x10\xa8Vs\xd0\xe0|\xb8\xeb\x91\xdf\xb5z\xe7\xc3\x99m\xb4\xfbKa;o!\t-\x1f \xe4v\xce+\xa5K\xe7\xc6\xc4\'\x03\x81\\w\xc4\xef\x15\xdf\xdbZ4S\xd8$\xc8\xb9\n\x07\x03\x03\xd4w\xaf\x16\xf1\x16\xbf.^\xea\r6$G\x90\x05\x8cm\x1bNy\xe3\x1c\n\xc2\xd4\xfcY\xa6\xe8\xb3Os\x1f\x86\xe11\xe0\x9f:\xe5\xd5\xbe\x7f\xf6@Q\xfc\xeb\x8a\xb0\xf1~\xa1\xe2}bH\xafbP\x1eV12.\xdd\x80\x9e\x06\x05z?\x84"K\x157\x9a\xa6\xe6\xf2\xa3\x02\x02\xa0r@\xe0\x9a\xf1\xdf\xdb\x0f\xe3*\xe8\xbe\x14\x98\x7fg\xad\xc5\xcb\x98\xa2e\xf38\x00\xca\xc0\xb2\xfb\xe3\x15\xf1u\xbe\xb7\'\x86l\xb5\x0f\x15\xdf\\\xa8\x9eX^\x18\x95\x8e\xe3!\xc9\xda\xd9=8\xaeo\xc3\xfe%\xbe\x8a\xd7S\xd7U\x8a\x89-V8@9%\xd8\xaf\x03\xe87\x03Td\x8c\x91\xb4q\x8fZl\xaf\x1b \x8f\x07 `\xd3C\x80\x00\xc5O\x12\x1d\xdf\x8dN\x83w\x03\xb5}?\xff\x00\x04\xd7\xf0R\xf8\x8e\x7f\x1d\xc9 \n?\xb3\xec \x12I\x90\xbb\x9aY\xdc\x9e;\x05\\}H\xfa\xd7\xd1\x9f\x03|U\x7f\xe1}r\xfbH\xd6\xed\x82=\x9b\x13m+\xf0Z&amp;l\x0f\x97\xa1\x18\xef_Ex;\xc4v\x96:\x84vmr\'\x0c\xfb\x10\xc0r\x07\xe7\x8a\xf4Hr\xd7_g\nr\xdd\x1b\xb5P\xf1_\x87"\xd4\xa20\xbe\xcd\xc3\x83\xb8\xf7\xaf5\xd7~\x0e\xe8\x93\\M&lt;\xd0G\x86\xc9\xdb\xe6\xb6Kz\x81\x8e\x95\xc4\xf8\xd3\xe1\x8c_\xd9\x07O\xbc\x84\x08\x94f0\x84\x96\xcf\xbf\x15\x8d\xe1\xdf\x86\x9au\xb2\xc3~m\x88U\x01]\xf1\xc6\xecsX\xdf\x18|wg\xa0D\xd6Z]\xfcq\x8be\xdb)c\x8cc\x8e\xdfJ\xf8\xcf\xe3\x97\xc4\x7f\xf8M\xfcMs\x147\xc1\xa0\xb6El\xb9\xf9w\x07%\xbag\xf0\xfe\x95\xf3\x87\xc4\xdf\x13\xdck\xfa\x8c\x1a&amp;\x98]\x95d\xfd\xd9Lcnx\xcf=q[\x96Zm\xcd\x96\x95a\xa7\xdc(T\n\xf3\xe3\xb9n\xf9\xfch9i\x08\xef\x93\x9a\x8aH\x1c\x12\xd9\x1c\xd4g\x83\x8a\xb8\x9f|\xfdMI\x17S\xf5\xaf\xb7\x7f\xe0\x94\x16\xd0\\\xf8\x0b\xc7R\xcf\x10f\xfe\xdc\xb5\x8bq\xeb\xb3\xec\xa1\xb6\xfelO\xe3^\x99\xf1R(\xf4\xef\x89)%\x92\x08\xcbi\xa06\xde\xe0\x1e+\xb9\xd1\xb5\x1b\xd8\xbc/\x1d\xe4W,\xb2\x86\x048\xeb^\xe7\xe0mN\xfe\x7f\x03\xe9\xd7\x93]3J\xcb\x1e\xe9\x0fS\xf2\x8a\xdc\xd5e\x91\x99\x98\xb9\xc9\'5\x838\x13_\x03(\xce\xd3\x81\\o\xc59]/cEl\x02y\x00W\t\xafjw\xf6\x9a-\xcd\xad\xb5\xc9H\xc3\xb3\x05\x00u\xcfZ\xf9#\xf6\x92\xd7\xb5\x88\xe6\xbc\xd9~\xe3\xcdVi:rI$\x9a\xf97Y\xbf\xbc\x16W\xac._.\xcc\x18\xe7\xaf5\xc0\xfc&gt;E\x9f]\xb9y\xb2\xc5.\\),x\x1b\x8dz\xd7\x8f"\x8e\x0b\r\x05\xe2P\xa5\xf4\xbc\xb1\x1d\xc9\xc5s\xeb\xfe\xb5\xbf\xde4K\xd3\xf0\xaa\xcd\xd4\xfdk\xff\xd9'</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Mark.jpegSundar Pichai</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00A\x00A\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfc\xf4\xde#P\xad\xd8c\x8ad6\xcf,\x85\x94\x8f\x98\x923]\xaf\xc3O\x02\xc7\xe2K\x97H\xc2\xfe\xea"\xf3H\xe7\x08\xb8\x19\xc6}I\xe0{\xd7P\xda\x7f\x88\xed4K\x93\xe0\xef\x08&amp;\x97\xa6[\xc9\x14\xba\xb7\x8b.\x9c\xb3\xaf,\x8a\xaa8P\xad\xb1\xc0\xceO\x1c\xf1\xcd{\xd7\xec\xe5\xfb4~\xd1?\xb4\xef\x82~\xdb\xf0\xae\x19t\xff\x00\x07\xcc\x05\xac:\x8e\xbd#[\xfd\xbd\t\xcb\xcc\xa5\x15\xdd\xf3\xf7\xb6\x15U\xe7\x00\xd7\xd9\x9f\t\xbf\xe0\x96\xbf\x05|3ocu\xf1W\xc4z\xaf\x8bd\xb6\xc9\x1au\xbe\xa3&gt;\x9f\xa6\x93\xb0\x00|\xa8YZQ\x91\xf7d%q\xfc=\xab\xe8\r\x1f\xe1\xe7\xc3\xaf\x08i#J\xf0\x8f\x834\xdd&gt; v\x9bh4\xd8\x04E\x07\x00}\xcfOj\x8e\xf7\xc1\xbe\t\x90\xf9\xa3\xc1Z3\xbf\xf0\xb4\xbaL\x05\x93\xd9N\xce\x07\xa5W\xff\x00\x84G\xc3\xdf\xf4/\xd8\x7f\xe0\x1c?\xfcn\xbf\x9e\xb9#g\xe8EY\xd3m\x04\xbdn\xa2R?\x85\x89\xc9\xfd+\xd1l&lt;[\xa5i\xbf\rt\xef\x83:-\xab6\xab\xe2\x1d]\xde\xfe\xe9\x14\xec\x11\xcb\x18H\xc1\x90r\xac\x8c\xac\xc1q\xd4\xd7\xbe~\xcb\xbf\x0c\xb5\xdf\xdb\xa7\xe2\x87\xf6\x16\xadl\xf0\xfc&amp;\xf8cskc\xa85\xb8\xf2\xd7\xc5\x17\xca\x13lR\x1e\xef\xe5\xa8\xdc:/\x99\x9c\xe4\x91_\xa9\x9f\x0c&lt;#\xa7i\x1a\x15\xbe\x9b\xa7ipA\x05\xb5\xb4q[C\x1f\xc8!UP\x02\xaa\xa8\xc2\xe0\x0cWb\x9aE\xd2[y\x89\x96U\x18\x05\xba\x91\xebU$\xb1\x9aNAQ\x9e\xc4\xd5{\xad:x\xd7,\xcb\xf8\x13U\xbe\xcf\'\xb5\x7f;1\xc4\xd2\x9c)\x1cu\xc9\xc7\xe9\xd4\xd7A\xe0\xbf\x03\xf8\x97\xc56\xd7\xda\xd6\x9f\xa3\xab\xdb\xe9\x16r\\\xde\xdd\x10vA\x0c\x7f\xc4\xf8\x19\x19\xe3\x1cs\x9cu\xce;\xaf\x86\x1f\n\xbe"k:\x95\x84\x9e\x13@n\xb5\xadJ\xde\xdeKp\x81\x94]\xb4\x9b-Dj3\xb9\x81bX\x8e\xc3&gt;\xb8\xfdS\xfd\x9c~\x07xK\xf6|\xf8A\xa3| \xf0\xf5\xba\xca\xbau\x80]R\xe8|\xa6\xfe\xfd\xf0\xd7WM\x8e\xad,\xa5\xdb?\xc2\x02\x81\xed\xf4\x1f\x81LgI\xfbR\xa9\xd9\xf7Fz\xd6\xf4\xba\xd3[Y\x9b}\x99\xe3\x8e+&lt;]\xc2\xc3sH\xa0\x9e\xa35\x1d\xed\xf5\xa9\x8c(\xc9\xc0\xebT\xfe\xd5m\xfd\xd6\xfc\x85\x7f:\x911\x0f\x1c\x8a\x85\xd6B@p7`\x8e\xa3\'\xa7\xeb^\xa1\xe1\x1dC\xc6v_\r5\x7f\x02x\x19.\xda\xeb\xc4\xf6v\xedwme\x18\x92{\x8bt\x95\x91!!\x88\xe0\xcb,\x92du\xda\x01\xe0W\xd1\x9f\xf0K\xdf\x08\xe8\xfa\x87\xc4\x03sui+\xdcx\x01n_O\x9aY\x88\xdb$\xc8R\xdd\x8f\xa7\x94\x8d\'\xcd\xc9%\xf3\x8e+\xef\xcd\x0e\xea;\x9d\xac\x8c\xa7p\x07*0\xa7\xe9\xed^\xab\xe0\x99\xad\xed&lt;0\xabp\xdbK8\xc15v\xfeR\xe0\x91\x0b\x05?u\x89\x18#\xd7\xadS}1\x0b\xa9,I\x90n\x18\xf7\xaa\x1a\x94\x17\xb6\xee\xd1\x95!U\x88\x04\xe6\xa8\xf9\x97?\xdf\x1f\x99\xaf\xe7\xf3\xc3zb\xea:\x94\x0bz\x8f\x15\x9a\xca\x1eUR2J\xf4#\x9e\xfd\xfaW\xb4|\x1d\xf8\xad.\x8b\xf1__\xf8\x8b\xe1}2\xd6mKM\xb6\xd2\xf4{8\xdb\xeeA,\xea\xe1\x02\x81\x9c\xb0\\0\'\x1f6~\xb5\xf5\x1f\xfc\x13\xcfD\xd1&lt;%\xf0\xdfT\xbf\xbf\xb8\x91n5\xc9a\x9e[\xa6\x00I4eA^\x87\xbeA\xeb_Q\xe8\xfa\xbc\x1a&gt;\x9f\xfd\xa1v\xe1!\x89H\xc8\xf4S\x8e+\xa8\xb0\xf8\x9d\xa2\xdeY\xc5\x02\xeb\xf0\x08\xa2#r\xab\x12p=\x87z\xa1\xe2o\xda\x97\xc3\xbe\x1f\x9c\xd9i:\x1d\xdd\xeb#\x15\x05\xa3\xc2\x9cq\xdc\xd5O\r\xfe\xd6\xb2j\xb7\xff\x00\xbd\xb4K_-\xb1\xe4\xcd\x80F;\x0c\x13\x9a\xf4]\'\xe3\xa6\x97\xaf\x18\xe1\xbc\xb2A\xbdA\x04\x01\xdc}kc\xfe\x13\x0f\r\x7f\xcf\x18\xbfJ\xfev!iwlxS\x00\xe0\x15\x94\xe4\xfe\x95\xdd\xf8OB\xbe\xf8Y\xe0(\xbc{\x01d\x93\xc4~0\xb0\x8d.\x87\xcf\xe6\x18\xa3yQ@\xeb\xb9F\xe4\xcf\xd2\xbe\xc7\xfd\x94\xefD\x1e9\x9f\xe1\xd5\x8c\xf1\xcf\x1d\x9d\x8d\xa9\xfb6\xfc\x98\x11\x90\x15_\xc0`s\xe9_Mx\x82\xc6\xeb\\\xd4`\xf0U\xb4\xaa!6\xad$\xcf\xbb\x807\x0e23\xc9\xfe\x87\x9a\xee\xb4\xb8~\x0b\xfc(\xd0\x93P\xf1\t\xb3\xd3\xa4p\x15~\xd9(y\xa7|\x1c\x15\x8dr\xcc[\x04\xf0\x0f\xbe*\x97\xc4\x0f\x89\xff\x00\x0b\xff\x00\xb1Z\xe3\xc4\x9e\r\xd6\xa1\xb7BS\xed\x8b\xa2\xaaF\n\x8f\x98d\xb09^\xe3\x19\xf6\xaf\x1d\xbf\x8f\xe17\xc4k\xa7\xd4~\x18x\xb6\x0b\x99\xed\x1b\x17v\x91\xb9\x13[\xb6\xc0\xfbd\x8f\xef\xa9\x19\xdax\xe1\x81\x06\xb7\xfe\x12\x9dv\xf7][mF)|\xa4uD\x00\xe4\x91\xda\xbd\xfb\xfe\x15\x8d\xd7\xf7$\xfdk\xf9\xfc\x8eX\x16u\x8ek\x94\x8fw \xb1\xc8\xfd3\x8a\xec\xef&gt;*\xc1oy\xf0\xeb\xc0\x9a\xc5\xc4Wv\xb0\xea2\xdf\xc7\x1e\x9d\x19,\xc2%\x9a6R8\xfd\xe7\xcc\xa4\x1e\x84s\x9a\xfa\x9f\xfe\t\xcdju\xcf\x8dz\xa7\x88o\xadb\x16\xb0[y\x96\x93\xfd\xa1\xfc\xcdAB\xe0\x8cm\xc3`\xf0\x0b\x11\x9cW\xdc\x90\xf8z\r\x0bL\x83\xc4\'i\x17\xb22G\xb7\xa8\x8a0F=\xba\xb7\xe9_\'|V\xd7\xff\x00h\x0f\x88?\x13\x8e\x9d\xe0=\x06\xf2\x1b\xadS\\k\x7f\xf8I"\xb2\xcc~\x1f\xb0T\xdaZ0s\xbeY\x89s\xbb\x807\x03\x91\xd0|m\xe2\xbf\xd9\xbb\xf6\xcb\x1f\x17?\xe1\x15o\x84\xba\xa6\xab\xaa\xcb\xab&lt;\xd7~8\xbe\xf1&amp;\xaa%\xb6T\xf3\xa3+\xb7\xcd\x10\xba\x94\x118\xc2e\x9a!\x9c\x06$}]\xa5\xfe\xce\xdf\x1b\xbc9\xe1\xaf\x0bj~\x1b\xd55\x1f\x15\xeb\xf6\xda\\\x07P\x8aRc\xbb\xca\xe0H\xca\xcf\x90\xd9\x1f\xf2\xcaN\x87\x8d\xc7\xa9\xfbw\xf6\x7f\xf8g\xff\x00\x08\xe7\x81\xad\xbc{\xe2\x89\xa4\x8a\xe6\xecF\xe2\xc6\xe9\x02\xcbf\xd8\x07d\xaa\xa3j\xb7l.FG\xa5z\xcf\xfc.\xb6\xff\x00\xa1~\x7f\xfb\xf6\x9f\xfcU~\r\xfe\xcd^\r\xf8K\xe3\r\x7fX\xf1/\xc7_\x10\xea\x90x[\xc3VPO\xa9\xff\x00e\xa6$\xdb$\xad\x12\xa9\xca\x81\x8d\xcay\x04\x9cs\xd7\x8a\xf5\xcf\xdb\x0b\xfe\t\xf1\xf0\xff\x00\xe0\xf3\xf8\'\xf6\xe0\xf8\x03\xac\xbe\xbd\xf0\xcd.\x92}E[Z\x13\xad\x9d\xac\xb0\x9f\xf4\x98\xce\x171oT\x05\\\xab\x82\xc0\x15\xcek\xd8\xff\x00\xe0\x99\xfe\x18\x87A\xd0\xb5\xfdn\xf2?1ZKk[[\x96\x88\xa0\xf2\ny\x88\x8a\xa7\x94\xc3\x1c\x1fj\xfb\xcfF\xf0\xdd\x97\x89\xfc\t\xa6\xa6\xa7\x80d\xb3\x85\xe7Hy1\x9d\x80\x90\xbe\xe4\xf5\xa6\xdci:o\x85\xac\x8a\xe9&gt;\x19\x92Q$\x81\x8a\t6\xe1@\xc0\x1c\x0f\xff\x00Uq\xd7\xb1x\xb7W\xbaq\x07\x83\x8d\x94/\x12+*\xdc4\xe7pV\x05\x97r\xae\xd2I\xcfZ\xd7\xf0\xd7\x83\xb5\xedF\xff\x00|Z\x1c\xb1D\x14\x8b\xadB_\x95\xdd\xb7g\x07\x1d1\xfd\xe0r}+\xae\xd4-\xed\xae.\xe1\xd2\xed\xe6y\xa3.\xfe~[&amp;f\xcf\\\xf7\xc5U\xff\x00\x84b\xe7\xfe~\xda\xbf\x16\xbe\x11\x7f\xc9\xb9\xfcC\xff\x00\xb8G\xfe\x96O^\xb5\xa3\xff\x00\xca\x06|}\xff\x00_:\x9f\xfe\x9d\xc5}\x17\xfb$\xff\x00\xc8\x97\xac\xff\x00\xd8f/\xfd\x06\xbe\xc2\xf8e\xff\x00 \x1b\x7f\xfa\xf7O\xfd\x04V\xb5\xcf\xfa\xd6\xff\x00x\xd5\x9b\x0f\xba\xbfA\xfc\xabv\xd7\xfeE\x1b\xcf\xf7\x9b\xf9\xd7\r\xe1o\xf9\x0f\xe9\xbf\xf5\xd6\xe3\xf9\x9a\xd7\xaf\xff\xd9'</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Mark.jpegSundar Pichai</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00A\x00B\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfd\x12\xb4\xf0\xff\x00\x86-\xac\'\xd3\xa2\xd2a\x86)&lt;\xcd\xb1\xac\x08\xeb\xf3t\xe0\x8a\xe7&lt;g\xf0k\xc0&gt;-%\xb5]\x03O\xb9\xce9\x93O\x89\xdb\xe5\xfb\xbb\x98*\x96\xf7\xc8\x15\xe4^3\xff\x00\x82p|\x07\xf8\x85\x05\xde\x89\xa8x^\x1bH\xe6\xb6\xf2 kT\xff\x00T\xbe\xdc\x0c~\xb5\xf3\x7f\xc6\xff\x00\xf8 \xf7\x8b|a\xa0\xea\x1e\x1a\xf8\x13w;\xfd\x9a\x0f\xb5F\x86\xe2i\x13\xe9\x19|\x10~\xa2\xbe\t\xb3\xfd\x95|k\xf03\xc47\xff\x00\x0f\xbcC\xe1}N\xc2+\xbbi4\xedb\xfa8\x1b\xcbg\xce\xe4\x12\x02\x07\xce\x1b\xa1\xf4\xae\x8b\xc0\x7f\xb4\xae\x87\xa6\xe8\xc3\xc3?\x1a\xacm|Q\n^\xb5\x96\xa6dB\x976\xec1\xb6H&amp;\xe0\xba6\xc3\xb90\x07L\x13U\xbe!h\xde\x14\x17\x89\xa9\xfc?\xd5m\xb5M\x0bW\xb3\xfbN\x99r\x93\x02\x19\x7f\xba\x7f\xba\xff\x00\xec\xf5\xaeF`s\x9c\x1ao\x9e\x9e\x86\xbf\xa26\x8eT\xeaEe^_\xbe\x99\xfe\xa1\xb3\xf5\xa2\xc3\xc7\x11\xbd\xbe&lt;\xa7\x12\xfa\x901\xfc\xeb\xd1\xfe\x1d\xfcs_\x03\\\x99Z\xc1gUM\x89\xbd\xc3\x12\xbe\xfd+\x92\xf8\xe5\xe0\xff\x00\x83\xbf\xb4\x14:\x89\xd5|5c\x04\xba\xa4!/d\x16\x88\x0c\xee\xbfvc\x8f\xba\xfe\xb8\xaf\xc3\xcf\xf8*\xff\x00\xecu\xaf\xfe\xcb\xbf\x10\x0f\x8c\xbc?\xe1\xe9\x17\xc3Z\xec\xcd\x1cw\xb0D\x1d,nFq\x809@\xdb\xc6\x0f\xb1\xce+\xc1\xbfg\xb9|C\xaf\xfc@\x9b\xe1\xcf\x81Yg\xb5\x9e\xdd\xee\'\xb4.Lr\x05]\xd8\x8f\x08J\xb1\xe8\x18\x0e\xbd\xab\xa3\x9e $\x92%\xb7v\xf2]\xd1\xd90W+\xd4\x02\x0f9\xed\x8a\xa5\xf6q\xed_\xd1U\xc3\xc2\xbdZ\xb8\xbdvi[\xee\x9c\xd6%\xfc\xd3\xc1\xfe\xa26\xfc\xaa\x97\xf6\xc6\xbb\xfd\xe6\xad;\x1f\x18j\x16_\xeb\xa0_\xc0\xd7\x97\xfe\xd0\xbe\t\xf0O\xc7/\n\xeb\x1f\x0c~%\xe9\xa2\xfbG\xd7-\xe4\x82\xe9cm\xb2\xc5\xbfv&amp;\x8d\xbf\x86E\xf9q\xf4\xeb_\x8c\xdf\x1c\xbc/\xf1\x17\xfe\t\xfd\xfbU\xdch\xa9\xf6\x97\x93B+&amp;\x87\xabElcK\xbb\x17\x05\xe3g c\xee\xab\xa9\xea7#\x0c\x9e3\xea\x7f\x1b-|)\xe3i\xa3\xf8\x8f\xe0\xfd\x12;\x03\xae$Oycf\xe6+x\xa6 \x160\xa0\xce\xd1\x86\x07\xfaW\x9ey\x0f\xea+\xfa\x03\x17\xb3j3\xfd\x9e\xd2`\xe7\xd7\x9cUIt\xeb\x8bo\xf8\xfc\x87w\xfb\xa4\x1f\xe7W\xf4\xef\r\xda]\x7f\xae\xd9\xf8\x9ae\xf7\x81\x8e\x9d\xff\x00\x1fV\xca\xbf\x85y\xff\x00\x8cn\xed\xb4\xdf3\x82&lt;\xbf\xbd\x81\xd6\xbc\xa2\xe7]\xb8\x9fR\xfd\xfc\x87\xf1\xaf\x00\xff\x00\x82\x85\xfe\xcd\x1e\x19\xfd\xa2|\x0b\xa5x\x9a+x\xado\xbc94V\x9a\x8d\xcb\xa3\x15\xbb\xd1\xa6,%\x8d\x80\'\x0c\x934R\xa9\xf5\xca\xe4\x03^#m\xe0/\x0c\xe8_\x05u?\x871As\xa8\xeaZ4q\xbd\xc4S\xdb:\xc7 R\x8av*\x82S\xf7`\x8e\x1b\xa8\xfck\xc2\xde\xda\xc67(\xda\xf5\x90*pF\xe7\xff\x00\xe2k\xfa\x03\xd4\xfci\xe0\xa8/|\xe5X\xed\xd7\xd60+\x1f]\xf8\xc1\xe0H?\xd6\xdaB&gt;\xb2W\'{\xfbD|;\xb2\xe9\xae2}c\xc5m\xf8O\xe3\xf6\x91\xaa\xcam\xff\x00\xb5`\xbc\x91~\xfa\xc8\xe1v\xfe,@\xfc\x8dT\xf8\x91\xa2h\xbe \xd3o5=\x12R\xca\x8d\xb6H\x9a6\x0e\xad\xfd\xd3\xc6?\\{\xd7\xce\xde.i\xaco\xbc\xd4?.3\xb8t\xdb\xfd\xef\xa5r\x1a\xcf\x8c\xe2\xd6\xfc\x11\xadi\x13J\r\xbd\xfe\x9f&lt;\x0e\x0e2!\xde\x8d\xff\x00}a\x17\x1f\x8f5\xf2_\x80&gt;.\xc1\xa2x\xb3F\xd2\xa36\xf7v\xba\x86\x91$\x17By\x9ft7\t+3\xa3\x1e\xe4,q\x8f\xab7\xb6y\xed_\xe1\xbf\x88n\xb5[\xab\x98~\x11\xdc:Ip\xec\x8f\x12!F\x05\x89\x05N\xee\x9e\x95\xfa\xf9\xf1\xfbG\xff\x00\x843\xc3\xd2M=\xa1G\x8f\xef\x15?\xca\xbe\x1d\xf8\x9d\xfbAx\xa7V\xd5\xce\x89\xe1\xdd\xcfp\xb7_g\x91T\xe4#\xee\xdb\x93\xb4\x9f\x97\xbe\xee\x98\xa8&lt;=\xfb&gt;|U\xf8\x8fg\x15\xf7\x8a\xfcT\xb6\x0b4\x06e\x8de*\xe1GL\xa9`F{W\xa5x\x07\xf6CM\x1fO\x1a\xad\xbf\xc7-N\x19Q\x99|\xc8%\x0b\x0c%z\xe49\xc1\xfcM]\xb8\xf8\xd3\xf1\x8b\xe0XK\r_S\xbd\xd7\xb4\xd8d\xf2nnZL\xbc\x9f\xec0\x1f\xcf\xaf\xb5_\xf8\xa3\xe2\xaf\x0f\xfcO\xf0\xac~:\xf0\x85\xf2\x82\xf2\xaa&lt;0\x91\xb67e\xdc"lt\x1d\xbe\xb5\xf2\xa7\xc5\xff\x00\x89\xf3xa&amp;\x83K\xbe0\xc7%\xd2"\xf9\xa7\x1f/\xf1t\xcfZ\xf9SZ\xf8\x93\xa2\xe8\x7f\x18\x9dtUg\xd3fa&lt;!@\xdf\xe6#*\xbc\x83\x9ca\xfel\xf3\xd0\xf4\xafe\x82\x1d~x\x12};\xe2\xb4\xb0[\xba\x06\x82\x11t\x08\x8d\x08\xf9W9\xec0+\xf5\x0f\xf6\xd7\xf1\xbd\xf6\xaf\xa4\xbd\x82jl\x8fs\xfe\xac\xe7\x81\xf5\xaf\x95uo\x80\xdaw\x81t]S\xc7I\xe2\x18\xf4\xeb=\x19|\xcb\x8b\x9dJ9\xae\xe5\xb9}\xa3\xe5\x0b\x14d\x91\xb9\x81\xdb\xd3\xde\xbc\x8f\xe2\xb5\xff\x00\xc4\xed\x0b\xe1\x85\xf7\xc6)&lt;9\xa8]\xdbE\xb1m[\xc5v\xc2\x1b[\x99&lt;\xb9\x1d\x04z|ci\x8f\x11\x90L\xbb\xceYx98\xe4\xfc;\xfbex\xdbP\xf1\x85\xa7\x85\xbc\x01\xe3\xaf\x06|I\xd2M\xc5\xdd\x9e\x9b\xa9x\'\xc3\xd7\xfe\x1a\xbd\xb5\n\xe1cq\xbd\x17\xe6\x95Ht\xdb,\xbf)\xcbl9\x03\xd1\xb4/\xda\xb2\xdf\xe2\xad\xbc~\x1b\xf1\x0e\xa7-\xfc\x17n_M\xbf\xbbUYw\x8f\xbdk2#\r\xb3/w\x1b\xbf\x1a\xe9\xbfg\xebMSP\xd45\xed"\xce\xf4\xdb[]\xdb\xc7,\x16\xf31\xd8\xb2\xac\x98/\xc6y\xc5|\xd5\xfbc\xcf\'\x87~!]\xe8Z\xd5\xda\xc7ke\x08\xf3R9\x01m\xe4\x801\xcf\xa1\r\xf45\xf3\x17\x82\xf5K\xbdm-\xb5{X#i\xed\x0b\x98\x96Bw\x1d\xcb\xf7N3\xf2\x86\xeb^\xe5\xa6x\x93Zm6\xdd\xa2\xf0\x96\x9aT\xc0\x85J!\xc1\x18\x1d=\xab\xf5{\xf6\xc1\xd2\xde\x1d2\xd7V\xc3\xb4F]\x80\x05 \x93\xff\x00\x02\xc5b|\x1f\xf1,\x96\xb7R\x9b\x1b\xf3\x1d\xc42`I(\x0e\x9eW\xcb\xf2ln\x1b\xee\x9eMk\xfcY_\x02k:,\x9aO\xc4\xdf\x00E\xa9\xe8\xab\x14b[_\xb2\xc9,H\xea0HE9\xc6\x00\xfb\xac{\xd7\x83\xd8|\x04\xff\x00\x82ui\xda\x91\xd6&lt;\x11y\xa0i\x17\xae\xe1\xe4\xd3\xee\xef\xae-~b\x85d"\x19\x82\xb0\xc8%F\xd0\xb8\x0cq\xd0W\x8b\xf8\xdb\xe0\xaf\xc2_\x87\xff\x00\x19,5\xbf\x87Z\xe0\xbf\xd3.\xe4\x17\x1a\x8d\xbd\xa1,m\xeeG\xfc\xb5G\xe0|\xdf\xc5\x92?\x1a\xf7?\xd9{\xc1Z\xc7\x84\xb5\xf8$\xf1\x05\xa8\x90\x94\xf2\'G?0m\xfb\xb3\x83\x82F=+\xe5\x7f\xf8)g\x85\xf5H\xbfk\x0f\x10\xf8[\xc3\xda4\x02}KE\xd2.\xf4\xdb(m\xf7\xbb\xc95\xbc\xa8G8\x03\x02\x15\xcf=}k\xe5_\x86\xde\x1c\xbb\xb6\xd3\xe6\xbd\xd2\xde5\x92\x14,\xc6f*\x0b1P\xc8\x01\x1b\x83a\xb2\x01\x03\x80k\xd8\xb4\x8b\x8f\x11\xe9\xdaM\xae\x9f\x1c\xf6!`\xb7H\xd45\xc0\xce\x15@\xe7\xf2\xaf\xd9/\xdbo\xfeI\xed\x9f\xfd~W\x83|4\xff\x00\x90\x9b\xd7\xae\xc3\xfe\xb7G\xae\x13\xe3w\xfc\x8e\x82\xb3~\x05\x7f\xc7\xfd\xedex\x83\xfeG\r+\xfe\xbf+\xe7_\xdb\xef\xfeO\xc7K\xff\x00\xb1+J\xff\x00\xd0n+\xe2\x7f\x01\x7f\xc7\x9f\x8d?\xec7\xff\x00\xb6\xe2\xbd?I\xff\x00\x90U\xb7\xfd{\xa7\xfe\x82+\xff\xd9'</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Mark.jpegSundar Pichai</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00!\x00\x83\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xf1\xcf\xd8\xc3\xe1\x96\x99\xe3\x8f\xd9\xff\x00\xc40_\xe9\xec\xe3Q\xf8\x8bcks(\x0e1\x15\xbd\xa7\x9c\xa18\xe3\xe6vb{\xed&gt;\xbc}\xa7\xaf~\xc6\x16w_\xb0\xe7\x8a&lt;\r\xe1\xf8\xecDW\xba\x1d\xec7vJ6\x89\xae\x9ft\xcb&amp;\xdcw 9\xf7\xef\xde\xbc\xdf\xf6"\xd5u-O\xe1\xcd\xfd\xe5\xcd\xbc\xb0Ki\xad\xcdat\xb3!\xdc\xed\x18R\xa7\x1e\xea\xeb\xcf\xbd}\xb7\xf0\xcfJ\xbb\xb8\xd3\x12\xdfM\x88\x86H\x95v\xe78\xc0\x1cV\xbe\xa7\xa0]\xda\xee-\x1b\t3\xf3\xf3\xdf\xbdCi\xf6\x98\xce$\xb8\xdb\x8e0j\xc6\xa3\xab[\xdb\xday\x1a\x8e\xa6NG\xc9\x14}\xc7\xbf5\x8f\xa7\xc5p\xd7\xf1\xde\xe9\xf6\xe1\x04,\xc62_\xa6\xee\xbd\xab\x03\xe2\x07\x84|/\xe2\x89uO\x08\xea\xda\xd4\xb6\x9f\xdazfmY\x17p\x17;}\t\xe8Oz\xf8\xd3M\x80xO\xc5\x97\x1e\x07\xd7\xd2X5].\xf0\xc38\x94\xa93\x05b\xbb\xc6\x0f!\xb1\x9e\x9d\xeb\xdc&lt;,\xb2\xde\xc0\xf6\xf72\xc8\xca\xa3h\x0c\xab\xb9@\xe3\x03\xe5\xe3\xf9\xd6\xe6\x9d\xe0\xeb\xddY\x97OX\xa3X\x08\x01d$\x86\xdb\xdbv\xd2\xbb\x8f\xa9=k\xb5\xd1\xfe\x10x\xaf\xc0\xbay\xf17\x845)\xb0\xd0\x8f:\x18Tm~:\xb0b\xcd\x8fp\xc2\xbc\xd7\xe2\x8f\xc4\xb9\xaf&lt;9{\xa5j\xb6\xb6\xf1H\'+,q\xe4\xeee8-\xcf&lt;\x9es\x9a\xf8\x9b\xfe\nM\xaa\xe8\x1a\xe7\xc3/\x04\xf8\xf6\xe2\xe4[\x9d\x0bV\xbf\xb7\xb6Q/\xcc\xa0\xacnw\xb1\xe4\x86p\xd8\x18\xec=x\xf9;\xe0.\xad\xf0?T\xf8\xb8\xdf\x17\xbe0\xf8j\rK\xc3z]\xbf\xdau]+P\xb8e\x86\xe5\x14\x86O0E\xb1\x9c|\xa5\xb6g$0\x19\xef^\x9b\xe2\x8f\xdb\x1bA\xd6\xfcCw\xa9x\x0b\xf6:\xf8G\xa0h\xaf1]3I\xb4\xf0\xd5\xeb$0\xaf\xca\xa7&amp;\xf39`7\x9fv5\xee?\xf0J\x8f\x17\xdakPx\xd7\xe0\xf6\xa9*\x1b\xc6\xbd\xb0\xd6\xbc5n]\x81v\x869a\xbc^\xbc\xe69\xe3|\xf6\xd9\x8c\x1e\xa3\xec\xbf\xda\x83\xc6\x9e)\x87\xc0\xc7\xe0W\xc2}n\xe6\xda\xf2KYm\x8d\xe4+\x96\x900+\x8f\xf6H\xcf\\\x9a\xe6\xbfgo\x05x\x8f\xe1\xd6\x8f\x1f\x87\xbc}\x02\xa6\xa5\x14\x10\\\xde&gt;\xd0L\xf2\x14A\xf3\x0f\xef\x15D\x05\xbb\xed\xce9\xc5}5\xf0\xab\xc5\xfa~\x89j&amp;\x05\xb2T\x12\x08\xc7j\xb5\xe2_\x896\xef5\xc4\xcb\xb4\xf2\xcf\xcc\x98\xcey\xf4\xaf/\xd7\xfe8\xd9E}\x1d\xb1\xb8Ty\xe6("Iw8$\xf1\x81\x8eG\xbdl\x1f\x1bxS@h\xd3\xc5\xba\xa8\xd3\xafe_\xdc\x8dH\x88\x83\xb8\xea\x06\xf223\xd0\x8c\xe6\xac/\xc7\xdf\x83\xbe\x1a\xd1\xeeg\xd6&lt;]b\xf7\x1bK\xecK\xe8\xd4\x92z\x8d\xacC~@\xd7\x90\xfcR\xfd\xaa\xbe\x1e\xdc[\xff\x00j\xc7\xab\xc3\x1b\xc9\x12y\x0e\xb7(v\xa68\xe4\x90s\x8e\xf8\xaf1\xf1V\xa5\xf0\xeb\xe2m\xdf\xfc\'\x967\xba{\xdd=\xack1\x9a\\Jp\x060\xcb\x8d\xdf^\xf5\xdc|\x19\xf1\xf7\x87\xb5M*;U\x99\xc3F\xaf\x10n[q\x88\xecs\x93\xd7\x90k\xd4\xf4\x9b\xdb(\xecd\x9e\x0b\x9d\xd8\xfb\xa5\x9bi\xc8\xea1\xedR\xa7\xc7\x1dWK\xd3\x9bI\x8bS\xcd\xb66\xa9-\x86+\xdb&gt;\xd8\xed^#\xf1\xdfWK\xc9\x97]\xd3\x91|\xd9\xdc\x89\xca\xb7\xca\xcaOLv\xfa\xd7\xc2\xbf\xf0Rm/X\xf1\x17\x81\xf4M\x13H%c\x87\xc4R\xb3G\xbbp\x8e6\xb7FVa\xc6\xfc&lt;`v\xeak\xcb\xbe\x0f\xfe\xcc\x1a\x87\x8f-[X\x86\xc5f\xd3\xac&amp;\x1eT\x19\'\xedeF\x04\xb2\x0c`\xc6\x110\x06\x7f\x83=\xf0=KJ\xf8\x07p\xdae\xbc\x96\x9a\xee\x94#xU\xd0;\x8c\xe1\x86}}\xeb\x9d\xfd\x8f\xfcms\xf0\xe7\xf6\x9e\xf0\x07\x8em\xeeZ(\xed\xfcOokz\x80\xe3\xcd\xb6\xb8\x94[\xcd\x19\xfa\xab\x8e~\x95\xfb3\xf0\xe3\xc2\xfa4_\x11\xaf\xbcQ\xe2/\x0f\x1dF\xc6\xe2\x16\x96\xd6X\xc7\xdc\x0cA\x04\x1e~`\x18e{\x11\x8c\xd7\x9f\xfcV\xd7\xf4\xeb_\x8c\x1a\xdd\xfe\x99#4Icb\xf1)\xe4\x8c[\xa9 \x8fC\x9e\xb5oD\xf1\xb4\xc3K\x8c\xa5\xf2\xe5\x90\xf9\x92\x84\xf9A\x03\x90\x0fs\xed^%\xfbE\xfe\xd4\xd6^\x0eo\xecm:k\x89\xb5\x0b\xbd\xb1[A\x11\x19v!\xb2O\xf7q\x8a\xdf\xfd\x96\xf4k\x9b\xfdr\xdfX\xf1m\x99\x9e\xe6E\xf3f\xba\x95\xb7\x98\x87P\xa1{c\xa6s^\x81\xfbK|\x1d\xf8\x7f\xfbIxN\x7f\x06\xfcD\xf0\x14Z\xb6\x9f8\xf9\x7ft\x12d\xf4t\x93;\x91\xbb\xe4~B\xbf9\xbfj\x7f\xd9gU\xfd\x93mn%\xf8Uq\xafjzL(^?\x0c\xf8\x97\xfd)m\xcfim\xee\x0b\x07\xc8\xfe\xe9\xe0zW\xc8\x9e/\xf8\xf7\xf1\xa7\xe2D\xb0h\x1aE\xa6\xa5%\xf9@\xa6\xe2\xe4\xa8\x08\xd8\xe7\xe6U\xc7Z\xe9&gt;\x1d\xf8O\xf6\x99\xb4\xd4\xec\xf5o\x12|b\x96\xdbO\x8aD\x8a\xf6\xca)\xdaG\xce\xdf\x9b\x04(\x03\x9e0\x01\x15\xfa\x01\xfb4\xf8\x93\xc4i\xf0\xca\xd2m\x16\xf9$6\xef \x8aK\x96\xf9\xe5V;\xb0I\xea\xcc9&lt;u5\xeb\xde\x11\xf8\xd7\xa2\xf8\xbbO\xb8\xbe\x1a\x9bEsm#$\xf10\xc1\x86L\xfc\xc3\x1f\xc4\t\xcf&lt;W?\xe3\xdf\x88q\xd8\xd8\xbd\xd7\xf6\x82\xab\x0c\xee\x8c\xbe\t&gt;\xde\xb5\xc0\xdb|Q&gt;+\xb5\x9bN\xfbQ\xcc\neb[$|\xca\x02\xe3\xfe\x05\xf8b\xb8_\x8c\x9f\x0b\xff\x00\xe1p\xfc1\xf1\x08\xd3u(l\xb5\r28\x1a\xd2\xe2L\xc8\xbb\xcd\xc8\x12\xee\xe9\xb7+\xbb\xd7\xa5y\xbf\xec\x93}\xe3\xff\x00\x83\xf7v\xff\x00\x06\xbcA\xe2\x99\x1fOIcia\x9dA\x86H\x8b6\xe6V\xeb\xd0\x91\xb7=\xea\xbf\x8c&lt;:\x90\xf8\x9a\xf6\xdfM\xb0\x95\xad\xe2\x98\xc7\tI\x8ccj\xf00\xb8;zt\xc9\xaf#\xd1\xfcE&gt;\x8d\xadXk\x1a`"\xf7O\xbc\x8a\xe2$\xc7\xcaLR\t\x00\xcf\xa9\xc2\xfd6\xfb\xf1\xfb\x89\xfb*\xfcM\xf07\xc5\xdf\x07i\xff\x00\x15\xbc\x15\xe2?\xb6[j61}\xba\x1bK\xad\xc9o1\ndR\x98\x1b\x18\x10s\xeaMp\x9f\x10\xb4\xc8/\xfe!\xf8\x96V8I\xbc\xa6G\x88e\xd0yI\x88\xc8\xff\x00\x81c\x19\xe3\x15\x8d\xe1i\xb5\xcb\x9d#U\xd3\xac\xadA\x9a)\xa61\xc3"m\t\x96&lt;\x01\xea:f\xbec\xf1\x97\xc1/\x88z\xef\xc6\xc4\xb8\xd2\xbc8\x1e\xe6[}\xedsv\x84\x88\xd8\x06\xce\x06~m\xc4\x9ex\xe9\xd3\x9a\xf7\xef\x80\x9f\xb4\x17\xec\xf3\xf0\x9b\xc3\x9a\x9c\x9e,\xf8\xb3\xa4\x9dQ$\x16\xe7Li\x80\x96\x12\xa8\x0b1\x04\xfc\xa3\xda\xba\xa8\x7fn\x8f\xd9\xfe\xea\xe8\xdbX\xea\xfa\x0b\xbb.c\']\x8bt\xcd\xb9W\x01W89l\xe1\xb0p\x0f\x1cU\x0f\x19|G\xfd\x97\xbe&lt;\xe9\xb2x3\xc5\xc2\xcfRY\xd9\x99\xbf\xb2\xb5\x00\xcd\x14x\xeb\x8cn\xea@\xe3\xa89\xe3\xa5x\x07\x8e\xbe\x07\xfe\xc7^\x18\xb1\x97N\xf8}\xe1\xbbS\xe6|\xcf\xfd\x9f\x19\x89\x95O\x00\x91!\xcb\xfc\xd8\x04\x8cz\xfbW\x95\xdc\xfc!\xf0/\xf6\xacqC\xe2\x1b\x18c\xb7\xb9\xccv\xf6\xf3\xb6HO\x94\xabd\x8c\x1e=\xeb\xa5\xd1\xf5]\x0b\xc2\xd2\xc7%\x96\xaf\xe5@\x8aR\x12\xc7\x08\x1b\xa0b3\xd4\x0e\xfd\xeb\x06\xd7Y\xd7\xb4\x8f\x8a\x96\xb7\xdav\xa4\xb7\x96w\xd1\xbcr\xc9n?v\xc5\x178ld\xe7\xfd\xac`\xf5\xcdE\xf1\xbb\xc4\x93i\x1a=\xc5\xd9\xd5$`\xec\xc53\x16v\xf3\xc8\xdd\x9e1\xec\ry\xd7\xec\xd3\xe3\x9b\xfdg\xc6\x17\xb6\xeb3K\x18b\x96\xf2\xb3\xe7x\x91\x83\x96&lt;s\xd3\xf5\xaf\xa8\xfe\x0c\xf8G\xc6\xfe-\xb6\xf1\x06\x81\xe1]\x05\xef^\xea{ux\x9aU\x08Q\xa5\x02"N\x08\x00\xb2\xba\x9c\x91\x8d\xd9&gt;\x95\xc8\xfc\\\xf8w\xa9\x1f\x8eW\r\xaax8\xd8\\}\xa1m\xec\xec\xe5+\x1a\xdc\\8T\t\x16\xdc\x82&lt;\xc2I# \x0fZ\xf9\xab\xe2\xef\xc6\x19t\x1f\x89z\xce\x85\xa7\x114vW\x86\xdd\xa6I8\x91\xd0\x05v\x1cw`\xc7\xf1\xae\x16\xc3\xef\xda\x7f\xd8C\xff\x00e5\xfa3\xff\x00\x043\xff\x00\x92/\xe2o\xfa\xfa5\xee\xda\x97\xfc\x8f\x1e%\xff\x00\xb0\xa9\xfeQ\xd4\xfe\x18\xff\x00\x90\xde\xa3\xff\x00]$\xfef\x99a\xff\x00%kM\xff\x00\xb0t\x7f\xfb5~\x13\xfe\xdb\x7f\xf2q\x9f\x11\xff\x00\xecd\x9b\xf9\x9a\xf7\x1f\xd8_\xfeI&gt;\xb5\xff\x00c\x96\x93\xff\x00\xa2\xe5\xae\xa3\xc5\x1f\xf2^.?\xeb\xe9?\xf4\x9cU\x7f\t\x7f\xc8\xe1}\xff\x00\\$\xff\x00\xd1\xc6\x8f\x14\x7f\xc8KP\xff\x00\xae\xe7\xff\x00B5\xd5x{\xfeE\xf9\x7f\xeb\xd4\x7f\xe85\xbb\xe0/\xf9\x12\xfc;\xff\x00c\x1b\xff\x00!V\xbfn\x0f\xf9\n\\\xff\x00\xd7\xf5\xd7\xfe\x8cj\xf1\xff\x00\xd9\x0b\xfeG1\xff\x00]\x17\xff\x00@\xaf\xb7?f\x0f\xf8\xf1\xf1O\xfd\x82\xc7\xfe\x95\xb5S\xf8\xbd\xff\x00\'o\xe1\x0f\xfa\xf0_\xfd&amp;J\xfc\xe2\xd5\xbf\xe43}\xff\x00_\xf3\xff\x00\xe8\xc6\xaf\xff\xd9'</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Mark.jpegSundar Pichai</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00,\x00\x83\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xf8[\xc1\xfe"\x87\xc2^(\xd1|R\x87tzv\xb1kv\xf1\xa9\xf9\xbfur\xb21\xc7^6/\xfd\xf5\xf5\xaf\xddo\x84\x17\xe7\xc4V\xd6\x9a\xda\\Y\xdci:\x96\x99\x0c\x962\xc9\x19\x12\x04p\x85T\xb60\xca\x00 c\xd2\xbc\x83\xe2N\x9b=\xd7\xc4o\x12\xad\xbc\x87+\x1c)\x07\x98~C\x12\xc2\x80\x10O\x19\xc1\x1c\xf7\xcdf\xf8\x7f^\x88xz\xfaF\x8aY\r\xa4\xb3\x08\xdd[.\xcb\x93\xb4\x9cv#\xb7Z\xf9\x0f\xe3\x13k\xbe\'\xf8\xc5o\x1e\xb0\xb7\x97\xd0\xc6\x82{=:\xde @\xe1\x89\xcf\xa6\xdd\xc3\x83\xcd}\x97\xfb,\xe8\x1ff\xf0\xd5\xdf\x8a\xfcR#\xb7\xb6\xb7T\x86\xdeWu\x00\xb9Q\x95\x18=G\xb5z\x03x\xbf\xe1f\xf9!&gt;*Y\x1a\x15\xcc\xc8\xb6\xa5\xc4C\x81\x86 `r@\xe7\xb9\xaf(\xfd\xa4\xbff\x9f\x85\xbf\xb4n\x81q\xa5\xc7\xe2k-3Q\xb9-\x0cOyg\x8f0`\x9eF0x\xe8ON\x87\x9e+\xe3O\x11\x7f\xc1&amp;\xfe\x18\xfc\x1fs\xaa]\xf8\xca)\xb5\x12\xe7\xec\xf3j1\xc6\x878\xdc6\x85$`\x8e\x99\xc1\xed\xd7\x8a\xe6f\xfd\x9e\xf5\xfby\xd3M\xb5\x8aF\xb7[\xb5k\x99g\x87hq\x8c\x16\x1c\x8e3\xe9^\xab\xf0\xdamO\xe1\xe5\x8c~\x19\xd3\xe7O\xb2B\x84\xb4J\xc0\xb3\xb0\x1bB\xe7\xa6\x0f\\f\xb1\xfc9\xf1\']\xf0w\xc4\x89&lt; \xf6\xd2\xdbY\xea\x8af{r\xd9e\x7f\xbc]@\xe7i\xcei\xff\x00\x17\xfe"\xf8\x87N\xd2\xee$\x9e`\x89\xb8\x98\xf6L\xa1]OBFrx\xf4\x15\xe7\x7f\x02&gt;)\xdd\xf8\x87\xc4\xfa\x86\x95{6\xe3\x18h\xa5E\x07\x0cK\xa9@=0\x07\xe9^\xdb\xe0g\xb2\xba\xf0\xef\x89\xf4\xfb\xc8^Q&lt;\xc9\x10x|\xc6t+(c\xc8\x18\x19\xdc\xc4\x0f\xf6p9\xae\x07\xc6\x9e\x01\xf0\xee\x8f\xf1\xb2\xe6\xff\x00\xc1wRE\x05\xa4Y\x92h\xf2\xf2\x04\xd8\x1dC\xed\xear\xdbGrzf\xbc\xc3\xe2W\xc4\x8d\x07\xc3&gt;9\xd4\xb4;\xc4\x8cOo&gt;.\x14\xa1;$*\x0b&amp;q\xfc,H\xfc+\xc9- \xb2\x17q&lt;\x90\x9d\xdep\xf3\xa4\'\x83\x19\xc8+\x8f\xa6\r}_\xfb\n\xff\x00\xc1J\xbcC\xfb2\xf8z\x7f\x86\xdf\x10\xed.\xf5\xed\t\x10\x1d.c6\xe9\xed\x18(\xf9F\xef\xe1\xce@\x03\xa0\xaf\xad\xfe\x0e|a\xd2?h\xed.\xf3\xe2G\x87\xed\xe6KmV\xf6Qk\x1d\xccg\xe4\x82"#\x03\x18\xecca\xf8g\xa1\x04\xf5\xfe\x16\xd1\xd3O\xd5\xee\xa1\x1ar\xc4.\x8b\x193\x8d\xbb\x89\xe4\x01\xe9\x9a\x96\xd3\xe0\xff\x00\x84\xe1\xf1\xcd\xbf\x8an\xb4X\x18y\x06-\x91 \xdd,\xa3&lt;{d\x93\xcfN:\xd7\xc3\xff\x00\xf0Q\xef\xd8\xb3\xf6\xf3\xf8\x15q\xa8\xfcC\xfd\x9e\xbe"\xf8\x97U\xf0\xdd\xe3\xa5\xd4\xfaD7q\xbc\x9apq\xb5\xf6F\xaaw\xa2\xa8\x07#q\x03\xaf9\xaf\xa2\xbfa/\xf8\'\xa4\x9e3\xfd\x9a\xfc\x11\xf1{\xf6\x94\xfd\xa6|{6\xb9\xe2\xa5\xd35\x0b\x8b+\x1dHZC\xa4Z\xcd\x08\x99\xec\xc38d\x9aNb\'\x03\xf8\x0e\x00\xe9]\x17\xc5_\xf8\'\xdf\x8d|)\xa4k\xde8\xf8/\xfbL\xf8\x81\xee\xe3\x9e\xe1\xfc9\xa1k\x96\xd1_Auf\x10\x88\x83K\x95\xcc\x8d P\xc4c\x19$\x85\x15\xe3\x7f\x1b\xff\x00b/\xda\xe3\xc0\x9e.\xd2\xfc3\xe0_\xda\x03D\xf19\xd4\xe5\xbd\x83S\xb8\xbd\xd0\x1a\xd6\xd3Oh"y\xa3?,\xcc\xd3ouD\x0c\x06@l\xb0\\\x1c|\x87\xf1\xdf\xc7\xbf\xb6\x1f\xc0\xad"O\x1b\xf8\xcbA\xb7].MNK[mN\xda\xf9Z\x17\x90\x12K*\x97$#u\x04\xf0\x01\x1c\xd7!\xf0+\xf6\xd9\xf17\xc6\xcf\x13Z\xf8\x07M\xf0&amp;\xa7\xa9\xea\x17l\x16\xde-\x1co\x927?\xc6\xdb~\xea\xf7\xc9\xc0\xaf\xba\xfc\x15\xfb x\xa4\xe8\x1a^\xbd\xe3\xfb\xb9\xe2\xbe\x89\xe4\x99\xa2p\xb2&lt;,\xc87+\xb7\xcc\xbdr&gt;Q\x9f\xf6\xbb\xd7\x88~\xda\x92\xe8\xbe\x15\xd3\xaf-\xad\xa4\x11\xb4R\xbe\xc8\x15\xc9\x0c\x18\x9c\x0c\xb1\xdc1\xf9\xd7\x96\xfe\xc8\xd6\xf2\xdbx\x89u\x0b\xd4\xd9\x13\xba\x99[v\xe2\x00\\\x03\x8f\xbcG\xbe+\xee\xff\x00\xd9\xeb\xc1\xff\x00\x1b\xf4\xbd(|K\xf0\'\x84\xed\xef\xf4K\xfb\x98\xad.\xb5\x99m\xa3\x94X\xdcE)u}\xcc@]\xa4\x95\xc1\x07&lt;c5\xc8\xfe\xd1\xb0x\xef\xe1g\x8c/\xbe=||\xf0\xb5\x87\x87\xf4d\xbc\x7f\xf8F\xb4{k\xabv\xbb\xd6\xefc\xdcb\x96q\x136\x10\xba\xab\xe0\xe0bLv8\xf8"\xf2\xcbH\xf1e\xfd\xcf\x89\xbcc\xe2r5K\xfb\xa9g\xbd\xc4.G\x98\xceI\xe8\xb8\xefT\xe2\xfb\xe7\xebVb1\x0eY\xbfJ\xfb\x9b\xfe\t\x9d\xe2\xf4\x87\xe1\x1a\xe9\xd3]\xce\xbeV\xbby\x04\n\x1b\x8cdH~\x9fy\x8d}\x91x\x96\xf2\xac\x12\xa3m\xfd\xda\xe5\xfa\x92q\xd4\xe2\xba\r\x03M:\xcaY]Z\xc9\xfe\x91o7\xde\xc7\x0e\x8b\xdb\x9e\xf8\xafG\xf1\x15\x8e\x9b\xe2\x9d\t\xad\xde\xc8D\x04\x1f\xe8\xf1E1\x19,9$\x9f^\xe3\xa7\xa5x\x17\xc5O\xd9\xef\xc2~/\xf0L\xfe\x0f\xf1g\x88.c\xb5\xb5\x98Kk\xa2y\xd2\xac/&gt;6\xefB\xb8\xd8\xaa\xbf(\x00\xe3\x8e2+\xcd\xf4?\xd97\xe2\x8f\x83&lt;1\xa5x7\xe0\xef\xedM\xf1W\xc1^\x1d\xb6y\xbc\x8b=\x13Z\x8bRH\x90\x9c\x80#\xd4\xe3\x98*\x0e\x06\xc8\xd9T\x0e\x00\xc5y\xc7\xc6?\x86?\xb6\x0f\x86/m\xfccw\xff\x00\x05\x02\xf1\x0bE\x0cl\x9bu\x0f\x05\xe9\xa8g^v\x87XU&lt;\xc7\xc1\xc0$\xa8\\u5\xe4\x9a\xd7\xc3\xcb\x8f\x89?\n4\xdf\x83\x1e?\xf16\xa9\xe2;]&lt;\xddG}\xacIl"\xb8\xd4C\xc8J&lt;\x87\x94\x07\x1dH=\xeb\xda\xff\x00do\xd9\xbb\xe1\x07\xc0\x1d\x15f\xf0\x17\x83m4\xf7\xb8\x900\x92\x18\xc1\xb8e=\x14\xcd\x8d\xc4v\xf4\xafz\xf8\x9f\xafi:\'\xc3\xab\x9b\xcb\xa35\xb4\x93G\xc2\x86\xce\xcc\x0e\x80\xf7\xaf\xcb\xef\xdak\xc5w\xbf\x10\xbe)\xa6\x9d$\x92\xed\x17\xae\x92\xc0\xd2\x90z\x92\xbcm\xf4\xa8\xfe\x17Gm\xa7\xf8\xb1\x15d1\x08`v\x95\x07\xde\xce\xd6e\xc9\xee0\xa6\xb6\xfe\x1a\xff\x00\xc1B~0|-\x17\xb6\xfa=\x8d\xf5\xc4S\\?\xd9\xa2\x1a\x88K2\x9b\x8e\xc6x7a\x88\x18\xc1\xc6\xefZ\xe0~&lt;\xfe\xd0\xff\x00\x14\xff\x00ho\x12/\x88\xbe&amp;\xebr_\xfd\x9d\xd0\xdaC+~\xee#\xb7\xe6d\x1d\x80=\x01\xe6\xb8\x94\x88\x05\x01\xa4\xdeq\xcb\xe3\xef{\xd4\xf0\xaag\x93N199\x0b\xc7j\xfac\xf6\x0c\xf1E\xd6\x95\xe1\xed\x7fI\x85\xbf}\xa7jV\xfa\x92\xc7\x9e\x91&lt;~[\x9c\xf4\xfe\x13\xc7_j\xfb\xdb\xc0\x1a\xe0\xf1\x1f\x87\x16\xe2+\x95\x94,\x08C\xee\xe3\x901\xc9\xef\xed\xd4w\xafT\xf8l\x90\xd9\xda\xdb}\xb5\xc2\xb0B_\x1c\xf5\x1e\xd5\xd3\xc7\xa82\xa8\x8d\x1b\x85\x18\x15\xc7|P\xf1M\x90\xb3k}GJ,\xab\x91\xf2\x00wc\xb9=G\xe1^3\xafx\x92+}\xd2YZN\xb0o\xc4 ;`d\xf2:\xe7\x8a\xe6\xb5{\x9f\x02Ew3j\x9a\x04\x97\xdbAp\xf7\x08\x15Q\xba\xe3\xef\x12\x7f*\xe3\xed&lt;Qg\xaf\xear\xd9ZiqZ\xa9\x95\x84+\na6\xe7\x8c\xf7\xe9^\x87\xe0\xa8#\x8c\x89\xf5\x07\x11-\xb4` U;Y\x80\xed^e\xfb_|f\xd3\xf4_\x07\xcd-\xf9\xb9w&gt;Tk\x0co\xc4L\xd2\xb0\xdf\xee1\x83\x81_\x10ZkR\xda\\\xea^&lt;\xd7\x02\xcb(\x85\xd1\x1e~]\xa5\x04\x80W\x1d29\xae{\xc3\x9e2\xbc\x85\xf5my\x19\x82\x8b \x11\xd8\xf2Y\xb0\x00\xf7;Y\xab\x1eD;v\xa0\xe9D\xa6&amp;\x8c.\xee@\xe4c\xbd1YB\x81\x9e\x82\xa7\x89X\xb7N\xf5:\x82F\x07j\xfaW\xfe\t\xc9\xe0\xd9\xbcMy\xe3\xb3\x1eY\x86\x99a\x08\x04\xe0ni\xa78\xc9\xff\x00as\x9e\x9f\x8d};\xfb?x\xcc\xe9\xb7\xd7\x9a\x1e\xab\x03\xa1\xd3\xe4d\x08N"u-\xb41\x1d\xcf\xbfJ\xfa/\xc1\xda\xdcv\x17q\xe9\xf7\xd3\x85\xe4$aN\xee\x9c\x7f\x0ek\xbc\x88\x83rm\xc0\xf9\xcfA\x8a\xc9\xf1\x9f\x85\x97U\x80\xc6b\x05\xbb\x8c\x8e\xb5\xe5\xba\xf7\xc1\x81&lt;\xd3H\xd3\xdc,Y,\x00\x95p\x1b\xd0\x0c\xd7\x13\xe3?\x86r\xcd\xa2\x9b\t\x95\xe2\x0b\xf3\t\x89\x04\xb7\xb1\xc5b\xf8g\xe1e\xa5\xbc\xd0]\xf22\xaa\\\xe3\x80q\xc8\xa9&gt;(x\xb2\x1f\t\xdb\x8b=)\xd0\x98\x93\x12\x9d\xd8\xc6:\xf5\xaf\x8d\xff\x00h\x9f\x88\xf3x\xd3\xc4S\xe9p\\\x89\xa1\x80$\x8c3\x80N\xf2Xs\xe9\xff\x00\xea\xaf\x9a&gt;+x\xc6k\xa9\xa0\xf0\xf6\x993ad\xc0T\x07\x0e\x07\x7f\xc6\xaf\xe9\x96\x97\x10h\xb6Zl\xb1\x95\x0cZi\x18\x9f\xbe=?\x0e\x95#d\xb9\x18\xe7\'\x8a\x85\xe1\x901%{\xfa\xd3:U\xc8\xfe\xf9\x1e\xe6\xa4\x8b\xa9\xfa\xd7\xdb?\xf0JM:\xd2\xf3\xc1\x1e:\xbd\x9a?\xde\xff\x00lZ[\xef\x1dv\x0bb\xe3\xf5v\xfc\xeb\xd3\xbe#\xdbC\xe1\xff\x00\x89\x01\xb4\xb5\xf2\xc4\xbah\x0e\xbd\x8e\x08\xc1\xafB\xd0\xb5\xfdN\xd7@\x8fV\x82m\xb3\x87\x047\xbd{\x97\x835\xfdF\xfb\xc2\x16\x1a\xbd\xd4\x8a\xd3\xca\xb1\x97|u\xc8\x19\xad\x8dZ\xe6Vfr\xdc\x969\xae~\xe8\x0b\x9b\xe5\xf3z\x03\x8c\x0e\xf5\xc6\xfcP\x7f*\xe9!\x8d\x14)\xea1\\N\xaf\xad\xdei\x9a\x15\xc5\xa5\xa0@\xab#0%y\x075\xf2w\xed\x1f\xe3o\x10A5\xf1\x8e\xe8\x0f;{?\x07\xa9$\xf1\xcd|\x93\xadx\x83U\xfb5\xf4\xe6\xe9\x8b\xc8X3\x1e\xb8\xc9\xaf;\xf07\x99\xa9k\xf3\xcd{3H\xd1N\xca\x9b\x8f@\t\xafW\xf1\xb5\xb46VZ\x1c\xb6\xe9\xb4\xcb\xa6\x96\x7frpM`\x8eeo\xf7\x8d\x12\xf4\xfc*\xb3u?Z\xff\xd9'</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Sample1.jpegSundar Pichai</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00V\x00V\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xf8+\xf6\x8f\xf8\xc3\xe1_\x0b\xf8U,\xecbY5/\x13^/\xfc$\x13\xe9\xe4\xbc\x82\x12Qe\xb3\x07=\x18\x9cl\x1d\x86s\xb8\xb3\x1f\x00\xf8\xa1\xe3\xb7\xf1\x90\xb1\xd2\xfc7a\x1e\x95\xfd\x9f\x1a\xacV7GkI\x9f\xf5e\xc9\xde_\x1e\x84\xe0v\x02\xb7\xfe\x1a~\xca\xdf\x12~"\xe9V\xf2\xe9\x1e\x1d\xbeHn&gt;\xec\xe2\xd9\xb1\xfa\x9a\xfb\x9b\xf6L\xff\x00\x82;\xc1\xe2+\xab\x1dS\xe2\xfc\x92O2\xfd\xe8\x11\xd9#\x7f\xf7\x87S\xf9\xd7\xe9g\xec\xf3\xfb\x00|,\xf0\x0e\x8b\r\xb5\xef\x85\xedc\x12}\xe2\xb0\xc7\x9f\xfd\x06\xbe\xa2\xf8Y\xf0\xf3\xc0\x9e\x18\xb4\xfb%\x9f\x87m#\xc7\xfc\xb4\xf2\x14?\xfd\xf4\x005g\xc6\xbf\x0b|%\xe2]\x02\xef\xc3\x97:\x1d\xabZ\xde.%\x02\x15\xdc\x0f\xf7\x81 \xf3_\x8c\xdf\xb4\xff\x00\x8d|w\xfb\x04\xfc\x7f\x1a5\x85\x94w\x9a\x7f\x86u\xc9&amp;IE\xb8&amp;]&gt;iZPSn\x08\xd9\xbbq\x03\xf8\x80\xed\xc5}\x9bg\xfbv\xf8\x0b\xe2\xb7\xc0\x1b\x0f\x8a\xdac\x15\xb7\xbe\x88f5;\xd6\'_\xf5\x83vF\xe1\xe9\x8c~5\xf9\x85\xfb`\xfcm\xd3&gt;!|A\xfb9\xbd\xdc=c?\xe3\x9a\xe7|\x1b%\xc5\xc5\xbb\x18\x80\x1cv\xaf\x9a\xfcCg/\x88&lt;Gk\xab^\xc7\xb4Af\xb1ZDx\ncP\xcc\xf8\x1dT\xaa\x83\xe6u\xdd\xdf\xb5}=\xfb\x00\xff\x00\xc13\xae\xfe1\xcc&gt;&amp;\xf8\xcfF\xcd\xbbJDd|\xa6D\xecFA\xe4v\xaf\xd6/\x84_\xb1\'\x81\xbc\x17\xa3\xd9}\x97A\xc7\xd8\x7f\xd5Z\xee\x1e[\x7f\xbc\x00\xcf\xea+\xde\xfc!\xf0\xce\xd7N\xbaD\xfb4\t&lt;}\x00\x8f\x0b^\x95\xa6h\xe9.\x9d\x19k4\xfd\xdf\xdd\xc0\xadm/\xc2:\x9c\xb6\xbeu\xa4N\x1b\xd1\x8d%\xd6\x93\xaa\xe9\x91\xf9\xf7++\'\xaa\xa1o\xe5_\x95_\xf0_\x1f\x81\xb7\xfe\x1d\xbc\xd0\xbe9\xe9\x9a\x84\xcbg;\xc9c}|\xd6\xc7\xec\xeb3&gt;S\xccp\t\x8f{|\x99e#\xd8W\xc8:\x7f\x8e&lt;E\xe1\xcf\x813\xd8ZZ\xdc\xa4\x02ek\xabx\xed\xda$\x89\x9d\x0b0\x08\xa4\xae\xcf\x95\xbeea\xda\xbe\\\xd75\xeb\x8b\x9f\x19}\xbfP\x04\xbf\xa78\xafo\xf8m\xa9\xda\xc3\xa6\t\x15\x81.\xb9;\xbe\xb5\xf3\xff\x00\xc2+\xbb\x1f\x10|V\xb0\x82\xf0\xff\x00\xa1Eu\xbc\x0b\xfer\x8ar\xeaq\x8f\x94\x80\xc3\x1d0\xa6\xbfp\xbfd]C\xc2\xd6\x9e\x08\xd3l\xbc=c\x04V\xa9g\xfe\x8c\xa8\xbd+\xeb\x7f\x85~\x1f\xbd\xd4\xa5\x13G9\x9a\xdc\xff\x00\x11\xafO[\x0f\x08\x1bO\x96\xe2%\x9b\xb13\x0c\xff\x00*v\x9d{eo\x1f\x955\xd4j1\xd4\xa1\xaf=\xf8\xf5\xfb^x;\xf6}\xf0\xdd\xce\xa5\xaf\xeb\xc8\x16\xd6\xd9\xe7\x97.\x17*\xbd1\xef_\x17\xdd\x7f\xc1x~ \xfcP\xd5g\xf0\x87\xc0\xef\x85\xf1\x18\xacb\x88jZ\x8d\xec\xa5#\xb6w\xe8\tb9\xff\x00`s\xefY\x7f\x10\xff\x00k\x0f\x8e_\xb4\'\xec\xaf\xe3_\x0b\xfe\xd3\x7f\xb3\xed\x87\x88-\x1fA\xbe\x9bP\xb4\xb9\xd7\xadt\x8b\xbb\x18#E1\xce]Zeb\xacZS\x95C\x16\xc3\xbbu|;\xff\x00\x04\xd5\xbd\x8b\xf6\xaf\xf83\xf1\x07\xf6]\x8b\xc2\x97\xd7?\x13\xfc\'\xaa\xc3v4+\xddE3sj\x0f\xd9\xe50G\n\xecw\x8ap\xaa\xc8\\+,\xe1\x86\x005\xe2_\x1f&gt;\x02\xf8\xab\xe1\x8f\xc4K\xff\x00\x0cx\x97\xc3w\xb67\xfal\xde]\xcd\x9d\xdd\xbe\xc9W\xdfoqPxKR\xbb\xd2-&gt;\xcf&gt;\x00U\xc0\xces\xfc\xeb\xc0c\xbe\xd6\xa3\xd5\xad\xee\xa1\xb6\x11\x87\x11\x0b\\\xa9Fh\x0fY\x0eOS\xf3\x7f\xdfm\xf8~\xd7~\xc1?l\xb2\xf8_\xe1\x9b\xcf\x14\\\xfd\x9e\x194\xe5\xb8wc\x83\x14\x18\xcb;\xe7\xda\xbb\x0f\x8e_\xf0[\xef\x85\x1f\t\xf4\xdb\xaf\x0b\xfc\r\xf0M\xf7\x88&amp;\xb3\xb8\x96\x19n\xad-\xe4eo/\xef:\x80\xa0\xed\xc7\xccs\x8d\x83\xaek\xe7\xdf\x08\xff\x00\xc1W?k?\x88^,\x8b\xfbKF\xb5\xd2,$\xbf\xf2^9%\x91f\x85~O\xbe\n\xe4\x1f\xde\x0f\xe1\xfe\x16\xafO\xf8\x7f\xff\x00\x05\xa8\xd0\xbe\x0f\\\xfd\x87\xf6\xa2\xbb\xbb\xd2\xbe\xd1b\xf7:u\xcc\xf6\xb3\x88\xaeQ[k2\xb3\xa0RW\x82S;\xbea_-\xfc`\xfd\xbf|/\xfbb|n\xf8\x85\xe2m7Q\xbc\xd5\xfc+\xe1=*\xda\xe3N\xb5`\xd0\xc7\xaa\xa5\xcc\xeb\x17\n\xe0\x1d\x8a\xcc#\xdc&gt;Vw\x1bX\xa0\x0e\xfeo\xa7\xea_\xb6\x96\xb3&gt;\x9d\xe2?\x80\xfan\x89y6\xab,\xae\xe2\xe2X\xf1\xa5l\x95U\x04\xab.\xc1\'\xca\xc4\xe4\x82s\xde\xbe\xef\xfd\x9f\xbe\x15|m\xf1\x07\xc5\xc9&lt;\x0b\xe3\xedN\xd7_\xf0\x8f\x884\xf6\xb4O\xb1m\x82\xfe8naT\xb9ybE\x05\x11\xd9\xa6RQrW\x19L\xf2{\xdf\xd83\xf6\x0b\xb4\xfd\x96\xff\x00m\x7f\x8bW_\x0e\xbc\xeb]\x06\xf0Yh\x9a\x1e\xa0gi\xc5\xb4\xb6\x1af\x96fQ+\xb123}\xa3\x0f\xb8\xb1\x13,\x80\x92W#\xe6\x9f\xf8)?\x845\x05\xf8\x9fe\xe2?\x12D_T\xbe\x8a\xe2\xcbSw\xc9v\xba\x86L9$\xf6(\xd1\xb8\xf6\'\xdb\x1f#k&gt;\x07\x12\xc8\r\xb1\x94\x0f\xa8\xff\x00\n\xe0\xed&gt;\x16x\x8f\xe2o\xc4\xbb+\xdf\rxeu-\x07\xc2\xfa\x8cvz\xf6\xb1y2YYX\xdb\x8d\xb9\xf3\xe7\x9c\xc7\x1a\x9f\xbd\xfb\xb5,\xfc}\xda\xfa\xa7\xf6\xc8\xff\x00\x82\x8d|/\xf8q&gt;\x8f\xfb\'\xfe\xcd\xbe(\xb1\xf1\x06\xbb\xad\x9bm\x07P\xf1\x15\xb43&amp;\x99\xa5C&lt;\x86\xd9\x904\xa2\x17\xb8\x95v\xb3aBG\x80\x0f\x98I\xd8:\xdf\x16\xfc\x08\x8f\xe1\x86\xa97\x80&lt;\x03\xe1\xdd7\xc4~.\xd3\xbc6\xf3i\xab\xe2]B\xde\xc97\x08\x02\xe7\xcc@\xa2\x10T\xaa\x01\x18C!~O\x06\xbc\x13\xc1\xbf\x0e&gt;-\xf8\x83\xe1\x8e\xa7\xf1\x0b\xe2\x8e\x97q\xa6x\x9ao\x11D\xba\x046\x96\x8c\xb6\x8b\x0f\x96\x04\x85\xa7be.%\x18\x0b\x97\xe0\xf7&lt;\xd7\xad\xfe\xcd\x1f\x02uO\x88\x1f\xb4?\xc1\x1f\x05\xfcP\xd0,\xb5}\x00\xfcU\xf3\x8e\x9b-\xb9\xfb\x1d\xc0\x8bK\xbe\x92x\xc21!\x94\x98\xe32/B@\xc6\xda\xfd\x9b\xfd\xb3?a\xbf\x86\x9f\xb6/\x804\xf3\xa1\xf87D\xd2|Y\xe1[)SA\xbe\x92\xc23\x03\xc32\xa9\xba\xd3g@\xb8ki\x02F\xc4\x1e\x04\x91\xc7"\xedd\x06\xbf84O\xd92?\rx\xbfP\xf0\xc6\xaf\xf0\xef\xc6\xbe\x16\xd5\xb4\xb9\xe4K\xbb=[\xc5\x10\xd9Y\xdc\xaa\xe3\x0f\x1d\xc5\x9f\x9b\xe6#\xed\x18`\x9f\x85}\xa9\xfb,~\xcdp\xf8\x7f\xc3\xd63\x1dy\xfc?k\x11\xff\x00N\xb5\xd3.\x18\xc9|1\x81\xe7_\xdc\xfe\xfb=\xf7A\xe4\xb6I\xe6\xbd\xa7\xf6\x8a\xf0\xa6\x9f\xf0\xe7\xe0\x14Z\x9f\x81t\x984\xf8\xbc)q\x15\xdc1\xdbF2 \xf9\x92R\xc4\xe4\xbb\x14\x92BY\x89$\x80\xccI\x19\xaf\xcfo\xf8(o\xc2\xaf\x15\xfcz\xf8m\xe0\xdf\x8b\xbe\x0b\xd3-\xda\xea\xee\xff\x00P\x93Qdl+H\x828U\xb7\x7f\xb4\xb1\xe0\xfa\xe3\x8cW\xc3:\x9f\x86u}\n\xec\xe9\x9a\xbd\x8bEx\x83\xf7\xd6\xee\x84\x18\xcdy_\xed\x85\xfb&amp;\xfe\xd2\xdf\xb2\x1f\x87\'\xff\x00\x85\x97\xa6Y\xddh\xd3\xcb\xf6{\xbdg@\xb9g\xb0\xd4l\x99\x19\x99\x19\x08\r\x0b\x02x%\x88\xe5x\xf5\xfd&amp;\xf8}\xfb\x01~\xc7\x1f\x17&gt;\x06\xa8\xb7\xfd\x9c|?\r\xc7\x8bt\xf8o.5\xd8m\x8f\xdbVf\xb7\x01g\x8av%\xa2\x90H\x03\xe5H\xf9\xfen\xa4\x9a\xeb\xfc7\xf0w\xc4\xfa\xb5\xb1\x9f\xc7\x9a\x06\xabi\xe27\x8a;}KZ\x97D\x96\xf6\xd6\xf0\xe0\x85\x9d^5\x90\xa2\xc8w6\xdc|\x85\xc600)\xfe\x16\xfd\x8d\xbcG\xe3\xcdr{\xef\x18\xf8S]\xbb\x9e\xd1\x02\xe9\xd7\x1a\xe7\x91m\x0c*\x07\xfa\xe8\xe1\xb6\x92F\xc1\xeb\xf2\xb2\xb6{\xd7w\xe1?\x81\x1e\x02\xf81\xf1?\xc1\xde/\xf15\xd0\xbf\xf1^\x95\x05\xe6\x9d\xa4[D\x828\xedc\x96\x1f.O\xb3\xc1\x82\xc3p$off\xc3\x1f\x9a\xbe\xe1\xf8U\xe2h-\xb4\xab\x1d;W\xba\xf2\xe5R|\xc7S\xf7\xc9\xeb\x8c\xe7&gt;\x989\x18\xae?\xf6\xa7\xf8\x11\xaf\xf8\xee\xd1|G\xf0\xf3X\xd3\xa2\xbd\xd3\xd1\xae"ME1\xe6\x92\xbb\x96\x1f11\xe5\x00:\x13\xb8z\xa9\xaf%\xf8\x0b\xf1\xd3\xc3VWo\xa2\xbaAe\xaa\x05\xddqe6C\xb2\xff\x00|d\xf2\xbe\xe3\x15\xed\x9e0\xf1v\x9d\xe3\xbf\x87w\xde\x17\xba@\xf0\xea\x1al\xf0\xdc\x15?\xc2\xd1\x9e\x99\xcf\xf7\x8e:\xf4\x15\xcf\xfc\x17\xd3|\x03\xf1\x07\xe0\xae\x95&lt;z\x15\xbcm\x1e\x99\x1e\xcbi"_-\xa4B\xc2B\xab\xeadl}\x00\xfa\xd7\xc5\x7f\xf0So\xd9\xa3\xc1Z\x1c\x9ao\x8d|;emiwq\x7f\xf6{\xc2\xb8\x1b\xf3\x1b\xb0\xed\xfe\xcdt\x1f\xb4\x9f\x85\xbc\x05\xf1\xe3\xe1\xdd\xcf\xc1\xdb\xbd*=r\xcf\xc6*\xda~\xa0\xb3\x1f\x93KS\x1e\xdf\xb4.z\xb8`\xbe\xd8Q\xc5q\x1f\xf0J_\x1c\xeb\x10\xfc\x15O\xd9\xf7\xc7p\xce\x9e*\xf8g\x7fw\xe1\xbdn\xde\xf0\xe6M\xd6\xf2\xb0I=\xf7\xc7\xb5\xd4\xf4\xc15\xf6/\x87\xf4\xc7f\x90\xdd\xb0\x02P\xc1\xd4\x1e\xa5\xbe\xf1\xcfQ\x9c\x0c\xf3\xfc#\x18\xae\x98k\xfa\x1e\x95c3\xda\xec\xcc}\xdc\xe4\x9f\xc4\xf2&gt;\x83\x15\xf3\x8f\x8c\xbe&amp;G\xf0\x7f\xe2\\\xff\x00\xb4&amp;\xb3\xa2M\xac\xd9&amp;\x97.\x99c\x0c0y\xb3\xdb\xdcn\xdd\xe6 \xec{g\x9e+\xe7\xcf\x8a?\xf0po\x81~\x0e\xd8\xea^\x1d\xf8\x93\xfb8x\xae\xcf[\xb3\x9fe\xa2\xe97\x11\\@\xa3\xfd\xb6%d\x8f\xf1\x8c\xd7\x98x/\xfe\n\x95\xfbK~\xdd\xbf\xb4\xbe\x97\xa9h\xbf\x08\xb5\xd8to\r\xd8\xef\xb4\xf0\xf6\x9f\xa9]Em5\xc6\xfd\xdeu\xc5\xc2\x04F\x1f\xc3\x82\xb8\xc7n\xf5\xd1\xfe\xde\x1f\x1c\xbe?\xe8&gt;\x13\x83\xe3M\x9f\xec\xdb\xa9\xf8Ab\xda\xb2ksj\xb1\xb8\xb3\xb9\'\x02@\x14\x02Sw\xcb\xb5\xb03_C\xff\x00\xc1=\xff\x00kmw\xf6\xa1\xfd\x92g\xf1\xf6\xa9\xb3M\xd5\xf4\xe8n-u4\x0eL):\x02\xae\x14\x92H\x1cn\x19\'\x86\x15\xe5\x9f\x0f\xff\x00\xe0\xa6\xba\xff\x00\xec\xed\xf6/\t\xf8\xdf\xc0\xd7\xd7Z"\xa6\xdb\x0b\xd8d\x1edsno5\x1b\xe6\xc1\x1b\x82\xe0\xe0}\xfe\xf85\xe0\x9f\xb6\xf7\xfc\x14\x1b\xc4_\xb5&gt;\xb3kk\xe1\xcd\x1e\xe3J\xd3,\xe7\xf3\xa3\xde\xe7\xcc\x91\xf6\x95\xe4\xe7\x1d\x18\xf6\xaf\xb6&lt;;\xf0\xfe\xdb\xe2\x8b\xe9\x7f\x13\xbe\x0cx\xebO\xba\xb2\xf1\x15\xa2\xdc]\xc3u#-\xad\xda\xb2\xecY\xe2\x91\x14\xedn\xe5\x7f\x85\xfeS\xcf5\xe0_\xb4m\x97\x8c\xff\x00c\x8f\xdbCG\xf8\xc1\xa4\xeb\r\xa9[\xf8\xce\xd2\x0bmqXl[\x8b\xc8\x97\xcbY\x18\xaf\x1ei\x89T\x13\xd0\x92x\x1d\x07\xd7\xbf\x08\xff\x00h\x7f\x08|[\xf0u\x8f\x8bt\x1b\xc6\xd9{\n\xb1\x8c8\xcc/\x9c27\xbei&gt;%\xf8\xfe\x1f\x04\xf8\x07Z\xf1v\xa19\x8e\xde\xc2\xdaI\x9f\xcc9\xc8T\xdc:{\xd7\xc5~\x1b\xff\x00\x82\x89k\xdf\x1b&lt;_o\xe0\x7f\x85Vp\xe9\x96ZTM.\xbd\xae\xea\xccU\xe3f\xea\xe9\x19\x1bs\xed\x92k\xb0\xfd\x9b\xff\x00a]s\xf6\x82\xf1f\xa7\xe2O\x84\xfe\t\xb3\xbe\x82\xf6\xebu\xc7\x8b\xbcy\xa3\xa1\x86E\xd9\x90\xe5%R\xac\x18\xf4\xd8\xaf\xb4\xfc\xa7\'\x9a\xfa\x86\xf7\xf6J\xf8E\xf0\x0b\xc2\xba\x8f\x89\x7fk\x7f\xdbK\xc3\xfa-\x9d\xb9h\xe4\xb2\xd1\xaeb\xb2T9\xe1\x02G\xfb\xd9\xbf\xdc\x11\xee\xf7\xaf\xceo\x88?\x02~$\xfe\xdf\x7f\xb57\x8c\xfe#|\x19\xf8\xb1\xe2&amp;\xfd\x9d|7\xa8\xc5k\xe1{-pI\x14~#0\xc1\x99\'Tu_&gt;\xdc\xce\xae\xea\xec\x0b0\xc1\xda\x17\xe7\xafL\xfd\x8eol\x7fd\x8f\x85\x9f\x11&gt;\x18x\x92(`\x7f\xedy\xee\xa2\x90\x16\xc1\x8en\x14\x91\x9cgh\x0b\xd3\xa2\x8a\xf3\xaf\x8e\xfe\x1b\xb5\xb7\xd1&lt;\'\xa5j\xf6v\xad\xa8\xbf\x86`\xbc2\x88\x80\xf3\x12i\x19\xb6\x9c3\x079f&lt;`\xedq\xdcf\xbc\xcb\xc3?\x03u\xef\x12\xcd)\xd2t\xf9\x0cH\xb9\x05r{\xd3\x7f\xe0\x95\x9f\xf0W\x9f\x14~\xc8\xb2M\xf0\x83\xc7Zm\xd7\x88|\x0b{t\xd7"\xd2\xcc\xe2\xe6\xc1\x9b\xfdd\xd6\xeaIR\x8f\xfcH\x0f^F\x0f5\xf57\xede\xfbK\xfc=\xfd\xb3&lt;%g\xe1\xdf\x04\xe8\xcf\xa5\xd9\xd84\xb7\xf6\xb7\x97H-\xe7[\x9d\xca\xd1\xfc\xaa\xc4\xe0\xed\xc1\xf6\'\x04u\xaf\x10\xfd\x96~&lt;\xf8\xa3\xe0\xff\x00\x8d.|\x15\xe2c&lt;6\x92\\La\x02\\ \x98L\xceI\'\x82\x18\x05\xdb\xb7?\x7f\xbe\r}\xc9c\xe3=\x03\xe3G\xc2+\xaf\x0b\xf8\x8bS\xb5\x96;\xcd1\xad\xa7\x9a)p\x0e\xe5\xdaO9\xe7\x15\xf9\xe1\xe1\x7f\xd9.\xe7\xc4&gt;"\xb9\xd1\x13\xc5\xda\xae\x87\xacx[_\x92\xe2\xc5\xf4\xbb\xc1\xe5\xc8\x17\xa3H\x8e\xac\xb2\'\xb1\x15\xee\xbf\x10&gt;\x0c\xfcs\xf8\x97a`\xbf\x10\xbfj\xcf\x8b\x1fg\xd3\xe2\x9a8\xdfK\xf1#[\xc32\xcb?\x9e\xe2X-\xfc\xa3.e\xf9\xbebq\xd0`q[^\x0eo\x83\x1f\xb3n\x94\x9aW\x8c~-\xc9\x04qH\xb1\xe2h\xedt\xdf4/`bA\'\x99\xfe\xd6\xec\xd7\xd3_\x01&lt;o\xe0\xef\x1e|4\xf3&lt;)\xa2\xc8\xbaU\xa1)\xa7\x89"h`T,\x19\x9a5rHby\xdd\xb7 \x92W\x07\x9a\xfc\xce\xfd\xa8?i\x16\xb4\xf8\xff\x00\xe3\x1d"\x14\x176\xb2^\xb5\xb2@\xb9UY\x11[hl\x9e\x9b\x94W\x9f[|f\xf1\xb7\x88\xbe$\xc7\xe1\xed~\x08\xe4h\x12\xd6\x18\x9e\xd8\x05&amp;3\xc0\t\x8f\xba\x81@\\\x0e\xca9\xef_\xa2_\xb1\xb7\x83m.\xfc\x16u;\x8d/sJ\x9c\xf9\x8b\xee+\xf0\xf3\xe0\xc5\xee\xa1?\x89b\xb4\x82\x06\xfb$\'1\xc6\xaav\xaf\xe1\xd0\n\xfd\x03\xf83q5\x9e\x83\xe7On\x916\x0f\xcd\xe5\x00\x7f?j\xed\xbe5\xf8\x17L\xbf\xf8cc\xf1K\xc3\xda4R\xe9w\x08`\xd5\xf4\xf8\x81\xf3mna\x061\xe4\xb8?\xba\x1b\xa4\'\x8f\xf9\xe8=+\xcb\xfe\x1b~\xd6\x9e=\xf8a\xa9\xdcx.\xe7Y\x9a\x7f\xb3\xea\x12n\x81\xd1\x7f\xd5*n\x12\xf0\x07\xcb\x93\xd3\xaf\xcay\xae\xb3\xe1\x9f\xedc\xe1-+\xe2\x9b\tE\xacD\x86]Ju\x97\x96V\xea\x01$\xf1\xf5\xcd}-\xe1\x8f\x8f\x1f\x07&gt;-i\xeb\'\x87\xb5\xdb\x1b\xe1#\x04\x8e\xc2\xe9\xf1)n\xe3vG\xe1^5\xf1;\xe1\xe7\xc1C\xe2{\xbdWL\xbc\xd3l\xaema\x9a\xf6\xde\xce\xd9\x82J\xeb\x12+4\x88\xb8\x00\xf2\xff\x00\xf8\xe3W\xac\xe8\xbf\xf0S\xdf\x06\xfc\x11\xf8%m\xa3\xdex\x0c\rX\xe8\xfb\xf4\xf9\x93\x07|\x87\xee\xb6\xfc\xe7\xcbn\xcd\x9fOQ_\x97\xbe"\xf1#\xfcP\xf8\x9d\xaa\xf8\xf7\xc4:\xa8\xb6\xb7{\xd9.o\xe5\x94\x12\xa5\x8b\x13\xb8\x01\xcb\r\xce\xa8y\xf9\x0bs\x9d\xa6\xbdK\xf6#\xf0\x96\x9b\xf1\x0b\xe2\x00\xbd\xd5`W\x91f1\xc6\xe5\x8f\xc8\x9d\x94g\xb0\xed_\xb1\xdf\xb3\xa7\x82-t\xef\x05&amp;\x9e\x90\xc3\x1aG\xf7J\x8c\x13\xf5\xaf\xce\xef\x83\xbf\xf0Oo\x05x~\x1f\xb7\xc5=\xac\x8f\xfe\xdcY\x1f\xc8V\xaf\xc4\xff\x00\x0bXx3F\xf2,#\x01|\xdf,\xed8 \xf4\xcfN~o\xa7\x15\xd4\xff\x00\xc1:\xf5\x08\xbe-|+\xf1\xc7\xc3\x1f\x13\xd9\tl\x86\xa9\x04\xf6n\xd2d\x838~\xa0\x83\xb7\x9bU\'\x19\xe4\xd7\xc8\x1f\xb7\x87\xc2ms\xe0\xc7\xc6\x8b\x9f\x15hZ\xec.\x9a\xae\xe50m*#v]\xa4\x8e:`\x9e?\xda5\xf2?\x8a\xa5\xd4&lt;;\xe3f\xf0\x94\x1a\xbc\xef!\xb0\xf3\xae/2C3\xfb\x0c\xf4\xae\xcf\xe1\xaf\x8b\xfca\xe0\xe1s\xaf[\xf8\x8a\xe2km\x1fX\xb31\xc5\xe6\x18\xdaA\xf2\xe063\xd7q\xcf#&gt;\xd5\xf5g\xc3\x7f\x8b\xbe \xd4\xef\xae\xadn,l\xfc\xcb;3my$\xb0\xf9\xff\x00k\xb7\x98\xbcR\'\xef\td9\x93#\r\xd0s\x9c\xf1\xf3o\x8c|U\xe2\x9dGF\xd4|=\xa8\xf8\x8e\xe2[=\x1fO\xf34\xd4a\x9d\xa8\x12=\xa8\xdc\xf4W\x8e-\xa0\x1ca\x0eA&amp;\xbe\xb7\xf8\xb5\xfb"x{\xe0G\xfc\x12\x92\xe7\xe3\x17\x88V\xca\xeb\xc5\x1e*\xf1.\x98\xcfy`\x87\x16\xb6\x7fj\x9c\x88U\x9c\x02X\x99r\xc4\x05\x0cG \xe0W\x89\xfe\xc6&gt;6\xbc\xf0\xbf\x8b&gt;\xd3k\x0e\x7f{\xbf\x1b\xfb\xd7\xea\xbf\xc1o\xda\x03X\x97\xc3\x7f%\xa6\xdc\x1ez\xff\x00\xf1U\xff\xd9'</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Sample1.jpegSundar Pichai</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00+\x00+\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xf8+\xf6\x8f\xf8\xc3\xe1_\x0b\xf8U,\xecbY5/\x13^/\xfc$\x13\xe9\xe4\xbc\x82\x12Qe\xb3\x07=\x18\x9cl\x1d\x86s\xb8\xb3\x1f\x00\xf8\xa1\xe3\xb7\xf1\x90\xb1\xd2\xfc7a\x1e\x95\xfd\x9f\x1a\xacV7GkI\x9f\xf5e\xc9\xde_\x1e\x84\xe0v\x02\xb7\xfe\x1a~\xca\xdf\x12~"\xe9V\xf2\xe9\x1e\x1d\xbeHn&gt;\xec\xe2\xd9\xb1\xfa\x9a\xfb\x9b\xf6L\xff\x00\x82;\xc1\xe2+\xab\x1dS\xe2\xfc\x92O2\xfd\xe8\x11\xd9#\x7f\xf7\x87S\xf9\xd7\xe9g\xec\xf3\xfb\x00|,\xf0\x0e\x8b\r\xb5\xef\x85\xedc\x12}\xe2\xb0\xc7\x9f\xfd\x06\xbd\xfbL\xf8;\xf0\xe6\xca\xc2+U\xf0\xa5\x93\x04\\\x02\xf6\xc8I\xe7\xb9\xdb_\xcbo\x88l\xe5\xf1\x07\x88\xeduk\xd8\xf6\x88,\xd6+H\x8f\x01Lj\x19\x9f\x03\xaa\x95P|\xce\xbb\xbb\xf6\xaf\xa7\xbf`\x1f\xf8&amp;u\xdf\xc69\x87\xc4\xdf\x19\xe8\xd9\xb7iH\x8c\x8f\x94\xc8\x9d\x88\xc8&lt;\x8e\xd5\xfa\xc5\xf0\x8b\xf6$\xf07\x82\xf4{/\xb2\xe88\xfb\x0f\xfa\xab]\xc3\xcbo\xf7\x80\x19\xfdE{\xdf\x84&gt;\x19\xda\xe9\xd7H\x9ff\x81\'\x8f\xa0\x11\xe1k\xd2\xb4\xcd\x1d%\xd3\xa3-f\x9f\xbb\xfb\xb8\x15v\xdf\xc2\x972B\xaf\xe4H2:n\x1f\xe1_\xca\x07\xc2+\xbb\x1f\x10|V\xb0\x82\xf0\xff\x00\xa1Eu\xbc\x0b\xfer\x8ar\xeaq\x8f\x94\x80\xc3\x1d0\xa6\xbfp\xbfd]C\xc2\xd6\x9e\x08\xd3l\xbc=c\x04V\xa9g\xfe\x8c\xa8\xbd+\xeb\x7f\x85~\x1f\xbd\xd4\xa5\x13G9\x9a\xdc\xff\x00\x11\xafO[\x0f\x08\x1bO\x96\xe2%\x9b\xb13\x0c\xff\x00*v\x9d{eo\x1f\x955\xd4j1\xd4\xa1\xa8$\xf8\x89\xa4i\xf2\x1b9\xb5\xc5\xdd\x19\xc1\xed_\xc8dw\xda\xd4z\xb5\xbd\xd46\xc20\xe2!k\x95(\xcd\x01\xeb!\xc9\xea~o\xfb\xed\xbf\x0f\xda\xef\xd8\'\xed\x96_\x0b\xfc3y\xe2\x8b\x9f\xb3\xc3&amp;\x9c\xb7\x0e\xecpb\x83\x19g|\xfbWa\xf1\xcb\xfe\x0b}\xf0\xa3\xe1&gt;\x9bu\xe1\x7f\x81\xbe\t\xbe\xf1\x04\xd6w\x12\xc3-\xd5\xa5\xbc\x8c\xad\xe5\xfd\xe7P\x14\x1d\xb8\xf9\x8eq\xb0u\xcd|\xfb\xe1\x1f\xf8*\xe7\xedg\xf1\x0b\xc5\x91\x7fih\xd6\xbaE\x84\x97\xfeK\xc7$\xb2,\xd0\xaf\xc9\xf7\xc1\\\x83\xfb\xc1\xfc?\xc2\xd5\xe9\xff\x00\x0f\xff\x00\xe0\xb5\x1a\x17\xc1\xeb\x9f\xb0\xfe\xd4WwzW\xda,^\xe7N\xb9\x9e\xd6q\x15\xca+mfVt\nJ\xf0Jgw\xcc+\xe5o\xda\x03\xfe\x0b\xb9-\xc7\xc6=z\xe3\xe1\xbd\xaf\x89\xb5}\x0eK\xb0\xfan\xa3\xa7\xe9\xa4C4e\x14\xfc\xbb\xdd\x0f\x04\x95$\r\xa4\x82U\x9dp\xc7\xe5\xdbO\x85\x9e#\xf8\x9b\xf1.\xca\xf7\xc3^\x19]KA\xf0\xbe\xa3\x1d\x9e\xbd\xac^L\x96VV6\xe3n|\xf9\xe71\xc6\xa7\xef~\xedK?\x1fv\xbe\xa9\xfd\xb2?\xe0\xa3_\x0b\xfe\x1cO\xa3\xfe\xc9\xff\x00\xb3o\x8a,|A\xae\xebf\xdbA\xd4&lt;Em\x0c\xc9\xa6iP\xcf!\xb6d\r(\x85\xee%]\xac\xd8P\x91\xe0\x03\xe6\x12v\x0e\xb7\xc5\xbf\x02#\xf8a\xaaM\xe0\x0f\x00\xf8wM\xf1\x1f\x8b\xb4\xef\r\xbc\xdaj\xf8\x97P\xb7\xb2M\xc2\x00\xb9\xf3\x10(\x84\x15*\x80F\x10\xc8_\x93\xc1\xaf\x04\xf0o\xc3\x8f\x8b~ \xf8c\xa9\xfcB\xf8\xa3\xa5\xdci\x9e&amp;\x9b\xc4Q.\x81\r\xa5\xa3-\xa2\xc3\xe5\x81!i\xd8\x99K\x89F\x02\xe5\xf8=\xcf5\xeb\x7f\xb3G\xc0\x9dS\xe2\x07\xed\x0f\xf0G\xc1\x7f\x144\x0b-_@?\x15|\xe3\xa6\xcbn~\xc7p"\xd2\xef\xa4\x9e0\x8cHe&amp;8\xcc\x8b\xd0\x901\xb6\xbf\xa0\xed7]\xf0\x0e\x93\xa7A\xa7\x0f\x0cZZyP\xa86\xd6\xd6\xaa\x89\x11\xc6v\x80\xa0\x0c\x0fj\xfeG&lt;E\xaaj\n\xb6Z\x1cwn\x96\x9a\xbd\xac\xf6\xfa\x95\xbcgj\xcf\x17\xef~F\x03\xb7\x1d\xab\xf5\xbb\xc7?\xb07\xecmk\xfb"\xf8\xa7\xc5p~\xcf\x1e\x1c]Z\xefC\xfe\xd0\x9bV\xfb+\x1b\xb1t\xb6\x02A2L[|n\x1dC\xe5\x08\xf9\xfeo\xbcI\xa7|\xb7\x9e\x1e\xb7\xf1\x9d\xf2%\xc6\xa9\xa8h\xbat\xb7\x97\xb7($yZ[d\x91\xc9\xdd\x902\xce\xc4\x01\xc0\xcf\x18\xc0\xae;\xe1\x8e\x9fg\xf1K\xe2\x0c\x83\xc7\xd0\xff\x00h\x8b1\x1a\xda,\x8cP@\x0c{\x89@\x98\x08s\xceF\x0f\xbd{7\xec\xb5\xe1\xad\x07R\xfd\xa7,u\x8b\xdd.\'\xb8\xf0\xad\xa5\xf5\x97\x87\x9fn\x05\x8c2B\xab E\x1cnef\x05\xc8-\x82y\xaf\xd1\xdf\x03\xc6\x92\xf8V\xceIW{\x14l\xb3rO\xcc{\x9a\xff\xd9'</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Sample1.jpegSundar Pichai</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00+\x00+\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfd}\xb0\xf0\x8f\x83\xa5\xd1\x12\xc6=\x06\xd1\x15q\x88\xd2\x00\xab\xc0\xf4\x1cW\xce_\xf0Q\xbf\xd9\xbe\xdb\xe2\x0f\xc1[\xcf\x1a\xf8f\xd6\x0b}w\xc3\x0f\x0e\xa3\xa7\xc9\x0c(\xa6o!\xc3\x94\xce\xdf\xbd\xb4\x1c\x1fQ_\x9e\xdf\xb0\xe7\xfc\x14JO\x83\x1f\x1dn\xbe\x15|F\xd2\xa3\xb7\xd3\xbcEr\xbf\xd9W\x11\xa7\x97\xe5\xb3\x1ec8\xe1\x8a\xb62\xb8\xc921\xcfj\xf7\x7f\xdb\x97\xf6\xa7\xf0\xfe\x99\xa1\xddi\x91\xdc\xec\x98\xc7\xf33\xa9\x1b\x8e\xd6\xdd\x8ex\x19#\x8e~\xb5\xf9uq\xe2\xfbO\x14x\xaa\xebU\xb7\x94\xbb\xbc\xcd\xc1&lt;c5\xdc\xd8%\xe3\xd9\xc6\xcb\x8c\x15\xe3\x8a\xfe\x8e\x1f\xc2:\xd4(\x04[\x82\x1e\x9c\xf3\x9a\xc1\xf1\xcf\x85\x8f\x88&lt;=y\xe1}]\xdd\x16\xe2-\xac\xaf\t\xc4\x99 \x05\xcf\xb9#\xd3\xa5~\x00~\xd1\x7f\x0cu\xcf\x82?\xb5\xde\xbf\xf0\xdfU{\x92\xd6:\x8c\xb7\t\x15\xce\x9d\x99\xd6\x17r\xf1\\\xa2\xe4oV`T\xba0\xc0\x18\xdb\xceG;\xfb[\xfcG\xf1F\xa3:Y\xdf-\xc7\xcdl\x8d\x1c\x92\xb3\x90P\xa09Rq\x9e\n\xe7\x8e\x0fz\xf1\x0f\x85Z\x94\x1f\xdaB\xdaRF\xe7%\x89&lt;\xf5\x15\xef\xdaf\xb3o\x1d\x84Q\xae\xcc\x05\xc7"\xbfb\x7fk/\xf8+\xcf\xc3\x8f\xd9\x86h\x1e\xf1F\xa4\xec\xd2\x91\x02J~D\x8c\x1f\x99\xb6\x83\x8ep:\x7f\x10\x1d\xeb\xc0\xe6\xff\x00\x82\xc2~\xd9?\x16\xed,\xfcE\xf0\xdb\xe1\\V\x16\xf7o\x1c\x90\xc4\xeb\x0bHm_?\xbe\x91&amp;\x95B \xe3\xabe\x89P1\xba\xbeX\xff\x00\x82\xe4\xfco\xf1\x16\xa7\xa0x\x0f\xe3\xd6\xaf\xf0\x1e\r3X\xb2\xb9\xb9[\xaf\x13\xe8~)\xb7?n\xd2\xc4\x8b\x10Cj\xcaL;g\x92\x12J\xc8\xe6/8\x02X&gt;A\xfbA\xfc\n?\xb4\xd7\xec\xff\x00\xa1\xfe\xd7?\x01&lt;\r\xa8j~\x0b\xd5|)k{.\xa7o+]Mk C\x1c\xd6\xf7\x00\xaa\x88\x9e9RX\xce\xc5*\xdePn\xe2\xbe&amp;\xb7\xf0\x9d\xf7\x87\xf5a$P67oI\x00\xf9H\xf4\xcf\xaf\xb5v\xd6~%\x9a+dGu\x04\x0eF\x0f\xf8\xd7y}\xf1sV\xf1\xbf\x82\xfc!\xe2-:e\x97^\xf1\xce\x97\x16\xa3&amp;\xb5\xa8O\xbe=6\x19\xe7ux\xb1\xb1\x83(1\x95\xc9\x1c\xb4L~^\x05w\x7f\xb2\xf7\x87\xff\x00n\xdd{\xc5\xba\xee\x89\xaaI\xa3\xe8\xda%\xbe\x95t\xba\x05\xdf\x97\x0c\xe3Q\xd4#\x93\xfd\x14\xbb\x12d\x8a\x0c)f#n\x08\x18e\xc8\x07\xea?\x16~\xc7W\x1f\xb4\xaf\xec)\xe3Mg\xe3\xd5\x90\x97^\xf0_\x85\xb5\xbb\x8d\x0fR\xd2\xf5&amp;\xfb-\xc5\xd5\xd5\x8c\xb0\x17\x87f\x16i\x98\xf9{R@KJ\xb1\x00\xa4\xe1\x97\xde\xfc\x01\xf0K\xc6?\x04\x7f`\xff\x00\x0f\xfc(\xd4\xe6\x92\xda\xdb\xc3\x99\xd1|U`\xa3h\x91c\x96X$\xb8&lt;\x93\xb4\x9d\x8d\x8e\x9c\x1e\t\xe6\xbf*~(x\x12-+\xc5Z\xaf\x86\xa7\xb7\xd8\xfan\xa7=\xbc\x9eP\xc0\x0e\xaeA\x03\xdb\x8c\xfd\x08\xae\x06\xe3\xc0s\x99\x98\xabK\x8c\xf1\xf3\x0f\xf0\xaf\xd8\x8f\xf8(\x7f\xfc\x13\x17\xc3~\x1f\xbc\xd4~&gt;\xfc&amp;\xf8Es\xa9\xe8:\xad\xec\xba\x86\xb7\xe1_\x0b\xa5\xaa_iw\xd3\xb6\xeb\xa9\xed&lt;\xd2\x81\xe0\x95\xdb\xce\x92\x14#\xf7\xa5\xa4\x00\x16|\xf97\xc0\xcf\xd9wG\xbd\xd74\xe9\xac4\xbdN\xea\xd5\xe7i\x12\xd3\xc4\xbe,\xb9-\x08\x07\xf8\xac\xed\xd0\xab\x8c\xbeq\xe6\x8c\x10:\xd7\xe8\'\xc0\xff\x00\x80\xda\x16\x8d=\xac\xfe&amp;\xd6\x9b]\x9e\xceau\xa4\xe9\xb7QE\x05\xa6\x9e@\xc2\xec\xb5\x8f\xfd`\\\x9d\xaf?\x9a\xeaO\x0c\rp\x9f\xb5\x0e\xb57\x82\xbe7\xaf\x82.a\x8eM#\xc7In\x8do \x1b\\\xb6\xdbyH\xe3\x93\xb4Dq\xeb\x92s\x93_\x97\x1f\xb6?\xec\xe3\xf1\x1f\xc1\xbf\x1d|a\xac\xff\x00d\x07\xd2\xa6\xf1\x1d\xcc\x82T\x07+\x1e\xe3\xb6B=\xd7\x19&gt;\xb8\xaf\x14\xfb\x04\xa7\xfdT\x1b\xd7\xb3\x05\xeb_\xd27\x88&amp;\x94\xf8V\xe1\x8bd\xb4h\xfc\x8c\xe0\x99v\x12=2\xbc\x1cW\xc8p\xdaZ\xcf\xf1\x8bS\xd2\x9e\xdd\x05\xb4\x9a\x94\xe1\xa1\x8dB.\x11\x94.\x02\xe3\x18\x04\xf4\xf5\xaf\xa5\xbe\x18\xb1\x82\xc68!;R\x19Q#\x03\xb2\xe7\xa7\xbds?\x174m+X\xf8\xf3\xe0&amp;\xd5t\xe8n\x0c\x7fn\xf2\xcc\xd1\x86\xdb\x85\xb7a\x8c\xf4\xc1\xe6\xb9\xff\x00\x8c\x9e\x00\xf0^\xb9\xe0b\xda\xbf\x86m.\x1a\xe7M\x8d\xa7ib\x04\xb9(\xd9\xc9\xeb_\x8f\xff\x00\x16t=#G\xf8\x93\xac\xe9\x9a^\x9f\x1c\x16\xf0\xdf:\xc5\x14c\x01G\xa0\xaf\xff\xd9'</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Sample1.jpegSundar Pichai</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00\x15\x00V\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xf3?\xf8(\xef\xfc\x123\xc2\xde\t\xf8M\xaf|L\xfd\x95t\xfb\xbb1\xe1\xdck\x17\x9e\x10\xfbd\x93C\x06\xc8\xff\x00\xd6\xdb\xf9\x9f\xea\xff\x00\xfb]}\xc3\xfb\x18j\xbag\xc6\xff\x00\xd9\xbf\xc1~9\xd3\xf5/\xb5Z\xea\xde\x1d\x86\xe0\x83\xdb\xf7~\\\x95\xd6x7\xf6Y_\r\xe9\x9f\xf0\x8c\xe9~&amp;\xb4\xbb\xd2\xac\xff\x00\xe3\xcfG\xd5\xf4\x7f;\xc8\x87\xfeyG$rG\'\x97\xff\x00&lt;\xff\x00\xeb\x9dv&gt;\x00\xfd\x8d\xf4\xad$]\x9dW\xc4\xf7wv\x97\x7f\xf2\xe7\xf6+{H\x7f\xeb\x97\x97o\x1c~du\x9fib\xa9\xf1WI\xf8%\xf0\x97K\xb4\xb3\xb5\xd2l\xe6\xbf\xbb\xba\x1f\xba\x8a\xc6\xd3\xfd^\x04}\xeb\xe8\xcf\x07x\xdd|\r\xa7\xdb\x06\x03\xec\xd6\xdf\xf9\x06\xb8\xaf\xda\xb7\xf6\x82\xfd\x93u?\x11\xe9?\x07\xfe*\xd8\xdc\xea\xba\xff\x00\x88\xad\xb3\xa4ZivRM4\x03;&gt;\xd3\xbe?\xf8\xf7\xfd\xe7\x1ee|\xf57\xed\x0b\xa9\xfe\xcd\x1e$\x1e\x1a\xf8\x98\x7f\xe2U\xff\x00A\x8f\xf9\xe1\xff\x00]?\xe9\x9f\xfd4\xaf\xa2\xb4\x8f\x8cZo\x89\xfc\x13\xfd\xa25/\xf4_\xb2J\x7f\xf2\x1dV\xfd\x97&gt;3i&gt;%\xf8+\xa5i\xda\x96\xa2.\xf3g\xf6|\x81\xfe\xa3g\xee\xd3\xff\x00!\xd7\xcb\xff\x00\xf0Vo\x1d|1\xd1\xb4=\x12\xd7Z\x03\xcf\x1a\xb7\xeeq\xfd\xcf*L\xfe\xb8\xa9\xbcY\xe3u\xf1\xcf\x88\xed&lt;\x11\xe2F6\x83I\xbb\xfbE\xe5\x95\xa9\xff\x00\x90\xa4&gt;W\xfeDO.\xbc\x8f\xfe\t\xfd\xe2\xbd3\xf6{\xf8\xb7\xe2\xaf\xd8\xbfS\xf1/\xda\xf4\xad#W\x9bP\xf0\x1d\xe7\xfc\xf7\xd1\xee\xbf\xd2 \xff\x00\xbf~g\x97_uh\xf3\xe9\x9ag\xbdI\xa8\xfcL\x1f\xd9\xd7F\xbe|\xf8\xab}\xaa\x7fg\x1f\x1c\xf8\x1f\xc76~\x1e\xd7\xee\xc4\xb6\xe3X\xbc\xff\x00U\xf6J\xfc\xff\x00\xf1\x7f\xc4\xbf\xf8*\x0f\x89\xf5=\x7f\xc1\x1f\xb3O\xed-\xab\x7f`}\xaf\x8b\xdf\x11^[yS\xff\x00\xd7;\x8b\x8f\xdeG\xff\x00\x7f+o\xf6u\xfd\x90\xbe9i\x9f\x16\xae\xfe&amp;~\xd0\xbf\xb5_\xf6\xb5\xdf\xd8\xfe\xcf\xff\x00\x14\xed\xe5\xc6\xa3\xa8\xff\x00\xd7/\xb4\x7f\xcb:\xa7\xff\x00\x05\r\xf1\xb7\xc2-;L\xb5\xf8B?j\x9f\x1cx\x8b\xe2H\xf2m\xed&lt;!\xab\x0f\xf5\xd0\xc9\xff\x00,\xa4\xff\x00\x9e\x7f\xbb\xfd\xe7\xef+\xe8o\xf8$\x07\xc4\xcf\x12\xea\x7f\xb1&gt;\xbf\xe1\xaf\x1c\xfd\xae\xef\xfe\x11\xcb\xbb\xcd&gt;\xcf\xed\x7f\xf3\xc6?\xf5\x7f\xbc\xff\x00\xc8\x7f\xf6\xce\xbc;\xc6\xdf\x11\xbe9| \xd4\xb4\xaf\x1d|3\xf1\xce\xadi\xfd\xafg\xff\x00L\xfc\x99\xe1\x8eY#O\xfbi\xff\x00\xda\xeb\xc4&gt;#\xfcI\xf8\x99\xf1\x7f]&gt;!\xf8\x8f\xe2\x9b\xbdJ\xeb\x1c5\xc8\xe9_\xa9\xbf\xb3\x8e\xad\xe1\x7f\xda\x83\xe0\xdf\x80\xbe(x\xff\x00\xc0\xd6\xab6\xa7\xa3%\xdcQ[\\H\x8fl\xcd/\x96\xe8\xb2\xa9RP\x9eB\x91\xc2\xfc\x9c\x8ek\xc0\xff\x00\xe0\xa6\xbe\x10\xd1\xbc\x0b\xf1\xb3\xe1\xff\x00\xc4\x7f\x05\xdb\x8d2\xf9\xaf\xbf\xb3$kQ\xb1\x992d\xdf\xb9q\xce\xe6&amp;\xbd\xa7\xf6D\xfd\xa0|i\xf17\xe1F\x99\xabx\x8d\x95\xaeT-\xbd\xc4\x8a\xdf\xeb\x8a\xbe\xd0\xe7\x8e\x0e+\xa9\xfd\xa2\xbcW\xa9x7\xe0\x8f\x8a&lt;SbD\x976\xbad\xd2\xc2_\xf8O\x95_\x99\xdf\x00\xbe5x\xf7\xe3/\xc4\xedK]\xf8\xb3\xadO\xab\xc3\xe1K\\\xe9zh\x9d\xa2\xb7\x1e\xcc\x80\x95+\xec\x00\xaf\xd2\xaf\xd83\xf6=\xf8}\xfbExq\xfe0\xfcr\xb8\xfe\xd7\x8a\xe0\x89\xd3@\xb1\xb6\xfb\x1d\xb2\x86]\x81\x18\xab\x13\x85\xfe\x1d\x9b08\xe7\xadu\xbf\xb6\x17\xed]\xf0\x8f\xfe\t\xbd\xe0\rV\xef\xe0\xaf\xec\x93\xe1\xc9\xef\x92\xf8\xd9Eqw\xa82\xa1\xdcy2m\x8b\xcc\x91\x7f\xd8\xf3\x07\xd6\xbe"\xfd\x95\xfe\n\xf8S\xf6\xd3\xd4\xfc[\xff\x00\x05.\xfd\xa1t\xdb\rO\xc7\x7f\x10n\xfe\xd1g\x05\x9d\x8f\x91m\xa1\xdaGj\xd1\xc5k\x10.\xc6M\xb1\xa2\xa9\x94\xe1\xdc\x8c\x93\x8f\x92\xa2\xb5\xd5\x1b\xf6r\xb4\xf8\x87\xe1\x8f\x01\xc2\x16\xcay\xd6\xed\xe1s\x81\xe6K\xf7\xcdr\x1f\xb4\x05\x9d\x86\x8c\xde\x0e\xf0\xb5\x85\xa8[k\x9f\x04\xe9\xf7\x04aG\xef]C36\xd5\x1b\xbeR\xa9\xcfe\x15\x8f\xf0\xaf\xe0\xbf\x87|Z\xd3\xde_\xce\xea\xdb;&amp;{\xfdk\xff\xd9'</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Sample1.jpegSundar Pichai</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00\x1d\x00V\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfa\x97\xe1?\x84\xbc\x0b\xfbR\xf8gB\xf8\xf1\xf0g\xc5\x17\x90\xda\xea\xb6\xa4^j\x0bdnm\xeep\xbe[G:n\x1b\'\x8c|\xad\x9c`\xfc\xc3\xe5\xaf\x00\xfd\xb1\xfc\x1b\xab~\xcb?\xb5\x07\x85&gt;=\xfc7\xd4\xee%\x83Y\xb7\x8bG\xd5\xae.I\x929e\x8f\x84\x0eN2BlM\xddN9$\x93_N\xfc\x03\xfd\xaa\xbc3\xf1\xa3\xc0\xf6^$\xb71\xc7q2,w\xb0\x199\x82p\xdbYq\xe9\x9a\xd2\xf8\xbf\xe3\xef\xf8@\xbe\x18\xeb\xbe5\x9c0K\x1b)gDO\x9bx\x11\xe4~\xb5\xf07\x84?o\x9f\x88\x1f\x1c\xfcgi\xe1\xc9\xb5t\xf0\x7f\x87\xb4\xd8\xda9\xa5`\r\xd6\xa6\xe7\xaa\xc5 ?4\x9e\xca\x05}!\xfb;\xfe\xc6\xba\xaf\x89\xb5\x1b\xcf\x15\xea\x1a\xdc_\x084Y\xe6yN\xab\xe2k\xe8\xd7Qx\x90\xf9{\xc0v\x0c\xc4K\xf2&gt;\xe2\x98~\x06\x07\x15\xec6\xbe\x18\xff\x00\x82l\xfc1\xf0\xcd\xf7\x8a|Y\xfbE\xeb_\x18\xae\xd2B\x91YxV9uv\x91\xc9\xf9|\x98\xedw &gt;\xe6M\x95\xf0m\xdf\xecCq\xfbr\xfe\xd4\xbe)\xfd\xb7\xae\xf4\x0f\x11\xf8\x17\xe1\xc4z\x92C\xf0\xaf\xc1:\xe3\xb0\x92\xe2\x08 \xf2~\xd4\xd1n&gt;IyT\xb8\x84\xf2\xa5\xb0\xcd\xbb\xe4\xae\xc7\xe0\x06\xbfe\xfb\x1dx\'\xe2\x1f\xc3;\xb9\xa2h\xe4\xd4d\xbb\x82H\xe3P\xe1f9\x0b\x9cd\xe3?\x96\x07A\\\x07\xc6\xd6\xd2b\xd2\xbc%\xe1e\xd6\xad\xef.\x13\xc2\xd6\xb7"x\xa4GeiX\xbbG\x95U\xec\xc1\xf0\xf9\xe6F\x1d8\xae7\xc0\xdf\xb3\x8e\xb9\xe3y&amp;\xb9\xd3,3\x12\xae@U\xf7\xaf"\xff\x00\x82l\xff\x00\xc1O\xbe1\xfe\xc7\x1e$\x9a\xc7\xc3P\x8d\x7f\xc2Z\xc4\xa2}CA\xbe\x9flw\x18\x18\xf3c\x98}\xc9H\xe1\x81\x1f0\xe1\xb28\xaf\xb3~&lt;\xfe\xd7\x16\xbf\xb6\xff\x00\x86\xe1\xd0u\xcd\x06-+N\xb7\x8aY\xa0\xb3i\x04\xf2\xa5\xc32\xb4n\x19T\x0c\xab(&gt;\x87\xa1\xc8\xaf\x12\xf8\x0b\xf1C\xc5\xdf\x01\xbcs-\x9e\xbc\xc0\xe9Wr\xc8\xb0\xdc\xee"-\xe6G\x929\x17\xfb\xdef\x07\\c\x0f\x8c`W\xdd^\x08\xf8\xa7\xe1\x7f\x8a\x1f\x0b%\xd0u\xedQo-\'\xb1kIdx\x88,\x08\xc1\x18\x18\xed\xf8\xd7\xc2\xfe\x14\xfd\x91|\x03\xe3O\x16j&gt;\x15\xf1\x15\xb1\x96\xff\x00\xc3\xfa\xcc\xb7\xba&amp;\xa5\xa7\\K\x0c\x90(\xe9*4l\xa4\x1fn\x95\xe9\x9e9\xfd\x87\xfe\x11\xf8\xa2\x0b\x0b\xef\x8a\xda5\xde\xb64\xb5u\xd3\xe7\xd5&lt;Eq%\xc5\xb8w\xf3\x1c/\x9e\xee\x83s\xfc\xc7\x8e[\x9e\xb5\xaf\xa7\xfc`\xfd\x98\xfe\x07[\xc7\xe1\xf5\xd6\xb5-ol\xc2\x08-[T\x9fU\xf3\x02\xf4\x88\xc5\x132c\xf0\xaf\xac\xbfg\xcf\x1a\xea?\x10\xbc\x03&amp;\xae\xbe\t\x9bM\x8eq\xb6\xce+\xb8\x00\x95\xe18\xca\xf9q\x81\x80p3\x83\xf3\x0e\x0ek\xf2\xc3\xf6\xa3\xfd\xa25k_\xda3\xc60\xd9\xb8d\x93R\x92\xd7e\xc0P\xb1\xba\xab\x80\xc0\x01\x82\x03\x01\xc1\xe2\xb8}\x0f\xe27\x8d\xf5\xcf\x8a\x03@\xbf\xd6\x86\xa5\x11\x16\xcd\x13;g\xcdBI,H\xf4\xf4\xe9\x8c\x0c`W\xe9\xa7\xeci\xe0\xfb\xa5\xf0 \xd4.t\xdd\x8d*rYz\xf2+\xf0\xcf\xe0\xa6\x95\xe2{\xff\x00\x16-\xc4Z\\\xe6%9\x03\xca\xef\xeb\xd2\xbe\xff\x00\xf8LuM\'\xc3\xbb\xb51$}xc\xeb^\x85\xf1[\xc2\x8b\xe3\x7f\x830\xfc_\xf0\x9d\x8cW\x1b\x0c\x96&gt;%\xd2\xe3\x88\x18nf\x8b\x11\xab\xb9\xc6\x7f\xe5\xa2\xb0\xc6?\xd6\x1a\xf9\xfb\xc2\x1f\x1f\xfco\xf0\xaf\xc5\xb7\x9e\x0b\xb2\xd6.\xcb\xda\xdf\xc9#G%\xcb`@#$6\x0f\xf1\xe47\x1d&gt;_z\xe9&gt;\x1f\xfe\xdc\xbe\x1c\xd1~%o\xba\xd6l\xd6\xde\xdc\x9f\xb5\xca\xbbW\xce\xcfQ\x90:{\n\xfac\xe1\xcf\xed\xbb\xf0G\xe2\xad\x9ccM\xf1\x05\xbd\x95\xc4\xf2\xacQ\xd9\xdf\x050\xee\xed\xc9\xe7\x9a\xe2\xfe(j\x9f\x07\xb5\xef\x11\xdf\xde\x05\xdf\x7f\x1e\x9fs\x7fm\x1c6m\xb5\xa3\x85\x14\x962.B1&gt;g_\xf9\xe7[\x97?\xf0U_\x16|\x18\xf8\x19i\xe1\x8b=\x1fO\x94\xdehjl/\xa2\x91|\xb5/\xb7\xcb\x97\xd8\x1d\xe9\x94\xea7\xaf\xbd~u\xdc\xeb\x07\xc6\xde2\xd5~%\xf8\xb9\xeeL\x16\xf7\r=\xdc\x90\xa6\xf3!i\x18\x06\xe7\x85&gt;i*C}\xe0\xaf\xb7\x18\x15\xeb\xff\x00\xb0f\x8b\xa5\xf8\xb3\xc7FmY"v7L7:\x8c\x80z\x81\xe8&gt;\x95\xfb\x1f\xfb&gt;\xf8wM\xb1\xf0z\xd95\xccb4\xfb\x8a\x00\x18\xaf\x85&gt;\x13~\xc6_\x0b\xb4;O\xb5X\x86\x12\x7fx\xc4\x0f\xf3&amp;\xb3~1hv&gt;\x1b\xd2&lt;\xad&gt;%\n&amp;\xf2\xd8`\xff\x00\xbb\x91\xcf\x1c\xf3\xdf\xd2\xba\x0f\xf8&amp;F\xa7?\x8e|\t\xe3\xaf\x02\xf8\x86(\xa7\xd3\xa6\xd4me\x86\'S\x98\xdae\x981$\x1f\x9b\x02\xde&gt;\x98\xe9_\'\x7f\xc1D\xfe\x0f\xd8\xfc2\xf8\xbc\xfe,\xf0\xc6\xb9&lt;sj\x85\x92\xe1\x19\x01\x1b\x88\x00\xb0\xe7\x83\x8f\xeb\xeb_\x1bx\xd6\xce\x1d\x13\xc7\xe7\xc1\xd6O\'\xd9\x93N\xf3\x1eFp^G\xfe\xf18\xe3\xe9\xd2\xba\xaf\x02\xcf{\xe1\x8bmC\xc4\x9an\xa13\x7fek\x16Mi\x04\xef\xb8/\xdc\xc0$`\x1cd\xf5\x1c\xf7\xcd}[\xf0\xaf\xe2_\x8c\xe4\xbd\xbb\xd3\x86\xb2\xd0\xae\x9b\n\xaa\xb5\xaa,^|r;E$r\xa8\x1b\\0\x90\x9eG\x04\x0cc\x9c\xfc\xdb\xe2\x89\xee\xa4\xb3\xd6\xb4\xf9\xef\xee^\xda\xce\xc1\xae,`ir fE\x07\x19\x18?0F\x07\x1clP0\x05}\xcb\xf1\xfb\xf6n\xf0w\xc0O\xf8#\xd2\xf8\xaa\xd2Q\xa9\xeb~(\xf1F\x95w\xa9\xeaon\xb0\xb6\xc1s.\xc8\x14)$"\xf9\xa7\x19$\xe7\x9c\xf3_5~\xc7\xfe*\xd54\x0f\x14\xfd\xa2\xc5\x906\xfd\xdd;\xd7\xeaW\xc1O\x8c\xfe,\x9f\xc3|\xba\x8c\x1e\xc0\x7f\x85\x7f\xff\xd9'</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Sample2.jpgSundar Pichai</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x03\xec\x03\xec\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfc&amp;\xb8\x88H:sW,/\xc5\x9c[\x15\xb0jo\xedS#c\xcc9\xa4k\xa2\xdft\xf3\xf5\xabv\xa0\xb2\x87\x1f{\xb1\xad\x0b{o12\xcb\xcd?\xecJ9+\xfc\xea\x0b\x98|\xb5$\n\xa6\xf28&lt;7\xe9SY\xb34\xaas\xcduz=\xd8Km\x8c\xd5&lt;\xec\xf7K\xb1Ns[\x1e\r\xb2\x95\'Rz\x03\xfd+\xd4|:\xc2(\x91\x07\xf9\xe2\xbaKk6\xb8\x8fq\\\xf1W\xf4\x8d\x11\x1a@\xcd\x17~\xb5\xdc\xf8sK\xb6\x8e\x00\xa5\x075\xaf-\x8c\n\x01\xda?\nb\x15\x8a@?\x87\'"\xb5l\xee\xa1P\x19\x8fJ\xb6\x92\xa4\xdc\x0e\x86\xb54\xa0\x04{\x87Q\xd2\xba}\x14e\x15\x8f\\V\xfd\x88\xc1\x18\xad\x08\x97r\xe0w\xa8\xefm[n\xd8\xc7&amp;\xb3\xe6\xb3\xb8\xcf\x07\xf4\xa6\x9bwE;\xba\xd3\xd6\xe5\xa1L\x16\xa9\xe1\xd4I\x1c\xbf\xe9SG4\x93\x1e\x1b\x8f\xa5Y\x8a\x16\xc6\xee\xf4\xe1\x10\r\xbd\xeb/U\x91\x10\x9d\x9cVi\xbfx\xe4\r\xbf\x81\xedV\xec\xf5eg\x00\xbf\x15\xa9e2L\xe0\x8e\xf5}!G\\m\xa46\x111\xcbE\xfa\x9ac\xe8\xe6\x7f\xdd\xa4}zR\xdbxF\xfa?\x98\xa9\xc7j\xbbk\xa3]B\xc3vj\xd4V\x13\x07\x04\x93V\xa2/\x08\xc0b\r\x13\\\\\x18\xce\xd7$\xd6u\xc4W\xd3\xbe\x17w5sC\xf0\x85\xed\xec\x81\xda\x02Fz\xd7{\xe1\xcf\x0c\xbd\xbcJ\x92C\xc5t0i\xd1\xc5\x16&lt;\xbf\xe7V\xedm\xc8\xc6\xd1\x8a\xbfoo!\xe1\xbaw\xa9\xd2\xd4\xe7j\x8e\xb5\xa1dZ\xd8\x02\xc7\xa5Y}@\xb8\xc3&gt;\x7f\n\x81\xaf\xb2\xfbCqJ\xb7A\x98\n\xb5o.p\x05]\x82G\x1d\x1b\xf4\xa9\xc9f\x8c\xf3\xcf\x15\n\x89D\xe0\x86\xab\xb6\xd1\x19\x1c\x07\xe4T\xedf\x84aW\x9f\xadB\xd6\xb2\x87\xda)\xc9g)`\x05Y\x8bLy8e\xcd6m-\xa3\xc9\t\xfa\xd4k`\xccp\x14\xfet\xf1\xa6H\x0e@4&gt;\x9f RH4\xcf\xb1\x1f\xee\x9f\xce\x9a4\xf0\x1bpN~\xb4\xc6\xb6x\x9b8\xc0\xefJ\xae\xcb\xd0\xd1\xfe\xb0\xe1\xf9\xa8\xa5\xb6\x89\xdbn\xcf\xd6\xab\xcfh\x81H\x0bQ\xa4\'!OJ\x99\x10\xafN\x94\xed\x9b\xfeR:\xd4\xf0YFH;(\x9a\x04L\x92\xbcw\xac\xeb\xb7\x8c9\x18\xe2\xb3\xae\xa0Y\x18\x9d\xbcV]\xfd\x98\xe7j\xf3\xdb\x9an\x97m\x12\xb1Y\x14`\xf5\xcda\xf8\xd3\xc3\x89~\xdeu\xbag\x1e\x86\xb98\xf4{\x8b;\xaf\x99p\x01\xe4b\xba\x1b\rF\x04\x84F\xd8\xe3\xadC\xabM\x03\xc6|\xa1\x82q\xdf\xde\xb0ne\x90I\x80\xdd\xeah@x\xb70\xe6\xa9\xdeN\xf11!\xb8\x1e\xd4\xed3\xc4\xd1\xda\xbe\x1e^\x95&amp;\xa1\xe2\xebk\xb6\xc8\x97 \x0ek$k\x16\xedq\xbc0\xebZ\xf2_X\xdfY\xf9;W\x91\x83\\\x17\xc4\x0f\x02\xc7\xacF\xcc\x90\x82;\x10:s^G\xe2\x0f\x86\xcd\xa7L\xff\x00\xba\x07\x9e\x06\xda\xe3|G\xe1\tV)6\xc0\x07\x15\xe4\x9e9\xd0\xa7\xb7\xdc\xe5\x0es\xcf\xbdpW\x1a\x92XNVE\xc1\x07\xa9=*\xcc&gt;)\xb5\x95&lt;\xa7pI\xefYZ\xccV\x97\xca\xce\xb8$\xf4\xaeOX\xd2\x02\x96pF\x05g\xd8\xe8_kr:\xfaS5/\t\xecm\xc1?SL\xb0\xd0&amp;V\xe1:V\xa3i^L\x19\x92&gt;\xdc\xd5I.\xe3\xb3\xc8\x18\x02\xa6Mr\xdaHv9\x04\xe2\xb2\xa6\xd6aK\x82\xc1\xbb\xd5\xe9&lt;A\x1c\x96\x9bXv\xaav\x17\xb2\xfd\xa3\x82F[\x8a\xf6\xcf\x83\xfa\xdayk\x04\xcf\xbb\x18\xc05\xee\x9a\x1e\x81\x16\xb3fe*\x98\n1Qj?\r\xa4\x97/\n\xfd0Mjx?\xc3\x1a\xb6\x938-!\xeb\xe9^\x8b\xa5\x1b\xa9Q^V\x04\x81\xcf5\xa9\x15\xd3B0H\xfc\xe9\xe7R\xdd\xf7\xd8\x11\xf5\xa7\xac\xeb*\xf0x\xa8\xe4\xbc0\x1d\xcaN\x07j\x9e\x1b\xb7\xba\x00\x1c\xf3\xde\xaci\xf6\xd3\xb4\xbdx\xcf\xa5u\xbae\xbc\x8b\x12\x1fj\xb9\xe5?\xa5~\x03\xc8\xaa"\x0e\x07&gt;\xb5Nl\x96\xc8&lt;\xd4\x90\xc6\xfc6MZ\x866\x1f3V\xa5\x87A[:p\r\x80EM)\nq\xda\xa8^\xca\xbc\xa9\xe9Y\x81^Yp:v\xad]3H\x96R\xac\xab\xcdo\xd9i.\x91a\x94\xe6\xb4\xf4\x9d*I\x1c\r\xb9=\xab\xb3\xf0\xcf\x87\n\x05&gt;W^\xb5\xda\xe9\xda&lt;\xb1\x04eR1]^\x91lD\x000\xe6\xb4\xe0\x06\x04\xdc\x07\x1d\xc5liz\xc4p\x85\x0c+^\xdfR\x17 m\x1c\xf65;\x05(Y\xc7zX\xa7\x00\x84\r\xc7\xa5ji\xd2\xf2\x14\x1a\xe8t\xcd\xa2 O~\xb5\xd1i3\xaa(\x00\xf1Z\xf6\x97\xf8#\rZ\xda}\xe29]\xc75}\x11\'p\xc1ie\xb1B\xa4\x88\xf9\xfa\x9a\xa5ubpN\xda\xcb\xbc\xb6e\'\xd2\xa2\x8d\x08`\t\xe2\xaf\xdaI\xe5\xb0\xc9\xe35\xa3\x15\xd2m\xc85\x1c\xf7\xd9\x05Cpk2\xfa\x13&gt;p3\xedYWvr\x96(# RX\xd8\xcc\x0e\xe3\xd8\xd7E\xa3\xdbJ6\xe2\xb7\xadm\xd0G\x97^~\xb4\xf9#EB@\xabZ*$\x93\xa8\x7fZ\xe9\xe4\x82\x04\xb7S\xc61Y\x97O\n?Q\x8fJ\x83~\xe6\xca\x0e=1H\xd1\xef\xff\x00\x96\\\xd4\xb0Yy\x84(\x84\xe4\xf7\xe6\xb5\xf4\xcf\x0c\xbc\xee\xac\xd1q\xde\xbb-\x07\xc3\xc9m\x08\x05\x00\xf5\xadY,\xd2\xd5C\xa60*\xb4\xb7$\x1cf\xafi,\x93r\xe3\'\xb5jF\x8a\x13 S\xe2!d\x04\xd2\xddJ\x14m^3U\x1a\xe9\xb7\xed\r\xc7\xd2\x91\x9c\xb7*\xdc\xd5\xbbH\x19\xf0H\xc9\xadk+\x12p\xc5kF\x1b\x13\x8f\xbbV\x12\xc9\x84y\x02\x91lJ\xb6\xf6Z\xb7o\x00L6:U\xa4\x8dXp9\xa0\xda\xe4\xe4\x0ejxl\xb0C\x15\xab\x90[\xa2\x8d\xc5x\xa2[\x1f;\x80\x9di\x8b\xa526\xed\x9d&gt;\xb4\xe6\xb1`2\x14~U\x1c\x96m\xb0\xee^*&amp;\xb4@\xb9\xd9\xfa\x9ao\xd9\x97\xd0~t\xc94\xe8\xe7R\x81\x06O\xb9\xaa\xb2h\xe63\x93\xd0v\xa8~\xc6RA\x95\xe2\xa3\x92\x02\xad\x909\xa6=\xb3?\xd6\x90Y\xb2\x9c\x91D\x96\xc4\xa1\x0b\xd6\xa0\x01\x91\xc0=j\xdc22\xf3\x9f\xd2\xa2\xbb\x9br2\x83X\xd7\xfb\xb7\x1d\xa7\x06\xab\xbc\xac# \x9ej\xb4\xc9\xe6\x02H\xe6\xb3u\t\xc5\x99\xf9G\x1d\xc5%\x8c\x91]FK\x9e\xbdA\xaco\x10\xe9\xf1\xc6\xec\xf0\xe0q\xc8\xcdrWZ\x91\xb4\x99\xa3\x08z\xf5\xa7&amp;\xae\xd2\xa8W\xa6\x1d\xb3H\x0e2*Eb\x8b\xb5G\x1e\x95\r\xfd\x9bJ\x84\x88O"\xb8\xbf\x14]K\xa4ol\x15=\x8f\xe3XZ\x7f\x8ad\xb8\x9b\xca\x0eH\'\x91]\x1d\x85\xac\xf3F&amp;H\xce\xdcsSE\xa9Kh\xc67\xcf^\x95\xabm\xa9\xdb\\C\x89\x98\x1fc\\\x8f\x8e\xed-\xe7\x90\xb4ak\xce\xbcC\xa5\xa1Y\x00\x00\xe4t\xaf&amp;\xf8\x81\xe1#:\x17H8\xc1\xe9\x9a\xf0_\x88&gt;\x19\xb9\xb3g}\xad\xb8\x9e8\xf7\xaf:\xbe\xd5n\xac\'(\xecA\x07\xd2\xac\xd9\xf8\x9d\xa4O,\xbf\'\xb9\xa8\xf5\xed]c\xb5f\xcex\xe4z\xf3Y\x1e\x1f\xf1b\x0b\x83\x19S\xd6\xb6f\xf1\x05\xb4\xce\xbb\xd7\xafsV\xac/-]\x86\xdc\x00j\xe5\xfaE%\xb1\xe4\x11\x81\\\xb6\xb5d\\\xb7\x96\xbf\xaf\xbdf\x0bgG\xc6H&gt;\xb9\xa2\x1d\r\xee_r\x9es\xd75\xbbi\xe0\xab\x99\xa1\\\xf3S\xc9\xe1)\xadJ\x9ct\xad\xbf\rx\x8aO\x0f\xbeJ\xf4&lt;\xe6\xbdK\xc1\xdf\xb4?\xf6di\x0bH\xa0\xe3\x18\xeb\xda\xbd\x0b\xc3\xdf\x1f`\xbfU\x0e\x07=\xf0+\xa3\x8b\xe2|w*\xaf\x08\x04\x9faV\xe1\xf8\xb3\x15\x94G+\x8f^k2\x7f\x8e\x01\xa7\xf2\xcc\x98\x19\xed\x8a\xdb\xd0\xbe!6\xa2VH\xd8\x9c\xff\x00\x85vz&amp;\xb55\xe2*\x95&lt;\xfbV\xa9\xb5\x96\xe0\xa8\x11\x90\x1a\xba\r\x17\xc3\xcd4\x00\x14\xe4\x8e\xb5\xaf\xa7\xf8\x7f\xca\x1c\xaf\x7fZ\xdb\x86\xdb\xc8\x8dP\xae(&lt;\x13_\xcf\xeb\xdc\x03\x10\x04\xf6\xa8\xe0\x8c\xccs\x8e\xf5r\x1bF\x03$T\xf1\xc3\x86\x01\xbazV\x8d\x95\xab\x1c\x14\\\x8fJ\xda\xb3\xb4\x95\x02\x95\x88\x8f\xff\x00U6\xe82\x92\xac\x84VM\xeeK\x90)\xfaF\x9f$\xf3\x8c.y\xaf@\xf0\xaf\x86!\x965-\xc1\xc7\xaf\xb5k\xc9\xe1\xa3\x18"4\xfcE^\xf0\xff\x00\x87\xa6\xfbR\xfc\xa7\xa9\xed\xed^\x89\xe1\xff\x00\x0f\xc4\xb1\xa2\xb4X\'\xbeMuV\x1a\x0cM\x10\xca\x8e\x9e\xb5\xa3o\xa7,CbE\xf8\xe4\xd5\xa5\xb0&amp;/\xbbM6N\xa3*1Zzi\x920\x01&lt;\xd6\x80\x95\xda2\x19\xbd;Q\x06\xdf4n\x1cV\xc6\x9a#\x0c6\x8e~\xbe\xd5\xbfb\xed\xb0.x\xad{i\xe4\x8e\r\xcaz{U\xbb]BP\xc3 \xe3\xe9[\x1a~\xa2\xc7\x00d{\xd7C\xa5\xdd;\x80\x0bs\xf4\xad8\xdb#-QO\xe5\x1e1Y\xf76BV?/\x15Nk\x1f/\x90\xb8\xaa\xee\xd2Dz\xf1\xe9K\x1d\xe4\xa4\xed\x1cS\xf7\xb37&amp;\xb4\xac-`\x91\x01e\xe7\x1dsQ\xde\xe9A\xb2\xcb\x8ad\x1a&gt;\x17\x02&gt;\xb5\xaf\xa6\xd8\xacJ2\x9c\xd5\xd1\x19\x1c\x0cRI\x19(EMb\xad\x0b\x06\x0b\x9fj\xb9w\xaa^\x15\x11\x848\xc7\xa5QF\xbd\xb8\x97,\x87\xaf\xa5ni:T\x92\xa0-\x17&gt;\xa6\xb6c\xf0\xeal\x0f\xe5`\xfa\xf3Vm\xb44\x88\x89\x19A\x03\xb5n\xe9\xb6j\x90\xfc\x8b\x8a\xb45\x19 "\x00\xbd\xfa\xe2\xacI{\xe6\xc6\x15\xc7QY\xd7w\x05\x18\xec5wE\xbd\x90.y\x1e\xf8\xae\x86\xcaU\x92,\xbf4\x93\xcc#\x04\xa0\xe6\xa1i\xdes\xb1\x94\xfdi\r\xa9\' sSAe\x82\x18\xadk\xe9V\x81\xa4U#\x19\xff\x00\n\xe8,t\xf4\x00\x12sW\xe2\xb2R\xbf*U\x81b|\xb2\x02\xfeT\xd3`\xe0e\x94\x91\xe9QI\x1c\x89\xc2\xc4@\xf4\xa5\x81\xa7\x12\x01\xb4\x8f\xc2\xae\xc0\x921\x1b\x8d\\\x8e\x1f\x93\x91\xc5+\xf0\x98\x15j\xc5C\x01\xb8U\x89b@\x84\x85\xfdj\x19\x10\x14 \n\xa92?+\xdb\xe9Q\x98\t\xe0\xd42F\xeap)\xa7\xccQ\xbb?\xa5G!f\x04\x81\x93P\xc9\x0c\x8c?\xd5\xe0\xfa\xe2\xa2kG\xfb\xcc)\xa2\xdc\x83\x91C\xc2\xc1MD\xf1\xb8RET\x92\x02\xf2\x82i\xe5P!S\xc1\xfa\xd4O\x04N\x0f\xcd\xcf\xd6\xb3\xef\xad\x91\x18\xb6\xef\xc2\xb2.\x9c\xa3\xf1\xd3\xd2\xa2\x13\x92p\x17\x15GP\xb2{\xa2[&lt;\xfa\xd6E\xc4\xd3\xe9\xd2\x15\\\xfe\x15J\xe7Q\x96\xe5\xf6J\x87\x9e\xf5\x93\xaciv\xe5L\xa3\x00\xf7\xe6\xb9\xdb\xc9\xde\xdeO*1\xc7\xd2\xa5\xb3\xd4s\x84n\x0f\xadhY\xcfo$\xca\x1a\xe4}8\xae\x82\xdbK\x8e\xe6\x10\xc1\xc1\x18\xe9^}\xf1\x87E\x8a\x08&lt;\xd5Q\x929\xf7\xe6\xbc\xe3\xc3VHo\x88\xdb\xfc~\xb5\xee\x1e\x11\xf0\xb5\x9d\xc6\x8c\xae\xec\xa3+\xc8&amp;\xb9\xcf\x17\xe8Ka$\x8fl\xb9\xc7@9\xef\\E\xe6\xb7\xa9\xe9\xf20\x92\x078?.\x07J\xcd\xd4\xb5\xeb\xcb\xe8\x89\x91Nq\xc7\xca+\x9b\xbe\x96i\xae60\xeb\xedUu\x0f\x0b\xc7}\x06\x0c&lt;\xe3\x83\xe9^M\xf1{\xe1\x8cmle\x11s\x83\xd0W\xcd^=\xf0@\xb6\xbai&lt;\xb3\x9d\xc7\xd6\xb8\xf7\xd3\xeem\xe4!!&lt;\x1e\rG}\xe7\\\'\x96W\x9cc\xa5P\x87H\x96\xd1\x8c\xbbpI\xe0\xd4W3\xea\x08\xdc\x02@\xee\x16\xafi\xfa\xa5\xd4h\x04\x80\xfeU\xab\x0f\x88\x0b\xc5\xe5\xb3s\xeai\r\xe4S\x9d\x8c\xc3\x9e\xf5\x99\xa8:,\x87bg\x8e\xb4\xdd\x0bT"\xecF\xe0\xfd\xea\xf5M\n\xde\xce\xe3LY\x01\x1b\xb1\xd35\x1d\xfd\x94l\xdf|\x0fz\x8a\xcf\xc3\x10^g%y\xeej\xad\xdf\x86"\x86\xe4*(&gt;\xeb\xc5t\x9e\x12\xb4\x92\xd8\xa0bx&gt;\xa6\xbd\x1fEv\xf2\x10g\xb5U\xf1$\xf2\xc2q\x1b\xb0\x07\xae+#E\xd25\x8dF\xfddXdt\xdd\xcf\x15\xed\x7f\x0f\xfc \xc9\ny\x91\x94 \x0e\x1b5\xeb\x1e\x16\xf0\xfd\x90\x8e?\x94\x1cu\xe4\xd7O\x16\x86\x8a\xc8U\x06\xde\xe35\xb7\xa7@\x96\xf1mU\x02\xadBBH\x18T\xb2\xceJ\xe4\xb7Oj\xaa\xf7$7\xde\xaf\xe7\xe6r\xdb\x00S\xda\xaf\xe8\xdb6bA\x93Z\xfe\\%\x02\xaa\xf2}\xe9#\xb1v\x94q\xf2\xd7G\xe1\xdd-de\x0c\x9fC\x9a\xea`\xd2"\x89U\xd9A\xc0\xe9\x9a\xc2\xd7\xe2\x89\x19\xb6\xa5sK\x0c\xd7\x17$u\x19\xe3\x8a\xe9\xbc5\xa1\xcc\xcc\x8c\xa9\xfeq]\xc6\x91\xa4]B\xc8UO\xf9\x15\xdb\xf8k\xc33^\x14\x12E\x80z\xb1\x1e\xd5\xd5A\xe0\xcb[H|\xc5\x8f\x91V\xac\xed\xcc_+\x0e\x95\xa7i,\x8a\x02\x86\xe3\xd2\xb7\xec#Y-\xc9#\x9e9\xa9\x84EF;R\xa4H\xec\x15\x97\x8f\xadO\x14Q#\x02\x17\xf5\xa9w.6\xa8\xfdiS\xef\n\xd1\xd2%l\x82\xc7\xa5t\xbaS\xa3\xed\r\xcdn[,^^\x02\xfe\xb5r\x18\x94\xaf\x0b\xcdiX\xc2H\x03\x15\xb5\xa6\xac\x91\xe0\xaf\x15\xab\x15\xc0\xf2\xf6\xb1\xe6\xa1fv\x98s\xc7qO\xdcq\x8a\x8eX\xa3u;\x975N\xe2\xd6\x1cd\'?SP\x9b`F\x14s\xf5\xa4[I3\xc2\x93V\xad\xe4\x9dG\x94\x01\x19\xf6\xab\x90G#\x903Z6\xb6d\xaeH\xfd*t\xb7d9^\xde\xd4\xfd\x92\x9e\x01\xfd*H\xed\xa4q\xf3s\xebZ\x16\x1ao!\x82\xe0\xf6&amp;\xb5\xbf\xb0\xe3\x95\x03\xbe3\x8e\xb5n\xcf\xc3V\xfb8\xc1\'\xb5l\xe9\xfa,\x11E\xb5\x94\x0f\xc6\xa5\x9a \x88Al\xa8\xedP\xc6\xe9\x821Z62\x8d\x81V\xa6dF9e\x15\x14\xd2HWj\xb7oJ\x83\xc8\xdc\xfb\xe4\x19\xab\xb6#i\x11\x8e\x87\xa8\xad[Y\xa4A\xb5[\x03\x1e\x95n5W\x1b\x98d\xd3\xbc\xbf\xf9\xe60{U\xabk6t\xdc\xcb\xcdJm\xa4U\xc0\x15{N\x82e \xe6\xba\r&gt;&amp;\xf2\xc1\xefZV\xca\xe1\x81&amp;\xb5m \x8eD\x00\xaf\xebS\x1b\x04#\x84\xfdj\xb4\xd6\x18?r\x99\xf6\x0fT\xa9\xe2\xb0\x08\xbb\xb6t\xa74l\xa8Gj\x8aX\xdc\xa1\ny\xa9\xad\x0b\xc61\x9a\xb0dv\x18&amp;\x9b\x82x\x14\xd3nI\xc9\xa0\xdbq\xd2\xab\xc9n\xbb\xb2\xcb\xc7\xd6\xab\xcc\x8b\xf7q\xc5%\xbc\x11\xb0\xdd\x8c\x1e\xc6\xad-\x94L\xbf1\x15\x05\xd5\x94A\x08\x1f\x96j\x93[\r\xdb@\xa4{\\)8\xaa\xf2FT\xfbUI\xd4&amp;YF\x08\xaaw\x0e\xc4rj\x06g\xc7\xca\xc75R\xe9d9b\xd5\x9fq\x0bgw\x7fZdP\xb3\xc8\x15\xb9\x06\x96\xf2\xd1PaW\x1f\x8dgM\xa5\xdb\xce\xac\xcf\x1f#\xa1\xc9\xacmf\xc1-T\xb4j8\xec+\x91\xd5e\xb8\x9aFN}\xb8\xaa\rb\xd2\x1c\xba\xe6\xa9j\xd6\xf2[F^\x11\x8c\n\xe5\xa4\xd7\xaf\xac\xf5 \xcd+aX\xf6\x15\xddx{\xe2\x1e\x9fmh\xbfj\xb9\x19\x03\x9c\xd73\xf1?\xc6:~\xaf\x19Ky\x81\xe0`~5\xcc\xf87D\xbc\xbb\x94\xce\xa0\xb0-\xc6\x05z\xb6\x87%\xd5\x96\x9a!rF\x16\xb3\xe4\xbbK\xcb\xd3\x05\xd4\x9c\x13\xd4\x8a\xaf\xaf\xf8kJ\x9a\xd8\xbcaK\x101\xef\xcdp\xda\xde\x86!\x91\x82(\xc7\xa5s\xb7\xda4\xa2_0\'CR[*\xa6#\x93\x19\xf7\xac/\x1b\xe8V\xfa\xad\xbb\x00\x80\x80\xb5\xf3g\xc5\xdf\x00\xb42\xb9\xf2\x89Rs\x80\xbe\xf5\xe6\x1a\x8f\x86\xec\xadm\xf7:\x00Nr\rqw\xc9g\x15\xd3D09\xe9\x9a\x8a\xe2\xde9@\x1b\x86*k\r.\xd6e+*\x82&gt;\xb4\xcb\xfd2\xda8\xd8F\x80}+\x02\xe4\xc9\x0c\x84\x83\xc0\xa8\xbe\xdb\'\xd3\xde\xad\xda\xca\xb2\xae$\x19\xcdR|\xdb^\x87\x84as\xd2\xbbO\x0e\xf8\xa5\xa1\xb6Tg \x8e\x86\xb45/\x12Bb\x05d\xe4\xf7\xcdK\xa4x\x88ygl\xb5\xa3i\xaaC4\xcaY\xfeoS]V\x82\x90\xba\xab\x03\x9c\xf6\xae\xb7N\xd4-\xac\xe3U\x9c\x81\xc7\x1c\xd4\xe6\x08u\xab\xd8\xcc\x0c0M{\xef\xc1\xcf\x84\x1al\xfaJ]\xdcD\x99#9#\xda\xb7|Q\xa2Yh19\x80\x0c\x81\xd0\x0fz\xab\xe0-^\xe2{\xbf)\xdc\xe3w\x1c\n\xf5\x1b\x0bV\x90\x02\xa3\x8d\xbcsV\n\x98\xce:Q\xbd\xbdh,O\x04\xd3\x0cHNJ\xfe\xb5\xf8\x02!fM\xc7\xa8\xe9R[K\xe4\xb0\x00\xe2\xb6\xf4\xf7YUI\xe4\xf6\xad\xbd?Oy@;r+\xa4\xd0\xf4\xd6\x8c\xaf\xcb\x81\xde\xb6\xa6e\x8a\x1ct\xe3\xd6\xb9}y\xd6B\xc0u\xedY:E\xb8{\xb0\x19s\x96\xafE\xf0\xe6\x9f\x14`\x08\xd3\x18\x1crk\xbd\xf0\xce\x88nLe\xa3\xcdz\x8f\x85\xfc4\xb1\xc0\x8d\xe4\x801\xc9\xad\rN\xca;x\x88 `\x0e\x95\xcf\x82\x8f+(\x1d\xf8\xab\xd662\xc8\xca@\xe2\xb7\xec`\x928\xb6\xd4\xc26\xcf\xccr)J"\r\xc0c\x14\x9eo\xfb_\xa5\x06b9V\xe7\xe9SD\xecFI\xad-9O\n\xbd\xeb{O\x94D\x80\x93\xc8\xad\x9b\x1b\xe1\x807V\xbd\x95\xc4n\x05n\xe9\xbe[\xa8\xca\xf3Z\x96\xa7n\x07js\xccC\xfc\xa7\x9c\xd5\x84c\xc0\xcd,\x84\xaa\x12\rFd\x91\xb8\r\xfaSLN\xddMK\x05\xaa\xb1\x19_\xd6\xa7[P\x8d\xb9S\x91\xf5\xa7-\xb0g\x05\x90U\xcb;4\xf3\x06\x17\xf5\xadKk`0\xa1x\xa9\x8d\xa2\x9e\n\x7f:\x12\xc97\x8f\x93\xf55i-\x10&amp;B~\xb5r\xca \x1c\t\x06W\xb8\xad[o+\x81\xb7\xf5\xad\x1bi\x10`\x01S5\xc2\xa2\x93\xbb\x8a\xab=\xda\x9c\x85j\x82\xda\xe03\x95\'\x8a\xd7\xb1t\xe0\x81\xfa\xd5\xa5\x901\xc0\xfet:\x0ceG4\xc5Fc\xb4\x9a\xb7ko\x86\x04\n\xbfo\x13f\xadB\xb2\xef\x0b\xbb\x8f\xa5[\xb3\x81\xa4~y9\xe2\xb6t\xfb&amp;|)^*\xd9\xd3\x14\xf0S\xf55j\xc7MR\xea\xa6&gt;&gt;\xbe\xd5\xb1md"\x03\xe5\xe2\xa7U\x0b\xc2\x8a\xd1\xb1$("\xaf\xa2\x8d\xbb\xb1\xcd\x064c\x92)\xa6$\xc7\x0b\xfa\xd4\xb1\xdb\xeeM\xac\xb4=\x9a\x059O\xd4\xd4Oh\x81I\x0b\xcf\xd6\xab\xba2&gt;iU\x898&amp;\xac\xc7\x122\xe7o?ZS\x0f\x1cTR\x07V\xeb\xc5V\x9d\xdb\'\x9a\xaf$a\x87Ni#\x85\x81\xdb\x9e\rJ\x11\x87\x00\xd2\x18\xb2r\x7f\x9d\x11\xda\xa3J2\xbf\xad\x17\x16\xea\xaax\xe2\xb2\xef\x15T\x1c\n\xa10\x0c\xc4\x11T\xaePc\n*\x01\x1b\x83\x90)\xb2\xc0J\x1c\x8a\xa5sl\x08?-B\x96\xfbX0\\\x1aK\xd5s\x81\x9f\xd2\xa8L\x8f\x82\x9d\x8fZ\xc9\xd5-\x8b\x82q\xc8\xe9\\\xed\xf6\x95\x1e\xf2\xc6.}rj\x8b\xd8\x05o\xb9\xc7\xd6\xb35\xabp8\xc7j\xe2&lt;E\xa6\x00\xcf2\xc5\xcf\xff\x00^\xb8\xfdh\xea\xd1\xb10\xbb\x00;\x01Y\xfat\x1a\x9e\xa37\x970bs\xc15\xeb\x9f\x0b\xf4\xd4\xb4\xb5Qx\x83=\xb3]\x9d\xe0\xb6\xf2\nE\x8c\x91\xc5r\x93\xe9\x17Kxf9\xc6x\xa9Yg)\xb2V\xac\x1dkNi\x1c\xb8Z\xc6\xbd\xb1U\x81\x83\'8\xe2\xb8\xed^\xeeKi\xd8o\xc6=\xa9\xda(]AO\x9b\xf3g\xd6\xb8\xef\x8a\xbe\x02[\xb52\xa4\x03\x01x\xe2\xbet\xf8\x99\xe0\x8b\x8bd\x91\xa3R0\x0f\x00W\x84kV\x13\xdb_\x96\x98\x9c\xee9\xa8M\xd1X\xf0[\x9e\xd5=\xae\xa6\xb0\xaf\xdf \xd2\xcb|\xd2\x9d\xdb\xf8\xac\xeb\xd8\xcb\x02\xea*\xa3B\xce6\xb1\xe2\x9f\n\xba0\x19\xe3\xd2\xa56\x9b\xff\x00{\xb7\xa7z\r\xdb\xda\xae3\xd3\xb5Gu\xad\xca\xc4.\xe3\x8fLV\xb7\x87\xee&amp;\x9a=\xc0\x1a\xdd\xb0i\xfc\xd5\xc88\xcdv\x9e\x1d\xd5#\xb6\x89C7"\xb5u=t\xdd\xc6\x16\t9\xe0`}k\xb4\xf8S\x03Kr\r\xd2\x16\xc1\xca\xe4\xfbW\xd4_\x0f|[i\xa6hi\x04\x8c2\x17\xa5E\xe2=H\xebe\x961\x90\xdd8\xa8\xfc\x17\xa2Igt$\x918-^\xa1\xa4\\\xaaF\xaa\xddH\xc5O8I\x0e\xf0?\x1a\x89\x94\x01\x90)\xb4W\xe0M\xb2+\x90\xac2*\xad\xd7\xee\xee0\x9cV\xcf\x87\xd8\xb9\x05\x8fJ\xeet\x88S\xc8]\xab\xc9\x15\xbdb\xeb\x14\x7f0\xe9I}w\x19BX\xfd+\x9f\xd4\xd4J\xc4\xc69\xedP\xe8\xf6\x85nU\x88\xfe.k\xd1&lt;5\x0b\xb1\xf7\xe2\xbdo\xc0Zj1P\xf1\xe4\x01^\x97\xa7\xad\xbc\x16 2\x0c\x01\xeb\\\xef\x89uQ\x1b\xb2\xabq\xe9X\xdaT\xdfi\xb8?!\xe4\xf5\xae\xbbC\xb5B\xaa\xcc\x9f\xe7\x15|\x80\x87\n1R*\xef\\\x1a\x82h\xdc\xe5\x0fJ\xac\xe8\xc8\xde\xd4\'\xde\x15r\x1f\xbbZ\x9a{l*\xd9\xad{wG\x8f\xdf\xebWm\xa41\x91\x83\x81\x9a\xd6\xd3\xee\xf6\x90KWI\xa3^\x86*\x03V\xed\xb3\xab\xc7\xefO\xd8\xb9\xdd\x8ei\xe2gR\tn\x94\xadpXm\xddRB\x81\x98\x0cU\xc8,\xd1\x88\xca\xd4\xebl\xb1\xf2\x054\xe08\x07\xa74\xec\xaa\xf2\xbdj\xd5\xa4\x8c\xac\x0ekB\xda\xe3\x91\xcd[\x0e\n\x12:\xd2#\xb0`sWm\xdb#\x0f\xd2\xa7YcNE:\xd6\xfc\x17\xc1n3W\xed\xef\xb3\x8c75$\x97\x8cP\x82\xff\x00\xa0\xaas\\\xbeN\x1b\x9a\x92\xd9\xd8\x1d\xc0\xf3Z\xd6.\xe1A\xcdhBO\xde\xefVc]\xeb\xefNH[p\xcd\\\xb6\x85\xb23Z\x96\xb6\xb9\\\x85\xe6\xa6KY\x15\xb2j\xde\x9d\x11Y\x01#\xbdtZlH\xc8\x08^j\xfa\xda\xa9M\xdby\xab6p\x04\x91[\x15z\\"\x81\xdb\xbdU\x96\xe1P\xf5\xab\x967\xcb\xb4|\xd5\xa1\x15\xe8+\x8c\xd3\x8d\xdex\x06\xa6\x82@\xe4U\xb8\xbe\xed8\x80x5\x04\xf9\xe5V\xaaL\x8e\xc7\x04\xd2C\x012\x00zU\x94VC\xc1\xa7\xefoZ\xaf+\x16}\xa4\xf0j\xb5\xca\x0c\x1c\x0ej$\x8d\x8b\n\xb1\x1d\xa9e\xc8\x1c\xd3\xd6\xceBpE5\xed\xdd\x1b\'\xa5\x08\xa00 S.\x80*A\x15\x85\xa91V \x1e*\x93\x80A\'\xadR\xb8$\x1c\x8a\x8d\x18\x96\x01\x8f\x14\xf96l8\xaa7\x03\xe55\n\xfd\xe1N\xb8\x85\x1dq\xb7\x9a\xa3qn\x00\xc8\x15\x9dwf\x1c\x1f\x97\x9a\xc8\xbc\xb0\xcb\x90R\xb2\xef,\xca\x12B\xf1X:\xc4L\xdb\x83\x0c\xd79\xa8\xe9\xcf3\x15\x0b\x90j\x8c^\x0c]I\x8a&lt;8\xcfF\xad=#\xe1\x08\x88\xf9\xdbs\xe89\xad\x1b\xad=\xb4\x08\xf6\x08\x88\x0b\xe8j\x0b]nV\x98o\x8c\x9c\x1e+U\xa6\x8ak}\xec\x80qT\xc5\xb7\x9e\xc7j\xe6\x96\xeb\xc3I2n8\x19\xea\t\xaeo\xc4&gt;\x1fHa\x90F\xc07\x18\xe7\xde\xbc\xf3\xc4\x9e\x15\x99\xcb\xca\x01\'&gt;\xbe\xf5OG\x82M9\xf0\xe3\xe5\x1dEK\xe2\x07\xb7\xbf\x80\xaa\xc5\x8f\x97\xa9\xe6\xbcs\xe2\xc7\x85\x84\x96\x12I\x1apT\xe7\x02\xbeH\xf8\x8b\xa7}\x97R\x920\xa4\x1d\xe7\xa8\xae9\xdc\t\x08n\xb5\x0c\x93\xe1\xb0\x18\xd4\xd6\xf7\x04\x8cg\x8a|\xd2\x06\x8c\x81\xfc\xea;h\xc4\xaaw\x0c\x9a\x94[(9+C\xdd\xac\x08W\x1czVt\xb3\xb5\xcb\x90\xab\x8f\xe9O\x87M\x9e\xe2U.2+\xb7\xf0v\x83\xba\x11\xbe&gt;1\xd4\xd6\xd4\xfa|P8E`\xbe\xf5V}K\xecGj\xc9\x92+\xac\xf8_\xa5\xb7\x8a\xef|\x96R~n\x0f\xa5}\x19\xe0?\x84\xe6\xd6\x05\x9b\xca$\xed\xe3\x93]}\xae\x93qb\xebo\x82=\xab\xae\xf0\xe6\x81%\xca\xa1e\xe0\xf7\xad\x9b\xdbh\xf4x\xc3\xa0\x03\x1dEK\xa2x\x82Y\x9c#\x1c\xe0\xf1\xc0\xae\xb2\xca?&gt;\x11)o\x97\x1c\x8ae\xc8\x08\xfbT`TTW\xe0=\xa3\xb6\xd0\xd9\xe6\xa0\xbe\\\xca\n\xf5=\xeb[Bu\x8fh\xeez\xd7o\xa3\xdd\x94T\xcbq\xf4\xf6\xad9o\xc2(\xda\xd8\xaas\xdf\xef\xf9]\xb8\xa6\x10\xb2.\xe5\x15wK\xb4S*\xf1\xcez\xd7w\xe1t\x82=\xa5\xd8g\xbf5\xeb\xbe\x05\x9e\xd9m\xd2M\xc3$rk\xad\x9fS\x8dmH\x12\x8cc\xa5r\xba\x99\x92\xf2\xe1\x98\x1c\x8a\xb3\xa1X\x84;\x8aWGex\xb6\xca\x06qVR\xe8I\xf3f\xac\xdb\xca\xb9\x19\xa9\x1cF\xe3\x00sUf\x84\x93\x82)\x89n\x03d\x8a\xb5\x04i\xd3\x15j\x19\x19\x08\x00\xf1Zz\\\xcd)\t\xbb\xe9\xc5m\xda[y\x80oZ\xd0\xb7\xb6D\x03\xe5\xe3\xebZ\xfaky%YN1[\xdau\xe3\x1c\x02\xff\x00\xa5h\xa3\xab\xaf\xbd)\x00\xf0i\x02\x80r\x05Y\x81\xb66\xefCW\xad\xae\x0eF\x1a\xa6y\x99\x94\x8d\xdf\xa5V\x95\xdbwZ|`\x11\x93\xd6\xad\xc3\xf7j\xd4,@\x04\x1ej\xdc.\xc5z\xd4\xeb\xf77w\xab\x10\xc8\xfd3N\x91\x9c\xa1\x00\xd4V\xab\'\x99\xd6\xb5\xac\xe3 \x06=\xaaiA1\x90\x0f5\x07\x92\xc4\xe4\xd5\xbb(r\xe08\xe2\xb4\xe0\x01\x17\xe5\xe2\xa7\x8ayC\x05\x0f\xc7\xd2\xb4-]\x8cy&amp;\xaeB\xa3\xefc\x9a\xb9k\xd4V\xb5\x82\xe5\x82\x81\xfeqZ\x0bh\xa52V\x96(\x04\' q\xde\xb5t\xf9\xf6\x01\x83ZP\xdd\x92\x06\xe6\xe3\xe9V\xa0\xbaB0\xbdj[\x9b\x82\xc9\x80\xd5F\xe2C\x83\xb8\xf1\x9a}\xbc\xec\xa3\x08qW\xe1\x9e_\x94n\xeb\xd7\x8a\x9e)\\\xb8\x05\xbfJ\xbbk#\x86\x045jY\x13 \x01\xf9\xab\r\x12\xe3\xe5\x1c\xd4oo\x81\xbb\x1c\xd5Ya9\xa4H\xf60a\xda\x9c\xee\xdbO4\xcd\xed\xebM(\xa4\xe4\x8ak\xc2\x8c8^~\xb4\xc3\x06\xc1\xbb\xd2\xa4\xb2fb7\x1a\xbe\x91\xab\x0e\x075\r\xc49\xc8a\xc5S\x90\x04o\x94b\xab\\\xbb`\xf3Y7\xf6\xcf .\x05g\xca\x85\x06\rP\xbb$\x02EW\xde\xde\xb4\x92H\xea\x84\x83U&amp;\x9aC\xc1o\xd2\x9f\x02\xab0\xc8\xa9eE\x08N:UI\xd7w\x18\xebU\xe6\xb5\xdc\xa4\x85\xe6\xa8\xddX\x13\x92W\x9a\xc8\xd44\xfd\xc0\x80\xb5\xce\xeazK\xbb\x95\xdb\xd6\xb3f\xd0\xe4\xc9\xdb\x1f5cG\xd3\x1a)G\x9a\xa3\x19\xe6\xba\x88\xa4\x82+`\x03\x00q\xc7\x15\x9d\xa9h\x91\xea\xa0\x87\xc1\xcdQ\xff\x00\x84\x1e\x08Ax\x93\x04}j\x8d\xde\x9d4H\xd1l\xc9\x1d\r7O\xb6u\xea\x98?\xde5\x0e\xb3\xa9}\x90\x10A$W\x1b\xa9\xea\xf3\xdc\xdd\x15*y&gt;\x95N\xfe\xc8M\tv\xe3#\x9a\xe75\r=#rG&gt;\xd5R+1.\xe8\xf09\xac\x9f\x1axB\xde\xefGfh\x86J\x9ek\xe3\xdf\x8e\xdf\x0e\xc5\x95\xe4\xd7\x0b\x1frq\xf8\xd7\xcf\x9e!\x90\xe9\xd7\x05X\xe0\xee9\xac\xa4\xd5\x0c\xa4\x82\xfc\xf6\xe2\xb4\xec\xe4C\x0e\xf3\xd7\xd6\x89/\xe3@U\x8d6\xcbTA&amp;\xd0\xf8\x15o\xfbN6\xe3x4\xd3n\xd7-\xbdEKa\xa4\xb3\xbe\xdd\x9dMtzw\x87\xd5v\x13\x0f\xeak\xa1\xd3\xe4]6\x02\x8a\xa0\x00:W7\xafx\xdda\xbbh\xa4a\xc1\xedPX\xdfO\xab\xb0h\xb2rx\xe2\xbd\xfb\xf6g\xf0\xd4\xb6\xf7k-\xd7\x1b\x9b#r\xfb\x1a\xfb/\xc1Z5\x84\xfaz\xb6\x17+\x18\xe6\xa8k\xda\x1c0\xdfy\xc8A\x00\xf4\xcdl\xf8~Q\x0c*\x80b\x8f\x12@\xd7\n6\xf5"\x9f\xe1?\x0f\xc8\\L\xd1\x92\x06\x7f\x95t\xd1\xcc\xd6\x8a#\'\x81K)Y\x10\xc9\xdf\xd6\xa3P\t\xc1\xa7l_J\xfe\x7f\xece\xdd\x19\xe7\x91N\xb8\x19\x99O\xf9\xe9Vt\xcb\x94W\x00\xf5\xcf\x15\xd5\xe9W\xc5\xa1\x18o\xa5^\x9e\xf1\xc8\x03\x7f\xe9P4\xcc\xc7\xefs\xf4\xab\xd6\x12\x1d\xa3q\xc8\xad(.\x92\x15\xdf\x9c\x01Z\xfa\x16\xbe&lt;\xe5V\x93\x8c\xff\x00J\xf4\xef\x07\xf8\x93\x10",\xdcc\x8f\xca\xbaX\xbcE,\xa0!\x9f9\xf6\x15\xa5\xa6\x8f\xb58\x18\xcez\xd6\xdcp\xc7i\x0f\xc8\xb8\xe2\xa9\xdc_H\xb2ad\xe3&gt;\x82\xb4,.\xd9\xa2\xc9j\xd0\xb5\xb9\xf9\x81-\xc5YK\xb5\xdc6\x9eiL\xdb\x8f\xbd\x00\x968&amp;\xacD\x83o\xca9\xa7\x94\x90w\xad=\n6V\x0e{\x1a\xe9\xf4\xed\xa1\x030\xe9W\xd4\xa1\x8c\xed\x15v\xd3\xee\x0f\xa5j\xd93*\x86S\xcd_\xb5\x9a\\\x8f\x9b\xf4\xad\x08\xd42\x16#\x9a\x19@\x19\x02\x81#\x8e\x03T\xf0H\xe3\xa3~\x95e\x1d\xb6\xee\xcf4\xf5\x8cH2G5$Q\x10\xc0\x1e\x9e\x95:\xb0O\xa5X\x8aU+V\xa1\x99v\xd5\x98\xa4R\xb85n\xdc\xc4H\xe3\xf5\xa9[\xcb\xdb\xf2\x8e~\xb4\xebx\xa3\x07!\x7fZ\xd1\xb6\xc0\x18n\x951\x11\x1e\x00\xe7\xebB\xc6\x18\xe0\n\xb5mn20\xb5eQ\x97\xe9O\x8f\xef\x8f\xadi\xd8\x00\xca\x01\x15h\xb7\x96\xb9\x15=\xad\xc9\x04s[\xbaL\x88\xdbX\xf5\xadh\xe4F^E\x12\xf9F2\x15y\xfa\xd4\xd6\x8d\xb3\x1c\xf1VE\xd1\x03\x01\xbf\x95Z\xb4\xb8,\xea\x03V\x8b\x82\xd1\x83\xdf\x15R\xe5$ \x82i\xd6\xb1\x90\xc0\x9a\xd4\x8d\x14F\x1b\x1c\x8a\x92/\xf5\x82\xae\xda\x90\x18\x13\xd2\xb4\xac\xe7\x08G&lt;U\xd5\xb8\x8c\xa6W\xafcHf,0[\xf4\xa8\xa5\x08T\x91\xd6\xa3 \x1e\r5\xd1v\x9e*6P\x06@\xa6\xd0\t\x07"\x9dp\x06\xccz\x8ej\x1b6!\xf0\x0fz\xd0\x86F\x03q4\xc9\xe6.v\xe6\xa8\\\x12\x0eE@\xe8\xaf\xf7\x86j\xb5\xc2(B\x00\xac=M\x8a\xb9\xda\x7f\xcek2r\xcf\xf2\xe6\xa2\xf2\x9f\xd2\x9b&lt;l\xb1\x12ER\x90\x80\xd9=3B\xdc\x049V\xc58\xdd\xb3\x0c\x17\xfd\x050\xc8\xad\xc8&lt;\xd0\xacI\xc15\r\xd0\x18&lt;V}\xcc*\xf9\x01y5\x9fq\xa5F\xef\x96\x8f\'\xf1\xaa\xb2i1\x16\xff\x00V\x05S\xba\xb4\x82\x10T\x0e}3Tn$\x94\r\xa8\xe4zV\x9e\x8d:\xa6\xd3+}j\xdd\xee\xa9d\x9f\xbbi\x06\x08\xe6\xb2\xd6{;\x99\xf6\x02\x0eM3U\xd3\xa3\x8a?\xdc\x8c\x029\x02\xb9\xcdOK\x9aV9\x19\x15\x85{\xa1\x98\xdc\xb8\x8b\x07\xd6\xb35{O."\n\xe0\xe3\xd6\xb9\xbb\x8b_6B1\x93\xdb\x9a\xa5:\xad\xa9\'\x18\xa85+\x81=\xa1\x839\xe3\x81^\x17\xf1\xf3\xc1Ky\xa7\xcbr\xb6\xd9\xf9\t\xc8\xcf\xad|?\xf1cC\xb8\xd3\xae\xdfv\xe0K\x9e\xd5\xc2\xe9\xf7\x05\xa7#?t\xf3]%\xb4\xe8\x90\x02zc\x9ek6\xefQF\x94\xaa\xb7\xd2\xaa6\xa1\xe5\xb7\x0f\xc7z}\x9e\xa8\r\xca\x82\xe7\xadvz\x1d\xcd\xac\xb6\xd98\xce:\xe6\xb4\xb4\xbb\x8bqt\x01q\x8c\xd7WesjQB\xb8\xe9U5\xeb\xcd\x90\xba\xc2\xa4\xf1\xda\xbc\xa7Z\x8bR\xbb\xd72\x15\xf1\xbf\xd35\xed\x1f\x02\xbe\x1e\xdcj\xf2\xc4fBy\x18\xc8\xe9\xc5}C\xa0\xf8)|-i\x1c\xa8\x9bHPp\x05z\xcf\xc3]vi\xac\x8cJ\xe78\xc5oOaw{.\xf5BI\xad\x1d3J\xb9@7FG\xbdZ\x9a\xd4\xbb\x05\x97\xb7z\xe8\xbc5\x05\xacV\xc4`t\xe9\x9a\xaf\xa9\xc4\x1a\xe7\n8\xcfJH\xe3+\x11\x1d\xbb\xd0\x14\x03\x90)k\xf9\xf4\xd2\xdd\x8b\xed\'\x8a\xb5z\xe66\x0e\x0fJ\x86\x0b\x9d\x92\x83\x9a\xe9t;\xdd\xca\xab\xba\xb6]\xd5\xd0z\xd3\x01 \xe4V\x85\x9c\x84G\x92jin7DSw\x06\xad\xe8P\xc8\xf2\x82\xbd3^\x93\xe1\x08%HQ\xb2zWQ\xa7\x89L\xea7\x1f\xf2+\xb5\xf0\xe9\x8e(\xd5\xc8\xe4w\xad{\xeb\x94\xf2\x80\x1d\xc5fymp\xe4\x8f\xc2\xafZ\xe6\x14\xc1=*\xc4w$\x1d\xa1\xff\x00J\x95.\x8a6\xe2\xfd=\xaa\xcc\x17\x8a\xc4`\xf3W \x909\x15r\xdf\xa0\xcd^\xb1\xb1k\xb3\x8c}+_O\xd3\x96\x02\x01\xc7\xb8\xad\x15\xb8H#\xda8\xa9\xa2\xbe\xf9p\x1a\xb64\xc9D\xaa\x015\xb9e\x1a\xb2\x00\x05Z\x866G\x1c\xf1W\xa3\x9dV-\xa4\xf3R\xc7\xb6Q\xb7\x1c\x9az[\x02\xc0\x11\xc5J\xb0\x85\xfb\xa2\xa7H\xc8L\x9a\xb1o\x1an\x03\x14J\xfeY\xc88\xa6\x1b\x92x\xddSC2\xed\xabP\xcc1\xd6\xadC2\xed\xabv\xd2\x8c\x8c\x1a\x9c\xce\x14d\xb5Kow\x1fz\xb0\xba\x8e\xde\x15\xa9\xcb\xa9\xb6F\x1f\xf4\x15v\xce\xf1d\xc3g\x9a\xd5\xb3ue\x1e\xb59\x00\xf0i\x8aH\x9c\x01\xd35\xa7dH@EIs+\xa8\x00\x9e\x0fZm\xbd\xd1\x12\xa8\'\x8a\xdf\xd3o\x00\x8c\x1585\xb1\x1d\xc0\x11\x86&amp;\x9f\x04\xa6\\\x9c\xf1Wa\xfb\xb4\xd1+\tB\x93\xc7\xa5hi\xac\x8cCc\x90x5\xb9\x1a\xeeP1\xda\xa1\xb8\x85\xb9\xa5\x86.\x84\x8a\xb8\x8d\x88\xf9&lt;\ntr\xae\xf1\x83S-\xc9C\xcb\xf1\xf4\xab6\xf7\xc0\xe3\xe6\xab\x02\xfd\x94`7\xf2\xa4mE\xc0\xce\xff\x00\xe5Vmn\x92e\x1b\x8eMLY\x0f\x03\xad!\x05\x86\x051\xe3`\xa74\xc0\x87&lt;\xd0\xca\x00\xc8\x14\x8d\xba_\x974\xf8l\xc4cyZ\x90\xb6\xc4\xf6\xaa\xb2\xccA\xca\x9ej&amp;%\xfe\xf1\xcdA#loj\xa3yvT\x9f\x9b\x8a\xc3\xd4\xa5y\x18\x95j\xa6c\x90\x9c\x93R\x08\tL\xf7\xa6KnZ2\x1b\x91Y\x97\x90l=8\xaa\x85\xb0\xc3=*\x1b\x8b\x93\x1a\x92\xa7\x14[]3\xb8\x0c\xd9\xab&gt;p\x1c\x8f\xe7T\xafod\x04\xe1\xff\x00J\xaa/\x08m\xc5\xa9E\xdcn\xdf75\r\xcc\x91H\n \xe4\xf4\xac\xbb\x9d:I$\xde\x07\xebUf\xb0T\x04\x94\xe7\xb75\x0b\xb9\x8dLhH&gt;\xd5\x9b{e\x7fq&amp;\xf5\x90\xe3\xe9Kae=\xb5\xc2\xbb\x13\xc7RO\xb5k3\x8b\x94\x00\x1e\x9dj\xa6\xa1\xe5B\xb8*\x07\xe3\\\xfe\xa7s\x19r\xa0\n\xc6\xd6-D\xe8v\xaf8\xaevm6Ev*9\xcds\xde \x86H\xe4(O^\xb5\x9fk\x14\xb3\xcc\x11\xdb\xd7\x1f\x95e|E\xf0\xaa^hM\x94\x04\x945\xf0\xdf\xedE\xe0\x86\xd3\x99\xa5X\xb1\xc9==\xeb\xe7\x0bXL\x13H\x18|\xc5\xebJ[\xe3\r\xa1\x04\xe7\x8e\x95\xcf6\xaad\xb9+\x9cs\xc5Mp\xe1\xa1\xca\x9f\x98\xf7\xa6\xe9\xe2C0gc\xc1\xae\xafN\xbf6\xf6\xe1w\xe0c\x9a}\xb6\xbaa\x9fy\x93\x80kwL\xf1qvU/]N\x8f+j\xf0m#\x93\xc0lt\xab\x1a\x7f\xc3\xf5\xb8\xd5&lt;\xef+8a\xda\xbe\x81\xf8+\xe1\xdb-"H\x99\xe0\x1f/$c\xda\xbdw\xc5:\xa5\xb4\xf6qE\x00P\xfb@\xad\xbf\x85\x12\xc8\x80\xb3c\x199\xfc\xab\xd5t\xc9mV5r\x83\xde\xaf-\xdd\xbb\xfe\xedp3\xf4\xa8g\xd3\xe4\x99\xb7\xabdzU\x8d6)\xac\x17.H\x1e\xf5\r\xe6\xa9\x1a\xcb\xb4\x9esV\x96T\x96\xdf)\xdcS(\xaf\xe7\xd60-\x06\xf5\x1c\x8aI\xae\xdau\xc3\x0e}qQ\xa8\xc9\x15\xb3\xa3\xdd\x88YT6\ru:H\xfbqUc\x9c\x8f\xe9[6\xde\x1b\x13`\xf5\x1fZu\xee\x96lS\np\x07QYf\xf4#\x95\x91\xb2+\xa3\xf0\x9c\xab&lt;\x88\xaa8&amp;\xbdS\xc2\xb6\xab\xe5\xed+\xc0\x15\xbb\x02\x08$\x12\x05\xe9\xda\xb6\xb4m]p#q\xde\xb6\xdeaq\x10\xdarq\xc5-\xb4\xab\x0b\x00j\xd2\x91(\xc08\xf7\xa9-m|\xd1\xfe\xb0g\xb5O6\x9d\xe5(f9\x1d\xc5G\t+\x92\xa7\xa1\xe2\xb5\xb4\xf0\xa5\x03\xb0\xc9\x1e\xf5lL@\xc2\x1cV\xae\x93\x7f\xe4\xe0\x16\xfa\xd6\xa4Z\x84\x7fx\x1f\x9b\xb1\xa57\x89!\xc19\xabzlm3}\xee=k\xa5\xd1\xadBmfl\x81\xd4~\x15\xb7m*\xa0\xf9x\xad\x0bs\x1c\x8b\x929\xf5\xcdI\xb1s\x9c~\xb5b\xd0\x05`G_\xfe\xb5^\x8f\x91\x93MyYO\'\x8a&gt;\xd6\xc4m\xdd\xc7\xd2\xad\xc1(1\xee^\xb4\xcb\x92\xccB\xe7\xad,V\x81\xfa\xadJ\xb6\x8c\xbd\x01\xa1\xe50\xa9Ppj[{\xb7$|\xff\x00\xa5iZ\xc8\x198\xebVU\x15\xd3\xe6\x19\xa5\n\x91\x8c\x81\x8c{\xd3\x92P\xcc\x17\'\xf3\xabv\xf6Fp\x08\x07\xf3\xab\x90Bm\xc8\xcfoz\xd2\xb2\xbe\x8d0\t\xad+gK\x8c\x00z\xf7\xa5\xf2\x95%\x0e[8\xedV\xe2\xb8\x11\xa6A\xa8.\xb5\x06e\xc6\xff\x00\xd0RCrI\x04\xb5miWX\x03-[Q\xde\x17\x83io\xa5Ko\xa9\xac\x1f.\x7f\n\xbb\x06\xb4\xa4b\xa6\x8e\xe3\xce`A\xad=(\xaa2\x96\xe9\xde\xb6\xed\xef\x01\xc6\rH\xd3\xab}\xe1B\xc8\x1b\xe4S\x8c\xf7\xabK\x06P)\x93\x829\xa8\xa4\x8c\xc6\xd9\x0fBfF\x08OZ\xb9oo\xc8\xc0\xa9\x9e/-K\x94\xce*\xad\xc5\xc1PB\xa6*\xf6\x8d7\x99\x8d\xeax\xf55\xa2\x1d\x01\xc8\x03\xf3\xa5\x13\xaa\x9c\x9f\xe7Q\xc9|\x01\xc0ja\xbdS\xc1aH\xd7*\xc3\x00\xd1\x14\xe1$\x0c[\xa5\\K\xa5\x916\x1e\xf5WQ\xb9\x10\xa9\xdb\xd3\xd2\xb3[Q\x0f \x01q\xefS\xc32\xbf\xde5V\xfe\xe3b\x9d\xa6\xb1on\x9eF*[\xadD\x90G(\xf9\x87\'\xbej9-\xa3\x89\xb7g v\xcdD\xd7\x02&gt;\x01\xe2\xa0\x9a\xfc\xfd\xd5j\xa1w.\xf5 \xf5\xaa\x0c\x030\x07\xd2\xaaj*\x13\x85\x1dj\xbd\xa4\xce\xb2\x0f\x9b\xf4\xab\xe8\xe2U\xc6\xec\x13\xde\xab\\\xda\x892\x0b\xd5Y,\xf67\xcc\xd9\x1e\x94\xd3\x04`|\x8b\x83\xf5\xa6\xa5\xb8\x0e\x1c\x8a\x90\xa8\xc6\x00\xaa\xb7\xf6\xab\x8d\xc1y\xac\x8b\x88\x15e\xdd\xb7\xf5\xa9!\xda\x13\x91\xc5CxP!*0j-&gt;B\x87v{\xf3Q\xea\xf1\xf9\x91\x96\xc5r\xba\x8a0\xb9\xc1\xe9P\xcaO\x97\xf4\xacmJV\x86L\xa9\xc0=x\xaecY\x85\xee\xe6$\xf2{U$\xb1{S\xe7l\xe0u\xa6j3\xc5\xa8A\xf60\x9c\xe3\x8c\xd7\xcb\xbf\xb67\x82\xf7X&lt;\xb1D0\x17&lt;}E|;\xadZ\x0b\rJH\xc8 \xf9\x87\xa8\xab\x89\xe1\xd6\xbd\xb23\xab\x7f\x0fL\xd7\x1b\xa8\xda\xcfe|\xc9\x8e3\xd7\x14\xf8\xaeAL9\xc9\xabV\xb3$l\x0f\xbf5\xac.\x95\xa1\x01N\x0e:\xd4\x16\xaf&lt;\xd7\x1eX\x8c\x9c\x9e\xb5\xd8xS\xc2\xd7\x1a\x81V&lt;\x1c\xfa\xd7\xad\xf8#\xc1\x9ff\xb7F,3\xeak\xbf\xf0\x8f\x87\x96mUm\x9a0\xdb\x8f\\W\xbfxk\xe1*\xc1\xa3&amp;\xa2\x91\xed%2y5\xc9\xfcC\xd4\xa4\xf0\xeb*\xb1l\xaf\x1d+[\xe0\xdf\x8e\xe1\xb9\x90/\x9b\x9f\x9b\x95\'\xaf\x06\xbd\xfb@E\xd4l\x12t`\xa0\x8fZ.\xaeR\xca\\\x13\x9cV\x87\x87\xf5u\xbao.Q\x9ekj\xe68\xa7\x8f\x91\xc6=k\x9a\xbf\xb0?k\xdf\xbb \x1e\x95\xa3n\xcb\x14\x01=\xbdi\xde`&lt;\x0f\xe7F\xf6\xf5\xaf\xc0\x1b\x9ba\x83\xf2\xd5G\x8fkt\xe2\x9e\xb0\xa1L\x85\xe7\xebW\xac-C0%y\xfa\xd7[\xe1\x96D\x000\xe4W_\xa7L\xa2 A\xa85\xc7V\x89\x8f|q\\\x95\xe0\xcc\xcd\xf5\xae\x9f\xc0L\xc2d \xf4n+\xda&lt;*\x99\x8f\x81\xc9Q[SD\xca\xb9_Jv\x9a\x8ce\xf9\x8f\x15\xd0\xd8HU\x06O\x02\x99uv\xc8\xf9\xce\x7f\n\x92\rRM\xbb;}+GI\xbb.\xd8\x00\x83\xd8\xd6\xa4\xcc\xcd\x08,j\xa7*\xfbW\xa1&lt;\xd6\x95\xa5\xc2$8&amp;\xad[\xcd\x0b\xb0\x04~\xb5\xa0\xbeJ\x00\xca\xbc\xfdjxg8\xf9O5,s\xc8\x1c\x12\xf5\xb1\xa4\xde8eP\xfc\x1e\xbcWM\xa6\xdd\x15\x8c\x12\xd5\xa3\r\xf8\xc0\xf9\xabF\xd2\xfc\x94\xca\xbf5n;\xb7a\xf37\xe9V\xad\xee\x1b\x80\x1b\x9a\xd3\xb5b\xd1\xe4\x9aYbFC\xc7\xebQ\x0bu\xcf\x03\xf5\xab\xf6v\xc3h\xe3\xf5\xa7]\xdb\xb0`P`\xf6\xab\x16v\xf2\x80\x19\xbf\x95Y\xb8\x89\x912\xb5\x9bs\x01bI\x14\xebk~F\x05i\xdal\\\x029\xfa\xd5\x95\x98\x0e\x07\xf3\xa6\xdd\\m\xc2\xa9\xe0\xd1m*\x96\x04\xd6\xee\x9b6#\x05\x0f5f\xe4\xe4\x03\xedU\x83\xec\x94\x16&lt;d\xe6\xb5\xac/UT\x00\xd5`\xdd#r\x0f?Z\x95\'.\x9bsL\x920A sR[\xc2I\x00\xd6\xc6\x9b\x1b\x0c\x03\xd3\xd2\xb5S\xe4O\x97\x8anHm\xf9\xe6\xadB\xe4\xaf\xccx\xab\xb6\x97\x05\x08\xdaq[\x167l@\x1b\xabF\xda\xe9\x81\x1f5\\I\xb7\xaf^iD\xa5\x0e\xf3\xce;T\x83Tq\x80\x14\xf1R\xc3s\xe7\x906\x9c\x9e\x86\xaeZ\xc6D\x81\x8fj\xd1\xb6\xc6FzT\xe24\x94\xf9c\xbd6m1Y\t \x13E\xba\x0bq\xb5F*C6?\x8b\xf4\xa8e\xbao\xbb\xbb\x8a\x86I\x03\x0c\xf7\xfa\xd3\x0b\x91\xc95\x19\xbb+ \xf9\xb8\xa8\xe5\xd5\x1a&gt;U\xfa{S\xecu\xd9\x19\xb0\xc7\xf4\x15,\xf7\xafs\xc3\x0e&gt;\x95[ J\t\xf55j\x19#Q\x92*\x96\xa5&lt;EX/_\xaddN\xc8[v9\xfa\xd5Y\xf5?+\xf7j\xf8\xfc*\x1f\xb7\x99\x0e\x0b\xd4\x17\x17\x04\xf0\x0f5RY\\6wTrHq\xb9\x8dVy\xd5_&amp;\xa2\x94-\xcb\x00FE$v\x11\x06\xe1?ZI\x90\xc0\x0b(\xe0v\xaa\x93\xdd:\x9c\x855\t\xb9w\xecG\xbd \x9a@r\x1b\xf4\xa7\xfd\xa7+\xb5\x8f4$\xa4\xb0\x01\xbfJm\xfb18\x06\xb3.`,I"\x9a`\xc4$\x81U\'\x88\x9c\x8a\x86\xda6\x04\x83\xd34\xeb\xe2v\x94\xed\x8a\xe55\xa6+1*{\xd6|\x92\xc8S\xef~\x95\x97\xac.\xf5&lt;s\xda\xb1\x1e3\xb8\xbbv\xa6H\xa1\xe3*Fr+\x19\xe1\x10\xdc\x96\t\xeb\xc0\xaf!\xfd\xa2\xf4)\xb5\xbd=\x8aBH\t\xd7\x1e\xf5\xf0w\xc6o\t\xcb\xa3\xea\xef\xb6\x1c\x13\'?/\xbdd\xe8\x93o\xb5\xf2\n\x9c\xe3\x06\xb2\xfcO\xe1\t\xdd\x1ex\xa3a\xbb\x07\xa7\xbdq\xb7V\xb2\xd9\xceU\xd8\xe4\x1e\xe2\xac\xd8(\x96"\\d\x8e\x955\xa5\xf4\x8dt\xb6\xed\x9c\x13\xd3\x15\xdfx_\xc3\x96\xb7\x11$\xfb@\'\xaeO\xb5w~\x1e\xd2m\xac#Y7\x01\x8fz\xeb\xf4MVX\xd9!\x8c\x96Rz\x01^\xb1\xf0\xcbI\x9ek\x85\xbe\x95\x0f\x0c\x08\xcd}-\xe0\xadV\xd2\xf2\xca;\x06\xc1\xda\x98\x03\xf0\xaf:\xfd\xa3\xbc$#\xb276\xd0\x80J\xe4c\xeb^_\xf0\xd0]iWh\xfbH\xcf-\xeezW\xd1\xfe\x03\xf1-\xc3Y\x8877\x0b\xc7\xb5t\x01\xde\xe9\xc1u\xce{\xd6\xcf\x87mb\x8d\xc3\x15\xe3\xbf5\xafyv!\x8fh?.9\x15\xce]j\xcf\xf6\xa2\x8aq\x93Zv\x85\xe6\x89dc\x91\x8ex\xa9\xd1\x17p\xe2\x9f\xb1}+\xf02\xe5\x13i\xe2\xb3.\x88Y0zS\xed\xccD\x80W\xf5\xad\x0bY\x151\xb3\x8a\xd9\xd1\xb5%\x8c\xe5\x9b\xa5t\xdan\xb3\x1f\x962\xd4j:\x82\xca&gt;\xf7\x04V\x04\xe4\xcd9\xd9\xdc\xd7e\xe0;\x00\'\x19^\x01\x15\xec~\x1a\x8b\xcb\x8c\x101\x85\x15\xb3+\xf4\xdcx\xa4\xb3\x99VL\x0fZ\xd8\xb3\x9d\x99\x02\xa9\xa7K\x01a\xb8}\xea\x92\xda\xdaR@\xfe\x95\xa3\xa7\x8f$d\xf0A\xadp\xc9$@\x1fJ\xad*\xe1\xbeA\xcdG\xf6\xa9\x10\xed/\xf8b\xa7\xb1\xbd\x97p;\xfa\x1e8\x15\xb0\x97N\xf1\x8c\xb7?J\xbddY\xd8\x0c\xd5\xc5\x85\xd9\xb1\x8a\xd5\xd2\xadd\x12.G\xaf\xf2\xae\x8a\xc6&amp;(\x17\xb5ZTt\xe7&lt;U\xcbie\x00\x04z\xd8\xb4\x89\x99\x14\xb7~\xb5~\xda\xdf\x04\x1cV\x95\xa8q\x81\x9e*zX\xf6\x97\x1b\x87\x15~\xd2H\x94\x80\xc3\x8a\xb3\xe5E6\x1bf}9\xab0\xc0\x11&gt;\xef\x14\xeb\xb4_+\xa7aY\xf3\xa2\xfaR\xc2\xaa\xab\x90*D$0"\x94M!Rwt&gt;\x94L\xdb\x88/\xcd&gt;\xd9\xd4\xa9#\xa8\xe8kcO\x96E\x8c\x10\xdf\xa5_\x92Y\x19F\xe6\xfd*\xb4\xac\xc5\xb1\x9a\x9e\xd2Y\x06\x00o\xd2\xae\xc0\xccH$\xd5\xfbj\xb4#M\xa4\xe2\xac@\x8a\x06@\xadK\x1d\xa0\x02\xde\x95h\xcc\xa0`\x1au\xb9\x12\x83\xdc\xf6\xabI\x13\x08\xea\xc5\xb4M\x91ZV\x02Ep\t\xe2\xb4\xed\xc9\x04b\xafC\x9d\xbf/Z\x9dQ\xcag&lt;\xfd(D\x90\xb6\r\\\xb5\x8c\xab\x06\xc5_\x86\xa7\x8eB\xa7\x93\xc5H\xb3\x84`\xdf\xd6\xac%\xdam\xdd\x9ei\x8c\xed+q\xde\xa2a |\x03\xc7\xd2\xa1\x94J\x1b\xad5\x16R\xc0\x16\xe3\xe9Oh\x8b.\rQ\xb8FY=\xaa\x95\xcb\xb2\xe4\x83E\x8c\xf2\x07\xe5\xb8\xcf\xa5j\xfd\xae\x04\x88\x06\x1dER\x9fQ\x88K\xb4\x11G\xf6\x98\xc6\xd0\xe2\xa8\xde\xdc\xcb.J=S\x90\xcf\xb4\x92\xff\x00\xa5e\xde\xac\xbb\xf7\xee\xe6\x9b\x12\xcb\xf7\xb7sN)!9-MxN75U\xbbb\xb1\xb0\x07\xfc\xe6\xb3\xa7\x90\xe4\xee&lt;S\xac\xa7\x19\xcezt\xab\xd1\xca\xb8\xc9\xa8\xa6\x92&gt;C\x8e+&gt;\xeex\xb7\xe</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Sample2.jpgSundar Pichai</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x01\xf6\x01\xf6\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfc&amp;\xb8\x88H:sW,/\xc5\x9c[\x15\xb0jo\xedS#c\xcc9\xa4k\xa2\xdft\xf3\xf5\xabv\xa0\xb2\x87\x1f{\xb1\xad\x0b{o12\xcb\xcd?\xecJ9+\xfc\xea\x0b\x98|\xb5$\n\xa6\xf28&lt;7\xe9SY\xb34\xaas\xcduz=\xd8Km\x8c\xd5&lt;\xec\xf7K\xb1Ns[\x1e\r\xb2\x95\'Rz\x03\xfd+\xd4|:\xc2(\x91\x07\xf9\xe2\xbaKk6\xb8\x8fq\\\xf1W\xf4\x8d\x11\x1a@\xcd\x17~\xb5\xdc\xf8sK\xb6\x8e\x00\xa5\x075\xaf-\x8c\n\x01\xda?\nb\x15\x8a@?\x87\'"\xb5l\xee\xa1P\x19\x8fJ\xb6\x92\xa4\xdc\x0e\x86\xb54\xa0\x04{\x87Q\xd2\xba}\x14e\x15\x8f\\V\xfd\x88\xc1\x18\xad\x08\x97r\xe0w\xa8\xefm[n\xd8\xc7&amp;\xb3\xe6\xb3\xb8\xcf\x07\xf4\xa6\x9bwE;\xba\xd3\xd6\xe5\xa1L\x16\xa9\xe1\xd4I\x1c\xbf\xe9SG4\x93\x1e\x1b\x8f\xa5Y\x8a\x16\xc6\xee\xf4\xe1\x10\r\xbd\xeb/U\x91\x10\x9d\x9cVi\xbfx\xe4\r\xbf\x81\xedV\xec\xf5eg\x00\xbf\x15\xa9e2L\xe0\x8e\xf5}!G\\m\xa46\x111\xcbE\xfa\x9ac\xe8\xe6\x7f\xdd\xa4}zR\xdbxF\xfa?\x98\xa9\xc7j\xbbk\xa3]B\xc3vj\xd4V\x13\x07\x04\x93V\xa2/\x08\xc0b\r\x13\\\\\x18\xce\xd7$\xd6u\xc4W\xd3\xbe\x17w5sC\xf0\x85\xed\xec\x81\xda\x02Fz\xd7{\xe1\xcf\x0c\xbd\xbcJ\x92C\xc5t0i\xd1\xc5\x16&lt;\xbf\xe7V\xedm\xc8\xc6\xd1\x8a\xbfoo!\xe1\xbaw\xa9\xd2\xd4\xe7j\x8e\xb5\xa1dZ\xd8\x02\xc7\xa5Y}@\xb8\xc3&gt;\x7f\n\x81\xaf\xb2\xfbCqJ\xb7A\x98\n\xb5o.p\x05]\x82G\x1d\x1b\xf4\xa9\xc9f\x8c\xf3\xcf\x15\n\x89D\xe0\x86\xab\xb6\xd1\x19\x1c\x07\xe4T\xedf\x84aW\x9f\xadC%\xac\xaa\xd8\x15\xfc\xb0\xc8\xaa"\x0e\x07&gt;\xb5Nl\x96\xc8&lt;\xd4\x90\xc6\xfc6MZ\x866\x1f3V\xa5\x87A[:p\r\x80EM)\nq\xda\xa8^\xca\xbc\xa9\xe9Y\x81^Yp:v\xad]3H\x96R\xac\xab\xcdo\xd9i.\x91a\x94\xe6\xb4\xf4\x9d*I\x1c\r\xb9=\xab\xb3\xf0\xcf\x87\n\x05&gt;W^\xb5\xda\xe9\xda&lt;\xb1\x04eR1]^\x91lD\x000\xe6\xb4\xe0\x06\x04\xdc\x07\x1d\xc5liz\xc4p\x85\x0c+^\xdfR\x17 m\x1c\xf65;\x05(Y\xc7zX\xa7\x00\x84\r\xc7\xa5ji\xd2\xf2\x14\x1a\xe8t\xcd\xa2 O~\xb5\xd1i3\xaa(\x00\xf1Z\xf6\x97\xf8#\rZ\xda}\xe29]\xc75}\x11\'p\xc1ie\xb1B\xa4\x88\xf9\xfa\x9a\xa5ubpN\xda\xcb\xbc\xb6e\'\xd2\xa2\x8d\x08`\t\xe2\xaf\xdaI\xe5\xb0\xc9\xe35\xa3\x15\xd2m\xc85\x1c\xf7\xd9\x05Cpk2\xfa\x13&gt;p3\xedYWvr\x96(# RX\xd8\xcc\x0e\xe3\xd8\xd7E\xa3\xdbJ6\xe2\xb7\xadm\xd0G\x97^~\xb4\xf9#EB@\xabZ*$\x93\xa8\x7fZ\xe9\xe4\x82\x04\xb7S\xc61Y\x97O\n?Q\x8fJ\x83~\xe6\xca\x0e=1H\xd1\xef\xff\x00\x96\\\xd4\xb0Yy\x84(\x84\xe4\xf7\xe6\xb5\xf4\xcf\x0c\xbc\xee\xac\xd1q\xde\xbb-\x07\xc3\xc9m\x08\x05\x00\xf5\xadY,\xd2\xd5C\xa60*\xb4\xb7$\x1cf\xafi,\x93r\xe3\'\xb5jF\x8a\x13 S\xe2!d\x04\xd2\xddJ\x14m^3U\x1a\xe9\xb7\xed\r\xc7\xd2\x91\x9c\xb7*\xdc\xd5\xbbH\x19\xf0H\xc9\xadk+\x12p\xc5kF\x1b\x13\x8f\xbbV\x12\xc9\x84y\x02\x91lJ\xb6\xf6Z\xb7o\x00L6:U\xa4\x8dXp9\xa0\xda+rV\xbf\x94\x87\xb8\x06 \t\xedQ\xc1\x19\x98\xe7\x1d\xea\xe46\x8c\x06H\xa9\xe3\x87\x0c\x03t\xf4\xad\x1b+V8(\xb9\x1e\x95\xb5gi*\x05+\x11\x1f\xfe\xaam\xd0e%Y\x08\xac\x9b\xdc\x97 S\xf4\x8d&gt;I\xe7\x18\\\xf3^\x81\xe1_\x0cC,j[\x83\x8f_j\xd7\x93\xc3F0Di\xf8\x8a\xbd\xe1\xff\x00\x0fM\xf6\xa5\xf9OS\xdb\xda\xbd\x13\xc3\xfe\x1f\x89cEh\xb0O|\x9a\xea\xac4\x18\x9a!\x95\x1d=kF\xdfNX\x86\xc4\x8b\xf1\xc9\xabK`L_v\x9al\x9dFTb\xb4\xf4\xd3$`\x02y\xad\x01+\xb4d3zv\xa2\r\xbeh\xdc8\xad\x8d4F\x18m\x1c\xfd}\xab~\xc5\xdb`\\\xf1Z\xf6\xd3\xc9\x1c\x1b\x94\xf4\xf6\xabv\xba\x84\xa1\x86A\xc7\xd2\xb64\xfdE\x8e\x00\xc8\xf7\xae\x87K\xbaw\x00\x16\xe7\xe9Zq\xb6FZ\xa2\x9f\xca&lt;b\xb3\xeel\x84\xac~^*\x9c\xd6&gt;_!qU\xdd\xa4\x88\xf5\xe3\xd2\x96;\xc9I\xda8\xa7\xeffnMiXZ\xc1"\x02\xcb\xce:\xe6\xa3\xbd\xd2\x83e\x97\x14\xc84|.\x04}k_M\xb1X\x94e9\xab\xa228\x18\xa4\x922P\x8a\x9a\xc5Z\x16\x0c\x17&gt;\xd5r\xefT\xbc*#\x08q\x8fJ\xa2\x8d{q.Y\x0f_J\xdc\xd2t\xa9%@Z.}Ml\xc7\xe1\xd4\xd8\x1f\xca\xc1\xf5\xe6\xac\xdbhi\x11\x122\x82\x07j\xdd\xd3l\xd5!\xf9\x17\x15hj2@D\x01{\xf5\xc5X\x92\xf7\xcd\x8c+\x8e\xa2\xb3\xae\xee\n1\xd8j\xee\x8b{ \\\xf2=\xf1]\r\x94\xab$Y~i\'\x98F\tA\xcdB\xd3\xbc\xe7c)\xfa\xd2\x1bRN@\xe6\xa6\x82\xcb\x041Z\xd7\xd2\xad\x03H\xaaF3\xfe\x15\xd0X\xe9\xe8\x00$\xe6\xaf\xc5d\xa5~T\xab\x02\xc4\xf9d\x05\xfc\xa9\xa6\xc1\xc0\xcb)#\xd2\xa2\x929\x13\x85\x88\x81\xe9K\x03N$\x03i\x1f\x85\\\x8d$a\x93_\xc9\x94\xe5\xb6\x00\xa7\xb5_\xd1\xb6l\xc4\x83&amp;\xb5\xfc\xb8J\x05U\xe4\xfb\xd2Gb\xed(\xe3\xe5\xae\x8f\xc3\xbaZ\xc8\xca\x19&gt;\x875\xd4\xc1\xa4E\x12\xab\xb2\x83\x81\xd35\x85\xaf\xc5\x123mJ\xe6\x96\x19\xae.H\xea3\xc7\x15\xd3xkC\x99\x99\x19S\xfc\xe2\xbb\x8d#H\xba\x85\x90\xaa\x9f\xf2+\xb7\xf0\xd7\x86f\xbc($\x8b\x00\xf5b=\xab\xaa\x83\xc1\x96\xb6\x90\xf9\x8b\x1f"\xadY\xdb\x98\xbeV\x1d+N\xd2Y\x14\x05\r\xc7\xa5o\xd8F\xb2[\x92G&lt;sS\x08\x8a\x8cv\xa5H\x91\xd8+/\x1fZ\x9e(\xa2F\x04/\xebR\xee\\mQ\xfa\xd2\xa7\xde\x15\xa3\xa4J\xd9\x05\x8fJ\xe9t\xa7G\xda\x1b\x9a\xdc\xb6X\xbc\xbc\x05\xfdj\xe41)^\x17\x9a\xd2\xb1\x84\x90\x06+kMY#\xc1^+V+\x81\xe5\xedc\xcdB\xcc\xed0\xe7\x8e\xe2\x9f\xb8\xe3\x15\x1c\xb1F\xeaw.j\x9d\xc5\xac8\xc8N~\xa6\xa16\xc0\x8c(\xe7\xebH\xb6\x92g\x85&amp;\xad[\xc9:\x8f(\x023\xedW \x8eG f\xb4ml\xc9\\\x91\xfaT\xe9n\xc8r\xbd\xbd\xa9\xfb%&lt;\x03\xfaT\x91\xdbH\xe3\xe6\xe7\xd6\xb4,4\xdeC\x05\xc1\xecMk\x7fa\xc7*\x07|g\x1dj\xdd\x9f\x86\xad\xf6q\x82Oj\xd9\xd3\xf4X"\x8bk(\x1f\x8dK4A\x10\x82\xd9Q\xda\xa1\x8d\xd3\x04b\xb4le\x1b\x02\xadL\xc8\x8cr\xca*)\xa4\x90\xae\xd5n\xde\x95\x07\x91\xb9\xf7\xc83WlF\xd2#\x1d\x0fQZ\xb6\xb3H\x83j\xb6\x06=*\xdcj\xae70\xc9\xa7y\x7f\xf3\xcc`\xf6\xabV\xd6l\xe9\xb9\x97\x9a\x94\xdbH\xab\x80*\xf6\x9d\x04\xcaA\xcdt\x1a|M\xe5\x83\xde\xb4\xad\x95\xc3\x02Mj\xdaA\x1c\x88\x01_\xd6\xa66\x08G\t\xfa\xd5i\xac0~\xe53\xec\x1e\xa9S\xc3\xa6\x8d\xb8\xd9\xfa\xd7\xf2H!fM\xc7\xa8\xe9R[K\xe4\xb0\x00\xe2\xb6\xf4\xf7YUI\xe4\xf6\xad\xbd?Oy@;r+\xa4\xd0\xf4\xd6\x8c\xaf\xcb\x81\xde\xb6\xa6e\x8a\x1ct\xe3\xd6\xb9}y\xd6B\xc0u\xedY:E\xb8{\xb0\x19s\x96\xafE\xf0\xe6\x9f\x14`\x08\xd3\x18\x1crk\xbd\xf0\xce\x88nLe\xa3\xcdz\x8f\x85\xfc4\xb1\xc0\x8d\xe4\x801\xc9\xad\rN\xca;x\x88 `\x0e\x95\xcf\x82\x8f+(\x1d\xf8\xab\xd662\xc8\xca@\xe2\xb7\xec`\x928\xb6\xd4\xc26\xcf\xccr)J"\r\xc0c\x14\x9eo\xfb_\xa5\x06b9V\xe7\xe9SD\xecFI\xad-9O\n\xbd\xeb{O\x94D\x80\x93\xc8\xad\x9b\x1b\xe1\x807V\xbd\x95\xc4n\x05n\xe9\xbe[\xa8\xca\xf3Z\x96\xa7n\x07js\xccC\xfc\xa7\x9c\xd5\x84c\xc0\xcd,\x84\xaa\x12\rFd\x91\xb8\r\xfaSLN\xddMK\x05\xaa\xb1\x19_\xd6\xa7[P\x8d\xb9S\x91\xf5\xa7-\xb0g\x05\x90U\xcb;4\xf3\x06\x17\xf5\xadKk`0\xa1x\xa9\x8d\xa2\x9e\n\x7f:\x12\xc97\x8f\x93\xf55i-\x10&amp;B~\xb5r\xca \x1c\t\x06W\xb8\xad[o+\x81\xb7\xf5\xad\x1bi\x10`\x01S5\xc2\xa2\x93\xbb\x8a\xab=\xda\x9c\x85j\x82\xda\xe03\x95\'\x8a\xd7\xb1t\xe0\x81\xfa\xd5\xa5\x901\xc0\xfet:\x0ceG4\xc5Fc\xb4\x9a\xb7ko\x86\x04\n\xbfo\x13f\xadB\xb2\xef\x0b\xbb\x8f\xa5[\xb3\x81\xa4~y9\xe2\xb6t\xfb&amp;|)^*\xd9\xd3\x14\xf0S\xf55j\xc7MR\xea\xa6&gt;&gt;\xbe\xd5\xb1md"\x03\xe5\xe2\xa7U\x0b\xc2\x8a\xd1\xb1$("\xaf\xa2\x8d\xbb\xb1\xcd\x064c\x92)\xa6$\xc7\x0b\xfa\xd4\xd0\xc2v\xf4\xaf\xe4j\xd9\x15\xc8V\x19\x15V\xeb\xf7w\x18N+g\xc3\xec\\\x82\xc7\xa5w:D)\xe4.\xd5\xe4\x8a\xde\xb1u\x8a?\x98t\xa4\xbe\xbb\x8c\xa1,~\x95\xcf\xeaj%bc\x1c\xf6\xa8t{B\xb7*\xc4\x7f\x175\xe8\x9e\x1a\x85\xd8\xfb\xf1^\xb7\xe0-5\x18\xa8x\xf2\x00\xafK\xd3\xd6\xde\x0b\x10\x19\x06\x00\xf5\xaew\xc4\xba\xa8\x8d\xd9U\xb8\xf4\xacm*o\xb4\xdc\x1f\x90\xf2z\xd7]\xa1\xda\xa1UfO\xf3\x8a\xbe@C\x85\x18\xa9\x15w\xae\rA4nr\x87\xa5Vtdoj\x13\xef\n\xb9\x0f\xdd\xadM=\xb6\x15l\xd6\xbd\xbb\xa3\xc7\xef\xf5\xab\xb6\xd2\x18\xc8\xc1\xc0\xcdki\xf7{H%\xab\xa4\xd1\xafC\x15\x01\xabv\xd9\xd5\xe3\xf7\xa7\xec\\\xee\xc74\xf13\xa9\x04\xb7JV\xb8,6\xee\xa9!@\xcc\x06*\xe4\x16h\xc4eju\xb6X\xf9\x02\x9ap\x1c\x03\xd3\x9avUy^\xb5j\xd2FV\x075\xa1mq\xc8\xe6\xad\x87\x05\t\x1di\x11\xd809\xab\xb6\xed\x91\x87\xe9S\xac\xb1\xa7"\x9dk~\x0b\xe0\xb7\x19\xab\xf6\xf7\xd9\xc6\x1b\x9a\x92K\xc6(A\x7f\xd0U9\xae_\'\r\xcdIl\xec\x0e\xe0y\xadk\x17p\xa0\xe6\xb4!\'\xefw\xab1\xae\xf5\xf7\xa7$-\xb8f\xae[B\xd9\x19\xadK[\\\xaeB\xf3S%\xac\x8a\xd95oN\x88\xac\x80\x91\xde\xba-6$d\x04/5}mT\xa6\xed\xbc\xd5\x9b8\x02H\xad\x8a\xbd.\x11@\xed\xde\xaa\xcbp\xa8z\xd5\xcb\x1b\xe5\xda&gt;j\xd0\x8a\xf4\x15\xc6i\xc6\xef&lt;\x03SA r*\xdc_v\xbf\x91\x1bGm\xa1\xb3\xcdA|\xb9\x94\x15\xea{\xd6\xb6\x84\xeb\x1e\xd1\xdc\xf5\xae\xdfG\xbb(\xa9\x96\xe3\xe9\xedZr\xdf\x84Q\xb5\xb1T\xe7\xbf\xdf\xf2\xbbqL!d]\xca*\xee\x97h\xa6U\xe3\x9c\xf5\xae\xef\xc2\xe9\x04{K\xb0\xcf~k\xd7|\x0b=\xb2\xdb\xa4\x9b\x86H\xe4\xd7[&gt;\xa7\x1a\xda\x90%\x18\xc7J\xe5u3%\xe5\xc309\x15gB\xb1\x08w\x14\xae\x8e\xca\xf1m\x94\x0c\xe2\xac\xa5\xd0\x93\xe6\xcdY\xb7\x95r3R8\x8d\xc6\x00\xe6\xaa\xcd\t\'\x04S\x12\xdc\x06\xc9\x15j\x08\xd3\xa6*\xd422\x10\x01\xe2\xb4\xf4\xb9\x9aR\x13w\xd3\x8a\xdb\xb4\xb6\xf3\x00\xde\xb5\xa1ol\x88\x07\xcb\xc7\xd6\xb5\xf4\xd6\xf2J\xb2\x9cb\xb7\xb4\xeb\xc68\x05\xff\x00J\xd1GW_zR\x01\xe0\xd2\x05\x00\xe4\n\xb3\x03lm\xde\x86\xaf[\\\x1c\x8c5L\xf33)\x1b\xbfJ\xad+\xb6\xee\xb4\xf8\xc0#\'\xad[\x87\xee\xd5\xa8X\x80\x08&lt;\xd5\xb8]\x8a\xf5\xa9\xd7\xeen\xefV!\x91\xfaf\x9d#9B\x01\xa8\xadVO3\xadkY\xc6@\x0c{T\xd2\x82c \x1ej\x0f%\x89\xc9\xabvP\xe5\xc0q\xc5i\xc0\x02/\xcb\xc5O\x14\xf2\x86\n\x1f\x8f\xa5hZ\xbb\x18\xf2M\\\x85G\xde\xc75r\xd7\xa8\xadk\x05\xcb\x05\x03\xfc\xe2\xb4\x16\xd1Jd\xad,P\x08N@\xe3\xbdj\xe9\xf3\xec\x03\x06\xb4\xa1\xbb$\r\xcd\xc7\xd2\xadAt\x84az\xd4\xb77\x05\x93\x01\xaa\x8d\xc4\x87\x07q\xe34\xfby\xd9F\x10\xe2\xaf\xc3&lt;\xbf(\xdd\xd7\xaf\x15&lt;R\xb9p\x0b~\x95v\xd6G\x0c\x08j\xd3\xb6b\xd1\xe5\x8d\x7f!\xd62\xee\x8c\xf3\xc8\xa7\\\x0c\xcc\xa7\xfc\xf4\xab:e\xca+\x80z\xe7\x8a\xea\xf4\xab\xe2\xd0\x8c7\xd2\xafOx\xe4\x01\xbf\xf4\xa8\x1afc\xf7\xb9\xfaU\xeb\t\x0e\xd1\xb8\xe4V\x94\x17I\n\xef\xce\x00\xad}\x0b_\x1er\xabI\xc6\x7f\xa5zw\x83\xfcI\x88\x11\x16n1\xc7\xe5],^"\x96P\x10\xcf\x9c\xfb\n\xd2\xd3G\xda\x9c\x0cg=kn8c\xb4\x87\xe4\\qT\xee/\xa4Y0\xb2q\x9fAZ\x16\x17l\xd1d\xb5hZ\xdc\xfc\xc0\x96\xe2\xac\xa5\xda\xee\x1bO4\xa6m\xc7\xde\x80K\x1c\x13V"A\xb7\xe5\x1c\xd3\xcaH;\xd6\x9e\x85\x1b+\x07=\x8dt\xfav\xd0\x81\x98t\xab\xeaP\xc6v\x8a\xbbi\xf7\x07\xd2\xb5l\x99\x95C)\xe6\xaf\xda\xcd.G\xcd\xfaV\x84j\x19\x0b\x11\xcd\x0c\xa0\x0c\x81@\x91\xc7\x01\xaax$q\xd1\xbfJ\xb2\x8e\xdbwg\x9az\xc6$\x19#\x9a\x92(\x88`\x0fOJ\x9dX\'\xd2\xacE*\x95\xabP\xcc\xbbj\xccR)\\\x1a\xb7nb$q\xfa\xd4\xad\xe5\xed\xf9G?Zu\xbcQ\x83\x90\xbf\xadh\xdb`\x0c7J\x98\x88\x8f\x00s\xf5\xa1c\x0cp\x05Z\xb6\xb7\x19\x18Z\xb2\xa8\xcb\xf4\xa7\xc7\xf7\xc7\xd6\xb4\xec\x00e\x00\x8a\xb4[\xcb\\\x8a\x9e\xd6\xe4\x829\xad\xdd&amp;Dm\xacz\xd6\xb4r#/"\x89|\xa3\x19\n\xbc\xfdjkF\xd9\x8ex\xab"\xe8\x81\x80\xdf\xca\xadZ\\\x16u\x01\xabE\xc1h\xc1\xef\x8a\xa9r\x92\x10A4\xebX\xc8`MjF\x8a#\r\x8eEI\x17\xfa\xc1WmH\x0c\t\xe9Z\x10N\x150+\xf9\t\xd2\xdd\x8b\xed\'\x8a\xb5z\xe66\x0e\x0fJ\x86\x0b\x9d\x92\x83\x9a\xe9t;\xdd\xca\xab\xba\xb6]\xd5\xd0z\xd3\x01 \xe4V\x85\x9c\x84G\x92jin7DSw\x06\xad\xe8P\xc8\xf2\x82\xbd3^\x93\xe1\x08%HQ\xb2zWQ\xa7\x89L\xea7\x1f\xf2+\xb5\xf0\xe9\x8e(\xd5\xc8\xe4w\xad{\xeb\x94\xf2\x80\x1d\xc5fymp\xe4\x8f\xc2\xafZ\xe6\x14\xc1=*\xc4w$\x1d\xa1\xff\x00J\x95.\x8a6\xe2\xfd=\xaa\xcc\x17\x8a\xc4`\xf3W \x909\x15r\xdf\xa0\xcd^\xb1\xb1k\xb3\x8c}+_O\xd3\x96\x02\x01\xc7\xb8\xad\x15\xb8H#\xda8\xa9\xa2\xbe\xf9p\x1a\xb64\xc9D\xaa\x015\xb9e\x1a\xb2\x00\x05Z\x866G\x1c\xf1W\xa3\x9dV-\xa4\xf3R\xc7\xb6Q\xb7\x1c\x9az[\x02\xc0\x11\xc5J\xb0\x85\xfb\xa2\xa7H\xc8L\x9a\xb1o\x1an\x03\x14J\xfeY\xc88\xa6\x1b\x92x\xddSC2\xed\xabP\xcc1\xd6\xadC2\xed\xabv\xd2\x8c\x8c\x1a\x9c\xce\x14d\xb5Kow\x1fz\xb0\xba\x8e\xde\x15\xa9\xcb\xa9\xb6F\x1f\xf4\x15v\xce\xf1d\xc3g\x9a\xd5\xb3ue\x1e\xb59\x00\xf0i\x8aH\x9c\x01\xd35\xa7dH@EIs+\xa8\x00\x9e\x0fZm\xbd\xd1\x12\xa8\'\x8a\xdf\xd3o\x00\x8c\x1585\xb1\x1d\xc0\x11\x86&amp;\x9f\x04\xa6\\\x9c\xf1Wa\xfb\xb4\xd1+\tB\x93\xc7\xa5hi\xac\x8cCc\x90x5\xb9\x1a\xeeP1\xda\xa1\xb8\x85\xb9\xa5\x86.\x84\x8a\xb8\x8d\x88\xf9&lt;\ntr\xae\xf1\x83S-\xc9C\xcb\xf1\xf4\xab\x11_\x8d\xb9\xdd_\xc8\xdc`Z\r\xea9\x14\x93]\xb4\xeb\x86\x1c\xfa\xe2\xa3Q\x92+gG\xbb\x10\xb2\xa8l\x1a\xeat\x91\xf6\xe2\xaa\xc79\x1f\xd2\xb6m\xbc6&amp;\xc1\xea&gt;\xb4\xeb\xdd,\xd8\xa6\x14\xe0\x0e\xa2\xb2\xcd\xe8G+#dWG\xe19Vy\x11TpMz\xa7\x85mW\xcb\xdaW\x80+v\x04\x10H$\x0b\xd3\xb5mh\xda\xba\xe0F\xe3\xbdm\xbc\xc2\xe2!\xb4\xe4\xe3\x8a[iV\x16\x00\xd5\xa5"Q\x80q\xefRZ\xda\xf9\xa3\xfd`\xcfj\x9em;\xcaP\xccr;\x8a\x8e\x12W%OC\xc5ki\xe1J\x07a\x92=\xea\xd8\x98\x81\x848\xad]&amp;\xff\x00\xc9\xc0-\xf5\xadH\xb5\x08\xfe\xf0?7cJo\x12C\x82sV\xf4\xd8\xdaf\xfb\xdcz\xd7K\xa3Z\x84\xda\xcc\xd9\x03\xa8\xfc+n\xdaUA\xf2\xf1Z\x16\xe69\x17$s\xeb\x9a\x93b\xe78\xfdj\xc5\xa0\n\xc0\x8e\xbf\xfdj\xbd\x1f#&amp;\x9a\xf2\xb2\x9eO\x14}\xad\x88\xdb\xbb\x8f\xa5[\x82Pc\xdc\xbdi\x97%\x98\x85\xcfZX\xad\x03\xf5Z\x95m\x19z\x03C\xcaaR\xa0\xe0\xd4\xb6\xf7nH\xf9\xff\x00J\xd2\xb5\x902q\xd6\xac\xaa+\xa7\xcc3J\x15#\x19\x03\x18\xf7\xa7$\xa1\x98.O\xe7V\xed\xec\x8c\xe0\x10\x0f\xe7W \x84\xdb\x91\x9e\xde\xf5\xa5e}\x1a`\x13ZV\xce\x97\x18\x00\xf5\xefK\xe5*J\x1c\xb6q\xda\xad\xc5p#L\x83P]j\x0c\xcb\x8d\xff\x00\xa0\xa4\x86\xe4\x92\tj\xda\xd2\xae\xb0\x06Z\xb6\xa3\xbc/\x06\xd2\xdfJ\x96\xdfSX&gt;\\\xfe\x15v\riH\xc5M\x1d\xc7\x9c\xc0\x83ZzQTe-\xd3\xbdm\xdb\xde\x03\x8c\x1a\x91\xa7V\xfb\xc2\x85\x907\xc8\xa7\x19\xefV\x96\x0c\xa0S\'\x04sQI\x19\x8d\xb2\x1e\x84\xcc\x8c\x10\x9e\xb5n+\x7f\x97\xa1\xfc\xeb\xf9-\xb9\xb6\x18?-Tx\xf6\xb7N)\xeb\n\x14\xc8^~\xb5z\xc2\xd43\x02W\x9f\xadu\xbe\x19d@\x03\x0eEu\xfat\xca"\x04\x1a\x83\\uh\x98\xf7\xc7\x15\xc9^\x0c\xcc\xdfZ\xe9\xfc\x04\xcc&amp;B\x0fF\xe2\xbd\xa3\xc2\xa9\x98\xf8\x1c\x95\x15\xb54L\xab\x95\xf4\xa7i\xa8\xc6_\x98\xf1]\r\x84\x85Pd\xf0)\x97Wl\x8f\x9c\xe7\xf0\xa9 \xd5$\xdb\xb3\xb7\xd2\xb4t\x9b\xb2\xed\x80\x08=\x8djL\xcc\xd0\x82\xc6\xaar\xaf\xb5z\x13\xcdiZ\\"C\x82j\xd5\xbc\xd0\xbb\x00G\xebZ\x0b\xe4\xa0\x0c\xab\xcf\xd6\xa7\x86s\x8f\x94\xf3R\xc7&lt;\x81\xc1/[\x1aM\xe3\x86U\x0f\xc1\xeb\xc5t\xdam\xd1X\xc1-Z0\xdf\x8c\x0f\x9a\xb4m/\xc9L\xab\xf3V\xe3\xbbv\x1f3~\x95j\xde\xe1\xb8\x01\xb9\xad;V-\x1eI\xa5\x96$d&lt;~\xb5\x10\xb7\\\xf0?Z\xbfgl6\x8e?Zu\xdd\xbb\x06\x05\x06\x0fj\xb1go(\x01\x9b\xf9U\x9b\x88\x99\x13+Y\xb70\x16$\x91N\xb6\xb7\xe4`V\x9d\xa6\xc5\xc0#\x9f\xadYY\x80\xe0\x7f:m\xd5\xc6\xdc*\x9e\r\x16\xd2\xa9`Mn\xe9\xb3b0P\xf3VnN@&gt;\xd5X&gt;\xc9Ac\xc6NkZ\xc2\xf5U@\rV\r\xd27 \xf3\xf5\xa9Rr\xe9\xb74\xc9#\x04\x12\x075%\xbc$\x90\rli\xb1\xb0\xc0==+U&gt;D\xf9x\xa6\xe4\x86\xdf\x9ej\xd4.J\xfc\xc7\x8a\xbbipP\x8d\xa7\x15\xb1cv\xc4\x01\xba\xb4m\xae\x98\x11\xf3U\xc4\x9bz\xf5\xe6\x94JP\xef&lt;\xe3\xb5H5G\x18\x01O\x15,7&gt;y\x03i\xc9\xe8j\xe5\xacdH\x18\xf6\xab\xf1t\xaf\xe4\xca\xe5\x13i\xe2\xb3.\x88Y0zS\xed\xccD\x80W\xf5\xad\x0bY\x151\xb3\x8a\xd9\xd1\xb5%\x8c\xe5\x9b\xa5t\xdan\xb3\x1f\x962\xd4j:\x82\xca&gt;\xf7\x04V\x04\xe4\xcd9\xd9\xdc\xd7e\xe0;\x00\'\x19^\x01\x15\xec~\x1a\x8b\xcb\x8c\x101\x85\x15\xb3+\xf4\xdcx\xa4\xb3\x99VL\x0fZ\xd8\xb3\x9d\x99\x02\xa9\xa7K\x01a\xb8}\xea\x92\xda\xdaR@\xfe\x95\xa3\xa7\x8f$d\xf0A\xadp\xc9$@\x1fJ\xad*\xe1\xbeA\xcdG\xf6\xa9\x10\xed/\xf8b\xa7\xb1\xbd\x97p;\xfa\x1e8\x15\xb0\x97N\xf1\x8c\xb7?J\xbddY\xd8\x0c\xd5\xc5\x85\xd9\xb1\x8a\xd5\xd2\xadd\x12.G\xaf\xf2\xae\x8a\xc6&amp;(\x17\xb5ZTt\xe7&lt;U\xcbie\x00\x04z\xd8\xb4\x89\x99\x14\xb7~\xb5~\xda\xdf\x04\x1cV\x95\xa8q\x81\x9e*zX\xf6\x97\x1b\x87\x15~\xd2H\x94\x80\xc3\x8a\xb3\xe5E6\x1bf}9\xab0\xc0\x11&gt;\xef\x14\xeb\xb4_+\xa7aY\xf3\xa2\xfaR\xc2\xaa\xab\x90*D$0"\x94M!Rwt&gt;\x94L\xdb\x88/\xcd&gt;\xd9\xd4\xa9#\xa8\xe8kcO\x96E\x8c\x10\xdf\xa5_\x92Y\x19F\xe6\xfd*\xb4\xac\xc5\xb1\x9a\x9e\xd2Y\x06\x00o\xd2\xae\xc0\xccH$\xd5\xfbj\xb4#M\xa4\xe2\xac@\x8a\x06@\xadK\x1d\xa0\x02\xde\x95h\xcc\xa0`\x1au\xb9\x12\x83\xdc\xf6\xabI\x13\x08\xea\xc5\xb4M\x91ZV\x02Ep\t\xe2\xb4\xed\xc9\x04b\xafC\x9d\xbf/Z\x9dQ\xcag&lt;\xfd(D\x90\xb6\r\\\xb5\x8c\xab\x06\xc5_\x86\xa6\x12:\xf45\xfc\x99Op\x0eA5\x99tdy\xb0\x0f\x1fJ\x92\x14e\x19\xf4\xa9D\xf2F2\x1b\x1f\x85X\xb4\xbce`w\xf1\xde\xb7\xb4\xeb\xf1\xe5\x0f\x9e\xae\xfd\xb0K\x16\x0bd\xf6\xa5\xd3mZ[\x95$dn\xe6\xbd#\xc1\x9ar$\x80\xec\xec;\xd7\xa9\xe8\x16\xff\x00\xb8^:\x8ej\xe4\xf1\xb9\xe2\xa1\xb6\x8d\xc3\xe4V\xde\x97\x11\x001\x15}@\'\x06\xad\xdb\xaa \xdd\x8e\x94y\xc8\xaf\x83\xd3\xbd[\x86\xf5@\x03=*P|\xdf\x99j\xbc\xd03&gt;{\xd3\xed\xade^W\xaf\xd2\xb5\xad\x8b!U\x92\xb5\xec\x1dF\n\x8c\x1a\xd5\xb5@\xc069\xf5\xad\xcd&amp;\r\xc5r\xb5\xbdgn\xa1A+\xfa\xd4\xb2D\x9b\x0e\x17\x9f\xadMg\x11\xde\xbb\x87\x15\xd1\xd8\xc5\x1e\xd5\xf9{V\x94\x10\xc4\x06B\xfe\xb5e\x10\x08\xfeQ\xcd&amp;\xd9\x7f\xc8\xa5E}\xdf7J\x99\x1c\xa9\x1c\xf1ZV3\x00\x00&amp;\xaf,\xc8#\xcbt\xa8n.\x91\x81L\xd59\x1dY\xb6\xfa\xd4\xf0F\xacv\xe2\xa46\xe3\x1f(\xe7\xebM6\xae\xaax\xa6I\x13\xb2\xf2i \x8d\xa3q\x83\xc7z\xd7\xd3\xdd\x89\t\x9e+IAu\xc7\xe5G\xd9\x03\xb7#5$v\xad\x19\x04\n\xb7o\x11\xc8\xab\xf6\xd1\x91\x8c\xd5\x90{\x1e\x95$R\x80\xc0g\x8a\xd3\xb4\x99vT\xa6e\xc5I\xa7\xcc\x03\xe75\xa9\x04\xe1\xbeV=j\xed\xb9BF\xd1W\xadz\x8a\xbfo\xd7\xf0\xab\xd16\xc4\xdd\xe9S\xc78+\x82i\xeb2\xa9\xcejH\xaf\xb0\xc0g\x8a\xbboz\xa4\x8c\xb5YY\x0c\x83*k\xf9)\x9eV^I\xefMX\xdaNW\xaf\xad&lt;nU\xda\xd4\x04\x12\x1d\x84g5b+0W\xe5^~\xb5\xa1i\x98\x90+\x1a\xd2\xb6*\xc86\x8e{V\xe6\x85\x06$BGz\xf4o\t0]\x84\xf7\x1c\xd7\xa5xze\xfb:\xe7\xb0\xe2\xb4\xe7\xb7\x0c\x9b\x91z\xd1o\xa7\xf3\xf79\xad+X\xd6\x14\xc1\x14Kq\xb0\xfc\xa7\x15z\xc9\xc4\xf1\xedc\x92h\x9e\xdf\x078\xa6\xda\x89\x0b\xe1\xcf\x15\xa5h\xdbp\x0fJ\x9cyN\xe3\xe5\xe7\xebV#TD\xdd\x8ax\x95\x19\xc1&amp;\xaf\xe9\xb3\x8cg&lt;\x8a\xdb\xb0\xb9\xc67\x1a\xdd\xd2\xf5\x05V_\x9b\x8a\xdd\xb6\xd4\x95\xa2\xc0ni\xff\x00mc\xc0j\xbbc8l\x12k\x7fO\x9c\x18\xc1\'\xa5h\xdb\xdc\x12pM\\\x8aPS\x00\xd4\xe8\xa1\x87J\x99mWfJ\xfe\xb4}\x99\x0f\x1b\x7fZ\xbdch\x98\x18O\xd6\xac\xbd\xb9\x11\x90\x07\x15VX\x00}\xd8\xaa\xee\x02\xbeEX\xb5\x91\x95\x83\x13\xfeqW\x92U\xdb\xba\x91&amp;\xf32\xacsO{R\xd1\x12\x05D\xb6\xa4\x1c\xe2\xb4l-\xfa\x1csZ0\xc6\xc3\x04U\xb8!%\x81\xa9\xbc\x82z\xd4\xf0[\x85\x1b\x8a\xd5\xb8\xd1@\xe9M\x93\x83\x81L\x04\xa9\xc85\xa1h\xe4G\x9651\x95q\xc1\xa9,\xa6\x03$\x1a\xd0\x86\xe8\x80\x08j\xd1\xb3\xb9;Cn\xe7\xd6\xb4\xad\xae\x7fw\xb875\xa1kq\x95\xc95z\t\xbc\xcf\x90\x9e\xb5*\x92\xbc-\x0e\xed\xb4\xf3P\x99\xe4G\x1c\xe7\xdb\x15n\xce\xeaGuR\x08\xcdlZJ\xfe_\xde\xaf\xe4\xceX\x03).2*kx\xe3\x8dr\x17\xf5\xaa\xd7w\n\x8d\xbb\xb5KfD\xac\x19z\xd6\xc4\x16\xa3j\x90\xbc\xe2\x96E\x898#\x9a\x9bM\x9dD\x83q\xe35\xd4\xe8m\xe62m\xae\xfb\xc2\xfb\xd4\xa6\xe3\xc7\xa7\xe1^\x85\xe1\xe9\x94\xc4\xaazWGm*\xb4`75r\xdc\xa7\x00\x0ejY&gt;\xe15\x9fq#,\xb8\xcf\x15\x7fI\xbeP6\xee\xc1\xeck[\xca\x12 p\xe0\xd4q[\x85\xcbm\xa9U\xb6\xfd)"\xba+p\xa05i\xae\xf7\x8cm\xe9H#pkB\xc2&amp;\x0b\xc0\xebW\xe1\xb90\x8c\x16\xab\xd6:\x99\x0e\xa0\xbf\x1fJ\xda\xb1\xd5\x06\xd1\x87\xab\xf0\xde\x17 \x06\xe4\xd6\xce\x9a\xcc\xc8\t5\xbba#\x85\x03uj\xdar\x9b\xbb\xd5\xfbj\xbfj\x0bH\x00\xf5\xad\x08`,0G\x14\x93C\xb3\x90*\xed\x93E\xe5\x85&lt;7cV\x84Q\x94\xc9l\xfe5Z\xea\x08\xca\x90\xab\xcf\xd6\xa8\xcbn7p*h-\x81\xc0\x02\xa6[wQ\x803\xedKg\x0b\x19pc\xe2\xb4\xa2\x85\xda?/\xd6\xa5\x8fN\x0e\xbf2f\xad\xdb\xd8\x88\xc0\xc2\xd5\x88\xe3e8#\x8a\xb1\x0blq\xe9Sy\xcbNK\x8c\x9d\xb9\xe2\xac\xa4\x80\xaf\x1di\x1f\x91\x93MP\t\xc1\xab\xb6\xdfwoj\x91\xd4\x04$\x0e\xd4Zd\xe7i\xe6\xaf@\x1c\x0eO\x15v\tdU\x007\xe9ZV3H\xea\x15\x9b\x8f\xa5k\xd9\xe4\xe1EhZ\xc6\xca\xc0\x8a\xbb\x1c,\xc3$S\x8d\xbex+M\xfb\x12\x93\x90\x9c\xf6\xebVmm\x180$t\xf6\xad\x08#e\\\x0f\xe5_\xc9\xe4\xec\x02\x9d\xdd1\xcdVk\xc5\x07b\x9e\rT\xb8\x0f+\xe0\x9c\x8a\xb5\xa4L\xb1\xc8\x16N\x82\xba\x0bk\xc8\ng\x1c\xf6\xa8.\x98\xbbnAN\xb4\x8eRB\x84"\xba\xcf\r;C\xb3{p:\xfeU\xdf\xf8f\xf6+\x85T\x8f\xf1\xae\xfb@m\xb1)\xcdm\xc3r\xe1v\xabc\xf0\xad\x1b\t\xa4l\x12\xdc\xfd*\xec\x8cx\x19\xea9\xac\xfb\xd6\xda\xe5\xb1\x9a\xadi5\xc7\x9b\x91\x903\xe9]-\x85\xde\xc8\x97ss\x8a\xb3\x1d\xdcl\xdbOC\xd6\x9bsp\x81H\x8f\x83\xda\xa0\x86F\xf3\x94\xb1\xef[\x96\xb7q\x98\xc4{\xb0MZ\x8d\xa0\xc6\xe6`\x7f\x1a\xb7ks\x12\x81\xb6\x89\xae\x11\xdbh\xeazT\x96O#&gt;7}+gO\x13\x0c\x10\xdf\xa5l\xd8\x07\xdc\xacMt\x9aD\xb1\xe0#\x8ekv\xc41*A\xe3\xd2\xb6,\x00e\x00\x8a\xd1\x85T\x0e\x05\\\xb4`\x92\x06&gt;\xb5\xa7mu\x1eA\xa5\x9c\xf9\x8avTY\x96!\xbf=;b\xa7\xb4\xbc\x90\xb0\x06\xa7i\x8bw\xe6\x9a#\x0e\xd8\xc5^\xb4\xb3M\xa1\xb6s\xf55r;\x14#*\x9c\xfdh{#\x12\x16U\xc5,\x0e\x91\xb0\x0e*\xe4S\xc1\xb3\xd3\xde\xa6Y7\'\xc9&amp;G\xa6(\xde\xde\xb4\x16s\xc0?\xa5H\x91H\xeb\xc1\xe6\x9f\x14\x12\x89\x01=&gt;\x95r\x18\xca\x8c\x9a{\x82T\x81O\x82\x02\xc4\x16\x15v\x18\x02\x8c\xe2\x92R\x14\x90zS\xac\n3\xe1z\xd6\x98\x8bj\x0e8=jdP\x17\xe5\x1d\xf8\xab\xb6W\x11\xc4@z\xd9\xb0\xbd\xb7\xe0\xe3\x9a\xd7\xb1\x9e9\x1c\x1e\xd5\xab\x0c!\xa3\xdc\xa3\xb5D\x16R\xe4f\xacC\x08\xc8f\x15n$M\xb9\xc5H\t\x03\x02\xbf\x93+\xe6\xdc6\xa7CY\xfe[\tFj\xc2\xa2\xec\xdd\x8ej%%d\xf9x\xe2\xae\xe9\xf3\xce\xef\xe5\xef\xe3\xe9[6\x91\x1d\xa1\xd8U\xfbe]\xe0`u\xad\x98\x7fs\x181\xf1\xc5t\xfe\x05\xb8\x94L\xb9\x7f^\xd5\xea\x1a$\xe3\xc9Q\x9e\xa3\x9a\xd8\xb6\x98dV\xbe\x9f*\xe0U\xd9\xe6P\x01\x07\xb5R\xb9\x95I\xc9\xa9\xadV\x16\x8f\x01\x075f6 \x80\rI\x1c\x8e\xae\x085 ff\x194\xe2\xc5F\xe5&lt;\x8a\x9a+\x89\x89\x19\x7f\xd2\xb4\xac\x9d\x9d\x80f\xcd]i\x1a \n\x9cqI\x1d\xc9\xf3\x03g\x9a\xd3\xd3\xa6E!\xab\xa0\xd3\xa5\x85\xd0q\xcdm\xe9\xde[aq\xfa\xd6\xb5\x82\xe2U\t\xc5uZt8\x85I\x15\xa5f\xdb\x18zU\xf8e\\U\x81/\xee\xce\x0f542\xb2\xf2[\x8a\xb9\r\xcf\xcb\x82x\xa7=\xca\x05$\xff\x00:j_\x02v\xab~\x95"\xdd\x90\xd9/V!\xbbO\xbd\xde\xb4\xec\xaf\x14\xa8\x19\xe2\xb4-\xae\xa3\xc85ot3G\xb0\xaes\xefT\xae-\x00;\xd5x\xaa\xd2\t~\xe0n*\xe5\x92\xba\xa89&lt;U\xd8\xd7z\xfb\xd4\xf0Z\x07 m\xe6\xb4\xadt\xe8\xf0\x19\x93\xa7\xb9\xa5\x92\xd5U\xb0\x17\xf5\xa9\x16\xd8yg+@\xb7L\xf2\xbf\xadX\x86\x18\xc2\x82\x17\x9f\xadZ\x11)\x88\xe0sT\xafQ\x926o\xf3\xd6\x97F\x04\xca1\xd75\xd0\xad\xbe\xe8\x86\xf1\xda\x87\x80\x84&gt;_\x06\xa2\xf2\'\xces\xfaU\xcbE\xb9V\x03\x7f\x1fJ\xe8t\x86\x98\x15\xdc\xdcw\xe2\xba[\x19\x08\x83\x93\xc5)R[r\xd5\x8bx\xdd\x86\xd2z\xd4\xe9\x0b\x03\x80x\xa7\xf9-_\xc9{&amp;\xd3\xb5\xfa\xd42\xa2\xe7\xa5 $\r\xa3\xa5D?\xd6\x8f\xa5hi\x11+8;y\xad\xebx[\xc9\xabV\xd16\xe0Ej\xc2\xb249c]\x07\x85\x0c\x90:\xb08\x19\xf4\xafF\xd1/\x1f\xcaO\x9b\xb7\xa5oYO\xbb\x05\x8dl\xd8\xcc01Vd\xb8f^\xbfJ\x82RJ\xe4\x9a\xb3f\xc4&amp;A\xe6\xaf@\x03\x1c\xb5J\x14\x03\x90)A \xe4R\x82X\xe0\x9a\xb7\x0ci\x8c\xe2\xae\xd9\xb6\xd6SV\xe7\x95J\x81U\x8d\xc6$\x00\x1a\xbbey&amp;\xe0\x85\xf8\xfaWE\xa4\\\x9f\x94n\xae\x97K\x98\x00\x1b&lt;\xd6\xee\x99*\x19\x14\x93\xcdu6\x97[aQ\xbb\x8cU\xc8.Q\xb8\xab\xb6\xf2\x06 U\xc8\xbaU\x98\x80&lt;\x1fZ\x94\x10\xa3\xda\x98\xe2G\x18C\xc5I\r\xac\x99\r\x9ej\xcaY\xbb\xaf#5$Vl\xae\x01\x1cU\xebxY\x07\xcb\xc5]\xb6\x12d|\xd5~\xd4H\x18\x12j\xe8\x8cK\x1e\xd6\x19\xcdW\x96\xce=\xdfs\xf5\xa7\xc1\x19\xdc#\x1d\x0fj\xbdmn28\xab\xd0\xc2"\x1ef:T\xe3QH\xa3+\xba\x96;\x813\x02\rh\xda\xc1\x1c\x89\x82\xb9\xe3\xd6\x9b=\xaa\xa8 /\xebL\x8e&amp;\x04\x0e\xd5n(\x9bo5Z\xfe\x02\xd10"\xa1\xd3\x19 \x98f\xb7\xad\xefC\xc7\xf7\xaa\xd4N\xae)\xfb\x17\xd2\xacC\x1am\xfb\xb5\xad\xa6\xf0T\n\xdb\xb4\x91\xcc;s\xc5]\x87\xee\xd5\xbb`\t\x19\xab\x03j\x1d\xd8\xe9K\xe7-\x7f\':\x86\x9c\xb0M\xf3\'Oz\xca\x91\xbfxCt\x15\x0b\xce\x03`\x1a\x8e9w\x93\x83\xc8\xe9[Z\x0c$\xae\xfcs\xeb]\x1d\xbc\x07b\x8cu\x1c\xd5\xb8-\xf02\x05i\xd9\xdb\xb3\xa8\\u\xad\xad"\x07\x89\x97\x1c\x0e\xf5\xd8\xe8R\xc8QAn\xd5\xd4i\x802\x02\x7f\xcf\x15\xa9n\xcc\x83\xe58\xa9~\xd17\xf7\xff\x00J\x966/\xc3\x1c\xf3V\xed\xf8\x1bGJ\xbfmR\xb1 dR+\x12pMO\x1cjz\x0e~\xb5j\x18\xc8\x195b\x02\x04\x80\x1e\x94\xeb\x9b\x8e:\xf4\xaa\xe6@\xc7=\xfe\xb5f\xceG\xf3\x14\xe7\xfc\xe2\xbaM\x1eF\xf9K\x1f\xf3\x8a\xe9\xb4\xe9\xc0\x8c\x1c\xd6\xd6\x9dw\xb1\x95\x99\xb8\x15\xbdg\xaboP\x85\xff\x00AZv\x13\xb3\xba\x90\xdcV\xd5\x878\'\xadhE\xd3\xf0\xabp\xf5\xfci\xee7.*kHI`\x08\xad+KEf\n\xc9\x91\xe9\x9a\xd0\x87N\x88\xae\x02c\xdf&amp;\x9f\xfd\x99\x1a\xf2y\xf6\xcd9l\xd4\x1c*\xe2\xad[\xd9m\xc6\\U\x96\x89b\xc3\x06\xe3\xd2\x96\xda\xe5\x99\xb6\x86\xfaU\x91\x18\x90r9\xa7\xc3\x00Y\x01"\xae\xc0\xa8\xa38\xa4\xb9\xbbh\xe3?7\x15\x93y\xa92\xb1\x02O\xd2\xae\xe9Z\x836\xd1\xbf\x9a\xe8\xf4\xfb\x82c\x0475fc\x9c\x03\xdcsLE\x01\x81\x02\xad\xc0\x01\x035V\xfc\x90\x87\x1f\xe7\x9a\xc6\x96w\x86l\xa3c\xf0\xab\xf6\x1a\x84\xb8\x1f\xbc\xfd\x05kZ^&gt;\x01\xdf\xcf\xd2\xad\xc7r\xcc&gt;f\xab\x96\xb3\x97`\xb9\xeb[:w\xdeZ\xdc\xb0\x01\x94\x02*\xda\x92\xbc-O\x0c\x8e\xa3!\xbfJ\x90\xcd+\x0c\x16\xfd)\xbb\xdb\xd6\xbf\x96\x1f\x14\xd9E\x1b\xb9\t\x8c{\xd7\x1dt\xa1d`\x05Qs\xf3\xe2\x96\xc0\x16\x9f\x03\xd4\xff\x00*\xe9\xf4\x18[\xcb\xe4WGm\x0f\x0b\xb8U\xebx\x95\x88\x00V\xd6\x9bd\x8c\x01\xd9\xcf\xaekj\xce\xc8\x05\x04\xaf\x15\xd0i\x10\xf9j\x08\x1cWI\xa7\x12\xb0\x82\rh\xc2\xed\xb7\xadO\x18\x0c\xb9"\xadF\xa8\xa9\xb8\x8e\x95$S\x80\xc0\n\xd1\xb5\x902q\xd6\xa5,O\x04\xd0\x9fxV\x8d\x9c(\xe0\x1csV\x0cl\x8b\xedM\x04\x83\x91Q3\x16|1\xa3g\xf7G5\x7fN\x83s\xaeEtz]\xbf\xca\x06\xda\xdd\xb0\x8d\x95@=+N\x02B`V\x9d\x89n6\x9ek\xa8\xd0cg\xdb\xbb\x9a\xe8\xec\xa0UPq\xd3\xde\xac\xabm\xfaT\x91\xdc\xb0`\x01\xabpJ\xacA5z\xd5\x97p\xda9\xad\x1b\'o0s\xfeqZ\x113m\xc6i\xfb\x9b\xd6\x8d\xcd\xebSE\xcf\x04\xfe\xb54\x91\x97\x84\x95\xfb\xc3\x18\xe6\x9dehVPH\xf5\xcdi\xc3o\x81\x909\xa9\x04l\x0eH\xe2\x9e\xbf\xdd\xedP\xdfD\x856\xed\xeb\xef\\\xfe\xa1i?\x9d\x84$\x0c\xd5\xdd)d\x84\xa9s\xd2\xbaM6\xe8\x84\x1f5iI9d\x04\x1eqR@\x03\x1c\xb5Z\x00$d\xaf\x04U;\xb2Z3\xb8\xf6\xac\x89-^y\rY\xb4\xb2\x99H\xf4\xad+Xe\x18Rx\xfaU\xd4\x8d\x82dU\xab?5\x1c6\x7fJ\xe84\x96,T\x93]\x1e\x9f\x1a\x98\xb2\x075f(\x8b\xc8\x14\xd5\x84\xb7\xc1\xc0\xa7\xfd\x9b\xda\xa2\x927S\x81_\xcb?\x8afIK\x81\xd3\xff\x00\xaf\\]\xe2\x02\xed\x81T^\x16\xdfR\xe9\xd6\xf8\x97p\x1c\xe7\xaduz\x1c[QN8=ku_b\x8fJ\xb3g(.\xa0u\xae\x9bE]\xc8\xa7\xbdt6\xf0|\xaa1\xd7\xadj\xd8F@\x00\xf4\xad\xabG\xd9\x0f\x07\x8a\xb9mq\x92\x015\xa3l\x9b\xc0lqSI\x85\x8c\x8e\xd5\x02\xcb\xfb\xe0\x14\xf7\xadM9\xd9\x88\x04\xd5\xb9\x1bb\x16\xf4\xa29\x03\x0fz\xd8\xd3\x17r\x0fZ\xbb4\x1f.\x00\xebU%FCQ\x11\x9eG^\xd55\xbc%\x98df\xb5\xf4\xdbo\x99x\xad\xed&gt;7P\x00\xad\x9b$r\xa0\x1a\xd1\xb7\x81\x9b\x0b\xeb[z]\x8f\n\xcc\xb5\xd3\xe9"\x18#\x07o#\xde\xb6\xedn\xa31\xf3\xd2\x9c\xf23\xff\x00\xab4\x91\x89w\x8c\xb7\xe9V\xe1\xf3\x10n\xdd\xfaV\xb6\x9c\xbb\xc0=\xebJ\x04d\xf9\x81\xe9W\xad\xd9\x8fSS*\x968\x14\xef%\xaaxb8\xcdZ\x8a2\x06M\\\x81\x14\x0c\x81V\xe0]\xc0\x01R\x18\t\xe0\xd3Z\xdc\x81\x91M\xfb?\x98\xc3\xcc\x19\xa8\xe5\xd1\x92NV?\xd4\xd4/\xa4\xcb\x1bp\xbcU\xdb\x18^,+V\x8c \xbe\x01\xab\xb6\xd1\x91\x8c\xd4\xecN\xc2*\xa4\xeb\xb9J\xfbSl\xad\x03\xb66\xf3Z\x10\xd8aA\xdbV\xed\xec\t\xc0\xdbS\xad\x93(\xc1\x1cT\xb0[~\xf0.8\xad\x9d6\x1f/i\x02\xba=/\xee\x0f\xa5i[\xc6\x85\xc6W\xf5\xab\t\x12\x06\x04/\xebR\x14S\xc1\x15\x04\x91\xa1&lt;\xaf\xeb_\xcav\xb1t\xd23\x05C\x8a\xe7\xaf\x97k\x16\x11\xe3\xde\xaa\x85\x0c\xdc\x8a\xb1b\x8a\x08 s\x9a\xe9\xf4P\xbeZ\xee\x1cw\xad9\x9a=\xa0b\xa6\xb2e\xf3\x14\xafZ\xeb\xfc&lt;\xa0\xaa\xe4WO\x12(\x8dH\x15\xa5`\x14\xa8\xdc8\xad\x18\x9d\x04eq\xc5:\xd6pd\xc1=+{O\x95\x0c#4\xeb\xe9U\x10\x85\xe0\x1a\xa5\x04\xcad\xdcO#\xa5mi\xb2\xa8@\xdd\xea\xe4\xee\x8c\xa1=z\xd1d\x8a\xdc\x91[\xfaR\xa8Q\x81\xfeqZ;C\xc7\x96\x19\xaa\xb71\xa1S\x95\xfdj\xb1\x8d\x14d\n\x9e\xdb\xef\n\xd8\xb0!J\x93]\x06\x98\xb1\xc8\xa0\x0e\t\xef\x9a\xd9\xb3\x80"n\xdc&gt;\x95\xa5\xa7 \x92tRz\xff\x00\x85t\xd6v\xb1\xc5\x10*EY\x8eS\x11\xf6\xf4\xab\xb6\xb7\xb9!6\xe35\xa9bd\x91\x86\x0f\x06\xb4\xad\xedU\xc8\xdc?\x1c\xd4\xefj\xaa\x9c6}\xaa\xee\x9c\x8e\x98 \xf1W\x92g\xce\xd2\xdczb\xad\xc30\x03 \xd5\xa8\xa5_\xbd\xde\xac\xc4\xc8\xc3 sV"\xe9R\tJ\x0c\xb0\xc8\xf4\xa9"\xbe\xcb\x04\t\x8c\xd6\x95\x8c\x8b\x90Mi\xc3\x02\xca\xbb\xb1L\x9a\x002\x08\xe2\xa1\x8d\x13\x93\x8e\x95~\xda\x05t\xc0\x18\'\xbdNt\xb8\x9d\x0b63\xf5\xaaW\x16B\'\xca\x9a\x9a\xce\x16\xde\xbf\xe7\xb5i[C\x927\x0e(\x961\x9d\xaa*#j\x0fQO\x82/\xb3\xb0e\x18\x15v\xde|\xe0\x13W\xad\xe4RF\xda\x95\xdd\xb6\x9ei\xf6\xe3,\t\xad}5\x04\x85P\x9e\xb5\xbb\xa7\xc4#PK\xe4zV\x94/\x18\x1b\x80\xa9Re\xdc)\xfe`&lt;\x0f\xe7M*\x0fQ_\xca\xd2\xe9B\xe1\xb9`sYZ\xee\x86\xeaLq\xc3\xc1\xee+\n\xe7O\xb8\xb7\xce# \x8am\x83J$\x08\xeb\xde\xba]=\xcch\xa0\x1e;\xd5\x9b\x9b\xa6R\x00n+GKC"\xac\xa3\xa8\xef]n\x81$\xa8\x14\x96\xe3\xe9]M\x9c\xdel#\'\'\xb5^\x86g\x8dx&lt;zb\xa6\x8a\xfeR\xc1O\x03\xe9V\xed%\x8cH\t\x1d\xf9\xadx/\x84J\xa23\xf8Sn5)%;\x18\x13\xf8UX.\xdf\xce\xdb\x8c\x0c\xfaV\xee\x9dr|\xa0wU\xb8\xef\x19\xa4\x01\x9a\xaf\xe9\xd2!\x1c\x8a\xda\xb2\xb8\t\x1eU\xaa\xd4w\xf2n\n\xd2q\xe9\x81I$\xe5\xb9\xea1\xd2\xabKrA\xc0J\x96\x0b\x929\tZ\x96Wn@\x1bMl\xd8_\xc8\x8a\x08\x04~\x15\xb9\xa7_\xb3\xa0\xe0\x8fz\xdd\xd3\xe5B\x81\xfb\x8e\xf5\xd1iS4\xc1P\xbdm\xa5\x84%\x01$g\xebREh\x81\x80\x0c1[Z}\xba\xc7\x16\xf0\xd9\xc5K%\xd4\xb1g\xe6\xe0v\xc5&gt;\xc2\xf0\xcf&amp;\xd6\x07\xeb[\xf61#B\x18\xaf5?\x95\x1f\xf7\x7fZ|J7\x81\x8a\xb7\x12.:U\xbbd]\xc3\x8a\xbfo\x12\xbe\x17\xa6{\xd4\xebg\x198,?:d\xb6\xcb\x19\xc8n\x9d\xb3R\xd8\xcc\xe3\x19n3\xe9[\x96w-\xf6~\x1b\x9f\xa5:Y\\\xa9,sT\xd2wf(\xab\x8c\xd6\x8d\x93\xca\xaa\x0b\x1c\x8fLT\x92\xdf\xcb\x18 \x03\x8adg\xed\x0e\tC\xcd^\xb4\xb7P\xe0\x95\xabc\xe5\xe9Mu\\n&lt;\x1fZD\n[\x06ANh\xa3#\x05\xb3\xed\x9a\x14,|\x81\xd2\xadA&gt;\xdc2\x9ej\xd4sy\x8b\x82j\xc5\xb7\xde\x15\xabb\xdbT5iZ]\xb2\x907qW\xe3\xbe\x1b3\xba\x88u\x16-\xc3\xf3\xdb\x8a\xbfmp\x1dw1\xe6\xadFba\x92?Z\xfeV\xf4\xfb\xb5\xe0f\xba=;\xc3\xa7V\x841N\xa3\xadc\xf8\x9b\xc1\xcbh\x18\x8eH\xed\x8a\xe4%\xb0\xf2n\xb6\xb2p\x0fJ\xb9\x03\xb2\xae\x14\xf4\x14\xf7-)\x1b\x8eMt\x9e\x1d\x80\xbcj\xa4pk\xae\xb0\xb5H\xa3\\.\x06=kON\x9a@\xdbCq\xf4\xad\xdb$\x12&amp;H\xc9\xc5K${\x10\xb3/\x02\x929\xc0`\x01\xc5^\xb4\xbac"\xe5\xba\x7f\x85^VW\x19\xc75\x19U\xf3q\x8e\xa6\xb5-\xd4$`(\xebR\x871\x9d\xe0\xf4\xad\r&gt;\xe4(\x19n;\xd6\xcd\xad\xd2\x98\xf0\rY\x8eEa\xf3V\x85\xa2D\xeb\x80\xbc\xfdi&amp;\xb6\x1b\xbe\xed,\x10\xb7\x98\x17\x1c}+V\xd6\xdfl{\x82\xf3Z6\x88\xe51\xfd+_NG$\'oJ\xe8,-\xf1\x17O\xd6\xb6tc"\xb8,\xdc\x0fj\xe8\xa3\x98yC\x9atS\x0f0|\xdf\xadmi\xd3\x81\x17\x07\xf5\xa9.%\x1eYa\xd7\xd6\xa4\xd2\x9f\xe7\xdc\xdd\xabz\xd6\xed\x96\x1f\x95\xb1\xf8U\x88\xeeY\x87\xcc\xd5f\xdd\xd5\x98z\xd5\xd8\xba~\x15j\x06\nw\x1fZ\xb9\x14\xcb\xb7\xadH\x93\r\xdfx\xfet\xc9f\xf9\xb3\x9f\xd6\xa5\xb6\x90\x1f\x94V\xde\x9b\xca\x00}*\xd1U\xc1\xe3\xb5D\x91G\x92v\xf3Z6\x11+\x806\xd3\xe7\xb4F8d\xa9\xad,\xe3\\\r\x9cU\xa5\x865\xfb\xab\xfa\xd2\xec_J\xadv\xcc\x10\xa8&lt;V|\xb72\xc6r$"\xa4\xb7\xbc\x90\xb0m\xf5l\\\x16NMMo l\x01Zvq+\x01\xc75~\xda\xdb\x90qW\xe1\x89\x82\xed\x1d*\xdc1\x91\x82jPH\x18\x06\x9d\t\xd8\xf9\x15z\xde\xec\xa0\xce\xee*\xdcW\xd8^\r\x7f*\x96\x17\x81\x1dC\x9e\xf5\xea\xbf\x0e/!\xb8\xb1\x01\xb1\x9cpqL\xf1\xd8\x81Q\x8a\xe38\xfe\xb5\xe5\x9a\xbc\xaa/\x18\x0fZ\x8e\t\x03qSF\tp\x07\\\xd7W\xe1\xe6T\x89I\x1c\xfa\xd7U\xa7\xcce\x88.kF\xca"\xb2\x0f\xd6\xb7l\xa5\x8d#\xc0\x1c\xfdjI\xa5\x0f\x19V\xe8j\x08\xe1\x7f00\xe9Wm#*\xe0\x9a\xd0\x84\x908\xa7\xa0\r $w\xad;?\x99\x06\xea[\x8d\xdbJ\xaf\xadIm;"\xed-Z\x967\'\x03-Z\x10\xdc\x9c\x0f\x9a\xb5t\xdb\xac2\x92\xd5nK\xa8\xc8\xc8\xebO\xb7\x95K\x02kV\xc9\xd1\xd0/\xadj\xd9\xc6\x0c`\x01[ze\xb0 \x12\xb5\xd1i\xb6\x81\xa3\x03mjYYl \x15\xe2\xb4\xda\x12\x91\x02\xa3\x1cSb\r\xe6\x0c\x9e\xf5\xb7\xa7\x1f\xdd\xd5\x86]\xe3mM`\x8c\x87\xdb5\xaff\xbb\xd3o\xadZ\x8a6\x0e2x\xab\x90\x00\x802\xf5\xab\x90\xbbm\xebVcv+\xd6\xad@@\\\x9a\x93z\xff\x00\x08\xe7\xebP3\xb1\x94\x02j\xdd\x97\xfa\xc1\xfe{V\xdd\x84\xae\xb8\x19\xe2\xad=\xc1\nNj5\xb9\x00\xf3\xf8\xd6\x8d\x85\xda\x80\n\x1cU\xc0\xf2I\xf3\x13\x91R\xc5+\x07\x19&lt;T\xber\xd2\xac\xa1\x8e\x05V\xbb\xfb\xa6\xb3.WvTTV\xben\xfeOJ\xbf\x12HW\x04\xd5\xbbH\xd9X1\xad\x9b\x12@\x04zV\xbd\xa8\x057\x11\xcd]\xb7\x00\xb0\x04w\xab*\x0f\xdd^\xf4\xa6\'\xedB@\xe5\x80c\xc7\xd2\xa5\x11\xb2\x8eO\x14\xe5v^\x86\xbf\x95fvG\xdc\x0fz\xf4\x1f\x87\x1a\xcf\x91g\x86\x93\x81\xedG\x8c\xb5\xb6\x903,\xbd\x07\x15\xe7\x9a\x95\xf7\x99rr\xd99\xa9m&amp;]\xa1\xfb\xd5\xebYWxn\xf5\xd2\xe8\xf2\x8f,\x1a\xe94K\xa2H\xc9\xe8k\xa2\xb5u;p95\xa1k\xf7\x81\xab\x89\x1a0\xf9\x97\xf5\xa7\xaa\x85\x18\x02\xacCV\xa2\xe9\xf8T\x91\xfd\xf1\xf5\xad+&lt;\xf9\x7f)\xe6\xa4h\xdc\xf2MD\xdeb\xb7^*\xfd\x84\x8c\x00\xc9\xad\x18f]\xb5v\xd6\xe9\x86\x02\xbf\xe9S\x8b\xb7\xfe\xff\x00\xe9W\xac\xa7\xdd\x82\xc6\xb6l\'\x03\x04\x1a\xd9\xb2\xb9!F\rtz4\xe1\x91I5\xd5\xe8\xa27E\x00s\xf5\xad\xcbkQ\xb3v\xdej\xc4\x90\xb7\x0b\xda\x92;`\\\x02+V\xc2\x0c\x00\x00\xab\xcbh\nnU\xe7\xb5Omf\xf9\x1cu\xadm&gt;\xcbi\x07\x15o\xec\xde\xd4\xf8\xa2!\x80==*u%xZ\x9e\x178\xe4\xf1V\xe2\x902\xe0S\x81 \xe4R\x15\xc9\xc8\x1c\xf6\xab\xb6\x10\xb1!\x8dk\xda\xc6Bn4\xf9\x01(@\xa8b\x8d\xd9\xb0\xc7\xbdi\xe9\xf6\xf8\xc1\xc5l\xdaC\x94\xc3\x0e;\xd3eP\xa7\n*#!\x12`\x9e)\xcb8C\xb9O4\xd9f\x12)\x04\xf3T.K\x0eT\xf3O\xd3!i[\x9eNkXYlPJ\xf6\xe6\x9e\xa8T\xd6\x95\x97A\xf4\xad\x8b \n\x00kB\x04P2\x075*\xb6\xc3\xba\x9c.\x089\xcdM\x1c\xa1\x87&amp;\x9cYO\x04\xd2~\xee\xbf\x95e\x85\xa4\x1f8\xcdt\xfe\x16\x91-\xad\xb0x\x18\xe4S|I2H\x8cT\xf6\xf5\xae:\xea47$\x91\xdf\xd6\xa5\xb7m\x83\x83W\xade\x05\x80S]\x1e\x8e\xed\xe4\x8e{WE\xa3\xca\xc8\xea7q\xff\x00\xd6\xae\x8a\xc6\xe9\xbeS\xbb\xa7J\xd9\xd3\xe7\x0cF\xe3\x9a\xd2\x89\xa3\xdb\xd3\xf5\xa6Mq\xb3\xee\x9a\x92\xd6\xe9\xdd\xc2\x96\xea}+R\xd1C\xaf\xcc3Op\x11\xb2\xbcsZ\x16\x0cH\x00\x9a\xd0hS\xcb\x05W\x93\xefUn"\xc6I\xa9m\x89\x04(&lt;U\xd8\x89\xdb\x9a\xb1i#\x91\xc9\xab\x91\x00\xc0\x13ZZz.\x07\x15\xb3b\x8a\x08\xe2\xb5-X\x8c\x0c\xd7A\xa3\xca\xe3h\r\xda\xbb\r\x02Y\x14\xa6\x1b\xbf\xa7\xb5uvgtcwqV@.\xc0~Ub\x0bP\xc4\x16_\xd6\xb4- \n\xc0c\x8a\xd0\x824=V\xaf[A\x17\xf7?Z\xd0\xb6D\x07h\x1cT\xcd\x12\x01\x90\xbf\xad1\xc0E,\xbdj?6O\xef~\x95b&amp;b\xb8&amp;\xac\xc0\xd8\x00\xe6\xa52\x9cp\xdf\xa5M\x00/\xf5\xadK\x18\x88\x00\xb0\xad8H\t\</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Sample2.jpgSundar Pichai</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x01\xf6\x01\xf6\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfb7\xec\x92\xd5\x88\xb4\xe9[\xef\x0c\xd3\xa5\xd2\n\xfd\xd4\xfdj\x1f\xb1\x1f\xee\x9f\xce\x9f\xfd\x98\xff\x00\xdd4\xbf\xd9\xd2\xfa\x1a\x8f\xecG\xfb\xa7\xf3\xa6\xb6\x9c\x1b\xef\'\xebM\x96\xd2E;\x94sH\xa4\xafCJ\xce\xcd\xf7\x8f\xe9L\x9a\x08\x8f\xf0~\xb5\x04\xb6q\xaf\xddO\xd4\xd5u\x80\xaf\xdd\xfeU2\xc5\xb3\xee\xe0S\xeaHl\x91\xba\xa5M-\xaa\xaf\xddZ\xa1z\xd1/\xdd\x18\xac\xeb\xb8\xd6_\xba+2\xfa\xcd\x07\xf0\xfe\xb5F\xd2\xd8$\xfb\xa4^i\x9e+\xd1\xad\xf5\x0bO&amp;%\x19\xf6\xae\x06\xf3\xc3\xd76\x93|\xa9\x8f\xc2\xb64{\xb8\xed#\xf2\xdf\x00\xd5\x9b\xbb\xabYc\xdc\xab\xcf\xd6\xb9\xeb\xd9\x1dO\xca\xd4\x96\x84\xc9\xf7\xf9\xa8\xef\x1d\xa3\xfb\x87\x1f\x85V\xb5\xd7V\xd2l&lt;\x9f\x9d_\xbd\xf1\x95\xbc\xd0\xf9"^k\x1a\xf7Z\xb6\x9ao\x95\xbfZ\xd3\xd35{9-\xbc\xb6\x00\xb5s\x9e1\xf0\xc4\x1a\xc5\xb1H\xa2R\x1b\xa8\xf5\xaf\x1c\xf1W\xc2\xe3m1\x9f\xcb\x007_\x96\xb8\xado\xc1\xee\xbd-\xc0\xfc+\xcb\xfcu\xe1\xb9\xe1\xf32\x9d:W\x97\xea\xb2\xff\x00g\xcf\xfb\xd8\xcf\xe7E\xaf\x8a\xed\xe3]\xaf #\xd2\xa0\xd5n,\xf5\x0e\xe0\xd7\'\xach\xea\xdf\xea\xf1X+\xa4\t\xee|\xb1\x8czT\xd7\xfe\x12\xcc[\x8a\xf3T\xad\xbc="\xcb\xb4G\xc7\xa5k\xdbh\xd2${\x9d2j\xbc\xa6+F\xdc\xa3\x14\xeb]v\x05\x1b]\x86*\x8e\xa7\xab[\xac\xdc5Oc\xe2\x14\xf26\xf6\xaao\xa83\xddy\x91\x83\xb6\xbd\x1f\xe1\x1e\xb0m\xaec\x8eYxn\xa3\xd6\xbe\x8a\xf0]\xa4Z\xdd\xbch\x150z\xe6\xb4\xef\xfe\x1d\x8b\x9f\xf5J?\x02j=\x07\xc1\x1a\xae\x99t$W*\x17\xa7\x1d+\xd2\xb4%\xbe\x10\x0bi_;z\x0fJ\xdd\x86g\x83\xae\x07\xe3S\x7fi\x9cm\xdc1\xf8S\xe3\xbbI&gt;\xe9\xa6\xc90\x8f\xee\x1cR\xdb\xeaO2\xed\x19\xc7\xa5X\x8a\t\xdao\xdd\x93\xfc\xeb\xa7\xd0\xedd\x10\xd6\xb7\x94\xfe\x95\xf5\xfcV%\xbe\xf2\xe6\xaeAj\xbf\xdd\xa9d\xb6Y~\xe2\xd4?\xd9\r\xff\x00&lt;\xff\x00\x9dI\xf6\x03\xfd\xd1L\xfb\x1b\xff\x00t~U\x0f\xd8\xd3\xfb\x9f\xa9\xa6}\x99}\x07\xe7Mk8\x9b\xef \xfc\xcdV\x97D+\xf7O\xebPMbW\xee\xad2{`?\x86\xa3hY\xbe\xf53\xec/\xe9N\xfb7\xb5Wx\x9a.\x1a\xacB\xed\x8e\xb4\xf9\xee\x0f\xadd_U\x04w_\xbe\xd9\xa8\x1c\xf9\x9f\x7f\x9a\xa3|&gt;\xce\x9e`\xe0\xfa\xd5[;\xb4\xba\x9b\xe68\xfa\xd5m\x7fO\x81\xd3\xcc\x8c\x00}s\\n\xadrlg\xce\xc2O\xb5W\x87Zv]\xa78\xfaRM*\xcf\xd2\xa4\x8c\x08\xbe\xe7\x14\xd9\xa1i\xe3\xdd\xe5\x1c\xfa\xd71\xe2X\x9e\xc7\xf7\xc62\x05q\xdf\xf0\x96\xca.vy\xa7w\xd0V\xf6\x98&amp;\xd4S\xcc\x89\t&gt;\xb5x\xdcO\xa7\xcb\xd0\x81Z\x1av\xb1\x14\x83l\xad\x81\xe8k/\xc6QZ\\\xdaf0\xbf\x85y\x9e\xb9\xa6\'\xa8\xfc\xab\xcc\xbcy\xe1\x9f\xb5\xc5)H9\xf6\xcdxW\xc4\x7f\x08\xcd\x04\x92I\xb1\x82\x8e\x9cW\x91\xeb3]\xe9\x92\xedr@\xa8\xac&lt;R\xe3\xfdk\x93\xf5\xabW\x1a\xbe\xebm\xe6N}q\\\xcc&gt;)H5\x1d\xa5\x0e+\xa0\x7f\x12C$?:\xe6\xa4\xb5\xd4-$m\xc8\x06kY\x0c2\xc3\xf2\xb0\xaewX\xb4G\xff\x00V\xbf\xad`\xbd\x9b\xc7\xf7\xf3\xf9\xd26\x96\xd7s|\xcd\x9f\xc6\xb5\xf4\x8f\x08]M\x0f\\\xd5\xd3\xe0\xb9\xad\xe1\xce*\xf6\x89&lt;\xda\r\xc2\xb6\x0eW\xa7\x15\xe9^\x0b\xf8\xe9\xfd\x86\x02\xb3*\x81\xd3\x9a\xf4\xaf\x0f\xfe\xd11^\x7f\xac\x01\xbf\x01]m\xa7\xc5\x8b{\xc8\xb2\x84g\xfd\xd1Wm\xbe(-\xab\xef\x910}sT\xf5?\x8e\x029v\xab\xe0~\x15kG\xf8\xa05O\xb9!5\xd9\xe8~%\x9e\xe3\xaa\x93\xf8W@\x12Y\xa2\xdc#5\xad\xe1\xfd\r\xa4\xfb\xd1\xe6\xb7m&lt;6b\x9b\xe6\x1f\xadm\xd8\xd8\x1bhr\x17\x1f\x8dL\xe0\x03\xc5}\x95\x04&amp;\xa4U\x0b\xf7E&gt;\xcb\xe6\xebZ\x1eT\x7f\xdd\xfdj\r\x8b\xe9U\xa6G_\xbb\x8f\xca\xa0\xf2Z\xa3\x96\x16N\x95\x1e\xd9\x7f\xc8\xa6\xb3\xb3}\xe3P\xb4r7\xde\x8b\xf4\xa8Z\xd2F\xea)\x9ff\xf6\xa5\xf2Z\xa2\xf2\x9f\xd2\xaa\xdc\xc4\xce0\xd4\xb1\xc6\x91\xfd\xe1Lh\xa2n\xad\xfa\xd5;\xebD#\xefw\xac{\xef\x97\xee\xd5_?\xfd\x8f\xd6\xab\xdf\xc4\xd7#kr+\x1a\xfa\t\xac\x1bp9&gt;\xa2\xa9]j\xf7\x12.\xd7REgj\x16\x10]\'\x98\xc0\x06\xf55\xcdj\x1f\xe8_\xea\xbfJ\x86\xd7Qd\xff\x00X\xb5\xa1\x1d\xd4-\xf7\xeeB\xfdq[\xfae\x94Wp\xfe\xeeQX\xdf\x11t\x18F\x93#\x85\x19^\x86\xbcC\xeci\xfd\xb1\x8d\x9f\xadz\xef\xc2\xff\x00\x0f\xdb^Zn\x90\x80}\xcd[\xf1\x8f\x85\xed\xad\x9bt\x18\'\xd8\xd7\x9d\xea\xb7\xba\x95\x84\xfcB\xc5=\x02\xd6]\xcf\x89\xaf\xae\x93\xcbx\xd8\x0fB\xb5\xcd\xea\xf7W\x0f\xf7\x81?\x85S\x97DK\xf8O\x9b\x16\xec\xf5\xe4\xd7\x0b\xf1\x1f\xe1\xacwZ|\xaeP\x13\xeb\x8a\xf9\x97\xe2w\xc3\xf5\x82i?tF\xde\x9dk\xcd.\xf4i\xad%\xda\x90\x92=\xb3Q\xca\xd7\x0b\x0f\x93"\x9c\xfd+5\xb4i\x1e\x7f\xb4\xb2qM\xba{\xe8\x86\xd8\xf2G\xb2\xd3\xf4\xcdB\xfa/\xbe\xa7\xf2\xad\x9b?\x104ck1\xc5=\xf54\x93\xef\xb05OS1/\xdd\\\xfd+:\x1dE\xad\xee\xf6\x958\xafK\xf0/\xd8\xefmwJ@&gt;\xe6\xb4\xef\xec\xa2\xdb\xb7#\x15F\x1d\n+\xb9\xb0\xcc\x0f\xe3M\xd5&lt;\'\x05\xb7\xdd\x08~\x82\xafxoK{Y02\x07\xd4\xd7\xa5xi\xd8C\xc1\xad\rnI#\xb6\xf3\x11\xc88\xeb\x9a\xe5\x9e\xdbT\xd4\xee\xf6\xda\x89\x18{\n\xf5/\x86\x9e\x10\x9c\xc5\x1b\\\xdb\xb2\x16\xeb\xbb5\xec\x9e\x13\xf0\xe5\xaa&amp;\xd90[\xd75\xdbA\xa0\xc4!\xfd\xca\x81\xf8\xd6\xc6\x93e\x1d\xb7D\xc7\xe3W\xcf\'wz\xb2g%v\xee\xe3\xe9Uf\xb9 \xfd\xea\xfbmae\xfb\xa2\xa3\xd8}E\x16\x8b$\x7fx\xd5\xcf6O\xef~\x94\xdaF\x85\x9b\xad\'\xd9\xbd\xaa\x19\xed\x87\xf7j\t\xe3D\xfb\xa3\x15\x0cP\xc6\xd2\x15e\xe3\xebV\xe2\xb5F\x1f3\nl\xb61(\xf9O\xebY\xf2\xda\xaa\xfd\xd5\xa4\xfb!\xaa\xf2\xc2W\xee\xd5y\xd1=*\x94\xf29\xeaj\xb6O\xa9\xaa\xf7"W\xfb\xcck&gt;\xe6&amp;\x7f\xbd\xcdV\xf2\xe4\xf5\xa9\xa5\xb3D\x8br\xae\x0f\xd6\xb3\xe6\xd3\xe1\x9eM\xb3G\xb8}Me\xeaZL1G\xba03\\\x9e\xb5&lt;\xca\xfeZ\xa9\xdb\xe9X\xd2ZK/\xfa\xcej\x0b\xbb\x1f.-\xc8\xb85\xc9\xeb\xba\x9e\xa1m.\xd1!\x1fA]/\x83\xfcw\x04\x10\xff\x00\xa6\\c\xeb\x8a\x9b\xc7\x1f\x104\xab\xfd4\xc3\r\xc2\xe4\xf5\xaf1\xd2l\xa7\xd5\xb5o2\x03\x95\xfaW\xaax.\xda\xf3K\xb7\xda\xcaG\xb5K\xadjN.vK&amp;W\xd2\xa3\xba\xd0t{\xbb]\xce\xcaO\xadq\x1a\xf7\x87\x92\x0f\xf5(\x05r\xfa\x96\x8b$\x9fq*\x0bxM\xb2\xed\x94q\xefQx\x8a\xc2\x0b\xfb3\x06\x14\x96\xeb^\x07\xf1\x8f\xc0#\x12\xcf\x0cx\x1f\xee\xd7\x87_xN\xda\xd9\xa4i\xa3\xdaW\xa6s\xc5q\xbe"\xb7\xb2\xb4\xbb\xc2\x80?\x1a\xa2\xd1\xc6\xf0b6\x14\xb6Zt\r&amp;\xd3\x82*{\x9d"\xca\x1f\xf5q\x81\xf4&amp;\xb05\x18\x9a\x196\xc7\xc0\xaa\x9fl\x93\xd2\xa7\xb4\xb9/\xf7\xce~\xb5\x0e\xab\x1a,\x9ed\x0b\x83\xeb]\x0f\x84\xbcB\xd6\x89\xe5\xb98\xf4\xae\x92O\x13\xc5-\xb7\x99$\x99oZ\x83J\xf1\x12\xf9\xdf\xebkUu\x98\xe7?\xbd|\xd7C\xa14S\xb6\xe0\xe35\xd8\xe8\xf3\xc3g\x1e\xf7\x1f/\xd6\xaf\xdd\xddZ\xea\x91y\x16\xee3^\xa7\xf0+\xe1u\xa6\xb4~\xd3r\x8a\xdfU\xafW\xd6&lt;\x13\xa5\xe8P\x8f$(\xdb\xd3\x02\xb9m\x1fX\x9e=g\xc9F!}+\xd5\xb48\x9a\xe2\xd26\x1c\x96\xebZ\x8d\x0bC\xc1\xa4\xde\xde\xb4ooZk"\xb1\xcb\n\xfb\xc3\xeci\xfd\xcf\xd4\xd4\x7fd\x8f\xfb\xa3\xf35^hYzSw\xb7\xadX\x824\x7f\xbc3Ry#\xda\xa2\x95\x1d~\xe9\xa8\'v\xf5\xaa\xcc\x03\xfd\xe1\x9a\x89bu;\x94\xf3S,e~\xe9\xfdhh\xcb}\xe3\xfa\xd25\xba\xb7\xde\x03\xf3\xa9%\xb5U\xfb\xabY\xd7h\x8b\xd0Vd\xfd\xaa\xa5\xc4h:\n\xa9\xe5?\xa5\r\x0b7\xde\x15N{a\xe9U~\xca?\xb9\xfc\xe9\xf3\xab\xf9=\x7fJ\xa1*H\x8d\xb8\x1e~\x95\x9d\xa8[\xee]\xa4q\xf5\xaesR\xd3VF\xdd$y5\x996\x9c\x17\xee\xa7\xebT\xf5;`\x90\xf0\xb8\xfck\x8e\xf1\x16\x9a\xb3\x9d\xde^MqZ\xccz\x84k\xb6\xd8\xb2\x8faXK&amp;\xaf=\xcf\x976\xf2=+\xd0&gt;\x18\xe8\xd2[\\\xef\xbaL\xaf\xbdz\xa2\x8b$\x87\xe5\xc0\xaek]\xd2\xae.n\xbc\xc8\xf3\x8adq\xdcD\x9b\x19\xb8\xfaVf\xb7bg\x1d3X2\xd8l\xff\x00X\x99\xaeS\xc4N\xd6\xb2mS\x81\xe9Y\xdam\xd1\xbc\xba\xd8\xed\x91\xdcU?\x88&gt;\r\x8fT\xd3IHT\xe7\xad|\xf1\xf1+\xc02\xc3\xe6\xf9jG\xd1k\xe7\xaf\x1e\xe8\xd7V\xba\x8c\x8b&amp;p\xbd\x05b\xc7?\x946\xb1\xe2\x9fi~#;\x99\xb9\xf5\xa9\xe6\xd4\x9an\x8fT\xaf@\x9c\xee\x03\x9a\xcf\xf2\xe4\xf5\xa4HZ?\xb8qV&gt;\xcc.?\x87?\x8d\x01\xda\xd7\xa1\xc52]nE\x83\n\xc4\n\xb3\xa1^\xcb&lt;\xdc\x03]\x1c\rq\xe8\x7f*\xea\xfc5z\xb6\xdf\xebX\xfeu\xd3\xbf\x88\x91\xed&lt;\x94\x93\x9a\xd1\xf0\x00\x9e\xe6\xfe6\x9c\x16C\xd4f\xbe\xa1\xf85\xadZ\xe8\x96\xfe[\xe1Eu^!\xf1DZ\xa8\xc4\x03\x8f\xa5s\xfaV\x831\xd4\xfe\xd1\xb3\xf1\xafP\xf0\xec\xabon\x14\xf0\x07J\xd8\x9d\xa3\x9f\x8cf\xa0\xd8\xbe\x94\xca+\xef\x8a\x8e_\x97\xee\xd5I\xd2Lc5\x0f\x92\xd5ib\xd9\xf7p*M\xed\xebP\xdc;\x0e\xf5^d_J\xad\xb0\xfa\x8a\xb1\x15\xbe\xfe\xa2\x9f\xf6Ih\x96\xd2E\xfb\xa2\x9b\xb1})f\xac}O\xe4\xfb\xbcV[|\xdfz\xaa\xdc\xd5m\xed\xebR\xfe\xee\xaaL9\xaa\x95+F\x8d\x1e\x08\xaaS\xdb\x0f\xee\xd5\x0b\x9b`\xdfysY7\xd6\'\xa6\xda\xca\xbd\xb0+\xf7R\xb1\xb5X\x98.\xde\xd5\xcc\xeaVo\'\xdc\x15\x92\xde\x19\xfbT\xbbZ\x0c\x8fJ\xb9a\xf0\x89g\x9b\xce\x1d+o\xfe\x11F\xf0\xfc9Xq\xf4&amp;\xa9\xff\x00mK\xbf\xcb\xd8v\xfaV\xb5\xa5\xe2\xddE\x96\x8f\x07\xde\xabI\x1aK&amp;\x15x\xf4\xa7\x1d\x00\\\xc5\xb9\x86\x0f\xbdc\xea\xfe\x1a\x86\x1e\xac?:\xf3\xff\x00\x12xfk\xa6\xdcNMsv:T\xfa}\xc6q\x83Z\xb7\xb7v\xf3\xd9\xf9&gt;NO\xd4\xd7\x9b|A\xf0\xea]\xdb\xcb$j3\xeb\xb6\xbeL\xf8\xd7\xa2\x8b\x1dJ\\\xa1\x1f\x85yU\xd1\xf2\xe5\xd8\xfd&gt;\xb5\x04\xd3\x05\xe8im\xeeH\xe8\xd5c\xcd\x1e\xdf\x9dW\x84\x07\x97k\x0e*\x7f\xb2\x8f\xee\x7f:_5-\xbe\xef\x15F\xee\xf4K&amp;\xd5N*1eq:\xed\x1c\x8f\xa5t\xfe\x0f\xd0\x99\xa6\xe6&lt;\xd7]&gt;\x95\r\xb4[\x86\x01\xaa\xf7\x13\xad\x87\xfc\xb5\xcf\xd2\xaf\xf8&gt;\xe9\xf5\xadV;FR\xc1\xba\x8f\xff\x00U}\x13\xf0\xd3\xe1&amp;\xe8b\x99\xd0\xe3\xd7\x9a\xf4x&lt;5&gt;\x8e\xbbB\x15\x1fS]\'\x874\x89\xaez\xaek\xaa:"i\xf6\xfef\x00oZ\x86\xc3\xc4..&lt;\x90~_L\n\xebt\x89\x1e\xf6-\xc1\xb0}\xea\xc5\xdci\x17\xdc\x18\xaa\xf4W\xdf\xdeT\x7f\xdd\xfdj6\xb6\xdd\xf7\x85W\x9e#Qy#\xda\xa4\xde\xde\xb5\x1e\xf6\xf5\xa4`\x1f\xef\x0c\xd3Z(\xdb\xaa\xfe\xb5\x1f\xd9\xbd\xa8\x81\x9b\xcc+\x9e+F$V\xea)\'\x84\xfaU)\xe3D\xfb\xa3\x15^woZ\xcd\xbd\x89\xa7\xe83YrD\xd1\xfd\xea\xa5sT\xb7\xb7\xad\x1b\xdb\xd6\xaa\xcd&lt;\xbf\xdf\xfd)\x91|\xddj\xdf\x96\x98\xc6*\xa4\xd5]\xad\x83}\xe5\xaaw6\x05\xbe\xf2\xd6]\xed\x8f\xfb5\xcf\xea\xbac\xff\x00v\xb1\xe6\xd0\x9b\xfey\xd3-4\x89\xa3\x9b\xe6J\xea\xf4\xb1o\x04\x1bI\x18\xfaTw\xf6\xa9\xa8\x8d\xa4\x82++\xfe\x10K]\xdb\xb6s\xf8\xd5k\x9d\x1aK\x17\xf2\xf6dz\n\xa7kg"M\xfb\xc8\x89\xa9\xf5\x1b\x93g\x0f\xces\xf4\xae?\xc4:\xec\xd2\xc9\xb5Q\xb1Y\x8f\x0b]G\xb9\xc6\rs\xfa\xa6\x9a\x80\xee\xc8\xac\xc1n\x04\xbfv\xa3\xd4|3\r\xe5\x9c\xbb\xe3\r_1\xfe\xd1\x1f\r\xd2I\xe5\xb8\x8d\x07\xe5_,x\xd6\xc8\xe97R)]\xa1~\xedr\xed\xab\xee\x97i~&gt;\x95wM\x99e\xfb\xfc\xd5\x87\xbcH\xfe\xf1\xfc\xea\x05\xd5#I\xbeV\xab\xbf\xda\x91\xff\x00\xcfAH\xff\x00\xe9\x9fr\x96\x1d1\x8c\xd9+[\xda^\x80\x0c{\x8c\\\xfdMtzM\xaa\xe9\xc7r\xae\xd3\xebT&lt;W\xe2\xe1b\xfeY \x0fL\xd6-\xbf\x88\x0e\xaf.\xd8I"\xbd3\xe0\x7f\x87.\xae5\xd8\xaf&amp;\x04/\xba\xd7\xdc_\t\xf4\x8b)4\xe8\xa1}\xa4\xd6\xff\x00\x8b&lt;=l\xdf\xea\xca\x8f\xc6\xa3\xf0\xd8[n\x8b\x8a\xda\xd5O\x9fg\xd6\xb24M\x06k\x9b\xbc\x95\xcdvpD\xdaz\xed\x1c\x0fJ\x93\xce[\x9eO5\r?b\xfaW\xdfQ\\D\xdf{\x9a&gt;\xd0\xdf\xdf\xfd)\x8d\xe5\xb7\xde\xa8i6/\xa5G\xb1})\x94S\xf2|\xad\xdd\xf3UW\xe5\x9b\xe5\xf4\xad\x08\x1d\xbdi\xd3\xdc\x1fZ\xa5sU[\xe6\xfb\xd5\x0c\x91\xa2\xfd\xd5\xac}W\xe5\xc6\xda\xc7\x9eG=MW\xf2\x9f\xd2\x8f)\xfd*\x94\xdd?\nb\xca\xab\xd0\xd3\xfe\xd8\xff\x00\xdf\xfd\x051\xa5V\xeai7\xb7\xad$\xe0zVu\xc4h\xdfxg\x8a\xcf\xbb\xd3V_\xbf\x1ej\xa4\xfaL_\xf3\xc8~\xb5Z\xe6\xc2\x08[\'\x19\xf5\xac\xf9Y\xa3\x1bP\x90*m"W\x1f\xeb[5\xb1q\xa9\xda\xc1\x1e\xe3 \xcde^_YK/\xc8\xc2\x96\xe3O\x80\xc1\xe7B\x00oZ\xe7\xb5=&gt;iF\x14qX\x1a\x86\x84I\xdcb\xc9\xac\xdb\xab\x13\x14?2\xd75\x7f\x00i6\xb0\xe3\xebY\xf7\x16\xc2\x03\xb8\xaf5\x17\xdbT[\x95\xdd\xc3\x0ek\xcd\xbe-x]u\x8d&gt;W\xf2\x03\x1f\xc6\xbe\x1e\xf8\xef\xe1i\xb4\xfb\xfb\x97\x08\xca\xab\xd0b\xbcQ\xe5x\xef&lt;\x86nk\xa0\xd2\xa6_+wz\x87T\xd4bYv\x82?:\xcf\x9a\xfbknV\xe6\x9b\xfd\xaa?\xbek\xaa\xf0\xd5\xed\xbc\xbf\xeb9\xfckeg\x81f\xf9\\WS\xa5\\\xday&lt;0\xab\x1a\x95\xd4q\xc7\xb99&gt;\xd5\xe5\xdf\x10^\xfe\xea\xeblh\xf8\xf4\xae\xa7\xe0\xdf\x84/5{\xb8\xd6el\x1e\xa0\xad}o\xf0\xef\xe1\x8a\xe9Z4W\xa56\x9f\xefm\xafU\xf8c\xad\xc9mv-\x83\x11\xb7\xa0\xae\xfa\xf5.\xaf\xfb1\xa9\xb4\xdd\x1e\xee&gt;\x1e#ZrZH\x89\xe5\xc9\xd3\xd0\xd6\x9f\x85\xed-\xa2\x9fsc?Z\xbf\xae\xc6\x87\xfdP\xc5T\xb6\x88\xa1\xca\xd2\xec_JZ\xfb\x89o\x8a\xfd\xd3\xfc\xa9\x7f\xb4\x1f\xfb\xdf\xca\xa4\xb4\xbeY~\xfbf\xadn\x8b\xfc\x9aJo\x94\xfe\x95\x1e\xc3\xea)v/\xa57q\xdb\xb7&lt;R\xc3bY\xb72\xf3S/\xcb\xf7j\t\xe6\x15\x03H\xef\xf7\x8ej\x19~_\xbbU/.J\xfd\xd3\x8a\xc6\xd4\xee\x0c\xbfu\xab-\x92F\xeai\xf1B[\xefQ\xe4\xb5g\xde[\x05\xfb\xa3\x15B_\x97\xa52Y\x82\xfd\xda\xaf\x15\xe4\x8d\xf7\x9f\xf4\x15w\xcd\x1e\xdf\x9dW\xbc\xbcu\xfb\xad\x8f\xc2\xa85\xe37V\xfd)Z\xf9\x1b\xef\x1ad\xf3\xc1\xe9Y\x97\xb6O?o\xd6\xaaK\xa7\x05\xff\x00Z\x99\xfcj\xbf\xfc{\xf4\xe2\xa8\xea\x10^\\\xae\xd8\xe48\xaa\xc9\xa6]#n\x90\x92kj\x19\x83C\xe4\xb3sQ\xddG\x1cQ\xeee\x19\xf5\xcd`\xea\x971\xaf\xdd\x02\xb1\xafcI\xe1\xe1k\x9a\xbe\xd3\x1f\xce\xfb\xa6\xb1u\xebya\x8bq&lt;\xfd+\x9f\xdb.\xff\x00/q\xdb\xe9Sk\x1e\x1f[\xbd6]\xea\r|\x91\xfbO\xf8\x07\xcb\xb4\xba\xb9H\xbf\x1d\xb5\xf1\xa6\xb5bmu\xe9&lt;\xc5\xfb\xbd*\xd5\x95\xc9\x82\x1eZ\xb15][\xfd/ojX\xe6Yc\xdc\xe7&amp;\xab\xc4%i6\xb3q]&gt;\x85r\xd6\xf1\xef\r\x83\xebV\xe5\xd6Yf\xf9e\xadm?\xc5\xc5Wj\xbf\x15\xd4h\x9a\xb1\xd4_\xcb \xb0\xf4\xab\xb7&gt;\t\xfe\xd3\xb8\x8d\x99\x0b\x13\xd7\x8a\xf5\x8f\x83\xbe\r\xb6\xd3\xde)%\x84g\xd7m}\x1bo\xa9i\xf6\xde\x1a\x16\xe1\x14m\xe9Q\xf8\x01\xe6:\xceN\xda\xf6}\x16kw\x8bs\xa8&amp;\xb5\xd6\xf6\xd5z\x01\xfaSnm^\xe7\xfdS\xd2X\xd8\xcdo/\x9b\xc8\x15.\xa5\xa9\xa2}\xf6\xcd-\x85\xd4s\xc5\xb8\x1eih\xaf\xb6|\x83\xfd\xda\x82Y\x82\xfd\xd8\xcd.\x97p\xcd.\xd6REmoOA\xf9\xd2\xf9\xa3\xdb\xf3\xa6\xcbz\xab\xf7Z\xa3\xfbh\xfe\xf0\xfc\xa9&gt;\xd6\x9e\xa2\x99\xe6\xff\x00\xb5\xfaU\xd8/W\xd6\xa3\xba\x94E\x1e\xe4\xe0\xd6L\xfa\x92\xf4\xdbO\x8a\xe3\x7fSIy(_\xbbX\x97\xd7\x8f\xfd\xff\x00\xd2\xaaF\x8b\'\xdf\x19\xfci&amp;\xb2\x8d~\xeb~\xb5\x0b\xca\xb1\x9c\xa7\x15\x0c\xd7\xc1~\xebU+\x8b\x8d\xc7,k:n\xbf\x8dAx\x8a\xb1\x16Q\xcdf\xac\x8e\xaf\x855\xa3\x14\xc1\xbe\xf1\xa6\\A\xbb\xefI\x9a\xa5-\x89_\xba\xf4\xcf\xb3\xc3\xfd\xcf\xd6\x98\xd6\xe5\xbe\xf5K\xb5Gj\x8a\xe6\xd9d\x8bs/5\x8d}l\x0f\xf0\xd2[\x80:\nY\xccG\xaa\xd5\x18\x1d\xbc\xe2\xd9\xe6\xac^\xfe\xfe\x1e\x95\xca\xebQ2\xf4\xaaC\x85\xda:Vf\xa8\xec\xab\xe6/_\\W9\xaf3]\r\xa4\xe4zb\xb1\xbf\xb2\xe4\xdd\xbbg?\x8d&gt;[\xf8\x92\x03n\xe9\x9d\xddy\xaf\x1f\xfd\xa4|"/|34\x8b\x18,\xddN+\xf3\xbb\xe2^\x8d\xfd\x9b\xafK\xbd\x08\xfc+;H\xd2N\xab\x0f\r\x8f\xc6\xb9\xef\x15i3\xe9\xf7\x9c\x0c\xfe\x15R\xda\xe4\xaa\xed\x94\xf1\xe9V \x95wn\xefZ\xf67q\x98y\xa8f\x9ea7\n[\xe9]\x0f\x874+\x8dB]\xa5H\x15\xea\x9e\x03\xf03FwHr}\xcdz6\x97\xa1\x08f\x8b 7\xe1^\xed\xf0\xbf\xe1Bj\x9aX\xbbX@+\xd0\xe4\xd4\xbe:\xb1\x7f\rX\xc8\x84\xb6\x07N+\x9c\xf8y\xe3\xf4}k\xcby\x8a\xb5}\x1b\xe0\x8b\xd4\xd6mwF\x00&gt;\xb9\xad{\xf5[\x1e\xae\r.\x95\xae\x03s\xe5\x91\xf2\xfaWJ\xa6)`\xda\xab\xc5ak\xdaxy6\xc6\xdcS\xb4\xb5X!\xe9\xfa\xd5\x9f4{~t\x9b\xdb\xd6\xbe\xe5\xfd\xdd\r\xa6\xab}\xe2*(-V\xd5\xb7\x05\xc1\xa9\xfc\xdf\xf6\xbfJ\x8e[\xa6_\xba\xd5\x0bL\x1b\xef\x7f:\x8b{z\xd4s\\\x95\xfb\xad\xfaSf\xd4J\xfd\xd7\xfd)\x90k\xb2\x89v\xe4\xe3\xe8*\xdc\xda\xa4\x93.\xd1\xc8\xfaUY\xaah\x1e&lt;\xe7\x14\xcb\xeb\x88\x7f\xc9\xacK\x87F\xfb\xc3\xf5\xaa\xb3\xdf\x0bn\x8d\x8a\xac\xda\x99o\xbd%2{\x93\xebT\xa6\x91\xff\x00\xbdQ3\xbb}\xe3U\xe6\x98T3J\xb3\r\xa3\x91L\xfb\x04Y\xce\xcf\xd6\x9c\xf6\xe2?\xb81Ug\xb9n\xbbMVk\xb7o\xbc\xa6\x93\xcd\x93\xfb\xdf\xa5=.J\xff\x00\xacjO7\xfd\xaf\xd2\x9fp\xed\xe4\xf5\xac\xdb\x98\x99\xbe\xf0\xcdA\x05\xb8\xf4\xaa\xf3\xc4\xd5Ubu\x9b\xe5\xa9\xe5;"\x1bk\x9c\xf1\x0f\xcb\x9cV/\x9b\'\xf7\xbfJ\xa3\x7f\xf3\xc5\xf3s\xc5s\xf7\x113I\xb4\xf4\xf4\xa8\xeb#T\xb6U\x9fp\\\x1a\xe3\xbe.\xd9\xc9\xa9\xe8\x12\xdb$$\xfbW\xc1\xff\x00\xb4?\x81\xe5\xb1\xba\x96\xf0\xc3\x83\xeb\xb6\xbc\xaf\xc3N\xf6\xa7\xc8\x91\x0ej}{\xc3o\xa9\'\xda\xa3F&gt;\xf8\xae\x13U\xd2g\xd3\xe5\xdb)a\xed\xb6\x9b\xa7\x13$\xbb\\\xe4U\x89o$\xb4\x93\xcbU!}+\xae\xf0\x96\x8f\x06\xa6\x9ed\x8a3\xeaMz\x0f\x87|?o\x03n\xc8\x1f\x8dv:F\xa0\xd6\x9f\xf1\xec\xff\x00\x90\xcdz/\x80ln5\x8b\x98\x98\xc6v\xfa\x1a\xfaS\xe1V\xa7o\xa7\xe9q\xe9\xf2\xf0[\xa8\xf5\xab\xbf\x18\xbc3\x06\xa1\xe1\xf9o!\x88g\xd6\xbek\xd14\xeb\xbb\x0f\x10\xc8\xfb\x08+.\x01\xf6\xaf\xa0\xbe\x16\xf8\x96\xe2\x18#R[\r\xd4W~\xf7\xb2\xdd\xf2\xe0\xb5]\xd2\xac\xd3\xed\x1b\xb6\xf3\xf5\xae\x99\xa6X!\xfd\xd1\xc7\xf9\xf7\xac\rkV)7\xc9\xc5K\xa5\xcd-\xd4&lt;\xb6\x7f\n\xbb\xb1}*M\x8b\xe9_m\xf9\xa3\xdb\xf3\xa9\xe1\xbbF\xfb\xc7\xf5\xa4\x92\xe3\xcd\xfb\xa6\xa2\x95d_\xba\x7fJ\x8aq\'\xadE\x89\xbf\xbd\xfaT\xbb\x0f\xa8\xaa\x97\x912\xf0\xb5J\xe0\x91\xde\xab\xc3&lt;\xbew\xde\xfd+^\xda\xea5\x8bt\x9d}j\xbd\xe6\xa1\n}\xd3Q\xae\xa6\xab\xf7XU{\xbb\xd7\x93\x84z\xa0\xc6v\xfb\xcf\xfa\n\xcf\xd4\x16G\xfb\xc6\xaa\xc4\xb2\xbfV5+,\xad\xf7\x9b\xf4\xa6\xb4,\xddMA/\xcb\xf7k2w\x7fZ\x8e\t\x94K\xb7&lt;V\x84S\x06\xfb\xd4\x93\xca\xb9\xcdQ\xbc\x9a\x04\x1f(\x15\x04M\x1b}\xe5\x14\xbeD^V\xed\x9c\xe7\xd6\xaa^\xbck\xd0~\xb5\x15\xa4\x8f/\xdf9\xabM#\xba\xedc\xc5C=F\xa0/\xdd\xa8.#A\xd0U]\x8b\xbbv9\xa8\xe6\x03\x1b{f\xb9\xcf\x11w\xac\x0cM\xfd\xef\xd2\x99}m\xfb\x9c\xed\xac+\xc8Y[p\xebPyQ\xff\x00w\xf5\xac\xedA\x15\x9bq\x1c\xd6N\xad\xa5\x1dN\x13\x03&amp;\xe2\xddk\xe6\x8f\xda\xcb\xe1\xacp\xe9R\xc9\x1c`7\xae+\xe3\xe94\xe9,\xf5m\xae\xb8\x1fJ\xf4\xff\x00\t\xf83\xfb[G\xcf\x94\x1b\xf0\xae\x0b\xe2\x8f\xc3\xc6\xb3\xf3\'H\xb0\x07O\x96\xbc\xae\x1baa\x7f$s/\xca\xbd\x06j\xec\xf6\x1f\xda\x07t)\xcdu\x1e\x12Yl\xe3\xf2\xdd\xb0\xd5\xd8\xc1\xa8Om\x0f\x9d\x93\x8a\xea&gt;\x1cL5\x8b\xbf\xb3\xe7w\xb5}#\xf0\xc3\xc3Q\xdbZ\x86\x91y^\x9cWe\xa6\xea\x13\xd9j\xd1$YQ\xe9^\x83\xaf\xeaiy\xe12\x97-\xc3u\x06\xbcW\xeczt\xfa\xd34Er\xcd\x93\xcfz\xf5\x1f\x87\xfa|*\xa1V \x02\xf4\xe6\xbd\x12\xc2\xd8\x08\xb7\x05\xe6\xaf\xc0\xd1[\x1d\xc1q\xefS\xdc\xea%\x97lo\x81\xf4\xac\xdb\xcb9/[r\x8c\x9a\xd0\xd1\xad\xbe\xc6\xbb\\~\x15wb\xfaR\xc5\xf3}\xea\xfbG\x13\x7f{\xf4\xa1\xc4\xb1\xfd\xc6\xc5:\xcd\xdd\xa5\xda[\x8a\xbb5A3\xb6z\xd2T\x95V\xfe\xb2\xeej\xba\xdbL\xad\xb8\x1e~\x94\xe9\xaeYWhn*\x85\xcd\xc9o\xbc\xd9\xa8\xa2\xbaf\xfb\xcdW"\xf9\xba\xd1+\xc6\x9d\x07\xebU5\x05\x81\xbf\xd5\xae?\x1a\xa8\xb1\xa2\xfd\xd5\xa7S&lt;\xe5\xaaS\xf6\xac\xe9\xe1j\xaa\xb1\x14m\xcb\xd6\xac+\xba\xfd\xd3U\xae\xb5\x16\x88a\xdf\xf4\xac[\xef\x10\xa7\x9b\xb7\xb5-\x9e\xb8\xad&amp;\xd6~&gt;\x95\xae\x97q\xc9\x0f\xcaj\x85\xf7_\xc2\xa4\xb2\x8d6\x16\xc78\xa7J\xec\xbft\xd4s\xcc\xb5\x1c\xb3\x05\xfb\xb5Y\xaew\xfd\xe6\xcdA\xbd\xbdj\x1b\x89\x1ct5\x8d\xaf[\x06\xfb\xc3\xf5\xac?)\xbc\xdd\xbd\xa9.!,\xbb[\xa5b\xdf[\x0fJ\xce\xbbQ\x17\xdc\x18\xac\xdb\x96\x89\xbe\xf0\xcf\xe3Q\xdb\xc8\x8b&gt;\xe1\x8a\xf2\x9f\xdawJ\x8bT\xd1\xe5\xd9\x085\xf0w\xc4\x1d i\x1a\xc7\xfa\xbd\xbf\x8dz\x7f\xc1\xab\xcbit\x88\xe2\x92@Y\xba\xd4\x9f\x17|7\x15\xce\x99,\xb1\xc6\xbbk\xe5/\x19\xda=\x8e\xa5)#\x14\xbe\x14\xd6"\xff\x00\x96\xcc\x0f\xd6\xba\x8d6\xf6\xdd\xee\xf0\x83\xf5\xae\xc6@%\xd36\xa8\x18\xae\xd3\xf6p\xf0\xdd\xcd\xf6\xbd\x1f\x9b\x01m\xddz\xd7\xda\xde\n\xf8k{&amp;\x9f\x1b$c-\xd4\xe2\xac_\xfc=\x9a\xc2\xf4\\L\x9fw\xa1\xe6\xb2\xfe$x\x88\xe9&gt;\x1d\x92\xd3\xcc\x1b\xd7\xa6+\xc6\xfc\x17\xac&gt;\xab\xe2/-Q\x88\xf3v\xe3=\xbd+\xe8\xbf\x87\xdat\xabm\x1c\x92\x0c\xb3u5\xdbC*\xc0\xbbOOJt\xab$\x9ft\xd2ydw\xfdk[E\xb2\x8d\xfe\xfcy\xfc\xeaK\xb4D\x90\x05\\\x0c\xd3w\xb7\xadH\xad\x12\xfd\xdf\xe7_k\xc5\xf3u\xa8\xae\x1d\x87z\x8e\xdaUS\xb9z\xd5\x96\xbeV\xeaj\t\xeeH\xfe*w\xda\xd3\xd4T\x9fk\x8a\xaa\\\xdc\x17\xfb\xc6\xb3\x9aUy6\xb7#\xd2\xadlO+v\xe1\x9a\xce\x9e\xdf\xfe\x9aVt\xf10\xa8\x96\'_\xba*\xfa\xb3/CY\xf7\xfa\xb7\x91\xc9\x15F=e\xa4\xfb\xfc\xfe\x14\xff\x00\xb7\x1f_\xe5G\xdb\x8f\xaf\xf2\xa8&gt;\xd0}G\xe7H\xd2\x86\xfb\xd8\xfc\xea\x06P\xdfxT_f\xf6\xa2[p\xbftVN\xb1d\\\xfe\xecb\xb9\xbb\xeb\t\xbc\xeaM?M\x95f\xfd\xe0?\x9dm\xda\tb\x87\xe6je\xd3\xb3u5=\xbc\xaa\xb0\xe4qI&lt;\xcbQ0\r\xf7\xaa\xa4\xee\xfe\xb5\x15;\xca\x7fJ\xafsT5/\xde\x1f\x9f\x9a\xc7\x9a\xd8+nU\xaa\xd3\xca\xb5\x93x\x01\xac\x8b\xe8Z\xb1/N\xcf\xbb\xc5%\xba/\x9d\xd2\xb8\xaf\x8b\xfa[_ir\xaa\xaeE|)\xfbE\xe9m\xa6\xear2\xa6\xd2\xbd+7\xe17\x8c\x12\xcb\x103\xe0\xafJ\xf4\xbf\x13\xeaq\xea\x9e\x1c;[;\xba\xd7\xcc\xbf\x15ti\r\xcc\xb2D\x98oZ\xe1\xf4\xd8\xde\xca]\xacp=+\xad\xd0\xa6\x1eo\x9d\x9e+\xd0&lt;1\xa8E\xaa4vnw\x06\xea+\xe9o\xd9\xa7\xc1\tg\x7f\x15\xd3\x81\x9fZ\xfb/\xc1\xb3i\xfa~\x98&lt;\xd5A\xb7\xa7\xcd\\\x7f\xc5\x7f\x88\xd6zP\x91b\xdb\xf2\xf4\xe9_:x\x97\xe2\x0c\xde,\xd5\x8e\x98\x9b\x9c\x1e\xa7\xff\x00\xd5]\xcf\xc1\x7f\x83\xed=\xf4z\x81\x8c\xae\xe6\xdcI\xcfZ\xfa\x13E\xf0zi6crcoNM2\xf5Un|\xb08\xf4\xad[+4h\xf7\x15\xe6\xa4\x97I+\xf7Z\xa7\xd3\x1d\xa0\xeaqQ\xdc;3e\x8fzJw\x94\xfe\x95\xf6\x9a\xce\xcb\xd1\xff\x00J\x86y\xa5=[\xf4\xa8U\xd9z\x1a_4{~u\x15\xc4\xf2\x8e\x8d\xfaQ\xbd\xbdj_4{~u\x1337\xde5VX\x99\x1bp\xebU%\xd5\xca.\xd0\x0e*5\xbe\xf3\xff\x00\x84\xd4\xad\x16\xef\xbd\x8a\x8d\xe3H\xbe\xf8\xa96\xaf\xfc\xf5\x15\x91\xab\xdb\x87\xe5\x9cVT\n\xfe\xbf\xa5K\xb0\xfa\x8a6\x1fQK\xb1})\x94R\xcb0_\xbbL\x9e\xea&lt;\xd5;\xbc?\xdd\x90Vt\xdaj\xccw\x023R\r*5m\xc3\x19\xfa\xd3\xe6\xb3EP\xa1\x86&gt;\xb5Fx\xd0\xf5\x14\xc8\xda8\xe1\xf9\x851\xa5\r&amp;\x18\xfe\x15&lt;J\xad\xd4Ui\xed\xc7\xa5G\xf6oj\x96XJ\xfd\xda\xa3z\x8a\xbd\x05gH\x04\xbf\x7f\x9a\xcf\xd4\xbfu\xfe\xaf\x8a\xc1\xbc\xbc\x8d%\xda\xa7\x8a\xa5,\xab7J\xad}\x13v\x15\x87}f\x87\xf8?Z\xadd\xd1\xb5\xde\xd6\xe9X\x9f\x12-\x84:l\xdb\x98W\xc1\xdf\xb5~\x05\xf4\xae$\x19\xaf\x1c\xf0v\xab-\xbd\xee\xef7\x9f\xa0\xaf[\xb5\xf1\x14r\xe8\xdfgY?\n\xf3?\x1f\xdb-\xc9-\xb8\x12\xddk\xccu;a\x1c\xdf*\xe2\xb4\xb4\xbb\x93\x0c\x18-\x8a\xe8\xfe\x1fx\x80\xda\xea\xf1y\xb2\xfe`W\xd8\xbf\x02&lt;\\\r\xbcK\t\x05\xfdA\xaf\\\xd5&gt;*\xdfi\x96;T2\x8fJ\xf3O\x19x\xe7P\xf1\x15\xc9\x8d\xa7g\r\xd4`\x0f\xe5S\xfc3\xf8z\xfa\x86\xad\x1d\xdb!\xda\xddI\x15\xf5O\xc3\xbf\x0e\xdbi61!\x89TWK\xab\xde\xab\'\x97\x19\xc2\xfa\n\xc0\x99$\x9a\xeb\xcc\x08H\xfaV\xd5\xa34p\xfc\xd5lKo?A\xfa\x9ar\xdb\xc2\xbfu?Z\xa9&lt;MRyQ\xff\x00w\xf5\xa9c\x84\xb0\xf9\xab\xec\x1a{"\xb7\xde\x14\x92\xc3\x1a\xf4_\xd6\xab\xec&gt;\xa2\x91\xa2\xdf\xf7\xb0j&lt;M\xfd\xef\xd2\x9fQ\xf9\xbf\xed~\x94\xf6h\x9a-\xcc9\xfa\xd64\xf6\xc3\xcd\xdb\xb6\x9fi\x1aE\xf7\x96\xad\xca\xf1\xaf\xddqYww\x8f/\xdd\x7f\xd2\x9b\xe6?\xf7\x8dR\xd4\x89\x93\x945^\xce\x16c\xcdM\xb1})\xbb\xa2\xff\x00&amp;\x9b\xb1}*\x19\xa3u\xfb\xb5\x04\xb2\xc8\xbd\x1b\xf4\xa8\xdaeo\xbcj\x95\xcc\xd30\xccjG\xe1P;\\Fr\xcai\x16GO\xba\xd5/\xef\xff\x00\xbej9\xe4~&gt;cP\xb3#u\x03\xf3\xaa\xf3\xc4\xc5v\xf6\xaaj\xee\xb3~\xf1\xbfJ\xd2\xb4\x9e&amp;\xfb\xc3?\x8d:\xe5\xa3\x7f\xf5b\x96+x[\xef\'\xebO\x9cC\xe5\xee\xd9\xcf\xd6\xb1\xb5\x1f\x9b\xfd]e\xb9\xf2\xfe\xf5ej\xb7$\xf7\xaeb\xf8\x9f;\xadEmS\\\xb4M\xf7\x86\x7f\x1a\xc8\xd4ag\xff\x00V1X0\xc7q\x05\xd7\x98[\x8f\xa5a\xfcT\xbcY\xf4\xa9R\x16\xc3z\xe6\xbe\r\xfd\xaa\xad\xae\xda\xf2\\\xa95\xe2\xba\x04\x13\xa5\xc6\xe7$\x9a\xee\xac\xb5\'\xb7\xb4\xdd\xc85\xcd\xf8\xa2\xe4\xcd\xd1\xab\x87\xbe\x89\x84\xdf\xbe\x19\xa2(\x9d\xe1\xfd\xddX\xd3\x84\xb6W\xa2\xe1\x10\xae\xde\x9e\xd5\xf4\xd7\xec\xa7\xe2\x06\xbc\xd4b\xb6vf\xf6&amp;\xbe\x8f\xf1?\x82u}R\xce?\xb0\xc4\xcd\x9e\xb8\x1dk\x0bJ\xf8Y\xaa\x7fh\xed\x9e&amp;\x03\xddk\xd9\xfe\x1d\xf8\x07\xec0D\x0cX\xff\x00\x80\xd7\xa1\xd9A{\x04\x00m \x0e\x9cT\xaf\x1d\xcc\x9f}\t\xad\x8b-\x1e\xdd\xa1\xf9\x90~u\x1d\xed\x89U\xdb\x02\xe0UkH\xeeb\x97k)\xc7\xa5i\xec&gt;\xa2\xa3\x92\xd1\xe4\xfb\x82\x9f\xfd\x9d/\xa1\xa9\x85\x94\xe3\xa1\x15\xf5\xc7\x92\xd5\'\x92\xd4M\t\xa8\xf6/\xa5\x1eKTR\xc4\xcb\xf7j)\xa3u\xfb\xb5VTU\xe8*/:M\xbbwq\xf4\xa6\xb0\x0e\xdb\x98d\xd5Ydq\xd0\xd5i\xa4\x7f\xef\x1a\x8f\xcb#\xbf\xebN\xc3\xfa\x8a\x82h\x98t\xa2\xde&amp;Q\x81I,%~\xedE\xf6ojX\xa1g\xebOkm\xddEg\xcfh\xf8\xe0Uo\xb2\xc9\xe6\xed\xc7\x19\xab0\xd9F\xdfz1U\xef\xa0\x07\xf8G\xe5T%\xb6\x0b&amp;\xd5\x1cT\xbeI\xf2\xf7c\x9fZ\xa7w\xf2\xf4\xaa&gt;l\x9f\xde\xfd*\xcb|\xd1\xeen\xb9\xac\xab\x85\x93\xce\xebKl\xd3\xaf\xddl~\x15o\xcdq\xfcUn\x17oZ\x86\xf6GE\xda\xad\x81Ye\xd9\x9f\x04\xd5\rQ\xa2^\x83\xf5\xaesV\x91\xfdk\x1a\xe5\xa2f\xdc\xc3\'\xebU\xd6@\x9ft\xe2\xa2i\xe5o\xbc\xff\x00\xa5C3\xb6z\xd6V\xa6\xd1F6\xa2\xe2\xb8\x8f\x18\xc15\xc4\x12\x8c\xe6\xbeJ\xfd\xa8\xf4`\xd7\x12\xb1\x8b\x9a\xf9\xfe\xd7Kh\xee\xf6\xa2`WHlI\xd3\xb7\x14\xe6\xb9M^\xd6C&amp;\xd3\xd2\xb9}n\xd2E\x9b\x81Ih\x89\x12\xede\xfdj\xcc\xda\x85\xa2\xc5\x90\xa0W\xb2\xfe\xc9\xbe!\x8e\xcf_\x88\xbb\xf3\xf8W\xe8\xcf\xc2c\xa4kz|L\xe8\xae}I\xad\xedC\xc2\xbaQ\xbe\xdd\x14J&gt;\x82\xba}\x13D\x8a\x0b@\xde@\x05zqZ\x1f`\x8b\x1b|\xb1\x8a\x8b\xecc\xfb\xa3\xf2\xa9\xad\xaddQ\xb5O\x15d\xd9\xc4\xddP~f\x83e\t;\x8cc?Z_\xb2G\xfd\xd1\xf9\x9a\x92\x0b8\xc7D\xa9\xfe\xca?\xba*O\xb2\x8f\xee\x8a\xfa\x97b\xfaS\xb7\xb7\xad6\xe1\xd8w\xa8*}\x8b\xe9Nkx[\xef\'\xebUg\x85\x85g\xcd\t\xaa\xfb\x17\xd2\x92X\xd9c\xdc:\xd5k\x88\xd0t\x15U\x91[\xa8\xa5\xa4\xdb/\xf9\x14\x8d\x0b7\xde\x15$0\xc5\xd7o\xebL\x9d\x13\xd2\xab\xec_JKq\x9e\xb5gb\xfaUy\xed\x87\xf7\x7fZ\xad\xf6Q\xbbv9\xa5TU\xe8*\x1b\xd8"=W\xf5\xac\xf9\xed\x86\xed\xdby\xa4\x97\xe5\x1bW\xa5g^\xc4GJ\xa5\xe5G\xfd\xdf\xd6\xa5\xff\x00\x96?\x8dS\x9e\x16\r\xbb\xbd\x10B\xc6\xa6\x9e4O\xba1R,\xca\xbd\x05Aq#\xbc{\x98\xe4\xd6e\xdb\xb4G(pk3P\x98?\xde\xae\x7fUv=\xfbV\x0c\xd2?]\xd5[{z\xd1\xbd\xbdi\xcc\x8a\xd1\xee#\x9a\xc9\xba\xb7\x12\xfd\xf1\x9a\xc0\xf1\x1e\x9c\xbeI\xe4|\xdd}\xeb\xe4\xef\xda\x86\xdd|\xe9~a^\x03ga\xba}\xcc\xb95\xd0\xcb\xa7*\xe9\xbf+b\xb8\xedV\xc7\xf7\xdf|W5\xab\xd9#\x1d\xcc\x9c\xfdk\x16\xe9^?\xb9\xc7\xe1X7\x9a\x93\xab\xf9j\x0e=+\xd4?g\xff\x00\x106\x9b\xaa\xc5#\xcd\x83\xeb\xc5~\x8d~\xcb~&amp;\xfe\xd4\xb1\x89Vrk\xde\x97O\x13\\F\xc19n\xb5\xd3ZZ\x84\xb7\xda\xe9\xc5G\xe4\x9f3n8\xf4\xa7\xc3f\xcd\xf7\x85Y[\x06_\xba\xb5/\xd8\x8f\xf7O\xe7N\xfb$\x7f\xdd\x1f\x99\xa6\xfd\x88\xff\x00t\xfet\xf5\xb7U\xfb\xa0~u\'\xd9G\xf7?\x9dM\xf6oj\xfa7\xed\x13\x7f\x7f\xf4\xab\x10\x12\xff\x00x\xe6\x92\xe6\xab\xf9\xa9\xebN\xfbQ\xfe\xff\x00\xf2\xa9~\xd0\xdf\xdf\xfd*6vo\xbcj\x19\xd1=*\x97\xd9\xbd\xa9\xf7\x11\xa0\x1b@\xe2\xa8O\x1a\x1e\xa2\xaaJ\x8a\xbd\x05\x1b\x17\xd2\x96\x8ad\x8e\xd1\xfd\xc3\x8a\x82{\x83\xebU~\xd4\x7f\xbf\xfc\xa9\xf6\xf2\xafj\x9f\xed&gt;\xf44\xb27V\xfd)\x9b\x17\xd2\xa0\x97\xe5\xe9P\\L\xa7\xadB\xca\x1b\xef\n\xae\xc8\xad\xf7\x85Q\xbfY?\xc8\xac\xf9\xa3u\xfb\xb56\xc5\xf2zT\r\x11i6\xb0\xe3\xd2\xa4[`\xbfuj\x1b\xef\x97\xee\xd5m\xed\xebD\xee\xd8\xdb\x9e+/T\x91\xd7\xee\x9a\xc8\xb9\x987\xde9\xac\x8dC\xe6\xeb\xe9X\xf3\xdb\x01\xfc5JX\x99~\xed\x1eS\xfaS\xbf\xe5\x95d^M*}\xd6\xfd+\x96\xf1v\xad\xe5\xc3 @F\xde\x95\xf2\x8f\xed\x16\xd3\xea\x17R\xae\xd2Gj\xf2m/B\xb8f\xdc\xdb\xb3\xf4\xab\x1a\xc2\xcbee\xb4\xa1\x02\xb8\x1dcTX\xe6\xc3\xb5c\xdc]\xc7s\xd7\x9a\xcf\xbb\xb12\xc5\xb9W\xf5\xae^\xfa\xc4\xf9\xdfr\xba?\x03]6\x9b{\x13+m5\xfa\x13\xfb\tj\xd2\xeav\xf1+K\xb8}\x05}\x9fa\xa5\xb0\x88\\l\xe9\xd0\xd5\xb34\x85\xfc\xb2\xdcg\xa6*h\xa1gm\xc4sW`\xb6_\xee\xd5\xaf\xb3{S|\xb9=i&lt;\x96\xa9&lt;\x96\xa4\xfb7\xb5I\xe5G\xfd\xdf\xd6\xa4\xf2\xa3\xfe\xef\xeb_BEn\x1b\xef\n\x9e\xde&amp;\xedE\xecL:Vd\xc2U\xfb\xa6\x93{z\xd4\x91;7SS\xc4\x92?S\xfaS\x9a\xdbw\xde\x15\x1c\xb6\xfb:\n\xa5:\xc8{\xd5I\xe2j\xa94&amp;\x8f%\xa8\xf2Z\x99/\xcb\xd2\xa0\x99\xdb\xd6\xaa\xb4N\xdfx\xd4_f\xf6\xa5XYz\x1a\x92(K}\xea\x9fa\xf5\x14\x93F\xeb\xf7j\x9c\xee\xde\xb5Y\x80o\xbdEW\xa8\xaecG\xfb\xc35J{a\xe9L\xf2[\xca\xa6\x7f\xcbZ\x92\xa8\xea\x15V\x89\xfbV^\xadX\x93\xc4\xd9\xcdS\xb9\xb6\r\xf7\x86j\x84\xf6\xc3\xd2\xa8Ol?\xbbPyrz\xd2l\\m\xc7\x15\x99}c\xfb\xbd\xdby\xae\x1f\xc6\x90\xb4p\x90\xc3\xefu\xaf\x9e\xfe,\xe90\xdf\xde\x1cE\x9d\xddz\xd6\x16\x8b\xe0H\x9a\xdb\xcc`7z\xed\xae/\xe2V\x8e,\xec\xe4\xd9\x1e6\xf4\xaf\x03\xf1L\xae.\x9dCp\xbd+:\xca\xe4\xb4\xbbKq[1\xc6\x92ZnE\xe6\xb9\xdb\xeb4\xf3\xbe\xe7\xeai\xf6\xf15\xad\xc4L\xbc\x1a\xfb\xdb\xfe\t\xd5r^(\xb7\xb6k\xf4\x0bI\x84\xcf\xa5\xed\x03\x8a\xa7wj\xf1]\xedN\x05\\\x82\x13\xe9W!\xab;\xdb\xd6\x9b\xb1}(\xd8\xbe\x95-G&lt;\x8e\x9ft\xe2\x8a\x92\xbe\x8f\x81\x13\xd2\xa4\x85\x17\xd2\x9f}l?\xbbYS\xdaI\xe9U\xbe\xce\xfe\xbf\xa5K\x05\xac\x99\xab\xd0Z?\xa5O\xf6oj\xab&lt;\'\xd2\xaaOl=*\xa4\xf6\x8f\xe9U\x9a\xceF\xfb\xc2\x97\xec\xde\xd5^a*\xfd\xd3UgI\x07\x7f\xd2\xa2dV\xea)&lt;\xa7\xf4\xa6\xfd\x94\x7fs\xf9\xd1\xf6Q\xfd\xcf\xe7NXY~\xe8\xa7P\xdf7Z\xce\xbc\x88\xaf\xdd\xaa8\x9b\xfb\xdf\xa5&gt;\xaaooZk,\xad\xf7\xbf\x95E:\xc9\x9c\xe6\xa2\xd9\'\x93\xd7\xb7\xa5E\xb1|\xee\x9d\xa8\xaa\x97\xe8\xbe\x95Wb\xfaS\'\xedYw\xdf?\xde\xe6\xb3\xa7\x85\x85g];D&gt;sY\xd3\xdc\x1fZ\xa73\xb6z\xd4;\x17\xd2\xa0\xa6_\x18\xbc\x9f\xbb^w\xf1\x16x\x96\x190:t\xaf\x01\xf1\xcd\xfc&amp;\xf3\x9a\xbb\xe1\xeb\x9bG\xd2\xbc\xc6A\xbb\xd6\xbc\xb7\xe34\xd0$\x12\xaa\x00\x05|\xd1\xe2YU\xb5\tU\xb9\x15\x94\x8c\x91\xcd\xf2\x0cV\xdd\x85\xc6-\xf6\x86\xe2\xb3\xe6\x85\xa7\x9b\x81\x9a\xb2\xda[\xb9\x89\x99y\xaf\xb7?\xe0\x9fO\x1e\x9a\xb1,\x83\x03\xeb_\xa0\xfe\x13\xd5`\x9bM\xf9H\xabSF\x93\xdcn\xdb\xcdL\xb6\x92/AR\xacQ\xafE\xfdj?6O\xef~\x955\x15%F\xc0?\xde\x19\xa7\xec_JZ\xfa6\x17oZ\xb1\x0fO\xc2\xad\x00\'?\xbd\xe6\xa2\x9e\xcd?\xb9\xfa\xd5O\xec\xf3\xfd\xda\x96\x0b\x03\xfd\xda\xb9\x05\xb2\xff\x00v\x9d5\x94k\xf7[\xf5\xaa\x13"\xfaUi\xed\xc6&gt;\xfdF\xd1F\xdfy\x7fZ\xad-\xb0N\x8bPKl\xaa&gt;W\xaa\xd3\xdb\x8c\xfd\xfa\xcf\x9d$\xc63U\xa5\xf9~\xed.\xf6\xf5\xa7\xd3|\xd4\xf5\xa4\xde\xde\xb4\x94\xb14m\xf7\x87\xebL\xbe\xb3O+v\xe1\x9a\xcb\x96&amp;_\xbbQM\x1b\xaf\xdd\xaaR\xfc\xb2m\x1d*h\x8cM\xf7\x856\xf24O\xba1U\xf06\xed\xedT\xe5Y\x11\xb7\x03\xcf\xd2\x8a\xad}\xd7\xf0\xaa\x9e\\\x9e\xb4\x93"\xfaV]\xc2+u\x15J\xf4l\xfb\xbcW=\xaa\xcd)\xea\xdd\xbd+1\xa5\r\xd7\xf9\xd4M2\xb7QIUe\x95W\xee\xd5+\x9b\x92\xcf\xe5\xb3q\xe9\\\x17\xc4k6\xfb)m\xfc\xb7Z\xf9\xe7\xc7VN\xd7\x9f\xbb\x06\xb4&lt;3j\xab\xa3\xfe\xf1\x7fZ\xf3/\x8cvl\xd0\xcb\x96\xcd|\xdb\xe2\x1bb\xba\x94\xbe`\xac[\x86H&amp;\xe4c\xf1\xab\xd67\x8f\xe4\xfd\xff\x00\xd0U\xbd8\t&amp;\xf9\xc6k\xaa\xb3\xd1\xe0\x93\xca\xde\x03\xfe5\xf5W\xecx\xefa\xe5a\x08\xaf\xb7|\t\xe2\x02\x96\xd1\xc6\xf3|\xad\xd4c\xadv\xdaU\xdcw\r\xbb\xcd\x04\xd6\xfe\xc5\xf2\xb7c\x9cUiUW\xa0\xaa\x95b\x9f\xb1})i6/\xa5I\xb1}(\xd8\xbe\x95\xf4J\xb2/@?:\x96\x07oZ\xbf\x0f_\xc6\x9b=\xc1\xf5\xa8b\xb8\xdd\xf7\x88\xfc\xaa\xe4\x00zS\x9eU\x8f\xeeqT\xa7\xb9?\xde\xa8\'\x95D{\xbb\xd6]\xc5\xe4\x9en\xdd\xa7\x14\xbfh\x9b\xfb\xff\x00\xa5$\xf3I\xfd\xef\xd2\xb3//\x82\xfd\xd5"\xab5\xd1o\xbci\xf1\xa2K\xf7\xe4\x06\xa0\xbc\xb6\x81z\x10?\x1a\xad\xba/\xf2j\x19n\xdd~\xeb~\x95W\xed\x8f\xfd\xff\x00\xd0U\xc8\xa6W\xebRn\x8b\xfc\x9a\xa7%\xc9\x8b\xee6(\x92\xe1\xa5]\xae\xf9\x15\x13|\xdfz\xa3\x9e\xb3\xef#D;\x94s\x9a\xa8\xb7\xc1z!\xa6\\\xea\x927\xde\x19\xfc*h\xben\xb4\xadb[\xefH*\xbd\xe4i\x17\xfa\xb1\x8a\xcf\x91\x8c\xbf|\xe6\x88\xa3F\x8c\xb3/?Z\xafx\x02G\xb9z\xd6CJ\xad\xd4\xd5k\xf4_J\xe7uTQ\xda\xb9\xfb\xb9\x1e)v\xa3`}*(\xa5V\xfb\xd4\xe9n\x99~\xebU\t\xeeO\xf7\xaa\x9b;3nc\xcdp\xdf\x15/^\xda\xcf\x87\xc5xG\x88\xef\x96\xe2\xf3\xad_\xb0v\xb7\xd2\xf6\xa9\xc8\xf4\x15\xe5\x9f\x16\x1eI!\x97\xccBk\xe7\x7f\x18B\xcbs,\x8b\xf7\xbdk\x8c\xd4.n\x1eo\x98g\xf0\xab\xfa\\\x8e\xc3k\x1e*\xf2^=\xaay\x8a\xf8o\\W[\xf0\xefT\x93S\xbe\x8a\x17\xcb/\xa1\xaf\xb5?e\xaf\x0e\x87\xb5\x8aH\xe3!\xbdq_I\xe9\xad}\xa6(X\xe3$/L\n\xea\xfc\x1b\xe2\x0b\x99\xae|\xb9A\x03\xd0\x8a\xf4\xdb[\x83-\xae\xe7l\x9ac|\xddi\x9fcO\xef\x8f\xce\x92\x97{z\xd1\xbd\xbdh\xde\xde\xb5&amp;\xf6\xf5\xa7\xd7\xbeEt\xcd\xf7\x9a\xae\xd9\xca\x1b\xefU\xe5\x91\xd52\x0f5\x0c\xc7\x8a\x8dZ5\xe9\xfc\xea\xec\x17\x07\xd6\x92y\x85g\xcc\xed\xebQ\xb3\xb3.\xd2x\xa1\xac\xe3t\xf3\x18\x8c\xe3\xadW\x98B\xbfu\x7fZ\xaf&lt;\xcbY\xd78\x7f\xbc3Y\xf2\xa4\x89\xd0\xfe\x94\x8b0_\xba\xdf\xadT\xd4\xaf\xf6r\xaf\x8a\x85/\xc4\x9fu\xa9\x1b\xe6\x8bsu\xc5V\x97\xe5\xe9RAx\xff\x00\xdf\xfd*o\xb7\x1f_\xe5P\xb7\xcd\xd6\x9f\xb1})e\xf9zT\x13;z\xd5;\x82\\|\xd5_\xec\xc3\xfb\x82\x9a\xd6h\xdfz?\xe7OX\x99z\n\x93\xccOS\xf9\xd5=B\xb3\xf6\x1fQNP\x14m^\x95B\xf2G#i&lt;VC\xc4\xd1p\xd5\r\xcc\xaa\xff\x00z\xb0\xb5h\x9a\xb9\xcb\xe8\x9bv\xecsU\x95\x15~\xe8\xa6M\xd6\xb3\xe7\xa8\xe2\xf9\xba\xd7\x9f|mh\xe3\xd3\xa4d\x18+\xd2\xbex\xd5o\xc0\xd46\xee\xe2\xba\xcf\r\x08g\xd3\x7fz\xb9\xfck\xcf\xbe+i\xa8\xd0\xcb\xe5\xe2\xbes\xf1\xa5\x9aE4\xbb\x93\xf5\xae2\xe6\xd2\xd9\xa6\xf9\xb0\x7f\x1au\x8d\xb8\xff\x00\x96+\x8a\xb7s\xa6;\xc3\xf3-v_\x04t\xd5}^%h\xf2&gt;\xb5\xfa)\xfb&amp;\xe8\xd6\xc9g\x17\x99\x1a\xd7\xd2px*\xce{o2\x11\xcf\xadA\xa7x^K+\xcf\x9a,Wgh\x8b\x14\x1bXq\xf5\xa7Ryk\xe8\x7f:e?b\xfaQ\xb1}(\xd8\xbe\x94\xb5%{}\xbc\x8ez\x9a\xd4\xb0h\xff\x00\xc9\xad]\xd1c\x1b\x7fZ\x82n\x9f\x85C\xb1}*u(\xbfv\x92c\xc5V\x9b\xaf\xe3Q\xd3%\xb8\x89F\xd5\xe0}j\x84\xf7\'\xd6\xaa\xcfr\x7f\xbdUZ\xe7w\xde5\x04\xf2\xae1U++T\'\xcd\xdb\x9e*-&gt;\xaey\xab\xb7nx\xa8f\xeb\xf8\xd4j\x02\xfd\xda|J\xad\xd4T\xb57\xee\xea6\x95[\xa9\xa8f\xeb\xf8\xd4-\x14m\xd5\x7fZ&lt;\xa8\xff\x00\xbb\xfa\xd3\xfe\xcf\x0f\xf7?Z\xad/\xcb\xd2\xab\xcb\xf2\xf4\xaa\xb3H\xd3\xf49\xa6y-PK\xf2\xf4\xaaW\x08\xad\xd4Vm\xff\x00"\xb2\x98\x96\xfb\xd5CPI\x1b\xaf\xf2\xac\x1dR4_\xba+&amp;Y\x95:R7\xcd\xd6\xa9O\x0bUi\xee!\xb6\xed\x8f\xc6\xbc\xbf\xe3F\xab\x04\xd62\xa8&lt;zW\xcf\xba\xba\x06\xbe\xdd\x18\xe7\xeb]\x0e\x8d\xae-\x96\x9f\xe5\xb3\xe1\xbe\x95\xc9x\xf3Q\x8a\xf5eU9\x1fZ\xf0o\x89\x16\xc2\x19%\x90\xaf\x15\xe673\x87\x9b\xf7d\xd6\xb6\x8f\x84\xff\x00Y[776\x8do\xb64\x01\xbds^\x83\xfb=\xf8xj:\xc4^Y\'\xf0\xaf\xd0\xff\x00\xd9\xaf\xc2\xb2i\xd6qy\xa4\x8f\xc2\xbe\x9b\xd0\x1a4\xb3\xfd\xe0\x06\xa4\xba\x16o&gt;\xe4\x8cg\xd8\x9ai\x99J\xed\xc7\x14y\xcbF\xf6\xf5\xa4\xa9(\xa2\x8a]\xed\xeb^\xeb\x04h:\n\xbfj\x8a\xbftU\x98\xae7\xf55#J\xad\xd4\xd4R\xcc\xa9\xd2\xa2\xfbh\xfe\xf0\xfc\xaaF\xbeV\xeai\x93L*\xb4\xb7L\xbfu\xaa\xa3L\xad\xf7\xaa\xb3\x12\xdfz\xab^\x12\x87\xe5\xac\xe9n6t5]\xae\xa4n\xb2~\x94\x91\\\x96\xfb\xcd\xfaU;\xd8Zf\xde:\xd4b&amp;\xb6\xe81G\x9c\xb433u4\xed\x8b\xe9J\xbf/J]\xed\xebF\xf6\xf5\xa7l_J\x19\x15\xba\x8a\xaf9)\xf7N)i|\xe5\xaa\xf3t\xfc*\xb4\xdd\x7f\x1a\xa6\xa4\xa7\xdd\xa5\xde\xde\xb5Zn\xbf\x8dT\x9b\xa7\xe1Y\xf7\xe8\xbe\x95\x9d\xf6e\xf4\x1f\x9dgjcoOJ\xe65Wc\xdf\xb5b\xdc\x1cK\xb7\xb5?{z\xd3.\x06"\xdd\xde\xb9\xdf\x10\\\xb4_qk\xc6\xbe.\xea\x8b\x14\x05YN\x1b\xa</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Sample2.jpgSundar Pichai</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00\xfb\x03\xec\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfc\xcd\x9eDD\xe1z\xfb\xd2\xc4\xe5\x97\x00U\xbbm\xf9\x15\xa7g+\x02\x14\xaf\xebV|\xcfj\x8aH|\xcf\xe2\xc7\xe1R\xdb\xda\x10\xc1\x8bg\xdb\x15&lt;\xf6\xdb\x139\xaa\x81\xf2\xe5q\xd2\x9c\x06N)\xdb?\xda\xa6\x19\x8a8\x1c\x9f\xc6\x9f\x1d\xc9\xde2\xbf\xadX\x12+.q\xf8U\xcbH\xd5\x80bp*[\x89\xe3\x8a&amp;\x03\x9f|\xd4vwa\xdc8\xed\xdb5\xdaxB5\x9dT\x93\xd6\xbd\x1bD\xb4E\x89\x1b=\xbab\xba-:(\xcb(a\xc5l\xd9\xbcQ\xe0.*K\x8b\xcd\xcd\x858\xc7\xa1\xaa\xaft\xe1\xf2\x1f\xf5\xab\x9ae\xdc\x8f c\xdb\xb6k\xa2\xd3\xe5fPkZ\xd2v\x03h\xab\x9am\xdb,\xe1O\xaf\xadw~\x1d\xd4\x00\x81\t\xe7\x03\xa6z\xd7Y\xa5]$\x8a\xad\x8f\xd6\xb7\xec|\xb6\x8c6\xea\xd8\xb4\x95\x12\x1e9\xa4\x9a\xfb\nUW\x07\xd75\x1d\xa6\xa3)b\x85\xb8&gt;\xf4\xfb\xab\xb2Xd\xd3c\xba\xda\xe0\xe3&gt;\xd4&lt;\xdb\xcev\xe3\xf1\xa8\x99w\x1c\xe6\x85]\xad\x93\xcd[\x81\xd4\x7f\x07\xebW-\xa4\x04\x80\xa9\x83\xebV\x92f\xc6\xcc\xfe4\xec\xff\x00y\xf2&gt;\x94\xd9B\x18\xc8\x15\x9fp\xfeY\xc9\x15\x8f\xa9\xeaM\x18m\xab\xfa\xd6\x15\xee\xb38\xceX\xe3\xebU\xdbR3FFy\xed\xcdS\x9eR\xf9\x05\xbf\x1at\x08\xa4\x8c\x9c\xfe\x14N\xeb\x1a\x9cW3\xe2MM\x94\xb6\x17\xa0\xf5\xaf=\xd7\xf5"\xeeA\xfe\x13\xeb\\\x86\xbbt\x19X\xa9\xe7\xeb\xef\\^\xb9t\xfb\x98\xe0\xfd3X&amp;I\x1eRzsZ:z\x97*\xac~\xa6\xad\\\xc7\x18\x01I\xedYW\xf1DI\x01\x87\xe5T.\xac\xd0\xc4\xcc\x0f\xe9Y\x13\x05,T\x8a|1\xa6:\xfe\x95\xaf\xa62\r\xa9\x8a\xe94\xb0\xa5\x00\x15\xd1\xe9\x11\x0f\x94\x9e}\xab\xae\xd1"\x1b\x14*`\xfa\xd7\xa2\xf8*\xcbt*\xcc\xdf\xa5wZ}\xa8\x8e\x15P:\xf7\xc5_h\x98\xc7\x91\xda\x9d\x030p\x0c}\xfdkN\xd9\xd0G\x86_\xd6\xb2|D\xb0\xc8\x0e\x08\x1cW\x0b\xa8\xc5\xe5\xdc6\x06y\xa9,gt c\x8f\xadmX\xdc1\x00\x1e\x9fZ\xd2\xb5\x93\x907~5r;\xa5B9\xcf\xe3W\xecgG#\x9cV\xe6\x9fs\x12(9\xae\x83M\xd4 \xf2\xc0\x0e3\xf5\xab\xf1\xca\x92\xfd\xe7\x18=jD\x86&amp;l\x0c~T\x93X\xc6T\xb0\x19\xf6\xc5R\xba\xb3\x01I1\x8a\xcb\xba\xd3\x91\xc9?\xd2\xb2/,]e\xc2\xaf\xe3\x8a\x80\xc1"&gt;6\x93V\xa1\x98\xa4x\xfb\xa7\xd6\x92}U\xd7\xfeZt\xac\x8dGRi\x18\xfc\xf5\x05\x85\xc6e\xdd\x9c\xfbV\xed\x8c\x84\xae\xf1\xc5Y\x82\xe5\xcb\xe4\xb7J\xd1\xb5}\xe0d\xe4zR\xcbn\x8e\x0e\x07\xe9P\xff\x00g\xa8}\xf9\xfc6\xd3&amp;\x85@+\xb7\xf1\xac\xeb\xa7(H\x15B\xe6v\xc1\x18\xfdj\x93\xce\xc1\xf3\x8f\xd6\x8f\xb57\xf7\x7fZ\x86\xe1\xd9\xa3\'\xf4\xaa\xcf\xb8\xa9\x18\xc7\xe3X\xda\xde\xf6\r\x80x\x15\xc3k*\xfe{\xe5x\xcdI\xa0"\x8e3\xd4\xfaV\xe3\x80"\x1f5s\xda\xcf\xfa\xc3\xfe{\xd6[(ipi\xdeZ\xa7\xcd\xe9R$a\xfac\xf2\xa6\xcc\x98\x05q\xf8\xd4E03\x9aD`\xac\x18\xd4\x86U#\x14\xc7u\xday\xaaw\x05I\xc6j\xbb\xc8\x14\xe35,3m\x19\xeb\xedS\xc6\xfea\xc61Ry~\xf5\x0c\xeeB\x94\x03\xad@\xdb\xc0\xe4T\x96\xd1\x93 j\xb7\x9d\xa8F)\x92K\x84\'o\xebB\xc9\x95\x1c~\xb5\xf9w$N\xc0rx\xf6\xa9\xedc`A+Z6\xa8\xa4\x8e\xd5v\x02\x81\x80\xe3\xebR\xb3\xa2\xae\xed\xd4E&lt;f@\t\x15v\x19a\x039\x1di\xf7\x93\xc6b\xc6\x00\xe3\xd6\xb3\x10\x83)"\xa7\x8e&lt;\xf3\x9f\xd2\x9eS\x039\xaa\xb3\xa3\x13\xc568\xdc\xb8\xc9\xfd*\xccE\xd4\xe3\x04\xd6\x8c\x0e\xdeA\xc2\xd5;\xe9\xe5\xdaT\x02\x7f\x1af\x99$\xa6A\x95\xef^\x8d\xe0(\x9d\xc2\x13\xfex\xafL\xd2\x03,(\xb8\xedZ\xf0\\\xf9i\x8cs\xf5\xabv\xf7m\xc7?\xadM\x92\x7f{\xe6t\xed\x8a@\xae\xce\x1b\x15\xa3\xa5D\xe1\x87\x1dk\xa3\xd3\x10\x9d\xa8}:\xd6\xb4\x08Pds\xc5Of$\x13\x8c\'Ry\xae\xb3B\xf3\xb0\xa38\x15\xd6\xe9\x12\xca\x91\x8e\xa6\xba=&gt;\xe9\x84\\\x9f\xd6\xb5m/\x18\'\xff\x00^\x9f,\xec\xc38\xfdil\xa2f%\xc3\xf4\xed\x8a|\xdb\xd9\xc1\xc7JtQ9;\xb3\xf8T\xa26\'\x18\xa50\xb0\x19\xa1!w`\xa4\x11\xef\x8a\xb1\x1c%N2\x7f*\x9e \xcap\x05J\xa5\xc1\xc9\xa4k\x82\xad\x82?\x1a\x05\xc8\xcf5V\xed\xc4\x8a@\xe2\xb9\xfdZ\x19\x18\xb6\ra]\xdbJd\xc3\x0c\x8ai\xb6\x0b\t `\xfa\xd5\x0b\x87\x11\xb6\x19\xe9-\xb5\x04-\x8c\xfe\xb4\xeb\x89\xd1\xd0\x9d\xf5\xc8x\xaeB\xa5\xd1[\xa8\xeb^o\xe2+\x87\x8ag\x04\xe7&gt;\xf5\xcaj\x17\xe6G`W\xa7\xbds\xda\xa8\x0eK\x03\xf8VP\x8b\x12`\x8e\xb5z\x02#\x8f T7\xf7d!`:{\xd6\\\xb7\r\xe6o#&gt;\xd9\xa2W\xf3!a\x8cV\x1d\xc9\xc3\xb0\xcf\xe3I\x0c\xa3p]\xdf\x8dj\xe9\xd2( \xf9\x95\xd2h\xd3\xa9+\xcek\xae\xd0\xca\xb6\xde\x7f\xce+\xb4\xd0\xa2S\x1a\xb0?\xa5zW\x82\xe3\x8d-\xd7,9\xf6\xae\xd6\xc1\xa3h\xc61\xc5h[\xa1q\x8d\x95f;\r\xdc\xf4\xfc*+\xa0\xf0\x82\x17&amp;\xb0u\xab\xa6l\xe7\x8f\xc6\xb9\x9b\xb0\xb2;\x13\xd74\x90cp\\c\xde\xb5m@\x11\xe47\xe9V\xe2v\x0b\x9c\xd0.\xcf\x98\x13\xfa\xd5\xfb;\xb6\x18P\x7f\x1c\xd6\xa5\xb5\xfb"\xe0\xb6\x07\xadO\x16\xbc\xf1H\x11%\xe7\xeb[\xbaF\xbd,\x9bU\x9f\xaf\xbdtV7\xeac\r\x9c\xfe5d\\\xef\\\x86\xc5Cp\xccP\xb1|\xfbb\xab\x14\xde\xdfs\xf5\xa8\xae,\x11\x94\xb1Q\xf9U\t\xec\x90d\xe3\xf4\xaaS\xc1\xb3-\x8c\xfbU)\xd1NG\x93\xfa\xd6}\xcd\x98-\xbb\xcb?JX-\x16!\x90\xb85\xa5j\xfb!"\xa5\xb7Y\x0b\xe0w\xad[\x04e\xc1-\xf8b\xae\x85Ln-\xf8R\xa8\x8d\x8e3P\xdc\xdb\xe5H\x07\xf1\xc5b\xea\x10H\xaep3Y\x97\x11\x1c\xe1\xb8\xaa2\x80\xb2m\xdd\xf8\xd0\x15I\xc6\xff\x00\xd2\x99+*\x82\t\xa8\x8c\x89\x8e\xa2\xb2\xf5(\xc3n8\xae;\xc4V\x82\'n\xf9\xf6\xac\xdd2eI\xb8=\x0fJ\xd9\xfbR\x95\x00\xfaz\xd6.\xae\xe8\xceHo\xf3\x9a\xce!U\xbc\xcd\xdd;Q\xe6\xabq\x9cU\x8br\x81\x81\xdd\x9fj\'\xc3\xe5@\xc7\xbdWx\xf1\xf2\x96\xfcj\x19H@pj?4\xfb\xfeu\x1c\xb7-\x8d\xb8\xfdj\xa4\x931n\x9f\xadC.p\\\x9a\x96\xd8\x93\xc15~\xdd\x06\xe0w~\x959\x03\xb3~\x95\x13\xc1\x93\xbbw\xe1\x8ao\x90_\xe5\'\xaf\xb5K\x1c\x1b\x0e?\xa5$\x8d\xb4c\x15\x01\x97\xccB6\xe3\x9fZ\x91&gt;\xe8\xaf\xcch\xf63\xed\xc5O\xb9B\xed\t\xf8\xd5\x88HU\xc98\xa7\xac\x80\x9c+\x92i\xb2\\\xc8\xbc\x1c\xfeu\x08\xbf\xf9\xc2\xee#\xdf5j\x0b\xf00w\xe6\xacKy\xe7\xc5\x85l\x1cQl\xbbz\x9c\xf3V\xe38\\\xfb\n\x91\x06F\xec~\x14\xd7\x84\xb7;i\xd1Y\x96 \x81S\xc5\xa69!\x86\x7f*\xd0\xb7\xd3\xcf\x93\x82\x7fJ\xa9q\xa6;M\x808\xfaU\x8d+B\x91\x9c\x11\xeb\xc0\xdb^\x8b\xe0\xbd&amp;KxP\xb0\xc7\xe1]\xee\x9e\xa9\x0cJ[\xd2\xa6y\x179\x0f\xf8T\xd0\xcd\xb0n\x07&gt;\xd5z\xdd\xdaD\xad+8C\xa8\x05z\xf7\xadK(\xc2\x11\xf2\xd6\xb5\x94\xa1\x08\xf9?Z\xd7\xb4\x8f\xcd]\xc3\xf2\xad\x9d;O.\xa0\x85\xe7\xe9]N\x89\xa6\xb6\xc5\xc8\xc7\xe1]6\x9d`\xc9\x10bz{V\x8c0\xb0\x1c7\x1fJ\xbfj\\.\xda\x9dC\x96\x00\xd5\xfd:,\x0e\xbd}\xaa\xcbY\x99\x1b\x83\xfaS\xd2\xd1\x97\x8f\xd7\x15$v\xc7x\xcb~\x95(\xb6Ps\x9f\xd2\x9c-\xd7&lt;\nr\xdb\xed9\xc5&gt;(\xb3 \x18\xc7\xbd,\xa7o\x06\xa8\xcfp\x03\xed\xc7\xe3\x9a\x85\xef6\xf1\x8f\xd6\xa23\x87n\xb5\x04\xe26\xe0\x80j\x85\xc5\xacl\xdb\x88\xc0\xac\xeb\xf5\x89Q\x80a\xf9W+\xad\xb3+\xb3#\xd6TW\xf2D\xe5\xb0O\xe3S\x7fi\xeeC\x96?L\xd6\x1f\x88n\xd2Uc\x9eG\xbdy\xf7\x8a\x11\xa4ge\xae6\xfe\xdeDv\xdc\xc7\xf2\xac\x9b\xa8\x89|\x07\'\xdb\x15NH\t~\x98\xfc)\xcc\x19b \n\xa7:&lt;\x99OZ\xa55\xbb\x83\x9f\x7fJt\x90\x94\x84\x92y=\xb1X\x1a\x80`_\x03\xfc\xe6\xaa\xa9\x9005\xa3\xa7\xb4\x9c\x0c\xd7K\xa1\xef\xde\x87\x7f\xf9\xc5v\xbe\x1f,\xdb\x06k\xbb\xf0\xea\x90\xab\x96\xfd+\xbf\xf0\xcc\xe68\xd4\x03]\x96\x8f1*\xac[\xf05\xd5i\xa9\x19\x8dN:\x8a\xd1\x8e$+\x8c~5CQ\xb7 3(\xcf\xe1\\\x96\xbd\x04\xc5\xd9\xb9\x1e\xd8\xaej\xe5\x183|\xdc\xfaS 2\tA\xad]:G\x93\x8d\xbf\xad_\n\xdeQ\xed\xefU\xc8+ }\xd9\xab\xd6\x1b\xde@\x01\xff\x008\xad(\xe2\x90\xa6\x1b\xa7z\x82Da0\x0b\xf8\x1a\xd6\xd2gx\x9dwI]\x1e\x9d\xa9\x85P7~\xb5\xabk|\x1dA\xddVc\x90?\xf1~\x15,@\x17\x1b\x8f\x14\x972F# \x0c\xfe5\x9f3#\x9d\xb8\xebU%\x8b\'\xee\xf1PKd\x08\xcf\xf4\xa8\x1fN\\\xee\xfd6\xd4\x12\xd9\x95n\x07\xe1\x8aA\x04\x8ar\x07\xe9Z\x16*\x89\x86\x90c\x1dj\xda\xdc\xc1\x19\xdc\x1b\xa7j\x8d\xf58\x95\xf3\xbb\xf5\xa9!\xbf\x8eF\x1b[\xf5\xab"tx\x88\xc6O\xd6\xaa\xdd\x18\x88?&amp;\x7f\x1a\xc1\xd5\xb1\xc8U\xc7\xff\x00\xae\xb0\xeeK\x89sLI\x180\xdd\xc0\xa6^8Q\x85|\xe7\xda\xab&lt;\xce\xab\xbb9\xf6\xa8\xdea*\x94)\x8e:\xe6\xb9\x8f\x15\xc6\x16\x13?\xafj\xe3\xec\xee\x18\xdd0\x1c`\xfa\xd6\xb7\x9e\xdbG\xcdY\x97\xee\xed!%\xaa\xb1$\x8cn5\x0c\x92\xb2\xf0?\x9dMk#de\xaa\xdf\x9e\xbbv\xe0}sP\xce\xc3a`j\x9c\xca\xcc\xa4\x86\xa8\xd5\x1dNO4\x8f\x1b1\xcdW\x92\x16\r\xd7\xf4\xa6\xb4\x05\xc6\xdc\xe3=\xf1O\x8e\x1f,p\xff\x00\xa5M\x0c\xa62?\xc6\xadD\xfb\xc8\xf9\xaaP\x14\x9e\xb9\xfc)\xc8\xaa\x18\x1cS\x9bn8\xc5V\x9b\xa7\xe1U\x93\xee\xb7\xd6\xa7O\xba+\xf2\xf6+\x95K\x9e\xb9\xe4\xf7\xab\xb09\x9d\x80\x0b\x8c\xf7\xab\xf6\xf6\xa6O\x90\xf3\x9a\x9e=8\xab\x82\x16\x96M1\x9f\x923\xed\x8a\xad&amp;\x95\x87\xce\xca\x96-,\xed\xe1*ad\xca\xb8\xd9\x8fzx\x8c\xc63\xd7\xf0\xa9cf)\x8d\xb5&lt;$(\x19\xabp\xc0$]\xfb\xff\x00\x0cV\x85\xbe\x9c\x14\x06\x1c\xfbb\xaf\xc1\xa7\xe574x\x02\x90\xaaG(\x8c\xaf\x1e\xb52[F\xe3p\x8f5\xa5\xa4X(\x91@@\t\xef\x8a\xec\xb4(\x96\x14R\xcd\xd3\xb6+bk\xc5\x8e03\xc6*8\xf5\x05g\n\x1b&gt;\xd5\xa1m)e\xc9\xfeu\xaf\xa6\xb8,\xaaGZ\xde\xb1\x89|\xbd\xf9\xcf\xb5^\x84\x802W\x15v\xd1\xd4\xb0\x00\xf55\xd2h\x96\xfef\xdf\x9b\xafl{WS\xa6\xda\x98\xe3\x0e\x07J\xd4\xd3/\x8a\xcc\xb1\xe7\x07=?\n\xeat\x99L\xb1\x80[\x83\xda\xb6mm|\xd00\x7f\x0cU\xd8\xb4\xf7A\xb8s\xf8S\x9e\xdae\\\x95\xab\x9a|L@\x18\xad\x8bK@\xd1\xe1\x8f\xe3\x8aY`H\xd7#\x1f\x95D\xc5Pn qMY\x95\x8e\xd5\xe4\xfdjxc;\x83\x11\xf8T\xdc\x7fp\xd23\x04\x1b\x8at\xaa\x973\xab\x02\x05e\xdd;\ts\x9a\xaa\xf3\xfc\xf8n\x07\xaej7\xbdX\xf9\x1c\xe3\xb6j\xa5\xd6\xa80@\xe0\xfa\xe7\xa5f\xdd\xeb\x9eY%\x9f#\xbf5\x99{\xab\xac\xc0\xaa\x0eO\xbdd\xdf\x138e\xeek\x1e\xee6\x801&lt;\xfb\xd6]\xcd\xfbDO&lt;}k\x1fR\xbf2\x12A\xc8\xac[\xd8\x85\xc1 \xf55\x87\xaai\x01\xc3\x1c~\x18\xac+\xbd\x1b\x0eN\xcc~\x15\x9fw\xa7\xec?\xd7\x15Rh6)\x02\xa0\xfb(.\x18\xff\x00*\x86\xe2\xd9\x00\xdd\xfd*\x9d\xd8\xe0\x90:\x0e\x95\x8dwf\xce\xe4c\x19\xef\x8a\xaclJ\xb6\t\xfcqV\xed \xc6\x00\xae\x83F\x88\xa9S\x9e\x9e\xde\xd5\xd8\xf8|\xe3a\xae\xeb@}\xd1\xa8\x03\x1cWo\xe1\xd7#j\x13\xf8\xfe\x15\xda\xe8\xc3(\xa3\x7f\xe9]^\x9d(\x85\x14\xb3d\x01Z\xb0N\x92/\xcaz\xd5\x86\xb4\x13[\x96\x1c\x9fLW5\xe2M4\xc6\xae\xc5;zW\x13\x7fh\xdfh`?\x95E\x1d\xab+\x82\x7f\x95i\xe9\x96\xbbp\t\xeb\xedW\xe4@!*+=\xcf\xefB~\xb5v\xc5\xccn\x08\xff\x00&lt;V\x8cw\r\xb3\x93\x9fj\xb1\x1cJ\xe9\xe6\x1a\x86k\xaf\xb3\xb61\x80;\xe6\xa7\xb3\xd7\xd5\x1dS\x1f\x8e\xea\xde\xd35u||\xdf\xadlZ_\xa9\xc3n\xfc3S\x9dMTd\xff\x00:\x8d\xf5\x05\x94\xe07^\xd9\xa4\t\xbc\xef\x0f\xf8b\xa7\x10\xee\x8c\x8cs\xebL{S\xb4\xe4\xfe\x95\x19\xb6\n2G\xe9M\xfb\x00\x97\xe6\x1f\x96)\xeb\xa3\xee]\xdb\xbf\xf1\xdf\xfe\xbdDm\x00\xca\x96\xfd*\x19\xa0P\xa5@\xfcqTg\x84\xa6X~U%\xaa\xb6\xe1\x85#\xde\xaf\xc2\xb2\x01\x9d\xd4\xc9w\xee\xe4Vm\xfd\xa9|\xb6\x7f\x0cVM\xc5\x934\xbbs\x8f\xc2\x98t\xd6#\x1b\xf3\xed\x8a\xa9\x7fh\xcb\xd2&lt;c\xbdP\x91\x1c\xfc\x85z\xf7\xa6\x88\n\xf3\x9e\xde\x95\xcf\xf8\xc6\xd7\xcb\xb4e\xf33\x81\x9e\x95\xc1\xda\xf3v\xe8=z\xd6\xa4i&amp;\xc0\xe3\x9cUK\xa8\x8b1$\xe2\xa10`p\xdf\xa5U\x9e\x02\x0es\xfaT\x96\xeaH\xe7\x8fz{\x1c6\xdd\xd4\x8eIR2i\xb1\xa1g\x0b\x8a\x90[\x0c\xf3C[(\x19\xdd\xfaUi\xe1Q\xf3\x7fJ\x84\xa8#\x18\xa6\xb2\xed\\\x8ei\x85\x98\xf0\x14\xd5\x8bm\xf9\x15b6!\xc1&amp;\x9e\xd2q\xe9H%\x00\xe7uG3\r\x85\x81\xfc*\x08\xd7$\xa6z\x9a\xb0\xb1\xe1G?\xa5~a^\xe9\xa2\x16$q\x9e\xf8\xabZR\x0e\x01\xfc\xea\xf8\xb9XN\x15y\xf5\xcdK\x15\xdb\xb9\x18j\x94\\H\x0eI\xa8\xa6\xbau9\xc5Iov\xcd\x81\xb7\xaf\xbdXL\xbf\xde&lt;SedPF*kdG\x1dqL\x9f\xf7o\x85j\xbb\xa4\xcaduR?Z\xdf\x8cm\x84\x15\x1c\xd5\xa8evO,\x8e\xb5Z\xe2\x19\x1a`\x15\x7f\x1a\xd3\xd3l\x9d\x90nZ\xdc\xd3lJ0m\xbd=\xabZ\xdaI\x10\x84\x0b\xf8\xd5\x83+\xc8B\x958\xab\x16\xb0fUa\xefZ\xb6\xd9P\x17\x15\xad`q\xb7\x15\xd0i\x8ev\x0e3\xedZ\xf6\x91\t\xb0\xa5x5\xa1o`\x80\x8d\xbc\x1f\\V\xee\x99\xbe\xde0W\x92+v\xc2\xfer\x9b1\xd7\xbdi\xe9P;\xdc+\x91\xcf&lt;\xfe\x15\xd6\xe8\xa1\xa3\nO5\xd1i\xf2\x1c\x0cq\xefZ1L\xea\xbb\xb7g\x1d\xaa\xcc!\xa7\xe0\x9f\xc2\xb4l\xac\xc6\xd0\x07\xf2\xab\xf1\x8f-6\xec\xfcj\x19r\xe7f1\x9ao\xd9\xb3\xc3d\x8fLT\x90\xe9\xf1\x96\x05F\rX\x8e\xcf\x1f.iZ\xdc)\xc5!\xb6W\x1b1\x9c\xd5k\xed5cBq\x83\x8e\xb8\xac;\xf8\xb6HN\xec\xf3\xe9T\xcc\n\xcf\xb9\x9b\x8fLUK\xd5\x8d\x01\x0b\xd7\xd6\xb9\xbdf\xe9\xa2-\xf3\xe2\xb0o5\r\xcf\xb7\xcc\'\xda\xa7\xb6\xf2\x9e-\xfb\xf0{Uk\xe9\n\x86\xdb\xf9\xd6\x16\xa7w&gt;J\x95\xc8\xfa\xd6=\xce\xe9\x98\x83\xc05\x11\xb2\x89\xf8\xc6\x7f\n\xadq\xa7F\x99lc\x1d\xeb\x17WD\x8dX\xa0\xcf\xbf\xe3X\x971\xbc\x8c~\\\xfbb\xb2\xaf\xe0# \xc7\x8a\xc8\xbc+\x1eA\x15Y\xa5\\p\xb5\x0c\xb14\x8ap*\x9c\xf6r\x12x\xfd*&amp;\xb0V\x18n\x0f\xd2\xa9\\\xda"\xb1\x19\xfd(\xb7\x8dU\xc0&amp;\xb6\xf4\xdd\x9f*\xfe\xb5\xd6x}\x01\xd87\xd7w\xe1\xc8\x17b\x8f3\xb7\xa7\xb5vZ*2m+\xcf\xff\x00\xaa\xbb\r\x0c\xcaU~S]v\x99\x1bJ\x8aX\x1c\x0e\xd5\xb5gn\xbbF\x06*\xe2\xbf\x95\x11_\xd6\xb1u\xd7\xf3\xc9\x04\xfe\x15\xc9j\x16(\xb3\x16/\xd4\xfaUG\x8a58\xcf\xe9V-\x9dc\x1e\xb5;\xb0h\x89\x15I\xe2\xfd\xf6\xfd\xdd=\xa9\xf0O\xdboOz\xd1\xb4\x05\xd7%\xaa\xecw;#\xd9\xb3&gt;\xf9\xaa\xf71}\xa3&lt;\xe3=\xaa(\xac\x00\x90\x1d\xd5\xa9dLJ\x00\x07\xebZ\x96W\xf2!\x03\x19\xfcj\xea\\\xb4\xe3k\x02\x01\xf7\xa7\xc6\xa1\\\x10i\xe6\xf9\x93\xf7x\xc7\xfbY\xa9a\xd4\x9fpQ&amp;j\xd47.\xec7\xbeGqSn\x8d\xfe\\u\xab\x10F\x9csW~\xce\x89\x01\x90\x0c\xfbV%\xdb\x15\x95\x88N\xfe\xb5\x03nc\x92\xbf\xad#Y\t\x06\xe2q\xf8T\xb0i\xeb\x8f\xbd\x8f\xf8\rX\x16\xe1\x17\x86\xfd*\xbc\xa8\xa5\xf1\x8a\xad&lt;\x0b\xcdf\xdd\xc4\x04\x99\xdbU$\xb8\xd8\xfb\x04_\x8ej\xa5\xce\xe9\x18\x86&lt;zb\xa9M\x12\x16\xc61\xefU.dH\x81\x01\x7f\x1c\xd7;\xe3\tD\xb6\xae@\xed\xd3&gt;\xf5\xc0\xc0\n^\x92G\xf1WE\xa6\xc0\xb3\xc1\xb5\xb8\xc8\xeb\x8a\xcc\xd5\x91a\x98\xa8l\xfe\x15PI\x83\x9d\xb4\xd7U\x94\xe3\x18\xcd#\x10\x83`\x1f\x8dV\xdeD\xc35:\x00\xdc\x9a\x9e\x18\x17xl\xd3\xdc\xaevf\xa2\x95\xc2\x8c\x0ej\x9c\xad\xbd\xbc\xbcc=\xe9\x8d\tQ\x90\xd9\xfc)\x162\xc7\x06\x9c-A8\xdc?*\x99!\x03\xe5\x07\xf4\xa7\x88ps\xbb\xf4\xa8\xe7\'aP*\xabL\xeaq\xb6\x9d\x1e\xf9x&lt;T\xf1Z\xf3\xbb\xcc\xfd*a\x1e\x063\xfaW\xe65\xf9y9-\xfaR\xe9\xe7k\x05\xcf^\xf5$\xc7\x07;\xb3R\xda\x92H\xf9\xaa\xc2\x9c6wg\xda\x993\xe4\xe3\x15%\xafQ\x9a\xbc@\x8e=\xc1\xb3\xc5T\xb8\x90wj\x92\xc6\xf4\x1f\x97\xd3\xbeifrd\xdc9\xad=\x122dV5\xd2E\x1e\xd8\x94\xe7&gt;\xd5r\xd2\r\xe0\x13\xc5Y\x8e\xce2\xe3v?*\xd8\xd3-\xe1\x18^?*\xd8\xb4H@\x03\x02\xa7+\n\xf2\x08\xa5\x84\xc4\xd2\x01\x91W\xad\xfc\xb8\xf0\xf9\xce;V\x84\x0c\xae\x9c\x0ekOORv\xe6\xba\x1d.&lt;(9\xfd+z\xc0\x05\x01\x82\xe7\xdb5\xabf\xbb\xb0v\xe2\xb6,\xa1\xdc\xa1q[\x1au\x9e\xf6T\xce?\n\xe9\xb4\xbb \x91\x03\xd4\xfd+wOL(\x18\xfck^\xd1\x8a\xae\x07\xe7W\xa0%\x8e\xdc\xd6\xa5\x84\\\x83\x9f\xc3\x15\xb7c\x1f\xca&gt;Z\xb1\xe5\x9f\xee\xd3\x1a\xd8\x96\xdd\x8a\x91,Ks\xd3\xf0\xa9\xa2\xb51\x9eG\xe9R\x84\x00\xe7i\xa8f\x198\xdb\x8a\x81\x9c\xc6r*\xbd\xe5\xdbJ\xa4\x1a\xc4\xbf]\xeey\xc75\x9f4\x9b\tL~5\x99\xa8K\x85lW3\xac\x83!l\xff\x00\x9ek\x02\xee=\x8f\xb8-$\x17\x12\x07\t\xce*YL\x92\xa1@\xbd{\xd5+\xed=\xca\x15\xc1\xe7\xbe+&amp;\xe7Np\xd8\xfdv\xd5;\x88\xe4\x87 u\xf5\xc5f\xea\x13O\xb1\x90\x93Y\xf1E\xf6\x99p\xe9\x91\x9e\x954\xda\x0ca&lt;\xc0\x83\xa7\xa5s\xba\xde\x8e\xea\xccU\x7f\xf1\xda\xe3\xf5\xab+\x84\x98\xe1N&gt;\x95B(\'v\xc1R+F\xd6\xd4\x08\xfee\xa4\x96\xda\x00\x0b\x12&gt;\x98\xac\xab\xe0\xab!\n8\xac\x9b\xbf\xbe~\xb5\x1cc.\x06kSN\x0c\xae\xbf7z\xebt\x07+\xb0\x93\xde\xbb\xbf\x0f\xca@\x0b\x9f\xba\x05w\xde\x18\x0b"\xa6\xe3]\xc6\x89\x0caT\xe7\xf0\xc5u\xbaLH\xd0\x00\x00\x15\xabn\x9bS\x01i\xb7\x12\xb0B\xbb?Z\xc4\xd4\x83\x96-\x8f\xc2\xb9\xedM]\x9c\x8d\xa4{\xd6D\xce\xe1\x8f\x19\xc5I\x0c\x8f\x8cc\xf5\xab\xb1+\xb4y\xcf\xe1M{g\xc9\x7f\xd3\x14\xc8m\\6=}\xabN\xce\x07\x11\xe7\xfaT\xc5H\x19?\x95H\x90dn\r\xf8b\x9e\x91\x1d\xc3 \xfeU:\x1c\r\xbb?\x1a\xb5m\xf7\xc7\xd6\xaf@\xdb@lU\xb8F\xf3\x9e\x94\xc7\x88o\x04\x9c\x8fJUH\xc1\xc8\x18\xf7\xa9\xa1\x98+\x01\xbb\xf1\xa9\xd2\xe0+\x03\xba\xafYJ\xacA\xdd\xf8V\xba\x950\x01X\xf7\xb0\x9f8\x80\x0f\'\xadD-\x8fr\x7f*zE\xc6\xcd\xbd{\xd4\xa1\n\xae6\xd4n\xe7;J\xfe5ZS\x87\xcdF\xc3q\xc9\xaawV\xe1\x98\xb6\x7f\x0cV]\xec\x1b\x18\xbf\xf4\xaa2}\xfej\x8d\xec\xc2&lt;\x91\xce=\xeb*\xf6f \xb6?\x0c\xd6\x17\x88\x19\xa4\x81\xb8\xed\xd2\xb8\xf9!)rN\xde\xfdkkIu\xfb9\xf9\xb0@\xac\x8dfO\xf4\xae\xbd\xea\xa0q\x9eE(\x90)\xc8\xe6\x9a\xed\xb8\xee\xc5Bc;\xb7\xfaT\xd1\x90\x17\x9a\x94\\\x000\x051\xe5\xc1\xde\x0f\xe1Q\x19\tl\x9f\xca\x98S.\x1f=)\xca\x0184\xac\xa0\x0c\x81H\x0e\x0ei\xcb \x07$S\x8c\xe3\xb0\xa8\xc9\xdczToo\xbc\xe7\x18\xfc)\xe9\x1e\xde1R\xa1\x0b\xc1\xa4k\x95S\x8c~\xb5\xf9\x8f1\xf3F:Q\x1f\xee\xf1\x8eqC\xb1\'w\xe9S\xdbI\xb9\x82\xe3\x19\xef\x9a\xb3\x1a\x90\xe0\x96\xa6Lp\xc4\xd3\xe1\x93#\x18\xc7\xbd[i\x0b\xc5\x80\xd5B\xed\xdb\x05A\xeb\xde\x99d\xce\xa3v\xfa\xd3\xb2\x89\xa6 c\xaf\xb5oi6\xc5J\x8f\xd7\x1e\xd5\xbb\x10\xc4c&lt;\xe2\xb4,\xca\xb0\x0b\x8c{\xd3\x9e\xe0G&amp;\xd03\xef\x9a\xd0\xd3\xaey\x1f\xe3Z\xb6\xf7$\xe3\x1f\xce\xa5y\x9d\x97ni\xd6\xf1\xc8\\6\xef\xd2\xb4-\x92L\x81\xba\xb5\xf4\xe8\xdbr\x92\x7fJ\xdb\xb2\x03`8\xad\xdd/\xee\x0f\xa5oi\xa3$\x03[v*28\xad\xdd&gt;\xdc2\x06\x07\xf0\xc5m\xe9v\xf8u\'\xdf\xf9WG`\x00\x8c\x0cV\xa5\xb4\x81\x13\x1b+B\xdaO\x97p_\xc2\xb4-2\xc4\x1cV\xde\x94\x85\xa4P}\xff\x00\x95t\x16P\x85Ps\x9f\xc2\xac\x15P3\x8aX\xe3V9\xc5Z\x8a\x05\xdb\xca\xd3\xc5\xb21\xc0\xc0\xfc*7\x8c!\xc7_\xc2\xaa\xdc\xa8\x00\xf1Y\xb7\xb3mC\x85\xfdj\x8f\x9a\xd218\xe9\xda\xa9\xde#\x0c\xbe?\n\xc8\xbcf\xdcx\xc7\xe3Y\x17\xac\xdb\x88\xac]B2\xccI\x15\x8d\x7f\x1e2@\xcdC\x15\xa3H\xc0t\xfc+B\xd6\xcdW\x01\x8e\x7f\n.\xa0\x8d\xc8\x1b@\xac\xbb\xdbH\xf7\x1c\x0f\xd2\xb1\xf5\x0b@s\xfe\x15\x89\x7fe\xc9\xf9\xbf\xf1\xda\xa2\x91-\xab\xee/\xcf\xd2\xaf[\\%\xc0\xc37\x03\xb5A\xa9i\xf1:\x1d\xaa\t&gt;\xd5\xc8\xeb\xba\x01\x96S\xb6?\xd2\xb1\x9bD6\xeeT\xa7\xe3\x8a\xadt\x82\x05 \xae\x00\xefX\x97\xb7\xe3qT\xfc\xb3T\xe7\x90\x9eH\xebY\xd7K\x9c\xbej$;\\\x1cV\xa6\x9a\xfb\xddx\xc7\xff\x00\xaa\xba\x9d\x15\xc1\n\x80\xf7\xeb]\xae\x837C\x9f\xbd]\xff\x00\x85\xe7\xd9\x1a\xb6s\xc7\xadw~\x1e\x9fpS\xfdk\xb7\xd1\x03mA\xb3 \x8f_j\xdc\x86\xd9\x8agmE=\xab\xb6A\\{\xd6U\xed\xa1\xf36\xb7O\xa5`\xeb\x16\x8a\x81\x98\x1f\xd2\xb9\xe9\xa2\xcc\x84\x11N\x85\x06\xe0\x9e\xbd\xebR\xc6\x05e\x00\x9a\xb1%\xaa\x04\'\x8f\xca\x99\x1c\x11\xef\x19\xfeUz\xd4D\x17i\x02\xa1\x9e=\xd2\xe0T\xf6\xf0\x1e\x86\xa5\x10m;\xb1JT\x11\x8cT\x91I\xb1\x81\xc6y\xab\xd6\xef\xbe&lt;\xe3\x15v\xdc\xe0f\x87\x1cn\x15\x0c\xb2\xb0\x1bB~9\xa8\xc4\x92\x03\x9c~\xb4\xe4\x96B\xc0c\xf5\xad=5\xe4\x05I\xad\xcby\x99\xe3\x1cv\xa6J\x9b\xdbn\xce\xbd\xe9\x8dm\xb5s\xfd)#\x8f\xe7\x1cb\x9e\xc9\x81\x9c\xd5y\x90\x13\xc5S\x9e&lt;|\xd9\xfd*\x0f3\x0f\xb4\x8f\xc6\xa2\x95\xd46Mf\xea,\xac\n\x81\x8c\xd6]\xccx\x04\x86\xfd+*\xfdJ\x93\xce}\xaa\x84\xb1\x17\x1c\x8a\xcd\xd5\xedr\xa4\x1fOJ\xe5u+e\x8aF\x18\xfd)\xba|\xad\x1eFx\xac\xadVO\xf4\xad\xf9\xcf\xb5FFP\x1c\xe35\x01\xb9\xdaI\xc6q\xefS\xc1\x89\x86H\xc5JbU\x19\xa8\x9e#\x9d\xc1\xff\x00\x0cSJ\xb0\x19\xdci\x00f8\xe6\x97\xca?\xe4Q\xe5\xfb\xd3\x0c\xbb\x1c\r\xb9\xfci|\xdd\xdf.\xdf\xd6\x9c#\xca\xee\xcf\xe9H\xf1\x9d\xa7\r\xfaTeLcyl\xe3\xb6*X@s\x93R\xec_J\n\x0e\xd5\x0c\xcf\xb1\x0e\x05W,I\xcek\xf3N4\xf3\x1c&amp;q\x9a$_/\xbei\x9b\xb7|\xb8\xab6\xc9\xb4\x87\xcfN\xd5izo\xfd*\x19\\3`\x8cf\x85\x91T`\x1a\x9d&amp;\xda\x9b\xba\xfbT\x13\xfe\xf3\x9e\x94\xb6\xf6\xec\xab\xb7=}\xab\xa1\xd1\xad\xc0\x8dX\x8a\xde\xb6\x84F\x80\x85\xab\xb1\x0c\xa6*\xe5\xa9\xc6\x06q\x9e\xf5\x15\xc9\xdb&amp;\xe5l\xe2\xad\xe9\xf7\x040\x04~\xb5\xabms\xc8\x1f\xd6\xaeA(\xdc\x1c\x9c\xfbV\x8d\xac\x88@l~\x19\xad\x1b@\x84\x06\xcdkYm\xda1\x8a\xd5\xb1\x1b\x94\x0c\xd6\xe6\x9av\xe11\xf8\xd6\xed\x83l\x01\xb1\x9a\xdc\xd3\x9bx\x07\x18\xff\x00\xf5WG\xa4\x0c\xaa\xe7\xfc\xf1[\xf6\x08\xbcv\xad{YB(\x1dkF\xda@\xeb\xc5j\xd8.\xec/\xadmX@\xa4\x0ekkO\x88#\x03\xe9\xed\xed[vCr\x80N8\xa9&amp;!\x14\xf3\x9a\x96\xc4n!\x8d]\x04\x05\xdb\xb7\xf1\xa8\xdau\x8d\xbag\xf1\xa8\xe4\x947?\xd6\xaa\\\xc9\x95\'\x1f\xadd\xde\xbe\xec\xa0_\xd6\xaa\xc2\xa7q8\xa8\xeeSz\x95\xdbX\xda\x84d1LV=\xd4\'\xcc\xc9\xfc\xab&gt;\xee\xcc\xbeH?\xa5d\xde\xe9\xec\x1b=\x7f\n\x8e\x18\x02\xb0R\xb8\xf7\xa9\xce#Bq\x9a\xabs6\xd0X&amp;q\xdb5\x9dq!g\xcf\x97\xfa\xd5\x1b\xb5\x0c\t#\x15\x89\xa82+\x10EsZ\xdd\xe0\x8fp_\xe7Qi\x1a\x89f\xdaN=\xf3Z\xcd}\x1bE\x92\xd8#\xbek*\xfe\xea\x16\xce\x0eO\xb8\xac\xab\xad\xb2\xb6\x01\xeb\xda\xb25[M\xf12\xec\xeb\xfe5\xcbj\x1aaI\x0fnz\xe2\xb3\xee\x8e\xc3\xb7\xae*\x85\xc4\x99\x1bq\xfa\xd4A\x86z\xd6\x86\x9e\xc0c\x06\xbaM\x1am\xac\xa7=+\xb1\xd0\xae~\xef\xf8\xd7\xa0\xf8^c$j\xa3\xbf\xbdz\'\x85-^S\x1e_\x03\xe9\xed^\x95\xe1\xbb-\xc8\x83=;\xe3\xda\xba{]%\x95\x01\x0b\x9c\xfbQy\xa4\xba\x02|\xbe\xde\x95\xcdkp\x18K\x1f/\x91\\\xae\xb30P\xd9_\xc3&gt;\xf5\xcf]L\x14\x9c\'_z\x8a+\x8cH\tO\xd6\xb6,&amp;Q\x18|~\xb5bi\xd4&amp;\x08\xeb\xefUM\xf2\x92T/\x7fZ\xb1ky\xbd\x82\xe3\x19\xf7\xad\x18-\xbc\xe0\x1f?\xa5[\x8a\xcf`\xdd\x9c\xe3\xda\x96X\xb3\x19\x00b\xab8e8\xc6hM\xc5\x80\xdb\xfa\xd6\x8d\x94l\xc8\x16\xaf\xc7\x13*f\xa4X\x18\x8d\xdf\xa51\xec\xdc\xf2\x01\xfc\xa9\x9fb\x97\xd0\xfeT\xe8\xec\xa4\xde2\x0f\xe5Z\x16\xb0:\xe0m\xc7\xbdi[\x06\x00.*\xe4P\x07\\\x11\xf8\xd3f\x83`#\x19\xa8\xd6\x1d\xc7n1\xefI$8\xf9w~\x95Rt\xdas\x9a\xa7s\xf7\x0f\xd2\xa8LJ\xb1"\xaa\xcb#\x16\xc6?\x1c\xd5+\xa4;\x8b\x16\xfd*\x95\xc0\xc8"\xb3n\xe2\x0c\xd9\'\xf0\xaa\xae\x17\xee\xe2\xa8\xeaq#\xa1!\xbaW%\xafD\x17s\x0f\xe5\xefYp\xcd\x80@^\xbe\xf5\x97\x7f\x97\xba\xc94H\x7f\xd1\xc9\x1d\x85P\x0cK\x1c\xd6\x8d\x99\xc4y\xab\x05w!9\xa6H\x98BA\xa8\xc09\xe5jX`\x0c\xc0\xe3\x15$\xb6\xe0Fp\xdf\xa5Ve\xdaq\x9a\xa9r\xc5y\x14\xdbrY\xc3\x13WS\xee~\x02\x91\xc1\xdax5\x13\xa1e#\xa7\xe1O\x84\x8485.\xf5\xf5\xa4i\x02\x8c\x8ej\x19\x07\x981\xd2\xa3\xf2?\xdb\xfd+\xf3N\xdc~\xf0\x1c\xd1w\x11^\x875\x00V\x078\xabv\xe4\xb1\x0b\xb7\xadZ\xdaT\x04=\xfb\xd5K\x97\xdaJ\xfe\xb5\n&gt;\xe6\x00\xb5YC\x88\xf3\xbb&gt;\xd4\xf8\xd7}[\x82\x1c\x90\x00\xae\x8bH\x85\x04@\x96\xfd+Yd\x8f\xca\xc0\xea*[i\xc3\x03\xf2\xfe\xb5e\xe5(\x81@\xea:\xd0\xb1&lt;\xab\x9a\xb5o\x0b\xc63\xcd\\\x80\xb8\xc1\xc6j\xe4\x12&gt;1\x8f\xd6\xb4-.\x08\x01q\xfa\xd6\xa5\xad\xc1\t\x8c~\xb5\xb1\xa5Jd\xc6GOz\xdd\xd3\x86p+r\xc6=\xb8`s\xed[6LJ\x81\xb6\xb74\xb7&lt;)_\xc7\xf0\xae\x9bI8E?\xe7\xa5nYK\x90\x00\x1f\xadh@\xcc@\xc1\xadM49`\ro\xd8&amp;\xdc6zV\xbd\x8c\xdbH\x1b\x7fZ\xd9\xb1\x9dN\x0e?Z\xd8\xb3\x9c\x15\x03\x1f\xad\x13\xca\x01\xc99\xabV3\xaa\xa88\xfdj\xd4\xb7\x01W\xa7_z\xa7=\xd62q\xfa\xd1\x1c\xfb\xce\x7f\xad6\xe1I\x8c\x91Y\xb3\xc0w\xef\'\xf0\xc5G\x14;[\x9e\xfd\xf1L\x9a$\'\xef~\x95\x8f\xa8\xc0&lt;\xd2G?\x85e]Z\xe4\x96\xcf\xe9T\xa5\xb6\xc3d\x8f\xd2\xa9\xdcY\xae\xed\xd8\xfc+&gt;\xe2\xdc\x89\xb0\xab\x8ac\xdb;.\xde\x7f*\xabqd\xe3$\x9c\xfe\x15JkB\t\xcf\xf2\xac\xbdH\x05F\x8c~u\xca\xebw\x1e[\xb2\xe6\xb9=Vo6F\xf9\xfb\xd4V\xd3\xac\t\x9f6\xa6\xfe\xd7\n\x84+\x82q\xebT\xee\xf56bI\x90c\xd2\xa8\xb6\xa2\x16L\x86\xfdj\x95\xd6\xac7\x90\xcf\x9f\xc6\xb1\xb5+\xf8\xdc\x93\xbb\xf0\xacK\xc9\xd5\x9f\x81\xfa\xd6m\xdc\xe3;\x7fZ\x84H\t\xfb\xf5v\xce\xe5S\x03?\xadt:=\xda\x92\xbf\xe3]~\x87z\x15T\xff\x00Z\xf4/\t^\xa1D`\xf8=\xab\xd3\xbc\x1d|\xab*+J\x0e?^+\xd7|\x1a\xf0\xcc\xab\x18\xc7\x18\xe6\xbd\x13I\xd2\xe3t\x03\x19\xc0\xf4\xabw\xba\x02I\x1e1\x8c\x8e\xbbk\x81\xf1\x9e\x8c\xb6\xf2:\xee\xe3\xd7my\xb6\xbf\x01\xf3\x98\x07\xe0\x1fJ\xe7\xaf\xe0`\x08\x07\xf4\xaa\x90D\xef&amp;7t&gt;\x95\xb3c\x1b\x88\xc2\x96\xfd*K\xed\xc9\x17\xde\xedY\x8b+\x87\'9\xab\xf6,\xec\xea@\xae\x9fI\na\x01\xba\xfb\xd5\xe0T.\xd0\x05#(+\x8cT\x0fhO \xd2Gh\xe1\xc6\x7f\x95hY\xc4T\x85\xdbZ\x11A\xbcm\xc7Z\xb5\x15\x9e\xd5\xdd\x9c\xfbb\xa7\x8a\xc9\x1c\x8c\xe3\xf2\xa9\x06\x9d\x19\xe0c\xfe\xf9\xa9b\xd2\x10\x90\xc1\x87\xfd\xf3S\xae\x98\x02\xed\x07\x1e\xf8\xa7Ei\xe5\xc8\x10\x9c\xfb\xe2\xae\xc1\x08\x1c\xe6\xa3\xb8Q\xb4\x9cUs\x85\x19\xc5G \xcf\xcdT\xaej\x8d\xcf\xdc?J\xa8\xd1\x06l\x93\xf8U{\x98@\x07\x9a\xa3s\x16A\xf9\xbfJ\xcf\xbaM\xa0\x9c\xd6e\xdc\x85I\x1b+:\xe6\xebkl\xd9\xf8\xe6\xa8\xdd\\\xe5\x0e\x7f\x9dr\xfa\xfc\xc0\x86\x00~\xbe\xf5\x95n\xbb\xc1l\xe3\x8a\xcf\xbeM\xb3n\xcd6A\xfe\x8eG\xa8\xaa.\x9eY\'9\xab\xb6r|\x80\x11W\x15\x81C\x83I@PN0?*\x9a2\x07\xca\x056i\x17\x1b?\xadW\x91\x01\xcb\x06\xfc*\x95\xd2\x16\x04S-\xc1W\nE\\\x86L0]\xb5+\x15a\x8d\xb4\xc6\x8c0\xc0\xe2\xa1\x90\xf9c=i\x82\xe0\x93\x8c~\xb4\xd3w\xf3m\xc6\x7f\x1a\x99\x06\xf1\x9e\x94\xbe_\xbd~hA\x1e&gt;l\xfe\x94\xf9S\xccm\xd9\xc54A\xea\xdf\xa5O\x04a\x00~\xb5bV\x1c\x00\xb5\x99\xa8w\xfa\xd5Tf\xdc9\xa9\xd2\xe4\xaf\x05\x7fZ\xb9\xa7\xca\xb2\xb6q\xd3\xb5j\xdb\xaa\xa9RGZ\xd2\xb5\x9c\x00\x10\x1c\x0f\\\xd5\xa5\xbc\xd8:\xe7\xf1\xab\xba\\\xbeo\xcd\x9f\xc2\xaf\xcf\xd1~\x95\xa3\xa7\x88\xccXj\xb5\x98vm\xe3\xebO\x8eH\x94\xe3"\xa6K\x98\xc0\xdb\x8f\xc75r\xd2D 6\xea\xd4\xb7\x99&lt;\xbd\xd9\xad\xad\r\xd5\xd7 \xfe\x15\xd2i\xd1a\x03\x83\x9cv\xc5oi\x91\x97\xdaO\x15\xb9e\n\xa8\x1f\xe1Z\xf6\n\x01\x15\xd1\xe9#(\xa3\xfc\xf4\xad\xcb8\xf0\x03g\xf4\xad\x1b1\x97\\\xff\x00\x9e+j\xc5@\x00\x8a\xd9\xb2\xfb\x82\xb4 p\x07\x06\xb4\xecd\xe0s[6R\xe1A\xddN\xb9|\x1c\x06\xebV-\x1c\xe3\x155\xcd\xc1\x04.;u\xcdQ\x9e\xeb \x90:{\xfb\xd4\xd6\x12\x99\x18\x1a\xbcb\xcce\xb3\xf8b\xaaO\x08c\x821T\xeeXF\xa4\x05\xfcsTf\x99\x8b`\n\xadp\x9b\x90\x9a\xcf\xba\x8f\nIZ\xa3*\xaezT-l\xacrO\xe9Tn`E\x9b?\xd2\x90Z\xab\x0c\xa8\xe7\xd3\x15V\xfa\xdf\xc9\x1f2qY\x17\xf3@\x15\x97\x81\xef\\\xce\xb7y\x14{\x80`\x7f\x1a\xe2|Ez\xbf;\x83\xfa\xfb\xd7#}~#\x90\xb19\xe7\xd6\xb3.\xf5\xe4L\x8c\xe3\xfe\x05T\xe4\xf1JG\xc99\xff\x00\x81\xff\x00\xf5\xa9\x87\xc41\xce&gt;\xf63\xfe\xd5S\xba\xd7\x14\x12\x15\xb3\xff\x00\x02\xac\xcb\xadjF\x93\x00~;\xaa\x84\xf7\xd3J\xf8\xed\xeb\x9a\x86[\x8d\xa8I9?Z\xcf\xba\xb8\xc9-\x9a\x84\xdcg\x8c\xd4\xf6\xf7\x0c\x08;\xabwH\xbc#nO\xeb]v\x89}\xf2.O\xeb]\xc7\x85\xef\xd8\x98\xc0|~5\xe9&gt;\x13\xd5\x1ddF\r\xf7\x88\xef^\xdb\xf0\xebR,\xc8\x1b\xdb\x9c\xd7\xb6\xf8L\xc7*\x07$}\xd1\xc5o\xdfZC\xf6}\xd9\xc7\x19\xe9^c\xf1\x16HT\xb7O\x9b\xbf\xa5y\x0e\xb1w\x13\xde\xb2{\xfa\xd6U\xfcQ\xe0\xb6\xfe\xbe\xd5N\xd9\x11_9\xfd+V\xd7g\x97\xda\xa3\xbfuh\x8f=\x05eF\xeb\xe6\x1a\xdc\xd2-\xd2M\xad\xbf\x1f\x85l\xda\xb8\x84\x85\r\x91V\xe1|\x90\xd9\xfc*\xccI\xb8\xf5\xab\tjH\xdd\x9c\xfbb\xa6\x86\xc3q\x04\xff\x00*\xb2\x96\xcb\x1f8\xfcqV-\xd5GQWWo\x97\xc59&amp;U\x18\xd9\xf8\xe6\xa5\x89\x94\x9d\xc7\xf2\xad\x0b@\x87\r\xfaU\x89\x968\xd3 f\xa9\xc92\xab\xe4/\xebVc\x18@\xd9\xebP\xce2\xb8\xf6\xaa\xd2\x1cqL##\x15N\xea&lt;)l\xfe\x95\x9f8\xca\xe3\xda\xab\xb1\xdapj\xb5\xd3.\x0f5B\xe1\xc0\x07\x15RH\xb7\xf3\x9a\xcc\xd4m\xb0\xacA\xfd+\x0e\xfe&amp;\x04\x9c\xd6M\xfc\xc6%n\xf5\xcdk\x13y\x8eG\xf5\xa8,a\xdc\x87\xe6\xfd+;S]\xb2\xe35\x1c\xbf\xea\x07\xd2\xa9\xca\xbb\x8e\xdc\xf7\xa9`\x93n#\x03\xf1\xcd[\x85\xc8\x1c\xd3\xc3\xe4\xe3\x14\xa4\x8cp\xd4\xcf?c\xe0\x9al\x92\x83\xf3\x07\xfc(\x8c\x92rO\xe1D\x90\x898\x07\x15\x0f\x90Q\xf0O\xe9BH\x12P\x08\xa9\x84\xaaN)K\x8e\xd5\x0c\xeb\xb9\t\xcdU\x90\xed\x1cT19i7\x9e\xdd\xaa\xf4\x12g\xe5\xc7\xebR\xd7\xe6l\x13\xa7C\xc0\xf5\xcd=\xe7\x8dT\x95l\x9fJtm\xe6v\xc5O\x1fd\'\xf1\xa2y\x82\xf3\x8c\xe2\xb3\xefd\x0e\x0e*\xa889\xa96\x97L\x83W4\xb4h\xe5U-\x90s\xce=\xab]\\y`\x8e\xd54\x136?\xfa\xf52JK\x00Z\xb5\xb4i\xc4n\x14\xf3\x9fz\xd9W\x13\x91\x81\x8e*xY\xa38\xdd\xc5+^\x958\xfe\xb4\xf8\xae\x98\x90\xc3\xf9\xd5\x94wq\x9d\xc4U\xcbY\x9f\x01sZ0\\\xb9M\x9e\xde\xb5\xd1x]\xdc\xb8\x19\xcf\xff\x00\xa8\xd7m\xa5D\xc60O\x15\xbd\xa7\x94D\x19\xe3\xde\xb5-n\xa1^\xadZ\xb6\x1711\x01[\x93\xda\xba-&amp;\xe5\x15T\xb7\xf3\xad\xdb;\xc8\x99B\xadiZ\xc8\x14\x07\xf4\xedZ\xd6W\xa8\x00\xdc1\xf8\xd6\xbd\xb5\xfc^V\x10\xe4\xfdj\xed\xbd\xc1)\xb8~Y\xad=&gt;bq\x9a\xda\xb1}\xd8\x05\xb1\xefS8/0\xf9\xb8\xad\x0bX\x8e\xdc\xaf\'\xd2\xa6\xba\xd3\xe7t\xf3\x07\x07\x1d1Y\xb3i\xd7\t\x93\xd7\x9fJ\xb1c\x1b\xc2Au\xe0u5s\xedi\x1ar\xb9\xfcj\x19n\xa3pp\xa3\xf3\xac\xfb\xc2\n\x93\x9f\xf3\x9a\xcf\x97\xef\xd4-.[f\xde\xbd\xf3U\xafUY\n\x82+2t\xdas\x9a\x89\x98(\xdc{V]\xf5\xe2$\xbd3\xf8\xd2.\xa1\x1a\xa1=\x0f\xd6\xb3u\xadi\x15H\'#\xeb\\\x8e\xb3\xae\xa1\x90\xaa\xb6?\xe0U\xcbk\x1a\x8b;1\xdf\xc5q\xda\xfe\xa6\x03\xb2\xb3\xf1\xeb\x9a\xe45\xbdn8\xb7\x10\xd9\xc7\xbdr\xfa\x9e\xab$\xee|\xa7&lt;\xfb\xd6E\xe6\xa9s\x1eK1\xc7\xd6\xa2\x8f\xc4.\xbf!\x7f\xd6\xa6M[\xcc\xe4\xcb\xfa\xd2\xb6\xa1\x19\x07/\xfa\xd3\x0e\xb5o\x18\xda\xea&gt;\xbb\xaa\x84\xba\xe43JU?\xf4*F\x91\xa6R\xcbH \x94\xae\xe1\x9f\xa5[\xb5\xb1\xb8p:\x8f\xc2\xb5\xf4\xfbIQ@\xdc\x7f*\xe8\xf4\x93$h&gt;j\xec|9\x7f\xe52\x13\xfc\xfd\xab\xd1\xfc#\x7f\xe6&lt;\\\xf1\x9fZ\xf6\xcf\x87Z\x86\xd9\x10\x13\xe9\xde\xbd\xe3\xc0\xf7\xa2X\xc1\r\xd8q\x9a\xebo\xdc\xb5\x96C\x7f\ry?\xc4\xb8\xa6,\xc8\xad\xd3\xbe=\xeb\xc75\x88g\x83Qgg$g\xd2\xa9M;\xcc\xc1z~5\x07\x98`9j\xbbo\xa8\xc6\xb1pr}3Q\xde\xde~\xe8\x9cu\xf7\xac\xdf\xb4\xed\x97\x9e\xe6\xb74mIP(#\x8f\xaf\xb5i\xc7\xaaF\\\x0f\xfd\x9a\xafZj(\\`~\xb5\xada8\x95\xc1\xdb\xc7=\xeb^\xde5\xdb\xbb\x1f\x85O\xe7C\x1a|\xcb\x8ac\xdd@T\x80hK\xb4\xfb\xa3\xadN\x97\x0cc\xc2\x8e}3OE\x99\xc6v\xe2\xa6F\x91&gt;\xf2\xf1\xeb\x9a\xbbmz\x8a\x008\xfcMM.\xa0\x92\xae\xdc\x81\xf8\xd5\x7f44\xa3\xe6\xe3\xd6\xaf\xc5t\xac\xa1Uy\xfa\xd2\xbc\x0e\xe8X\x0f\xc2\xaa\xcd\x13\xa9\xcb\x0c\x01\xde\xab\xc9(\x8f\xb6j\xbc\xef\xe6!\x18\xc5P\xb8M\xa0\xf3Y\xf7S\xec\x19\xdb\xfa\xd59$2{Uy`r\x0b+d\xfab\x98\x91H\x18\x17L\x0f\xadR\xd4\x11[p\xc5`jj&gt;d\xf5\xef\\\xfe\xaf\x11h\xd8\x06\xff\x009\xaeOU\xdd\x0c\xa5\x98\xe7\x14\xfd2@\xf1\x9cVn\xad\xfe\xb6\xabI&gt;c\xdb\xb7\xa7\xbdA\x8d\xce\x0eh\xf3&lt;\xa6\xdcFjx\xaf\x068O\xd6\x9e.w\x1d\xbbq\xef\x9a\x1em\x8aX\x12}\xb3U\xe4\x95\x9f\xda\x91\x19\x95\x83\x16\xcf\xb5[\xb7}\xdcc\x15)+\x10\xdeH8\xedQ\xc927!\x7fZ\x81\xe3,r\x1b\x1f\x85\n\x8c\xad\x9d\xff\x00\xa5=I\xdd\xd6\x9d \xca\x11U\xa7\x83\xe4,\x1b\xf0\xc5UPbl\x11\x9c\xd5\xbbY2\xe3#\x15g\x9e\xd5\xf9\x91mm!#y\xe3\xbdI&lt;+\x17\x03\x9a\x96\xda\xa7^O\x06\xa1\xb9V\xc1\xf9\xbfJ\xa1:\x91\xc9j\x8c\x0c\x9cT\xf0\x10\x18)\xab\xb6\xfbx\xc1\xc1\xab\xd0\x8c\x8cn\xfd*e;F*H\x90\x92\x1b}i\xd8\x06\x00\x1d\xff\x00\xa5ni\xf3\x00\xa0\x1a\xb8H(X\x1a\x84\xc2]\xb9\x7f\xd2\xa6\xb7\x88\xab\x80_?\x85\\\x89\xf0v\x91\xf8\xd5\xebu\x01C\x86\xce;b\xaf\xda\xc6\xcc\x01\x02\xba\r\x0eSj\x03~\xb5\xd8h:\x97\x99\xb57d\x1a\xea\xb4\xebv\x9e \x07z\xbe\x9ad\x812T\xd6\x86\x9df\xc8\xca\xdb\x8eG\xa8\xae\x93I\xb7v\n\t\xad\xeb\x1b2\x00 \xe0\xfd+R\xd5$\x8c\x0c\xf3V\xe1W\xdc\x19\x8e\x07\xa5i\xd8\xed\xc0\xc1\xad\x8b \n\x81\xbe\xb5-\xa5\x08\xb8\x1c\xd6\x8d\xad\xf9\x00.\xdf\xc75\xa3k&gt;\xe0\t\x1c\xfdkR\xd2\xe9Q\x03c\x91\xefW\x1fU_+\'\x1cz\x9a\xaf-\xfcn\x0fO\xce\xaa\xcbr\xeev\x83\x81\x9e\xb5\x04\x97\x04pZ\xa1K\xfd\xcf\xb7\xfa\xd11\xdd\xfc]j\x95\xcc\xc26\'\x19\xfcj\xab\xca\x18\xee\x1c~5\x04\xd2s\xd6\xa9\\\xb2\xfa\xd5+\xb9\xc1\x85\x90q\xef\x9a\xe75+\xa6\x8en\xb9\xfck6\xe7RdRC~\x19\xac/\x10\xeb\x0f\xe5\x9f\x9b\xff\x00\x1e\xf7\xae/V\xd6d\x13\x1c\xb7\xfe=YW\xda\xc0\x92&amp;\x1f\xae\xea\xe3u\xddQ\x9eV\xf9s\x8f\xf6\xab\x9b\xd4\xa0\x92\xec\x9d\xbcg\xf1\xaa\r\xa5H\xa7\x01r}qY\xda\x8e\x91r\xca\xc0\xc7\xc5`jv\x17\x10e\x82\xe3\x1d\xeb&lt;jO\x10!\x98\xf1M\x1a\xdb0;z\x8e\xdb\xa9\x8fy&lt;\xe8q\x9e{f\x99d&amp;y\xf0F9\xeb\x9a\xe8\xb4\xc8[`.s[\x16v!\xb0B\xe4}+j\xc3JP\x9b\xca\x0f\xca\xadGb\xaa\xe0\x91\x81\xdf\x8a\xb9c\x1a\xb3\x80\x0e0}+gN,\xb2*\xab\x9a\xf4_\x04\xce\xc24\xc9\xe8E{G\x80\xae\xf6\xb2\x9d\xfc\xf1^\xe7\xf0\xefS\x01\xd5Kg\x8f_j\xf4\x19\xaf\x11\xec\xc7\xcd\xdb\xd6\xbc\xf7\xc7l\x8f+\r\x80\xe7\xde\xbc\x9f\xc4\xd6k$\xb2m\x18\xe7\x8e=\xeb\x01l\x88\x97;\xfa{Tw\x16\x81\xb2\x0fO\xa5Vh\x84\\\xa9\xa6\xde11`Vd\xc5\xc1\xc95v\xce\xe1\xd2,\x06\xa9\x92\xfa@\xc3\xf7\x9c\xfaV\xbe\x93\xa8&lt;\x8a\x01\x18\xc7|\xd7W\xa1\xdc\x8d\x8b\xbb\xf9\xd6\xfd\xb5\xe2\x08\xf3\x8e\x9e\xf4\xc9$Wm\xdb\xf8\xf4\xa7\xc5\x1aHF\x06}\xaaI\xadLi\xb8/\xe3M\x8ec\x1fS\x8a\xb1\x16\xa4T\xe0\x9f\xd6\x9f\xfd\xa3\xbb\xe5&amp;\xa3k\x96\x07r\xb9\xe3\xb5\x02\xf2BpX\x8f\xc6\xa5K\xfd\xbdy\xf7\xcd[\xb4\xd4\xf0\xc0\x83\x8f\xc6\xaf\xc7\xa9\x92\x98\xdf\xfa\xd47Z\x80`An\xbe\xf5Ji\x83)!\xaa%\x94g\x96\xa8n$C\x90[\x15\x91}*\xef(\x0f\xe3U\x99\xd5FsM\xf3\xc7jF\x9b#\x04\xd6n\xa0\xe0d\x8a\xc2\xbfO1\x89\xce+\x1a\xfe\xd7vr\xff\x00\xa5q\xfe+A\x00e\x1c\x93\x8e\x7f\x1a\xad\xa0\x13*\x16\xf4\xedU5\x88\xd9\xa4 qY\xec\xae\xad\x82sJ\x9fxTw\x00\x91\x81\xebK\x0co\x8f\xbd\xfaR\x92\xc8\xddsG\x9a\xcd\xc6)\xe22Wu=mY\x86w~\x95*\x8f(u\xa8\xe6\xb9\xc81\x8e\xfe\xf5\x1a\xc8T\xe4\xf3N\xf3\xff\x00\xd8\xfdiR]\xcd\xb7o\xebR\x03\x83\x9aR\xf9\x18\xc52O\xb8x\xcdW\x96\x12\xc3 b\x88\xf7\'\x18\xabqM\xb5\x00\xdb\xfa\xd7\xe6]\x9d\xc38\xcb7\xe1S\xdc*\xc8G\xcd\x8c\x8fJX\xca\xc7\xfcY\xfc)\xe2u\x078\xa6O u$U9\x86\xe3\x81P\xe4\xa3\xe0\x8ap\x90\x83\x90*\xcc\x17\x04`\xe3\xf5\xad\x0bI\xce\x03\xe3\xf0\xcd[G\xde3\x8cU\x98\x06@\xc9\xab\xf6\xce\x02\xed\xcdh\xdaO\xb3\x199\xab\xd1]\x82\xb8\xeb\xed\x9a\xb3\x02\xf9\x83~q\xedR\x15+\xc84\xc4\xb8a \x18\xadm.S(\xc9\x1d;WC\xa5[\x89\n\xe7\x8a\xd7\x82\xcc\x10\x17\x7f\x1fJ\xe84X\x12\x1d\xa47#\xda\xbb\x9f\x0e\\\xc6\xb1*\x9cg\xeb]\r\xab\xab(g \x8a\x98\xb0\xc7\xee\xc6=\rh\xe9\x97\x92\xc6\xca\xa4\xe7\xde\xb7l\xb5\x19\x15A\xfe\xb5v-V@\xb9\xfe\xb5v\xd7Py\x00\x07\xa7\xd6\xb5\xac.x\x15\xb3cs\x90?\xc6\xb4 \xb8\xcf\x15v\t\xb6\x8c\xe6\xb5t\xfb\xb5\x04d\xfe\xb5s\xed\xea\xbc\x86\x1fL\xd4r\xdf\xb67\x06\xfc3DWo!\xe5\xb1V\x91\xf7G\x8c\xfe5N\xf6}\x80\xe0\xd5\x0bk\xb2ny=\xfdj\xe4\xf7{\x146:\x0fZ\xcf\xba\xba\xf3\t\xe3\x1f\x8dU{\xbd\x87\x18\xcf\xfc\n\xa2i\xb7\x9c\x93\x8f\xc6\xa9\xdd\xdc\xaa\x823\x9a\xcc\xba\xd4W%1\xf8\xe6\xb0\xf56.\xe6@\x7f\n\xe7u\x0b\xa2\x1d\x98\xb61\xda\xb9\xff\x00\x11^\xfe\xed\xb9\xfd}\xeb\x88\xd6\xafr\xe7\xe6\xfdk\n\xfbReF\x00\xe7\xf1\xac9\xd9\xee]\xbd\xcdMg\xa7\x03\x87c\xfaS\xa7\xd3\xe2\'\x1bi\xd1xb+\xb5\xc0\x88\x9c\xf65\x95\xe2_\x01\xf90;}\x9f\xa8\xceq\xd2\xbc\xd3\xc4:\x04\xb6\xce\xce\x10\xe0\x9e\x98\xacxl\x1c\x13\xc1\x07\xe9R\x98\x9e(\xcf&lt;\x8fj\x8a\xcey\xc4\xf8#\x03=k\xa2\xd2\xa7r\x14o\xcf\xb5u\xfa\x12\x07\x8dK%u\x16Vhb\t\x803\xde\x9el\xd0&gt;\xdc\x03\xf8U\xbd3L\x8d\xdb,\x98\xf7\xadH\xf4\xa4\x8d\x94F9=\x0e+\xb0\xf0\xa4M\x02"\x9erk\xd3\xbc\x17|D\xc1wc\x18\xef^\xd5\xf0\xf3S\xcc\x80\xe7\xa0\xf5\xf6\xafL\xb7\xb9{\x8b0\xc0\x91\xc5r\xfe*\x8eG\x98\x82\xb9\xf7\x</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Sample2.jpgSundar Pichai</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x01O\x03\xec\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfc\xda\xbes!\xeb\xc7z\xcc\x95\n\x96$\x8ei\xe8\xe1S9\xa4\xfbR\xee\xdb\x93\xf9S\xe1\x989\xdd\xbb\x81S\x8eFA\xa5\x8c\x85pMY\x99\x0bG\x91\xdcT\x16\xf1\x92\xe78\xc6j\xec(\xa0f\xae[\x11\xb8\x1c\xd5\xe8\x08\xc0\x06\xac\xa5\xb9\xc8$\xaf5\x1c\xf0\x81\x92\x08\xa8$B\x10\x93Tni\xd0\x12\x0eG\xad\\\xb7\x91\xb2*u\x91\xcb\x01\x9a\xbdipP\x0f\x9b\xf5\xad}2\xe1\xa4\x00\x86\xe9\xef[v\xb3\x15\x8f!\xabgK\xb8}\xa3\x9a\xe94\xab\x86\xda2x\xad\xfd:S\x80\xfb\xb8\x15\xb5i&gt;\xf8\xf6\x83\xf9\xd5\xc8\x9c\xa0\xdc\xc4p*k-H\xee\xf2\xd4\x91]\x05\xa4\xa6\xe2\xdc|\xdf\x9d&gt;X\x9a\x15\xdeH\xfc*\xd5\x8e\xa4a\x03$\xe3\xda\xaf\x9dL\xcc\x81\x83\x1c{\xd2\xf9\xae@\xf9\xba\xfb\xd5\xabR\x84a\xcf5q.\x92\x04\xce\xf1\x81\xefY\xda\xbf\x89\x15T\xaaJF\x05q\xfa\xd7\x89\xe4\x95\x9dRF\xacC\xaa\xcd!,I&lt;\xd6\xe6\x84\xc6b\xae\xe7\x8fJ\xea\xac\x128\xa2\x0e1\x9cw5$\xba\xc7\x90H\xde?\n\xa9s\xe2Iv\x95\x0eq\xedX\xda\x9e\xb7\xe6\x86P\xc7\'\xd6\xb9\xdb\xb9\x19\xa6%\x9b9\xa8\x13)\x92}+;T\xd4\x9a\x05c\xcf\x1e\x95\xc1x\xa7[\x9c\xce\xdb\x1c\x8e{\xd7-s\xaa\xcb4\x84\x175\x8b\xad\xb8\xbaF\x1bON\xf5\xe5\x1f\x104\xe6\x05\x93h\xc8\xe75\xe4\x9a\xed\xec\xb6WG\x19\x00\x93\x8a\x8fI\xf1\xe5\xce\x9d("V\xf9Oz\xf5?\x86\x1f\x1a\xe4\x86@\xf3\xdd\x01\xcf\x195\xec:G\xc6\xabk\xc5Po\x10\x86_Q]&amp;\x97\xe3\xfb{\xb5\x04\\\'&gt;\xf5\xd0i\xde"\xb7\x90\x072\xaf\xe0y\xado\xed\xa8\x1d\x01Yj\x8d\xdd\xfa\xb9;d\xa6%\xfeF\xc0\xddj\xdd\x95\xdf\xef\x14\xb3~U\xd2\xe8\xf79U!\xab\xac\xd0\xb5\x11\x19]\xc4\xff\x00\x91]V\x99\xaa+\xa0A\x9a\xd8\xb0\xb8fu%\xab\xb0\xf0\xa4\xb9\xda\x03w\xae\xefK\xbaDT,x\xf6\xad\xfd:\xea"\xa1\xb9\xad8\x1d$\\\x03\xd6\xadE\x12\xaa\xe4\x90jD\x93a\xe3\xa5R\xd4.\xb0\t\x04\xd6L\xb33\xcb\x92x\xf4\xa8.\x10\xb0,\x08\xaa3FzdU\x1b\xa6\x03+\x9a\xcb\xbd\xda\xccFk&amp;\xf1QX\xb0\xaa\xadp\x83\xe5\x19\xcdhY^\xaa\xc3\xb4\xb78\xa2K\xec\xb8\x195\x13\xbbJ\xdbTu\xf5\xabv\xb6\x81\x90d\x0c\xfb\xd5\xc4\xd3\xc0\x8c\x93\x8a\xadu\xa7\xc6A\x00\n\xc8\xd4t\x08\xae\x11\xc3\x01\xc8\xed^O\xf1?\xc3\x0b\x0cd\xa2\xfb\x8c\xd7\x80\xf8\xd4Kgt\xe5T\xf2x\xc5s6\x9a\xdc\xf1\\\xe5\x98\xe0\x1eA\xae\xcb\xc3^$P\xa8\xd28\x02\xbb-#\xc4Q\xba\xa8I\xf3\xed]F\x8d\xe2\'R\xbf\xbd8\xae\xc3M\xd6sn\x19\x98\x9c\xd6\x95\xb6\xaf\xc0m\xc6\xb4-u6|\x10\xc7\xf1\xab\xf0\xca\xd2.ws\xefV\xe0-\xdd\x86*\xd2\x9f\xdd\xf0}+F\xc6lF\x14\x9a\'\x9f\x1c\xe6\xb3n\xee\x01\x93\x1c\xfe5N\xe2r\x01\xc3VN\xa3v\xc3$\xb5s\xda\x95\xfe$?1\xac\rV\xef\xcc@3\xf7z\xd4\xfe\x10C\xe7\x8fs]\x94\x8d\xb6%\x1e\xd5\x91\xa8\x16\xdeX\x9e=*\x00\xc5Xpy\xa7y\x8d\xde\x98\xe0\xb1\xc8\xabv\xcc\x12&lt;\x1a\xabv\xc1\xa4\xc0\xa8"\x8d\x90\x9c\xfe\x95i#g]\xa3\xbf\xad6D+\xf2\x92*-\xe1\x1b\x9a\x91\x0e\xfe\x95\x14\xc8T\xee$SP\x82\xc3\x06\xb4\xac\xb0P\x0c\xd4\xec\xa0\x0c\x81T.\xe2m\xdb\xf8\xc5D\x80\xee\x1c\x1a\xb4\x9f\xea\xcd*}\xe1O\xaf\xcb\xf9\xe7\xdeJ\x83\xcdQ\xba\x9bi\xdb\x9aE\xb8\xfd\xd9\x04\xfeu^{\x90\x84\x9d\xfd)\xf6\x17%\x81;\xf8\xf4\xad;ff\\\xe7\x8a\x99\x01f\x00U\xc3\x191\x81\x91\xd2\xa0\x8f\xf7lrs\xcfj\xb0\xb2\x83\x1e\x05I\x15\xd0\x8c\x82\xd9\xab\xf6\xb7!\xc0!\xaa\xe9\xbbU\xda\x0ezT\x17\x17\xab\x83\xd6\xa3\x13\x06\x1dj\t\xa2i:\x11\xf8\xd2\xc7\x1b)\xf5\xfaU\xbbt\x7f\xee\x9a\x97k\xf6\xa7\t\xca|\xbc\xe6\xb54;\x86\xe35\xd1Z\xc8\xec\xa1:g\xd6\xb6t\xd7e\x00\x13]\x16\x97)\xda9\xae\x8bM\x91\x9a0\x01\xad\x9b\x1d\xf8\x19aW\xb78\x84\x9d\xc2\xa2\xb7\x95\xd2`\xb9\xe4\x9e+\xa3\xd2.[`R\xd5\xa3,\xbb\xe3\xdc\x0f\x03\xadUy\x9d_\x00\xf7\xad\x0b\x014\x88\x00a\xf8\x9a\xb94\xa6\x15\x00\xb74\x89\xa9\xacK\xb9\xdf\x18\xebY\x9a\xc7\x8a\x12(\\-\xc6\x0f\xd7\xde\xb9MK\xc5\xdb\xd9\xb1pO\xb5d\rVK\x97/\xe6f\xb44\xe5i\x17-\xde\xba\x1d1\xc5\xb6\xd6v\xe2\xb4e\xf1\x14^_\x97\x1b6{t\xac\xeb\xadjM\xdb\x8c\x87\x15U\xb5gv\xfb\xc6\xaaOy+I\x9c\x9f\xc6\xa3\xdf\xbd\xb9n}\xe8a\x85&lt;\x83\xf4\xac?\x10F\xfeS\x801\x9e\xe6\xbc\xdb\xc5s\x18g`\xc7\xf25\xcbKz\x9ea\xf9\xaa)n u9\xeb\\G\x8e-\xed\xe6\xf36\xa9\xc9^\xa4W\x8ax\xd7L\n\xe4l\xea\xdd\xab\x88\xbd\xb1\x92)\x0e\xd1T\xa4\xd75-)\xb3nv\x81\xef[\x1e\x1d\xf8\x9d\xae\xdb\xb0\xf3.q\x83\xdd\xab\xd0\xbc\'\xf1\xb2\xe6\x16\x8d&amp;\xba \xf3\xdf\x8e\x9fZ\xf4\xcf\t|k\x8e\xe4"\xb5\xe0\xe4\xf75\xe8Z_\xc4Ay\x08\x8df\x1d:\x83Z\xb6\x9e!k\x80\x08\x9b\xaf\xadi\xdbj\x1b\xe3\xe2PM]\xd3\xef\xd9\xa5\x07\x7fJ\xea\xf4K\xd2\xc8\xa3uu\x1aU\xe1@\xac[\xa5t\xfaE\xf6U[5\xd0\xe9wl\xc5p\x7f:\xec|1v\xe9\xb5w\xf2k\xb2\xd3\xefdtP\x1a\xb7\xb4\xbb\xd7\x01C\x1a\xdd\xb1\xbe8\x19cZ6\xf7\xc0\xff\x00\x15:MJ4\xe1\x89\xac\xedB\xfe6V\xda\xdf\xe75D\\\x83 9\xe2\x9f4\xc8\x13\x1c\xf3TneR\x08S\x83\xefY7\xb2\x15%\x8b\x0f\xce\xb2/.\x80rI\xfck&amp;\xfa\xf1I#ugM~\x81\xf6\xe4\xe7\xe9Q\x9d\\\xc7\xc0s\xf8U\x9bMK\xcd#\x92kgO\x0b(\x04\xfe\xb5\xab\x00ULw\xa9\xc4\xcb\xb0\xae\x0f5\x13\r\xcd\x9e\xd5V\xfc\xa4*s\xd7\x1cW\x9d\xfc@\x81obd\n\x0e\xd0s_&lt;\xfcF\xd0Z9\x99\xcc\\d\x9e\x05y&amp;\xba$\xb1\xb8c\xb4\x80O\x15^\xc3\xc4\xf3A2\xaf\x9d\xc0&lt;\xe4\xd7i\xe1\x8f\x19F\xe8\xaae\x1fPk\xb5\xd0\xfcH\xad*\xaf\x9eN:\xd7\xa0h\x9a\xa3\xcbj\x85d\xcf\x1d+v\xc2\xf2W\xc2d\xd6\xd5\x8c\xb2`e\xc7\xe7Z\xd6W\xbe^7\xb7\x15~-J 2\t\xab1j1:\xed\x04\xf3\xdc\xd5\xebmAvm\x04\xe6\x9b%\xe1\xdf\x82N+&gt;\xf2\xe8\x168j\xa3sr\xc4\x11\xba\xb25+\x97\xda\xc7usZ\xad\xcb\xeec\x9a\xc4\xb8\xbd\xdd!\x078\xef[\xbe\x11\x04:\xcb\xda\xba\xab\xc9\xd5-\xc3s\xd2\xb2\xa6\x90\xcb(\x1d\xa9fUU\x04\x0e\x95\x08\x91Np\x0f\x14\xf0\xa4\x8c\x8a\x9e2\x02\x1c\xd5k\x95!\xf7\xe4`RE\x8d\xc1\x8fJ\xb9\x08R8\x1c\xd4SD\xd9\xceEU\x99\x0895$\'\x00\x1a\x8a\xf1\xf2\x84/_\xfe\xbdTY\x99\x1cn5\xa7cr0:\xd5\xb5\x93#vx\xa6H\x85\xc6\x06?\x1aE\xb4`7\x9d\xb8\xf6\xa8\xcbm\x90\x0e\xd4\xf4pX\n\x93#\xd4W\xe5\x94\x97A_\x9c\xd5iKH\xfb\x81\xcf\xb6i\xeb\x13&lt;d2\x9cUk\x8bEl\x81\x9c\x9a\xb1\xa6\xe9\xb2\x0e\x00\xe4\xf4\xcdj\xc1\x13\xc4\x9b[\xf4\xa7G2\xac\x83 \xd5\xc7\xbaC\x0f\xca\x0f\x02\xa9\xb3?\'=jkY\x19\xce*\xe2YI2\xf0\xc3\x1fZ\xb5ok\xe4\x80\x01\xe6\x9f4\xfbq\xd7\x8a\x86b\xee\xa4\xa9\xe3\xd2\x96\x19YH\x0c\rNx]\xc4S\x05\xca\xa3\x8c\x03\x9a\x9d50\x066\x9c\xd3\xd3Q\x0c\xe1[8\xa9\x19ZV\x01\x0e\t\xe9\x9a\xbd\xa5H\xd6\xae\x030\xcf\xa8\xae\x86\xcfR\xdf\xb4\x16\xad\xad:\xe08\x04\x1a\xdf\xd2\xee\xd4\x05RMtZ]\xf2|\xab\x93\x9a\xdd\xb1\xbbP\x07\xcdZ\x11\xdc\xab.\xdd\xddi\x10\x16\x98m=\xcfZ\xd9\xd3\xdd\xd207\x0f\xc2\xae\xad\xe3\x05\xdasL\x13n\x901\xe9Z\xf6\x17q\xacx\xe74\xeb\xdb\x91"\x12\x1b\x00z\xd6\x06\xb1\xad\x0b,\x86\x98\x1f`k\x8a\xf1\x07\x8c\x93\xcdh\xc3\x8e{W9\xfd\xbf%\xdd\xd7\x96\x01\xc1=\xab\x7f@\xb6i6\xb9=}k\xa7\xb3E\x860\xacF}\xaai\xafF6+\x1f\xc2\xa0\x92G\x8c\xef\xdf\xef\xd6\xa9\xcd\xaa\x86b\xbb\xea!\xab\xacn&gt;bi\x1fV2\xb67P\xb7\xff\x007\xde\xa5}Y``X\x93Y\x1a\xee\xbf\x04\xca\xcaI\x03\x1c\x93\x8a\xf3_\x17]%\xc5\xc3*\x13\x83\xde\xb9K\xa8Hr\x03u\xa8\x96\x193\xc3\xfeu\x89\xe2;7\x943`\x1c\n\xf3O\x16\xe8&amp;bWj\x82\x0f$\xd7\x05\xad\xe9\xd1@\xcc\x19FG\xa7\xd6\xb9\xbb\xfd:)\xa4*W \xf6\xac\x8b\xbd!\xe1\x0c\xa8\x08\xf4\xaaho\xed\'\x05$&lt;{\xd6\xfe\x81\xe2\x8b\xfb\x07R\xd3c\x07\xaex\xafP\xf0\x8f\xc5\xff\x00\xb2\x85W\xba\x1d1\x92}\xab\xd1\xfc-\xf1b\x1b\xc5Pn\x14\x8f\xaf\xb5w\xda\x1f\x8c"\xbb\x84\x1d\xeb\x82:\x83[\xdaF\xa8\xaf2\x9f7\x83\x9f\xe5]~\x87\xaa\xc4\n\xa8\x93&amp;\xba\xbd.\xfb|ckf\xba\x9d\x1a\xe9\x84a\x98\x9cw\xae\x9fI\xb8\xde\x80\xa9\xfc\xeb\xa9\xd1oZ \xa4\xb1\xfa\xd7i\xa0\xea\x08\xf1.X\xe6\xbaK)\xb0\x80\x87\x15\xa1\x06\xa6\xa8\xbb\x0c\x98&gt;\xb5n\xdbWB7\ts\x8e\xc2\x9c\xf7\xaf ,\xc4\xe3\xd3\xbd@\xf2\xee9\x1b\xbf\x1ar$\xad\xc84\xeb\x81 \xc2\x92:Vm\xf5\xce\xcc\xa6\xeek\x1e\xfa\xec\x82y\xfc\x05e]\xbf\x9cJ\xf2\x01\xf5\xacmG\x11\xe7k\xf3X:\x95\xf3\xc6I\xdf\xd2\xb2\xff\x00\xb6\x9aI\xfc\xb0\xcd\xd6\xba_\x0f\xb3\xcc\xaaI\xae\xa6\xcb\xf7\x11\r\xc7\xf2\xabq\xdf\xc6\xa3\x04\x93\xf4\x15&lt;r\x99FT\xfe\x14\xac\xef\x1b\x00\xdd\xfb\xd6~\xb3q\xba&amp;\xd8\xc35\xc4\xf8\x8eP\xa5\xc3\x9c\x92\ry\x07\xc4\x16\x81\xd1\xc9A\x9e{W\x84|D\x01Q\x9a0\x06\x0f\xf5\xaf*\xd5u\xe9\xed.7+\x1cg\xa5lxS\xc6R\x06Ef\xef\xeb^\xa1\xe1/\x16)u\x9c\x91\x83\x803^\xa1\xe1\x9f\x19\xc2\xf1,;\xd7 s\x8a\xee4=r\x19\xa2V2\x82?Z\xe8-u8v\x05W\xe4\xf4\xab\x90\xdf\xab\r\xbb\x89\xcf\xa5]Vu\x8br\x93\x9fzkj\xado\xf2\xbb\x1c\xfa\xd6\xa6\x91\xacG"\x87\xdcN:\xd5\xbb\x9b\xf4U\xdd\x93\xedYW\xba\xaa+\x13\x93\xf8UV\xbe\xf3&gt;`N*\x96\xa2\xed\xb4\x9d\xddk\x98\xd5\xe7\xda\xec\x0bV"\x96\x92|\x03\xde\xbb/\x05\xd9\xc8\xe1NF+sW\xcc !\xfd+083\x00=\xea[\x93\x88\xc9&gt;\x95V\'\x0eJ\x8e\xf5r\x18\x8e2\xd8\xc5G4\xe26\xda3U\xe5\x97w4\xe8\xa4]\xb8\xc1\xab\x96\xd2\xaeq\x83K0;KU)\xdc\x1e\xc6\x9dl|\xd1\xb5A\xfci\xb7\x96\xee\xa0\xe4\x8ek&gt;x\xdcr;\x1a\xb1g+ \x00\xe6\xb4-\xe7\xdc@\xe6\xa62(\x19\xc1\xa57q\x08\x8a\x90j\xa4\xd7\x11\xee\xf9[\x9ab\xdd\x00s\xbe\x9d\xf6\xc5\xfe\xf5~]\xea\x16\xd3B7\x11\xf9UXZA $\x8f\xc6\xae\xc73\x04\xcb\xe3\x1d\xf1LgB\xdb\x94\x1f\xc6\xaf\xe9\xef\xd0\x11V\xa5e\x11\x9c\n\xa5$\xca\xad\xd0\xd4\xd1M\xbdq\x83S4\x0f\xb7&lt;r)\xf6Hc\x94o\x1dkf\xd0\xc5\xb2\xa5,\x80pMV\xb8BT\xb0\xa24,1\x8a\x96;Gb\x0e\x06*\xc4\xf6\xc7\xca\x081\x9a\xcf\x9a6\xdcTu\x06\xa0r\xeb\xc6\xe1DR\xb8\x90\x12\xc3\xf0\xad\xcb)\x11\xe2S\xdcU\x80\x85\x97!\x85\\\xb2s\x1e\x0e\xe3\x9a\xdc\xd3o\xca\x80\t5\xbf\xa5\xdd3\x15 \x9a\xdf\xb0\xbaq\x83\xba\xb5\xec\xf56\\\x02Mh\xdaj\x85\x98\r\xc6\xb6lg\x12(m\xdc\xd6\xbe\x9d)lz\n\xbax \x1e\xf5"\xc4@\xdeXq\xda\x89\xef\x1a\xd1\x0b\xef\x02\xb0\xf5?\x1a\xfd\x95\xca\xbc\xbc\x0e\xd9\xae\x0b\xc6_\x11$\x92V\x8e\x00s\xfau\xfa\xd75\xfd\xa3q\xa9L\x1d\xfa\x9fJ\xdd\xd04vr\xb363\x9e3]\x9e\x97\x02Z\xc4\x03\xaf=\x88\xa9\xaeu5W\x01I\x18\xefTg\xd7\x96\x16\xdc\\\xf1Q^x\xa5$\x84\xa8f\xe9\xed\xfe5\x8f.\xb6|\xc2|\xc3\xcdV\x9b\\9\xe2O\xce\x9b\x16\xb6\xfe`\xfd\xe7\xe4kR\xcbR\xf3\x00R\xc7&amp;\xa5\xbd\x91\xd9r_\x8fj\xc0\xd5b3\x06]\xe7\x9a\xe45\xa8\xc4S\x9c\x9c\x8e\xf5\x8br\x11\x9f TL\x83\x1f/Z\xa7wj\x92)\x0f\x83\x91\\w\x89\xb4H\xdd\x9c\x901^y\xe2/\x0c\x06\x95\xf6\xa6rk\x95\xd5t\x1f\xb1\xb1q\t\xc8\xe8{W?|\xa4\x16\xfd\xdfOj\xca\x9e\x12\xd2d\xa8\xc7\xb5A=\xb3l$/\x15\x07\xdb\xa4\xb5`\xa3 {WC\xe1\xbf\x1b\xdci\x9bs)\x00w5\xe9&gt;\x12\xf8\xc54(\x91\x9b\x95\xc7N\xb5\xea&gt;\x14\xf8\x9e\'\x80n\x95I\x18\xef^\x89\xe1o\x1aGpUZQ\xc0\xe4\x83\xed]\xf7\x87\xfcG\x11\n\xc2\x7f\xf3\x8a\xe8\xec\xfc\\\x10\x05\x13WO\xa0\xf8\xc1HL\xcd]\x96\x8b\xe2\x1f7\xe5\xf3\xc7\x1dy\xae\xcb@\xd7cTU2\x9a\xeb\xac\xf5\x98\xfc\x95\x7f;\x8cT\xd3kh\x89\x910$\xf4\x06\x99i\xe2a\x19?8\'=\x8d_\x8f\xc4\xec\xd1n\xdc\x7fJ\x92\x1f\x10\xb1`\xc4\x9c}\x05^\xb6\xf1\x00r\x17\x91\xeej[\xbdP\x10\x19\xa6\\w\xe6\xb0\xb5MR"\xc4\t\x86k\x03R\xd6\xe3\x84\x96\xf3\x87\x1e\xf5\x8f\x7f\xe2\xc8\xe3\x8d\x88\x9cdW7\xa9\xf8\xcdY\x9b\x13\x1e+\x03Q\xf1K\xcc\xe5\x03\x92\r7G\xbay\xeeVC\x9cg\xfaW\xa0\xf8bE\xf2\xd4\xd7V\x8a%\x80(a\xf9\xd4m\x1f\x96s\xba\xad\xdb\xdd\x88Sv\xee\x95\x1d\xfe\xb0\x19\t\x04\xf1X\xb7Z\x9f\x9d\x9eO\xe3\\\xa7\x8a\xae\xf2X\x00zW\x90x\xfawPw\x1e9\xaf\x0e\xf8\x81z\x98*A\xe75\xe4~"\x8c\xca\xe5T\xf4&lt;\xd4z\x14S$\xaaCc\x9e\xe6\xbd\x07\xc3:\x88\x82$V\x93$v\xcdw^\x1f\xf1\x0bG t\xe8zW\x7f\xe1\xaf\x1a4h\x88s\xf5\xae\xb2\xc3\xc6-6\xdex\xf6\xae\x9bF\xd6L\xa1d\xdc\x7f\x1a\xe8\x17V\x7f$s\xda\xb0|C\xaf\xcc$\xd8\xa4\x8fz\xd1\xf0\xa6\xb2\xf2\xc1\xcc\x9c\xd6\xcd\xd6\xa2\xde_\xde=+2\xe6\xeaWo\xbf\xf9\xd1\r\xc9R\x037\xe5Qj\x97\xcac\xd8\xa4\xe4\x8a\xe4\xb5\xab\x97\xf3\x1b\xe6\xaa\x9aT\xeb,\xc3 \xf5\xafG\xf0L\x00(\x04t\x19\xfd+G\xc4h\x00\x18\x15\x8c\x91?\x9c\x1f\x1cT\xb7`\x88\x8f\xd2\xaaZ\x8c\xc9\x8fj\xbc\x8e\xaa\xbbMU\xba\xe5\xf7\n\x88\xa9o\x94S\x91J\x8c\x1a\xb5np\xc0\xfb\xd4\xec7!=\xaa\xbc\xd0\x82\x0b\nl\x1bb\xceG\xe5K;\xac\xac\x08\x07\x1e\xf5Z{m\xc0\x9e)a\xb5f\x18\x18\xcdY\x8a\x16\x8b\x05\x88\xe3\xd2\x89\xa7]\xa5@9\xaa\xef&gt;\xf1\xe5\x9c\xf3U\xe4\x80\x1ewSE\xb8\'\x1b\xa9\xa6%\x07\x195\xf9\xcd\xaa\xdb@\xea@\x03\xf1\xac\x1b\xc8\xd5$\xda\x9e\xb4\xd8\xdd\xb1\xb4\x9ap\x198\xab\xd6\x8e\x14\x01\x9a\x9c1n7\n\xab9\xc3\xed\xa9\xec\x18;\x81\x83\xf8\xd6\xa1D\xf2\xc1"\x9aUH\xf9x&gt;\xf5j\xd9\xddS\x04\xd4\xe0\xb8\x1b\xd8\x8c{S\xb0\x1ds\xda\xa7\xb4\x89K\x8c\xd5\xf8\xed\xe3d\xc2\xe3&gt;\xf4\xeb\xabq\x1c{\xce8\x1d\xab&amp;hw\x96\xdb\x8f\xc6\xa8]\xc6\xe0\x95\x04f\xaa\xc7#\x07\xc9n\x95\xb3c6\xc8\x81-\xd7\xd2\xb4m\xe4\xdc7g\x8a\xb7\x03\xee\x01W\xadi\xd8,\x87\x15\xd0\xe9"E\nI\xad\xeb\x07|\x0c\xd6\x82&lt;\x812:\xd5\xab9\xa5\x0e\xa4\xe6\xba\r.\xe2GP\x83#\xeb]&amp;\x84K.\xd2y=\xea\xfd\xcc\xe9\t\x1b\x8fAT.5\xf8\xe1m\xaa\xcd\x9a\xc7\xf1\x17\x89&amp;\xfb;mc\x8c\x7fZ\xf3O\x12\xf8\x92\xfaK\x86Ug\xc5fAew\xaa\xb8\x93\x04\xf3\xde\xba\r\x1fF[Y\x13\xce\x8f\x9f\xfe\xb5t\xb6-\x0c(\x161\x83\xd8\x9e\x95%\xde\xb5$K\x85q\x90+"\xf7\xc4\x13\x06;\xa5\xe3\xebY\xf2j\x92\xcf.7\x92\x0faOc#/F\xc1\xa8\x8c\x12\x17\xdcs\x8al\x96n\xc7 \x1aj\xdaJ\x87r\x8eE_\xb1\x92h\x88-\xfaV\x81\xb9i\x00c\x9c\x0e\xb9\xac\xeb\xf9P\x12k\x91\xd7\xb3$\xc7h=k\n\xf3*\x0f\x15M\xaevu\x07\xf2\xa8\x8c\xa6W\xc0\xef\xebYz\xac(\xe1\x91\x87&amp;\xb9\x9dWE\x8ab\xdf\'\xe3\x8a\xe5&lt;O\xa0*\xa37^;\xd7\x13\xa8\xe8\x88w\xeeA\x8c\xff\x00Z\xcc\x93D\x81[p\x02\x98the\x1b\n\x8e}+7P\xf0\xe4#8\x8f\xf1\xc5c\xdd\xe9\x8f\x0b\xed\x1d=)\xb0\xea3X\xb8\n\x08\xc1\xed]O\x86\xfe$j6\xf2\x08\xd2L)#\xa9\xafW\xf0W\xc5YQ\x03&lt;\xe3$q\xcdz\x8f\x85\xfe)y\x96\xca\x04\xe3&gt;\xe6\xba\xfd#\xc7\xcd8]\xd3.\x0f\xbdu\xfe\x1d\xf1\xa23\xa0\xf3G^y\xae\xfb@\xf1\xcc\x11\xfc\xfej\xf28\xe6\xbb\x1d\x1b\xe2\x0c"5"U\xfc\xeb\xb0\xd1\xfc{\x1d\xc4J\xa6e\xc7~kB\x7f\x17\xc0T\x0f5G\xe3P\xda\xf8\xae\x06\x93o\x9c\xa3\xdf5\xb7\xa7k\x91M\x85\x17\x00\xd6\xad\xb6\xa9\x08`ZQ\x8a\xbf\x1e\xadk\x12\x89&lt;\xf5\xfc\xea\x9e\xa3\xe2\xdbTo\xf5\xab\x81\xd7\x9a\xe7\xf5_\x18\xd9\x968\x95s\xeek\x9a\xd5\xfccnw\x01"\xd7-\xab\xf8\xbb\xe7l0\xc7\xd6\xb9\xeb\x8f\x11&lt;\xce\xdc\xf1\x9eq\xd6\xa4\xb5w\xb9`\xe8NO\xadu&gt;\x1b\xb7e\xda$Z\xedty\x0cQ\xae?J\xe9l/\x94\xc6\t\'\x81\xcd,\xda\x84jrI\xfc*\xbc\xda\x99\xdav\x93T\xaeu69\x18j\xa4g\x90\x93\x9e\xf5\x95\xe2\x18\x8c\x90\xb3\x0e\xb8\xaf \xf8\x8d\x0c\x823\xc7\xaf5\xe0\x7f\x10\xd2D\xcb\x16\x1c\x13^_\xa9\xceV\xe3\xcdn\x84\x9e*\x085\x03\x1bq\xd3\xda\xb54\x9f\x100\x91QY\xba\xd7u\xe1\xedo6\xe1\x8b\x9c\xd7_\xa2ke\x95T9\xe6\xbb\x9f\x0e^n\x00\x97\xc9\x1e\xf5\xdexz\xf4\x98\xd5wWH\x97,\xd0\x80\x18}sY:\xc24\xb9f\x19\x03\xae*\xd7\x87\t\xb5\x1d\xfd\xabq\xae\x9a@\x08\'\x03\xaej\x19&lt;\xc69\x06\xa2i$S\x8a\xa1\xa9\xdd?-\xcf\x15\xcd\xea\xb2J\xce\xceO\x14\xcf\x0e\x87k\xb5$\x1cn\xafY\xf0\x84Ac\'\xd5j\xe6\xbb\x1e\xfc6F\x07Z\xcdX\x94\xb0\x02\x92\xfe1\xe4\x15\x1dH\xac\xe8CF\xe4\xe6\xa5\x1298\x06\x9f\xf2\x94\xc1\x1c\xd3\x19@\x19\x02\x9a\x06N*x\x98\x03\x83V\xa3*W\x04\xd2M\x18x\xca\xabs\xeej\xabF\xc9\xd6\x9bA\x00\xf0jD\x924\x18\xdah3)\x18\xc1\xa8$p\xcf\xb4\x03LX\x98H\x18\x8e\x05HT0\xc0R*&amp;P\xa7\x1c\xe6\xa2hX\x9c\xe4W\xe6u\xee\xa0\xc5\xc8\r\xf8UP\xad4\x81\xb3J\xc9\x83\x8ei\x84\xf3\xb4u\xa9a\x95\x94\x8c\xd4\xe9#\xe79\xa9\x12?3\xe6\xc75&gt;\x9f\x18\x12m\xef\xebZ.\xca#\x03=*&amp;\x90\x05\xe34\xe8n\x7f\x87\x9a\xb9\x133\xa63V#\x04\xa6*h\x9ba\xab1]\xa8 d\xd4\xf3K\xe7\xc7\x80{w\xaa+\x19\xdeA\xc1\x1e\xd5N\xf6&gt;I\x02\xb9\xeb\x99\x9d.\n\x83\xde\xb4mo\xc9\x88\x0c\x9a\xd5\xd3o\x832\x86\'\x15\xb7bT\x91!&lt;zV\xfe\x99\x00\x95C.?\x1a\xdf\xd3\xa2X\xd4n\xed\xe9[6F0\x07\x07\xf2\xad[[\x7f1C\x01\xc5h\xd9\xe9\xc5\xc8\xc2\x8a\xdc\xb2\xd3\x9e(\xc7\x038\xebZ\xdaA\xf2O\xccqT\xbcE\xa9\x94r\x89\'5\xca\xea\x1a\xad\xc7\x9d\xc3\xe7\x9e\xd5\x05\xfd\xcc\xf3\xdb\x1d\xcd\xd4w\xac\'\xd2\r\xd4\xa4\xb2\x8eOS[\xba\x0e\x9d\xa7Y\xc4&lt;\xe2\xa0\xe3\xafjn\xaf\xa9\xd9B\xdf\xb9\x91x\xac\xdf\xed\xe7v\xc4rq\xf5\xa9&gt;\xd1=\xc4y\'\x83T\xaf,\xe7\xdd\xdf\x9a\xb7\xa5i\x0e\xce\xaeF~\xb5\xd2\xdb\xe8\xf1\xb4\x01\x8c]\x05J\x9a\x12?\xdd\x8e\x89&lt;:YHX\xf9\xa8_\xc3\xed\x1f\xdf\x8cT\'Id\x7f\xba1U\xeem\xe4@Up+"\xfd$\x0cT\xb0\xfc\xeb\x1e\xfa\xc1\xa5\xc9\xdb\xcdcjZT\x846\x14g\xf1\xacK\xbb\x19\x03\x14\x00f\xaa\x8byA\xc8\xc7\x15\x05\xd5\x8c\xae\xa5\x8e*\xa4\xbaQ*K\xa0\xac\x0f\x13hbDm\xb1d\xe3\xa6+\xcf\xf5\xcd\x06\xe2)\x1f0\xf1\\\xc6\xa5g,R\x1c\xa6\x05SIB6\xe0FG\xad\x12I\x1c\xa0\xab\x80s\xe9Yw\xf6\x11\xb3\x17\x0b\xf8b\xb2.\xec#w+\xb6\xabGg\xf6V%9=\xabWM\xd7\xee,\n\xed\xe3\x1e\xf5\xd9xk\xc7\xf7P\x84\xdd(\xc7\xd6\xbd#\xc2^=.\x11\x9eQ\x8f\xaf\xb5z\x06\x83\xe3`\x11]e\x1c{\xd7Ai\xf1\x0euP\x91\xcc3\xf5\xae\x87C\xf8\x9d&lt;L\x82Y\xc6;\xf3]\xb6\x85\xf1f4\x8cm\xb8\xe7\xb7#\xfckX\xfcY2\x81\x9b\xa1\x8e\xfc\xd5\xdd#\xe2J\xccAY\xb2I\xf5\xae\xdb\xc3\xde6\xf3"V\xdf\xf9\x1ekn?\x19\x14\x03t\xc7\xf1\xe9M\xbb\xf1\xf9U\xc8\xb8\\\x0fz\xe75\x9f\x89\x18\xdc\xab6Onk\x98\xd4~#N\xf2\x14\x12\x1e}\xea\x9c\x9e(\xbb\xb9B\xc6A\x83\xd7\x07\x9a\xaf-\xdd\xc5\xd7\x01\xcf5&amp;\x9dau#g\xdf\xd6\xbb\x0f\x0fiNQK\x81]\x86\x91b\x91\xc6\x0e\xd1\x9a\xd5\xb6\x7f(\x81\xdb\xda\xaf\xc1{"\x8d\xaaM+\\L\xcd\x92\xdcS^g+S[\xc0g\x03+O\x9e\xc8D0Tf\xb2\xb5X&lt;\xd4dU\xed\xde\xbc\xe7\xc7\xda\t\x9a\xdd\xd4\xc5\x9c\x0eq_&lt;\xfcR\xf0\xf4\xb0\x96+\x16:\xf2k\xc3\xbcQ\x0c\xf6\xef\xd3\xf8\xbbV"\xde\xb6\xecsW4\xe9\xe4I\x03\x13]^\x87\xabJ\xa1Sq\xae\xcf\xc3\xba\x9c\x8c\xf1\x82\xdd\xeb\xd2&lt;-\xa9\x92\x03\x178#\xa5w\xfe\x1f\xd4wD\xa1I\xcdt\xd6wR\xca\xaaC~u\xa9mc\xf6\xa8\xf0\xf8\xe7\xd6\xadG\xa7\xf9+\xf2\xe3\xf0\xab0\xc6B\xfc\xd4\xf2\x8a\x079\xaa\xb7\x0c\x838\x06\xb3/\x93z\x93\xda\xb1\xefm\x0b\x02p1R\xf8r\xc8\x0b\x80H\xe8\xd5\xe9z\x08\xd9\x08u\xe8G\x15.\xab!&lt;\x13TQ\xd5X\x12i/$W\x8c\x91\xd8Vz),H\xa9R\x17?58\xc6Td\x91\xf4\xa6Hp\x84\x9a\x8bx&lt;\x0e&gt;\xb4\x07(w\x16\x1cU\x98\xaeF;\xd4\xf1H\x0b\x06c\xc5%\xce\xc2\x85\x96\xabRI\x9d\x87\x15\x11\xde\x06sI\xb9\x8fz\x9a\xd8\t\x0f\xb8\xf5\xab\x0bl\xcc26\xfe5\x0c\x8c\x8b\x90q\x91PJG-\x9ah\xe4f\xbf0\xaem\xb3+2\x83\x9fz\x92\xce\x07\xf3\x01a\xc6;\xfd)nv!\xe3\xf4\xaa\xc4\x1d\xd9\xa7)\xc1\xcdY\xb7ub\x01\x07\x9a\xd0\xb7\x88\x11\xc5,[Q\x8e\xde\xb4\xe7\x95\xf6\x9ei\x82Fc\x82jHFd\x02\xb5m"$d\xe3\x15tE\xfb\xa3\x81Q;\x15\xe3\x075\x18\xb9\xda\xe0\x10\x7f*\xb9\x0c\xae\xf1\xfc\xa0\xd4\xb6\x91\x17\x04\x91\xcdV\xd4\xad\x18\x03\x8cd\xd7%\xa9[K\x1d\xc9\x19\x19\xcf\xad,R:\xa6\xcc\xf3W\xf4\xfb\xa6W\\\xd7I\xa3\xdd\xef*\xack\xaf\xd1\xa6E\x88\x13[\xf6.\xae\xb9Z\xd7\xd3\xc6Xdq].\x8fn\x19T\xb2\xf1]\x1e\x99\xa7\xa3\x95\xc2\xe3\xebZ\xaf\x141\xc1\xc2\x9c\x81\xe9T\x9aC\x11?)\xc1\xf4\xac\xedR\xd1\xae\xc1x\xd4\xfe5\x95&gt;\x85"\xb8fNk3X\xb8\x86\xce6\xf3r\x02\x8eq\\\xb5\xdf\x8ellAo4c&lt;\x03\x8a\xcc\xb9\xf8\xa2\x93\x03\x1c2\x0ej\x9f\xfc$\xd3\xdf\xbf\xfa\xd1\x83\xe8y\xadM \xcaq!|\xfe5\xd5\xe8\xd1,\x91\x8d\xe2\xb6SK\xb7\x9d\x01\n?\x11V-\xacc\xb6`\xc1\x07\x15n\x1dJ1\xfb\xb0\xa6\xafZ\\\xab\x11\xc0\xc5j\xdb\x18\x1d2S\x9aI\xed\xa2\x91H(1T\xee4\xc8\x82\x17\n+*\xff\x00KWV\xf9k\x9e\xd4t\xa5Y\x0b\x01\xd2\xa1:lf\x12Y+/R\xd3#*\xca\xa9\x83\xef\\\xe6\xa3\xa5m\x90\xb6\xd1Y\xc7N\xd8\xf9`0Ojx\xd2\x84\x83\x18\x1f\x8d\x1f\xd8h\xdcmZ\xcd\xd5\xbc6\x92\x13\x88\xf3\xec\x075\xc8\xf8\x87\xc1,\xc5\x98\xc2\xd8&gt;\xd5\xe7\xde&amp;\xf0[\xa4\x8d\xb2&amp;\xfck\x8b\xbf\xd0&amp;\x82V_/\x1c\xf5\xaa\xa9\xa7\xba\xbe}*9\xed\t\xc8\xc5e\xdf\xda\x04%\xf08\xac\xb9^\x12\xe4b\xaa\xcf\x13\xb1%Xc\xd0\x1ej{+\xc9-\x88\nNG\xafJ\xea\xbc=\xe2\xd9m\x8a#0\xfc\rw\x9a\x07\x8d\xd9\xa2P\xb2\x8c\xfaWY\xa4\xf8\x86K\x88\xc6\\~\x07\x9a\xd0]f\xee6\x1bd=x\xc9\xe2\xb6\xf4\xbf\x15]E\x18\x05\xff\x00#Z\x96^-\xbawU/\xd7\xde\xba\xef\n\xf8\x86G*\x0b\x1eOj\xf4\x8f\x0e\xebo\x14\n\xe6V\x15\xb6|N\xcf\x18\x02S\xf4&amp;\xa9\xdf\xf8\x82@\x84g9\xf7\xaesU\xd5n$r\xc0\xfeF\xb3\xd1\xeen$\xdd\x92p{\xd7K\xa1i\x17\x171\xa8\xc6s\xda\xba\xcd/\xc2\x13\xaa\xac\x8f\rmi\xde\x16h\x86\xf6\x89\x7f\n\xe8t\x9d-a\x0b\x98\xf0&gt;\x95\xaa\x9e\\+\xf2\xa9\xa9\xa2F\x7f\x98\n\xbboo#\r\xc3\x15f+\t\x98\xe7#\x15 \xb1pr\xd8\xc5_\xb2\xb4D@\xc4\n\x92\xfe\xd9^&lt;\xa8\xe6\xa9\x9d \xcc:\x0ek\x9f\xf1o\x85C\xdb\xc8\xcc\x8a&gt;^\xddz\xfd+\xc0&gt;/xM&lt;\xa7\xda9\xc1\xc6k\xe6\x7f\x88z\x0b\xdbH\xccQp\x18\xf4\xfa\xd7\x9e]\xc7\xe4L\xc4\x8e\x05Mg{\x13\xfc\xaa\x18\x1fq]\x06\x95+&amp;\xd1\xba\xba\x8d\x03T\x01\xd5\x019\x15\xe8\x9e\x12\xd5\xf8C\x96\xc6k\xd2\xfc-t_o\xcd\xd0s\xf9Wq\xa1\xab&gt;\xd7$b\xba\x9d5PF\t\xab\xa8\x88\xfc\xf1\x8a\x8ai\x123\xd0\xd4ms\x19\x18\xc1\xaa\x973&amp;\t\xe6\xa9LC)\xe2\xab&lt;\x01\xfbq\xefV|=\x0cb\xe0)\x1d\xeb\xb8\xb2\x1eT\n\x83\xb8\xaa\xfa\xa4\xa5\xb9\x07\xa5P7$6\xdei\x1erT\x83\x9ad\x0e\xa2L0&lt;\xd5\xe8|\xb20EV\xbcb\t\nx\xaa\xe5\x89\xe0\x9ak\xb6\xd5&amp;\xa1k\x8c\x9d\x9c\xe4\xd4\x91LG\xcaM[\x8aV\xdb\xc1\xa2i\x18\xc6Fj\r\xed\xebOEv\xe7#\x14\xad\x1b\x11\x8c\x8ah\x85\xc7qR\xda!G\xc1#\x9a\xb6\\$g\x9e\xde\xb5\x9b&lt;\x84HFz\xd4yf\xe35*B\xc5A\x04W\xe6$\xb7L\xd2\x90\x05&gt;;\x96\x03i\x1f\x95T\xb9\xb9Q/ \xd1\x19\x12\x1c/\xebR&lt;\x0e\x83$\x8a\x9e\xd9\x08#$V\x84N\x163\xcf8\xaa\xe2c\xbc\xf3R\xc7\xbd\xcd=P\x83\x9a\x96\xdf\xfdp\xad\x9b\x0e\xd9\x15\xa7\x15\xbf\x99\x1e\x14c\xebP\\\xda\x18\xc1f\xc6\x07aUE\xb9i\x06\x05h\xd9\xdb\x85P\xcc\xbcV\x85\x8d\x98?\xc3\xd7\xa5E\xab\xd9aN\x00\xe9\xeb\\F\xbd\x0f\x97pr:U\x18\xc1g\x00U\xdbx_\x8cb\xb6\xb4\xa3"\x05\xe4WU\xa2\xdc\xb0UR\xd5\xd4\xe8\xf2\x99\n\xa0\xcf5\xd6\xe8\xd6\xe1\x91r\x9f\x8du\x9a-\xa0(\xbf/\xe9]-\x85\xa6!\xc8\xc6EL\xb03\xf0F}\xaa;\x8d.C\xd1:\xd5\xab\x1d\x04\x94\x0e\xca\xbcz\xd6W\x8aV\x1b\x18\xd8\x90\x06\x07j\xf1\xdf\x1dx\x90}\xa6Kx\xcf\\\x8c\x9e\x95\xe5^%\x9e\xf2W)\x1a\xee9\xfe\x13T\xf4\x9d7P\x9d\xf7&lt;d\x0c\xf3\xeb]\x87\x87\xb4\'\xdc\x8c\xff\x00\xe7\x8a\xedt} G\x10|\x0e;V\xf6\x9f\x0bD\x01\xc7\x02\xb6\xec$P\xa3 \xd4\xf3\xca\xa6#\xb5N~\x95\x9c\xcf"1\'5z\xca\xe2EPI5\xafc{\xb5AbqV\xe3\xbcG\xc1\xc9\xa9U\xd2A\xcfJ\x8e\xe6\xda=\xa4\x91\xd6\xb1\xb5\r&gt;9$8Q\xf8\xd6}\xc6\x9e\xca\x0f\xcb\x91\xedY\xb7\x9ak08Z\xe7\xf5M)\xf7\x93\xb4V\\\xb6\x07\xcc\xd8V\x9f\x1d\x8e8\xc74=\xb8N\xc6\xa3\xfb\x00\xb8RT`\xfa\x9a\xad}\xe1\xe5\x9d\tu\xc8\xef\xc5q\xbe(\xf0d`\xbc\xbb\t\x18\xe8\x05y\x87\x8a|4\xb6\xee\xf2\xf9g\x04\xf1\x91\\\x85\xc6\x9d\xb2f\xc2\x81U\'\xb3\x00\xe7\x02\xb2\xb5\x1b4ud+\xd6\xb0\xa6\xd2cY\x0eE"\xe9\x90\x83\x91\xf9U;\xebP\x99 `}j\xa2_}\x9aa\xb3w\x07\xbfJ\xe84/\x11\xdcB\xc8\xc3\x00\x0f\x7fj\xee4/\x19:\xc4\xa1\x9c\x0f\xa7Z\xe9\xec\xbcJ\xb7\x8a\xb8\x92\xb5m\xb5S\xe5q/\xebWl5\xbf\xde\x86\xf33\x8a\xec\xfc%\xae\x98\xd9\x1by\xff\x00"\xbb\xdd+\xc6.#TW\'\xd8\xd6\xac&gt;)\x9eT\xc7\x18\xf6&lt;\xd5\xff\x00\xb7\xcdq\x10 \x9e\x9d\xe9\xc9g&lt;\xc3v\x01\xf6\xefZ\xfa7\x87\xe4\x90\x02\xf0\xf5=k\xbd\xf0\xbf\x87vD\x8f\xb5F;\xd7k\xa6\xe9J\xb1\xa8#&lt;t\xab\x7fb1\r\xdb\x06\x07\xa0\xa6\x99\x84\x7f.\xc3\x8faO\x8b\xf7\xac\x14\x03\xcf\xadjX\xdan\x01x\xe7\xd6\xb5\xad,\x86\x02`sW\x12\xcdTs\x8arZ+0\x1f\xce\x95\xe3\xf2\x87\xb7\xb5#M\x19#vqV!\x10\xf9{\x94\x80G\xada\xf8\xba\xfa$\xb5\x91\x19\x87\xdd\xed\xf5\xaf\x9f\xfe+j0\xbe\xf1\x8e9\xcek\xe7\x0f\x880\x0b\xb9\x18(\x18,k\xca&lt;I\xa7I\x0c\xee\x81G&gt;\x95\xce\xc5p\xf0]\x049\xeb\xda\xba\xfd\x1e]\xd6\xca\xdd\xf1[\x9a;\xba\xca\xbe\xfd\xeb\xbc\xf0\xa4\xf2\xc4\xab\xb8\x9e\xbd\xab\xd5&lt;\x1dp\xc5D\x99\xe0\x8e\x05z7\x87\xa7\xda\x89\xbc\x1ek}o\x19"\xc2\x9e\xb5\xa7\xa5\xdc\x19T\x06\xcdG\xa8L\x17 \x03\x9a\xa8\xd7$\x0esP\xc9!sJ\xb0\xb3\x0c\x9e\x94\xc9\x91U\x08\xc78\xa4\xf0\xfc\xaa\xd7\xa1@?z\xbb}\xdeU\xb21\xf4\xedY\xf7S\x17j\xa8\xdf\xebi\xad"\xfd\xdan\xf0\xbf6j\xc5\xbd\xc8\xf5\xa8\xa7r\xd2u\xa6\xd3e\x19C\x8a\xaa\xe1\x83\xf1B\xb3\x86\xc95j)\x18&amp;I\xa7\xfc\xec\xb9\xa0)\'\xa5O\x14ggQJP\x81\x9aJ7l\xf9\x87jG\x9c\x95"\xa8\xc9!2\xee=\x07Z\x92?\x98\xe4U\x98\xc6\x17\x9a\xfc\xbbe"\xe3\x9e\xf4I"\xa0&lt;\xd5\t\xdc\xf9\xbb\xbbU\xbb3\xb8\x82\x01\xabW\x1c($S\xa1`\xfc\x0e3\xebS\x89\n!\x05\xaa+fg\x9f\x9e\x99\xad%\x8bjt\xebJ\x90\xb3\xa9`G\x1e\xb4\xfbx$\xf3\x97\x8a\xda\xd3!b\xea\x08\xad\xdbKbc\xe3\x14\xcb\x9bF\xdaA\x15\nY\r\xd9*+B\xd6\xd1Z=\xa1kF\xce\xda4\x006*\rf\x04x\x19\x90t\xae\x07\xc46\xc5\xae\x8a\x81\x8ek24T\x93sg\x8e\xb5\xa3g\n\xb8\x0e1Z\x90FU\x02\x81\xc9\xe8kcIgR\xa0\x9a\xed&lt;4\xc8\xca\xacOJ\xf4/\rC\x04\xb1*\x81\xc9\xae\xd7I\xd3\x95b_\x94V\xb5\xb5\xb3\xa0\x03o\x1e\xd5wK\xd3^y\xc6@\xc6{\xd7A\xff\x00\x08\xe2\xb5\xb0o(g\x8e\xd4\xd9\xf4\x9f\xb2[\x9c\xa0\x1cv\xaf)\xf8\xa3{*G/\x93\x9eG\x1f\x9dxM\xe5\xbe\xa1\xaa\xeb.\x92! \xb9\x15\xd6x\x7f\xe1M\xa5\xfa\x06\xba\x84\x13\x8c\x9fZ\xb9}\xf0\xcfJ\xd3\x0f\x99\x0c\'\x8fQU\x97I\xb6\xb3q\x84\x18\x15\xa3\xa7\xcbl\x06\xdc\x1f\xc4V\xdd\x8a\xc0\xe89\x1f\x8d\\\x8a\x1d\xa4\x14u\xc7\xa5N\x96\xe5\xb9$\x11\xe9M\x96\xc8`\xbe\x06=3D1\x85q\x91\xc7z\x9d\x99\xb6\xedC\xf9\xd4\x96\xf3\xba\xb8\xdcj\xfd\xb5\xc0,\x075m\xd8:gi\xc0\x1e\x95B\xe2\x16g\xf9c4\xa9\xa7,\x8b\xb5\xa3\xeb\xdc\xd4\x17zDaI*+\x0bS\xd1\x94\x92\xc1\x01\xacK\xbd%RM\xfe^1\xdf\x15\x11\xd3\xc6\xd2F*\xac\xf6\x00\x12x\xe2\x8b\x1b N0:\xd6\xac:M\xbc\x90\x9d\xca?\x1a\xc3\xf1?\x86\xe2\x966TA\xc8\xe3\x15\xe4\x9e9\xf0m\xda\xb9\x0b\x018\xc9\xe9^e\xadxz\xf6\'g\xfb1\x03=\xc5a\xcfh\xf1\xb1\x12D@\x1dk:\xf6\xd0\x10\xcc\x16\xb1\xaf\xed\x82\x12\xdb\x0f\x15\x91y+\xc6\xc4\xc6\xa7\xf1\xac\xcb\xa9n\xa5b\x1b\x184\xc4\xb2\x0f\xf3H8\xefV-\xe3\x89\x08PH\xa9\xc6\xa1q\x01\xc42\x9e:s[z\'\x89/\xa3P\xc2S\xc5oY\xf8\xabP\x91B\x12\xc7&gt;\x95\xbf\xa1j\x97\x8eAp\xdc\xf7\xae\xef\xc2\xf7\xf3e7\xb1#\xd0}+\xbb\xd0\xd6yUdUb=+\xb9\xf0\xcf\x87\xee\xef\x1dW\xc9oS\x91]\xf6\x99\xe0\xa9\x9a\xd9K[\xf6\xad[/\x078!~\xceG\xd0WQ\xa1xA\x94+4|z\x1a\xeb\xb4\x8f\x0f\x94\x88\x00\xaa+z\xda\xc24\x8c\x0c\x0e\x05:{41\x11\x81T.,s\x90\x00\xa7Z\xd8H\x8c\x19\x96\xb6, \xd8\x03\xb68\xedZp*\x85\xde*x\x86\xe2\x0e8\xa9\xd6&gt;7\x8c\xf1U.\'\x8c\x82\xbc\xf1Y\xd73\xb2\x12\xf9\xe0v\xaa\xd2\xebF4 9\x1cW\x07\xe3\xff\x00\x16\xcb\x1cN\xc9+r8\xcd|\xff\x00\xf1\x07\xc6f\xe9\x9e&amp;\x98\xf7\xcek\xcc\xb5\x0b\x88\xefd9m\xd8\'5\xca\xf8\xa7D]\xaf\'\x962zW\x9d\xdfir\xae\xa60\xa3\xefW_\xe1\xfd1\xe4\x864`0Ev~\x1f\xf0\xec\x12:\x02\x9c\xfa\xfe\x15\xddh^\x1e\x80D\xa0\'&gt;\xb5\xde\xf8SIh\xc4a\x17\xf3\xafC\xd0\xec\x19\xa2]\xc3\x81\xd7\x15\xb4\xb6JT\x15\x07#\xd6\xb4\xec\x10C\x1e\xe3\xdb\xd2\xaaj\r\xb9\x8e\x01\xebU\x82\x92y\x06\x97b\xfa\xd4\xf1"\xed\xa8/\x02\xaclG\xa5U\xf0\xf7\xcb\xa8\x0c\xff\x00z\xbb\x89\xd8\x0bD\xcf\xa0\xac\xe9\xbe\xf5Bbf}\xc0\x8a\x82x\xe4\x19\xdb\xd6\xab\xb9\x94|\xa4S\x84\x8e\xa9SBK\x8ei\xfb\x0f\xa8\xa1\x97h\xcbt\xf6\xa8&amp;PAe\x15\x12\xa31\xc6?:\xb1\x0e\x17\x86\xab\x96\xaa\x8e\xc1q\xd7\xd6\xac\x1bU\xc7\x05j\xb4\xa1\xa2|\x03Q&lt;\xec~C\x9ei\xbb\xdb\xd6\x95X\xe7\x93J\xcc0y\xaar+\x06&lt;u5j\xd2\x16#\'\x18\xf7\xab\x8a\x11F1_\x96\xda\x9e"\xdd\xb7\xa8\xe9\xf9\xd6d\x93\xc9\xbf\x93S[l\x95\x82\x91\xc9\xad+t\x89\x13\xa7\xe5RN\xd1\xba`)\xaa\xac\xec\x8f\xf2\x9aU\x96W;wu\xabzn\xd0\xc0\xb0\xad)&amp;\x84 P\x0eil\xe4B\xa5y\xadKH\xe0`&gt;^k_O\x861\x8cb\xb7\xb4\xd8\x14\x00\xec8\xf6\xabS\xe9\xf1\xb2\xee\n1Y\xf2\xd9\xed\x9c\r\xbcV\x95\xb6\x9c\xc2 B\x8ei\xb2Y\xdc\x83\x84\x02\x9ct\xeb\x86\x84\xf9\xa8\x08\xc75\xc8\xf8\xa7Hh]\xa5(0+\x8d\xba\xde\xb3\x94\x1csZ\x1aD\xeb\x91\xbc\xf0:\xd6\xdcRB\xea\n\x1e\x95\xaf\xa6\xdb\xcaP:\x8c\xfbWK\xa0\xdb_\x82\xa0`\x02{\xe6\xbd;\xc0\xb6\xd7%\x91d\xc1\xdb\xd7\xf2\xafI\xd2m\xb0\x88Xq]\r\x8d\x9c\r\x0eJ\xe4\xfd+_C\xd2\xe3i\x01\t\xfaWq\xa6hv\xefj\xbb\xa3\x1d+\x0f\xc6\x1aZ\xdb\xa3\xa4j9^+\xc3\xfc}\xa4\xcbqr\xd1\x04\x07\x04\xe4z\xd7\x1fk\xe0T\x17~y\xb7\x1f{9\x1dk\xa1\xb6\xd1\xa6\xb3;\xe2V\x03\x1cV7\x8an\x9a\xdb)+\x90H\xeazW\x05\xac\xf8\x9e8\xa4%d\xcfa\x8a\xcd\xb7\xf1l\x82\\\xac\xbcf\xb7t\xbf\x1a\xf9\x05L\xd2\xf1\xde\xba=7\xc7\xdaPPe\x9d=\xc6y\xadh|k\xa4\xcf\x16"\x91rzt\xa8\x9f\xc4q&lt;\x9f$\xa0\x8fJ\x955u,78\xc1\xa7\xff\x00jC\xdd\xe9\xc9\xaa\xdb\xef\x19\x97\xf5\xab6\xfa\xd5\xaa\xb0\x0b7=\xaa\xf4\x1a\xe4g\x01\xa6Z\xb9\x0e\xabh\xf8\x05\x86j\xccw\xd6\xac\x9bw\n\x8a\xf0\xc4c![9\xe8\x05c\xea\n\xb1e\x9f\x02\xb0\xaf\xaf\xed]\xca0\xac\xeb\x89#\'r\x1e=\x05A$l\xc0\xbe\xde=*K\x18\x82\xbf#\xad]\x0b!\xf9#\x15c\xfb(] \xf3\x00\xf75\x9f\xaex\x12\xc2\xf2\x06w^q\xe9^Y\xe3\xff\x00\x87\xd6\x90\xc4Z\x08O\x19\xed^?\xe2\xaf\x0c\xcbi#:\xc4\xd8\'\x81\x8a\xe5\xef-\x16\x1c\x89\x10\x8a\xc8\xbe\xb7\xb7\x90\x94U\xe4\xd6=\xf6\x9a\xa4\x91\xb4V|\xfaljI U+\x88Te\x13\x15\x0cq\x16l\x01\x9cu\x02\xaf\xd9h\xcd9\x07\xcbn}Etz\x17\x83\xaef\x01R\x02s\xde\xba\x8d/\xc1\xe6&lt;+\xdb\x10}H\xe2\xba}#\xc3Jc\n"\xe7=\xab\xac\xf0\xe7\x84n\xa5\x95R\x18\x08\xc1\xf4\xafX\xf0/\xc3\xdb\xd7\x11\x99"c\x8e\xbdk\xda|\x11\xe0\x18\xe1U\x9ah\xf0\x08\xf4\xafB\xd3|-\xa7=\xb8\x89T\xe7\xdcV\x8d\xbf\x82\xa0\x0c\x00\x1c\x9e\x9cV\xad\x9f\x85\x92\x05\x07o\x03\xda\xac\x1b8\xadc9\x00b\xaa\xc9s\x18\x93`jT\x93\xce\x18F\xabv\xdaT\x93\x8d\xfbA\xad\x08\xf4\xfbx\xed\xc8u\x1b\x85U\x96\xdeE|G\x8cU\xcb%~\x15\xc7\x15u\x1e$\x1f05e\x82\x0brT\x8e\x95\x83t\x935\xc1\xd8F3\xd2\xaa\xde\xdb\\\x05*q\xcdsZ\xd4\xf3\xc1\xbds\x8e\ryg\xc4=JCl\xe4\xb1#\x07\x81_&lt;\xf8\xd55\x1b\x8b\xe7Xr@cY\xba\x06\x85\xa8\xcc\xe5\xa4\x84\xf5\xefW5\xef\x0eK\xe4a\xe1\xc9\xc5p:\x97\x85f7\xf9X?\x8a\xbao\x0f\xf8rc\n(\x83\x9fq]\x96\x85\xe1\xcb\xa5\n\xdeO\xe5]\xff\x00\x85\xfc;)\x8d\x19\xe1\xc5w\xbe\x1d\xd0\xa3@\xb9\x8c\x7f\x91]v\x93\xa6mP\x00\\V\x9a\xe9\xacc\xc2\xa8\xa4\x16\xd3#\x05\xc0\xc5=t\xd6\x94\xe4\x81\xf8\x9a\x86\xee\xd6(Q\x86\xde}\xab.T\x91\xdf\x088\x14\xf4\xf3\x15y\xaa\xb73\xee&amp;&lt;\x1eE&amp;\x89o/\xdb\x14\x8cu\xeb]t\xce\xcdh\xb8n\x80u\xac\xfb\x86d\x05\xc9\xfc\xa9\xb0H]\x87_\xc6\xae\xc5\x0cl\xbf0\xa8\xeem"C\xc8\xac\xfb\xa8\x19Ia\x8c\x0e\xd4\xe8\x18(\xc95aF\xe1\x90h1\x921\x9ak\xc1\x9594\xc1\n\xa1\xdd\xe9\xe9O\x11ew-KlJ\xb8\x18?\xe4U\x92\xcd\x8e\rG"\x8d\xa5\x9a\xab\xcc\x83\x05\x85EA\xce8\xa4Urq\x9a\xb1\x1d\x98a\x922i\xe2\xdeE\x1f(\x02\x97\xca\x9f\xfb\xcb\xf9\x9a\xfc\xb8\xd5\x86Y\x87\xf9\xebYm\x139,\x08\xe3\xd6\xa5\xb6R\xae\x06G\xf9\x15v9\x88\xe3p\xa7\xf9\xde\xa6\x98\xc7{qJ\x8aU\x83\x1a\x9e\xda`\x9f.\x0esVe\xb9\xc0\x07\x9e)\xf6\x97\x05z\xe6\xb5\xec.\x0e\x07Z\xdb\xd2\xe7\r"\x8ek\xa9\xd2\x97t`\xf6\xado-\n\x0c\x8e\xd5[\xeck5\xd2\x80\xa3\x9a\xde\xb2\xd2W\xcbRTc\x14]\xe9\xf1@\xd9\xda3\xda\xa2\x95P\xdb\xb2\x003\xff\x00\xd7\xaeC\xc5P\x89\x03\xa9Q\x8cs\x8a\xf3\x8db\x11\x1d\xdb\x15\\\x0c\xd5[YY\\\x82N=\xabwI\x06G@\t\xfck\xbd\xf0\xc5\x8e\xf8U\xce\xdf\xc6\xbbm\x0e\xc5\x00B\xca\xb8\xcfj\xf4_\x06\xd9\xc3\x83\xb59\xc0\xea+\xbe\xd2l\x04\xa8\x88#&lt;\xd7O\xa4x~VPV?\xce\xbaM\x03B\x94J\x15\xa2\xef\xd6\xba\xcbM&gt;D\x88*\xa8\xe3\xaddx\xbfM\xdd\x19%9\xc5y\'\x89\xf4\x05\x96\xf1\xc9A\xd7\xb5fZ\xf8H\x17\xe3\xb9\xab\xd2xT\xa4|FI\xc6q\x8a\xf2\xdf\x8bz]\xc5\xba\xc8\xe9\x0e\x06\x0e+\xe6\x7f\x88&gt;8\x9bA\xbah\xe4 \x05c\x9a\xe4m\xfe7Z\x89\x8cm?9\xf6\xff\x00\x1a\xd0\x93\xe3"\xcb\x10\tr\xb8#\xd6\x9d\x07\xc5\t%`\xc9vs\xd8f\xba}\x17\xe2d\xd0\xc4\xacn\x86~\xb5\xafg\xf1\x86(\xc8i.\x07\xca}Ek[|h\xb5b\xad\xf6\x95\xc0\xeb\xcd\\\x8f\xe2\xe5\xb4\xeb\xc5\xd2`\xfb\xd0\xff\x00\x15-\xd5K\t\xc1\xf6\xa6\xc7\xf1^2\xe0\t@\xab\xd6_\x14\xb7\xe1\x84\xeb\x81\xef[\xfao\xc4x\xde0\xc6U\xfc\xebF\x0f\x89p\x06\ne\x15\xb1o\xe3\xdbI\x95CH0G\xa8\xff\x00\x1a\xce\xf1\x17\x8ba\x91\x0f\x97?\x04W\x1f{\xe2\x81\xe6\xb6%c\xcfj\xb1e\xaf\xa3 \x91\x9c\xfe5}u\xb8\x9d6y\x80dw\xaa\xdf\xf0\x91\xa4R\xe4L\x0e\x0fAZ6\x1e%\x81\xf1\x969\xfc+V\xdb\xc4\x96\xe5B\x17\xc7\xb9\xa9\xe5\xd7\xad\xe7_-e\x07\x8a\xc0\xf1\r\x95\xbe\xa1\x01F\x03\xa7$W\x98x\xd7\xc0\xab2\xb0E\xcf~\x05yO\x8a\xfc\x15s\x13\xb3G\x1b`\xfa\xd7\x1dw\xa4K\x14\xe7(r\xa7\xbdD\xda+\\!\xca\x8eER\xb9\xf0\xf7%Dy&gt;\xd5\x97y\xe1\xa9\x19\xf6\xa4\x07&gt;\xb5oD\xf0-\xc5\xc3\x82a\xe0\x9e\xd9\xafA\xf0\xbf\xc2+\x8b\xad\xaamX\x81\xd4\x81^\x97\xe1\x7f\x83\x8f\x05\xba\xe6\xd7\xb7\xa7\xb7\xd2\xb4\xdb\xe1D\xef\'\x94\xb6\xa7\x9e\xe0V\xcf\x87\xbe\x0c^\xb3\xa9[f\xeb\xdc\x1f\xf0\xafW\xf0\x07\xc17R\xb2Ki\xc9\xe9\xc1\xff\x00\n\xf5\xaf\r|.\xb7\xb2P\xcf\x06\x01\x1e\x95\xd4Zxe-\x10\x18\xfa(\xe9Z\x9aN\x9a\xe6u!F\x07Q\xf8WUg\xa7B\x91\xac\x861\x90;\x8aY\xe3D\xc9 c\xbe+\x1fRA)(\x80\xe0\x9fJ\xc8\xb8\xd3&amp;y&gt;X\xcej\xfe\x93\xa3L\xb8\xde\x87&gt;\xa7\xa5u\x1a]\x9cQA\x82\xa3w\xadR\xbf\xb6&amp;\xe7*E5`U_\x9cf\xa5\x83\xc9\x04.\xd3\x9f\xa5Er\xacN;g\xa0\xab\xb1[\xb7\x90\x1cg\x81\xd0\xd6%\xe5\xdcv\xb7\x05\x9c\xe3\x06\xa8j&gt;#\xb3(@\x93\x18\x15\xc7\xf8\x97W\x8eU\x90\xab\x821^S\xe39\xdaf0\x80[\x9e@\xaeF\x1f\x04\xb6\xa7r\\\xdb}\xe3\xe9\xcdt\x1a\x7f\xc2\x82\xb0\x82\xb0c=x\xac\x8f\x15\xf8\x00\xdb\x83\x88[\xe5\x1e\x95\xe7\xba\x87\x84\xf6\xdf\x90`~\xbe\x95\xd1xs\xc2i\xe5\xa91\xb0\xfa\x8a\xee&lt;?\xe1\x08\xd8)#\x8f\xfe\xb5vzG\x86b\xb6E$g\xd8V\xe5\xa5\x92B\x9c&amp;+kK\xd9\xc2\xe0\xe6\xba-:\xd2)#\x01\x87ZK\xfb\x18c\x04m\xe7\xb5@\xd1\xc6\x90\x9cu\xac\x8b\xcc;\x10)-t\xe0T\xb3(\xe6\xa0\xd4l\x1e\x10H\xc5d\x1bI$\xb8\x04c\xafL\xd6\xc6\x9d\xa4\xbd\xba\t\x1c.OB*\xd3N~\xef8\x1dEC9\x12)\x18\xa5\x8a0\xab\x9cU\xc8\x8e\x13&amp;\x9bs\xfb\xceW\xf5\xaasDI\xc1\xc5V\x942s\x9e=\xaakg9\x1958pN(a\x91\x8ak\xa1\xday\x15$\x11\x9c\x00qRm\x11\xfc\xe4\x0e=(\xf3\xd3\xd0\xd2&lt;\xaa\xcaT\x03L\x0b\xbc\xed\xf5\xa5\xfb1\xf6\xfc\xe8\xfb1\xf6\xfc\xe9V\xdf\r\x93\x8a\x99Yc\\\x81\xcd!\xb8f\x18a\xc5&amp;\xf1\xe8k\xf2\xd7T\xe4\xb3\x8e\x9f\xfdz\xcfE \x10GSI\xb8\xa3q\xd6\x9e\xb3\xb2\x1d\xcd\xd0zT\xa9&gt;\xe3\xde\xa5NNi\xf4\xe8Fd\x02\xac\xcf\x19\x0b\xd4S\xec\xfes\x81\xfa\xd6\xc5\x826\x05mh\xe0\xb4\xaa1\xd0\xff\x00J\xeb\xb4\x8f\xf5akM\xa7]\x81@9\x15sL\xb6YfW\xc0\xeb]=\xad\x900\x8d\xa0g\x15OX\xb7e\x18\xdbX\x17\xb2\xc9\x13\x9c\xa9\xc7\xb5bj\xd1\x19\xd5\x8e\xd3\xcdp\x9e"\xd3]%w V-\xacA\xa5(\x06\x0e{\xd6\xee\x95\x1a\xc6T\x923\x9e\xd5\xe8\x1e\x14\x1b\xad\xd0\x03]\xb6\x83\xca\xaf\xcaH\x04f\xbd3\xc16\xa4\xbf\xdd\xe0\xe2\xbdK\xc3\x9aR2\xa2\x15\xe4\x0e\xa3\xe9]\xce\x81\xa1\xae\x15\x8b\x1c\x0f\xf0\xae\x93I\xd1c\x8a@\xc4\x13\xf8WCg\xa3\xa3\xc5\xc2\n\xc7\xf1^\x95\x1b)@\x83\xa5yw\x88th\xc5\xe3\x96Q\x8c\xd5K]:\x01\x87D\x19\x1e\xb5=\xdd\xa0X\xb2\xa83\x8e\xd5\xc2\xf8\xf7\xc0\x03Y\x</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Sundar pichai.jpgSundar Pichai</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x01\x02\x01\x02\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xb5\x1c~\xd5&lt;q\xf1\xd2\xa5H\xbf\xfdUb\x0bv\x91\xc4j\xb9$\xe0\x0fS_\x17\xfe\xd3\x9f\xb4\x87\x86\xbe-\xf8\xfa\xe6/\x0b\xdd\xbc\xba\x17\x84a\x9a\x0b{\x80\xfb\x04\xd3n\xdb,\xe9\xceHwP\x80\xe3;bS\xdc\xd7%s\xe0I\xfe\x16\xfc.\xb5\xf1\x87\x8b.\xed\xa1\xd6|\\\xe1"\x8aH\xfc\xdb\x9b{l\x16\x92m\xa7\xee\x9d\xb8\x00\xf7\xcdy\x042\xddx\xb2\xfe\xe7T\xf0\xcd\x8c\xc3MG6\xf1^N3+.\xdc\x95\x04\x9c\x13\xb4d\x80@\x02\xb2t\x19|\x8dy\xad\xb4}\x12\xde(\xe1\xff\x00V\xa8\xe7q|s$\x87\xd7\x8e\x00\xfdk\xbb\xf0\xff\x00\xc3\xbf\x15\xdc\xc2\xda\xc4\xba5\xa4\xb7\x17\xc6F[\xcdv\xec\x04\x85T\x0c\x95V&lt;\x0ct\xc9\xe6\xb9\xaf\x18i\xd0\xf8x\xc9o`\xban\xa9%\xbb#5\xfd\xb9/m\x19&lt;\x9cI\x80\xbb\x87L\x0c\xfdj\x87\x85|G\xe2?\x12x\x82+\x084=?Whc|\xc7\x0c\xe8\xcf/\x07\x8c\x11\x8fm\xb5\xd7\xb6\x81\x16\xa7a\x9bo\x02\xdd\xe87\xf1\x1f\xde\x15\xb7_-\x8e8\x05\x1b\x809\xc7=k\x98\xd6&lt;9\xaeZN\xba\xad\x85\x84\xfaE\xcd\xb1\x06[\xad6\xe0,\'\x8e\xaf\x08;q\xd7\xa5U\xd5\xf5\rc\xc5\x16\x0b\x16\xa7ckx\xd1\'\xcb7\x93\x89\x1f\x8eX0\xc1\xc1\x1d\xbbV\x1c\x1f\xd90[\x1d?G\xd2\xe3\x8d\xa5\xc4r\x89\xb4\xe52\xf3\xf2\x9d\xacrw\x0c\xe7\xa5u\xd6\x9f\x05&lt;I\xe2KD\x827\xfb5\xa4*\xae\xce\xef\x19\x96D\x1d0B\x8c\x9fj\xa3\xe3?\xf8V\xba\r\x8c\xd6\xfa&lt;\xba\xf4\x97%|\xab\xc9n\xe7]\xa0\xe3\xa6Nv\x8c\x81\xc0\xe7\x8a\xe1o\xbcCh\xb3Gqih\xcb \\\xca\xc6@w6{\x1e\xc2\xab\xdex\x93S\xd4\x18\xf9p\x98\xc1\xe9\xb4\x8c\x0f~\x95%\xa5\xee\xa2\x9f5\xc4kx\x00\xe5nHl\x93\xe8\x0fN\xf5\xa1\x05\xf6\x83-\xa2Z\xea\xa6{w\x8f\xe6_&gt;=\xf1\xb1\xee\x03\x01\xbd~\xa7p\xf6\xaa\xf7z\x87\xf6db]3S\xf3m\xc1\xd8\x04\x8b\x96\xe7\xf8H$\x83\xf4\x185F{\x04\xb8\x91\xee4\xa6\xb7\x90u\xdcwF}\xfeRq\xf8U?\xf8G\xf5\x1f,\xb1\x9a\x13q;\x15\x86%l\xb1\xc9\xc08\xe9\x9es[\xfe\x1c\x9e\xce\xf7\xc7\xf0\xc5&lt;\xf8I\xe313\xa8\xfb\xcf\x1a\x81\xfc\xd6\xba\xdf\x89W\x0b\xe2\x9b\x88\xe5\xd3\xb4[H\xaf \xb1\x13\xccb@\xbfi\x8f\xbb+\x8e\\\x8e\xe3\xda\x93\xe0O\xc6\xbd[\xe0\xbf\x8ft\xef\x1d\xe8wO\x0bY\xdc,wa\xb9Y\xe0\xe8\xf10\xf4a\xdf\xb1\x00\xf6\xaf\xd5o\tx\x9bH\xf1\xc7\x85\xec&lt;_\xa0\xdc\tl\xf5\x1bT\x9e\xdd\xc1\xcf\xca\xc38\xfa\x8e\x9f\x85[x\xf8\xce*\x19#&gt;\x95\x04\x91\xf3P\xbc@\xd4[\x1b\xd2\xb6R?j\x9e8\xf9\xe9SE\x0fJ\xf2\xef\xdb#\xe2\xcc\xbf\t~\rH\xbae\xf8\xb7\xd4\xb5\xf9d\xb1\xb5\x91H\x0f\x0c\x02&lt;\xdcJ\xb9\xfe \xac\x88=\x0c\xbb\x87+_\x0bh\x03J\xf8[+k\x9e,\xb3+4\x89\x1c\xf6\x1a\x0c\x96\xfb\x9a\xe0u\x8dd\xc7!X\xfex\xae\x8a8u\x1f\x8aWz\x97\x8b\xbe#j\xb7\x16R\xb5\xba6\xa2$}\xbbX\x82\xd1X\xc3\x93\xf2\xae\xd0\xdb\xb1\xce\x00\x15c\xc4:\xa7\x87\xb4\xbf\x856Z\x0cr\xdb\xd9\xc1\x14El\x12+p\x1a"\xce^g$}\xf08L\x9eMy\x1d\xdd\xf5\xe5\xd5\x82\xe9\xda5\x8f\x91h\x92\x89\xf7\xee\xc3N\xc0s!n\xb8\xc8\x1c\x1e\xb5\xa1\xa7\xf8\xde\x1b"VkY\xf5\t\xa6\x83\xcb\x9ey\xa4f\n\x85\xb2U\x01\xe1r\x7f\x8f\x92:\x01\xcdt\xb7&gt;\x18\x9f\xe2\x16\x82\xbav\x9f\x12Yiv\xe9\xbdt\xdb\x19\x18\x04+\xf3\x06$\x85\x07\x93\xcez\xd6&amp;\x9f\xe0\xdd;\xc3\xc2K\xed&amp;\xe4\x0f.Pd\x92\x15\x02X\xdb\xa6U\x94\xf0qZZ\xf7\xc5\x0f\x10\xdb\xdbMd\xbe(\xba\x8d\x04aD\xba\x95\x92HH\xc0\xe0\xbfP}\xeb\x8f\xd0|{\xe2\xeb9\xae#}N\x0b\x8bi9\xf3]\x03*\xfeg\xa1\xa8\xf5=b\xdfP\x02\xee{\x88\x99\x91\xb7I,O\xb7\x03\xe8:\xd4\x96\xfa\xa7\x83\xe7Csyy\xf6\xa7\xc7\x12[?\x95*\x7fC\xf8\xd5\xdb\x8f\x14\xebo\xa5\x1d\x07\xc3CS\xfb\x1b\x06\xf9\x16\x1c\x83\xe8x\xe9\xf8Vf\x9f\xf0o\xe2\x97\xc4G\xd9g\xe1\xab\xcb\xa2\x9cF\xab\x1b\x15\xfcp01\xef\xeb^\xc1\xf0\xa3\xfe\t\x87\xf1\xff\x00\xc7\x16v\xfa\x8c\xfe\x05\x92\xd1$\x90\x00\xf7k\xc7n\x9f\xad}\x05\xa3\xff\x00\xc1\x1af\xd2\xe2\x8e\x7f\x14\t\xdeG\x98$\xaa\xbbB)=p=+~\xff\x00\xfe\t+\xf0\xfe\xcf\xee\xe9r\xb2\xec$\xee\x94\xae=\xf1^W\xf1\'\xfe\t\xabk\xa2\xbb\xdcY\xda\xcc\xc9\x83\xe6\xca\xb3\x13\x83\xf4\xc7\x15\xe3\x9e;\xfd\x89&lt;W\xe1\xdbqs\xe1\x8b\x98na\x94\x1d\xb1\xdc\xc6\n{\xee\x07\x18&gt;\xf5\xe7\x1a\x8f\xc1\x8b\xef\x0f\\\x97\xd5t\xcc\xb4*K\xfd\x9d~E\xf5\xc0\xcfZ\xcc\xb7\xd1t\xdf\rO\x06\xbd#"\xdc\xc4\xce\xd6\xd6\xf2\x0c\xee&lt;\x81#\xfa\x01\x9e\x9e\xa2\xb9\xdd\x17J\xb8\xb0\xf1\x03\xde\xb9\xde\xb2HE\xa0\\/\x9b!9\r\xec[\x93\xf8\xd7a\xa1\xeb\x1aE\xf5\xb2\xf8nm\xcbo\x1bIq\xa4_]\xa0\x12ZL\xb9\xf3\x11\x88&lt;\xa19\xe2\xb3\xbcC\xa7[\xdd]=\xd5\xb3\x11|C-\xdc+\x0e\xd1*\x11\xd7\x1d3\xf4\xfe\xb5\xf7\x07\xfc\x12\xc3\xe2\xa4\xde\'\xf8U\x7f\xf0\xb3T\xbb/q\xe1\xe9VKM\xe7\xe66\xf2g\xe5\xff\x00\x80\xb0?\xf7\xd0\xaf\xa8\xe4\x8b\x15\x0c\xb1\xe6\xab\xc9\x1f\x1d*\t#\xe7\xa5G\xe5\x8f\xee\xd6\xccq\xf1S\xc7\x1dN\x91t\xcd|\xd3\xfbe\xc7\xa8|N\xf8\xf5\xe1\x1f\x82\xde\x17\xd3\r\xdd\xd6\x9f\xa75\xc5\xf4RaP\x1b\xa7V\xe4\x9e\x98\x8a\xdd\x1f?\xed\x1a\xf9w]\xd7l\xf5\xcf\x1ex\x9b\xc7\xf0j6\xd7\xa3Ba\x1e\x99\xa8]\xa6\xc9\xefn\xcb\xeca\x12t;6\xe3=1Z6\xd7\x17\xbe?]+\xe1\xda\xdbAd\x92\xdcK}\xae\xdc\x87\xc2\xda)PZbNw\xc8\x14\x10\x14q\x97\xc5q\xfe:\x8e\xe7\xc5\xda\xd5\xc0\xf0\xad\xbb\xa5\xa43}\x9fE\xb5\x862\xcd8S\x8eG8\xdc\x06I\xe9\x93W\xe4\xf0\x86\x8d\xa0xr\xe7\xc4\x1e)\xba\x9d\xac\xae\xa6[k!\x14c}\xd3(9\xda\x0f\xdd\x8dv\x91\x9e\xa7\x8a\xe1\xe7\xd7/u\xadV\x1b[M=--`r\x8a\xd1\xb9!G\xfbU\xdc\xe9\x16\xfe2\xfb8\xb2\tk5\x83q\x0bJ\xe5C\x7f\xb4\x15\xb8?Q]6\x9f\xa7\xe8\x9e\x19\xd3d\x9a\xfbR\x83\xcc)\x89Ue\x0e&gt;\x87\x1c\x0f\xa5f8\xd25\xf7{\x1bG\x9bc\x00\x12(\xa2\x12\xa9\xcf\xa8\xe4\xf5\xf4\xae\xc3\xc2?\xf0O_\x8b\xbf\x10\xe4\x8fS\xf0\xcf\xc2\x8f\x11\xdc,\xab\xb8D\xb6\x0c\xa9"`|\xc3\x8eEz\x7f\x84\x7f\xe0\x8c\xbf\x12\xb5X\xd7P\xd6,\x16\xc7r\x92\xf0\xdc7\n=\xf6\x9f\xc2\xbdO\xc0\xff\x00\xf0G\x1b[\rV\xc5\xa5\xd2\xbe\xd2\xe8\x01\x99mb\xca\xed\x07\xaf\'\x9f\xc2\xbe\xa4\xf8q\xff\x00\x04\xd0\xf8K\xa1\xe9P\rO\xc3\x82\xe2B\xdf4Kf\x06\xdc\x0c\x8c\x96\xf7\xc5z\xcf\x85?c\x1f\x86^\x15\xb5\x8e\xde\xc3\xc3\xf6\xc96\x0c\xcd\r\xb5\xaa\x84\x03#*x\xe7\xb7\xe5]\xc8\xf87\xa2[X\xc7\r\xa2yJ\x98e`\xa0,Dt\x03\x1c\x11\xea:\xd5?\x12\xf87N\xd4T\xdf\xcd\xa7$\xbbd$\x9e\xe7\xf0\xaeC\xc4\xbe\x12\x9a?(\xcbp\xc5\x96&lt;lH\xc0\xc0\xf4\xaf5\xf1W\x82\xec^+\x98\xe3y#3\x8d\xeep\x0e\x0f|\xfbW\x8dx\xf7\xe0/\x86nU\x91\xec\xc6&amp;\xc9bd\xe2C\xcf8\x1d\rx_\xc5\x0f\xd9\xcfD\x8a\xc3v\x95h\xb7\n\xa7\x84a\x82\xa7\xd5O|{\xd7\xcc\x9f\x12~\x06h\x1a6\xb5y\t\x82@&amp;#\xca\x8aO\x98.9\xe4\xfdk\xcb\xbcI\xe0\xfd:\xcb\xc4ia$D\x8f=cdC\x8c\xbb\x9cn\x1e\x85\x7f\xadex\xe36\x9a\x88{\xcb%\x82\xe6{Y\x88H\xc7\xc8\xb2\xc6\x86\'S\x9ey\x05[\xeaj\xae\x87\xad\xde_\xe9\xbaw\x8a\xd6\x07\xb9\x9bK\x95-/\x91P\x7f\xa8\xdb\x8d\xff\x00P09\xaf\xa3\xff\x00\xe0\x9b\xfa\xee\x9d\xe1\x0f\xdan\xef\xc3\xea@\x8b^\xd2e\x82\xdd\xf3\xd5\xd7\x13m\x1f\x825~\x80I\x16y\xc5A$X\xe3\x15\x04\xb1\xfbUyc\xf6\xa8\xbc\xbfz\xda\x8a&gt;zU\x88\xe3\xe3\xa5Y\xb5\x81\x1eUY\x18*\x9271\xec;\x9a\xfc\xda\xf8\x8f\xe2\xcf\x10x\xcb\xe2\xcf\x8c&gt;/\xdc-\xd36\xb1\xa8M\xfd\x9f\x12N\xd1yv\xcb\xfb\xb4BA\xf9T"\x0c~U\xc3\xf8{V\x1a\x97\x8c\x96X\xe3\xb7\x88\xd8\xd8\xb3]\x19-\xc1\x8e\xc6\x002]?\xbe\xe4q\xeb\xf3\x0fJ\xd1\xf0$3\xf8\xa6\xdfU\xba\xb0\xd4\x0e\x91\r\xf5\xc1u\x17*\\\xc3j\x9c\x86\xf9~m\xf89\xc7\xa9\x19\xa9\xf4O\x1b\xd9\xd9\xebq\xea\x1am\xb4\x91\xf8|?\x94\xb7\x97v\x05&amp;H\xf6\x91#\xb1\xceFz\x95\x1d\x9b\x8a\xa5\xf1\xf3R\xba\xf8\x85\xf1\n\xdbC\xf0F\x8e\xb6Z]\xa5\xb7\x95g\xa6\xa4\x85p\xa13$\x8c{dr\x07\xa5{\xa7\xec\x1b\xfb\x08\xa7\xc6\x0f\x16[\xde\xea\xd6o&amp;\x95\x04i&gt;\xc7\xfb\xb1\x80W\x1b\xb1\xf7\x89\xe7\x8a\xfdN\xf0\xd7\xec3\xf0\x82}\x1d|1\xe2\x1f\x05\xe9s\xc4\x85G\x93\xf6P\x03|\xa3\x82z\x81\xec:\xe7\xadt\xde\x15\xff\x00\x82m\xfe\xcaW\xd7\x91Cy\xf0[Ey\x96M\xd0G\x05\xae\x13=\xc1\x04\x91\xf9\xd7\xba|=\xfd\x90\xfe\x00|4\x8e+\x8f\x0c|#\xf0\xe4\x0f\x12\x86f\x93G\x85\xd8\x91\xce\x01\x08\x08\xfdk\xbf\x8c4\x80\xcdoe\x15\xbc\n@\x88G\x02\xaa\xa8\xc7\n\x02\xe3\x03\xda\xb1um\x02\x16\xb5\xbay`\xb0\x95f\xca\xa9]=\x17c~u\xce[\xe8\xf3\xe9\xe3\xcbx`B\x87\x01\xa0\x84\x02\x00\xfc*\xdd\xe8\x83g\x9a#9t\xc1\x1f\xec\xfa\xfdy\xa9\xecR\xdcJ&amp;R\xa9\x80F\xc3\x8f\x9b\xf1\xecj\x9c\xd1D\xe1\xed\x9aB\xec\xb2fd+\x85\x1e\x98\x1d\xb1\\\xce\xb1j\xbb\x88\x9660\xabe\xa4S\x8c\x1e\xd5\xcck\xa9k\x1d\xa3\\L76\xec\x12\x06k\xcb\xbcYj\xb0M&lt;\x90\xc6X\xc9!Ry\xe0\x1fj\xf3_\x15i2\xc8D6\xb6\xfb\x88l\xba\x1e\xa4g\xf4\xe2\xbc\xbb\xc5^\x1d\xb8X$\xb3A\x1b\xc6\xa4\xec\x8c\xbf1\xfd}M|\x9d\xf1\xd3A:o\x88&amp;\x92\xe5\xf9\xf3N\xc7\x03\x03o\xadxG\xc5m\x1a[h?\xb4\xec\xf8U\x90\xb8\x90\xaf\xcc\xa4\xf0\ry\xcf\xc6\xdckz\x9d\xc3\xe9H\nAmk2\x06\x90\xe6FE\x08\xc1q\xdd\x80,\x7f\n\xe7&lt;\tz,\xf5\xe8t\xb9\xee\x04v\xba\xaa\x88\xddw\x81\xbbx\xca\x8f\xaf\x03&amp;\xbd\x9b\xf6)\x87S\xb4\xfd\xb0|)c\x02\x90m\xf5\x87YC\x1c\xed_)\xd5\xbfB\x7f:\xfdI\x92\x1ct\x15\x04\x91\xd5yc\xf6\xa8%\x8f\xadE\xe5{\n\xda\x8a0{U\x88\xd3\x9ejx\xe3\xb6\xda\xe6\xf2q\x0c"\'3K\xfd\xc4\nw7\xe03_\x9a\xde\x02\x9bM\xbf\xf0\'\x8a\xfca\xaf\xde=\xfd\xc5\xb4\xab\x1e\x99d\xad\x81yq#0E\'\x18\n\xaa2y\xfc+\x8d\xf0\xdf\x834\xd9n\xa3\xd0\xb5mb-8\xc53\xbe\xbb"\xda\x99\x04\xcd\xc6\xd8"\xdb\x96c\x9e\xbd\xb8\xae\xb3X\xf0\xf6\xa1\xe0]\x06\xcb\xc4\x93\xdb\xddi\xb6\x1b\x1f\xfb8N\xbeS]\xb3\x1c\x96\x08\xc41\x8f\x8e\xad\x8c\x12x\xae\x1bT\xf1c\xea\xba\xb0\x16-y\x7fp\xb2\x96\x8a\xdc6c$\x81\x95\x05\xb9E\'\x8c\x0c\x03\xeb_A\xfe\xc5\xff\x00\xb0\x8f\xc6\xaf\xda\x07\xc7\x1et\x1a\\\x96\xd6\xd7\x8c\x92\xea\xd7\x97\x80b\xda\x12\xde\xa0\x9c\x928\xc0\xed_\xb2\xbf\x02?f\x0f\x01|\x0c\xf0\xf5\x9f\x84\xbc!\xa0F\x89i\x12\x89fh\xc0{\xa6\xc7\xcc\xcd\x8f~\x95\xeb\xba\x17\x85!\x99PO\x1by\x8c\xc1\xdd\xc0\xe8=?*\xed&lt;?\xa1A\xa7 6\xf6\xd8vl\xa4\xac\xbc\x81\xea+\xa4{\x06\xb9\xb4*\x15\xa3\xdb\xf7\xd99\'\xf1\xaa\xb7\x1aX\x865\x81#\x88!\x1f9c\x82A=k+W]-\x07\xd9D\xaf\xb8\x0f\x94\xc7\x1f\xdd\xf4?Z\xe6uhg\xb7\x98\xdc\x937!\x8b\xc8\xe4\x11\xb3\x1d\rd\xc1reg\x8bn\xe5L\x1f0rB\x9e\xc0U\xe9g\x89"u\x91\x17\x94\xf9\tN\xa7\xd7\xebXz\x85\xe5\xcb\x1c\xc5+3\x95,[n2Gj\xc8\xd5\xe5\xbb\x16\xe2\x0b\x90\xaad\x7f\x9d\x008l\x1c\xf1\xea+\x9e\xd5d\x81\x15\xa1\x86C\x1e2\xc1Xu\xf6\x15\xe7~6Q\xe5\x98\xa3uRN]\xb3\x8c{\xd7\x9ck%\'\x94O\t\xdf b\xbf/S\xd6\xbc\xef\xc5\xdaw\xd9\x1ayD \xb3\xe41E\xfb\xbcw\xaf\x96\xfe&gt;\xe9\xf6\xe2\xe6In\x17\xcc\xcb\xf1\xb9zq_&lt;\xfcHX\xe7\xd0\xaeln\x18\xc5\xb7%3\xcf=Fk\xc0\xbcg\xae\\\x1dd][\xe3\xf7P#y`c8]\xa4~#5\x87g\x10\xbb\xbb\x96+I\x04\x8a\xa76\x921\xc1T\x1c\xa9\x07\xb1\x1c\x8a\xf7/\xd8\xf3\xc6\xb6Z7\xed=\xe1=z\xfe\xe243jv\xf6\xf7Nx\xfd\xe4\x87\xca\xe7&gt;\xe4r=k\xf5Y\xe3\xea\x00\xaa\xf2GPI\x1f\x15ZH\xf9\xc8\xa8\xb6\x0fz\xdb\x8e&lt;T\xe9\x19\xce1T|p\xb3\'\xc3\xff\x00\x105\xbcJ\xcd\xfd\x83x\x02\xb8$\x1c\xc0\xe3\x909\xef_\x98~\x1f\xd2\xb5]6\xd4Kg\x03%\xacZ\x83\xde]\xdb\xaa\x91\x1b\x95\x03\xcb\x18=\x81\xe8?\xda5KC\xf1n\xafu\xe2y|[\xa9=\xbd\xc2i\xb7&amp;M\x8f\x13\xaa\xbc\xcc~\xe8U\xc0\x18\xe2\xab\xfcO\xf1.\xb5\xf1\x17]7\x1a\xb5\xdf\xda\'\x11\xa8E\xc9e\xb6\x88\xf3\xb5\x14\x1c(\x04\x9e?\xc6\xbbO\xd9S\xe0N\x9f\xe2/\x896sx\x92f}8&gt;\xf9\xf7\x1e\xa1X\x81\x81\xd8\x12+\xf6\xeb\xf6,\xf0\x96\x81\xe0\xef\x06E\xe1\xdd\x07\xc3Pi\xf1\x9bdu\x8c\xaf\xccq\x8f\xbc{\xe6\xbd\xfa\x05_\xb4\xef\xf2\x8f\x03\x90\xbd\xcf\xa0\xae\x87Kh\xfc\xb14C\x05F\n\x1e\xaa}+wD\xbek\x89B\xca\x9bDc\x00\xa8\xe3\x15\xd1\xc3,\x11F\xbed\x80\x923\x82\xd9\x18\xaa\xfa\xb5\xe22/\xd9\xed\xd0\xba\x02\xca\xc7\xd4c\x19\xf6\xaeWR\xbb\x92\xe2\xe0\xcb\x10\x8cB\xe4\xf9\xcf\xe8{\xfe\x07\xb5S\xd4\xdc\x1b\'\xb5\x8651\x15lH\xc3\x0c\xc7\x1e\xfe\x9dk\x9dx\x9e9s\r\xda\x16B\x14\xb6\x06\x08\xdb\xc0\xe3\xf1\xa8`\xbc\x86h\xc6\xf99\x19\x0c\xa79\'\xfc*\x9d\xfc_c\x89\xd6I7\xef\xe1\x0f\xf8\xd6\x06\xaa\xe40d\xc9\xea\xc0\x93\x90=\x80\xff\x00\n\xe3u\xeb\xfb\x8bwa4\x9b\x9bw\xca\x7f\xd9\xaf9\xf1\xc6\xb9$\xfeu\xb8\x94p\x0e\xe6+\x9e?\n\xf3k\xcds\xf7\xc68K*\xa4\x81AQ\x8ek\x98\xf1v\xb3n-L;\xfef$1\x19\x04\xd7\xcc\xff\x00\xb4\x0c\x12\x9f:X\xe3\xce\xd9:g\x9e\x95\xf3w\x8f"k\xd8e\x89\x01\'\xab\x0e\xe0W\xce^-\xb7\x9fM\xf1\x0b&lt;\xf1\xb4\x91\x86feA\xc9J-4\xed21\x16\xaf\xa3kq&gt;\x9d\x9c\x15p\x04\xca\xb9\xe4\x10y\'\xadw\x1f\t4\xf9\xa2\xf8\xf1\xe1\x0bI\x8c3Gq\xe2\x0b\x1d\x8c\x83\'\x1e|m\xbb\x8e\x84q_\xb1rG\x82{\xd5yc\xcdW\x92?j\xad,~\xd5\t\x8f\x9f\xbb[\x91\xc6jx\xa3\xff\x00\xebS\xaf4\xe95=2\xebK\x81\xf6\xb5\xdd\xa4\xb0+z\x17B\xa3\xf9\xd7\xe7g\xc4\x8d:\xeb\xc3&gt;\x1c\xf1\x0c\x97\x13,2\xe9\xb2}\x96\xf6\x07\xc4{\xa6\x0eAl\x8e\xe7\x04\xfeU\xe3\xf7\x9e5\xf1E\x8e\x99\x04\x9a\x96\xabsqj\x08kK7\x90lbr7\x1c\x01\xc7\xa9\xf6\x15\xa1\xf0\x9e]B?\x13&gt;\xafp\x88-Q\x80\t\xf7\x89q\x92\xc0\xf1\x96\x03 \xd7\xd0\x1f\xb3\xf4\xe6\xd7[\xd2u\x8dDGj.\xe6\x11\x04\x88\xefVfbH#\xb0\xc9\n\x0f\xf7\x88\xaf\xd5\xaf\xd9?\\\x83\xecGK\xb5S\xb1`D\x91\xf6tn\xa4g\xbe=k\xe8x.V\xde(ZV\xce\x06\x0f\xa8\xe2\xb5\xed/S\n\x90H9\xe5\x89&lt;\x8a\xd5\x8fZ\x86\x0bt\xb8\xd8v\x0e\x19\xc4\x98$\xfd+R\xcfY\xb7\x8e\xd1\xae|\xf2\xc2E\x02=\xc7\x91\xf8\x7fZ[\xbd^K\x88d\x00\x04,\xa09\'\xa7\xa7J\xc3\xbe\x95\x0cL\x93\x85 s\xbdN;Vm\xc6\xa0L^Qg\x94m\xc0\xc0\xfb\xb5\x01\xb5\xf3"\x92}\x86&lt;\xc6\x18`\x0e\xdc~|\xd5{=1\xae%iQ\xb0\xcb\xcf\'\x03\x15\r\xfd\xac\x92\xab$\xc0\xc8\xa3%\x00n\xfe\x98\xac\xcb\xbd\x06IJ\xb0\x01N\xdd\xd1\x9c\xf0O\xa5r\xbe*\xf0e\xd5\xdc&amp;D*\xfeZ\x9c!=\x89\xc9\x07\xf1\xaf%\xf1\x87\x86.\x0b\xca\x120\xbb\xd8\x86\xd89\x06\xbc\xd7\xc4\x9a\x04\xfaxh\x94n\xf3\x01-&amp;\xdf\xbb\xed^a\xe2\xd9e\xb6\xbbkw\x98\x90[;\xbf\n\xf2?\x8b\x16\xa3P\xd0\xa7GE\xccJ[v95\xf2\xef\x8c\xec%K\x99\xe5\x8f*\xe8\xff\x00 \xc5x\x17\x8f&amp;\xb7:\xdc\xe9\x1d\xa3\xc32\x92P\xb3p\xd9\xea\x07\xa0\xaeF\x0b\x97\x86\xf5!\xd1.\x18O0\xc2m\\\x92\xd9\xed\x9a\xf4\xbf\x82~0\xd6|1\xf1\x03C\x97\xc4w(\xa3N\xd5m\x9a\xe8\xbca\x81T\x900\xe7\xb1\xc9\xe7\xe9_\xb1\xb0\xc8\x97V\xb1\xdd\xc7\xf7$\x8c:\xfd\x08\xc8\xa8\xe4\x8f\x1c\x1a\x82T\xf6\xaa\xd2\xa7\xb5E\xb0{\xd6\xd4hs\xd2\xacD\x84\xd5\x88Tn\x07\xf5\xaf\xcf\xbf\xdb\xa3Es\xf1\x9bY\xb2\xd4l$\x8bM\xb8\xd7.g\xbeX\x97\xe4r\x8c\xa6&lt;\x9e\x84\xe3\'\x1fZ\xf0X-\xb4\xff\x00\x88\x9a\xad\xc6\x89ab\xf1\xe9v\xd03\xb6\xa5!\xf2\xd2\xdaT\xc3$LOD`Hc\xeb\x8cWE\x81\xe1\xfd&gt;\xd2k\xbbq\xa5\xc1\x14\x1ed\xaf#\x83\xb9\x1c\xf0\x17i\xcb\x1cddv\x0b]\xf7\xc1\x9f\xed\x1f\x19x\xc2\xc3O\xd1\xde\xe1\x1c\xc5\x04ze\x98B\xa0D\x1b%\x9b\xd3&lt;\xb1&gt;\xb8\xc7"\xbf[\x7fc\xcdR\xd3G\xd1\x93O\x82\xed\xa6Kk`\xd2\xberK\x0e\x07^y\xcf\xe9_C\xc5\xe2\x02 \x11\t\x15\x1c\xf2X\x0c\xb1\xf6\xab#Z\xf9\xe36\xf2\x05#%\xf0&gt;\xf5^\x87T\x9e\xe21\x1a\x02\xc0\xf4f\xe8?\n\xd4\xd1\xe4\x93p\x98\xca\xc5W\x8c&gt;p&gt;\x95\xafy3y%\xc4\xc0\xae\x07\xca\x0e3\xf9\xf5\xac\xc9\x12\xf3i\xd9nX)\x04\xef\xe4b\xa5"Y\to-"`2A_\x97\x9fB:TOj\xder\x06\xc8\x95W\xe5\x0c\xf9\r\xf4\xab\x96v\xc1\xe2\xfb\xcae\x03\x0cW\xd7\xd2\xa9\x0b4\x98\x89\xa5\xb5(L\x9bq\x8e\xb5\xa9a\xe1Tx\xde;\x88H\x8dy@\xc4u\xaa\x1a\xdf\x85m\xd6\xdeI\xd6\xd8+ \xf9\xdc\x1e\x0eN\x05y\'\x8a\xfc3a%\xfb\x99\xadb\xe7\'\'\x9c\xf3\xfc\xeb\xcf&lt;[\xe0\x8bI\xe2v\x86\xdd]\x9d\x8e\xd0\x08;k\xc3&gt;(|8\x8a\x0b\x96\x99\xed\xc0\\\xe31\x91\xf7\xab\xe7\x7f\x88\x96\x13C5\xd6\x9a\xf8\xc3\x12\xb8\x07&lt;\x7fJ\xf9\xcf\xc7\xfa&lt;\xf6z\xe4\xfb\xe2\xdb\x1c\x87\n\xddk\xc1\xfe7xd$m\xad\xdaA\x86\x8eC\xb9\x82\xf5\x15\xe4\xd6\xf2\xcd\x1c\xff\x00h\xb6`\xad\xde@v\x9e\xf8#\xd3\xafj\xea\xb4\x01{\xa5\xc2\x9a\xd5\xf1\xcd\xab]oc8-\x96\xe3\xa9\xaf\xd9\xff\x00\x86\xba\xf4&gt;.\xf8m\xa0x\xa6\xd6=\xa9\xa8\xe8\xd6\xb7(\x9e\x81\xe2V\xc7\xebZ\xb2\'\'\xd2\xab\xc8\x80\x8e*\xbc\xa9\xedP\xec\xff\x00g\xf4\xad\xa8\x97$g\x8a\xb1\x1a\x81S\xc7\x19\x03\xdc\x9a\xf8\xff\x00\xf6\xf4\xf0\xa6\xb5\xad|H\xd6\xbc+\xa7C2\xe8\xf7\xd6\xd6\xd7\xcf-\xd3\x85\xb6K\xb7\xb6O0\xe7\x1c1!\x8f|\xfbW\xc8\xda\x9f\x864\xff\x00\x07Jt\x0f\x12k\xf2\xc8\xed2H4\xcd!H\xb6\x9c\x00@%\xceL\xbd~\xe8\x15\xcdjk\x7f\xa8j\xd3M\xa8\xa6\xeb\x84\xbdD\x89pO\xd9\xd0\x02\x14\x00OP1^\xd9\xfb;\xf8\xafR\xbe\xf8\x81y\xe2\xbbC\xb5\xac\xed\xa3\xb6\xca\xf0x#\x08=\x0b\x01\x9c\xfb\xd7\xeb?\xecS\xa7\xeb3x]\xb5\xdf\x11\xc3\xb6\xebPQ4\xfeZ\xe0\x05\xe8\xa9\xe9\xc0\xaf{\x82O\xb1:\xc6$\x0e\xd8\xc9c\xd3\xe9Z\xba|\xad\xa8\\\x0e\xbb\x94\x13\xbdW\x00\x8a\xeb4\r2\xces\x19\xba&lt;1\xe4\x17\xc0\x00}+\xad\xb5\xd0lg\xb7g.\x15\x14\x83\x1bG\xfcG\xd0\x0e\xf5\xafc\xa0\xad\xfc;n\x0bC#\x01\xb1p\x06N}\r&gt;\xff\x00\xc2\x1eAc\x04\xcb t\x0c\x08\x1f|~=+\x17U\xd2\'\x96#sm.\xe5\x19\x06"\x01_\xc4\x0ek\x04}\xa2\xdf\xcb\x95\\\xba\xed\x1f+\xa7\xdd\'\xd3\xda\xb5-O\xee\xf7\x06\x1bws\x81\x8c\x9a\xd0\x86(\xe1T+\x9c\x96\xf5\xe3\x9cU\xa6\xd4"\xb7,\xce\xa7$\x1d\xd9\\\x82k\xcf\xbe&amp;\xfcO\xd0t -nu\x08\xe0y\tXW\xcc\xe6B0q\xb4\xf5\xeb\xfaW\xcf\xde.\xfd\xa0&lt;?mn\xda\x9e\xaf\xa9Z\xc1\xbe\xe4\xc3\x12\x89\x00\x0e\xd99\xfd?\x9dx\xf7\x8f?n\xcf\x01i\x02\xe1t\x19R\xe6H\x1bl\xdeP\xdecn\xfb\x80\xe8?\x1c\xfbW\x8dx\xe3\xf6\xe3\xf0\xd6\xb7d\xcb&amp;\x9f\x19f\xe5\x8cm\x9c{\x90\x0eV\xbef\xf8\x9b\xfbCY\xdc\xde6\xb1e,*d\x98\xed\xf2\xe5$\x81\x9es\\F\xa1\xf1SE\xf1\xcbyrI\x14S\xa7_\x9b\x86\xfaW!\xe3\x8d\x16\xdfX\x86\xe3N\x96@\x11\x97\xe58\xcd|\xd1\xe2X.&lt;7\xab\\\xe9\xd2*\x83\x14\x85\x87\x99\xc6Fz\x0c\xfb\x1f\xd2\xba\xdd\x02\xe1\xbcG\xe0a\xa1\xf8m\xa6\xba\xb9\x9e\xec,P\xc7\x1e\xf3\xe6\x1f\x95G\x19\x03\'\x81\x9e\xb5\xfbS\xf0\xef\xe17\xc4_\x83\xbf\x07\xfc\x15\xe1\x1f\x89\xde\x1c\xbb\xd3u8\xfc!\xa6\x99\xa3\xb9\xb6h\xc1ck\x1b\x10\xb9\x00\x1cg\x07\x1d\xc1\x1dj\xe4\xb1\xe7\x81U\xe4\\\x1e\x05W\x99sP\xecoJ\xda\x8d\x01\xe6\xacF\x98\xebV"Lu\x1fJ\xf9;\xfe\n+\xe1\xab\x8b\x9f\x12i\x16\xba7\x87\'7:\x8d\xbc\x92\xbd\xe4\xd2\x0f*F\xc2F\x1b\xaf\xddP\x98\xc60X\x9a\xf9\xe3\xc6?\x06/|+\xe1k\x7f\x89\x1e \xb7\x92\xfek\x94\xf2\xb4\x93\n\x00%\xba\xc1\xdf*\xb3s\xb1@\x03\x03\x19\xfc+\xcfu?\x0f\xddh\xde\x1a\x8b_kD\x86\xda\xda\xcd\xae\xa4rrd%\x8a\x8c\xb1\xeaw\x03\xfa\n\xf6\x9f\xd8\xc7\xe0v\xbf\xe3\x1f\x10h\x1f\x0e\xac\x99&gt;\xd9\xa9\xc5\x06\xab\xa9\x10\xd8\xf2\x92F\xdd\x18&gt;\xa7aRGc\xc7j\xfd\x8e\xf8U\xe0\xc5\xf0\x0f\x86\xed\xbc?\x01Y\x041\x85yI\xc6}Mu+\x1c\x92\x8c0\x04\x12v\x8c\x7f\x08\xeaj\xbf\xfc\'\xda\x0e\x9b|,\x0e\xa7\n\xc8\x17\xe6\xc4\x84ml\xf4&lt;~\xb5\xd6i\xdf\x11|+mb\xf7\xfa\xae\xb1\r\xb7\x93\x91\n\xf9\xe0y\xcf\x8e1\x9e\xbf\x80\xaa2\xfe\xd4\x9e\t\xd1\xed\x81\xd4\xf5\xe9,d-\xb5L\xc4\x88\xc6OV`0\x07\xe3W&lt;\t\xfbZ\xf87V\xbc\xb8\x86\xcf\xc4V\x9a\x85\xc5\xa6J\x94\xbb\x0e\t\xc7\xf7z\xe3\x07\xaf@9\xad\x9dk\xf6\x92\xb1\xbak\x0b\xcb)\x94$\x92\xfd\x9eT\xb5\x97"\x16\xc6v\x1fRFO\xe1\xef[\xfa/\xc5\xed\x07^\xb2{\xebHDM\x1f\x0c\x17\xa1\xe3\xbd&amp;\x91\xe2;\x0f\x12:M\x1c\x9bLm\x8d\xb9\x185\xae\xd7p%\xa3\xc9\xe5\x80\xb89\x04\xf4\xf7\xae{[\xf1\xc4z&gt;\xc9]\xd5\x17\x19\xdc\xe7\xa6+\xc8\xbe+~\xd2\xda\x05\x95\xb4\x93\xe9\x9a\xf2\xcc\xd1\xcaV\xee\xc1\xe70\xb6\xdcu\xc9\xc1\xf5\xc1\x00\xd7\xc6\x1f\xb4\xff\x00\xed\x9d:\xcdo\x05\xc5\xe3\xc8\xda\\\xac\xb6\xf2\xef\xdd)\xdc\x01\xe5\x81\xf9\xb1\x823_\x15|f\xfd\xb05\xaf\x1e\xdd/\x96\x82\xce\x0b\x16(\x91=\xee\xc1\x86$\xb4\x9c\xf3\xd3\x1d\t\xaf\x0e\xf1G\xed\rg\xa8\xc56\x99\xa5\xf8\xc6U\x96V\xf9m\xf4\xe72I \x1dA\xc7l\xfe5\x81\xa4\xeb\xdf\x10\xb5K\xb6\xd4\xbc7\xe1\xcf\x16\xcf\xbb\x876\xfal\xbbO\xb6\\\x01]g\x87&gt;\x10|}\xf1=\xa0\xbb\x83\xe0\xde\xb1tT\x96\x12\xde\xdf\xdb[\xf9\x99\xecC\xc9\x9e~\x94\xcb\xff\x00\x80\x7f\xb4\xd5\xa5\xe1\xbb\xd3?gk\xbbu\x0f\x81\x12\xf8\x8e\xc5\x81\xfa~\xf2\xb8\x7f\x1b|p\xf1\'\x82uf\xf0W\xc4\x1f\x86\xfa\xd6\x8b\xaaZ\xae.l\xef\xa2d\x90\x03\xf7N\xd6\x03*{0\xca\xe3\xa15\xcbh\x9f\x11~\x18x\x8fX\xd4m\xbcK\xf0\xca}WP\xd5\r\xb4zm\xf4\xb7\xcd\x12\xe9eX\x86o,|\xb3\xee\x1f\xde\xc6+\xf6\xa7\xe1n\x95\xf0\x97\xf6R\xff\x00\x82Ux\x83\xe2w\xc0\xdf\x80\xde\x13\xf1\x95\xcf\x85&gt; hz\xf5\xd4\xb7\x9aJ\xd9\xff\x00l\xc1-\xa8h\xe5\x9bf\xed\x9eL\xbb\xbeU;[h$s_\x14\xf8\xa3\xe3W\xed-\xf1\xc7\xc7\x97\xdf\x19~$\xfcQ\xd5/&lt;K\xac_\xb4\x92\xddCw$i\x0cd\xe5"\x88\x03\x84\x8dF\x15Tv\x02\xbe\xb2\xfd\x9c~"j\x9f\x11\xfe\x1d}\xaf_\xb9\x13\xea\x1am\xdbY]\xdc*\xed\xf3\x99Q\x1c&gt;;d8\x1fPk\xb7\x91{Ui\x17\x8c\x9a\x88\xa9\xcfJ\xda\x891\x8a\xb1\x1at\xcdY\x8d0+\xc4\x7fk\x1f\x04\\\xea\x9e+\xd3\xbe\'\xf8\x82\xc2)t\x0f\x0b\xe8e\xa7\xb7\xbb\x9b\t\xa8O\xe7\xbc\x91[\x8e\x9cn\xe5\xf9\xfb\xb5\xe0_\xb5m\xef\x8c|B\x9e\x15\xf1\xbf\xc4o\x15[\xacz\xfd\xa3\xfd\x8a\x0b\x18\x94A\xa7@\n\xfc\xd1\xa2`}\xdc\x8e9$\x83^\x17\xe3\xfdc\xc3\xda\xfd\xfd\xbf\x85\xf4\xc9\\\xda\xa6\xa2#\x98\xdd\xe1^R\x81|\xb0W\xa2\xa2\xaf\xcd\xeeX\x93\x9a\xfb\x8f\xfe\x08\xf1\xf0\xb5&lt;S\xf1\x07\xc4\x7f\x19\xf5(\x13\xfb:\x15\xfb6\x97)\x00\xef\n\xc1T\xaf\xb7\x15\xfa\x1b\xa9\xb4\x966\x9b\x84\xfc\xc9\xc1\x1d2+\xc7\x7fk?\xdaN/\x83\x1e\x06\xb3\xf0\xe6\x89.\xfdoT\x0c\xee#`\x1a\x1bE9v\xc9\xe3\'\x00\x05\xceM|\x8f\xe1\x8f\x8f\xfe*\xf1\x16\xa7s\xaa\xdc\xdd\\\xc9u34\x96\xd2nw0+7\xcb\x18\np\xccq\xf7\xba\x0e\x94\xef\x1a~\xd7\x97\x9e\x0b\xb7\xbd\x9fX\xb1\xd7%\xba\xb7\x99\x0b\\^\x93\xe5\xc4\x1c\xe0`\x11\xeb\xc6\x01\x15\xe2^;\xfd\xb2&gt;;\xf8\xea\xea\xfbD\xf0\xf6\xbd\xa8Ek&lt;j!\xb0w\x90\xc6\xe3 \x94%\xc9\xe3\x03\xb7J\xca\xf0o\xc4\x7f\x11\\x\x96\xdfR\xd3\xb5\xedGN\xbc\x82Pm\xee-\xb5gA\x04\xab\xf7\x95\xd6C\x97B{g\x1d\xbaW\xd8\xbf\xb37\x8d\xfe2A\xab\xae\xa5\xa8\xea\xfa~\xb1\xa3\xeb\x0c\xa6\xfe\x1bMV6k[\x85\xc8\x17(\x0b\x12\xa5\xbe\xeb(\xe3\xafJ\xf5[\xef\x8b\x9e?\xf0\x07\x8cll\xf5[\x0b\x9b]*[\x81\x01\x99\xc91\x16nw\x97RA\xcfj\xf6\xcf\xd9{\xe3n\x9b\xe3\xcb\x94\x82\x15\x91#7%\xbc\xc7B\x99\x00\x901\x91\x92\x08\xc9\xf6\xc75\xefz\xe6\xa9k\xa5\xc0\xdb\xa4.\xb2G\x93\x87\x03\xafnz\xd7\xca\xff\x00\xb4\xef\xed)\xa7x\x12y\xa0K\xe4wH\xc9[6e\xcb\x81\x9c\x82s\xc7\x19\xe6\xbf/\xff\x00i?\xf8)\r\x9d\xd7\x88\xaf\xfc3\xa2]\xdf\xebw\x17\x16\xe6+[\x04\x0b,\xf1\xb9\xcf&amp;Lg`\xf4\xaf\x06\xf1\x7f\x89\xbe7|Z\xb4\xfbw\xc4\x7f\x89\x89\xe1\xcb\x7f (\xd2\xb4\x08C\\m\xc6\x06\xe9:\x06\xc6k#\xc2\xdf\r|\x05w\xab\xda\xf8\x7f\xc2\x7f\r\xef\xbcG\xa9\xdc\xca\x91F/^K\xa9\xa5n\x83\x08&gt;U\'\xafj\xf6[\xaf\x87\xfa7\xc1a\x0c\x1e?\xd4\xfc\x0f\xe1k\xe5\x88I\xfd\x9a%In\xa1\xe7\xee:D\x0e\xc6\x1d\xc1&lt;V-\xdf\xc5\x0f\x87:\xa4\xa6=?\xe3E\x9a\xc8\x98\x060\xf7\x16\xb1\x9fp\xe3\x8f\xccUmN\xfa\xc6\x1d:9\x92\xed\xe4\xfbK\xfe\xee{\x8b\xad\xd1\xcd\xfe\xe4\x839\x15\x16\x97do\xeeLV1\xe6H\xdcnF|rFF\rW\xf8\xc3\xf0\xe3]\xf8\x97\xf0\x07\xc5\xbe\x0f\xd7\xd3\xfbKQ\xd1l\xc6\xb7\xe1{\xfb\xe7\xf3nl\xd6\x1enm\x92V%\xda\x13\x0e\xe7\xdaN\x03(\xc5|K\xa2\xdc\xba\xea\x96\xd7\xa8\xc5\x9d.\x13\x00/\'\x0c3\xfe\x15\xfa\xa5\xe0\x7f\xda\x87\xc5\x9e"\xfd\x96t\x8f\xd9\xbf\xc1\xb7F\x0b=\x7fG\xb4\xb1\xf1e\xb6\xd2\x0c\x8bk3\xbcL3\xc0,\xb2\x00\xde\xa1Edj\x9e\x13\x97\xe1\xee\xa1\x0e\x91\xaaF\x81\xa5\x80\xca\n\x0f\x94\xf1\x80k\xbd\xff\x00\x82{x\xd8j:\xaf\x8c&lt;\x13#\xb10\xcb\x05\xec9\xe8\x01\xdd\x1b~\xa1+\xe9Y\x93\x83\x83U\xa5\\\xe7\xd2\xa1#\x9e\x0f\xeb[Q(=EY\x88t\xab\x11\xa8\x185\xc5\xfe\xd5\x1f\xb3\x8f\x8a&gt;)\xfc\'\xd3\xfcYc\xad\xe9\xf0[\xe9w\xf3Ms\xa4\\\xdd/\x9f\xa8[,j\xeeR\x12Ap\n\x81\xb8\x1c\xf2q_\x1f\xde~\xcd\x1f\xb4\x7f\xfc\x14+R\xd4|Q\xfb.\xea\x9at\xd3x\x00\xbc\x16\x9e\x1d\xbc\xbd\x16\xb2^F\xa3?\xb9\xb7|\x96Q\xd3\x923_.x\xd3\xe1\x7f\xedK\xfb?x\x8a\xfb\xc3_\x1f&gt;\x0ex\x9b\xc3\xde%\xd57[i\xed\xa9iL!U-\xf3\xbaH2\xacpyl\xe0z\xd7\xeb\xf7\xfc\x13\xaf\xc2V\xff\x00\x0e\xbfg\x0f\rhzR\x88\xaf\xa3\xb0I.\xe0$\x06]\xcf\xc19\xc6s\x9e\xa7\xadz\xdf\xc5\xaf\x8f\x9f\t|\x03n\xc7\xe2\x0f\xc4\xbd/J{H\xfc\xe7\x82\xe6\xf5D\xac\xd8\xce\xd0\x80\x93\x9fc\x8a\xf8\xaf\xe2\'\xedy\xf0\xdb\xe3\x87\xc4\x9b\xe9&gt;\x16x7Q\xf8\xa1\xad\x08\x92+]\x13CR\xee\x813\xda0\xc0\x03\x9eI+\xd6\xa8\xcd\'\xfc\x15G\xc7\x16\xa2\xe7F\xf8\'\xe0_\x82&gt;\x18\xb1\x80"\xdf\xf8\x89\x82\xca\xa0\x9cy\x85\t\x91\x8b\xf4\x1bO\x19\x1d\x05y\xfc\xff\x00\x07\x7fj_\x1cj7\x90|L\xfd\xbd\xa3\xfb\x0b\xba\xb5\xdc\xdaf\x93ma\x04\xcd\x1fLJ\xcb\xd3\x03\xae\x06k\xce~!|\x0f\xfd\x9a&lt;5\x1b\xea\xda\xcf\xc7\x8d\x7f\xc6\xb7\xf2HU\xe6m\\\x8823\xb8\xabBW\xa95\xc8\xc1\xf0\xef\xf6n\xb6\xb7*\xdf\x04n5!&lt;`\xb0\x9f\xc57\x91\xbbg\xae6\xcb\xe9]\xbf\x81|?\xfb$\xfd\x9f\xec\x96\xbf\xb3v\xa1lcb\xacm\xbc}\xa8\xc37\xb9\x1f\xbe*?#^\x95\xf0\xdf\xf6R\xb7\xf8\xcb\xabC\xe1\xaf\xd9\xbf\xf6\x8e\xf8\x8d\xe0_\x11\xbc\x80hi\xe2O\x13%\xfd\x87\xda?\x82=\xa5\x01\nN\x14rH\xaeGM\xff\x00\x82\xa1\xff\x00\xc1D?\xe0\x9d\x7f\x1f\xee\xff\x00e\xef\xdb\x1b\xc2\xbaU\xf5\xc6\x82\xc1\xef\'\xba\xd3B\xc8\xf6\xec~I\xe2x\xb6\x89\x11\x87F\xc7\x7fj\xf4\xaf\x1f\x7f\xc1\xca\xfa=\xf6\x99,~\x1a\xf8\x11u\xe6\xac%\x12I\xb5\xc5\xf2\x98\x81\x8d\xd8\xda\x0f\xe1\x9a\xf8C\xf6\x86\xff\x00\x82\x9d\xfe\xd0\x7f\xb4V\xa5sq}\xac.\x93k3\x1d\xb6\xfah\xd8\xc5Oby5_\xf6q\xd2\xf4\xfb_\x0e/\x8e\xef\xa4\x96\xe2\xf6\xf6i\x96K\x93\xc9ELe\x7f\x0c\xd7k\xa0\xdej^0\xd5$\x82\x1b\xe8-\x90\xb1{\xbdF\xf7\x0b\x1d\xb4c\xa9\'\xb9\xc7Oz\xfb\xd3\xf6\x17\xfd\x83\xf5\xff\x00\x8d\x973\xe9\xfa?\x8b\xec\xfe\x15\xf8E4\xd5\x99\xbcS\xa9\xdcG\x0e\xa7\xaf\xcd$d\xa1\xb7\xdewG\x1b\x12\xa7~\x07\xcar3_\x1b|]\xfd\x9d?k=\x17B\xf1\x17\xc0\x7f\x1bx\x7fW\xbb\xd0&lt;=\xe3Y\xa6\x86\xee\xdb\xc3\xcbv\xba\x85\xdbnSp\x97\xd1\xa9\x96@\xc9\xfc%\xf6\x8c\xf4\xcdz/\xec\x0b\xfb+x\x13N\xf1\xc6\x99\xe2\xdf\xdak\xe1d\xd6\x1e\x1e\xb6\xb6\x9domu\xebF\x8c\xdd\x92\x18",D\xe4\xf3\x8e\x7fJ\xf3\xff\x00\xdaC\xe1f\x9d\xe0\xff\x00\x18k7\xbf\t!\x16\x9e\x1e\xfbk\xcb\xa6hd\xb9\x8e(\xcbdl-\xc8\xff\x00\xebV7\xc2\xef\x14_\xd8\xde\xdb\xea:\xbc\x12y{\xc39\x90\x12\xd8\xcf\xa8\xeak\xe8\xbf\x84\x1af\x93\xe3/\x10\xc3\xe1\x9d1\x83\x7fi\xd9\xdcZC\x14\xca2\xf1\xcd\x1b+\xa9\x18\xe7\x86?\x85|E\xf0\xaf\xf6{\xd1\xaf\xfe\x04x\xe7\xe2\x94\xfac&gt;\xa5\xa4\xeb\x12Zh\xccX\xe2%\x86O\xde\x1c}\x0e?\n\xfa\x17\xf6@\xd3\xd7\xc5^\r\xb7\xd4-\'\x01\xf1\xfb\xc9\x99\xb9R\x17\x18\x03\xbf"\xbdS\xe2\x8d\xbd\xcd\xee\x89m|\xf7"k\xa8ch\x9d\xb3\xce;~\x15\x07\xfc\x13\\]\x9f\x8c\xbe1\x0f\t\xf2\xd7E\x8c4\x9e\x8d\xe7\xf0\x0f\xe4\x7f*\xfb&amp;E\xef\x8a\xad2\xf1\xc5E\xb0z\x8a\xd8\x89Fj\xd4J8\xad\xcf\x04Zi\x97^\'\xb2\xfe\xdbW61M\xe7_\x08\xa3\xdc\xc6\x08\xc1y\x02\x8e\xe4\xa2\xb6+\xea\x8d\x1f\xe1g\xc0\xbf\x8c\xfe\x06\x8b\xc4si\xa6\xf7J\xd6c19\xbd\xb6\x02kb@\x18#\xf8\x06\x07\xd0\xe2\xb8\xcf\x06\xfe\xc4\x9f\x07?e?\x89v\xff\x00\x17\xbe\x0fh\nRb-\xf5\xa9-\x9cnX\xdb?6\xd1\xc7\xa7\xe5Y\x9f\xb7\x17\x85\xbc;\xad\xfc-E\xd4\xb4[\x1b\xcd\x0fT\xf1N\x8bk\xadEql\x1e;\xad&gt;[\xa3\x1c\xaa\xbb\xbe\xe0 \x82\xc5H5\xf9G\xff\x00\x05r\xf1\x1c\x9f\xf0K?\xdb"\xdf\xc2\x9f\xb3\xbd\x9b\x9f\r\xcf\xe1\xb8o\xf5\x1f\x0b\xdf\xea\x13\x9b\t%.\xc8\x11p\xdb\xbc\xa5#!\x01\n{\x8a\xf8B\xef\xe3/\xc6_\xdb;\xe3f\x87\xe0\x9f\x1fx\xcc\xad\xbe\xb7\xae\xc1m\x06\x9f\xa5C\xf6{[E\x91\xc2\xb6\xc8\xd3\x81\x85\'\xaf\xe3_\xbf\x1f\xb1\xbf\x84\xff\x00f\x9f\xd9\xfb\xc3\x9a7\xc1\xaf\x86\x9e\x07\xb4\xd1WH\xdb\x0e\xa5\x7f\x0cJ\x93jO\xdei]@g$\x8c\xf5\xc5x\xff\x00\xfc\x14+\xf6\x8a\xd1&lt;Q\xae\xf8\x82]OW\xb6\xd3\xbc\x1f\xe0\xf0d\x90\x92\x0b_\xdcg\x00\x81\xc6I\xc1\x00r&gt;Z\xf9G\xc5\xdf\xb3_\xede\xfbR\xfe\xc7^"\xfd\xa8\xbc!\xa7\x1d\x17\xc3zd\xb1\x9d7\xc3\xe1\x1eMKX\xb3/\xb6K\xb3\xfd\xd4@s\xb4u\x15\xf2\x1f\xc5[o\xb6x?\xc366\xbe\x13\xd24\x0b\xcd\x1a) \xd4\xaf\xac\xb5i\xa4\xbc\xd6\x8fP\xf2\xc5!\xd9\x19^\x9bS\xdf95\xf6\xef\xfc\x13\x83\xf6/\xfd\x9f|}\xfb!\xf8\x9b\xe2\x9f\xed\x1b\xe3;\x8f\r\xea\x93^\x93\xe1=R)\x1c]D\x80rL.&gt;`H\xc6\x08\xfa\x1a\xe55\x8f\x04xgF\xd4\xf5(t\x7f\x18\xda\xeb\x16\xb6_2\xde[\xd8\xbc\x17\x97\x83\xa7\x11\x80T\x90\x06H${W\xd3\x7f\xb1\x97\xc3\r\x13P\xd1\xa5\xf1T\xd77\xf2\xea\x90\xb4wZ\x14\xcbd\xd1=\x9bFC\xee\x95\x1c\x0ep2\x08\xc8 \xd7\x89\xff\x00\xc1\xcd\x9e\x17\xd25\xaf\x8b?\x02\xbe&gt;\xda\xe9\xed6\xad\xe2O\n\xb6\x91\xae\xa4\x03?iXd\x1eR\xe7\xb1\xf9\xdb\xf3\xae\xb3\xe0O\xfc\x1b\x85\xf0\xafX\xf0\x06\x8f\xe3\x9f\x8e\xde&gt;\xd5\xe0\xd5\xb5\x1d&gt;;\xd6\xf0\xae\x82\xa8\xa9k\x1c\x8a\x19&lt;\xd9\x98\x16f\xc1\xe4\x0cW3\xfba\x7f\xc1\x11\xbff_\x87\xbe\x01\xbe\xd4&gt;\x1ai\xba\x9e\x9d\xa9[\xdb\x19m\xe6\x96\xfd\xa4\x12\x11\xd8\x83\xc75\xf0?\xc0i\xf5=\'\xc0&gt;!\xf0\xc6\xa0|\xbb\xaf\x0e\xeb`\\FGH\xa6\xdc\x8c\xe7\xd0y\x9bF}\xeb\xd3\xff\x00g/\x01\xcfu\xe3\xfd:\xe3\xc4\x17\xd2\xff\x00g\xda\xdd\x86\xbe\xb5\x8d\x03\x19\x15\xf22A\xe0\x8ct\xe0\xd7\xea\xe7\xc2\x9f\x89?\xb2g\xc1f\x83K\xf0\xef\xc0\xc7\xd5\xee\xa1\xd3\xa1T\xd5\xf5\xeb\xc6\xbd1\x95P8\x89\xb0\xbct\xdb\xc0\x1d\x06*\x7f\x17\xfc}\xd1u[\x99\xd4x\xdcX\xc3r%e\xb5\x8bG\x86\xdf\xec\xc1\x8e\xe5U*rp;\x9a\xf9\xd3\xc6P\xfc(\xb5\xb9\xb9\xbb\xd4\xf5\xfb\xcda\x9eV\x923;\xefh\x9f\xd5}9\xe6\xbc7\xe3l\xd7\xde\'\xb4\x16\xdaf\x8fs\x15\xa4XD\x98\xc7\x97a\x9e\xf8\xf5\xac\xaf\x05|)\xbb\x83K\x87R\xd4,\xd0,\x92mP[\'\xdb\x8cq^\xbf\xfb6\xf8\x07R\xb3\xf8\xed\xa7\xeazM\xbc\x976\xfa.\x9fy\xaa\\\x98\xe3$\xa4\x16\xf04\xb2\x1c\x0ep1\x8c\xfeU\xf3W\xec\xcbdu\xdf\xd9\xf7_\xd3\xda\x12\x17V\xbb\xd6.\xf6\x96\xc0\x0b$\x8e\x13\x1f\x80\x06\xb9\xbf\xd9\x13\xc6\x1a\x8f\x844\xbb\x8b8\xe7c\x1c7\xad\x08\xf9\xb0\x06=\xab\xda\xef\xbe\'\xe9\xfa\xc5\xd1\xb2\x9c\xaa\x19\x0e\n\xa7\xd3\x93^\xb3\xff\x00\x04\xeb\xf0\x91\xd2o\xbc}\xae\xef\xde\x92\xea6\xb6\xd0\xb1\xc7\x01RI\x0f\xfe\x8cZ\xfaVA\x92}*\xb4\xab\xd4T;\x05l\xc4\xb9\xc7\x15f%\xc0\x1e\xf5\xdb\xfc\x10\xb6\xb4\xbb\xf1\x94\xb1]\x81\xce\x93vP\x1e\xe7\xcal\xfe\x99\xaf\xae~\x03\r4\xea\x16\x1aM\xa5\xbck\t\xb4\x1fiX\xc0\nWoB\x07_\xfe\xb5zE\xcf\xc33\x91q\xe1\x9b\x7f\xdd\xcc\x0e\xe8\xce0G\xbe\x7f\xcf5\xf95\xff\x00\x05[\xf8\xdd\xf17\xf6/\xfd\xa3\xb5K]J\xf6\xff\x00U\xf8y\xe3\x8f\x0f\xaf\xdb|=$\xbf$\x17\n\xe1L\xd6\xfb\x81\x10\xba\xb8C\x90\x00n@\xc7Z\xf2\xff\x00\xf8*\x8f\xec\r\xfbX\xff\x00\xc1W\xbe\x0e\xfc)\xfd\xad~\x00|2\xb1\xd4u\x13\xe1\xe9\xec\xbcO\xa7\xda\xea\x91\xc5"\xaa?\x99\x1c\xc8\x92\x91\xb8\x1eWfr\xa4\n\xfc\xc1\xf8{\xf0\x0f\xe2\xff\x00\xec\x89\xfbix\x13\xc2\xff\x00\xb4\x17\x805?\x0f\xdeG\xe2KUh5+S\x1f\x98\x19\xc2\xe4\x1e\x87\x96\x1c\x8a\xfd\x82\xfd\xa4\xbe\x19\xfcI\xf0%\xc4~3\xd1\xb4\xbb\xe8\x97M\xb8[\x8b]B\xceL\xbf\x94\xc3\x85\x91G\xfa\xc4\xeb\x8a\xf0\x1f\x82\x1f\x0b\xb4/\xdb\xb7\xe3\xf0\xf8[\xf1[R\xb8\xd3\xb4+\x06\x96\xf2=29\n6\xa3p\x06\x13vN\x1bi9\xc1\xaf\xba\xbe\x12\xfe\xc3s\xfc\x1a\xbbm;\xc2Z\xc5\xd3\xd8\x0bv\xb76\xe6\xe6LK\x10\xeb\x1b\x00\xd8\xd8{\xa8\xaa\xda\xa7\xec]u\xe1M&amp;s\xa3x\x03\xc16P\xdc\xdd\xb5\xda\\\xdc\xe9\xa9#\xc0\xec~d_8\xb0\xf9\x97\'\xa7\x06\xbez\xfd\xa4|3\xf0\xd3\xc0\xb35\xe7\x8c&lt;Eg=\xc1\x90\xee\xb7\xb6_/\x07\x03\xe5\x8e8\xf0\x1b\xf2\xae\x13\xe1\xa7\xc0\x9f\x8c\x1f\x12u\x885\xbf\x06\xf8;\xec:\\\xf3\x01o{\xa8\x0f%\xa4\x19\x18\xc2\xb7\'5\xf6\x7f\x83&gt;\x1ex\xb6\x7f\x0e\xc3\xe1\x0b{\xff\x00\xb6\xde,b\xd6c\x04\x0b\x146K\x8c\x18\xd2A\xcb\xb1\xeaI$zW\xc6\x1f\xf0U\xfb$\xf8\xbf\xff\x00\x05\x0b\xfd\x96\x7fd\xad1\x05\xfd\xce\x95\xad[\xcb\x7f\x0e2\x1a#u\x13d\xfa\x8d\x88\xff\x00\x95~\xc5x\x9b\xc2Q\xdcj\x8e\xf6v\xa2\x18\x15^8\xde \x00\xd8\xbd\x06\x078\xf4\xf4\xaf*\xf8\xbd\xf0&gt;\xcb\xe2\x07\x83/4{\xebxg\x8eKgP\n\xfc\xc0\xe3\x83\x93_\x80\x9f\xb4\xa7\xc3K\xff\x00\xd9\x87\xf6\x8a\xb8\xf8\x91}\xa5\xb4\xbe\x1e\xb9\x92M/\xc6v\x91(b\xd6\xce\xc5\x1a@\xbd\xd8g#\xdcW\xb0~\xcd\xbf\t\x1b\xc5\x9a5\xccP\xdf\xc5\x1e\xab\xa5[\xc7u\x04\xc90\t\xa9Y\x9ec\x9e\'\xe9"\xec \x91\xd5O\x07\x9a\xfa\xdb\xe1\x97\x85!\xd7\xbc5\x12\xeb\xbaz\xbc\x17Qm7\xf0\xb8\xca\x81\xfd\xe5\x07 \xff\x00\x85tz\xa7\xec\x91\xa7\xeb\x16\xc2\xeeK\xd6\xcb@\xb9\x1b\x80\x12\x01\xcf\\\xe7\xa5`\xc3\xfb\x1b\xe8I#&lt;\xdaD\x8c\xa1\x81W7\xed\xf3\xfeg\x8a\xbby\xfb/xN\xefA\x9e\xd3L\xf0\x0b\xc7 ^n\xe2\xd4\\\x90\x00\xeaC\x1cW\x84x\xd7\xe3\x1f\xec\xaf\xf0Z\xf1\xbe\x1d\xf8\xcf\xe2\xcc\x17:\xb2\x9c\x8b/\x0cZ&gt;\xaft\xad\x9f\xb9\xb2\x0c\xaa\xb6x\xc3:\xd7\x9bx\xdb\xe2\x9f\xed!\xe2?\x12G/\xc0=+S\xf8o\xe0\xd9\x90Ey\xae\xea\x8e\xa3Z\xd4\x93 \xbf\xeeW&amp;\x14nF\xc3\x9e\x0e\x0ej\xaf\x864\xbd/\xc3\xda\xacZ%\xa5\xb9\x16\x8b\x01\x88\xa0\xc0\xdd\xb8\x1f\x98\x81\xc7S\x93\xf5\xaf\x9e\xfc\x13\x14\xda\x15\xf7\x8at\xe6\x91Ua\xd6\xa5\nPt\x04\xd4~\x19\xd4.\xef|c\x1ay\xaf(2\xe7\x04\x9ey\xf4\xaf\xd0\xff\x00\xd8.\xc2+_\x84:\xbc\xc2&lt;K\'\x8b\'\xf3\x9f\xbb\x11kk\x8f\xd2\xbd\x9aA\xc9\xe3\xadV\x94w\xa8v\xb7\xa5l\xc3\x8f\xd6\xadE\xce1]g\xc2\t\xe0\x83\xc7\xd6It\xfbR\xe29\xed\xf2;4\xb0\xbck\xff\x00\x8f0\xaf\xb1\xbfg\xcd+O\xfe\xc0\xb0\xd7\xa2\x8b\xcb\x90\xa8\x85\x8e\xeedm\xb9\x02\xbd\xa3G\xf1\xe6\x9d\xa3[6\x9fpU\x88\x1c\x9d\xdc\xd7\xe4\xe7\xfc\x1c\x8fw\xe0\xdf\x1ex\x7f\xc1w\xfaE\xa1\x17\x9a6\xa7&lt;w\xd3\x81\x9143(!I\xef\xb5\x97#\xd0\x9a\xfag\xfe\t#\xac[\xea\xff\x00\xb0_\x82.\xa1\x94\xb3Y\xda\xbcn\xc4\xf7W#\x9cs\x9e\x06k\xc2\xbf\xe0\xe0o\xd9\n\xe7\xf6\x86\xfd\x8dn~\'\xf8\x1b\xc3)?\x8d&gt;\x19\xea\xb1k\xfa]\xe5\xbd\xb8\xfbD\x96\x91\xb1\xf3\xa3\x07\xa9\x03!\xf1\xfe\xc1\xafG\xfd\x97&gt;!\xf8C\xf6\xd0\xfd\x8a\xfc\x11\xf1SG\xfb-\xf9\xd5\xf4\x08-u@\xdd"\xb9\x8d\x02\xc8\x87\xd0\xf1\x9cW\x9fx\x97\xfe\t\xf3\xe1;MM&lt;q\xe0\xe8\x9e\xda\xea\x0b\xa3\x8b\x98\xdbi\x8b\'8\xe3\x07\x93\xde\xbd\x0bI\xf8s\xf1\x92\x1b\x05\x83I\xf1\xde\xa3\xe7\x80p\xbex\x91\xb9\x18\xe5\x8e\x08\xfab\xb8\xad{\xf6K\xfd\xad\xbe%\xea+\xa4x\xa3\xe3\xae\xa5\x0e\x9e\xc3r\xc1f\xbf\xbd\xda\x0f#y\xe9\xd3\x1d\ro\xf8\x07\xfe\t\xc5\xf0W\xe1\xee\xae&lt;E\xe2?\x0c\xae\xab\xa9\xc4\xab!\xd55\xcb\xb6\xb9\x93\x7fr\x03\x1cg\xe8+\xd34\xcf\x83\x9a~\xb1\x7f\x05\xa5\x9e\x9d\x14p\xa1,\xf3\xb2\x95p\xbf\xddL\x10\x178\xeb\x8a\xab\xf1\x9f\xe3\x1f\xec\xff\x00\xfb-x\x0e\xe7Z\xf1w\x8bt}.W\xc4\x16f\xfa\xf5"\x8a\xdeW\xf9D\x92\xc8\xcd\x80\x17;\xb1\xc98\xc0\xeb_\x0f\xff\x00\xc1.&gt;\x15\xdc~\xdb\x9f\xf0W_\x89\x1f\xb7\xcd\xd4\xd6\xfa\xef\x80\xfe\x1fZ.\x8f\xe0}r(H\xb6\xbc\xb8\xd81$;\xb0F\xdd\xd2\x13\xc7\xf1/\xad~\xbb\xe8\x16\xc3S\xd4Z\x16\x8d\x8c/\x90x\xe9\\\x8f\x8ct\t\xb4\xd3ud\xd0\xf9q\xe0\x85c\x8cs\xd2\xbf \xff\x00\xe0\xa4\xff\x00\x06-\xb4\xef\x89\x17z\x83\xf8}%\xd3\xb5Gqs\x13\xc4\x1a7\x07\x83\x9c\xf6?\xd6\xbe\x1f\xd0\xfc\x15\xfbQ\xfc\x1</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Sundar pichai.jpgSundar Pichai</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00\x81\x00\x81\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xb5\x1c~\xd5&lt;q\xf1\xd2\xa5H\xbf\xfdUb\x0bv\x91\xc4j\xb9$\xe0\x0fS_\x17\xfe\xd3\x9f\xb4\x87\x86\xbe-\xf8\xfa\xe6/\x0b\xdd\xbc\xba\x17\x84a\x9a\x0b{\x80\xfb\x04\xd3n\xdb,\xe9\xceHwP\x80\xe3;bS\xdc\xd7%s\xe0I\xfe\x16\xfc.\xb5\xf1\x87\x8b.\xed\xa1\xd6|\\\xe1"\x8aH\xfc\xdb\x9b{l\x16\x92m\xa7\xee\x9d\xb8\x00\xf7\xcdy\x042\xddx\xb2\xfe\xe7T\xf0\xcd\x8c\xc3MG6\xf1^N3+.\xdc\x95\x04\x9c\x13\xb4d\x80@\x02\xb2t\x19|\x8dy\xad\xb4}\x12\xde(\xe1\xff\x00V\xa8\xe7q|s$\x87\xd7\x8e\x00\xfdk\xbb\xf0\xff\x00\xc3\xbf\x15\xdc\xc2\xda\xc4\xba5\xa4\xb7\x17\xc6F[\xcdv\xec\x04\x85T\x0c\x95V&lt;\x0ct\xc9\xe6\xb9\xaf\x18i\xd0\xf8x\xc9o`\xban\xa9%\xbb#5\xfd\xb9/m\x19&lt;\x9cI\x80\xbb\x87L\x0c\xfdj\x87\x85|G\xe2?\x12x\x82+\x084=?Whc|\xc7\x0c\xe8\xcf/\x07\x8c\x11\x8fm\xb5\xd7\xb6\x81\x16\xa7a\x9bo\x02\xdd\xe87\xf1\x1f\xde\x15\xb7_-\x8e8\x05\x1b\x809\xc7=k\x98\xd6&lt;9\xaeZN\xba\xad\x85\x84\xfaE\xcd\xb1\x06[\xad6\xe0,\'\x8e\xaf\x08;q\xd7\xa5U\xd5\xf5\rc\xc5\x16\x0b\x16\xa7ckx\xd1\'\xcb7\x93\x89\x1f\x8eX0\xc1\xc1\x1d\xbbV\x1c\x1f\xd90[\x1d?G\xd2\xe3\x8d\xa5\xc4r\x89\xb4\xe52\xf3\xf2\x9d\xacrw\x0c\xe7\xa5u\xd6\x9f\x05&lt;I\xe2KD\x827\xfb5\xa4*\xae\xce\xef\x19\x96D\x1d0B\x8c\x9fj\xd0\xff\x00\x85y\xe0\xef\xfa\tx\x97\xfe\xfaO\xfe*\xbfO\xd2?j\x9e8\xf9\xe9SE\x0fJ\xf2\xef\xdb#\xe2\xcc\xbf\t~\rH\xbae\xf8\xb7\xd4\xb5\xf9d\xb1\xb5\x91H\x0f\x0c\x02&lt;\xdcJ\xb9\xfe \xac\x88=\x0c\xbb\x87+_\x0bh\x03J\xf8[+k\x9e,\xb3+4\x89\x1c\xf6\x1a\x0c\x96\xfb\x9a\xe0u\x8dd\xc7!X\xfex\xae\x8a8u\x1f\x8aWz\x97\x8b\xbe#j\xb7\x16R\xb5\xba6\xa2$}\xbbX\x82\xd1X\xc3\x93\xf2\xae\xd0\xdb\xb1\xce\x00\x15c\xc4:\xa7\x87\xb4\xbf\x856Z\x0cr\xdb\xd9\xc1\x14El\x12+p\x1a"\xce^g$}\xf08L\x9eMy\x1d\xdd\xf5\xe5\xd5\x82\xe9\xda5\x8f\x91h\x92\x89\xf7\xee\xc3N\xc0s!n\xb8\xc8\x1c\x1e\xb5\xa1\xa7\xf8\xde\x1b"VkY\xf5\t\xa6\x83\xcb\x9ey\xa4f\n\x85\xb2U\x01\xe1r\x7f\x8f\x92:\x01\xcdt\xb7&gt;\x18\x9f\xe2\x16\x82\xbav\x9f\x12Yiv\xe9\xbdt\xdb\x19\x18\x04+\xf3\x06$\x85\x07\x93\xcez\xd6&amp;\x9f\xe0\xdd;\xc3\xc2K\xed&amp;\xe4\x0f.Pd\x92\x15\x02X\xdb\xa6U\x94\xf0qZZ\xf7\xc5\x0f\x10\xdb\xdbMd\xbe(\xba\x8d\x04aD\xba\x95\x92HH\xc0\xe0\xbfP}\xeb\x8f\xd0|{\xe2\xeb9\xae#}N\x0b\x8bi9\xf3]\x03*\xfeg\xa1\xa8\xf5=b\xdfP\x02\xee{\x88\x99\x91\xb7I,O\xb7\x03\xe8:\xd4\x96\xfa\xa7\x83\xe7Csyy\xf6\xa7\xc7\x12[?\x95*\x7fC\xf8\xd5\xdb\x8f\x14\xebo\xa5\x1d\x07\xc3CS\xfb\x1b\x06\xf9\x16\x1c\x83\xe8x\xe9\xf8V\x1f\xf6W\x8e\xff\x00\xe8\x1bq\xff\x00|\x1a\xfdy\x8e&gt;*x\xe3\xa9\xd2.\x99\xaf\x9a\x7fl\xb8\xf5\x0f\x89\xdf\x1e\xbc#\xf0[\xc2\xfaa\xbb\xba\xd3\xf4\xe6\xb8\xbe\x8aL*\x03t\xea\xdc\x93\xd3\x11[\xa3\xe7\xfd\xa3_.\xeb\xba\xed\x9e\xb9\xe3\xcf\x13x\xfe\rF\xda\xf4hL#\xd35\x0b\xb4\xd9=\xed\xd9}\x8c"N\x87f\xdcg\xa6+F\xda\xe2\xf7\xc7\xeb\xa5|;[h,\x92[\x89o\xb5\xdb\x90\xf8[E*\x0bLI\xce\xf9\x02\x82\x02\x8e2\xf8\xae?\xc7Q\xdc\xf8\xbbZ\xb8\x1e\x15\xb7t\xb4\x86o\xb3\xe8\xb6\xb0\xc6Y\xa7\nq\xc8\xe7\x1b\x80\xc9=2j\xfc\x9e\x10\xd1\xb4\x0f\x0e\\\xf8\x83\xc57S\xb5\x95\xd4\xcbmd"\x8co\xbae\x07;A\xfb\xb1\xae\xd23\xd4\xf1\\&lt;\xfa\xe5\xee\xb5\xaa\xc3ki\xa7\xa5\xa5\xac\x0eQZ7$(\xff\x00j\xbb\x9d"\xdf\xc6_g\x16A-f\xb0n!i\\\xa8o\xf6\x82\xb7\x07\xea+\xa6\xd3\xf4\xfd\x13\xc3:l\x93_jPy\x851*\xac\xa1\xc7\xd0\xe3\x81\xf4\xac\xc7\x1aF\xbe\xefch\xf3l`\x02E\x14BU9\xf5\x1c\x9e\xbe\x95\xd8xG\xfe\t\xeb\xf1w\xe2\x1c\x91\xea~\x19\xf8Q\xe2;\x85\x95w\x08\x96\xc1\x95$L\x0f\x98q\xc8\xafO\xf0\x8f\xfc\x11\x97\xe2V\xab\x1a\xea\x1a\xc5\x82\xd8\xeeR^\x1b\x86\xe1G\xbe\xd3\xf8W\xa9\xf8\x1f\xfe\x08\xe3ka\xaa\xd8\xb4\xbaW\xda]\x003-\xacY]\xa0\xf5\xe4\xf3\xf8W\xd4\x9f\x0e?\xe0\x9a\x1f\tt=*\x01\xa9\xf8p\\H[\xe6\x89l\xc0\xdb\x81\x91\x92\xde\xf8\xae\xcf\xfe\x18\x03\xe1\x9f\xfd\x08\x1aG\xfd\xf8O\xf0\xaf\x03\x8a&gt;zU\x88\xe3\xe3\xa5Y\xb5\x81\x1eUY\x18*\x9271\xec;\x9a\xfc\xda\xf8\x8f\xe2\xcf\x10x\xcb\xe2\xcf\x8c&gt;/\xdc-\xd36\xb1\xa8M\xfd\x9f\x12N\xd1yv\xcb\xfb\xb4BA\xf9T"\x0c~U\xc3\xf8{V\x1a\x97\x8c\x96X\xe3\xb7\x88\xd8\xd8\xb3]\x19-\xc1\x8e\xc6\x002]?\xbe\xe4q\xeb\xf3\x0fJ\xd1\xf0$3\xf8\xa6\xdfU\xba\xb0\xd4\x0e\x91\r\xf5\xc1u\x17*\\\xc3j\x9c\x86\xf9~m\xf89\xc7\xa9\x19\xa9\xf4O\x1b\xd9\xd9\xebq\xea\x1am\xb4\x91\xf8|?\x94\xb7\x97v\x05&amp;H\xf6\x91#\xb1\xceFz\x95\x1d\x9b\x8a\xa5\xf1\xf3R\xba\xf8\x85\xf1\n\xdbC\xf0F\x8e\xb6Z]\xa5\xb7\x95g\xa6\xa4\x85p\xa13$\x8c{dr\x07\xa5{\xa7\xec\x1b\xfb\x08\xa7\xc6\x0f\x16[\xde\xea\xd6o&amp;\x95\x04i&gt;\xc7\xfb\xb1\x80W\x1b\xb1\xf7\x89\xe7\x8a\xfdN\xf0\xd7\xec3\xf0\x82}\x1d|1\xe2\x1f\x05\xe9s\xc4\x85G\x93\xf6P\x03|\xa3\x82z\x81\xec:\xe7\xadt\xde\x15\xff\x00\x82m\xfe\xcaW\xd7\x91Cy\xf0[Ey\x96M\xd0G\x05\xae\x13=\xc1\x04\x91\xf9\xd7\xba|=\xfd\x90\xfe\x00|4\x8e+\x8f\x0c|#\xf0\xe4\x0f\x12\x86f\x93G\x85\xd8\x91\xce\x01\x08\x08\xfdk\xbf\x8c4\x80\xcdoe\x15\xbc\n@\x88G\x02\xaa\xa8\xc7\n\x02\xe3\x03\xda\xb1um\x02\x16\xb5\xbay`\xb0\x95f\xca\xa9]=\x17c~u\xce[\xe8\xf3\xe9\xe3\xcbx`B\x87\x01\xa0\x84\x02\x00\xfc*\xdd\xe8\x83g\x9a#9t\xc1\x1f\xec\xfa\xfdy\xa6\xe2\xd7\xfe}\xff\x00\xf1\xea\xfc\xe0\x8a0{U\x88\xd3\x9ejx\xe3\xb6\xda\xe6\xf2q\x0c"\'3K\xfd\xc4\nw7\xe03_\x9a\xde\x02\x9bM\xbf\xf0\'\x8a\xfca\xaf\xde=\xfd\xc5\xb4\xab\x1e\x99d\xad\x81yq#0E\'\x18\n\xaa2y\xfc+\x8d\xf0\xdf\x834\xd9n\xa3\xd0\xb5mb-8\xc53\xbe\xbb"\xda\x99\x04\xcd\xc6\xd8"\xdb\x96c\x9e\xbd\xb8\xae\xb3X\xf0\xf6\xa1\xe0]\x06\xcb\xc4\x93\xdb\xddi\xb6\x1b\x1f\xfb8N\xbeS]\xb3\x1c\x96\x08\xc41\x8f\x8e\xad\x8c\x12x\xae\x1bT\xf1c\xea\xba\xb0\x16-y\x7fp\xb2\x96\x8a\xdc6c$\x81\x95\x05\xb9E\'\x8c\x0c\x03\xeb_A\xfe\xc5\xff\x00\xb0\x8f\xc6\xaf\xda\x07\xc7\x1et\x1a\\\x96\xd6\xd7\x8c\x92\xea\xd7\x97\x80b\xda\x12\xde\xa0\x9c\x928\xc0\xed_\xb2\xbf\x02?f\x0f\x01|\x0c\xf0\xf5\x9f\x84\xbc!\xa0F\x89i\x12\x89fh\xc0{\xa6\xc7\xcc\xcd\x8f~\x95\xeb\xba\x17\x85!\x99PO\x1by\x8c\xc1\xdd\xc0\xe8=?*\xed&lt;?\xa1A\xa7 6\xf6\xd8vl\xa4\xac\xbc\x81\xea+\xa4{\x06\xb9\xb4*\x15\xa3\xdb\xf7\xd99\'\xf1\xaa\xb7\x1aX\x865\x81#\x88!\x1f9c\x82A=k+W]-\x07\xd9D\xaf\xb8\x0f\x94\xc7\x1f\xdd\xf4?Z\xe6uhg\xb7\x98\xdc\x937!\x8b\xc8\xe4\x11\xb3\x1d\rd\xc1reg\x8bn\xe5L\x1f0rB\x9e\xc0V\x86`\xfe\xf1\xff\x00\xbe+\xf3v8\xf1S\xa4g8\xc5Q\xf1\xc2\xcc\x9f\x0f\xfc@\xd6\xf1+7\xf6\r\xe0\n\xe0\x90s\x03\x8e@\xe7\xbd~a\xf8\x7fJ\xd5t\xdbQ-\x9c\x0c\x96\xb1j\x0fywn\xaaDnT\x0f,`\xf6\x07\xa0\xff\x00h\xd5-\x0f\xc5\xba\xbd\xd7\x89\xe5\xf1n\xa4\xf6\xf7\t\xa6\xdc\x996&lt;N\xaa\xf31\xfb\xa1W\x00c\x8a\xaf\xf1?\xc4\xba\xd7\xc4]t\xdcj\xd7\x7fh\x9cF\xa1\x17%\x96\xda#\xce\xd4Pp\xa0\x12x\xff\x00\x1a\xed?eO\x81:\x7f\x88\xbe$\xd9\xcd\xe2I\x99\xf4\xe0\xfb\xe7\xdcz\x85b\x06\x07`H\xaf\xdb\xaf\xd8\xb3\xc2Z\x07\x83\xbc\x19\x17\x87t\x1f\rA\xa7\xc6m\x91\xd62\xbf1\xc6&gt;\xf1\xef\x9a\xf7\xe8\x15~\xd3\xbf\xca&lt;\x0eB\xf7&gt;\x82\xba\x1d-\xa3\xf2\xc4\xd1\x0c\x15\x18(z\xa9\xf4\xad\xdd\x12\xf9\xae%\x0b*m\x11\x8c\x02\xa3\x8cWG\x0c\xb0E\x1a\xf9\x92\x02H\xce\x0bdb\xab\xea\xd7\x88\xc8\xbfg\xb7B\xe8\x0b+\x1fQ\x8cg\xda\xb9]J\xeeK\x8b\x83,B1\x0b\x93\xe7?\xa1\xef\xf8\x1e\xd5OSpl\x9e\xd6\x18\xd4\xc4U\xb1#\x0c3\x1c{\xfau\xaeu\xe2x\xe5\xcc7hY\x08R\xd8\x18#o\x03\x8f\xc6\xa9\xff\x00h]\x7fy\xbfZ\xfc\xfc\x8e3S\xc5\x1f\xff\x00Z\x9dy\xa7I\xa9\xe9\x97Z\\\x0f\xb5\xae\xed%\x81[\xd0\xba\x15\x1f\xce\xbf;&gt;$i\xd7^\x19\xf0\xe7\x88d\xb8\x99a\x97M\x93\xec\xb7\xb0&gt;#\xdd0r\x0bdw8\'\xf2\xaf\x1f\xbc\xf1\xaf\x8a,t\xc8$\xd4\xb5[\x9b\x8bPCZY\xbc\x83c\x13\x91\xb8\xe0\x0e=O\xb0\xad\x0f\x84\xf2\xea\x11\xf8\x99\xf5{\x84Aj\x8c\x00O\xbcK\x8c\x96\x07\x8c\xb0\x19\x06\xbe\x80\xfd\x9f\xa76\xba\xde\x93\xacj";Qw0\x88$Gz\xb33\x12A\x1d\x86HP\x7f\xbcE~\xad~\xc9\xfa\xe4\x1fb:]\xaa\x9d\x8b\x02$\x8f\xb3\xa3u#=\xf1\xeb_C\xc1r\xb6\xf1B\xd2\xb6p0}G\x15\xafiz\x98T\x82A\xcf,I\xe4V\xacz\xd40[\xa5\xc6\xc3\xb0p\xce$\xc1\'\xe9Z\x96z\xcd\xbcv\x8ds\xe7\x96\x12(\x11\xee&lt;\x8f\xc3\xfa\xd2\xdd\xea\xf2\\C \x00!e\x01\xc9==:V\x1d\xf4\xa8bd\x9c)\x03\x9d\xeaq\xda\xb3n5\x02b\xf2\x8b&lt;\xa3n\x06\x07\xdd\xa8\r\xaf\x99\x14\x93\xec1\xe60\xc3\x00v\xe3\xf3\xe6\xaay/\xfeV\xbf?#C\x9e\x95b$&amp;\xacB\xa3p?\xad~}\xfe\xdd\x1a+\x9f\x8c\xda\xcd\x96\xa3a$Zm\xc6\xb9s=\xf2\xc4\xbf#\x94e1\xe4\xf4\'\x198\xfa\xd7\x82\xc1m\xa7\xfcD\xd5n4K\x0b\x17\x8fK\xb6\x81\x9d\xb5)\x0f\x96\x96\xd2\xa6\x19"bz#\x02C\x1f\\b\xba,\x0f\x0f\xe9\xf6\x93]\xdb\x8d.\x08\xa0\xf3%y\x1c\x1d\xc8\xe7\x80\xbbNX\xe3##\xb0Z\xef\xbe\x0c\xff\x00h\xf8\xcb\xc6\x16\x1a~\x8e\xf7\x08\xe6(#\xd3,\xc2\x15\x02 \xd9,\xde\x99\xe5\x89\xf5\xc69\x15\xfa\xdb\xfb\x1ej\x96\x9a&gt;\x8c\x9a|\x17m2[[\x06\x95\xf3\x92Xp:\xf3\xce\x7fJ\xfa\x1e/\x10\x11\x00\x88H\xa8\xe7\x92\xc0e\x8f\xb5Y\x1a\xd7\xcf\x19\xb7\x90)\x19/\x81\xf7\xaa\xf4:\xa4\xf7\x11\x88\xd0\x16\x07\xa37A\xf8V\xa6\x8f$\x9b\x84\xc6V*\xbca\xf3\x81\xf4\xad{\xc9\x9b\xc9.&amp;\x05p&gt;Pq\x9f\xcf\xadfH\x97\x9bN\xcbr\xc1H\'\x7f#\x15)\x12\xc8Kyi\x13\x01\x92\n\xfc\xbc\xfa\x11\xd2\xa2{V\xf3\x906D\xaa\xbf(g\xc8o\xa5;\xec\xfa\x9f\xf7\xe2\xfc\xff\x00\xfa\xd5\xf9\xdb\x12\xe4\x8c\xf1V#P*x\xe3 {\x93_\x1f\xfe\xde\x9e\x14\xd6\xb5\xaf\x89\x1a\xd7\x85t\xe8f]\x1e\xfa\xda\xda\xf9\xe5\xbap\xb6\xc9v\xf6\xc9\xe6\x1c\xe3\x86$1\xef\x9fj\xf9\x1bS\xf0\xc6\x9f\xe0\xe9N\x81\xe2M~Y\x1d\xa6I\x06\x99\xa4)\x16\xd3\x80\x08\x04\xb9\xc9\x97\xaf\xdd\x02\xb9\xadMo\xf5\rZi\xb5\x14\xddp\x97\xa8\x91.\t\xfb:\x00B\x80\t\xea\x06+\xdb?g\x7f\x15\xeaW\xdf\x10/&lt;Whv\xb5\x9d\xb4v\xd9^\x0f\x04a\x07\xa1`3\x9fz\xfdg\xfd\x8at\xfdfo\x0b\xb6\xbb\xe28v\xddj\n&amp;\x9f\xcb\\\x00\xbd\x15=8\x15\xefpI\xf6\'X\xc4\x81\xdb\x19,z}+WO\x95\xb5\x0b\x81\xd7r\x82w\xaa\xe0\x11]f\x81\xa6Y\xcec7G\x86&lt;\x82\xf8\x00\x0f\xa5u\xb6\xba\r\x8c\xf6\xec\xe5\xc2\xa2\x90ch\xff\x00\x88\xfa\x01\xde\xb5\xect\x15\xbf\x87m\xc1hd`6.\x00\xc9\xcf\xa1\xa7\xdf\xf8C\xc8,`\x99d\x0e\x81\x81\x03\xef\x8f\xc7\xa5b\xea\xbaD\xf2\xc4nm\xa5\xdc\xa3 \xc4@+\xf8\x81\xcd`\x8f\xb4[\xf9r\xab\x97]\xa3\xe5t\xfb\xa4\xfa{U\xdf0\x7f\xcfe\xff\x00\xbff\xbf:#@y\xab\x11\xa6:\xd5\x88\x93\x1dG\xd2\xbeN\xff\x00\x82\x8a\xf8j\xe2\xe7\xc4\x9aE\xae\x8d\xe1\xc9\xcd\xce\xa3o$\xafy4\x83\xca\x91\xb0\x91\x86\xeb\xf7T&amp;1\x8c\x16&amp;\xbex\xf1\x8f\xc1\x8b\xdf\n\xf8Z\xdf\xe2G\x88-\xe4\xbf\x9a\xe5&lt;\xad$\xc2\x80\tn\xb0w\xca\xac\xdc\xecP\x00\xc0\xc6\x7f\n\xf3\xddO\xc3\xf7Z7\x86\xa2\xd7\xda\xd1!\xb6\xb6\xb3k\xa9\x1c\x9c\x99\tb\xa3,z\x9d\xc0\xfe\x82\xbd\xa7\xf61\xf8\x1d\xaf\xf8\xc7\xc4\x1a\x07\xc3\xab&amp;O\xb6jqA\xaa\xeaD6&lt;\xa4\x91\xb7F\x0f\xa9\xd8T\x91\xd8\xf1\xda\xbfc\xbe\x15x1|\x03\xe1\xbbo\x0f\xc0VA\x0ca^Rq\x9fS]J\xc7$\xa3\x0c\x01\x04\x9d\xa3\x1f\xc2:\x9a\xaf\xff\x00\t\xf6\x83\xa6\xdf\x0b\x03\xa9\xc2\xb2\x05\xf9\xb1!\x1b[=\x0f\x1f\xadu\x9aw\xc4_\n\xdbX\xbd\xfe\xab\xacCm\xe4\xe4B\xbex\x1es\xe3\x8cg\xaf\xe0*\x8c\xbf\xb5\'\x82t{`u=zK\x19\x0bmS1"1\x93\xd5\x98\x0c\x01\xf8\xd5\xcf\x02~\xd6\xbe\r\xd5\xaf.!\xb3\xf1\x15\xa6\xa1qi\x92\xa5.\xc3\x82q\xfd\xde\xb8\xc1\xeb\xd0\x0ekgZ\xfd\xa4\xacn\x9a\xc2\xf2\xcae\t$\xbfg\x95-e\xc8\x85\xb1\x9d\x87\xd4\x91\x93\xf8{\xd6\xfe\x8b\xf1{A\xd7\xac\x9e\xfa\xd2\x11\x13G\xc3\x05\xe8x\xefI\xa4x\x8e\xc3\xc4\x8e\x93G&amp;\xd3\x1bcnF\rj}\xaa\x0f\xf9\xf6\xfdM~pD\x98\xc5X\x8d:f\xac\xc6\x98\x15\xe2?\xb5\x8f\x82.uO\x15\xe9\xdf\x13\xfcAa\x14\xba\x07\x85\xf42\xd3\xdb\xdd\xcd\x84\xd4\'\xf3\xdeH\xad\xc7N7r\xfc\xfd\xda\xf0/\xda\xb6\xf7\xc6&gt;!O\n\xf8\xdf\xe27\x8a\xad\xd6=~\xd1\xfe\xc5\x05\x8cJ \xd3\xa0\x05~h\xd10&gt;\xeeG\x1c\x92A\xaf\x0b\xf1\xfe\xb1\xe1\xed~\xfe\xdf\xc2\xfad\xaemSQ\x11\xccn\xf0\xaf)@\xbeX+\xd1QW\xe6\xf7,I\xcd}\xc7\xff\x00\x04x\xf8Z\x9e)\xf8\x83\xe2?\x8c\xfa\x94\t\xfd\x9d\n\xfd\x9bK\x94\x80w\x85`\xaaW\xdb\x8a\xfd\r\xd4\xdaK\x1bM\xc2~d\xe0\x8e\x99\x15\xe3\xbf\xb5\x9f\xed\'\x17\xc1\x8f\x03Y\xf8sD\x97~\xb7\xaa\x06w\x11\xb0\r\r\xa2\x9c\xbbd\xf1\x93\x80\x02\xe7&amp;\xbeG\xf0\xc7\xc7\xff\x00\x15x\x8bS\xb9\xd5nn\xaed\xba\x99\x9aKi7;\x98\x15\x9b\xe5\x8c\x058f8\xfb\xdd\x07Jw\x8d?k\xcb\xcf\x05\xdb\xde\xcf\xacX\xeb\x92\xdd[\xcc\x85\xae/I\xf2\xe2\x0ep0\x08\xf5\xe3\x00\x8a\xf1/\x1d\xfe\xd9\x1f\x1d\xfcuu}\xa2x{^\xd4"\xb5\x9e5\x10\xd8;\xc8cq\x90J\x12\xe4\xf1\x81\xdb\xa5ex7\xe2?\x88\xae&lt;Ko\xa9i\xda\xf6\xa3\xa7^A(6\xf7\x16\xda\xb3\xa0\x82U\xfb\xca\xeb!\xcb\xa1=\xb3\x8e\xdd+\xec_\xd9\x9b\xc6\xff\x00\x19 \xd5\xd7R\xd4u}?X\xd1\xf5\x86S\x7f\r\xa6\xab\x1b5\xad\xc2\xe4\x0b\x94\x05\x89R\xdfu\x94q\xd7\xa5z\xad\xf7\xc5\xcf\x1f\xf8\x03\xc666z\xad\x85\xcd\xae\x95-\xc0\x80\xcc\xe4\x98\x8b7;\xcb\xa9 \xe7\xb5{g\xec\xbd\xf1\xb7M\xf1\xe5\xcaA\n\xc8\x91\x9b\x92\xdec\xa1L\x80H\x18\xc8\xc9\x04d\xfbc\x9a\xfa#\xed\x16\xdf\xdf\x1f\xf7\xf4W\xe7lJ\x0fQVb\x1d*\xc4j\x06\rq\x7f\xb5G\xec\xe3\xe2\x8f\x8a\x7f\t\xf4\xff\x00\x16X\xebz|\x16\xfa]\xfc\xd3\\\xe9\x177K\xe7\xea\x16\xcb\x1a\xbb\x94\x84\x90\\\x02\xa0n\x07&lt;\x9cW\xc7\xf7\x9f\xb3G\xed\x1f\xff\x00\x05\n\xd4\xb5\x1f\x14~\xcb\xba\xa6\x9d4\xde\x00/\x05\xa7\x87o/E\xac\x97\x91\xa8\xcf\xeem\xdf%\x94t\xe4\x8c\xd7\xcb\x9e4\xf8_\xfbR\xfe\xcf\xde"\xbe\xf0\xd7\xc7\xcf\x83\x9e&amp;\xf0\xf7\x89uM\xd6\xda{jZS\x08UK|\xee\x92\x0c\xab\x1c\x1e[8\x1e\xb5\xfa\xfd\xff\x00\x04\xeb\xf0\x95\xbf\xc3\xaf\xd9\xc3\xc3Z\x1e\x94\xa2+\xe8\xec\x12K\xb8\t\x01\x97s\xf0Nq\x9c\xe7\xa9\xeb^\xb7\xf1k\xe3\xe7\xc2_\x00\xdb\xb1\xf8\x83\xf1/K\xd2\x9e\xd2?9\xe0\xb9\xbdQ+63\xb4 $\xe7\xd8\xe2\xbe+\xf8\x89\xfb^|6\xf8\xe1\xf1&amp;\xfaO\x85\x9e\r\xd4~(kB$\x8a\xd7D\xd0\xd4\xbb\xa0L\xf6\x8c0\x00\xe7\x92J\xf5\xaa3I\xff\x00\x05Q\xf1\xc5\xa8\xb9\xd1\xbe\t\xf8\x17\xe0\x8f\x86,`\x08\xb7\xfe"`\xb2\xa8\'\x1eaBdb\xfd\x06\xd3\xc6GA^\x7f?\xc1\xdf\xda\x97\xc7\x1a\x8d\xe4\x1f\x13?oh\xfe\xc2\xee\xadw6\x99\xa4\xdbXA3G\xd3\x12\xb2\xf4\xc0\xeb\x81\x9a\xf3\x9f\x88_\x03\xff\x00f\x8f\rF\xfa\xb6\xb3\xf1\xe3_\xf1\xad\xfc\x92\x15y\x9bW"\x0c\x8c\xee*\xd0\x95\xeaMr0|;\xfd\x9b\xad\xad\xca\xb7\xc1\x1b\x8dHO\x18,\'\xf1M\xe4n\xd9\xeb\x8d\xb2\xfaWo\xe0_\x0f\xfe\xc9?g\xfb%\xaf\xec\xdd\xa8[\x18\xd8\xab\x1bo\x1fj0\xcd\xeeG\xef\x8a\x8f\xc8\xd7\xa5|7\xfd\x94\xad\xfe2\xea\xd0\xf8k\xf6o\xfd\xa3\xbe#x\x17\xc4o \x1a\x1ax\x93\xc4\xc9\x7fa\xf6\x8f\xe0\x8fi@B\x93\x85\x1c\x92+\x91\xd3\x7f\xe0\xa8\x7f\xf0Q\x0f\xf8\'_\xc7\xfb\xbf\xd9{\xf6\xc6\xf0\xae\x95}q\xa0\xb0{\xc9\xee\xb4\xd0\xb2=\xbb\x1f\x92x\x9e-\xa2Da\xd1\xb1\xdf\xda\xbd\xa7\xfe"T\xf8y\xff\x00D\x8d\xff\x00\xf0h\xdf\xe1_D\xc4\xa35j%\x1cV\xe7\x82-4\xcb\xaf\x13\xd9\x7fm\xab\x9b\x18\xa6\xf3\xaf\x84Q\xeec\x04`\xbc\x81GrQ[\x15\xf5F\x8f\xf0\xb3\xe0_\xc6\x7f\x03E\xe29\xb4\xd3{\xa5k1\x98\x9c\xde\xdb\x015\xb1 \x0c\x11\xfc\x03\x03\xe8q\\g\x83\x7fbO\x83\x9f\xb2\x9f\xc4\xbb\x7f\x8b\xdf\x07\xb4\x05)1\x16\xfa\xd4\x96\xce7,m\x9f\x9bh\xe3\xd3\xf2\xac\xcf\xdb\x8b\xc2\xde\x1d\xd6\xfe\x16\xa2\xeaZ-\x8d\xe6\x87\xaax\xa7E\xb5\xd6\xa2\xb8\xb6\x0f\x1d\xd6\x9f-\xd1\x8eU]\xdfp\x10Ab\xa4\x1a\xfc\xa3\xff\x00\x82\xb9x\x8eO\xf8%\x9f\xed\x91o\xe1O\xd9\xde\xcd\xcf\x86\xe7\xf0\xdc7\xfa\x8f\x85\xef\xf5\t\xcd\x84\x92\x97d\x08\xb8m\xdeR\x91\x90\x80\x85=\xc5|!w\xf1\x97\xe3/\xed\x9d\xf1\xb3C\xf0O\x8f\xbcfV\xdf[\xd7`\xb6\x83O\xd2\xa1\xfb=\xad\xa2\xc8\xe1[di\xc0\xc2\x93\xd7\xf1\xaf\xdf\x8f\xd8\xdf\xc2\x7f\xb3O\xec\xfd\xe1\xcd\x1b\xe0\xd7\xc3O\x03\xdah\xab\xa4m\x87R\xbf\x86%I\xb5\'\xef4\xae\xa03\x92Fz\xe2\xbc\x7f\xfe\n\x15\xfbEh\x9e(\xd7|A.\xa7\xab\xdbi\xde\x0f\xf0x2HI\x05\xaf\xee3\x80@\xe3$\xe0\x809\x1f-|\xa3\xe2\xef\xd9\xaf\xf6\xb2\xfd\xa9\x7fc\xaf\x11~\xd4^\x10\xd3\x8e\x8b\xe1\xbd2X\xce\x9b\xe1\xf0\x8f&amp;\xa5\xacY\x97\xdb%\xd9\xfe\xea 9\xda:\x8a\xf9\x0f\xe2\xad\xb7\xdb&lt;\x1f\xe1\x9b\x1b_\t\xe9\x1a\x05\xe6\x8d\x14\x90jW\xd6Z\xb4\xd2^kG\xa8yb\x90\xec\x8c\xafM\xa9\xef\x9c\x9a\xfbw\xfe\t\xc1\xfb\x17\xfe\xcf\xbe&gt;\xfd\x90\xfcM\xf1O\xf6\x8d\xf1\x9d\xc7\x86\xf5I\xafI\xf0\x9e\xa9\x14\x8e.\xa2@9&amp;\x17\x1f0$c\x04}\rr\x9a\xc7\x82&lt;3\xa3jz\x94:?\x8cmu\x8b[/\x99o-\xec^\x0b\xcb\xc1\xd3\x88\xc0*H\x03$\x12=\xab\xe9\xbf\xd8\xcb\xe1\x86\x89\xa8h\xd2\xf8\xaak\x9b\xf9uHZ;\xad\ne\xb2h\x9e\xcd\xa3!\xf7J\x8e\x078\x19\x04d\x10k\xc4\xff\x00\xe0\xe6\xcf\x0b\xe9\x1a\xd7\xc5\x9f\x81_\x1fmt\xf6\x9bV\xf1\'\x85[H\xd7R\x01\x9f\xb4\xac2\x0f)s\xd8\xfc\xed\xf9\xd7\xcf_\xf0\xe9_\x8c\xff\x00\xf4F\x8f\xfe\x0c\xdf\xfc+\xf4\xf2%\xce8\xab1.\x00\xf7\xae\xdf\xe0\x85\xb5\xa5\xdf\x8c\xa5\x8a\xec\x0et\x9b\xb2\x80\xf7&gt;Sg\xf4\xcd}s\xf0\x18i\xa7P\xb0\xd2m-\xe3XM\xa0\xfbJ\xc6\x00R\xbbz\x10:\xff\x00\xf5\xab\xd2.~\x19\x9c\x8b\x8f\x0c\xdb\xfe\xee`wFq\x82=\xf3\xfey\xaf\xc9\xaf\xf8*\xdf\xc6\xef\x89\xbf\xb1\x7f\xed\x1d\xaaZ\xeaW\xb7\xfa\xaf\xc3\xcf\x1cx}~\xdb\xe1\xe9%\xf9 \xb8W\nf\xb7\xdc\x08\x85\xd5\xc2\x1c\x80\x03r\x06:\xd7\x97\xff\x00\xc1T\x7f`o\xda\xc7\xfe\n\xbd\xf0w\xe1O\xedk\xf0\x03\xe1\x95\x8e\xa3\xa8\x9f\x0fOe\xe2}&gt;\xd7T\x8e)\x15Q\xfc\xc8\xe6D\x94\x8d\xc0\xf2\xbb3\x95 W\xe6\x0f\xc3\xdf\x80\x7f\x17\xff\x00dO\xdbK\xc0\x9e\x17\xfd\xa0\xbc\x01\xa9\xf8~\xf2?\x12Z\xabA\xa9Z\x98\xfc\xc0\xce\x17 \xf4&lt;\xb0\xe4W\xec\x17\xed%\xf0\xcf\xe2O\x81.#\xf1\x9e\x8d\xa5\xdfD\xbam\xc2\xdcZ\xea\x16re\xfc\xa6\x1c,\x8a?\xd6\'\\W\x80\xfc\x10\xf8]\xa1~\xdd\xbf\x1f\x87\xc2\xdf\x8a\xda\x95\xc6\x9d\xa1X4\xb7\x91\xe9\x91\xc8Q\xb5\x1b\x800\x9b\xb2p\xdbI\xce\r}\xd5\xf0\x97\xf6\x1b\x9f\xe0\xd5\xdbi\xde\x12\xd6.\x9e\xc0[\xb5\xb9\xb772bX\x87X\xd8\x06\xc6\xc3\xddEV\xd5?b\xeb\xaf\ni3\x9d\x1b\xc0\x1e\t\xb2\x86\xe6\xed\xae\xd2\xe6\xe7MI\x1e\x07c\xf3"\xf9\xc5\x87\xcc\xb9=85\xf3\xd7\xed#\xe1\x9f\x86\x9e\x05\x99\xaf&lt;a\xe2+9\xee\x0c\x87u\xbd\xb2\xf9x8\x1f,q\xc7\x80\xdf\x95p\x9f\r&gt;\x04\xfc`\xf8\x93\xacA\xad\xf87\xc1\xdfa\xd2\xe7\x98\x0b{\xdd@y- \xc8\xc6\x15\xb99\xaf\xb3\xfc\x19\xf0\xf3\xc5\xb3\xf8v\x1f\x08[\xdf\xfd\xb6\xf1c\x16\xb3\x18 X\xa1\xb2\\`\xc6\x92\x0e]\x8fRI#\xd2\xbe0\xff\x00\x82\xaf\xd9\'\xc5\xff\x00\xf8(_\xec\xb3\xfb%i\x88/\xeet\xadj\xde[\xf8q\x90\xd1\x1b\xa8\x9b\'\xd4lG\xfc\xab\xf6\xdf\xfe\x10\x8f\x87\xdf\xf4\x07\xb0\xff\x00\xc0#\xfe5\xf9\xaf\x0e?Z\xb5\x178\xc5u\x9f\x08\'\x82\x0f\x1fY%\xd3\xedK\x88\xe7\xb7\xc8\xec\xd2\xc2\xf1\xaf\xfe&lt;\xc2\xbe\xc6\xfd\x9f4\xad?\xfb\x02\xc3^\x8a/.B\xa2\x16;\xb9\x91\xb6\xe4\n\xf6\x8d\x1f\xc7\x9av\x8dl\xda}\xc1V rws_\x93\x9f\xf0r=\xdf\x83|y\xe1\xff\x00\x05\xdf\xe9\x16\x84^h\xda\x9c\xf1\xdfN\x06D\xd0\xcc\xa0\x85\'\xbe\xd6\\\x8fBk\xe9\x9f\xf8$\x8e\xb1o\xab\xfe\xc1~\x08\xba\x86R\xcdgj\xf1\xbb\x13\xdd\\\x8eq\xcex\x19\xaf\n\xff\x00\x83\x81\xbfd+\x9f\xda\x1b\xf65\xb9\xf8\x9f\xe0o\x0c\xa4\xfe4\xf8g\xaa\xc5\xaf\xe9w\x96\xf6\xe3\xed\x12ZF\xc7\xce\x8c\x1e\xa4\x0c\x87\xc7\xfb\x06\xbd\x1f\xf6\\\xf8\x87\xe1\x0f\xdbC\xf6+\xf0G\xc5M\x1f\xec\xb7\xe7W\xd0 \xb5\xd5\x03t\x8a\xe64\x0b"\x1fC\xc6q^}\xe2_\xf8\'\xcf\x84\xed54\xf1\xc7\x83\xa2{k\xa8.\x8e.cm\xa6,\x9c\xe3\x8c\x1eOz\xf4-\'\xe1\xcf\xc6Hl\x16\r\'\xc7z\x8f\x9e\x01\xc2\xf9\xe2F\xe4c\x968#\xe9\x8a\xe2\xb5\xef\xd9/\xf6\xb6\xf8\x97\xa8\xae\x91\xe2\x8f\x8e\xba\x94:{\r\xcb\x05\x9a\xfe\xf7h&lt;\x8d\xe7\xa7Lt5\xbf\xe0\x1f\xf8\'\x17\xc1_\x87\xba\xb8\xf1\x17\x88\xfc2\xba\xae\xa7\x12\xac\x87T\xd7.\xda\xe6M\xfd\xc8\x0cq\x9f\xa0\xafL\xd3&gt;\x0ei\xfa\xc5\xfc\x16\x96ztQ\xc2\x84\xb3\xce\xcaU\xc2\xff\x00u0@\\\xe3\xae*\xaf\xc6\x7f\x8c\x7f\xb3\xff\x00\xec\xb5\xe0;\x9dk\xc5\xde-\xd1\xf4\xb9_\x10Y\x9b\xeb\xd4\x8a+y_\xe5\x12K#6\x00\\\xee\xc7$\xe3\x03\xad|?\xff\x00\x04\xb8\xf8Wq\xfbn\x7f\xc1]~$~\xdf7S[\xeb\xbe\x03\xf8}h\xba?\x81\xf5\xc8\xa1"\xda\xf2\xe3`\xc4\x90\xee\xc1\x1bwHO\x1f\xc4\xbe\xb5\xfa\xe1\xfd\xa1m\xea\xff\x00\xf7\xec\xd7\xe6\xc4\x00u\xabQ-[\xb0\xb8\x9e\xce\xe2;\xbbYJK\x13\x07\x8d\xd4\xf2\xac\x0eA\x1f\x8d}{\xfb8\xf8\x93T\xf1W\x834\xfb\x85x\xe2y\x19\xeevDx\x12FLl\xb8\xfe\x10p\x1b\xdbu2\xe3\xc7\xba\xfax\xa6m89(d \x1f\x7fJ\xf1/\xf8)G\xec\x89\xaa|i\xfd\x8f\xfck\xe3+8\x98\xea\xda5\x92jv\t\x1ad\xb9\x84\x96e=\xc6W?\x95s\x9f\xf0@O\x1f\xff\x00\xc2A\xfb#j\x1e\x0c\x91\xf2\x9a&gt;\xae\xe6\x15\x04\x9cG\'\xcd\xcf\xe2k\xec\x1f\x12X\xdbk\ts\xa5\xeav\xe9-\xad\xcd\xab\xc1&lt;.\xb9\x12D\xd9\x0c\xa7&gt;\xa0\x91\xf8\xd7\xe6\x9b~\xcb\xdf\xb6\xd7\xfc\x12\xe7\xe2V\xbf\xae\xfe\xc1:\x13|J\xf8W\xe2[\xc7\xbd\xbd\xf8{~\xc7\xedZ%\xc3\xb1wh\x008x\xc9\xe9\x81\x9ezq]\x11\xff\x00\x82\xd4j\x9e\x0f\xd2`\xb1\xfd\xa0\x7f`\xef\x89\x9e\x14|\x98\xee\xae\x97\xc3\xf3=\xb8oc\xb7\'\x9c\xf3[:\x07\xfc\x17g\xf6+\xb6\x85.\xe6\xd1\xbcae \x1f3\\xB\xe8\xe4\xfa\x02#\xac\xff\x00\x13\x7f\xc1w?g\x85\xb8\x97Q\xf07\xc3\xef\x1f\xeb\xb7\x1b\x02\xa5\xb5\xa7\x85\xeeQ\x98\x1fM\xc8\x14\x0f\xa9\xaf3\xf1\x8f\xfc\x17\x03\xe3\x16\xa9\x14\x92|7\xfd\x895\x92\xe4\xe6\xde_\x19\xea\xf1\xd8\xc3\xd7\xabrN\x07q\\\x17\x8c\xff\x00\xe0\xa4\xff\x00\xf0Ro\x8eV_\xf0\x8c\xf8Vo\txR]@\x18\x16\xcf\xc0\xb63\xea\x17\xf8&lt;a]\xbfv\x0f\xbfj\xe3\xfe\x1a\x7f\xc1\x17\xff\x00l\x7f\xda\xdb\xc7V\x9e8\xfd\xa0\xfcO\xe2)\xb4\xd6\xb9Sq{\xe3\x1b\x92fU\xdd\xf3yP\x0f\x97\x1dx\xe9_\xb2\xff\x00\xb2\xcf\xec\xf3\xf0\xdf\xf6G\xf8\'\xa3\xfc\x10\xf8Y\xa6\xad\xb6\x9b\xa6\xc7\x99e\xf2B=\xd4\xa7\x96\x91\xf6\x80\x0bs^\x95\xf6\xa7\xfe\xeaW\xe6\xcd\xbf_\xc6\xadC\xd0}jx;~\x15\xf5?\xecA\xff\x00"\xe2\x7f\xd7\xed\xdf\xfe\x81\x15_\xf1\x1f\xfc\x8c\xab\xff\x00_M\xff\x00\xa1\xd7\xa5\xf8\xc7\xfeM\xe3\xc7?\xf6,_\xff\x00\xe8\x87\xaf\xce\xff\x00\xf87?\xfeI\xaf\x8d\xbf\xde\xb5\xaf\xd0\x0f\x10u\x1f\x8f\xf5\xac\xbf\x07\xff\x00\xc8\xcfm\xfe\xe0\xfeF\x93\xe3\xaf\xfc\x8a\x17?C_\x04|[\xff\x00\x8f+\x8f\xfa\xec\x7f\x9dx\xd7\x8c\xff\x00\xe3\xe2\xff\x00\xfe\x03\xff\x00\xa0\xadr\xde\x10\xff\x00\x90\xd5\x97\xfdt?\xd6\xbe\xea\xfd\x80\xbf\xe49o\xf4\x7f\xeb_ez\xff\x00\xd73\xfc\xea\x0b\xcf\xbf\x1f\xd7\xfaT\xd5\xff\xd9'</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Sundar pichai.jpgSundar Pichai</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00\x81\x00\x81\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfc\xaa\xf1\xc5\xef\xc3\xbd&amp;\xd9\xa0\xf0\xabk.\x1e@\xcd&amp;\xa1:\xe1\xe4S\xd0\x9eI\x1dx\x06\xb8\xfb\x8f\x11\xda\xda\xdfy\xfam\x9b(\x00e^A\x96=\xf2}*\xad\xce\xbb\xaa\xdf\xb6StG&lt;0?w\xe9\x81S\xc1{~\x11\x84\xf6\xabt\x08\xda\xad3nq\xee\x0fU\xed\xd2\xb4Z\xf3\xc3W\x90\xacw\xf3O\x0c\x91\xae\xd0\xb7\x11\x03\xb8\x1e\xe8\xea\x06\x0f\xb3\x03\xf5\x15R\xebR{6X\x97TYm\xa6;\x034[\x89_u\'$\x8fc\xda\xb3\xe6\xd3]\xd5\xe6\xd3&gt;\xce\xc8I\xf9\x95\xca\x9c\x1e\xfb[\xfaTVz\x0e\xa1o=\xb8\x17\x10\x9b\x86\x91]\xd5\x0e\xed\x8a\xa7q?\x90\xae\x93\xe1\xc6\xa5f\xde5\xbb\xbfYU~S{l\x1b\x85b\x1c\x9e}\x06:\xd6\xc7\xc4\xa5MkW\xbb\xd54\x9d\x16\xde\xd7\xec\xbb\x16\xfa\x08\x10!\xf9\xbaJ\x98\xfb\xea}}\xeb\xb1\xfd\x91\x7fh\xb9\xfe\x08|S\xd3\xf5\xc7\xbch\xb4\x9dFQm\xac@\xdc\xac\xb13`\x1ffC\xf3\x03\xf5\x1d\xeb\xf4\xf6\t\xad\xef\xadc\xbd\xb4\x95d\x8ah\xc3\xc6\xear\x19H\xc8#\xf0\xa6\xc9\x1f\x19\xc5A$~\xd5\x04\x91\xe2\xa1\x92 FEG\xb1\xbd+\xf2\xcfK\xf8\x07\xf1k\xe2#\x8b\xcb\x1f\t\xde^Hp\x13\x11\xb1R=A\xc6\x07\xa7\xe1^\xe7\xf0\x97\xfe\tS\xf1\xef\xc6/cs\x7f\xe0\xe3d\x97\x0c2\xd7k\xc9\x07\xd2\xbd\xcbC\xff\x00\x827\xd8\xe9R[\'\x88\xd2\xe6_7%\xc9\xda\x00\xc7Q\x8a\xd3\xd5\x7f\xe0\x93\x9e\x04\xb0I\x1a\r6P\xca\x99\x8d\xdab\n\xb7c\x8cW\x90\xfcF\xff\x00\x82o\xda\xe82\xc8\xd1A:[\x9e\xb3\x89\x0b`\xf78\xc5y\x07\x8f\xff\x00b\xff\x00\x1bxe\xb6h\xcfkwl\xeb\xb9V\xe5\x03 _n\x9bMy\xf6\xa1\xf0\x9a]\x02Ie\xd44\xe92\xab\xb4\xbcK\xf2\x8c\xf06\x8c\xd6\x7f\xf6N\x9d\xe1\x85y\xd2\xe6(\xef.,\xcc;\x19w\x8bu~\x19\xcf\xab\x11\xd0\x0fZ\xc1\xf0\x96\x97&amp;\x93u*\xdf[\xc8L\x80\x88\xa0\x85\x80a\x10\xfb\xfby\xc1!{Wg\xa3\xeb\x16Z\xcd\x9cVf@\x97Zl\n\xdaF\xa1,c|\xd6\xcc@\x11H;\x9e\x9bs\xde\xb0&lt;A\xa5ZH\'\xb8\xd2\x8bn\x91\x0f\xdb\xad\xd62\x02\xb89\x0c\x07c\xdc\xe2\xbfG\xff\x00\xe0\x9f_\x15\xa5\xf8\xa7\xfb=YZj7~m\xfe\x81)\xd3\xeeY\x8f\xcc\xe8\xaa\x1a6?U8\xfa\xa9\xafm\x92,\x7f\x8dA,}j\t#\xf6\xaa\xf2G\xdf\x15\x1f\x96?\xbak\xec\xef\x0c~\xc8?\r|\'\x14V\xbaV\x87nM\xb2\xaf\x98\x91\xda\xaa\xc7\x82x\xe3\x1d\x8ey\xae\xcb\xfe\x15N\x93\xa6&lt;\x17v\xccS\xec\xac\x1d$e\x1c\xfa\xae:\x11\x8c\xe3\x15\x91\xe2?\x04X\xdcm\xbf\x1aj\x97`B\xb0\xe4\x86=\x0e+\x90\xf1W\x85d\x8e\xe1\xe4\x96w\x91\xbc\xb1\xbc$`\x0e\x95\xe6\x1e.\xf0&amp;\x9d=\x84\xbazK"F_seA\x18=\x8f\xbdx\xc7\xc4\x0f\xd9\xfb\xc2\xd7)%\xac\xb6!Si`\xad)#\xa7,1^\x15\xf1_\xf6s\xd1\x91T\xd9\xd8\xfd\xa6\x121\xbb\x1b]W\xa1\xc7\xafz\xf9\x97\xc5\xff\x00\x054]\'S\x9e\xca4-(\xba\xdf\x10\x95r\x14\x0e\x075\xe7-\xe1{h&lt;T\xb6\xb6\x16\xc6I\x16F[H\xc9\xe8\xe87g\xe8\xc7\x82+\x03\xc7\x13Eks}\xe4@!\x9aKU\xb8\x89TaU$\x901Q\xdf*\xca\xc0{U\xfd/V\x93Q\xbf\xb1\xf1t\x96\xcd4:\xa2=\xae\xa8\xc1\x00X\xe4\xc0\n\xdfBk\xeb\x0f\xf8%&gt;\xbfg\xa3\xf8\xab\xc6\x1f\x0f7\x00\xd70\xc5yls\xf7\xd6&amp;(\xc4\x7f\xdf\xc5\xaf\xb4\xa4\x8b\xda\xa0\x92&gt;\xd5\x04\xb1\xe7\xb5W\x96?j\x8f\xcb\xf7\xaf\xd4\xabX\xa2\n\xed\x13 .\x98X\xc8\x1c\x1fQ\xeb\xee+&gt;\xe2+y\xad\xc2,\x8c\xeb\x1e\xed\xc5\xc7\xddn\x99\x1e\x9fJ\xe5\xf5[|0yc`\xaa\x08\x8a@z\xb7\xf2\xae_\xc41\xd9\xc7n\xacFZC\x8c\x85\xcdyO\x89l\xd6(\xda\x08\xa2f\x12\x93\xb9\xb9=\xcdy\xb7\x8btY.\xb3\x0cV\xdb\xe3\x08D\x8a\x0e\x08\x04c9\xaf,\xf1\x9f\x87\xae\xa6\xb2x$h\x9dQHW\r\xfe\xac};\xd7\xc8\x9f\x14\xf4a\xa7x\x86Av\xc5\\\xcaC0\xf4\xce+\xc5\xfcy\xa4\xc9\xa4\xeb\x96W\xab\'\x95\x17\xda\x14\x19@\xc3\x05-\x93\xcf\xd2\xbc\xbf\xe3\t\xfe\xd1\xf1\r\xf6\xb3in\x16\x0b}M\xdda\x12|\xfeT\x80\xb1\x03\xb6\x14\xe3\xe9\x93P|&lt;/.\xa3?\x82\xeeg\xf9n#-\x0cJ\xf8\xdd"|\xdf/\xa7_\xc6\xbe\x8a\xff\x00\x82[6\xa0\xff\x00\xb4\xfb\x04\x1f\xba]\n\xf1g$\xe7\x00\x95\xc2\xff\x00\xdf@~U\xfa5$8\xaa\xf2GPI\x1dW\x96:\x8f\xca\xf6\x15\xfa\x7fwr\x91\xdb\xbf\n\xb2\x06\xca0NG\xb8\xac+\xfb\xab\xc6v\x16\x8d\x96\x18#p\xc0bN9\xfc\xeb#X\x96R#\xb7\xb8Q\xb4|\xcd\x11\x04\x1e\x98\xaeoY\x921\x0bC\x0c\xe5|\xb1\x80\x8c:\xd7\x9bx\xdc*\xb6\xd8\xa4TH\xf2I\xcf\xe9^{\xab\xc6\'s%\xb0\xde\xd2\xa1\x0f\xb7\xfa\xd7\x99\xf8\xc7O\x16v\xb3\xa2D0\xe0\xe5\xe3^\x075\xf2\x8f\xc7\r&gt;\xdd5\x172\xc6$fv!\x88\xe7\xadx\x0f\xc5vI\xb4m\xd3&gt;\xc9 }\xc8\xac2\x0e\x0fC^\x17\xe2}dI\xe2\x0b\xab\x89\x8e-\x9eB\x93 \xc6Do\xf7\xbe\xb8\xc0?\x85ghm|\'\x17\xb0\xc8\xadso(\x91f\xdd\x83\xc1\xc7\x19\xea\x08\xc5}E\xff\x00\x04\xd3\xf1n\x97\xa7~\xd4v\xf6\xbe|h\xba\xcd\xb5\xcc\x11\x01\xc6\xe9&lt;\xa3&amp;\x00&lt;\xff\x00\x01\xaf\xd2\x17\x8f\x8e\x95^X\xea\tc\xaa\xd2GQ\xec\x1e\xa6\xbfJ\xd2x.\xa2\xda%\xfb\xcb\xb4\x0er\x0f|\xd6~\xa0\x05\xa4~D\xaf\xb9\x8bgwl}+\x9e\xd5\x9d\xd0\xb7\x96NBp\xecwg?_J\xe35\x9dJ\xe2\t6J\xf9|\x9d\xcc};\x1a\xf3/\x1b\xebMw\x1c\x88\xd2\r\x8a\xdf&gt;S9\xfc\xab\x80\xb8\xd7ZS\xfb\xb7d^B\xe0c\xb5r&gt;4\xd5\xad\xa6\x83\xec\xb1\x1c\x16^Ux\xfc\xeb\xe5\x8f\x8f\x11J\x97F\xe1S H\xd9\xc1\xe4s_&lt;|E\xb5k\xeb9UA!A\xdeGj\xf9\xe3T\x8e-?Y\x955\xb5\x90\xdbcm\xd1\x84d\xa8?\xc4*\xf6\x9d\xa6[\xd9\xdeCw\x16\xb9o%\x94\xf8\x114x\xdf\xe8\xa0\x8e\xa3\xb6k\xda?a;\t\xe1\xfd\xb2\xfc#av\xb0\xb9K\xf9$\x0f\x10\xfb\xbba\x94g#\xd7\xa7\xe3_\xaa\x92&amp;8\xa8%\x8f9\xaa\xf2G\xc7J\xad,~\xd5\x17\x96?\xbak\xf4\xa2\xcfKvV\xba\x8d\xf0A\xf9\xb2{\x1a\xab\xa8Z&lt;\xa8|\xf42m\xfb\x9f7l\xf7\x15\x99}\xe1\xe9ZF?u\x95p\xa3&lt;\x11\xdc\xd7\x1f\xe2\xff\x00\x06]H\x8dx\xbbd\n\xa0\x11\x9c\x8c\x0c\xe3\x8fj\xf2/\x16\xf8^\xe1\x95\xa3A\xb46NPt&gt;\x95\xe7&gt;&amp;\xd1f\xb1\rj\xbd\x07\xcd\xe7m\xeb^[\xe2\x89\xe4I\xa4\xb6yI\xc0l\x1c\xf3^5\xf1\xae\xc9o\xf4w\x9c\xc4\xb9\x8c\xed;G\xde\xcd|\xc9\xe2\xfb9a\x12\xdc"\x92\xc1\x984dpGq^\x01\xe2\xa9\xadM\xe5\xc0\x86\x07\x85\xd4\x90\xe2G\xc9e\xeek\x0bO{\xf9oN\x97\xe1\x9b\x87\x13L\x06\xc0\xab\x93\x8c{\xd7\xbf\xfe\xc4&gt;=\xbb\xd1\xff\x00h\xef\t\\\xf8\x82tU\x1a\xaa\xc1"\x98\xc722\x98\x86\xd6\xf4\xe7\xf35\xfa\xb5$x\x07\xf2\x15\x04\x89\x8a\xaf*{Uic\xfcj=\x83\xd4\xd7\xe9\xe2[\xa9\xb4g\x80\x07m\xbf6?\x88\xf7\x15J\x1d:+\x87\x8c\xbd\xb3)\x97?&amp;:\xd6\xa5\xa7\x85VKR.c\xc1C\x88\xf70\xac\x7f\x12x^\xda+7\xb9K`\x80\xfc\xad\x8e\x84\xe0\x9f\xe4+\xc8\xbcE\xe1}=\xae\xa5\xf3m"\x04{\x9e\xbfZ\xf3\xbf\x17\xf8\x0e\xdahJ[\xdb\x87f\xc9\xdd\xc1\xc0\xf4\xaf\x06\xf8\x97\xf0\xee+[\x99e0\x01\xb8\x1f,\xa1\xe0\xfdk\xe7\x8f\x1f\xd9K4SXM\xc8\xdeI\xc1\xcfJ\xf9\xd7\xc5zT\xf6\x9a\x95\xc4\x171\x85\x0c\xe5\x94\xf5\x04W\x80|i\xf0\xe7\xf6\\\xe3X\xb5\x84\xa2\xbeU\xce\xdc\xfe&gt;\xf5\xe7\xba|\xd76\xd3\x89\xad\x18\xc7\x93\xcb#\xe1\x8fA\xc1\xed\xf4\xafG\xf85\xad\xcb\xf0\xef\xc7\xbe\x18\xf1F\xaf\x1a\xb5\xbd\xa6\xb1\x04\xf1$\xab\x9d\xdbf\x0cy\xf5\xc0\xaf\xd9\xae%\x8de@p\xca\x0f&gt;\x98\xa8]8\xc9\xe9U\xe5N8\xaa\xf2\xa7\xa0\xa8\xb6\x7f\xb3\xfaW\xe9\xfd\xb7\xfa\xb5\x04\x8d\xa4\xfc\xa0\n\xd1\xb7D\x82H\xd6&lt;\xe4t\xe7\xebR\xcb\xa9[\xdbB\xe1\x90\xe0\x8ew\xae~\xbfJ\xf2\xef\x8a\x7f\x16\xf4=\x19\xa4\xb4:\x84)p#g\x8e\x03.C\x01\xb8d\x83\xd0q\xd7\xde\xbc\x1b\xc5\xbf\xb47\x85\xf4\xb8!\xbe\xd5\xb5Kh\xe4\xb8Vt\x848\xe5\x14rG\xaf\xa5x\xcf\x8f?o\x8f\x04i\xf6\xf2K\xe1\xc6\x8e\xe6-\xc5\x0c\xd1\xaf\x98\xa3\xd49\x1ft\xfe&amp;\xbco\xe27\xed\xb1\xe1\x9df\xc5\xc8\xb0\x8c\x10\x84\x96W\xc8S\x8e\xe4t\xe6\xbee\xf1\xd7\xed\x05mo\xa8-\xfd\xac\xd0\x0f7,\xc1%\xca\x95\xe7\x83\xe9\\\xad\xe7\xc4\x1d\x0f\xc7S}\xa2)c\x8aPp\xf1\xe7\x19&gt;\xd5\xc0\xfcH\xf0\xe4^ \xd2\xee\xad$\x93\x0c\x991\xf1\xd4\xe3\xa5|\xe5yq&amp;\x8fx\xd6\x97;W\xc8\x9bl\x9ea\xdaq\xc8$g\xd3\x03\xf3\xafO\xf0.\x81\xe2_\x8aW~\x14\xf0O\xc3;\x1b\x9dSU\xbe\xd5a\x87N\xb6\x8a\x02\xed$\xac\xeb\x84\xe0\x11\x9c\x1c\xe3\xae9\xaf\xdb\x1f\x15x#\xc4\xbf\x0fu\x89|%\xe2\xed*\xe2\xce\xfa\xcc\xf9sEs\x03FX\x8e7\x00@\xc8$\x1c\x11\xc1\x1d+\x1eX\xf9\xaa\xee\xb8\xedU\xe5L\xf3QloJ\xfd&gt;\xbb\xbd\x82\x1b\x13!@\x07n\xe4W7\xae\xfcE\xb7\xd0e2\xddJ#E]\xc4\x93\x93\xd3\xa0\xc5x\x97\xc5\xcf\xdagE\xb5\xb52\xe9\x1a\xff\x00\xda\xa2\x91\x1de\x85n\xfc\x99!\x93\xb1\x19\xe7#\x83\xc8\xc5|O\xfbM~\xdbS6\xb9\xfd\xabq1\x9akkg\xb6\xccc\r*)&lt;\xb7=\xf2+\xe3O\x8b\x9f\xb5\x96\xaf\xe3\x9dI\xb5\xdb\xe9\x96\xce\xdd#1\x18\xa4\xbf\xda!\x8dGLpy9=\xc5x\xcf\x8a&gt;?\xc5\xad\xc3\xf6\r#\xc5wS8\x93{\xd9i\x9b\xa4,;n\xdb\xd7\xf0\x15\x97\xa3j?\x13o\xc4\x93xs\xc2\xfe/\x96+\x8c\x8c\xc7\xa6\xc8\x10\x93\xdf2\x01\x9a\xec4O\x82_\x1f\xb5\xbb$\xbf\x8b\xe0n\xa5r\x02\xe1\x96\xf7U\xb5\x83\xce\x07\xd9\xa4\xfcj\x9c\xdf\x03?j="\xe7\xed\xbao\xec\xef\xa8(\x19e\xb6\x8b^\xb3\x95\xce;*\xab\xe5\x8f\xa0\x1c\x9a\xf3\xff\x00\x14\xfe\xd0\xf7:~\xa7?\x87\xbcK\xe0}[M\xbe\xb3&gt;U\xdd\x8d\xe4l\x92\xc5 \xea\x8e\xae\x03!\xef\xc8\x19\xa8&gt;\x0f\xf8\x93\xe0\xb7\x8e\xfcgc\xe1_\x16x\nay\xa9x\xa2)n\xbcY&lt;\xbe`\xb2\xb4;D\x91\x8bF\xfd\xdc\x98\x19l\x923\xd2\xbfh\xbe0x\xdfJ\xfd\x83\xff\x00\xe0\x9e\xdf\t\xbe&amp;~\xcc_\x00\xfc\x1fu}\xe1\xaf\x1bk\xba&lt;Z\xab\xe9\xc2\x04\xb4\xbd\x99@\xb7\xd6\n\xaewI\xb1\x94\x88\xc9\xda\x0f\x00\xf1_\th\xfe&lt;\xf8\xfb\xac\xf8\x94|@\xd7~)\xeb7Z\xfe\xa1r\xd7Z\xae\xa9s{#4\xf2\xee\xdcK\xf3\x86\x1d~^\x95\xf6\x97\xc2\x1f\x1bI\xf1\x1f\xe1\xb6\x9b\xe2\xeb\x85Q=\xc4n\x97\x01\x06\x07\x99\x1c\x8d\x1b\x10;\x02T\x9c{\xd6\xec\xab\x90q\xda\xab\xca\x9e\xbd\xea,\x1fC_\xa3~\'\xd6\xac\xf4\x9bYm\xdeFu\x0b\x9c\xab\x80I\xfa\x1a\xf8\xe7\xf6\xa7\xfd\xab\xb4\xbf\x04.\xa1\x19\xd4\xbc\xdf&amp;&amp;\xf3"\x8a@\x8d\x1a\xe3\xef\x07\xcf\x05x5\xf9\x8f\xf1\xe3\xfe\n/}\xe2\x9dcR\xf0\xbf\x82\x16\xef\xc4:\x93\xdc)\xb2\xc2\xaf\xeev\x90s4\xa0|\xdc\xf7\xf4\xaf\x1c\xf1\xcc\xbf\x13\xfe(\x19u_\x8b?\x16\xe5\xb1\x8ew\x1en\x89\xe1\x98v`wS!\xe3\xa0\x19\xc7\xad\x1f\x0f&gt;\x13x_\xc5~%\xb7\xf0\xaf\xc3o\x83Sk\xfa\x84\xeeN.w\xdd\xb9\xc0\xe4\xb31\xda\xa0w\xe8+\xd5u\x1d\x17\xc1\xdf\x07\xa7}7\xc5^6\xf06\x8f}\n\x05\x9a\xd3N\x94\\H\xb9\x1d\t\x89p\x08\xe9\xd4\xf4\xac;\x8f\x89&gt;\x00\xd6df\xd2\xbe2Z\xbb\x13\xb4\xc0\xf77\x16\x838\xe8\xa4\x9d\xa7&gt;\xfe\xb5\x06\xb1uin\xb6\xf6\x8a\xd2\x87\x95w\x05\xbb\x98\x86\x90\x7fyH\xfb\xde\xd4\x9a&gt;\x9d&gt;\xa0K\xe9A\xf2\x8c\xcb\x911GR8\xc8`A\x07\xdc\x1a\xe5?ko\x87\xda\xcf\x8d\xbfg\t\xfcQ\xadB\xb7\xba\xff\x00\x825h\xe4:\xd4\xe05\xdd\xc6\x971\x08c\x9aO\xbd(\x8ac\x18FbN\x1c\x8a\xf9_\xe1\xc5\xd3\xc3\xe3]2\xf2"\xce\xcdt\x01\x08\xbf1\x07#?\xe7\xd2\xbfV&lt;i\xfbF\xf8\xbf\xf6\x85\xf8q\xa2|\x02\xf0\xed\xda\xa7\x86\xcc\xf6\x9a\xc5\xf5\x9e\xd2\x155\x14\xb5H\x08\xf9\xbf\x831\x87\xc7\xf7\x895\xc4x\x83H\xff\x00\x84.{\xef\x0f_\xc6\x16[{RN\xdeFNO\x15\xec\xdf\xf0O\xaf\x19\xff\x00\xc2M\xf0\x93R\xd0\xe4vi4\x8dnD\x04\x9f\xe0\x91U\xd7\xf5\xdf^\xe72\xe0g5ZT\xces\xd0TX&gt;\xdf\x9d|\xc1\xf1s\xfe\x0eO]kC\xbb_\x05\xfc\x0c\xb8\xb6\xb8\x96""\x96\xf7ZWD\'\xa1\xda\xaa\x0bz\xe2\xbe\x06\xf8\xf1\xfb\x7f\xfcz\xfd\xa1\xae\xeeg\xf1\x1f\x88\x9a\xca\xde\xe5\x9b6z\x7f\xc8\x85Oc\xdc\x8f\xc6\xba\x9f\x82\x9av\x97\xe0\xff\x00\x02[\xf8\x82\x13,\x97:\x85\x8f\xda\xa6\xbb\x03;\xc9$\x0e\xbe\xe2\xba\xaf\x03\xc0\xfe2\xd4\x14jz\xa46:jJ\xa7P\xbf\x9ca\x9c\x13\x8f*!\xfcNO\x02\xbe\xfa\xfd\x9d\x7f\xe0\x9d\x1f\x11~1\xfc\x1b\xf1\x84\xb6^:\xd3\xfe\x11XYiW1x[\xc3\xf3\xea\x11\xdb\xea\xba\xd5\xd0L\xabN\xc5\xb7\xc5\x19 \xe4pN@8\xaf\x82\xbe!|\x10\xfd\xa9\xbcU\xf0\xf3@\xf0\xb7\xc4\x7f\x87\xda\xf1\xb3\xf0\xbc\xf7vZ\x16\x9f\x17\x84\xd7s\r\xfb\xa4\xc5\xcc+\xba\xe43`\x86vols_B~\xc3\xdf\xb2\xe7\xc1?\x0e\xd8\xeb\x1e$\xfd\xa9\xfe\x16,Vw^\x1c1Yi\x1a\xd4,\xb2\xcdr@\xc3\x84\xcec\x03\x93\x9ey\xaf\x9f~-|?\xd6~\x1f\xeasK\xe1\xcb\x97\x97N\x86\xed\xbe\xc9b\xec\xdb\xadb\xc9\xc6\xc6nx\x1f\xce\xb6&gt;\x14x\x9d\xb4\xfb\xa8\xdb\xc4\x10?\x95*\x15r\x14\xee\xf9\x87\xf3\xe6\xbd\x86\xff\x00\xc3Z\x7f\x8f~\x0e\xf8\xfb\xc3V\xbbe\x12x"\xf5\xe4\x8d\x90e\xa2\x8232\x9cz\x83\x18?Z\xf8\xeb\xc3\xbf\x044\x9f\x0e\xfe\xc9\x9aG\xc7\x08l\x18k7\xfa\xb8\x91\xae\x0b\x92#\xb4\x04\xa0\x03\xd3\x91\x9c\xd7\xd5_\xb3v\x92\xfa\xaf\x82m5\xcd.\xe0!\x10\xf9\x82m\xdf1l\x83\x8cV\xff\x00\xc6\xcbi\xae-\xce\xab\x04\xa2Ye\xb5\xdb;\x83\xc9 \x1e\xb5\xd8\x7f\xc1/&gt;\xd2\xfe\x15\xf1\xa3\xcb\x11\x11\xff\x00l\xdb\x04p8c\xe4\x9c\xfe \x11\xf9\xd7\xd4R/\\\x8f\xc6\xabL\xa7\xfcj=\x83\xd5k\xcb|\x07\xff\x00\x06\xd7|\x01\xf0\xee\x99o\x7f\xf1\x7f\xe26\xb5\xab\xeb+\x12\x1dKG\xd2\x15 \xb3\xb4\x90\x8c\x98\xb7\xe0\xbc\x9e\xe7#\xe9^\x0f\xff\x00\x05\x04\xff\x00\x82:\xfc\x0c\xf83\xf0\xebQ\xf1?\xc1{\x1dB\xc3R\xd3\xe12\xc7\r\xc5\xe3H\xb3aI\xc1\r\xf4\xfck\xe4O\x85\x1a\xa5\xe6\xa9\xf0+OE\x93l\xb6\x97\x93\xe93\xa1\xff\x00\x96g\x87\x88\x1fBF\xff\x00\xae+\xdb\x7fc/\x86\xfaN\xa1\xf1+Oo\x88\x97\x97Rh\xad\xfe\x89uil\x06\xe5bT\x96\xc9\x04\x06\xf4lq_\xa9\x1f\x0f&gt;8\xfe\xcb\xdf\x0c\'\xbc\xd2\xbc\x19\xf0\x1a).\x96P\x06\xbb\xac\xca\xda\x8c\xacH\xc18\x93\x03\'\xd7\x93\x9f\xca\xb0\xbce\xf1\x9fF\xd6\xac.\xb4{\xcf\x89RF\x92A\xb71i\xb0\xdb:\x1eAP\x10\xe3\x1c\xe2\xbex\xf1D\x7f\t\xf4\xa8\x9c\xcb\xa9\xdej\x97*[\xec\xf7N\xdb\xe5L\x9e\x80\xfau\xfc\xeb\xc2~4\xc3\xab\xf8\xbe\xfa9\x93F\x9e\xde\x02\xe0 \x11\xe7x\xc7\x00\x91V&lt;%\xf0\x9ek\x1bKI5KT_\xb4/\x18;\x88\xf5=8\xae\xef\xc1\xbe\x18\xd4|+\xf0\xff\x00\xe2\xd7\x8e\x92\xd6I\xf4\xed\x07\xe1\x8e\xa4n\xe7X\xc9\n\'O\xb3\xc6X\x0f\xba\x0bI_=\xf8o\xc3r\xea_\xb0\xb4^\x18\xb8\x8d\x95\xad\xbc5\x0c\x8d\xbd\xb9W-\xe6\x11\x8fl\xd3\xbfe?\x88\xda\x8e\x83\xe0{H\x9eR\xc8\xe1\xb1\xb9\xb8\xc08\xc7\xe9^\x8fy\xe3\xdd3\xc5/&amp;\x94\xf2\x04\xf3T\x80\xa9\xfc9\xaf\x7f\xff\x00\x82wx^O\x0f\xfc\r\xbf\xbb\x95\x83\x1b\xef\x13\xdd\xba\xb7\x1c\xaa\x08\xe2\xc7\xe6\x8d^\xe6\xeaNA\xaa\xd2\xaez\xd4[\x07\xa9\xaf\xd0\xbf\x10xI\xee\xa5\xb9\xbahL+$[\xb2\xb8!\xb9\xe38\xef^\x19\xfb[\xfe\xcf\x16\xff\x00\x12~\x0fk\x96\xafi\x14\xb3.\x9b#\xdb:\x8c2\xb8S\x8eO\xd0W\xe0\x7f\x8c&lt;\x17\'\xec\xf5\xf1\xa3W\xd1\xf5\xf5X&lt;\'\xe3l\xdaO1\\\xa6\x9f\xa8\x8em\xe7?\xdd\x02@\xbb\x8fe-_L\xfc\x06\xf8Ws\x7f\xe1V\xf1tm\xf6\r[D\xbaX\xf5\xcd=\xa5\x01\x95\xb1\xfe\xb4\x0e\x92\xa3vq\xc1\x06\xbe\xaa\xf0\x8f\x80\xad\xbcE\xa0Ee\xad\xe9\xe9\x0bN\x8b$W\xd0I\x95w\xe3\x00\xed#\x1e\xbc\xd6\x8e\xbf\xfb i\xb7\xc2K\xb9n\x9f\xe6`\xed\x11|d\xe3\x19\x04\x1c\x9e\xbdk\x16\xd7\xf6;\xf0\xf5\xb1\x13\xdd\xe8nB1;N\xa0\xc7p\xfa\xe75\'\x8a\xbff\x1f\x0b\xdc\xf8^G\xd3&lt;\x1b\xfd\x9c\xb0\xe5\xe4\xbd\xfe\xd2;\x10\x0e\xed\xbc\xe0\x0fS^\x0f\xe2_\xda\x1b\xf6K\xf0^\xa1\xff\x00\n\xfa\xe7\xe2M\xc6\xb9\xacZ0Se\xe0\x9d*MZY\x9b\xba\x87\x8b\x11/\xa1%\xf8\xf4\xaf4\xf17\x8c\xff\x00i\x9f\x1cx\x86\xebJ\xd3\xec\xe7\xf8u\xf0\xdbQB\x92\xe8b\xe5&amp;\xd4ux0F\xdb\xbd\xbc\x00\xc0\xf2\xa7\xa7\xe1P\xc7\xa7Y\x1d\x1fX\xf0\xea[\x05\x82]2H\xa0\x88}\xd4!x\xfc0?J\xf9\xf3\xe1\xb5\xd5\xc6\x9b\xf0\xe7\xc9\x92`\xa6+\xa9T2/L1\xfc\xea\xf7\xc2\xeb\x9b\xcb\xff\x00\x17,{\xdd\xf9\xe0\xee&lt;{\xd7\xe9/\xec\x83g\x05\x9f\xec\xe1\xe1\xc1\x0c[w\x9b\xe7\x93\x1f\xc4\xe6\xfa\xe3&amp;\xbd\x0eA\xc1\xe3\xe9U\xa6\x1cdT[\x1b\xd2\xbfR\xb4-,kP\xdc[O\x13\x18\xda#\xb3\xdb\xda\xbc\xf7\xe2\x16\x83"\xe8\x97\xdam\xdc\x01\x10\xa3\xa6\xd7\xc6\x08\xc1\xe3\xf2\xaf\xc5\x9f\xdb\xcf\xe06\x97o\xe3\xfdW\xc3Z\xee\x80\x1fJ\xd4\xc3\x92\x92D\x08M\xc7\x86\x1e\x84u\x04zW\xcc&gt;\x13\xd2?mo\x85V\xd6\xbe\x0b\xf8W\xf1\x84\xdfh\xf6\xf2\x91\xa6\xd9j\xb6\xb1\\,Q\x93\x9f/2+`\x1fA\xc5{\xa7\x81&gt;*\xff\x00\xc1a\xbc1\xa55\xb7\x87&lt;\x17\xa2\xdc\xda\x83\xf7\xe0\xd0\x15\xfa\xf7\xfb\xe0~B\xba5\xf8\xef\xff\x00\x05\xa3{\x95\xb3\x97L\xb3\xd3\x94\xae\xd2m\xfc&amp;\xa4\x81\xf4.kS\xc3\xd6\xdf\xf0S\x0f\x15]y\xbe3\xf8\xd7\xf1.\xda2O\xfa/\x86&lt;\'gg\x9f\xa3\x85\xc8\xfa\x9a\xee\xb4\xff\x00\xd9N\xdf\xc5K\x15\xef\xc6\xbf\xd9\xdb\xe2g\x8enq\xb8\xdd\xf8\xe7\xc5w7\x11\xb9\xeaI\x8e6P\x01\xf4\xc5u\x9a7\xc2\xcb\xaf\x87Zs\xe9\x1f\x0f?f};\xc3\x16\xac\x80}\x97O\xb1H\xca\xa8\xecH\xe5\xbf\x1a\xf3_\x89~\x02\xf1e\xc3\xcf}7\x86\xda\x11+~\xf4\x81\xfc^\x87\xd2\xbc\x8a\xe7J\xb8\xb3\xd4\x1e\xd6\xe2\xdd\xa2s\x13\x89U\xba\xf2\xa4W\xcb\xc9\xacA\xa7\xdb\xea\x9a\x14p\xe2E\xbau\xb7D\x18\x05\x8b\xf5\xe6\xbb_\x86:\x1a|;\xd1\xae\xbck\xe2\xbf,K2\xe2\xc6\x15?;7N+\xf4\x17\xf6*i\xe7\xfd\x93&lt;\x17{z\xac&amp;\xb8\x8bQ\x96P{\x13\xaa^`~X\xafJ\x90\x0c\xe0UY\x86\x0f\xd6\xa3\xc8\xf5\x15\xfa\xa1\xa7K,.\xb1C\x8cH~s\xb8\x8cW3\xf1SE\x16\x963\x9dA\x06\xd7\x88\xbam&gt;\xbdk\xf3\x8b\xfe\n\x01\xf0\xe2\xc3]\xd2\xaeu\x89m\x95\xe6\xb7_\xdd1\x8f\x00\x0f\xaf\\\xf3_\x11\xf8q\xad\xf4\xaf\x11\xa6\x95r\x85\x91\xddy\xe3 \xe7\xde\xbe\xeb\xfd\x9d|I\xa4\x8d&gt;\r\x02k\x94*J\x84$\xf2@\xe2\xbe\x8a\xd3\xbc\x11c\xad\x08/a\x94\x82[h\xc8\xe0\xfb\x1a\xec\xf4?\x00\xc7i\x89\xa3p\xad\xdc\x05\x18\xab\xf7&gt;\x1f\x81\xe1\xf2\xeeA\x0e\xad\xf2\xe5x\x1e\xf9\xef^q\xe3\xbf\x05\xa9y\xb0\x81]\t\x02L\x9e}\xeb\xc1~2x\x1e\xd5\xb4\x0b\x94\x95\xb6\x10\x19\xc4\x8a:\x90=+\xe3\x9f\x1a\xf8b\x0f\xf8HZ\xecN\xea3\x97\xc0\x1d+\xe4\xef\x0c|\x1d\x8b\xe2\x07\xc6\x8dcEmA\xa3[-@\xb3\xbeq\x95-\x9c\xfe\xb5\xea\xff\x00\x10~\x14i\x17&amp;\xdbG\xd3\xae\xc9:&gt;H,\xc4,\x87\x1dI\xaf\xb9\xbe\x08\xf8VO\x05|\x17\xf0\xa7\x86e\x180h6\xf2\xb2\xf6\r2\x89\xd8\x7f\xdfR\xb5tSp~\xb5V`q\xc5C\xf2{W\xea]\x8f\xfc}G\xf4\x15\x9b\xf1\xd3\xfeA\x9f\xf6\xee\x7f\x95|\x01\xfbi\x7f\xc8\x9bq\xfe\xe8\xaf\xce\x9dG\xfeF\xe4\xff\x00|\x7fZ\xfak\xf6r\xff\x00\x91\x96\xd3\xea\xb5\xfa\x05\xe0&gt;\xb0\xfdW\xf9W\xa2\xe9\xff\x00\xea\x8f\xd4\xd4:\xafA\xf4\x15\xc2x\xcf\xfe&gt;.?\xde5\xe0_\x1a?\xe4\x0fu\xf5\x92\xbe.\xf1\xd7\xfc\x85n\xff\x00\xdd?\xd6\xbeq\xf8;\xff\x00%\xf3\xc5\x7f\xf0\x1a\xef/\xff\x00\xe3\xebR\xff\x00u\xbf\xf4\x13_r\xf8O\xfeD]\x03\xfe\xc5\xfb\x0f\xfd&amp;\x8e\xa7\x97\xaf\xe3U\xdf\xa7\xe3U+\xff\xd9'</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Sundar pichai.jpgSundar Pichai</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00@\x01\x02\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xf5Xz\x8a\xb5\x0fAV"\x03\xb5})\xfb\t\xf8\xa2\xd2\xdd5\r\x0ei\x15e\xb4\xbe\x8e\xe65f\xc6\xe8\xe4_-\xff\x00\x00Q?\xef\xaa\xf4\xdf\x8f\xde\x12\x97D\xd4\xa3\xd5\xad\xb0"\xb8\xcc\x91\x9cp\x0fz\xea\x7fg_\x15\xe8\x1e=\xd0u\x1f\x05\xea\xbb6]XIn\xe1\x88\xc9\xde\xa5[\'\xe8zW\xe7O\xfc\x13\x0f\xc2\xf7_\xb2\x1f\xed\x9d\xf1S\xf6g\xd7.\x8a\xdb\xc1\xacL\xbacM\x952\xc6\xaee\x8f#\xa1%\x1cs\xed_\xa0\xda\xcd\xacF\x18\xe7m\xf9\xd8r\x08\xe3q\xaa&gt;\x1e\xd1\xa3\xb4\x94\\\xefm\xee\x08\x18\xea\x14\xf6\xae\xae\xc3E\xb1\xd4m\x85\xab\xc6\xec\xbc\xf2\xcey\x1e\x9fJ\xcb\xd5\xff\x00fO\x87&gt;*\x8b\xecz\xa7\x85-\xe6I\x06y\x03\'\xde\xa3\xb5\xfd\x86\xbfg\x9bhD\xba\x9f\xc3]6F?1\xf3mU\x8f\xe6EU\xd4~\x1d\xfc\x14\xf8v\xc7\xfe\x11\x8f\x01\xe9\xd6\x93B3\x13Ch\x83a\x1e\x87\x1cu5\xc6\xeb\x9f\x194\xed\x0e\xea_\xb340\x10\xa5\x94\x88\xfe\xf1\x1e\xb5\x93\xe1\xff\x00\xdaz]V\xf9\xect\xcb(\xae]&gt;[\xd9\xe2?.\xff\x00LWZ\x9f\x10\x8e\xae\xab\x0b",\x84\x8d\x81\x0fs]?\x86\x9ai\xe6\x06\xeev\x93k\x0f.6\'\x9a\xbf\xf1\x8a\xcbQ\x83K\x8c\xdb\xc0\xca\x0c\',\xa785\xf1\x8f\xed\t\xe1\xc3\xa9\xe8\x12I"\xc9*\x92|\xc2?\x9d~t\xfe\xd1\x9e\x06\x8b\xc3\x9a\xcc\xd7\xb6(\xee\xbb\x19\xd5\xd5=9\xab_\r\xfe\x1f|V\x9f\xc3\xb6\xfe1\xd0\xa0\xcf\xee\x96X\x95\x8f%q\xfc\xeb\xec\x0f\xd8\xe3\xf6\xba\x8b\xc4\x90\xc3\xe1\xcf\x1cI\x1c\x1a\xa5\x92\x88^\xd5\xf2\x19B\xf7\x19&lt;\x8a\xfbO\xc1\xde%\xd25\xfd&gt;9\xac.\x03\x07\\\xe75\xa9\x7f\n\x98\x94\xc6\xc7*\x0f&gt;\xb5\xc6x\xa8\xc5\x1a7\x99\xb4\x12\xa0s^\x03\xf1\x9e\xea;\x08.\xe6\x92@\x14\x80Fk\xe3\x1f\x89\x13[\xea\x1e+\x9eH\xe4\x01\x14\x90\xca\xab\xce+\xe5\x8f\x14\xdf\xde/\xed\x19\x1c\xb6\x85c2\xdbyBS\xdb\x9cW\xa0x[\xc2&gt;#\xbc\xf1\x0f\xd9\xad\xa2\x9e\xf2\xe6G\x11\xacq\xa6\xe9\x1d\xcb\x101\x8e\xa3\xe9_p\xf8\x1f\xc2\xd0\xf8/\xc1zw\x85`P\xbfc\xb5Tp\xa7\x8d\xe7,\xff\x00\xf8\xf1cWg\xaa\xd3t#\xd6\xab\xb2\x02I\xcfz\xda\x84\x8c\x8ej\xcc$\x10&gt;\xb5f\x12+\xad\xf8I\xe3\xdb\x8f\x87^3\x83^R\xc6\xdd\xf3\r\xf4k\xfcp\xb63\xf8\x82\x03\x0fu\x15\xf6\x8c&gt;%\xd1\xf5\x8d\x02/\x0ex\xd9R\xee\xced\x1fe\xb8\xc9l\x06\x1c\x1c\x8e\xa0\x8ek\xc8|G\xe0\x0f\x88\x7f\x01|^\xdf\x15\xfe\x1dir\xea:[\xb03\xe8\xf1\xc8p\xe8\t\xf9\xd3\x9e\xb5\xf2\xd7\xed_\xf1\x16\xde_\xdb\x07\xc2_\xb4\xf6\x93\xe1K\xcd8\xea"\r:\xfe\xda\xf6?*V\x99\x0e|\xd6\x1co\x01\x063\xed_\xa0^\x16\xd4\xb4\xff\x00\x15\xf8V\xd7W\xb4\x98?\xdam\xc3\xabv\x03\x03\xb5\\\xd1,\xc3\xccd\x9b\x0f\xb0\x91\x95=\x05uZtV\xef\xf2\xa1\x11\xb9\xe1\x18\n\xebt\x18\xadb\x89&lt;\xc27\xa0\xc9b:\xads\xff\x00\x13\xbc]ma\xa6\xb3[\xcaT*\xe79\xc7\x00\xd7\xcd\x1f\x18\xbe0\xe8\xf6W\x13Ms\xab$q\xef\x1c\x13\xc9\'\xbe=+\xcb\xf5\x7f\x07\xf8\xa7\xe2\x1e\x99&gt;\xa1\xa4\xe97_f02\xc6]\xb0d~q\x83\xe8Mv\x9f\n\xff\x00f\xdd_\xc2&gt;\x06\x82\xd4\xda\x04\xb9\x96-\xf7L\xbc\xb9&gt;\xed\xdc\xfb\xd7[\xe0\x1f\x86\xf76^,\xb7\x9a\xe9\x1d\x92\x10X\x82\xfc\xe7"\xbd\x93N\xd1\x1c\xdeD\x9b0\xaa\xe0\xb1\x00\x0c\n\xea|s\xa2\xb4&gt;\x1a73H\x92#\xc6@P\x98#=9\xaf\x90\xbe"xl\xcf4\xf1,nU\xd9\x81I\x17\xe5\xc1\xea+\xf3\xef\xf6\xa9\xf8o\xf6\xcf\x1f\r\x16\xda\\G$\x9bB\xa1\xe3\x04\xf6\xaf\xab~\x19|+\xf0\x9e\x85\xf0kN\xd3/,\x95\x18Y\xa0%\xa2\x1e\x83\xbf\xad|3\xfbW\xd8M\xf0\xe3\xc7\xcb\xe2o\x07]I\x1d\xdc:\x9a\xc4\x1a\xd9\xf6\xe5ww\xc7\\W\xa9\xfc\x0f\xfd\xbeu\x8f\x06X\xd9\xc1\xaf\xc9q7\x95\x12\xf9\x8cI&lt;\x0e\xa7\xaf5\xf6\x87\xc0O\xdb7\xe1_\xc6\r\x1a\xde\r#[e\xbapG\xd9.\x17d\x9b\xbb\xf0O#\x8f\xd6\xba\x8f\x18\xebV\xaf\x13I\x14\xe8\xe0\x0c\x95\xc1\xc8\x15\xf3g\xed)\xe2\x94\x87G\xb8Q\x19\xf3$\x18R\x07A\xeb_\x17x\xfb\xc4-d\xf7wf\xe0\x12\xcaT\xf3\x93\xd2\xbcG\xe1w\xc3{\x8f\x8d\xff\x00\xb5F\x87\xe0]3Z6a\xed\xa6\x9a\xea\xf2x\x89\x11\xc3\x1eZL)\xfb\xceF6\x8c\xe3\x91\xcd~\x86\xfc?\xf8S\xe1/\x86:x\xb3\xf0\xfd\xbb\xc93 Yo\xaeHid\x00\x0e2\x00\n\xbcgh\xc0\xfeu\xbb!\xe3&gt;\xf5RnzUY\x88\x07\'\xd6\xa1\xad\x88Gz\xb5\x07\x1dj\xc4&lt;u\xab1W\xd2\xff\x00\xb2\x9f\x8c\xa0\xf8\x87\xe1\xef\xf8W:\xac\x80\xeazTa\xac\x9aF\xff\x00[l8\xfcJgn?\xbaW\xd0\xd7\xd2\xdaU\x84\xfaf\x8b\r\x94\x92\t\x965,\xdb\xd4\x1c\x03\xc1\x00\xd7\xc5?\xf0V\xdf\x08\xf8wS\xf0\xce\x95\xaf\xde\xa8\x85\xed$v\xb2\x96\x12\x14\xa4\xa5\x1b\x00\xff\x00{\xa8\x1f\x8du\xdf\xf0O\xcf\x8b\x8d\xe3\x1f\x836\x16\xda\x91\xc4\x91i\xf1\xa0Y[;\x19xd\xc9\xeaT\x8c\x1f\xad}\x19\xe1\x8bx\x1cL\xd1\x01\xb5\x97*1\xd4f\xacK\xaa\xc3aq\xb4\xc8p\xab\x82\xa7\x81\x9e\xdc\xd4\xb0\xfcF\xd3\xe0{\x8b\x08\xef\xb7Ol\xa0\xc9\x12\x82v\xe4g\xadxG\xed%\xf1\xebK\xd0\xadn\xc5\xce\xaa\xb6\xf6\xc82\xce\xef\xf3\x7f\xba\xbe\xfd\xeb\xe4\xdf\x83\xfe1\x97\xf6\x9c\xf8\xce\xdf`\x8e[\xdd\x1fE\xbc\xc5\xed\xd2g\xca\xc89\x0b\x9e\x84\x9cr\x05}\xcb\xe0\xc6\x91-\x16\xd6[u\x8a\xc5P\x01\x10@\x061\x8e=\xabr\x7f\x8b\x7f\x0c&gt;\x1ci\x177\xbe7\xd5\xe5\xb6\xb4\xb6B\xcdp-\xda@\xa8\x078\x08\t?\x95V\xf8_\xf1\xcb\xf6f\xf8\xe3)\xd4&gt;\x0f\xfcW\xd25Vi&lt;\xb7\x8e)\xccn\x1f\xd3d\x81_?\x85z\x1d\xc4\xd6\xf6\xcebO\x94\x82\x14&lt;\x8b\x8e\x9d\xf8\xedQj&gt;$K\xfb\x17\xb2\xbb\xbc\x07\x03\x03\x03\x82GLW\xcf\xbf\x1d\xae\xa1\xf0\xb6\x99q\xad\xea\x12\x08\xedm\xd0\xbc\xce\xc3\xa0\x1dk\xf2\xfb\xe2\xf7\xed;\xf0w\xc3~-\x93\xc7\xdf\x14\xfcJ\x9a}\x91\xbdo\xec\xfb\x15\x05\xe7\xb9\xe4\xe3b\x80O&gt;\xb5\xcfx\xbb\xfe\x0b\r\xe2\r^\xdf\xfb\x0f\xc1~\x0f\xb4\x8bN\x81s\t\xb9\xbao9\xa1\xe8\x19\x97\x1cq^\x17\xe3_\xda\'\xc4_\x15u\x89u\xbb\xb6\x860d\xcaD\x84m\x00\xf5\'q\xc9?\x85`\xdb|HH\xe5\x0e\xfa\x8b+\x8eZ0\xf8\x18\xcfj\xf4\xff\x00\x86\x7f\xb4\xaf\x84\xfc;\xa7\xae\xa1s\xa96\x9f{\x13\x15\x8bV\x8c\xb10zd\x0e\xa38\xaf\xab\x7fc\xbf\xf8(\xcf\x84&gt;-j\'\xe0\xf7\x8d&lt;L\x8d\xe28\xdc\xad\xa9\x95\n\xad\xea\x1f\xbb\xb1\x8f\x05\xbd\xab\xb3\xfd\xa5&amp;2\xe8\xd3\xddA\t1:mS\xddq\xea\x0fJ\xf8c\xe2\x0e\xa4Z\xead\xde\x02\x9d\xc5\xc9\xf5\x15\x07\xec#ui?\xed\x89\xa5\xaa\xceY\xe5\xf0\xf6\xa5\xe6nO\xe2\n\xa4\x11\xf8\x0cW\xdf2\x03\x9c\x93\x9a\xad7\xdd\xaa\xd2\x90\t\xcdU\x9cg5\rk\xc4\xd8\xfc\xea\xccM\x93\x93Va9\x15f2z\xfbV\xbf\x84\xbcQ\xadx7\xc4\x16\x9e(\xf0\xf5\xeb[\xde\xd9L%\x82U\xecGb;\x822\x08&lt;\x10H5\xf6\xcf\xc2\xcf\xda\xaf\xe17\x8f\xfc9o&amp;\xad\xe2K=\n\xff\x00\xca\x02\xf2\xd3Q\xbaX\x94?}\xae\xd8\x0c\xbd\xc7|u\xe6\xbc\'\xfe\n\xe5c\xe1\xbd\x7f\xf6_\xb4\xf1\'\x87\xb5=:\xfa\xf3H\xd5\x92\xf2\xc2\xd1\xe5..\xc1\x19\xd86\x1f\x9f\x9cw\xc75\xf3/\xfc\x13\xe7\xe3\xcbC\xe3-C\xc0\x11\xa9\x1b,\x84V\xf6\x93/&amp;Fp\xed\xc6G\xcd\xc1\xfc\x05~\x89\xfc;\xf1\x7f\xf6\x84\n\xd7%D\xc50\xc8\xa3\x1bOLT\x9a\xfe\xa12L\xc6G\r\xcf\x18&lt;u\xae\x03\xe2O\xc4%\xf0\xfe\x97\x7f\xa8E\xb69\x16\x1c4\xbb\x86N\x06k\xf2S\xf6\xa6\xfd\xb6&lt;e\xfbN\xfe\xd0\x0b\xfb:|5\xb8\xb9])nB\xeb\xda\x96\x9e7K\x14A\x82\xb0^\xd9\xe4\x0f\xc6\xbe\xec\xf8\x19q\xf0/\xf6Y\xf8{\xa3|7\x86\xf6\xd3G&gt;W\x98\xbajL\xa6W\'\x19\x9eg&lt;\xb39\xcez\x01\x8a\xef\xfcE\xfbn|\x16\xf0\xc5\xd1\xd2/\xfcUd\xb2$)\xe5\xc7\x1d\xc8v\x90\x9e\x80\x05\xe7\xd3\xf3\xae?\xe2\x7f\xed\x89\xe0\xcb}\x1aK\xfbH\x81&gt;N\x133(# \xfc\xf8\xee;c\xad|\x9d\xab~\xd5_\x0b\xb5\x7f\x89\xd6\x9aV\x83\xa7Z\xd9FX\\\xdd\xcb\xa5\x1d\x92\xc9&amp;~P%B\x06x\xc3\x01\xce\xe2\x05z\xb7\xc3\x8f\xf8,\xf7\x8d&gt;\x18\xeb\x13\xe9\xbf\x1c\xbc??\x88&lt;\no\xa4\xb7\xd0&lt;C\xa4B\xcd}k"\x8c\xf9R.qp\x98\xea\xdc\x1c\x81\x8fZ\xe6\xbe*\xff\x00\xc1\xca_\xb3w\x84\xef\xdd&lt;-\xf0\xd3\xc6^!\x8d[\x12\xcb\x15\x88\xb4XO\xbf\x9d\xcf\xe0+\xc0\xff\x00k\x9f\xf88\xeb\xe1\xd7\xc6/\x84w&gt;\x01\xf0?\xec\xe3\xe2\x985\x0b\xcc&amp;\xed^\xf6%\x8dy\x07-\xe5\xfc\xc4}+\xf3\x1b\xc6\xdf\x10~"\xfcX\xf1$\xfe8\xd7\xcd\xd5\xcc\xf7\x93av\x03\xe5\xc4s\x81\x14~\x98\x15\xbd\xe1\xbf\x02\xf8\xe7Y\x85Q\x16Gu\\\xb4%\x88d\xfa\x9e\xf5\xdb\xf8_\xe1\x0f\xc4\x1f\x12\xc7\x1d\x9d\x94\xd7\x912\xbe\xdd\xc0\x03\x96\xf4\xe7\xb7\xbduo\xfb&lt;\xfcW\xb3\xf2\xf5=e\x1cB\x8aF\xc6#\x0c=q\xd6\xb9?\x18xc\xc4\xde\t\xd4\xa3y]&gt;\xcb;(\x95\xa4\xce\xcc1\xfe/LVm\xdf\x8a5\xff\x00\x06\xf8\x87M\xd6\xed\xf5\'\x8e\xe7M\xd5#\x9bO\xbf\xb58d(\xcb\xb2PGlq\xf4\xaf\xda\xdf\x8b\x1aE\x9f\x8a\xbffm\x1b\xc7wP\x96\xbb\xd4t\x18n\\\x93\x8c\xbbF\xac\xd8\x1fS_\x9c?\x11\xefBMx\xccp\xa0&gt;\xe2{V\xaf\xfc\x13\x96\xcd|E\xfbR\xcd\xacJA\x97J\xf0\xcd\xe1\x1b\x06F\x1aH\x10\x12s\xd4\xef&lt;{{W\xde\xd3\x1c\xf2*\xb4\xc4\x0c\xe6\xaa\xcas\x91\xedU\xa7"\xa2\xadX\x8f \xd5\xa8\x8f\x00\x13\xd2\xacDH\xe9V"a\xc5Y\x89\x88\xfc*\xc4g\'\x19\xefW\xed\xb5]B\x0bf\xb1\x8a\xfaQo "K\x7f0\xf9n\x0f\x05J\xf4 \x83\x82=\xeb\xe5\xc9\xa1\xbf\xf8%\xfbV^\xf8\xac^\x0b{=1\x84\xab&lt;\xb3\x10.ReV\x861\x81\x91 V\xc1c\xc6T\xd7\xe8/\xec\xe7\xf10\\xz;qqp\xf7\x03t\xcf4\xff\x001\xd8\xc3 \x12\x0f\x04t\xc5{N\xa3,Z\x86\x8e$Lm\x93l\x9b\xd7\xaeq\x9c}+\xe3?\xf8*?\xc4}_\xe1\xaf\xec\xb5\xe2\xff\x00\x10iWK\x14\xc6\xcc"\xca\x84\xefQ\xbb\x04\xaf\xbf=k\xf1\xf7\xe1\x07\x8f\xee\xbff\xedGH\xf1\xaaj\x0b&gt;\xa1\xab4\x93\xdf,\xa8\x7f|v\x96\x19=H\x19\xce\xde\xf8\xafe\xf8g\xafx\x93\xe2\x8e\x8doq\xe1]Z\xfe\xefT\xd5\xae\x9b\xfbB\xe5\xad\xf8ds\xf2\x98\x8b1`\xa0\x1e\x84\x0fj\xfaK\xe0g\xfc\x13{Y\xb4\xd6\x93\xc7\x1a\xee\xac\xd6\x97q\xb2bY\x9f%d\x03\xe5\x94vP;\xd7\xad\xc9\xfb\x00\xfc\x1c\xb7\xb6\xb7\xb9\xf1\x07\x8d.\x1d\xa3\x9b:\x94\x8b\xac3}\xa6F\x1f&gt;\xe01\xb5\x8a\x93\x82:v\xa9~\x1b\xfe\xc3\x7f\x02\xf4\x7f\x88\x97\xda\xee\xb8\xfae\xe7\x87\'\x80\xc3\xa2\xd8Y@~\xd3l\xe7\x00\x07b0G\\\x9e\xa795\xe8\xd3\xfe\xc4\x9f\xb2\xee\xa3\xe0{-\x12\x03u\x05\xc3^L\xefy5\x91\x91-\xa7~\x8d\x12dl\xcf\x00\xf5\xe8+\xcf\xf4O\xf8"/\xecS\xe1\xbd\x16\xee\xff\x00\xc6z\xd6\xa9\xaf\xeaS3\xb2\xde\\\xc2\xca\x18\xb7# cv1\\?\x8d\xff\x00\xe0\x9b\x1f\xb16\x8b\xac\x7fk\xdfZ\xeb2$\x11$\x904V\xa1\xb6\x8c`\xabg\xadd\xeb\x9f\x02\xff\x00\xe0\x9fz6\x9bq\x1e\x85\xf0\x12\xe1\xe7@\x08i\xed\x82\xac\x84s\xb8\x80\xc7\x07\xde\xb9\x1f\x11x\xab\xe1m\xa5\xcai\x9e\x11\xf0\x1e\x83n\xb0\xc6$\x8d,\xed\x84\xf2\xaa\x0e\xc4\x81\x8c\xfb\x1a\xf9\xdf\xe3\xff\x00\xedS\xe1\x8f\x84\xf1\xc9\xa9kZ\\\xa9=\xc4\xc68\xd2\xd6\xce4`2q\xc88\xaf\x97\xbcc\xfbxx\xabS\xd6\xe5\x93\xc3\xfa\n\x08$8\x12]N]\xb6\xfb\x05\xe0\x1a\xb3\xf0\x86?\x8a\xff\x00\xb5\'\x8b&amp;\xd35\xa7\xf2\xf4\xd8T\x89\x8c\x11\xe0\xe3\xa6y\xe2\xbd\x8bH\xf8\x04\x9e?\xf8\xd1\xe1\x9f\r\xd8h\xb1\xb6\x97i-\xad\x8b\xc6\xd2\xedy\x8a\xb0\xe4\x8e\x87\x9c\x8a\xfdx\xfd\xae\xad\xf4\xaf\t\xfe\xcf66\x96\x967\x16\xado\xa6\xc7\n\xda:\x01\xe5\x05\x8c\x000=\x85~L|T\xbd\x02\xfe\xe8\xc2H\xde\x8eJ\xb8\xe0\x9c\xd7\xae\x7f\xc1&amp;\xbc\x13s\x18\xf1\xaf\xc4\xe6\x90\xac3\xcd\x0e\x93\x1a\x00\x08wO\xdfJ\xe0\xff\x00\xc0\xa2\x18\xf6\xaf\xb1%\'\x07?\x8dU\x9c\xf5\xaa\xd2\x1cs\xedU\xa7\'\x1f\x85E\xbb\x1cc\xf5\xad8\xd8\x1c}j\xd4M\xd2\xacF\xdd\xea\xc4G\x18\xe6\xacD\xdd\xaa\xc4l:\xd5\x88\xdb\x00\x1a\xf1\xbf\xdb7\xe1N\xbb\xe3o\ri\xde1\xf0e\x9b&gt;\xa3\xa3\xcf\x8b\xa8!\x00\x1b\xabV\xce\xe5\x7f\xef\x00Ny\xe8\x07\xb5w\x7f\xf0N\xef\x8a\xf7~ \xf0\x96\xa3\xa1\xdfO{u\xa8\xe8\xf2\x13$\x93O\xbb\x1b@\x0c\x84\xff\x00\x1f\x1ft\x9e\xc3\x15\xf6\xa7\xc3/\x10I\xe2\r\x1ahew\xdf\x13\x84\n\xdd\x8688\xed\x91\x83\x8fz\xf2_\xdb\x83\xe0}\xaf\xc6?\x84:\xdf\x83\xaet\xb8\xdf\xed\x96\x92";\xc7\xc2\x9cq\xc7\xe5\x8a\xfc3\xf17\xc2\x9dw\xc2\x7f\x12 \xf8{\xe3\x0f\xf4;\xed\x0e\xee8D\xd7)\xc1\x88\xb6\x00\xcf\xf1)\\\x83\xecy\xaf\xa9|i\xff\x00\x04\xf6\xbd\xf1\xd7\x81\xed\xfcu\xfb)\xf8\xf3V\xf0\xdf\x8c\xf4\x9b\x04\xb8\x9bI\xb4\xd4\x82Gs\x9c\x90\xa0)\xda\t\xe4(=\x94q\xcdx&gt;\xbd\xf1+\xfe\nm\xf0\xbf\xc6\xdae\x97\x8f\xbe3x\xe6\xd3K\xb3\x90E\xa9\xdc4\xe6haA\xc3\x19\x15y\xc7\xb9\x18\xaf\xd1?\xf8&amp;g\xc1\xbf\x88\xff\x00\xb5\xff\x00\x85o&lt;Wu\xfbJ.\xb84\xadb\x0b\x1b\xd1\xa7\xacL\xf0&lt;\x98\xf2\xfc\xc5\x1dx\xe4\x93\xcfj\xfb\xb7\xc1\x7f\xf0O\x7f\x88V2\xdeA{\xf1B\xd0\xc2\x92\x8d\xab\xfd\x90\x01f\x1f\xc6\t\xef\x8fOz\xea\xbc7\xfb\x0e\xc3\xf6\xa9\xaf\xaf~"j7Y\x04M\x07\x94\x8b\x18n\xbc\x0c\xf6\xad;_\xd8\x9f_\x16\xb3\x9f\xf8[\xb72\x99\x97\x10-\xc5\x8a\x1f z\x0f\xe5^[?\xfc\x13G\xc7^2\xd6oN\xbf\xf1\x90A\x06\xe2\xaa\xd6\xdax\xdd\xb4\x8e0\x0f\x18\xe6\xbc\xff\x00\xc4_\xf0H\xad\t\xbe(i\xde\x13\xd6|s\xab_Z\xdd\xc2\xf3Mr%\xd8\xa4\'Q\x80};T\x7f\r?\xe0\x9f\x1f\x0f\xf4O\x19x\xe2\xd3\xc6^\x0f\xb0\xb3\xd2\xfc?\x1b\xc3b\xb1\xa2\xa9\xbb\r\x1b\x15\x99\x8fR\x00\xe4\x83\xde\xbf\x08\xbf\xe0\xadG\xc2\xd2\xeb\x1e\n\xf07\x80-D\xb7^]\xdb\\\x8bx\xc83\x15\x99\x91N\x7f\x8b\x801\\\xdf\xec\xd9\xfb \x94\xd1!\xd6\xfe!X\xc5\x1d\xdd\xda\xe6\r5\xd7\'i\xe8\xceGO\xa0\xaf\xb5~\x01|2\xf0\x7f\xc3\xe4\x87\xc3\xde\x1d\xd2,X,`\xcc\xcf\x10\xe5\xb1\xb9\xben\xa7\xe9]\x9f\xc2\x1f\x01i\x1e\x1d\xfd\xa3\xf4\xff\x00\x89\x16\thl\xdbSAs\xa2\xde\xa9Db\xc0\x15x\xdb\xf81\xd7\x9a\xf6\x8f\xf8(\x0f\xed7\xa4j\xfa\x19\xf0\xf5\xb5\xd1\x13\xce\xcc\xd2\xc7#\x1c\xa0\x03\x00\x1fZ\xfc\xc4\xf8\xa9\xe2\x8b\x84\xd4\xae-\x99\x16L\xc6\x7fy\xbb\x82\x0erk\xeeO\xf8\'\x97\x85\x93\xc3\x1f\xb2\xd6\x8dt\xaa3\xab]]_\x96\t\xb7xiJ+c\xdd\x11k\xda&amp;n\xd5Vf\xf4\xaa\xd2\x1e:\xd5yH?\x9dA\xbdOz\xd5\x88\xe2\xacD\xdd*\xcco\xc5X\x8d\x87\xaf\xd2\xacD\xf8\xe75b6 \x0c\x9a\x9e6\xc7\x1d\xaae*\xe0\xa4\x8a\x19H\xc1\x07\xa1\xaf \xb3\xd2\xae?c\x9f\x8a\x1f\xf0\xb0&lt;+2\xdf\xf8\x7f_\xba\x96\x1b\xab;\xc5#\xcaVP\xe3n\xd2\x0b0 \xa8?OZ\xfb+\xe0\x9f\xc4\xfb=g\xc3V\xda\xaa[H\x93\xdcBng\x8dF&gt;S\x86_\xa9\xda\xdf\xa5z?\x88d\xb5\xd4\xb4v\xb6\xb9*\xe6X\x83&amp;\xe3\xf7\x95\xb9\x15\xf9\xd7\xff\x00\x05@\xfd\x974\xc9mt\xef\x8b\xfe\x15\xb1H/\xf4\xfb\xcd\xb7\x17(\x83;X\x11\x86\xe3\x9e\t\xeb]/\xfc\x12\xc2g\xd7|5{&amp;\xac\x96\xcbr\xf7\xf9\'iy\x00E\t\xf3\x01\xc0\x07\x1cW\xd0\xbf\x1b\xbfg\xdf\t|E?\xda\xb7Q\xc5guol\xf1\xdb]@\xaa\x04\xe4\x8f\xf5R\xa1\x042\x9c\xf7\x1d\xba\xd7\x8d\xfe\xc7?\x0c\x0f\xfc\x13\xe7\xe36\xa7\xf1W\xe0w\x87\xed4\xf8\xfcJ#O\x1a\xf8y\xd9\xbe\xcdp\xb1\xc9\xbb\xcf\x8d3\x81)\x1d\x1b\xdf\x18\xaf\xd3?\x81\x1f\xb5\xa7\xc2\xdf\x8e\xba\xbd\xfe\x8d\xe1\x99n\xad\xb5\x1d:%\x92\xe6\xdfP\x84\xc4v\xb0\x1c\xaex+\x9e3[\xff\x00\x0b\xbe?\xfc\x1c\xf8\xbf\xaa\xf8\x87J\xf8w\xe3\x9d;P\x9f\xc3:\x9f\xd85\xc5\xb6\x91q\r\xc0P\xc5w\x7f\x10\x00\xf5\xf65\xdc\xc1*\xbcj\xf0:\xba7*\xe8r\x08\xfa\x8a\x82\rb\xca]F]&gt;\x1b\xc8ZXT4\xb1,\xa0\xba\x06\xfb\xb9^\xa0\x1c\x1c\x1fj\xf3\x1f\xdac\xf6\x83\xf8E\xfb8h\x96\x9e&lt;\xf8\xd1\xf1\x1fF\xf0\xdd\x91\xbb\xfb4W\xba\xbd\xd0\x86&lt;\xb0\xce\x019$\xf1\xce=k\xf2\xef\xf6\xed\xff\x00\x82\xbdxK\xe2\xf7\x8f\xf5/\x86\xdf\xb1,\x97~&amp;\x86\xe7A\x9e\xc3Y\xf1u\xad\xac\x83N\x13\xb8\xdb\xfb\xb6\xfe,d\xe0\xd7\xe7\xbf\x82\xff\x00f\xdd?\xc1B=G\xc7\x977Z\xa6\xa9ol\x05\xa5\xde\xab\x87hs\xc9\x11\x8c|\xa39\xebSC\xae\x8b-n=68\x1dZ\xdd\xfc\xb8]\x87oO\xc7\x9a\xf5\x9f\x86\xd3\xa0\xd3\x9d\xae\xb7\xa8\x8er]\x81\xc1\xdaNx5\xddZ|u\xf0e\xbe\x944\rOIYu\x19#y\xa2\xd5b\xc7\x99l\xc1\xbeM\xc3\xb0\x00\n\xf9k\xe3\xa7\xed\x01\xadx\xdb\xc7\xb7)\x7f|$\x866 \x1c|\xccq\xd7\xf3\xaf=\xf8[\xe0}k\xf6\x85\xf8\x87g\xe0=&gt;\xf0Cuq\xab[E!E\xc9\xfb+3\x19\x9f\xdbj)?\\W\xeag\x86\xbc;\xa4x3\xc3:\x7f\x84\xb4\x1bq\r\x96\x99g\x1d\xad\xacc\xb4h\xa1W&gt;\xf8\x1c\x9a\x9eV\xaa\xd2\xb6\rW\x95\x88\xefU\xa5n\x0f\xadD^ q\x91\xf9V\x94m\xc6sVbq\x9c\xd5\x88\x89\xe2\xacD\xfc\xe75b\'\xecy\xa9\xe3a\x9c\x03S\xc6\xc4\x9a\x9d\x1f\x1c\x1a\xe4\xbe&lt;x,|B\xf0\x1f\xf6"\x96K\x94\xb9O\xb1\xdd\xa6K[\x96$\x1d\xa0\x11\xc3\x12\xb9\xfa\n\xe1~\t~\xd5K\xf0\xd7\xe2T\xdf\x055T\x86\xd2m*\x03\xf6y\xd6\xe9\x8a\\\xe1&gt;^\x18\x06\x1b\xf3\xdf\xb9\xaf\xb5to\x8b\x1e\x1f\xbd\xd2\xe2\x80]\xed\x9dbE\x93\xccS\x88\x9fnH\'\xf5\x15\xe3\xff\x00\xb5G\x88\xa2\xd4\xbc+&amp;\x97uh\xb7\x10N\xca\xcb\x8c\x98\xe4\xc3\x0e\x1b&lt;z\xd7\x93~\xcb\x16:7\x84&gt;,\xcfc\'\x89\x96\xd6\xd6}@\x03\xa2i\x92\x99\x168\xc0\xc8\xde\xca6\x80Ns\x9ez\n\xfb\x9f\xc2\xd6\xbao\x8et\xa1\xaf\xda\xe9\x13[[\x86(\x890\xfb\xe0\x7f\x11^\xdf\x8dck\xdf\n\xac\xf5\xbb\xd1\x13\x85.e\xff\x00G\x91FJ1\xe0~\x1e\xc6\xb9\xfb\xef\x84\x1a\x8f\x84\xae\x0c\x11\xa4\xb1\xb4\x1b\x90\xdf[\xcecg,s\x92Fs\xc6q\xf5\xa7\xe8\xff\x00\xb3\xa7\x83|u\xa1\xdc\x05\xbe\xb5\xd3f;\xa3\xb8\xb7\x89Z3r\x99\xe4\x96B2O\xa9\xe6\xa3\xf1W\x83\xfe%[\xf8^\xda\xdb\xc2\xbf\x1f|m\xa3\xe9\xda}\xb0\xb7\xb2\xd2\xb4mp\xc6\x81@\xc0\xe0\x8c\xb1\xf7\xaf\x98.\xbfd\x88&lt;A\xf1.\xff\x00\xe2\x06\xab\xf1\xdf\xe2TZ\xcd\xfd\xbcv\xd7\x9a\xd3x\xaeQ-\xea\xc6IH\x98\x82\x06\xd5\xc9\xc5\\\xf8\x9d\xff\x00\x04\xff\x00\xf8\t6\xa4uO\x1a\xe8\xba\xa7\x8aom\x8a\xb2\xc9\xe2/\x10\xcdv\x0b0\x19`\xae\xc4\x03\xf8U\r\x1f\xc2~\x15\xf0\x03\xde\xda\xf8sM\xb4\xd2\xe0)\xb6Q\x0c`\x85U^\x9fN+\xc3\xbe*\xe9\'U\xb8\x96\xe6\xd6\xdbl9$M(\xc0\x93$\x93\xb7\xda\xbcv\xeb\xc1\x97q\xea[\xa5\x8b"I3\x1f\xc9\xd0g\xaf\xf9\xf4\xae\xdb\xc4\xcf\x17\x84 \xd2\xf4\xc9\xf5\x10\xf2j\x91\xf9\xc0&amp;\x06\xc5\x1c\x02}k\xc6&gt;,|G_\xedwt\xd4\xed\x0b\xd8LUob\x91\x92Y\x14s\xb5\xbf\xbc&gt;\xbcW\x86j\xbe$\x96\xf3S\x93\\yW&amp;C\x9c\xb7\'\x9c\x92k\xeb\xdf\xf8%O\xc3[MO\xc4\xfe"\xf8\xdf\x1e\x9f\x01\xb46\x91Y\xe9\xd38&gt;o\x9a\xf82\x11\xd8\x0c.?\xe0U\xf6\xb4\x8c*\xb4\xacNG\xebU\xe4|\x9d\xd5^g\x03\xbdU\x95\xfdOj\x8b\xe4&lt;\x93_\xff\xd9'</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Sundar pichai.jpgSundar Pichai</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00V\x01\x02\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xf4\xd8\x9b8\xab15Y\x8d\xbb\xe7\xa5X\x8c\xf4\xab\x10\x9eqV#n2\rO\x1bdq\xe9\\\x9f\xc7\x1f\x83\xdaO\xc6\xbf\x05\xff\x00\xc25\xa8\xcc\xd1M\x04\xebqcp\x80n\x8eA\xf5\xf5\x1cW9\xff\x00\x04\xe4\xf1~\xb3m\xad\xf8\x93\xe1&amp;\xa9\xa8\xcd\x1c\xd6\xbea\xb4\xb5?y\xbc\xb2\x00\'=YNG\xe2k\xee\xdf\x84\x97\xf3\xc5\xa7Oi\xa8L\x19\x1e|\xc4\xe0}\xefP=\x009\x18\xf4\x15C\xe3\xbf\xc3-7\xe2\x07\x83o\xb4{\xd4\x13\xdb\xddB\xe9$[x`{}GZ\xfcN\xfd\xa6?e\rc\xf6q\xf8\xd7\x15\x86\xa3\xa6G7\x87\xef\xaf\x95\xf4\xc9\xae\tTL\x12\xce\xaeGBH\xf9}\x08\x15\xf6?\xc2\xdf\x82_\x0e\xbfm_\x84w?\x0e|w\xe1\x7f\xb5i\x96\xb6\xf1[X\xea\xb2l\x13\xc3&gt;\xcd\xdb\xd1\x82\xe0\x05\xe3\x19\xeaK\x1a\xf9\xab\xe3\xb7\xfc\x11\xabU\xf87\xe3}?\xc4\x1e\x18\xf1\x04R$\x0ee\xd3b\xd4\xa1\x0fkrW\x95\x8aG\x03\xf7lq\xdf\x8a\xfb+\xfe\x08K\x07\xc3_\x88\x9e\'\xf1\x7f\xc0\x9f\x8b\x9f\x01\x13\xc1\xfe/\xf0\xfe\xa1k}\xa7\xae\xa5\x1cm\x0e\xad`\xee\x16F\x89\xb1\xb5\x898\xe3\xae+\xf5G\xc3\xdf\xb2\xe7\xc0\x9d"\xf6\xea[\x7f\x86\xbaN\xe9\xa4%Yl\xc6\x10\x0e\xd9\xfa\x9a\xdc\xd1\xbe\x14\xf83M\x0e\x9f\xf0\x8aXBW+\x11\x8a\xd6&gt;W\xf2\xcdZ\x87\xe0\xff\x00\xc3\x06\xb6h\xa5\xf0&amp;\x94L\x83\x13\x11d\x83\xcc\xfa\xe0s\\\xde\x8b\xfb\'\xfc\x0b\xd2\xf5[\x8dH\xfc3\xd1^I\\\x94/h\x18/\xaf\x07 \xf7\xac/\x10\xfe\xcd?\x0c-&gt;)\xe9^#\xb2\xf0\xbe\x9dog\r\xb4\x82[H\xad\x90.\xfe6\xf1\x8a\xf1\xef\x16\xe9\xdf\x07?e\x7f\x12|E\xf1\x96\xbd!C\xa9\xe9\xd3_\xda4\xc4m\x8a\x05\x8c\x99#Rz\x02\xdd\xbd\xeb\xf9\xce\xfd\xb0u]k\xf6\xee\xf1\x7f\x86W\xe1\x9c*t=\x1e\x0b\x93yr\xd1\x94\x16\xded\xcc\xc1I?{\n{Wo\xf0K\xe0\x87\x82\xbe\x15h6~\x1f\xb0\xb4Y\xe4\xb8]\xd7\x97\xd3\x8c\xca\xcf\xcf\xcb\x9f\xe1\x1e\x80W\xd1\xbf\x0eu-1fK\xa4\xb2)k\x12\xf9H\x91\x0c7\xcb\xc0\xcf\xaf&amp;\xbd\x17\xc2\x9e\x11\x9fI\xf1=\x97\xc5{\x8d\x1a;\x84\xb0\xd4Q\xd7Z\xb6\x90\xa3\xdb\xa8\xc0\x90\x06\x1c\x81\x9f\xaf\x15\x81\xfbn\xfe\xd4w\xbe&amp;\xbc_\x0c\xa6\xb1\x15\xc4Q\x96\xcb\xa3\xf3!=\xcf\xad|\x1f\xf1;Z[\xadJI\xe0\xb8+\x1c\x80*\xa6\xf3\x82\xdc\xfc\xa3\xfc+\xf4{\xf6@\xf0%\xf7\xc3\x9f\xd9\xbf\xc2\xde\x1f\xd5l\xc5\xbd\xec\x96&amp;\xf2\xee\x15\x18\xd8\xf3\xbbK\xb4\x8e\xc4\x07\x03\xf0\xafC\x95\xbd\xea\xb4\xa7\'\xadVv\x18\xc6j\xbc\xad\xde\xa1\xcb\xfa\n\xd3\x8d\xb1\xd0\xd5\x98\x89\xe0U\x88\x9b\x8e\xb5f\'\xc9\xc6jx\x9f\x8c\x8a\xb1\x1bp1S\xa3\x8c\x8a\x9e7\xc75\xe5\x7f\xb5\x06\x99o\xe1Q\xa7|a\xf0\xdd\x97\xd9u\x0b}A\x9a\xfe\xf6\xd2"\x8a\xa5\x93\x03\xcc\xdb\xcb\x16##\xb7\xcas\xd7\x9f\xa1?f\xdf\x8c\xc7Y\xf0~\x9bis\xa9K\x14\x8dk\x947\x11\x05s+(bO=\t\x04\x8fb+\xdd\xee5\xe8\xb5\r-Dj|\xb9bR\xfb\x8fF\xc7?\xad|\x95\xff\x00\x05\x13\xf8K\xa2|J\xf8j\xb3Gj\xaf\x7fgx\xafh\xa4c~{g\xb7\xe3\\\x0f\xfc\x13GY\xd2~\x1c5\xef\x81|O\x16\xddO\xed\xb9x$\x05\xe4\x90\xb1!\x17\x1c(\xc0\x15\xf6w\x8a&lt;?k\xab\xc15\x95\xce\x88ek\xb8\x0crC(\xf9J0\xea;\x02+\xc5\xf5\xaf\x83\xab\xe1\x8db\xc7V\xd1\xed\xa4\x8e\xe7J\xb9\xf34\xeb\xe8\\\xab\xc1 9\x1b\xc8\xea\x01\xees_D|\x00\xfd\xb9~ \xe8Z\x95\xda|sy5\r&amp;h\x01\xd2\xee\xac,\xb6\xca\x850\x188\xce0\x7f\xbd\xef\xd2\xb4\xfc\x01\xff\x00\x05 \xf1\x16\x8du\xe2;\xdf\x8d\xbf\x08/a\xb1\xfbq\x7f\t\'\x876\xddK-\x98P\x02\xcd\xb8\xae%-\xce9\xe0\xf5\xafD\xbc\xff\x00\x82\x92~\xc9:\x16\x95c}\xe3/\x88\x13h\x97W\x96\xabpt\xab\xcd2v\x9e\x10Fv\xbf\x96\x8c\xa0\xfbf\xbc^\xff\x00\xfe\x0b\xeb\xfb\x0ci_\x125\x0f\x07\\\xa7\x8d$\xb2\xb5\xb5\x86K?\x10\xda\xf8Zi,\xef]\xc9\xdd\x14}\x1fz`d\x90\x01\xcf\x06\xbc\xdb\xf6\xa5\xff\x00\x82\xe6h\xc7K\xb5\xd3?d\x7f\xd9o\xc7~2\xd5\x8d\xfe\xe9\x1fZ\xd1\xdfL\xb1\x10\xed\xc37\x9a\\\xb3\x13\x9e\x06;W\xc5\xff\x00\x1b\xbcM\xfbo~\xde\x9f\x10\xae|_\xfbCk\xfa7\x83\xf4+\x0b\x13ke\xe0\xbd\x19\x9c\xc2\xb0\xb8\x1f+\xca\xc03\xbf\xaf\x18\xaf"\xd6\xfe\x1a\xe9\xff\x00\x0c\xe0m\'H\xb5\x8c\xc4\xb1\xf9AB\x05\x0b\xb7\xe5\xf9@\xe3\xb7Z\xf3)N\xa6\xba\xfb\xc8\x93\x16\x84\xcd\xf3G\xdc\x0f\xa5z\xd7\x83/\xd7\xc3\xda[\xcb,\xe0\x9f84[}z\xd4\x1a\xd7\xc7\xff\x00\x13\xf8.k}5\xb59#\xd3.!x\x9d\xa0\xf9\xe1\xb8vbHe\xfe\x0eOZ\xf9{\xc7\xbf\x11n\xb5\x9f\x1e\xdd_&lt;\xe4\x97s\xe5\xber\x00\xfb\xb8\xc5u\x9f\xb0\xdf\xc2f\xf8\xc7\xf1\xdb\xfe\x11\xdd\x7fD3\xe9zM\xdd\xbe\xab{,\xa3*&lt;\x86\xdc\xa82z;\xb2\x03\xea\x01\xaf\xd2\xf9\x0e\x06\x00\xc7\xb5W\x95\x87Z\xad)\xe7\x19\xaa\xf2\x9fJ\xad+pG\xad@f`p\x00\xad8\xdc\x11Vb\x7fZ\xb3\x13\n\xb1\x13\x8a\x9e7#\xf0\xab\x11\xc9\xcf&gt;\x954n:\x9a\x9d\x1b\x1c\x83Y?\x10\xb4\x9d;Z\xf0\x8d\xcc:\xc4a\xec\xa1h\xe4\xbbW\x8fz\x88\xf7\x85%\x81\xe3\x03w\xe1_2\xde|K\xf1\xc7\xc0\xbf\xdaF\xebB\x8d\xa7\x93\xc3\xd7\xf7Icj\x9flf\x8a\xdei\x95v*\xee\xe4\x01\xb8\x159 \x821_mx[\xf6\x8c\xb7\xbf\x87\xfb"-V\xda\xe5!a\x02\x85\x04\x19v\xae\x0eOb\x0f\x18\xaek\xe3\x9d\xdd\xc7\x8c4ISF\xd4\xe2W\x1f\xf1\xf5k\xe6\x1c\xae\x08 \xe7\xb7A\xf9\xd7\x07\xf0\x17O\xf1g\x85\xbe \xa7\x89t\xef\x04\xac\x11]ja\x92\xeay\xbe\xd1utXc\xa8;QF:\x9e\x98##5\xf6\xe7\xc3C=\xfe\x88\xe3\xc4\x1a\xc7\xdb/\xd5\xcb;\x15\x1b\x06y\n\xbe\x98\xfcj\xec\xfe\x0b\x8a\xe6\xfa3s\xa5\x81\x1c\xcc&lt;\xc0pC)\xeaO\xa7\x15O^\xf8/f\xd7\x13\\\xe8R,i\x91\xe5[\x99\n\xa9^\xe3\x8e;T\x1a6\x8bc\xe1\x9d*[\x1f\x18x\x11/\x14\xcc\xc6+\x9f(H\xf1\x9e\xa3\x0c\xbd\xab\x9c\xd7mtMKC\x923\xa7\xb4w\x0cN\xf9^\x0c\x95\x1e\xb8#\x9e\xd5\xe4\xd6^\x1d\x8e=nYN\x9c\x97.\xcd\xe5\xb42[\xae\x11s\xf7\x97\x8e\xb5\xb3\xf1\x12\xc2+\xf9\x1e\xd7H\xb7\xba\xf2\xde41\x18\xf2\x02\x05\x01H\xe9\xc7\xff\x00Z\xbcg]\x8a\xebM\x9e\xfa\xe6k5A\x0e\xec\x1b\xc9\x02\x83\xc6\x01\xf5?\x85x\x0f\x8fm\xedu\xbb\xf9c2\xbd\xdd\xc0\xe3\xca\x89\x08H\xb1\xd8z\xd7\x0c~\x10\xde\xdc\xea\xd1Gin\xa5\xe5\xf9\xe4\xdd\xd0w\xc1\xfc\xaa\x97\xc6_\x17Zx.\xe7J\xb4\xb7\xd2\xe4\x8e\x0b[O3Rhc\xce\xf6\xc9\x1f\x88\xe2\xbet\xf8\xa9\xf1^\xc5\xee\xae\xf5X\xadQVYK[\xa4S\x90\x00#\x8f\x97?\x8dy4\xde-\xb6\xbaW\xb8\x01\xdaR\xe4\x86&gt;\x9f\xe1_\xa1\xbf\xf0KO\x85\xf7:W\xc2\x9b\xbf\x8dZ\xfe\x9ec\xd4&lt;L\xc2\x0bi\x9b#\xcc\xb5\x81\x997\xaa\x9e\x88\xce2\x0fR\x14\x1e\x98\xaf\xa8\xa4~\xf5ZV\x1c\xe6\xabH\xd5^W\'\xa7\xe1U\xa4oC\xedQo#\x80+J6\xe3\x06\xa7\x89\xc6EY\x8d\xfasV"q\xc6*x\x9e\xa7\x8d\xf1\xcejx\xdc\xe3\x06\xa6\x8eA\xeb^\x83\xfb;\xe8\x16~-\xf1\x9d\xdf\x87o\xe3\x8d\xe1\xbb\xd1\xe6I\x12X\xf7!\x1b\x90\xe0\x8e\xfd+\xe5?\xdbG\xf6S\xf1O\xc2\xbf\x1d.\xbf\xa0\xdb\xdck\x1ae\xdaEyiqw8\x12\xdb\xdf[9hm\xb1\xd0\x83\x87\x00\xf5\xc6\xd1\xd8W\x8d\xfe\xcd\xdf\x1a&lt;Acy}\xa4\xf8\xa6\xeaE\xba\xb8\xbb\x92\xfa\xda\xd1d\x0c\xc4\x1c\x97\x04\x83\xc6s\xd3\xe9^\xb9\xe1\x1f\x8evw^3\xd5&lt;1\xaa\xdc\x83e5\xcf\x9b2\xf2Y\xdffp\xc7\xb7\x02\xba\x19\xbe\'\xda]Gm\xe2\xed3P\xb6\xb3\x85U\x1d-I;-c\xdd\xb7x\x04\xed\xdd\x80\x0f\xcd\x9f\xbck\xe9\x7f\xd9\x83\xe3\x16\x95\xe3}R\xd14{\xdb\xcb\xcbm9\xfe\xcc\x9a\x93\xcd\x98\x98\xbb\x12\xd8R\x01\xc6x\x1cW\xd3p\xdb\xb48\t8|g\xe5\x04\x103WN\x97e\xac\xda\xb5\xb3J\xc8|\xbc3\xab`\x03\xe9^i\xe2O\x0f|g\xb4\xf1\x0cv&gt;\x11\xd4%\xb7\xb5p\xc5\xa4U\x0e\x8c\xbe\x9f7s\x9a\xf9w\xe2\xd7\xedQ\xfb_x\x1b\xc6w~\ro\x04\xa5\xcd\x9c7S\xa9\xbd:n\xe5X\xa3\xc9?w\xb9\x1d+\xc9\xfe&amp;\xfe\xdb\xbf\xb5\xcf\x87\xe5\xb5\xb2\xf0\xd7\x87,\x07\xf6\x9d\xbf\xda\xb6\xbe\x95\x82\xb0\x028\xdd\x9c\x83^_\xab\xfe\xd6\xbf\xb6_\x8a-\xef\xacm5\xc4\x07J\x91\xd2\xea+H\x8a\xb9\x8bp!\xd7?\x7f\x19\xc7\x1e\xf5\xb9\xe0\xbf\x81\xbf\xb4o\xc4\x89\xc7\x89\xfca\xe2\xd3}\x0e\xd0\xe5$\xb8(Aa\x95\xce=\x07O\xd6\xbdV\xdf\xe0.\x9d\xe1\xfbK}^\xe9\x08\xbb@\xa6\xe7d\x99\xde\x07C\xee[\x1c\xd7+\xaexn\xdfE\x99\xf5\x9dFs\x01\xb9f)\xfb\xbc\x93\xf9W\xc5\x9f\xb4\xc7\x8c\xf5S\xaf\x0f\x0e\x9bG\x8c\xde]H-dX\xf1\xb8\x8e\xb1\x06\xce\x06\xe1\xd3\xdf\xeb_,\xfcF\xd6\xed\xef&lt;D\xf0&amp;\x9b5\x801\x8f\xf5\xb2\xe5\xd2A\xc1_N\xdd+\xab\xfd\x98\xfe\x0cO\xf1\x9f\xe2N\x89\xf0\xfa\x18\xe6c\xad_\xa2\xc92r!\xb7B\x1ai03\xd17~U\xfb\x15\xa3i:o\x874k_\x0f\xe8\xd6\xcb\x05\xa5\x95\xbaAk\n\x0c\x04\x8d\x14*\x8f\xc0\x01O\x91\xf3U\xe5p\x0eA\xaa\xf2\xb7&lt;Ug~\x0f5^F\x1c\xd4%\x8ez\xd6\x8cO\x8c`\xd4\xf1\xb6?\xc2\xacE\'\xbdX\x8eN\xd9\xa9\xe3\x92\xa7\x8eCT&lt;c\xe3\xdf\x07\xfc8\xf0\xfc\x9e*\xf1\xdf\x88\xedt\xbd&gt;\x13\x87\xb9\xbb\x93\x00\x9f\xee\xa8\xe5\x9d\xb1\xce\xd5\x04\xe3\xb5x_\x89\x7f\xe0\xaa\xdf\xb2O\x87\xafd\xb1\xd3\xf5\xadkZx\x88\x07\xfb+H \x1fq\xe7\xb4y\x15\xe9\x7f\xf0M\xcf\xf8)\xa7\xc2\xef\x8e\xff\x00\xb6\xcf\x87\xfe\n\xf8g\xc0Z\x94\x03X\xb1\xbcX5=N\xf9#\xf2\xddb\xce\xdf*"\xdb\x89\x19\x00\x12G=2\x01\x1f_~\xdd?\x04\xe6\xf8\xa1\xe0\xbd;K\xf0\xdbGo\xa8\xd9\xeb\x0by\x05\xdb\xb7\xc9#\xa0;b-\xfd\xd2\xcc\x06k\xf1\x9f\xc4q\xea\xff\x00\t\x7fi\xfdv\xf3T\xd2\xe6\x8eKY\x8c\xd3i\xd6\xf7\x1b\x8d\xa3\x9d\xc4\xa2\x8e\xeb\x92NFzV\xef\x8a&gt;"[\r\x16\x1dKK\xf3ak\xe9\x8b5\xf0p\xafv\x8d\x92b\x0f\xfd\xec\xe3\xb7\x15\x91\xe1O\x89w\xd7\xde!\x8e\xc3T\xb9\x92$\x9fls[\xdeH\n\xa4Jwv\xe5\x8f\x18\xe8+\xe8\xdf\xd9\xff\x00\xf6\xdb\xd2&lt;\x1b\xe3C\xa4Y^]+\xcb\x1bF\x8fjWd\x11\xac\x9c\xce\xfbzm\xc9\x00ul\xd7\xd9\xdf\xb2\x9f\xed\x85\xa3k\xfe6\xbd\xf8ys|\xf2&lt;r\xc6\xea\x8dx\xa0\xc4d\xc3na\xee;u\x07\xb5},\xbe!\xb3\xbci\xaf\xf4\xddLH\x90\xcaR\xe0\xc7&amp;\xe0\x18c \xfd\x01\x15v\xd3_{\x89\x95-\xeeD\xa8\xc9\x9d\x81\xb9#\x8e~\xb5\x8b\xe3\x0f\r\xe9\xba\xac\x12\xc9yq\x14Q\xca\xbb\xd8\xb2\x0c\x97\xeeI\xeek\xe5\x0f\x13x?\xe1\x96\x9d\xf1\x85\xf5-[R\x97P\xd4\xb4\xc4\xf2\x05\xea\xf1h\x8aNB\xba\xe7\x03\xae2p\rs\xd6\x9f\r\xfc\x11\xe0X\xa3\x86\xe7N\xb6\x96\xe6\xdes5\xb6\xa4-\xcf\x98\'\x92B\xc1U\xf3\xf3G\xc8\x18\xe4\x0c\x8a~\x87\xf1\xd3\xc2\xbe"\x96{\x19\xf4\xd6\xd3.\x12C\x0e\xcb\x8b_(\xc8{\x91\x9c\x02\xb9\x1c\x11\xd6\xae\xdf\xf8\x8bK\xb8\x9dm\xe4\x85\\\xccvI\xb9\xf6\x82\x08\xe8\r|\xe9\xfbV\xfcT\xb7\xd1~\xd5\x7f\xa6\xdeZ\xa4+\x1b#\xda#\x82\xca\xf8;@\xc7\x00\x1c7?J\xfc\xe1\xf8\xd9\xf12\xe3\xc5^%\xb7\x8a\x08Z\xd6\xde\xde\xe3\xcf\x86\x16b\xc3x?0\xc8\xe35\xe5\xfa\xe6\xb5s\xae\xf8\x9a\xea\xebQ\x89\x1d\xeef/\x08v?\xb8\x1e\xe7\xb9\xc7\xe7_\xa3\xbf\xf0J/\x81px{\xe1\x82\xfcj\xd7,@\xbf\xbek\x9b]\x1aS\xc6-\x0b\x8d\xec\x01\xe9\x97R\xbfE&gt;\xb5\xf5\xbc\xd2\x10*\xbc\x8f\xd6\xab\xc8\xfdj\xbc\xae\t5^W\x19&gt;\x95^f\xc5@\\g\x93Z1\xbex\xefV#\x92\xacG \x07\x06\xa7\x8aOj\x9e98\x15S\xc5\xbe-\xd3\xfc\x15\xe1\x8b\xcf\x14jH^+8\xb7yJ\x0e]\x89\n\xab\xc7\xa9#\'\xb0\xc9\xaf\xccO\xdb\xd3\xf6\x82\xf1\xf6\xb9y\x15\xfe\xbf\xad\\I\xbeyc\x8c\x89[\xc9\x84u\xc4i\xf7T}\x075\xf1\xd4\x9e+\xd4\xdfWmUo\x9d\x99\xbf\xd6\x178;\xb1_M\xff\x00\xc1\x1b\xfe"\xddx_\xfe\ng\xf0\xa7\xc4\xd7\x17s\x05\x1e"\xf2ee&lt;\x15\x926S\x9f\xd6\xbf\xa6\xcf\x15[\xd8\xeb\xfa;\xc6\xd1G4n2\xa2E\xe3\'\x9c\x1cW\xe4\xc7\xfc\x14\xaf\xf6}\xb1\xf0G\xc5\xfdK\xe2\xaf\x8e\xf4]\xb6\xf7\xb14\x8a,H]\xb1\x90\x15J`d\xe2B\xa3\x1c\x13\xcd|\xb1\xac|)\xf8\xa17\xc3\xab\xbf\x89\xbe\x12\xf0\xed\xee\xa3\xa0\xd8\xdb\xad\xce\xa5\xaf[Z\xbc\x90Z\xe4\x85Ku\xdb\x92\x8cz\x13\xd3\xae}+\xcdm#\xb8\xb3\xb5M{U\xb8\x86\xf6;\xb8\xf7\x1f2\xeb\xfd +7\x0c\xd1\xaf9\xe7\x03\xa6x\xf5\xa7xw[\xd3\xfc\x05\xa3=\xae\x9f\xa9Ioy}~\xdbD\xf3\x914pn!\x91\x939^z{\xf5\xafV\xf81\xf1\xbbU\xd1\xb5\xd9c\xd1\xbc\xe7H\xd4*\\3\x98\xc7\x94\x18\x16\x96II\x1f\xbc\xc7\x03\x9f\xa5}\xc5\xfb3\xff\x00\xc1@\xb4\x8b\x1dz\xde\xebX\xba\xfb%\xac~b\xdcC$\x9f+\x82z\xb9\xce\t`3\xcf\\\x8a\xfa\x8e\xf7\xf6\xa6\xf0\x8d\x95\xbc\xb7\xf6\xf6\x0e\xd6&amp;\x7f*\x0b\x99O\x96\x06r\xdf+\xf4\r\xc8\xc0=zW\x98\xfcF\xfd\xafm&lt;1\xe2\x8d+X\xd5\xfc^.4\x9dF\xdak\x8b\x03-\x88\xdc\x8b\x13\x10\xeb(&lt;\x05\x03\xf8\xb1\x9e\x95\xc1x\x7f\xf6\x90\xf8g\xf1\x96\xf14{\x04\xba\xb6\xba\xd6..W\xc3\xf7\x12\xc9\xe5C\x7f$Ye\x8enq\xb1\x88\xdb\x96\x1c\x03\xc5x\xf7\xc6\x1f\x8e\x9e#\xf1\x7f\xf6_\x8a/\xa4\xbb\xb3M:\xeb\xfb&amp;\xee\x18nO\x95n\xfdW\x18\xe1\x9c\xf5\x07\xa1\x07\xda\xb9\xdf\x15|p\xd34\xfd\x06#\xad\xeb\x86g\x1a\xa1\xb6\xb7Fl4l\xb89\xdd\xc9;N\x7f\x02+\x96\x9b\xf6\xb1\xb8\xf0\xee\x98\xf6\x9e&amp;\xd4^\x19\xe2\xb8\x91l\xaf#o9\xa6C\xd0\x91\xfc\x07\x19\xc1\xfaW\xcc\xdf\x16~8k\x1a\xee\xb3|\x1a\xeeI!\x12\xb7\x98\x8c\x0e\xe2\x85y {\x7fS^;\xae\xdfh\x9a\xc8i\xb4\xeb\xb3&lt;\x17\x0c\xd2N\x8d\x1e\x0c\x04\x90\xa7o\xbe\x06j\xff\x00\x82Z-OO\xd1\xc7\x86\x05\xbd\xe5\xf4l\xfau\xee\x99\xa8Y\xac\xa2Efo.U\x07\xb9R\x14\x9c\xf5\xaf\xd8\x1f\x84\xde\x13\x83\xc0\x1f\n\xfc9\xe0\xb8\xb4\xf8\xedN\x99\xa1\xda\xc15\xbcG*\x92\x88\x97\xcc\x19\xef\xf3\xee9\xeeMm\xc9&amp;I\xe6\xab\xc8\xf5\x04\xaf\xdb5^G\xe3\x8c\n\x82V\xe75ZW\xefQdz\xd5\xf8\xdf=\xea\xc4R\x13S\xc6\xe0\x8c\x13S\xc6\xe0tj\x9a9=\xeb\x82\xfd\xa6\xb5e\xb6\xf8[=\x88l=\xc4\xeaW\x9e\xa1A$}9\x15\xf9\xa1\xfb]hz\x87\x88&lt;%x\xc9\x03\x1b\x8bb\xb7\x10\x80\xa4\xe1\x7f\x88~\xb9\xaf\x90Vg\xb8\xbb%\xa6`\xef\xd1\x10\x12X\xf4\xc7\xb5~\x9e\x7f\xc1\x1f?b\x89~\x1d^i\xbf\xb5\'\xc4ki\x17RI\x15\xf4[yG\xfcz\xc5\x91\x99J\xe3%\x8foj\xfd\xd0\xf0_\x88\x93W\xf0\xf5\xb9I\x81-\x12\xb6s\x92x\xe0\xf1\\_\xed9\xfb+\xf8+\xf6\xa5\xf8m\xa8x;\xc4H-\xaf\xe4\x84\xae\x99\xab*\x02m\x1fp`q\xdcdt\xaf\xcf\xaf\x8d\x7f\xb1g\x8f\xbe\x06\xfc&lt;\xd4&lt;9o\xe2\xed_@H\xdc\xda\xde\xd9Z\xc7,\xb6z\x9d\xb2r\x97-\n|\x8eI8!\x87\xbfj\xf9\x07\xe2W\xc3}7\xc0v\xf7\xd7\xbe8\xb8\xba\xd4\xf4\xd4O\xf4it\xdd5\xd2\x19]F\xf4Y\xb8\xccQg!\x87\x1d\x06\ry\xe5\xdf\xc2\xef\x14x\x814\x8f\x1ak\xfa\x8cP&amp;\xb9qs{v\xc6L\xff\x00d\xd9A\xf2\x87u\x1fy\x9c\x8f\x91FI\x18\xac\xad/\xc6W\x97\x96\xfa\xb5\xa7\x90!\xb1[\x80\xcbq*\x80\xe8\xb16\xe1\x1f=\x04\x8c\x06q\x9c\n\xf4\x8f\x07\xdbj\xf0\xa3j~d\x17\xcd4\xeb\xb2\xea2\xcc\x8e\xca\xd1\xc8\xe4\xe7\x00\x88\xc6\xde;\xe0\xfb\xd7\xd8\xbe\x0b\xf8\xbd\xe1\xff\x00\x89\x9f\x08\xf5\xff\x00\x06xI\x9bU\x96\xe2\xda\xd1\xac\xf4\xbb\xc4)0\xbf\xceL\xa1\x81\xc9\x1ePf\x00\x0e\x87\xda\xbcc\xe2\x1f\xc4?\x1d\xf8\x8a\xcf\xc4\x9e"\xbb\xd1\x84ZF\x87$\x9a[\\\x18\xd8\x1bx\x1c\x02Q\x03`3\x15\xc0b:g\x9a&gt;\x02x\xcf^\xf1\x17\xc2\x7f\x10\xf8\xab\xc2\xfao\xd9\xe2\xf0\xd6\x83tZ\xea\xe25P\xac\xb3\xa3\xc7"\x13\xd5\xca\x07\xe9\xc9\x1f\xa7\x1d\xa0\xfcT\x17Z~\xb7\xac\xeb:\xbb\xc3\x14\x9a\xce\x9f\xae&gt;\x8fl\xa1\xa4\x91\xbc\xc6\x89\xca9\x18U\x01\xd5\xbf\x1fj\xd0\xf8\xbbw\xa4\xfcH\xd1\x7f\xe15\xf0T\x8bq\xa7\xd9X\xb5\xce\xc8\x88Am&lt;L\x16da\xfd\xe6\xc1&lt;\xf5\x185\xf3/\xc4O\x89\xf2\xf8\x83_\xfbT(\xf1\x1d\xd3,`\x1c!\x8f\xee\xaf\xd1\xb2x&gt;\xf5\x97\xe2}r\x7f\tx\x83L\xf1+Z\xc7#]\xf8v\t\\\\.P\xfc\xd8\x04\x8f\\\x82\x18W\x1deqw\xaaji\xa3\x9d5l\xe4\x9aQ4\xa2\x14*\xbb\xcf\xccI\xce6\x8ct\x15\xf47\xec\xb3\xf0*\xd2\xfb[\xd1\xb5mN\xcf\xfd&amp;\xff\x00X\xb4U\xda~\xec~z\x8ct\xee+\xf5\x12yK\xc8\xccN2I\xc5V\x92@z\x9a\x81\xdf\xadC#\xe2\xab\xca\xf9\xe0\xd5yd\xefU\xe4z\x87y\xec*\xfcRz\x9a\xb1\x1c\x9e\xf5:8\xe9SG \xc7J\xc1\xf8\x85\xf1\x01\xbc\x1d\xa5;i\xb6F\xea\xf4\xc4]b\x19"5\xfe\xfbc\xaf\xd3\xbd|\xef\xe3?\x1d\xeb\xde.\x81\xe5\xf1\x05\xe3;L\x18\xc4\x18\x95\x03\x9c`\x0e\xdd:W\x8b|G\xf0\xd1\xbc\x80\xbd\xc2\x16\x8c\xfc\xa4\x02\x08!\x86\x08\xc5|\x8fm\xf0\xc6\xdf\xe1\xa7\xc7\x05\x8bU\xb7f\x8dn&lt;\xeb]\xe9\x85*O\xa7\xe3_\xb3\xff\x00\xb2\xae\xab\xa3\xf8\x97\xe04\x1a\x85\x84\xaa^\xda\xc9\x02\x84n\x00\xe3\x8a\xfb[\xe0\x87\x89\x1d\xfc=c+(c\xe4*\x9d\xad\x81\x8cW\xb1\xe8\xb6\xb6\xb7\x10\xc9\xe4\xb1\x91\xe5^WwN\xfd;\xd67\x8c\xbc\x15\xa3\xf8\xb3Nx\xf5H\xe5\x916\x14\xdc\xa8\x0bG\xcf\xa1\xea=\xab\xe5\x1f\x8f\xbf\xb1\xf0]\x17]\xd4\xfc8\xad\x1a\xebW)\x1d\xf4\x13\xc8&amp;\xb7\xf2\x10rLL0\xc1\x86C\'^\x98\xc6+\xe1o\xda\xa3\xf6a\xf1\x06\x89\xf0\xfe\xff\x00\xfe\x15\x97\x87!\x92\x0b\x1bt\xd4&gt;\xc9-\x91\x12\xe9\x90\xa2\xaayQ\xdc1\xce\xc0Nvt\x15\xf3\x9e\xbb\xf0\xb6\xf7\xc3\x1f\tlu\x9f\x17\xdd\xc5\x15\xe2\x18f\xd6\x04\xb3\xb4\xbb^k\x95WB[\x00\x10\x84\x82\xa35/\xc3\x7f\x14Z\xe9\xba\xbc)\xa3\xddD\xda|z\xde\xa3\xf6fI\tVI\x0c0\xae1\xc7\xcc\xbb\x80\xc8\xef^\xc1\xff\x00\x04\xed\xf1_\x89&lt;g\xf1\xff\x00E\xf0\x9e\x9aWG\x95,\x16?\x10_\xc1\x1a\xcd$v\xf6Mp\x1eX\x95\xba\x1d\x9b\x15\xb3\xd7\xa5w\xbf\x1f\xfe1\xcd\xff\x00\x08\xde\xa7\x17\x86\xb4+\x16\x82\xf6\xfa{I\xb49#f\x96\xd5.\x93\xe7x\xd4|\xa2f\xe3\x1dFO5\xcc\xfc(\xf05\xb6\x97\xfb\x1d\xfcD\x83\xc3Zx\xbf\xd1\xf5k\xfbh\xb4\xddfi\xf6\xa4\x0e-\xe4-\n\xc2x\xf3I\x049\xe81\xce\x01\xaf\x98u\rz&amp;\xd6\xafJZ\x9bkk\x0b\x01\xa2\xe9\xb1I\x1e\xd1&lt;\xa3\x0b.\xe3\xd0J\x19\xb7~\x15\xd1\xfc\x1ay\xa7\xf0\x8e\xa0\xf7\xd6R\xd9E\xa9\xf8v\xf7N\xbe\xd4\'fT\x8a-\xc4\x87\x00\xf0d%@\x07\xa9\x00\xd7\x8ex~\xca\xdfT\xd5\xb4\x7f\x06\xddI\n\xdd^j\xe9&lt;\x934l\xee\xb1+\x8cD\xaa&gt;\xf6W&amp;\xa2\xf8\x99\xe2?\rx\xd4]h:N\x9e\xcfq\x16\xa3{g\xa5E\x02\x91\xb9~\xd2\nd\x9e\x84!\x93\x8f\\Wg\xf0\x9f\xe1E\xc6\xab\xa6K\xadx\xa2m\x97Cnat\xfb\xe0\x8d\xbdz\x921\xfa\xd7\xd0&gt;\x01c\xe1\x05\xb7\xd4t\xfb\x81\x1bi\xe8n\xa0,\x06\x15\xe2\x1b\x97\xf0\xc8\x15\xf4\x8f\xec\xa5\xfbV\xf8;\xf6\xa6\xf0,\x9a\xf6\x8f&lt;0k\x1at\x9eN\xbb\xa5\xa4\x990I\xd9\xd7\xb9\x8d\xba\x83\xdb\x91\xd4W\xa7&lt;\x83\x9ct\xa8$p\x07Z\x86I=MW\x92Lw\xaa\xf2I\xef\xf5\xaa\xd2\xbf\xbdBYs\xc9\xab\xf1I\x81\xc1\xab\x11\xb8&lt;f\xa7\x8eL\x1c\xe6\xb3&lt;q\xe3\xdd#\xe1\xf6\x80u\xed`\xb1_0G\x14H2\xd29\xec?\x00I&gt;\xde\xb8\x15\xe5\xf2\xfcr\xf0\xb6\xb9\xac\\H\x81\xe5\x0ep\xcd\xb3\x1e\xd8\xe7\xb7j\xe6\xbe"hzm\xdbE\xab\xe8\xe7*\xc3\xe6\x8cv\xfaW\x13\xe2\xad\x02+\xbb%U\x05\xf0\x08uq\xb7\xe9_?~\xd0\x1f\r\xee|K\xa5\x0b\xad2\xd3\xcb\xbe\xb0\x94\xbcs\x8e\xac\x9d\xd3?\xc8W\xa7\x7f\xc1?\x7fkK\x8f\x03\xdf\xcf\xe0/\x12\\\xcc#\xb8\x83\xec\xe9n\xe7\x85~1\xd7\xa5~\xbe\xfe\xcb\xfa\x9b^xj\xcdf\x91\x9c4`\xaf\xd0\xd7\xd0\xfa\x1c\x8b\x03\x11\x14\xbb\x19\x97\xe4&gt;\x95\xbd4vW\x08\xa5\xa41H\xe3j;\x7f\x03z\x9a\xc1\xf1\x0e\x92\'\x9b\xecR\xda\xa4\xa4\xb8\x05\x1a,\xc57\x1e\xb5\xe2?\x12\x7fg\xdf\x03x\xde-SF\xd4&lt;\x1a\xd7\x90^\x06\x8a\xe6\xd2\xec~\xef\x07\xaa\xc5\xb7\x9d\xc4z\x11\xf5\x15\xf1\xb7\xed\x07\xff\x00\x04\xe2\xf1&amp;\xab\xe1\xef\x10x\'\xe1\xe6\x99\nh\xcd\xa7\xca\xf6V\xf7\xf2\xc7\x15\xccRy\xdec\xb8\x12e\xb0\x00\xf9y,\xc7\xf3\xaf\x92|\x05\xfb)\xf8\xd3\xc2~\x14\xd7|+\xe3O\x87\x1fb\xd4lV\xea\xe7\xc2\xf6e\xbc\xc9L[\x91$\xbaf\xe8\x14\x16\xde\xa7\xa0 V\x1d\xf5\x8f\xfc+\x89lu\x0f\x87\xf2\xdc\xff\x00m\xdb46\x1e#KE\xf2\xfe\xcb\x96\r-\xa6\xe0\x7fy\xe6 ,\xcd\xf7p\xa0\xfaW\xbc\xf8\x97\xe1\x9f\x8a,u\xe1\xa4x\xf2\xf5."\xf0\xaa[\xc7s\xe2+i\nE5\x96\xe3sir\x92\x1ee\xda\x1fc\x12N\x06\x07\x15\x89\xe2\xad3Y\xf0G\xec\xdfk\xe1/\x13Kb\xfa4\x9a\x05\xb7\x89/\xa5\xb2\xbbh\xe4\x86\xf6\xe6\xe8\xda\xc5\x01\n2\xee\xd6\xd2\xc8\nu\'\x9e\xd9\xaf\x0b\xf8\xbb\xf0\xefP\xf1\x1f\x8c\xbcQ\xe1+i\xedA\xf0\xed\xf0\xd55C\x1c\x9b"(V9\x14\xa6G.\xd16[\x19!\x81\x07\x9a\xa5}m\xe1=/\xc5&gt;\x1b\xf0\x8e\x85\xe3\x89\xe7\xd2\xf58t\xe9!Y\xdb\x0b&lt;w)\xb6B\xe8s\xb1\xa2\x93\x7f\x199\x04\x11\x81\\\x8d\xb5\xe4\xdf\x0e&gt;=h\xfa\xed\x87\x87\xd6\xfa=\x0e\xe2Hn\xe2\x9b\xe5v\xb7\x8eFH\x9cg\xa32\x80h\xf0\x07\xc1\xfd2\xdf\xc47~ \xb6rY\xee\xd9\xa3\x95\xf8\x91\xc1b\xe0\x91\xd8\x82pO\xb5z\xc5\x8d\xbd\xb5\xa4?geUA\xfc\xfb\x9a\x7f\x8c\xf5\x9f\xf8F\xfe\x1ck\xda\x91\xc7\xee\xf4\xa9p\xc4\xfd\xdc\xa9\x15\xf1\xaf\xc0?\x8e~9\xf8\'\xe2\xfb\x0f\x88\xbe\x02\xd6\xda\xca\xfe\xd2m\xe5C\x1f*x\xcf\r\x0c\x888x\xd8u\x07\xbf5\xfb\x17\xf0\x13\xe3\x97\x85\x7fh\x7f\x85:g\xc5o\x08\x9d\x90\xdf!\x8e\xee\xd4\x9f\x9a\xd2\xe58\x96\x13\xeb\xb5\xba\x1e\xeaT\xf7\xae\xad\xdf\xd4\xd42&gt;3PH\xf5ZY=\xea\t_\xde\xa1\xde{\n\xbb\x14\x9cu\xab\x11\xc9\xde\xadYE5\xed\xc4v\x96\xc9\xbeIX*(8\xc9=9=+\xc8\x7fi\x8f\x17\xdak\x9a9\xf0\xbe\x9bx\x8d\x14\x08\xeb$\xa1~\xec\xbb\xf0\xdd{\x9c\x01\xf4\x02\xbe|\x96-ON\xb6I\xb4Uv\xc1\x1elC\x92\x98\xf55\xe8\x7f\x0f|M\x0f\x89l?\xb3\xaeu\x05\x0c\xa4\x16R:\x1fJ\xdc\x93GYU\xc6\xf51\xa8;C.y\xaf1\xf8\x85\xe15H\xa4\xbb\x89&lt;\xcd\xa0\xab\x00\xbcd\x9f\xfe\xb5|\xbb\xf1\x8b\xc2\x9a\xc7\xc3]{\xfe\x13\x8d\x0b\xcd\x11\x19\xbc\xcb\x85F\xff\x00V\xd9\xc8o\xa7\x185\xfba\xff\x00\x04\xc8\xf8\xdb\xa3\xfcq\xf8\'\xa0x\xcfI\xd4\x16I\xff\x00\xb3V-B\x149\xf2\xe6U\x19\xcf\xe4+\xec\x8f\x0e]F\xe8\xb3\\3/?9c\xd3\xdf\x8a\xe8\x12\xf6\x0b\x84\x04K\xb8\x0cm`r\x18\xfa\x8au\xf5\xed\xba\xaf\xfaLE\xbb)\x1dT\xfa\x8a\xe7\xef\xad\x84R\x194\xf8\x98\x12\xc1\x81\xec[\x1c\x9f\xca\xb3\xaf\xbc;\xe1\xef\x12Ba\xf1\x16\x9e\xd2\xc9)\xc4w%\xf0\xc8zg\xfd\xa5\xf5\x15\xc0\xf8\xdb\xf6b\xf0\xbd\xe2\xdd\xc0&lt;;\'\xfau\xa0\x89\'\x82\\;\xc4\xa7r\xc6\xcd\xfc*\\+\x15\xef\xb4\x0e\xf5\xf3\xfe\xb5\xff\x00\x04\xce\xf0K\xf8\xea\xf3\xc7\xff\x00\xf0\x89\xc6n\xa7i^\xeb\xc8`\x04\xa6@\x0b\x97S\xc7$`z\x00+\xce\xfck\xfb9\xfe\xd0:\xc8\xd4\xbc#\x17\xc4=7M\xd3\xb5\x0b(-^\x11\xa3\xc7\x8bA\x19\x05\xe4\x8d\x80\xce\xf7L)\xceG\xa5|\xcd\xe2\x0f\x81\x1f\xb4W\xc3_\x11\xebZ:A/\x89\xbc?v!\x10Y\xdc\x90\x1a6\xb6\x94\xc9n\xdb\xb3\xb8\x00\xc4\xe0t\xc1\xc15\xe2\x1a\x9f\x86&gt;0i\xb7\x86O\xec[w\xbf\x1a\xa5\xc5\xf4\xd3y\x1b\xbe\xd0\xf3\xe4K\x1c\x84\xf2\xc8A\x00\x0e\x8b\x8e\x94\xef\x11\xe8z\xbd\xbe\x99\xe0o\x12xs\xc3\x86-g\xc3\xd6\r\x08\x8e{q"\xdaI\x1c\xee`&gt;\x8c6c\xafj\xc8\x1e\r\xd6\xef5[\x9f\x10k\xd6\xd73^\xdf\xcen/&amp;\x7f\x94+\xb3\x16eQ\xd9A\'\x02\xba\x8f\x0biF\xd7h\xdar\xc7\xa7|\xd6\xf3"\xa3)\t\xd3\xeff\xb8o\xdaG\\{?\x83z\xe1\x89\xdco\xb5\xdaGr+\xe2M.\xed\xa1\x0b\x1a\xf4\x18\xe35\xf5\xdf\xfc\x13w\xf6\xb5o\x81\xbf\x10$\xf0o\x8a\xef\xdcxg\xc4o\x1a\\#\xb1?c\xb9\xe7d\xc0z\x00v7r0y\xda+\xf4\xd6\xdfP\xb4\xbf\xb5K\xeb\x1b\xa4\x9a\x19T4R\xc6\xc1\x95\x81\xee\x08\xebL\x92N8\xaa\xf2\xcaj\t\x1e\xab\xcb\'\xbdE\xb8z\xd5\xc8\xdc\xd5\x88\xe4#\x9f\xe5^\x0f\xf1g\xf6\x81\xd5\x07\x8ca\x8bG\xb6\x96+}\n\xfcLc2\x95\xf3\xde3\x92N\xd3\xcfN\x01\xac?\x8d~ \xbd\xbb\xf1\x19\xd7t\xf2!\x87^\xb6]H@y\xf2\x9aA\xf3/\xd3\'5\xe7\x16\xba\x8c\x9au\xd9\x8aI\xe5\x92\'!\xba\xe0\xf3]\xbf\x85\x16E\xd4\x92iB\xaay!\x95"\xef\xf5&amp;\xbbh\xefn.\xed\x04*\xc1\x03\xb6[\x8c\xe6\xb25\xfb+}X\xf9\x13\xc4\xa0\x03\xf3`}\xecdW\x8d\xfcJ\xf0N\x9b\xa9i\xd71\\F\xa69\x9c\xc3"\x95\xfe\x13\xfdk\xa4\xff\x00\x82G\xfcq\xf1/\xec\xb7\xfbZ\xc5\xf0&gt;[\x89u\x0f\x0fk\xe8\xfb!\x8d\xce\xe8I\x19\x07\x04\x81\xdb\x9a\xfd\xd0\xd1\xe6\x94l\r\xb7c(*\x00\xc1\xe6\xbam:!\x18[|\xf5\x05\x97\x8e\x9c\xd3\xb5\xf9\x8d\x9d\xbcQ\xb0\xf3\x0ew\x12x\xeb\\\xb2\xc5=\xd6\xa3\x11Y\x8a/\x19PO&lt;\x9a\xeb\xe5\xd1\xe1\xd6\xf48/\x02,RC\x16p\xbd\x18\x03\xc8\xa9,-\xbft\x934\xc7\xcbu\xc9\x8c\xa8&lt;zsO\xd5\xfc+\xa7K\xa6\x9b\xfb\x1d\xd1\xaf\x04\xc6\xc6\xb9=S\xc1\xbe\x1c\xf1\x04\xa2k\xdb\x15\x12\x04*\xce\xa8\xbc\x82+\xca&lt;k\xf07\xc2\xda\xbd\xe4\xec\xd6pG\xe4\x91\xb7bu\xc9\xef^\x05\xe2\x7f\xd9\x07\xc0\xb7\xda\xc3oE,K\x12H\xc7;\x8f\xa5fj_\xb1\x7f\x84\xac\xedL\xb6S\xc2\x0b\x03\x90\xe8H\xfdk\xe7\xdf\x8f?\x08\xf4_\x04&lt;\xbaX\x8e)\n\xbbr\x91\x00?\xc6\xbe|\x11\xad\x8d\xe4\x8f\x02\x80\x15\xc8\xc1\xf4\xab"]\xb1\x8b\x89T\x10GA^M\xfbO\xde&lt;\xbf\n\xf5h\xa3\xf9W\xc8\xe4~5\xf1\xbd\x8d\xbc\xb2\xc0\xd2E&amp;\xd2\x00\xc1\xcfz\xe9t)\xae\xad\xe5\x85cp\x1dY[x$c\xe9_`|\x1c\xfd\xa6\xfe,i\x1f\r\xe0\xd4\xbc+\xe2\xcb\x9bY,\x8b\x87\x86UY!\x91\x14p\n6A&gt;\xfdk\xd6\xfe\x0f\xff\x00\xc1JN\xb1\xe4\xe8\x9f\x13|\x11+\xdd\x16\t\xf6\xdd \xae\xd7\xed\x93\x1b\xb0\xc7\xe0k\xe9\xfd#Z\xb7\xd7\xf4\x985\x9b8\xddb\xb9\x8cH\x8b(\x01\x80&gt;\xb8$~\xb4\xf9\\\xf4\xcdA+\xe7\x9a\x8by\xf4\xaf\xff\xd9'</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>zuckerberg-231.jpgSundar Pichai</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x01,\x01,\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfc\xe9D\x1c\x81\x19#9g\x1f\xc2*H\xe1P\xdf\xba\x96IF3\xb5[\x1f\x8f\xd2\xa5M\xc3\xf7j\xa3\x07\x9e\xb9\xa7E\x14\x92\x12\xb1`m\xe4\xef\xab\x11\xab\x98\xd6@I\xda\xdfuH\xcf\xebS+)r\x19\xb6\x93\xce\x1b\xff\x00\xadM\xd8\xa9\x93/\xcc\xa0\xe5vz\xfb\xe6\x91\xd2)F\xfd\xca\x18\x9e\\u\xfaU\x98\x83E\n\x94\x8fv\x1b\'\x07\x82?\xc6\xbdc\xf6R\xf87\xa1\xfc_\xf8\xadc\xa7x\x9e\xfe\xdbE\xf0\xec,.u\xfdZu\x0f+C\x1f\xcd\xf6x\x94\xf0\x1aBq\xbb\xfc+\xe9\x8f\x11~\xd8\xbf\r\xbe\t\xe9\xf7&gt;\x13\xf8_\xe1\xb8\xb4\xc8-\xae\x02\xbf\xd8eE\xeaXGj\x8c\xcc\xbb\x98\x05\xf3\x9ac\x80\xbb\x82\x920\xa4\xe6\xfe\xcd\x7f\x04\xbfh\xef\xdb+S\xbb\xf1$\xa9=\xae\x9f\xaa\xb1\x9d/\xf5\x14sk\x1b\x16&amp;=\x84\r\xd3\xa8\x1c\xe4\xe0\x1c\x8c\x03\xd6\xbe\xb8\xf0G\xfc\x12\xbb\xe0\xe6\x9f5\x9e\xa3\xe3}V\x7f\x10jv\xb3\xa4\xf3\\M\x1e#k\xa4\xeaU\x08\x1b\x07`&gt;l\x00\x0erp=\x9fB\xfd\x95\xfe\x04\xf8\x06\xcf}\xaf\xc3\xfb&amp;yY\x9d\xc4\x99v\x91\xcf\'\' \x12&gt;\x9e\x95b?\x0e\xf8z"\x8b\xa7xf\xdc\x1eP\x97E\x89\x95G\xae\xd5\xe9P\\xKJ\x92\x19"]&amp;5\x12`\xa1\x0e\x0e\xe3\x9e\x8b\x9e\xa2\xbc\xe3\xc6_\xb2g\xc1\x8d{W\x9f^\xd7\xbc\x19b\xf7\xd2\xb6&amp;y\xe1Wv\xef\x8c\xee\xe0s\xd8Uh&gt;\x04\xf87J\xb1\x92\xcfJ\xd3v*(T\x8d\x11C*\xe7\x80\xa4\xf5\x19\xcfz\xe6\xbcS\xfb(\xe9~,\xbd\x8e\x0b\xb2\xabm7\xcd4Y\xc9V\x03\x83\xd3\x07\xb7\x1d+\x07F\xff\x00\x82~x#N\xb8\xba\xd5\xf5I\xfe\xd75\xcb\x0614!B\x01\xc0+\x8e\x95\xd8\xf8o\xf62\xf05\x96\x89kg\xaa\x01 \x8f?g\x85#\x03i$\x90\xe4\xf7&lt;\xe3\x1e\xd5=\x97\xec\xa3\xa0\xe8\x12^\xdci3&lt;m4O\x1d\xc2K\x18v\x9fp\x01p\xdf\xc0\xaarp;\x93\xeb^\x7f\xf1\x13\xf6\x1f\xd4u\xcdQ\x93D\x10\xc7\x12\xb9I\xafn\xad\xb7\xcd6cN\x8b\x90\xa3\x9c\x8f\xa7=\xf0&lt;\xb7\xc6?\xb0\xc7\x89\xfc\x19\xbfZ\xf0\xc5\x8d\xdb\xbd\x90\xf2t\xdb\x1b5U)\xb8d\xbb\x10\xbc.wp3\xfa\xd7?\xf1\x13\xe0\xa6\xb9\xf0\xcf\xc3\xbav\xa9\xa6[;\x97\x9e)%iS\x0f\x87\x18u%G\xa9\xebI\xaa\xfc\x0e\xd7\xae\xee-&lt;S\xf0\xc6\t4\xcb\xa8\x15\xa2\x84\x10\xf2\x07\x0c\xa1%RJ\xe3kc\xdc\xfc\xab\xd2\xbc\xe3\xf6\x9e\xfd\x9e\xfcs\xa4x~\x08-&lt;9-\xbe\x9e\xe4H\xb6p\xa8U\xb6\x99W\x89\xe3\xe7\x93\x9d\xcf\x82G.\xd5\xe7\xbf\x00\xfe"G\xa1jZ\x87\x85\xfe*)\x8fK\xd7\xa1\x16w:\xad\xb2\x9d\xb6\xd7(\n\xc7#\xa0\xc9Pr\xb9~y\xcf\xa6O\xab\xe9\xfe\x13\xf0E\x81\x9a\xdbD+\xe6\xe9\xed6\x9d\xa9\xc4/\xbe{\x8bV\x8dY%e*\xe9"\r\xdc\x01\xb5\x83g\x9fNk\xe2\x17\xc1}S\xe2\x87\x85m\xbe\t\xf8\x9ah\xa2\x9f\xfb5\xaf|\r\xaap\x8d*\xc4r\xd6|\x92\xdej\xf2\xdb\x0eN\x1b\xd3\x15\xe4\xfe\x19\xf0\xd7\x8a&gt;\x16|J\x8f\xc3\xde5.\xf6\x9a\xb1T\xbd\xb6\xb8\xb3\xdd\xe50\x1bT\xe7\xa0\x04\x95#\x9f^\xe3\x15\x97\xf1\xd3\xe1\x13h"\xefX\xff\x00\x84zV\xb5e\xf3b80\xca\xa6&amp;&lt;\xae\xdc\x92\xbb\xb7\x1cc\xa1\x04\xe35\x8b\xe1\xdf\n\xea\x97\x16\x90\xde\rI-m5\x1d?\xed\x13\xc8\xd0\x87\x9a8\x8bme\xe5X\x17n\xc4\x028&lt;\x821Z\xba\xbe\xa3\xe1/\x06\xeaW-\xa7jv\xaa\xafm\xf6x\xfc\xe8\x96v\n0\x18\x0c\x90K\x10G8\x1d\xc68\xe7\x8a\xf1\xaf\x84l\x96\x1b\x7f\x16\xe8^C}\xa6F\x8e\xea\xd9\\\x00\n\x927\x85=\x14\x8c~9\xaa\x1a\x1aD\xa8\xbb\x90+\x13\xcaK\x11\x04~}\xabbU\x8b\xedQ\xf9\x90\x82\n\x01\x98\xf8\x03\x93\xd6\x82\x90\xab\xb2\xf9\x8c\xb8=\x16LV,\x06\x08\x90\xa2\x86\xc8~B\xf2\x0fN\xbe\xd5,/\x13I\x91\xb9\x0c\x87fPp\x07\xf95&lt;\x91y+\xe4\xc0\xc3\xe4\xe0\x97=i\xc1\x96(Ii\x06\xe3\xc7\xcb\x93V\xecT Y\x17k\x10\xbc\xeeN\x9e\xfc\xd3\xd2\x19$\x90\xb4\x87a?t\x85\xe0\x8fZ\x8aH\x8c@\xb8\xb9\x05\xb3\xf7OqO\x8a\xd9f9p6\x81\x93\xb7\xd6\xa7Y \xb1\xb4k\xfb\xa9\xf6"\x12#\x8c\xa9-+\x1caT\x0f\xe2&gt;\xf8\x1e\xf5\xea\xb7Z\xa5\xff\x00\xc3/\x86gY\xb9\x91ln\x1bE\xf3\xed\x03\xdb\x90\xcd+1_\xe2\xc6v\x8c\x16^\xa0\x10F\xec\xd7\xa0\x7f\xc1$\x7fc?\x88\xdf\xb6\xa7\xc5\x88\xfe%|S\xb1\xb8o\x85\xbe\x0f\x91\xed\xf5\x18%#\xcb\xf1\x1e\xa0\xcc\t\xb1\x0cW&gt;Pm\x86f\x07\x95TA\x9f\x9b\x1f\xb9&gt;\x02\xf8U~\xff\x00e\xd2 \xb5\x82F\xb71\xa3Y\xd9\xd9\xfd\x9e\x1btN\x02\xaa\xaa\x84D\x00\x00\xaa\t\xe0{\xd7m\xa9\xfc3\x8e\xc9\xa6Y\x9bw\x9b\x95\n#\xc0\x1e\xca{\x9fz\xf3\x7f\x19\xe8\x16\xba$R?\x94?\xd1\xd0\x8f\x9d\x89~\xfd\x07L\xfe5\xc4M#:Eq\x05\xee\xed\x99,\xdeVK/\xa1\xa5\xdf\xa7]B\xad-\xc2&lt;\x8a\xa7\xcb",*z\x0f\xaf\xf8\xd79\xe2I\x85\xd5\x89\x11I\x01\xb8\x85\xbfz\xc6.[\xe8j\x84;\xa5\xb3)3\x16v`#\x89\xd4`\xb7\x079\xce@\xf6\xf6\xab1\xc0af\x96\xe9r\xe3\x1f\xea\xc1\xc2\xfbV\x84r\xc0\xf7h\xab\x13\x14x\xff\x00\xd6\x15;\x14\x0e\xc4\xf5\x07\xf0\xa8\xc2\x89S?f*\x0eJ\x15c\x91\xf9\xd5Su6\x9e\x8d\x04R;4\xaf\x9d\xd2\x1e\x87\xfc8\xadA5\xdc\xd6\xcb\xf6\xa9\x94\x921#m\xc8\x1e\xe3\xde\xb1\xe5\xb8\xd4\x9eW\xd9#\xc5\x15\xbb\x82\x8d\xe5\x8f\xde\x82\x18\x1c\xf3\xefYz\xf7\x82|7\xadX6\x99\xa8h\x0b*l\x8d\x8bI\x82\x00\x04\x12q\xf8\x1a\xcd\xbb\xf0N\x9e\xb6&amp;\x1d\x1e)\x11\x15\x98\xc4\xa9\xf2\x80\x0b\x13\xd3\x1c\xf5\xac]k\xc1Z\x17\x894)&lt;=\xe2]&gt;+\xc8\xe4o\x99\xa5L2\x11\xe9\x9a\xf9S\xe3\x07\xfc\x13\xd7Z\x83\xc4Z\x97\x8c&gt;\x19\xcc\xb767ry\xd7:R\x10\x92C!\x18\xc4c\x9f1p\x17\x83\xb7\x04\x9a\xe6\xfc9\xfb?\xf8\x9e\xd2\xc9\xa2\xbd\xd0F\x8fym\x10\x8aX\xe5\x0c^\xf5s\xb9@\xc0;X0\x07&gt;\x9cv\xadk\x9f\x87W\x87D\xba\x97\xc4\x1e\x1e\xf2\xb5\r:\xea+\xdb\x89\xe6\x95\xc3\xcbu\x93\xb6\xe2\x19\x18\x0f*E\x0c\xc0\x85\xce\xf5T\x07\x18\xae\x08\xfcC\xd0\xbe!L\xde\t\xf1F\xa0\xb6\xba\xf6\x91t\x1f\xc2\x1a\xcd\xd5\x92\xc7ovr\xe0\xda\\s\xb9\xb7\x91\x94%xvn\x83\x04\xf5\xff\x00\x0c\xe7\xf8G\xfbA\xf8)\xfc\x1b\xac\xe8\xe9\x1e\xb5\x135\xab\xe9\xb72\xb8\xb9\xb6\xe0\x89\xe0G\xc1%\xcb\x0c\xae\x07\xcc%A\xc0\x19\xaf\x12\xf1\xd7\xc3\x15\xf8c\xe2\xc9\xfc\x15}\xe1\x0b\xc4\xb7\xd2l\x8d\xf5\x82\xb1!\xe7\xb3`B\x0e8]\xad\x9c\xc7\xd7pb\x01\xcdx\xa7\x8d?g_\x11G\xe3=gS\xd3R\xe8\x0b\x0bH.\xadn\x92\x0f28\xd6E\xc9\x0es\x8d\xcc\xed\xb5G\'\x8c\x10\xb5\xe8\xc7\xe0^\xa7m\xe0\xd9m..\xe4\xbd\x85\x14\x19\xcc\xd1\xa4BY&lt;\xb0\xcd\xe5\x06\xc30\x05X\xe7\x8e\x86\xbcv\xc2\xce\x0b{\xe0\xd2\xdeE,\x12@&amp;\x88A\x1e\xd1\xe5\x96!O\'\xdb?\xd2\xa7C\x14\x17\x0e\x90aQ\x9b\xe4\xdcI\xc9\xf5\xfaR\xcbm\xbd\xb3\xb7y\xc7%W#5\x8b\x08HT\xa8R\xdb\xb8v\x1d*E\x92\x0f(G\x1b\x8c\xab|\xa4\xd5\x81\xe5\xcd\x19\xccA\xd9@\xcbn\xeb\xec*S\x14p\xca"x\xb6\xf1\x9f\xf5\x9c\n\x9c\xdc/\x94\x14\xe5\xf0\xdc,9c\x8f|\xe0b\x9e\xb2\xa4\xab\x98\xae2s\xd1\xc1\x1b}\x85$\xaa\x01\x0c\xd1\x1f3\x1cn\xc6\x08\xa9-L\xb3+\x08-pTe\xdd\x8e0?\x95}\x03\xfb\r|$\xd1&gt;"x\xcc\xeb&gt;)\xf0\xf1\xbb\xb2\xd3$\x8eH\xee\xe7\x04A$\xcb\x96Tn9\x0b\xf7\xbePI\xdd\x8cT\x7f\xb4\x87\x84&gt; ~\xd9\x9f\xb6\x7f\x86\x7fe\xcf\x82o!}e\x1c\xbd\xd4\xd6\xea\xa9g\x1a1k\x9b\xe2\x9f\xc2\x91D\x00\xe7\x93\xe9_\xb7?\xb07\xec\xd7\xf0\xf7\xe17\x84\xf4\xdf\x81_\x0eaT\xf0\xbf\x814\xe8\xed-\xbfv\t\xbf\x95\xfei\xaed?\xf3\xd5\xdc\xb3\xb7\\\x16 \x12\x005\xf5\xa5\xa6\x9doa\nZ\xd9\x8d\xb1\xa4AU\t\xc8\xfcG\xf5\xac\xef\x19M\r\xae\x87#\xc9\xb5\\."?\xdd&gt;\xd5\xf3\xef\x8d\xc2Kv\xbb\xe6g\x90\x92\xce\xcc8\xc9$\x1c\xe3\xd8W \x12\xe7O\x13ZG\x14K\x11bat\xe4\xed\xc7|\xe3\xbek\x03S\xd5\xee\x8d\x9b\xddIi\x91\x19\xda\x99\n\t9\xf4\x07\xa5Q\xbc\xbf\xb0\xb3\xd3Y\xaeUY\xae1\xb9c\x19;\xbf\xce+*\x13o%\xe0\x8a\x1c\xeds\xf3\x00yA\xeb\xcdOn\xf7S}\xaa\x06v\xdb\x1f\xc9\x1b\xc4N\xe2=O\x18\xcf&gt;\xb4\xb6vW3F\xbad\xfa\xa5\xc0\xfbLXA)\xc1\xdc\t=\xb3\xc5,:\xc8t+%\xb4\xa0\xc3\xf2J\xd2\xe4`\x8e\xff\x00J\xac\xb7\xb1\xde\xde\xef\x8c|\xaa3\x9e\xc7\xe9Sj\x1a\x83\xa9\x1fg\xb8\x19\x90\x04D\'\x8c\xf3\xcd2\xd6I\xe4x\xe42\x80\xe9\x1931&lt;\xe3$p=2\r$\xb7)n\xe1\xa4\x99\x14\xb8\x05x\xcf\x99\x93\x8e\xbd\xbe\x95fh\xed\xafm\xd8\x1bS#DB\xb4+3u\xf6\xe3\xde\xb4!\xd1t\xd9U7\xacE\x91F\xe5\x952W\xdb5\r\xff\x00\x854\xc9\x15\xae-\x92\x04\x93\x04\x87\x8e&lt;\x12;\n\xc4_\x00[\xdeI\x13\x1b\x18f\xb8G\x12F\x920\xcb&gt;y \x9ez\x01\x81\x8e\xb5\xd2x\x93\xf61\xb4\xf8\xe9\xf0\xdf[\xf0\xd6\x83m%\x86\xa52\xa5\xe46w\xcc\n^0\x18\x08\xaey\x8d\xf2\xa7\x91\x91\xd3\x9a\xfc\xe1\xf8\xd3\xfb\x0ex\x97\xc0\xd7z\xae\x9f\xe3-\x1e[}R\x0b\xc35\xed\x83\xde\xf9\xb2\xfc\xb8\xf9\x1d\xc0\xc4`\x8d\xa4\x10OOs_&gt;\xfcO\xf1O\x8c~\x18\xdf\xc5\xe3\xdd\x1b\xc4\xb2\xda\xeb\xba\x1e\xa1\x11\xfbq\x84\xac\xd7\x8a\xa0\x18\xdc(\x18\xf3b\xde\xb8l\xe1\xc2\x8c\x91\x8a\xf6\xcdW\xe2\x7f\x83?i\x7f\x87Sx\xd2\xdb\xcb\xb1\xf1\x15\xd6\x91"&lt;\x02\xf4\x94K\xae\x0c\x92n\xc6N\xe7.\xcaq\x94\xf9\xb0\rx\x9f\xc4O\x02x\x96\xce\xd9\xf5\xfd;\xc4\xd1K&lt;\xd1[\xda\xddi\xb0\\\xb3G4A\x97\xfd,\xa0\xc0\x048\x00\x12y \x93\x82qV\xbc]\x0c7?\r\x1bG\xd1\xad&gt;\xd3\xa9C\x05\xc3X_\xdc\\J\xb2\x1d\xaa\xc0J\x8aF\x08*\xa0c8\xcb?\xe3\xe4\x1a\xaf\x80o\x13GMj\xd7Qi\x9ai\xd2\x14\xb4[m\xa9#\x88\x94\xbe\xd68\xf9U\x83\x0f\xc0q\xcdeX_\xcd&amp;\x9e\xb1O:\xb3\xa1\xf9\xa3X\x80\x0b\xc0\xe0\x1e\xff\x00\xe3\x9a\xb3\r\x80u2\x02\x801\xc8\x1e`\x1f\xce\xb9\x94\x95\xa4\xf9\xbes\x8f\xbc00\xa3\xde\xa5\x01\x81\xdc\x151\x8c\x8c\x1e\xa2\xa7\x8c\xee\x8f\x12E\x83\xc1N\x7f\x9dLVI\x99\xe51\xf1\x8d\xc7\x07\xa9\xf4\xa9#\x99\xda\x1f\x9a\x0c\x86\xe0\xc6\xacTc\xd78\xebN\x85\xc8S\x03\x19\n\xa8\xca\x82\x07\x03\xd34\xf6I\xa6*V\xdd\x07\x1c\x16s\xd2\x9d-\xc5\xc5\xc4\xa9co`\xd3\xccT\x08\xac\x92\\y\xceX*\x85\x1f\xc4\xc4\x9e\x07\xb1\xaf\xb8\xf5\x1d\x1bS\xfd\x8f\xbff\xbb}7\xc4Z\xa2\xcb\xe2}_g\x98\x86T\x8e=5\x160\xc1cU;\xcc\xa4\xbe\x0b\x15\xc1\x18\x19\xe2\xbb\xef\xf8%\'\xc0\x1d[D\xf0G\x89?l\x8f\x88\xc5\xeeu\xdf\x1c\xc64\x9f\x0f\xf9\xef\xfb\xd8\xb4\xd4|\xdc1n\n\x19\x1c\x14\xe39U9\xc7\x19\xfd\x7f\xfd\x8f\xfc2\x9a\x17\xc2\x98/\x9d\x83\\\xdf\xb8\x96Y\x19pp0\x00\xe3\xd0\x01^\xa6\xeec;s\x92O\x00W\x1f\xf1j\xf2U\xd3\x11!u\xfd\xdbnrO\xdd\xfa\xd7\x8d\xea\x12\\\xdc\\\\\xcf\x001\xbc\x89\xb7\xcc\xda\x0e}\x805\xc4k\x91\xcfgj\xd6\x82\xf8\t\x1d\xb3\x99c\xef\xdf\'\xb7\xd2\xb9\xcdf?\xb3\xcb\x15\x92\xace\x9bt\x8cB\x93\x95\x00t\xf7\xebY\xb7\xcdx\xb6\xeb\x1c1\x00\xfb\xb7\x8f6&lt;\x02\x0e8\xe34\xcb[\x0b\x96\x8eI\xb5H\x96B\xe7\x88\xe1lm\x1e\xa7\xdf\xadK\x1c7\xb6l\xfb\xef\x1b\xc9\n\x11c\x8c\x90\x7f\x97=jG\x86$x\xd6h\xa5\xde8I\x96C\x95={\xfdj\x1b\xbb\xf8e\xb6\xf2n\xae\xa4\x05\x1b\xe5}\x99\x0e?\xda=\xb9\xcd2\xda\'\x8eh\xa6\x9e\xd5\x84n\x08\x0c\x98\xc6;w\xa4]=-\xe3\xfbSo/lC2\x80\tnO#\x9ez\xd6v\x9f\xa9M4\xd3\xf9\x8a\x97B0\xdf=\xber\x179\xc1\x04\x0fZ\xd0\xb9\xb7\x8e\x1b\'&gt;D\x7f\xea\xd7\x1b\x9b%s\xceW\x19\xe3\x9e\xf8\xe75n\xce\x08\xe0{{\xa8\x1aG_1VM\xad\x80Kz\xfd1\xcf\xe1Wm\xad^\xc6v\xbb\xb1\xb9(\x9313\xc6\xd9ff\xce\x08\\\x8f@8\xa7\xc3\xa9\x89\xd6D\xf9\x9c#m\xc9L\x14\x1e\x87\xff\x00\xad\x9e\xb5\xa5\xe1\xfb\xab;\x0b\xd4K\xa8mn#g\xda\x1ae\xc1R@\xf9\x95\xba\xe3\xf0\xaf\xa5\xbe\x07\xdd[O\xa1\x1b\x06\x9f\xcd6\xed\xbe\x12\xcd\xc3\x12\x07\x19\xc6p8\xfc\xcf\x15\xcf\xfe\xd4\xff\x00\xb2\xd7\xc3\xef\x8e\x9a\x1ak:\xac+\xa7\xea\xfac\xf9\xb6\xfa\xa4\x16\xeaw\x0e\x8c\xb3\xaf\x1etx\xec~\xefQ_\x91\x7f\xb6?\xeck\xaf\\k\xda\x8f\x875Kck}mcr.\x03@\x14\xdb\xab6a)\xc6\x1dX\x02\xd9\x1c\x80\xc0c\x8a\xf8\x87\xe1&amp;\xab\xe2o\x81\x9f\x13g\xd3\xf5k\xc9"\xb6\xb7\x94\xcbul\xf2\xaf\xcf\xce\xc3\x85#\x1c\x86\xcfQ^\xa9\xf1G\xc3\x97S\xf8Q5\rR\xf6H\xe3\x8f6\xaf}b\xa0\t@o6\x15\x05~\xfa\xaa\xb6H |\xe3\x1c\x8ej\xaf\x88&lt;u\xa7x\xf3_\xd3|;\xa2\xab\xdd\xad\xa7\x85e\xd5\xbc\xe9\x10D\xd7\x17-2G\xe4\x8cgb\xecR\x02\xf4\xceNy5\x15\x87\x81`O\x0fh\xfa,zd\xf6)#\xea\x06{\xe7s4v\xe4a\x80\n\xc0`\xf1)\xc9\xc7\x0b^G\xf1\x0f\xc1\xf3xSW\x17\x96Q\xc3=\x9d\xfb\x1f\xb3&lt;l7c\xd4\xafE\xfad\xd7%}!\x8eE\x10\xdd\xc6\xbf\'\xcc\xb2G\xb8\x83\x93Yh%\xf2\xca(\x03\'s7b}&gt;\x9cT\x96\xab\x13;\x03q\x11\xdc\xa7\x81\x9f\x94\xfat\xa6\xc4N\xd0\xc2L\xe7\xa0=j\xd4\x03z\x96p\xcaG\xdc9\xefO\xf2n_\x13}\xb5\x87\x1f0\x00u\xa7!.\xc0,\x921_\xbcH\x1d?:|\x85\xa3`%w\xda\xe4\x08\xc0\xeaI\xed\xfaW\xb5~\xc4\x9f\x0c\xa5\xf1\xdf\xc4\xc8\xb5\xfda\xec\xed\xf4O\x0fG&amp;\xad\xad]\xea\x10\xefH`\x80g\x96\x00\x94%\xca\xe3\x19$\x9e\xd5\xdex\xfa\xd3\xe2\xe7\xed\x8d\xf1\xa7I\xf0_\x84\xad/&amp;\x81\xefa\xb0\xb7kKl=\xaaK w\xb8\x9aF\x1fyc\x05\xb1\xc9\x08\xa0\xe3\x91_\xa8\xd6\xba\x05\xbc\x1a\xd7\x87&gt;\x1d\xf8A#K\x0b\x14\x86\x08\xa20\x01\xb9\x15\x14\x19x\x18\xc3\x90[\xfe\x04k\xee\x7f\x86v\x83L\xd0-\xf4\xcbx\xf6\xa4k\xb4a@\x03\x00V\xae\xa9\xac-\x8e\x02\xe1\xe4c\xd4\x11\xc0\xaf4\xf1\xff\x00\x88m\xaf\xefd\xd1\xac\xa3\x96\xe6I0\xd34dapO\x04\x92\x06?\x1e\xf5\xc6\xeb\x8b\x1b+\xc4\xce\xcd4\xcd\x961\x8f\xf5X\x00`z\xf4\xeb\\\xde\xbb4b\xc1n\x99&lt;\xc5\x89B\x00\xe87\xc8ry\x00\x7f\x8dq\x9e$u\xb5\xba\x8c%\xca\xbb\x92\xd9\x01~e\x0c\x00\x00g\x8e\xc7\xbdgj\xf0\xcae\x16\xcfz\xcd\x1e\x06\x0e\xdeC`dq\xdb\xa5T\xd0\xb4\xe8"\x92u\x8d\x89w\x1b\xdd\xe7s\x8cz\x0cg\xd2\xb6\x1aKw\xb6Y!\x93pY\x0e@_a\xc7\xd6\xa8\xdfI{3\xa4M)RP\xe1\x19\x0e\x0f\xbe@\xff\x008\xac\xc8\xec\xaf\xed,\xbf\xd34Wa(;\xb6\\\x8cu\xeb\x8fZzE\xaa\xad\xb0\x83N\x81\xdeD*R\x1e0\x13&gt;\xbe\xbdj\xf5\xdc7-\xab\xc7\xa9\xd8Y\x07\xb8\x84\xf2\xae\xd8S\xc0\xca\x91\xfa\xfe4\xe4\xd3\xb4\xbdQ.-\xf5;T\xd9"8\x9f\xec\x8f\xe5\xb2\x92\x07\xca\x18r~\x98\xefQIk\x1d\xad\x84Kj\xcc\xb1\xc6\xab\x12$\x91\xf3\xb4\x7fx\xf3\x93\xcfZck\x17\xf0]2&amp;\x96^)#o&amp;e\xc0\x0b.\x062\x0f8\x1e\xd9\xebV\xa4\xbf{\x9bU\x96yd\xde\x14\x02c\xc8\x01\xb1\xc9\xaazN\xb0\xf3;.\xdd\x86)\x89\x95\xd8\xf2\xfc\x0e\xb9\xc5t\xfa\\\x96\x92\xdd\xdb_I:;1\xdac\x92!\xb4\xe78\xdb\x83^\xcb\xf0\xfb\xc5\xb7&gt;\x1c\xb1\xb7\xbc\\\x86E)$(6\xa9\x19\xe0\xfdk\xbb\xb2\xf8\x97i|\xe6\x1b\xdbfq"\xedu\xca\xb2\xb2\x9f\xbc\xbc\x9e\x84c&lt;q\x8a\xe4&gt;;~\xcf\xde\x11\xfd\xa0|\x0buh"\xb2}J\xccgB\xbf\x03\x12\xda\x8e\xd1\xb9\xfe5\xea\x07^\xb5\xf81\xff\x00\x05N\xfd\x94\xbc]\xe0_\x19\xcb\xe2}\x1bJ[Yt\xbb\xc9\x13Z\xb4\x89[v\x18\xaf\xcer\x06G\x19\xae#\xe1\xbf\x8c\xaf\xfe"izW\x80\xf4mi\x8c\x1f\xf0\x96\xa5\xc3\xcb\x1c{\x87\xd9\x85\xba\t\x17\x07\xa9\x1e\x83\xd6\xb7\xae\xfc\x11\xe1E\xf1f\x91\xa8\xd9\xea\x17\xd1I\xa6]Kmv\xb1\xdb\x15\x13\xe9\x92o_1\xf1\xca\x98\xe5!\x87\xfb\xdc\xe2\xba\x9f\x86Z\xd7\xd8|A\xa5^M\xa8\xc3\xac\xdci\xda\xb3\xdaj\x9aU\xe4\xbb`\xb9o$\xa6e\xda\x0e0\x84&gt;W9\x12z\xe4\x0f&lt;\xf8\x8b\xf0\xc6\xd7N\xd1g\x81\x19E\xeaI!\xb7\x92q\xf2\xcd\x12\x82C\xa63\xce\xd0\x078\xe8+\xc5%\xbe\xfe\xcd\x9eK\x0b\xbbH\x0c\x90\xc8U\xbc\xf1\xb5\x86\x0fp3\xf5\xfck\x16%HX&lt;\x89\x93\x8e0i\\&lt;\xc5\xe5FE\xca\x85P\x06\x0es\xcd&gt;\x18\x08\xccg\'\x8c\x82\xe3\x07\xe81R\xa4M\x1ade\xb9\xe7\xda\x9b$bF\xe1wq\xce\x0e1R[\xc0\x90\xab\xae\xed\xa7\x19\n9\xcd&gt;\xd8\xc9q&lt;v\xd1 /\xb7\x7f\x98s\x94Q\x9c\x9f\xa0\xc8\xff\x00\xbe\x85}\x81\xe1\xbf\x13\xe8\x7f\xb3\x97\xec\xd5\x1f\xc1\xcf\x04hH|q\xe3\xed8&gt;\xb5\x03\x01!\x9a\xc9J\xca#R\xc4\x14\x91\xd8\x01\xd3\x1c\x0ek\xea\xbf\xf8&amp;\xd7\xec\xdf\xe3_\x86\xf67^2\xf1\x95\xbd\xf3\xdf&amp;\x9fq{#\t\x17g\xf6\xb5\xe2"\xf9`67\xf96\xf8R\xdc\x00[\x038&amp;\xbe\x9f\xf8Egsy\xe3\xe4\xd5\x9ef\x026\x02NC`\x8e0=\x00\xc60=+\xec\x9f\t\xea\xd1YhJ\x1d\x80#j\x87\xc1 \x93\xf4\xef\\\xef\x8a\xf5\xdcO\'\xd9g\x91\x0fP\x1a0OR3\xc9\xe9\xc5r7p\xde\xdcN\xe3\xedI\x02\xbc{\xa4\x91\x94\x10\xe3\x9e\x8b\x9e\xbe\xf5\xcc\xebQ\xc4!h\xb4\xf6\x91s\xc1\x98\xb8?\xa6r&gt;\x82\xb1n\xe7h\xf6J\xd18d\x04F\xb2.\x08\x07\xbe=k\x9d\xf1\x142]*\xe9r\xc4n\x18\xc7\xba4)\x86\x03$\xee$g\xdc~\x15\x81s$0\xech\xe7\xf2\xdf\xcdnz\xb7\x00|\xa0\x1a\xb1\xa0B\xd7\xb15\xc4VR\xc6\xc6"P8_\x9d\xb2y\xeb\xd6\xa7\x97u\xbd\x82\xbd\xdd\xa3\x81#t\x8dFs\xeb\xd7\xa5S\xbb7\x82\xd5\x9fO\xb9\x91n\x03.\xc8\xe7\xfb\x85s\xcfL\xf3W\xef\xa4\xb0\x92B\xf3N\xb1\xc8\xc4m\x88\xa0\x07\xa0\xe7\x19\xf5\xcdAq5\xdb\x15\xfd\xca:\x88\x8b\x9eB\x12\x07n3\xcdZ\x83\xfbI\xf4\xef\xb4[B#*\xa3\x1b\x95I-\xd7\xd7$`\x8a\xa3u\xa2^I\x0b]2\xacr\x10\xb21\x00\xaf99&gt;\x9d\x857T\xb96\x8e\'\x99\xcc\x8a\xec\x02\x9d\xe1Tp?Z\xa0\xd2\xbc.\xeb0&amp;"w\xa8\xc6X\x93\xc7\x07\xd3\x8a\xa5{}\xfd\x95\xe5\xc3&lt;R\xa3\x1d\xcd\xb8\xc8\xcc09\xcfN:\xd4q\xeak%\xc2\xc4\xca\xb71\xcd\xc9VC\xd3\xd7=k\xad\xd3\xae\x80\xb1\x87\xca\x89J\x06\x1eP \x06]\x9c\x95\x03&lt;\x9ek\xb8\xf0\xff\x00\x89d6p\xd9\xdd\xdc\x15\xdd\x90\xf1\xb2\xe1\xb1\xd4g\xdf\x9f\xd2\xba/\x0f\xdb\x88\x955{q+&lt;M\xfb\xb4\x12\x0eGrA&gt;\x95\xd4h\xfa\xf4\rz\\\xcc\xab\x1a\x9f\xdd#J\x14\x83\xdbp\x04\xf49\xe6\xbc\x0b\xf6\xf7\xfd\x95%\xf8\xdd\xe1\xb6\xf1.\x9dkes\xabY\xdb2\xdf$\x05\\\xde\xc6\xdb\xb1\x9cg8\xcf|\x1a\xfc_\xd7\xbe\x11x\xd3\xf6X\xf1\xe7\x88t\xeb+\t\x1a\xee\xcbL\xb9m\x15\xe7\x1bQZi#V\x1cgk\x000\x18d\xf2\x05{\xcf\xec\xe3\xe2=S\xc7^\x0e\xb2\xd4&lt;+\xa6\\\xc9q\xa3\xdd\x1b\xcb\xd9\xa4T\x1eY+\xb5\xe1\x9c0\xcc\xb1:\x1c\xf1\xddG\x1dMs\x1an\x8e\xf7\xff\x00\x155\xe3\xad\xe8\xd1\xdb\xdcK%\xba\xfd\x94\x91\x17\xd9l\xdfpI\x9b\x03hc\x9c6\xd2\xd8\xc7S\xc5m\xfcY\xf0\x0e\x95\xa5|&lt;\xd1\xf5\x98&lt;;%\xc5\xc5\xfd\xbd\xdd\xb5\xcbZ\x1f4Z\x85V\x88\xb8n\x060\xaa\xc3\x9f\xe2\xaf\x8f\xf5\xbf\n\xeaQj\xb3\xb4\x9aT\x97\x9ed\xa5\x96w\x881+\x9c.p}\x00\xae&lt;\xb4|.\xdc\x1ct\xdb\x8c\xd3d\x8e6\xc7\x99\x1e=\xc99\xfd*{h#\xe2H\xdc\x05^F\xec\xfd\xea\x95\x0cC3\xb6&lt;\xc2y\xeb\xfe\x14\x8c\x12S\xb9&amp;$\xf78\xc6=\xa9`\x8d\xa3+(\xb9\n\xc5\xb0wt\xc5o|;\xd1\xad\xf5\xef\x1b\xd9Yj\xaf1\xb5\x8aW\xb9\x99m\xd5KJ\x91(\x90\xc62@\xc3\x90\xa3\xafj\xfb7\xf6_\xf8Y\xe2\x8b\xbf\x89R|Y\xf1m\xbe\x9buyqg\x14\x1am\xbd\xdby\x9ePp\xd3\xc8\\0\x02$Dx\xc6\xec\xf2A\x00\x1cW\xe8\x0f\x81&amp;\xd2|9\xf0CH\xd3t\xeb;\x99&amp;\xbf\xb7\xb8\xba{\xc9\xe5;\x98\xb1\x1c.\xfcaw\x13\x8e\xfbq\xf4\xad\xff\x00\x8470-\xd4Q\xbbl*\xa1QY\x08T\xc1\xe5r3\xb8\xe7\'&gt;\xf5\xf4\xe7\x84u\xe9d\xd2\x03Z\xc6\xca\xc0+\xa9\x04\xf6\xeb\xc6+3\\\xd4\x06\x98\xb1\xdc\x15\xf3^Y\x19\xe6\x0c\xbb\xb2\xccp\x06OA\xc7J\xc4\xd5\xaf\xee\xe4\x804\x91\xdbG,k\x82\xb1.r3\x9e3\x8fZ\xe6\xfcAy"\x98\xae&amp;\xbaFg}\xa5\x16 &gt;A\xc8?\x99?\x95d\xeb3\x8b\x80\xf7N%b#\x0e\xfb\xce@\x19#\x00\xfe\x15\x87\xac_\xc2ldt\x1fg\xd9\x16b\x9a9&gt;gc\xfc?O\xf1\xaeR\xcbN&gt;JG{\x0c\xb2;\xb9\x91ef\x05\x0b\x1e89\xce0\x07j\xdd\xb3\xd3\xefc\x89\x8c\xd6(\xa5\x17\xf7\x1eL\xf9\xf9\x8fRs\xed\x8aU\xb5\x82\x18\x84\x02C\x84;\x80g\x04\x8f\xd6\x85\x82\xf9\xa1\x92h\xe7\x85\x14\xe3\xca\x91\xdb\x80}\rW\x92\r:\xf3SK\x8b\xd8\xc5\xc4\xe9\x1f\xcc\xca\x99\xc9\xe7\x81Q]\xe9\x86\xe1M\xd3[\x1cE\x11C\n\x92\xaf\x82x\xe3\xa7\xebS\xdb\xcc\xf1 \xf2mP\xa8!Y\x1d\x8e\xe5\x18\x1d\xea\x96\xb15\xd4q\xce-a\x92\xe1\x15\xc0\xfb4\x93\xb6\xd2\xdd\xce@\xe9\x8cV\x02A\xa7\xdaj\x977p\xcb/\xda_\x0b\x1cs7\x99l\x1b\x1d\x146\x0f\xe3\x8a\xb1\xa7j\x17v\x0e.oa\x11\xc8\x01Y$W\xde=\x80\x1d\x87\xb5T\xbc\xb8\xbaw{\xcf=\x99\xda\'V\x8cr\x08=\x1b\xdb\xff\x00\xadU\xe0\xbe/$\x12C{\xb1\xa2\x8fk,\x8b\xcf\x1d\xc7\xb5tz\x05\xd4\xb2$\x12\xc96\xe5(\xfb\tA\x90O\x00\x83\x9fj\xdb\x83X\xbb\x8f2H\xa5\xd9\x08P\xed&amp;I\xc0\x19&lt;\xf3\x8a\xea\xb4\xadm.\xe3\n\x8e\xdec\x1d\xaar\xc0\x81\xe9\xd3\x1e\xb5\xd2h\xba\xa0\xd2\xe2ye\x8c\x93\x18\xfd\xee\xd9\x80f^\xd8\xc0by\xcf\\S"\xd7\x96+\xcf\xb5}\xa5\x95\x19I\x93;\x14l9\x188&lt;\x9fr+\xf3\x7f\xfe\n\xf3\xf0?\xfb3\xc3\xb7\xde.\xf0\xca\xbcmp\x9etc?s\x13+\xeff\x19 \x12\x8a\xa0\x0c\xf5\x1e\xb5\xf3\xbf\xecG\xf1X\x8b\xf6\xd1\xae&amp;\ta\xa8\xb2X\xceY\xf3,L#\xd9\xc8\xfe.IR\x06H8=\x0ek\xac\xf8\xaf\xa8[\xc1\xf1\x1e\xfe\xe9\xccV\xfa\xd5\x9aEosn\xe44Id\xdbrUs\xfb\xd1\xbdd\x1b\xba\x82\xe0c\x83\x8fJ\xfd\xa1\xb5\x7f\r\xd8Ca\x7f\xe0\r:\xde\r\x1e\xf5b[\x11n2\x9e[\xc6\x04\xc0d\xf0r\t\xc1\x1dI\xe7\xa5yM\xed\xed\xef\x86\xe1\xb6\xb5\xb2\xf0m\x8e\xb2&amp;\x83\xcdy\xe5a\x98\x8e\xf6Q\x1f\n:*\xa9\xff\x00\x81u\xaf\x87\xe3s3yF@B\x9c\x1c\x0e\x07\xd7\xbd,Q\xc0\xd3\x90\x03m\x1c\x12\x8epO\xe2)\xd1\xdb\xc6\xca\xfb\x9c\xec\x07=rjW\x8db\xd9*r\x18`|\xf8\xa6K\xb5c&gt;R0;\xb9\xc9\xce~\x95"m\x8efS\x00\x91\x95p7&amp;F}k\x7f\xe1\x86\x83\xabx\xa7\xc7\xbaV\x83\xa6\xcf\xe4\xc9w\x7f\x04\x12J\xa0\xaa\xc4\x8f \x0c\xc4\x8eq\x8c\xe7\x198\x07\x8a\xfbw\xf6l\xd4o\xb5\xe5\xb7\xf0\xeb\xe9\x9ecj7\xf3C\xa4\xb26d\xbf\xb7\x86F\x8a-\xfd\x8cr&gt;UC\x15\xe7\x93\x8c\xf1\xf6\xff\x00\xc4\xfbW\xd1\xac\xf4\xef\x08\xdb_\xdc\x18\xec,\x96\xde+\x89\xc0tw\xdb\x1e\xec`\xed*\x1b*\x08\'\xee\xd7O\xf0\x83N\x99\xfcI\x14s\xb4\xe9\x1c.\xc5\x83H0\xed\xd0\x95\xc6q\xd3\xa5}!\xe1y\xa5\xb0\x81\x1e\xcaY\x9b\xcd\x8c\xb1WPB\x8f\x7f\xca\xb2u\xcdN\xfe\x7f2y\x91\xcf9U\x8dA\xf9A\xfb\xdc\xfe?\x95C\xae\xdbG$\xd1\xb4pHY\xa0\x05f#\xee\x929\xcf\xb61\x8f|\xd7\x1f6\x9b\x05\xc4\xe0\xcd4\xf2\xa5\xaa\x96\x8f*\x03\x03\x93\xf2\x9ezw\xfck2[{\x85?\xbe\xbf\x95 \x9c\x11,\x1bA?\x87\xb5s\xde#]&gt;\xd2\x08\xed\x18,\x9e@i-\x94d\x96~\xe1\xb8\xc61\x8e\xfe\xb5\x8b\xa6jQ\xbf\x9b\x9b\xa5\x82H\xd7z.\xd0\xdbO\xf7y?\xe75wO\xd5\xc0\x83&gt;c\xb4\x931.V0pq\xd4\xf3\xc5T\xb1\x8es\xa8\xcd,\x97\xac\x14z\xc3\xc1&gt;\xd5=\xd6\xa7\x8b\x88!eR\x07\'|x\x1f\xfe\xba\xaa\xfa\xccw7\xcc\xd6\xf2Z\x07\x8eS\x8f6"6\x8c\x0e85R\xe3\xc4\xed\x16\xac\x03:n|\x96X\x81\x1b\xbd\x80\xc9\xa4\xd1\xfcq\x1d\xc4s\xdbI\t\x8d\xd9\xbed8\x0e\x07\xa9\xcf\x1f\x91\xa5\xd4\xfc[\x0cz\x94V\x173\x9btt*\x92\x82px\xeaqY7\xd0\xdbj\x13Y\xd8Y\xbe\xe8VF\x0c\xf2\xcb\x82\xe7\xd4c\xbf\xd7\x14[i\xb2[\xb1\x88]\xbd\xb4\x81\xb6\xa8Ug\xdf\xf5\xc8\xc04\xb3]\xbe\x9drm/f\x96&amp;\x8d\xb2^4\x07\'\xfd\xaez}3U\x7f\xb4\xc5\xe5\xf8\x8a\xdeQ$\xaeN\xe2\x13\x00/\xb7\xebW\xf4\x1f\x10[\x90-\x8c\xaa\xe2"cW\x00\xe5[\xae\x0f\xe7\xfa\xd6\xe6\x9f\xa9\x8b\x99\x0cW\x0cD\x80\x90\x8f$x$z\x03[\xda5\xec\xfa|\x02\xe3\xeds:\xc9\xca\xa4\x92d\x86\xf4\xc7\xf9\xebZ\xd0k\xff\x00k\xb4\x97\xed1\x18\x90\'\xefd\x8f1\xb2\xe3\x9eH\xcf\x07?\xce\xa9\xdfO&amp;\xb7nmdEX\xdaA\x1b\xec\xc6\xed\xaa\x03\x02y\xe4\xfc\xddk\xc2?\xe0\xa2\xda\xfe\x9b\x07\xc0\xf9&amp;6\x1fl\x965v\x8e\x1f++!\x89~X\xdb\xeaX\x93\x8c\xe4\x85\xc6y\xc7\xc0^\x08\xf8/\xafi\xda4\xb3ZZGf\xda\x9d\x8c\x1a\xccv\xb6\xad\xb6{K\x89%d\xdc\x0ba\xa32y\x08\x08#\xd7\xa6Fr.\x87\x88\x7fh\x0b\xad\x17\xc6\xba,K\xa7j\x92i\xf7\x16:\x93\x86-\xb3d\xc2Q\x08S\xf7O\x98\t\x04g;\xcdz\xef\xc2\xbd7\xc6^\x1d\xf0{\xfc2\xf1\xec\xd0\xea\x16\xd2\x02\xf6\x89x\xb8\x92\xdb|\xa7l\x99\xea@8V pH\x00\x1a\xe9/\xbe\x1c\xf8sW\xd7\xb5+\xbb\xf9\'\xb4"\xecG\x1d\xbd\xa8\n\x89\xb24V\x1c\x91\xfca\xc7\xe1_\x9cj\xd0\x9d\xf2\xc5\x1cc-\xb4\xb8c\x8c`S\xd0\xba\xc2Q\xb1\x81\xc88\xc7\x14\xf8\x92\x16\x8cH\xb30\\\xfc\xc8GZY\x92\x18\xd0\x0c\x05M\xf9\n\x99\'\xf9T\xdb\x15e\x12\xc8\x87\xcb)\xc7\x1c\xfbTp\xa2\x97\xd8\xcerFY\x87N\xb5\xd6|\x1c\xd6\xe6\xf0\xd7\x8aWZ\x8b3\x18K\x0bt \x05I\x88\xda\xacI\xf6c\xf8\xe2\xbe\xc2\xfd\x8d\xadW\xc3?\x11V\xfe#8\xbb\xd2-\xac\xec4+s(t\x92F\x8dw\xb4\xcb\x9c\x05Gy$\x18\xc9\xc8^98\xfb{\xc6\x16:\x15\x86\xa0|;\xa2\xea\xf7R\xd9X\xacp\xe9\xcfrw\xa1E\x08I\x03\x9d\xb9`\xc7\x1c\xf2O&lt;\xd7y\xf0\xda\xf6;\xcdz\x18\xa3\x9c\x90e.\xa5`\xd9\x80}@\xcf\xe7_C\xf8sN\xba\x92\x18![\xd9\x91\xb0p\x15\x06\xc98\xf79\xfd*ko\x03\xea\x17W\xcf=\xd2\xbce\xed\xd9"\x8c\xa9\xe4\xe4\x9fN\x95\x15\xe7\x86\'\xb5\x82y\xe6\xbe\xc2\\&amp;\xd8\xdd~\xe0\xc0\xc0988\xce{W\x12\xbaU\xc5\x85\xbc\xf6\xda\x9a\xab\xca\xcaI\x9d\x1b\xe4c\xe8\x0f\xd3\x1dq\\\xe6\xa9\xa7\xcct\xe1n\x8ec\xf3\x10\xba\xab\x90H\xea9#8\x1cW\x13x\xf7K~\x8dqi\xb1\x84O\x16\xc11\xc1\'\xf8\xb1\x8e\xbf\xd3\x15\x9bwaa\x15\xc7\xdaRE\x05p\xae\xb8!\x8b\x0f_\xd2\xac[Z\xa5\xbd\x9c\xf7\x0c\x80I"\xae\xd6\x07\xa0\xcdH\xcc\xf33\xd9\xd8\xa4\xf26C $)\xce\x07\xbfO\xd6\xa0\xbf\xb5\xb9\x9e\xcb\xec\xd71\xbb\\\xab\x86S\x1eN\x0f\xa1\'\x15\x99yiws-\xfd\xb4ZcE6\xd5+#)\x0b\xeeI\xacIV\'\x8c\xc7\r\xcb5\xc7\x982\xf1\xe0\xed\x1cg\xbf^\xb5\x15\xde\x9e\xb7\x8e\x93Lg\x99#\x98yh\x14)B1\xf3\xb7&lt;\xfd:qR\xeaWQZ3\xde\xcbrD\xed \x11\xb3\xc7\x95a\x81\xcf\xb5Ose,w0_B\xd1\xc1\tp\x1e2\xbf39\x1f}Oa\xd0~\x14\xb3\x0b\x9bE}B\rFH\xddp\xac\x8dpYe@\xc7\xa8\xc7\x079\xfd)\xd7r[\xdcA.\xa6\xb2\xb4\xca@B\x16&lt;l=p3\x8c\x8es\x9fz\xa9-\xdc6\x93[I{"E\xb4lG\x03\x05\xb3\xfc?^\x7fZ\xd5\x8a+{\\\xad\xad\x9ca[\xef:K\x8c\xc9\xdf#\xd7\x18\xab:t\xaa#qi;J\xdb\xb6\xc8\x92\xfd\xe4=\xc8\xcflb\xb6\xa2\xbe\x1at[\x9e\xddy\xc7\x96K\xf3\x8f_\xaes\xfaV\x9d\xbe\xb6n\xb7-\xc0\xdf\xb6\x16G@\x07\xcc\x08\xfe/\xa5-\xcc\x93(I4\xf9\x84q\x84Ub\xb0\x863(\xea\x18\x93\xf2\xf7\xe9\x9a\xf9\x8f\xf6\xe4\xf8\x89\x7fq\xa1J\xfa5\xa4f=\x00\xfd\xb6\x11!&gt;S:gdM\xc7\xcc\x19\x89\x1e\xa0\xe3\x83_;\xe8\xbf\x175\rg\xe0\xee\xad\xf1\x93X\xbf\xb6{\x9b\x08\x97I\x87O\x9fO\x02\xe4\xdb\xa5\xea\xbd\xd2\xc8\xe0\xfe\xf1\x8f\x9b"\xa3\x8eBD3\xb6\xb9\xaf\x86Rii\xae\xda\xd8\xe9O\x0c\x8d\xf6\xf1s\x00\xda\x16Ia\x05\xe6\x8c\xfc\xb9_\xf5l\xa9\xd7\x92\x95\xed\xbf\xdb\x9e\n\xf1\x06\x8d\xa6x\xafI\xd3M\xce\xa0\xd3\xdd[\xc9l\xe0\xb4\xccU\x83\x05\x1d\x82o_^\xb8\xfc9}f_\x18x\x9e\xe1|Gc\xe1\xcb\x89\xa1\xbdC*:H\x08\xc9f\xde8&lt;\x10\xe1\xc1\x1e\xa0\xf5\x185\xf9\xd5\x14\xa5\xa5Y\x9e\xd9Q\x0f\xca#\xfe\xa6\xa7hc,Sqm\xdc\r\xbd\x05!\xb3\x16\xed\xe5\xb3\x86\x01rv\xd2\xa4\x0e\xf0\x9cO\x85\'!2G\xf2\x14\xf8cu\x1ef\xd6*8\xda\x1b?\xcf\x15\x1c\xcaC\x07\x92\x1d\xb9l\x0c\x1ek_\xc0\xdau\xce\xbf\xe3M\'FV\x90\xc3&amp;\xabj\xb3\x95\xe3\x0b\xe7\'n\xfcn\xfc\xab\xecm\x07\xc6\xb6\x1e\x13\xf8\xc1{k\xe1\xfb\xa8#\x91\xee\xe6H\nD\xcb\xb9\xd6B\xa8F\x01\xe4\xa8^N8\xc5}\xb3\xe0\xedF\x1dz\xca\xc6\xe6K\xa1\xe6-\xa2\x0b\xb4\xc9\xdb\x13\xe3$\x93\x8e\xe4\xd7\xbd\xfe\xcc?\x0f\xa6\xf1G\x88\x05\xeb\xd9\xdc\xc9\x14M\x92\xe0\xf0\xbd8\'\xa6;\xfe5\xf5D\x9a6\x9d\xa5i\xf1\xc9me\xe6I\x03r\x88\x9b\x99N:g\xb0\xfd+&amp;\xe2\xea\xe2\xee\xf2;?#Q\x89\xdc\x12\xc1\xd3\x84o\xee\xee\x19\x1c\x8c~u\x85\xaa[]jQK\xa4j\x08\xf6\xa3\x1b\xbc\xaf,\xba\xfd\x15\x80\xf6\xce=\xeb\x9c\xd5\xb4\x88\x1e\xd6;HT\x03\x10!C)\xdaO\xa9\x18\xeb\\\x95\xc7\x86\xee\xc8d\xbc\xb9@\xecv\x04\x8e\x12\xaa\xc0r\x00\xf5&lt;\xd7?\xad\xf8M4\xc6}J\xf6\xd3k\xbf\xca\xf9\xe4F\x7f\xbcGP1\x8e\xd5\xca_h\xd73\xce\x88\x96\xc1\x15\xd7v\xe1\x83\x9eH\xc9\xf4\xce?,T\x89\xa6\xa5\xab\x07\x91\x04\xc5AV\xf3\x1b\x02\x8d&gt;\xc1\xaf$\xd8!\xd83\x96]\xd8\x19\xf5\x07\xf2\xab:\xa5\x9c\xc6!\x14\x908Ta\xfb\xd5b\x0f^\x9cu\xfa\xd5\x1b\xc2\xff\x00k\x96\x18ZUB@a\xbb;\x86:\xd5[\xef\x08\xc1-\xb1\x92\xd9R\x1c\x8c\x91\x1d\xb8\x0c\xde\xf9\xcdQ&gt;\x0eGa4{\x83\xacy\xff\x00Y\x92\xdfQP]x{[M5\xee\xecb[\x91#\x02ct\x00G\xcf\xa9\xc5=\xb4\xa9\xad\xdd`\xbb\xb9F\x9a]\x85 h\xc1\x19\x19\xc9\x04\xf6\xac\xbdB\xc2\xe7CsivR\xea\'\r#[B\xbdI\'\x047\xbe1\x8fj\xad\x7f\x13[A\xe5Z\xc2c&gt;Z\x92e\x90\xb0\x04\x93\xc08\xedL\xb5\x0b{,\xd6z\xe2)\x12 \x10\xbbE\x9d\x84\x7f\x10\xadu\xb3T\xb2\x8a/)\x1dJ\xfc\xb2\x88\xf0\xcd\xef\xf5\xff\x00\xebU\x18!{k\xc6\xb8Y\xc1\x90\x91\x19Y\x9c\xe7\x1f\x80\xfa\xd7Cg{\x14\x9aZ\xb3\xbcJ\x1cm_17m\xc1\xebP\xe9\x1a\xcc\xb6\xfa\xa3\xc9v\xd1\xac\x0e\x02\x02\xcb\xb5\xa4\x07 \x10\x07\xb8=j+\xdf\x13Mgb\xfb!+\x95\x10\xc0\xcd\xfd\xe2\xcf\x9f\xd0\x0f\xccW\xc9_\xb4\xb6\xb5\x06\xa9{y\xe0\xbdBg\xb8\xb6F7\xd7v\xf11\x125\xb2.F\x07Fc!P\x06}zW\xce\xdf\x12\xfc7\xe2\x8f\x05\xfc&lt;\xd0\xb4(u\xa3\x1c3\xe9sZ\\L\xeb\xb9R\xfad\xf3\xe5g\x00n\xc8$\'+\xc6\rC\xfb&gt;\xe9\x89\xa1\xd9\x9b\xbdAe\x8dtmj\xd2x!\x00\xb6\xdbI\xd6N\x0bu\xc7\r\x81\xd8-z\r\x8f\x8c\xed\xfc\x1e\xa6\xfbM\xd4&gt;\xcb)\xd65\x0b\xed:@\tV\xb6x\xf2\xb1\x81\x8c\x169b;du\x15\xdf\xf8[\xe3\xa6\x87\xe1\x9f\x05hp\xddG\xf6W\xba\xd2\xd2\xe3\xca\x8a\xd08`Y\x94I\x90z\xb8_0\x8fW5\xf9\xac\xca#\x90\xdb$c\x18\xc8\xdc{\xd3\xfetdHP\x07\x03-\xefDM\x19\x90\xa9nd$e\x88\x184\xe3\n\xb2\x06R\xc4\x8e&gt;Y1Q\x95`\xc2\x17\r\xb8\x8c\x81\xbf&lt;T\xe8\x81\xedC\x89\x0cj\xcb\x91\x928?\x9ekK\xc0w\x16\xfao\x89\xedu\xe9\xe2\x13-\x8b\xab\xc7,\xd2\xb4q\xc56~V\xf9A-\x80[&lt;zu\xe7\x1e\xef\xe0\xedj\xf2\x1dNO\x1c\x7fh\x99\xbe\xd9|e\xdf\x0f\xcc$\x810\t\x1b\x80 \x9c\x81\xf5\x07\xf1\xfd\x02\xfd\x94\xee\x87\x8a&gt;\x14\xe9\x9a\xc4\xf7\x05"\x9eS\x0c\x92M\x9d\xbb7\x9eY\xb1\xd0\x0f\xc7\x9a\xfa\xcfM\xf8\xc9\xe0\xef\x86zm\x8f\x87|1\xa8i\x88\x04\x03\xedW7\x17\n\x02\xed\'\xe7o\x9cu\xec\x06N1T\xfcI\xfbz\xea/{\x1f\x93\x05\xea\xc3\x16]o-\xb4\xff\x00*\x0b\x86?.\xd2w\x9d\xea0\x0eN:\xfbW\x0f\xe2\xcf\xdb\xde\xca\xc0\xbd\x92k\xcbus*\x7f\xa6,\xeeUT\xe4\xfc\xb8S\x85\x18\xc7L\xf7\xaeOS\xfd\xba\xbc[-\xbb\xbe\x876\x95q\x0f\x94\x11 \x95\xe5S\x08\xc9\xe0\x15\xc8=s\x92A\xe6\x99\xa4~\xd4\xfa\xbe\xab\n\xf9\xb7\xe9gp\x8d\x97Hn\x19\xa3\x90\x7f{\'\x9c\xf6\xfc+\xaf\xd0\x7fhX\xb5[V\x1a\xae\xb8\xe1\xd1\x86\xcd\xaf\xc0\'\x039\xad\x0f\x13\xf8\xc5\xfcI`\xfa3J\xf3\xac\x91\x84\x9a{[\x8c&gt;\xd3\xd4\xee8\xe3\xa7\x1fZ\xb3\xa5\xebzu\xbd\xa2[\xb3\x03%\xac*\xb22\xf2\x1b\x1c\x0eOS\x802j\x0b\xfdj\xcaK\x81\x1c\x9b\x01\x97\xfdX\n\x0e}\xba\xd1\xa5^Ev\xb2\x99\xa2VT\x1fq\xfe@\xa7\xd4\xe3\x9a\xbf6\xbe\x82\xc0\xacs\x02\xc2\x15\xf96\xe4\'\xcc{\xd3-\xf5]\x1e\xda+\xa5\xbe\xbbG\x04s\xd3%\xb0:s\x9cV|&gt;9\xf0%\xbd\xba\xac\x1a\x98\xf9[l\xcc\xe3\x01[\xfb\xbc\xf7\xc6?:\xbau\xbf\x01\xdcBn\x86\xa60\x98&amp;h~~\x0f\x1bp\xb99\xeb\xdb\x1c\xd5\x8b\xf1\xe1\xc1g\x1c\xb0\xea)$p.d\x0c\xa7k\x03\xc8\xca\x90\x07\xe6s\xedX\xf3\xe8v\x9a\xd8\x8e\xea;\x88c(\xed\xe5\x8f9[v@\xe1H9Q\x8e\xd8\xc6sX\x96\x9e\x17\xb4\xd1\xa5\x9e\xdbN\x9a\\\xef\xdcR\xf6BN\xf1\xc8\xc1=G=\x06j\x90\xb4\xb9K\x89\xe0s\x88\xe4`V\x10\x84\xeec\xc99#\x8e{zb\xa9\xdfZ\xcf\xa7k%\x96Fd@\x1b\xc9\x00\x10\xe0\xf1\xc1\xf5\xe2\xb5\xc3O6\x9d\xe5\x0bb\xa8]W\x00\x8d\xc8[&lt;\x81\x9e\x82\xb0\x9ag\x8ev\x8a\xe2X&amp;h\xa7\xdb\x98\x98\x96\xc0=\xf2\x07=kjKx\xed\xbc1\x1b\xab\x95\xb8\x8c\x97\x88\xab\xfd\xfc\x9e\x17\x1f\xe7\xads\x97\x97n\xb7;\xc4I\x0b\xad\xbe\xd9\x91\xdd\x88\xf3I8+\x91Y^+\xd4\x15,\x05\xd1\x9eb\xb1[;\xc3\xb9\xb6\x8f4)\r\x9f\xe7_!|B\xd6\xee\x0f\xc5\x0b\xeb\xe4\xbe\x8cG\xaa\xcd\r\x9d\x9b\xdd](\x0c\xc1\x10\x05\x04\x9f\x90\x19\x19\x89&lt;\x9e\x17\x8fO&gt;\xd4\xafc\xd6\x07\x8b|=\xac\x19Z\xebC\xbbK\xcb\x862\x96b\xbff\x95r\x8e2\x1c\xb1@y\xc7^\xb5\x8b}\xe3+\xfb\x1d:\xd54\xfdIm\x9f\xecV\xbfj\xb8\x81\x7f\xe7\x9e\x9f"\xeea\x8c\xb6^M\xb9\xc7\x07\x14\xed\x0fR\xbb\xf1\x06\xb9c\xe0\xedB\xdeh\x05\x8d\xb5\xce\x9e\xb25\xc0a\x1c\x0b\n\xcf\x1a0\x19\xf9\xb7\xee\x04\x8c\xfd\xf6\x1d\x86{K\x9d\x1e\xe2k;\x1d*\xebD\xb7\x8d\xf4\xcb\x14\xb4\xf2\xa7\x9c\xc6\xd1\x80K*\xe0\x91\x90\x03\x8c\x1fJ\xf8\xc9\x0e\xd2\xe0[\xf09b\x0eH\x1e\xb4\x91$\'\xe5\x92b\xaa\xdf2\xb7s\xff\x00\xd6\xa504\x92\xc6\x1d#\x08\xacpYrO\x14\xabn]\x84\xad\x1a\x05\t\xf2\xe0\xe3\xb9\xa8\xe2R\xcc\xd2m\x0b l)\'\x8d\xb4\xf9]K4\x82Pc\r\x80\xabo\xb8\xfe}\xaa\xee\x9e\xb6\xf7\xb3\x7ff\xdf\xdf\xa5\xa4j\xea\xcb37\xcd\x9e\xe1W\xf8\x8e1\xc5{~\x97\xa7\xde\xd9\xf8\x0bM\xb7\xd0t\xdb\x8b\x98\xa2\xb7\xb9{{\x99\xcf\x96\xc5\x87\x95\xc9Q\x9e~a\xc7N:\xd7\xdf\xdf\xb1\xa6\x87\x16\xa1\xfb6\xf8J\xcbS\x81C\xdc&gt;\xa1&amp;\xa3\xf6\x9c\x9f0\xfc\xaa\x0f\x07\x81\xf2\xd7O\xe2\x7f\x03+Z\xdc_\xcd\xaciVB\xe8,\xa84\xa9\xe42"\x80\x10e\t*~\xef9_\xc7\xd3?B\xf8W\xe2\xd8ng\x9c\xe9\xf0\x88\xa5#\xce\xbc0\x0cL\x85F\x08\x08\xc1Cz\xfc\xbf\x8dA\xe2\xbf\xd9\xaf\xc5\x92Z\x16\xb7\xd5\xfc\xc0\xbf0S\x04{@\x1c\x84,\x0es\xcf\xa7z\xf2\xff\x00\x10|(\xf1n\x90[P\x844f\xe0\x9f\xb4\xc0\x92\x95]\xdd2\x00\x04t\x02\xb1,\xe4\xf1\x17\x87n#\xfbH\xd8\x88q)9\xf5\xeb]\xa7\x87&gt;&amp;i\x89(\x1fj\x12#0Y\x15\x80\x03\x1f\xde\xafI\xd1\xfc]\xa7j6B\xda\xcfP\xe1\xca\x95T\x90\xe0\xfdO\xa5w:v\xb5#[\xec[\x88\x83+mo\x9f\x86\xf9G\x0b\xeb\xf8\xe2\x9eo\xf5\xed\xf16\xcb}\x80\x1c\xc6\xee\xa2L\xfa\xa9\xcf\xa6+3T\xf8\x84\x9e\r\xd4-\x92\xf3F\xbb\x9e\x0b\x87\xf2\xee\x9e\x16\xf3\x9e2O\xcaX)\xe0f\xa0\xf1\x87\xc4y\xb4\xac\x05\xd4\x92\t\xb7\xed\x9dI\xf9q\x8c\x8cc\xd8\xd7\x9f\xf8\xa3\xe3\xa4\x12\xb35\xde\xa4\xf1\xa0O\xf5\x91\xa0\xdf\x81\x9eG5\xe5~1\xf8\xd9su\x17\x9be\xac\xcc`*v\xab\x11\x92\x06~f\xe7\x83\xf9\xf4\xae,~\xd3\x1a\xee\x85w\x1axgW\x99^D\xdc\xf2\xfd\xad\x90\x8eO\xcb\xd0\xfag\xf1\xad\x8f\x0f\xfe\xd7\xbe0\x92\xe9\x87\x88\xf4\xfb}O\xcd\x00\xa9}BDp3\xd0\xed\x04\x1e\x87\x9e\xbc\xd7\xa5|:\xfd\xae\xa3\x9fS)\r\xd3\x07\x99\xd6?\xb0\xeaN\xa6\x15\x1dp&amp;\x1f2\x8e\xb8\xf9O\xeb]\xe4_\xb5f\x8d\xe2\x19\xfe\xcf\xe1\xb8mocY\x99.\xf4\xe5\xbd\xf3d\xb6e\x03;\t\xc6;`\xf5\xf6\xae\xdb\xc2\x1f\x19\xbc5qb\xba\xed\x96\xbd\x1e\xf8K\x01atp\xeap2\xacO\x0e\xe0s\xc1\xe8Eu&gt;\x1e\xd6|+\xf1\x06\xce\xde-;T\xb5\x92F;@\xb5\xc0%\x89&lt;\x1c\xfazu\xf6\xad\x08\xb48\xecgKf\x05Z0\xfecm\xdcY\xba.\x07^\xc7\xae+\x8e\xf8\x8b\xa4]h\xfa\x84Z\x85\xace\x85\xc6\x16@\xa9\xb4(\xeeO\xe3\x9a\xb1\xa6]D\xba\x04\xd3%\xa8\x90G\x93\x18V;\x8f\x03\x958\xae_Y\xf1\r\xb5\x97\x94\xb2\xb3\xc71\xda\xd2\x0b\x86\xdcK\x02\x7f\xa68\xaf2\xf8\xb9\xe38\xb48|\xe8\xf5S;}\x9ey\x1e6b#\x1b\xb0\xbbzc#\x83_)\xddx\x96}kH\xba\xd55\'\x82\xd6\x1b{\xb8&amp;\xb4w\x8b\xccFX\xdb\xcfa\xb5U\x8a\xbf\xc8\x06\xe3\x81\xc8\x1e\xf5\xc4\xfc]\xf1u\xaf\x84\xfca\xaf\x83\xa8\x05[\xa8\x98[\xa1\x80\xcag\x8e8U#\x00\xae\x06\xd2\xd2?\x07\x9e\xb4\xff\x00\n\xebwz?\x88M\x9e\xfb[IRk\x9b\x18fF\xc4R\xcd\xb1\x1c\xc6\xe1\xc1\xc2\x18\xf7a\x8f\xf1\x05\x18\xeaj\x96\xbb\x7f\xe2/\x07\xea\xb7Z\xc7\x87\xa3\x9dnm\x94B\xd1]m\x90D\xec\x8c\xa3\xe7_\xbcI`\xdc\x03\xd4\xd7\xa8\xf8\x8b\xc3\xd0|X\xb9\x83\xc5w&gt;+\x7f\xb4\xfd\x8a\x18o\x11\xe2\xf9\x92UPJ\xb7#\x9eGL\x8cc\x9e\xa0|jR,f&amp;)\xf2\xf2\xbe\xa7\xdf\xda\x9d\x12;E\xb1\x81)\xe9\xb7\x80}\x01\xa4\x89\xc4\xb2\x05x\x8ch\x84\xf1\xceO\xbd 1\x05\tt\xa5\x94\x1cnC\xd0{\xd0\xf8\x8b\xe5\xb7\xde\x14\x9f\x94\xed\xf9_\xe9\x9eiK\xca\xcd\xc6p1\xb9C\x10A\xcf\xd2\xac\xda\x18nu0\xb7\x12M\xe5\xe1\x9d\xe1W\x00\xca\xa0\x0f\x95X\x82Q\xbd\xc7\xb5{o\xc3\xfb\xfb\x19\xfc-\xa6\xddAq}kke\xa8*Kk\xa9\xdf\x99\xa4E\x91G\xcb\xbc/#*:\xd7\xe8\xc7\xec\x03\xa8[j\xbf\xb3\xe6\x9f\xa8On\xc9"[\xddG\x03\xaa\x97RL\xad\xd8\xe0b\xbdkG\xd3\xed\xe6U\x8e?\x07\xd9J\xc67\xf3\xdf\xca\x11,\xc8\x02\xe26\x94\x9f\x94\x93\x9c\x00;\xd6\x82h\x97V\xfa\x8d\xca\xcd\xaaX\xe9\xf1\\\xc6\xb1[\xe9\x96\x93y\xeb\x06\xd5\r\x82z\xe7\x9cg\x1d\xab]\xad&lt;7m\xa2\xb5\xd2\xc5\x1b\\y@\x9b([s\xb1\x1c\x19\x1b\xb0\'\x1d\x01&lt;\x01^{\xe3\xaf\x04xcZX\xa7\x8bP6\xcd1\x0e##gs\x9e\x1b\x19\x1cc##\x8a\xf3\x7f\x17\xfc:\xd3\xf5\x0b\xcb\x98a\x822\xca\xd9\xb7\xde\xe0\x19\x06\x07\x1e\xfc\xe7\xa5x\xc6\xad\xf0\xfb\xc5\x13\xdf\xdcGy\xa5\xbd\x92\xc3)*\xc4m\x1b{\x03\xedRx[[\xf1^\x83\xa8\x7fgC#\x08\xdc\x80\x1dFP\x81\xe8O?\xa5}\x15\xf0\x9a\xd4\xeb\x0e\x92\\\xceH\x9a%\n\xb2G\x95\x07&lt;\xb6{\x1f\xf0</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>zuckerberg-231.jpgSundar Pichai</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00\x96\x00\x96\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xfc\xe9D\x1c\x81\x19#9g\x1f\xc2*H\xe1P\xdf\xba\x96IF3\xb5[\x1f\x8f\xd2\xa5M\xc3\xf7j\xa3\x07\x9e\xb9\xa7E\x14\x92\x12\xb1`m\xe4\xef\xab\x11\xab\x98\xd6@I\xda\xdfuH\xcf\xebS+)r\x19\xb6\x93\xce\x1b\xff\x00\xadM\xd8\xa9\x93/\xcc\xa0\xe5vz\xfb\xe6\x91\xd2)F\xfd\xca\x18\x9e\\u\xfaU\x98\x83E\n\x94\x8fv\x1b\'\x07\x82?\xc6\xbdc\xf6R\xf87\xa1\xfc_\xf8\xadc\xa7x\x9e\xfe\xdbE\xf0\xec,.u\xfdZu\x0f+C\x1f\xcd\xf6x\x94\xf0\x1aBq\xbb\xfc+\xe9\x8f\x11~\xd8\xbf\r\xbe\t\xe9\xf7&gt;\x13\xf8_\xe1\xb8\xb4\xc8-\xae\x02\xbf\xd8eE\xeaXGj\x8c\xcc\xbb\x98\x05\xf3\x9ac\x80\xbb\x82\x920\xa4\xe6\xfe\xcd\x7f\x04\xbfh\xef\xdb+S\xbb\xf1$\xa9=\xae\x9f\xaa\xb1\x9d/\xf5\x14sk\x1b\x16&amp;=\x84\r\xd3\xa8\x1c\xe4\xe0\x1c\x8c\x03\xd6\xbe\xb8\xf0G\xfc\x12\xbb\xe0\xe6\x9f5\x9e\xa3\xe3}V\x7f\x10jv\xb3\xa4\xf3\\M\x1e#k\xa4\xeaU\x08\x1b\x07`&gt;l\x00\x0erp=\x9fB\xfd\x95\xfe\x04\xf8\x06\xcf}\xaf\xc3\xfb&amp;yY\x9d\xc4\x99v\x91\xcf\'\' \x12&gt;\x9e\x95b?\x0e\xf8z"\x8b\xa7xf\xdc\x1eP\x97E\x89\x95G\xae\xd5\xe9P\\xKJ\x92\x19"]&amp;5\x12`\xa1\x0e\x0e\xe3\x9e\x8b\x9e\xa2\xbc\xe3\xc6_\xb2g\xc1\x8d{W\x9f^\xd7\xbc\x19b\xf7\xd2\xb6&amp;y\xe1Wv\xef\x8c\xee\xe0s\xd8Uh&gt;\x04\xf87J\xb1\x92\xcfJ\xd3v*(T\x8d\x11C*\xe7\x80\xa4\xf5\x19\xcfz\xe6&lt;_\xfb/A\xae\\$\xb1\x14T\x7f\x9d\xe22\x10U\xbau\x03\xd3\xb5~-@`\x89\n(l\x87\xe4/ \xf4\xeb\xedR\xc2\xf14\x99\x1b\x90\xc8ve\x07\x00\x7f\x93S\xc9\x17\x92\xbeL\x0c&gt;N\ts\xd6\x9c\x19b\x84\x96\x90n&lt;|\xb95n\xc5B\x05\x91v\xb1\x0b\xce\xe4\xe9\xef\xcd=!\x92I\x0bHv\x13\xf7H^\x08\xf5\xa8\xa4\x88\xc4\x0b\x8b\x90[?t\xf7\x14\xf8\xad\x96c\x97\x03h\x19;}ju\x92\x0b\x1bF\xbf\xba\x9fb!"8\xca\x92\xd2\xb1\xc6\x15@\xfe#\xef\x81\xef^\xabu\xaa_\xfc2\xf8fu\x9b\x99\x16\xc6\xe1\xb4_&gt;\xd0=\xb9\x0c\xd2\xb3\x15\xfe,gh\xc1e\xea\x01\x04n\xcdz\x07\xfc\x12G\xf63\xf8\x8d\xfbj|X\x8f\xe2W\xc5;\x1b\x86\xf8[\xe0\xf9\x1e\xdfQ\x82R&lt;\xbf\x11\xea\x0c\xc0\x9b\x10\xc5s\xe5\x06\xd8f`yUD\x19\xf9\xb1\xfb\x93\xe0/\x85W\xef\xf6]"\x0bX$ks\x1a5\x9d\x9d\x9f\xd9\xe1\xb7D\xe0*\xaa\xa8D@\x00\n\xa0\x9e\x07\xbdv\xda\x9f\xc38\xec\x9ae\x99\xb7y\xb9P\xa2&lt;\x01\xec\xa7\xb9\xf7\xaf7\xf1\x9e\x81k\xa2E#\xf9C\xfd\x1d\x08\xf9\xd8\x97\xef\xd0t\xcf\xe3\\D\xd23\xa4W\x10^\xee\xd9\x92\xcd\xe5d\xb2\xfa\x1a]\xfau\xd4*\xd2\xdc#\xc8\xaa|\xb2"\xc2\xa7\xa0\xfa\xff\x00\x8ds\x9e$\x98]X\x91\x14\x90\x1b\x88[\xf7\xacb\xe5\xbe\x86\xa8C\xba[2\x931gf\x028\x9dF\x0bps\x9c\xe4\x0foj\xb5\x15\xa8Ff\xbdB\xcd\xc0\xc4C\x85\xf6\xaf\xe7\xbe\x10\x90\xa9P\xa5\xb7p\xec:T\x8b$\x1eP\x8e7\x19V\xf9I\xab\x03\xcb\x9a3\x98\x83\xb2\x81\x96\xdd\xd7\xd8T\xa6(\xe1\x94D\xf1m\xe3?\xeb8\x159\xb8_()\xcb\xe1\xb8Xr\xc7\x1e\xf9\xc0\xc5=eIW1\\d\xe7\xa3\x826\xfb\nIT\x02\x19\xa2&gt;f8\xdd\x8c\x11RZ\x99fV\x10Z\xe0\xa8\xcb\xbb\x1c`\x7f*\xfa\x07\xf6\x1a\xf8I\xa2|D\xf1\x99\xd6|S\xe1\xe3we\xa6I\x1c\x91\xdd\xce\x08\x82I\x97,\xa8\xdcr\x17\xef|\xa0\x93\xbb\x18\xa8\xff\x00i\x0f\x08|@\xfd\xb3?l\xff\x00\x0c\xfe\xcb\x9f\x04\xdeB\xfa\xca9{\xa9\xad\xd5R\xce4b\xd77\xc5?\x85"\x88\x01\xcf\'\xd2\xbfn\x7f`o\xd9\xaf\xe1\xef\xc2o\t\xe9\xbf\x02\xbe\x1c\xc2\xa9\xe1\x7f\x02i\xd1\xda[~\xec\x13\x7f+\xfc\xd3\\\xc8\x7f\xe7\xab\xb9gn\xb8,@$\x00k\xebKM:\xde\xc2\x14\xb5\xb3\x1bcH\x82\xaa\x13\x91\xf8\x8f\xebY\xde2\x9a\x1b]\x0eG\x93j\xb8\\D\x7f\xba}\xab\xe7\xdf\x1b\x84\x96\xedw\xcc\xcf!%\x9d\x98q\x92H9\xc7\xb0\xae@%\xce\x9e&amp;\xb4\x8e(\x96"\xc4\xc2\xe9\xc9\xdb\x8e\xf9\xc7|\xd6\x06\xa7\xab\xdd\x1b7\xba\x92\xd3"3\xb52\x14\x12s\xe8\x0fJ\xa3y\x7fag\xa6\xb3\\\xaa\xb3\\cr\xc62w\x7f\x9cVT&amp;\xdeK\xc1\x149\xda\xe7\xe6\x00\xf2\x83\xd7\x9a\xb7\xa6\xc9s%\xcc\xf1H\xc4\xa4M\xb66B\xd9a\xeax\xeb\xcd\x7f=i+I\xf3|\xe7\x1fx`aG\xbdJ\x03\x03\xb8*c\x19\x18=EO\x19\xdd\x1e$\x8b\x07\x82\x9c\xff\x00:\x98\xac\x933\xcac\xe3\x1b\x8e\x0fS\xe9RG3\xb4?4\x19\r\xc1\x8dX\xa8\xc7\xaeq\xd6\x9d\x0b\x90\xa6\x062\x15Q\x95\x04\x0e\x07\xa6i\xec\x93LT\xad\xba\x0e8,\xe7\xa5:[\x8b\x8b\x89R\xc6\xde\xc1\xa7\x98\xa8\x11Y$\xb8\xf3\x9c\xb0U\n?\x89\x89&lt;\x0fc_q\xea:6\xa7\xfb\x1f~\xcdv\xfao\x88\xb5E\x97\xc4\xfa\xbe\xcf1\x0c\xa9\x1czj,a\x82\xc6\xaaw\x99I|\x16+\x8203\xc5w\xdf\xf0JO\x80:\xb6\x89\xe0\x8f\x12~\xd9\x1f\x11\x8b\xdc\xeb\xbe9\x8ci&gt;\x1f\xf3\xdf\xf7\xb1i\xa8\xf9\xb8b\xdc\x1428)\xc6r\xaas\x8e3\xfa\xff\x00\xfb\x1f\xf8e4/\x850_;\x06\xb9\xbfq,\xb22\xe0\xe0`\x01\xc7\xa0\x02\xbdM\xdc\xc6v\xe7$\x9e\x00\xae?\xe2\xd5\xe4\xab\xa6"B\xeb\xfb\xb6\xdc\xe4\x9f\xbb\xf5\xaf\x1b\xd4$\xb9\xb8\xb8\xb9\x9e\x00cy\x13o\x99\xb4\x1c\xfb\x00k\x88\xd7#\x9e\xce\xd5\xad\x05\xf0\x12;g2\xc7\xdf\xbeOo\xa5s\x9a\xcc\x7fg\x96+%X\xcb6\xe9\x18\x85\'*\x00\xe9\xef\xd6\xb3o\x9a\xf1m\xd68b\x01\xf7o\x1elx\x04\x1cq\xc6i\x96\xb6\x17-\x1c\x93j\x91,\x85\xcf\x11\xc2\xd8\xda=O\xbfZ\x9a\xda\x0b\xfbY[\xfd8\xacJ\xa1Q\x14\x91\xef\x9e\x9c\xd7\xf3\xe0\x82_,\xa2\x802w3v\'\xd3\xe9\xc5Ij\xb13\xb07\x11\x1d\xcax\x19\xf9O\xa7JlD\xed\x0c$\xcez\x03\xd6\xad@7\xa9g\x0c\xa4}\xc3\x9e\xf4\xff\x00&amp;\xe5\xf17\xdbXq\xf3\x00\x07Zr\x12\xec\x02\xc9#\x15\xfb\xc4\x81\xd3\xf3\xa7\xc8Z6\x02W}\xae@\x8c\x0e\xa4\x9e\xdf\xa5{W\xecI\xf0\xca_\x1d\xfcL\x8b_\xd6\x1e\xce\xdfD\xf0\xf4rj\xda\xd5\xde\xa1\x0e\xf4\x86\x08\x06y`\tB\\\xae1\x92I\xed]\xe7\x8f\xad&gt;.~\xd8\xdf\x1at\x9f\x05\xf8J\xd2\xf2h\x1e\xf6\x1b\x0bv\xb4\xb6\xc3\xda\xa4\xb2\x07{\x89\xa4a\xf7\x960[\x1c\x90\x8a\x0e9\x15\xfa\x8dk\xa0[\xc1\xadxs\xe1\xdf\x84\x124\xb0\xb1H`\x8a#\x00\x1b\x91QA\x97\x81\x8c9\x05\xbf\xe0F\xbe\xe7\xf8gh4\xcd\x02\xdfL\xb7\x8fjF\xbbF\x14\x000\x05j\xea\x9a\xc2\xd8\xe0.\x1eF=A\x1c\n\xf3O\x1f\xf8\x86\xda\xfe\xf6M\x1a\xca9nd\x93\r3FF\x17\x04\xf0I c\xf1\xef\\n\xb8\xb1\xb2\xbcL\xec\xd3L\xd9c\x18\xff\x00U\x80\x06\x07\xafN\xb5\xcd\xeb\xb3F,\x16\xe9\x93\xccX\x94 \x0e\x83|\x87\'\x90\x07\xf8\xd7\x19\xe2G[[\xa8\xc2\\\xab\xb9-\x90\x17\xe6P\xc0\x00\x06x\xec{\xd6v\xaf\x0c\xa6Ql\xf7\xac\xd1\xe0`\xed\xe46\x06G\x1d\xbaUM\x0bN\x82)\'X\xd8\x97q\xbd\xdew8\xc7\xa0\xc6}+]\xcc3Z\xa9\xb6\x9b8s\x9f\x97\xa7\x03\x8f\xad\x7f&lt;1*B\xc1\xe4L\x9cq\x83J\xe1\xe6/*2.T*\x800s\x9ei\xf0\xc0Fc9&lt;d\x17\x18?A\x8a\x95"h\xd3#-\xcf&gt;\xd4\xd9#\x127\x0b\xbb\x8epq\x8a\x92\xde\x04\x85]wm8\xc8Q\xcei\xf6\xc6K\x89\xe3\xb6\x89\x01}\xbb\xfc\xc3\x9c\xa2\x8c\xe4\xfd\x06G\xfd\xf4+\xec\x0f\r\xf8\x9fC\xfd\x9c\xbff\xa8\xfe\x0ex#BC\xe3\x8f\x1fi\xc1\xf5\xa8\x18\t\x0c\xd6JVQ\x1a\x96 \xa4\x8e\xc0\x0e\x98\xe0s_U\xff\x00\xc16\xbff\xff\x00\x1a\xfc7\xb1\xba\xf1\x97\x8c\xad\xef\x9e\xf94\xfb\x8b\xd9\x18H\xbb?\xb5\xaf\x11\x17\xcb\x01\xb1\xbf\xc9\xb7\xc2\x96\xe0\x02\xd8\x19\xc15\xf4\xff\x00\xc2+;\x9b\xcf\x1f&amp;\xac\xf30\x11\xb0\x12r\x1b\x04q\x81\xe8\x061\x81\xe9_d\xf8OV\x8a\xcbBP\xec\x01\x1bT&gt;\t\x04\x9f\xa7z\xe7|W\xae\xe2y&gt;\xcb&lt;\x88z\x80\xd1\x82z\x91\x9eON+\x91\xbb\x86\xf6\xe2w\x1fjH\x15\xe3\xdd$\x8c\xa0\x87\x1c\xf4\\\xf5\xf7\xaegZ\x8e!\x0bE\xa7\xb4\x8b\x9e\x0c\xc5\xc1\xfd3\x91\xf4\x15\x8bw;G\xb2V\x89\xc3 "5\x91p@=\xf1\xeb\\\xef\x88\xa1\x92\xe9WK\x96#p\xc6=\xd1\xa1L0\x19\'q#&gt;\xe3\xf0\xac\x0b\x99!\x87cG?\x96\xfeks\xd5\xb8\x03\xe5\x00\xd5\x8d\x02\x16\xbd\x89\xae"\xb2\x9661\x12\x81\xc2\xfc\xed\x93\xcf^\xb5`\xef\xb6\xb3I.\xac\xd8obp\x80g&gt;\xbdzW\xf3\xc6Z&gt;\x17n\x0e:m\xc6i\xb2G\x1bc\xcc\x8f\x1e\xe4\x9c\xfe\x95=\xb4\x11\xf1$n\x02\xaf#v~\xf5J\x86!\x99\xdb\x1ea&lt;\xf5\xff\x00\nF\t)\xdc\x93\x12{\x9cc\x1e\xd4\xb0F\xd1\x95\x94\\\x85b\xd8;\xbab\xb7\xbe\x1d\xe8\xd6\xfa\xf7\x8d\xec\xac\xb5W\x98\xda\xc5+\xdc\xcc\xb6\xea\xa5\xa5H\x94Hc\x19 a\xc8Q\xd7\xb5}\x9b\xfb/\xfc,\xf1E\xdf\xc4\xa9&gt;,\xf8\xb6\xdfM\xba\xbc\xb8\xb3\x8a\r6\xde\xed\xbc\xcf(8i\xe4.\x18\x01\x12"&lt;cvy \x80\x0e+\xf4\x07\xc0\x93i&gt;\x1c\xf8!\xa4i\xbau\x9d\xcc\x93_\xdb\xdc]=\xe4\xf2\x9d\xccX\x8e\x17~0\xbb\x89\xc7}\xb8\xfaV\xff\x00\xc2\x1b\x98\x16\xea(\xdd\xb6\x15P\xa8\xac\x84*`\xf2\xb9\x19\xdcs\x93\x9fz\xfas\xc2:\xf4\xb2i\x01\xadce`\x15\xd4\x82{u\xe3\x15\x99\xaej\x03LX\xee\n\xf9\xaf,\x8c\xf3\x06]\xd9f8\x03\'\xa0\xe3\xa5bj\xd7\xf7r@\x1aH\xed\xa3\x965\xc1X\x979\x19\xcf\x19\xc7\xads~ \xbc\x91LW\x13]#3\xbe\xd2\x8b\x10\x1f \xe4\x1f\xcc\x9f\xca\xb2u\x99\xc5\xc0{\xa7\x12\xb1\x11\x87}\xe7 \x0c\x91\x80\x7f\n\xc3\xd6/\xe162:\x0f\xb3\xec\x8b1M\x1c\x9f3\xb1\xfe\x1f\xa7\xf8\xd7)e\xa7\x1f%#\xbd\x86Y\x1d\xdc\xc8\xb2\xb3\x02\x85\x8f\x1c\x1c\xe7\x18\x03\xb5n\xd9\xe9\xf7\xb1\xc4\xc6k\x14R\x8b\xfb\x8f&amp;|\xfc\xc7\xa99\xf6\xc5*\xd9\xc3\x1cb\xd8Jp\xa7 4\x80\xe3?\x8d\x7f&lt;q\xb9\x99\xbc\xa3 !N\x0e\x07\x03\xeb\xde\x96(\xe0i\xc8\x01\xb6\x8e\tG8\'\xf1\x14\xe8\xed\xe3e}\xcev\x03\x9e\xb95+\xc6\xb1l\x959\x0c0&gt;|S%\xda\xb1\x9f)\x18\x1d\xdc\xe4\xe7?J\x916\xc73)\x80H\xca\xb8\x1b\x93#&gt;\xb5\xbf\xf0\xc3A\xd5\xbcS\xe3\xdd+A\xd3g\xf2d\xbb\xbf\x82\t%PUbG\x90\x06bG8\xc6s\x8c\x9c\x03\xc5}\xbb\xfb6j7\xda\xf2\xdb\xf8u\xf4\xcf1\xb5\x1b\xf9\xa1\xd2Y\x1b2_\xdb\xc3#E\x16\xfe\xc69\x1f*\xa1\x8a\xf3\xc9\xc6x\xfb\x7f\xe2}\xab\xe8\xd6zw\x84m\xaf\xee\x0cv\x16Ko\x15\xc4\xe0:;\xed\x8fv0v\x95\r\x95\x04\x13\xf7k\xa7\xf8A\xa7L\xfe$\x8a9\xdat\x8e\x17b\xc1\xa4\x18v\xe8J\xe38\xe9\xd2\xbe\x90\xf0\xbc\xd2\xd8@\x8fe,\xcd\xe6\xc6X\xab\xa8!G\xbf\xe5Y:\xe6\xa7\x7f?\x99&lt;\xc8\xe7\x9c\xaa\xc6\xa0\xfc\xa0\xfd\xee\x7f\x1f\xca\xa1\xd7m\xa3\x92h\xda8$,\xd0\x02\xb3\x11\xf7I\x1c\xe7\xdb\x18\xc7\xbek\x8f\x9bM\x82\xe2pf\x9ayR\xd5KG\x95\x01\x81\xc9\xf9O=;\xfe5\x99-\xbd\xc2\x9f\xdf_\xca\x90N\x08\x96\r\xa0\x9f\xc3\xda\xb9\xef\x11\xae\x9fi\x04v\x8c\x16O 4\x96\xca2K?p\xdcc\x18\xc7\x7fZ\xc5\xd35(\xdf\xcd\xcd\xd2\xc1$k\xbd\x17hm\xa7\xfb\xbc\x9f\xf3\x9a\xbb\xa7\xea\xe0A\x9f1\xdaI\x98\x97+\x1888\xeay\xe2\xa9\xd9\xc1q&amp;\xa135\xfb*\xfa\x98x&amp;\xbf\x00\x15\xa1;\xe5\x8a8\xc6[ip\xc7\x18\xc0\xa7\xa1u\x84\xa3c\x03\x90q\x8e)\xf1$-\x18\x91f`\xb9\xf9\x90\x8e\xb4\xb3$1\xa0\x18\n\x9b\xf2\x152O\xf2\xa9\xb6*\xca%\x91\x0f\x96S\x8e9\xf6\xa8\xe1E/\xb1\x9c\xe4\x8c\xb3\x0e\x9dk\xac\xf89\xad\xcd\xe1\xaf\x14\xae\xb5\x16f0\x96\x16\xe8@\n\x93\x11\xb5X\x93\xec\xc7\xf1\xc5}\x85\xfb\x1bZ\xaf\x86~"\xad\xfcFqw\xa4[Y\xd8hV\xe6P\xe9$\x8d\x1a\xefi\x978\n\x8e\xf2H1\x93\x90\xbcrq\xf6\xf7\x8c,t+\r@\xf8wE\xd5\xee\xa5\xb2\xb1X\xe1\xd3\x9e\xe4\xefB\x8a\x10\x92\x07;r\xc1\x8e9\xe4\x9ey\xae\xf3\xe1\xb5\xecw\x9a\xf41G9 \xca]J\xc1\xb3\x00\xfa\x81\x9f\xce\xbe\x87\xf0\xe6\x9du$0B\xb7\xb3#`\xe0*\r\x92q\xees\xfaT\xd6\xde\x07\xd4.\xaf\x9e{\xa5x\xcb\xdb\xb2E\x19S\xc9\xc9&gt;\x9d*+\xcf\x0cOk\x04\xf3\xcd}\x84\xb8M\xb1\xba\xfd\xc1\x81\x80rpq\x9c\xf6\xae%t\xab\x8b\x0by\xed\xb55W\x95\x94\x93:7\xc8\xc7\xd0\x1f\xa6:\xe2\xb9\xcdSO\x98\xe9\xc2\xdd\x1c\xc7\xe6!uW \x91\xd4rFp8\xae&amp;\xf1\xee\x96\xfd\x1a\xe2\xd3c\x08\x9e-\x82c\x82O\xf1c\x1d\x7f\xa6+6\xee\xc2\xc2+\x8f\xb4\xa4\x8a\n\xe1]pC\x16\x1e\xbf\xa5X\xb6\xb5K{9\xee\x19\x00\x92E]\xac\x0fA\x9a\x94J\x86F\xb6\x85n\x1c\x02\x18tS\xd0{\xe3\x15\xfc\xfd\xc5)iVg\xb6TC\xf2\x88\xff\x00\xa9\xa9\xda\x18\xcb\x14\xdc[w\x03oAHl\xc5\xbbyl\xe1\x80\\\x9d\xb4\xa9\x03\xbc\'\x13\xe1I\xc8L\x91\xfc\x85&gt;\x18\xddG\x99\xb5\x8a\x8e6\x86\xcf\xf3\xc5G2\x90\xc1\xe4\x87n[\x03\x07\x9a\xd7\xf06\x9ds\xaf\xf8\xd3I\xd1\x95\xa40\xc9\xaa\xda\xac\xe5x\xc2\xf9\xc9\xdb\xbf\x1b\xbf*\xfb\x1bA\xf1\xad\x87\x84\xfe0^\xda\xf8~\xea\x08\xe4{\xb9\x92\x02\x912\xeeu\x90\xaa\x11\x80y*\x17\x93\x8e1_l\xf8;Q\x87^\xb2\xb1\xb9\x92\xe8y\x8bh\x82\xed2v\xc4\xf8\xc9$\xe3\xb95\xef\x7f\xb3\x0f\xc3\xe9\xbcQ\xe2\x01z\xf6w2E\x13d\xb8&lt;/N\t\xe9\x8e\xff\x00\x8d}Q&amp;\x8d\xa7iZ|r[Yy\x92@\xdc\xa2&amp;\xe6S\x8e\x99\xec?J\xc9\xb8\xba\xb8\xbb\xbc\x8e\xcf\xc8\xd4bw\x04\xb0t\xe1\x1b\xfb\xbb\x86G#\x1f\x9daj\x96\xd7Z\x94R\xe9\x1a\x82=\xa8\xc6\xef+\xcb.\xbfE`=\xb3\x8fz\xe75m"\x07\xb5\x8e\xd2\x15\x00\xc4\x08P\xcav\x93\xeaF:\xd7%q\xe1\xbb\xb2\x19/.P;\x1d\x81#\x84\xaa\xb0\x1c\x80=O5\xcf\xeb~\x13M1\x9fR\xbd\xb4\xda\xef\xf2\xbey\x11\x9f\xef\x11\xd4\x0cc\xb5r\x97\xda5\xcc\xf3\xa2%\xb0Eu\xdd\xb8`\xe7\x922}3\x8f\xcb\x15"i\xa9j\xc1\xe4A1PU\xbc\xc6\xc0\xa6\xdaY=\xcev\xc5\xb3\x9c\x95\xcf\x19\xf5\x06\xbf\x9f&amp;Q\x1c\x86\xd9#\x18\xc6F\xe3\xde\x9f\xf3\xa3"B\x808\x19oz"h\xcc\x85Ks!#,@\xc1\xa7\x18U\x902\x96$q\xf2\xc9\x8a\x8c\xab\x06\x10\xb8m\xc4d\r\xf9\xe2\xa7D\x0fj\x1cHcV\\\x8c\x91\xc1\xfc\xf3Z^\x03\xb8\xb7\xd3|Ok\xafO\x10\x99l]^9f\x95\xa3\x8e)\xb3\xf2\xb7\xca\tl\x02\xd9\xe3\xd3\xaf8\xf7\x7f\x07kW\x90\xearx\xe3\xfbD\xcd\xf6\xcb\xe3.\xf8~a$\t\x80H\xdc\x01\x04\xe4\x0f\xa8?\x8f\xe8\x17\xec\xa7t&lt;Q\xf0\xa7L\xd6\'\xb8)\x14\xf2\x98d\x92l\xed\xd9\xbc\xf2\xcd\x8e\x80~&lt;\xd7\xd6zo\xc6O\x07|3\xd3l|;\xe1\x8dCL@ \x1fj\xb9\xb8\xb8P\x17i?;|\xe3\xaf`2q\x8a\xa7\xe2O\xdb\xd7Q{\xd8\xfc\x98/V\x18\xb2\xebym\xa7\xf9P\\1\xf9v\x93\xbc\xefQ\x80rq\xd7\xda\xb8\x7f\x16~\xde\xf6V\x05\xec\x93^[\xab\x99S\xfd1gr\xaa\xa7\'\xe5\xc2\x9c(\xc6:g\xbdrz\x9f\xed\xd5\xe2\xd9m\xdd\xf49\xb4\xab\x88|\xa0\x89\x04\xaf*\x98FO\x00\xaeA\xeb\x9c\x92\x0f4\xcd#\xf6\xa7\xd5\xf5XW\xcd\xbfK;\x84l\xbaCp\xcd\x1c\x83\xfb\xd9&lt;\xe7\xb7\xe1]~\x83\xfbB\xc5\xaa\xda\xb0\xd5u\xc7\x0e\x8c6m~\x018\x19\xcdhx\x9f\xc6/\xe2K\x07\xd1\x9aW\x9dd\x8c$\xd3\xda\xdca\xf6\x9e\xa7q\xc7\x1d8\xfa\xd5\x9d/[\xd3\xad\xed\x12\xdd\x98\x19-aU\x91\x97\x90\xd8\xe0rz\x9c\x01\x93P_\xebVR\\\x08\xe4\xd8\x0c\xbf\xea\xc0Ps\xed\xd6\x9d\xa3\xdd\xc7x\\I\x0e\xe0\xbcyx\xdb\x83\xeb\xf5\xaf\xe7\xbd\x0e\xd2\xe0[\xf09b\x0eH\x1e\xb4\x91$\'\xe5\x92b\xaa\xdf2\xb7s\xff\x00\xd6\xa504\x92\xc6\x1d#\x08\xacpYrO\x14\xabn]\x84\xad\x1a\x05\t\xf2\xe0\xe3\xb9\xa8\xe2R\xcc\xd2m\x0b l)\'\x8d\xb4\xf9]K4\x82Pc\r\x80\xabo\xb8\xfe}\xaa\xee\x9e\xb6\xf7\xb3\x7ff\xdf\xdf\xa5\xa4j\xea\xcb37\xcd\x9e\xe1W\xf8\x8e1\xc5{~\x97\xa7\xde\xd9\xf8\x0bM\xb7\xd0t\xdb\x8b\x98\xa2\xb7\xb9{{\x99\xcf\x96\xc5\x87\x95\xc9Q\x9e~a\xc7N:\xd7\xdf\xdf\xb1\xa6\x87\x16\xa1\xfb6\xf8J\xcbS\x81C\xdc&gt;\xa1&amp;\xa3\xf6\x9c\x9f0\xfc\xaa\x0f\x07\x81\xf2\xd7O\xe2\x7f\x03+Z\xdc_\xcd\xaciVB\xe8,\xa84\xa9\xe42"\x80\x10e\t*~\xef9_\xc7\xd3?B\xf8W\xe2\xd8ng\x9c\xe9\xf0\x88\xa5#\xce\xbc0\x0cL\x85F\x08\x08\xc1Cz\xfc\xbf\x8dA\xe2\xbf\xd9\xaf\xc5\x92Z\x16\xb7\xd5\xfc\xc0\xbf0S\x04{@\x1c\x84,\x0es\xcf\xa7z\xf2\xff\x00\x10|(\xf1n\x90[P\x844f\xe0\x9f\xb4\xc0\x92\x95]\xdd2\x00\x04t\x02\xb1,\xe4\xf1\x17\x87n#\xfbH\xd8\x88q)9\xf5\xeb]\xa7\x87&gt;&amp;i\x89(\x1fj\x12#0Y\x15\x80\x03\x1f\xde\xafI\xd1\xfc]\xa7j6B\xda\xcfP\xe1\xca\x95T\x90\xe0\xfdO\xa5w:v\xb5#[\xec[\x88\x83+mo\x9f\x86\xf9G\x0b\xeb\xf8\xe2\x9eo\xf5\xed\xf16\xcb}\x80\x1c\xc6\xee\xa2L\xfa\xa9\xcf\xa6+\x1b\xc4\xbf\x11o\xfc\x12\xd1\xbd\xa7\x87\xee\xaf\x0c\xb9\x13\x08\\J\xeaz\x8c\xe0\xf0:\xd7\xe2\x01H\xb1\x98\x98\xa7\xcb\xca\xfa\x9f\x7fjtH\xed\x16\xc6\x04\xa7\xa6\xde\x01\xf4\x06\x92\'\x12\xc8\x15\xe21\xa2\x13\xc79&gt;\xf4\x80\xc4\x14%\xd2\x96Pq\xb9\x0fA\xefC\xe2/\x96\xdfxR~S\xb7\xe5\x7f\xa6y\xa5/+7\x19\xc0\xc6\xe5\x0cA\x07?J\xb3ha\xb9\xd4\xc2\xdcI7\x97\x86w\x85\\\x03*\x80&gt;Ub\tF\xf7\x1e\xd5\xed\xbf\x0f\xef\xecg\xf0\xb6\x9bu\x05\xc5\xf5\xad\xad\x96\xa0\xa9-\xae\xa7~f\x91\x16E\x1f.\xf0\xbc\x8c\xa8\xeb_\xa3\x1f\xb0\x0e\xa1m\xaa\xfe\xcf\x9a~\xa1=\xbb$\x89ou\x1c\x0e\xaa]I2\xb7c\x81\x8a\xf5\xad\x1fO\xb7\x99V8\xfc\x1fe+\x18\xdf\xcf\x7f(D\xb3 \x0b\x88\xdaR~RNp\x00\xefZ\t\xa2][\xea7+6\xa9c\xa7\xc5s\x1a\xc5o\xa6ZM\xe7\xac\x1bT6\t\xeb\x9eq\x9cv\xadv\xb4\xf0\xdd\xb6\x8a\xd7K\x14mq\xe5\x02l\xa1m\xce\xc4pdn\xc0\x9ct\x04\xf0\x05y\xef\x8e\xbc\x11\xe1\x8dib\x9e-@\xdb4\xc48\x8c\x8d\x9d\xcexldq\x8c\x8c\x8e+\xcd\xfc_\xf0\xebO\xd4/.a\x86\x08\xcb+f\xdf{\x80d\x18\x1c{\xf3\x9e\x95\xe3\x1a\xb7\xc3\xef\x14O\x7fq\x1d\xe6\x96\xf6K\x0c\xa4\xab\x11\xb4m\xec\x0f\xb5I\xe1mo\xc5z\x0e\xa1\xfd\x9d\x0c\x8c#r\x00u\x19B\x07\xa1&lt;\xfe\x95\xf4W\xc2kS\xac:Is9"h\x94*\xc9\x1eT\x1c\xf2\xd9\xec\x7f\xc2\xbd:\xf3\xc2\xb7v\x90\xbaYI\x88I\x078PG\x18\xcf\xcc+\x8f\xd7$\xd4\xec/\x0c6D\xab)(\xd2\xa1R_\x189\xc8\xfa\x8e=\xbd\xeb\xf0\xd8\x08\xa5;\x9a7\xdc8\xe0qR`\xb2\xac\x1eqM\xc7;w\x10O\xbfJu\xcc`\x84\x9c\xcc\xe1vc\xd7\xb9\xa4\x8e9^\x17\x852\xd8\xf9\xd4\xf9c\'\xdb9\xe0q@w\x94*\xc8\x9f\xbc\x11\xff\x00\x1b\x13\xb0g\xb5$+%\xc1\xf2]]\xc0\xfe4\x007\xe3\x9cP\xbea\x95\x96@\xf1\xaa\xae\x11\xb6\xe7\x07&lt;\x9e9\xce+\xd6&lt;3\x05\xc8\xf0\x14\xf7\x1aU\x8d\xcb[I\xaa\xc5r\xd2\xcc\x81HT\x8c`\x1d\xc7&lt;\x958\xc6G\xbd~\x9d\xfe\xc1^\x1b\xd7\xfc7\xfb\x1fxOQ\xd4\xd7\xcd:\xbd\xb4\xb7r\x08_\t\x16\xf9X\x04$\xe0\x83\x80:\x029\xeb]\xcf\x8e\xbc_\'\x83\xfc+u\xa9\xe9\xd6mi,_*$\xaf\xbd\x1aq\xcc]x\x1b\x8eF{m\xe7\x1cW\x88j\xbf\xb4/\xed\x1d\xf1\xd4Z\x8f\x83\xbe\x0b\x9e\xd7O\x9ai"\xb8\xf8\x81\xad\xdf\xc1\x16\x98\xb7\x11\x00fKum\x8d9L\x8e\xdb\t\xe01 \xe3\x07\xe2\x1f\x8d\xfe\x19\xf8^\xd2\xd1\xbfh\xaf\xdb/\xc4\x12\xcb&lt;fE[{\xe8m`\x98\x93\xb0\xedX\xfe\xea\xe7\xa0\xcfc\xcdx\xbf\x8c?j\x0f\xd8\xc9Lz\x0e\x89\xfbdx\x82\xd6(Y&lt;\xbckr\xa4h\x8cxb\xcd\xb9x9\x1c\x8c\x9c`n\xc5l\xd8|O\xf8\x85c\x02\xeb_\x0c\x7fi\x18|K\xa5)E\x8e-U\xed\xae\x92dn\x9bg\x85U\xe2\xfcP\x91\xdc\xf3\x81\xd4xK\xf6\x80\x93\xc5[\xf4\x0f\x17\xe9S\xd8^E\xf3\xcbn\xf2\t\x01L\xe02\xc9\x9cH\x84\x83\x86\x1e\xe3\x1cW_\xa4\xae\x9b\xadj\x11Gk\x1a\xf9l?t\x91\xf0X\xfa\x8c\xe2\xbd\xb3\xf6w\x8ak}y4y\xe1,\xca\x08\x1b\xdb\xe5O\xae3_A\xea\x167ke\x1cV\x16\xed!x\xbfxR\xe0m\x1d{2\xf3^g\xe3(\xa3K\xb8\x85\xe29x\xd4\xa3\xedE\x039\xcfn\xb5\xf8.\xf0munT0\xe5\xb20*\xc46\xe5$YJ3\xa8\xcf(\x01?Q\xcfJ&gt;\xcap\x1d&amp;W=6\xcb\xc0\xfaq\xde\x98m\xd2Y~\xcc\xc8\xe8F\t9\xc1=\xb0)\xe2\xd6\x7f2Ku\x85\xd7o\x1bP\x82\xff\x00S\x93\x8f\xd6\x9bk\x05\xc6\xa1:\xd8\xd8Z\xcfu&amp;B\x04\xb3\x81\xdeM\xc4\xf0\xbbTd\x93\xed\x9a\xe9\xb5_\x85?\x17|%\xa7\xae\xa1\xe2_\x85\xbe"\xd3\xec\x9c\x82\x97\xb3hs\xec\x1b\xba\x16p\xbf/NG_\xce\xbbO\x85\xda\xcf\x8a|g\xe0\x8f\xf8G\xac\xb4\xf9o\xaen\'\xfb&lt;[\x10\xb6\x16&lt;\x94=\xb073g\xbfN+\xf5\xf3\xc0\x1e\x04\x7f\x0b~\xcf&gt;\x17\xf0\x8d\xd5\xbf\xd9\xe4\xb6\xf0\xf5\xb7\x9d\x00\xca&lt;o\xb0HW\x18\xeb\x97\xcf\xd0\x8a\xf0\x0f\xdbw\xc5:\xa9\xf0\x12xB\xd2[\x95\xb8\xd75\x0b{\x05\x02B\xbb\x95\xb2d\nG\x0b\x94P\x0bu\xe4}k\xe6\xff\x00\xda\xf7\xf6\x81\xd7\xb4}{C\xf8!\xf0\xe1\xed/&lt;A\x16\x97\x05\x86\x8bgo!K}"\xd8\xa1m\xa6(\x99v\x10K\xb1;\x9bs9\'\xad|O\xfbS|!\xb4\xf0w\xc6\xcbK_\x18\xc9\xff\x00\tL\xb6\xd0\xda\xddk\x11\xdfHR+\xd7\x90\x92\xc9\xb5\x0eQP(#\x82I\'\'\xd3\xe7\xaf\x03\xf8\xe7\xe1\xb6\x93m\xad\x8f\x88&gt;\x11\xba\xf2\x96\'\x1e\x1d\xb9\xd1\xb5F\xb3[9a\x95\xced\x06)\x04\xfb\x83\x05M\xdbB\x15$r\xc6\xbe\xba\xfd\x83\xfe\x18\xe9&gt;5\xf1e\xb6\x84m\xb5\r\x1a\xe3^\xd2\x9e\xea\x0b\x8d*\xff\x00\xca\x9e\x0b\x80\x03\r\xceF\xd9\x01\x05I]\xa01\'\x91^\xf5\xe3\xab\x1f\x17\xfc\x14\xf1\x9cZW\xc5\xad\xb7\x9a:\x98\xcax\x8a\xdc\xf9&gt;T\x98\x18W@p\x99\xe3\n\xa4\x82I=I\xaf\xb4~\x01|&amp;\x87\xc5\x9e\x1f\xb4\xf1\xb7\x87\xb5\xaf\xed\x8d6HRI\xf6\x15/o\x900\xcc\t\x0c\xbd\x86\xdcg\xbe0A&gt;\xd1\xe0=#\xfe\x11\x7f\x125\xa5\xb9o3 \x90b\xc3\x05\xf7\xafE\x93\xc5\x96\xf1\t~\xd6$xbo\x95]\x00\xe3\x03\xbes\xeb\\o\x8b\xee`\xd6o\xfc\xcbG\n\xa0\x0c)\\\x0e\xfc\x8cu\xeb_\x83\xeb\x00v\xdd\x12++\r\xac\xae\x9d\x059\xed\x16\x17\x11\xa3H\x13nG\x96\xa0c\xdb\xad9b.\xa2)\xbeEV\xdc\xab\x8eI\xf55!\xb2,\xaf$p\x062\x100\xa7\xa7\xbf\xd6\x9b6\x90\xca\xdb~\xc6\xb9c\xb8\x131\xf9\xbe\xa4w\xf6\xafv\xff\x00\x82l\\\xfc&lt;\xd2\xff\x00l\x9f\x0bk_\x13\xb4\x1f\xb7\xe9zE\xbd\xdd\xd4\x9at(|\xd6\x99c\x066\x04\x1f\x9f\x04\x13\xb4\xe3\xf5\xaf\xd5O\x8d\xde\x0f\xf0\x87\xc6\x7f\x04[\xea\x1e\r\xf1\x0b\xeazn\xb3bn,\xae\x02\x90\x84\xba\x92#e\r\x8c\xa9\x0c\x0f\x19\x1fJ\xfc\xe9\xbf\xf8=\xa8\xfc&lt;\xfd\xabt\x7f\x86\x96\x96\xab\x1c\x9a\x8d\xed\xa24&amp;6\x1f\xebe\x01\xcal\xeb\xc0\xf4\xaf\xd5\xcf\x19\xf8^\xdf\xfb-\xe0\xd4d\x86/\xb2\xab\xc5\x90\xfbH*\xa24\xceO#\x089\x06\xbe=\xfd\xa9\xf4]C\xc4w\x1ag\x87t+qu\xad\xcb6\xcd&gt;\xca\t\x0b\x99]rY\xc2\xe3\x03\nFI \xe3\x15\xe3\xba\x17\xfc\x13oTo\x16\xcd\xf1\xd7T\xf1\xea\xea&gt;,\xf1\r\x8b\xc6\xfa\x15\xb2D\x86\xd9\x95\x95#XK0\xdep\x0es\x86\xe7\xa1\xe0\xd7\x9a~\xdb\xff\x00\xb1\x17\xc4\xab\x8dR\xdb\xe2V\x9f\xe0\xcdB\x1dV\xca\xd5,5\xdd0\xd8\xaf\x9ecGs\x1b\xa0-\xc9%\x889\xc7\x03\x8c\xd7\xc5:o\xecy\xa7\xeb\xdf\x13`\xb1\xd4\xfc\x03\xe2\x17\x99\xee\x9aI,-4\xbb\x93\t\xe7\x90\xff\x00\xbb\xc1\xe4}\xde\x9e\xf5\xf7?\xec\x9b\xfb8|L\xf0\xa7\x8a#\xf1\xef\x88|\x02\xf6\xabgk\xe5\xe8\xb6\xfa\x8a-\xbe1\xc3\x12\x99\xdc\x06\xdd\xa0\x00\x0eH5\xf4&gt;\x81\xf0\x0b\xe3?\xc5\x1b\xb1\x7fc\xe1[4Y\xa5g\x8a\xe7S\xb0.\x90\x920LbE\xf9r8,\xcax\xc6\x00\xeb_H\xfe\xcf\xbf\xb3\xb6\x87\xfb1\xfc=:&gt;\x82m\xeef\xbe\xb9uk8\xc9\x18\x99\xd5I\t\xd7v\x18\xee\xe4\xf7\xfc\x07\xa6x\xaf\xc1^\x16\xf8y\xa1\xc5\xa5\xddB\xd7Z\xf5\xd4"mCP\x92s\x95v\xfe\x11\xc7\x00\x008\xc5y\x17\x88|we\xa0^&amp;\x9d,\xc5\xd9\xe4*\xfb\xd8\x9c\xafb?\x1c\xd5\xad\'\xc4\x16\xf7\xd6\xdb\xe4\r\xb8\x1f\x95\x9d0\n\xf6\xc6=\xf3_\x88\xf1\xedb\n\xb1.N2\xdd)$\xb5\x91\xd8\xc3\x13\x02\xe1\xb2qS\x0b)%\n\xca\xaa\xdbF\xd6$\xf45,6\x84\x1c\xb1+\xf3m\x03?)\xf7\xff\x00&gt;\x94\xe4\xb0\x88\xc7\'\x95\n1\xdeAp\xe4\x81\xc0\xe9\xc7Z\xed\x7fd\xfb=C\xfe\x1ac\xc0\xc7MY\x16u\xf14\n6\xc9\xb0\xb4l\xae\x1f,2H#\x8d\xb8\xc7\x15\xf7\xdf\xec\xd5\xfbFM\xf0\xd3\xe3\x1f\x88\x7fg\x0f\x11\xdc\x18\xb4K\xfdNy&lt;3z\xc9\x93i)\x1f2\x83\xd3\r\x8c\x0f\xc6\x9b\xf0\xe3\xc1\xda\x9f\x8d\xff\x00\xe0\xae\x1a\x03Z\xc7\xf6H\xfc/\xa06\xa1y\xb8\t&lt;\xa5\nT\xa9\xcf\x07%\x90\xe7\xb6\xea\xfd\x1b\xd1\xbc/q\xab\xf8f\x18\xee\x90\xc3\x12\xc3\xe6\x8bv\x89Y\xb2\xdf&gt;2A\xcf\xcc\xc6\xa3\xf8]\xf0+\xc2^\x15\xf1\x0c\xff\x00\x14\xaft\xc7\xbc\xd6\xae\x11\xa1YLHE\xa4m\xc3\x18\x97o,F\x01\'\x1cW\x9c\xfcx\xf0?\x85\xfc?\xad\xcd-\x8e\x9b\x15\xb4\x97HVI#\xb1r\xa17d3b&lt;\x8c\xe0\xfd\xces\xde\xbc\x07\xc4z\nk\x17\x93]i\xb7\x9e(\xb9\x82\xda\xe88K+I\x80bX\xed@dRB\xe7\xb1=\xcd`\xa6\x85\xf1\x9c\x97\xb1\x9b\xc3\xd7zX\xf9\x9aHumB4,\xb9\'x\x11\xa9\x90\x9cc\x8cc\x8e\xbdk\xa1\xf0\x7f\xc1\x1f\x10k\x16\xcb\x7f\x7f\x1c\xd3[^\xb0b\xc6\xdd\xed\xa0r\xa7\xb9p\xcf*\x0f\xa2d\xe4W\xa8\xe9&gt;\x10\xb5\xd1U\xd6;\xd9\xe7\x96\xe7\x1b\x929^8\x95\x80\x03(\x9f6\xc1\x808\xdczg&lt;\xd7w\xf0\xbb\xc3\xad\xe2O\x11\xdb_\xdc\xa6\xfb?\x0f[&lt;\xdeiP\x17\xcd&lt;g\x8c\xe4\xf095\xe7\x1f\x1d\xbcZ\xba\xae\xafu\x7ff\xb7\x93\xb0\x90\xb8\x91X\x00H\x18\xc1\x19\xce:W\x86x\x82\xf8\xff\x00m\xae\xa7\xa8I4/"\x01\xe5\xba\xe4d\xe7\xa6q\xeb].\x93\xae\x7f\xc2-\xa6E\xfd\xb1z\xd3\xb4\xa5\xbc\x97C\xf2\xf9`/\xa7\xb95\xf9\x07\x12[\xcad\x8fxgW\xc2\x90:}jD\xb0\x7f0*\x800\x99g\x0c:\xfaS\xd2\xcd\xdeEVD\xf2\xe4%Y\xbc\xc1\xda\xa5X\xa23\x05Kq\xb0.\xd49$\xf1OR\xb1E\xe7G\xb8\x8c|\xd1\x95\xc79\xeb^\x91\xfb\x1ai\xb6\xcd\xfbYx\x0e\xe2\xe5\x891\xf8\x829\x06\x0f\x00\x04l\xa9\xfe\x95\xf4\x9f\xc4{8\xe1\xf8\xad\xaeh\xfa]\xa6\xdb\xc3x\xd2\xc10nA\xdc\xc4\x05\xf4\xeb\xd6\xbe\x91\xfd\x89\xb4]CS\xfd\xa2|S\xf1\xbf\xc6\xb6"\x0b\x8b\xcf\x04\xe9:4;S\x19Cr\xc6b}X\xf9k\xcf\xa63\x8a\xfd\x06\xf0\xd2I&gt;\x98\xa2X\xc0\x1e^\xd6\x00py\xec}1\x8aYo-\xb4;i\xae\xe3\xba\xda\xd1\xc7\x98\xe2\x84\xb1os\x80+\x89\xf1\xff\x00\x8a&lt;v\xf3\xa5\x8f\x87\x9a;8\xccK+\\\xea\xda\x91\x8d\xd46p\xca\x89\xb8\x9eGF\x03\xa5y\xfe\xa5\xe1\x8f\x1f\xeb\xb7\xc2_\x17|G\xbe\x90\x8b\x85\xdc\xd6V\xe5\xe1\x9c\x0ev\xe7#\x18\xcfJ-|\r\xe0\xbd\x07T}Qt\x1b\xdb\xbb\x84\xe2K\x9b\xb5]\xca\xe4\x9f\x9c\x06l\xf3\xc0#8\xc0\xfa\xd5;\x8b\xddGQ\x9e+k\x08\xbc\xc7%\xdc@\x18\xec\n8\xee~^\x9d:V\x97\x86\xfc5\xab\xea\x97\xa3\xc3\xf1"\xc7,\x84y\xa1\x00h\xd07S\xbb\xaep=+\xd2&lt;7\xa2i^\x15\xf0&amp;\xb9\x16\x87\xa7\x84\x8a\xde-\x86G?4\x84gq5\xf2_\x8e\xb5\x1b\xf8\xb5\xfb\xf94\xa8\xdad\x93s\x14h\xc7\xee\xcbp9\xcfN+\x9a\xd5\xf4e\xf1E\xc5\x84\xda\xae\x9b\xe5\xcb\x1eP\xc3#\x8e\x18/S\xe9\xd6\xa2\x8b\xc3p\xa8K\x13\x11o&amp;?\x920\xe4\x80\xa5\x8f?\\\xff\x00*\xfc\x8cKckrcx\xa3*#\x0c\xc0\x1eI\xf5\xe9\xedP\x96@\x1b\xc8\xb7D\x0ep\x01\xe6\xa5\x81"]\xd6\xa7\x86\x08\n\xe1\x01\x19\xc9\xf7\xa9\x8b;]\xa2\x13\xb4/\x18\x8c\xed\x06\x9f%\xb4\x91\xc6\xee\xaf\x9d\xa8\x01\xdc\xd9\xeeMw\x7f\xb2\xa6\xa0\xf6\xbf\xb4\'\x83\xf5\x08r\x01\xf1\x04[\xbdv\xe3\x07\x1f\x9d}m\xf1\xc4\xdb\xf8{\xf6\x87\xb9\xd4-\xd0\x98\xbc\xd0\xc1GR\x08\xc7\xf3\x06\xbe\xcf\xf8G\xe1\x01\xe1\xcf\nxz\xfdfU]F\xd5&amp;\xb9\x8e&gt;w7\xdeS\x93\x8fQ_P\xf8\x1bV7\xdaRN7\x05o\x94)\xfa\n\xb3\xe2;\x99\xec\xec\xc8\xb5`\x8f(1\xa3\xa8\xc3F\xc7\xf8\x83w\xfaW3\xe2ia\xd2o-\xef.aY\'\x91T\xcbs\xe5\xa9y@\xe3\x90F\x07N\xd5\x91&amp;\x97\x17\x89u)&amp;]F\xe24\xdf\xb9\xa0o\xba8\xea\xb8#\x07\xdb\x1d\xba\xd6&gt;\xad\xe1\x9bS,\x96\xd0\xc8\xec\x8c\xca\xd2H\xf2\x10\xc4\x02x\xc7?\xce\xba/\x03|\x11\x9f\xc4p#M\xaaGk`\xaa\xc1\xc5\xb8&amp;i\x94\x9c\xed$\x81\x81\xcfbkSY\xd3t\xff\x00\t^\\\xae\x87j\xb6\xf0\xa1E\x88\',\x14\x0c\x1c\xe7\xbesM\xd1/\xee.~\x11x\x82\xd9\x882\x82\xca\x1c\xf4$\x8c\xe4\xfeu\xf3\x16\xa5\xa1j6\xb7I\xaa\xbd\xc4&amp;9Wi\x8bnw\xb6\xe29\xc8\xe8;U=V+{k\xe6\xb2\x9e\x08\xfc\xd8-\xbc\xdd\xe9\x1eC\x8c\x9eN{\xf6\xfc\x05I\xa3\xe8q\\?\xda\xc2\xa0\x0f\n\x958\xc1\xc1$\xf3_\xff\xd9'</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>zuckerberg-231.jpgSundar Pichai</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00\x96\x00\x96\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xf7F\xff\x00\x82{\xf82\xef^\x87T\xbc\xbe\xfd\xc5\xb2m\x86\xd8\xc0\x02\xb9#$1\x1c\x9f\xadt\xbe\x11\xfd\x8a\xfc\x11\xa7}\xb0\xba,6\x92\x94\xf3"\x11\x82\xcf\x80~PO@z\xe7\xda\xb5\x0f\xec\x81\xe0\xfb=Z\xdfP\xd2\x1eKYb\x01\xad&amp;x\xd6E\x88\x02\t\xc2\x1e\x0b\x10\x08\xcf\xb9\xae_\xe2\x7f\xec\x817\x89\xe0y\xb4{h\xa5\xb8\xb8\xf3d\x12^FLv\xe3zch\x1dr2Nz\x1e\x06z\x8f(\xf1\x7f\xfc\x13\xe3T\x85\x1aT\x91\xf7I\x9b\x9b\xe9m\xad\x91\x1e\xe9\x93\xee*\x80\x0f8\xdc2O\xf3\xaefO\xd9\xbf\xc5\x96\x1e\x10\xd4&lt;G\xabi\xd71\xea?\xbd\x84\xc1x\xa1\x9a5\x00yg \x03\xd3\xa8\xe9X\x9ag\xc2V\xf8\x93\xe0\x88\xa5m2X5B\xa2K\x9b\xd4wbX\x11\xb0\x85\x0b\xc1\x057zd\x0ej\x8f\xc4\xbf\x80\xbf\x15\xe6\xf0\r\xdf\x88\xaft\xc3.\xa94n5;\xc8\xa3\xda5\x04 (G\xe0\x11\x84\x04\x02\x07\xf1\xb5|\xe1\xe0Mw\xc6\x1f\x06\xfc\x7fi5\xde\x8c\xf7\x16\xdaD\xcd \xb2\\,\xd1\xdb8*\xf1\x82\x0f\xef\x02\x820;\x8c\xf4\xc7&gt;\xe5\x1e\x83\xf0\x9fY\xbbmC\xc2\x1a\xa9\x94\xeb\x11\x1dWC\xbd{\xc6\x85\xd6T\x95G\x90\x9c\x13\x1c\x9bN\xdf\x99J\xe00\xe7\x83Qk\xda\x11\xb2\xd3\xf59uKh_\xc1\xfe \xd4R\x0f\x10\t\x02\x83\xa7\xdc\xc86-\xd6N\xd0c\x04\x95.\xa0\x0c\xb7#\xa5x/\x8d~\x02\xfcC\xfd\x9c\xf5\x88&amp;\x8e\xfeY-\xf4\xcb\xb9#\xb2c\x01\x95.\xa2s\xd5p9\xc0*s\xc6T\x923\xcdm\xfcP\xf8eg\xe2\x8d"\xd7\xc6^\x1e\xd0\xd6Kw\xb7I%\rn#\x8c\xefR\xa0\x06\xcf\x0c&gt;\x7f\xa6G\xaf\x1eW\xe0\xbf\x0b\xea3[\x19th\xbe\xcf\xfd\x9f\xa9-\x88\x86\xf4\x99\x0erv\x90X\x0e\x01\xe4\x83\xce\x07\x00\xd7Sy\xa7\xf8_\xc3\x96\xf6W\xd7Z\xdc3\xddG9\x9e\xf2[\x94M\xaf!|gf\x13j\x06\xc6\x00\x07#\x9e\xd8&lt;\xd7\x8a\xf4\x9d\'\xe2\x06\x9fy\xe2;\x1b\xbb\x7f\xb7Z\x8f=\x1d\x10B&amp;\xdcHe\xdb\x9c\x13\x901\xed\x9a\xe5t\xb8Ds\xb7\xda\xa0\x11\xb0\x03\x82\x84\xa9\xfa\x1e\x99\xad\xf7T\xfb\x1a\x1f)\x18\x07\x04\x84\x18=\r=\xe3\x81YJ\xee@W\xb3\xe0\xd7\xef\xf2\\D-\x11\x92\t\x1d\x96O\x99\x11I9\xfc{T\x97\x023p\xe8\x96\xea\xca\x00\x0c\xca\xe7\x92}2*\xac\x8e\xda|\xc6\xecI)\xc2\x95Tc\xc0\xfdj\xe6\x99w\x7f5\xa6e\x91H\xcec\\dc\xde\xa8\xear^\xb5\xc9\xb1\xb4v\t27\x99:\xa0\xfd\xd9\xc1\xe9\x93\xebT\xaet\x8d;R_?S\xd3\r\xd3M!\x123`\x07\xe0\x01\xc1=x5\x83e\xf0\xef\xc3\xbaM\xb9\xb1\xd1\xec|\x8f\x91D\x89\x02\xed\xf9\x81c\xd7\x1e\xf5A|=\x15\xa9\x9a\xd3S\x81n#u \xdb\xdc.T\xa9\xe3\xad|\xf3\xfbC\xfe\xc1zo\xc4=b\xdb\xc5\x1f\x0c\xeea\xb0\xd4m\xa2dkI\x08D\xb9\x8d\x8e\xe6\xf9\xc6J\xb8!@ \x1e3\xeb^G\xa0~\xcc\xbe6\xf0\xde\xa6\xda&gt;\xbd\xe1V\xd3\xe4\x13\xf9\x96\xba\xc5\xd0%au\xe8HPw)\xe9\xdb9\xcfj\xe8\xf4\x8f\x85:\xb47#B\xf1\x0e\x86\xb3\xc3u\x04\xb6\xd6W\xb71\xbc\x90-\xb1V\xf3"x\xca\x85h\xdfs\x1c\x93\xf2\xb0B:W\r\xad|B\xf0\xe7\x84\xf5\x16\xf8U\xf1\n\xda\xf2O\x0b\xde\xda\xf9\x17&amp;\xd9\x04\xb3\xe9n\xa8\xc29"\x9d\xc8\xdc\xa8\x14t\xfe\x06q\xd4\x00u&gt;\x17x\xbb\xe1\xcc&gt; \xbc\xf8K\xf1%\xec.T\xdb\xa4\x96\x17\x81O\xd95X\n\xe6\xda\xe61\x80\x17\x07\xe5e\xe3\xe6pOJ\xe2\xbfh\x1f\xd9\xfe\xcb\xe1^\xb6\x97z\'\x86.\x7f\xb3&lt;Ix"{\xdf1\x9e5\xbde\xdc\xaf\x19\xc6\xe6V\\\xec\x93\x00\x05\xdd\x9cW\x85\xfc]\xf8\x17{\xe3\xcd{H\xbb\xd1tk\xe1\x15\xf5\xed\xc5\xa4\x96p\xaf\x9b2\xc9\n\x85Ls\xf7rY\x898R\x07\x04\x9e+_\xe1G\xc1\x1f\x11G\xa05\xcc\xfa\xdb\xcd3\x0b\x85b\xd6\xeb\x1c\x11\xc0\x8c\x00.\xec:\x90\xac@\x19$s\xc5y\xf7\x8d&lt;,\xbe\x1c\xf1]\xc6\x9d\x1c\x91\xc2\xb6\xf7\x8b\x04\xb6\xfb2\xe2FB\xf8$\x12:`\xf1\xea9\xa8.\x05\xa4w\t5\xa2\x906\xe2Fc\x91\xf4\xe3&lt;\xd2\xcb\x10\x9dA$1&lt;\x80\xa38\x1f\x8e+\xf7\xc2$\xba\xb3\x9aK\xc6\xd4.\x925\x9cn\x0f\xc2\xe0\x828\xf7\xe6\x9eg:E\xc9\xd1\xdd\'\x98\x8f\xdeG!\xc9VS\xee{\xf3U\xaf\xb5(\xaee[x\x87;\xb0\xc4\x13\xf2\xfb\x1a\xb15\xea\xc3j\xa5g\xd9\xe5\xf2\xc3\xd7\x83\xc5U\x8ak\xab\x84++\xaf\x98\xce\xa6\x0f\x98\x802\t\xf4\xeb\x80jk\xa9B7\x9d,\xea\x02\xb0V\x94\x8c\x958\xe9\x8f\xc3\xadKi-\xbd\xe4B\x07\xc12)e"R\x03\x81\xdc\xe0pj\xd6\x9b\xa4\xd8Kh\x12[a\x11f\xf9b\x9f,\x0f\xbf\xadMs\xe1}\x1e\xe9@0Z\xe5F\x01\xf2\x8eT\xfa\xff\x00:\xc2\xbd\xf0E\xa5\xec\xb2\xc7|\x91\xc8\x8cvfL\x10S\xd3\x07\x80r\x17\xf0\xcdu^\x04\xf8\x05\xa4x\xd6H4\xadSO\x9bM\x9a{i,\xa3\xd4\x13\x12B\x9b\xc6A(p\n\xe0s\xdf\xa5|A\xfbV\xff\x00\xc18\xbck\xf0\xbf\xe2%\xd5\xb7\x8b4\xc1mh\xd1:h\xf7i}\xe6%\xca\x13\xcc\x90\xc4\x07\xae\xd2A\xc1\x1c\x8cc5\xf2\x7f\xc4_\x03\xea~\r\xd2\xdb\xc23j\rh-`\x99\xf4\xbb\x99\xd4\x95\xd3\xe6_\x95\x88`\tt\x94\xb7)\xfc\'\x04g\x15\xdc~\xcf\x1f\xb4\xce\x8b\xf1\xd3\xe1\xa5\x9f\x80&gt;/N\xff\x00\xdaZ\x04\x89\r\xbd\xe1\xb9*\xd3Z\xabb(p~\xe0\x8fs\x80FwG\xc1\xc6q\\_\x8c~\x1b\xeb\xd3\xdcK%\xbf\x8c"\xb4\x9a\xc7U\x9e\xebN\x96\xd6\xf1\xc3\xc8\xc4\xe6;L\x01\x92\x18\x0f\xbb\xd1@\xe0\x9c\xf1\x91\xf0\xedl\xf4\xdf\x05\xddA\xe2[\x04\xbd{\x8bU2\xdbM4\xb1\xc1\x131o\xdc\x82\x01\x19!P\x83\xd7\x0c\xdd:W\x99j\xde\x02\xd5\xb5\x1b\xfdVmWXky\xecf\xbb\x92A\x1d\xb9p"VQ\x18-\x8e\xa4\x06\x00\xfa*\xfa\x9csV-}\xa6\\\xcf\xa6\xde\x91\x01\xc7\xcb\x17\x96\t&lt;\x03\x92s\xc1\xe7\xa7\xd6\xacAm\xf6\xb6\xf3~Q\x81\x83\x96\xdak\xf7\xc5\x92)-\xdak\x98%\x99\x1c\xee*d?OJ\x1a\xf5 \x0fm-\xcc\xc66O\x94\xe3s!\xec\x07\xb7Z\xa4\x91&lt;\xb14\xd6\xd1\x19#B2\xea\x06s\x9e\xfe\xf5bM6\x1b\xcb\x96\x19dY\x801\x96\xc6\x07\xcax5\x97&gt;\xa57\xf6\xb4v\xa8RE\n\xa0[\x90D\x88W\x8c\xfa\x1e\xbcs\xde\xb4m"I\x87\x9el\xc2\xe6F\x0c\x92\x9e\x0e=G\'?\xfdz4\xebH\xae-\x1d\xe1v\x12\xae\xe2\x15\x0e6\x81\xce&gt;\x9c~x\xad?\xb2\xfd\xa6H\xb5;I\x9a\x1b\x84\x89p\xd29+\xb0\xf2r1\xd7 T\xff\x00\xdan/\x05\xbb3\xbb\x15\xc9F\x8f\x1b\x8f\xf7\x87\xb7\xe5\xd6\xa6\xb3\x9a\x18%\x17dA(&lt;\xbc7\t\x95\xc0#\x83\xe8~\x99\xaft\xfd\x9f\xf5\x1d=\xaf\x84QH\xa9\r\xe4d\x18al\xac}=G\x07\x8f\xc8\x9ek\xd0~.\xfc\x1d\xf07\xc6\xaf\x04\xddx\'\xc7\x1a*\xcdmq\tH\xa6\x87\x02{s\xd9\xa2\x90\x80Q\xb3\x8e~\xa3\xa1\xaf\xcbO\xdb\xbb\xf6,\xd4|1}\xfd\x89\x11\x17\x96w\x12\xc0\x9aM\xc3Y\x88\xd2\xe9\xd0\x9f49\x19\x0b"( \x83\xc3\x12\x0ex\xaf\xcc\x7f\x8a\xbf\x0b\xbcY\xf0\x1b\xe3C\x0b-JX\xa3\x9a\xec\xc7\x15\xcb8\x8c\x18\xdd\x8f\x07\x00\xf4\xce:~5\xec\xad\xa8\xdf\xfcI\xf0\xac\xbe%\xb6\x9c4rA\x1d\xd2\xcb\x02\xa1{Y \x06)\xa4$r\xaeA\x1b\x08\xcers\xb6\xb9;/\x1c\xe8:?\xc3{/\x01Z^\xcfs-\xf7\x8a-\xb4\xb9~\xd1\x10\xc5\xad\xb4\xb2\x99]\xb3\x9c\xbba@\x0epB\x821\xc9\xa9\xad\xbc\'\xf6;o\x11\xea2\xf8f\xe2I\xca[F\x0cwL\xca\xe8\x93\xed\xf3Yq\xca\xec\x126&gt;\x99\xae#\xe37\xc3\x86\xd2\'\x9b]\xd3/!\xbb\xfb\x13\x91{\xbd\x16\'\x0cy\xda\x14\x13\x9cp3\x91\xd0\xd7\x9a\xea\x0e\xcb\x1f\x99\xbda\x90\xb0\xf9$P\xc3\x04\x1e\xc2\xbf\xa0\x1b\xeb\x8b\x91l\xc29\x19\x13p\x00\xf9y\xcf\xb7\x19\xff\x00"\xb3M\x86\xa8\x97s^\x1d8\xcc\x8aF\xd6\x8e}\x99\x18\xf7\xa6\xdaE:\x160[\xbc&gt;i8\x88\x1c\x92\xf8\xe0g\xd3\xadY\x9e\xd2\xf2\xfbF\x82\xcfT\xb2d\xb8PN\xd0\xd8#\x9e\x1b#\xf2\xfcj\xcf\xef\xae\xeec\x1a\xa5\x8d\xaa\xcd\xb1@\x8d\x07\xccT\x11\xf3\x13\xdb\x8e23\xd6\xa3\x8fG\xd2\xf4\xe3s\x06\x8e\'\x8e33L|\xe62\x12\xc7\x8e\x1b\xae9\xe9U\xe4\xd4\xaf,\xe1\x89\xed\xb4\xff\x00\xb4*\x90\'T\x1bN\xcc\x8c\x91\x9cg\xff\x00\xafW-\xf59\xaeb\x92;\x90\xca\xa2BR4\x18"&gt;\xc0\x9f_j\xa3\xfd\xac\xe9\xa95\x98Wfh\x88\x8aY\t\xcar8\xad\xeb9`\xbe\xb5+5\xd0S\x11\x05~E+\x91\xd7q\x07\xeb^\xa5\xf0\xcbV{\x18\x0c\xf6\xe4D\x06\xc9`hS\x1b\x8e:\x1fn\xbf\xa5z\x8e\x9f\xf1anR7\xba\x81\xfd\xc2\xb88\xc7\xa8$c\x9c\x1f\xc2\x97\xc4\x9e\x14\xf0?\xc5\xdd"\xe3\xc2\xbe"\xd3-.\xac/\xa2cycp\x98s9\xe92\x11\xf7[\x19\xce\r~@\x7f\xc1]\xbfaO\x10\xe8VW\xba&gt;\x99m\x08\xbdX\xbc\xed\x1e\xfdA\xcd\xc4H\xe1\xb6\x83\x8cd\x01\x8a\xf8\'\xe0w\x8f\xb5o\txn\xff\x00\xc1R_\xb4W\xf2\xe8\x17\xb6\x970m\xf9\xa2\x9d\xe5M\x8c\xd9\xe0s\x81\xf8\xd7\xa5\xf8\xc7\xe1\x96\x937\x85\xff\x00\xe1\x1b\xd55{\xc8\xb5I\xf4\xcbY\xe1\xbe\x82\xcf\xe7\x8bTX\xf3\x1a\xa8\xee\x1b\x95\'\xd1\xabPKj%\xbd\xd1\xa3\xf1T\xf6\xb2\xdci\x7fk\xb2\x838\x92?\x95\x04\xf1c\xb8\x12)B\x1b\x04y\xa3\x00\xf3\x89\xfe2\xf8WM\xf1O\x88o\xbcc\xa9h\xd6\xd6\x11_i\xf08\x86\xd5\xb7A\x04\xeb\x12\xab+\x1e\t/\xb5\\\xf0~bG\xbd|\xdd\xe2\x8b[\x9f\x0b\xeb\xd3\xd8j\x10B\xf9c\xb4\xba\xe1\x0e\x18\x8f\x94\xf58\xc7p:\xd7\xef\x8a4R\xfc\xc9-\xcc*A\xd9\x90\x06[\x1c\x03\x82x\xa9,\xa5-\xa4@5\xd9\xa3\x8eDV\xdc\xe10\x1c\xe4c\x04\xe3&lt;{Q$\xb3\x0br\x96\x827R\xe1T\x95Q\xc9\xef\x90MO\xa5\xfd\xaev\x92\x18\xad\x02\x15r\x0b\x12\xac0:\xe0\x92;\x91P\xcb\xa5\xea\x1a\x94\xa6K\xc4R\xc1\xb6+\x84\xc1+\x83\xc6G\xb8\x15]\xa3\x9e\xd3ME\x96fq\n\xb6\xf4C\xcf^\xe7\xd2\xa8\xc9r\xf3:\xdd\xc1\xb4$\x8b\xb1\xf2\xdb\x97\x1d\x7f&gt;*\xad\xf5\xca\xdaC%\xff\x00\xd9\xa6\xf2\x9f\x1bH\x90\x8es\x8cm\xc5U}k*\'\x86\xe3yBT\xc6\xc8O&gt;\x87 WI\xe1\xbb\x98c\xb3\x90\xc1h\x91\xa8\x1b\xa6\x89\x80\x0b\x93\xc6r~\xb5\xd9xC\xc4W:m\xa3\xc6\xd2\x98\x95@T\xde\xbc\x128;}\xb9\xae\xabL\xb7\xb5\xd5\xee\x9c\x89$\xda@bU\xf0I\xf4\x1c\xfa\xd7Oe\xae1ha\x95\xbc\xa6\x03\x13\xefuRq\xd3i\xcf&lt;f\xb9\xcf\xdaS\xe0\xed\x97\xc7\xdf\x87\x17&gt;\x18\xba\x9e\xcb\xcc\x91Ch\xf3\x99\x83Il\xca\x0eG\xf7\x86~\x98\xf7\xaf\xc4\xdf\xdb\x03\xf6@\xf1\'\xc1\x7f\x8f\xd0\xf8\xb3T\xd0\xe6\x8e\xd3S\xd4\xed\x97P\xb6\x86 \xa0\x14\x91X6?\x89X\xa7 \xe39\x15c\xf6l\xf8\x85\xad\xfcC\xd65\x9f\x0c\xeb\xbal\xf3\xeb:\x9bM\x04p\xda0\x04B_"[y\x1c\x00\x8c\x8b\xb1\x80\xe3\xa7Z\xe8&gt;6X\xeb\xf7\xff\x00\x144\x08\xbcW\xa2\xc2\x8d\x12&lt;(\xfeZ\xa3_\xde\xac8(J\x0c\x10T\x02K\x11\x97V\xe3\xa1;2\xfc=\xd1o\xbe\x1b\xeb\xfa\xdc\xda(\xb9\x96\xce\x18. \xb4\x82c+H\xd2\xfd\xe4 tetP{a\xba\xd7\xc9\xff\x00\x19|3}q\xe3{\xbdB-*\xe1\xe2y\x99\xbe\xc94K\x98\x1d\xd8\xb3.\x01\xe3\x1cW\xeet0N\xf3\xa8\xb6d1\xa7\xfa\xc0\xcc8\x1e\xb5Z\xfe\x18\xae`K=bx\xa7\xc4\xb9\x8cF\x0b*\x8ez\xfb\xd2\xddi\x89z&gt;\xc9mj!M\xea\xc9\xbc\x14\xdd\x8fC\xde\x99b&lt;\x85)\x05\x9e\xc6\xdc\xed\xb6s\x9d\xdc\x8fL\xd3\xaf\xa6\x9c\xbcm\x03I\x13\xbcd\xc8\x89)\xdaG\xa61\xc1\xce+\x97\xbe\xb7\xb1\xb8\xbc\xb5\xbc\xd5a\xb8\xb5t\xdcL6\xb3\xb3(\x19\xeb l~\\\xd4\x91\xdc_}\xa1\xa6\x9e\xda\x16@w[\xbc-\xb5B\xfa\x94\x1cg\xde\x93V\xbf\x9bT\x9b\xcd[\xc6\x01Y|\xa2\xa3\x19 \xfd\xd2?\xcfJ\xce\x92\xf9\xa5Y\xa1\x92\xe1\xa2\x91\xae\x0b\x8d\xeb\xc7\xd3\xeb[:=\xdd\xc4\xeb*\xb5\xc8p\x19\x03\x82\x80\x822\x0f\xf4\xae\x96-J\xe1d\xf2\xf9\x92&gt;]CI\x80\xa3\x8e\x00&lt;f\xb7\xfc=\xe2\x15\x92\x15K\x9d\xd9PN\xdf\x98s\x9e\x08 \x1a\xea4K\x89b\x9dds\x96~bf\x98\x00\x0f\xa79#\x8c\xf4\x06\xacj:\xfa\xde\xdcy\xf6\xef*\x10\xe1T|\xbb\xb7\x0e\xfb\x8e\xd6\xc7\x1e\x95\xf3_\xfc\x14K\xe1f\x9f\xf1\x07\xc13x\xe6\xcd\x1eK\x9buO0\xc5\x873:\xf2\x11F}@\xe4\xe3\xa5~Q~\xce&gt;8\xd6~\x1d|C]\x14H\x92]iS\xcceY\xa78\x92&gt;\x10m$\x0ceG\x04\xe0nR;\x82~\x96\xf8\xff\x00\xa9\xe8\xba\xa9\xd1\'\xd4_\x10\xdf3j\x1a4\xc8\xe1&gt;\xd1w\x81 W\'\xee\x9e&amp;US\xf7\xb8\xe7\x00\xe3\xa1\xd0u_\x0f]~\xcd\xb6Z\xb6\x99gf\xfa\xc5\xb9\xba\x1e#\xb9\xb6\x88\x82\xd2\xef\xdd\te\x04p1\x8c\x8c\x8e\xbe\xd5\xe6R\xdf]\xc7a/\x8aWE\xb5\xd5..f\x89^\xc2b\xb8\x05\x95\x8b\xca0;\x15P9\xfe.\x95\xfaS}~m\xad\x1e0\xfb\xb2\xc0\x03\xe5`}~\x95WP\xd6-\xd9\xa3\xb3?gRa\xe1^.3\x91\xc8\xc1\xaa\x9a\xd7\x88e\xb6H\xcc\xb3[n@\x02\xb4J\xc0\x0f\xc7\'\xf9S \xf1\xd2[\xebB)`*6\xfe\xed\xe4\x1f|\xe3\xb7\xff\x00_\x14\xfd_\xc5\xa9e\xa7\xac\xa5\\F\xef\x99$\x04n^zqY\x9a\xcd\xed\x9d\xd5\x9d\xcbX\xdd\xf9\xf2\xdc*\xb3\xc9$\x98E\x1e\x9c\xf3\xfaT\x0b\xa3\x0b9\x80i\x0cHc\x0c\xb3\xa9f\xc7\x1d\x86:T\x97Ms\xa7\x04\x92\xea\xe2Y\x12e\xf9fX\xc6\xed\xbe\xa0g\xf9\xd5MC[\xb7m\xaa.\xcc\xa5@\x11\x06\x8f\x07v\x7f\x8b\xdf\xadY\xb1\xd6WO\xbdk9\xddY\x98\t$\x88\x82\x08\x1d21\xf5\xfdkv\xdfYF\x95c\x95\x8bB\xc3(^?\x95O\xd7\xaekoH\x92h\xee\x1a\xea+\xe9B\xc7\x80\xcb\xe6aJ\xfa\x8f\xf3\xde\xb7t\xff\x00\x12\xcd$\xc2/\xb2\x86 \xe5r\x9f3\x0e\x9f)\xcf^\x7f\x9dE6\xac\xcc^\xd6\xc8\x87T\x0e\xe9$\x92nr\xc0\x85 \x13\x8e&gt;c\xc5r\xbf\x15\xaet\xcd\x1f\xe1&amp;\xad\xa7\xdc;\x91\x15\xa37\xcb\x1eY\x19\xfeR\xdd{\x06$w\xce;d\x8f\xcb\x1d/\xe1\xc6\xa1\xe2\xcf\x88\x17\x9f\x10l&lt;;gb\x87[m\x14C2\x1f\xf4\xe8|\xb7\x94\r\xac\x00l4*\xfb\x94\x9c\x1c\x8e\xa4\x03\x9b\xe2k\xbdg\xc4\x1am\xff\x00\xc1\xbb\xbbY\x1e\xff\x00\xc2\xfa\x85\x8d\xee\x8bsu9gu\xce\xf4\x95\x87G\xda$u\xdb\x9e\x015\xdd\xfc\x10\xf0\xb7\xc5\x0f\x84\x9a\xc4\xb7:\x8e\xb0\xb7\xban\xa1\xe5\xdb\xcbku\x1f\xee\xee\xb1\xbc\x85\\\xf07\x02\x00\x1d\xd8s\x81\xcdw\xb7\xbe\x05\xf0\xf6\xac\xdae\xbc\x96\xe2\xce\xdcZ\\\\\x03d9a$\xab\xe5\xee\'\x03\x8d\xb2.=T\xd7\xdd"\xde\xee$x\xb5H\x1f\xcbu*\x91\x86\xdc\xe0z\xfa~\xb5\x93%\xb4\xf6\xf7\x16P\\ir\xc86\xb0\x12l$\xfbV5\xc4\x0biq%\xb6\xa902\x8d\xc1cS\x9eI\xe3\xae*\xb4\xb6R\xddZ\xfd\x96k\x89\xdcyD\xcd\x19\x8c\x03 \xc8\xf9\x14\xe7\x81\xdf=x\xa9V+h,\xa0\x8e\xe4\xc8\x90\xc1\x11\xd8\xa4n({\x03\xebJ\x91O\xab\xe9\x02\xee\xd9\xe2YpK\\4\x7f+ \xfe\x0cz\xf49\xf6\xab\x0b\x03\xdc\x88\xa4MBX\xca\xaa\xbcr\xad\xc1\x1b[\x07\x03h\x07\x8cg\xf4\xa5\xb7\xb9\xfe\xd5\x8e4\x9e\xf3|\xb0\xe5\x9e5Rwc\x8d\xdb\x88\x1c\xf3\xd3\xdf\xda\xa8\xcf2\x0b)\x19\xd1V\x13&amp;\xfd\xd2\xae\x0cdw\xc8\xff\x00&lt;\xd6\x95\x8bYO\x0cz\x8d\xb41\xcc\xee\xb92\x19\x00o,u?L\xe2\xad\xd9\xcb\x08\xbc\xff\x00\x8f\x86\x12\xed,\xb0\xb1%\x1d}\x89\xef\x9cV\xc6\x9d3\xc1\x10\xb8\x9e\xddH\xe7~\xe7\xc0\x07\xb0\xfau\xfd+J\xc7\xc4\x0f4i\x06\xed\xa1\x9c4{@\xdc0{{U\xa9\xa6Y\xa3y,\x02C\'\x9c\xd2o\xf2\xc3\x98[\xb6\xd0H\x1c\xf7\xaf.\xfd\xa4\xfcewo\xe0\xb9\xfc!g\x0bIq\xa8@\xd1\xdc4Gk\x12\xc0\x82\xe7\xfb\xa4)$\x01\xc5|a\xf0{\xe2F\xa5\xe3\xcf\x1d\xcf\xf0\xff\x00\xc4:\x95\x9d\xa6\x9f\xe1\xbb\x98o\xc7\x9db$\x13\x88\x1aH-\xde\x07\xe3fK\xbb\xca\xa7\x00\xf9k\x82zW\x9fYx\xc7N\xf1.\xb1/\x8c/\xcd\xb2]]\xc1\xe5^\t!\n\xa2\xf25d\x9bn2@p\xf1\xb0\x04\x0cm\xafx\xf0\xee\xa9\xe0\xfb\xdf\x0c^\xf8g_\x88.\xa1\xa1\xd8ZI\x00\x99\x8b)*\xff\x00+ \x1f\xc7\xc1\xc6qY\xde\'\xbe\xd7\xf5\xf2\xd6Z\x17\x86\'\x11\xe9\x8e\x904\n\xe0\x15\x8d\x83&lt;M\xb7?u\xb3!\x07\xd7vq\xc6\x7f@%\xd3\xe7\xb6\xb5\xfb:\xdb\x17V\x1c\xe1\xf3\xb7\x8e\xb9\xfe\x95\x9dp\xadm\r\xba\xc0\xd3\x07\xda~r\xe7\xd7\xa7J\x85\xfc9\x06\xa3\x1bNQ\x16V\xe0\xcc\xf6\xe0\xb7\xd39\xac\xc6\xf0lr)\x8aWrD\x98\x0e_\x07\xf0\x1d?ZH\xfc1\xa9\xf9\xd2\x0bG,\xf0\x02\xbeG\x97\x9f0c\xbex\xaa\xf6\x9aV\xa1od\x97\x9a\xbb\xc7j\xa1\x98\x18\x95C/ \x8c\x1e\xd9\xfcj\xbe\xa7\xa4j\x1ap\x1a\xa4W0\xc6$T\x8cD\x91\xe4\xb0\xe4\x90Gn\x99\xc8\xf4\xaaa \x10\xfd\xa6\xdbM\x92\x13$\xa4\x042\x920\x01\xf9\xb1\xdb=\xaa\x9d\xb5\xcd\xd4sA\xf6\xf4I-\x83\x9f1BnV\x1e\x875\xb3\xa6i\xd6\xb6\x96\xb2\xad\x9aE,E\xfa4_p\x1ev\x8fo\xfe\xb5U\xbb\xb3\x02\xed\x1d\xa6(#\xfd\xe4bF\xc2\xe4zc\xb63[Z\x05\xf9)#M\xe5\xfc\x80;\xe4nV\xc8\xe0Tw\x1a\x85\xcc7\xf1}\x9aXJF\xd9iY6\xa2\x1cgo\xaf@{U\xab\xdf\x11\xc4\x97Os\x04,`;g\x95\xbbm\xd8\xc7\x8f\xc4\x0f\xce\xbe\x7f\xfd\xa7\xbci\xa8i\xe0\xdcCz\xa9q\xa9\xc4\xd6\xf6\xc8\xc4\x8c\xdc&gt;\x04j\x08\x1cu\xe4\xfaf\xbeP\xd6&lt;\x1f{\xe1_\x08\xf8\xa3\xc4\x9e\x15\x96x\xd0j\x113\xdb\xb9\x1b\xcd\xa5\xa2\xae\xec\x13\x82Q\xe7y\x0eW9\x03\xb7J\xf3\xff\x00\x86\x1e\x1b\xba\xd4&gt; \xde\xc5\xa8^\x99 \xd6\xe1\xbd\rs\x12\x1cK:\xc6\xf3!\n\xc0m"3\x82\x7f\xd8\x1dk\xd7\xae\xfcG\xa4\x87\xb8\xd7\xcc\x8f\x14O\xe1{{+\x89@`\xd1\xde\t\x03on?\x85NH\xeb\xd7\x83]\xaf\xc3\xef\x8d\xd6\xb6v:\xe7\x88\xb5\xb7V\x91u\x98\xed\r\xfcV\xe1\xbc\xe3\xe5\x1f\xdd\xe39\xda\x81\x01R@8\x97\xa0\xcd~\x84\xd9\xea\xf6\xf6\x80\xdb#\xac`M\xf2\xc7\x19\xdc\x1b\xe5=\xce*\xbd\x8e\xade\xf6\xb8\xae\xafn\xa3\x19\xdd\xb9\x08\x00*\xe7\xdf\xbfJ\xab\'\x8c&lt;\x0fgyq\x1b^\x95\x9f;\x96&lt;t^\xed\xe9\x8e\x9f\x9dX\xb4\xf1\x1f\x815x\x80\xfe\xd1\x8eFa\x8f\xdd\xb8\xca\x1e\xbb\x88\xceq\xc1\x1cd\xf3V\xedd\xf0\xb5\xfe\x9c\xdf\xd9\xda\xc31\x95\xbeRQ\xd1\x81\x1dr1\x92?Oz\xc9\xbb\xb2\xd2\xb5\xc4\x9a\xca\t`H\xb6a\xa4\x0e\x9bF\x08\xe4\xa6x9\xee2z\xd65\xf7\x83\xect\xfdiu\x11s7\x9e\xe9\x8d\xcd!hYq\x8c\x8e\xcb\xc1\xeaqTo\xac\xee\xed\xaf\xe3\x91%H\xd5Wc:\x02\xc1\x90}\xd1\xd3\xf3#\x8e\x9c\xd5-kL\x9a8`\x96\x19Z\x1f1\x88\xe1G\x07\xae\x18v\xc8\x15\xa3\xa3\xdcO,G\xca\xb3\xdb\xb9\x0e\xef0\x80\x18\x01\x93\xdf\xda\xb2\xb5\x13$\x17A%\x9e"\x92\xc3\xe6,R\xb1\xf3\x14\x9e0\x00\x04z\xf7\xadO\r[[Oes-\xd0(\x92D\xa8\x1bx\x062?\x8b\xfc\xfa\xd6\x16\xa9s;\x05Ib\xdb/\xda\x01\x86gv\xc3\xc4\x01\xce\xe1\x8c~Y\xaa:\x95\xe2\xdci\xb3F\xd7\x12\x84i?|#8\x02&amp;\xe8\x07\xf9\xef_1~\xd4z\xf4\xf3x\xae\xca\xfe\xde\xe8\x88\xf4\xb9.%\x9cI8(\x99(\x88J\x9e\xa4)r\x01\xc7;y\xaf$\xf1\x0e\xb1)\xf1\x8e\x95\xa2\xea3,\xd1x\x8bD\xbc\x1as%\xcf\x9b\x0b\x07\x84\xba\xe4\xae|\xb06\xee\xc6\x0f,k\x94\xba\xd6\x9bA\xd2\xb5=?Kl\xcdo\xa8\xea\x91Z\x12O\x9b\x93o\x1c!C\x1cpIr=p:sU5/\x1a\xea\xd0\xc3yl\xe6k\xe4\xbe\xbcmB\x19\xc4\xa1&lt;\xdb\x88&amp;H\xc3m\xfe\xe7\x96Y0q\x9f\x98\xe3\x81\x9f@\x8b\xc3\xcf\xa3\xe9\xb7~\x1e\x8e\xc5&amp;\xb7\xba\xd5\r\xdc3\xcf!A9E1\x97\xdcp3\xf3*\x91\xec+\xef\xadK\xe2u\xb5\xce\x86\x9a\xe5\x9b\xcbh\x92\xc1\xe6\xd9\xac\xc9\xb5\xc1\x1c0py\x1c\x9a\xe1&lt;G\xf1\xc1\xe2\x80[M\xa8\xa3\xed9y\x02dd\xe7\xa7"\xbc\xd3\xc6_\x1b\xc4\xfetzN\xbdr|\xb6\x02F\x93\x19\'\xfb\xa0g\xee\xff\x00\x87J\xf3}O\xf6\x83\xbd\xd0\xa5k\x9b-JCv\x92\x85Pf*\x17 \xfc\xc0\x8f\xa7\xebV\xf4\xff\x00\xda\xfb\xe2\x1a]\xc4u[\x98\xef\xed\xe3;|\x9b\xab\xf7\x07\'\xb8e\xc1\xfc\x0f\x1c\xd7w\xe1O\xda\xf6(\xef\xad\xfc\xd4\xb8\xd3\x1a \\[\xc5(\xb9\x86C\xee\x1fi\x07\x9e\xb9=\xeb\xd4W\xf6\xb7\xd1\xde4\xd3!\x9bL\x8bU6\xe2Ch\xba\x81\x92+\xc4b9\xd8\xc0a\xbaq\xd3\xde\xba\x8f\x06|e\xf0\xf6\xb9+\xd9\xdf\xdf\xff\x00d\\"\x07\x96\xda\xe1\xb2\xad\xc8\xf9\x91\x86B\xc7\x9c\x0c\x1e\xe4Wg\xa3\xfcH\xf0\xb7\x8c\'\xb9\xb2\xb9\xd5,\x12\xe0\xb0\x0e\x8b\x8d\xea\x00\xc6~\x87\xd7\xa7#\x9a\xd7\x9b\xc2\xd1i\x88B\x02|\xe0\x8d\x0c\x8eA\xda\xa4\xe4\xe4g\xd0\x1e\x99\xaco\x88\xba\x0b\xb6\x96\xda\xad\x98fkv&amp;5\xf2v\xb3\x0e\xc3\xe9\xd6\xb1\xfc\x15p&amp;;f\x81\x0b4\x7f\xbd\x0e\xc4\x80x\xe0\xe0qY\xbe \xd6\xed\xed\x8c\xf3\xddA48\x94\xac^d\x99P\x989\xc0\xf4\xce9\xae\x0f\xe2\x0f\x89\xa0M\x11\xaf\x06\xb0Q\x9cE\x12E\x11`&gt;\xf0;\x8e\x07N\x07\xe7_,x\xe3\xc7\xb7^!\xf8\x91|M\xbckf\xbb\xe4\xb9\x95p\xc5J\xc6\n\xe5pK\xaeH\xc8\xc7_\xa5y\xc7\xc4=^\xd7\xc3\xda/\x86\xafc\xd6!\xd9\xa7Z\xcdl\xd7Q\xc0Lbq"\xdbd \x01\x94\xec\x0er@\xe0\xf4\xe6\xb9\x8d7\xc5\x11\xcc\xdf\xdb\x92D\x9fe\x9d\xa5\xbc{\x98P\xc72[\xc5w\xb5\x9c\x06\xc8g\xc0\xc8^\x87\x8c\x91\xcdn\xf8\xf2=Z\xff\x00P\x8fQ3&lt;\xb7w\x06I\xd2[vI!\xb9\x01v\xeeP1\xb0\x0e\xa78\xfb\xcd\xc7J\xeb&lt;)\xab\xea?\x18\xbe\x1cY\xe8\xfe)\xf1\x07\xd9\xaf-\xb5\x0b\x8b\x8b{q\x1f\x1eAl\x06^\x9c|\xc39\xef\xd0\x11\xc8\xfa\xcb\xe2o\x8a5;k\xfb\x96\xbbr\xa8e&amp;V\xdc]\xa6*\x08\xdc\xd9\x03f3\x8c\x0c\x83\xd7\xb5|\xfd\xe3o\x88\xbe"y\xe4\x82\x02\x193\x9d\xd1\x8e1\x9e\x9e\xb9\xaem\xb5\rCR\x99\xc3#\x84$3\xe5pA\xc1\xe6\x9fe\xe0\x9dWP\xb5\x8c\xa0\x8a\xe3\xcel\xe4\xa8$s\xef]\xbf\x80\x7fgc\xa9_\xb4\xf2\xe9\xbb\xa6G\x0c\xcb\xe5\xf1\x8f_N\xe2\xbdf\xc3\xf6h\xb4\xb2\x8duK\xff\x00\x0bC} \x04\xa41\xb0\x18\x05H\xc9\xc7=\xfab\xa9\x1f\xd9\xd2$\xd5\x13W\xd1\xb4\x1b\x04\xb9X&lt;\xa8\xcbG\x99\x13\xb9^q\x8e@\xe7\xda\xabE\xe0\xff\x00\x88~\x1e\x99ff\xba\x95\xadX\xac\x8b\x18\xc24g\xaaHH9\\\x80p;\x81\xcf\x15wM\xd4&lt;k\xa5\xeb\xb1jz]\x8c\xb3[\xb0+uo/\xfc\xb5F\x1c\xe1\xca\x8d\x988\xc0\xce=\xeb\xdd~\x0f\xfc`\xb3\x9a\xd0xW\xc5\xbel\x91\xd9D\x16\xc6\xe2|\x89\xe3\xeeT\xff\x00\x0b\x01\xd8\x82zW\xb0Mw\xa7x\x9b\xc2\xdeQ\xbak\xa7EY!x\xe3\x00\x80A\x007&gt;\xff\x00\xa5y\xfe\x9f\xa3\xbe\x81\xe2\x1dKN\x96\xc6m\xb2\xdb4\x9eb\xe0\x06\xe9\xca\x92Er\x1f\x12la\xb2\xd2\xa4:\x88M\xe8|\xa5c9bA\x01\xbac\xe9^#\xf1SY\xbb\xb3\x85\xed\xd5\xc9H,\x9d\x82\xa1\x00p\xa4\xe4\xf7\xe3\xad|\x91\xaa^K\xa8\xf8\x88\xc1\xa4\xa4\xa6_\xec\xf9\x9ac\x1b\x04\x91\xed\xda\xe67\xf37g\x86\n\xa1G^\xa6\xb1&gt;(k:o\x8a|\r\xe1\xed"\xc7\xcdy\xe5\xd6n\x8bK\x0b\xe1\xe59\x12\xa0w?{\x03$\x92\x07n\xb4\xe8"\xba\x9f\xc40\xe9\x1a\xb6\x9e\xab\xff\x00\x08\xf5\x83A}f\xdfq\x92ks\xf7\x9cr\x01\x91\xb3\x90\t\xe0\xf1U&lt;+w&lt;\x96W\x16\xd3\xe9\x98\xb2\x94\xcb\x1d\x9d\xa0\x9baX\xc1- -\x9e\xe0d\x1e\t\xc7 W\xa3x\x07^\x96\xc3\xe1\xfd\xa5\xdcV\xd60\\\xdb^Mf\xd1\xdd\xb9-,Ck#p\x08\x05F\x01\xe7\xf8\x87Z\xfb\x1f\xe2\xd6\x9bo\xaa\xbd\xec\x16Q\x1c\xae\xf2dP\x089\xeck\xe6_\x13\xe8\x0f\xa7\xdff\xe9\xb6obW\xca\xc9#\x1e\xa0\xe3\x8af\x8byk\x14\x0c\xda\x85\xe4Ed|\xc4A\x03\x18\xec\xc4\xe3\x15r\xcf\xf6\x95\xf0?\x865d\xf0~\x83\xe0\xadK\xc4\x9a\xd4\xac&gt;\xcd\xa5\xf8J\xc5\xefn\x00\xeed\x08\xa4D\xb9\xc0\xcb\xed\x19#\x9ek\xd2\xbc3\xe2\x8f\xdb\x19n\x8d\xdd\xdf\xec\xb96\x93a!GA\xe2\x1f\x15\xdb[O\xb4\x8e3\x18Y1\xc7c\x8a\xf4=;\xe2\xef\xc7-$*\xea_\x01\x92\xea\x04B\xf2\xcb\xa4x\x82\xd6\xe2H\xd4u`\xa1cf\xfa\x0c\xf5\xe9\xe9f\xc7\xf6\xb3\xf8U\xa9\\\x7fdx\x92y4K\xb7P#\x8b[\xd2e\xb5i\x89\xfe\x10\xee\x00\'\xe8I\xe3\xd3$\\\xd4nt_\x15\xcd5\x8b\xebp\xccc\xd8\n\xa5\xc9h\xe3\x0c\x0b\x00Jpx\x1ds\x9fj\xc2\xba\x8e\xfa\xc0\xfd\xae\xd2\xd8$0!B!B\xe8\xeb\xfe\xd0\'$d\x0e\x835\x8fas*]\x0f\x12\xa6\xaa\xb6\xf2\r\xc9\xe5Etd\x8d\xf28U\x0c\x01C\xc7\xdd&gt;\x87\x9a\xf7O\x80~9\xd4M\xd5\xbd\x86\xa5"\xf9sD\x08_7\xe6W\x1cm`3\x8c\x82O\xe1^\x83\xaci\x8d\x13H\xcdk$\xb1\xba:\xc5$\xcc[fA\xea\x07j\xf3\x7f\x8bZV\xa4,A)\x1cm$N\xc3tY\x0f\x80\xbfw\xdf\x83\xd7\x15\xf3O\xc7}V\x7f\n\xbbjZ\xa4\x11\x98\xa3\x822\xbef\x14\xc8\xcf\xf2\xf9\x7fR\xa5\xb8\xf5\xc5|\x8b\xa7k\xdau\x97\x89\xbcV\x9a\xd1cu\xa6\xf8\x7f\x10F\x1b\x02)\xd1\x8e\xc8\xc1\xcf9\x0e\x06=Eh\xf8\xeb\xc1\xd7\x90\xfc?it\xf1\x18\xd3#\xd4.\xf4\xab\xfb\x84t\x12\xd8;G\x04A\xa4\x05\x81P\xfe[\x95q\x9e\x01\xce\t\xc5C\xa8\xdcj^\x1f\xb4\xbd\xd4\xf5MC\xed6\xc9%\xa5\xac\xb2\xc7\x01\x0e\xbb@UbN7\x82]\x8es\x8c{\xf1T~\x17xJM{Y\x97\xc3\xf1\xbc\xc85\xbb{\x9b\xb2\xf3/\xca"\n\xe3\x82O\xca\xc4\x8c`q\xf3u\xad\xcf\x01\x1f\rx\xaf\xc3O\xa8\xea1_X[Ep#\xbb6(\xd3\xc9\x1d\xe6\n\xb0\xd8:F\xea\x81\x83z\xc6A\x03\x8c\xfe\x9d\xea\xff\x00\n&lt;6\xd6\xa7Q.\xeb3d\xcf\xb0\x96\x04\xfb\xfb{\xfd+\xe7\xcf\xda\x0b\xe0\xae\xbb0\x87T\xf0\xfe\x9b \x908U\x8e5\xc9\x95Nz\x0f\xcb\x93\x8a\xf9s\xe2n\x81\xe3O\x0e\xac\xf6s\xc6t\xfb\x89\xa5eO\xdf\x8c\xc4\x83\x86$`\xab\x1ex\\\xfb\xf6\xae\xa7\xe1\xb7\xed\x15\xe1\x0f\x82\xde\x1f\xb0\xf0\x1f\xc2\x1f\x00K}\xa8_\xb6\xd4\xb3\xd3\x9d_S\xd5\xef\x19O\xcd,\xc4\x06\x03\xae\x07\n3\xd78\x06o\xda3\xe3o\xfc\x14\x17\xe1\x06\xa5m\xe1x\xfcL\xda.\xbdy\xa1I\xabM\xe0\xcf\x0fiw:\xc5\xce\x9dc\x12nk\xab\xa7\x00\xf9j2\xa0\x9c\x15\x1b\xb2X\x01^\x19\xe1\x1f\xf8*\xaf\xed\xe3\xa2\xea2]k\x92I\xe2\x9d#MId\xd4\xae\xac4iH\x85\x16=\xf2\x17x\x91\x94lF\xdc\xc3p*1\x9e\xa0\x1f|\xf89\xff\x00\x05"\xf8g\xf1\xce\xd7\xfe\x11\x0f\x8c~\x14\xd3e\x16V\x8c\x97\x1a|\x90\xf9\x87\x0c8f.\xc4\x8c\xe5\x80 \x82\x08?\x8e\xc6\xa0\xfe.\xf8H\x90x\xcf\xe0\x1e\xa1u\xabx|\x82f\xf0f\xa5y\xf6\x89 \x8c`\xb3Z\xb8PJ\xf2\xa0#\x9f\xe2\xeb\xc7&gt;\xbd\xf0k\xe3\x1f\xc3\xbf\x8d:t\x13xv\xfeHg\xb9\x9bl\xd6/\'\x97,2\xa8"H\x8fP\xac\xa4\x80r~\x99\xad\xcdC@M\x0bY\xb8\x16\xf7\x89\x11\x8aO\xde\x06\x88,\x98\xfa\xe0\xab\x9c\xe3\x9c\x8a\xed&gt;\x18k\xba\xbax\x82\x1b\x86-$\xbb\xc30fL8\x1d0\x06\x0eq\xfdk\xe9}.\xd7\xfe\x12+\x0bMJ\xdaU\x8c\xba\x152.AF\xeb\xca\x91\xe8\rp\xdf\x18&lt;\x1fx\xf7\xee,\xe1\xccAQ\xdaG\x979\xcfV\xc1\xe8z\x8c\x0fZ\xf9\x1f\xf6\xc1\xf0\xb6\xa9s\xe1\xd4\xb9\xb6\xb3\x85gk\xb1\t%D\xa3\x07,\x84\x8e\xc4\x15\x1c\xf6\xfck\xe1{m\x02\xea\xd7R\xd6&lt;G\xacJ.\xa3\x8a\xe8\xfd\xb2IT*\xdc;\xc8\x07\x96\xc4\xe0.\n\x86\xcf\xa2\x9a\xebn4\xc9\xef\xf5\xed?N\xd2R\xc6[\xc9t\x96\x93Y\xd3\xef\x1fp\xbaV\x9442\x8cg\xcd \xe5z\x01\xf3)\xcf\\u\x1f\x18tM;Y\xf0\xf3i\xd6\xe6xn\xa5\xb3\xb7v%\xd4E&amp;\x15\x8e\xe5\x00\x92\x8a\n\x15\xc1\x19\xc8\xe9\x8ek\xce\xbe\x1a|Q\xb5\xd1\xbcq\xa6\xe6).!\xd3l\xae\x13P\xb6\xb8\xc6R"\xa4\x800\x7f\xbc(\xd0\xfcu\x7f\xf0\xe3\xc7z\x9c\xda&amp;\xb7&lt;0\xdcZ\xc4\xb6\xd2Y\x95\x8c\x98&gt;\xfa\x86\x0cFX\x169?Nk\xf6\x1e+\xab\x1b\xbbc\x02C+\xca\xcc\x15\x84`\x81\xb7\xa9\xcf\xb7\x1f\xca\xb3\xfcU\xe2\xff\x00\x0b%\xe0\xd2\xace\xb7\xfb[\xc2V\x01,8\xf2\xc8R9\xcfQ\x9cq_\x9e\x7f\x1e&gt;\x14\xfcD\xbf\xf8\xa5\xa9\xdfx\xfa\xe5\xa5\xd1\'\x94\xbcw\x9aq"$`\x1b+" ,A\xf4\x03\x92\x07"\xbb\x7f\xd8?\xe1\xcf\x80\xbc\'\xf1J]b\xde+KK\x8b==\x9bO\xbd\x9bN\x92\x18\x1eg*P\x01"\x96\xc8#\x04\xf1\xc9\xf7\xc8\xf2/\xf8)^\x99\xe3\xed\x17\xf6\xac\xf8\x97\xacxW\xc4Z\xa6\x8b\xe29\xb4H\xad4\xfb\xeb-fkf\xfb\x15\xc5\xb9\x8f\xc9&amp;\x16\x1b\xd5\xd9\xd9^&lt;\x94!\x97&gt;\xab\xf9\xd5\xf0s\xc4\x1f\xb4\xb7\x82\xb53\xf0\xb3K\xd6|Qca-\xf3\xa7\x894\xf9.\xee\xbe\xcb\xce\xd4\xb9\x0e\xe1\x82bETV \x9d\xcb\x8f\xee\x0c\xfd?\xfb6\xf8\x1a\xcb\\\xf1\xae\xa9\xe1\x1doL\x89\x92\xdb\xc3W\x8bx\xdfl\x95\x1d\xa4\x92\xe1Z\xdeF\xce\xef\xe1\x91\xc09\xe9\x9a\xf5\xcf\n\xdfx\xbf\xe0\x87\x8b\xff\x00\xb0-\xafe\xbd\xd3m\xe0\x89\xd2\xde[\xd4\xde\x01\x01Y\xd0\x96\xcb\x058\xe0\xe3\xb5[\xf0\xe7\x8cu\x7f\x87\xdf\x16_\xe2\xef\x82c\x8a]/T\xba\x11x\x8fN\x80\x87\x8eg\xce~\xd0\x83\x8d\x8f\xc6\x1b\xb7=M}\x99a\xe2(\xbcY\xe1+}e"\xf3\xad\xe5E\x10\x95!\xb0O \x0ey\xc0\x07&amp;\xb7\xfc=\xa5\xa6\x9f\xa9\xdb\xdf\xc2cYX\xaf\x95(\xce\x17\x8eO\xb1\xeb\xce+\xea\x7f\x82\x171\xdf\xf8s\xc9\x82yO\xd9\xd4\xaa\x89Ws1#\x96\xdcq\xc6{{\xd6\xaf\x88\xb4\xd9\xafn\x9e+].)K\xd8\x94\xcd\xc2\x92\xa0\x8c\x02O\xe7_\x1f\xfe\xd5&gt;\x1d\xb7\xf0\xe7\x84o\xf4y&amp;)=\xbb\x17\x8eT\x8f\x0c\xc3%\x89&gt;\xc3\x18\x1fQ_\x0fCc\xa5\xdf[\xeaZ&lt;\x96\x04\xc36\xa3y9\r \xc1\xc8\xf2\xd3z\x91\xce2\xed\x8f\xf7y\xae\x17O\xf1\xef\x84\x07\x88"\xf0\xa5\xc5\xe1]SL\xbb\x8e\xde\xc6\xf2W\x1b\xae\xed\xc0\xc7\xd9\xd5\x80\x057\x02\xca:\x80H&gt;\xe3\xbf\xf1\x97\x89|\x17\xa7\xf8\xe2\x0bk\x8b\xe4\x97L\xd5\xb4F\xbf\xd1.n\x00Lg\xf7L\x92\xed\'\x12+|\xa5{l\xc8\xc8bG\xce?\x0fln\x9f\xc7\x9a\xed\xac\xf2\xd9Oio\x14\x8b=\xc4\x8ae*\x19\x82\x86\xe0\x82\x00\xdd\x8d\xc38\x07\xa5{n\x91\xf0\xab\xe27\xc4\xff\x00\x04.\x85\xf0\xb7\xc2\x16^)\xb5\xd2\xaf\xc0\xbf\xb8\x92\xe8Fc\x90\xc6Da\x1eE_1B\xee\xce\xd2@$W\xeat\xfa\xe5\xab_,\x16\xaf(\x9d#F\xb90H\xc0\x08N2\xe3\x8epq\xc1\xc7Z\xe6\xbe+\xdbGt\r\xfc\x1a\x8c\xd0\xa0\xff\x00\x8fiaP\xae\xde\xe5\x88\xe7&lt;\x9c\x01\xce3\xda\xbc\xe2\x07\xd4\xe4\xf1\x02i\xda\x96&amp;\x80J\x8e\x16\xe6\x1d\xd1\xdd 9&lt;\xe0\x10s\x81\xd3\xf0\xae\xb7]\xf0\xc5\xbb\xc8n\xf4\xdd\x02\xde\x01&amp;\xe9\x0c\n~bI\x1f"\xb3c\x8e\xf8\xeb\xc7\xb5y_\xed\x01\xfb2\xfc3\xf8\xdd\xa7[\xdb\xebr\xea\x16\xfa\xa6\x9a\xfb\x13]\xb3p\xce\x9b\xc1\xcc\x049S*\x91\xdf\x1cc"\xbex\xbe\xff\x00\x82ZY[\xde&gt;\x98\x9f\xb5\x0e\x83xabb\xb0\xd4t\x8b\x88\xdaD$2[\xba\xf1\xbfn&gt;\xff\x00|W\xa1|-\xfd\x90t\x8f\x86~\x1c\xbfK_\x15\xdb\xeb\x1a\x9d\xed\xc2\xbe\xab\xa9A\xa7\x96g`\x0e\xc8\x82\xb66"c\n\x01l\x8e\xbd\xabB_\xd9SK\xf8\x9b\xa7\xdc\xd9k2jw7\xb6\x9f\xbc\xb3\x91\xd1V5$\x82\xc0\x0c\x03\x9e8\xe4\x8cf\xb9k?\x80\xfe%\xf8k\x05\xf6\xaa\x9aJ\xdcZM1Im\x16\xd8\xfe\xe9O~\x01\xe3\x8e}\xf1^\xa3\xf0zKO\r\xdb\xdbi\x88\'\x8a\xd9\x0f\x02x\x9f`-\xd8q\xe9\x9a\xf6m\x17\xc3\x92\xf2\xf6E\xe6\x8d\xbf\xd49$*\x82A=\xba\xe7\xfa\xd7\xd0_\x01\xaed\xb5\x88Z^\xdc3$1\xe1\x90\x9f\x94\x9e9\x07\xb9\xafG\x9a\xfe\xc2\xee/\xb1M\xb8\x00O\x96\x80\xed$\xfdGlf\xbe+\xfd\xbd\xe3\xb9\xd2lu\xbf\xb1[\xa0+\x00\xf3\x1eI\x89p\xbb\x81;F9\x1cW\xc0\xf2k0Y\xc7\xaa\xc9%\xa3\xdc\xeaQ\xc2\xa6rF9u\x04(\xc7\x04\x9c1\xfc+\xc2\xfcS\xe1cu\xa9j\x960\\\x87v\x90\x84\x82l\xc5(|\xa9eG\x03\xe4b\xa4\x80\xd4\x9e\x19\xf8\x8b&gt;\xa7\xa5\x9f\x86\xfe*\x8eh/4\xd9\xe2\xff\x00I\x9e\xd4\x19p\xa1\x94&gt;\t\xc33\x06\x01\xb0p6\x022Mz\xa7\xec\xbd\xf0\x0bS\xd4|y\xe2=KQ\xb6\n\xda\x94q\xdb[\xd9*\xaa\xacH\xee\x8d\xbdNr\xc1\x82\x92s_\xa1\x1f\x0c~\x15x?\xc1\xfe\x1b\x8e\xc2[\x9d7M\xb3\xb4\x1fg\xb7\xfb^\xd8\xa3\r\x80X \xc1\x03$g\xa9\'\x1d\xab\xba\x8a\xeaP^k\')y\x12\xed\x95g\x93\x01\x93\xa1^3\xc7?\x98\x15\xa5\xaaYA\xe2=\x1e(\x85\xc2[O\x80\x16c\x89\x04\x01A\xda\xca\xbd\xce2?\x1a\xf3\xaf\x12x\x7fV\xb9YSK\x06\xe2\xe5\xe3\xde\x977n\xd1F\x1dXr\x02\x82FF{We\xe1\xebm3\xc7\xb0Ch\xb3\xcb\x14\x9eZ\xa4\xa9*\x86\n\xea0J\x9c\xf1\xecz\xfbsI\xadx\x13\xc5\xfe\x18\xb01\xc9\xa2[\xeb\xb6j\xc5\xa3\x82\xe6 \xb3\xf9C\xae\x1dNT\xe7\x18nz\xd6J\xf8\x9b\xc0\x91\\\xad\xf6\xb0\x9e-\xf0\xed\xc1\x88\xa7\x93{\x047\xf0\x95\xeaUX\x80\xe0|\xb9\xce;c\xbdQ\xba\xd7&lt;\x15+\xa6\xa7\xa3|K\xd1g\x12\xe0\xdb\xcc4\x19#rI\xfb\xa7\x18\xcf\xbf\x15\xbfii=\xc5\xc4\xb1\x93m;2\xab=\xd46\xa6\x12r;rs\xd7\xa7\x14\x93x.\xda\xf5&gt;\xc7{\xa6;A\x1f\xfa\xe12\xf1)=\xfeS\x93K\xa5|*\xd1-fu\xb4\xd3\x88I9_\x90\x85\x1e\xeaI\xe8?\xadt\x9e\x1e\xf0#\xc5w\r\xb5\xac\xf2\x98w\xfc\xc4\xbeTp{W\xa8\xf8\x1bD\x9bEO)g\x86D(Y\x98n\x04r;2\x8ek\xb7\xb1\xb0\xb6\x92\xc6;\x99\x9d\xc8\x95\xfeV\x85\x0b:\x9fq\xd8\x7f\\W\xcc\xdf\xb7\x1f\xc3\x16\xbd\xd1\xff\x00\xe1(\xd3\xc3)\xdc\xd1]5\xcae\xd4\x00w\r\xbd2W8\xc9\xfc\xab\xf2\xe7V\xd6%o\x8f\x92\xe8:j*\xdb\x0b9@\x8f\xce;P+.\xce\xdc\xbe7\x03\xe8H\x03#\x9a\xe4~ \xe93E\xf1\x1a\xdf[\xd3\xb4\xb7\xba[\x8b\x99&amp;\xb9\xb5pJK\n\xaa\xb1\x07\x1c\xa9;\x0e\x0fN\x0f&gt;\xbco\xc6\t\xf4\xc9`\xd3&gt;&amp;|=\xf0\xfb\xe8\xf7\x16w3&amp;\xabo\xf6\x96\xbb\xb3\xb8\x0f\xf7dGp\xb2(Q\x95*S\xef0\xc6G5\xf4W\xec{\xe2=k\xc56\x89\xadK$\x96Ok\x12\xa3_O\x06\x0b\x05BT7$/r\x0e{W\xd1_\xd92\xfcO\xb3\xb7\xba\xd6f\xbb\xb8\xb4\x10\x86\xb3\x87;\x96B2\x1aB\x01\xc098\x1c\xe7\x04\xf1_E\xf8\x86\xd8h\xba\xac\x97\x910%\x9f\'+\x9c\xaf\xa7\xe7\x8a~\x8ds\xa7\xea\xf7\xa1\xee\x11\xe1\x90\x0c\xab@\x83\x18\xfc\xeaMZ\x14KF\xb9\xd5%k\x85/\xb2\xdc\x84\nT\x1fP+\x9f\xf0N\xb9\xff\x00\x08\xe7\x8b\xa4\x9e\x16o&amp;\x1b\xa5W\x8f\xcb\x079\x07\xd4\xfbW\xb3\xd8\xeazd\xf6\xd0\xcf\x7f\x0c\xae&lt;\xce\xaa\xa0\x1f\x98\x1c/^\x9f\xe0*}n\xc7\xc3\xf2yV/\xa5\xabK\xe5\x9c\xccT\x02\xb9\xe9\x8e\xb9\x1e\xa2\xb98\xbe\x1a\xe9\x97\xbe!\xb9K\x94\xb7*#P\xb0-\xb2\x84L\x0c\x9c\x11\xcf?J]G\xc3\x9aN\x8e\xef\xb2\'U\x8d\x93\xcd\x8d\x1f \x86\xe0\x11\x9csO\xba\xd1\xaet\xcb\x89\x0b\xba\xb4\x96j\x1eE\x0ev\xb4dt\x1cu\xff\x009\xae\xa3\xfe\x10\xfbA\xa5\xdb\xde\xda\xbb\x18\xe4\x88&lt;i+\x9f\x940\xc9\x1d=\xaa\xb7\x86\x9a(u\x05Cj\xbb\x03\x16*\x1b\xb7N\x0fc\xcdu\xfaM\xa5\xd2\xdc}\x92i\xcf\x95\xb8\xb2\xe6B\xed\xd3\xa6\xe2\x07\x1e\xd5n\xd7\xc4\xb2[Z\xad\xb5\xb7\x9a\x1e9?vU\xf6\x86\xe7\xa3\x11\xdb\xbf\xd4\n\xc1\xf8\xe7\xa7Z\\\xfc\x11\xf1\x02\xeb\x90\x8b\x83\xf6)f\x8eC\xcb\x82ps\x93\xdc\x0c\x8f\xc6\xbf\x11\xa0\xd5E\xa7\xc5\x98u\x83\xa3\xdb\xcat\xeb\xadU\xc1\x92B\x0b\xbceV&lt;\xf1\xc8\x06@\x7f\n\xeb\xfe\x1cx\x1e?\x88\xf0\xdcx\x8b\xc4\x17\xd2$\x1aN\x95\x1c\x13-\xab\xedy\x92F\xe9\xd3\x1f}\xbdz\n\xef\x97\xf6x\xf0,\xfe-\xd5\xe7\xb3\xb6\x0b\r\x840\x19\xad\xe5@VF*\xb88\xe9\xd8\xe7\xdf\x15\xde\xe8\x7f\x044\xeb8\xa1:%\xca\xc1\xa5\xba\x0b\x9dN\xcd~Su(\xf9W8\x1ft\x06&lt;g\xd2\xbd\xcf\xc2&gt;\n\xd34\x7f\x0c\xc7\xab]\xde\xca\x1e\x7f-1k\n\xaa\x00\x14\xe3\xe5\xce\x07\xd4u\xaf\xff\xd9'</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>zuckerberg-231.jpgSundar Pichai</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00K\x01,\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xf8\xe2\x0b\xd8\xd6\xdfz\x19\x15\xa4l8*N)\xd1*\x94\x01.\x99\x82\xc9\xc9T\xce:U\xa8\xc93\xab\xc6\xdb\x90\x92\x1d\xc8\xe9\xc6h\x89\xca\x84\x903a\x8eX2\xf49\xf5\xfc\xaaV\xdc\xecB\xc4\xcaKg\x1dC\n\xb3\xe1\xef\x11\xeb&gt;\r\xf1\r\xa7\x8a4)\x9a)\xecnVp`\x18\x91B\x90v\x82x\xc9\xe7\x8e\xb5\xfa\x01\xf1\x93\xc3\x91\xf8\xff\x00G\xf0\x9f\xc6\x1f\x08\xc1\xf6\x91\xad\xd9Y\x89\n)%\xa4i\x15H8\xea\xd9-\xd3\xfb\xa7\xd0\xd7\xdb\xd7\x0f\xa6\xe8:\x8e\x8d\xe1\xc8\xad\xb0\xd6\x10$%Ct\xc2\xf0q^\xbd\xe0\xcd]a\xb0E\x92\xe9K\x08\xb7 \x04\x01\xd4\xf1\xf5\xe2\xb4\xee\xfcK%\xc6\x98\xc1\xed\x04\x97[\xff\x00q\t\x88\xe5\xc7\xb1\xa6\xc9\xa1Zj\xe8\x97\x1a\xbd\x8cC\xca"H\x99\xa7\x0f\xc9\xe3\x1ct\x19\x07\x8f\xadX:M\x94\xb2}\xa2[\x18\x11\xda&lt;eT\x80y56\x9b\xa2\xdb\xa1\xdbol\x81X\xfc\xc0\x0e\xa7\xf1\xae\xcbE\xba\x86\xda\xc1\xad\x8a\x15X\x97\xa2\xaf\xde&gt;\x9cW\x9ex\xe1^\xee\xe9\xee\x8d\x9c\x89\x0cL]\xa3G\xc3&gt;x\xc6=\xb1\x9a\xe6\xbc\x17\x7f\xa9G\xe1\xbf\x10\xe9w\n\xea\x89t\x8c\x81\xf9\x0c\xad\x809\xfc\x08\xfc+\xc5|qs:_\xcb\xa7\x1b@ \x0f\xfb\xaf+\xe6?x\xe4\xf1\xdb\xfc+\x9c\xd4\xf5\xe5\xb9\xbb\x16\x96Q\x87\x9a\x14`L\x8e\x00\x1c\x0eq\xd5\x8f\xb7\xb5+G\x13HL\xf1\xc77\x9d\xb7rF\xfb2p9\xc1\xe8}\xbd\xab\x1f\\\xd3\x15\xde\xe9\xa1\xb3\x96w\x89\x94\xc7\x17\xdd\x00{\x13\xd6\xb64\xdbk\x0bm:I\xde7\x97|!\x1fp\xe6&gt;\xf8\x03\xbe3\xd6\xb0d{\xb2n"[\xd9Z\xde&amp;&amp;\x14p\x00\xe4\x0e\x0ey\xac+\xcb4\x8e\xda\xda{\x16[{\x88\x1c\xb3\x048W\x1e\x80\xf7\xef^\x9f\xf0\xfb\xc52_\xe9\xf6\xff\x00j\x84\xdb\xaa\xc6C)\x91\x833z\xf0&gt;\x95\xd3\xac6qiR\\\xbb\xa2awa\xa6%\x89\'\x1d\xf9\xfc*\x94\xba\x9e\x9ea\x8a\xce\xd5&lt;\xbb\x98\xe5UU\x1d\x0f|\xb7\xe7XW\xa9\xa4\xd9D%\xd5.\x14\xb6\xe2\xd32\x13\xba\xdd\xb7\x13\x95\xc7Rx\xe2\xb4\xf4_\x10Cyz\xa9:D\xb0]J\x8d\x14D\x88\xb9^\xb2|\xdd\t\x18\x18\xf6\xae\xacj\x16\xba\xa6\x93\xba\xd6h\xdeI\x9c\x8bx\xa4_0\xb2\x83\xd0c\xaf\xaf\xe3Tm\x9a\xdek\xe1-\x95\xd0B\x8cV@\xb1\xe0n\xc5^\x8bR\x89\x91b{\x89b\xdc\xa7\x13,D\x83\x82z\x8fL\xf7\xac-K^\x1aI\x96Ty$i\xce\x19\xa2\x90\r\x8f\xeaGa\x8cW\xce\xbf\xf0S/\x88\x10\xeb\x1f\xb2\xf5\xff\x00\x82\xe7\xbbf\xd5\x1c\x0f\xec\xf5\xc8}\xcc\xc4+\x16#\xa0\xc1\xaf\xce\xbf\x82\xbf\x0f\xee\xbcu\xf1{O\xf0M\xbb:\x16"{\x8f2\x16*V\x14\x00\x12z\x0c\x85\xc8\xf5\x185\xf6%\xf7\x87&lt;9f\xd6\xfaN\x9f`\x91[\xdbF\xac\x92B\xb8\xda\x18u\x03\xdf\xd7\xd2\xb6\xfc\x1f.\x83\xaax\xbe\xcb\xc0\x96\xd7\xd6P\xdf%\xbf\x9b\r\x96\xc1\xb8\x02X\x06\xfa\x12\x0f\xeb^\xb1\xa5\xf8*\xfa[\xe8m|b&lt;\x8b[b\x1aY!+\xb9\xb9\xc2\x91\xf8\x83]m\xde\x8dk$\xc5/\xed\x16y#\x01|\xc2\x85\xb8\xea\x00#\xd8\xd7\xe2-\xc0\xb8\x08\xad\x19&lt;&gt;\n\x81\xcd&gt;\t\x9dA\x8f\xcfX\xc9m\xc43b\xaf\xc34.2f\xc2*\xfc\xc4\x1e3SA!y\x08@B\x8e\xcf\xc04\xd9\nL\xad\x14a\xd5s\xf3\xbb\x9c\x1f\xf8\rC,w\x0e\xbfg6\xc3a\xda\xa5\xdb9)\xcf?^\xb5\xf7\xe7\xfc\x12g\xe25\x87\x8f|8&gt;\x17\xf8\xc2S+xV\xf15\x0b(\xa5\x1fz\xddO\x00\x03\xfd\xd6\x0cO\xa0a\xeb_W\xe9\x9f\x14$\xf1g\xc4}B{\xd6e\x8e;\xc4uR0\xc1w\x10\x06=0\x01\xfck\xdb\xb4Mz]1x\x9c\xednc\x85\x87$\x1e\xd5\xd4x;]\xb7\xf15\xe2G\r\x9cq\xddD\xe5|\xc6o\x9a5\x00\x1c\xe3\xb6s\xde\xba\xf6+-\x80\x92\xda\xf6i\xd8\xdd"\x98\xd92@\x1d@\xc7n\xff\x00\x8d\\\xb1\xd2\xe5\x96Ye\xba\x8dB\xab\x10\xab\xbf\xee\x8e\xbc\xfaU\x9d\x17C?k\xfb\\\xf2\xcd\x1a\x89\x08EW\xc2\x91\xc7&lt;\xd6\xc6\xa8\xf6v\x96\xd2\\\xcb;"\xa0\xc9vl\xae}\xf1^\\\xbe!\xd5&lt;a\xe2\xc3\xa3\xb3F`\xb6\xb8\x06Y-\xe2*\x02\x9e\x81\xb3\xfc\xeb\xa6\xf8\xa1\x0e\x97\xa1\xf8v="\xd0\xa5\xbbO(\x91\xca\xaf\'`\xc8\x0c{d\xfa\xd7\xcb\xbf\x10 \xd5\xaf/\xda\x19\xadT@\xd23\x07\x13\x84\xc1$\x9e\t\xfa\xd7\x95x\x97\xed\xda\x1e\xa1$\x97z\x8b\xcbn\xed\xb66C\x96V\xf4\xe3\xa8\xe9\xf9\xd6\xfe\x9b\xac$:D2\xde\xe7dm\x9f4\xf5\xce:\x1a\xd0\xb0\x9fS\xd5u\xc8/^\xfa(t\xf3\x18\x0b\x13E\x96y2rs\xe9\x8c~U\xad\x7f\xa0\xcbrY\xe0p\xaa\xaed"% 0\xc0\xe9\xeb\xd2\xb9\xa5K3\xa8\xcb%\xd3H\x90\xc8\xbbv2`g\x9esY\x93i\x0bh\xd2Cm\x00\xc8r\xca\xd2?\x01k\x7f\xe1\xd5\xe5\xf42\xbd\xa5\xc4\xdelnI(\xc4\x05\xc6\x07A\xd4\x9f\xa5u\xf7\x16W\xc0\xc3.\x9fs\xf6\x05\xdcVP\x91\x17\xfbB\xe3\x84 \xf49\xcf5^\xeev\xb2\xd3\xda\xee\xea\xf1 u\xb7#p\x00\xb6\xed\xc7\x8cw\xfa\xff\x00\x85q1j\x8f}\x1c\xf2-\xa6\xc6c\x89\x1aw\xc0\x94\x7fys\xfc^\xde\xd5\x1d\xef\xd9.\x0b\xe9n\x19\xed\xa7U\xd8\x81\x8f\x9b\x1b\x83\xd4c\x9c\x1e\x07\xe1[\xfe\x18\xf1^\xb8.\xe5\xb3\xd5\x19 [}\xabf\xf0\xc8\x14Fq\x8cs\xd4\x9a\xdd\xb7\xf1d\xb2\xca\xd7V\xb7i\xbe\xd6\xe9\x0c\x81\xd8d\xfa\xae={\xfe5.\xa3\xe3\x08c\xd3]\xaeo\xa5\x96\tg-\xe5\x0c&amp;\xc2OL\x9a\xe1&lt;E\xe3b.u\x0bY\xc4\xf1*\x10#\x90\xc8\x00N\x9dO\xe2?1^\t\xfb^\xf8KZ\xf8\xc9\xf0\xd6K=\x1e\xe6O\xb5i\x92\xb1Ys\x96\x95\xb0\x08L\x0e\xa3r\xfef\xa0\xfd\x86\x7fb\x0f\x11&lt;\xda\xd7\x8b\xe6\xd1\xa2\xb5\xd4\xac-R\xd6\xcd\x9aM\xcb&lt;\xcc\x17\xccr\xdd\x80\x8c\x01\x8e\xd9\xf7\xa7|R\xd0\xd7\xe1\xdf\xc4+\xaf\x0fjV\xd2B\xb6\xe3\xcex\x9e&amp;\xdcQI*\x01\xec\x06@#\xb0\xc7\xad|\xad\xf1O\xc2\xff\x00\x1b.&gt;0M\xf1\xbf\xc3\xb3]\xa5\xc9\xb8\xddla\x9c\x98\xe3\x88tO\x97\x8cu?\x89\xaf\xaf?g/\xda\xab\xc5\xbe,\xf0\x9c\x1ag\x8dt\xf0\x92[\x03\xf6\xc2\xc4\x1f1\xb6\x8c\x01\x9eMz}\xaf\x8d4\xad^\x11}-\xe4\xd0;\xfd\xe4\xd8S&gt;\xf8&gt;\xdd\xfd\xab\xf1\xe2\xde\x15\xf2CA\t\x00\xf2\xe0)\xe0\xff\x00\x9cS\xd2"\xc1\x8e\xc4\xdcF\x06\xee\xb5-\x92\\&gt;auB\x9b~v\x1d\x17\x1d\x89\xedV\xe2\x91%\x89\x18"\x96#\x1b\xd5\xb3\x8fjW\xb3\xfbH\xfd\xebo \xe0~\xec\xf1\xed\xc55D91\x9b\x90\x85N6m \xfe\xb5\xf4\xef\xfc\x12"\x18\xa7\xfd\xb5l4\xab\x9dP\x08.|7\xa8y\x90\x1c\xfe\xf4\x88\xc1\x03\x1d\xeb\xee\xcf\x86\x96\xb6+\xf1SSGL\xb8\xb6V\xba\x80!\xe3$\x85\xc7\xbe\x00?LW\xbfxz\xdcO\xa7*\xdc*\xa3\xc7\xc42g9\x1ds\xfa\xe3\xf0\xae\xc3\xc2\x1a\xba\xd8!\x8e\x02\xcb#\xf1$\x93A\xfb\xb6\xf7\xc7R}\xfaW]\xa3\xea*\xdb\xe3\x8aY\xd6F\\\x19\x99F1\xe9\x8e\xe9\xe9\xdf9\xad\xdd0D\xf1\xacx\xd8"lK\x9e\x03\x9e\xbc\x03\xc8\x1e\xc6\x97^\xf1\x05\xbe\x9d\x1a\xacr\x80s\x95\x8e\xbc\xbb\xe3\x07\xc4\xfdB-,\xda\xd80\x8egb\xa5D\xbf|v\xc0\xees]\xbf\xc1O\n\x1f\x08\xfc9_\x12\xea\xe0\xdc\xde\xdd\xc1\xe7\\\xb3\xae\x08\xcfE\xe7\xd3\x1f\xady\xf7\xc4\x1dj\xf7V\xd4\xcd\xf3H\xef0\x1f3\xab\xee\n\x998\x1b}=\xeb\xce\xb5\x81gv\'\xb0\xb7\xbb]\xf7\x12r\x1e"p@\x19\xc3t\x04\xf4\xc5s\xde;\xf8m\xa5\xdd\xf8z-K|~i|-\xb1\x99Y\xd3\x00r\xc0r\xa7\xd8\xfbW\x9f\xeb\x9aM\xdd\x9ccO]09 \x1e\x02\xb2\x11\xeb\xb8\x9e\xbe\xd5\x95k\xaa\xeb\xf6w\x1b\xed\xed\x96\xda\x1bPw\xa1#i&gt;\xbc\x1c\x7f\xfa\xab\xa6\xf0\xc7\xc4\r+\xc4:o\x95$\xe5e\x03\xcb.\x01\xc8o\xaf@9\xa9\xaf\xb4\xdb\xd5\xd6,\xc4g\xccX\tY\x1aI\x01\xdc\xa7\x90x\xf7&amp;\x96\xea\xd2\xee`\xd6\xb7\x0c\xe5RB\x16T\xe03z{\x8cc\x9a\x97H\xb9\xbb\xd2/VK\x85\x8d\xd6#\xbeE+\xb8\xfd2&gt;\x95\xd5Yjvz\xbb\xfd\xa6he\x897\xac\x90\xf9jv\xa9\xe9\x96\xf4\x1cU\x1b\x9b\xdb\xfbx\xc4\x9a\x83,\xaa\xea\xcb\xe5\xa2n_\xbcps\\\x0f\x88`\xb9k\xd6\x92t\x10+6\xd8\xa7\x89\xf3\xb7\xdbo\xf9\xebR]\xae\xa3\xa5\xb5\xbb\xb3\xc8\xb1\x98\xc0\xde\x9dY\xb2~o\xcb\x1f\x95-\xb7\x88Rk\xa6\xb6\x95\x9eL:\t|\xde\x98\xc9\xe7\x8e\xe2\xb6\xfc?ye\xa5\xe8\xd2\xd8-\xbc(\xf2\\\xed\x95\xa2\xc9Y\x86s\xf3w\x07\x91\xcf\xd2\x97F\xf1F\x95\xa8YKk\xa7Ij\xe7M\xbchn\xac\xe3\xe7\xcb\'\x94\r\x9errq\xeb\xf8W\x9e\xf8\xb3V\xba\x9bV8\xb5,\xf7\x17\x05%\xf2\xa4\x051\x8d\xdc\xfb\xfc\xa3\xf4\xac}\x1b_\xbc\x97Pc\x0e\x96d&amp;ue\x89\xc6\xe5fo\xbd\x9cz\x7f:\xfa\x8f\xe0-\xa5\xbf\x86|(m\xac\xad\x91T\xc2\xce\xf2\xb1\xc1\x91\xc9\xcf\xe3\xe9\xf8W\x8c\xfe\xdf?\x0et}S\xe2^\x91\xe2H&amp;)m\xaexv[{\xf4D\xf9\x95\xd5\xb7\x06\x1e\xe7p\x07\xe9^5\xf0\xef\xe1\x9e\xa3\xaa\\\xddX\xcbc\xe4YZ!\x0e\xcf\x11b\xf8\xee\x07\xa61\xcf\xd6\xb8\xef\x13x\x0e\xfb\xc0\x9e)\x8fT\xd1m\x99m\'\x90\x99\x0b\x1d\xb8?N\xdd\xab\xd5&lt;\x1d\xe3}\x16}\x06&amp;\xd5\x15&lt;\xd1\xc1\xcc\xca\xa4\x0f\xa1\xaf\xcbx\xb4\xcd\xeaP\xc0\xc5\x81\xc9\x9061\xed\xfe}jd\xb6\x9a\xdc\x96x\x18l\x1f\xf2\xd1\x08\'\xf3\xa9\x12\x14\x11\x8b\xb9#x\x819R\x1c*\x96\xf7\x06\xa6H\xdei\xcb\xc8\xfc\xa0\xe4{\xfbb\xa40C\'3E \xde&gt;]\xb9\xe0\xfa\xd2I\xa74\x8b\xb4*\x02\xa3\x04\x86\xc9#\xd6\xbd\x93\xfe\t\xd9\xe3\xabo\x84_\xb6\x0f\x82\xfcc\xac\xdf\xac\x1aj\xea\x7ff\xd4\xe4\xb8M\xca\xd0\xcc\xa5\n\x81\xd79\xc7\xe6+\xf5z\xfb\xe1\x94\xbe\x0e\xf8\x8fuqh\x83\xec\xd76\xeb&amp;\x9frX\x1f\xb4FX\x90~\x80\x1cc\xb6+\xb3\xd3$0 \x8d\xa0b\xe4\x11+\x13\x85Q\x81\xd2\xba\x8f\n_L\xb6\xa2;\xbbX\xc4H\x98Gq\x92W=s\xf9\xd6\xbcW\xc2k\x88\xed\xc3$\x80\x12\xd1\xc2\x01\x00\x9e\xf9?Lb\xb4\xe2\xd6e\x11\xad\x9d\xb1\x020\xe4\xa1\x0f\xf3\x11\xef\xf8\xe6\xb1\xbcI\xe3+Q\x1c\xab\xf6\xb5\x85c^f \xbbn\xf4\xc0\xed\\\x8f\x85\xe1\xd2\xf5\xddFO\x12\xea\xd7\x11\xcbod\xcc\xd0)8\xf3\xa5\xc0\xe3\x07\xb8\x188\xed\x9a\xec\xa3\xf8\xd1q\xa7hcK\xd5\x95|\x80\x07\x9c!&lt;\x80OL\xf4\xe9\x8a\xf3\x9f\x11\xfcd\xf0%\xd6\xb7s\x04\xabqn\xb1\x90\xbeT\xab\xb9\x9dz\xe4\x11\xd0rx\xf6\xaec\xc7~9\xf0\x9d\xb4\xf0\xdd\xf8fx\xe3y\xce&amp;\x10\x8c\xb3 \x19\x00\x9f\xe1\xefY\xb3|Q\xb0\xf10\xb6\xb2\x1660-\xb4\x0e\x1d`S\x1f\xd0&gt;\xef\xbc\xe7\xd7\xa1\xe3\xd2\xb9\xdf\x1a\xdb\rB8\x9e\xdad\x8b\x0e\x18\xae\t\xc8\xc0\xe3#\xbf\xb5sZ\xee\x94t\xd0\xf7\xf6\x19\x80\xcb\x16$m\xa5\x87\x7f\xe1\xaeWJ\xd7\x93B\xd5\x90\xda8\x02\xe1\xf6\xbb\xca6\xfc\xc3\x9d\xc0\x1e\xdd?*\xf5-\x1fY\xb5\xd6\xe0\x8c\xc3p\x93J\x89\xb9\xd9\x98)o`;\xff\x00\xf5\xeaIf[\xb3\x1c\xe8\xc262\x90"F\xc98\xc78\xaa\xfa\xa6\xa0\xd7\x16\x97\x1eB\xc8\xc63\x87&gt;Q\x07\xe9\x8a\x8b\xc3\xde*\x93O\xd3q5\xc1X]\x86\xe4\x96#\x9czf\xac\xebz\x96\x99p\x9b\xec\'\x07s\xe5\x15_\x19\x18\x19\xe2\xb1\xdbR\xb6\xbc\x10\xcd$\x8b\x14K+m\x94|\xca\xcc\x00\xeb\xedUl\xeef\xb9\x96y\xe5_&amp;IA\x05\xca\x19\x07\xe0\x07J\xcc\xb9\xd4n,\x1d\x15t\xe2\x19\x0bn&gt;Q\x06Pz6\x0f\xbe\x7f*\x9fG\xd5/\xac\x0c\x13\xdcJ\xed\xb4\x932\xa3\x0c`\xf4\'\xe9\xfd)to\r\xa6\x9bu\x7f&gt;\x87:\xab_\xdd\xab^\xdd]\xb7\xca\xc7k`\xa9\xe8q\xc7\xe7X\x1a\xe5\xaa\xdfM\x1b\xda\xa6\xe9\n`\xed\xca\x90@\xdap\xbd\xcf\x19\xfa\x11L\xf0\x95\x98\xd3/\xed\xd0ZI)i&lt;\xb8\xdbi\xdc2z\xe3\xf1\xaf\xa7\xfc\x01\xb2\x0b5\xd2\xcc\xe2B\xb1\x84\x18\xfe\x1e\xff\x00\xd6\xb9?\xda\x9f@}WX\xf0\xe5\xa8!\xcd\xad\xad\xc2J\x81rA;1\x9fL\xf6\xfaU\x9f\nx\'\xc3^\x1e\xb1\xb1\xf13\xe9\xa8m\xdaf\x86\xfe%\xf9\x89\xc8\x18\'\xd3\xadxG\xed+e\xe1\x98\xf5\xbb\x8d:\xc9\xb1\x02\x9d\xc9\x12\x0c\x92I\'\x8f\xc3\x15\x93\xf0\xd3\xe1\xb3k\xde\x1b\xfe\xd0\x82\xc5\x95\x1ar\x13*NF\xd5\xe6\xbf0\xd4\xc8\xa1\xf9F\x8f\x807\xa1\xddV\x0c\x00\xee\x99\x149f\xdb\xc9\xc0\x03\x03\xd6\x9b\x04\nd\xf2e\xdc\x8b\xd4\x022\xb9\x1d\xf3V\x05\xbe\xe7\xf3\xae\xb6\xe5\xd0\x11\x96\xdb\x81\x92?\xa5L\xf0\xed\xda\x91\'\xf0\xf2\x14\xe6\x94\xe9\xef,l\xecZ6\x03\xb8\xc7\x15\xa9\xf0\xe1\xdbN\xf1\xce\x85x\x85\xbfs\xad\xd9\x99K\x0f\x94\'\x9e\xb9b}\x07\xad~\xe6\xf8\x9b\xfba%\x8bK\x9e\xe4\xcf`-\xd6[\\G\xc3oE\xc0W\xe8r9\x00z\xe7\xbdB.\xe5\x8aH\xed-`\xdc\x04\x800-\xc9\x1bFG\xbfz\xe9l\xe5\xbd\x92\x12\xb6\xbb@r\x14F\x1b\'\x8eO\xf3\xad\x08d\xbbG]\x91\x1f0K\xf2\xed\x1dW\x03\x9f\xe7U/\xfcI$:\xb3\xe9e]L?0`:\xe6\xb8\xef\x1a\xeb\x17^t\xb0\x99DO\xb3\xf72/\xf1/=\x0fC\xde\xb8mw\xe2\x9f\x8d|\x15\xe0MKX\xd3\xb4+\xddb{|M\x1d\x94r\x00\xf71\xa0\xcc\x88\x98\xf6\xc6H\xaf\x8e\xb4\x0f\xf8)\xac\x7f\x16|[w\xe1\x0f\x0c\xea\xeb\xa1\xebV\xd2\xc8\x89\xa0\xf8\x9ap&gt;\xd3\xc9!`\x90\x90$#8\xda2F\x0f\xadh\xf8o\xf6\xa5\xf1\x1e\x91\xaa\xce&gt;#\xe6\x1b\x99\x7fv\x91\xc4\xe3\x03\x93\xcf?_\xd2\xa6\xf1\x17\xed\'\xaeMw-\xf5\x8d\xc5\xbd\xdd\xbc(\x14\x83 \xfd\xdf&lt;\x12\xc3\x81\xd7\xa1\xac\x8b\xaf\xdb\x83@\xf0M\xc0\x87\xc6\xfa\xc5\xb6\x98^&lt;\x97\xd5\xae\x92\x15\xdb\xfe\xce\xe27\x0f\x7f\xadK\xe1\xaf\xf8)\x7f\xec\xbd\xae\\\x08\x0f\xc6\xcf\r4\xaa\xc0&lt;K\xabB\x06\xf2p\x07/\xd4\xd7\xb9\xf8O\xe3W\x82\xbc_\xa6(\x8e\xf6\xcd\xc4\x84\xb2\xedp\xdb\x97h#\x185\xc7\xea\xb7P\xc9\xe2\x19\xf5\x8bI\x9aHa\xfb\x90C\t+\xd4\xfe\xb5{\xc3\x9f\x10SH\xd4\xd1\xad\xa5t\n\xf9h\xd9y9\xeb]\xbcZ\xf5\x9c\xd7\xa2\xe9\xe4\x0e\x8c\x0bG*\xc9\x83\x19#\xa1\x1f\xe7\xad\\\xc1\xbd\xd3\xc4P\xea\x9b\'\x07{(&lt;\xb2\xf6\xac;\xfdU\x83\x98UC\\#\xed\xda\xd1\x90G\xf4\xa9\x1a\xebS\xbb\xb1h\xa3iL\x81F\xd1\x8d\xdb}y\x1d8\xa8\xa1\xb8\x85\xa4\x86\xdbl\xb1\xc5\xb8\xef\x8c0\xda\x0e\x07$u\x14\x9a\x8c\xcfi\n_\xc2\xeb\x02\xb1\xda\xd3\xa8 \x0eN\x01\x07\xbdf\xdaj\xc6\xe2\xe6Y$Em\xa4\xa2\xe6Q\x97\xc79\x1f\x9dO\x1cZ\x81\x84\xcd%\x8b\x85\x9b\x0b\x1f_\x9b\x9e\xde\xb5\xa7\x16\xa0\xb6\xf6\xf2[F\x88\x87i\x046s\xc0\xe7\x07\xa6}\xab\x16\x19\xae\xaf\x12[\x99\xd1\xbeE\x02\xd8\xb4h\xd9\x1999\'\xbfO\xc2\xba\x0f\x03\xe9Q\xdf\xebF\xe2;&amp;\x84E(p\x85\x00 `s\x81\xef\x9a\xf6\x7f\x06j7\x96\xfa\xa1\x8a\x08]\xb2r\x02FX\xb1\x03;G\xa9\xc0\xce+\x9a\xf1\x0e\xa3\xa8\xea\xbf\x11\x17\xc4\x1a\xce\x9d1S&amp;\xd8E\xe4,\x88Tr1\x91\x8e\xf5\xbb\xf1s\xc4\xf1\xe8\xde\n\x82\xe2\xdbe\xbf\x9a\xa0\xbc\x10\xb0\xf2\x8f\'\xe6&gt;\xff\x00\xe0+\xe5\x1f\x14k3\xf8\xe3\xc6\xa6\xd3H\xb2Y\xa6\x9eM\xaem\xf2\xdbs\xc6H\xafA\xba\xf8\x85\xe0O\x81\xb6\xb6~\x07\xd6up\xf7"\xd1g\x94\x0b\x84]\x85\x8b.\x08\'\xfd\x9f\xd6\xbf&amp;\xa3d\x10\xed\x19\xcb\x1c\x92{\x1e\x95"|\xae&lt;\xa3\x1b\xb1\x1f\xc4\t\x03\xf2\xa5\x8ee\x883\x18Y\xb9\xe4#m\x00\xfe5\x1b\xdd3\x12$c\x96\xc6\xd0\\\x13\x8c\xd5\xe7\x92@\xf90\x92\xbce\x81\xa5gG\x89\x84L\xe3\x8f\xbaO5&gt;\x88\x14jV\xb1\xdfy\x8bn\xccY\xa5C\x82\xac\x85Xg\xd2\xbfy&lt;\x19s\xa7x\xcf\xf6_\xf0\xaf\xc4Hw\xf9\x91\xe9Vj\xed\x9c\xe7j\x81\x93\xfaSt\xbbK\x9b\x9b\xc5\x07\xceT]\xd2|\x8e\x00\xc9\xf5\x1d}+gK\x9aU\x9e;i-\xd0\xbc\xd1\xfe\xeaL\xe1\x00\xc9\xce}\xff\x00\xfa\xd5\xa7\x0c\xb6\x9a,\xaf4\x86$Rw\x81\x14M\x95\'\x8cd\xfd?Z\xcf\xf1u\xf3\xad\xb1\xb8\x91\xfc\xc6#(\x80\x03 &gt;\x87\x1c\x81\\u\xae\x8d&gt;\xacM\xfd\xec\x04\xe4\x9f-W\x9c\xfa\xe2\xba_\x86\xbf\x07tO\x17=\xce\xab\xa9\xc7\x1b\xda[\x02\x90*&gt;\xd7y\x06\x0e7\x1e\n\xf3\xd3\xbf5\xc2~\xd0_\xf0N?\xd9{\xc5\x1e&amp;\xba\xf8\xbd\xa7\xe8Z^\x81\xe2c\n\xee\xbc\x8a\xc5\x04\x17.\xa3?\xbcO\xbc\xa4\xe7\x04\xa8\xed\xeb_ ~\xd3\x9f\xb0\x85\xaf\xc4O\x0e\rc\xc0\xde.&gt;\x1e\xd6m\xe2\xc0\xb7\xff\x00]cp\xaaX\x8c\x07\xc3\xc7\x92O\xb5|U6\xb3\xe3O\x86\x1e)\xbb\xf0g\x8e\xec\xeeb\xbc\x80\x18\xednl\xe2&amp;\x1d\xc7+\xbb\x0b\x90\xc3\x8c\x8a\xb9\xe0_\xd8\x07\xc6\x7f\x1bu\xa4\xd55\xf9%u\x97\x95\xd4.?x\xf3\x82s\x90\xacx\x1c\xe3\x1e\xde\xf5\xdaj\x7f\xf0E\xbf\x81\xfaU\xbd\xc5\xde\xb1q~.G!\xa4E\x11\x16=~TF9\x1f_\xc2\xbb\x7f\xd9\xff\x00\xf6]\xf8\x95\xf0\xcbX\x8b\xc3\xde\n\xbb\xbe\xbd\xd3 A\x1cW\xb7\x0c\xca\x9b\t\xe7\x19U\xe4\x7f,W\xd5\xda?\xc2\xc8\xf4?\x0e\xc9\x15\xfd\xc3&lt;\xa0\x00\xd2\x17\x07su85\xc8\xf8\xafA\xb2\xd1\xe6\xcf\x98\xa0\xb7\xcc\xa1\x90\xe4\x9f\xaf\xe1W\xbc;\xac\xeb)\xa7\x95[U\t\xe6\x05&amp;3\xc0\x1crs\xd0\xd6\xa5\xc5\xe6\xb5&amp;\xab\x15\x85\xf4M5\xbc\xb2\xfe\xed\x96p\x146\x07\x04\x8a\xd2\xd5\xed\xeclbu*\xab+\x10gH\xa6u#&lt;d\x009\xe0\x0ej\x1b\xab\xac\x83\xa6@\xbb?\xe7\x8b9b]09\xc9\xf7\xcf\xe5U\xa2km\x11VR\x8c\xac[s.\tF\xcf\x1d}x\xe9T\xef5\xc6\x82\xe0ZL\xa2\x18\xef.Wk4e\xf6\xe3\xb6;\x7f\xf5\xea+G\xd3M\xe8\x8c@\xa2S\x9c9\x8c\x85\x93,y\x1e\xfe\xd5oO\xd7`\xd4\xee\xe6\xd0\xacN\xe5\x81\xd3\xed\x0f\x9clPI\x05\x7f\x1c\x82}\xaaxod\x9e9-\xf5\x1d7\xcfv\'|q\xb7\xfa\xb2\x0f\x07=\xb8\xc6}\xabwO\xd1\xfc\xdd1\x8c\xa8\xaa\xfc4\xc0}\xd5&gt;\x8a{\x8cc\x9fRk\xa5\xf8uim&amp;\xbd%\xc0\xba\x95m\x16\xdc\xe5b\\\x82\xea3\x92}9\x1f\x95u?\x0b|P\xd3\\]\xc8u\xdf\xec\xf9\xef\x91\xd6\xd2\xf4\xa8\x90B\xff\x00t\x1cv\x18\'\x9fc\\\xf5\xcf\xc1\xdf\x13\xeb\xfe-\xb2\xd3&gt;(|Y\xba\xd6\xb4\xd5\xb9x\xa06S\x18\xe2\x93g9*\x9c\xe4\x82&gt;n\x98\xc7\xa5a~\xd0\xde\x01\xf8]\xe0\x8b8e\xf0\x1e\xb9\xab[\xcd\x7f\xf2\x9bk\xadVI#\xc6H%P\xf3\x8e?J\xf21\xe3]\x0f\xc0\x84\xd8xZ\xd2)\xb5)@I/ \x0cY\x18\x93\x8d\xce\xdc.Oo\xf1\xad\r/\xc0\xba\x8f\x8am\x8e\xb3\xabX\tnds\xe79\x88\x92[\xdc\x9e\xbf\x87\x15\xf9\x81\r\xca\xb6YN\xe1\xbb\xb1\xcei\xcfp\xef\xb5`\xb6\xc6\x1b\x96c\x8ad\xb7\r$\x80\x08W\x97\xda\xc4\x02\xdf\x8f\x14\xf8g6\xb2H\x8b\xb7i\x18\xc0N\xde\xa3\xde\x9dcvJ\xf9\xadp\xf2F\x0e\x14c\x9f\xc6\xa5k\x90\xf17\x96\x8e&gt;o\xbf\xb4\xe0{S\x0b\xa4\xb2#\xb3g\x1f&amp;\xe6\xce2\xc0\xff\x00,\n\xfd\x81\xff\x00\x82Y~\xd0Zw\xc5\xcf\xd8\r|\x0f\xae\xdd@\xba\xc7\x87\xd9\xad\'\x80\xbf\xef6\xa9R\xacW\xa8\x045{~\x8b\xa8\xcc\x8e\xf0\x84A3\x11\x1c;\x8e\xd0\xe3h\xe9\x9e\xbdk\xa1\xb4\x89,\xd1&gt;\xc9*&lt;\xa1B\xb8\xdf\x90\x07^=\xf2k@\x15\x8e\xde[y\x99\x99\xb0\x1bn\xdc\x90}\x0f\xa5r\x9e \xb9\x96\xe6v\xbd\x96Y\x03\x16\x03\x1bp\x00\xe9\xcdj\xf8oK\x86\xe6\xe2=\x0e\x0b\x94\xf3\xaep\xb1\x10\xc3\x85\xeaH\xf7\xafB\xd5\x85\x9f\x85\xf4\x88m|9co/\x95\xb5Dr\x82U\x8fs\xf2\xff\x00\x17\xf8W\x9a|G\x8bX\xf1\xce\xaa-\xa2\xb1\xbeCn\xd9\x91V\xe02\x03\x8e\x9c}\xd1\xecy\xae\x13\xe2g\xc1v\x9b\xc2\xd2&gt;\xa9n\x92\xef\x80&lt;h\xb7@ml\x91\x82Gn\x05xF\x9f\xfb=\xf8b\xf2\x1b\xf95/\x08,\xb7\r8)8\x83\xcc\xc61\x90\x0e9\x1e\xf5WQ\xf8I~.e\xfb\x19\xbb\xd3\xedC\xef\xb5\xb5\xb7\x90(\x94\x00\x06\x0fu\xe9Z:f\xaf\xaexr1c}\xa7\xcb!e\xdb\x1d\xbf\x94\\/c\xc9\x1f7\xd6\xba\r\x07\xc5\x96\x16S\xa6\x9b=\xb4i#}\xd2\xd1u&gt;\x83\x1dk\x7f\xedvW|\xce\xe8Sv0\xa3\x00\x1f|\xf7\xaeo\xc6\xbe\x12\x9a\xea\xdeU\x92%h\xf6\xf9\x91\xb8L\x80\x0f\x03\x9f\xc2\xbc\xebLO\xec=mm\xa4\x8b++a\xcbK\xf2\xaf\xd6\xbb_\x0f\xa0\x9eY\xa7\x8d|\xc0\x7f\x85\x87+\xee+^H\xdd\xa2\x8ed\x86)\x18\xae\xc2\xceFx\xe7\x9f~k2\xee\xce\xdfR\x9dQ\x00wL\xfc\xd1\xbf \x7f\x85d\xea\xb7 \xe9j&lt;\xe5"7\xdb\xe5)\x04\x9ez\x9a\xc1\xd4~\xc3s\xac$\xf3\x86W\x81\xb7\xaa\xab\xe7\x821\x9c~\x1f\xa5K6\xa9\x0c\x1a\x94+\x01k\x86\x16\xf28(\xb9\t\x8f\xbb\x9ct\xc9\'\x1fJ\xd4\xd3n\xad\xaf/c\xb3)\x88"U\x9ap\x8c\x14\x16l|\xd9\xfe,\x1c\x02+\xa7\xd3t\xfb\x98\xaf\xe4\x12\xc6d\x12\xcb"\ta\x8c\xa8a\xb5z\x83\xdf\xa8\xfc+j\xddc\x17\x0fg\xf6\x1f:I\x18D\xb1M \\\xa0Q\xf3/\xaf$\xfeU\xd6\xf8mWH\xf0\xde\xa5\xa9\x92\xb1\xc5\x05\xa9\x897\xa6\x07\xe7\xdf\xadq\xde\x0f\xd05\xddOU\xb5\xbd@\x12\x05\x88\x8f1\xa4\xd9\x8eI\xe9\xdf\xafZ\xf4m\x13M\x95ld7\x17o"\xa1]\xb2o\nQ\xb3\xd1s\xd75\xe5\xff\x00\x1a|\x01\xe2\xedoZ\x97\xc4\x12\xe8\x97\xd71F\xe5"X\xa4\xccq\xf1\xe8&gt;\xb5\xe6\xd3\xfc=\xb1\xf0\x0e\x89y\xe3\xff\x00\x16&lt;ZtV\xea\xd2N\xd2\x1e\x13\xd1\x9fw\xdd\xe8pOz\xf8\x1b\xf6\x84\xfd\xb7&gt;&amp;\xf8\xeb\xe2\x85\xf6\xa3\xe0\rj\xf7L\xd1\xadqk\xa7\xc5\x0b\x95\xf3Q\t&gt;a\x03\xb9f?\x80\x15\xe6BB\x92\x05\x9a@0\xdf/\xee\x89\xc8\xa9#\x91\xfc\xf2\xaa\xd9\x1b\xf3\x80\x84\x7f:\x8a\xe4\xc6\xf7\x04+\x00Ol\x12O\xe5M\xb7\x9db\x9d\x1d\'8\xe7\x90\x87\x14\xb0I3\xb02\xcb\x83\xd9@\xc6F})\xe9t\n4q\xc8\xc4\x07\xe4\np\x96\tJ\xc7\xb5\xb89nq\x8a\xf6/\xd8\x97\xf6\x89\xf1\x8f\xc0\xaf\x8eZ4\x1e\x1f\xd5\n\xe9\xda\xfe\xb3i\xa7\xeaVR\xc9\x88\xdd$r7\x8c\xf1\x9e\xdf\x80\xaf\xd9\r0\xe9\xed\xaa\xa4\xfe^\xe9#f!\x9c\x13\xb0\xe4\x8f\xe9]\x96\x952D\x91\xa4\xb3D\xeb!\xc6\xe8\x93\xa1\xeb\x9f\xd7\xaf\xb5\\\xd5&gt;\xdd\x05\x94\x97F4wa\xf7\x89\xc1\xc5rR\xf9n\x1d\xae\xa1\r# \xd8Q\xf2:\x9e&gt;\xb5\xd7\xfc&lt;\x8ax"\x93[Hw\xcd\xfe\xae\xdd\xcc\\"\x002G\xe6G\xe1[\xf0\xd9\xde\xf8\x91\xe7\x8a\xefMi\xadq\x81\x17\x96\xc9"\xe3\x9d\xc0\xfad\xfe\x86\x86\xd2\xf5}"$\x9e\xd2\xd0[\xa1M\xb2\t\xf0\xecW=\xc0\xe75\xc8x\x92\xcfLX\xee-\xa1xUX\x19^8\xf3\x86c\xc1\xe0\xf7\xe3\xa5q\xbao\xc3\x95\x98\x9dM\xe5YD\xcc\xdfg\x8e&amp;\xfb\xa7\x1d\x08\x15\x9b\xe2O\x02Z\xc7\xa6\xff\x00ek\x10\xc4\x86E&amp;E\x94\xe4g\xfd\x909\xcdyf\xa1g\xa6\xae\xa0\xdaR\xe9\xb3&lt;\x96\xc0\xfd\x95\xc3n\xcag\xb6:w\xe0\xf3\\\xb5\xdd\x9c\x87S[y\xb1$^ax\xd69\xc0 \xf4\xce\x7f\x0f\xd2\xb7,\'x\xde\xdc]]2,g\xe6\xde\xc0\xe7\x9e\x9e\xf5\xb3\xad\xea\xff\x00l\xb0h\xe3\xb8\xf3\x01%Wr\xe3h\x03;\x7f\\\xfe5\xe6\x9a\xda\x1dN\xf5&amp;\x92\xc0mV\xf9\xd9;\x1c\xf7\xfd+\xa8\xd1.m\xd1a\xb6\x11a\x99\xb91\x1c\xfc\xbc`\x9c{\xe6\xa6\xb4\xf1e\xbd\xce\xb9w\xa0\xdc\xc6\xa9\xf6D\x0e\x0e\xe7\x1c\x1e2v\x8cv\xa6\x96\xd3\xd2\xe8\xde\xd8\xdb\xa9\x9a\x0f\x97?? \xf6\xcbc\xd6\xb9O\x11\x8dQR\xf5g\xb8Hp\xc1\xe3\x8d\xa4\x07\xe5&gt;\xfd\xb9\xcdc\xdf\xbc\xb2\xd9\xacp\xc2\xeb&lt;\xc3\t$L\x08\xce;\xd5k[\xaf\xb0\xea6\xf6\x1a\x85\xe2\x19$M\xa3\x12\x82\xcc\xe0\x9c\x81\x8e\xaa\x06+\xa8\xf0\xe4\x17\x11\xc8\xf0A~\x1cH\xf8\x11"n\nq\x9c\x92:\x0f\x94\n\xed|={\x7f\x10_7LSq\xb0J\xfb\x9f\xf8\x9b\xae\x05kOk\xa7\xdc\x18\xf59\xd5\x99\xe1?*3l\x1c\xfa\x1a\x97\xe2O\x8b\x13\xc3\x9f\nR\xd2+\x84g\xd4\xb5\x08\xad\xe3\n\xe0\xed\xc9\x07o\xb9#?\x95v~\x1b&gt;\x12]V\xd2\x1dZ\xeeX\xec\x1e(\xfeXg*\xb9\xda3\x9d\xb5\x8d\xe3\xcf\x89\x10h\xde/\xba\xb2\xf0"!\xd2-\x8cK,\xd1\xcadF$\x9f\x98\xe7\xf0\x19\xe9\xc53\xc5\xff\x00\xb5/\xc3\x0f\xd9\xd7\xe1.\xa7\xe3\x1f\x14\xdc\xd9\xd9\xdc\xc5\tk\x99.\x18\x13)9#hc\xc9&gt;\x82\xbf$\x7fl/\xdb\xb3\xe27\xedS\xad\xcd\xa1X\xde\xdci\xde\x1a\x13\x19\x05\xaa\x82\xafr\xb98-\x8e\x8b\xec}=\xeb\xc2mm\xa6\x8a2\xb1&gt;F\xe3\x9c\x03\x81\xed\x9e\xf5\xb8^\xed\xb9a\xf2\xa3rOjR\xd2,E\xe1\x90\xfd\xec\xee&gt;\x94&lt;\xf2\xc6\x04\x91\x00\xcc\xbcz\xe4\x9e\xa3\xf9R\x84,Lr:\xa9\x07\xa1?\x8d\rp\xc8B\x9c\xef\xdd\xc7\x1d\xa9\xb1F\xefp\xcc!#\xd7\'\x19&gt;\xb4\xe8|\xdbf3\x9d\xbbC|\xcb\xbb$\xd4\x96Z\xfc\xbe\x1b\xd5\xad&lt;In\xce\x86\xce\xfa\xde\xf6\x10S\x940\xca\x8c~\x9c\x13\xf9W\xefG\x82\xfcEi\xac\xe8\xd6\x1a\xd5\x9d\xb9\x95u\x0b\x0b{\xa0\xed\xc6\xe1$(\xf8\x1e\xa3\xe6\xcf\xe3]\xf6\x95ue\r\xba\xcaL(\xe5r\x10\x8eT}z\x0e\xfcQ\xa8yR\x16\xb9v\x9dr\x98\x0b,\x99\xcf^\x9e\xd5\xcf\xdf\xcf\x1d\xa5\x9c\x97R\xdcN\xce~X\xd25\xc0\\rs\xf9\xd7}\xe0}r\xda?\r\xc7s\x1d\xab\xa1\x98\xff\x00\xa3\xa1;\x98\x1c\x01\xc8\x1d\xab\x9f\xf8\xd9\xfbR\xfc&gt;\xf8\x0f\xa7\xc3\'\x88\x18\xea\xba\xbc\xc7lz\\W+\x18V\xed\xbb\x9e&gt;\x95\xe1\x9e&amp;\xfd\xb6~"x\xb2\xe1.\xb5\x1f\x10E\xa2Z\xceI\x8e\xce\x17F\xda\xa3\xfd\xaa\xe3_\xf6\xd4\xb8\x8bV\x93E\xb9\xd4~\xd7\tv\xf3nw,\x99\\\x0e\x15\x17\x92{\xe7\xde\xb6\xbc?\xfbj\xfc)\xd1!Ti\xef]\x86wE,\xa0\xb2\xaf\xa8\x03\x95\xef\xc1\xe6\xa1\xd4\x7fl\x8f\n\xebn\xcd\r\xbe\xfb`\xdb\xa2\x9aG\x1b\xf0x&lt;U#\xe2\x1f\x08x\xfd\xfc\xff\x00\x0cx\x8cG,d\xb4\x91\xb0\xf9\x8f\x1c\xe3\x1d\xab#X\x9a/\x0e\xdb\xdb\xbd\xbd\xf4^l\xcf\xb2\x12\xb20\x0c\xb9\xfb\xdc{\xe7\xf2\xadH.\xd2\r"U\xb9\xb9K\xc6\x91A)\xbc\x9d\xbf\xed\x02\x7f\xcf\x15\x06\xafqspbDh\x8a\xc7\x0eB\xb4M\xe6c\xfc\xf7\xaej=V8J\xacl\xdf\xbd\xce\xf5\x94q\xd7\xd6\xb64\x90a*a\x8c\xc6\xb31\x05\x96Q\xb8\x81\xceT\x1e\xbf\x85tv\xd0\xe9\xf3Yy[\x883\x9f\x9aW*\x1d\x80\xfe\x13\xef\xfe5\x9f\x0cQ\xbd\xdd\xd4\xd0F\xf1tX\xd8\x1d\xe5\x8f\xa6\x07z\xe7|e\x0e\x9d\x0c/s0;\xcb\xe2U\'\x93\x8fQ\xd8\xfbW!\x07\x88\x02\xea\xbfah\xe4X\x8cFI#b\x15\xb2r\x15Fy\xcf\x19#\xd0\x8ae\xa4\x12\xcdw\x1c7v\xb0\x8b\x99\xe3|;N\x1bi\xef\xb4\x0eO\xcb\x8e\x95\xd1i\xd7\xb6vqIw\xa5I\x14\x90G2\xc4\x8b\x08*\xf28U.\xa1O,@ \x9cW\xa1\xe8\x17VZ\xa4\xdfj\xd35;\x8by$\x8c\xf9/\x03+#(\x03#\xea\x0esS\xda]:@\xf6\xda\x9d\xd9\\\xc5\xc3Ip\x9c\x92O&gt;\xd9\xf4\xae\x1b\xf6\x8a\xf0\xf7\x8d&gt; i\xfa_\x82|\x03|\xd1j\xba\x01\xfe\xd5k9\x0f\x17L&gt;U\x89\x88\xe8\xc4d\xa8\xeay\xc5qV\x9f\xb5\x16\x99\xe1(\xc7\x87|eq.\x97{n\x85g\x82\xf9J\x18\x11&gt;\xf67c#\xdf\xde\xb8_\x8b\xbf\xf0Q\x9f\x86\x9a\x15\xbc\x89\xa5j\xb2\xa8\x89\x03\xc2-\xe2\xc4\xd3\x0ep\x17?\xde\xfe\xf7J\xf8\x9f\xe3\xe7\xed%\xf1\x17\xf6\x8b\xd7WQ\xf1\x05\xd5\xcd\xbe\x91i6\xeb/\x0f\xa5\xc6V&lt;\x9f\xbf3t\x91\xfe\x9cc\x03\xb5q\xaf\x0cV\xca"\xb5er\x92a\xa4D+\xbdp\x0f \xfdH\xfc)\x82YY\xdf\xec\xf2G\x1a\x86\xfb\xae\xc0\x1a\xd7\x91Uo\x15\x14`\x13\x92\x07sM\xbec\xb6L\x1e\xb2c\x8fJ[H\xa3t\x91\x99rJ\xf2i\xd2F\x89\x0ceW\xb51\xe1\x8ako2T\x05\x84\xc4\x02~\x82\xa2\xbbf\x8e\xe4*\x1c\r\xbd\xbe\xb4\xfb?\x9aB\x1b\x9e\xfc\xd4:\xa8\x0fcv[\x9cY\xc8\x07\xd3\x15\xfb\x93\xfb+\\\xcf\x7f\xfb7\xf8\x17R\xbc\x94\xc9;\xf8J\xcc\xb4\x8d\xd4\x91\n\xa8\xfd\x00\x1f\x85z\xc5\x833\x1d"&amp;bV]\xfeb\xf6o\xadK\xa9\xcb$v\xf1\xeclrz\x0fsT\xa6Q5\x93y\xa39\x91\xba\xfd\x05t\xde\x13\xb8\x9a\xdb@\x96x\x1fkAb\xef\x11\xc6v\xb0\x07\x06\xbf6\xbfio\x19x\xa3S\xf15\xf6\xb9\xa8kS\xcdt\xf2\xbcm3\x90N\xd0\xc7\x03\x1d\x07S_-\xfc]\xf8\xb9\xf1\x1e\xc3IY-&lt;Wp\x8dn\xb2E\x0b\x05\\\xaa`\x1cd\x8fRk\xcc~\x1e|_\xf8\x97/\xc4\xd8\x0c\xbe1\xbbm\xf0\x82\xc1\x8a\x90O=\xb1]\xef\xc4?\x1e\xf8\xc2+\xcb)\xe1\xd7\xa6Gs\x97)\x81\x93\x93\xe8+\xd1\xbc-\xe3_\x14\xdcX\xd9E6\xb3+,\x96\xa3x s\xc9\xf6\xad\xdf\x0b\xf8\xaf\xc4zf\xa2\xf7V\x1a\xc4\xf1I\x15\xc2\xf9l\xad\xd3\x91_R-\xfd\xdd\xef\x86\xa3\xd5\xae\xa5\xdfq%\xbcr&lt;\x9b@\xcb\x1e\t\xc0\xe0p\x05^[xb\xb6\x96X\xd3k\x10\xb9 \xe2\xa72\xc9t\xa8\x97\x0e\\o+\x82{`q\\\x07\x8b\xed\xa1\xd2|D\xb6\xfaj\x98S\xcb\xdf\xb1\x18\xe3q\'\'\xf4\x15\xd1xRI&amp;\xd3m\xee\xa5\x91\x9aEc\x86,x\xae\xca\xca\xfa\xeb\xfb.t\xf3\x8e\x02\xa1\x1ct9\xaegL\xd4o\xae\xfce\xa9\xdb\\]\xc8\xd1\xac\xd12\xa6\xee\x01\xf5\xc5C\xab\xb9\xd4%\x91o\x00p$\x90\x00T\x0e\x9c\x8e\x95\xc3Nvh\xd7.\xbf{r\xb6\xee\xf9,G_\xa0\x15\xb1g\xa7\xd9\x8dE\xae\xbc\x81\xe6Gl\x9b\x18\xf5\\\xe75\xd0X\xd9Z\xc96\xc3\x02\x80\xb1\xe5B\xf1\x83\xeb\xc7\x7fz\xdc\xd2\xee\xae-.t\xd8\xed\xa5(\xaa% /\xd0V\xf6\xa2\x03_YN\xc0\x16\x92\xf24rGU\xc08\xaeO\xe1\xf0\xfe\xda\xf8\xcf\xe2\x99\xf5Rga\xac\xac@\xb9\xe8\x8b\x18!\x7f\x0c\x9f\xce\xbeg\xff\x00\x82\xba\xebZ\x9c\x1f\x1b\xfc!\xa5[\xddyV\xe9\x07\x90#\x89\x02\xe6=\x99\xdaH\x19#$\xf5\xf5\xaf\x86&gt;\'\xdd\\\xbf\xc4\x9b\xf0\xd3\xb1\x11F\x8b\x18\'\x85\x00t\x15ON&amp;\xe6\xd3\xcd\x9f\xe6b\xc0\x12}*\xd4\xa8\x91\t&lt;\xb4\x03\xf7\xbe\x9e\xc2\xa4\x89T\'\n9\xe4\xf1_\xff\xd9'</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>zuckerberg-231.jpgSundar Pichai</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xc0\x00\x0b\x08\x00d\x01,\x01\x01\x11\x00\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x08\x01\x01\x00\x00?\x00\xf8\xe6)\xd8\x1c\x95*X\xf0\x18\x7f\x85&lt;\xcb&lt;\xf8W\xb8\xda\x15\xb1\x85\x1dj)\xae\x98\xca\x04\x93\xb7\xca\xfc\xe4\x91\x91\xf8\x03O\x8a\xe1^v\xf2\x18\x92\xc0\xed\x05\x8f&gt;\xc6\x96\xce\xe1 \xf9\xf6,nNv\x16\xe0}*Sv\xd2\xc0\xc5\x9a=\xbb\xf9\x199\xcd7\xed\xb0\xa9Gv\xc0\r\xb7\x83\xce\x089\xfe\x95\xfa\x87\xff\x00\x04}\xfd\xaa\xf4\xbf\x10\xfe\xcbw\xff\x00\xb3o\x89u\xb3.\xaf\xa3J\xc6\xce)%\x1f\xbc\x81\x8a\x95\xdb\x93\x93\xce\xee\xc3\xa5}S\xa4\xdf\xb4w\x7f\xd9Oq&amp;n%\xc22\x02\xc50\xa39=\xab\xac\xb7\x80\xcd\n\xa5\xb42 L\x01!P\x0b\x0f~zU\xe7\x8d\xedV[e\x84p\x99f\'\xe5\'\xda\xb9\re\x8c\x8e\xc5\x91ZL\x86l\x12N3\x8e+\xa2\xf0\x86\x98\x9a\x9e\xaf\x0e\x8b\x1d\x94\x9eL\xc0&lt;\xef\x81\xf2(\xf5\xe7\x81\x9c\xd7m\xe3-M\xa1\xd2\xd7\xec\x17\x12\xd9\xac[Ue\x87*UG\xa9\\\xf1\\.\xb3\xe0\xbf\x10\xf8\xefQin$\xb7\x96(WrL`\n\xce?\xbc1\x9d\xc7\xdc\xe0\xf1\xd2\xb9_\x1b|;\xd1%\xf0\xdc\xf1i\x97\x12I7\x97\xe5O\xbe\xd4\x02\xae\t\'\x00\xfb\x11\xcdx\xe6\x97\xf0\xc3\xec\xb1^i\xb2\xad\xbby\xf3n\x0b2\x90\xc4\x8098\x07\x1f\xfdj\xc6\xf1\x07\xc1\xeb`\xd3\xf8\x87V\xb6\x86b\xcd\x95\x94[\xee\xfb3\x00\x07\x00rzzVJiz\xce\x86\xf1\xa6\x9b{\x1c\x9fi^n\x18\xb6H\xcfq\x8f\x97\xe9Zv&gt;2\xbb\xd1\xae#\x86g\x1fgy6y\x8b&amp;0\xc0\x0c\xe4WMm\xaf[I\xb2L\xee26\x17/\xb8\xb0\xf5\x15O\xc5\xde\x14\x86Ki.7\x82\x8f\x10}\xa5\xb9\x0cI\xed\xd3\xb0\xaf.\x9e\x0b\x9f\x0ek\x91\xbe]c\xdf\xf3\xe21\x96\xfaWg\xe1\xd4y\x03\xdc\xb0\xf2\x8c\x83\x82z8\xf7\xady`am\x16\xeb\x86\x8b\xa8# p=9\xe9Yk5\xbe\xa1|\xb6\' \x90\xcc\xbb\xd3 \xfe#&lt;\xf1X\x9a\xc4\xeb\x1e\x9e\xc1\x81\x12E.79\x18\x03=85\x8by\x7f\xfe\x9en&amp;E`\x87r\xc8\xe0\x01\xd3\xa0\xff\x00=\xe9\xb2jrM}\x19\xd3\xd1#O\xb3\xc9\xbd\x9d\xba\xb3\x00\x14\x0cg\xa6\t\xfckkB\xb9\xb8\xbb\xbf\x17\xc5\x01\x8e\xda%U\xc8\x04\xb1\xf9C)\xc9\xe3\xefg#=k\xae\xd24\x8c\xdf\x1f\xb0\xb2\x94k\x89\x14\xc7!.PaF\x01#\xa6A\xfc\xebO\xedOa\xa8-\x93]\x8b\x7f&gt;\\\xac\xb1\xc5\x9f\x94(\x1bXv\xe4\x1f^\xb5\xd6YI\x0e\x8b\xe0\x9dW\xc4\x13\x1e\xb0\xec\x8c\xa3v&lt;\x0f\xa79\xaew\xc2&gt;\x0b\x8e;\x9bmWX\xd4&lt;\x9cG\x81o\xb9rs\x92:\x9c\xf7\xae\xfb@\xd3\xec\xa2\xb2\x98@\x882Ty,\x01-\xcfS\x928\x1e\xd5\xc6\xf8\x9f\xe0N\xbb\xf1"\xf2\xf7Z\xf0\x8d\xf4\x17\x13\xc6\xe7\xce\xf3-\x88m\xb8\xc6C\x11\x8f^\xfd\xab\xc4&gt;:k\xbf\r\xbfe\xdf\x01\xde\xf8\xaf\xe2&amp;\xbd\x01\xbc\x84\x15\x8e\r\xe0\xbc\xac\x7f\x860:\x9c\x81\xd7\x03\xde\xbf/\xbe.\xfc^\xf1\x8f\xc6\xaf\x88:\x8f\x8f\xf5\xad[\x9b\xa9\xb6\xdb@\x8e\xc1m\xe1\x1fr1\xf8\x1c\xfdX\xd4{\x92\x17\x07n\xe5-\x90|\xd21\xed\xd2\x9d\x14\xb1\xb4\xe5\x95\xc2\x80\xd9?9?\xd2\x92i&lt;\xfb\x8c\x04\'vpC`TI0I\x16S\x0e\x00\xcfW\xe6\x9dn\x8b\x1b\x85~I\xe46x\x14-\xe2\xb34X\n\xca\xdd\xfb\xd4\xb0^4\xce\x15q\x85\xeb\x81\xd6\xbb?\xd9\xdf\xe2\x06\xaf\xf0\xff\x00\xe3\x9f\x85\xbcI\xa4jSZ\x93\xe2k\x08n\xe4\x85\xb1\xba\x17\x94\xa9F\x19\x1cs\xfa\xd7\xee\x1e\x93y3^\x92\x90\xe1P\xb6\xe2\xa7\xa9\xdcz{\xe3\x15\xd7h\xf2\x01\xe5}\x9a\xdeV\x07\x89\x16RH\x0b\xf5\xf5\xcej\xc6\xab-\x9cVomo\xa9\xe2R\xbb\x8a/8\xfck\x9agxU\xa2YA\xde\x80\xb1\x97\x00\x8eO\xbfJ\xec\xfe\x1fiw\x03I\x92x\n\xab\xdcI\xf30s\xbb\x00\x0c/O\xf3\x9a\xe8t\xcd"\xed/e\xb8\xbf\xbe\x8e)\xa4\x18X\xf7\x97V^\x80m\xc7\\\xe6\xa3\xf1\x1e\x8fg\xa3@\x97\x1a\xae\xbd\x02H\x83;\x12U\x88}\x079\xfd+\x8a\xf1\x0e\xb3\xa5\xde,\xef\x0c\xa2P\xb1gw\x9c\xaf\x83\xcf\xa78\xaeo\xc3\xdaO\x84\xef\xa0\xfbU\x85\xd2\xb4\xd3\x96\xf3\xcb\xf3\xb3\x8e\xa3\xadR\xf1\x1e\x8b\xa6i\xb6\xe9l\x8en#\xdaG\x99\x17\x1b\x8f^[\xd3\xf0\xaf\x1f\xd6/%\xb6\xd5g\xb4\x92Kx\xed\xe4$\xc4\xf2G\x8d\x84u^3\x9e1\xcf\xbdr\xa2\xda)\xb5Qsgq\xc3\xe5\x8f\x9a\x8b\x80:t$zV\xc5\x9c\x7feD\xbd\xf2\x96x\xed\xce\x18\xc2A\x00\xfa\x9c\x1e+CY\xd5U\xac\xc2\xcb\x11\x88LK\r\xb9;\x86\x06\x08&gt;\x9f\xe1\\\x1d\xcd\xa5\xf6\xa3p.D\xe1\xc4G\x05O|\x1e\xd5\xd0hZ\x8b\xc8c\x8a6\x05"m\xd2\x99x\xda:`~_\xadMe\x7f\xe28u\xbb\xf9g\x82F\xd3\xd5\x15\xa0\x95fP\xa4\x93\xd0p{b\x9c\xd7\xd7\x17\xb3K\n\x02\x92G\x83\x192\x02@?\x80\x15\xc8x\x9a\xca\xda\xdd\xafc\x9eyew`\xc1\x91\x00\xc3zc&lt;\xf4\xeb\xefY\x97P\xcf}`-&lt;\xd41\x93\xb6f\x91F\xe4\xe0t\xac\xf8n!\xd3uhm-!\x96X\xd1\nH\xfb\x06\xd4\x0b\xce\xe6\xc1\xeas\x8f\xc2\xba\xaf\x0eG\xa6\xcd1\x92\x18\x997\xb0\xdf,\xc4\xaf\xcaA\xfb\xa3\xb9\xce?*\xee&lt;=\x0e\xa3\x13.\x98\xba\xb8\x0c\x96\xeaC1U\xc9\xeeI&amp;\xb6~\xd3\x18\xb57\n\xb1\xf9\xa9\xd2X\xc8c\x8f\xa1\xe2\xb2~5\xf8\xea\xcb\xc3\x7f\x0c\xb4\xcb\x03w\xe4\x9d_Z\x8a\x02d o\xe3vF\x0fA\x83\x9f\xa8\xae\xf3\xc2\xdf\x14|;e\xa9Y\xf8\x86\x18\xa2\xb9\x8b\xc8\x8c\xba\xb2\x8e\x00\x18\xc8\xc8?\xe4W9\xf17\xe2\x16\xa1\xe2_\x16\xcf\xe2\xa8.\x9e\xca\xd0\x18\xc5\xa5\xbc\xe5T\xb2\x02s\xf3\x0e\x07S\xc1\xfc\xfbW\x9c~\xd3\x7f\xf0R\x1f\t\xfe\xcd\x7f\x08%\xd2m\xf5U\xbc\xd5n\x95\xa3\xd2--\xe6\x01\xe7s\x9e\xa3 \x95\x1e\xbd:\xd7\xe5\x1f\xc5\xef\x8c\xbf\x11?h\x0f\x18\xc9\xe2\xef\x88\xba\xab\xcd\xf3\x99-\xad\x04\x8c!\x87$\xfc\xaa\x0f\xde#\'\x9f\xf0\xaeb\xde\xc0\x15;r\xbf1\xce\xe6\xe4\x9fZ\xd6\xf2~nf9\x0f\xf2\xa7\xf7\xb8\xa7L\x80D\xc2E\xd9\x86\xc9\x03\xaf4\xd7s"2\xc3!R\x98\x19\xf4\x1e\xbfO\xf0\xa9\x10\xc2\x0f\xccY\x83\x1f\x95\x80\xa8\xe7\x98\xc3\x88\xf9\xdb\xbf\xef`\x9atd,\xe5\xa6\x9c)#\x8c\x0e\xdf\x8d\t\xb1I\x9a\x19Y\xa4V\xf9F8\xa8\xef/\xee\xb4\xd6\x1a\xac\n\xbe|;n\x8e\xd6&lt;4R#\xa9\x1e\xfc5~\xf2\xfc0\xf1E\xcf\x8a&lt;\x15\xa1x\x8e\xdaDD\xd4tk;\x90\xc9\xc8,\xf6\xf1\xb1\'\xf3\xc7\xd4\x1a\xf4}?UX\xad#\xdc\xae\xcf \xc8uq\xf3\x1f@\xbd\xe9\xf7\xb7\x08c3:FY\xd7j\xec\x8fo\xe7\xefX\x1a\x91{}&gt;F\xb5\xb2\x88\xc8\xed\x87w\xe4\x809\x18\xae\xe3\xc0\xfa\xae\xa7/\x87a\x8c\x04i\xee\x07\xef8\xda\xa8\xbd2=\xf8\xaf\x1a\xfd\xa6\xbfn\x85\xf8O1\xf0/\xc2\xe9\xe1\x1a\xa4K\xfe\x9d\xa9\xb2,\x9eZ\xe4\x8c\x8c\x9ey\x07\xde\xber\xf1\x07\xedMa%\xc5\xb6\xb7\xe3\x8f\x1aI\xa9\xdc]#L\xf3;\xed\x18\x04\xf1\x8c\xe0s\x9a\xe4,?m\xbb;\xaf\x16\x9d#\xc3\xfe\'\x80\xc6$.\x96M(M\xd9\x03\xab\x82N8\xe9\x8a\xe9W\xfe\n+\xa8xa\xd2\xc6K+\x08%\xdcpv\x85V\xff\x00g9\xcb}H\x1dj\xc0\xfd\xb3|O\xac)\xd4\xa5\xb8\x8d#\x95D\x82\xdd\x19J\x8ey=}\xabSA\xfd\xa1\xfe\x1d|E\xb9[\x1dz(\xed\xee7\xe2\x06\x12aY\xb8\xe0\xe3\xb95\xa3\xe2iE\xbc1Y\xe9\x96\xf3\xee2\xfe\xfc\x89\x14\x18\x97\x8e9\xfc\xf8\xc8\xe6\xad\xda\xebVPXIm\xa7\x19"\x93`\x0e\xd2\xf2H\xcfC\xc0\x1f\xfe\xban\xaa\x04\x85ey]q\x11 $\xe4\xa6~\x80u\xae@x\x96\xd4M\x1cFE\x8d\xb7\x15l)V&lt;\xfa\x103\xf5\xae\x87K\xbf\xb5\x99\xa0\x02\xf1_\xccbv\x08\xc1R08c\xdb\xf5\xae\xb2\xcd\xc3i\xe0\xc9h\x82 \xd9\x94(\x18V\xe8\x0f\'\xa5d\x8b\xabg\xbc\xbc\x86\xea\xe2\x06\x90\xca\xb1\xf9D\x85\xd8OL\xed\xc9\xc5ax\xd6\xe0\xdb[\x14[}\xd2#\x9c\x1d\xbc\x1e\xdcz\x8f\xadp\xb1j\x97\xf1\xeagP}\x86\x18\xa3*]\x17(e9\xces\x83\x806\xe3\x8e\xb9\xa9t\xf2\xab\x7f\x0e\x92\xd7\xd3H\xb2B\xdek\x08B\xe4d\x91\xb8\x83\xc79\x1f@+\xa0\x82\xf6w\x8d\xeec\xb5\x96\xdaw\x98,\x11J\xdb\x91Q\x00\xfd\xe1=B\x93\x900\x0f \xf4\xae\xff\x00\xc3\xba\x95\xae\xb2"\xfe\xd6\xd3a?kV\xf2\xfc\xe5\x01\xd4\xaa\x8c\x8e\x0fN\xe3\xebVa\x954\x99\r\x84\xb1\xb4\xa5\xe3TDH\x17\x8c\xb1\xc0\x1f75\xc5|`\xf0\x8f\x87\xbe3k\xad\xf0\xbfR\xd5\x8d\xb3x~\x01%\xa5\xfd\xb2\xb16\xd7\xacr\xa7\x00r\x02\x8c7q\x91\x80k\xc8\xfe,\xfcb\xf8\x85\xfb0jv~\x13\xf8\x9d\xa4)\xfbm\xbb\\Y\\\xdb\xdc\xae/c_\xbb\xc1 \xab\x1c}\xd2\x05x7\xc6\x9f\xf8(\xf7\x8b\xe7\xbe\x9bE\xb0\xf0\xfc_kh\x95\xe1\x82I\xf7G\x119\xda\\g\x9cpq\xd3\xde\xbe`\xf1g\x8a\xbcW\xf1\x07\xc4s\xf8\xcf\xc6\xfa\xd3^\xea\xd2\xb0f\xba\x91r\xaa\xb9\xfb\x91 \xe2%\xf6\x1e\xe7\xbdG+G*\xf9v\xd14q\xc5.QY\x89\xdb\xc0\xe38\xf5\xe7\xf1\xa8\xc4Mp\xef,\xcb(%\xb8\xd8\x061\xf8\x9a\xd6wa.#PX\xfc\xbb\x9d\xb3\x8fqH\xb0\xb4\x8f\xe5\xbb\x96PN\xf6n\xa4\xd3\xed\xd4\xa482`\xabs\xb4gw\xb1\xa2O2P\x19\x06T\x1eF1\x8faB*\xa8$\xa9#~v\x17\xc7n\xb5\x15\xc5\xab+\x99\x0ey9\n\xc4\x92\x07\xe5OT;\x04\x96\xf1\xe0\x9f\x94\xe7\x8ej\x0b\x88\xa5\x91$\xb3\x9b`Y\x06\xc7l\xe4\xe1\x81\x1f\x96q\xfa\xd7\xec\x9f\xfc\x133\xe2\x03\xfcG\xfd\x8a&lt;\r\xa9\xea\x13\x07\xb8\xb3\xd3d\xb0\xb9`rs\x04\x9b\x06\x7f\x021\xed_Hi\xcd\xe4\xc5o\x1b\xb4M\xf6i\x19b!r\xc0\xf4$\x9fJ\xabs,\xb1\xef\xb4\x10I!I\x89\xdf#\xe7\x8fon\xb5B\xf7\\\x82)\x92\xdd#\xc2\xedg\x90\x0e\xd8\x1c\x93\\\xe7\x8f~=\xe9\xff\x00\x0f\xbc\x01\xad$\xf7\xe9\x14\xd2i\xc5l\xdd[\xe7\x05\xb28\xaf\xc9\xcf\xda[\xf6\xa5\xd4\xb4kK\xab\x08\x81\xb9\xb9y[\xca\x95\xdf\xe6BI\xf9\x98\x82N{c\xa7\x15\xf0g\xc6_\xda\x9f\xc4v\xda\xdc\xdaD\xbe#\xd5\xefgr\xcf,\tu\xe5\xc7nO\x05H\x07\xd0g\xf1\x15\xe9\xff\x00\x074K\xbf\x8a\x1ae\x9f\x8b&gt;\x1fx\xf1e\xbck`e\x8a-AD\xb0\x10\x00\xda\xca\xe4\x13\xcfB29\xae\xdfU\xf8E\xfbEI\xaaI\xa7]j\x9a\xa5\xd5\xce\x9db\x93\xddZ\x187\xbch\xec\xc1_\x03\x93\x9c\x11\xc7\x1cU-O\xe2G\xed\x01\xf0\xbd`\x7f\x13Gqn\x96&lt;7\xdb\xa2\x92\x10\xc3\xae\xd3\x95\xc7\x7f^\xf5\xb3\xe1\x8f\xdbDkWQ4\xcd\x1d\xac\x926Y&gt;\xd0\xa27\xed\xd5I#\xa7\xa5}9\xf0\x83\xf6\xd0\xd4,\xa3\xb4\xd0\xbcW\xacC{\xa5\xca@iel\xc8\x8a1\x85\r\xd4\xf7\xeb_Kxk\xc7\xda7\x8et\x85\xd4\xbc)\xad\x83\x1c\x80\x16\x85\xd03q\xe8}1\x8a\xd4mfd\xb3\x92\x08\xa4W\x94\xbe\xe8\xce\x00)\xc0\x1c\xfat\xaeC\xc4\xb7m=\xef\xda\x9d\xf9)\x89L\x83s\'^\x07\xf8Wk\xf0\xb7\xfb#X\xd1\x9e\xc6k\xa4Y\xe0\\\xc40\x01a\xeay\xeb\xd7\xf2\xae\x82\xdex \xd4f\xd1\xa1\xbc\xb37+\x08\x94ZI8\x05\xa3\xc9\x1b\x8eq\xc0 \xd4\xb0h:=\x82\xdc_b\x014\xe1\x19\xe6\x1bY\xb03\xdc\x12\x07\xb5r\xba\xb6\x955\xb2\xb5\xd5\x938\x0e\xec\xc1^M\xfb\x81\xea}\xbe\x9e\xd5\xca\xeav+n\xd1Y\xc3h\x1e;\x8b\x81\x1b\x97%v\xa8\xe4dz\xe4\x9a\xb9\xe2[\xe3\xe1\xc9\xfc\xc9ty[\xc9\x8c\xc9x\xb0\x8c\x9d\x8a\x06\x14c\xbf~\xddks\xc2\xd2\xdd\xea\x11Zk\xb6v\xc5b\xbb\x88\xcb\x1d\xbd\xccy\xc6F0\xe4\xf4^8\x03&lt;\xe6\xba]&amp;K(!Y\xf5+Dg\x86\x16\xda\xc0\xed\xdb\x93\xd8z\xff\x00LR\xeb&gt;/\xb3\xb2\xb1]zK3\xe5Z\xa9\x9a(\xdb\x8d\xfeR\x82\xc7?\xde;\x94\x01\xd3\x8e\xa2\x9b\xfb2\xf8"\xefP\xf0#\xfch\xf1&lt;\x92\x96\xf1.\xb3ssn3\xb7l`\x88\xd1\x81\xee2\xa7\x8a\xf8\x87\xfe\n\xb5\xf1\x16\xdbL\xfd\xb1"\xbe\xbe0^\xd8h\xa9\x15\xaa\xd8\xcc\xa4F\x1b\xca\x0c\xd2q\x9f\x9c\xee\xc6:`\n\xf8\xeb\xc4\x1a\x91\xf1&gt;\xb9s\xe2C,j.e;\x968\xfa\x0c\xf0\x06Nzb\x9f\x0cn`\x96(`  \x0b\x1b\xa3m\xf9\xba\xe4\x83\xcf~\xd5,j.\x1b\xca`\xc5\xf6\xee\x90y\x84s\xd3\xb8\xf6\xa9&gt;\xcf\xe6\x8c\xc5r\xc8\x07\x04+\x13\xfc\xebH\x0c:\x99&amp;\xcb\x0e\xb9\x1c\xd3\xd9]$\xf2\x84\x8a\x0c\x84\xb0\x1c\xe7\x14\xa8\x8c\xb2\x07\xf2\x1c!^s\x8e\xbf\x9dF\xce\xcd!A\x16\x07]\xcf\x90?J-\xd27\x0cd\x8dX\x03\xf7\x95\x8f\xf5\xa2(\xcb\x16\x9e\xdc&gt;\x15\xb6\x9d\xcf\x81O\x8c\xa4\x8e\xd1\x19B\x922\x19\x86\xe1\x9f\xad0\xc5*G#\x06\xdcB\xe1\x94.\x01\xe4s\xfc\xeb\xf4\x93\xfe\x08\x87\xe3t\xd4\xfe\tx\xbf\xe1\xce\xf5\xdd\xa2\xf8\x92+\xa8\xed\xe3l\xba\xdb\xcc\xa3$g\xfd\xa49\xaf\xbc\xb4\xc9\xae\x1au%\x95"d\x002\xf7\xc8\xce~\xbc\xd2\xdd\xc2\xf6\x86gbI*&lt;\xb9e\xe3\x8c\xf4\xaf&lt;\xf8\x91\xe2ilf\x94\xc1\x9c\xb4\'fp\x0f&lt;s\xcfN+\xe3_\xdb\xc3X\xf8\xc3\xab|9\xd4\xbf\xe1Yxz\xee\xf2e\x8bt\n1\x90\xe0s\xd0\x93\xb7\x18\xe7\xdc\xd7\xe6\xaf\x8d4\x1f\xda#J\xf0\x05\xcf\x8f|y\xf0\xbbX\xb7\x9e\xe9dhe\x92\xc9\x9a\x17\xda&gt;w\xdc:\x05\x1c\x9f\xad|]\xa8]^\xde\xeb\x17:\x95\xc4\xc6Y^rg\x9d\x94\x86l\x9ez\xf6\x03\x07\xe8Et\xba\x16\x87\xa7\xde\xd9\xa4\x91[\xabDca\x98\xf0\xb2?\xa0\xdc9\x1c\xf3\xd7\xbdmY\xa7\x88\xb4\xbb\xa7\xd4\xac&lt;C\xacZ\xbc\xf1\xacwF\rRh\xe6\x91W\xee\x82\xe1\xfa\x03\xdb\x15_^\x93\xc4\xba\xec\xf0\xbe\xbd\xe2MGPa\xc1}R\xfek\x8f\x97\xb0\xc3&gt;\x0f\xd6\xa2\xb5\xd1\x1a8\xcb\xdb\x19aX9\xdf\x1c\xa4\xfc\xde\xc3\x8c}+\xb4\xf8{\xf1\xc7Z\xf0\xb4\xff\x00\xd9~+\xd4\xa5\x92\xd4\x9f\xdc\\\x97\'\xca \x0f\xbc\xa3\'\x1e\xf85\xf4\x87\xc1?\xf8(\x0e\xaf\xf0\xf1SV\xd2|S\x1d\xc5\x95\xb9_57\xee\xda\xa7\x8c\x11\xf7\x87N\xe2\xbe\xba\xf8\'\xfbwx;\xe2\xd5\xbcw\xb2]B\x82\xe1?x\xf0\xca\xaf\xb7\x1d\x03\x04bA\xcfb:\x11^\x83{\xe3\xd5\xd7m\x1axf_\x9al\x91\x1b\x02\x19p0\xdds\xfav\xae\xd3\xe1\xcd\xd3D\xabu\x1d\xb0T|fA\xbb$~U\xdf\xdd\xcd\x10\xd5!\xd6,4\xf8|\xd6\xb5x~\xd0\xa0\x19YX`\xae\x18t\x1dz\xf75j\xd6Mv{\t,5I\xc6\xe9\x15K\x9f)v\xa8\x1cm\xc8\xc78\x03\xb7z\xc1\xf1=\xf4w\x17\x7fd\x8a\x07\x10\xec\xf2\xe2\x966*T\x8ey\x1f\x8fZ\xa3g\x14\xd0C\x05\xc5\xe0i\xbc\xa9\x89\x8e2\xa1\xb7\x1e9bH8\xf4\xc6jK\xdbK\xa7\xb9}b\xe8\xc9\x11.\x804.@\x99rw\x02\x08\xeb\x82\x07\xe1S\xc9\xacCe:\xc2\x92N\x12D\xcb[\x00X2\xe4\xe0\xa9\xf5\xf5\x1ct\xab\xb6:\xae\x9f+\xdb\xbc\xd3\xdc&lt;\xa0\xefU\x96"\xa0\xaf\xf7}\xc7\x1d\xfdj\x8f\xc4[]k\xc6z\x11\xf0\x8e\x87t\x8a\x9a\xb4\xbb\xaeX\x90&gt;\xcd\n`\xb2\xa9\x19\xf9\x89\t\xc7Lg\x9a\xfa{\xc3~\x0f\xd1\xbc?\xf0\xe3\xc3\xff\x00\x0f\xb4\xb0b\xd3\xb4\x9d:\xde\x0be d\xe4)$\xfb\xe5\x8ek\xf1\x0b\xfe\n\x91\xaa\xea\xb7\xbf\xb7\'\xc4\r:\xfa\xf1\x8d\xb4\x1e \xdbi\n\xbf\xf0,1\xae\x7f0k\xc4\xb4\xf5rVL\xed\x88\x81\xb4H\xbf7_Z\xd9\x89\x97s\xcc\xc7j\x97\xe3\xcc$\xf6\x1d\xfb}*h\xa5G\x0e\x1a\xd8:\xed\xe9\xbc\x91\xf5\xce3\xf8SbV\x9d\x035\x9c\x8d\x8e\x06\xd96\x80==\xfe\xb5\xb2\xcb,\xa4C\x14\xa8\xb8;\xd8\'\xcc\x08\xfa\xfa\xf1\xd2\x9a\xa6w\xe3\xcb\xda&lt;\xc3\x82\xd8\xe4`w\xa6.\x15\x84D\xed\xd9\xc1\xcb\x1c\x93\xea=\xaavin\x14\xc6gl(\xce\nb\x9a \x12\xb2\x98\xe2\xf9\x80\xfb\xc7\x8a%C#\xe5\xe0-\xb4`\x90p\x7f*H\x92 \xe6H\x1c\x1c\x0c2\xbfcN \xbcO\x18\x90\x00\xe0\x1d\xc3\xa8\xf6\xaf\xaf\x7f\xe0\x8a^:\xb7\xf0\xdf\xed\x15\xe2\xbf\x05\xbc\xe2\x16\xd6\xfc*^\xd8?I$\x8aL\x9c\xfb\x00\xdd\xb3_\xa9\x9a]\xa9\xb8\xb7\x83PGRUI,\t(\x06\xe2\x07j\xd0\xd5#\x96\xee8\xdc\xdc,\xc0\xaeB\xed c\xd0dW\x86\xfct\xd5[\'N\xb1\x8a\xdeY\x1eB\x84HyOA\x91\x9f\xca\xae\xf8?\xe1\x05\xe5\xb7\xc3\xd95\x1du\xa2\x9e\xe6KQ\x04FH\xf0\xa8\x1f8\x19\xf6\xe7\x9cw\xaf\x9e&gt;$\xf84\xc3\xe0i&lt;9\xaeX\xc3\xa8\xd9Z&lt;\xfb,.&amp;-\xba"v\xc8\xa4q\x85ny\x19\xe9_\x16|\x16\xff\x00\x82;~\xcc?\x15\xfe%\xf8\xc3\xe1\xf5\xcd\xeb\xac\xfa\xf1w\xf0\xbe\xa3\x7f{qm\x0f\x87#u\x0ee\xdb\ta6\xd7\xdc0\xdd\xb6\xfd\x07\x8d\xf8K\xfe\x08\xd7\xfblx\x9f\xe3g\xc4?\x81\xdf\x0b\xbe\x10\\x\xfbR\xf8es\x1c\x1a\xf6\xbd\xa1]C\r\xbd\xc2\xbc\t,-\x18\xb9\x95\x0bJ\xd1\xb2\xfe\xedFz\x1cs\x93\xe5~%\xfd\x96\xfe5x2\xf2\xfa\xd7\xc6\xdf\x0b\xfcI\xa4\xbe\x9dv\xb6\xb7\xe9\xabhw\x10}\x96rq\xe5J\xec\x824l\xf1\xcb`\x9e\x14\xb53Z\xfd\x95~7\xe9\x9e0\xb3\xf0\x05\xdf\xc2\xbf\x12\xc1\xac\xdf\xb2\xb6\x9d\xa4\xcf\xe1\xfb\xa8\xee/P\xa9"Hcx\xc3H\xbc\x1eT\x1e\x9e\x9c\xd5\x7f\x15~\xcf_\x14|\x11\xab\x7f\xc2-\xe2\x9f\x01kZf\xa3#\xc5\x1ai\xba\xa6\x955\xbc\xb2\xdc9\x01-\xd7\xcc@\x1aV\xc8\xda\x80\xe4\xd7\xa3xK\xfe\tK\xfbT\xfc@\xf1\x0c\xfa/\xc4O\x06\x7f\xc2\xbf\xb2\x89\x01\x9e\xe7\\h\xa7\x9aA\xff\x00&lt;\xd6\x08Y\xb6\xb0\xee]\x97\x1d1\xc5}\x0f\xf0\x7f\xfe\t\x83\xe1O\x83\xba,\x96\xba;6\xbdy\xa9\xaa\xad\xd5\xf2H\x99\xc0\xfe\x10\x8c\xb8Q\xdf\x19=O5\xe8\xfa\x1f\xec\x07\xe1_\x86\xfa\x13\xf8\xca\xcbDm6\xf2Nn^\xd5D{A&lt;3m\xf5\xe9\xd3\xb5m\xe8Z-\xef\x86f\xfe\xcd\xbcE\x92.#i\xd5\x00&gt;\xbc\x93\x8f^\xb8\xafg\xf8Sp4\xfd\xb1I$\xcc\x80mDi\x01\x04z\x8f\xf3\xda\xbd"+o2\x17\x1b\x94\x06@U\x98e\x90\x9fJ\x8bPSi\x04b\xe6\xebkD@g \x8d\xe3\xd7\xd2\xb1u=B2\xd3;H\x84G\xc9\x8f#yQ\xfcC\xb69\xf5\xcf\x15\x0c\xd7\xf0\t\x85\xc4n\x85QT@\x03rr3\xb4\x8f\xc7\xafJ\x92\xff\x00[\xd6Q\xd9u\x0bo1\xd1\x14\xdb$`\x15\x0c\xdb\xb23\xec\x17\'\xea+\x8f\xbb\xf1%\x84\x97\xab1\xbc\x85\xa4\x813o\x1b\xc6\xe5\xa4\'\xae\xdcq\x81\xef\xdf5\xb9\xa4\xebV\xf6\x96q3\xcb*\xc2\xf8Ed^\x0b7p\t\xcf\xb7\xe1]\xbf\x80-d\xba\xd54\xf8m\xd25&gt;h\xd8\x04C/\xf3|\xc5\xb9\xee0?\n\xf7\xfb\xa9n\x96\xfa\x19\x8c\x85\xa1\x91\xd1$\x08\x9c!\xc8\xc0\x18\xf4\x0b\xfa\xd7\xe0\xa7\xed\xdf\xac\x1f\x12~\xdb\x9f\x13\xef \xb8y\xe3\xb7\xf1e\xcd\xba\xb4\x83\x05Lm\xb5\x87\xd3##\xeb\\\x06\x90\xc6+\x8d\xf7&lt;\xab\x0f\x926\xec?\xcekX\xc9\xb2L|\xdbO;\x08\x04T\xa8\x90\xacL\xfb\xe4(x\xc6\x07\x07\xf3\xe9L0\xb0U\x02\xf5\xd4c\x80\xb5\xb1\x18Q\x03,O\xc3\x7f\x04h\x07\xe3\xd6\x9b\x19E\x1b]\x8a\xa0^0s\xf3T\xf06b\xe5\xbb\xfd\xe2\xbc\x9ai?\xbfV\x12\x96\x1d\xf21S3\xdb\xa31 \x029\x19\'\xa53t\x12\xc8\x16&amp;+\x91\x9f\x974\xb2F\x99\xc9\x8bnF\xd0\x07\x7fs@\x82(\xf1\xe6?\x0b\xc1\xc7j\xf5\xaf\xd8G\xe2"\xfc2\xfd\xb1|\x01\xe2FR\xf0]k\x8b\xa5]\x05^\x0cWC\xcb\xc9\xce8\x0c\x06\x7f\xad~\xd7\xf8v\xda\x04\xb5\x86!\x13FN\xe4\x92%\x97\x04`\x9ep}\xaa}kS\xb9\x16~M\x91x\xda$o\xb3\xf9\xb1\x93\xce8\xdd\xed^\x19\xe2\x1d7\xc47\xce\x92\xeb)l\xf3\x9b\xb5y^\xda"\xa8\xd9lw\x00\x93\xc5{si\x96\xf7&gt;\x1f&gt;\x1c\xb7\x91\x18\xc8\x88\x19rp\xa4(=z\xe7\x93\\\xd6\xa5\xe0\x8f\x01\xc1\x0c\xba@\xf0m\x9c\xfeb\x95\x96\xe6d\xdd \x85\xc6\xd9\x0f\xfc\x04\xfc\xdf\xf0*\xf9\x03\xc6\x1f\x00u\xdf\xd9\xcb\xe2\x03j&gt;\x03\xd4\xaf\x90\xd9\xbb\x8bk\xab\x987\xc7s\x13&gt;\xff\x00-\xfd\x01S\xdb&lt;c\xf0\xf5_\xd9\x8b\xf6\xda\xf0\x17\xc2\xbdg\xc4\xb7\xff\x00\x13|\x02\xfan\xa1\xe2mY5+\xedw\xc3\x8cH\xba\x928\xd6(\xcc\xc8\xfb\x08*\xa8\x81J\x9c\x9cc\x8c\n\xfa\x03G\xfd\xbc\x7fe{\x9f\x05\\\xcb\xe2\xbf\x8bzU\xd2j\x08\x1a\xe7H\xbb\xb2i\x99\xc8\xf9\x971\xc9\x13e\xb7rI,:`\xf1^g\xe3\xcf\xf8)\x7f\x81\xb58\x92\xcb\xc2\x1f\x06/\xfcK\xac\x8d\xe9\xa3j\x1a\xccim\x05\x8am \x98[\xe6\x9f\xa6\x0f\x05A\x07\x1cb\xbe~\xf8\xb3\xf1\x87\xe3o\xed\x0b9\x8f\xe2%\xc4GK\xb8\x10\x19m\xac\xacb\x8a\xde\xdd\xa1a\xb6H\xfc\xc0\xd2,\x8b\x82U\xc3n\x04\x93\x9ex\xe4\xaf\xe0\xb2\xd3\xefn\xa7\xb1\xbf3\x83)1\xca\xdcN\xdf6K\x12X\x97\'&lt;\x82y99\xe7\x03\xac\xf8u\xa3/\x88\xaf\xdbQX\xd69C\x8d\xa2\x14\xda\x02\xe0t\x03\x81\xdf\xbd{e\xf7\x854\x96\xf0\xfbZ\xdc@\xb3\xf9\xa8#x\xa5^H#\x8c\x81\x91\xc1\xc9\xaf\x9c|[\xf0\xebP\xd4~!\xa7\x81\xf4iQ\xa4\x92\xe8\xc4\x9ez`\x1e\x84d\xfb\xe7\x03\xe9^\xad\xa5|\x00\xf1\xaf\xc3\xe7\x88\xebO\x02\xac*\x19\xe2Q\xb8\xe3\x1f\xe7\x8a\xd9\x94[L\x8d\x0c\x9bc\xdf\x8f/`\xc1\xfc}\xeb\x07\xc4v\xd3&amp;\xb0&lt;\xdb\xa2\xf0\xf9\nv4\x87\x00\xe4\xf5\x18\xaecWE\xbd\x96\xea\xceUY#\x9d\x18\'\x966\x91\xd3\x8f^\xd5\x16\x87+\x0b\xdf\xb2]D\xa9lbX\xf7\xcc2Y\x07n3\x81\x9c\xf3\xd6\x9f\xab\xd8x\x87Q\xd5m \xd2u\xdb;m:\x1b\xe0\xd3\x81p\x04\x89\x08R\x06\xd0~\xf1$\x9f\xca\xb35=F\xd6\xce?.\xe6\xf2\xdd\xa1\x89\x99^\xf50\x04j\x07\x1b{\x9c\x9c\x8e\x99\xcd\'\x81\xf5%\xd6.\xc1\x96WU\xdc\xaf\x16P\xe5\x08\'\xe5 \x81\x8e0\x7f\xe0U\xeb\xbf\x08t\xd6O\x12\x7fm\xdd@\xc3\xec\xf1\x9e\xa7\x83\xc99\xfdk\xda\xbc+w%\xfaD\xd2I\x10F\xb8\r\xb8\xca\xc0\x1e@\x1d\xbd\xeb\xf0\x13\xf6\xa7\xbe\x87Z\xfd\xac&gt;%jp1+7\x8f53\x92\xdd\xbc\xf6\x1f\xd2\xb9\xdd&gt;F\x85\xf6 \x05wp\x0fz\xd7H\xc4\xa1d*\x88\t\xc7\xde\xa9\x90nC\x08e 7#=}\xfe\x94\x18&amp;\x88\xed\x8b\xcb`y\xeb\xd3\xda\xb4\xa5\x93\xf7B\x18\xad\xf6\x85\xe3tL\x0f\xf3"\x97\xc8\x90\x85(\x15\x89\xe3n\x7fZ\x9a$\x10D\xcb;\xc8\xa4\x1c\xedP\x0f\xf5\xa4\x10I#\x06\x81^A\x8c\x93\x8e\x95 2/\r\x0b/9\xc9Pr=\xa8\x8d\xdaW2yn\x17qP\xa5\x00\xce9\xf5\xf7\xa4\x04\x12^\x18\x08%{\x9e\x9c\xf54n(&lt;\x90\xf8.\xb9f8\xc1\x1e\xd4Zk\xb7\xfe\x15\xd4-\xfcE\xa7\xcec\x9fM\x9a+\xabw\xf31\x86\x89\xc3\x83\xc6}\x08\xfa\x91_\xbc?\x0f|mg\xe3\x9f\x01\xe9\x1f\x104\xeb\xd5xu}:\x0b\xdbwA\x97+"\x029\xed\xe8}\xf3\xd6\xb75=Ic \xae\xab\x8c\x93\xb5^C\xcf\x03\xda\xb0\x7f\xb2S\xc4"\'\xbd\x9e8\x84N_a\xce\xf6\xf4&lt;\x0cc\xf1\xae\xcf\xc13l\xd6\xed\xa4\x96\x05`\x8a|\xf5\xee\xc3\xa6G\xf9\xed^W\xfbD\xd8\xea~\x11\xd7[\xc5\xdae\xec\xcb\n\xcb\xe62\tJ\xf0\t!\x08\xe9\xb5\xbb\xfd\x05`i?\x19\xfe\x1b\xfcK\xf0\x85\xfe\x81\xe3=q\xe3\xb8\xb8\xb7!\xe5\x8c\x03,DtU\x04\x81\x9e\xddz\x01^=q\xf0\xf3K\xbb\x99\xdfO\x9a\x16\x1b\xa3\xc24\xa3\xccd\x0cy\xc1\xf5\xc8\xfdkOF\xf8C\xa5\xf8;C\x8bX\xd6\xb3-\xfd\xea\xcd BQ\xe3\n\xb2\x15\x03\x95\xcek\x1fZ\xb6\xf0g\x84bmc[\xd4\xa2\x8c\x87$4jK\xc6z`g\xa7\xd2\xbc\xe3\xc5\xbf\x17\xee&lt;Ew\xfd\x9f\xe0\xcd\x11\x9b\xca\x9fjM6|\xb4\xe9\xf3\x0crz\xf4"\xb5\xbc%\xe1\x9b\xadB\xedu=V\xd6;\xbb\xc1 \xdacB\x00-\xc7 \xe3\x8a\xf6\x9f\x04\xe8\x16:|\x11cl;\xba\x88\xd4\x0c\x1c\xf2\x0f5\xbf\x7f\xae\x9b\x15\xb91\xdb\t\x18\x90\xb0\xed\x9b\xae+\xc9\xbci\xa2\xdf\x9f\x13?\x8cl\xaeM\xbc\xd0\\\xc5p\x8c\xf2eY\xd1\xb2\x07\xeas^\xcf\xe3\x1f\x8b\xd1x\xbb\xc3\xb6\xd7\xbay\xb62\xcf\x02\xb5\xc3\x15+\x86\xc6\x088\xcf9\xfd\x08\xae\x12\xebU\xb7\x1bf\xfbD1\x88\xfey\x1d\xe4\xc2\xa7\xb9\xef\x83\xd0VN\xbb\xabKsm\xe6\xcb$bI\x06\xe0y\xfb\xbf\x95a\xd9\xdcJ\xce\xf7\xbar\x834Cj\x95@\xc4\xe7\xefpq\xc61V-\xd2{YO\xf6M\xb4R\x89:\xef ;g\xa8\x038\xeb\xefWn\x1bH\xb2\xb2x\xe5\xd2R\xda\xe5v\xca\x18c\xe5d\xc9\x07,3\xbb\x9eGLc\x04\x92@\xf2\xfb\xcdV\xd3T\xb9xc\xbb[\xc8\x16wifu\x07\xcc\xc9\xcf\x1d6\x10I\xe8\rv\x1e\x0e\xd2omvC\xb9.\x12\xfa\x1f\xdd\xb9\x9c\xf9\xa0\xe7\xe9\x83\x81\x8eN+\xdb&gt;\x18\xd9\\h:z\xca-\x8d\xca\xf9~\\\xb9}\xce\x17\xdc~5\xea\x1e\x1e]5\xa4\xd3\xe5\xb3wm\xf2\xe0\xc5"\xed\x0b\x82\xa7\x9f\xce\xbf\x9f_\x8e,\xf2~\xd0^=\xbbR\x80\xcb\xe3mP\x18\xc3d\xe3\xedRs\xe9Y\xdaT\x12I&amp;\xc6\x81p&gt;\xeb\xc8\xe0qZj\xd1\x17\xf2\x1c\x00\x0f\x00!\xcf&gt;\xb5&lt;\x9bR\x1d\x89$D\xa9\xc1p2i\x8e\xf3\x8c\x018^:D\xbc\x1f\xaf\xbdn\xdd[\xbcf9\xbc\x91\xbb\x1bIT\x1e\xbe\x99\xa9\x15\xd5vH`,\xdb\xb0Y\x80\\{pM$\x828n\x1b\xcc\x05|\xce\x8a\xdc\x9f\xaf\xd2\x96%\x9c\x06Sr\xe8\x889T\x1c7\xb5:2\xb0\x00\x16)6\xc8r7v?\xe1O\xdf+E\xbeUc\xb2B\x00\x8cg\x8c\x0fZh\x89\x0cj\x1b\xe5 uc\x8c\xf3\xd0\xe3\xb5C)\x942\xa4\x91\xed\x8c\xc9\xc8\x08\x0e~\x87=)\'\x82\xd1\x83D\xdeYWnPg\x95\xe0\xe3\xeb\x95\x15\xfa\xaf\xff\x00\x04\x96\xf8\xcf\xff\x00\t\xe7\xec\x8fg\xe1\xbdB\xe5&gt;\xdf\xe0\xedJM!\xfc\xceJ\xc0q$\x03\xeb\xb5\xc8\xfa\xa9\xeb_R\xe8\x96vz\xe6\x9dq\x1e\xb1\xc3\xa9\xdd\x1c\xee\xb8\xc3zq\x9e1\x83\xf8\xd6\xa6\x8d\xe1\xfb\xbb]2k\xb8bY#\x07\x80q\xb9\xbe\x99\xedW4\xb8\xeft\xe9\xa6\xb8\t\xb3d#\x0e\x06A\xc9\xed\\\x7f\xc5(t\xcdV\xc7\xec:\xc9\xf3\xc4\xcaC\xcaz)\x198\xff\x00&gt;\xb5\xf1\x8f\xc6\x0f\x04\x8f\x0b\xea\x97z\xde\x91\xa82y\xacdC\x08&amp;2rG^\xbd\x87j\xf2=G\xf6\x9d\xd6&lt;\x13t!\xbe\xd6\x19\\\x80\xa0C\xc0?0\xee\xcb\x9c\xf1\xf4\xe9Q\xea?\xb6\xc4\xba\x96\x9a\xbalB\xe2\xe2\xe6\x05\x9b\r-\xe6\xe2\xbb\xdc0\x03\x81\xc0\xc1\xe3\xde\xb8\xc8\xfe,x\x8f\xc7\xda\xb3\x1dOTi-\xcc\xc5\x9a\x14\x95\x8e\x0f\xe2+\xd7\xbe\x1dE\xa7Ie\x04i\x12\xc8\xfe`gh\xe5!\x978\x18 \x81\xe9^\xb1\xe1\xdb\xfb;\x1dH\xdb[\xaa\x07\x82d2\x17\',=\xb01\xdf\xbdwP]$\xca\xf6\xb1\xc0\x14\x90\\mPz\xf7\xebM\x8b\xcfVA$H\xc0\x12Cg\x18\'\xaf\x1d\xf8\xc5Q\xd6\xfc1\xa7Ke\xf6\xa9\xd2M\x9b\xc9\x8e3\xcb\x11\xeb\x8f\xaek\x01o\xa7\xd3n~\xc4\x01\xf2\x18n\x01P\x8d\xbd\xb9\xce=+\x98\xf8\x93\xa0/\x8dt\xd3\xa5\xdc\xdf\\\x08\xbc\xd4c\xf6\x03\x87p\xad\x90\xa4\x9cq\x9a\xd0\x87\xe4&gt;l\xf6/\x19\x0b\x83\x0bLd\xc0U\x039=\x06;z\xe6\xadF\xf1\tA\xb5\xb2\xfd\xe2\x8c\xaf\x96z\xe4r9\xef\x8af\x8d\x16\x9f.\xa8c\x9e\xdbwU\x8e680\x9e\xbb\xd9\x87N\xbd\xb3\xd2\xadx\xa5\xec-\xb4i\xa1\x92\xe6\xd9\x8c\xf0\xed[\x96r\xed\x19\xe7\xa6@\xe2\xbc\xcbN0\xdb\\}\x93e\xbd\xc4\xed \x11\xacxT\xe4\xe0g\xfd\x9e:\xe3&lt;\x9e+\xd2|\x0f\xa4^^[}\x92[d\xf3e?&lt;\x90I\x9f$/M\x9fS\x9fJ\xf6/\r\xabY\xe9\x10Il\x804\xa3\x17\x18|\x1c\x8e8\xef\xd3\x15\xdcx\x1a\xf9\xa4\xd4-\xed\xa4EU\x13\x04\x0b#o8%y\xe7\x07\xf2\x04W\xf3\xff\x00\xf1\x99\xadS\xf6\x84\xf1\xfc\x96\xd1\xaf&gt;6\xd5QT!\x07h\xba\x93\xd7\xbesTt\xc8\xcc\xcc\x82X\xa3b\xc3r\x17\xce\xe0\xbe\x9c~5\xaa\xaa7\x17\xdb\x19*\xbbF\x061K\x04h\xa39A\xb8\xf2\x18\xf2[\xdb\xf4\xa9#S\x82\x1d\x06A\xe8\x08\xe3\xf3\xad\xc3\x1ci*\xa2\xc2\xa1s\x93\xf3\x93\xcd\nv\xbc\x97)\n\xe5xUv8&gt;\xf4\xe4w\x94\xa93\x00]&gt;\xe0\x19\xc1\xe7\xbd,\xd0\t\x90\x00\xae\xbb[\x0f\xeei\xc4\\\x80\xc0\x95*\x14m\xcfZV\x12\xc5\tE\x90\x07\x07\'\xe6\x184\xd5g\x18P\x14\xb3\x0c6\xf3\xdb\xdb\x14\xdb\x94\x862\x84\xdc\x1d\xa3\x85V\xef\xec*/(\xdc$\x80\x9d\xaaO\xcc\xc9\x82W\x1d?\x1a\xfas\xfe\t=\xf1\xda\xe3\xe1\x7f\xc7\xeb\x9f\x86\xfa\xae\xa8SK\xf1\xbd\xa2\xc4\xab,\x7f)\xd4b$\xc4}\x8b#8\xff\x00\x80\x8a\xfde\xf8\x7f\xa8D\xf7\r\x05\xc4\x91\x08ZF\x11L\x03\x12\xc88\\\x82=\x00\xae\xbe\xccA3\xc8\xf1Z\x05x\x99\x84n\xa0\x9c\x82\x07$\x1cU\x1f.\xee\x08\xbe\xcfy\xab\xc5p\x00s\x1e\xc1\xb4\x80;\x11\xf55\xc1|D\xb7\x94i\x93B"\xdf"\xaeK\x0eP\x16\xe0\x9c\xf5\xe9\x8e\xd5\xf2\xaf\xed\x11\xe1\xddGN\xd0\xcf\xf6e\xceR\x0e\x84\xc8@#$\xe3\x18\xeb\x92k\xe3\xbf\x88\x1a\x07\x8cu\xcb\xb9f\xbc\xd3\xe2\xfb4*e\x92RAd@z\x81\xd4\xd7*\xbf\rn5+\xd8e\xb1wx\xa4L\xa0\xdaP\xc9\x9e\x87\xff\x00\xd7\xe9].\x8d\xf0\x83\xc4:\x1b-\xdd\xfd\xee#\xb6\x8c\x99\xcd\xbc\xdfw\x1c\xe0\xf1\xc9\xc1\x1e\xf5\xe9_\n\xee&amp;\x8a\xf1\xcc~g\x96\xbbY\x9d\xd8\xe4\xc6q\x83\xf9\xe6\xbd\xf7\xc32B\xb3"\xdb])V_\x9dBgy\xc7\\\xff\x00\x9e\x95\xd9\xe9r\xbcP\xb2:\x08\xa4T\xc9\n\t/\xf4\xe2\xad\xcem\xaeV\xd6\xe6UF\x92\xdc\xf9\x91\xab9\x05\x18\xf1\xb8\x8e\xfd:T-x\xb3_\xc9\x1b\xea\x9ed\xec\xbb\xe4\xc6\x06O\xa8\xf4\x1f\x85eK\x15\x96\xa4\x0ba\xe5.pd,K(\xf4\xe4\x01\xff\x00\xeb\xac\x8dT\xc5o)\xb4\x8afC\x1a\x80\xaa\xaa2\xc3\'\xd0\xf5\xa8\xad \x8aK\xa9\xb5\x0b\x85q\x98\n\xaau\xe4\xfa\xfb\xff\x00\xf5\xab/Xp.\x85\xcc\x132\x18\xd4,\x84p\x06\x07o\x7f\xfe\xb5C\xa5\xce\xbfl-v\xc5\x16NP\xc6\xc0\xbc\x83\xdf\x9c~\xb5\x8b\xe3/\x11Z\xbd\xbd\xd5\xa6\x97\xba9#nL\xa0d\'\xf7G8\xcerz\xf7\xac\x1f\x87\xfaU\x8e\xa5\xa90,\xc8D\xc1\xe4\x99\xc0\'h\x19\xf5\xfc\xbbW\xb3\xfc;\xb0\x85m\x9a\xe2\x08\xe4rx\x8d\xf1\xb1\x94d\xf0A\xe3\xf9\xf5\xafR\xf0\xfc\x112\xc9g\x12\t\x1aDD\xcbFs\x19\xc9%\xb7\x0e\x95\xdax\x02{\x18\xf5Xd\x16\xcb"\x0b\x84H\xa5 \xc8\xf9V\x19\xe88\xe9\xc5~\x01|u\x96a\xfbB\xf8\xf2o&amp;h\xf3\xe3\x9dU\xbc\xa9\x80\xdd\xb5\xae\\\x8f\xa7^\x95\x9f\xa4\xca-\xd8&lt;Jcl}\xd23\x91ZR6\xe7VIA\x0c\xb9b{\x1fJG\x80\x97\x04ua\x80{\x0fqK\x0b\xdc\x08\xc6\xc5\x0e?\xbd\xb7$\xfdk\xa3\xb3\x8d\x9a\x17k\xaf\x98\x88\xf3\xb9:\x03\x93\xc74\xe5\x06M\xb1\xcb\x1b|\xa3\x04\x8e\x84R\xc2#\x89\xc9\xdb\xb8o8\x00r\x06(m\xae_\x17\x05\t;\xb0\xfc\x1a\x91C\x88Nfb\x18\x0c.8&lt;\xd47\x0c&amp;\x94I\x1c"&lt;7\xcc\n\xe7#\xd6\x94\x02$\xf3\xa5\x1f+1\nT`\x0c\x0e\xf4\x93}\x9aX\xf8u%\x86@|\xe4}=\xea?\xb3l\xc4r\x9d\x99L\x8c\x13\x93\xeeq\xc5?H\xf1\x1e\xb9\xe1}b\xc3\xc5\xbe\x15\xbd\x9a\x1dOL\xb9\x86\xe7L\x94pR\xe27,\x87\x1e\x9c0c\xd7\r\xc0=+\xf6\x7f\xf6L\xfd\xa2t\x1f\x8d\x7f\n&lt;=\xf1B\xcao:]V\x0f\xf4\xe8a\x93\xe5\x8a\xf0`K\x17\xb7\xcd\x92\xbe\xab\x82px\xaf\xa3\xbc\x13\xa8\xdb_\xdb\xbe\xa2\xf2mYC\x04F$\x92\xa0\xe3\xb7\xbej\x86\xb93M{\xe7Go\x0eDm\n,jO\xbe[ `\xf3\xda\xb1u\xad4j\xd2%\x94lR@r\xc8\xa80\xed\x809\xf6\xe2\xbc\xab\xe2?\xc2{}]\x9a\xd7R\xd2\x8d\xc3\x17;\xf6\xc4J\x03\xe8?\xfdU\xe1\x9e6\xfd\x9c\xadN\xb5 \xb5\xf0\xf9\n`d\x13y$\x08\xf3\x9e\x0f\x1c\xff\x00\xf5\xeb\x9d\xd2\xff\x00e\xdb\x1d\x10\xc9\xa8\xa7\x86o\xd8\xc8\xd9v\xb8\\\x9d\xd8\x03r\x8e\x81x\xe9\x9fZ\xb3s\xfb:\xde]\xdb\xc3is\xa3M\t\x91\xdc+$aW8\x1f\xbc8\'\'\xb6\x0f\xa5Z\xf0\xb7\xec\xd2\xd0\xddKyo\xa9\xf9\x87\x18b\xeaWv\x00\xe0\x8c`~\x15\xdah?\x0e\xcd\xb9\x8e\x1bi\x8a\xcd"|\xb1l\xe0\xb0\xf45\xd57\x835\xbbH-\xa0\xbc\xd3&amp;V\x93\xee\xb2z\xfb\xd5\t\xd6X\xb5Q\xa6\xc5b\x90\x94r\xb7&amp;U\xdcN\x07P}*\xa5\xdc\xb7\x11\x89&amp;\xb1\x16\x81\xd9BE"\xdb\xe4\x93\x93\xf2\x93\xd8\xf3\xd3\xde\xb3\xae5%e\x92\xc6\xe2\xce?\xb4\xc5\x80\xce\x93\x81\xb7&gt;\xa3\xa5dk"{B\x973\xc4\x9bc \x97P\xbb[=\xf8&amp;\xb25\x1f\x10\xc9m\x1c\xc2\xcc41\xcb \xf3\x99\x94\x18\xf1\xfd\xe0z\xe7\xf0\xedY\x9a\xe5\xc6\x9dc\xfe\x91$RJ\xa7\x02$G\xe2o|\x7f\x8e:VT&gt;!\x82\xca\xda\xe2\xfack\'\x96\xc7m\xb9;v\x0c\x0es\xdd\xba\xfb{\xd7\x9f\xf8\x87\xc5W\x1a\xfa\xdc\\5\xab\xcdl\xac\x01D\x00\x12I\xc0\x00\x83\x92\x7f\xfa\xd5\xdf|;\xd1-t\x85\xb5\x17\xb1\xac&gt;d@H\xa8\xbb\x9cw\x1e\xfd\xfd+\xd5\xfc&gt;\xbbv\xc1\xabn\x90\xb6\x0cp\xfd\xa1\x14\x91\x9e\x08\x05\x81\xfd+\xb7\xd2u\xa8R\xe7"+\xb4\x8a\x06V\x7f)\xc6?\xdc#&lt;\x9e\xff\x00\x8dzG\xc3[\xe8c\x9e&amp;\xb5]\x90\xef/&gt;\xc2cu\xeaA\x07\x06\xbf\x9f\xaf\x8e:\x8d\xce\xbb\xf1\xcb\xc6:\x95\xc4\xfb\xe4o\x15\xea?2\x8f\xbc\x05\xd4\xb8\'\xd4\xfb\xd6u\x91\x9c4E\n\x1d\xddw\x1e\xd5\xa5lb\xb8\xb7i\x15\n\xa8b\x7f\x1a#\xb8\xdc\xcb\xf3\x8d\xa3?Z\x8e\xe6\xf6\xf2\xcd\x96+\x04\x0c\x9br\xc4\x8e\xf9?\xfdj\xec\xa2V\xb9\x8c\xa0bT\xa60\xb8\xceA&lt;\xd0\xd67\x06a%\xb2\x02\xb8\xc1fl\x10~\x94\xc9`\xbc\x8e`C\xab9$g\x1c(\x1e\xb4B$\x90\x17\xb8M\xc8\xc3\x03`\xeai\xcd\x04\xb1\xc4\xb1\xc5\x08RI\xdawq\x8fzl\x8a\xed\xb4\xbb.J\xff\x00\x0f=\xe9\xac\x88\xf1\xb4N\xbe\x85_=\rE,\x8b\x91\x04\xf2\x13\x86\xcc@G\xdb\xf0\xa6&lt;2;\xc9$I"\xa8P\x0c\x8c\xf8]\xd9\xe7\xdf\xa6)J\xf9l\xceX\x82\xab\x80\xd9\xce1\xc8#\xeb\x93\x9a\xfa\xdb\xfe\t\r\xf17\xc5\x9aw\x8f|K\xf0\x93O\x95_G}7\xfbj+(\xf2^\x19\xa2;K&amp;F9\x07\x9e{\n\xfd/\xf8O\xe3\x7f\xb7#\xd8\xa5\xe1H !\xf2\x8c~\\\xe0\x01\xd3\xd8~9\xafJ\x92\x08!e\xd4n\x83\x99\xccE\x85\xbe&gt;b\x079\xe7\x03\xbf\xadA\xb1\xef\x04\x93Gc\xb1\x95Cn\xe06O\xf0\xf5\xeb\xfe5\x9f5\x9d\x8d\xea\xcf\xf6\xf8\xd9#\x85\x01\xf3\xc4\xc4\x11/\xf7H\x00\xf6\xc1\xfck\x98\xd4\xcc2~\xe2\xee\tU\x15\x81\nP7\x9c\xdd\xb0N\x0e+\'W\xd3\xefo$\x92\xe4\x16GfU\x9a\x03\xfe\xa9\x07\xff\x00\xaa\xa5\xd64\x1b\x19 \x8a\xc2k\xa0\xaa\xc7\xf7p$XF8\x19m\xc3\x9fo\xc2\xb05\x7f\x0cIo\x12\xc5og\x1a\xa8$nBy\xfa`V\x8f\x84|\x044\xb8\xa3\x91\xe1\xf3\t\xcb\x9f\x94\x92\x99\xf4\xc8\xab\x9a\xc2\xddEo\xe4\xc3\x03L \x1b\x83y\x84\x1d\xd9\xee?*\xf3\xaf\x10\xc2\x82\xe6v\xbb\x8c\xa3\xc8\xc0\xb3\x8c\xb1\'\xbe8\xe9\x8cW1\xac\xdfi\x1aCK$v\xae\xd0&amp;\xd2&amp;g!C\x93\xd7\x07\x8f\xd7&gt;\xd5\x85\xaf_\xd9Mv\xd2%\xc4e\xb0L\xfb-=\xb27\x13\x8e&gt;\x99\xaek\xfbwO\x8bK\x92{\x93\x1c\xcb!\xfd\xe4d\x15\xf2\xc0&gt;\x95\xcb\xea\xfe?\xd3."-m \xb6\xb5IJ\xe2A\xf21\x00rO_\xd2\xb8y&gt;"C|\'\x96MeTCs\xe5\xfd\xa5\x8ec\xc1\x03\xe4\x00s\xb7\xbeq\xd4\x9a\x86\xeb[\xba\xf1=\x92\xe9^\x1e}\xf0\x0c\x84o+\x0c\xf8?6\xdc\xe0\x90:\xe4\xe3\xadt_\x0f\xfc\x0f\x8c\xdcGr\xbc(h\xe5R\xbb\\\x83\xe9\x9f\xd6\xbd;A\xd1\xada\xd4\x92\xf2\xf9\x02\xca\xc8$r\xad\xb7=\xb8`=\xbab\xbb\x8d\x0e\xd2K\x8b\xf2\xb1\xdf\xb8I\x13j\xa8\t\x84\xef\xb8\xe5I=z\xe7\xb7J\xe8\xbc+\xa5\xd8&gt;\xfb\x06\x08\x8e[sK\xe7l\x0e?\xbcG&lt;\x9cc\xf0\xafN\xf0j\xb0Qo\x1cR@d\xf9]\xa4\x1cyx\xc0\xf7\xces\xed\xd3\x9a\xfe}\xbe+\xc3\xf6o\x8d^1\xb5\x8aPD&gt;*\xd4c\x0e\xc3\x03\xfe&gt;\xa4?\xd6\xa8\xd8\xc8\x8c\x853\xb5\x80\xe0\xb1\x00{\xd5\xcbv*\x1c$\x9f#6\x06\x0f\x1d\x05J\x8cvaX S\x86`8\xfa\xd3\x18\xa3\xb13\xce\xf9\xfe\x12\xab\xc1\x1e\xa2\xbd\x12(\xa2h$\xd9\x1a\xa6$\xc6Pc\xb0\xa7\xa5\xac\x0fd\'1\xfc\xc2\\g&gt;\xc2\xa2\xbf\x8dp\x1b\x1c\x82?\x1fjlpFg\x95@\xc0\x0f\xc0\x1d\x07\x02\xa1\'\x13\xa0 0\xdc~\xf0\xcfj\xbbo\xa7\xda^Y\x89d\x88\x022&gt;C\x81\xfey\xaa\x976pE\'\x92\x8aq\x8c\xf2s\xcd$0\xa3\x97\xe4\x8d\xab\xc6\r2;8e\x8d\xfc\xe0_\xe5\x07\xe6osPH\xc5%\x96\x15?/\xa6+\xe9\xbf\xf8$"\x81\xfbb\xc3bI1^xV\xfe9\xd78\xdc\xbf/\xa5~\x82x"\x01\xe1\x9f\x8ci\xa0\xe9\xb2\xc9\xf6Q+\x0f.G\'#\xb0?J\xf7\xdb-F\xfa\xfav\xb6\xbc\xb9iR+2\xca\x1f\xd7q\x1dh\xd7.\xa6\x8bX\x968\xdb\n#\x04\x0ct;Ebj\xda\x95\xccV6\xf3\xc3\xb5\x1eb|\xd6Q\x8d\xc7\xd4\xfb\xd6\x05\xd6\xa5v\xcf\xbeW\xdeV2\xca_\x9c\x1ezR\xf8g\xc4Z\x85\xc4\xb6\xd0L"e\xbbf\x13\xee\x8c\x1c\xe3\xbdW\xd6\xef\xafm\xf5\xb1i\x1d\xd3yH\x87j\x100:\xfbU_\x04\xe9\xf1_\xdf\xb4\xd7sJ\xf8rB\x97\xe3?J\xdb\xd5\x8c\xb6w;-n$@\xc9\xb8\x85~\xfc\xff\x00\x85q^1\x92IH\xb8i\\&gt;\xd2\xa5\x96B8\x1c\xfa\xfb\xd7\x9aj\xf7W\xdad0\xea\x96\x9a\x84\xc2f\x9c\xab\x16|\x8c\x1e;\xd7+\xf1\n\xfe\xebN\xd3d\x11J]\x1e`\xad\x1c\xa7r\x9c|\xd9\xc7\xaeMc\t\xee5\x99\x1f\xfbB\xe6G[\x98\xd7\xccM\xd8\x03\x1d\x00\xf4\xac?\x11^\xcba\xf6\x8bH\x15v2\xec\xc3.p\xb5\xe3\x1f\x14u\xedF\xca8\xac-\xddD\'\x82\x9bx&lt;\x9ek\x8a\xd3\xaf\xa7\xb8\xbfd;T,\xb1\x81\xb0c&lt;\x9e\xb5\xea&gt;\x1b#L\xb1\x8akt\x0c\xef\t!\xe4\xe4\xa6X\x82\x07\xa0\xe2\xbb\xef\x05\xc5\x04\x11\xc1\xa6\xc5n\x82&amp;\xe7\x1by\x19\xf45\xe8v6PZH\x91\xc6\tR\xab\x95s\x91\xd4\xd7W\xa1\xda\xdb\xc7-\xc4\x89\x10\x05\x18\x11\x8f\xa0\xe2\xba-.\xca\xca\xfe\xfd\xec.mP\xc7"\x82p0F9\xe0\xd7\xa7\xf8:\xd9r\x86I\x1eM\xb1\xc5\xb7\xccl\xed\x1b\x98`{q_\x80\x7f\xb44q\xb7\xed\x03\xe3[`\x81Px\xabP (\xc7?hz\xe6\xad\x98yGtH\xc5\\\x80Yy\xc5_\x88\x86S\x08E\x0b\xb7v\x14c\x9f\xf2)\xc4l\xf2\xb1\xd0\xf5\x07\xa1\xa4\x86\x1f9\xe5s+\xaf\xefH\n\xa7\x00p+\xff\xd9'</t>
         </is>
       </c>
     </row>
